--- a/src/data/resum_periode_meteocat.xlsx
+++ b/src/data/resum_periode_meteocat.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Dades_Període" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Estudi_Capçaleres" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Dades_Període" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Estudi_Capçaleres" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -18,16 +18,13 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="2">
+  <fonts count="1">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -38,7 +35,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -46,21 +43,12 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -435,267 +423,267 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
+      <c r="A1" t="inlineStr">
         <is>
           <t>ID_ESTAC</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="B1" t="inlineStr">
         <is>
           <t>NOM_ESTACIO</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="C1" t="inlineStr">
         <is>
           <t>NOM_ORIGINAL</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="D1" t="inlineStr">
         <is>
           <t>DATA_UTC</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="E1" t="inlineStr">
         <is>
           <t>PERIODE_UTC</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="F1" t="inlineStr">
         <is>
           <t>ES_AHIR</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="G1" t="inlineStr">
         <is>
           <t>ESTAT</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="H1" t="inlineStr">
         <is>
           <t>DATA_EXTRACCIO</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="I1" t="inlineStr">
         <is>
           <t>HORA_CONSULTA_UTC</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="J1" t="inlineStr">
         <is>
           <t>URL_FONT</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="K1" t="inlineStr">
         <is>
           <t>CAPÇALERES_TROBADES</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="L1" t="inlineStr">
         <is>
           <t>CAPÇALERES_LLISTAT</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="M1" t="inlineStr">
         <is>
           <t>VAR_DVM_10_m_graus</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="N1" t="inlineStr">
         <is>
           <t>VAR_DVM_2_m_graus</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="O1" t="inlineStr">
         <is>
           <t>VAR_DVM_6_m_graus</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="P1" t="inlineStr">
         <is>
           <t>VAR_GN_cm</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="Q1" t="inlineStr">
         <is>
           <t>VAR_HRM_perc</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="R1" t="inlineStr">
         <is>
           <t>VAR_PM_hPa</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="S1" t="inlineStr">
         <is>
           <t>VAR_PPT_mm</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="T1" t="inlineStr">
         <is>
           <t>VAR_Període_TU</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="U1" t="inlineStr">
         <is>
           <t>VAR_RS_W_m_2</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="V1" t="inlineStr">
         <is>
           <t>VAR_TM_grausC</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="W1" t="inlineStr">
         <is>
           <t>VAR_TN_grausC</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="X1" t="inlineStr">
         <is>
           <t>VAR_TX_grausC</t>
         </is>
       </c>
-      <c r="Y1" s="1" t="inlineStr">
+      <c r="Y1" t="inlineStr">
         <is>
           <t>VAR_VVM_10_m_km_h</t>
         </is>
       </c>
-      <c r="Z1" s="1" t="inlineStr">
+      <c r="Z1" t="inlineStr">
         <is>
           <t>VAR_VVM_2_m_km_h</t>
         </is>
       </c>
-      <c r="AA1" s="1" t="inlineStr">
+      <c r="AA1" t="inlineStr">
         <is>
           <t>VAR_VVM_6_m_km_h</t>
         </is>
       </c>
-      <c r="AB1" s="1" t="inlineStr">
+      <c r="AB1" t="inlineStr">
         <is>
           <t>VAR_VVX_10_m_km_h</t>
         </is>
       </c>
-      <c r="AC1" s="1" t="inlineStr">
+      <c r="AC1" t="inlineStr">
         <is>
           <t>VAR_VVX_2_m_km_h</t>
         </is>
       </c>
-      <c r="AD1" s="1" t="inlineStr">
+      <c r="AD1" t="inlineStr">
         <is>
           <t>VAR_VVX_6_m_km_h</t>
         </is>
       </c>
-      <c r="AE1" s="1" t="inlineStr">
+      <c r="AE1" t="inlineStr">
         <is>
           <t>PERIODE</t>
         </is>
       </c>
-      <c r="AF1" s="1" t="inlineStr">
+      <c r="AF1" t="inlineStr">
         <is>
           <t>TM</t>
         </is>
       </c>
-      <c r="AG1" s="1" t="inlineStr">
+      <c r="AG1" t="inlineStr">
         <is>
           <t>TX</t>
         </is>
       </c>
-      <c r="AH1" s="1" t="inlineStr">
+      <c r="AH1" t="inlineStr">
         <is>
           <t>TN</t>
         </is>
       </c>
-      <c r="AI1" s="1" t="inlineStr">
+      <c r="AI1" t="inlineStr">
         <is>
           <t>HR</t>
         </is>
       </c>
-      <c r="AJ1" s="1" t="inlineStr">
+      <c r="AJ1" t="inlineStr">
         <is>
           <t>PPT</t>
         </is>
       </c>
-      <c r="AK1" s="1" t="inlineStr">
+      <c r="AK1" t="inlineStr">
         <is>
           <t>VVM</t>
         </is>
       </c>
-      <c r="AL1" s="1" t="inlineStr">
+      <c r="AL1" t="inlineStr">
         <is>
           <t>DVM</t>
         </is>
       </c>
-      <c r="AM1" s="1" t="inlineStr">
+      <c r="AM1" t="inlineStr">
         <is>
           <t>Col_00</t>
         </is>
       </c>
-      <c r="AN1" s="1" t="inlineStr">
+      <c r="AN1" t="inlineStr">
         <is>
           <t>Col_01</t>
         </is>
       </c>
-      <c r="AO1" s="1" t="inlineStr">
+      <c r="AO1" t="inlineStr">
         <is>
           <t>Col_02</t>
         </is>
       </c>
-      <c r="AP1" s="1" t="inlineStr">
+      <c r="AP1" t="inlineStr">
         <is>
           <t>Col_03</t>
         </is>
       </c>
-      <c r="AQ1" s="1" t="inlineStr">
+      <c r="AQ1" t="inlineStr">
         <is>
           <t>Col_04</t>
         </is>
       </c>
-      <c r="AR1" s="1" t="inlineStr">
+      <c r="AR1" t="inlineStr">
         <is>
           <t>Col_05</t>
         </is>
       </c>
-      <c r="AS1" s="1" t="inlineStr">
+      <c r="AS1" t="inlineStr">
         <is>
           <t>Col_06</t>
         </is>
       </c>
-      <c r="AT1" s="1" t="inlineStr">
+      <c r="AT1" t="inlineStr">
         <is>
           <t>Col_07</t>
         </is>
       </c>
-      <c r="AU1" s="1" t="inlineStr">
+      <c r="AU1" t="inlineStr">
         <is>
           <t>VVX</t>
         </is>
       </c>
-      <c r="AV1" s="1" t="inlineStr">
+      <c r="AV1" t="inlineStr">
         <is>
           <t>PM</t>
         </is>
       </c>
-      <c r="AW1" s="1" t="inlineStr">
+      <c r="AW1" t="inlineStr">
         <is>
           <t>RS</t>
         </is>
       </c>
-      <c r="AX1" s="1" t="inlineStr">
+      <c r="AX1" t="inlineStr">
         <is>
           <t>Col_08</t>
         </is>
       </c>
-      <c r="AY1" s="1" t="inlineStr">
+      <c r="AY1" t="inlineStr">
         <is>
           <t>Col_09</t>
         </is>
       </c>
-      <c r="AZ1" s="1" t="inlineStr">
+      <c r="AZ1" t="inlineStr">
         <is>
           <t>Col_10</t>
         </is>
       </c>
-      <c r="BA1" s="1" t="inlineStr">
+      <c r="BA1" t="inlineStr">
         <is>
           <t>Col_11</t>
         </is>
@@ -724,7 +712,7 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>09:30 - 10:00</t>
+          <t>15:30 - 16:00</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -739,17 +727,17 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>2026-02-04 11:28:49</t>
+          <t>2026-02-04 16:15:39</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>09:30</t>
+          <t>15:30</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>https://www.meteo.cat/observacions/xema/dades?codi=YT&amp;dia=2026-02-04T09:30Z</t>
+          <t>https://www.meteo.cat/observacions/xema/dades?codi=YT&amp;dia=2026-02-04T15:30Z</t>
         </is>
       </c>
       <c r="K2" t="n">
@@ -765,12 +753,12 @@
       <c r="O2" t="inlineStr"/>
       <c r="P2" t="inlineStr">
         <is>
-          <t>110</t>
+          <t>106</t>
         </is>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>78</t>
+          <t>84</t>
         </is>
       </c>
       <c r="R2" t="inlineStr"/>
@@ -781,27 +769,27 @@
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>09:30 - 10:00</t>
+          <t>15:30 - 16:00</t>
         </is>
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>152</t>
+          <t>44</t>
         </is>
       </c>
       <c r="V2" t="inlineStr">
         <is>
-          <t>-0.9</t>
+          <t>0.4</t>
         </is>
       </c>
       <c r="W2" t="inlineStr">
         <is>
-          <t>-1.0</t>
+          <t>-0.2</t>
         </is>
       </c>
       <c r="X2" t="inlineStr">
         <is>
-          <t>-0.7</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="Y2" t="inlineStr"/>
@@ -812,27 +800,27 @@
       <c r="AD2" t="inlineStr"/>
       <c r="AE2" t="inlineStr">
         <is>
-          <t>09:30 - 10:00</t>
+          <t>15:30 - 16:00</t>
         </is>
       </c>
       <c r="AF2" t="inlineStr">
         <is>
-          <t>-0.9</t>
+          <t>0.4</t>
         </is>
       </c>
       <c r="AG2" t="inlineStr">
         <is>
-          <t>-0.7</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="AH2" t="inlineStr">
         <is>
-          <t>-1.0</t>
+          <t>-0.2</t>
         </is>
       </c>
       <c r="AI2" t="inlineStr">
         <is>
-          <t>78</t>
+          <t>84</t>
         </is>
       </c>
       <c r="AJ2" t="inlineStr">
@@ -842,37 +830,37 @@
       </c>
       <c r="AK2" t="inlineStr">
         <is>
-          <t>110</t>
+          <t>106</t>
         </is>
       </c>
       <c r="AL2" t="inlineStr">
         <is>
-          <t>152</t>
+          <t>44</t>
         </is>
       </c>
       <c r="AM2" t="inlineStr">
         <is>
-          <t>09:30 - 10:00</t>
+          <t>15:30 - 16:00</t>
         </is>
       </c>
       <c r="AN2" t="inlineStr">
         <is>
-          <t>-0.9</t>
+          <t>0.4</t>
         </is>
       </c>
       <c r="AO2" t="inlineStr">
         <is>
-          <t>-0.7</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="AP2" t="inlineStr">
         <is>
-          <t>-1.0</t>
+          <t>-0.2</t>
         </is>
       </c>
       <c r="AQ2" t="inlineStr">
         <is>
-          <t>78</t>
+          <t>84</t>
         </is>
       </c>
       <c r="AR2" t="inlineStr">
@@ -882,12 +870,12 @@
       </c>
       <c r="AS2" t="inlineStr">
         <is>
-          <t>110</t>
+          <t>106</t>
         </is>
       </c>
       <c r="AT2" t="inlineStr">
         <is>
-          <t>152</t>
+          <t>44</t>
         </is>
       </c>
       <c r="AU2" t="inlineStr"/>
@@ -936,7 +924,7 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>2026-02-04 11:28:50</t>
+          <t>2026-02-04 16:15:41</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
@@ -1133,7 +1121,7 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>2026-02-04 11:28:50</t>
+          <t>2026-02-04 16:15:41</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
@@ -1330,7 +1318,7 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>2026-02-04 11:28:50</t>
+          <t>2026-02-04 16:15:41</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
@@ -1527,7 +1515,7 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>2026-02-04 11:28:50</t>
+          <t>2026-02-04 16:15:41</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
@@ -1709,7 +1697,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>09:30 - 10:00</t>
+          <t>15:30 - 16:00</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -1724,17 +1712,17 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>2026-02-04 11:28:53</t>
+          <t>2026-02-04 16:15:44</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>09:30</t>
+          <t>15:30</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>https://www.meteo.cat/observacions/xema/dades?codi=Z1&amp;dia=2026-02-04T09:30Z</t>
+          <t>https://www.meteo.cat/observacions/xema/dades?codi=Z1&amp;dia=2026-02-04T15:30Z</t>
         </is>
       </c>
       <c r="K7" t="n">
@@ -1749,17 +1737,17 @@
       <c r="N7" t="inlineStr"/>
       <c r="O7" t="inlineStr">
         <is>
-          <t>101</t>
+          <t>267</t>
         </is>
       </c>
       <c r="P7" t="inlineStr">
         <is>
-          <t>182</t>
+          <t>180</t>
         </is>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>94</t>
+          <t>75</t>
         </is>
       </c>
       <c r="R7" t="inlineStr"/>
@@ -1770,66 +1758,66 @@
       </c>
       <c r="T7" t="inlineStr">
         <is>
-          <t>09:30 - 10:00</t>
+          <t>15:30 - 16:00</t>
         </is>
       </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>185</t>
+          <t>269</t>
         </is>
       </c>
       <c r="V7" t="inlineStr">
         <is>
-          <t>-5.8</t>
+          <t>-1.6</t>
         </is>
       </c>
       <c r="W7" t="inlineStr">
         <is>
-          <t>-5.8</t>
+          <t>-1.9</t>
         </is>
       </c>
       <c r="X7" t="inlineStr">
         <is>
-          <t>-5.6</t>
+          <t>-1.4</t>
         </is>
       </c>
       <c r="Y7" t="inlineStr"/>
       <c r="Z7" t="inlineStr"/>
       <c r="AA7" t="inlineStr">
         <is>
-          <t>11.2</t>
+          <t>10.1</t>
         </is>
       </c>
       <c r="AB7" t="inlineStr"/>
       <c r="AC7" t="inlineStr"/>
       <c r="AD7" t="inlineStr">
         <is>
-          <t>21.6</t>
+          <t>17.6</t>
         </is>
       </c>
       <c r="AE7" t="inlineStr">
         <is>
-          <t>09:30 - 10:00</t>
+          <t>15:30 - 16:00</t>
         </is>
       </c>
       <c r="AF7" t="inlineStr">
         <is>
-          <t>-5.8</t>
+          <t>-1.6</t>
         </is>
       </c>
       <c r="AG7" t="inlineStr">
         <is>
-          <t>-5.6</t>
+          <t>-1.4</t>
         </is>
       </c>
       <c r="AH7" t="inlineStr">
         <is>
-          <t>-5.8</t>
+          <t>-1.9</t>
         </is>
       </c>
       <c r="AI7" t="inlineStr">
         <is>
-          <t>94</t>
+          <t>75</t>
         </is>
       </c>
       <c r="AJ7" t="inlineStr">
@@ -1839,37 +1827,37 @@
       </c>
       <c r="AK7" t="inlineStr">
         <is>
-          <t>182</t>
+          <t>180</t>
         </is>
       </c>
       <c r="AL7" t="inlineStr">
         <is>
-          <t>11.2</t>
+          <t>10.1</t>
         </is>
       </c>
       <c r="AM7" t="inlineStr">
         <is>
-          <t>09:30 - 10:00</t>
+          <t>15:30 - 16:00</t>
         </is>
       </c>
       <c r="AN7" t="inlineStr">
         <is>
-          <t>-5.8</t>
+          <t>-1.6</t>
         </is>
       </c>
       <c r="AO7" t="inlineStr">
         <is>
-          <t>-5.6</t>
+          <t>-1.4</t>
         </is>
       </c>
       <c r="AP7" t="inlineStr">
         <is>
-          <t>-5.8</t>
+          <t>-1.9</t>
         </is>
       </c>
       <c r="AQ7" t="inlineStr">
         <is>
-          <t>94</t>
+          <t>75</t>
         </is>
       </c>
       <c r="AR7" t="inlineStr">
@@ -1879,42 +1867,42 @@
       </c>
       <c r="AS7" t="inlineStr">
         <is>
-          <t>182</t>
+          <t>180</t>
         </is>
       </c>
       <c r="AT7" t="inlineStr">
         <is>
-          <t>11.2</t>
+          <t>10.1</t>
         </is>
       </c>
       <c r="AU7" t="inlineStr">
         <is>
-          <t>101</t>
+          <t>267</t>
         </is>
       </c>
       <c r="AV7" t="inlineStr">
         <is>
-          <t>21.6</t>
+          <t>17.6</t>
         </is>
       </c>
       <c r="AW7" t="inlineStr">
         <is>
-          <t>185</t>
+          <t>269</t>
         </is>
       </c>
       <c r="AX7" t="inlineStr">
         <is>
-          <t>101</t>
+          <t>267</t>
         </is>
       </c>
       <c r="AY7" t="inlineStr">
         <is>
-          <t>21.6</t>
+          <t>17.6</t>
         </is>
       </c>
       <c r="AZ7" t="inlineStr">
         <is>
-          <t>185</t>
+          <t>269</t>
         </is>
       </c>
       <c r="BA7" t="inlineStr"/>
@@ -1957,7 +1945,7 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>2026-02-04 11:28:55</t>
+          <t>2026-02-04 16:15:45</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
@@ -1998,7 +1986,7 @@
       <c r="R8" t="inlineStr"/>
       <c r="S8" t="inlineStr">
         <is>
-          <t>0.1</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="T8" t="inlineStr">
@@ -2067,7 +2055,7 @@
       </c>
       <c r="AJ8" t="inlineStr">
         <is>
-          <t>0.1</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="AK8" t="inlineStr">
@@ -2107,7 +2095,7 @@
       </c>
       <c r="AR8" t="inlineStr">
         <is>
-          <t>0.1</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="AS8" t="inlineStr">
@@ -2190,7 +2178,7 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>2026-02-04 11:28:55</t>
+          <t>2026-02-04 16:15:45</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
@@ -2231,7 +2219,7 @@
       <c r="R9" t="inlineStr"/>
       <c r="S9" t="inlineStr">
         <is>
-          <t>0.1</t>
+          <t>0.3</t>
         </is>
       </c>
       <c r="T9" t="inlineStr">
@@ -2300,7 +2288,7 @@
       </c>
       <c r="AJ9" t="inlineStr">
         <is>
-          <t>0.1</t>
+          <t>0.3</t>
         </is>
       </c>
       <c r="AK9" t="inlineStr">
@@ -2340,7 +2328,7 @@
       </c>
       <c r="AR9" t="inlineStr">
         <is>
-          <t>0.1</t>
+          <t>0.3</t>
         </is>
       </c>
       <c r="AS9" t="inlineStr">
@@ -2423,7 +2411,7 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>2026-02-04 11:28:55</t>
+          <t>2026-02-04 16:15:45</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
@@ -2656,7 +2644,7 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>2026-02-04 11:28:55</t>
+          <t>2026-02-04 16:15:45</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
@@ -2874,7 +2862,7 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>09:30 - 10:00</t>
+          <t>15:30 - 16:00</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
@@ -2889,17 +2877,17 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>2026-02-04 11:28:57</t>
+          <t>2026-02-04 16:15:48</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>09:30</t>
+          <t>15:30</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>https://www.meteo.cat/observacions/xema/dades?codi=DN&amp;dia=2026-02-04T09:30Z</t>
+          <t>https://www.meteo.cat/observacions/xema/dades?codi=DN&amp;dia=2026-02-04T15:30Z</t>
         </is>
       </c>
       <c r="K12" t="n">
@@ -2912,7 +2900,7 @@
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>66</t>
+          <t>294</t>
         </is>
       </c>
       <c r="N12" t="inlineStr"/>
@@ -2920,12 +2908,12 @@
       <c r="P12" t="inlineStr"/>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>85</t>
+          <t>55</t>
         </is>
       </c>
       <c r="R12" t="inlineStr">
         <is>
-          <t>992.3</t>
+          <t>989.9</t>
         </is>
       </c>
       <c r="S12" t="inlineStr">
@@ -2935,66 +2923,66 @@
       </c>
       <c r="T12" t="inlineStr">
         <is>
-          <t>09:30 - 10:00</t>
+          <t>15:30 - 16:00</t>
         </is>
       </c>
       <c r="U12" t="inlineStr">
         <is>
-          <t>167</t>
+          <t>191</t>
         </is>
       </c>
       <c r="V12" t="inlineStr">
         <is>
-          <t>7.1</t>
+          <t>12.6</t>
         </is>
       </c>
       <c r="W12" t="inlineStr">
         <is>
-          <t>6.9</t>
+          <t>12.3</t>
         </is>
       </c>
       <c r="X12" t="inlineStr">
         <is>
-          <t>7.7</t>
+          <t>12.9</t>
         </is>
       </c>
       <c r="Y12" t="inlineStr">
         <is>
-          <t>1.8</t>
+          <t>16.2</t>
         </is>
       </c>
       <c r="Z12" t="inlineStr"/>
       <c r="AA12" t="inlineStr"/>
       <c r="AB12" t="inlineStr">
         <is>
-          <t>5.4</t>
+          <t>30.2</t>
         </is>
       </c>
       <c r="AC12" t="inlineStr"/>
       <c r="AD12" t="inlineStr"/>
       <c r="AE12" t="inlineStr">
         <is>
-          <t>09:30 - 10:00</t>
+          <t>15:30 - 16:00</t>
         </is>
       </c>
       <c r="AF12" t="inlineStr">
         <is>
-          <t>7.1</t>
+          <t>12.6</t>
         </is>
       </c>
       <c r="AG12" t="inlineStr">
         <is>
-          <t>7.7</t>
+          <t>12.9</t>
         </is>
       </c>
       <c r="AH12" t="inlineStr">
         <is>
-          <t>6.9</t>
+          <t>12.3</t>
         </is>
       </c>
       <c r="AI12" t="inlineStr">
         <is>
-          <t>85</t>
+          <t>55</t>
         </is>
       </c>
       <c r="AJ12" t="inlineStr">
@@ -3004,37 +2992,37 @@
       </c>
       <c r="AK12" t="inlineStr">
         <is>
-          <t>1.8</t>
+          <t>16.2</t>
         </is>
       </c>
       <c r="AL12" t="inlineStr">
         <is>
-          <t>66</t>
+          <t>294</t>
         </is>
       </c>
       <c r="AM12" t="inlineStr">
         <is>
-          <t>09:30 - 10:00</t>
+          <t>15:30 - 16:00</t>
         </is>
       </c>
       <c r="AN12" t="inlineStr">
         <is>
-          <t>7.1</t>
+          <t>12.6</t>
         </is>
       </c>
       <c r="AO12" t="inlineStr">
         <is>
-          <t>7.7</t>
+          <t>12.9</t>
         </is>
       </c>
       <c r="AP12" t="inlineStr">
         <is>
-          <t>6.9</t>
+          <t>12.3</t>
         </is>
       </c>
       <c r="AQ12" t="inlineStr">
         <is>
-          <t>85</t>
+          <t>55</t>
         </is>
       </c>
       <c r="AR12" t="inlineStr">
@@ -3044,42 +3032,42 @@
       </c>
       <c r="AS12" t="inlineStr">
         <is>
-          <t>1.8</t>
+          <t>16.2</t>
         </is>
       </c>
       <c r="AT12" t="inlineStr">
         <is>
-          <t>66</t>
+          <t>294</t>
         </is>
       </c>
       <c r="AU12" t="inlineStr">
         <is>
-          <t>5.4</t>
+          <t>30.2</t>
         </is>
       </c>
       <c r="AV12" t="inlineStr">
         <is>
-          <t>992.3</t>
+          <t>989.9</t>
         </is>
       </c>
       <c r="AW12" t="inlineStr">
         <is>
-          <t>167</t>
+          <t>191</t>
         </is>
       </c>
       <c r="AX12" t="inlineStr">
         <is>
-          <t>5.4</t>
+          <t>30.2</t>
         </is>
       </c>
       <c r="AY12" t="inlineStr">
         <is>
-          <t>992.3</t>
+          <t>989.9</t>
         </is>
       </c>
       <c r="AZ12" t="inlineStr">
         <is>
-          <t>167</t>
+          <t>191</t>
         </is>
       </c>
       <c r="BA12" t="inlineStr"/>
@@ -3122,7 +3110,7 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>2026-02-04 11:28:59</t>
+          <t>2026-02-04 16:15:50</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
@@ -3355,7 +3343,7 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>2026-02-04 11:28:59</t>
+          <t>2026-02-04 16:15:50</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
@@ -3588,7 +3576,7 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>2026-02-04 11:28:59</t>
+          <t>2026-02-04 16:15:50</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
@@ -3821,7 +3809,7 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>2026-02-04 11:28:59</t>
+          <t>2026-02-04 16:15:50</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
@@ -4039,7 +4027,7 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>09:30 - 10:00</t>
+          <t>15:30 - 16:00</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
@@ -4054,17 +4042,17 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>2026-02-04 11:29:02</t>
+          <t>2026-02-04 16:15:53</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>09:30</t>
+          <t>15:30</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>https://www.meteo.cat/observacions/xema/dades?codi=DJ&amp;dia=2026-02-04T09:30Z</t>
+          <t>https://www.meteo.cat/observacions/xema/dades?codi=DJ&amp;dia=2026-02-04T15:30Z</t>
         </is>
       </c>
       <c r="K17" t="n">
@@ -4077,7 +4065,7 @@
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>237</t>
+          <t>198</t>
         </is>
       </c>
       <c r="N17" t="inlineStr"/>
@@ -4085,12 +4073,12 @@
       <c r="P17" t="inlineStr"/>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>77</t>
+          <t>51</t>
         </is>
       </c>
       <c r="R17" t="inlineStr">
         <is>
-          <t>992.0</t>
+          <t>989.4</t>
         </is>
       </c>
       <c r="S17" t="inlineStr">
@@ -4100,66 +4088,66 @@
       </c>
       <c r="T17" t="inlineStr">
         <is>
-          <t>09:30 - 10:00</t>
+          <t>15:30 - 16:00</t>
         </is>
       </c>
       <c r="U17" t="inlineStr">
         <is>
-          <t>145</t>
+          <t>207</t>
         </is>
       </c>
       <c r="V17" t="inlineStr">
         <is>
-          <t>7.6</t>
+          <t>14.1</t>
         </is>
       </c>
       <c r="W17" t="inlineStr">
         <is>
-          <t>7.5</t>
+          <t>13.9</t>
         </is>
       </c>
       <c r="X17" t="inlineStr">
         <is>
-          <t>7.9</t>
+          <t>14.3</t>
         </is>
       </c>
       <c r="Y17" t="inlineStr">
         <is>
-          <t>2.2</t>
+          <t>8.3</t>
         </is>
       </c>
       <c r="Z17" t="inlineStr"/>
       <c r="AA17" t="inlineStr"/>
       <c r="AB17" t="inlineStr">
         <is>
-          <t>6.1</t>
+          <t>13.7</t>
         </is>
       </c>
       <c r="AC17" t="inlineStr"/>
       <c r="AD17" t="inlineStr"/>
       <c r="AE17" t="inlineStr">
         <is>
-          <t>09:30 - 10:00</t>
+          <t>15:30 - 16:00</t>
         </is>
       </c>
       <c r="AF17" t="inlineStr">
         <is>
-          <t>7.6</t>
+          <t>14.1</t>
         </is>
       </c>
       <c r="AG17" t="inlineStr">
         <is>
-          <t>7.9</t>
+          <t>14.3</t>
         </is>
       </c>
       <c r="AH17" t="inlineStr">
         <is>
-          <t>7.5</t>
+          <t>13.9</t>
         </is>
       </c>
       <c r="AI17" t="inlineStr">
         <is>
-          <t>77</t>
+          <t>51</t>
         </is>
       </c>
       <c r="AJ17" t="inlineStr">
@@ -4169,37 +4157,37 @@
       </c>
       <c r="AK17" t="inlineStr">
         <is>
-          <t>2.2</t>
+          <t>8.3</t>
         </is>
       </c>
       <c r="AL17" t="inlineStr">
         <is>
-          <t>237</t>
+          <t>198</t>
         </is>
       </c>
       <c r="AM17" t="inlineStr">
         <is>
-          <t>09:30 - 10:00</t>
+          <t>15:30 - 16:00</t>
         </is>
       </c>
       <c r="AN17" t="inlineStr">
         <is>
-          <t>7.6</t>
+          <t>14.1</t>
         </is>
       </c>
       <c r="AO17" t="inlineStr">
         <is>
-          <t>7.9</t>
+          <t>14.3</t>
         </is>
       </c>
       <c r="AP17" t="inlineStr">
         <is>
-          <t>7.5</t>
+          <t>13.9</t>
         </is>
       </c>
       <c r="AQ17" t="inlineStr">
         <is>
-          <t>77</t>
+          <t>51</t>
         </is>
       </c>
       <c r="AR17" t="inlineStr">
@@ -4209,42 +4197,42 @@
       </c>
       <c r="AS17" t="inlineStr">
         <is>
-          <t>2.2</t>
+          <t>8.3</t>
         </is>
       </c>
       <c r="AT17" t="inlineStr">
         <is>
-          <t>237</t>
+          <t>198</t>
         </is>
       </c>
       <c r="AU17" t="inlineStr">
         <is>
-          <t>6.1</t>
+          <t>13.7</t>
         </is>
       </c>
       <c r="AV17" t="inlineStr">
         <is>
-          <t>992.0</t>
+          <t>989.4</t>
         </is>
       </c>
       <c r="AW17" t="inlineStr">
         <is>
-          <t>145</t>
+          <t>207</t>
         </is>
       </c>
       <c r="AX17" t="inlineStr">
         <is>
-          <t>6.1</t>
+          <t>13.7</t>
         </is>
       </c>
       <c r="AY17" t="inlineStr">
         <is>
-          <t>992.0</t>
+          <t>989.4</t>
         </is>
       </c>
       <c r="AZ17" t="inlineStr">
         <is>
-          <t>145</t>
+          <t>207</t>
         </is>
       </c>
       <c r="BA17" t="inlineStr"/>
@@ -4287,7 +4275,7 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>2026-02-04 11:29:04</t>
+          <t>2026-02-04 16:15:55</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
@@ -4520,7 +4508,7 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>2026-02-04 11:29:04</t>
+          <t>2026-02-04 16:15:55</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
@@ -4753,7 +4741,7 @@
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>2026-02-04 11:29:04</t>
+          <t>2026-02-04 16:15:55</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
@@ -4986,7 +4974,7 @@
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>2026-02-04 11:29:04</t>
+          <t>2026-02-04 16:15:55</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
@@ -5204,7 +5192,7 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>09:30 - 10:00</t>
+          <t>15:30 - 16:00</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
@@ -5219,17 +5207,17 @@
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>2026-02-04 11:29:06</t>
+          <t>2026-02-04 16:15:57</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>09:30</t>
+          <t>15:30</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>https://www.meteo.cat/observacions/xema/dades?codi=X4&amp;dia=2026-02-04T09:30Z</t>
+          <t>https://www.meteo.cat/observacions/xema/dades?codi=X4&amp;dia=2026-02-04T15:30Z</t>
         </is>
       </c>
       <c r="K22" t="n">
@@ -5242,7 +5230,7 @@
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>249</t>
+          <t>285</t>
         </is>
       </c>
       <c r="N22" t="inlineStr"/>
@@ -5250,12 +5238,12 @@
       <c r="P22" t="inlineStr"/>
       <c r="Q22" t="inlineStr">
         <is>
-          <t>70</t>
+          <t>49</t>
         </is>
       </c>
       <c r="R22" t="inlineStr">
         <is>
-          <t>993.1</t>
+          <t>991.4</t>
         </is>
       </c>
       <c r="S22" t="inlineStr">
@@ -5265,66 +5253,66 @@
       </c>
       <c r="T22" t="inlineStr">
         <is>
-          <t>09:30 - 10:00</t>
+          <t>15:30 - 16:00</t>
         </is>
       </c>
       <c r="U22" t="inlineStr">
         <is>
-          <t>179</t>
+          <t>202</t>
         </is>
       </c>
       <c r="V22" t="inlineStr">
         <is>
-          <t>10.7</t>
+          <t>13.9</t>
         </is>
       </c>
       <c r="W22" t="inlineStr">
         <is>
-          <t>10.5</t>
+          <t>13.7</t>
         </is>
       </c>
       <c r="X22" t="inlineStr">
         <is>
-          <t>11.0</t>
+          <t>13.9</t>
         </is>
       </c>
       <c r="Y22" t="inlineStr">
         <is>
-          <t>7.9</t>
+          <t>15.5</t>
         </is>
       </c>
       <c r="Z22" t="inlineStr"/>
       <c r="AA22" t="inlineStr"/>
       <c r="AB22" t="inlineStr">
         <is>
-          <t>18.7</t>
+          <t>32.0</t>
         </is>
       </c>
       <c r="AC22" t="inlineStr"/>
       <c r="AD22" t="inlineStr"/>
       <c r="AE22" t="inlineStr">
         <is>
-          <t>09:30 - 10:00</t>
+          <t>15:30 - 16:00</t>
         </is>
       </c>
       <c r="AF22" t="inlineStr">
         <is>
-          <t>10.7</t>
+          <t>13.9</t>
         </is>
       </c>
       <c r="AG22" t="inlineStr">
         <is>
-          <t>11.0</t>
+          <t>13.9</t>
         </is>
       </c>
       <c r="AH22" t="inlineStr">
         <is>
-          <t>10.5</t>
+          <t>13.7</t>
         </is>
       </c>
       <c r="AI22" t="inlineStr">
         <is>
-          <t>70</t>
+          <t>49</t>
         </is>
       </c>
       <c r="AJ22" t="inlineStr">
@@ -5334,37 +5322,37 @@
       </c>
       <c r="AK22" t="inlineStr">
         <is>
-          <t>7.9</t>
+          <t>15.5</t>
         </is>
       </c>
       <c r="AL22" t="inlineStr">
         <is>
-          <t>249</t>
+          <t>285</t>
         </is>
       </c>
       <c r="AM22" t="inlineStr">
         <is>
-          <t>09:30 - 10:00</t>
+          <t>15:30 - 16:00</t>
         </is>
       </c>
       <c r="AN22" t="inlineStr">
         <is>
-          <t>10.7</t>
+          <t>13.9</t>
         </is>
       </c>
       <c r="AO22" t="inlineStr">
         <is>
-          <t>11.0</t>
+          <t>13.9</t>
         </is>
       </c>
       <c r="AP22" t="inlineStr">
         <is>
-          <t>10.5</t>
+          <t>13.7</t>
         </is>
       </c>
       <c r="AQ22" t="inlineStr">
         <is>
-          <t>70</t>
+          <t>49</t>
         </is>
       </c>
       <c r="AR22" t="inlineStr">
@@ -5374,42 +5362,42 @@
       </c>
       <c r="AS22" t="inlineStr">
         <is>
-          <t>7.9</t>
+          <t>15.5</t>
         </is>
       </c>
       <c r="AT22" t="inlineStr">
         <is>
-          <t>249</t>
+          <t>285</t>
         </is>
       </c>
       <c r="AU22" t="inlineStr">
         <is>
-          <t>18.7</t>
+          <t>32.0</t>
         </is>
       </c>
       <c r="AV22" t="inlineStr">
         <is>
-          <t>993.1</t>
+          <t>991.4</t>
         </is>
       </c>
       <c r="AW22" t="inlineStr">
         <is>
-          <t>179</t>
+          <t>202</t>
         </is>
       </c>
       <c r="AX22" t="inlineStr">
         <is>
-          <t>18.7</t>
+          <t>32.0</t>
         </is>
       </c>
       <c r="AY22" t="inlineStr">
         <is>
-          <t>993.1</t>
+          <t>991.4</t>
         </is>
       </c>
       <c r="AZ22" t="inlineStr">
         <is>
-          <t>179</t>
+          <t>202</t>
         </is>
       </c>
       <c r="BA22" t="inlineStr"/>
@@ -5452,7 +5440,7 @@
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>2026-02-04 11:29:08</t>
+          <t>2026-02-04 16:15:59</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
@@ -5685,7 +5673,7 @@
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>2026-02-04 11:29:08</t>
+          <t>2026-02-04 16:15:59</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
@@ -5918,7 +5906,7 @@
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>2026-02-04 11:29:08</t>
+          <t>2026-02-04 16:15:59</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
@@ -6151,7 +6139,7 @@
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>2026-02-04 11:29:08</t>
+          <t>2026-02-04 16:15:59</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
@@ -6369,7 +6357,7 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>09:30 - 10:00</t>
+          <t>15:30 - 16:00</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
@@ -6384,17 +6372,17 @@
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>2026-02-04 11:29:11</t>
+          <t>2026-02-04 16:16:02</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>09:30</t>
+          <t>15:30</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>https://www.meteo.cat/observacions/xema/dades?codi=D5&amp;dia=2026-02-04T09:30Z</t>
+          <t>https://www.meteo.cat/observacions/xema/dades?codi=D5&amp;dia=2026-02-04T15:30Z</t>
         </is>
       </c>
       <c r="K27" t="n">
@@ -6407,7 +6395,7 @@
       </c>
       <c r="M27" t="inlineStr">
         <is>
-          <t>239</t>
+          <t>259</t>
         </is>
       </c>
       <c r="N27" t="inlineStr"/>
@@ -6415,12 +6403,12 @@
       <c r="P27" t="inlineStr"/>
       <c r="Q27" t="inlineStr">
         <is>
-          <t>82</t>
+          <t>61</t>
         </is>
       </c>
       <c r="R27" t="inlineStr">
         <is>
-          <t>992.9</t>
+          <t>990.9</t>
         </is>
       </c>
       <c r="S27" t="inlineStr">
@@ -6430,66 +6418,66 @@
       </c>
       <c r="T27" t="inlineStr">
         <is>
-          <t>09:30 - 10:00</t>
+          <t>15:30 - 16:00</t>
         </is>
       </c>
       <c r="U27" t="inlineStr">
         <is>
-          <t>213</t>
+          <t>201</t>
         </is>
       </c>
       <c r="V27" t="inlineStr">
         <is>
-          <t>7.4</t>
+          <t>10.9</t>
         </is>
       </c>
       <c r="W27" t="inlineStr">
         <is>
-          <t>7.3</t>
+          <t>10.6</t>
         </is>
       </c>
       <c r="X27" t="inlineStr">
         <is>
-          <t>7.9</t>
+          <t>11.5</t>
         </is>
       </c>
       <c r="Y27" t="inlineStr">
         <is>
-          <t>24.1</t>
+          <t>2.2</t>
         </is>
       </c>
       <c r="Z27" t="inlineStr"/>
       <c r="AA27" t="inlineStr"/>
       <c r="AB27" t="inlineStr">
         <is>
-          <t>34.9</t>
+          <t>22.0</t>
         </is>
       </c>
       <c r="AC27" t="inlineStr"/>
       <c r="AD27" t="inlineStr"/>
       <c r="AE27" t="inlineStr">
         <is>
-          <t>09:30 - 10:00</t>
+          <t>15:30 - 16:00</t>
         </is>
       </c>
       <c r="AF27" t="inlineStr">
         <is>
-          <t>7.4</t>
+          <t>10.9</t>
         </is>
       </c>
       <c r="AG27" t="inlineStr">
         <is>
-          <t>7.9</t>
+          <t>11.5</t>
         </is>
       </c>
       <c r="AH27" t="inlineStr">
         <is>
-          <t>7.3</t>
+          <t>10.6</t>
         </is>
       </c>
       <c r="AI27" t="inlineStr">
         <is>
-          <t>82</t>
+          <t>61</t>
         </is>
       </c>
       <c r="AJ27" t="inlineStr">
@@ -6499,37 +6487,37 @@
       </c>
       <c r="AK27" t="inlineStr">
         <is>
-          <t>24.1</t>
+          <t>2.2</t>
         </is>
       </c>
       <c r="AL27" t="inlineStr">
         <is>
-          <t>239</t>
+          <t>259</t>
         </is>
       </c>
       <c r="AM27" t="inlineStr">
         <is>
-          <t>09:30 - 10:00</t>
+          <t>15:30 - 16:00</t>
         </is>
       </c>
       <c r="AN27" t="inlineStr">
         <is>
-          <t>7.4</t>
+          <t>10.9</t>
         </is>
       </c>
       <c r="AO27" t="inlineStr">
         <is>
-          <t>7.9</t>
+          <t>11.5</t>
         </is>
       </c>
       <c r="AP27" t="inlineStr">
         <is>
-          <t>7.3</t>
+          <t>10.6</t>
         </is>
       </c>
       <c r="AQ27" t="inlineStr">
         <is>
-          <t>82</t>
+          <t>61</t>
         </is>
       </c>
       <c r="AR27" t="inlineStr">
@@ -6539,42 +6527,42 @@
       </c>
       <c r="AS27" t="inlineStr">
         <is>
-          <t>24.1</t>
+          <t>2.2</t>
         </is>
       </c>
       <c r="AT27" t="inlineStr">
         <is>
-          <t>239</t>
+          <t>259</t>
         </is>
       </c>
       <c r="AU27" t="inlineStr">
         <is>
-          <t>34.9</t>
+          <t>22.0</t>
         </is>
       </c>
       <c r="AV27" t="inlineStr">
         <is>
-          <t>992.9</t>
+          <t>990.9</t>
         </is>
       </c>
       <c r="AW27" t="inlineStr">
         <is>
-          <t>213</t>
+          <t>201</t>
         </is>
       </c>
       <c r="AX27" t="inlineStr">
         <is>
-          <t>34.9</t>
+          <t>22.0</t>
         </is>
       </c>
       <c r="AY27" t="inlineStr">
         <is>
-          <t>992.9</t>
+          <t>990.9</t>
         </is>
       </c>
       <c r="AZ27" t="inlineStr">
         <is>
-          <t>213</t>
+          <t>201</t>
         </is>
       </c>
       <c r="BA27" t="inlineStr"/>
@@ -6617,7 +6605,7 @@
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>2026-02-04 11:29:13</t>
+          <t>2026-02-04 16:16:04</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
@@ -6850,7 +6838,7 @@
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>2026-02-04 11:29:13</t>
+          <t>2026-02-04 16:16:04</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
@@ -7083,7 +7071,7 @@
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>2026-02-04 11:29:13</t>
+          <t>2026-02-04 16:16:04</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
@@ -7316,7 +7304,7 @@
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>2026-02-04 11:29:13</t>
+          <t>2026-02-04 16:16:04</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
@@ -7534,7 +7522,7 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>09:30 - 10:00</t>
+          <t>15:30 - 16:00</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
@@ -7549,17 +7537,17 @@
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>2026-02-04 11:29:15</t>
+          <t>2026-02-04 16:16:06</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>09:30</t>
+          <t>15:30</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>https://www.meteo.cat/observacions/xema/dades?codi=UN&amp;dia=2026-02-04T09:30Z</t>
+          <t>https://www.meteo.cat/observacions/xema/dades?codi=UN&amp;dia=2026-02-04T15:30Z</t>
         </is>
       </c>
       <c r="K32" t="n">
@@ -7573,14 +7561,14 @@
       <c r="M32" t="inlineStr"/>
       <c r="N32" t="inlineStr">
         <is>
-          <t>185</t>
+          <t>199</t>
         </is>
       </c>
       <c r="O32" t="inlineStr"/>
       <c r="P32" t="inlineStr"/>
       <c r="Q32" t="inlineStr">
         <is>
-          <t>86</t>
+          <t>64</t>
         </is>
       </c>
       <c r="R32" t="inlineStr"/>
@@ -7591,66 +7579,66 @@
       </c>
       <c r="T32" t="inlineStr">
         <is>
-          <t>09:30 - 10:00</t>
+          <t>15:30 - 16:00</t>
         </is>
       </c>
       <c r="U32" t="inlineStr">
         <is>
-          <t>154</t>
+          <t>182</t>
         </is>
       </c>
       <c r="V32" t="inlineStr">
         <is>
-          <t>9.7</t>
+          <t>12.7</t>
         </is>
       </c>
       <c r="W32" t="inlineStr">
         <is>
-          <t>9.6</t>
+          <t>12.5</t>
         </is>
       </c>
       <c r="X32" t="inlineStr">
         <is>
-          <t>9.7</t>
+          <t>13.0</t>
         </is>
       </c>
       <c r="Y32" t="inlineStr"/>
       <c r="Z32" t="inlineStr">
         <is>
-          <t>6.1</t>
+          <t>5.0</t>
         </is>
       </c>
       <c r="AA32" t="inlineStr"/>
       <c r="AB32" t="inlineStr"/>
       <c r="AC32" t="inlineStr">
         <is>
-          <t>14.0</t>
+          <t>13.3</t>
         </is>
       </c>
       <c r="AD32" t="inlineStr"/>
       <c r="AE32" t="inlineStr">
         <is>
-          <t>09:30 - 10:00</t>
+          <t>15:30 - 16:00</t>
         </is>
       </c>
       <c r="AF32" t="inlineStr">
         <is>
-          <t>9.7</t>
+          <t>12.7</t>
         </is>
       </c>
       <c r="AG32" t="inlineStr">
         <is>
-          <t>9.7</t>
+          <t>13.0</t>
         </is>
       </c>
       <c r="AH32" t="inlineStr">
         <is>
-          <t>9.6</t>
+          <t>12.5</t>
         </is>
       </c>
       <c r="AI32" t="inlineStr">
         <is>
-          <t>86</t>
+          <t>64</t>
         </is>
       </c>
       <c r="AJ32" t="inlineStr">
@@ -7660,37 +7648,37 @@
       </c>
       <c r="AK32" t="inlineStr">
         <is>
-          <t>6.1</t>
+          <t>5.0</t>
         </is>
       </c>
       <c r="AL32" t="inlineStr">
         <is>
-          <t>185</t>
+          <t>199</t>
         </is>
       </c>
       <c r="AM32" t="inlineStr">
         <is>
-          <t>09:30 - 10:00</t>
+          <t>15:30 - 16:00</t>
         </is>
       </c>
       <c r="AN32" t="inlineStr">
         <is>
-          <t>9.7</t>
+          <t>12.7</t>
         </is>
       </c>
       <c r="AO32" t="inlineStr">
         <is>
-          <t>9.7</t>
+          <t>13.0</t>
         </is>
       </c>
       <c r="AP32" t="inlineStr">
         <is>
-          <t>9.6</t>
+          <t>12.5</t>
         </is>
       </c>
       <c r="AQ32" t="inlineStr">
         <is>
-          <t>86</t>
+          <t>64</t>
         </is>
       </c>
       <c r="AR32" t="inlineStr">
@@ -7700,33 +7688,33 @@
       </c>
       <c r="AS32" t="inlineStr">
         <is>
-          <t>6.1</t>
+          <t>5.0</t>
         </is>
       </c>
       <c r="AT32" t="inlineStr">
         <is>
-          <t>185</t>
+          <t>199</t>
         </is>
       </c>
       <c r="AU32" t="inlineStr">
         <is>
-          <t>14.0</t>
+          <t>13.3</t>
         </is>
       </c>
       <c r="AV32" t="inlineStr">
         <is>
-          <t>154</t>
+          <t>182</t>
         </is>
       </c>
       <c r="AW32" t="inlineStr"/>
       <c r="AX32" t="inlineStr">
         <is>
-          <t>14.0</t>
+          <t>13.3</t>
         </is>
       </c>
       <c r="AY32" t="inlineStr">
         <is>
-          <t>154</t>
+          <t>182</t>
         </is>
       </c>
       <c r="AZ32" t="inlineStr"/>
@@ -7770,7 +7758,7 @@
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>2026-02-04 11:29:17</t>
+          <t>2026-02-04 16:16:08</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
@@ -7991,7 +7979,7 @@
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>2026-02-04 11:29:17</t>
+          <t>2026-02-04 16:16:08</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
@@ -8212,7 +8200,7 @@
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>2026-02-04 11:29:17</t>
+          <t>2026-02-04 16:16:08</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
@@ -8433,7 +8421,7 @@
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>2026-02-04 11:29:17</t>
+          <t>2026-02-04 16:16:08</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
@@ -8639,7 +8627,7 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>09:30 - 10:00</t>
+          <t>15:30 - 16:00</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
@@ -8654,17 +8642,17 @@
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>2026-02-04 11:29:19</t>
+          <t>2026-02-04 16:16:11</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>09:30</t>
+          <t>15:30</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>https://www.meteo.cat/observacions/xema/dades?codi=MS&amp;dia=2026-02-04T09:30Z</t>
+          <t>https://www.meteo.cat/observacions/xema/dades?codi=MS&amp;dia=2026-02-04T15:30Z</t>
         </is>
       </c>
       <c r="K37" t="n">
@@ -8681,7 +8669,7 @@
       <c r="P37" t="inlineStr"/>
       <c r="Q37" t="inlineStr">
         <is>
-          <t>99</t>
+          <t>66</t>
         </is>
       </c>
       <c r="R37" t="inlineStr"/>
@@ -8692,23 +8680,23 @@
       </c>
       <c r="T37" t="inlineStr">
         <is>
-          <t>09:30 - 10:00</t>
+          <t>15:30 - 16:00</t>
         </is>
       </c>
       <c r="U37" t="inlineStr"/>
       <c r="V37" t="inlineStr">
         <is>
-          <t>1.4</t>
+          <t>8.3</t>
         </is>
       </c>
       <c r="W37" t="inlineStr">
         <is>
-          <t>1.0</t>
+          <t>6.9</t>
         </is>
       </c>
       <c r="X37" t="inlineStr">
         <is>
-          <t>1.9</t>
+          <t>8.9</t>
         </is>
       </c>
       <c r="Y37" t="inlineStr"/>
@@ -8719,27 +8707,27 @@
       <c r="AD37" t="inlineStr"/>
       <c r="AE37" t="inlineStr">
         <is>
-          <t>09:30 - 10:00</t>
+          <t>15:30 - 16:00</t>
         </is>
       </c>
       <c r="AF37" t="inlineStr">
         <is>
-          <t>1.4</t>
+          <t>8.3</t>
         </is>
       </c>
       <c r="AG37" t="inlineStr">
         <is>
-          <t>1.9</t>
+          <t>8.9</t>
         </is>
       </c>
       <c r="AH37" t="inlineStr">
         <is>
-          <t>1.0</t>
+          <t>6.9</t>
         </is>
       </c>
       <c r="AI37" t="inlineStr">
         <is>
-          <t>99</t>
+          <t>66</t>
         </is>
       </c>
       <c r="AJ37" t="inlineStr">
@@ -8751,27 +8739,27 @@
       <c r="AL37" t="inlineStr"/>
       <c r="AM37" t="inlineStr">
         <is>
-          <t>09:30 - 10:00</t>
+          <t>15:30 - 16:00</t>
         </is>
       </c>
       <c r="AN37" t="inlineStr">
         <is>
-          <t>1.4</t>
+          <t>8.3</t>
         </is>
       </c>
       <c r="AO37" t="inlineStr">
         <is>
-          <t>1.9</t>
+          <t>8.9</t>
         </is>
       </c>
       <c r="AP37" t="inlineStr">
         <is>
-          <t>1.0</t>
+          <t>6.9</t>
         </is>
       </c>
       <c r="AQ37" t="inlineStr">
         <is>
-          <t>99</t>
+          <t>66</t>
         </is>
       </c>
       <c r="AR37" t="inlineStr">
@@ -8827,7 +8815,7 @@
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>2026-02-04 11:29:21</t>
+          <t>2026-02-04 16:16:12</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
@@ -9000,7 +8988,7 @@
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>2026-02-04 11:29:21</t>
+          <t>2026-02-04 16:16:12</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
@@ -9173,7 +9161,7 @@
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>2026-02-04 11:29:21</t>
+          <t>2026-02-04 16:16:12</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
@@ -9346,7 +9334,7 @@
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>2026-02-04 11:29:21</t>
+          <t>2026-02-04 16:16:12</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
@@ -9504,7 +9492,7 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>09:30 - 10:00</t>
+          <t>15:30 - 16:00</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
@@ -9519,17 +9507,17 @@
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>2026-02-04 11:29:23</t>
+          <t>2026-02-04 16:16:15</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>09:30</t>
+          <t>15:30</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>https://www.meteo.cat/observacions/xema/dades?codi=W1&amp;dia=2026-02-04T09:30Z</t>
+          <t>https://www.meteo.cat/observacions/xema/dades?codi=W1&amp;dia=2026-02-04T15:30Z</t>
         </is>
       </c>
       <c r="K42" t="n">
@@ -9546,7 +9534,7 @@
       <c r="P42" t="inlineStr"/>
       <c r="Q42" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>60</t>
         </is>
       </c>
       <c r="R42" t="inlineStr"/>
@@ -9557,23 +9545,23 @@
       </c>
       <c r="T42" t="inlineStr">
         <is>
-          <t>09:30 - 10:00</t>
+          <t>15:30 - 16:00</t>
         </is>
       </c>
       <c r="U42" t="inlineStr"/>
       <c r="V42" t="inlineStr">
         <is>
-          <t>8.0</t>
+          <t>13.7</t>
         </is>
       </c>
       <c r="W42" t="inlineStr">
         <is>
-          <t>7.4</t>
+          <t>13.5</t>
         </is>
       </c>
       <c r="X42" t="inlineStr">
         <is>
-          <t>8.5</t>
+          <t>13.8</t>
         </is>
       </c>
       <c r="Y42" t="inlineStr"/>
@@ -9584,27 +9572,27 @@
       <c r="AD42" t="inlineStr"/>
       <c r="AE42" t="inlineStr">
         <is>
-          <t>09:30 - 10:00</t>
+          <t>15:30 - 16:00</t>
         </is>
       </c>
       <c r="AF42" t="inlineStr">
         <is>
-          <t>8.0</t>
+          <t>13.7</t>
         </is>
       </c>
       <c r="AG42" t="inlineStr">
         <is>
-          <t>8.5</t>
+          <t>13.8</t>
         </is>
       </c>
       <c r="AH42" t="inlineStr">
         <is>
-          <t>7.4</t>
+          <t>13.5</t>
         </is>
       </c>
       <c r="AI42" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>60</t>
         </is>
       </c>
       <c r="AJ42" t="inlineStr">
@@ -9616,27 +9604,27 @@
       <c r="AL42" t="inlineStr"/>
       <c r="AM42" t="inlineStr">
         <is>
-          <t>09:30 - 10:00</t>
+          <t>15:30 - 16:00</t>
         </is>
       </c>
       <c r="AN42" t="inlineStr">
         <is>
-          <t>8.0</t>
+          <t>13.7</t>
         </is>
       </c>
       <c r="AO42" t="inlineStr">
         <is>
-          <t>8.5</t>
+          <t>13.8</t>
         </is>
       </c>
       <c r="AP42" t="inlineStr">
         <is>
-          <t>7.4</t>
+          <t>13.5</t>
         </is>
       </c>
       <c r="AQ42" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>60</t>
         </is>
       </c>
       <c r="AR42" t="inlineStr">
@@ -9692,7 +9680,7 @@
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>2026-02-04 11:29:25</t>
+          <t>2026-02-04 16:16:17</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
@@ -9865,7 +9853,7 @@
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>2026-02-04 11:29:25</t>
+          <t>2026-02-04 16:16:17</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
@@ -10038,7 +10026,7 @@
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>2026-02-04 11:29:25</t>
+          <t>2026-02-04 16:16:17</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
@@ -10211,7 +10199,7 @@
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>2026-02-04 11:29:25</t>
+          <t>2026-02-04 16:16:17</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
@@ -10369,7 +10357,7 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>09:30 - 10:00</t>
+          <t>15:30 - 16:00</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
@@ -10384,17 +10372,17 @@
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>2026-02-04 11:29:28</t>
+          <t>2026-02-04 16:16:20</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>09:30</t>
+          <t>15:30</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>https://www.meteo.cat/observacions/xema/dades?codi=DP&amp;dia=2026-02-04T09:30Z</t>
+          <t>https://www.meteo.cat/observacions/xema/dades?codi=DP&amp;dia=2026-02-04T15:30Z</t>
         </is>
       </c>
       <c r="K47" t="n">
@@ -10407,7 +10395,7 @@
       </c>
       <c r="M47" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>236</t>
         </is>
       </c>
       <c r="N47" t="inlineStr"/>
@@ -10419,12 +10407,12 @@
       </c>
       <c r="Q47" t="inlineStr">
         <is>
-          <t>91</t>
+          <t>62</t>
         </is>
       </c>
       <c r="R47" t="inlineStr">
         <is>
-          <t>994.0</t>
+          <t>990.6</t>
         </is>
       </c>
       <c r="S47" t="inlineStr">
@@ -10434,66 +10422,66 @@
       </c>
       <c r="T47" t="inlineStr">
         <is>
-          <t>09:30 - 10:00</t>
+          <t>15:30 - 16:00</t>
         </is>
       </c>
       <c r="U47" t="inlineStr">
         <is>
-          <t>175</t>
+          <t>212</t>
         </is>
       </c>
       <c r="V47" t="inlineStr">
         <is>
-          <t>0.6</t>
+          <t>6.4</t>
         </is>
       </c>
       <c r="W47" t="inlineStr">
         <is>
-          <t>0.3</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="X47" t="inlineStr">
         <is>
-          <t>0.9</t>
+          <t>6.8</t>
         </is>
       </c>
       <c r="Y47" t="inlineStr">
         <is>
-          <t>2.9</t>
+          <t>22.0</t>
         </is>
       </c>
       <c r="Z47" t="inlineStr"/>
       <c r="AA47" t="inlineStr"/>
       <c r="AB47" t="inlineStr">
         <is>
-          <t>7.2</t>
+          <t>32.8</t>
         </is>
       </c>
       <c r="AC47" t="inlineStr"/>
       <c r="AD47" t="inlineStr"/>
       <c r="AE47" t="inlineStr">
         <is>
-          <t>09:30 - 10:00</t>
+          <t>15:30 - 16:00</t>
         </is>
       </c>
       <c r="AF47" t="inlineStr">
         <is>
-          <t>0.6</t>
+          <t>6.4</t>
         </is>
       </c>
       <c r="AG47" t="inlineStr">
         <is>
-          <t>0.9</t>
+          <t>6.8</t>
         </is>
       </c>
       <c r="AH47" t="inlineStr">
         <is>
-          <t>0.3</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="AI47" t="inlineStr">
         <is>
-          <t>91</t>
+          <t>62</t>
         </is>
       </c>
       <c r="AJ47" t="inlineStr">
@@ -10508,32 +10496,32 @@
       </c>
       <c r="AL47" t="inlineStr">
         <is>
-          <t>2.9</t>
+          <t>22.0</t>
         </is>
       </c>
       <c r="AM47" t="inlineStr">
         <is>
-          <t>09:30 - 10:00</t>
+          <t>15:30 - 16:00</t>
         </is>
       </c>
       <c r="AN47" t="inlineStr">
         <is>
-          <t>0.6</t>
+          <t>6.4</t>
         </is>
       </c>
       <c r="AO47" t="inlineStr">
         <is>
-          <t>0.9</t>
+          <t>6.8</t>
         </is>
       </c>
       <c r="AP47" t="inlineStr">
         <is>
-          <t>0.3</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="AQ47" t="inlineStr">
         <is>
-          <t>91</t>
+          <t>62</t>
         </is>
       </c>
       <c r="AR47" t="inlineStr">
@@ -10548,42 +10536,42 @@
       </c>
       <c r="AT47" t="inlineStr">
         <is>
-          <t>2.9</t>
+          <t>22.0</t>
         </is>
       </c>
       <c r="AU47" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>236</t>
         </is>
       </c>
       <c r="AV47" t="inlineStr">
         <is>
-          <t>7.2</t>
+          <t>32.8</t>
         </is>
       </c>
       <c r="AW47" t="inlineStr">
         <is>
-          <t>994.0</t>
+          <t>990.6</t>
         </is>
       </c>
       <c r="AX47" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>236</t>
         </is>
       </c>
       <c r="AY47" t="inlineStr">
         <is>
-          <t>7.2</t>
+          <t>32.8</t>
         </is>
       </c>
       <c r="AZ47" t="inlineStr">
         <is>
-          <t>994.0</t>
+          <t>990.6</t>
         </is>
       </c>
       <c r="BA47" t="inlineStr">
         <is>
-          <t>175</t>
+          <t>212</t>
         </is>
       </c>
     </row>
@@ -10625,7 +10613,7 @@
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>2026-02-04 11:29:30</t>
+          <t>2026-02-04 16:16:22</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
@@ -10866,7 +10854,7 @@
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>2026-02-04 11:29:30</t>
+          <t>2026-02-04 16:16:22</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
@@ -11107,7 +11095,7 @@
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>2026-02-04 11:29:30</t>
+          <t>2026-02-04 16:16:22</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
@@ -11348,7 +11336,7 @@
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>2026-02-04 11:29:30</t>
+          <t>2026-02-04 16:16:22</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
@@ -11574,7 +11562,7 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>09:30 - 10:00</t>
+          <t>15:30 - 16:00</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
@@ -11589,17 +11577,17 @@
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>2026-02-04 11:29:32</t>
+          <t>2026-02-04 16:16:24</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>09:30</t>
+          <t>15:30</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
         <is>
-          <t>https://www.meteo.cat/observacions/xema/dades?codi=XL&amp;dia=2026-02-04T09:30Z</t>
+          <t>https://www.meteo.cat/observacions/xema/dades?codi=XL&amp;dia=2026-02-04T15:30Z</t>
         </is>
       </c>
       <c r="K52" t="n">
@@ -11612,7 +11600,7 @@
       </c>
       <c r="M52" t="inlineStr">
         <is>
-          <t>299</t>
+          <t>270</t>
         </is>
       </c>
       <c r="N52" t="inlineStr"/>
@@ -11620,7 +11608,7 @@
       <c r="P52" t="inlineStr"/>
       <c r="Q52" t="inlineStr">
         <is>
-          <t>87</t>
+          <t>59</t>
         </is>
       </c>
       <c r="R52" t="inlineStr"/>
@@ -11631,142 +11619,142 @@
       </c>
       <c r="T52" t="inlineStr">
         <is>
-          <t>09:30 - 10:00</t>
+          <t>15:30 - 16:00</t>
         </is>
       </c>
       <c r="U52" t="inlineStr">
         <is>
-          <t>215</t>
+          <t>194</t>
         </is>
       </c>
       <c r="V52" t="inlineStr">
         <is>
-          <t>8.3</t>
+          <t>14.2</t>
         </is>
       </c>
       <c r="W52" t="inlineStr">
         <is>
+          <t>13.8</t>
+        </is>
+      </c>
+      <c r="X52" t="inlineStr">
+        <is>
+          <t>14.7</t>
+        </is>
+      </c>
+      <c r="Y52" t="inlineStr">
+        <is>
           <t>7.6</t>
-        </is>
-      </c>
-      <c r="X52" t="inlineStr">
-        <is>
-          <t>10.0</t>
-        </is>
-      </c>
-      <c r="Y52" t="inlineStr">
-        <is>
-          <t>4.7</t>
         </is>
       </c>
       <c r="Z52" t="inlineStr"/>
       <c r="AA52" t="inlineStr"/>
       <c r="AB52" t="inlineStr">
         <is>
-          <t>10.8</t>
+          <t>18.4</t>
         </is>
       </c>
       <c r="AC52" t="inlineStr"/>
       <c r="AD52" t="inlineStr"/>
       <c r="AE52" t="inlineStr">
         <is>
-          <t>09:30 - 10:00</t>
+          <t>15:30 - 16:00</t>
         </is>
       </c>
       <c r="AF52" t="inlineStr">
         <is>
-          <t>8.3</t>
+          <t>14.2</t>
         </is>
       </c>
       <c r="AG52" t="inlineStr">
         <is>
-          <t>10.0</t>
+          <t>14.7</t>
         </is>
       </c>
       <c r="AH52" t="inlineStr">
         <is>
+          <t>13.8</t>
+        </is>
+      </c>
+      <c r="AI52" t="inlineStr">
+        <is>
+          <t>59</t>
+        </is>
+      </c>
+      <c r="AJ52" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="AK52" t="inlineStr">
+        <is>
           <t>7.6</t>
         </is>
       </c>
-      <c r="AI52" t="inlineStr">
-        <is>
-          <t>87</t>
-        </is>
-      </c>
-      <c r="AJ52" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="AK52" t="inlineStr">
-        <is>
-          <t>4.7</t>
-        </is>
-      </c>
       <c r="AL52" t="inlineStr">
         <is>
-          <t>299</t>
+          <t>270</t>
         </is>
       </c>
       <c r="AM52" t="inlineStr">
         <is>
-          <t>09:30 - 10:00</t>
+          <t>15:30 - 16:00</t>
         </is>
       </c>
       <c r="AN52" t="inlineStr">
         <is>
-          <t>8.3</t>
+          <t>14.2</t>
         </is>
       </c>
       <c r="AO52" t="inlineStr">
         <is>
-          <t>10.0</t>
+          <t>14.7</t>
         </is>
       </c>
       <c r="AP52" t="inlineStr">
         <is>
+          <t>13.8</t>
+        </is>
+      </c>
+      <c r="AQ52" t="inlineStr">
+        <is>
+          <t>59</t>
+        </is>
+      </c>
+      <c r="AR52" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="AS52" t="inlineStr">
+        <is>
           <t>7.6</t>
         </is>
       </c>
-      <c r="AQ52" t="inlineStr">
-        <is>
-          <t>87</t>
-        </is>
-      </c>
-      <c r="AR52" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="AS52" t="inlineStr">
-        <is>
-          <t>4.7</t>
-        </is>
-      </c>
       <c r="AT52" t="inlineStr">
         <is>
-          <t>299</t>
+          <t>270</t>
         </is>
       </c>
       <c r="AU52" t="inlineStr">
         <is>
-          <t>10.8</t>
+          <t>18.4</t>
         </is>
       </c>
       <c r="AV52" t="inlineStr">
         <is>
-          <t>215</t>
+          <t>194</t>
         </is>
       </c>
       <c r="AW52" t="inlineStr"/>
       <c r="AX52" t="inlineStr">
         <is>
-          <t>10.8</t>
+          <t>18.4</t>
         </is>
       </c>
       <c r="AY52" t="inlineStr">
         <is>
-          <t>215</t>
+          <t>194</t>
         </is>
       </c>
       <c r="AZ52" t="inlineStr"/>
@@ -11810,7 +11798,7 @@
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>2026-02-04 11:29:34</t>
+          <t>2026-02-04 16:16:26</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
@@ -12031,7 +12019,7 @@
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>2026-02-04 11:29:34</t>
+          <t>2026-02-04 16:16:26</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
@@ -12252,7 +12240,7 @@
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>2026-02-04 11:29:34</t>
+          <t>2026-02-04 16:16:26</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
@@ -12473,7 +12461,7 @@
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>2026-02-04 11:29:34</t>
+          <t>2026-02-04 16:16:26</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
@@ -12679,7 +12667,7 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>09:30 - 10:00</t>
+          <t>15:30 - 16:00</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
@@ -12694,17 +12682,17 @@
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>2026-02-04 11:29:37</t>
+          <t>2026-02-04 16:16:29</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>09:30</t>
+          <t>15:30</t>
         </is>
       </c>
       <c r="J57" t="inlineStr">
         <is>
-          <t>https://www.meteo.cat/observacions/xema/dades?codi=VZ&amp;dia=2026-02-04T09:30Z</t>
+          <t>https://www.meteo.cat/observacions/xema/dades?codi=VZ&amp;dia=2026-02-04T15:30Z</t>
         </is>
       </c>
       <c r="K57" t="n">
@@ -12721,7 +12709,7 @@
       <c r="P57" t="inlineStr"/>
       <c r="Q57" t="inlineStr">
         <is>
-          <t>81</t>
+          <t>53</t>
         </is>
       </c>
       <c r="R57" t="inlineStr"/>
@@ -12732,23 +12720,23 @@
       </c>
       <c r="T57" t="inlineStr">
         <is>
-          <t>09:30 - 10:00</t>
+          <t>15:30 - 16:00</t>
         </is>
       </c>
       <c r="U57" t="inlineStr"/>
       <c r="V57" t="inlineStr">
         <is>
-          <t>9.3</t>
+          <t>13.9</t>
         </is>
       </c>
       <c r="W57" t="inlineStr">
         <is>
-          <t>8.4</t>
+          <t>13.8</t>
         </is>
       </c>
       <c r="X57" t="inlineStr">
         <is>
-          <t>9.7</t>
+          <t>14.0</t>
         </is>
       </c>
       <c r="Y57" t="inlineStr"/>
@@ -12759,27 +12747,27 @@
       <c r="AD57" t="inlineStr"/>
       <c r="AE57" t="inlineStr">
         <is>
-          <t>09:30 - 10:00</t>
+          <t>15:30 - 16:00</t>
         </is>
       </c>
       <c r="AF57" t="inlineStr">
         <is>
-          <t>9.3</t>
+          <t>13.9</t>
         </is>
       </c>
       <c r="AG57" t="inlineStr">
         <is>
-          <t>9.7</t>
+          <t>14.0</t>
         </is>
       </c>
       <c r="AH57" t="inlineStr">
         <is>
-          <t>8.4</t>
+          <t>13.8</t>
         </is>
       </c>
       <c r="AI57" t="inlineStr">
         <is>
-          <t>81</t>
+          <t>53</t>
         </is>
       </c>
       <c r="AJ57" t="inlineStr">
@@ -12791,27 +12779,27 @@
       <c r="AL57" t="inlineStr"/>
       <c r="AM57" t="inlineStr">
         <is>
-          <t>09:30 - 10:00</t>
+          <t>15:30 - 16:00</t>
         </is>
       </c>
       <c r="AN57" t="inlineStr">
         <is>
-          <t>9.3</t>
+          <t>13.9</t>
         </is>
       </c>
       <c r="AO57" t="inlineStr">
         <is>
-          <t>9.7</t>
+          <t>14.0</t>
         </is>
       </c>
       <c r="AP57" t="inlineStr">
         <is>
-          <t>8.4</t>
+          <t>13.8</t>
         </is>
       </c>
       <c r="AQ57" t="inlineStr">
         <is>
-          <t>81</t>
+          <t>53</t>
         </is>
       </c>
       <c r="AR57" t="inlineStr">
@@ -12867,7 +12855,7 @@
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>2026-02-04 11:29:38</t>
+          <t>2026-02-04 16:16:30</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
@@ -13040,7 +13028,7 @@
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>2026-02-04 11:29:38</t>
+          <t>2026-02-04 16:16:30</t>
         </is>
       </c>
       <c r="I59" t="inlineStr">
@@ -13213,7 +13201,7 @@
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>2026-02-04 11:29:38</t>
+          <t>2026-02-04 16:16:30</t>
         </is>
       </c>
       <c r="I60" t="inlineStr">
@@ -13386,7 +13374,7 @@
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>2026-02-04 11:29:38</t>
+          <t>2026-02-04 16:16:30</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
@@ -13544,7 +13532,7 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>09:30 - 10:00</t>
+          <t>15:30 - 16:00</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
@@ -13559,17 +13547,17 @@
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>2026-02-04 11:29:41</t>
+          <t>2026-02-04 16:16:33</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>09:30</t>
+          <t>15:30</t>
         </is>
       </c>
       <c r="J62" t="inlineStr">
         <is>
-          <t>https://www.meteo.cat/observacions/xema/dades?codi=Z7&amp;dia=2026-02-04T09:30Z</t>
+          <t>https://www.meteo.cat/observacions/xema/dades?codi=Z7&amp;dia=2026-02-04T15:30Z</t>
         </is>
       </c>
       <c r="K62" t="n">
@@ -13582,174 +13570,174 @@
       </c>
       <c r="M62" t="inlineStr">
         <is>
-          <t>91</t>
+          <t>199</t>
         </is>
       </c>
       <c r="N62" t="inlineStr"/>
       <c r="O62" t="inlineStr"/>
       <c r="P62" t="inlineStr">
         <is>
-          <t>69</t>
+          <t>68</t>
         </is>
       </c>
       <c r="Q62" t="inlineStr">
         <is>
-          <t>91</t>
+          <t>70</t>
         </is>
       </c>
       <c r="R62" t="inlineStr"/>
       <c r="S62" t="inlineStr">
         <is>
-          <t>0.2</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="T62" t="inlineStr">
         <is>
-          <t>09:30 - 10:00</t>
+          <t>15:30 - 16:00</t>
         </is>
       </c>
       <c r="U62" t="inlineStr">
         <is>
-          <t>195</t>
+          <t>35</t>
         </is>
       </c>
       <c r="V62" t="inlineStr">
         <is>
-          <t>-7.4</t>
+          <t>-4.0</t>
         </is>
       </c>
       <c r="W62" t="inlineStr">
         <is>
-          <t>-7.6</t>
+          <t>-4.1</t>
         </is>
       </c>
       <c r="X62" t="inlineStr">
         <is>
-          <t>-7.3</t>
+          <t>-3.8</t>
         </is>
       </c>
       <c r="Y62" t="inlineStr">
         <is>
-          <t>5.8</t>
+          <t>11.5</t>
         </is>
       </c>
       <c r="Z62" t="inlineStr"/>
       <c r="AA62" t="inlineStr"/>
       <c r="AB62" t="inlineStr">
         <is>
-          <t>16.9</t>
+          <t>27.4</t>
         </is>
       </c>
       <c r="AC62" t="inlineStr"/>
       <c r="AD62" t="inlineStr"/>
       <c r="AE62" t="inlineStr">
         <is>
-          <t>09:30 - 10:00</t>
+          <t>15:30 - 16:00</t>
         </is>
       </c>
       <c r="AF62" t="inlineStr">
         <is>
-          <t>-7.4</t>
+          <t>-4.0</t>
         </is>
       </c>
       <c r="AG62" t="inlineStr">
         <is>
-          <t>-7.3</t>
+          <t>-3.8</t>
         </is>
       </c>
       <c r="AH62" t="inlineStr">
         <is>
-          <t>-7.6</t>
+          <t>-4.1</t>
         </is>
       </c>
       <c r="AI62" t="inlineStr">
         <is>
-          <t>91</t>
+          <t>70</t>
         </is>
       </c>
       <c r="AJ62" t="inlineStr">
         <is>
-          <t>0.2</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="AK62" t="inlineStr">
         <is>
-          <t>69</t>
+          <t>68</t>
         </is>
       </c>
       <c r="AL62" t="inlineStr">
         <is>
-          <t>5.8</t>
+          <t>11.5</t>
         </is>
       </c>
       <c r="AM62" t="inlineStr">
         <is>
-          <t>09:30 - 10:00</t>
+          <t>15:30 - 16:00</t>
         </is>
       </c>
       <c r="AN62" t="inlineStr">
         <is>
-          <t>-7.4</t>
+          <t>-4.0</t>
         </is>
       </c>
       <c r="AO62" t="inlineStr">
         <is>
-          <t>-7.3</t>
+          <t>-3.8</t>
         </is>
       </c>
       <c r="AP62" t="inlineStr">
         <is>
-          <t>-7.6</t>
+          <t>-4.1</t>
         </is>
       </c>
       <c r="AQ62" t="inlineStr">
         <is>
-          <t>91</t>
+          <t>70</t>
         </is>
       </c>
       <c r="AR62" t="inlineStr">
         <is>
-          <t>0.2</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="AS62" t="inlineStr">
         <is>
-          <t>69</t>
+          <t>68</t>
         </is>
       </c>
       <c r="AT62" t="inlineStr">
         <is>
-          <t>5.8</t>
+          <t>11.5</t>
         </is>
       </c>
       <c r="AU62" t="inlineStr">
         <is>
-          <t>91</t>
+          <t>199</t>
         </is>
       </c>
       <c r="AV62" t="inlineStr">
         <is>
-          <t>16.9</t>
+          <t>27.4</t>
         </is>
       </c>
       <c r="AW62" t="inlineStr">
         <is>
-          <t>195</t>
+          <t>35</t>
         </is>
       </c>
       <c r="AX62" t="inlineStr">
         <is>
-          <t>91</t>
+          <t>199</t>
         </is>
       </c>
       <c r="AY62" t="inlineStr">
         <is>
-          <t>16.9</t>
+          <t>27.4</t>
         </is>
       </c>
       <c r="AZ62" t="inlineStr">
         <is>
-          <t>195</t>
+          <t>35</t>
         </is>
       </c>
       <c r="BA62" t="inlineStr"/>
@@ -13792,7 +13780,7 @@
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>2026-02-04 11:29:43</t>
+          <t>2026-02-04 16:16:35</t>
         </is>
       </c>
       <c r="I63" t="inlineStr">
@@ -14025,7 +14013,7 @@
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>2026-02-04 11:29:43</t>
+          <t>2026-02-04 16:16:35</t>
         </is>
       </c>
       <c r="I64" t="inlineStr">
@@ -14066,7 +14054,7 @@
       <c r="R64" t="inlineStr"/>
       <c r="S64" t="inlineStr">
         <is>
-          <t>0.2</t>
+          <t>0.3</t>
         </is>
       </c>
       <c r="T64" t="inlineStr">
@@ -14135,7 +14123,7 @@
       </c>
       <c r="AJ64" t="inlineStr">
         <is>
-          <t>0.2</t>
+          <t>0.3</t>
         </is>
       </c>
       <c r="AK64" t="inlineStr">
@@ -14175,7 +14163,7 @@
       </c>
       <c r="AR64" t="inlineStr">
         <is>
-          <t>0.2</t>
+          <t>0.3</t>
         </is>
       </c>
       <c r="AS64" t="inlineStr">
@@ -14258,7 +14246,7 @@
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>2026-02-04 11:29:43</t>
+          <t>2026-02-04 16:16:35</t>
         </is>
       </c>
       <c r="I65" t="inlineStr">
@@ -14491,7 +14479,7 @@
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>2026-02-04 11:29:43</t>
+          <t>2026-02-04 16:16:35</t>
         </is>
       </c>
       <c r="I66" t="inlineStr">
@@ -14709,7 +14697,7 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>09:30 - 10:00</t>
+          <t>15:30 - 16:00</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
@@ -14724,17 +14712,17 @@
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>2026-02-04 11:29:45</t>
+          <t>2026-02-04 16:16:38</t>
         </is>
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>09:30</t>
+          <t>15:30</t>
         </is>
       </c>
       <c r="J67" t="inlineStr">
         <is>
-          <t>https://www.meteo.cat/observacions/xema/dades?codi=XJ&amp;dia=2026-02-04T09:30Z</t>
+          <t>https://www.meteo.cat/observacions/xema/dades?codi=XJ&amp;dia=2026-02-04T15:30Z</t>
         </is>
       </c>
       <c r="K67" t="n">
@@ -14747,7 +14735,7 @@
       </c>
       <c r="M67" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>246</t>
         </is>
       </c>
       <c r="N67" t="inlineStr"/>
@@ -14755,12 +14743,12 @@
       <c r="P67" t="inlineStr"/>
       <c r="Q67" t="inlineStr">
         <is>
-          <t>87</t>
+          <t>51</t>
         </is>
       </c>
       <c r="R67" t="inlineStr">
         <is>
-          <t>992.4</t>
+          <t>990.0</t>
         </is>
       </c>
       <c r="S67" t="inlineStr">
@@ -14770,66 +14758,66 @@
       </c>
       <c r="T67" t="inlineStr">
         <is>
-          <t>09:30 - 10:00</t>
+          <t>15:30 - 16:00</t>
         </is>
       </c>
       <c r="U67" t="inlineStr">
         <is>
-          <t>145</t>
+          <t>194</t>
         </is>
       </c>
       <c r="V67" t="inlineStr">
         <is>
-          <t>7.0</t>
+          <t>13.9</t>
         </is>
       </c>
       <c r="W67" t="inlineStr">
         <is>
-          <t>6.6</t>
+          <t>13.7</t>
         </is>
       </c>
       <c r="X67" t="inlineStr">
         <is>
-          <t>7.4</t>
+          <t>14.0</t>
         </is>
       </c>
       <c r="Y67" t="inlineStr">
         <is>
-          <t>2.9</t>
+          <t>11.5</t>
         </is>
       </c>
       <c r="Z67" t="inlineStr"/>
       <c r="AA67" t="inlineStr"/>
       <c r="AB67" t="inlineStr">
         <is>
-          <t>6.5</t>
+          <t>24.8</t>
         </is>
       </c>
       <c r="AC67" t="inlineStr"/>
       <c r="AD67" t="inlineStr"/>
       <c r="AE67" t="inlineStr">
         <is>
-          <t>09:30 - 10:00</t>
+          <t>15:30 - 16:00</t>
         </is>
       </c>
       <c r="AF67" t="inlineStr">
         <is>
-          <t>7.0</t>
+          <t>13.9</t>
         </is>
       </c>
       <c r="AG67" t="inlineStr">
         <is>
-          <t>7.4</t>
+          <t>14.0</t>
         </is>
       </c>
       <c r="AH67" t="inlineStr">
         <is>
-          <t>6.6</t>
+          <t>13.7</t>
         </is>
       </c>
       <c r="AI67" t="inlineStr">
         <is>
-          <t>87</t>
+          <t>51</t>
         </is>
       </c>
       <c r="AJ67" t="inlineStr">
@@ -14839,37 +14827,37 @@
       </c>
       <c r="AK67" t="inlineStr">
         <is>
-          <t>2.9</t>
+          <t>11.5</t>
         </is>
       </c>
       <c r="AL67" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>246</t>
         </is>
       </c>
       <c r="AM67" t="inlineStr">
         <is>
-          <t>09:30 - 10:00</t>
+          <t>15:30 - 16:00</t>
         </is>
       </c>
       <c r="AN67" t="inlineStr">
         <is>
-          <t>7.0</t>
+          <t>13.9</t>
         </is>
       </c>
       <c r="AO67" t="inlineStr">
         <is>
-          <t>7.4</t>
+          <t>14.0</t>
         </is>
       </c>
       <c r="AP67" t="inlineStr">
         <is>
-          <t>6.6</t>
+          <t>13.7</t>
         </is>
       </c>
       <c r="AQ67" t="inlineStr">
         <is>
-          <t>87</t>
+          <t>51</t>
         </is>
       </c>
       <c r="AR67" t="inlineStr">
@@ -14879,42 +14867,42 @@
       </c>
       <c r="AS67" t="inlineStr">
         <is>
-          <t>2.9</t>
+          <t>11.5</t>
         </is>
       </c>
       <c r="AT67" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>246</t>
         </is>
       </c>
       <c r="AU67" t="inlineStr">
         <is>
-          <t>6.5</t>
+          <t>24.8</t>
         </is>
       </c>
       <c r="AV67" t="inlineStr">
         <is>
-          <t>992.4</t>
+          <t>990.0</t>
         </is>
       </c>
       <c r="AW67" t="inlineStr">
         <is>
-          <t>145</t>
+          <t>194</t>
         </is>
       </c>
       <c r="AX67" t="inlineStr">
         <is>
-          <t>6.5</t>
+          <t>24.8</t>
         </is>
       </c>
       <c r="AY67" t="inlineStr">
         <is>
-          <t>992.4</t>
+          <t>990.0</t>
         </is>
       </c>
       <c r="AZ67" t="inlineStr">
         <is>
-          <t>145</t>
+          <t>194</t>
         </is>
       </c>
       <c r="BA67" t="inlineStr"/>
@@ -14957,7 +14945,7 @@
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>2026-02-04 11:29:47</t>
+          <t>2026-02-04 16:16:39</t>
         </is>
       </c>
       <c r="I68" t="inlineStr">
@@ -15190,7 +15178,7 @@
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>2026-02-04 11:29:47</t>
+          <t>2026-02-04 16:16:39</t>
         </is>
       </c>
       <c r="I69" t="inlineStr">
@@ -15423,7 +15411,7 @@
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>2026-02-04 11:29:47</t>
+          <t>2026-02-04 16:16:39</t>
         </is>
       </c>
       <c r="I70" t="inlineStr">
@@ -15656,7 +15644,7 @@
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>2026-02-04 11:29:47</t>
+          <t>2026-02-04 16:16:39</t>
         </is>
       </c>
       <c r="I71" t="inlineStr">
@@ -15874,7 +15862,7 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>09:30 - 10:00</t>
+          <t>15:30 - 16:00</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
@@ -15889,17 +15877,17 @@
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>2026-02-04 11:29:50</t>
+          <t>2026-02-04 16:16:42</t>
         </is>
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>09:30</t>
+          <t>15:30</t>
         </is>
       </c>
       <c r="J72" t="inlineStr">
         <is>
-          <t>https://www.meteo.cat/observacions/xema/dades?codi=YU&amp;dia=2026-02-04T09:30Z</t>
+          <t>https://www.meteo.cat/observacions/xema/dades?codi=YU&amp;dia=2026-02-04T15:30Z</t>
         </is>
       </c>
       <c r="K72" t="n">
@@ -15912,7 +15900,7 @@
       </c>
       <c r="M72" t="inlineStr">
         <is>
-          <t>232</t>
+          <t>260</t>
         </is>
       </c>
       <c r="N72" t="inlineStr"/>
@@ -15920,7 +15908,7 @@
       <c r="P72" t="inlineStr"/>
       <c r="Q72" t="inlineStr">
         <is>
-          <t>99</t>
+          <t>86</t>
         </is>
       </c>
       <c r="R72" t="inlineStr"/>
@@ -15931,66 +15919,66 @@
       </c>
       <c r="T72" t="inlineStr">
         <is>
-          <t>09:30 - 10:00</t>
+          <t>15:30 - 16:00</t>
         </is>
       </c>
       <c r="U72" t="inlineStr">
         <is>
-          <t>48</t>
+          <t>67</t>
         </is>
       </c>
       <c r="V72" t="inlineStr">
         <is>
-          <t>3.2</t>
+          <t>5.0</t>
         </is>
       </c>
       <c r="W72" t="inlineStr">
         <is>
-          <t>2.8</t>
+          <t>4.9</t>
         </is>
       </c>
       <c r="X72" t="inlineStr">
         <is>
-          <t>3.4</t>
+          <t>5.5</t>
         </is>
       </c>
       <c r="Y72" t="inlineStr">
         <is>
-          <t>10.1</t>
+          <t>11.2</t>
         </is>
       </c>
       <c r="Z72" t="inlineStr"/>
       <c r="AA72" t="inlineStr"/>
       <c r="AB72" t="inlineStr">
         <is>
-          <t>17.3</t>
+          <t>20.5</t>
         </is>
       </c>
       <c r="AC72" t="inlineStr"/>
       <c r="AD72" t="inlineStr"/>
       <c r="AE72" t="inlineStr">
         <is>
-          <t>09:30 - 10:00</t>
+          <t>15:30 - 16:00</t>
         </is>
       </c>
       <c r="AF72" t="inlineStr">
         <is>
-          <t>3.2</t>
+          <t>5.0</t>
         </is>
       </c>
       <c r="AG72" t="inlineStr">
         <is>
-          <t>3.4</t>
+          <t>5.5</t>
         </is>
       </c>
       <c r="AH72" t="inlineStr">
         <is>
-          <t>2.8</t>
+          <t>4.9</t>
         </is>
       </c>
       <c r="AI72" t="inlineStr">
         <is>
-          <t>99</t>
+          <t>86</t>
         </is>
       </c>
       <c r="AJ72" t="inlineStr">
@@ -16000,37 +15988,37 @@
       </c>
       <c r="AK72" t="inlineStr">
         <is>
-          <t>10.1</t>
+          <t>11.2</t>
         </is>
       </c>
       <c r="AL72" t="inlineStr">
         <is>
-          <t>232</t>
+          <t>260</t>
         </is>
       </c>
       <c r="AM72" t="inlineStr">
         <is>
-          <t>09:30 - 10:00</t>
+          <t>15:30 - 16:00</t>
         </is>
       </c>
       <c r="AN72" t="inlineStr">
         <is>
-          <t>3.2</t>
+          <t>5.0</t>
         </is>
       </c>
       <c r="AO72" t="inlineStr">
         <is>
-          <t>3.4</t>
+          <t>5.5</t>
         </is>
       </c>
       <c r="AP72" t="inlineStr">
         <is>
-          <t>2.8</t>
+          <t>4.9</t>
         </is>
       </c>
       <c r="AQ72" t="inlineStr">
         <is>
-          <t>99</t>
+          <t>86</t>
         </is>
       </c>
       <c r="AR72" t="inlineStr">
@@ -16040,33 +16028,33 @@
       </c>
       <c r="AS72" t="inlineStr">
         <is>
-          <t>10.1</t>
+          <t>11.2</t>
         </is>
       </c>
       <c r="AT72" t="inlineStr">
         <is>
-          <t>232</t>
+          <t>260</t>
         </is>
       </c>
       <c r="AU72" t="inlineStr">
         <is>
-          <t>17.3</t>
+          <t>20.5</t>
         </is>
       </c>
       <c r="AV72" t="inlineStr">
         <is>
-          <t>48</t>
+          <t>67</t>
         </is>
       </c>
       <c r="AW72" t="inlineStr"/>
       <c r="AX72" t="inlineStr">
         <is>
-          <t>17.3</t>
+          <t>20.5</t>
         </is>
       </c>
       <c r="AY72" t="inlineStr">
         <is>
-          <t>48</t>
+          <t>67</t>
         </is>
       </c>
       <c r="AZ72" t="inlineStr"/>
@@ -16110,7 +16098,7 @@
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>2026-02-04 11:29:52</t>
+          <t>2026-02-04 16:16:44</t>
         </is>
       </c>
       <c r="I73" t="inlineStr">
@@ -16331,7 +16319,7 @@
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>2026-02-04 11:29:52</t>
+          <t>2026-02-04 16:16:44</t>
         </is>
       </c>
       <c r="I74" t="inlineStr">
@@ -16552,7 +16540,7 @@
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>2026-02-04 11:29:52</t>
+          <t>2026-02-04 16:16:44</t>
         </is>
       </c>
       <c r="I75" t="inlineStr">
@@ -16773,7 +16761,7 @@
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>2026-02-04 11:29:52</t>
+          <t>2026-02-04 16:16:44</t>
         </is>
       </c>
       <c r="I76" t="inlineStr">
@@ -16979,7 +16967,7 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>09:30 - 10:00</t>
+          <t>15:30 - 16:00</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
@@ -16994,17 +16982,17 @@
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>2026-02-04 11:29:54</t>
+          <t>2026-02-04 16:16:46</t>
         </is>
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>09:30</t>
+          <t>15:30</t>
         </is>
       </c>
       <c r="J77" t="inlineStr">
         <is>
-          <t>https://www.meteo.cat/observacions/xema/dades?codi=CD&amp;dia=2026-02-04T09:30Z</t>
+          <t>https://www.meteo.cat/observacions/xema/dades?codi=CD&amp;dia=2026-02-04T15:30Z</t>
         </is>
       </c>
       <c r="K77" t="n">
@@ -17017,7 +17005,7 @@
       </c>
       <c r="M77" t="inlineStr">
         <is>
-          <t>197</t>
+          <t>226</t>
         </is>
       </c>
       <c r="N77" t="inlineStr"/>
@@ -17025,12 +17013,12 @@
       <c r="P77" t="inlineStr"/>
       <c r="Q77" t="inlineStr">
         <is>
-          <t>98</t>
+          <t>61</t>
         </is>
       </c>
       <c r="R77" t="inlineStr">
         <is>
-          <t>994.3</t>
+          <t>990.5</t>
         </is>
       </c>
       <c r="S77" t="inlineStr">
@@ -17040,66 +17028,66 @@
       </c>
       <c r="T77" t="inlineStr">
         <is>
-          <t>09:30 - 10:00</t>
+          <t>15:30 - 16:00</t>
         </is>
       </c>
       <c r="U77" t="inlineStr">
         <is>
-          <t>77</t>
+          <t>232</t>
         </is>
       </c>
       <c r="V77" t="inlineStr">
         <is>
-          <t>1.4</t>
+          <t>9.0</t>
         </is>
       </c>
       <c r="W77" t="inlineStr">
         <is>
-          <t>1.2</t>
+          <t>8.5</t>
         </is>
       </c>
       <c r="X77" t="inlineStr">
         <is>
-          <t>1.7</t>
+          <t>9.3</t>
         </is>
       </c>
       <c r="Y77" t="inlineStr">
         <is>
-          <t>1.1</t>
+          <t>8.3</t>
         </is>
       </c>
       <c r="Z77" t="inlineStr"/>
       <c r="AA77" t="inlineStr"/>
       <c r="AB77" t="inlineStr">
         <is>
-          <t>4.0</t>
+          <t>17.6</t>
         </is>
       </c>
       <c r="AC77" t="inlineStr"/>
       <c r="AD77" t="inlineStr"/>
       <c r="AE77" t="inlineStr">
         <is>
-          <t>09:30 - 10:00</t>
+          <t>15:30 - 16:00</t>
         </is>
       </c>
       <c r="AF77" t="inlineStr">
         <is>
-          <t>1.4</t>
+          <t>9.0</t>
         </is>
       </c>
       <c r="AG77" t="inlineStr">
         <is>
-          <t>1.7</t>
+          <t>9.3</t>
         </is>
       </c>
       <c r="AH77" t="inlineStr">
         <is>
-          <t>1.2</t>
+          <t>8.5</t>
         </is>
       </c>
       <c r="AI77" t="inlineStr">
         <is>
-          <t>98</t>
+          <t>61</t>
         </is>
       </c>
       <c r="AJ77" t="inlineStr">
@@ -17109,37 +17097,37 @@
       </c>
       <c r="AK77" t="inlineStr">
         <is>
-          <t>1.1</t>
+          <t>8.3</t>
         </is>
       </c>
       <c r="AL77" t="inlineStr">
         <is>
-          <t>197</t>
+          <t>226</t>
         </is>
       </c>
       <c r="AM77" t="inlineStr">
         <is>
-          <t>09:30 - 10:00</t>
+          <t>15:30 - 16:00</t>
         </is>
       </c>
       <c r="AN77" t="inlineStr">
         <is>
-          <t>1.4</t>
+          <t>9.0</t>
         </is>
       </c>
       <c r="AO77" t="inlineStr">
         <is>
-          <t>1.7</t>
+          <t>9.3</t>
         </is>
       </c>
       <c r="AP77" t="inlineStr">
         <is>
-          <t>1.2</t>
+          <t>8.5</t>
         </is>
       </c>
       <c r="AQ77" t="inlineStr">
         <is>
-          <t>98</t>
+          <t>61</t>
         </is>
       </c>
       <c r="AR77" t="inlineStr">
@@ -17149,42 +17137,42 @@
       </c>
       <c r="AS77" t="inlineStr">
         <is>
-          <t>1.1</t>
+          <t>8.3</t>
         </is>
       </c>
       <c r="AT77" t="inlineStr">
         <is>
-          <t>197</t>
+          <t>226</t>
         </is>
       </c>
       <c r="AU77" t="inlineStr">
         <is>
-          <t>4.0</t>
+          <t>17.6</t>
         </is>
       </c>
       <c r="AV77" t="inlineStr">
         <is>
-          <t>994.3</t>
+          <t>990.5</t>
         </is>
       </c>
       <c r="AW77" t="inlineStr">
         <is>
-          <t>77</t>
+          <t>232</t>
         </is>
       </c>
       <c r="AX77" t="inlineStr">
         <is>
-          <t>4.0</t>
+          <t>17.6</t>
         </is>
       </c>
       <c r="AY77" t="inlineStr">
         <is>
-          <t>994.3</t>
+          <t>990.5</t>
         </is>
       </c>
       <c r="AZ77" t="inlineStr">
         <is>
-          <t>77</t>
+          <t>232</t>
         </is>
       </c>
       <c r="BA77" t="inlineStr"/>
@@ -17227,7 +17215,7 @@
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>2026-02-04 11:29:56</t>
+          <t>2026-02-04 16:16:48</t>
         </is>
       </c>
       <c r="I78" t="inlineStr">
@@ -17460,7 +17448,7 @@
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>2026-02-04 11:29:56</t>
+          <t>2026-02-04 16:16:48</t>
         </is>
       </c>
       <c r="I79" t="inlineStr">
@@ -17693,7 +17681,7 @@
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>2026-02-04 11:29:56</t>
+          <t>2026-02-04 16:16:48</t>
         </is>
       </c>
       <c r="I80" t="inlineStr">
@@ -17926,7 +17914,7 @@
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>2026-02-04 11:29:56</t>
+          <t>2026-02-04 16:16:48</t>
         </is>
       </c>
       <c r="I81" t="inlineStr">
@@ -18144,7 +18132,7 @@
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>09:30 - 10:00</t>
+          <t>15:30 - 16:00</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
@@ -18159,17 +18147,17 @@
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>2026-02-04 11:29:59</t>
+          <t>2026-02-04 16:16:51</t>
         </is>
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>09:30</t>
+          <t>15:30</t>
         </is>
       </c>
       <c r="J82" t="inlineStr">
         <is>
-          <t>https://www.meteo.cat/observacions/xema/dades?codi=Z2&amp;dia=2026-02-04T09:30Z</t>
+          <t>https://www.meteo.cat/observacions/xema/dades?codi=Z2&amp;dia=2026-02-04T15:30Z</t>
         </is>
       </c>
       <c r="K82" t="n">
@@ -18184,17 +18172,17 @@
       <c r="N82" t="inlineStr"/>
       <c r="O82" t="inlineStr">
         <is>
-          <t>222</t>
+          <t>309</t>
         </is>
       </c>
       <c r="P82" t="inlineStr">
         <is>
-          <t>114</t>
+          <t>113</t>
         </is>
       </c>
       <c r="Q82" t="inlineStr">
         <is>
-          <t>93</t>
+          <t>95</t>
         </is>
       </c>
       <c r="R82" t="inlineStr"/>
@@ -18205,66 +18193,66 @@
       </c>
       <c r="T82" t="inlineStr">
         <is>
-          <t>09:30 - 10:00</t>
+          <t>15:30 - 16:00</t>
         </is>
       </c>
       <c r="U82" t="inlineStr">
         <is>
-          <t>167</t>
+          <t>103</t>
         </is>
       </c>
       <c r="V82" t="inlineStr">
         <is>
-          <t>-7.3</t>
+          <t>-5.4</t>
         </is>
       </c>
       <c r="W82" t="inlineStr">
         <is>
-          <t>-7.4</t>
+          <t>-5.5</t>
         </is>
       </c>
       <c r="X82" t="inlineStr">
         <is>
-          <t>-6.7</t>
+          <t>-5.3</t>
         </is>
       </c>
       <c r="Y82" t="inlineStr"/>
       <c r="Z82" t="inlineStr"/>
       <c r="AA82" t="inlineStr">
         <is>
-          <t>1.8</t>
+          <t>4.0</t>
         </is>
       </c>
       <c r="AB82" t="inlineStr"/>
       <c r="AC82" t="inlineStr"/>
       <c r="AD82" t="inlineStr">
         <is>
-          <t>5.0</t>
+          <t>5.4</t>
         </is>
       </c>
       <c r="AE82" t="inlineStr">
         <is>
-          <t>09:30 - 10:00</t>
+          <t>15:30 - 16:00</t>
         </is>
       </c>
       <c r="AF82" t="inlineStr">
         <is>
-          <t>-7.3</t>
+          <t>-5.4</t>
         </is>
       </c>
       <c r="AG82" t="inlineStr">
         <is>
-          <t>-6.7</t>
+          <t>-5.3</t>
         </is>
       </c>
       <c r="AH82" t="inlineStr">
         <is>
-          <t>-7.4</t>
+          <t>-5.5</t>
         </is>
       </c>
       <c r="AI82" t="inlineStr">
         <is>
-          <t>93</t>
+          <t>95</t>
         </is>
       </c>
       <c r="AJ82" t="inlineStr">
@@ -18274,37 +18262,37 @@
       </c>
       <c r="AK82" t="inlineStr">
         <is>
-          <t>114</t>
+          <t>113</t>
         </is>
       </c>
       <c r="AL82" t="inlineStr">
         <is>
-          <t>1.8</t>
+          <t>4.0</t>
         </is>
       </c>
       <c r="AM82" t="inlineStr">
         <is>
-          <t>09:30 - 10:00</t>
+          <t>15:30 - 16:00</t>
         </is>
       </c>
       <c r="AN82" t="inlineStr">
         <is>
-          <t>-7.3</t>
+          <t>-5.4</t>
         </is>
       </c>
       <c r="AO82" t="inlineStr">
         <is>
-          <t>-6.7</t>
+          <t>-5.3</t>
         </is>
       </c>
       <c r="AP82" t="inlineStr">
         <is>
-          <t>-7.4</t>
+          <t>-5.5</t>
         </is>
       </c>
       <c r="AQ82" t="inlineStr">
         <is>
-          <t>93</t>
+          <t>95</t>
         </is>
       </c>
       <c r="AR82" t="inlineStr">
@@ -18314,42 +18302,42 @@
       </c>
       <c r="AS82" t="inlineStr">
         <is>
-          <t>114</t>
+          <t>113</t>
         </is>
       </c>
       <c r="AT82" t="inlineStr">
         <is>
-          <t>1.8</t>
+          <t>4.0</t>
         </is>
       </c>
       <c r="AU82" t="inlineStr">
         <is>
-          <t>222</t>
+          <t>309</t>
         </is>
       </c>
       <c r="AV82" t="inlineStr">
         <is>
-          <t>5.0</t>
+          <t>5.4</t>
         </is>
       </c>
       <c r="AW82" t="inlineStr">
         <is>
-          <t>167</t>
+          <t>103</t>
         </is>
       </c>
       <c r="AX82" t="inlineStr">
         <is>
-          <t>222</t>
+          <t>309</t>
         </is>
       </c>
       <c r="AY82" t="inlineStr">
         <is>
-          <t>5.0</t>
+          <t>5.4</t>
         </is>
       </c>
       <c r="AZ82" t="inlineStr">
         <is>
-          <t>167</t>
+          <t>103</t>
         </is>
       </c>
       <c r="BA82" t="inlineStr"/>
@@ -18392,7 +18380,7 @@
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>2026-02-04 11:30:01</t>
+          <t>2026-02-04 16:16:53</t>
         </is>
       </c>
       <c r="I83" t="inlineStr">
@@ -18625,7 +18613,7 @@
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>2026-02-04 11:30:01</t>
+          <t>2026-02-04 16:16:53</t>
         </is>
       </c>
       <c r="I84" t="inlineStr">
@@ -18666,7 +18654,7 @@
       <c r="R84" t="inlineStr"/>
       <c r="S84" t="inlineStr">
         <is>
-          <t>0.6</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="T84" t="inlineStr">
@@ -18735,7 +18723,7 @@
       </c>
       <c r="AJ84" t="inlineStr">
         <is>
-          <t>0.6</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="AK84" t="inlineStr">
@@ -18775,7 +18763,7 @@
       </c>
       <c r="AR84" t="inlineStr">
         <is>
-          <t>0.6</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="AS84" t="inlineStr">
@@ -18858,7 +18846,7 @@
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>2026-02-04 11:30:01</t>
+          <t>2026-02-04 16:16:53</t>
         </is>
       </c>
       <c r="I85" t="inlineStr">
@@ -18899,7 +18887,7 @@
       <c r="R85" t="inlineStr"/>
       <c r="S85" t="inlineStr">
         <is>
-          <t>0.5</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="T85" t="inlineStr">
@@ -18968,7 +18956,7 @@
       </c>
       <c r="AJ85" t="inlineStr">
         <is>
-          <t>0.5</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="AK85" t="inlineStr">
@@ -19008,7 +18996,7 @@
       </c>
       <c r="AR85" t="inlineStr">
         <is>
-          <t>0.5</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="AS85" t="inlineStr">
@@ -19091,7 +19079,7 @@
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>2026-02-04 11:30:01</t>
+          <t>2026-02-04 16:16:53</t>
         </is>
       </c>
       <c r="I86" t="inlineStr">
@@ -19132,7 +19120,7 @@
       <c r="R86" t="inlineStr"/>
       <c r="S86" t="inlineStr">
         <is>
-          <t>0.1</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="T86" t="inlineStr">
@@ -19201,7 +19189,7 @@
       </c>
       <c r="AJ86" t="inlineStr">
         <is>
-          <t>0.1</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="AK86" t="inlineStr">
@@ -19241,7 +19229,7 @@
       </c>
       <c r="AR86" t="inlineStr">
         <is>
-          <t>0.1</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="AS86" t="inlineStr">
@@ -19309,7 +19297,7 @@
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>09:30 - 10:00</t>
+          <t>15:30 - 16:00</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
@@ -19324,17 +19312,17 @@
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>2026-02-04 11:30:03</t>
+          <t>2026-02-04 16:16:56</t>
         </is>
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>10:00</t>
+          <t>15:30</t>
         </is>
       </c>
       <c r="J87" t="inlineStr">
         <is>
-          <t>https://www.meteo.cat/observacions/xema/dades?codi=VK&amp;dia=2026-02-04T10:00Z</t>
+          <t>https://www.meteo.cat/observacions/xema/dades?codi=VK&amp;dia=2026-02-04T15:30Z</t>
         </is>
       </c>
       <c r="K87" t="n">
@@ -19347,7 +19335,7 @@
       </c>
       <c r="M87" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>339</t>
         </is>
       </c>
       <c r="N87" t="inlineStr"/>
@@ -19355,12 +19343,12 @@
       <c r="P87" t="inlineStr"/>
       <c r="Q87" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>68</t>
         </is>
       </c>
       <c r="R87" t="inlineStr">
         <is>
-          <t>993.5</t>
+          <t>993.1</t>
         </is>
       </c>
       <c r="S87" t="inlineStr">
@@ -19370,66 +19358,66 @@
       </c>
       <c r="T87" t="inlineStr">
         <is>
-          <t>09:30 - 10:00</t>
+          <t>15:30 - 16:00</t>
         </is>
       </c>
       <c r="U87" t="inlineStr">
         <is>
-          <t>203</t>
+          <t>231</t>
         </is>
       </c>
       <c r="V87" t="inlineStr">
         <is>
-          <t>6.8</t>
+          <t>10.7</t>
         </is>
       </c>
       <c r="W87" t="inlineStr">
         <is>
-          <t>6.3</t>
+          <t>10.5</t>
         </is>
       </c>
       <c r="X87" t="inlineStr">
         <is>
-          <t>7.2</t>
+          <t>10.9</t>
         </is>
       </c>
       <c r="Y87" t="inlineStr">
         <is>
-          <t>1.1</t>
+          <t>9.0</t>
         </is>
       </c>
       <c r="Z87" t="inlineStr"/>
       <c r="AA87" t="inlineStr"/>
       <c r="AB87" t="inlineStr">
         <is>
-          <t>4.0</t>
+          <t>15.8</t>
         </is>
       </c>
       <c r="AC87" t="inlineStr"/>
       <c r="AD87" t="inlineStr"/>
       <c r="AE87" t="inlineStr">
         <is>
-          <t>09:30 - 10:00</t>
+          <t>15:30 - 16:00</t>
         </is>
       </c>
       <c r="AF87" t="inlineStr">
         <is>
-          <t>6.8</t>
+          <t>10.7</t>
         </is>
       </c>
       <c r="AG87" t="inlineStr">
         <is>
-          <t>7.2</t>
+          <t>10.9</t>
         </is>
       </c>
       <c r="AH87" t="inlineStr">
         <is>
-          <t>6.3</t>
+          <t>10.5</t>
         </is>
       </c>
       <c r="AI87" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>68</t>
         </is>
       </c>
       <c r="AJ87" t="inlineStr">
@@ -19439,37 +19427,37 @@
       </c>
       <c r="AK87" t="inlineStr">
         <is>
-          <t>1.1</t>
+          <t>9.0</t>
         </is>
       </c>
       <c r="AL87" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>339</t>
         </is>
       </c>
       <c r="AM87" t="inlineStr">
         <is>
-          <t>09:30 - 10:00</t>
+          <t>15:30 - 16:00</t>
         </is>
       </c>
       <c r="AN87" t="inlineStr">
         <is>
-          <t>6.8</t>
+          <t>10.7</t>
         </is>
       </c>
       <c r="AO87" t="inlineStr">
         <is>
-          <t>7.2</t>
+          <t>10.9</t>
         </is>
       </c>
       <c r="AP87" t="inlineStr">
         <is>
-          <t>6.3</t>
+          <t>10.5</t>
         </is>
       </c>
       <c r="AQ87" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>68</t>
         </is>
       </c>
       <c r="AR87" t="inlineStr">
@@ -19479,42 +19467,42 @@
       </c>
       <c r="AS87" t="inlineStr">
         <is>
-          <t>1.1</t>
+          <t>9.0</t>
         </is>
       </c>
       <c r="AT87" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>339</t>
         </is>
       </c>
       <c r="AU87" t="inlineStr">
         <is>
-          <t>4.0</t>
+          <t>15.8</t>
         </is>
       </c>
       <c r="AV87" t="inlineStr">
         <is>
-          <t>993.5</t>
+          <t>993.1</t>
         </is>
       </c>
       <c r="AW87" t="inlineStr">
         <is>
-          <t>203</t>
+          <t>231</t>
         </is>
       </c>
       <c r="AX87" t="inlineStr">
         <is>
-          <t>4.0</t>
+          <t>15.8</t>
         </is>
       </c>
       <c r="AY87" t="inlineStr">
         <is>
-          <t>993.5</t>
+          <t>993.1</t>
         </is>
       </c>
       <c r="AZ87" t="inlineStr">
         <is>
-          <t>203</t>
+          <t>231</t>
         </is>
       </c>
       <c r="BA87" t="inlineStr"/>
@@ -19557,7 +19545,7 @@
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>2026-02-04 11:30:05</t>
+          <t>2026-02-04 16:16:57</t>
         </is>
       </c>
       <c r="I88" t="inlineStr">
@@ -19790,7 +19778,7 @@
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>2026-02-04 11:30:05</t>
+          <t>2026-02-04 16:16:57</t>
         </is>
       </c>
       <c r="I89" t="inlineStr">
@@ -20023,7 +20011,7 @@
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>2026-02-04 11:30:05</t>
+          <t>2026-02-04 16:16:57</t>
         </is>
       </c>
       <c r="I90" t="inlineStr">
@@ -20256,7 +20244,7 @@
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>2026-02-04 11:30:05</t>
+          <t>2026-02-04 16:16:57</t>
         </is>
       </c>
       <c r="I91" t="inlineStr">
@@ -20474,7 +20462,7 @@
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>09:30 - 10:00</t>
+          <t>15:30 - 16:00</t>
         </is>
       </c>
       <c r="F92" t="inlineStr">
@@ -20489,17 +20477,17 @@
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>2026-02-04 11:30:08</t>
+          <t>2026-02-04 16:17:00</t>
         </is>
       </c>
       <c r="I92" t="inlineStr">
         <is>
-          <t>10:00</t>
+          <t>15:30</t>
         </is>
       </c>
       <c r="J92" t="inlineStr">
         <is>
-          <t>https://www.meteo.cat/observacions/xema/dades?codi=Z3&amp;dia=2026-02-04T10:00Z</t>
+          <t>https://www.meteo.cat/observacions/xema/dades?codi=Z3&amp;dia=2026-02-04T15:30Z</t>
         </is>
       </c>
       <c r="K92" t="n">
@@ -20514,17 +20502,17 @@
       <c r="N92" t="inlineStr"/>
       <c r="O92" t="inlineStr">
         <is>
-          <t>191</t>
+          <t>105</t>
         </is>
       </c>
       <c r="P92" t="inlineStr">
         <is>
-          <t>111</t>
+          <t>112</t>
         </is>
       </c>
       <c r="Q92" t="inlineStr">
         <is>
-          <t>81</t>
+          <t>88</t>
         </is>
       </c>
       <c r="R92" t="inlineStr"/>
@@ -20535,66 +20523,66 @@
       </c>
       <c r="T92" t="inlineStr">
         <is>
-          <t>09:30 - 10:00</t>
+          <t>15:30 - 16:00</t>
         </is>
       </c>
       <c r="U92" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>131</t>
         </is>
       </c>
       <c r="V92" t="inlineStr">
         <is>
-          <t>-4.8</t>
+          <t>-2.6</t>
         </is>
       </c>
       <c r="W92" t="inlineStr">
         <is>
-          <t>-5.0</t>
+          <t>-2.9</t>
         </is>
       </c>
       <c r="X92" t="inlineStr">
         <is>
-          <t>-4.7</t>
+          <t>-1.9</t>
         </is>
       </c>
       <c r="Y92" t="inlineStr"/>
       <c r="Z92" t="inlineStr"/>
       <c r="AA92" t="inlineStr">
         <is>
-          <t>4.3</t>
+          <t>1.8</t>
         </is>
       </c>
       <c r="AB92" t="inlineStr"/>
       <c r="AC92" t="inlineStr"/>
       <c r="AD92" t="inlineStr">
         <is>
-          <t>20.2</t>
+          <t>6.5</t>
         </is>
       </c>
       <c r="AE92" t="inlineStr">
         <is>
-          <t>09:30 - 10:00</t>
+          <t>15:30 - 16:00</t>
         </is>
       </c>
       <c r="AF92" t="inlineStr">
         <is>
-          <t>-4.8</t>
+          <t>-2.6</t>
         </is>
       </c>
       <c r="AG92" t="inlineStr">
         <is>
-          <t>-4.7</t>
+          <t>-1.9</t>
         </is>
       </c>
       <c r="AH92" t="inlineStr">
         <is>
-          <t>-5.0</t>
+          <t>-2.9</t>
         </is>
       </c>
       <c r="AI92" t="inlineStr">
         <is>
-          <t>81</t>
+          <t>88</t>
         </is>
       </c>
       <c r="AJ92" t="inlineStr">
@@ -20604,37 +20592,37 @@
       </c>
       <c r="AK92" t="inlineStr">
         <is>
-          <t>111</t>
+          <t>112</t>
         </is>
       </c>
       <c r="AL92" t="inlineStr">
         <is>
-          <t>4.3</t>
+          <t>1.8</t>
         </is>
       </c>
       <c r="AM92" t="inlineStr">
         <is>
-          <t>09:30 - 10:00</t>
+          <t>15:30 - 16:00</t>
         </is>
       </c>
       <c r="AN92" t="inlineStr">
         <is>
-          <t>-4.8</t>
+          <t>-2.6</t>
         </is>
       </c>
       <c r="AO92" t="inlineStr">
         <is>
-          <t>-4.7</t>
+          <t>-1.9</t>
         </is>
       </c>
       <c r="AP92" t="inlineStr">
         <is>
-          <t>-5.0</t>
+          <t>-2.9</t>
         </is>
       </c>
       <c r="AQ92" t="inlineStr">
         <is>
-          <t>81</t>
+          <t>88</t>
         </is>
       </c>
       <c r="AR92" t="inlineStr">
@@ -20644,42 +20632,42 @@
       </c>
       <c r="AS92" t="inlineStr">
         <is>
-          <t>111</t>
+          <t>112</t>
         </is>
       </c>
       <c r="AT92" t="inlineStr">
         <is>
-          <t>4.3</t>
+          <t>1.8</t>
         </is>
       </c>
       <c r="AU92" t="inlineStr">
         <is>
-          <t>191</t>
+          <t>105</t>
         </is>
       </c>
       <c r="AV92" t="inlineStr">
         <is>
-          <t>20.2</t>
+          <t>6.5</t>
         </is>
       </c>
       <c r="AW92" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>131</t>
         </is>
       </c>
       <c r="AX92" t="inlineStr">
         <is>
-          <t>191</t>
+          <t>105</t>
         </is>
       </c>
       <c r="AY92" t="inlineStr">
         <is>
-          <t>20.2</t>
+          <t>6.5</t>
         </is>
       </c>
       <c r="AZ92" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>131</t>
         </is>
       </c>
       <c r="BA92" t="inlineStr"/>
@@ -20722,7 +20710,7 @@
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>2026-02-04 11:30:09</t>
+          <t>2026-02-04 16:17:02</t>
         </is>
       </c>
       <c r="I93" t="inlineStr">
@@ -20955,7 +20943,7 @@
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>2026-02-04 11:30:09</t>
+          <t>2026-02-04 16:17:02</t>
         </is>
       </c>
       <c r="I94" t="inlineStr">
@@ -20985,7 +20973,7 @@
       </c>
       <c r="P94" t="inlineStr">
         <is>
-          <t>110</t>
+          <t>111</t>
         </is>
       </c>
       <c r="Q94" t="inlineStr">
@@ -21070,7 +21058,7 @@
       </c>
       <c r="AK94" t="inlineStr">
         <is>
-          <t>110</t>
+          <t>111</t>
         </is>
       </c>
       <c r="AL94" t="inlineStr">
@@ -21110,7 +21098,7 @@
       </c>
       <c r="AS94" t="inlineStr">
         <is>
-          <t>110</t>
+          <t>111</t>
         </is>
       </c>
       <c r="AT94" t="inlineStr">
@@ -21188,7 +21176,7 @@
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>2026-02-04 11:30:09</t>
+          <t>2026-02-04 16:17:02</t>
         </is>
       </c>
       <c r="I95" t="inlineStr">
@@ -21421,7 +21409,7 @@
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>2026-02-04 11:30:09</t>
+          <t>2026-02-04 16:17:02</t>
         </is>
       </c>
       <c r="I96" t="inlineStr">
@@ -21639,7 +21627,7 @@
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>09:30 - 10:00</t>
+          <t>15:30 - 16:00</t>
         </is>
       </c>
       <c r="F97" t="inlineStr">
@@ -21654,17 +21642,17 @@
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>2026-02-04 11:30:12</t>
+          <t>2026-02-04 16:17:05</t>
         </is>
       </c>
       <c r="I97" t="inlineStr">
         <is>
-          <t>10:00</t>
+          <t>15:30</t>
         </is>
       </c>
       <c r="J97" t="inlineStr">
         <is>
-          <t>https://www.meteo.cat/observacions/xema/dades?codi=YB&amp;dia=2026-02-04T10:00Z</t>
+          <t>https://www.meteo.cat/observacions/xema/dades?codi=YB&amp;dia=2026-02-04T15:30Z</t>
         </is>
       </c>
       <c r="K97" t="n">
@@ -21677,7 +21665,7 @@
       </c>
       <c r="M97" t="inlineStr">
         <is>
-          <t>275</t>
+          <t>217</t>
         </is>
       </c>
       <c r="N97" t="inlineStr"/>
@@ -21685,12 +21673,12 @@
       <c r="P97" t="inlineStr"/>
       <c r="Q97" t="inlineStr">
         <is>
-          <t>74</t>
+          <t>56</t>
         </is>
       </c>
       <c r="R97" t="inlineStr">
         <is>
-          <t>992.0</t>
+          <t>989.5</t>
         </is>
       </c>
       <c r="S97" t="inlineStr">
@@ -21700,66 +21688,66 @@
       </c>
       <c r="T97" t="inlineStr">
         <is>
-          <t>09:30 - 10:00</t>
+          <t>15:30 - 16:00</t>
         </is>
       </c>
       <c r="U97" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>173</t>
         </is>
       </c>
       <c r="V97" t="inlineStr">
         <is>
-          <t>7.3</t>
+          <t>11.7</t>
         </is>
       </c>
       <c r="W97" t="inlineStr">
         <is>
-          <t>7.2</t>
+          <t>11.4</t>
         </is>
       </c>
       <c r="X97" t="inlineStr">
         <is>
-          <t>7.5</t>
+          <t>11.9</t>
         </is>
       </c>
       <c r="Y97" t="inlineStr">
         <is>
-          <t>8.6</t>
+          <t>9.0</t>
         </is>
       </c>
       <c r="Z97" t="inlineStr"/>
       <c r="AA97" t="inlineStr"/>
       <c r="AB97" t="inlineStr">
         <is>
-          <t>15.8</t>
+          <t>18.4</t>
         </is>
       </c>
       <c r="AC97" t="inlineStr"/>
       <c r="AD97" t="inlineStr"/>
       <c r="AE97" t="inlineStr">
         <is>
-          <t>09:30 - 10:00</t>
+          <t>15:30 - 16:00</t>
         </is>
       </c>
       <c r="AF97" t="inlineStr">
         <is>
-          <t>7.3</t>
+          <t>11.7</t>
         </is>
       </c>
       <c r="AG97" t="inlineStr">
         <is>
-          <t>7.5</t>
+          <t>11.9</t>
         </is>
       </c>
       <c r="AH97" t="inlineStr">
         <is>
-          <t>7.2</t>
+          <t>11.4</t>
         </is>
       </c>
       <c r="AI97" t="inlineStr">
         <is>
-          <t>74</t>
+          <t>56</t>
         </is>
       </c>
       <c r="AJ97" t="inlineStr">
@@ -21769,37 +21757,37 @@
       </c>
       <c r="AK97" t="inlineStr">
         <is>
-          <t>8.6</t>
+          <t>9.0</t>
         </is>
       </c>
       <c r="AL97" t="inlineStr">
         <is>
-          <t>275</t>
+          <t>217</t>
         </is>
       </c>
       <c r="AM97" t="inlineStr">
         <is>
-          <t>09:30 - 10:00</t>
+          <t>15:30 - 16:00</t>
         </is>
       </c>
       <c r="AN97" t="inlineStr">
         <is>
-          <t>7.3</t>
+          <t>11.7</t>
         </is>
       </c>
       <c r="AO97" t="inlineStr">
         <is>
-          <t>7.5</t>
+          <t>11.9</t>
         </is>
       </c>
       <c r="AP97" t="inlineStr">
         <is>
-          <t>7.2</t>
+          <t>11.4</t>
         </is>
       </c>
       <c r="AQ97" t="inlineStr">
         <is>
-          <t>74</t>
+          <t>56</t>
         </is>
       </c>
       <c r="AR97" t="inlineStr">
@@ -21809,42 +21797,42 @@
       </c>
       <c r="AS97" t="inlineStr">
         <is>
-          <t>8.6</t>
+          <t>9.0</t>
         </is>
       </c>
       <c r="AT97" t="inlineStr">
         <is>
-          <t>275</t>
+          <t>217</t>
         </is>
       </c>
       <c r="AU97" t="inlineStr">
         <is>
-          <t>15.8</t>
+          <t>18.4</t>
         </is>
       </c>
       <c r="AV97" t="inlineStr">
         <is>
-          <t>992.0</t>
+          <t>989.5</t>
         </is>
       </c>
       <c r="AW97" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>173</t>
         </is>
       </c>
       <c r="AX97" t="inlineStr">
         <is>
-          <t>15.8</t>
+          <t>18.4</t>
         </is>
       </c>
       <c r="AY97" t="inlineStr">
         <is>
-          <t>992.0</t>
+          <t>989.5</t>
         </is>
       </c>
       <c r="AZ97" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>173</t>
         </is>
       </c>
       <c r="BA97" t="inlineStr"/>
@@ -21887,7 +21875,7 @@
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>2026-02-04 11:30:14</t>
+          <t>2026-02-04 16:17:07</t>
         </is>
       </c>
       <c r="I98" t="inlineStr">
@@ -22120,7 +22108,7 @@
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>2026-02-04 11:30:14</t>
+          <t>2026-02-04 16:17:07</t>
         </is>
       </c>
       <c r="I99" t="inlineStr">
@@ -22353,7 +22341,7 @@
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>2026-02-04 11:30:14</t>
+          <t>2026-02-04 16:17:07</t>
         </is>
       </c>
       <c r="I100" t="inlineStr">
@@ -22586,7 +22574,7 @@
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>2026-02-04 11:30:14</t>
+          <t>2026-02-04 16:17:07</t>
         </is>
       </c>
       <c r="I101" t="inlineStr">
@@ -22804,7 +22792,7 @@
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>09:30 - 10:00</t>
+          <t>15:30 - 16:00</t>
         </is>
       </c>
       <c r="F102" t="inlineStr">
@@ -22819,17 +22807,17 @@
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>2026-02-04 11:30:16</t>
+          <t>2026-02-04 16:17:10</t>
         </is>
       </c>
       <c r="I102" t="inlineStr">
         <is>
-          <t>10:00</t>
+          <t>15:30</t>
         </is>
       </c>
       <c r="J102" t="inlineStr">
         <is>
-          <t>https://www.meteo.cat/observacions/xema/dades?codi=YP&amp;dia=2026-02-04T10:00Z</t>
+          <t>https://www.meteo.cat/observacions/xema/dades?codi=YP&amp;dia=2026-02-04T15:30Z</t>
         </is>
       </c>
       <c r="K102" t="n">
@@ -22842,7 +22830,7 @@
       </c>
       <c r="M102" t="inlineStr">
         <is>
-          <t>193</t>
+          <t>203</t>
         </is>
       </c>
       <c r="N102" t="inlineStr"/>
@@ -22850,153 +22838,153 @@
       <c r="P102" t="inlineStr"/>
       <c r="Q102" t="inlineStr">
         <is>
-          <t>87</t>
+          <t>73</t>
         </is>
       </c>
       <c r="R102" t="inlineStr"/>
       <c r="S102" t="inlineStr">
         <is>
-          <t>0.1</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="T102" t="inlineStr">
         <is>
-          <t>09:30 - 10:00</t>
+          <t>15:30 - 16:00</t>
         </is>
       </c>
       <c r="U102" t="inlineStr">
         <is>
-          <t>144</t>
+          <t>184</t>
         </is>
       </c>
       <c r="V102" t="inlineStr">
         <is>
-          <t>10.5</t>
+          <t>12.2</t>
         </is>
       </c>
       <c r="W102" t="inlineStr">
         <is>
-          <t>10.4</t>
+          <t>12.1</t>
         </is>
       </c>
       <c r="X102" t="inlineStr">
         <is>
-          <t>10.8</t>
+          <t>12.3</t>
         </is>
       </c>
       <c r="Y102" t="inlineStr">
         <is>
-          <t>10.8</t>
+          <t>18.4</t>
         </is>
       </c>
       <c r="Z102" t="inlineStr"/>
       <c r="AA102" t="inlineStr"/>
       <c r="AB102" t="inlineStr">
         <is>
-          <t>19.8</t>
+          <t>25.6</t>
         </is>
       </c>
       <c r="AC102" t="inlineStr"/>
       <c r="AD102" t="inlineStr"/>
       <c r="AE102" t="inlineStr">
         <is>
-          <t>09:30 - 10:00</t>
+          <t>15:30 - 16:00</t>
         </is>
       </c>
       <c r="AF102" t="inlineStr">
         <is>
-          <t>10.5</t>
+          <t>12.2</t>
         </is>
       </c>
       <c r="AG102" t="inlineStr">
         <is>
-          <t>10.8</t>
+          <t>12.3</t>
         </is>
       </c>
       <c r="AH102" t="inlineStr">
         <is>
-          <t>10.4</t>
+          <t>12.1</t>
         </is>
       </c>
       <c r="AI102" t="inlineStr">
         <is>
-          <t>87</t>
+          <t>73</t>
         </is>
       </c>
       <c r="AJ102" t="inlineStr">
         <is>
-          <t>0.1</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="AK102" t="inlineStr">
         <is>
-          <t>10.8</t>
+          <t>18.4</t>
         </is>
       </c>
       <c r="AL102" t="inlineStr">
         <is>
-          <t>193</t>
+          <t>203</t>
         </is>
       </c>
       <c r="AM102" t="inlineStr">
         <is>
-          <t>09:30 - 10:00</t>
+          <t>15:30 - 16:00</t>
         </is>
       </c>
       <c r="AN102" t="inlineStr">
         <is>
-          <t>10.5</t>
+          <t>12.2</t>
         </is>
       </c>
       <c r="AO102" t="inlineStr">
         <is>
-          <t>10.8</t>
+          <t>12.3</t>
         </is>
       </c>
       <c r="AP102" t="inlineStr">
         <is>
-          <t>10.4</t>
+          <t>12.1</t>
         </is>
       </c>
       <c r="AQ102" t="inlineStr">
         <is>
-          <t>87</t>
+          <t>73</t>
         </is>
       </c>
       <c r="AR102" t="inlineStr">
         <is>
-          <t>0.1</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="AS102" t="inlineStr">
         <is>
-          <t>10.8</t>
+          <t>18.4</t>
         </is>
       </c>
       <c r="AT102" t="inlineStr">
         <is>
-          <t>193</t>
+          <t>203</t>
         </is>
       </c>
       <c r="AU102" t="inlineStr">
         <is>
-          <t>19.8</t>
+          <t>25.6</t>
         </is>
       </c>
       <c r="AV102" t="inlineStr">
         <is>
-          <t>144</t>
+          <t>184</t>
         </is>
       </c>
       <c r="AW102" t="inlineStr"/>
       <c r="AX102" t="inlineStr">
         <is>
-          <t>19.8</t>
+          <t>25.6</t>
         </is>
       </c>
       <c r="AY102" t="inlineStr">
         <is>
-          <t>144</t>
+          <t>184</t>
         </is>
       </c>
       <c r="AZ102" t="inlineStr"/>
@@ -23040,7 +23028,7 @@
       </c>
       <c r="H103" t="inlineStr">
         <is>
-          <t>2026-02-04 11:30:18</t>
+          <t>2026-02-04 16:17:12</t>
         </is>
       </c>
       <c r="I103" t="inlineStr">
@@ -23261,7 +23249,7 @@
       </c>
       <c r="H104" t="inlineStr">
         <is>
-          <t>2026-02-04 11:30:18</t>
+          <t>2026-02-04 16:17:12</t>
         </is>
       </c>
       <c r="I104" t="inlineStr">
@@ -23482,7 +23470,7 @@
       </c>
       <c r="H105" t="inlineStr">
         <is>
-          <t>2026-02-04 11:30:18</t>
+          <t>2026-02-04 16:17:12</t>
         </is>
       </c>
       <c r="I105" t="inlineStr">
@@ -23703,7 +23691,7 @@
       </c>
       <c r="H106" t="inlineStr">
         <is>
-          <t>2026-02-04 11:30:18</t>
+          <t>2026-02-04 16:17:12</t>
         </is>
       </c>
       <c r="I106" t="inlineStr">
@@ -23909,7 +23897,7 @@
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>09:30 - 10:00</t>
+          <t>15:30 - 16:00</t>
         </is>
       </c>
       <c r="F107" t="inlineStr">
@@ -23924,17 +23912,17 @@
       </c>
       <c r="H107" t="inlineStr">
         <is>
-          <t>2026-02-04 11:30:21</t>
+          <t>2026-02-04 16:17:15</t>
         </is>
       </c>
       <c r="I107" t="inlineStr">
         <is>
-          <t>10:00</t>
+          <t>15:30</t>
         </is>
       </c>
       <c r="J107" t="inlineStr">
         <is>
-          <t>https://www.meteo.cat/observacions/xema/dades?codi=J5&amp;dia=2026-02-04T10:00Z</t>
+          <t>https://www.meteo.cat/observacions/xema/dades?codi=J5&amp;dia=2026-02-04T15:30Z</t>
         </is>
       </c>
       <c r="K107" t="n">
@@ -23947,7 +23935,7 @@
       </c>
       <c r="M107" t="inlineStr">
         <is>
-          <t>185</t>
+          <t>151</t>
         </is>
       </c>
       <c r="N107" t="inlineStr"/>
@@ -23955,12 +23943,12 @@
       <c r="P107" t="inlineStr"/>
       <c r="Q107" t="inlineStr">
         <is>
-          <t>63</t>
+          <t>56</t>
         </is>
       </c>
       <c r="R107" t="inlineStr">
         <is>
-          <t>991.4</t>
+          <t>989.7</t>
         </is>
       </c>
       <c r="S107" t="inlineStr">
@@ -23970,66 +23958,66 @@
       </c>
       <c r="T107" t="inlineStr">
         <is>
-          <t>09:30 - 10:00</t>
+          <t>15:30 - 16:00</t>
         </is>
       </c>
       <c r="U107" t="inlineStr">
         <is>
-          <t>289</t>
+          <t>175</t>
         </is>
       </c>
       <c r="V107" t="inlineStr">
         <is>
-          <t>10.5</t>
+          <t>13.1</t>
         </is>
       </c>
       <c r="W107" t="inlineStr">
         <is>
-          <t>10.3</t>
+          <t>13.1</t>
         </is>
       </c>
       <c r="X107" t="inlineStr">
         <is>
-          <t>10.7</t>
+          <t>13.3</t>
         </is>
       </c>
       <c r="Y107" t="inlineStr">
         <is>
-          <t>10.4</t>
+          <t>6.1</t>
         </is>
       </c>
       <c r="Z107" t="inlineStr"/>
       <c r="AA107" t="inlineStr"/>
       <c r="AB107" t="inlineStr">
         <is>
-          <t>21.2</t>
+          <t>11.2</t>
         </is>
       </c>
       <c r="AC107" t="inlineStr"/>
       <c r="AD107" t="inlineStr"/>
       <c r="AE107" t="inlineStr">
         <is>
-          <t>09:30 - 10:00</t>
+          <t>15:30 - 16:00</t>
         </is>
       </c>
       <c r="AF107" t="inlineStr">
         <is>
-          <t>10.5</t>
+          <t>13.1</t>
         </is>
       </c>
       <c r="AG107" t="inlineStr">
         <is>
-          <t>10.7</t>
+          <t>13.3</t>
         </is>
       </c>
       <c r="AH107" t="inlineStr">
         <is>
-          <t>10.3</t>
+          <t>13.1</t>
         </is>
       </c>
       <c r="AI107" t="inlineStr">
         <is>
-          <t>63</t>
+          <t>56</t>
         </is>
       </c>
       <c r="AJ107" t="inlineStr">
@@ -24039,37 +24027,37 @@
       </c>
       <c r="AK107" t="inlineStr">
         <is>
-          <t>10.4</t>
+          <t>6.1</t>
         </is>
       </c>
       <c r="AL107" t="inlineStr">
         <is>
-          <t>185</t>
+          <t>151</t>
         </is>
       </c>
       <c r="AM107" t="inlineStr">
         <is>
-          <t>09:30 - 10:00</t>
+          <t>15:30 - 16:00</t>
         </is>
       </c>
       <c r="AN107" t="inlineStr">
         <is>
-          <t>10.5</t>
+          <t>13.1</t>
         </is>
       </c>
       <c r="AO107" t="inlineStr">
         <is>
-          <t>10.7</t>
+          <t>13.3</t>
         </is>
       </c>
       <c r="AP107" t="inlineStr">
         <is>
-          <t>10.3</t>
+          <t>13.1</t>
         </is>
       </c>
       <c r="AQ107" t="inlineStr">
         <is>
-          <t>63</t>
+          <t>56</t>
         </is>
       </c>
       <c r="AR107" t="inlineStr">
@@ -24079,42 +24067,42 @@
       </c>
       <c r="AS107" t="inlineStr">
         <is>
-          <t>10.4</t>
+          <t>6.1</t>
         </is>
       </c>
       <c r="AT107" t="inlineStr">
         <is>
-          <t>185</t>
+          <t>151</t>
         </is>
       </c>
       <c r="AU107" t="inlineStr">
         <is>
-          <t>21.2</t>
+          <t>11.2</t>
         </is>
       </c>
       <c r="AV107" t="inlineStr">
         <is>
-          <t>991.4</t>
+          <t>989.7</t>
         </is>
       </c>
       <c r="AW107" t="inlineStr">
         <is>
-          <t>289</t>
+          <t>175</t>
         </is>
       </c>
       <c r="AX107" t="inlineStr">
         <is>
-          <t>21.2</t>
+          <t>11.2</t>
         </is>
       </c>
       <c r="AY107" t="inlineStr">
         <is>
-          <t>991.4</t>
+          <t>989.7</t>
         </is>
       </c>
       <c r="AZ107" t="inlineStr">
         <is>
-          <t>289</t>
+          <t>175</t>
         </is>
       </c>
       <c r="BA107" t="inlineStr"/>
@@ -24157,7 +24145,7 @@
       </c>
       <c r="H108" t="inlineStr">
         <is>
-          <t>2026-02-04 11:30:22</t>
+          <t>2026-02-04 16:17:16</t>
         </is>
       </c>
       <c r="I108" t="inlineStr">
@@ -24390,7 +24378,7 @@
       </c>
       <c r="H109" t="inlineStr">
         <is>
-          <t>2026-02-04 11:30:22</t>
+          <t>2026-02-04 16:17:16</t>
         </is>
       </c>
       <c r="I109" t="inlineStr">
@@ -24623,7 +24611,7 @@
       </c>
       <c r="H110" t="inlineStr">
         <is>
-          <t>2026-02-04 11:30:22</t>
+          <t>2026-02-04 16:17:16</t>
         </is>
       </c>
       <c r="I110" t="inlineStr">
@@ -24856,7 +24844,7 @@
       </c>
       <c r="H111" t="inlineStr">
         <is>
-          <t>2026-02-04 11:30:22</t>
+          <t>2026-02-04 16:17:16</t>
         </is>
       </c>
       <c r="I111" t="inlineStr">
@@ -25074,7 +25062,7 @@
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>09:30 - 10:00</t>
+          <t>15:30 - 16:00</t>
         </is>
       </c>
       <c r="F112" t="inlineStr">
@@ -25089,17 +25077,17 @@
       </c>
       <c r="H112" t="inlineStr">
         <is>
-          <t>2026-02-04 11:30:25</t>
+          <t>2026-02-04 16:17:19</t>
         </is>
       </c>
       <c r="I112" t="inlineStr">
         <is>
-          <t>10:00</t>
+          <t>15:30</t>
         </is>
       </c>
       <c r="J112" t="inlineStr">
         <is>
-          <t>https://www.meteo.cat/observacions/xema/dades?codi=D6&amp;dia=2026-02-04T10:00Z</t>
+          <t>https://www.meteo.cat/observacions/xema/dades?codi=D6&amp;dia=2026-02-04T15:30Z</t>
         </is>
       </c>
       <c r="K112" t="n">
@@ -25112,7 +25100,7 @@
       </c>
       <c r="M112" t="inlineStr">
         <is>
-          <t>188</t>
+          <t>203</t>
         </is>
       </c>
       <c r="N112" t="inlineStr"/>
@@ -25120,12 +25108,12 @@
       <c r="P112" t="inlineStr"/>
       <c r="Q112" t="inlineStr">
         <is>
-          <t>82</t>
+          <t>61</t>
         </is>
       </c>
       <c r="R112" t="inlineStr">
         <is>
-          <t>990.5</t>
+          <t>989.1</t>
         </is>
       </c>
       <c r="S112" t="inlineStr">
@@ -25135,66 +25123,66 @@
       </c>
       <c r="T112" t="inlineStr">
         <is>
-          <t>09:30 - 10:00</t>
+          <t>15:30 - 16:00</t>
         </is>
       </c>
       <c r="U112" t="inlineStr">
         <is>
-          <t>215</t>
+          <t>217</t>
         </is>
       </c>
       <c r="V112" t="inlineStr">
         <is>
-          <t>9.9</t>
+          <t>13.1</t>
         </is>
       </c>
       <c r="W112" t="inlineStr">
         <is>
-          <t>9.7</t>
+          <t>12.8</t>
         </is>
       </c>
       <c r="X112" t="inlineStr">
         <is>
-          <t>10.2</t>
+          <t>13.3</t>
         </is>
       </c>
       <c r="Y112" t="inlineStr">
         <is>
-          <t>37.8</t>
+          <t>27.4</t>
         </is>
       </c>
       <c r="Z112" t="inlineStr"/>
       <c r="AA112" t="inlineStr"/>
       <c r="AB112" t="inlineStr">
         <is>
-          <t>56.2</t>
+          <t>39.2</t>
         </is>
       </c>
       <c r="AC112" t="inlineStr"/>
       <c r="AD112" t="inlineStr"/>
       <c r="AE112" t="inlineStr">
         <is>
-          <t>09:30 - 10:00</t>
+          <t>15:30 - 16:00</t>
         </is>
       </c>
       <c r="AF112" t="inlineStr">
         <is>
-          <t>9.9</t>
+          <t>13.1</t>
         </is>
       </c>
       <c r="AG112" t="inlineStr">
         <is>
-          <t>10.2</t>
+          <t>13.3</t>
         </is>
       </c>
       <c r="AH112" t="inlineStr">
         <is>
-          <t>9.7</t>
+          <t>12.8</t>
         </is>
       </c>
       <c r="AI112" t="inlineStr">
         <is>
-          <t>82</t>
+          <t>61</t>
         </is>
       </c>
       <c r="AJ112" t="inlineStr">
@@ -25204,37 +25192,37 @@
       </c>
       <c r="AK112" t="inlineStr">
         <is>
-          <t>37.8</t>
+          <t>27.4</t>
         </is>
       </c>
       <c r="AL112" t="inlineStr">
         <is>
-          <t>188</t>
+          <t>203</t>
         </is>
       </c>
       <c r="AM112" t="inlineStr">
         <is>
-          <t>09:30 - 10:00</t>
+          <t>15:30 - 16:00</t>
         </is>
       </c>
       <c r="AN112" t="inlineStr">
         <is>
-          <t>9.9</t>
+          <t>13.1</t>
         </is>
       </c>
       <c r="AO112" t="inlineStr">
         <is>
-          <t>10.2</t>
+          <t>13.3</t>
         </is>
       </c>
       <c r="AP112" t="inlineStr">
         <is>
-          <t>9.7</t>
+          <t>12.8</t>
         </is>
       </c>
       <c r="AQ112" t="inlineStr">
         <is>
-          <t>82</t>
+          <t>61</t>
         </is>
       </c>
       <c r="AR112" t="inlineStr">
@@ -25244,42 +25232,42 @@
       </c>
       <c r="AS112" t="inlineStr">
         <is>
-          <t>37.8</t>
+          <t>27.4</t>
         </is>
       </c>
       <c r="AT112" t="inlineStr">
         <is>
-          <t>188</t>
+          <t>203</t>
         </is>
       </c>
       <c r="AU112" t="inlineStr">
         <is>
-          <t>56.2</t>
+          <t>39.2</t>
         </is>
       </c>
       <c r="AV112" t="inlineStr">
         <is>
-          <t>990.5</t>
+          <t>989.1</t>
         </is>
       </c>
       <c r="AW112" t="inlineStr">
         <is>
-          <t>215</t>
+          <t>217</t>
         </is>
       </c>
       <c r="AX112" t="inlineStr">
         <is>
-          <t>56.2</t>
+          <t>39.2</t>
         </is>
       </c>
       <c r="AY112" t="inlineStr">
         <is>
-          <t>990.5</t>
+          <t>989.1</t>
         </is>
       </c>
       <c r="AZ112" t="inlineStr">
         <is>
-          <t>215</t>
+          <t>217</t>
         </is>
       </c>
       <c r="BA112" t="inlineStr"/>
@@ -25322,7 +25310,7 @@
       </c>
       <c r="H113" t="inlineStr">
         <is>
-          <t>2026-02-04 11:30:27</t>
+          <t>2026-02-04 16:17:21</t>
         </is>
       </c>
       <c r="I113" t="inlineStr">
@@ -25555,7 +25543,7 @@
       </c>
       <c r="H114" t="inlineStr">
         <is>
-          <t>2026-02-04 11:30:27</t>
+          <t>2026-02-04 16:17:21</t>
         </is>
       </c>
       <c r="I114" t="inlineStr">
@@ -25788,7 +25776,7 @@
       </c>
       <c r="H115" t="inlineStr">
         <is>
-          <t>2026-02-04 11:30:27</t>
+          <t>2026-02-04 16:17:21</t>
         </is>
       </c>
       <c r="I115" t="inlineStr">
@@ -26021,7 +26009,7 @@
       </c>
       <c r="H116" t="inlineStr">
         <is>
-          <t>2026-02-04 11:30:27</t>
+          <t>2026-02-04 16:17:21</t>
         </is>
       </c>
       <c r="I116" t="inlineStr">
@@ -26239,7 +26227,7 @@
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>09:30 - 10:00</t>
+          <t>15:30 - 16:00</t>
         </is>
       </c>
       <c r="F117" t="inlineStr">
@@ -26254,17 +26242,17 @@
       </c>
       <c r="H117" t="inlineStr">
         <is>
-          <t>2026-02-04 11:30:30</t>
+          <t>2026-02-04 16:17:23</t>
         </is>
       </c>
       <c r="I117" t="inlineStr">
         <is>
-          <t>10:00</t>
+          <t>15:30</t>
         </is>
       </c>
       <c r="J117" t="inlineStr">
         <is>
-          <t>https://www.meteo.cat/observacions/xema/dades?codi=YA&amp;dia=2026-02-04T10:00Z</t>
+          <t>https://www.meteo.cat/observacions/xema/dades?codi=YA&amp;dia=2026-02-04T15:30Z</t>
         </is>
       </c>
       <c r="K117" t="n">
@@ -26277,7 +26265,7 @@
       </c>
       <c r="M117" t="inlineStr">
         <is>
-          <t>69</t>
+          <t>215</t>
         </is>
       </c>
       <c r="N117" t="inlineStr"/>
@@ -26285,12 +26273,12 @@
       <c r="P117" t="inlineStr"/>
       <c r="Q117" t="inlineStr">
         <is>
-          <t>88</t>
+          <t>61</t>
         </is>
       </c>
       <c r="R117" t="inlineStr">
         <is>
-          <t>993.5</t>
+          <t>989.9</t>
         </is>
       </c>
       <c r="S117" t="inlineStr">
@@ -26300,66 +26288,66 @@
       </c>
       <c r="T117" t="inlineStr">
         <is>
-          <t>09:30 - 10:00</t>
+          <t>15:30 - 16:00</t>
         </is>
       </c>
       <c r="U117" t="inlineStr">
         <is>
-          <t>146</t>
+          <t>211</t>
         </is>
       </c>
       <c r="V117" t="inlineStr">
         <is>
-          <t>0.1</t>
+          <t>6.1</t>
         </is>
       </c>
       <c r="W117" t="inlineStr">
         <is>
-          <t>-0.1</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="X117" t="inlineStr">
         <is>
-          <t>0.6</t>
+          <t>6.2</t>
         </is>
       </c>
       <c r="Y117" t="inlineStr">
         <is>
-          <t>4.7</t>
+          <t>11.2</t>
         </is>
       </c>
       <c r="Z117" t="inlineStr"/>
       <c r="AA117" t="inlineStr"/>
       <c r="AB117" t="inlineStr">
         <is>
-          <t>7.9</t>
+          <t>24.8</t>
         </is>
       </c>
       <c r="AC117" t="inlineStr"/>
       <c r="AD117" t="inlineStr"/>
       <c r="AE117" t="inlineStr">
         <is>
-          <t>09:30 - 10:00</t>
+          <t>15:30 - 16:00</t>
         </is>
       </c>
       <c r="AF117" t="inlineStr">
         <is>
-          <t>0.1</t>
+          <t>6.1</t>
         </is>
       </c>
       <c r="AG117" t="inlineStr">
         <is>
-          <t>0.6</t>
+          <t>6.2</t>
         </is>
       </c>
       <c r="AH117" t="inlineStr">
         <is>
-          <t>-0.1</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="AI117" t="inlineStr">
         <is>
-          <t>88</t>
+          <t>61</t>
         </is>
       </c>
       <c r="AJ117" t="inlineStr">
@@ -26369,37 +26357,37 @@
       </c>
       <c r="AK117" t="inlineStr">
         <is>
-          <t>4.7</t>
+          <t>11.2</t>
         </is>
       </c>
       <c r="AL117" t="inlineStr">
         <is>
-          <t>69</t>
+          <t>215</t>
         </is>
       </c>
       <c r="AM117" t="inlineStr">
         <is>
-          <t>09:30 - 10:00</t>
+          <t>15:30 - 16:00</t>
         </is>
       </c>
       <c r="AN117" t="inlineStr">
         <is>
-          <t>0.1</t>
+          <t>6.1</t>
         </is>
       </c>
       <c r="AO117" t="inlineStr">
         <is>
-          <t>0.6</t>
+          <t>6.2</t>
         </is>
       </c>
       <c r="AP117" t="inlineStr">
         <is>
-          <t>-0.1</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="AQ117" t="inlineStr">
         <is>
-          <t>88</t>
+          <t>61</t>
         </is>
       </c>
       <c r="AR117" t="inlineStr">
@@ -26409,42 +26397,42 @@
       </c>
       <c r="AS117" t="inlineStr">
         <is>
-          <t>4.7</t>
+          <t>11.2</t>
         </is>
       </c>
       <c r="AT117" t="inlineStr">
         <is>
-          <t>69</t>
+          <t>215</t>
         </is>
       </c>
       <c r="AU117" t="inlineStr">
         <is>
-          <t>7.9</t>
+          <t>24.8</t>
         </is>
       </c>
       <c r="AV117" t="inlineStr">
         <is>
-          <t>993.5</t>
+          <t>989.9</t>
         </is>
       </c>
       <c r="AW117" t="inlineStr">
         <is>
-          <t>146</t>
+          <t>211</t>
         </is>
       </c>
       <c r="AX117" t="inlineStr">
         <is>
-          <t>7.9</t>
+          <t>24.8</t>
         </is>
       </c>
       <c r="AY117" t="inlineStr">
         <is>
-          <t>993.5</t>
+          <t>989.9</t>
         </is>
       </c>
       <c r="AZ117" t="inlineStr">
         <is>
-          <t>146</t>
+          <t>211</t>
         </is>
       </c>
       <c r="BA117" t="inlineStr"/>
@@ -26487,7 +26475,7 @@
       </c>
       <c r="H118" t="inlineStr">
         <is>
-          <t>2026-02-04 11:30:31</t>
+          <t>2026-02-04 16:17:25</t>
         </is>
       </c>
       <c r="I118" t="inlineStr">
@@ -26720,7 +26708,7 @@
       </c>
       <c r="H119" t="inlineStr">
         <is>
-          <t>2026-02-04 11:30:31</t>
+          <t>2026-02-04 16:17:25</t>
         </is>
       </c>
       <c r="I119" t="inlineStr">
@@ -26953,7 +26941,7 @@
       </c>
       <c r="H120" t="inlineStr">
         <is>
-          <t>2026-02-04 11:30:31</t>
+          <t>2026-02-04 16:17:25</t>
         </is>
       </c>
       <c r="I120" t="inlineStr">
@@ -27186,7 +27174,7 @@
       </c>
       <c r="H121" t="inlineStr">
         <is>
-          <t>2026-02-04 11:30:31</t>
+          <t>2026-02-04 16:17:25</t>
         </is>
       </c>
       <c r="I121" t="inlineStr">
@@ -27404,7 +27392,7 @@
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>09:30 - 10:00</t>
+          <t>15:30 - 16:00</t>
         </is>
       </c>
       <c r="F122" t="inlineStr">
@@ -27419,17 +27407,17 @@
       </c>
       <c r="H122" t="inlineStr">
         <is>
-          <t>2026-02-04 11:30:34</t>
+          <t>2026-02-04 16:17:28</t>
         </is>
       </c>
       <c r="I122" t="inlineStr">
         <is>
-          <t>10:00</t>
+          <t>15:30</t>
         </is>
       </c>
       <c r="J122" t="inlineStr">
         <is>
-          <t>https://www.meteo.cat/observacions/xema/dades?codi=DG&amp;dia=2026-02-04T10:00Z</t>
+          <t>https://www.meteo.cat/observacions/xema/dades?codi=DG&amp;dia=2026-02-04T15:30Z</t>
         </is>
       </c>
       <c r="K122" t="n">
@@ -27442,7 +27430,7 @@
       </c>
       <c r="M122" t="inlineStr">
         <is>
-          <t>224</t>
+          <t>26</t>
         </is>
       </c>
       <c r="N122" t="inlineStr"/>
@@ -27454,12 +27442,12 @@
       </c>
       <c r="Q122" t="inlineStr">
         <is>
-          <t>77</t>
+          <t>56</t>
         </is>
       </c>
       <c r="R122" t="inlineStr">
         <is>
-          <t>825.7</t>
+          <t>825.4</t>
         </is>
       </c>
       <c r="S122" t="inlineStr">
@@ -27469,66 +27457,66 @@
       </c>
       <c r="T122" t="inlineStr">
         <is>
-          <t>09:30 - 10:00</t>
+          <t>15:30 - 16:00</t>
         </is>
       </c>
       <c r="U122" t="inlineStr">
         <is>
-          <t>185</t>
+          <t>45</t>
         </is>
       </c>
       <c r="V122" t="inlineStr">
         <is>
-          <t>-2.3</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="W122" t="inlineStr">
         <is>
-          <t>-2.6</t>
+          <t>0.8</t>
         </is>
       </c>
       <c r="X122" t="inlineStr">
         <is>
-          <t>-2.0</t>
+          <t>1.2</t>
         </is>
       </c>
       <c r="Y122" t="inlineStr">
         <is>
-          <t>2.2</t>
+          <t>9.4</t>
         </is>
       </c>
       <c r="Z122" t="inlineStr"/>
       <c r="AA122" t="inlineStr"/>
       <c r="AB122" t="inlineStr">
         <is>
-          <t>12.6</t>
+          <t>34.6</t>
         </is>
       </c>
       <c r="AC122" t="inlineStr"/>
       <c r="AD122" t="inlineStr"/>
       <c r="AE122" t="inlineStr">
         <is>
-          <t>09:30 - 10:00</t>
+          <t>15:30 - 16:00</t>
         </is>
       </c>
       <c r="AF122" t="inlineStr">
         <is>
-          <t>-2.3</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="AG122" t="inlineStr">
         <is>
-          <t>-2.0</t>
+          <t>1.2</t>
         </is>
       </c>
       <c r="AH122" t="inlineStr">
         <is>
-          <t>-2.6</t>
+          <t>0.8</t>
         </is>
       </c>
       <c r="AI122" t="inlineStr">
         <is>
-          <t>77</t>
+          <t>56</t>
         </is>
       </c>
       <c r="AJ122" t="inlineStr">
@@ -27543,32 +27531,32 @@
       </c>
       <c r="AL122" t="inlineStr">
         <is>
-          <t>2.2</t>
+          <t>9.4</t>
         </is>
       </c>
       <c r="AM122" t="inlineStr">
         <is>
-          <t>09:30 - 10:00</t>
+          <t>15:30 - 16:00</t>
         </is>
       </c>
       <c r="AN122" t="inlineStr">
         <is>
-          <t>-2.3</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="AO122" t="inlineStr">
         <is>
-          <t>-2.0</t>
+          <t>1.2</t>
         </is>
       </c>
       <c r="AP122" t="inlineStr">
         <is>
-          <t>-2.6</t>
+          <t>0.8</t>
         </is>
       </c>
       <c r="AQ122" t="inlineStr">
         <is>
-          <t>77</t>
+          <t>56</t>
         </is>
       </c>
       <c r="AR122" t="inlineStr">
@@ -27583,42 +27571,42 @@
       </c>
       <c r="AT122" t="inlineStr">
         <is>
-          <t>2.2</t>
+          <t>9.4</t>
         </is>
       </c>
       <c r="AU122" t="inlineStr">
         <is>
-          <t>224</t>
+          <t>26</t>
         </is>
       </c>
       <c r="AV122" t="inlineStr">
         <is>
-          <t>12.6</t>
+          <t>34.6</t>
         </is>
       </c>
       <c r="AW122" t="inlineStr">
         <is>
-          <t>825.7</t>
+          <t>825.4</t>
         </is>
       </c>
       <c r="AX122" t="inlineStr">
         <is>
-          <t>224</t>
+          <t>26</t>
         </is>
       </c>
       <c r="AY122" t="inlineStr">
         <is>
-          <t>12.6</t>
+          <t>34.6</t>
         </is>
       </c>
       <c r="AZ122" t="inlineStr">
         <is>
-          <t>825.7</t>
+          <t>825.4</t>
         </is>
       </c>
       <c r="BA122" t="inlineStr">
         <is>
-          <t>185</t>
+          <t>45</t>
         </is>
       </c>
     </row>
@@ -27660,7 +27648,7 @@
       </c>
       <c r="H123" t="inlineStr">
         <is>
-          <t>2026-02-04 11:30:36</t>
+          <t>2026-02-04 16:17:30</t>
         </is>
       </c>
       <c r="I123" t="inlineStr">
@@ -27901,7 +27889,7 @@
       </c>
       <c r="H124" t="inlineStr">
         <is>
-          <t>2026-02-04 11:30:36</t>
+          <t>2026-02-04 16:17:30</t>
         </is>
       </c>
       <c r="I124" t="inlineStr">
@@ -28142,7 +28130,7 @@
       </c>
       <c r="H125" t="inlineStr">
         <is>
-          <t>2026-02-04 11:30:36</t>
+          <t>2026-02-04 16:17:30</t>
         </is>
       </c>
       <c r="I125" t="inlineStr">
@@ -28383,7 +28371,7 @@
       </c>
       <c r="H126" t="inlineStr">
         <is>
-          <t>2026-02-04 11:30:36</t>
+          <t>2026-02-04 16:17:30</t>
         </is>
       </c>
       <c r="I126" t="inlineStr">
@@ -28609,7 +28597,7 @@
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>09:30 - 10:00</t>
+          <t>15:30 - 16:00</t>
         </is>
       </c>
       <c r="F127" t="inlineStr">
@@ -28624,17 +28612,17 @@
       </c>
       <c r="H127" t="inlineStr">
         <is>
-          <t>2026-02-04 11:30:39</t>
+          <t>2026-02-04 16:17:33</t>
         </is>
       </c>
       <c r="I127" t="inlineStr">
         <is>
-          <t>10:00</t>
+          <t>15:30</t>
         </is>
       </c>
       <c r="J127" t="inlineStr">
         <is>
-          <t>https://www.meteo.cat/observacions/xema/dades?codi=D4&amp;dia=2026-02-04T10:00Z</t>
+          <t>https://www.meteo.cat/observacions/xema/dades?codi=D4&amp;dia=2026-02-04T15:30Z</t>
         </is>
       </c>
       <c r="K127" t="n">
@@ -28647,7 +28635,7 @@
       </c>
       <c r="M127" t="inlineStr">
         <is>
-          <t>171</t>
+          <t>165</t>
         </is>
       </c>
       <c r="N127" t="inlineStr"/>
@@ -28655,12 +28643,12 @@
       <c r="P127" t="inlineStr"/>
       <c r="Q127" t="inlineStr">
         <is>
-          <t>86</t>
+          <t>62</t>
         </is>
       </c>
       <c r="R127" t="inlineStr">
         <is>
-          <t>992.1</t>
+          <t>990.3</t>
         </is>
       </c>
       <c r="S127" t="inlineStr">
@@ -28670,66 +28658,66 @@
       </c>
       <c r="T127" t="inlineStr">
         <is>
-          <t>09:30 - 10:00</t>
+          <t>15:30 - 16:00</t>
         </is>
       </c>
       <c r="U127" t="inlineStr">
         <is>
-          <t>182</t>
+          <t>190</t>
         </is>
       </c>
       <c r="V127" t="inlineStr">
         <is>
-          <t>11.5</t>
+          <t>13.6</t>
         </is>
       </c>
       <c r="W127" t="inlineStr">
         <is>
-          <t>11.2</t>
+          <t>13.3</t>
         </is>
       </c>
       <c r="X127" t="inlineStr">
         <is>
-          <t>11.9</t>
+          <t>13.8</t>
         </is>
       </c>
       <c r="Y127" t="inlineStr">
         <is>
-          <t>7.9</t>
+          <t>12.6</t>
         </is>
       </c>
       <c r="Z127" t="inlineStr"/>
       <c r="AA127" t="inlineStr"/>
       <c r="AB127" t="inlineStr">
         <is>
-          <t>19.1</t>
+          <t>22.3</t>
         </is>
       </c>
       <c r="AC127" t="inlineStr"/>
       <c r="AD127" t="inlineStr"/>
       <c r="AE127" t="inlineStr">
         <is>
-          <t>09:30 - 10:00</t>
+          <t>15:30 - 16:00</t>
         </is>
       </c>
       <c r="AF127" t="inlineStr">
         <is>
-          <t>11.5</t>
+          <t>13.6</t>
         </is>
       </c>
       <c r="AG127" t="inlineStr">
         <is>
-          <t>11.9</t>
+          <t>13.8</t>
         </is>
       </c>
       <c r="AH127" t="inlineStr">
         <is>
-          <t>11.2</t>
+          <t>13.3</t>
         </is>
       </c>
       <c r="AI127" t="inlineStr">
         <is>
-          <t>86</t>
+          <t>62</t>
         </is>
       </c>
       <c r="AJ127" t="inlineStr">
@@ -28739,37 +28727,37 @@
       </c>
       <c r="AK127" t="inlineStr">
         <is>
-          <t>7.9</t>
+          <t>12.6</t>
         </is>
       </c>
       <c r="AL127" t="inlineStr">
         <is>
-          <t>171</t>
+          <t>165</t>
         </is>
       </c>
       <c r="AM127" t="inlineStr">
         <is>
-          <t>09:30 - 10:00</t>
+          <t>15:30 - 16:00</t>
         </is>
       </c>
       <c r="AN127" t="inlineStr">
         <is>
-          <t>11.5</t>
+          <t>13.6</t>
         </is>
       </c>
       <c r="AO127" t="inlineStr">
         <is>
-          <t>11.9</t>
+          <t>13.8</t>
         </is>
       </c>
       <c r="AP127" t="inlineStr">
         <is>
-          <t>11.2</t>
+          <t>13.3</t>
         </is>
       </c>
       <c r="AQ127" t="inlineStr">
         <is>
-          <t>86</t>
+          <t>62</t>
         </is>
       </c>
       <c r="AR127" t="inlineStr">
@@ -28779,42 +28767,42 @@
       </c>
       <c r="AS127" t="inlineStr">
         <is>
-          <t>7.9</t>
+          <t>12.6</t>
         </is>
       </c>
       <c r="AT127" t="inlineStr">
         <is>
-          <t>171</t>
+          <t>165</t>
         </is>
       </c>
       <c r="AU127" t="inlineStr">
         <is>
-          <t>19.1</t>
+          <t>22.3</t>
         </is>
       </c>
       <c r="AV127" t="inlineStr">
         <is>
-          <t>992.1</t>
+          <t>990.3</t>
         </is>
       </c>
       <c r="AW127" t="inlineStr">
         <is>
-          <t>182</t>
+          <t>190</t>
         </is>
       </c>
       <c r="AX127" t="inlineStr">
         <is>
-          <t>19.1</t>
+          <t>22.3</t>
         </is>
       </c>
       <c r="AY127" t="inlineStr">
         <is>
-          <t>992.1</t>
+          <t>990.3</t>
         </is>
       </c>
       <c r="AZ127" t="inlineStr">
         <is>
-          <t>182</t>
+          <t>190</t>
         </is>
       </c>
       <c r="BA127" t="inlineStr"/>
@@ -28857,7 +28845,7 @@
       </c>
       <c r="H128" t="inlineStr">
         <is>
-          <t>2026-02-04 11:30:40</t>
+          <t>2026-02-04 16:17:35</t>
         </is>
       </c>
       <c r="I128" t="inlineStr">
@@ -29090,7 +29078,7 @@
       </c>
       <c r="H129" t="inlineStr">
         <is>
-          <t>2026-02-04 11:30:40</t>
+          <t>2026-02-04 16:17:35</t>
         </is>
       </c>
       <c r="I129" t="inlineStr">
@@ -29323,7 +29311,7 @@
       </c>
       <c r="H130" t="inlineStr">
         <is>
-          <t>2026-02-04 11:30:40</t>
+          <t>2026-02-04 16:17:35</t>
         </is>
       </c>
       <c r="I130" t="inlineStr">
@@ -29556,7 +29544,7 @@
       </c>
       <c r="H131" t="inlineStr">
         <is>
-          <t>2026-02-04 11:30:40</t>
+          <t>2026-02-04 16:17:35</t>
         </is>
       </c>
       <c r="I131" t="inlineStr">
@@ -29774,7 +29762,7 @@
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>09:30 - 10:00</t>
+          <t>15:30 - 16:00</t>
         </is>
       </c>
       <c r="F132" t="inlineStr">
@@ -29789,17 +29777,17 @@
       </c>
       <c r="H132" t="inlineStr">
         <is>
-          <t>2026-02-04 11:30:43</t>
+          <t>2026-02-04 16:17:38</t>
         </is>
       </c>
       <c r="I132" t="inlineStr">
         <is>
-          <t>10:00</t>
+          <t>15:30</t>
         </is>
       </c>
       <c r="J132" t="inlineStr">
         <is>
-          <t>https://www.meteo.cat/observacions/xema/dades?codi=CI&amp;dia=2026-02-04T10:00Z</t>
+          <t>https://www.meteo.cat/observacions/xema/dades?codi=CI&amp;dia=2026-02-04T15:30Z</t>
         </is>
       </c>
       <c r="K132" t="n">
@@ -29812,7 +29800,7 @@
       </c>
       <c r="M132" t="inlineStr">
         <is>
-          <t>238</t>
+          <t>240</t>
         </is>
       </c>
       <c r="N132" t="inlineStr"/>
@@ -29820,12 +29808,12 @@
       <c r="P132" t="inlineStr"/>
       <c r="Q132" t="inlineStr">
         <is>
-          <t>92</t>
+          <t>70</t>
         </is>
       </c>
       <c r="R132" t="inlineStr">
         <is>
-          <t>994.1</t>
+          <t>990.8</t>
         </is>
       </c>
       <c r="S132" t="inlineStr">
@@ -29835,62 +29823,62 @@
       </c>
       <c r="T132" t="inlineStr">
         <is>
-          <t>09:30 - 10:00</t>
+          <t>15:30 - 16:00</t>
         </is>
       </c>
       <c r="U132" t="inlineStr"/>
       <c r="V132" t="inlineStr">
         <is>
-          <t>1.9</t>
+          <t>7.6</t>
         </is>
       </c>
       <c r="W132" t="inlineStr">
         <is>
-          <t>1.2</t>
+          <t>7.5</t>
         </is>
       </c>
       <c r="X132" t="inlineStr">
         <is>
-          <t>2.4</t>
+          <t>7.7</t>
         </is>
       </c>
       <c r="Y132" t="inlineStr">
         <is>
-          <t>6.1</t>
+          <t>15.5</t>
         </is>
       </c>
       <c r="Z132" t="inlineStr"/>
       <c r="AA132" t="inlineStr"/>
       <c r="AB132" t="inlineStr">
         <is>
-          <t>14.4</t>
+          <t>32.0</t>
         </is>
       </c>
       <c r="AC132" t="inlineStr"/>
       <c r="AD132" t="inlineStr"/>
       <c r="AE132" t="inlineStr">
         <is>
-          <t>09:30 - 10:00</t>
+          <t>15:30 - 16:00</t>
         </is>
       </c>
       <c r="AF132" t="inlineStr">
         <is>
-          <t>1.9</t>
+          <t>7.6</t>
         </is>
       </c>
       <c r="AG132" t="inlineStr">
         <is>
-          <t>2.4</t>
+          <t>7.7</t>
         </is>
       </c>
       <c r="AH132" t="inlineStr">
         <is>
-          <t>1.2</t>
+          <t>7.5</t>
         </is>
       </c>
       <c r="AI132" t="inlineStr">
         <is>
-          <t>92</t>
+          <t>70</t>
         </is>
       </c>
       <c r="AJ132" t="inlineStr">
@@ -29900,37 +29888,37 @@
       </c>
       <c r="AK132" t="inlineStr">
         <is>
-          <t>6.1</t>
+          <t>15.5</t>
         </is>
       </c>
       <c r="AL132" t="inlineStr">
         <is>
-          <t>238</t>
+          <t>240</t>
         </is>
       </c>
       <c r="AM132" t="inlineStr">
         <is>
-          <t>09:30 - 10:00</t>
+          <t>15:30 - 16:00</t>
         </is>
       </c>
       <c r="AN132" t="inlineStr">
         <is>
-          <t>1.9</t>
+          <t>7.6</t>
         </is>
       </c>
       <c r="AO132" t="inlineStr">
         <is>
-          <t>2.4</t>
+          <t>7.7</t>
         </is>
       </c>
       <c r="AP132" t="inlineStr">
         <is>
-          <t>1.2</t>
+          <t>7.5</t>
         </is>
       </c>
       <c r="AQ132" t="inlineStr">
         <is>
-          <t>92</t>
+          <t>70</t>
         </is>
       </c>
       <c r="AR132" t="inlineStr">
@@ -29940,33 +29928,33 @@
       </c>
       <c r="AS132" t="inlineStr">
         <is>
-          <t>6.1</t>
+          <t>15.5</t>
         </is>
       </c>
       <c r="AT132" t="inlineStr">
         <is>
-          <t>238</t>
+          <t>240</t>
         </is>
       </c>
       <c r="AU132" t="inlineStr">
         <is>
-          <t>14.4</t>
+          <t>32.0</t>
         </is>
       </c>
       <c r="AV132" t="inlineStr">
         <is>
-          <t>994.1</t>
+          <t>990.8</t>
         </is>
       </c>
       <c r="AW132" t="inlineStr"/>
       <c r="AX132" t="inlineStr">
         <is>
-          <t>14.4</t>
+          <t>32.0</t>
         </is>
       </c>
       <c r="AY132" t="inlineStr">
         <is>
-          <t>994.1</t>
+          <t>990.8</t>
         </is>
       </c>
       <c r="AZ132" t="inlineStr"/>
@@ -30010,7 +29998,7 @@
       </c>
       <c r="H133" t="inlineStr">
         <is>
-          <t>2026-02-04 11:30:45</t>
+          <t>2026-02-04 16:17:40</t>
         </is>
       </c>
       <c r="I133" t="inlineStr">
@@ -30231,7 +30219,7 @@
       </c>
       <c r="H134" t="inlineStr">
         <is>
-          <t>2026-02-04 11:30:45</t>
+          <t>2026-02-04 16:17:40</t>
         </is>
       </c>
       <c r="I134" t="inlineStr">
@@ -30452,7 +30440,7 @@
       </c>
       <c r="H135" t="inlineStr">
         <is>
-          <t>2026-02-04 11:30:45</t>
+          <t>2026-02-04 16:17:40</t>
         </is>
       </c>
       <c r="I135" t="inlineStr">
@@ -30673,7 +30661,7 @@
       </c>
       <c r="H136" t="inlineStr">
         <is>
-          <t>2026-02-04 11:30:45</t>
+          <t>2026-02-04 16:17:40</t>
         </is>
       </c>
       <c r="I136" t="inlineStr">
@@ -30879,7 +30867,7 @@
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>09:30 - 10:00</t>
+          <t>15:30 - 16:00</t>
         </is>
       </c>
       <c r="F137" t="inlineStr">
@@ -30894,17 +30882,17 @@
       </c>
       <c r="H137" t="inlineStr">
         <is>
-          <t>2026-02-04 11:30:47</t>
+          <t>2026-02-04 16:17:42</t>
         </is>
       </c>
       <c r="I137" t="inlineStr">
         <is>
-          <t>10:00</t>
+          <t>15:30</t>
         </is>
       </c>
       <c r="J137" t="inlineStr">
         <is>
-          <t>https://www.meteo.cat/observacions/xema/dades?codi=XS&amp;dia=2026-02-04T10:00Z</t>
+          <t>https://www.meteo.cat/observacions/xema/dades?codi=XS&amp;dia=2026-02-04T15:30Z</t>
         </is>
       </c>
       <c r="K137" t="n">
@@ -30917,7 +30905,7 @@
       </c>
       <c r="M137" t="inlineStr">
         <is>
-          <t>72</t>
+          <t>254</t>
         </is>
       </c>
       <c r="N137" t="inlineStr"/>
@@ -30925,7 +30913,7 @@
       <c r="P137" t="inlineStr"/>
       <c r="Q137" t="inlineStr">
         <is>
-          <t>83</t>
+          <t>52</t>
         </is>
       </c>
       <c r="R137" t="inlineStr"/>
@@ -30936,66 +30924,66 @@
       </c>
       <c r="T137" t="inlineStr">
         <is>
-          <t>09:30 - 10:00</t>
+          <t>15:30 - 16:00</t>
         </is>
       </c>
       <c r="U137" t="inlineStr">
         <is>
-          <t>177</t>
+          <t>196</t>
         </is>
       </c>
       <c r="V137" t="inlineStr">
         <is>
-          <t>8.2</t>
+          <t>13.2</t>
         </is>
       </c>
       <c r="W137" t="inlineStr">
         <is>
-          <t>7.9</t>
+          <t>12.9</t>
         </is>
       </c>
       <c r="X137" t="inlineStr">
         <is>
-          <t>8.7</t>
+          <t>13.4</t>
         </is>
       </c>
       <c r="Y137" t="inlineStr">
         <is>
-          <t>5.0</t>
+          <t>11.2</t>
         </is>
       </c>
       <c r="Z137" t="inlineStr"/>
       <c r="AA137" t="inlineStr"/>
       <c r="AB137" t="inlineStr">
         <is>
-          <t>12.2</t>
+          <t>21.2</t>
         </is>
       </c>
       <c r="AC137" t="inlineStr"/>
       <c r="AD137" t="inlineStr"/>
       <c r="AE137" t="inlineStr">
         <is>
-          <t>09:30 - 10:00</t>
+          <t>15:30 - 16:00</t>
         </is>
       </c>
       <c r="AF137" t="inlineStr">
         <is>
-          <t>8.2</t>
+          <t>13.2</t>
         </is>
       </c>
       <c r="AG137" t="inlineStr">
         <is>
-          <t>8.7</t>
+          <t>13.4</t>
         </is>
       </c>
       <c r="AH137" t="inlineStr">
         <is>
-          <t>7.9</t>
+          <t>12.9</t>
         </is>
       </c>
       <c r="AI137" t="inlineStr">
         <is>
-          <t>83</t>
+          <t>52</t>
         </is>
       </c>
       <c r="AJ137" t="inlineStr">
@@ -31005,37 +30993,37 @@
       </c>
       <c r="AK137" t="inlineStr">
         <is>
-          <t>5.0</t>
+          <t>11.2</t>
         </is>
       </c>
       <c r="AL137" t="inlineStr">
         <is>
-          <t>72</t>
+          <t>254</t>
         </is>
       </c>
       <c r="AM137" t="inlineStr">
         <is>
-          <t>09:30 - 10:00</t>
+          <t>15:30 - 16:00</t>
         </is>
       </c>
       <c r="AN137" t="inlineStr">
         <is>
-          <t>8.2</t>
+          <t>13.2</t>
         </is>
       </c>
       <c r="AO137" t="inlineStr">
         <is>
-          <t>8.7</t>
+          <t>13.4</t>
         </is>
       </c>
       <c r="AP137" t="inlineStr">
         <is>
-          <t>7.9</t>
+          <t>12.9</t>
         </is>
       </c>
       <c r="AQ137" t="inlineStr">
         <is>
-          <t>83</t>
+          <t>52</t>
         </is>
       </c>
       <c r="AR137" t="inlineStr">
@@ -31045,33 +31033,33 @@
       </c>
       <c r="AS137" t="inlineStr">
         <is>
-          <t>5.0</t>
+          <t>11.2</t>
         </is>
       </c>
       <c r="AT137" t="inlineStr">
         <is>
-          <t>72</t>
+          <t>254</t>
         </is>
       </c>
       <c r="AU137" t="inlineStr">
         <is>
-          <t>12.2</t>
+          <t>21.2</t>
         </is>
       </c>
       <c r="AV137" t="inlineStr">
         <is>
-          <t>177</t>
+          <t>196</t>
         </is>
       </c>
       <c r="AW137" t="inlineStr"/>
       <c r="AX137" t="inlineStr">
         <is>
-          <t>12.2</t>
+          <t>21.2</t>
         </is>
       </c>
       <c r="AY137" t="inlineStr">
         <is>
-          <t>177</t>
+          <t>196</t>
         </is>
       </c>
       <c r="AZ137" t="inlineStr"/>
@@ -31115,7 +31103,7 @@
       </c>
       <c r="H138" t="inlineStr">
         <is>
-          <t>2026-02-04 11:30:49</t>
+          <t>2026-02-04 16:17:44</t>
         </is>
       </c>
       <c r="I138" t="inlineStr">
@@ -31336,7 +31324,7 @@
       </c>
       <c r="H139" t="inlineStr">
         <is>
-          <t>2026-02-04 11:30:49</t>
+          <t>2026-02-04 16:17:44</t>
         </is>
       </c>
       <c r="I139" t="inlineStr">
@@ -31557,7 +31545,7 @@
       </c>
       <c r="H140" t="inlineStr">
         <is>
-          <t>2026-02-04 11:30:49</t>
+          <t>2026-02-04 16:17:44</t>
         </is>
       </c>
       <c r="I140" t="inlineStr">
@@ -31778,7 +31766,7 @@
       </c>
       <c r="H141" t="inlineStr">
         <is>
-          <t>2026-02-04 11:30:49</t>
+          <t>2026-02-04 16:17:44</t>
         </is>
       </c>
       <c r="I141" t="inlineStr">
@@ -31984,7 +31972,7 @@
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>09:30 - 10:00</t>
+          <t>15:30 - 16:00</t>
         </is>
       </c>
       <c r="F142" t="inlineStr">
@@ -31999,17 +31987,17 @@
       </c>
       <c r="H142" t="inlineStr">
         <is>
-          <t>2026-02-04 11:30:52</t>
+          <t>2026-02-04 16:17:47</t>
         </is>
       </c>
       <c r="I142" t="inlineStr">
         <is>
-          <t>10:00</t>
+          <t>15:30</t>
         </is>
       </c>
       <c r="J142" t="inlineStr">
         <is>
-          <t>https://www.meteo.cat/observacions/xema/dades?codi=ZC&amp;dia=2026-02-04T10:00Z</t>
+          <t>https://www.meteo.cat/observacions/xema/dades?codi=ZC&amp;dia=2026-02-04T15:30Z</t>
         </is>
       </c>
       <c r="K142" t="n">
@@ -32022,7 +32010,7 @@
       </c>
       <c r="M142" t="inlineStr">
         <is>
-          <t>309</t>
+          <t>317</t>
         </is>
       </c>
       <c r="N142" t="inlineStr"/>
@@ -32034,7 +32022,7 @@
       </c>
       <c r="Q142" t="inlineStr">
         <is>
-          <t>84</t>
+          <t>69</t>
         </is>
       </c>
       <c r="R142" t="inlineStr"/>
@@ -32045,66 +32033,66 @@
       </c>
       <c r="T142" t="inlineStr">
         <is>
-          <t>09:30 - 10:00</t>
+          <t>15:30 - 16:00</t>
         </is>
       </c>
       <c r="U142" t="inlineStr">
         <is>
-          <t>333</t>
+          <t>56</t>
         </is>
       </c>
       <c r="V142" t="inlineStr">
         <is>
-          <t>-6.1</t>
+          <t>-3.1</t>
         </is>
       </c>
       <c r="W142" t="inlineStr">
         <is>
-          <t>-6.9</t>
+          <t>-3.3</t>
         </is>
       </c>
       <c r="X142" t="inlineStr">
         <is>
-          <t>-5.6</t>
+          <t>-3.0</t>
         </is>
       </c>
       <c r="Y142" t="inlineStr">
         <is>
-          <t>32.0</t>
+          <t>13.0</t>
         </is>
       </c>
       <c r="Z142" t="inlineStr"/>
       <c r="AA142" t="inlineStr"/>
       <c r="AB142" t="inlineStr">
         <is>
-          <t>62.3</t>
+          <t>34.9</t>
         </is>
       </c>
       <c r="AC142" t="inlineStr"/>
       <c r="AD142" t="inlineStr"/>
       <c r="AE142" t="inlineStr">
         <is>
-          <t>09:30 - 10:00</t>
+          <t>15:30 - 16:00</t>
         </is>
       </c>
       <c r="AF142" t="inlineStr">
         <is>
-          <t>-6.1</t>
+          <t>-3.1</t>
         </is>
       </c>
       <c r="AG142" t="inlineStr">
         <is>
-          <t>-5.6</t>
+          <t>-3.0</t>
         </is>
       </c>
       <c r="AH142" t="inlineStr">
         <is>
-          <t>-6.9</t>
+          <t>-3.3</t>
         </is>
       </c>
       <c r="AI142" t="inlineStr">
         <is>
-          <t>84</t>
+          <t>69</t>
         </is>
       </c>
       <c r="AJ142" t="inlineStr">
@@ -32119,32 +32107,32 @@
       </c>
       <c r="AL142" t="inlineStr">
         <is>
-          <t>32.0</t>
+          <t>13.0</t>
         </is>
       </c>
       <c r="AM142" t="inlineStr">
         <is>
-          <t>09:30 - 10:00</t>
+          <t>15:30 - 16:00</t>
         </is>
       </c>
       <c r="AN142" t="inlineStr">
         <is>
-          <t>-6.1</t>
+          <t>-3.1</t>
         </is>
       </c>
       <c r="AO142" t="inlineStr">
         <is>
-          <t>-5.6</t>
+          <t>-3.0</t>
         </is>
       </c>
       <c r="AP142" t="inlineStr">
         <is>
-          <t>-6.9</t>
+          <t>-3.3</t>
         </is>
       </c>
       <c r="AQ142" t="inlineStr">
         <is>
-          <t>84</t>
+          <t>69</t>
         </is>
       </c>
       <c r="AR142" t="inlineStr">
@@ -32159,37 +32147,37 @@
       </c>
       <c r="AT142" t="inlineStr">
         <is>
-          <t>32.0</t>
+          <t>13.0</t>
         </is>
       </c>
       <c r="AU142" t="inlineStr">
         <is>
-          <t>309</t>
+          <t>317</t>
         </is>
       </c>
       <c r="AV142" t="inlineStr">
         <is>
-          <t>62.3</t>
+          <t>34.9</t>
         </is>
       </c>
       <c r="AW142" t="inlineStr">
         <is>
-          <t>333</t>
+          <t>56</t>
         </is>
       </c>
       <c r="AX142" t="inlineStr">
         <is>
-          <t>309</t>
+          <t>317</t>
         </is>
       </c>
       <c r="AY142" t="inlineStr">
         <is>
-          <t>62.3</t>
+          <t>34.9</t>
         </is>
       </c>
       <c r="AZ142" t="inlineStr">
         <is>
-          <t>333</t>
+          <t>56</t>
         </is>
       </c>
       <c r="BA142" t="inlineStr"/>
@@ -32232,7 +32220,7 @@
       </c>
       <c r="H143" t="inlineStr">
         <is>
-          <t>2026-02-04 11:30:54</t>
+          <t>2026-02-04 16:17:49</t>
         </is>
       </c>
       <c r="I143" t="inlineStr">
@@ -32465,7 +32453,7 @@
       </c>
       <c r="H144" t="inlineStr">
         <is>
-          <t>2026-02-04 11:30:54</t>
+          <t>2026-02-04 16:17:49</t>
         </is>
       </c>
       <c r="I144" t="inlineStr">
@@ -32698,7 +32686,7 @@
       </c>
       <c r="H145" t="inlineStr">
         <is>
-          <t>2026-02-04 11:30:54</t>
+          <t>2026-02-04 16:17:49</t>
         </is>
       </c>
       <c r="I145" t="inlineStr">
@@ -32931,7 +32919,7 @@
       </c>
       <c r="H146" t="inlineStr">
         <is>
-          <t>2026-02-04 11:30:54</t>
+          <t>2026-02-04 16:17:49</t>
         </is>
       </c>
       <c r="I146" t="inlineStr">
@@ -33149,7 +33137,7 @@
       </c>
       <c r="E147" t="inlineStr">
         <is>
-          <t>09:30 - 10:00</t>
+          <t>15:30 - 16:00</t>
         </is>
       </c>
       <c r="F147" t="inlineStr">
@@ -33164,17 +33152,17 @@
       </c>
       <c r="H147" t="inlineStr">
         <is>
-          <t>2026-02-04 11:30:56</t>
+          <t>2026-02-04 16:17:52</t>
         </is>
       </c>
       <c r="I147" t="inlineStr">
         <is>
-          <t>10:00</t>
+          <t>15:30</t>
         </is>
       </c>
       <c r="J147" t="inlineStr">
         <is>
-          <t>https://www.meteo.cat/observacions/xema/dades?codi=XH&amp;dia=2026-02-04T10:00Z</t>
+          <t>https://www.meteo.cat/observacions/xema/dades?codi=XH&amp;dia=2026-02-04T15:30Z</t>
         </is>
       </c>
       <c r="K147" t="n">
@@ -33195,12 +33183,12 @@
       </c>
       <c r="Q147" t="inlineStr">
         <is>
-          <t>98</t>
+          <t>69</t>
         </is>
       </c>
       <c r="R147" t="inlineStr">
         <is>
-          <t>993.8</t>
+          <t>992.0</t>
         </is>
       </c>
       <c r="S147" t="inlineStr">
@@ -33210,23 +33198,23 @@
       </c>
       <c r="T147" t="inlineStr">
         <is>
-          <t>09:30 - 10:00</t>
+          <t>15:30 - 16:00</t>
         </is>
       </c>
       <c r="U147" t="inlineStr"/>
       <c r="V147" t="inlineStr">
         <is>
-          <t>3.7</t>
+          <t>8.1</t>
         </is>
       </c>
       <c r="W147" t="inlineStr">
         <is>
-          <t>3.4</t>
+          <t>7.9</t>
         </is>
       </c>
       <c r="X147" t="inlineStr">
         <is>
-          <t>3.8</t>
+          <t>8.2</t>
         </is>
       </c>
       <c r="Y147" t="inlineStr"/>
@@ -33237,27 +33225,27 @@
       <c r="AD147" t="inlineStr"/>
       <c r="AE147" t="inlineStr">
         <is>
-          <t>09:30 - 10:00</t>
+          <t>15:30 - 16:00</t>
         </is>
       </c>
       <c r="AF147" t="inlineStr">
         <is>
-          <t>3.7</t>
+          <t>8.1</t>
         </is>
       </c>
       <c r="AG147" t="inlineStr">
         <is>
-          <t>3.8</t>
+          <t>8.2</t>
         </is>
       </c>
       <c r="AH147" t="inlineStr">
         <is>
-          <t>3.4</t>
+          <t>7.9</t>
         </is>
       </c>
       <c r="AI147" t="inlineStr">
         <is>
-          <t>98</t>
+          <t>69</t>
         </is>
       </c>
       <c r="AJ147" t="inlineStr">
@@ -33272,32 +33260,32 @@
       </c>
       <c r="AL147" t="inlineStr">
         <is>
-          <t>993.8</t>
+          <t>992.0</t>
         </is>
       </c>
       <c r="AM147" t="inlineStr">
         <is>
-          <t>09:30 - 10:00</t>
+          <t>15:30 - 16:00</t>
         </is>
       </c>
       <c r="AN147" t="inlineStr">
         <is>
-          <t>3.7</t>
+          <t>8.1</t>
         </is>
       </c>
       <c r="AO147" t="inlineStr">
         <is>
-          <t>3.8</t>
+          <t>8.2</t>
         </is>
       </c>
       <c r="AP147" t="inlineStr">
         <is>
-          <t>3.4</t>
+          <t>7.9</t>
         </is>
       </c>
       <c r="AQ147" t="inlineStr">
         <is>
-          <t>98</t>
+          <t>69</t>
         </is>
       </c>
       <c r="AR147" t="inlineStr">
@@ -33312,7 +33300,7 @@
       </c>
       <c r="AT147" t="inlineStr">
         <is>
-          <t>993.8</t>
+          <t>992.0</t>
         </is>
       </c>
       <c r="AU147" t="inlineStr"/>
@@ -33361,7 +33349,7 @@
       </c>
       <c r="H148" t="inlineStr">
         <is>
-          <t>2026-02-04 11:30:58</t>
+          <t>2026-02-04 16:17:53</t>
         </is>
       </c>
       <c r="I148" t="inlineStr">
@@ -33558,7 +33546,7 @@
       </c>
       <c r="H149" t="inlineStr">
         <is>
-          <t>2026-02-04 11:30:58</t>
+          <t>2026-02-04 16:17:53</t>
         </is>
       </c>
       <c r="I149" t="inlineStr">
@@ -33755,7 +33743,7 @@
       </c>
       <c r="H150" t="inlineStr">
         <is>
-          <t>2026-02-04 11:30:58</t>
+          <t>2026-02-04 16:17:53</t>
         </is>
       </c>
       <c r="I150" t="inlineStr">
@@ -33952,7 +33940,7 @@
       </c>
       <c r="H151" t="inlineStr">
         <is>
-          <t>2026-02-04 11:30:58</t>
+          <t>2026-02-04 16:17:53</t>
         </is>
       </c>
       <c r="I151" t="inlineStr">
@@ -34134,7 +34122,7 @@
       </c>
       <c r="E152" t="inlineStr">
         <is>
-          <t>09:30 - 10:00</t>
+          <t>15:30 - 16:00</t>
         </is>
       </c>
       <c r="F152" t="inlineStr">
@@ -34149,17 +34137,17 @@
       </c>
       <c r="H152" t="inlineStr">
         <is>
-          <t>2026-02-04 11:31:01</t>
+          <t>2026-02-04 16:17:56</t>
         </is>
       </c>
       <c r="I152" t="inlineStr">
         <is>
-          <t>10:00</t>
+          <t>15:30</t>
         </is>
       </c>
       <c r="J152" t="inlineStr">
         <is>
-          <t>https://www.meteo.cat/observacions/xema/dades?codi=XE&amp;dia=2026-02-04T10:00Z</t>
+          <t>https://www.meteo.cat/observacions/xema/dades?codi=XE&amp;dia=2026-02-04T15:30Z</t>
         </is>
       </c>
       <c r="K152" t="n">
@@ -34172,7 +34160,7 @@
       </c>
       <c r="M152" t="inlineStr">
         <is>
-          <t>238</t>
+          <t>226</t>
         </is>
       </c>
       <c r="N152" t="inlineStr"/>
@@ -34180,12 +34168,12 @@
       <c r="P152" t="inlineStr"/>
       <c r="Q152" t="inlineStr">
         <is>
-          <t>70</t>
+          <t>60</t>
         </is>
       </c>
       <c r="R152" t="inlineStr">
         <is>
-          <t>992.8</t>
+          <t>992.0</t>
         </is>
       </c>
       <c r="S152" t="inlineStr">
@@ -34195,66 +34183,66 @@
       </c>
       <c r="T152" t="inlineStr">
         <is>
-          <t>09:30 - 10:00</t>
+          <t>15:30 - 16:00</t>
         </is>
       </c>
       <c r="U152" t="inlineStr">
         <is>
-          <t>402</t>
+          <t>213</t>
         </is>
       </c>
       <c r="V152" t="inlineStr">
         <is>
-          <t>11.6</t>
+          <t>15.1</t>
         </is>
       </c>
       <c r="W152" t="inlineStr">
         <is>
-          <t>11.2</t>
+          <t>14.6</t>
         </is>
       </c>
       <c r="X152" t="inlineStr">
         <is>
-          <t>12.0</t>
+          <t>15.4</t>
         </is>
       </c>
       <c r="Y152" t="inlineStr">
         <is>
-          <t>4.0</t>
+          <t>7.2</t>
         </is>
       </c>
       <c r="Z152" t="inlineStr"/>
       <c r="AA152" t="inlineStr"/>
       <c r="AB152" t="inlineStr">
         <is>
-          <t>10.4</t>
+          <t>14.4</t>
         </is>
       </c>
       <c r="AC152" t="inlineStr"/>
       <c r="AD152" t="inlineStr"/>
       <c r="AE152" t="inlineStr">
         <is>
-          <t>09:30 - 10:00</t>
+          <t>15:30 - 16:00</t>
         </is>
       </c>
       <c r="AF152" t="inlineStr">
         <is>
-          <t>11.6</t>
+          <t>15.1</t>
         </is>
       </c>
       <c r="AG152" t="inlineStr">
         <is>
-          <t>12.0</t>
+          <t>15.4</t>
         </is>
       </c>
       <c r="AH152" t="inlineStr">
         <is>
-          <t>11.2</t>
+          <t>14.6</t>
         </is>
       </c>
       <c r="AI152" t="inlineStr">
         <is>
-          <t>70</t>
+          <t>60</t>
         </is>
       </c>
       <c r="AJ152" t="inlineStr">
@@ -34264,37 +34252,37 @@
       </c>
       <c r="AK152" t="inlineStr">
         <is>
-          <t>4.0</t>
+          <t>7.2</t>
         </is>
       </c>
       <c r="AL152" t="inlineStr">
         <is>
-          <t>238</t>
+          <t>226</t>
         </is>
       </c>
       <c r="AM152" t="inlineStr">
         <is>
-          <t>09:30 - 10:00</t>
+          <t>15:30 - 16:00</t>
         </is>
       </c>
       <c r="AN152" t="inlineStr">
         <is>
-          <t>11.6</t>
+          <t>15.1</t>
         </is>
       </c>
       <c r="AO152" t="inlineStr">
         <is>
-          <t>12.0</t>
+          <t>15.4</t>
         </is>
       </c>
       <c r="AP152" t="inlineStr">
         <is>
-          <t>11.2</t>
+          <t>14.6</t>
         </is>
       </c>
       <c r="AQ152" t="inlineStr">
         <is>
-          <t>70</t>
+          <t>60</t>
         </is>
       </c>
       <c r="AR152" t="inlineStr">
@@ -34304,42 +34292,42 @@
       </c>
       <c r="AS152" t="inlineStr">
         <is>
-          <t>4.0</t>
+          <t>7.2</t>
         </is>
       </c>
       <c r="AT152" t="inlineStr">
         <is>
-          <t>238</t>
+          <t>226</t>
         </is>
       </c>
       <c r="AU152" t="inlineStr">
         <is>
-          <t>10.4</t>
+          <t>14.4</t>
         </is>
       </c>
       <c r="AV152" t="inlineStr">
         <is>
-          <t>992.8</t>
+          <t>992.0</t>
         </is>
       </c>
       <c r="AW152" t="inlineStr">
         <is>
-          <t>402</t>
+          <t>213</t>
         </is>
       </c>
       <c r="AX152" t="inlineStr">
         <is>
-          <t>10.4</t>
+          <t>14.4</t>
         </is>
       </c>
       <c r="AY152" t="inlineStr">
         <is>
-          <t>992.8</t>
+          <t>992.0</t>
         </is>
       </c>
       <c r="AZ152" t="inlineStr">
         <is>
-          <t>402</t>
+          <t>213</t>
         </is>
       </c>
       <c r="BA152" t="inlineStr"/>
@@ -34382,7 +34370,7 @@
       </c>
       <c r="H153" t="inlineStr">
         <is>
-          <t>2026-02-04 11:31:03</t>
+          <t>2026-02-04 16:17:58</t>
         </is>
       </c>
       <c r="I153" t="inlineStr">
@@ -34615,7 +34603,7 @@
       </c>
       <c r="H154" t="inlineStr">
         <is>
-          <t>2026-02-04 11:31:03</t>
+          <t>2026-02-04 16:17:58</t>
         </is>
       </c>
       <c r="I154" t="inlineStr">
@@ -34848,7 +34836,7 @@
       </c>
       <c r="H155" t="inlineStr">
         <is>
-          <t>2026-02-04 11:31:03</t>
+          <t>2026-02-04 16:17:58</t>
         </is>
       </c>
       <c r="I155" t="inlineStr">
@@ -35081,7 +35069,7 @@
       </c>
       <c r="H156" t="inlineStr">
         <is>
-          <t>2026-02-04 11:31:03</t>
+          <t>2026-02-04 16:17:58</t>
         </is>
       </c>
       <c r="I156" t="inlineStr">
@@ -35299,7 +35287,7 @@
       </c>
       <c r="E157" t="inlineStr">
         <is>
-          <t>09:30 - 10:00</t>
+          <t>15:30 - 16:00</t>
         </is>
       </c>
       <c r="F157" t="inlineStr">
@@ -35314,17 +35302,17 @@
       </c>
       <c r="H157" t="inlineStr">
         <is>
-          <t>2026-02-04 11:31:05</t>
+          <t>2026-02-04 16:18:01</t>
         </is>
       </c>
       <c r="I157" t="inlineStr">
         <is>
-          <t>10:00</t>
+          <t>15:30</t>
         </is>
       </c>
       <c r="J157" t="inlineStr">
         <is>
-          <t>https://www.meteo.cat/observacions/xema/dades?codi=UE&amp;dia=2026-02-04T10:00Z</t>
+          <t>https://www.meteo.cat/observacions/xema/dades?codi=UE&amp;dia=2026-02-04T15:30Z</t>
         </is>
       </c>
       <c r="K157" t="n">
@@ -35341,7 +35329,7 @@
       <c r="P157" t="inlineStr"/>
       <c r="Q157" t="inlineStr">
         <is>
-          <t>85</t>
+          <t>67</t>
         </is>
       </c>
       <c r="R157" t="inlineStr"/>
@@ -35352,23 +35340,23 @@
       </c>
       <c r="T157" t="inlineStr">
         <is>
-          <t>09:30 - 10:00</t>
+          <t>15:30 - 16:00</t>
         </is>
       </c>
       <c r="U157" t="inlineStr"/>
       <c r="V157" t="inlineStr">
         <is>
-          <t>11.0</t>
+          <t>13.4</t>
         </is>
       </c>
       <c r="W157" t="inlineStr">
         <is>
-          <t>10.4</t>
+          <t>13.3</t>
         </is>
       </c>
       <c r="X157" t="inlineStr">
         <is>
-          <t>11.3</t>
+          <t>13.5</t>
         </is>
       </c>
       <c r="Y157" t="inlineStr"/>
@@ -35379,27 +35367,27 @@
       <c r="AD157" t="inlineStr"/>
       <c r="AE157" t="inlineStr">
         <is>
-          <t>09:30 - 10:00</t>
+          <t>15:30 - 16:00</t>
         </is>
       </c>
       <c r="AF157" t="inlineStr">
         <is>
-          <t>11.0</t>
+          <t>13.4</t>
         </is>
       </c>
       <c r="AG157" t="inlineStr">
         <is>
-          <t>11.3</t>
+          <t>13.5</t>
         </is>
       </c>
       <c r="AH157" t="inlineStr">
         <is>
-          <t>10.4</t>
+          <t>13.3</t>
         </is>
       </c>
       <c r="AI157" t="inlineStr">
         <is>
-          <t>85</t>
+          <t>67</t>
         </is>
       </c>
       <c r="AJ157" t="inlineStr">
@@ -35411,27 +35399,27 @@
       <c r="AL157" t="inlineStr"/>
       <c r="AM157" t="inlineStr">
         <is>
-          <t>09:30 - 10:00</t>
+          <t>15:30 - 16:00</t>
         </is>
       </c>
       <c r="AN157" t="inlineStr">
         <is>
-          <t>11.0</t>
+          <t>13.4</t>
         </is>
       </c>
       <c r="AO157" t="inlineStr">
         <is>
-          <t>11.3</t>
+          <t>13.5</t>
         </is>
       </c>
       <c r="AP157" t="inlineStr">
         <is>
-          <t>10.4</t>
+          <t>13.3</t>
         </is>
       </c>
       <c r="AQ157" t="inlineStr">
         <is>
-          <t>85</t>
+          <t>67</t>
         </is>
       </c>
       <c r="AR157" t="inlineStr">
@@ -35487,7 +35475,7 @@
       </c>
       <c r="H158" t="inlineStr">
         <is>
-          <t>2026-02-04 11:31:07</t>
+          <t>2026-02-04 16:18:02</t>
         </is>
       </c>
       <c r="I158" t="inlineStr">
@@ -35660,7 +35648,7 @@
       </c>
       <c r="H159" t="inlineStr">
         <is>
-          <t>2026-02-04 11:31:07</t>
+          <t>2026-02-04 16:18:02</t>
         </is>
       </c>
       <c r="I159" t="inlineStr">
@@ -35833,7 +35821,7 @@
       </c>
       <c r="H160" t="inlineStr">
         <is>
-          <t>2026-02-04 11:31:07</t>
+          <t>2026-02-04 16:18:02</t>
         </is>
       </c>
       <c r="I160" t="inlineStr">
@@ -36006,7 +35994,7 @@
       </c>
       <c r="H161" t="inlineStr">
         <is>
-          <t>2026-02-04 11:31:07</t>
+          <t>2026-02-04 16:18:02</t>
         </is>
       </c>
       <c r="I161" t="inlineStr">
@@ -36164,7 +36152,7 @@
       </c>
       <c r="E162" t="inlineStr">
         <is>
-          <t>09:30 - 10:00</t>
+          <t>15:30 - 16:00</t>
         </is>
       </c>
       <c r="F162" t="inlineStr">
@@ -36179,17 +36167,17 @@
       </c>
       <c r="H162" t="inlineStr">
         <is>
-          <t>2026-02-04 11:31:09</t>
+          <t>2026-02-04 16:18:05</t>
         </is>
       </c>
       <c r="I162" t="inlineStr">
         <is>
-          <t>10:00</t>
+          <t>15:30</t>
         </is>
       </c>
       <c r="J162" t="inlineStr">
         <is>
-          <t>https://www.meteo.cat/observacions/xema/dades?codi=XO&amp;dia=2026-02-04T10:00Z</t>
+          <t>https://www.meteo.cat/observacions/xema/dades?codi=XO&amp;dia=2026-02-04T15:30Z</t>
         </is>
       </c>
       <c r="K162" t="n">
@@ -36202,7 +36190,7 @@
       </c>
       <c r="M162" t="inlineStr">
         <is>
-          <t>57</t>
+          <t>246</t>
         </is>
       </c>
       <c r="N162" t="inlineStr"/>
@@ -36210,7 +36198,7 @@
       <c r="P162" t="inlineStr"/>
       <c r="Q162" t="inlineStr">
         <is>
-          <t>86</t>
+          <t>68</t>
         </is>
       </c>
       <c r="R162" t="inlineStr"/>
@@ -36221,66 +36209,66 @@
       </c>
       <c r="T162" t="inlineStr">
         <is>
-          <t>09:30 - 10:00</t>
+          <t>15:30 - 16:00</t>
         </is>
       </c>
       <c r="U162" t="inlineStr">
         <is>
-          <t>121</t>
+          <t>194</t>
         </is>
       </c>
       <c r="V162" t="inlineStr">
         <is>
-          <t>3.2</t>
+          <t>8.9</t>
         </is>
       </c>
       <c r="W162" t="inlineStr">
         <is>
-          <t>2.9</t>
+          <t>8.8</t>
         </is>
       </c>
       <c r="X162" t="inlineStr">
         <is>
-          <t>3.4</t>
+          <t>9.3</t>
         </is>
       </c>
       <c r="Y162" t="inlineStr">
         <is>
-          <t>0.7</t>
+          <t>8.6</t>
         </is>
       </c>
       <c r="Z162" t="inlineStr"/>
       <c r="AA162" t="inlineStr"/>
       <c r="AB162" t="inlineStr">
         <is>
-          <t>3.6</t>
+          <t>28.8</t>
         </is>
       </c>
       <c r="AC162" t="inlineStr"/>
       <c r="AD162" t="inlineStr"/>
       <c r="AE162" t="inlineStr">
         <is>
-          <t>09:30 - 10:00</t>
+          <t>15:30 - 16:00</t>
         </is>
       </c>
       <c r="AF162" t="inlineStr">
         <is>
-          <t>3.2</t>
+          <t>8.9</t>
         </is>
       </c>
       <c r="AG162" t="inlineStr">
         <is>
-          <t>3.4</t>
+          <t>9.3</t>
         </is>
       </c>
       <c r="AH162" t="inlineStr">
         <is>
-          <t>2.9</t>
+          <t>8.8</t>
         </is>
       </c>
       <c r="AI162" t="inlineStr">
         <is>
-          <t>86</t>
+          <t>68</t>
         </is>
       </c>
       <c r="AJ162" t="inlineStr">
@@ -36290,37 +36278,37 @@
       </c>
       <c r="AK162" t="inlineStr">
         <is>
-          <t>0.7</t>
+          <t>8.6</t>
         </is>
       </c>
       <c r="AL162" t="inlineStr">
         <is>
-          <t>57</t>
+          <t>246</t>
         </is>
       </c>
       <c r="AM162" t="inlineStr">
         <is>
-          <t>09:30 - 10:00</t>
+          <t>15:30 - 16:00</t>
         </is>
       </c>
       <c r="AN162" t="inlineStr">
         <is>
-          <t>3.2</t>
+          <t>8.9</t>
         </is>
       </c>
       <c r="AO162" t="inlineStr">
         <is>
-          <t>3.4</t>
+          <t>9.3</t>
         </is>
       </c>
       <c r="AP162" t="inlineStr">
         <is>
-          <t>2.9</t>
+          <t>8.8</t>
         </is>
       </c>
       <c r="AQ162" t="inlineStr">
         <is>
-          <t>86</t>
+          <t>68</t>
         </is>
       </c>
       <c r="AR162" t="inlineStr">
@@ -36330,33 +36318,33 @@
       </c>
       <c r="AS162" t="inlineStr">
         <is>
-          <t>0.7</t>
+          <t>8.6</t>
         </is>
       </c>
       <c r="AT162" t="inlineStr">
         <is>
-          <t>57</t>
+          <t>246</t>
         </is>
       </c>
       <c r="AU162" t="inlineStr">
         <is>
-          <t>3.6</t>
+          <t>28.8</t>
         </is>
       </c>
       <c r="AV162" t="inlineStr">
         <is>
-          <t>121</t>
+          <t>194</t>
         </is>
       </c>
       <c r="AW162" t="inlineStr"/>
       <c r="AX162" t="inlineStr">
         <is>
-          <t>3.6</t>
+          <t>28.8</t>
         </is>
       </c>
       <c r="AY162" t="inlineStr">
         <is>
-          <t>121</t>
+          <t>194</t>
         </is>
       </c>
       <c r="AZ162" t="inlineStr"/>
@@ -36400,7 +36388,7 @@
       </c>
       <c r="H163" t="inlineStr">
         <is>
-          <t>2026-02-04 11:31:11</t>
+          <t>2026-02-04 16:18:07</t>
         </is>
       </c>
       <c r="I163" t="inlineStr">
@@ -36621,7 +36609,7 @@
       </c>
       <c r="H164" t="inlineStr">
         <is>
-          <t>2026-02-04 11:31:11</t>
+          <t>2026-02-04 16:18:07</t>
         </is>
       </c>
       <c r="I164" t="inlineStr">
@@ -36842,7 +36830,7 @@
       </c>
       <c r="H165" t="inlineStr">
         <is>
-          <t>2026-02-04 11:31:11</t>
+          <t>2026-02-04 16:18:07</t>
         </is>
       </c>
       <c r="I165" t="inlineStr">
@@ -37063,7 +37051,7 @@
       </c>
       <c r="H166" t="inlineStr">
         <is>
-          <t>2026-02-04 11:31:11</t>
+          <t>2026-02-04 16:18:07</t>
         </is>
       </c>
       <c r="I166" t="inlineStr">
@@ -37269,7 +37257,7 @@
       </c>
       <c r="E167" t="inlineStr">
         <is>
-          <t>09:30 - 10:00</t>
+          <t>15:30 - 16:00</t>
         </is>
       </c>
       <c r="F167" t="inlineStr">
@@ -37284,17 +37272,17 @@
       </c>
       <c r="H167" t="inlineStr">
         <is>
-          <t>2026-02-04 11:31:14</t>
+          <t>2026-02-04 16:18:09</t>
         </is>
       </c>
       <c r="I167" t="inlineStr">
         <is>
-          <t>10:00</t>
+          <t>15:30</t>
         </is>
       </c>
       <c r="J167" t="inlineStr">
         <is>
-          <t>https://www.meteo.cat/observacions/xema/dades?codi=VS&amp;dia=2026-02-04T10:00Z</t>
+          <t>https://www.meteo.cat/observacions/xema/dades?codi=VS&amp;dia=2026-02-04T15:30Z</t>
         </is>
       </c>
       <c r="K167" t="n">
@@ -37314,17 +37302,17 @@
       <c r="O167" t="inlineStr"/>
       <c r="P167" t="inlineStr">
         <is>
-          <t>201</t>
+          <t>199</t>
         </is>
       </c>
       <c r="Q167" t="inlineStr">
         <is>
-          <t>93</t>
+          <t>96</t>
         </is>
       </c>
       <c r="R167" t="inlineStr">
         <is>
-          <t>825.6</t>
+          <t>826.5</t>
         </is>
       </c>
       <c r="S167" t="inlineStr">
@@ -37334,27 +37322,27 @@
       </c>
       <c r="T167" t="inlineStr">
         <is>
-          <t>09:30 - 10:00</t>
+          <t>15:30 - 16:00</t>
         </is>
       </c>
       <c r="U167" t="inlineStr">
         <is>
-          <t>129</t>
+          <t>81</t>
         </is>
       </c>
       <c r="V167" t="inlineStr">
         <is>
-          <t>-5.2</t>
+          <t>-2.0</t>
         </is>
       </c>
       <c r="W167" t="inlineStr">
         <is>
-          <t>-5.4</t>
+          <t>-2.7</t>
         </is>
       </c>
       <c r="X167" t="inlineStr">
         <is>
-          <t>-5.0</t>
+          <t>-1.5</t>
         </is>
       </c>
       <c r="Y167" t="inlineStr">
@@ -37373,27 +37361,27 @@
       <c r="AD167" t="inlineStr"/>
       <c r="AE167" t="inlineStr">
         <is>
-          <t>09:30 - 10:00</t>
+          <t>15:30 - 16:00</t>
         </is>
       </c>
       <c r="AF167" t="inlineStr">
         <is>
-          <t>-5.2</t>
+          <t>-2.0</t>
         </is>
       </c>
       <c r="AG167" t="inlineStr">
         <is>
-          <t>-5.0</t>
+          <t>-1.5</t>
         </is>
       </c>
       <c r="AH167" t="inlineStr">
         <is>
-          <t>-5.4</t>
+          <t>-2.7</t>
         </is>
       </c>
       <c r="AI167" t="inlineStr">
         <is>
-          <t>93</t>
+          <t>96</t>
         </is>
       </c>
       <c r="AJ167" t="inlineStr">
@@ -37403,7 +37391,7 @@
       </c>
       <c r="AK167" t="inlineStr">
         <is>
-          <t>201</t>
+          <t>199</t>
         </is>
       </c>
       <c r="AL167" t="inlineStr">
@@ -37413,27 +37401,27 @@
       </c>
       <c r="AM167" t="inlineStr">
         <is>
-          <t>09:30 - 10:00</t>
+          <t>15:30 - 16:00</t>
         </is>
       </c>
       <c r="AN167" t="inlineStr">
         <is>
-          <t>-5.2</t>
+          <t>-2.0</t>
         </is>
       </c>
       <c r="AO167" t="inlineStr">
         <is>
-          <t>-5.0</t>
+          <t>-1.5</t>
         </is>
       </c>
       <c r="AP167" t="inlineStr">
         <is>
-          <t>-5.4</t>
+          <t>-2.7</t>
         </is>
       </c>
       <c r="AQ167" t="inlineStr">
         <is>
-          <t>93</t>
+          <t>96</t>
         </is>
       </c>
       <c r="AR167" t="inlineStr">
@@ -37443,7 +37431,7 @@
       </c>
       <c r="AS167" t="inlineStr">
         <is>
-          <t>201</t>
+          <t>199</t>
         </is>
       </c>
       <c r="AT167" t="inlineStr">
@@ -37463,7 +37451,7 @@
       </c>
       <c r="AW167" t="inlineStr">
         <is>
-          <t>825.6</t>
+          <t>826.5</t>
         </is>
       </c>
       <c r="AX167" t="inlineStr">
@@ -37478,12 +37466,12 @@
       </c>
       <c r="AZ167" t="inlineStr">
         <is>
-          <t>825.6</t>
+          <t>826.5</t>
         </is>
       </c>
       <c r="BA167" t="inlineStr">
         <is>
-          <t>129</t>
+          <t>81</t>
         </is>
       </c>
     </row>
@@ -37525,7 +37513,7 @@
       </c>
       <c r="H168" t="inlineStr">
         <is>
-          <t>2026-02-04 11:31:15</t>
+          <t>2026-02-04 16:18:11</t>
         </is>
       </c>
       <c r="I168" t="inlineStr">
@@ -37539,18 +37527,14 @@
         </is>
       </c>
       <c r="K168" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="L168" t="inlineStr">
         <is>
-          <t>Període TU, TM °C, TX °C, TN °C, HRM %, PPT mm, GN cm, VVM (10 m) km/h, DVM (10 m) graus, VVX (10 m) km/h, PM hPa, RS W/m 2</t>
-        </is>
-      </c>
-      <c r="M168" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
+          <t>Període TU, TM °C, TX °C, TN °C, HRM %, PPT mm, GN cm, PM hPa, RS W/m 2</t>
+        </is>
+      </c>
+      <c r="M168" t="inlineStr"/>
       <c r="N168" t="inlineStr"/>
       <c r="O168" t="inlineStr"/>
       <c r="P168" t="inlineStr">
@@ -37598,18 +37582,10 @@
           <t>-5.8</t>
         </is>
       </c>
-      <c r="Y168" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
+      <c r="Y168" t="inlineStr"/>
       <c r="Z168" t="inlineStr"/>
       <c r="AA168" t="inlineStr"/>
-      <c r="AB168" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
+      <c r="AB168" t="inlineStr"/>
       <c r="AC168" t="inlineStr"/>
       <c r="AD168" t="inlineStr"/>
       <c r="AE168" t="inlineStr">
@@ -37649,7 +37625,7 @@
       </c>
       <c r="AL168" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>830.7</t>
         </is>
       </c>
       <c r="AM168" t="inlineStr">
@@ -37689,7 +37665,7 @@
       </c>
       <c r="AT168" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>830.7</t>
         </is>
       </c>
       <c r="AU168" t="inlineStr">
@@ -37697,36 +37673,16 @@
           <t>0</t>
         </is>
       </c>
-      <c r="AV168" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="AW168" t="inlineStr">
-        <is>
-          <t>830.7</t>
-        </is>
-      </c>
+      <c r="AV168" t="inlineStr"/>
+      <c r="AW168" t="inlineStr"/>
       <c r="AX168" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="AY168" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="AZ168" t="inlineStr">
-        <is>
-          <t>830.7</t>
-        </is>
-      </c>
-      <c r="BA168" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
+      <c r="AY168" t="inlineStr"/>
+      <c r="AZ168" t="inlineStr"/>
+      <c r="BA168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
@@ -37766,7 +37722,7 @@
       </c>
       <c r="H169" t="inlineStr">
         <is>
-          <t>2026-02-04 11:31:15</t>
+          <t>2026-02-04 16:18:11</t>
         </is>
       </c>
       <c r="I169" t="inlineStr">
@@ -37780,18 +37736,14 @@
         </is>
       </c>
       <c r="K169" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="L169" t="inlineStr">
         <is>
-          <t>Període TU, TM °C, TX °C, TN °C, HRM %, PPT mm, GN cm, VVM (10 m) km/h, DVM (10 m) graus, VVX (10 m) km/h, PM hPa, RS W/m 2</t>
-        </is>
-      </c>
-      <c r="M169" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
+          <t>Període TU, TM °C, TX °C, TN °C, HRM %, PPT mm, GN cm, PM hPa, RS W/m 2</t>
+        </is>
+      </c>
+      <c r="M169" t="inlineStr"/>
       <c r="N169" t="inlineStr"/>
       <c r="O169" t="inlineStr"/>
       <c r="P169" t="inlineStr">
@@ -37839,18 +37791,10 @@
           <t>-5.8</t>
         </is>
       </c>
-      <c r="Y169" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
+      <c r="Y169" t="inlineStr"/>
       <c r="Z169" t="inlineStr"/>
       <c r="AA169" t="inlineStr"/>
-      <c r="AB169" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
+      <c r="AB169" t="inlineStr"/>
       <c r="AC169" t="inlineStr"/>
       <c r="AD169" t="inlineStr"/>
       <c r="AE169" t="inlineStr">
@@ -37890,7 +37834,7 @@
       </c>
       <c r="AL169" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>831.7</t>
         </is>
       </c>
       <c r="AM169" t="inlineStr">
@@ -37930,7 +37874,7 @@
       </c>
       <c r="AT169" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>831.7</t>
         </is>
       </c>
       <c r="AU169" t="inlineStr">
@@ -37938,36 +37882,16 @@
           <t>0</t>
         </is>
       </c>
-      <c r="AV169" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="AW169" t="inlineStr">
-        <is>
-          <t>831.7</t>
-        </is>
-      </c>
+      <c r="AV169" t="inlineStr"/>
+      <c r="AW169" t="inlineStr"/>
       <c r="AX169" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="AY169" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="AZ169" t="inlineStr">
-        <is>
-          <t>831.7</t>
-        </is>
-      </c>
-      <c r="BA169" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
+      <c r="AY169" t="inlineStr"/>
+      <c r="AZ169" t="inlineStr"/>
+      <c r="BA169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
@@ -38007,7 +37931,7 @@
       </c>
       <c r="H170" t="inlineStr">
         <is>
-          <t>2026-02-04 11:31:15</t>
+          <t>2026-02-04 16:18:11</t>
         </is>
       </c>
       <c r="I170" t="inlineStr">
@@ -38021,18 +37945,14 @@
         </is>
       </c>
       <c r="K170" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="L170" t="inlineStr">
         <is>
-          <t>Període TU, TM °C, TX °C, TN °C, HRM %, PPT mm, GN cm, VVM (10 m) km/h, DVM (10 m) graus, VVX (10 m) km/h, PM hPa, RS W/m 2</t>
-        </is>
-      </c>
-      <c r="M170" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
+          <t>Període TU, TM °C, TX °C, TN °C, HRM %, PPT mm, GN cm, PM hPa, RS W/m 2</t>
+        </is>
+      </c>
+      <c r="M170" t="inlineStr"/>
       <c r="N170" t="inlineStr"/>
       <c r="O170" t="inlineStr"/>
       <c r="P170" t="inlineStr">
@@ -38080,18 +38000,10 @@
           <t>-5.8</t>
         </is>
       </c>
-      <c r="Y170" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
+      <c r="Y170" t="inlineStr"/>
       <c r="Z170" t="inlineStr"/>
       <c r="AA170" t="inlineStr"/>
-      <c r="AB170" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
+      <c r="AB170" t="inlineStr"/>
       <c r="AC170" t="inlineStr"/>
       <c r="AD170" t="inlineStr"/>
       <c r="AE170" t="inlineStr">
@@ -38131,7 +38043,7 @@
       </c>
       <c r="AL170" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>832.1</t>
         </is>
       </c>
       <c r="AM170" t="inlineStr">
@@ -38171,7 +38083,7 @@
       </c>
       <c r="AT170" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>832.1</t>
         </is>
       </c>
       <c r="AU170" t="inlineStr">
@@ -38179,36 +38091,16 @@
           <t>0</t>
         </is>
       </c>
-      <c r="AV170" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="AW170" t="inlineStr">
-        <is>
-          <t>832.1</t>
-        </is>
-      </c>
+      <c r="AV170" t="inlineStr"/>
+      <c r="AW170" t="inlineStr"/>
       <c r="AX170" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="AY170" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="AZ170" t="inlineStr">
-        <is>
-          <t>832.1</t>
-        </is>
-      </c>
-      <c r="BA170" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
+      <c r="AY170" t="inlineStr"/>
+      <c r="AZ170" t="inlineStr"/>
+      <c r="BA170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
@@ -38248,7 +38140,7 @@
       </c>
       <c r="H171" t="inlineStr">
         <is>
-          <t>2026-02-04 11:31:15</t>
+          <t>2026-02-04 16:18:11</t>
         </is>
       </c>
       <c r="I171" t="inlineStr">
@@ -38262,18 +38154,14 @@
         </is>
       </c>
       <c r="K171" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="L171" t="inlineStr">
         <is>
-          <t>Període TU, TM °C, TX °C, TN °C, HRM %, PPT mm, GN cm, VVM (10 m) km/h, DVM (10 m) graus, VVX (10 m) km/h, PM hPa, RS W/m 2</t>
-        </is>
-      </c>
-      <c r="M171" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
+          <t>Període TU, TM °C, TX °C, TN °C, HRM %, PPT mm, GN cm, PM hPa, RS W/m 2</t>
+        </is>
+      </c>
+      <c r="M171" t="inlineStr"/>
       <c r="N171" t="inlineStr"/>
       <c r="O171" t="inlineStr"/>
       <c r="P171" t="inlineStr">
@@ -38321,18 +38209,10 @@
           <t>-6.0</t>
         </is>
       </c>
-      <c r="Y171" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
+      <c r="Y171" t="inlineStr"/>
       <c r="Z171" t="inlineStr"/>
       <c r="AA171" t="inlineStr"/>
-      <c r="AB171" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
+      <c r="AB171" t="inlineStr"/>
       <c r="AC171" t="inlineStr"/>
       <c r="AD171" t="inlineStr"/>
       <c r="AE171" t="inlineStr">
@@ -38372,7 +38252,7 @@
       </c>
       <c r="AL171" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>832.4</t>
         </is>
       </c>
       <c r="AM171" t="inlineStr">
@@ -38412,7 +38292,7 @@
       </c>
       <c r="AT171" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>832.4</t>
         </is>
       </c>
       <c r="AU171" t="inlineStr">
@@ -38420,36 +38300,16 @@
           <t>0</t>
         </is>
       </c>
-      <c r="AV171" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="AW171" t="inlineStr">
-        <is>
-          <t>832.4</t>
-        </is>
-      </c>
+      <c r="AV171" t="inlineStr"/>
+      <c r="AW171" t="inlineStr"/>
       <c r="AX171" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="AY171" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="AZ171" t="inlineStr">
-        <is>
-          <t>832.4</t>
-        </is>
-      </c>
-      <c r="BA171" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
+      <c r="AY171" t="inlineStr"/>
+      <c r="AZ171" t="inlineStr"/>
+      <c r="BA171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
@@ -38474,7 +38334,7 @@
       </c>
       <c r="E172" t="inlineStr">
         <is>
-          <t>09:30 - 10:00</t>
+          <t>15:30 - 16:00</t>
         </is>
       </c>
       <c r="F172" t="inlineStr">
@@ -38489,17 +38349,17 @@
       </c>
       <c r="H172" t="inlineStr">
         <is>
-          <t>2026-02-04 11:31:18</t>
+          <t>2026-02-04 16:18:14</t>
         </is>
       </c>
       <c r="I172" t="inlineStr">
         <is>
-          <t>10:00</t>
+          <t>15:30</t>
         </is>
       </c>
       <c r="J172" t="inlineStr">
         <is>
-          <t>https://www.meteo.cat/observacions/xema/dades?codi=D7&amp;dia=2026-02-04T10:00Z</t>
+          <t>https://www.meteo.cat/observacions/xema/dades?codi=D7&amp;dia=2026-02-04T15:30Z</t>
         </is>
       </c>
       <c r="K172" t="n">
@@ -38512,7 +38372,7 @@
       </c>
       <c r="M172" t="inlineStr">
         <is>
-          <t>125</t>
+          <t>338</t>
         </is>
       </c>
       <c r="N172" t="inlineStr"/>
@@ -38520,12 +38380,12 @@
       <c r="P172" t="inlineStr"/>
       <c r="Q172" t="inlineStr">
         <is>
-          <t>92</t>
+          <t>57</t>
         </is>
       </c>
       <c r="R172" t="inlineStr">
         <is>
-          <t>993.6</t>
+          <t>992.7</t>
         </is>
       </c>
       <c r="S172" t="inlineStr">
@@ -38535,66 +38395,66 @@
       </c>
       <c r="T172" t="inlineStr">
         <is>
-          <t>09:30 - 10:00</t>
+          <t>15:30 - 16:00</t>
         </is>
       </c>
       <c r="U172" t="inlineStr">
         <is>
-          <t>236</t>
+          <t>206</t>
         </is>
       </c>
       <c r="V172" t="inlineStr">
         <is>
-          <t>6.4</t>
+          <t>14.6</t>
         </is>
       </c>
       <c r="W172" t="inlineStr">
         <is>
-          <t>5.8</t>
+          <t>14.2</t>
         </is>
       </c>
       <c r="X172" t="inlineStr">
         <is>
-          <t>7.0</t>
+          <t>15.0</t>
         </is>
       </c>
       <c r="Y172" t="inlineStr">
         <is>
-          <t>1.1</t>
+          <t>7.9</t>
         </is>
       </c>
       <c r="Z172" t="inlineStr"/>
       <c r="AA172" t="inlineStr"/>
       <c r="AB172" t="inlineStr">
         <is>
-          <t>4.3</t>
+          <t>15.8</t>
         </is>
       </c>
       <c r="AC172" t="inlineStr"/>
       <c r="AD172" t="inlineStr"/>
       <c r="AE172" t="inlineStr">
         <is>
-          <t>09:30 - 10:00</t>
+          <t>15:30 - 16:00</t>
         </is>
       </c>
       <c r="AF172" t="inlineStr">
         <is>
-          <t>6.4</t>
+          <t>14.6</t>
         </is>
       </c>
       <c r="AG172" t="inlineStr">
         <is>
-          <t>7.0</t>
+          <t>15.0</t>
         </is>
       </c>
       <c r="AH172" t="inlineStr">
         <is>
-          <t>5.8</t>
+          <t>14.2</t>
         </is>
       </c>
       <c r="AI172" t="inlineStr">
         <is>
-          <t>92</t>
+          <t>57</t>
         </is>
       </c>
       <c r="AJ172" t="inlineStr">
@@ -38604,37 +38464,37 @@
       </c>
       <c r="AK172" t="inlineStr">
         <is>
-          <t>1.1</t>
+          <t>7.9</t>
         </is>
       </c>
       <c r="AL172" t="inlineStr">
         <is>
-          <t>125</t>
+          <t>338</t>
         </is>
       </c>
       <c r="AM172" t="inlineStr">
         <is>
-          <t>09:30 - 10:00</t>
+          <t>15:30 - 16:00</t>
         </is>
       </c>
       <c r="AN172" t="inlineStr">
         <is>
-          <t>6.4</t>
+          <t>14.6</t>
         </is>
       </c>
       <c r="AO172" t="inlineStr">
         <is>
-          <t>7.0</t>
+          <t>15.0</t>
         </is>
       </c>
       <c r="AP172" t="inlineStr">
         <is>
-          <t>5.8</t>
+          <t>14.2</t>
         </is>
       </c>
       <c r="AQ172" t="inlineStr">
         <is>
-          <t>92</t>
+          <t>57</t>
         </is>
       </c>
       <c r="AR172" t="inlineStr">
@@ -38644,42 +38504,42 @@
       </c>
       <c r="AS172" t="inlineStr">
         <is>
-          <t>1.1</t>
+          <t>7.9</t>
         </is>
       </c>
       <c r="AT172" t="inlineStr">
         <is>
-          <t>125</t>
+          <t>338</t>
         </is>
       </c>
       <c r="AU172" t="inlineStr">
         <is>
-          <t>4.3</t>
+          <t>15.8</t>
         </is>
       </c>
       <c r="AV172" t="inlineStr">
         <is>
-          <t>993.6</t>
+          <t>992.7</t>
         </is>
       </c>
       <c r="AW172" t="inlineStr">
         <is>
-          <t>236</t>
+          <t>206</t>
         </is>
       </c>
       <c r="AX172" t="inlineStr">
         <is>
-          <t>4.3</t>
+          <t>15.8</t>
         </is>
       </c>
       <c r="AY172" t="inlineStr">
         <is>
-          <t>993.6</t>
+          <t>992.7</t>
         </is>
       </c>
       <c r="AZ172" t="inlineStr">
         <is>
-          <t>236</t>
+          <t>206</t>
         </is>
       </c>
       <c r="BA172" t="inlineStr"/>
@@ -38722,7 +38582,7 @@
       </c>
       <c r="H173" t="inlineStr">
         <is>
-          <t>2026-02-04 11:31:20</t>
+          <t>2026-02-04 16:18:16</t>
         </is>
       </c>
       <c r="I173" t="inlineStr">
@@ -38955,7 +38815,7 @@
       </c>
       <c r="H174" t="inlineStr">
         <is>
-          <t>2026-02-04 11:31:20</t>
+          <t>2026-02-04 16:18:16</t>
         </is>
       </c>
       <c r="I174" t="inlineStr">
@@ -39188,7 +39048,7 @@
       </c>
       <c r="H175" t="inlineStr">
         <is>
-          <t>2026-02-04 11:31:20</t>
+          <t>2026-02-04 16:18:16</t>
         </is>
       </c>
       <c r="I175" t="inlineStr">
@@ -39421,7 +39281,7 @@
       </c>
       <c r="H176" t="inlineStr">
         <is>
-          <t>2026-02-04 11:31:20</t>
+          <t>2026-02-04 16:18:16</t>
         </is>
       </c>
       <c r="I176" t="inlineStr">
@@ -39636,32 +39496,32 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
+      <c r="A1" t="inlineStr">
         <is>
           <t>ID_ESTAC</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="B1" t="inlineStr">
         <is>
           <t>NOM_ESTACIO</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="C1" t="inlineStr">
         <is>
           <t>ESTAT</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="D1" t="inlineStr">
         <is>
           <t>CAPÇALERES_TROBADES</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="E1" t="inlineStr">
         <is>
           <t>CAPÇALERES_LLISTAT</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="F1" t="inlineStr">
         <is>
           <t>URL_FONT</t>
         </is>
@@ -39693,7 +39553,7 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>https://www.meteo.cat/observacions/xema/dades?codi=YT&amp;dia=2026-02-04T09:30Z</t>
+          <t>https://www.meteo.cat/observacions/xema/dades?codi=YT&amp;dia=2026-02-04T15:30Z</t>
         </is>
       </c>
     </row>
@@ -39723,7 +39583,7 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>https://www.meteo.cat/observacions/xema/dades?codi=Z1&amp;dia=2026-02-04T09:30Z</t>
+          <t>https://www.meteo.cat/observacions/xema/dades?codi=Z1&amp;dia=2026-02-04T15:30Z</t>
         </is>
       </c>
     </row>
@@ -39753,7 +39613,7 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>https://www.meteo.cat/observacions/xema/dades?codi=DN&amp;dia=2026-02-04T09:30Z</t>
+          <t>https://www.meteo.cat/observacions/xema/dades?codi=DN&amp;dia=2026-02-04T15:30Z</t>
         </is>
       </c>
     </row>
@@ -39783,7 +39643,7 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>https://www.meteo.cat/observacions/xema/dades?codi=DJ&amp;dia=2026-02-04T09:30Z</t>
+          <t>https://www.meteo.cat/observacions/xema/dades?codi=DJ&amp;dia=2026-02-04T15:30Z</t>
         </is>
       </c>
     </row>
@@ -39813,7 +39673,7 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>https://www.meteo.cat/observacions/xema/dades?codi=X4&amp;dia=2026-02-04T09:30Z</t>
+          <t>https://www.meteo.cat/observacions/xema/dades?codi=X4&amp;dia=2026-02-04T15:30Z</t>
         </is>
       </c>
     </row>
@@ -39843,7 +39703,7 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>https://www.meteo.cat/observacions/xema/dades?codi=D5&amp;dia=2026-02-04T09:30Z</t>
+          <t>https://www.meteo.cat/observacions/xema/dades?codi=D5&amp;dia=2026-02-04T15:30Z</t>
         </is>
       </c>
     </row>
@@ -39873,7 +39733,7 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>https://www.meteo.cat/observacions/xema/dades?codi=UN&amp;dia=2026-02-04T09:30Z</t>
+          <t>https://www.meteo.cat/observacions/xema/dades?codi=UN&amp;dia=2026-02-04T15:30Z</t>
         </is>
       </c>
     </row>
@@ -39903,7 +39763,7 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>https://www.meteo.cat/observacions/xema/dades?codi=MS&amp;dia=2026-02-04T09:30Z</t>
+          <t>https://www.meteo.cat/observacions/xema/dades?codi=MS&amp;dia=2026-02-04T15:30Z</t>
         </is>
       </c>
     </row>
@@ -39933,7 +39793,7 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>https://www.meteo.cat/observacions/xema/dades?codi=W1&amp;dia=2026-02-04T09:30Z</t>
+          <t>https://www.meteo.cat/observacions/xema/dades?codi=W1&amp;dia=2026-02-04T15:30Z</t>
         </is>
       </c>
     </row>
@@ -39963,7 +39823,7 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>https://www.meteo.cat/observacions/xema/dades?codi=DP&amp;dia=2026-02-04T09:30Z</t>
+          <t>https://www.meteo.cat/observacions/xema/dades?codi=DP&amp;dia=2026-02-04T15:30Z</t>
         </is>
       </c>
     </row>
@@ -39993,7 +39853,7 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>https://www.meteo.cat/observacions/xema/dades?codi=XL&amp;dia=2026-02-04T09:30Z</t>
+          <t>https://www.meteo.cat/observacions/xema/dades?codi=XL&amp;dia=2026-02-04T15:30Z</t>
         </is>
       </c>
     </row>
@@ -40023,7 +39883,7 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>https://www.meteo.cat/observacions/xema/dades?codi=VZ&amp;dia=2026-02-04T09:30Z</t>
+          <t>https://www.meteo.cat/observacions/xema/dades?codi=VZ&amp;dia=2026-02-04T15:30Z</t>
         </is>
       </c>
     </row>
@@ -40053,7 +39913,7 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>https://www.meteo.cat/observacions/xema/dades?codi=Z7&amp;dia=2026-02-04T09:30Z</t>
+          <t>https://www.meteo.cat/observacions/xema/dades?codi=Z7&amp;dia=2026-02-04T15:30Z</t>
         </is>
       </c>
     </row>
@@ -40083,7 +39943,7 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>https://www.meteo.cat/observacions/xema/dades?codi=XJ&amp;dia=2026-02-04T09:30Z</t>
+          <t>https://www.meteo.cat/observacions/xema/dades?codi=XJ&amp;dia=2026-02-04T15:30Z</t>
         </is>
       </c>
     </row>
@@ -40113,7 +39973,7 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>https://www.meteo.cat/observacions/xema/dades?codi=YU&amp;dia=2026-02-04T09:30Z</t>
+          <t>https://www.meteo.cat/observacions/xema/dades?codi=YU&amp;dia=2026-02-04T15:30Z</t>
         </is>
       </c>
     </row>
@@ -40143,7 +40003,7 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>https://www.meteo.cat/observacions/xema/dades?codi=CD&amp;dia=2026-02-04T09:30Z</t>
+          <t>https://www.meteo.cat/observacions/xema/dades?codi=CD&amp;dia=2026-02-04T15:30Z</t>
         </is>
       </c>
     </row>
@@ -40173,7 +40033,7 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>https://www.meteo.cat/observacions/xema/dades?codi=Z2&amp;dia=2026-02-04T09:30Z</t>
+          <t>https://www.meteo.cat/observacions/xema/dades?codi=Z2&amp;dia=2026-02-04T15:30Z</t>
         </is>
       </c>
     </row>
@@ -40203,7 +40063,7 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>https://www.meteo.cat/observacions/xema/dades?codi=VK&amp;dia=2026-02-04T10:00Z</t>
+          <t>https://www.meteo.cat/observacions/xema/dades?codi=VK&amp;dia=2026-02-04T15:30Z</t>
         </is>
       </c>
     </row>
@@ -40233,7 +40093,7 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>https://www.meteo.cat/observacions/xema/dades?codi=Z3&amp;dia=2026-02-04T10:00Z</t>
+          <t>https://www.meteo.cat/observacions/xema/dades?codi=Z3&amp;dia=2026-02-04T15:30Z</t>
         </is>
       </c>
     </row>
@@ -40263,7 +40123,7 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>https://www.meteo.cat/observacions/xema/dades?codi=YB&amp;dia=2026-02-04T10:00Z</t>
+          <t>https://www.meteo.cat/observacions/xema/dades?codi=YB&amp;dia=2026-02-04T15:30Z</t>
         </is>
       </c>
     </row>
@@ -40293,7 +40153,7 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>https://www.meteo.cat/observacions/xema/dades?codi=YP&amp;dia=2026-02-04T10:00Z</t>
+          <t>https://www.meteo.cat/observacions/xema/dades?codi=YP&amp;dia=2026-02-04T15:30Z</t>
         </is>
       </c>
     </row>
@@ -40323,7 +40183,7 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>https://www.meteo.cat/observacions/xema/dades?codi=J5&amp;dia=2026-02-04T10:00Z</t>
+          <t>https://www.meteo.cat/observacions/xema/dades?codi=J5&amp;dia=2026-02-04T15:30Z</t>
         </is>
       </c>
     </row>
@@ -40353,7 +40213,7 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>https://www.meteo.cat/observacions/xema/dades?codi=D6&amp;dia=2026-02-04T10:00Z</t>
+          <t>https://www.meteo.cat/observacions/xema/dades?codi=D6&amp;dia=2026-02-04T15:30Z</t>
         </is>
       </c>
     </row>
@@ -40383,7 +40243,7 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>https://www.meteo.cat/observacions/xema/dades?codi=YA&amp;dia=2026-02-04T10:00Z</t>
+          <t>https://www.meteo.cat/observacions/xema/dades?codi=YA&amp;dia=2026-02-04T15:30Z</t>
         </is>
       </c>
     </row>
@@ -40413,7 +40273,7 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>https://www.meteo.cat/observacions/xema/dades?codi=DG&amp;dia=2026-02-04T10:00Z</t>
+          <t>https://www.meteo.cat/observacions/xema/dades?codi=DG&amp;dia=2026-02-04T15:30Z</t>
         </is>
       </c>
     </row>
@@ -40443,7 +40303,7 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>https://www.meteo.cat/observacions/xema/dades?codi=D4&amp;dia=2026-02-04T10:00Z</t>
+          <t>https://www.meteo.cat/observacions/xema/dades?codi=D4&amp;dia=2026-02-04T15:30Z</t>
         </is>
       </c>
     </row>
@@ -40473,7 +40333,7 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>https://www.meteo.cat/observacions/xema/dades?codi=CI&amp;dia=2026-02-04T10:00Z</t>
+          <t>https://www.meteo.cat/observacions/xema/dades?codi=CI&amp;dia=2026-02-04T15:30Z</t>
         </is>
       </c>
     </row>
@@ -40503,7 +40363,7 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>https://www.meteo.cat/observacions/xema/dades?codi=XS&amp;dia=2026-02-04T10:00Z</t>
+          <t>https://www.meteo.cat/observacions/xema/dades?codi=XS&amp;dia=2026-02-04T15:30Z</t>
         </is>
       </c>
     </row>
@@ -40533,7 +40393,7 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>https://www.meteo.cat/observacions/xema/dades?codi=ZC&amp;dia=2026-02-04T10:00Z</t>
+          <t>https://www.meteo.cat/observacions/xema/dades?codi=ZC&amp;dia=2026-02-04T15:30Z</t>
         </is>
       </c>
     </row>
@@ -40563,7 +40423,7 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>https://www.meteo.cat/observacions/xema/dades?codi=XH&amp;dia=2026-02-04T10:00Z</t>
+          <t>https://www.meteo.cat/observacions/xema/dades?codi=XH&amp;dia=2026-02-04T15:30Z</t>
         </is>
       </c>
     </row>
@@ -40593,7 +40453,7 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>https://www.meteo.cat/observacions/xema/dades?codi=XE&amp;dia=2026-02-04T10:00Z</t>
+          <t>https://www.meteo.cat/observacions/xema/dades?codi=XE&amp;dia=2026-02-04T15:30Z</t>
         </is>
       </c>
     </row>
@@ -40623,7 +40483,7 @@
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>https://www.meteo.cat/observacions/xema/dades?codi=UE&amp;dia=2026-02-04T10:00Z</t>
+          <t>https://www.meteo.cat/observacions/xema/dades?codi=UE&amp;dia=2026-02-04T15:30Z</t>
         </is>
       </c>
     </row>
@@ -40653,7 +40513,7 @@
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>https://www.meteo.cat/observacions/xema/dades?codi=XO&amp;dia=2026-02-04T10:00Z</t>
+          <t>https://www.meteo.cat/observacions/xema/dades?codi=XO&amp;dia=2026-02-04T15:30Z</t>
         </is>
       </c>
     </row>
@@ -40683,7 +40543,7 @@
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>https://www.meteo.cat/observacions/xema/dades?codi=VS&amp;dia=2026-02-04T10:00Z</t>
+          <t>https://www.meteo.cat/observacions/xema/dades?codi=VS&amp;dia=2026-02-04T15:30Z</t>
         </is>
       </c>
     </row>
@@ -40713,7 +40573,7 @@
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>https://www.meteo.cat/observacions/xema/dades?codi=D7&amp;dia=2026-02-04T10:00Z</t>
+          <t>https://www.meteo.cat/observacions/xema/dades?codi=D7&amp;dia=2026-02-04T15:30Z</t>
         </is>
       </c>
     </row>

--- a/src/data/resum_periode_meteocat.xlsx
+++ b/src/data/resum_periode_meteocat.xlsx
@@ -727,17 +727,17 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>2026-02-04 16:15:39</t>
+          <t>2026-02-04 16:34:34</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>15:30</t>
+          <t>16:00</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>https://www.meteo.cat/observacions/xema/dades?codi=YT&amp;dia=2026-02-04T15:30Z</t>
+          <t>https://www.meteo.cat/observacions/xema/dades?codi=YT&amp;dia=2026-02-04T16:00Z</t>
         </is>
       </c>
       <c r="K2" t="n">
@@ -924,7 +924,7 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>2026-02-04 16:15:41</t>
+          <t>2026-02-04 16:34:35</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
@@ -1121,7 +1121,7 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>2026-02-04 16:15:41</t>
+          <t>2026-02-04 16:34:35</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
@@ -1318,7 +1318,7 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>2026-02-04 16:15:41</t>
+          <t>2026-02-04 16:34:35</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
@@ -1515,7 +1515,7 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>2026-02-04 16:15:41</t>
+          <t>2026-02-04 16:34:35</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
@@ -1712,17 +1712,17 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>2026-02-04 16:15:44</t>
+          <t>2026-02-04 16:34:38</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>15:30</t>
+          <t>16:00</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>https://www.meteo.cat/observacions/xema/dades?codi=Z1&amp;dia=2026-02-04T15:30Z</t>
+          <t>https://www.meteo.cat/observacions/xema/dades?codi=Z1&amp;dia=2026-02-04T16:00Z</t>
         </is>
       </c>
       <c r="K7" t="n">
@@ -1945,7 +1945,7 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>2026-02-04 16:15:45</t>
+          <t>2026-02-04 16:34:40</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
@@ -2178,7 +2178,7 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>2026-02-04 16:15:45</t>
+          <t>2026-02-04 16:34:40</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
@@ -2411,7 +2411,7 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>2026-02-04 16:15:45</t>
+          <t>2026-02-04 16:34:40</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
@@ -2644,7 +2644,7 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>2026-02-04 16:15:45</t>
+          <t>2026-02-04 16:34:40</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
@@ -2877,17 +2877,17 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>2026-02-04 16:15:48</t>
+          <t>2026-02-04 16:34:43</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>15:30</t>
+          <t>16:00</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>https://www.meteo.cat/observacions/xema/dades?codi=DN&amp;dia=2026-02-04T15:30Z</t>
+          <t>https://www.meteo.cat/observacions/xema/dades?codi=DN&amp;dia=2026-02-04T16:00Z</t>
         </is>
       </c>
       <c r="K12" t="n">
@@ -3110,7 +3110,7 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>2026-02-04 16:15:50</t>
+          <t>2026-02-04 16:34:45</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
@@ -3343,7 +3343,7 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>2026-02-04 16:15:50</t>
+          <t>2026-02-04 16:34:45</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
@@ -3576,7 +3576,7 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>2026-02-04 16:15:50</t>
+          <t>2026-02-04 16:34:45</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
@@ -3809,7 +3809,7 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>2026-02-04 16:15:50</t>
+          <t>2026-02-04 16:34:45</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
@@ -4042,17 +4042,17 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>2026-02-04 16:15:53</t>
+          <t>2026-02-04 16:34:47</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>15:30</t>
+          <t>16:00</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>https://www.meteo.cat/observacions/xema/dades?codi=DJ&amp;dia=2026-02-04T15:30Z</t>
+          <t>https://www.meteo.cat/observacions/xema/dades?codi=DJ&amp;dia=2026-02-04T16:00Z</t>
         </is>
       </c>
       <c r="K17" t="n">
@@ -4275,7 +4275,7 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>2026-02-04 16:15:55</t>
+          <t>2026-02-04 16:34:49</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
@@ -4508,7 +4508,7 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>2026-02-04 16:15:55</t>
+          <t>2026-02-04 16:34:49</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
@@ -4741,7 +4741,7 @@
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>2026-02-04 16:15:55</t>
+          <t>2026-02-04 16:34:49</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
@@ -4974,7 +4974,7 @@
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>2026-02-04 16:15:55</t>
+          <t>2026-02-04 16:34:49</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
@@ -5207,17 +5207,17 @@
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>2026-02-04 16:15:57</t>
+          <t>2026-02-04 16:34:52</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>15:30</t>
+          <t>16:00</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>https://www.meteo.cat/observacions/xema/dades?codi=X4&amp;dia=2026-02-04T15:30Z</t>
+          <t>https://www.meteo.cat/observacions/xema/dades?codi=X4&amp;dia=2026-02-04T16:00Z</t>
         </is>
       </c>
       <c r="K22" t="n">
@@ -5440,7 +5440,7 @@
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>2026-02-04 16:15:59</t>
+          <t>2026-02-04 16:34:54</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
@@ -5673,7 +5673,7 @@
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>2026-02-04 16:15:59</t>
+          <t>2026-02-04 16:34:54</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
@@ -5906,7 +5906,7 @@
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>2026-02-04 16:15:59</t>
+          <t>2026-02-04 16:34:54</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
@@ -6139,7 +6139,7 @@
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>2026-02-04 16:15:59</t>
+          <t>2026-02-04 16:34:54</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
@@ -6372,17 +6372,17 @@
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>2026-02-04 16:16:02</t>
+          <t>2026-02-04 16:34:56</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>15:30</t>
+          <t>16:00</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>https://www.meteo.cat/observacions/xema/dades?codi=D5&amp;dia=2026-02-04T15:30Z</t>
+          <t>https://www.meteo.cat/observacions/xema/dades?codi=D5&amp;dia=2026-02-04T16:00Z</t>
         </is>
       </c>
       <c r="K27" t="n">
@@ -6605,7 +6605,7 @@
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>2026-02-04 16:16:04</t>
+          <t>2026-02-04 16:34:58</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
@@ -6838,7 +6838,7 @@
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>2026-02-04 16:16:04</t>
+          <t>2026-02-04 16:34:58</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
@@ -7071,7 +7071,7 @@
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>2026-02-04 16:16:04</t>
+          <t>2026-02-04 16:34:58</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
@@ -7304,7 +7304,7 @@
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>2026-02-04 16:16:04</t>
+          <t>2026-02-04 16:34:58</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
@@ -7537,17 +7537,17 @@
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>2026-02-04 16:16:06</t>
+          <t>2026-02-04 16:35:00</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>15:30</t>
+          <t>16:00</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>https://www.meteo.cat/observacions/xema/dades?codi=UN&amp;dia=2026-02-04T15:30Z</t>
+          <t>https://www.meteo.cat/observacions/xema/dades?codi=UN&amp;dia=2026-02-04T16:00Z</t>
         </is>
       </c>
       <c r="K32" t="n">
@@ -7758,7 +7758,7 @@
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>2026-02-04 16:16:08</t>
+          <t>2026-02-04 16:35:01</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
@@ -7979,7 +7979,7 @@
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>2026-02-04 16:16:08</t>
+          <t>2026-02-04 16:35:01</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
@@ -8200,7 +8200,7 @@
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>2026-02-04 16:16:08</t>
+          <t>2026-02-04 16:35:01</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
@@ -8421,7 +8421,7 @@
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>2026-02-04 16:16:08</t>
+          <t>2026-02-04 16:35:01</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
@@ -8642,17 +8642,17 @@
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>2026-02-04 16:16:11</t>
+          <t>2026-02-04 16:35:04</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>15:30</t>
+          <t>16:00</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>https://www.meteo.cat/observacions/xema/dades?codi=MS&amp;dia=2026-02-04T15:30Z</t>
+          <t>https://www.meteo.cat/observacions/xema/dades?codi=MS&amp;dia=2026-02-04T16:00Z</t>
         </is>
       </c>
       <c r="K37" t="n">
@@ -8815,7 +8815,7 @@
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>2026-02-04 16:16:12</t>
+          <t>2026-02-04 16:35:06</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
@@ -8988,7 +8988,7 @@
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>2026-02-04 16:16:12</t>
+          <t>2026-02-04 16:35:06</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
@@ -9161,7 +9161,7 @@
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>2026-02-04 16:16:12</t>
+          <t>2026-02-04 16:35:06</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
@@ -9334,7 +9334,7 @@
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>2026-02-04 16:16:12</t>
+          <t>2026-02-04 16:35:06</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
@@ -9507,17 +9507,17 @@
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>2026-02-04 16:16:15</t>
+          <t>2026-02-04 16:35:08</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>15:30</t>
+          <t>16:00</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>https://www.meteo.cat/observacions/xema/dades?codi=W1&amp;dia=2026-02-04T15:30Z</t>
+          <t>https://www.meteo.cat/observacions/xema/dades?codi=W1&amp;dia=2026-02-04T16:00Z</t>
         </is>
       </c>
       <c r="K42" t="n">
@@ -9680,7 +9680,7 @@
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>2026-02-04 16:16:17</t>
+          <t>2026-02-04 16:35:10</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
@@ -9853,7 +9853,7 @@
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>2026-02-04 16:16:17</t>
+          <t>2026-02-04 16:35:10</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
@@ -10026,7 +10026,7 @@
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>2026-02-04 16:16:17</t>
+          <t>2026-02-04 16:35:10</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
@@ -10199,7 +10199,7 @@
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>2026-02-04 16:16:17</t>
+          <t>2026-02-04 16:35:10</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
@@ -10372,17 +10372,17 @@
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>2026-02-04 16:16:20</t>
+          <t>2026-02-04 16:35:12</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>15:30</t>
+          <t>16:00</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>https://www.meteo.cat/observacions/xema/dades?codi=DP&amp;dia=2026-02-04T15:30Z</t>
+          <t>https://www.meteo.cat/observacions/xema/dades?codi=DP&amp;dia=2026-02-04T16:00Z</t>
         </is>
       </c>
       <c r="K47" t="n">
@@ -10613,7 +10613,7 @@
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>2026-02-04 16:16:22</t>
+          <t>2026-02-04 16:35:14</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
@@ -10854,7 +10854,7 @@
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>2026-02-04 16:16:22</t>
+          <t>2026-02-04 16:35:14</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
@@ -11095,7 +11095,7 @@
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>2026-02-04 16:16:22</t>
+          <t>2026-02-04 16:35:14</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
@@ -11336,7 +11336,7 @@
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>2026-02-04 16:16:22</t>
+          <t>2026-02-04 16:35:14</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
@@ -11577,17 +11577,17 @@
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>2026-02-04 16:16:24</t>
+          <t>2026-02-04 16:35:17</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>15:30</t>
+          <t>16:00</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
         <is>
-          <t>https://www.meteo.cat/observacions/xema/dades?codi=XL&amp;dia=2026-02-04T15:30Z</t>
+          <t>https://www.meteo.cat/observacions/xema/dades?codi=XL&amp;dia=2026-02-04T16:00Z</t>
         </is>
       </c>
       <c r="K52" t="n">
@@ -11798,7 +11798,7 @@
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>2026-02-04 16:16:26</t>
+          <t>2026-02-04 16:35:18</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
@@ -12019,7 +12019,7 @@
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>2026-02-04 16:16:26</t>
+          <t>2026-02-04 16:35:18</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
@@ -12240,7 +12240,7 @@
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>2026-02-04 16:16:26</t>
+          <t>2026-02-04 16:35:18</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
@@ -12461,7 +12461,7 @@
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>2026-02-04 16:16:26</t>
+          <t>2026-02-04 16:35:18</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
@@ -12682,17 +12682,17 @@
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>2026-02-04 16:16:29</t>
+          <t>2026-02-04 16:35:21</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>15:30</t>
+          <t>16:00</t>
         </is>
       </c>
       <c r="J57" t="inlineStr">
         <is>
-          <t>https://www.meteo.cat/observacions/xema/dades?codi=VZ&amp;dia=2026-02-04T15:30Z</t>
+          <t>https://www.meteo.cat/observacions/xema/dades?codi=VZ&amp;dia=2026-02-04T16:00Z</t>
         </is>
       </c>
       <c r="K57" t="n">
@@ -12855,7 +12855,7 @@
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>2026-02-04 16:16:30</t>
+          <t>2026-02-04 16:35:22</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
@@ -13028,7 +13028,7 @@
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>2026-02-04 16:16:30</t>
+          <t>2026-02-04 16:35:22</t>
         </is>
       </c>
       <c r="I59" t="inlineStr">
@@ -13201,7 +13201,7 @@
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>2026-02-04 16:16:30</t>
+          <t>2026-02-04 16:35:22</t>
         </is>
       </c>
       <c r="I60" t="inlineStr">
@@ -13374,7 +13374,7 @@
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>2026-02-04 16:16:30</t>
+          <t>2026-02-04 16:35:22</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
@@ -13547,17 +13547,17 @@
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>2026-02-04 16:16:33</t>
+          <t>2026-02-04 16:35:25</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>15:30</t>
+          <t>16:00</t>
         </is>
       </c>
       <c r="J62" t="inlineStr">
         <is>
-          <t>https://www.meteo.cat/observacions/xema/dades?codi=Z7&amp;dia=2026-02-04T15:30Z</t>
+          <t>https://www.meteo.cat/observacions/xema/dades?codi=Z7&amp;dia=2026-02-04T16:00Z</t>
         </is>
       </c>
       <c r="K62" t="n">
@@ -13780,7 +13780,7 @@
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>2026-02-04 16:16:35</t>
+          <t>2026-02-04 16:35:27</t>
         </is>
       </c>
       <c r="I63" t="inlineStr">
@@ -14013,7 +14013,7 @@
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>2026-02-04 16:16:35</t>
+          <t>2026-02-04 16:35:27</t>
         </is>
       </c>
       <c r="I64" t="inlineStr">
@@ -14246,7 +14246,7 @@
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>2026-02-04 16:16:35</t>
+          <t>2026-02-04 16:35:27</t>
         </is>
       </c>
       <c r="I65" t="inlineStr">
@@ -14479,7 +14479,7 @@
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>2026-02-04 16:16:35</t>
+          <t>2026-02-04 16:35:27</t>
         </is>
       </c>
       <c r="I66" t="inlineStr">
@@ -14712,17 +14712,17 @@
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>2026-02-04 16:16:38</t>
+          <t>2026-02-04 16:35:29</t>
         </is>
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>15:30</t>
+          <t>16:00</t>
         </is>
       </c>
       <c r="J67" t="inlineStr">
         <is>
-          <t>https://www.meteo.cat/observacions/xema/dades?codi=XJ&amp;dia=2026-02-04T15:30Z</t>
+          <t>https://www.meteo.cat/observacions/xema/dades?codi=XJ&amp;dia=2026-02-04T16:00Z</t>
         </is>
       </c>
       <c r="K67" t="n">
@@ -14945,7 +14945,7 @@
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>2026-02-04 16:16:39</t>
+          <t>2026-02-04 16:35:31</t>
         </is>
       </c>
       <c r="I68" t="inlineStr">
@@ -15178,7 +15178,7 @@
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>2026-02-04 16:16:39</t>
+          <t>2026-02-04 16:35:31</t>
         </is>
       </c>
       <c r="I69" t="inlineStr">
@@ -15411,7 +15411,7 @@
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>2026-02-04 16:16:39</t>
+          <t>2026-02-04 16:35:31</t>
         </is>
       </c>
       <c r="I70" t="inlineStr">
@@ -15644,7 +15644,7 @@
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>2026-02-04 16:16:39</t>
+          <t>2026-02-04 16:35:31</t>
         </is>
       </c>
       <c r="I71" t="inlineStr">
@@ -15877,17 +15877,17 @@
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>2026-02-04 16:16:42</t>
+          <t>2026-02-04 16:35:34</t>
         </is>
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>15:30</t>
+          <t>16:00</t>
         </is>
       </c>
       <c r="J72" t="inlineStr">
         <is>
-          <t>https://www.meteo.cat/observacions/xema/dades?codi=YU&amp;dia=2026-02-04T15:30Z</t>
+          <t>https://www.meteo.cat/observacions/xema/dades?codi=YU&amp;dia=2026-02-04T16:00Z</t>
         </is>
       </c>
       <c r="K72" t="n">
@@ -16098,7 +16098,7 @@
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>2026-02-04 16:16:44</t>
+          <t>2026-02-04 16:35:36</t>
         </is>
       </c>
       <c r="I73" t="inlineStr">
@@ -16319,7 +16319,7 @@
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>2026-02-04 16:16:44</t>
+          <t>2026-02-04 16:35:36</t>
         </is>
       </c>
       <c r="I74" t="inlineStr">
@@ -16540,7 +16540,7 @@
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>2026-02-04 16:16:44</t>
+          <t>2026-02-04 16:35:36</t>
         </is>
       </c>
       <c r="I75" t="inlineStr">
@@ -16761,7 +16761,7 @@
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>2026-02-04 16:16:44</t>
+          <t>2026-02-04 16:35:36</t>
         </is>
       </c>
       <c r="I76" t="inlineStr">
@@ -16982,17 +16982,17 @@
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>2026-02-04 16:16:46</t>
+          <t>2026-02-04 16:35:39</t>
         </is>
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>15:30</t>
+          <t>16:00</t>
         </is>
       </c>
       <c r="J77" t="inlineStr">
         <is>
-          <t>https://www.meteo.cat/observacions/xema/dades?codi=CD&amp;dia=2026-02-04T15:30Z</t>
+          <t>https://www.meteo.cat/observacions/xema/dades?codi=CD&amp;dia=2026-02-04T16:00Z</t>
         </is>
       </c>
       <c r="K77" t="n">
@@ -17215,7 +17215,7 @@
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>2026-02-04 16:16:48</t>
+          <t>2026-02-04 16:35:40</t>
         </is>
       </c>
       <c r="I78" t="inlineStr">
@@ -17448,7 +17448,7 @@
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>2026-02-04 16:16:48</t>
+          <t>2026-02-04 16:35:40</t>
         </is>
       </c>
       <c r="I79" t="inlineStr">
@@ -17681,7 +17681,7 @@
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>2026-02-04 16:16:48</t>
+          <t>2026-02-04 16:35:40</t>
         </is>
       </c>
       <c r="I80" t="inlineStr">
@@ -17914,7 +17914,7 @@
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>2026-02-04 16:16:48</t>
+          <t>2026-02-04 16:35:40</t>
         </is>
       </c>
       <c r="I81" t="inlineStr">
@@ -18147,17 +18147,17 @@
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>2026-02-04 16:16:51</t>
+          <t>2026-02-04 16:35:43</t>
         </is>
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>15:30</t>
+          <t>16:00</t>
         </is>
       </c>
       <c r="J82" t="inlineStr">
         <is>
-          <t>https://www.meteo.cat/observacions/xema/dades?codi=Z2&amp;dia=2026-02-04T15:30Z</t>
+          <t>https://www.meteo.cat/observacions/xema/dades?codi=Z2&amp;dia=2026-02-04T16:00Z</t>
         </is>
       </c>
       <c r="K82" t="n">
@@ -18380,7 +18380,7 @@
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>2026-02-04 16:16:53</t>
+          <t>2026-02-04 16:35:44</t>
         </is>
       </c>
       <c r="I83" t="inlineStr">
@@ -18613,7 +18613,7 @@
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>2026-02-04 16:16:53</t>
+          <t>2026-02-04 16:35:44</t>
         </is>
       </c>
       <c r="I84" t="inlineStr">
@@ -18846,7 +18846,7 @@
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>2026-02-04 16:16:53</t>
+          <t>2026-02-04 16:35:44</t>
         </is>
       </c>
       <c r="I85" t="inlineStr">
@@ -19079,7 +19079,7 @@
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>2026-02-04 16:16:53</t>
+          <t>2026-02-04 16:35:44</t>
         </is>
       </c>
       <c r="I86" t="inlineStr">
@@ -19312,17 +19312,17 @@
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>2026-02-04 16:16:56</t>
+          <t>2026-02-04 16:35:47</t>
         </is>
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>15:30</t>
+          <t>16:00</t>
         </is>
       </c>
       <c r="J87" t="inlineStr">
         <is>
-          <t>https://www.meteo.cat/observacions/xema/dades?codi=VK&amp;dia=2026-02-04T15:30Z</t>
+          <t>https://www.meteo.cat/observacions/xema/dades?codi=VK&amp;dia=2026-02-04T16:00Z</t>
         </is>
       </c>
       <c r="K87" t="n">
@@ -19545,7 +19545,7 @@
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>2026-02-04 16:16:57</t>
+          <t>2026-02-04 16:35:48</t>
         </is>
       </c>
       <c r="I88" t="inlineStr">
@@ -19778,7 +19778,7 @@
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>2026-02-04 16:16:57</t>
+          <t>2026-02-04 16:35:48</t>
         </is>
       </c>
       <c r="I89" t="inlineStr">
@@ -20011,7 +20011,7 @@
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>2026-02-04 16:16:57</t>
+          <t>2026-02-04 16:35:48</t>
         </is>
       </c>
       <c r="I90" t="inlineStr">
@@ -20244,7 +20244,7 @@
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>2026-02-04 16:16:57</t>
+          <t>2026-02-04 16:35:48</t>
         </is>
       </c>
       <c r="I91" t="inlineStr">
@@ -20477,17 +20477,17 @@
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>2026-02-04 16:17:00</t>
+          <t>2026-02-04 16:35:51</t>
         </is>
       </c>
       <c r="I92" t="inlineStr">
         <is>
-          <t>15:30</t>
+          <t>16:00</t>
         </is>
       </c>
       <c r="J92" t="inlineStr">
         <is>
-          <t>https://www.meteo.cat/observacions/xema/dades?codi=Z3&amp;dia=2026-02-04T15:30Z</t>
+          <t>https://www.meteo.cat/observacions/xema/dades?codi=Z3&amp;dia=2026-02-04T16:00Z</t>
         </is>
       </c>
       <c r="K92" t="n">
@@ -20710,7 +20710,7 @@
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>2026-02-04 16:17:02</t>
+          <t>2026-02-04 16:35:53</t>
         </is>
       </c>
       <c r="I93" t="inlineStr">
@@ -20943,7 +20943,7 @@
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>2026-02-04 16:17:02</t>
+          <t>2026-02-04 16:35:53</t>
         </is>
       </c>
       <c r="I94" t="inlineStr">
@@ -21176,7 +21176,7 @@
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>2026-02-04 16:17:02</t>
+          <t>2026-02-04 16:35:53</t>
         </is>
       </c>
       <c r="I95" t="inlineStr">
@@ -21409,7 +21409,7 @@
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>2026-02-04 16:17:02</t>
+          <t>2026-02-04 16:35:53</t>
         </is>
       </c>
       <c r="I96" t="inlineStr">
@@ -21642,17 +21642,17 @@
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>2026-02-04 16:17:05</t>
+          <t>2026-02-04 16:35:56</t>
         </is>
       </c>
       <c r="I97" t="inlineStr">
         <is>
-          <t>15:30</t>
+          <t>16:00</t>
         </is>
       </c>
       <c r="J97" t="inlineStr">
         <is>
-          <t>https://www.meteo.cat/observacions/xema/dades?codi=YB&amp;dia=2026-02-04T15:30Z</t>
+          <t>https://www.meteo.cat/observacions/xema/dades?codi=YB&amp;dia=2026-02-04T16:00Z</t>
         </is>
       </c>
       <c r="K97" t="n">
@@ -21875,7 +21875,7 @@
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>2026-02-04 16:17:07</t>
+          <t>2026-02-04 16:35:57</t>
         </is>
       </c>
       <c r="I98" t="inlineStr">
@@ -22108,7 +22108,7 @@
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>2026-02-04 16:17:07</t>
+          <t>2026-02-04 16:35:57</t>
         </is>
       </c>
       <c r="I99" t="inlineStr">
@@ -22341,7 +22341,7 @@
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>2026-02-04 16:17:07</t>
+          <t>2026-02-04 16:35:57</t>
         </is>
       </c>
       <c r="I100" t="inlineStr">
@@ -22574,7 +22574,7 @@
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>2026-02-04 16:17:07</t>
+          <t>2026-02-04 16:35:57</t>
         </is>
       </c>
       <c r="I101" t="inlineStr">
@@ -22807,17 +22807,17 @@
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>2026-02-04 16:17:10</t>
+          <t>2026-02-04 16:36:00</t>
         </is>
       </c>
       <c r="I102" t="inlineStr">
         <is>
-          <t>15:30</t>
+          <t>16:00</t>
         </is>
       </c>
       <c r="J102" t="inlineStr">
         <is>
-          <t>https://www.meteo.cat/observacions/xema/dades?codi=YP&amp;dia=2026-02-04T15:30Z</t>
+          <t>https://www.meteo.cat/observacions/xema/dades?codi=YP&amp;dia=2026-02-04T16:00Z</t>
         </is>
       </c>
       <c r="K102" t="n">
@@ -23028,7 +23028,7 @@
       </c>
       <c r="H103" t="inlineStr">
         <is>
-          <t>2026-02-04 16:17:12</t>
+          <t>2026-02-04 16:36:02</t>
         </is>
       </c>
       <c r="I103" t="inlineStr">
@@ -23249,7 +23249,7 @@
       </c>
       <c r="H104" t="inlineStr">
         <is>
-          <t>2026-02-04 16:17:12</t>
+          <t>2026-02-04 16:36:02</t>
         </is>
       </c>
       <c r="I104" t="inlineStr">
@@ -23470,7 +23470,7 @@
       </c>
       <c r="H105" t="inlineStr">
         <is>
-          <t>2026-02-04 16:17:12</t>
+          <t>2026-02-04 16:36:02</t>
         </is>
       </c>
       <c r="I105" t="inlineStr">
@@ -23691,7 +23691,7 @@
       </c>
       <c r="H106" t="inlineStr">
         <is>
-          <t>2026-02-04 16:17:12</t>
+          <t>2026-02-04 16:36:02</t>
         </is>
       </c>
       <c r="I106" t="inlineStr">
@@ -23912,17 +23912,17 @@
       </c>
       <c r="H107" t="inlineStr">
         <is>
-          <t>2026-02-04 16:17:15</t>
+          <t>2026-02-04 16:36:04</t>
         </is>
       </c>
       <c r="I107" t="inlineStr">
         <is>
-          <t>15:30</t>
+          <t>16:00</t>
         </is>
       </c>
       <c r="J107" t="inlineStr">
         <is>
-          <t>https://www.meteo.cat/observacions/xema/dades?codi=J5&amp;dia=2026-02-04T15:30Z</t>
+          <t>https://www.meteo.cat/observacions/xema/dades?codi=J5&amp;dia=2026-02-04T16:00Z</t>
         </is>
       </c>
       <c r="K107" t="n">
@@ -24145,7 +24145,7 @@
       </c>
       <c r="H108" t="inlineStr">
         <is>
-          <t>2026-02-04 16:17:16</t>
+          <t>2026-02-04 16:36:06</t>
         </is>
       </c>
       <c r="I108" t="inlineStr">
@@ -24378,7 +24378,7 @@
       </c>
       <c r="H109" t="inlineStr">
         <is>
-          <t>2026-02-04 16:17:16</t>
+          <t>2026-02-04 16:36:06</t>
         </is>
       </c>
       <c r="I109" t="inlineStr">
@@ -24611,7 +24611,7 @@
       </c>
       <c r="H110" t="inlineStr">
         <is>
-          <t>2026-02-04 16:17:16</t>
+          <t>2026-02-04 16:36:06</t>
         </is>
       </c>
       <c r="I110" t="inlineStr">
@@ -24844,7 +24844,7 @@
       </c>
       <c r="H111" t="inlineStr">
         <is>
-          <t>2026-02-04 16:17:16</t>
+          <t>2026-02-04 16:36:06</t>
         </is>
       </c>
       <c r="I111" t="inlineStr">
@@ -25077,17 +25077,17 @@
       </c>
       <c r="H112" t="inlineStr">
         <is>
-          <t>2026-02-04 16:17:19</t>
+          <t>2026-02-04 16:36:08</t>
         </is>
       </c>
       <c r="I112" t="inlineStr">
         <is>
-          <t>15:30</t>
+          <t>16:00</t>
         </is>
       </c>
       <c r="J112" t="inlineStr">
         <is>
-          <t>https://www.meteo.cat/observacions/xema/dades?codi=D6&amp;dia=2026-02-04T15:30Z</t>
+          <t>https://www.meteo.cat/observacions/xema/dades?codi=D6&amp;dia=2026-02-04T16:00Z</t>
         </is>
       </c>
       <c r="K112" t="n">
@@ -25310,7 +25310,7 @@
       </c>
       <c r="H113" t="inlineStr">
         <is>
-          <t>2026-02-04 16:17:21</t>
+          <t>2026-02-04 16:36:09</t>
         </is>
       </c>
       <c r="I113" t="inlineStr">
@@ -25543,7 +25543,7 @@
       </c>
       <c r="H114" t="inlineStr">
         <is>
-          <t>2026-02-04 16:17:21</t>
+          <t>2026-02-04 16:36:09</t>
         </is>
       </c>
       <c r="I114" t="inlineStr">
@@ -25776,7 +25776,7 @@
       </c>
       <c r="H115" t="inlineStr">
         <is>
-          <t>2026-02-04 16:17:21</t>
+          <t>2026-02-04 16:36:09</t>
         </is>
       </c>
       <c r="I115" t="inlineStr">
@@ -26009,7 +26009,7 @@
       </c>
       <c r="H116" t="inlineStr">
         <is>
-          <t>2026-02-04 16:17:21</t>
+          <t>2026-02-04 16:36:09</t>
         </is>
       </c>
       <c r="I116" t="inlineStr">
@@ -26242,17 +26242,17 @@
       </c>
       <c r="H117" t="inlineStr">
         <is>
-          <t>2026-02-04 16:17:23</t>
+          <t>2026-02-04 16:36:12</t>
         </is>
       </c>
       <c r="I117" t="inlineStr">
         <is>
-          <t>15:30</t>
+          <t>16:00</t>
         </is>
       </c>
       <c r="J117" t="inlineStr">
         <is>
-          <t>https://www.meteo.cat/observacions/xema/dades?codi=YA&amp;dia=2026-02-04T15:30Z</t>
+          <t>https://www.meteo.cat/observacions/xema/dades?codi=YA&amp;dia=2026-02-04T16:00Z</t>
         </is>
       </c>
       <c r="K117" t="n">
@@ -26475,7 +26475,7 @@
       </c>
       <c r="H118" t="inlineStr">
         <is>
-          <t>2026-02-04 16:17:25</t>
+          <t>2026-02-04 16:36:13</t>
         </is>
       </c>
       <c r="I118" t="inlineStr">
@@ -26708,7 +26708,7 @@
       </c>
       <c r="H119" t="inlineStr">
         <is>
-          <t>2026-02-04 16:17:25</t>
+          <t>2026-02-04 16:36:13</t>
         </is>
       </c>
       <c r="I119" t="inlineStr">
@@ -26941,7 +26941,7 @@
       </c>
       <c r="H120" t="inlineStr">
         <is>
-          <t>2026-02-04 16:17:25</t>
+          <t>2026-02-04 16:36:13</t>
         </is>
       </c>
       <c r="I120" t="inlineStr">
@@ -27174,7 +27174,7 @@
       </c>
       <c r="H121" t="inlineStr">
         <is>
-          <t>2026-02-04 16:17:25</t>
+          <t>2026-02-04 16:36:13</t>
         </is>
       </c>
       <c r="I121" t="inlineStr">
@@ -27407,17 +27407,17 @@
       </c>
       <c r="H122" t="inlineStr">
         <is>
-          <t>2026-02-04 16:17:28</t>
+          <t>2026-02-04 16:36:16</t>
         </is>
       </c>
       <c r="I122" t="inlineStr">
         <is>
-          <t>15:30</t>
+          <t>16:00</t>
         </is>
       </c>
       <c r="J122" t="inlineStr">
         <is>
-          <t>https://www.meteo.cat/observacions/xema/dades?codi=DG&amp;dia=2026-02-04T15:30Z</t>
+          <t>https://www.meteo.cat/observacions/xema/dades?codi=DG&amp;dia=2026-02-04T16:00Z</t>
         </is>
       </c>
       <c r="K122" t="n">
@@ -27648,7 +27648,7 @@
       </c>
       <c r="H123" t="inlineStr">
         <is>
-          <t>2026-02-04 16:17:30</t>
+          <t>2026-02-04 16:36:18</t>
         </is>
       </c>
       <c r="I123" t="inlineStr">
@@ -27889,7 +27889,7 @@
       </c>
       <c r="H124" t="inlineStr">
         <is>
-          <t>2026-02-04 16:17:30</t>
+          <t>2026-02-04 16:36:18</t>
         </is>
       </c>
       <c r="I124" t="inlineStr">
@@ -28130,7 +28130,7 @@
       </c>
       <c r="H125" t="inlineStr">
         <is>
-          <t>2026-02-04 16:17:30</t>
+          <t>2026-02-04 16:36:18</t>
         </is>
       </c>
       <c r="I125" t="inlineStr">
@@ -28371,7 +28371,7 @@
       </c>
       <c r="H126" t="inlineStr">
         <is>
-          <t>2026-02-04 16:17:30</t>
+          <t>2026-02-04 16:36:18</t>
         </is>
       </c>
       <c r="I126" t="inlineStr">
@@ -28612,17 +28612,17 @@
       </c>
       <c r="H127" t="inlineStr">
         <is>
-          <t>2026-02-04 16:17:33</t>
+          <t>2026-02-04 16:36:20</t>
         </is>
       </c>
       <c r="I127" t="inlineStr">
         <is>
-          <t>15:30</t>
+          <t>16:00</t>
         </is>
       </c>
       <c r="J127" t="inlineStr">
         <is>
-          <t>https://www.meteo.cat/observacions/xema/dades?codi=D4&amp;dia=2026-02-04T15:30Z</t>
+          <t>https://www.meteo.cat/observacions/xema/dades?codi=D4&amp;dia=2026-02-04T16:00Z</t>
         </is>
       </c>
       <c r="K127" t="n">
@@ -28845,7 +28845,7 @@
       </c>
       <c r="H128" t="inlineStr">
         <is>
-          <t>2026-02-04 16:17:35</t>
+          <t>2026-02-04 16:36:22</t>
         </is>
       </c>
       <c r="I128" t="inlineStr">
@@ -29078,7 +29078,7 @@
       </c>
       <c r="H129" t="inlineStr">
         <is>
-          <t>2026-02-04 16:17:35</t>
+          <t>2026-02-04 16:36:22</t>
         </is>
       </c>
       <c r="I129" t="inlineStr">
@@ -29311,7 +29311,7 @@
       </c>
       <c r="H130" t="inlineStr">
         <is>
-          <t>2026-02-04 16:17:35</t>
+          <t>2026-02-04 16:36:22</t>
         </is>
       </c>
       <c r="I130" t="inlineStr">
@@ -29544,7 +29544,7 @@
       </c>
       <c r="H131" t="inlineStr">
         <is>
-          <t>2026-02-04 16:17:35</t>
+          <t>2026-02-04 16:36:22</t>
         </is>
       </c>
       <c r="I131" t="inlineStr">
@@ -29777,17 +29777,17 @@
       </c>
       <c r="H132" t="inlineStr">
         <is>
-          <t>2026-02-04 16:17:38</t>
+          <t>2026-02-04 16:36:25</t>
         </is>
       </c>
       <c r="I132" t="inlineStr">
         <is>
-          <t>15:30</t>
+          <t>16:00</t>
         </is>
       </c>
       <c r="J132" t="inlineStr">
         <is>
-          <t>https://www.meteo.cat/observacions/xema/dades?codi=CI&amp;dia=2026-02-04T15:30Z</t>
+          <t>https://www.meteo.cat/observacions/xema/dades?codi=CI&amp;dia=2026-02-04T16:00Z</t>
         </is>
       </c>
       <c r="K132" t="n">
@@ -29998,7 +29998,7 @@
       </c>
       <c r="H133" t="inlineStr">
         <is>
-          <t>2026-02-04 16:17:40</t>
+          <t>2026-02-04 16:36:26</t>
         </is>
       </c>
       <c r="I133" t="inlineStr">
@@ -30219,7 +30219,7 @@
       </c>
       <c r="H134" t="inlineStr">
         <is>
-          <t>2026-02-04 16:17:40</t>
+          <t>2026-02-04 16:36:26</t>
         </is>
       </c>
       <c r="I134" t="inlineStr">
@@ -30440,7 +30440,7 @@
       </c>
       <c r="H135" t="inlineStr">
         <is>
-          <t>2026-02-04 16:17:40</t>
+          <t>2026-02-04 16:36:26</t>
         </is>
       </c>
       <c r="I135" t="inlineStr">
@@ -30661,7 +30661,7 @@
       </c>
       <c r="H136" t="inlineStr">
         <is>
-          <t>2026-02-04 16:17:40</t>
+          <t>2026-02-04 16:36:26</t>
         </is>
       </c>
       <c r="I136" t="inlineStr">
@@ -30882,17 +30882,17 @@
       </c>
       <c r="H137" t="inlineStr">
         <is>
-          <t>2026-02-04 16:17:42</t>
+          <t>2026-02-04 16:36:28</t>
         </is>
       </c>
       <c r="I137" t="inlineStr">
         <is>
-          <t>15:30</t>
+          <t>16:00</t>
         </is>
       </c>
       <c r="J137" t="inlineStr">
         <is>
-          <t>https://www.meteo.cat/observacions/xema/dades?codi=XS&amp;dia=2026-02-04T15:30Z</t>
+          <t>https://www.meteo.cat/observacions/xema/dades?codi=XS&amp;dia=2026-02-04T16:00Z</t>
         </is>
       </c>
       <c r="K137" t="n">
@@ -31103,7 +31103,7 @@
       </c>
       <c r="H138" t="inlineStr">
         <is>
-          <t>2026-02-04 16:17:44</t>
+          <t>2026-02-04 16:36:30</t>
         </is>
       </c>
       <c r="I138" t="inlineStr">
@@ -31324,7 +31324,7 @@
       </c>
       <c r="H139" t="inlineStr">
         <is>
-          <t>2026-02-04 16:17:44</t>
+          <t>2026-02-04 16:36:30</t>
         </is>
       </c>
       <c r="I139" t="inlineStr">
@@ -31545,7 +31545,7 @@
       </c>
       <c r="H140" t="inlineStr">
         <is>
-          <t>2026-02-04 16:17:44</t>
+          <t>2026-02-04 16:36:30</t>
         </is>
       </c>
       <c r="I140" t="inlineStr">
@@ -31766,7 +31766,7 @@
       </c>
       <c r="H141" t="inlineStr">
         <is>
-          <t>2026-02-04 16:17:44</t>
+          <t>2026-02-04 16:36:30</t>
         </is>
       </c>
       <c r="I141" t="inlineStr">
@@ -31987,17 +31987,17 @@
       </c>
       <c r="H142" t="inlineStr">
         <is>
-          <t>2026-02-04 16:17:47</t>
+          <t>2026-02-04 16:36:33</t>
         </is>
       </c>
       <c r="I142" t="inlineStr">
         <is>
-          <t>15:30</t>
+          <t>16:00</t>
         </is>
       </c>
       <c r="J142" t="inlineStr">
         <is>
-          <t>https://www.meteo.cat/observacions/xema/dades?codi=ZC&amp;dia=2026-02-04T15:30Z</t>
+          <t>https://www.meteo.cat/observacions/xema/dades?codi=ZC&amp;dia=2026-02-04T16:00Z</t>
         </is>
       </c>
       <c r="K142" t="n">
@@ -32220,7 +32220,7 @@
       </c>
       <c r="H143" t="inlineStr">
         <is>
-          <t>2026-02-04 16:17:49</t>
+          <t>2026-02-04 16:36:35</t>
         </is>
       </c>
       <c r="I143" t="inlineStr">
@@ -32453,7 +32453,7 @@
       </c>
       <c r="H144" t="inlineStr">
         <is>
-          <t>2026-02-04 16:17:49</t>
+          <t>2026-02-04 16:36:35</t>
         </is>
       </c>
       <c r="I144" t="inlineStr">
@@ -32686,7 +32686,7 @@
       </c>
       <c r="H145" t="inlineStr">
         <is>
-          <t>2026-02-04 16:17:49</t>
+          <t>2026-02-04 16:36:35</t>
         </is>
       </c>
       <c r="I145" t="inlineStr">
@@ -32919,7 +32919,7 @@
       </c>
       <c r="H146" t="inlineStr">
         <is>
-          <t>2026-02-04 16:17:49</t>
+          <t>2026-02-04 16:36:35</t>
         </is>
       </c>
       <c r="I146" t="inlineStr">
@@ -33152,17 +33152,17 @@
       </c>
       <c r="H147" t="inlineStr">
         <is>
-          <t>2026-02-04 16:17:52</t>
+          <t>2026-02-04 16:36:37</t>
         </is>
       </c>
       <c r="I147" t="inlineStr">
         <is>
-          <t>15:30</t>
+          <t>16:00</t>
         </is>
       </c>
       <c r="J147" t="inlineStr">
         <is>
-          <t>https://www.meteo.cat/observacions/xema/dades?codi=XH&amp;dia=2026-02-04T15:30Z</t>
+          <t>https://www.meteo.cat/observacions/xema/dades?codi=XH&amp;dia=2026-02-04T16:00Z</t>
         </is>
       </c>
       <c r="K147" t="n">
@@ -33349,7 +33349,7 @@
       </c>
       <c r="H148" t="inlineStr">
         <is>
-          <t>2026-02-04 16:17:53</t>
+          <t>2026-02-04 16:36:39</t>
         </is>
       </c>
       <c r="I148" t="inlineStr">
@@ -33546,7 +33546,7 @@
       </c>
       <c r="H149" t="inlineStr">
         <is>
-          <t>2026-02-04 16:17:53</t>
+          <t>2026-02-04 16:36:39</t>
         </is>
       </c>
       <c r="I149" t="inlineStr">
@@ -33743,7 +33743,7 @@
       </c>
       <c r="H150" t="inlineStr">
         <is>
-          <t>2026-02-04 16:17:53</t>
+          <t>2026-02-04 16:36:39</t>
         </is>
       </c>
       <c r="I150" t="inlineStr">
@@ -33940,7 +33940,7 @@
       </c>
       <c r="H151" t="inlineStr">
         <is>
-          <t>2026-02-04 16:17:53</t>
+          <t>2026-02-04 16:36:39</t>
         </is>
       </c>
       <c r="I151" t="inlineStr">
@@ -34137,17 +34137,17 @@
       </c>
       <c r="H152" t="inlineStr">
         <is>
-          <t>2026-02-04 16:17:56</t>
+          <t>2026-02-04 16:36:42</t>
         </is>
       </c>
       <c r="I152" t="inlineStr">
         <is>
-          <t>15:30</t>
+          <t>16:00</t>
         </is>
       </c>
       <c r="J152" t="inlineStr">
         <is>
-          <t>https://www.meteo.cat/observacions/xema/dades?codi=XE&amp;dia=2026-02-04T15:30Z</t>
+          <t>https://www.meteo.cat/observacions/xema/dades?codi=XE&amp;dia=2026-02-04T16:00Z</t>
         </is>
       </c>
       <c r="K152" t="n">
@@ -34370,7 +34370,7 @@
       </c>
       <c r="H153" t="inlineStr">
         <is>
-          <t>2026-02-04 16:17:58</t>
+          <t>2026-02-04 16:36:44</t>
         </is>
       </c>
       <c r="I153" t="inlineStr">
@@ -34603,7 +34603,7 @@
       </c>
       <c r="H154" t="inlineStr">
         <is>
-          <t>2026-02-04 16:17:58</t>
+          <t>2026-02-04 16:36:44</t>
         </is>
       </c>
       <c r="I154" t="inlineStr">
@@ -34836,7 +34836,7 @@
       </c>
       <c r="H155" t="inlineStr">
         <is>
-          <t>2026-02-04 16:17:58</t>
+          <t>2026-02-04 16:36:44</t>
         </is>
       </c>
       <c r="I155" t="inlineStr">
@@ -35069,7 +35069,7 @@
       </c>
       <c r="H156" t="inlineStr">
         <is>
-          <t>2026-02-04 16:17:58</t>
+          <t>2026-02-04 16:36:44</t>
         </is>
       </c>
       <c r="I156" t="inlineStr">
@@ -35302,17 +35302,17 @@
       </c>
       <c r="H157" t="inlineStr">
         <is>
-          <t>2026-02-04 16:18:01</t>
+          <t>2026-02-04 16:36:46</t>
         </is>
       </c>
       <c r="I157" t="inlineStr">
         <is>
-          <t>15:30</t>
+          <t>16:00</t>
         </is>
       </c>
       <c r="J157" t="inlineStr">
         <is>
-          <t>https://www.meteo.cat/observacions/xema/dades?codi=UE&amp;dia=2026-02-04T15:30Z</t>
+          <t>https://www.meteo.cat/observacions/xema/dades?codi=UE&amp;dia=2026-02-04T16:00Z</t>
         </is>
       </c>
       <c r="K157" t="n">
@@ -35475,7 +35475,7 @@
       </c>
       <c r="H158" t="inlineStr">
         <is>
-          <t>2026-02-04 16:18:02</t>
+          <t>2026-02-04 16:36:48</t>
         </is>
       </c>
       <c r="I158" t="inlineStr">
@@ -35648,7 +35648,7 @@
       </c>
       <c r="H159" t="inlineStr">
         <is>
-          <t>2026-02-04 16:18:02</t>
+          <t>2026-02-04 16:36:48</t>
         </is>
       </c>
       <c r="I159" t="inlineStr">
@@ -35821,7 +35821,7 @@
       </c>
       <c r="H160" t="inlineStr">
         <is>
-          <t>2026-02-04 16:18:02</t>
+          <t>2026-02-04 16:36:48</t>
         </is>
       </c>
       <c r="I160" t="inlineStr">
@@ -35994,7 +35994,7 @@
       </c>
       <c r="H161" t="inlineStr">
         <is>
-          <t>2026-02-04 16:18:02</t>
+          <t>2026-02-04 16:36:48</t>
         </is>
       </c>
       <c r="I161" t="inlineStr">
@@ -36167,17 +36167,17 @@
       </c>
       <c r="H162" t="inlineStr">
         <is>
-          <t>2026-02-04 16:18:05</t>
+          <t>2026-02-04 16:36:51</t>
         </is>
       </c>
       <c r="I162" t="inlineStr">
         <is>
-          <t>15:30</t>
+          <t>16:00</t>
         </is>
       </c>
       <c r="J162" t="inlineStr">
         <is>
-          <t>https://www.meteo.cat/observacions/xema/dades?codi=XO&amp;dia=2026-02-04T15:30Z</t>
+          <t>https://www.meteo.cat/observacions/xema/dades?codi=XO&amp;dia=2026-02-04T16:00Z</t>
         </is>
       </c>
       <c r="K162" t="n">
@@ -36388,7 +36388,7 @@
       </c>
       <c r="H163" t="inlineStr">
         <is>
-          <t>2026-02-04 16:18:07</t>
+          <t>2026-02-04 16:36:53</t>
         </is>
       </c>
       <c r="I163" t="inlineStr">
@@ -36609,7 +36609,7 @@
       </c>
       <c r="H164" t="inlineStr">
         <is>
-          <t>2026-02-04 16:18:07</t>
+          <t>2026-02-04 16:36:53</t>
         </is>
       </c>
       <c r="I164" t="inlineStr">
@@ -36830,7 +36830,7 @@
       </c>
       <c r="H165" t="inlineStr">
         <is>
-          <t>2026-02-04 16:18:07</t>
+          <t>2026-02-04 16:36:53</t>
         </is>
       </c>
       <c r="I165" t="inlineStr">
@@ -37051,7 +37051,7 @@
       </c>
       <c r="H166" t="inlineStr">
         <is>
-          <t>2026-02-04 16:18:07</t>
+          <t>2026-02-04 16:36:53</t>
         </is>
       </c>
       <c r="I166" t="inlineStr">
@@ -37272,17 +37272,17 @@
       </c>
       <c r="H167" t="inlineStr">
         <is>
-          <t>2026-02-04 16:18:09</t>
+          <t>2026-02-04 16:36:55</t>
         </is>
       </c>
       <c r="I167" t="inlineStr">
         <is>
-          <t>15:30</t>
+          <t>16:00</t>
         </is>
       </c>
       <c r="J167" t="inlineStr">
         <is>
-          <t>https://www.meteo.cat/observacions/xema/dades?codi=VS&amp;dia=2026-02-04T15:30Z</t>
+          <t>https://www.meteo.cat/observacions/xema/dades?codi=VS&amp;dia=2026-02-04T16:00Z</t>
         </is>
       </c>
       <c r="K167" t="n">
@@ -37513,7 +37513,7 @@
       </c>
       <c r="H168" t="inlineStr">
         <is>
-          <t>2026-02-04 16:18:11</t>
+          <t>2026-02-04 16:36:57</t>
         </is>
       </c>
       <c r="I168" t="inlineStr">
@@ -37722,7 +37722,7 @@
       </c>
       <c r="H169" t="inlineStr">
         <is>
-          <t>2026-02-04 16:18:11</t>
+          <t>2026-02-04 16:36:57</t>
         </is>
       </c>
       <c r="I169" t="inlineStr">
@@ -37931,7 +37931,7 @@
       </c>
       <c r="H170" t="inlineStr">
         <is>
-          <t>2026-02-04 16:18:11</t>
+          <t>2026-02-04 16:36:57</t>
         </is>
       </c>
       <c r="I170" t="inlineStr">
@@ -38140,7 +38140,7 @@
       </c>
       <c r="H171" t="inlineStr">
         <is>
-          <t>2026-02-04 16:18:11</t>
+          <t>2026-02-04 16:36:57</t>
         </is>
       </c>
       <c r="I171" t="inlineStr">
@@ -38349,17 +38349,17 @@
       </c>
       <c r="H172" t="inlineStr">
         <is>
-          <t>2026-02-04 16:18:14</t>
+          <t>2026-02-04 16:37:00</t>
         </is>
       </c>
       <c r="I172" t="inlineStr">
         <is>
-          <t>15:30</t>
+          <t>16:00</t>
         </is>
       </c>
       <c r="J172" t="inlineStr">
         <is>
-          <t>https://www.meteo.cat/observacions/xema/dades?codi=D7&amp;dia=2026-02-04T15:30Z</t>
+          <t>https://www.meteo.cat/observacions/xema/dades?codi=D7&amp;dia=2026-02-04T16:00Z</t>
         </is>
       </c>
       <c r="K172" t="n">
@@ -38582,7 +38582,7 @@
       </c>
       <c r="H173" t="inlineStr">
         <is>
-          <t>2026-02-04 16:18:16</t>
+          <t>2026-02-04 16:37:02</t>
         </is>
       </c>
       <c r="I173" t="inlineStr">
@@ -38815,7 +38815,7 @@
       </c>
       <c r="H174" t="inlineStr">
         <is>
-          <t>2026-02-04 16:18:16</t>
+          <t>2026-02-04 16:37:02</t>
         </is>
       </c>
       <c r="I174" t="inlineStr">
@@ -39048,7 +39048,7 @@
       </c>
       <c r="H175" t="inlineStr">
         <is>
-          <t>2026-02-04 16:18:16</t>
+          <t>2026-02-04 16:37:02</t>
         </is>
       </c>
       <c r="I175" t="inlineStr">
@@ -39281,7 +39281,7 @@
       </c>
       <c r="H176" t="inlineStr">
         <is>
-          <t>2026-02-04 16:18:16</t>
+          <t>2026-02-04 16:37:02</t>
         </is>
       </c>
       <c r="I176" t="inlineStr">
@@ -39553,7 +39553,7 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>https://www.meteo.cat/observacions/xema/dades?codi=YT&amp;dia=2026-02-04T15:30Z</t>
+          <t>https://www.meteo.cat/observacions/xema/dades?codi=YT&amp;dia=2026-02-04T16:00Z</t>
         </is>
       </c>
     </row>
@@ -39583,7 +39583,7 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>https://www.meteo.cat/observacions/xema/dades?codi=Z1&amp;dia=2026-02-04T15:30Z</t>
+          <t>https://www.meteo.cat/observacions/xema/dades?codi=Z1&amp;dia=2026-02-04T16:00Z</t>
         </is>
       </c>
     </row>
@@ -39613,7 +39613,7 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>https://www.meteo.cat/observacions/xema/dades?codi=DN&amp;dia=2026-02-04T15:30Z</t>
+          <t>https://www.meteo.cat/observacions/xema/dades?codi=DN&amp;dia=2026-02-04T16:00Z</t>
         </is>
       </c>
     </row>
@@ -39643,7 +39643,7 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>https://www.meteo.cat/observacions/xema/dades?codi=DJ&amp;dia=2026-02-04T15:30Z</t>
+          <t>https://www.meteo.cat/observacions/xema/dades?codi=DJ&amp;dia=2026-02-04T16:00Z</t>
         </is>
       </c>
     </row>
@@ -39673,7 +39673,7 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>https://www.meteo.cat/observacions/xema/dades?codi=X4&amp;dia=2026-02-04T15:30Z</t>
+          <t>https://www.meteo.cat/observacions/xema/dades?codi=X4&amp;dia=2026-02-04T16:00Z</t>
         </is>
       </c>
     </row>
@@ -39703,7 +39703,7 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>https://www.meteo.cat/observacions/xema/dades?codi=D5&amp;dia=2026-02-04T15:30Z</t>
+          <t>https://www.meteo.cat/observacions/xema/dades?codi=D5&amp;dia=2026-02-04T16:00Z</t>
         </is>
       </c>
     </row>
@@ -39733,7 +39733,7 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>https://www.meteo.cat/observacions/xema/dades?codi=UN&amp;dia=2026-02-04T15:30Z</t>
+          <t>https://www.meteo.cat/observacions/xema/dades?codi=UN&amp;dia=2026-02-04T16:00Z</t>
         </is>
       </c>
     </row>
@@ -39763,7 +39763,7 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>https://www.meteo.cat/observacions/xema/dades?codi=MS&amp;dia=2026-02-04T15:30Z</t>
+          <t>https://www.meteo.cat/observacions/xema/dades?codi=MS&amp;dia=2026-02-04T16:00Z</t>
         </is>
       </c>
     </row>
@@ -39793,7 +39793,7 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>https://www.meteo.cat/observacions/xema/dades?codi=W1&amp;dia=2026-02-04T15:30Z</t>
+          <t>https://www.meteo.cat/observacions/xema/dades?codi=W1&amp;dia=2026-02-04T16:00Z</t>
         </is>
       </c>
     </row>
@@ -39823,7 +39823,7 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>https://www.meteo.cat/observacions/xema/dades?codi=DP&amp;dia=2026-02-04T15:30Z</t>
+          <t>https://www.meteo.cat/observacions/xema/dades?codi=DP&amp;dia=2026-02-04T16:00Z</t>
         </is>
       </c>
     </row>
@@ -39853,7 +39853,7 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>https://www.meteo.cat/observacions/xema/dades?codi=XL&amp;dia=2026-02-04T15:30Z</t>
+          <t>https://www.meteo.cat/observacions/xema/dades?codi=XL&amp;dia=2026-02-04T16:00Z</t>
         </is>
       </c>
     </row>
@@ -39883,7 +39883,7 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>https://www.meteo.cat/observacions/xema/dades?codi=VZ&amp;dia=2026-02-04T15:30Z</t>
+          <t>https://www.meteo.cat/observacions/xema/dades?codi=VZ&amp;dia=2026-02-04T16:00Z</t>
         </is>
       </c>
     </row>
@@ -39913,7 +39913,7 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>https://www.meteo.cat/observacions/xema/dades?codi=Z7&amp;dia=2026-02-04T15:30Z</t>
+          <t>https://www.meteo.cat/observacions/xema/dades?codi=Z7&amp;dia=2026-02-04T16:00Z</t>
         </is>
       </c>
     </row>
@@ -39943,7 +39943,7 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>https://www.meteo.cat/observacions/xema/dades?codi=XJ&amp;dia=2026-02-04T15:30Z</t>
+          <t>https://www.meteo.cat/observacions/xema/dades?codi=XJ&amp;dia=2026-02-04T16:00Z</t>
         </is>
       </c>
     </row>
@@ -39973,7 +39973,7 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>https://www.meteo.cat/observacions/xema/dades?codi=YU&amp;dia=2026-02-04T15:30Z</t>
+          <t>https://www.meteo.cat/observacions/xema/dades?codi=YU&amp;dia=2026-02-04T16:00Z</t>
         </is>
       </c>
     </row>
@@ -40003,7 +40003,7 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>https://www.meteo.cat/observacions/xema/dades?codi=CD&amp;dia=2026-02-04T15:30Z</t>
+          <t>https://www.meteo.cat/observacions/xema/dades?codi=CD&amp;dia=2026-02-04T16:00Z</t>
         </is>
       </c>
     </row>
@@ -40033,7 +40033,7 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>https://www.meteo.cat/observacions/xema/dades?codi=Z2&amp;dia=2026-02-04T15:30Z</t>
+          <t>https://www.meteo.cat/observacions/xema/dades?codi=Z2&amp;dia=2026-02-04T16:00Z</t>
         </is>
       </c>
     </row>
@@ -40063,7 +40063,7 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>https://www.meteo.cat/observacions/xema/dades?codi=VK&amp;dia=2026-02-04T15:30Z</t>
+          <t>https://www.meteo.cat/observacions/xema/dades?codi=VK&amp;dia=2026-02-04T16:00Z</t>
         </is>
       </c>
     </row>
@@ -40093,7 +40093,7 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>https://www.meteo.cat/observacions/xema/dades?codi=Z3&amp;dia=2026-02-04T15:30Z</t>
+          <t>https://www.meteo.cat/observacions/xema/dades?codi=Z3&amp;dia=2026-02-04T16:00Z</t>
         </is>
       </c>
     </row>
@@ -40123,7 +40123,7 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>https://www.meteo.cat/observacions/xema/dades?codi=YB&amp;dia=2026-02-04T15:30Z</t>
+          <t>https://www.meteo.cat/observacions/xema/dades?codi=YB&amp;dia=2026-02-04T16:00Z</t>
         </is>
       </c>
     </row>
@@ -40153,7 +40153,7 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>https://www.meteo.cat/observacions/xema/dades?codi=YP&amp;dia=2026-02-04T15:30Z</t>
+          <t>https://www.meteo.cat/observacions/xema/dades?codi=YP&amp;dia=2026-02-04T16:00Z</t>
         </is>
       </c>
     </row>
@@ -40183,7 +40183,7 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>https://www.meteo.cat/observacions/xema/dades?codi=J5&amp;dia=2026-02-04T15:30Z</t>
+          <t>https://www.meteo.cat/observacions/xema/dades?codi=J5&amp;dia=2026-02-04T16:00Z</t>
         </is>
       </c>
     </row>
@@ -40213,7 +40213,7 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>https://www.meteo.cat/observacions/xema/dades?codi=D6&amp;dia=2026-02-04T15:30Z</t>
+          <t>https://www.meteo.cat/observacions/xema/dades?codi=D6&amp;dia=2026-02-04T16:00Z</t>
         </is>
       </c>
     </row>
@@ -40243,7 +40243,7 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>https://www.meteo.cat/observacions/xema/dades?codi=YA&amp;dia=2026-02-04T15:30Z</t>
+          <t>https://www.meteo.cat/observacions/xema/dades?codi=YA&amp;dia=2026-02-04T16:00Z</t>
         </is>
       </c>
     </row>
@@ -40273,7 +40273,7 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>https://www.meteo.cat/observacions/xema/dades?codi=DG&amp;dia=2026-02-04T15:30Z</t>
+          <t>https://www.meteo.cat/observacions/xema/dades?codi=DG&amp;dia=2026-02-04T16:00Z</t>
         </is>
       </c>
     </row>
@@ -40303,7 +40303,7 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>https://www.meteo.cat/observacions/xema/dades?codi=D4&amp;dia=2026-02-04T15:30Z</t>
+          <t>https://www.meteo.cat/observacions/xema/dades?codi=D4&amp;dia=2026-02-04T16:00Z</t>
         </is>
       </c>
     </row>
@@ -40333,7 +40333,7 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>https://www.meteo.cat/observacions/xema/dades?codi=CI&amp;dia=2026-02-04T15:30Z</t>
+          <t>https://www.meteo.cat/observacions/xema/dades?codi=CI&amp;dia=2026-02-04T16:00Z</t>
         </is>
       </c>
     </row>
@@ -40363,7 +40363,7 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>https://www.meteo.cat/observacions/xema/dades?codi=XS&amp;dia=2026-02-04T15:30Z</t>
+          <t>https://www.meteo.cat/observacions/xema/dades?codi=XS&amp;dia=2026-02-04T16:00Z</t>
         </is>
       </c>
     </row>
@@ -40393,7 +40393,7 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>https://www.meteo.cat/observacions/xema/dades?codi=ZC&amp;dia=2026-02-04T15:30Z</t>
+          <t>https://www.meteo.cat/observacions/xema/dades?codi=ZC&amp;dia=2026-02-04T16:00Z</t>
         </is>
       </c>
     </row>
@@ -40423,7 +40423,7 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>https://www.meteo.cat/observacions/xema/dades?codi=XH&amp;dia=2026-02-04T15:30Z</t>
+          <t>https://www.meteo.cat/observacions/xema/dades?codi=XH&amp;dia=2026-02-04T16:00Z</t>
         </is>
       </c>
     </row>
@@ -40453,7 +40453,7 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>https://www.meteo.cat/observacions/xema/dades?codi=XE&amp;dia=2026-02-04T15:30Z</t>
+          <t>https://www.meteo.cat/observacions/xema/dades?codi=XE&amp;dia=2026-02-04T16:00Z</t>
         </is>
       </c>
     </row>
@@ -40483,7 +40483,7 @@
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>https://www.meteo.cat/observacions/xema/dades?codi=UE&amp;dia=2026-02-04T15:30Z</t>
+          <t>https://www.meteo.cat/observacions/xema/dades?codi=UE&amp;dia=2026-02-04T16:00Z</t>
         </is>
       </c>
     </row>
@@ -40513,7 +40513,7 @@
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>https://www.meteo.cat/observacions/xema/dades?codi=XO&amp;dia=2026-02-04T15:30Z</t>
+          <t>https://www.meteo.cat/observacions/xema/dades?codi=XO&amp;dia=2026-02-04T16:00Z</t>
         </is>
       </c>
     </row>
@@ -40543,7 +40543,7 @@
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>https://www.meteo.cat/observacions/xema/dades?codi=VS&amp;dia=2026-02-04T15:30Z</t>
+          <t>https://www.meteo.cat/observacions/xema/dades?codi=VS&amp;dia=2026-02-04T16:00Z</t>
         </is>
       </c>
     </row>
@@ -40573,7 +40573,7 @@
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>https://www.meteo.cat/observacions/xema/dades?codi=D7&amp;dia=2026-02-04T15:30Z</t>
+          <t>https://www.meteo.cat/observacions/xema/dades?codi=D7&amp;dia=2026-02-04T16:00Z</t>
         </is>
       </c>
     </row>

--- a/src/data/resum_periode_meteocat.xlsx
+++ b/src/data/resum_periode_meteocat.xlsx
@@ -712,7 +712,7 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>15:30 - 16:00</t>
+          <t>16:00 - 16:30</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -727,7 +727,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>2026-02-04 16:34:34</t>
+          <t>2026-02-04 16:57:01</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -758,7 +758,7 @@
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>84</t>
+          <t>87</t>
         </is>
       </c>
       <c r="R2" t="inlineStr"/>
@@ -769,27 +769,27 @@
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>15:30 - 16:00</t>
+          <t>16:00 - 16:30</t>
         </is>
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>44</t>
+          <t>39</t>
         </is>
       </c>
       <c r="V2" t="inlineStr">
         <is>
-          <t>0.4</t>
+          <t>-0.5</t>
         </is>
       </c>
       <c r="W2" t="inlineStr">
         <is>
+          <t>-0.9</t>
+        </is>
+      </c>
+      <c r="X2" t="inlineStr">
+        <is>
           <t>-0.2</t>
-        </is>
-      </c>
-      <c r="X2" t="inlineStr">
-        <is>
-          <t>1.0</t>
         </is>
       </c>
       <c r="Y2" t="inlineStr"/>
@@ -800,82 +800,82 @@
       <c r="AD2" t="inlineStr"/>
       <c r="AE2" t="inlineStr">
         <is>
-          <t>15:30 - 16:00</t>
+          <t>16:00 - 16:30</t>
         </is>
       </c>
       <c r="AF2" t="inlineStr">
         <is>
-          <t>0.4</t>
+          <t>-0.5</t>
         </is>
       </c>
       <c r="AG2" t="inlineStr">
         <is>
-          <t>1.0</t>
+          <t>-0.2</t>
         </is>
       </c>
       <c r="AH2" t="inlineStr">
         <is>
+          <t>-0.9</t>
+        </is>
+      </c>
+      <c r="AI2" t="inlineStr">
+        <is>
+          <t>87</t>
+        </is>
+      </c>
+      <c r="AJ2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="AK2" t="inlineStr">
+        <is>
+          <t>106</t>
+        </is>
+      </c>
+      <c r="AL2" t="inlineStr">
+        <is>
+          <t>39</t>
+        </is>
+      </c>
+      <c r="AM2" t="inlineStr">
+        <is>
+          <t>16:00 - 16:30</t>
+        </is>
+      </c>
+      <c r="AN2" t="inlineStr">
+        <is>
+          <t>-0.5</t>
+        </is>
+      </c>
+      <c r="AO2" t="inlineStr">
+        <is>
           <t>-0.2</t>
         </is>
       </c>
-      <c r="AI2" t="inlineStr">
-        <is>
-          <t>84</t>
-        </is>
-      </c>
-      <c r="AJ2" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="AK2" t="inlineStr">
+      <c r="AP2" t="inlineStr">
+        <is>
+          <t>-0.9</t>
+        </is>
+      </c>
+      <c r="AQ2" t="inlineStr">
+        <is>
+          <t>87</t>
+        </is>
+      </c>
+      <c r="AR2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="AS2" t="inlineStr">
         <is>
           <t>106</t>
         </is>
       </c>
-      <c r="AL2" t="inlineStr">
-        <is>
-          <t>44</t>
-        </is>
-      </c>
-      <c r="AM2" t="inlineStr">
-        <is>
-          <t>15:30 - 16:00</t>
-        </is>
-      </c>
-      <c r="AN2" t="inlineStr">
-        <is>
-          <t>0.4</t>
-        </is>
-      </c>
-      <c r="AO2" t="inlineStr">
-        <is>
-          <t>1.0</t>
-        </is>
-      </c>
-      <c r="AP2" t="inlineStr">
-        <is>
-          <t>-0.2</t>
-        </is>
-      </c>
-      <c r="AQ2" t="inlineStr">
-        <is>
-          <t>84</t>
-        </is>
-      </c>
-      <c r="AR2" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="AS2" t="inlineStr">
-        <is>
-          <t>106</t>
-        </is>
-      </c>
       <c r="AT2" t="inlineStr">
         <is>
-          <t>44</t>
+          <t>39</t>
         </is>
       </c>
       <c r="AU2" t="inlineStr"/>
@@ -924,7 +924,7 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>2026-02-04 16:34:35</t>
+          <t>2026-02-04 16:57:02</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
@@ -1121,7 +1121,7 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>2026-02-04 16:34:35</t>
+          <t>2026-02-04 16:57:02</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
@@ -1318,7 +1318,7 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>2026-02-04 16:34:35</t>
+          <t>2026-02-04 16:57:02</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
@@ -1515,7 +1515,7 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>2026-02-04 16:34:35</t>
+          <t>2026-02-04 16:57:02</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
@@ -1697,7 +1697,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>15:30 - 16:00</t>
+          <t>16:00 - 16:30</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -1712,7 +1712,7 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>2026-02-04 16:34:38</t>
+          <t>2026-02-04 16:57:05</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
@@ -1737,7 +1737,7 @@
       <c r="N7" t="inlineStr"/>
       <c r="O7" t="inlineStr">
         <is>
-          <t>267</t>
+          <t>250</t>
         </is>
       </c>
       <c r="P7" t="inlineStr">
@@ -1747,7 +1747,7 @@
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>75</t>
+          <t>76</t>
         </is>
       </c>
       <c r="R7" t="inlineStr"/>
@@ -1758,151 +1758,151 @@
       </c>
       <c r="T7" t="inlineStr">
         <is>
-          <t>15:30 - 16:00</t>
+          <t>16:00 - 16:30</t>
         </is>
       </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>269</t>
+          <t>141</t>
         </is>
       </c>
       <c r="V7" t="inlineStr">
         <is>
-          <t>-1.6</t>
+          <t>-1.9</t>
         </is>
       </c>
       <c r="W7" t="inlineStr">
         <is>
-          <t>-1.9</t>
+          <t>-3.3</t>
         </is>
       </c>
       <c r="X7" t="inlineStr">
         <is>
-          <t>-1.4</t>
+          <t>-1.5</t>
         </is>
       </c>
       <c r="Y7" t="inlineStr"/>
       <c r="Z7" t="inlineStr"/>
       <c r="AA7" t="inlineStr">
         <is>
-          <t>10.1</t>
+          <t>5.0</t>
         </is>
       </c>
       <c r="AB7" t="inlineStr"/>
       <c r="AC7" t="inlineStr"/>
       <c r="AD7" t="inlineStr">
         <is>
-          <t>17.6</t>
+          <t>14.8</t>
         </is>
       </c>
       <c r="AE7" t="inlineStr">
         <is>
-          <t>15:30 - 16:00</t>
+          <t>16:00 - 16:30</t>
         </is>
       </c>
       <c r="AF7" t="inlineStr">
         <is>
-          <t>-1.6</t>
+          <t>-1.9</t>
         </is>
       </c>
       <c r="AG7" t="inlineStr">
         <is>
-          <t>-1.4</t>
+          <t>-1.5</t>
         </is>
       </c>
       <c r="AH7" t="inlineStr">
         <is>
+          <t>-3.3</t>
+        </is>
+      </c>
+      <c r="AI7" t="inlineStr">
+        <is>
+          <t>76</t>
+        </is>
+      </c>
+      <c r="AJ7" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="AK7" t="inlineStr">
+        <is>
+          <t>180</t>
+        </is>
+      </c>
+      <c r="AL7" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="AM7" t="inlineStr">
+        <is>
+          <t>16:00 - 16:30</t>
+        </is>
+      </c>
+      <c r="AN7" t="inlineStr">
+        <is>
           <t>-1.9</t>
         </is>
       </c>
-      <c r="AI7" t="inlineStr">
-        <is>
-          <t>75</t>
-        </is>
-      </c>
-      <c r="AJ7" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="AK7" t="inlineStr">
+      <c r="AO7" t="inlineStr">
+        <is>
+          <t>-1.5</t>
+        </is>
+      </c>
+      <c r="AP7" t="inlineStr">
+        <is>
+          <t>-3.3</t>
+        </is>
+      </c>
+      <c r="AQ7" t="inlineStr">
+        <is>
+          <t>76</t>
+        </is>
+      </c>
+      <c r="AR7" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="AS7" t="inlineStr">
         <is>
           <t>180</t>
         </is>
       </c>
-      <c r="AL7" t="inlineStr">
-        <is>
-          <t>10.1</t>
-        </is>
-      </c>
-      <c r="AM7" t="inlineStr">
-        <is>
-          <t>15:30 - 16:00</t>
-        </is>
-      </c>
-      <c r="AN7" t="inlineStr">
-        <is>
-          <t>-1.6</t>
-        </is>
-      </c>
-      <c r="AO7" t="inlineStr">
-        <is>
-          <t>-1.4</t>
-        </is>
-      </c>
-      <c r="AP7" t="inlineStr">
-        <is>
-          <t>-1.9</t>
-        </is>
-      </c>
-      <c r="AQ7" t="inlineStr">
-        <is>
-          <t>75</t>
-        </is>
-      </c>
-      <c r="AR7" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="AS7" t="inlineStr">
-        <is>
-          <t>180</t>
-        </is>
-      </c>
       <c r="AT7" t="inlineStr">
         <is>
-          <t>10.1</t>
+          <t>5.0</t>
         </is>
       </c>
       <c r="AU7" t="inlineStr">
         <is>
-          <t>267</t>
+          <t>250</t>
         </is>
       </c>
       <c r="AV7" t="inlineStr">
         <is>
-          <t>17.6</t>
+          <t>14.8</t>
         </is>
       </c>
       <c r="AW7" t="inlineStr">
         <is>
-          <t>269</t>
+          <t>141</t>
         </is>
       </c>
       <c r="AX7" t="inlineStr">
         <is>
-          <t>267</t>
+          <t>250</t>
         </is>
       </c>
       <c r="AY7" t="inlineStr">
         <is>
-          <t>17.6</t>
+          <t>14.8</t>
         </is>
       </c>
       <c r="AZ7" t="inlineStr">
         <is>
-          <t>269</t>
+          <t>141</t>
         </is>
       </c>
       <c r="BA7" t="inlineStr"/>
@@ -1945,7 +1945,7 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>2026-02-04 16:34:40</t>
+          <t>2026-02-04 16:57:06</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
@@ -2178,7 +2178,7 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>2026-02-04 16:34:40</t>
+          <t>2026-02-04 16:57:06</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
@@ -2411,7 +2411,7 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>2026-02-04 16:34:40</t>
+          <t>2026-02-04 16:57:06</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
@@ -2644,7 +2644,7 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>2026-02-04 16:34:40</t>
+          <t>2026-02-04 16:57:06</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
@@ -2862,7 +2862,7 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>15:30 - 16:00</t>
+          <t>16:00 - 16:30</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
@@ -2877,7 +2877,7 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>2026-02-04 16:34:43</t>
+          <t>2026-02-04 16:57:09</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
@@ -2900,7 +2900,7 @@
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>294</t>
+          <t>303</t>
         </is>
       </c>
       <c r="N12" t="inlineStr"/>
@@ -2908,12 +2908,12 @@
       <c r="P12" t="inlineStr"/>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>55</t>
+          <t>56</t>
         </is>
       </c>
       <c r="R12" t="inlineStr">
         <is>
-          <t>989.9</t>
+          <t>990.1</t>
         </is>
       </c>
       <c r="S12" t="inlineStr">
@@ -2923,27 +2923,27 @@
       </c>
       <c r="T12" t="inlineStr">
         <is>
-          <t>15:30 - 16:00</t>
+          <t>16:00 - 16:30</t>
         </is>
       </c>
       <c r="U12" t="inlineStr">
         <is>
-          <t>191</t>
+          <t>101</t>
         </is>
       </c>
       <c r="V12" t="inlineStr">
         <is>
-          <t>12.6</t>
+          <t>12.2</t>
         </is>
       </c>
       <c r="W12" t="inlineStr">
         <is>
+          <t>11.9</t>
+        </is>
+      </c>
+      <c r="X12" t="inlineStr">
+        <is>
           <t>12.3</t>
-        </is>
-      </c>
-      <c r="X12" t="inlineStr">
-        <is>
-          <t>12.9</t>
         </is>
       </c>
       <c r="Y12" t="inlineStr">
@@ -2955,119 +2955,119 @@
       <c r="AA12" t="inlineStr"/>
       <c r="AB12" t="inlineStr">
         <is>
-          <t>30.2</t>
+          <t>35.3</t>
         </is>
       </c>
       <c r="AC12" t="inlineStr"/>
       <c r="AD12" t="inlineStr"/>
       <c r="AE12" t="inlineStr">
         <is>
-          <t>15:30 - 16:00</t>
+          <t>16:00 - 16:30</t>
         </is>
       </c>
       <c r="AF12" t="inlineStr">
         <is>
-          <t>12.6</t>
+          <t>12.2</t>
         </is>
       </c>
       <c r="AG12" t="inlineStr">
         <is>
-          <t>12.9</t>
+          <t>12.3</t>
         </is>
       </c>
       <c r="AH12" t="inlineStr">
         <is>
+          <t>11.9</t>
+        </is>
+      </c>
+      <c r="AI12" t="inlineStr">
+        <is>
+          <t>56</t>
+        </is>
+      </c>
+      <c r="AJ12" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="AK12" t="inlineStr">
+        <is>
+          <t>16.2</t>
+        </is>
+      </c>
+      <c r="AL12" t="inlineStr">
+        <is>
+          <t>303</t>
+        </is>
+      </c>
+      <c r="AM12" t="inlineStr">
+        <is>
+          <t>16:00 - 16:30</t>
+        </is>
+      </c>
+      <c r="AN12" t="inlineStr">
+        <is>
+          <t>12.2</t>
+        </is>
+      </c>
+      <c r="AO12" t="inlineStr">
+        <is>
           <t>12.3</t>
         </is>
       </c>
-      <c r="AI12" t="inlineStr">
-        <is>
-          <t>55</t>
-        </is>
-      </c>
-      <c r="AJ12" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="AK12" t="inlineStr">
+      <c r="AP12" t="inlineStr">
+        <is>
+          <t>11.9</t>
+        </is>
+      </c>
+      <c r="AQ12" t="inlineStr">
+        <is>
+          <t>56</t>
+        </is>
+      </c>
+      <c r="AR12" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="AS12" t="inlineStr">
         <is>
           <t>16.2</t>
         </is>
       </c>
-      <c r="AL12" t="inlineStr">
-        <is>
-          <t>294</t>
-        </is>
-      </c>
-      <c r="AM12" t="inlineStr">
-        <is>
-          <t>15:30 - 16:00</t>
-        </is>
-      </c>
-      <c r="AN12" t="inlineStr">
-        <is>
-          <t>12.6</t>
-        </is>
-      </c>
-      <c r="AO12" t="inlineStr">
-        <is>
-          <t>12.9</t>
-        </is>
-      </c>
-      <c r="AP12" t="inlineStr">
-        <is>
-          <t>12.3</t>
-        </is>
-      </c>
-      <c r="AQ12" t="inlineStr">
-        <is>
-          <t>55</t>
-        </is>
-      </c>
-      <c r="AR12" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="AS12" t="inlineStr">
-        <is>
-          <t>16.2</t>
-        </is>
-      </c>
       <c r="AT12" t="inlineStr">
         <is>
-          <t>294</t>
+          <t>303</t>
         </is>
       </c>
       <c r="AU12" t="inlineStr">
         <is>
-          <t>30.2</t>
+          <t>35.3</t>
         </is>
       </c>
       <c r="AV12" t="inlineStr">
         <is>
-          <t>989.9</t>
+          <t>990.1</t>
         </is>
       </c>
       <c r="AW12" t="inlineStr">
         <is>
-          <t>191</t>
+          <t>101</t>
         </is>
       </c>
       <c r="AX12" t="inlineStr">
         <is>
-          <t>30.2</t>
+          <t>35.3</t>
         </is>
       </c>
       <c r="AY12" t="inlineStr">
         <is>
-          <t>989.9</t>
+          <t>990.1</t>
         </is>
       </c>
       <c r="AZ12" t="inlineStr">
         <is>
-          <t>191</t>
+          <t>101</t>
         </is>
       </c>
       <c r="BA12" t="inlineStr"/>
@@ -3110,7 +3110,7 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>2026-02-04 16:34:45</t>
+          <t>2026-02-04 16:57:10</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
@@ -3343,7 +3343,7 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>2026-02-04 16:34:45</t>
+          <t>2026-02-04 16:57:10</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
@@ -3576,7 +3576,7 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>2026-02-04 16:34:45</t>
+          <t>2026-02-04 16:57:10</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
@@ -3809,7 +3809,7 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>2026-02-04 16:34:45</t>
+          <t>2026-02-04 16:57:10</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
@@ -4027,7 +4027,7 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>15:30 - 16:00</t>
+          <t>16:00 - 16:30</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
@@ -4042,7 +4042,7 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>2026-02-04 16:34:47</t>
+          <t>2026-02-04 16:57:13</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
@@ -4065,7 +4065,7 @@
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>198</t>
+          <t>220</t>
         </is>
       </c>
       <c r="N17" t="inlineStr"/>
@@ -4073,12 +4073,12 @@
       <c r="P17" t="inlineStr"/>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>52</t>
         </is>
       </c>
       <c r="R17" t="inlineStr">
         <is>
-          <t>989.4</t>
+          <t>989.7</t>
         </is>
       </c>
       <c r="S17" t="inlineStr">
@@ -4088,22 +4088,22 @@
       </c>
       <c r="T17" t="inlineStr">
         <is>
-          <t>15:30 - 16:00</t>
+          <t>16:00 - 16:30</t>
         </is>
       </c>
       <c r="U17" t="inlineStr">
         <is>
-          <t>207</t>
+          <t>122</t>
         </is>
       </c>
       <c r="V17" t="inlineStr">
         <is>
-          <t>14.1</t>
+          <t>13.9</t>
         </is>
       </c>
       <c r="W17" t="inlineStr">
         <is>
-          <t>13.9</t>
+          <t>13.7</t>
         </is>
       </c>
       <c r="X17" t="inlineStr">
@@ -4113,26 +4113,26 @@
       </c>
       <c r="Y17" t="inlineStr">
         <is>
-          <t>8.3</t>
+          <t>2.9</t>
         </is>
       </c>
       <c r="Z17" t="inlineStr"/>
       <c r="AA17" t="inlineStr"/>
       <c r="AB17" t="inlineStr">
         <is>
-          <t>13.7</t>
+          <t>6.8</t>
         </is>
       </c>
       <c r="AC17" t="inlineStr"/>
       <c r="AD17" t="inlineStr"/>
       <c r="AE17" t="inlineStr">
         <is>
-          <t>15:30 - 16:00</t>
+          <t>16:00 - 16:30</t>
         </is>
       </c>
       <c r="AF17" t="inlineStr">
         <is>
-          <t>14.1</t>
+          <t>13.9</t>
         </is>
       </c>
       <c r="AG17" t="inlineStr">
@@ -4142,39 +4142,39 @@
       </c>
       <c r="AH17" t="inlineStr">
         <is>
+          <t>13.7</t>
+        </is>
+      </c>
+      <c r="AI17" t="inlineStr">
+        <is>
+          <t>52</t>
+        </is>
+      </c>
+      <c r="AJ17" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="AK17" t="inlineStr">
+        <is>
+          <t>2.9</t>
+        </is>
+      </c>
+      <c r="AL17" t="inlineStr">
+        <is>
+          <t>220</t>
+        </is>
+      </c>
+      <c r="AM17" t="inlineStr">
+        <is>
+          <t>16:00 - 16:30</t>
+        </is>
+      </c>
+      <c r="AN17" t="inlineStr">
+        <is>
           <t>13.9</t>
         </is>
       </c>
-      <c r="AI17" t="inlineStr">
-        <is>
-          <t>51</t>
-        </is>
-      </c>
-      <c r="AJ17" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="AK17" t="inlineStr">
-        <is>
-          <t>8.3</t>
-        </is>
-      </c>
-      <c r="AL17" t="inlineStr">
-        <is>
-          <t>198</t>
-        </is>
-      </c>
-      <c r="AM17" t="inlineStr">
-        <is>
-          <t>15:30 - 16:00</t>
-        </is>
-      </c>
-      <c r="AN17" t="inlineStr">
-        <is>
-          <t>14.1</t>
-        </is>
-      </c>
       <c r="AO17" t="inlineStr">
         <is>
           <t>14.3</t>
@@ -4182,12 +4182,12 @@
       </c>
       <c r="AP17" t="inlineStr">
         <is>
-          <t>13.9</t>
+          <t>13.7</t>
         </is>
       </c>
       <c r="AQ17" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>52</t>
         </is>
       </c>
       <c r="AR17" t="inlineStr">
@@ -4197,42 +4197,42 @@
       </c>
       <c r="AS17" t="inlineStr">
         <is>
-          <t>8.3</t>
+          <t>2.9</t>
         </is>
       </c>
       <c r="AT17" t="inlineStr">
         <is>
-          <t>198</t>
+          <t>220</t>
         </is>
       </c>
       <c r="AU17" t="inlineStr">
         <is>
-          <t>13.7</t>
+          <t>6.8</t>
         </is>
       </c>
       <c r="AV17" t="inlineStr">
         <is>
-          <t>989.4</t>
+          <t>989.7</t>
         </is>
       </c>
       <c r="AW17" t="inlineStr">
         <is>
-          <t>207</t>
+          <t>122</t>
         </is>
       </c>
       <c r="AX17" t="inlineStr">
         <is>
-          <t>13.7</t>
+          <t>6.8</t>
         </is>
       </c>
       <c r="AY17" t="inlineStr">
         <is>
-          <t>989.4</t>
+          <t>989.7</t>
         </is>
       </c>
       <c r="AZ17" t="inlineStr">
         <is>
-          <t>207</t>
+          <t>122</t>
         </is>
       </c>
       <c r="BA17" t="inlineStr"/>
@@ -4275,7 +4275,7 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>2026-02-04 16:34:49</t>
+          <t>2026-02-04 16:57:14</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
@@ -4508,7 +4508,7 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>2026-02-04 16:34:49</t>
+          <t>2026-02-04 16:57:14</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
@@ -4741,7 +4741,7 @@
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>2026-02-04 16:34:49</t>
+          <t>2026-02-04 16:57:14</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
@@ -4974,7 +4974,7 @@
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>2026-02-04 16:34:49</t>
+          <t>2026-02-04 16:57:14</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
@@ -5192,7 +5192,7 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>15:30 - 16:00</t>
+          <t>16:00 - 16:30</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
@@ -5207,7 +5207,7 @@
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>2026-02-04 16:34:52</t>
+          <t>2026-02-04 16:57:17</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
@@ -5238,12 +5238,12 @@
       <c r="P22" t="inlineStr"/>
       <c r="Q22" t="inlineStr">
         <is>
-          <t>49</t>
+          <t>50</t>
         </is>
       </c>
       <c r="R22" t="inlineStr">
         <is>
-          <t>991.4</t>
+          <t>991.6</t>
         </is>
       </c>
       <c r="S22" t="inlineStr">
@@ -5253,151 +5253,151 @@
       </c>
       <c r="T22" t="inlineStr">
         <is>
-          <t>15:30 - 16:00</t>
+          <t>16:00 - 16:30</t>
         </is>
       </c>
       <c r="U22" t="inlineStr">
         <is>
-          <t>202</t>
+          <t>119</t>
         </is>
       </c>
       <c r="V22" t="inlineStr">
         <is>
+          <t>13.7</t>
+        </is>
+      </c>
+      <c r="W22" t="inlineStr">
+        <is>
+          <t>13.6</t>
+        </is>
+      </c>
+      <c r="X22" t="inlineStr">
+        <is>
           <t>13.9</t>
         </is>
       </c>
-      <c r="W22" t="inlineStr">
-        <is>
-          <t>13.7</t>
-        </is>
-      </c>
-      <c r="X22" t="inlineStr">
-        <is>
-          <t>13.9</t>
-        </is>
-      </c>
       <c r="Y22" t="inlineStr">
         <is>
-          <t>15.5</t>
+          <t>12.2</t>
         </is>
       </c>
       <c r="Z22" t="inlineStr"/>
       <c r="AA22" t="inlineStr"/>
       <c r="AB22" t="inlineStr">
         <is>
-          <t>32.0</t>
+          <t>25.2</t>
         </is>
       </c>
       <c r="AC22" t="inlineStr"/>
       <c r="AD22" t="inlineStr"/>
       <c r="AE22" t="inlineStr">
         <is>
-          <t>15:30 - 16:00</t>
+          <t>16:00 - 16:30</t>
         </is>
       </c>
       <c r="AF22" t="inlineStr">
         <is>
+          <t>13.7</t>
+        </is>
+      </c>
+      <c r="AG22" t="inlineStr">
+        <is>
           <t>13.9</t>
         </is>
       </c>
-      <c r="AG22" t="inlineStr">
+      <c r="AH22" t="inlineStr">
+        <is>
+          <t>13.6</t>
+        </is>
+      </c>
+      <c r="AI22" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="AJ22" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="AK22" t="inlineStr">
+        <is>
+          <t>12.2</t>
+        </is>
+      </c>
+      <c r="AL22" t="inlineStr">
+        <is>
+          <t>285</t>
+        </is>
+      </c>
+      <c r="AM22" t="inlineStr">
+        <is>
+          <t>16:00 - 16:30</t>
+        </is>
+      </c>
+      <c r="AN22" t="inlineStr">
+        <is>
+          <t>13.7</t>
+        </is>
+      </c>
+      <c r="AO22" t="inlineStr">
         <is>
           <t>13.9</t>
         </is>
       </c>
-      <c r="AH22" t="inlineStr">
-        <is>
-          <t>13.7</t>
-        </is>
-      </c>
-      <c r="AI22" t="inlineStr">
-        <is>
-          <t>49</t>
-        </is>
-      </c>
-      <c r="AJ22" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="AK22" t="inlineStr">
-        <is>
-          <t>15.5</t>
-        </is>
-      </c>
-      <c r="AL22" t="inlineStr">
+      <c r="AP22" t="inlineStr">
+        <is>
+          <t>13.6</t>
+        </is>
+      </c>
+      <c r="AQ22" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="AR22" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="AS22" t="inlineStr">
+        <is>
+          <t>12.2</t>
+        </is>
+      </c>
+      <c r="AT22" t="inlineStr">
         <is>
           <t>285</t>
         </is>
       </c>
-      <c r="AM22" t="inlineStr">
-        <is>
-          <t>15:30 - 16:00</t>
-        </is>
-      </c>
-      <c r="AN22" t="inlineStr">
-        <is>
-          <t>13.9</t>
-        </is>
-      </c>
-      <c r="AO22" t="inlineStr">
-        <is>
-          <t>13.9</t>
-        </is>
-      </c>
-      <c r="AP22" t="inlineStr">
-        <is>
-          <t>13.7</t>
-        </is>
-      </c>
-      <c r="AQ22" t="inlineStr">
-        <is>
-          <t>49</t>
-        </is>
-      </c>
-      <c r="AR22" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="AS22" t="inlineStr">
-        <is>
-          <t>15.5</t>
-        </is>
-      </c>
-      <c r="AT22" t="inlineStr">
-        <is>
-          <t>285</t>
-        </is>
-      </c>
       <c r="AU22" t="inlineStr">
         <is>
-          <t>32.0</t>
+          <t>25.2</t>
         </is>
       </c>
       <c r="AV22" t="inlineStr">
         <is>
-          <t>991.4</t>
+          <t>991.6</t>
         </is>
       </c>
       <c r="AW22" t="inlineStr">
         <is>
-          <t>202</t>
+          <t>119</t>
         </is>
       </c>
       <c r="AX22" t="inlineStr">
         <is>
-          <t>32.0</t>
+          <t>25.2</t>
         </is>
       </c>
       <c r="AY22" t="inlineStr">
         <is>
-          <t>991.4</t>
+          <t>991.6</t>
         </is>
       </c>
       <c r="AZ22" t="inlineStr">
         <is>
-          <t>202</t>
+          <t>119</t>
         </is>
       </c>
       <c r="BA22" t="inlineStr"/>
@@ -5440,7 +5440,7 @@
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>2026-02-04 16:34:54</t>
+          <t>2026-02-04 16:57:19</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
@@ -5673,7 +5673,7 @@
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>2026-02-04 16:34:54</t>
+          <t>2026-02-04 16:57:19</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
@@ -5906,7 +5906,7 @@
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>2026-02-04 16:34:54</t>
+          <t>2026-02-04 16:57:19</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
@@ -6139,7 +6139,7 @@
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>2026-02-04 16:34:54</t>
+          <t>2026-02-04 16:57:19</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
@@ -6357,7 +6357,7 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>15:30 - 16:00</t>
+          <t>16:00 - 16:30</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
@@ -6372,7 +6372,7 @@
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>2026-02-04 16:34:56</t>
+          <t>2026-02-04 16:57:21</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
@@ -6395,7 +6395,7 @@
       </c>
       <c r="M27" t="inlineStr">
         <is>
-          <t>259</t>
+          <t>224</t>
         </is>
       </c>
       <c r="N27" t="inlineStr"/>
@@ -6403,12 +6403,12 @@
       <c r="P27" t="inlineStr"/>
       <c r="Q27" t="inlineStr">
         <is>
-          <t>61</t>
+          <t>64</t>
         </is>
       </c>
       <c r="R27" t="inlineStr">
         <is>
-          <t>990.9</t>
+          <t>991.2</t>
         </is>
       </c>
       <c r="S27" t="inlineStr">
@@ -6418,66 +6418,66 @@
       </c>
       <c r="T27" t="inlineStr">
         <is>
-          <t>15:30 - 16:00</t>
+          <t>16:00 - 16:30</t>
         </is>
       </c>
       <c r="U27" t="inlineStr">
         <is>
-          <t>201</t>
+          <t>115</t>
         </is>
       </c>
       <c r="V27" t="inlineStr">
         <is>
-          <t>10.9</t>
+          <t>10.5</t>
         </is>
       </c>
       <c r="W27" t="inlineStr">
         <is>
-          <t>10.6</t>
+          <t>9.9</t>
         </is>
       </c>
       <c r="X27" t="inlineStr">
         <is>
-          <t>11.5</t>
+          <t>11.1</t>
         </is>
       </c>
       <c r="Y27" t="inlineStr">
         <is>
-          <t>2.2</t>
+          <t>0.7</t>
         </is>
       </c>
       <c r="Z27" t="inlineStr"/>
       <c r="AA27" t="inlineStr"/>
       <c r="AB27" t="inlineStr">
         <is>
-          <t>22.0</t>
+          <t>17.3</t>
         </is>
       </c>
       <c r="AC27" t="inlineStr"/>
       <c r="AD27" t="inlineStr"/>
       <c r="AE27" t="inlineStr">
         <is>
-          <t>15:30 - 16:00</t>
+          <t>16:00 - 16:30</t>
         </is>
       </c>
       <c r="AF27" t="inlineStr">
         <is>
-          <t>10.9</t>
+          <t>10.5</t>
         </is>
       </c>
       <c r="AG27" t="inlineStr">
         <is>
-          <t>11.5</t>
+          <t>11.1</t>
         </is>
       </c>
       <c r="AH27" t="inlineStr">
         <is>
-          <t>10.6</t>
+          <t>9.9</t>
         </is>
       </c>
       <c r="AI27" t="inlineStr">
         <is>
-          <t>61</t>
+          <t>64</t>
         </is>
       </c>
       <c r="AJ27" t="inlineStr">
@@ -6487,37 +6487,37 @@
       </c>
       <c r="AK27" t="inlineStr">
         <is>
-          <t>2.2</t>
+          <t>0.7</t>
         </is>
       </c>
       <c r="AL27" t="inlineStr">
         <is>
-          <t>259</t>
+          <t>224</t>
         </is>
       </c>
       <c r="AM27" t="inlineStr">
         <is>
-          <t>15:30 - 16:00</t>
+          <t>16:00 - 16:30</t>
         </is>
       </c>
       <c r="AN27" t="inlineStr">
         <is>
-          <t>10.9</t>
+          <t>10.5</t>
         </is>
       </c>
       <c r="AO27" t="inlineStr">
         <is>
-          <t>11.5</t>
+          <t>11.1</t>
         </is>
       </c>
       <c r="AP27" t="inlineStr">
         <is>
-          <t>10.6</t>
+          <t>9.9</t>
         </is>
       </c>
       <c r="AQ27" t="inlineStr">
         <is>
-          <t>61</t>
+          <t>64</t>
         </is>
       </c>
       <c r="AR27" t="inlineStr">
@@ -6527,42 +6527,42 @@
       </c>
       <c r="AS27" t="inlineStr">
         <is>
-          <t>2.2</t>
+          <t>0.7</t>
         </is>
       </c>
       <c r="AT27" t="inlineStr">
         <is>
-          <t>259</t>
+          <t>224</t>
         </is>
       </c>
       <c r="AU27" t="inlineStr">
         <is>
-          <t>22.0</t>
+          <t>17.3</t>
         </is>
       </c>
       <c r="AV27" t="inlineStr">
         <is>
-          <t>990.9</t>
+          <t>991.2</t>
         </is>
       </c>
       <c r="AW27" t="inlineStr">
         <is>
-          <t>201</t>
+          <t>115</t>
         </is>
       </c>
       <c r="AX27" t="inlineStr">
         <is>
-          <t>22.0</t>
+          <t>17.3</t>
         </is>
       </c>
       <c r="AY27" t="inlineStr">
         <is>
-          <t>990.9</t>
+          <t>991.2</t>
         </is>
       </c>
       <c r="AZ27" t="inlineStr">
         <is>
-          <t>201</t>
+          <t>115</t>
         </is>
       </c>
       <c r="BA27" t="inlineStr"/>
@@ -6605,7 +6605,7 @@
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>2026-02-04 16:34:58</t>
+          <t>2026-02-04 16:57:23</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
@@ -6838,7 +6838,7 @@
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>2026-02-04 16:34:58</t>
+          <t>2026-02-04 16:57:23</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
@@ -7071,7 +7071,7 @@
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>2026-02-04 16:34:58</t>
+          <t>2026-02-04 16:57:23</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
@@ -7304,7 +7304,7 @@
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>2026-02-04 16:34:58</t>
+          <t>2026-02-04 16:57:23</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
@@ -7522,7 +7522,7 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>15:30 - 16:00</t>
+          <t>16:00 - 16:30</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
@@ -7537,7 +7537,7 @@
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>2026-02-04 16:35:00</t>
+          <t>2026-02-04 16:57:25</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
@@ -7561,7 +7561,7 @@
       <c r="M32" t="inlineStr"/>
       <c r="N32" t="inlineStr">
         <is>
-          <t>199</t>
+          <t>196</t>
         </is>
       </c>
       <c r="O32" t="inlineStr"/>
@@ -7579,108 +7579,108 @@
       </c>
       <c r="T32" t="inlineStr">
         <is>
-          <t>15:30 - 16:00</t>
+          <t>16:00 - 16:30</t>
         </is>
       </c>
       <c r="U32" t="inlineStr">
         <is>
-          <t>182</t>
+          <t>94</t>
         </is>
       </c>
       <c r="V32" t="inlineStr">
         <is>
-          <t>12.7</t>
+          <t>12.5</t>
         </is>
       </c>
       <c r="W32" t="inlineStr">
         <is>
-          <t>12.5</t>
+          <t>12.1</t>
         </is>
       </c>
       <c r="X32" t="inlineStr">
         <is>
-          <t>13.0</t>
+          <t>13.1</t>
         </is>
       </c>
       <c r="Y32" t="inlineStr"/>
       <c r="Z32" t="inlineStr">
         <is>
-          <t>5.0</t>
+          <t>2.5</t>
         </is>
       </c>
       <c r="AA32" t="inlineStr"/>
       <c r="AB32" t="inlineStr"/>
       <c r="AC32" t="inlineStr">
         <is>
-          <t>13.3</t>
+          <t>7.6</t>
         </is>
       </c>
       <c r="AD32" t="inlineStr"/>
       <c r="AE32" t="inlineStr">
         <is>
-          <t>15:30 - 16:00</t>
+          <t>16:00 - 16:30</t>
         </is>
       </c>
       <c r="AF32" t="inlineStr">
         <is>
-          <t>12.7</t>
+          <t>12.5</t>
         </is>
       </c>
       <c r="AG32" t="inlineStr">
         <is>
-          <t>13.0</t>
+          <t>13.1</t>
         </is>
       </c>
       <c r="AH32" t="inlineStr">
         <is>
+          <t>12.1</t>
+        </is>
+      </c>
+      <c r="AI32" t="inlineStr">
+        <is>
+          <t>64</t>
+        </is>
+      </c>
+      <c r="AJ32" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="AK32" t="inlineStr">
+        <is>
+          <t>2.5</t>
+        </is>
+      </c>
+      <c r="AL32" t="inlineStr">
+        <is>
+          <t>196</t>
+        </is>
+      </c>
+      <c r="AM32" t="inlineStr">
+        <is>
+          <t>16:00 - 16:30</t>
+        </is>
+      </c>
+      <c r="AN32" t="inlineStr">
+        <is>
           <t>12.5</t>
         </is>
       </c>
-      <c r="AI32" t="inlineStr">
+      <c r="AO32" t="inlineStr">
+        <is>
+          <t>13.1</t>
+        </is>
+      </c>
+      <c r="AP32" t="inlineStr">
+        <is>
+          <t>12.1</t>
+        </is>
+      </c>
+      <c r="AQ32" t="inlineStr">
         <is>
           <t>64</t>
         </is>
       </c>
-      <c r="AJ32" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="AK32" t="inlineStr">
-        <is>
-          <t>5.0</t>
-        </is>
-      </c>
-      <c r="AL32" t="inlineStr">
-        <is>
-          <t>199</t>
-        </is>
-      </c>
-      <c r="AM32" t="inlineStr">
-        <is>
-          <t>15:30 - 16:00</t>
-        </is>
-      </c>
-      <c r="AN32" t="inlineStr">
-        <is>
-          <t>12.7</t>
-        </is>
-      </c>
-      <c r="AO32" t="inlineStr">
-        <is>
-          <t>13.0</t>
-        </is>
-      </c>
-      <c r="AP32" t="inlineStr">
-        <is>
-          <t>12.5</t>
-        </is>
-      </c>
-      <c r="AQ32" t="inlineStr">
-        <is>
-          <t>64</t>
-        </is>
-      </c>
       <c r="AR32" t="inlineStr">
         <is>
           <t>0.0</t>
@@ -7688,33 +7688,33 @@
       </c>
       <c r="AS32" t="inlineStr">
         <is>
-          <t>5.0</t>
+          <t>2.5</t>
         </is>
       </c>
       <c r="AT32" t="inlineStr">
         <is>
-          <t>199</t>
+          <t>196</t>
         </is>
       </c>
       <c r="AU32" t="inlineStr">
         <is>
-          <t>13.3</t>
+          <t>7.6</t>
         </is>
       </c>
       <c r="AV32" t="inlineStr">
         <is>
-          <t>182</t>
+          <t>94</t>
         </is>
       </c>
       <c r="AW32" t="inlineStr"/>
       <c r="AX32" t="inlineStr">
         <is>
-          <t>13.3</t>
+          <t>7.6</t>
         </is>
       </c>
       <c r="AY32" t="inlineStr">
         <is>
-          <t>182</t>
+          <t>94</t>
         </is>
       </c>
       <c r="AZ32" t="inlineStr"/>
@@ -7758,7 +7758,7 @@
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>2026-02-04 16:35:01</t>
+          <t>2026-02-04 16:57:27</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
@@ -7979,7 +7979,7 @@
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>2026-02-04 16:35:01</t>
+          <t>2026-02-04 16:57:27</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
@@ -8200,7 +8200,7 @@
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>2026-02-04 16:35:01</t>
+          <t>2026-02-04 16:57:27</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
@@ -8421,7 +8421,7 @@
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>2026-02-04 16:35:01</t>
+          <t>2026-02-04 16:57:27</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
@@ -8627,7 +8627,7 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>15:30 - 16:00</t>
+          <t>16:00 - 16:30</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
@@ -8642,7 +8642,7 @@
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>2026-02-04 16:35:04</t>
+          <t>2026-02-04 16:57:29</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
@@ -8669,7 +8669,7 @@
       <c r="P37" t="inlineStr"/>
       <c r="Q37" t="inlineStr">
         <is>
-          <t>66</t>
+          <t>77</t>
         </is>
       </c>
       <c r="R37" t="inlineStr"/>
@@ -8680,23 +8680,23 @@
       </c>
       <c r="T37" t="inlineStr">
         <is>
-          <t>15:30 - 16:00</t>
+          <t>16:00 - 16:30</t>
         </is>
       </c>
       <c r="U37" t="inlineStr"/>
       <c r="V37" t="inlineStr">
         <is>
-          <t>8.3</t>
+          <t>5.9</t>
         </is>
       </c>
       <c r="W37" t="inlineStr">
         <is>
-          <t>6.9</t>
+          <t>5.4</t>
         </is>
       </c>
       <c r="X37" t="inlineStr">
         <is>
-          <t>8.9</t>
+          <t>6.8</t>
         </is>
       </c>
       <c r="Y37" t="inlineStr"/>
@@ -8707,27 +8707,27 @@
       <c r="AD37" t="inlineStr"/>
       <c r="AE37" t="inlineStr">
         <is>
-          <t>15:30 - 16:00</t>
+          <t>16:00 - 16:30</t>
         </is>
       </c>
       <c r="AF37" t="inlineStr">
         <is>
-          <t>8.3</t>
+          <t>5.9</t>
         </is>
       </c>
       <c r="AG37" t="inlineStr">
         <is>
-          <t>8.9</t>
+          <t>6.8</t>
         </is>
       </c>
       <c r="AH37" t="inlineStr">
         <is>
-          <t>6.9</t>
+          <t>5.4</t>
         </is>
       </c>
       <c r="AI37" t="inlineStr">
         <is>
-          <t>66</t>
+          <t>77</t>
         </is>
       </c>
       <c r="AJ37" t="inlineStr">
@@ -8739,27 +8739,27 @@
       <c r="AL37" t="inlineStr"/>
       <c r="AM37" t="inlineStr">
         <is>
-          <t>15:30 - 16:00</t>
+          <t>16:00 - 16:30</t>
         </is>
       </c>
       <c r="AN37" t="inlineStr">
         <is>
-          <t>8.3</t>
+          <t>5.9</t>
         </is>
       </c>
       <c r="AO37" t="inlineStr">
         <is>
-          <t>8.9</t>
+          <t>6.8</t>
         </is>
       </c>
       <c r="AP37" t="inlineStr">
         <is>
-          <t>6.9</t>
+          <t>5.4</t>
         </is>
       </c>
       <c r="AQ37" t="inlineStr">
         <is>
-          <t>66</t>
+          <t>77</t>
         </is>
       </c>
       <c r="AR37" t="inlineStr">
@@ -8815,7 +8815,7 @@
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>2026-02-04 16:35:06</t>
+          <t>2026-02-04 16:57:30</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
@@ -8988,7 +8988,7 @@
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>2026-02-04 16:35:06</t>
+          <t>2026-02-04 16:57:30</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
@@ -9161,7 +9161,7 @@
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>2026-02-04 16:35:06</t>
+          <t>2026-02-04 16:57:30</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
@@ -9334,7 +9334,7 @@
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>2026-02-04 16:35:06</t>
+          <t>2026-02-04 16:57:30</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
@@ -9492,7 +9492,7 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>15:30 - 16:00</t>
+          <t>16:00 - 16:30</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
@@ -9507,7 +9507,7 @@
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>2026-02-04 16:35:08</t>
+          <t>2026-02-04 16:57:33</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
@@ -9534,7 +9534,7 @@
       <c r="P42" t="inlineStr"/>
       <c r="Q42" t="inlineStr">
         <is>
-          <t>60</t>
+          <t>62</t>
         </is>
       </c>
       <c r="R42" t="inlineStr"/>
@@ -9545,23 +9545,23 @@
       </c>
       <c r="T42" t="inlineStr">
         <is>
-          <t>15:30 - 16:00</t>
+          <t>16:00 - 16:30</t>
         </is>
       </c>
       <c r="U42" t="inlineStr"/>
       <c r="V42" t="inlineStr">
         <is>
-          <t>13.7</t>
+          <t>13.3</t>
         </is>
       </c>
       <c r="W42" t="inlineStr">
         <is>
+          <t>12.9</t>
+        </is>
+      </c>
+      <c r="X42" t="inlineStr">
+        <is>
           <t>13.5</t>
-        </is>
-      </c>
-      <c r="X42" t="inlineStr">
-        <is>
-          <t>13.8</t>
         </is>
       </c>
       <c r="Y42" t="inlineStr"/>
@@ -9572,27 +9572,27 @@
       <c r="AD42" t="inlineStr"/>
       <c r="AE42" t="inlineStr">
         <is>
-          <t>15:30 - 16:00</t>
+          <t>16:00 - 16:30</t>
         </is>
       </c>
       <c r="AF42" t="inlineStr">
         <is>
-          <t>13.7</t>
+          <t>13.3</t>
         </is>
       </c>
       <c r="AG42" t="inlineStr">
         <is>
-          <t>13.8</t>
+          <t>13.5</t>
         </is>
       </c>
       <c r="AH42" t="inlineStr">
         <is>
-          <t>13.5</t>
+          <t>12.9</t>
         </is>
       </c>
       <c r="AI42" t="inlineStr">
         <is>
-          <t>60</t>
+          <t>62</t>
         </is>
       </c>
       <c r="AJ42" t="inlineStr">
@@ -9604,27 +9604,27 @@
       <c r="AL42" t="inlineStr"/>
       <c r="AM42" t="inlineStr">
         <is>
-          <t>15:30 - 16:00</t>
+          <t>16:00 - 16:30</t>
         </is>
       </c>
       <c r="AN42" t="inlineStr">
         <is>
-          <t>13.7</t>
+          <t>13.3</t>
         </is>
       </c>
       <c r="AO42" t="inlineStr">
         <is>
-          <t>13.8</t>
+          <t>13.5</t>
         </is>
       </c>
       <c r="AP42" t="inlineStr">
         <is>
-          <t>13.5</t>
+          <t>12.9</t>
         </is>
       </c>
       <c r="AQ42" t="inlineStr">
         <is>
-          <t>60</t>
+          <t>62</t>
         </is>
       </c>
       <c r="AR42" t="inlineStr">
@@ -9680,7 +9680,7 @@
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>2026-02-04 16:35:10</t>
+          <t>2026-02-04 16:57:34</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
@@ -9853,7 +9853,7 @@
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>2026-02-04 16:35:10</t>
+          <t>2026-02-04 16:57:34</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
@@ -10026,7 +10026,7 @@
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>2026-02-04 16:35:10</t>
+          <t>2026-02-04 16:57:34</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
@@ -10199,7 +10199,7 @@
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>2026-02-04 16:35:10</t>
+          <t>2026-02-04 16:57:34</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
@@ -10357,7 +10357,7 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>15:30 - 16:00</t>
+          <t>16:00 - 16:30</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
@@ -10372,7 +10372,7 @@
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>2026-02-04 16:35:12</t>
+          <t>2026-02-04 16:57:37</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
@@ -10395,7 +10395,7 @@
       </c>
       <c r="M47" t="inlineStr">
         <is>
-          <t>236</t>
+          <t>232</t>
         </is>
       </c>
       <c r="N47" t="inlineStr"/>
@@ -10407,12 +10407,12 @@
       </c>
       <c r="Q47" t="inlineStr">
         <is>
-          <t>62</t>
+          <t>66</t>
         </is>
       </c>
       <c r="R47" t="inlineStr">
         <is>
-          <t>990.6</t>
+          <t>990.9</t>
         </is>
       </c>
       <c r="S47" t="inlineStr">
@@ -10422,66 +10422,66 @@
       </c>
       <c r="T47" t="inlineStr">
         <is>
-          <t>15:30 - 16:00</t>
+          <t>16:00 - 16:30</t>
         </is>
       </c>
       <c r="U47" t="inlineStr">
         <is>
-          <t>212</t>
+          <t>116</t>
         </is>
       </c>
       <c r="V47" t="inlineStr">
         <is>
-          <t>6.4</t>
+          <t>5.9</t>
         </is>
       </c>
       <c r="W47" t="inlineStr">
         <is>
-          <t>6.0</t>
+          <t>5.5</t>
         </is>
       </c>
       <c r="X47" t="inlineStr">
         <is>
-          <t>6.8</t>
+          <t>6.2</t>
         </is>
       </c>
       <c r="Y47" t="inlineStr">
         <is>
-          <t>22.0</t>
+          <t>20.2</t>
         </is>
       </c>
       <c r="Z47" t="inlineStr"/>
       <c r="AA47" t="inlineStr"/>
       <c r="AB47" t="inlineStr">
         <is>
-          <t>32.8</t>
+          <t>30.6</t>
         </is>
       </c>
       <c r="AC47" t="inlineStr"/>
       <c r="AD47" t="inlineStr"/>
       <c r="AE47" t="inlineStr">
         <is>
-          <t>15:30 - 16:00</t>
+          <t>16:00 - 16:30</t>
         </is>
       </c>
       <c r="AF47" t="inlineStr">
         <is>
-          <t>6.4</t>
+          <t>5.9</t>
         </is>
       </c>
       <c r="AG47" t="inlineStr">
         <is>
-          <t>6.8</t>
+          <t>6.2</t>
         </is>
       </c>
       <c r="AH47" t="inlineStr">
         <is>
-          <t>6.0</t>
+          <t>5.5</t>
         </is>
       </c>
       <c r="AI47" t="inlineStr">
         <is>
-          <t>62</t>
+          <t>66</t>
         </is>
       </c>
       <c r="AJ47" t="inlineStr">
@@ -10496,32 +10496,32 @@
       </c>
       <c r="AL47" t="inlineStr">
         <is>
-          <t>22.0</t>
+          <t>20.2</t>
         </is>
       </c>
       <c r="AM47" t="inlineStr">
         <is>
-          <t>15:30 - 16:00</t>
+          <t>16:00 - 16:30</t>
         </is>
       </c>
       <c r="AN47" t="inlineStr">
         <is>
-          <t>6.4</t>
+          <t>5.9</t>
         </is>
       </c>
       <c r="AO47" t="inlineStr">
         <is>
-          <t>6.8</t>
+          <t>6.2</t>
         </is>
       </c>
       <c r="AP47" t="inlineStr">
         <is>
-          <t>6.0</t>
+          <t>5.5</t>
         </is>
       </c>
       <c r="AQ47" t="inlineStr">
         <is>
-          <t>62</t>
+          <t>66</t>
         </is>
       </c>
       <c r="AR47" t="inlineStr">
@@ -10536,42 +10536,42 @@
       </c>
       <c r="AT47" t="inlineStr">
         <is>
-          <t>22.0</t>
+          <t>20.2</t>
         </is>
       </c>
       <c r="AU47" t="inlineStr">
         <is>
-          <t>236</t>
+          <t>232</t>
         </is>
       </c>
       <c r="AV47" t="inlineStr">
         <is>
-          <t>32.8</t>
+          <t>30.6</t>
         </is>
       </c>
       <c r="AW47" t="inlineStr">
         <is>
-          <t>990.6</t>
+          <t>990.9</t>
         </is>
       </c>
       <c r="AX47" t="inlineStr">
         <is>
-          <t>236</t>
+          <t>232</t>
         </is>
       </c>
       <c r="AY47" t="inlineStr">
         <is>
-          <t>32.8</t>
+          <t>30.6</t>
         </is>
       </c>
       <c r="AZ47" t="inlineStr">
         <is>
-          <t>990.6</t>
+          <t>990.9</t>
         </is>
       </c>
       <c r="BA47" t="inlineStr">
         <is>
-          <t>212</t>
+          <t>116</t>
         </is>
       </c>
     </row>
@@ -10613,7 +10613,7 @@
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>2026-02-04 16:35:14</t>
+          <t>2026-02-04 16:57:38</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
@@ -10854,7 +10854,7 @@
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>2026-02-04 16:35:14</t>
+          <t>2026-02-04 16:57:38</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
@@ -11095,7 +11095,7 @@
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>2026-02-04 16:35:14</t>
+          <t>2026-02-04 16:57:38</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
@@ -11336,7 +11336,7 @@
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>2026-02-04 16:35:14</t>
+          <t>2026-02-04 16:57:38</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
@@ -11562,7 +11562,7 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>15:30 - 16:00</t>
+          <t>16:00 - 16:30</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
@@ -11577,7 +11577,7 @@
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>2026-02-04 16:35:17</t>
+          <t>2026-02-04 16:57:41</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
@@ -11600,7 +11600,7 @@
       </c>
       <c r="M52" t="inlineStr">
         <is>
-          <t>270</t>
+          <t>287</t>
         </is>
       </c>
       <c r="N52" t="inlineStr"/>
@@ -11608,7 +11608,7 @@
       <c r="P52" t="inlineStr"/>
       <c r="Q52" t="inlineStr">
         <is>
-          <t>59</t>
+          <t>54</t>
         </is>
       </c>
       <c r="R52" t="inlineStr"/>
@@ -11619,66 +11619,66 @@
       </c>
       <c r="T52" t="inlineStr">
         <is>
-          <t>15:30 - 16:00</t>
+          <t>16:00 - 16:30</t>
         </is>
       </c>
       <c r="U52" t="inlineStr">
         <is>
-          <t>194</t>
+          <t>114</t>
         </is>
       </c>
       <c r="V52" t="inlineStr">
         <is>
-          <t>14.2</t>
+          <t>13.7</t>
         </is>
       </c>
       <c r="W52" t="inlineStr">
         <is>
-          <t>13.8</t>
+          <t>12.9</t>
         </is>
       </c>
       <c r="X52" t="inlineStr">
         <is>
-          <t>14.7</t>
+          <t>14.3</t>
         </is>
       </c>
       <c r="Y52" t="inlineStr">
         <is>
-          <t>7.6</t>
+          <t>11.5</t>
         </is>
       </c>
       <c r="Z52" t="inlineStr"/>
       <c r="AA52" t="inlineStr"/>
       <c r="AB52" t="inlineStr">
         <is>
-          <t>18.4</t>
+          <t>23.4</t>
         </is>
       </c>
       <c r="AC52" t="inlineStr"/>
       <c r="AD52" t="inlineStr"/>
       <c r="AE52" t="inlineStr">
         <is>
-          <t>15:30 - 16:00</t>
+          <t>16:00 - 16:30</t>
         </is>
       </c>
       <c r="AF52" t="inlineStr">
         <is>
-          <t>14.2</t>
+          <t>13.7</t>
         </is>
       </c>
       <c r="AG52" t="inlineStr">
         <is>
-          <t>14.7</t>
+          <t>14.3</t>
         </is>
       </c>
       <c r="AH52" t="inlineStr">
         <is>
-          <t>13.8</t>
+          <t>12.9</t>
         </is>
       </c>
       <c r="AI52" t="inlineStr">
         <is>
-          <t>59</t>
+          <t>54</t>
         </is>
       </c>
       <c r="AJ52" t="inlineStr">
@@ -11688,37 +11688,37 @@
       </c>
       <c r="AK52" t="inlineStr">
         <is>
-          <t>7.6</t>
+          <t>11.5</t>
         </is>
       </c>
       <c r="AL52" t="inlineStr">
         <is>
-          <t>270</t>
+          <t>287</t>
         </is>
       </c>
       <c r="AM52" t="inlineStr">
         <is>
-          <t>15:30 - 16:00</t>
+          <t>16:00 - 16:30</t>
         </is>
       </c>
       <c r="AN52" t="inlineStr">
         <is>
-          <t>14.2</t>
+          <t>13.7</t>
         </is>
       </c>
       <c r="AO52" t="inlineStr">
         <is>
-          <t>14.7</t>
+          <t>14.3</t>
         </is>
       </c>
       <c r="AP52" t="inlineStr">
         <is>
-          <t>13.8</t>
+          <t>12.9</t>
         </is>
       </c>
       <c r="AQ52" t="inlineStr">
         <is>
-          <t>59</t>
+          <t>54</t>
         </is>
       </c>
       <c r="AR52" t="inlineStr">
@@ -11728,33 +11728,33 @@
       </c>
       <c r="AS52" t="inlineStr">
         <is>
-          <t>7.6</t>
+          <t>11.5</t>
         </is>
       </c>
       <c r="AT52" t="inlineStr">
         <is>
-          <t>270</t>
+          <t>287</t>
         </is>
       </c>
       <c r="AU52" t="inlineStr">
         <is>
-          <t>18.4</t>
+          <t>23.4</t>
         </is>
       </c>
       <c r="AV52" t="inlineStr">
         <is>
-          <t>194</t>
+          <t>114</t>
         </is>
       </c>
       <c r="AW52" t="inlineStr"/>
       <c r="AX52" t="inlineStr">
         <is>
-          <t>18.4</t>
+          <t>23.4</t>
         </is>
       </c>
       <c r="AY52" t="inlineStr">
         <is>
-          <t>194</t>
+          <t>114</t>
         </is>
       </c>
       <c r="AZ52" t="inlineStr"/>
@@ -11798,7 +11798,7 @@
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>2026-02-04 16:35:18</t>
+          <t>2026-02-04 16:57:42</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
@@ -12019,7 +12019,7 @@
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>2026-02-04 16:35:18</t>
+          <t>2026-02-04 16:57:42</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
@@ -12240,7 +12240,7 @@
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>2026-02-04 16:35:18</t>
+          <t>2026-02-04 16:57:42</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
@@ -12461,7 +12461,7 @@
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>2026-02-04 16:35:18</t>
+          <t>2026-02-04 16:57:42</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
@@ -12667,7 +12667,7 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>15:30 - 16:00</t>
+          <t>16:00 - 16:30</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
@@ -12682,7 +12682,7 @@
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>2026-02-04 16:35:21</t>
+          <t>2026-02-04 16:57:45</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
@@ -12709,7 +12709,7 @@
       <c r="P57" t="inlineStr"/>
       <c r="Q57" t="inlineStr">
         <is>
-          <t>53</t>
+          <t>52</t>
         </is>
       </c>
       <c r="R57" t="inlineStr"/>
@@ -12720,23 +12720,23 @@
       </c>
       <c r="T57" t="inlineStr">
         <is>
-          <t>15:30 - 16:00</t>
+          <t>16:00 - 16:30</t>
         </is>
       </c>
       <c r="U57" t="inlineStr"/>
       <c r="V57" t="inlineStr">
         <is>
+          <t>13.8</t>
+        </is>
+      </c>
+      <c r="W57" t="inlineStr">
+        <is>
+          <t>13.6</t>
+        </is>
+      </c>
+      <c r="X57" t="inlineStr">
+        <is>
           <t>13.9</t>
-        </is>
-      </c>
-      <c r="W57" t="inlineStr">
-        <is>
-          <t>13.8</t>
-        </is>
-      </c>
-      <c r="X57" t="inlineStr">
-        <is>
-          <t>14.0</t>
         </is>
       </c>
       <c r="Y57" t="inlineStr"/>
@@ -12747,27 +12747,27 @@
       <c r="AD57" t="inlineStr"/>
       <c r="AE57" t="inlineStr">
         <is>
-          <t>15:30 - 16:00</t>
+          <t>16:00 - 16:30</t>
         </is>
       </c>
       <c r="AF57" t="inlineStr">
         <is>
+          <t>13.8</t>
+        </is>
+      </c>
+      <c r="AG57" t="inlineStr">
+        <is>
           <t>13.9</t>
         </is>
       </c>
-      <c r="AG57" t="inlineStr">
-        <is>
-          <t>14.0</t>
-        </is>
-      </c>
       <c r="AH57" t="inlineStr">
         <is>
-          <t>13.8</t>
+          <t>13.6</t>
         </is>
       </c>
       <c r="AI57" t="inlineStr">
         <is>
-          <t>53</t>
+          <t>52</t>
         </is>
       </c>
       <c r="AJ57" t="inlineStr">
@@ -12779,27 +12779,27 @@
       <c r="AL57" t="inlineStr"/>
       <c r="AM57" t="inlineStr">
         <is>
-          <t>15:30 - 16:00</t>
+          <t>16:00 - 16:30</t>
         </is>
       </c>
       <c r="AN57" t="inlineStr">
         <is>
+          <t>13.8</t>
+        </is>
+      </c>
+      <c r="AO57" t="inlineStr">
+        <is>
           <t>13.9</t>
         </is>
       </c>
-      <c r="AO57" t="inlineStr">
-        <is>
-          <t>14.0</t>
-        </is>
-      </c>
       <c r="AP57" t="inlineStr">
         <is>
-          <t>13.8</t>
+          <t>13.6</t>
         </is>
       </c>
       <c r="AQ57" t="inlineStr">
         <is>
-          <t>53</t>
+          <t>52</t>
         </is>
       </c>
       <c r="AR57" t="inlineStr">
@@ -12855,7 +12855,7 @@
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>2026-02-04 16:35:22</t>
+          <t>2026-02-04 16:57:46</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
@@ -13028,7 +13028,7 @@
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>2026-02-04 16:35:22</t>
+          <t>2026-02-04 16:57:46</t>
         </is>
       </c>
       <c r="I59" t="inlineStr">
@@ -13201,7 +13201,7 @@
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>2026-02-04 16:35:22</t>
+          <t>2026-02-04 16:57:46</t>
         </is>
       </c>
       <c r="I60" t="inlineStr">
@@ -13374,7 +13374,7 @@
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>2026-02-04 16:35:22</t>
+          <t>2026-02-04 16:57:46</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
@@ -13532,7 +13532,7 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>15:30 - 16:00</t>
+          <t>16:00 - 16:30</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
@@ -13547,7 +13547,7 @@
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>2026-02-04 16:35:25</t>
+          <t>2026-02-04 16:57:49</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
@@ -13570,7 +13570,7 @@
       </c>
       <c r="M62" t="inlineStr">
         <is>
-          <t>199</t>
+          <t>205</t>
         </is>
       </c>
       <c r="N62" t="inlineStr"/>
@@ -13582,7 +13582,7 @@
       </c>
       <c r="Q62" t="inlineStr">
         <is>
-          <t>70</t>
+          <t>68</t>
         </is>
       </c>
       <c r="R62" t="inlineStr"/>
@@ -13593,66 +13593,66 @@
       </c>
       <c r="T62" t="inlineStr">
         <is>
-          <t>15:30 - 16:00</t>
+          <t>16:00 - 16:30</t>
         </is>
       </c>
       <c r="U62" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>25</t>
         </is>
       </c>
       <c r="V62" t="inlineStr">
         <is>
-          <t>-4.0</t>
+          <t>-3.5</t>
         </is>
       </c>
       <c r="W62" t="inlineStr">
         <is>
-          <t>-4.1</t>
+          <t>-3.8</t>
         </is>
       </c>
       <c r="X62" t="inlineStr">
         <is>
-          <t>-3.8</t>
+          <t>-3.3</t>
         </is>
       </c>
       <c r="Y62" t="inlineStr">
         <is>
-          <t>11.5</t>
+          <t>13.0</t>
         </is>
       </c>
       <c r="Z62" t="inlineStr"/>
       <c r="AA62" t="inlineStr"/>
       <c r="AB62" t="inlineStr">
         <is>
-          <t>27.4</t>
+          <t>31.7</t>
         </is>
       </c>
       <c r="AC62" t="inlineStr"/>
       <c r="AD62" t="inlineStr"/>
       <c r="AE62" t="inlineStr">
         <is>
-          <t>15:30 - 16:00</t>
+          <t>16:00 - 16:30</t>
         </is>
       </c>
       <c r="AF62" t="inlineStr">
         <is>
-          <t>-4.0</t>
+          <t>-3.5</t>
         </is>
       </c>
       <c r="AG62" t="inlineStr">
         <is>
+          <t>-3.3</t>
+        </is>
+      </c>
+      <c r="AH62" t="inlineStr">
+        <is>
           <t>-3.8</t>
         </is>
       </c>
-      <c r="AH62" t="inlineStr">
-        <is>
-          <t>-4.1</t>
-        </is>
-      </c>
       <c r="AI62" t="inlineStr">
         <is>
-          <t>70</t>
+          <t>68</t>
         </is>
       </c>
       <c r="AJ62" t="inlineStr">
@@ -13667,32 +13667,32 @@
       </c>
       <c r="AL62" t="inlineStr">
         <is>
-          <t>11.5</t>
+          <t>13.0</t>
         </is>
       </c>
       <c r="AM62" t="inlineStr">
         <is>
-          <t>15:30 - 16:00</t>
+          <t>16:00 - 16:30</t>
         </is>
       </c>
       <c r="AN62" t="inlineStr">
         <is>
-          <t>-4.0</t>
+          <t>-3.5</t>
         </is>
       </c>
       <c r="AO62" t="inlineStr">
         <is>
+          <t>-3.3</t>
+        </is>
+      </c>
+      <c r="AP62" t="inlineStr">
+        <is>
           <t>-3.8</t>
         </is>
       </c>
-      <c r="AP62" t="inlineStr">
-        <is>
-          <t>-4.1</t>
-        </is>
-      </c>
       <c r="AQ62" t="inlineStr">
         <is>
-          <t>70</t>
+          <t>68</t>
         </is>
       </c>
       <c r="AR62" t="inlineStr">
@@ -13707,37 +13707,37 @@
       </c>
       <c r="AT62" t="inlineStr">
         <is>
-          <t>11.5</t>
+          <t>13.0</t>
         </is>
       </c>
       <c r="AU62" t="inlineStr">
         <is>
-          <t>199</t>
+          <t>205</t>
         </is>
       </c>
       <c r="AV62" t="inlineStr">
         <is>
-          <t>27.4</t>
+          <t>31.7</t>
         </is>
       </c>
       <c r="AW62" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>25</t>
         </is>
       </c>
       <c r="AX62" t="inlineStr">
         <is>
-          <t>199</t>
+          <t>205</t>
         </is>
       </c>
       <c r="AY62" t="inlineStr">
         <is>
-          <t>27.4</t>
+          <t>31.7</t>
         </is>
       </c>
       <c r="AZ62" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>25</t>
         </is>
       </c>
       <c r="BA62" t="inlineStr"/>
@@ -13780,7 +13780,7 @@
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>2026-02-04 16:35:27</t>
+          <t>2026-02-04 16:57:50</t>
         </is>
       </c>
       <c r="I63" t="inlineStr">
@@ -14013,7 +14013,7 @@
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>2026-02-04 16:35:27</t>
+          <t>2026-02-04 16:57:50</t>
         </is>
       </c>
       <c r="I64" t="inlineStr">
@@ -14246,7 +14246,7 @@
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>2026-02-04 16:35:27</t>
+          <t>2026-02-04 16:57:50</t>
         </is>
       </c>
       <c r="I65" t="inlineStr">
@@ -14479,7 +14479,7 @@
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>2026-02-04 16:35:27</t>
+          <t>2026-02-04 16:57:50</t>
         </is>
       </c>
       <c r="I66" t="inlineStr">
@@ -14697,7 +14697,7 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>15:30 - 16:00</t>
+          <t>16:00 - 16:30</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
@@ -14712,7 +14712,7 @@
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>2026-02-04 16:35:29</t>
+          <t>2026-02-04 16:57:53</t>
         </is>
       </c>
       <c r="I67" t="inlineStr">
@@ -14735,7 +14735,7 @@
       </c>
       <c r="M67" t="inlineStr">
         <is>
-          <t>246</t>
+          <t>248</t>
         </is>
       </c>
       <c r="N67" t="inlineStr"/>
@@ -14743,12 +14743,12 @@
       <c r="P67" t="inlineStr"/>
       <c r="Q67" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>52</t>
         </is>
       </c>
       <c r="R67" t="inlineStr">
         <is>
-          <t>990.0</t>
+          <t>990.3</t>
         </is>
       </c>
       <c r="S67" t="inlineStr">
@@ -14758,106 +14758,106 @@
       </c>
       <c r="T67" t="inlineStr">
         <is>
-          <t>15:30 - 16:00</t>
+          <t>16:00 - 16:30</t>
         </is>
       </c>
       <c r="U67" t="inlineStr">
         <is>
-          <t>194</t>
+          <t>112</t>
         </is>
       </c>
       <c r="V67" t="inlineStr">
         <is>
-          <t>13.9</t>
+          <t>13.4</t>
         </is>
       </c>
       <c r="W67" t="inlineStr">
         <is>
+          <t>13.1</t>
+        </is>
+      </c>
+      <c r="X67" t="inlineStr">
+        <is>
           <t>13.7</t>
         </is>
       </c>
-      <c r="X67" t="inlineStr">
-        <is>
-          <t>14.0</t>
-        </is>
-      </c>
       <c r="Y67" t="inlineStr">
         <is>
-          <t>11.5</t>
+          <t>11.2</t>
         </is>
       </c>
       <c r="Z67" t="inlineStr"/>
       <c r="AA67" t="inlineStr"/>
       <c r="AB67" t="inlineStr">
         <is>
-          <t>24.8</t>
+          <t>20.9</t>
         </is>
       </c>
       <c r="AC67" t="inlineStr"/>
       <c r="AD67" t="inlineStr"/>
       <c r="AE67" t="inlineStr">
         <is>
-          <t>15:30 - 16:00</t>
+          <t>16:00 - 16:30</t>
         </is>
       </c>
       <c r="AF67" t="inlineStr">
         <is>
-          <t>13.9</t>
+          <t>13.4</t>
         </is>
       </c>
       <c r="AG67" t="inlineStr">
         <is>
-          <t>14.0</t>
+          <t>13.7</t>
         </is>
       </c>
       <c r="AH67" t="inlineStr">
         <is>
+          <t>13.1</t>
+        </is>
+      </c>
+      <c r="AI67" t="inlineStr">
+        <is>
+          <t>52</t>
+        </is>
+      </c>
+      <c r="AJ67" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="AK67" t="inlineStr">
+        <is>
+          <t>11.2</t>
+        </is>
+      </c>
+      <c r="AL67" t="inlineStr">
+        <is>
+          <t>248</t>
+        </is>
+      </c>
+      <c r="AM67" t="inlineStr">
+        <is>
+          <t>16:00 - 16:30</t>
+        </is>
+      </c>
+      <c r="AN67" t="inlineStr">
+        <is>
+          <t>13.4</t>
+        </is>
+      </c>
+      <c r="AO67" t="inlineStr">
+        <is>
           <t>13.7</t>
         </is>
       </c>
-      <c r="AI67" t="inlineStr">
-        <is>
-          <t>51</t>
-        </is>
-      </c>
-      <c r="AJ67" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="AK67" t="inlineStr">
-        <is>
-          <t>11.5</t>
-        </is>
-      </c>
-      <c r="AL67" t="inlineStr">
-        <is>
-          <t>246</t>
-        </is>
-      </c>
-      <c r="AM67" t="inlineStr">
-        <is>
-          <t>15:30 - 16:00</t>
-        </is>
-      </c>
-      <c r="AN67" t="inlineStr">
-        <is>
-          <t>13.9</t>
-        </is>
-      </c>
-      <c r="AO67" t="inlineStr">
-        <is>
-          <t>14.0</t>
-        </is>
-      </c>
       <c r="AP67" t="inlineStr">
         <is>
-          <t>13.7</t>
+          <t>13.1</t>
         </is>
       </c>
       <c r="AQ67" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>52</t>
         </is>
       </c>
       <c r="AR67" t="inlineStr">
@@ -14867,42 +14867,42 @@
       </c>
       <c r="AS67" t="inlineStr">
         <is>
-          <t>11.5</t>
+          <t>11.2</t>
         </is>
       </c>
       <c r="AT67" t="inlineStr">
         <is>
-          <t>246</t>
+          <t>248</t>
         </is>
       </c>
       <c r="AU67" t="inlineStr">
         <is>
-          <t>24.8</t>
+          <t>20.9</t>
         </is>
       </c>
       <c r="AV67" t="inlineStr">
         <is>
-          <t>990.0</t>
+          <t>990.3</t>
         </is>
       </c>
       <c r="AW67" t="inlineStr">
         <is>
-          <t>194</t>
+          <t>112</t>
         </is>
       </c>
       <c r="AX67" t="inlineStr">
         <is>
-          <t>24.8</t>
+          <t>20.9</t>
         </is>
       </c>
       <c r="AY67" t="inlineStr">
         <is>
-          <t>990.0</t>
+          <t>990.3</t>
         </is>
       </c>
       <c r="AZ67" t="inlineStr">
         <is>
-          <t>194</t>
+          <t>112</t>
         </is>
       </c>
       <c r="BA67" t="inlineStr"/>
@@ -14945,7 +14945,7 @@
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>2026-02-04 16:35:31</t>
+          <t>2026-02-04 16:57:55</t>
         </is>
       </c>
       <c r="I68" t="inlineStr">
@@ -15178,7 +15178,7 @@
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>2026-02-04 16:35:31</t>
+          <t>2026-02-04 16:57:55</t>
         </is>
       </c>
       <c r="I69" t="inlineStr">
@@ -15411,7 +15411,7 @@
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>2026-02-04 16:35:31</t>
+          <t>2026-02-04 16:57:55</t>
         </is>
       </c>
       <c r="I70" t="inlineStr">
@@ -15644,7 +15644,7 @@
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>2026-02-04 16:35:31</t>
+          <t>2026-02-04 16:57:55</t>
         </is>
       </c>
       <c r="I71" t="inlineStr">
@@ -15862,7 +15862,7 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>15:30 - 16:00</t>
+          <t>16:00 - 16:30</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
@@ -15877,7 +15877,7 @@
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>2026-02-04 16:35:34</t>
+          <t>2026-02-04 16:57:57</t>
         </is>
       </c>
       <c r="I72" t="inlineStr">
@@ -15900,7 +15900,7 @@
       </c>
       <c r="M72" t="inlineStr">
         <is>
-          <t>260</t>
+          <t>259</t>
         </is>
       </c>
       <c r="N72" t="inlineStr"/>
@@ -15908,7 +15908,7 @@
       <c r="P72" t="inlineStr"/>
       <c r="Q72" t="inlineStr">
         <is>
-          <t>86</t>
+          <t>81</t>
         </is>
       </c>
       <c r="R72" t="inlineStr"/>
@@ -15919,32 +15919,32 @@
       </c>
       <c r="T72" t="inlineStr">
         <is>
-          <t>15:30 - 16:00</t>
+          <t>16:00 - 16:30</t>
         </is>
       </c>
       <c r="U72" t="inlineStr">
         <is>
-          <t>67</t>
+          <t>113</t>
         </is>
       </c>
       <c r="V72" t="inlineStr">
         <is>
-          <t>5.0</t>
+          <t>5.8</t>
         </is>
       </c>
       <c r="W72" t="inlineStr">
         <is>
-          <t>4.9</t>
+          <t>5.3</t>
         </is>
       </c>
       <c r="X72" t="inlineStr">
         <is>
-          <t>5.5</t>
+          <t>6.2</t>
         </is>
       </c>
       <c r="Y72" t="inlineStr">
         <is>
-          <t>11.2</t>
+          <t>10.4</t>
         </is>
       </c>
       <c r="Z72" t="inlineStr"/>
@@ -15958,27 +15958,27 @@
       <c r="AD72" t="inlineStr"/>
       <c r="AE72" t="inlineStr">
         <is>
-          <t>15:30 - 16:00</t>
+          <t>16:00 - 16:30</t>
         </is>
       </c>
       <c r="AF72" t="inlineStr">
         <is>
-          <t>5.0</t>
+          <t>5.8</t>
         </is>
       </c>
       <c r="AG72" t="inlineStr">
         <is>
-          <t>5.5</t>
+          <t>6.2</t>
         </is>
       </c>
       <c r="AH72" t="inlineStr">
         <is>
-          <t>4.9</t>
+          <t>5.3</t>
         </is>
       </c>
       <c r="AI72" t="inlineStr">
         <is>
-          <t>86</t>
+          <t>81</t>
         </is>
       </c>
       <c r="AJ72" t="inlineStr">
@@ -15988,37 +15988,37 @@
       </c>
       <c r="AK72" t="inlineStr">
         <is>
-          <t>11.2</t>
+          <t>10.4</t>
         </is>
       </c>
       <c r="AL72" t="inlineStr">
         <is>
-          <t>260</t>
+          <t>259</t>
         </is>
       </c>
       <c r="AM72" t="inlineStr">
         <is>
-          <t>15:30 - 16:00</t>
+          <t>16:00 - 16:30</t>
         </is>
       </c>
       <c r="AN72" t="inlineStr">
         <is>
-          <t>5.0</t>
+          <t>5.8</t>
         </is>
       </c>
       <c r="AO72" t="inlineStr">
         <is>
-          <t>5.5</t>
+          <t>6.2</t>
         </is>
       </c>
       <c r="AP72" t="inlineStr">
         <is>
-          <t>4.9</t>
+          <t>5.3</t>
         </is>
       </c>
       <c r="AQ72" t="inlineStr">
         <is>
-          <t>86</t>
+          <t>81</t>
         </is>
       </c>
       <c r="AR72" t="inlineStr">
@@ -16028,12 +16028,12 @@
       </c>
       <c r="AS72" t="inlineStr">
         <is>
-          <t>11.2</t>
+          <t>10.4</t>
         </is>
       </c>
       <c r="AT72" t="inlineStr">
         <is>
-          <t>260</t>
+          <t>259</t>
         </is>
       </c>
       <c r="AU72" t="inlineStr">
@@ -16043,7 +16043,7 @@
       </c>
       <c r="AV72" t="inlineStr">
         <is>
-          <t>67</t>
+          <t>113</t>
         </is>
       </c>
       <c r="AW72" t="inlineStr"/>
@@ -16054,7 +16054,7 @@
       </c>
       <c r="AY72" t="inlineStr">
         <is>
-          <t>67</t>
+          <t>113</t>
         </is>
       </c>
       <c r="AZ72" t="inlineStr"/>
@@ -16098,7 +16098,7 @@
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>2026-02-04 16:35:36</t>
+          <t>2026-02-04 16:57:59</t>
         </is>
       </c>
       <c r="I73" t="inlineStr">
@@ -16319,7 +16319,7 @@
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>2026-02-04 16:35:36</t>
+          <t>2026-02-04 16:57:59</t>
         </is>
       </c>
       <c r="I74" t="inlineStr">
@@ -16540,7 +16540,7 @@
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>2026-02-04 16:35:36</t>
+          <t>2026-02-04 16:57:59</t>
         </is>
       </c>
       <c r="I75" t="inlineStr">
@@ -16761,7 +16761,7 @@
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>2026-02-04 16:35:36</t>
+          <t>2026-02-04 16:57:59</t>
         </is>
       </c>
       <c r="I76" t="inlineStr">
@@ -16967,7 +16967,7 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>15:30 - 16:00</t>
+          <t>16:00 - 16:30</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
@@ -16982,7 +16982,7 @@
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>2026-02-04 16:35:39</t>
+          <t>2026-02-04 16:58:01</t>
         </is>
       </c>
       <c r="I77" t="inlineStr">
@@ -17005,7 +17005,7 @@
       </c>
       <c r="M77" t="inlineStr">
         <is>
-          <t>226</t>
+          <t>227</t>
         </is>
       </c>
       <c r="N77" t="inlineStr"/>
@@ -17013,12 +17013,12 @@
       <c r="P77" t="inlineStr"/>
       <c r="Q77" t="inlineStr">
         <is>
-          <t>61</t>
+          <t>65</t>
         </is>
       </c>
       <c r="R77" t="inlineStr">
         <is>
-          <t>990.5</t>
+          <t>991.0</t>
         </is>
       </c>
       <c r="S77" t="inlineStr">
@@ -17028,27 +17028,27 @@
       </c>
       <c r="T77" t="inlineStr">
         <is>
-          <t>15:30 - 16:00</t>
+          <t>16:00 - 16:30</t>
         </is>
       </c>
       <c r="U77" t="inlineStr">
         <is>
-          <t>232</t>
+          <t>145</t>
         </is>
       </c>
       <c r="V77" t="inlineStr">
         <is>
-          <t>9.0</t>
+          <t>8.2</t>
         </is>
       </c>
       <c r="W77" t="inlineStr">
         <is>
-          <t>8.5</t>
+          <t>7.9</t>
         </is>
       </c>
       <c r="X77" t="inlineStr">
         <is>
-          <t>9.3</t>
+          <t>8.8</t>
         </is>
       </c>
       <c r="Y77" t="inlineStr">
@@ -17060,34 +17060,34 @@
       <c r="AA77" t="inlineStr"/>
       <c r="AB77" t="inlineStr">
         <is>
-          <t>17.6</t>
+          <t>16.6</t>
         </is>
       </c>
       <c r="AC77" t="inlineStr"/>
       <c r="AD77" t="inlineStr"/>
       <c r="AE77" t="inlineStr">
         <is>
-          <t>15:30 - 16:00</t>
+          <t>16:00 - 16:30</t>
         </is>
       </c>
       <c r="AF77" t="inlineStr">
         <is>
-          <t>9.0</t>
+          <t>8.2</t>
         </is>
       </c>
       <c r="AG77" t="inlineStr">
         <is>
-          <t>9.3</t>
+          <t>8.8</t>
         </is>
       </c>
       <c r="AH77" t="inlineStr">
         <is>
-          <t>8.5</t>
+          <t>7.9</t>
         </is>
       </c>
       <c r="AI77" t="inlineStr">
         <is>
-          <t>61</t>
+          <t>65</t>
         </is>
       </c>
       <c r="AJ77" t="inlineStr">
@@ -17102,32 +17102,32 @@
       </c>
       <c r="AL77" t="inlineStr">
         <is>
-          <t>226</t>
+          <t>227</t>
         </is>
       </c>
       <c r="AM77" t="inlineStr">
         <is>
-          <t>15:30 - 16:00</t>
+          <t>16:00 - 16:30</t>
         </is>
       </c>
       <c r="AN77" t="inlineStr">
         <is>
-          <t>9.0</t>
+          <t>8.2</t>
         </is>
       </c>
       <c r="AO77" t="inlineStr">
         <is>
-          <t>9.3</t>
+          <t>8.8</t>
         </is>
       </c>
       <c r="AP77" t="inlineStr">
         <is>
-          <t>8.5</t>
+          <t>7.9</t>
         </is>
       </c>
       <c r="AQ77" t="inlineStr">
         <is>
-          <t>61</t>
+          <t>65</t>
         </is>
       </c>
       <c r="AR77" t="inlineStr">
@@ -17142,37 +17142,37 @@
       </c>
       <c r="AT77" t="inlineStr">
         <is>
-          <t>226</t>
+          <t>227</t>
         </is>
       </c>
       <c r="AU77" t="inlineStr">
         <is>
-          <t>17.6</t>
+          <t>16.6</t>
         </is>
       </c>
       <c r="AV77" t="inlineStr">
         <is>
-          <t>990.5</t>
+          <t>991.0</t>
         </is>
       </c>
       <c r="AW77" t="inlineStr">
         <is>
-          <t>232</t>
+          <t>145</t>
         </is>
       </c>
       <c r="AX77" t="inlineStr">
         <is>
-          <t>17.6</t>
+          <t>16.6</t>
         </is>
       </c>
       <c r="AY77" t="inlineStr">
         <is>
-          <t>990.5</t>
+          <t>991.0</t>
         </is>
       </c>
       <c r="AZ77" t="inlineStr">
         <is>
-          <t>232</t>
+          <t>145</t>
         </is>
       </c>
       <c r="BA77" t="inlineStr"/>
@@ -17215,7 +17215,7 @@
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>2026-02-04 16:35:40</t>
+          <t>2026-02-04 16:58:02</t>
         </is>
       </c>
       <c r="I78" t="inlineStr">
@@ -17448,7 +17448,7 @@
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>2026-02-04 16:35:40</t>
+          <t>2026-02-04 16:58:02</t>
         </is>
       </c>
       <c r="I79" t="inlineStr">
@@ -17681,7 +17681,7 @@
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>2026-02-04 16:35:40</t>
+          <t>2026-02-04 16:58:02</t>
         </is>
       </c>
       <c r="I80" t="inlineStr">
@@ -17914,7 +17914,7 @@
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>2026-02-04 16:35:40</t>
+          <t>2026-02-04 16:58:02</t>
         </is>
       </c>
       <c r="I81" t="inlineStr">
@@ -18132,7 +18132,7 @@
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>15:30 - 16:00</t>
+          <t>16:00 - 16:30</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
@@ -18147,7 +18147,7 @@
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>2026-02-04 16:35:43</t>
+          <t>2026-02-04 16:58:05</t>
         </is>
       </c>
       <c r="I82" t="inlineStr">
@@ -18172,7 +18172,7 @@
       <c r="N82" t="inlineStr"/>
       <c r="O82" t="inlineStr">
         <is>
-          <t>309</t>
+          <t>316</t>
         </is>
       </c>
       <c r="P82" t="inlineStr">
@@ -18193,17 +18193,17 @@
       </c>
       <c r="T82" t="inlineStr">
         <is>
-          <t>15:30 - 16:00</t>
+          <t>16:00 - 16:30</t>
         </is>
       </c>
       <c r="U82" t="inlineStr">
         <is>
-          <t>103</t>
+          <t>86</t>
         </is>
       </c>
       <c r="V82" t="inlineStr">
         <is>
-          <t>-5.4</t>
+          <t>-5.2</t>
         </is>
       </c>
       <c r="W82" t="inlineStr">
@@ -18213,7 +18213,7 @@
       </c>
       <c r="X82" t="inlineStr">
         <is>
-          <t>-5.3</t>
+          <t>-5.0</t>
         </is>
       </c>
       <c r="Y82" t="inlineStr"/>
@@ -18232,17 +18232,17 @@
       </c>
       <c r="AE82" t="inlineStr">
         <is>
-          <t>15:30 - 16:00</t>
+          <t>16:00 - 16:30</t>
         </is>
       </c>
       <c r="AF82" t="inlineStr">
         <is>
-          <t>-5.4</t>
+          <t>-5.2</t>
         </is>
       </c>
       <c r="AG82" t="inlineStr">
         <is>
-          <t>-5.3</t>
+          <t>-5.0</t>
         </is>
       </c>
       <c r="AH82" t="inlineStr">
@@ -18272,17 +18272,17 @@
       </c>
       <c r="AM82" t="inlineStr">
         <is>
-          <t>15:30 - 16:00</t>
+          <t>16:00 - 16:30</t>
         </is>
       </c>
       <c r="AN82" t="inlineStr">
         <is>
-          <t>-5.4</t>
+          <t>-5.2</t>
         </is>
       </c>
       <c r="AO82" t="inlineStr">
         <is>
-          <t>-5.3</t>
+          <t>-5.0</t>
         </is>
       </c>
       <c r="AP82" t="inlineStr">
@@ -18312,7 +18312,7 @@
       </c>
       <c r="AU82" t="inlineStr">
         <is>
-          <t>309</t>
+          <t>316</t>
         </is>
       </c>
       <c r="AV82" t="inlineStr">
@@ -18322,12 +18322,12 @@
       </c>
       <c r="AW82" t="inlineStr">
         <is>
-          <t>103</t>
+          <t>86</t>
         </is>
       </c>
       <c r="AX82" t="inlineStr">
         <is>
-          <t>309</t>
+          <t>316</t>
         </is>
       </c>
       <c r="AY82" t="inlineStr">
@@ -18337,7 +18337,7 @@
       </c>
       <c r="AZ82" t="inlineStr">
         <is>
-          <t>103</t>
+          <t>86</t>
         </is>
       </c>
       <c r="BA82" t="inlineStr"/>
@@ -18380,7 +18380,7 @@
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>2026-02-04 16:35:44</t>
+          <t>2026-02-04 16:58:06</t>
         </is>
       </c>
       <c r="I83" t="inlineStr">
@@ -18613,7 +18613,7 @@
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>2026-02-04 16:35:44</t>
+          <t>2026-02-04 16:58:06</t>
         </is>
       </c>
       <c r="I84" t="inlineStr">
@@ -18846,7 +18846,7 @@
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>2026-02-04 16:35:44</t>
+          <t>2026-02-04 16:58:06</t>
         </is>
       </c>
       <c r="I85" t="inlineStr">
@@ -19079,7 +19079,7 @@
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>2026-02-04 16:35:44</t>
+          <t>2026-02-04 16:58:06</t>
         </is>
       </c>
       <c r="I86" t="inlineStr">
@@ -19297,7 +19297,7 @@
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>15:30 - 16:00</t>
+          <t>16:00 - 16:30</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
@@ -19312,7 +19312,7 @@
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>2026-02-04 16:35:47</t>
+          <t>2026-02-04 16:58:09</t>
         </is>
       </c>
       <c r="I87" t="inlineStr">
@@ -19335,7 +19335,7 @@
       </c>
       <c r="M87" t="inlineStr">
         <is>
-          <t>339</t>
+          <t>327</t>
         </is>
       </c>
       <c r="N87" t="inlineStr"/>
@@ -19343,7 +19343,7 @@
       <c r="P87" t="inlineStr"/>
       <c r="Q87" t="inlineStr">
         <is>
-          <t>68</t>
+          <t>69</t>
         </is>
       </c>
       <c r="R87" t="inlineStr">
@@ -19358,66 +19358,66 @@
       </c>
       <c r="T87" t="inlineStr">
         <is>
-          <t>15:30 - 16:00</t>
+          <t>16:00 - 16:30</t>
         </is>
       </c>
       <c r="U87" t="inlineStr">
         <is>
-          <t>231</t>
+          <t>103</t>
         </is>
       </c>
       <c r="V87" t="inlineStr">
         <is>
+          <t>10.3</t>
+        </is>
+      </c>
+      <c r="W87" t="inlineStr">
+        <is>
+          <t>9.7</t>
+        </is>
+      </c>
+      <c r="X87" t="inlineStr">
+        <is>
           <t>10.7</t>
         </is>
       </c>
-      <c r="W87" t="inlineStr">
-        <is>
-          <t>10.5</t>
-        </is>
-      </c>
-      <c r="X87" t="inlineStr">
-        <is>
-          <t>10.9</t>
-        </is>
-      </c>
       <c r="Y87" t="inlineStr">
         <is>
-          <t>9.0</t>
+          <t>8.3</t>
         </is>
       </c>
       <c r="Z87" t="inlineStr"/>
       <c r="AA87" t="inlineStr"/>
       <c r="AB87" t="inlineStr">
         <is>
-          <t>15.8</t>
+          <t>14.0</t>
         </is>
       </c>
       <c r="AC87" t="inlineStr"/>
       <c r="AD87" t="inlineStr"/>
       <c r="AE87" t="inlineStr">
         <is>
-          <t>15:30 - 16:00</t>
+          <t>16:00 - 16:30</t>
         </is>
       </c>
       <c r="AF87" t="inlineStr">
         <is>
+          <t>10.3</t>
+        </is>
+      </c>
+      <c r="AG87" t="inlineStr">
+        <is>
           <t>10.7</t>
         </is>
       </c>
-      <c r="AG87" t="inlineStr">
-        <is>
-          <t>10.9</t>
-        </is>
-      </c>
       <c r="AH87" t="inlineStr">
         <is>
-          <t>10.5</t>
+          <t>9.7</t>
         </is>
       </c>
       <c r="AI87" t="inlineStr">
         <is>
-          <t>68</t>
+          <t>69</t>
         </is>
       </c>
       <c r="AJ87" t="inlineStr">
@@ -19427,37 +19427,37 @@
       </c>
       <c r="AK87" t="inlineStr">
         <is>
-          <t>9.0</t>
+          <t>8.3</t>
         </is>
       </c>
       <c r="AL87" t="inlineStr">
         <is>
-          <t>339</t>
+          <t>327</t>
         </is>
       </c>
       <c r="AM87" t="inlineStr">
         <is>
-          <t>15:30 - 16:00</t>
+          <t>16:00 - 16:30</t>
         </is>
       </c>
       <c r="AN87" t="inlineStr">
         <is>
+          <t>10.3</t>
+        </is>
+      </c>
+      <c r="AO87" t="inlineStr">
+        <is>
           <t>10.7</t>
         </is>
       </c>
-      <c r="AO87" t="inlineStr">
-        <is>
-          <t>10.9</t>
-        </is>
-      </c>
       <c r="AP87" t="inlineStr">
         <is>
-          <t>10.5</t>
+          <t>9.7</t>
         </is>
       </c>
       <c r="AQ87" t="inlineStr">
         <is>
-          <t>68</t>
+          <t>69</t>
         </is>
       </c>
       <c r="AR87" t="inlineStr">
@@ -19467,17 +19467,17 @@
       </c>
       <c r="AS87" t="inlineStr">
         <is>
-          <t>9.0</t>
+          <t>8.3</t>
         </is>
       </c>
       <c r="AT87" t="inlineStr">
         <is>
-          <t>339</t>
+          <t>327</t>
         </is>
       </c>
       <c r="AU87" t="inlineStr">
         <is>
-          <t>15.8</t>
+          <t>14.0</t>
         </is>
       </c>
       <c r="AV87" t="inlineStr">
@@ -19487,12 +19487,12 @@
       </c>
       <c r="AW87" t="inlineStr">
         <is>
-          <t>231</t>
+          <t>103</t>
         </is>
       </c>
       <c r="AX87" t="inlineStr">
         <is>
-          <t>15.8</t>
+          <t>14.0</t>
         </is>
       </c>
       <c r="AY87" t="inlineStr">
@@ -19502,7 +19502,7 @@
       </c>
       <c r="AZ87" t="inlineStr">
         <is>
-          <t>231</t>
+          <t>103</t>
         </is>
       </c>
       <c r="BA87" t="inlineStr"/>
@@ -19545,7 +19545,7 @@
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>2026-02-04 16:35:48</t>
+          <t>2026-02-04 16:58:11</t>
         </is>
       </c>
       <c r="I88" t="inlineStr">
@@ -19778,7 +19778,7 @@
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>2026-02-04 16:35:48</t>
+          <t>2026-02-04 16:58:11</t>
         </is>
       </c>
       <c r="I89" t="inlineStr">
@@ -20011,7 +20011,7 @@
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>2026-02-04 16:35:48</t>
+          <t>2026-02-04 16:58:11</t>
         </is>
       </c>
       <c r="I90" t="inlineStr">
@@ -20244,7 +20244,7 @@
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>2026-02-04 16:35:48</t>
+          <t>2026-02-04 16:58:11</t>
         </is>
       </c>
       <c r="I91" t="inlineStr">
@@ -20462,7 +20462,7 @@
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>15:30 - 16:00</t>
+          <t>16:00 - 16:30</t>
         </is>
       </c>
       <c r="F92" t="inlineStr">
@@ -20477,7 +20477,7 @@
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>2026-02-04 16:35:51</t>
+          <t>2026-02-04 16:58:13</t>
         </is>
       </c>
       <c r="I92" t="inlineStr">
@@ -20502,7 +20502,7 @@
       <c r="N92" t="inlineStr"/>
       <c r="O92" t="inlineStr">
         <is>
-          <t>105</t>
+          <t>257</t>
         </is>
       </c>
       <c r="P92" t="inlineStr">
@@ -20512,7 +20512,7 @@
       </c>
       <c r="Q92" t="inlineStr">
         <is>
-          <t>88</t>
+          <t>83</t>
         </is>
       </c>
       <c r="R92" t="inlineStr"/>
@@ -20523,66 +20523,66 @@
       </c>
       <c r="T92" t="inlineStr">
         <is>
-          <t>15:30 - 16:00</t>
+          <t>16:00 - 16:30</t>
         </is>
       </c>
       <c r="U92" t="inlineStr">
         <is>
-          <t>131</t>
+          <t>163</t>
         </is>
       </c>
       <c r="V92" t="inlineStr">
         <is>
-          <t>-2.6</t>
+          <t>-2.3</t>
         </is>
       </c>
       <c r="W92" t="inlineStr">
         <is>
-          <t>-2.9</t>
+          <t>-2.7</t>
         </is>
       </c>
       <c r="X92" t="inlineStr">
         <is>
-          <t>-1.9</t>
+          <t>-2.0</t>
         </is>
       </c>
       <c r="Y92" t="inlineStr"/>
       <c r="Z92" t="inlineStr"/>
       <c r="AA92" t="inlineStr">
         <is>
-          <t>1.8</t>
+          <t>2.9</t>
         </is>
       </c>
       <c r="AB92" t="inlineStr"/>
       <c r="AC92" t="inlineStr"/>
       <c r="AD92" t="inlineStr">
         <is>
-          <t>6.5</t>
+          <t>9.4</t>
         </is>
       </c>
       <c r="AE92" t="inlineStr">
         <is>
-          <t>15:30 - 16:00</t>
+          <t>16:00 - 16:30</t>
         </is>
       </c>
       <c r="AF92" t="inlineStr">
         <is>
-          <t>-2.6</t>
+          <t>-2.3</t>
         </is>
       </c>
       <c r="AG92" t="inlineStr">
         <is>
-          <t>-1.9</t>
+          <t>-2.0</t>
         </is>
       </c>
       <c r="AH92" t="inlineStr">
         <is>
-          <t>-2.9</t>
+          <t>-2.7</t>
         </is>
       </c>
       <c r="AI92" t="inlineStr">
         <is>
-          <t>88</t>
+          <t>83</t>
         </is>
       </c>
       <c r="AJ92" t="inlineStr">
@@ -20597,32 +20597,32 @@
       </c>
       <c r="AL92" t="inlineStr">
         <is>
-          <t>1.8</t>
+          <t>2.9</t>
         </is>
       </c>
       <c r="AM92" t="inlineStr">
         <is>
-          <t>15:30 - 16:00</t>
+          <t>16:00 - 16:30</t>
         </is>
       </c>
       <c r="AN92" t="inlineStr">
         <is>
-          <t>-2.6</t>
+          <t>-2.3</t>
         </is>
       </c>
       <c r="AO92" t="inlineStr">
         <is>
-          <t>-1.9</t>
+          <t>-2.0</t>
         </is>
       </c>
       <c r="AP92" t="inlineStr">
         <is>
-          <t>-2.9</t>
+          <t>-2.7</t>
         </is>
       </c>
       <c r="AQ92" t="inlineStr">
         <is>
-          <t>88</t>
+          <t>83</t>
         </is>
       </c>
       <c r="AR92" t="inlineStr">
@@ -20637,37 +20637,37 @@
       </c>
       <c r="AT92" t="inlineStr">
         <is>
-          <t>1.8</t>
+          <t>2.9</t>
         </is>
       </c>
       <c r="AU92" t="inlineStr">
         <is>
-          <t>105</t>
+          <t>257</t>
         </is>
       </c>
       <c r="AV92" t="inlineStr">
         <is>
-          <t>6.5</t>
+          <t>9.4</t>
         </is>
       </c>
       <c r="AW92" t="inlineStr">
         <is>
-          <t>131</t>
+          <t>163</t>
         </is>
       </c>
       <c r="AX92" t="inlineStr">
         <is>
-          <t>105</t>
+          <t>257</t>
         </is>
       </c>
       <c r="AY92" t="inlineStr">
         <is>
-          <t>6.5</t>
+          <t>9.4</t>
         </is>
       </c>
       <c r="AZ92" t="inlineStr">
         <is>
-          <t>131</t>
+          <t>163</t>
         </is>
       </c>
       <c r="BA92" t="inlineStr"/>
@@ -20710,7 +20710,7 @@
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>2026-02-04 16:35:53</t>
+          <t>2026-02-04 16:58:15</t>
         </is>
       </c>
       <c r="I93" t="inlineStr">
@@ -20943,7 +20943,7 @@
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>2026-02-04 16:35:53</t>
+          <t>2026-02-04 16:58:15</t>
         </is>
       </c>
       <c r="I94" t="inlineStr">
@@ -21176,7 +21176,7 @@
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>2026-02-04 16:35:53</t>
+          <t>2026-02-04 16:58:15</t>
         </is>
       </c>
       <c r="I95" t="inlineStr">
@@ -21409,7 +21409,7 @@
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>2026-02-04 16:35:53</t>
+          <t>2026-02-04 16:58:15</t>
         </is>
       </c>
       <c r="I96" t="inlineStr">
@@ -21627,7 +21627,7 @@
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>15:30 - 16:00</t>
+          <t>16:00 - 16:30</t>
         </is>
       </c>
       <c r="F97" t="inlineStr">
@@ -21642,7 +21642,7 @@
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>2026-02-04 16:35:56</t>
+          <t>2026-02-04 16:58:17</t>
         </is>
       </c>
       <c r="I97" t="inlineStr">
@@ -21665,7 +21665,7 @@
       </c>
       <c r="M97" t="inlineStr">
         <is>
-          <t>217</t>
+          <t>214</t>
         </is>
       </c>
       <c r="N97" t="inlineStr"/>
@@ -21673,12 +21673,12 @@
       <c r="P97" t="inlineStr"/>
       <c r="Q97" t="inlineStr">
         <is>
-          <t>56</t>
+          <t>57</t>
         </is>
       </c>
       <c r="R97" t="inlineStr">
         <is>
-          <t>989.5</t>
+          <t>989.8</t>
         </is>
       </c>
       <c r="S97" t="inlineStr">
@@ -21688,106 +21688,106 @@
       </c>
       <c r="T97" t="inlineStr">
         <is>
-          <t>15:30 - 16:00</t>
+          <t>16:00 - 16:30</t>
         </is>
       </c>
       <c r="U97" t="inlineStr">
         <is>
-          <t>173</t>
+          <t>98</t>
         </is>
       </c>
       <c r="V97" t="inlineStr">
         <is>
-          <t>11.7</t>
+          <t>11.1</t>
         </is>
       </c>
       <c r="W97" t="inlineStr">
         <is>
+          <t>10.3</t>
+        </is>
+      </c>
+      <c r="X97" t="inlineStr">
+        <is>
           <t>11.4</t>
         </is>
       </c>
-      <c r="X97" t="inlineStr">
-        <is>
-          <t>11.9</t>
-        </is>
-      </c>
       <c r="Y97" t="inlineStr">
         <is>
-          <t>9.0</t>
+          <t>6.5</t>
         </is>
       </c>
       <c r="Z97" t="inlineStr"/>
       <c r="AA97" t="inlineStr"/>
       <c r="AB97" t="inlineStr">
         <is>
-          <t>18.4</t>
+          <t>14.8</t>
         </is>
       </c>
       <c r="AC97" t="inlineStr"/>
       <c r="AD97" t="inlineStr"/>
       <c r="AE97" t="inlineStr">
         <is>
-          <t>15:30 - 16:00</t>
+          <t>16:00 - 16:30</t>
         </is>
       </c>
       <c r="AF97" t="inlineStr">
         <is>
-          <t>11.7</t>
+          <t>11.1</t>
         </is>
       </c>
       <c r="AG97" t="inlineStr">
         <is>
-          <t>11.9</t>
+          <t>11.4</t>
         </is>
       </c>
       <c r="AH97" t="inlineStr">
         <is>
+          <t>10.3</t>
+        </is>
+      </c>
+      <c r="AI97" t="inlineStr">
+        <is>
+          <t>57</t>
+        </is>
+      </c>
+      <c r="AJ97" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="AK97" t="inlineStr">
+        <is>
+          <t>6.5</t>
+        </is>
+      </c>
+      <c r="AL97" t="inlineStr">
+        <is>
+          <t>214</t>
+        </is>
+      </c>
+      <c r="AM97" t="inlineStr">
+        <is>
+          <t>16:00 - 16:30</t>
+        </is>
+      </c>
+      <c r="AN97" t="inlineStr">
+        <is>
+          <t>11.1</t>
+        </is>
+      </c>
+      <c r="AO97" t="inlineStr">
+        <is>
           <t>11.4</t>
         </is>
       </c>
-      <c r="AI97" t="inlineStr">
-        <is>
-          <t>56</t>
-        </is>
-      </c>
-      <c r="AJ97" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="AK97" t="inlineStr">
-        <is>
-          <t>9.0</t>
-        </is>
-      </c>
-      <c r="AL97" t="inlineStr">
-        <is>
-          <t>217</t>
-        </is>
-      </c>
-      <c r="AM97" t="inlineStr">
-        <is>
-          <t>15:30 - 16:00</t>
-        </is>
-      </c>
-      <c r="AN97" t="inlineStr">
-        <is>
-          <t>11.7</t>
-        </is>
-      </c>
-      <c r="AO97" t="inlineStr">
-        <is>
-          <t>11.9</t>
-        </is>
-      </c>
       <c r="AP97" t="inlineStr">
         <is>
-          <t>11.4</t>
+          <t>10.3</t>
         </is>
       </c>
       <c r="AQ97" t="inlineStr">
         <is>
-          <t>56</t>
+          <t>57</t>
         </is>
       </c>
       <c r="AR97" t="inlineStr">
@@ -21797,42 +21797,42 @@
       </c>
       <c r="AS97" t="inlineStr">
         <is>
-          <t>9.0</t>
+          <t>6.5</t>
         </is>
       </c>
       <c r="AT97" t="inlineStr">
         <is>
-          <t>217</t>
+          <t>214</t>
         </is>
       </c>
       <c r="AU97" t="inlineStr">
         <is>
-          <t>18.4</t>
+          <t>14.8</t>
         </is>
       </c>
       <c r="AV97" t="inlineStr">
         <is>
-          <t>989.5</t>
+          <t>989.8</t>
         </is>
       </c>
       <c r="AW97" t="inlineStr">
         <is>
-          <t>173</t>
+          <t>98</t>
         </is>
       </c>
       <c r="AX97" t="inlineStr">
         <is>
-          <t>18.4</t>
+          <t>14.8</t>
         </is>
       </c>
       <c r="AY97" t="inlineStr">
         <is>
-          <t>989.5</t>
+          <t>989.8</t>
         </is>
       </c>
       <c r="AZ97" t="inlineStr">
         <is>
-          <t>173</t>
+          <t>98</t>
         </is>
       </c>
       <c r="BA97" t="inlineStr"/>
@@ -21875,7 +21875,7 @@
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>2026-02-04 16:35:57</t>
+          <t>2026-02-04 16:58:18</t>
         </is>
       </c>
       <c r="I98" t="inlineStr">
@@ -22108,7 +22108,7 @@
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>2026-02-04 16:35:57</t>
+          <t>2026-02-04 16:58:18</t>
         </is>
       </c>
       <c r="I99" t="inlineStr">
@@ -22341,7 +22341,7 @@
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>2026-02-04 16:35:57</t>
+          <t>2026-02-04 16:58:18</t>
         </is>
       </c>
       <c r="I100" t="inlineStr">
@@ -22574,7 +22574,7 @@
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>2026-02-04 16:35:57</t>
+          <t>2026-02-04 16:58:18</t>
         </is>
       </c>
       <c r="I101" t="inlineStr">
@@ -22792,7 +22792,7 @@
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>15:30 - 16:00</t>
+          <t>16:00 - 16:30</t>
         </is>
       </c>
       <c r="F102" t="inlineStr">
@@ -22807,7 +22807,7 @@
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>2026-02-04 16:36:00</t>
+          <t>2026-02-04 16:58:21</t>
         </is>
       </c>
       <c r="I102" t="inlineStr">
@@ -22830,7 +22830,7 @@
       </c>
       <c r="M102" t="inlineStr">
         <is>
-          <t>203</t>
+          <t>209</t>
         </is>
       </c>
       <c r="N102" t="inlineStr"/>
@@ -22838,7 +22838,7 @@
       <c r="P102" t="inlineStr"/>
       <c r="Q102" t="inlineStr">
         <is>
-          <t>73</t>
+          <t>75</t>
         </is>
       </c>
       <c r="R102" t="inlineStr"/>
@@ -22849,106 +22849,106 @@
       </c>
       <c r="T102" t="inlineStr">
         <is>
-          <t>15:30 - 16:00</t>
+          <t>16:00 - 16:30</t>
         </is>
       </c>
       <c r="U102" t="inlineStr">
         <is>
-          <t>184</t>
+          <t>102</t>
         </is>
       </c>
       <c r="V102" t="inlineStr">
         <is>
-          <t>12.2</t>
+          <t>12.1</t>
         </is>
       </c>
       <c r="W102" t="inlineStr">
         <is>
+          <t>12.0</t>
+        </is>
+      </c>
+      <c r="X102" t="inlineStr">
+        <is>
           <t>12.1</t>
         </is>
       </c>
-      <c r="X102" t="inlineStr">
-        <is>
-          <t>12.3</t>
-        </is>
-      </c>
       <c r="Y102" t="inlineStr">
         <is>
-          <t>18.4</t>
+          <t>14.4</t>
         </is>
       </c>
       <c r="Z102" t="inlineStr"/>
       <c r="AA102" t="inlineStr"/>
       <c r="AB102" t="inlineStr">
         <is>
-          <t>25.6</t>
+          <t>23.4</t>
         </is>
       </c>
       <c r="AC102" t="inlineStr"/>
       <c r="AD102" t="inlineStr"/>
       <c r="AE102" t="inlineStr">
         <is>
-          <t>15:30 - 16:00</t>
+          <t>16:00 - 16:30</t>
         </is>
       </c>
       <c r="AF102" t="inlineStr">
         <is>
-          <t>12.2</t>
+          <t>12.1</t>
         </is>
       </c>
       <c r="AG102" t="inlineStr">
         <is>
-          <t>12.3</t>
+          <t>12.1</t>
         </is>
       </c>
       <c r="AH102" t="inlineStr">
         <is>
+          <t>12.0</t>
+        </is>
+      </c>
+      <c r="AI102" t="inlineStr">
+        <is>
+          <t>75</t>
+        </is>
+      </c>
+      <c r="AJ102" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="AK102" t="inlineStr">
+        <is>
+          <t>14.4</t>
+        </is>
+      </c>
+      <c r="AL102" t="inlineStr">
+        <is>
+          <t>209</t>
+        </is>
+      </c>
+      <c r="AM102" t="inlineStr">
+        <is>
+          <t>16:00 - 16:30</t>
+        </is>
+      </c>
+      <c r="AN102" t="inlineStr">
+        <is>
           <t>12.1</t>
         </is>
       </c>
-      <c r="AI102" t="inlineStr">
-        <is>
-          <t>73</t>
-        </is>
-      </c>
-      <c r="AJ102" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="AK102" t="inlineStr">
-        <is>
-          <t>18.4</t>
-        </is>
-      </c>
-      <c r="AL102" t="inlineStr">
-        <is>
-          <t>203</t>
-        </is>
-      </c>
-      <c r="AM102" t="inlineStr">
-        <is>
-          <t>15:30 - 16:00</t>
-        </is>
-      </c>
-      <c r="AN102" t="inlineStr">
-        <is>
-          <t>12.2</t>
-        </is>
-      </c>
       <c r="AO102" t="inlineStr">
         <is>
-          <t>12.3</t>
+          <t>12.1</t>
         </is>
       </c>
       <c r="AP102" t="inlineStr">
         <is>
-          <t>12.1</t>
+          <t>12.0</t>
         </is>
       </c>
       <c r="AQ102" t="inlineStr">
         <is>
-          <t>73</t>
+          <t>75</t>
         </is>
       </c>
       <c r="AR102" t="inlineStr">
@@ -22958,33 +22958,33 @@
       </c>
       <c r="AS102" t="inlineStr">
         <is>
-          <t>18.4</t>
+          <t>14.4</t>
         </is>
       </c>
       <c r="AT102" t="inlineStr">
         <is>
-          <t>203</t>
+          <t>209</t>
         </is>
       </c>
       <c r="AU102" t="inlineStr">
         <is>
-          <t>25.6</t>
+          <t>23.4</t>
         </is>
       </c>
       <c r="AV102" t="inlineStr">
         <is>
-          <t>184</t>
+          <t>102</t>
         </is>
       </c>
       <c r="AW102" t="inlineStr"/>
       <c r="AX102" t="inlineStr">
         <is>
-          <t>25.6</t>
+          <t>23.4</t>
         </is>
       </c>
       <c r="AY102" t="inlineStr">
         <is>
-          <t>184</t>
+          <t>102</t>
         </is>
       </c>
       <c r="AZ102" t="inlineStr"/>
@@ -23028,7 +23028,7 @@
       </c>
       <c r="H103" t="inlineStr">
         <is>
-          <t>2026-02-04 16:36:02</t>
+          <t>2026-02-04 16:58:23</t>
         </is>
       </c>
       <c r="I103" t="inlineStr">
@@ -23249,7 +23249,7 @@
       </c>
       <c r="H104" t="inlineStr">
         <is>
-          <t>2026-02-04 16:36:02</t>
+          <t>2026-02-04 16:58:23</t>
         </is>
       </c>
       <c r="I104" t="inlineStr">
@@ -23470,7 +23470,7 @@
       </c>
       <c r="H105" t="inlineStr">
         <is>
-          <t>2026-02-04 16:36:02</t>
+          <t>2026-02-04 16:58:23</t>
         </is>
       </c>
       <c r="I105" t="inlineStr">
@@ -23691,7 +23691,7 @@
       </c>
       <c r="H106" t="inlineStr">
         <is>
-          <t>2026-02-04 16:36:02</t>
+          <t>2026-02-04 16:58:23</t>
         </is>
       </c>
       <c r="I106" t="inlineStr">
@@ -23897,7 +23897,7 @@
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>15:30 - 16:00</t>
+          <t>16:00 - 16:30</t>
         </is>
       </c>
       <c r="F107" t="inlineStr">
@@ -23912,7 +23912,7 @@
       </c>
       <c r="H107" t="inlineStr">
         <is>
-          <t>2026-02-04 16:36:04</t>
+          <t>2026-02-04 16:58:25</t>
         </is>
       </c>
       <c r="I107" t="inlineStr">
@@ -23935,7 +23935,7 @@
       </c>
       <c r="M107" t="inlineStr">
         <is>
-          <t>151</t>
+          <t>190</t>
         </is>
       </c>
       <c r="N107" t="inlineStr"/>
@@ -23943,12 +23943,12 @@
       <c r="P107" t="inlineStr"/>
       <c r="Q107" t="inlineStr">
         <is>
-          <t>56</t>
+          <t>66</t>
         </is>
       </c>
       <c r="R107" t="inlineStr">
         <is>
-          <t>989.7</t>
+          <t>990.0</t>
         </is>
       </c>
       <c r="S107" t="inlineStr">
@@ -23958,66 +23958,66 @@
       </c>
       <c r="T107" t="inlineStr">
         <is>
-          <t>15:30 - 16:00</t>
+          <t>16:00 - 16:30</t>
         </is>
       </c>
       <c r="U107" t="inlineStr">
         <is>
-          <t>175</t>
+          <t>82</t>
         </is>
       </c>
       <c r="V107" t="inlineStr">
         <is>
-          <t>13.1</t>
+          <t>12.1</t>
         </is>
       </c>
       <c r="W107" t="inlineStr">
         <is>
-          <t>13.1</t>
+          <t>10.1</t>
         </is>
       </c>
       <c r="X107" t="inlineStr">
         <is>
-          <t>13.3</t>
+          <t>13.4</t>
         </is>
       </c>
       <c r="Y107" t="inlineStr">
         <is>
-          <t>6.1</t>
+          <t>1.1</t>
         </is>
       </c>
       <c r="Z107" t="inlineStr"/>
       <c r="AA107" t="inlineStr"/>
       <c r="AB107" t="inlineStr">
         <is>
-          <t>11.2</t>
+          <t>5.0</t>
         </is>
       </c>
       <c r="AC107" t="inlineStr"/>
       <c r="AD107" t="inlineStr"/>
       <c r="AE107" t="inlineStr">
         <is>
-          <t>15:30 - 16:00</t>
+          <t>16:00 - 16:30</t>
         </is>
       </c>
       <c r="AF107" t="inlineStr">
         <is>
-          <t>13.1</t>
+          <t>12.1</t>
         </is>
       </c>
       <c r="AG107" t="inlineStr">
         <is>
-          <t>13.3</t>
+          <t>13.4</t>
         </is>
       </c>
       <c r="AH107" t="inlineStr">
         <is>
-          <t>13.1</t>
+          <t>10.1</t>
         </is>
       </c>
       <c r="AI107" t="inlineStr">
         <is>
-          <t>56</t>
+          <t>66</t>
         </is>
       </c>
       <c r="AJ107" t="inlineStr">
@@ -24027,37 +24027,37 @@
       </c>
       <c r="AK107" t="inlineStr">
         <is>
-          <t>6.1</t>
+          <t>1.1</t>
         </is>
       </c>
       <c r="AL107" t="inlineStr">
         <is>
-          <t>151</t>
+          <t>190</t>
         </is>
       </c>
       <c r="AM107" t="inlineStr">
         <is>
-          <t>15:30 - 16:00</t>
+          <t>16:00 - 16:30</t>
         </is>
       </c>
       <c r="AN107" t="inlineStr">
         <is>
-          <t>13.1</t>
+          <t>12.1</t>
         </is>
       </c>
       <c r="AO107" t="inlineStr">
         <is>
-          <t>13.3</t>
+          <t>13.4</t>
         </is>
       </c>
       <c r="AP107" t="inlineStr">
         <is>
-          <t>13.1</t>
+          <t>10.1</t>
         </is>
       </c>
       <c r="AQ107" t="inlineStr">
         <is>
-          <t>56</t>
+          <t>66</t>
         </is>
       </c>
       <c r="AR107" t="inlineStr">
@@ -24067,42 +24067,42 @@
       </c>
       <c r="AS107" t="inlineStr">
         <is>
-          <t>6.1</t>
+          <t>1.1</t>
         </is>
       </c>
       <c r="AT107" t="inlineStr">
         <is>
-          <t>151</t>
+          <t>190</t>
         </is>
       </c>
       <c r="AU107" t="inlineStr">
         <is>
-          <t>11.2</t>
+          <t>5.0</t>
         </is>
       </c>
       <c r="AV107" t="inlineStr">
         <is>
-          <t>989.7</t>
+          <t>990.0</t>
         </is>
       </c>
       <c r="AW107" t="inlineStr">
         <is>
-          <t>175</t>
+          <t>82</t>
         </is>
       </c>
       <c r="AX107" t="inlineStr">
         <is>
-          <t>11.2</t>
+          <t>5.0</t>
         </is>
       </c>
       <c r="AY107" t="inlineStr">
         <is>
-          <t>989.7</t>
+          <t>990.0</t>
         </is>
       </c>
       <c r="AZ107" t="inlineStr">
         <is>
-          <t>175</t>
+          <t>82</t>
         </is>
       </c>
       <c r="BA107" t="inlineStr"/>
@@ -24145,7 +24145,7 @@
       </c>
       <c r="H108" t="inlineStr">
         <is>
-          <t>2026-02-04 16:36:06</t>
+          <t>2026-02-04 16:58:27</t>
         </is>
       </c>
       <c r="I108" t="inlineStr">
@@ -24378,7 +24378,7 @@
       </c>
       <c r="H109" t="inlineStr">
         <is>
-          <t>2026-02-04 16:36:06</t>
+          <t>2026-02-04 16:58:27</t>
         </is>
       </c>
       <c r="I109" t="inlineStr">
@@ -24611,7 +24611,7 @@
       </c>
       <c r="H110" t="inlineStr">
         <is>
-          <t>2026-02-04 16:36:06</t>
+          <t>2026-02-04 16:58:27</t>
         </is>
       </c>
       <c r="I110" t="inlineStr">
@@ -24844,7 +24844,7 @@
       </c>
       <c r="H111" t="inlineStr">
         <is>
-          <t>2026-02-04 16:36:06</t>
+          <t>2026-02-04 16:58:27</t>
         </is>
       </c>
       <c r="I111" t="inlineStr">
@@ -25062,7 +25062,7 @@
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>15:30 - 16:00</t>
+          <t>16:00 - 16:30</t>
         </is>
       </c>
       <c r="F112" t="inlineStr">
@@ -25077,7 +25077,7 @@
       </c>
       <c r="H112" t="inlineStr">
         <is>
-          <t>2026-02-04 16:36:08</t>
+          <t>2026-02-04 16:58:29</t>
         </is>
       </c>
       <c r="I112" t="inlineStr">
@@ -25100,7 +25100,7 @@
       </c>
       <c r="M112" t="inlineStr">
         <is>
-          <t>203</t>
+          <t>204</t>
         </is>
       </c>
       <c r="N112" t="inlineStr"/>
@@ -25108,12 +25108,12 @@
       <c r="P112" t="inlineStr"/>
       <c r="Q112" t="inlineStr">
         <is>
-          <t>61</t>
+          <t>63</t>
         </is>
       </c>
       <c r="R112" t="inlineStr">
         <is>
-          <t>989.1</t>
+          <t>989.4</t>
         </is>
       </c>
       <c r="S112" t="inlineStr">
@@ -25123,66 +25123,66 @@
       </c>
       <c r="T112" t="inlineStr">
         <is>
-          <t>15:30 - 16:00</t>
+          <t>16:00 - 16:30</t>
         </is>
       </c>
       <c r="U112" t="inlineStr">
         <is>
-          <t>217</t>
+          <t>80</t>
         </is>
       </c>
       <c r="V112" t="inlineStr">
         <is>
+          <t>12.6</t>
+        </is>
+      </c>
+      <c r="W112" t="inlineStr">
+        <is>
+          <t>12.0</t>
+        </is>
+      </c>
+      <c r="X112" t="inlineStr">
+        <is>
           <t>13.1</t>
         </is>
       </c>
-      <c r="W112" t="inlineStr">
-        <is>
-          <t>12.8</t>
-        </is>
-      </c>
-      <c r="X112" t="inlineStr">
-        <is>
-          <t>13.3</t>
-        </is>
-      </c>
       <c r="Y112" t="inlineStr">
         <is>
-          <t>27.4</t>
+          <t>24.5</t>
         </is>
       </c>
       <c r="Z112" t="inlineStr"/>
       <c r="AA112" t="inlineStr"/>
       <c r="AB112" t="inlineStr">
         <is>
-          <t>39.2</t>
+          <t>34.9</t>
         </is>
       </c>
       <c r="AC112" t="inlineStr"/>
       <c r="AD112" t="inlineStr"/>
       <c r="AE112" t="inlineStr">
         <is>
-          <t>15:30 - 16:00</t>
+          <t>16:00 - 16:30</t>
         </is>
       </c>
       <c r="AF112" t="inlineStr">
         <is>
+          <t>12.6</t>
+        </is>
+      </c>
+      <c r="AG112" t="inlineStr">
+        <is>
           <t>13.1</t>
         </is>
       </c>
-      <c r="AG112" t="inlineStr">
-        <is>
-          <t>13.3</t>
-        </is>
-      </c>
       <c r="AH112" t="inlineStr">
         <is>
-          <t>12.8</t>
+          <t>12.0</t>
         </is>
       </c>
       <c r="AI112" t="inlineStr">
         <is>
-          <t>61</t>
+          <t>63</t>
         </is>
       </c>
       <c r="AJ112" t="inlineStr">
@@ -25192,37 +25192,37 @@
       </c>
       <c r="AK112" t="inlineStr">
         <is>
-          <t>27.4</t>
+          <t>24.5</t>
         </is>
       </c>
       <c r="AL112" t="inlineStr">
         <is>
-          <t>203</t>
+          <t>204</t>
         </is>
       </c>
       <c r="AM112" t="inlineStr">
         <is>
-          <t>15:30 - 16:00</t>
+          <t>16:00 - 16:30</t>
         </is>
       </c>
       <c r="AN112" t="inlineStr">
         <is>
+          <t>12.6</t>
+        </is>
+      </c>
+      <c r="AO112" t="inlineStr">
+        <is>
           <t>13.1</t>
         </is>
       </c>
-      <c r="AO112" t="inlineStr">
-        <is>
-          <t>13.3</t>
-        </is>
-      </c>
       <c r="AP112" t="inlineStr">
         <is>
-          <t>12.8</t>
+          <t>12.0</t>
         </is>
       </c>
       <c r="AQ112" t="inlineStr">
         <is>
-          <t>61</t>
+          <t>63</t>
         </is>
       </c>
       <c r="AR112" t="inlineStr">
@@ -25232,42 +25232,42 @@
       </c>
       <c r="AS112" t="inlineStr">
         <is>
-          <t>27.4</t>
+          <t>24.5</t>
         </is>
       </c>
       <c r="AT112" t="inlineStr">
         <is>
-          <t>203</t>
+          <t>204</t>
         </is>
       </c>
       <c r="AU112" t="inlineStr">
         <is>
-          <t>39.2</t>
+          <t>34.9</t>
         </is>
       </c>
       <c r="AV112" t="inlineStr">
         <is>
-          <t>989.1</t>
+          <t>989.4</t>
         </is>
       </c>
       <c r="AW112" t="inlineStr">
         <is>
-          <t>217</t>
+          <t>80</t>
         </is>
       </c>
       <c r="AX112" t="inlineStr">
         <is>
-          <t>39.2</t>
+          <t>34.9</t>
         </is>
       </c>
       <c r="AY112" t="inlineStr">
         <is>
-          <t>989.1</t>
+          <t>989.4</t>
         </is>
       </c>
       <c r="AZ112" t="inlineStr">
         <is>
-          <t>217</t>
+          <t>80</t>
         </is>
       </c>
       <c r="BA112" t="inlineStr"/>
@@ -25310,7 +25310,7 @@
       </c>
       <c r="H113" t="inlineStr">
         <is>
-          <t>2026-02-04 16:36:09</t>
+          <t>2026-02-04 16:58:30</t>
         </is>
       </c>
       <c r="I113" t="inlineStr">
@@ -25543,7 +25543,7 @@
       </c>
       <c r="H114" t="inlineStr">
         <is>
-          <t>2026-02-04 16:36:09</t>
+          <t>2026-02-04 16:58:30</t>
         </is>
       </c>
       <c r="I114" t="inlineStr">
@@ -25776,7 +25776,7 @@
       </c>
       <c r="H115" t="inlineStr">
         <is>
-          <t>2026-02-04 16:36:09</t>
+          <t>2026-02-04 16:58:30</t>
         </is>
       </c>
       <c r="I115" t="inlineStr">
@@ -26009,7 +26009,7 @@
       </c>
       <c r="H116" t="inlineStr">
         <is>
-          <t>2026-02-04 16:36:09</t>
+          <t>2026-02-04 16:58:30</t>
         </is>
       </c>
       <c r="I116" t="inlineStr">
@@ -26227,7 +26227,7 @@
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>15:30 - 16:00</t>
+          <t>16:00 - 16:30</t>
         </is>
       </c>
       <c r="F117" t="inlineStr">
@@ -26242,7 +26242,7 @@
       </c>
       <c r="H117" t="inlineStr">
         <is>
-          <t>2026-02-04 16:36:12</t>
+          <t>2026-02-04 16:58:33</t>
         </is>
       </c>
       <c r="I117" t="inlineStr">
@@ -26265,7 +26265,7 @@
       </c>
       <c r="M117" t="inlineStr">
         <is>
-          <t>215</t>
+          <t>212</t>
         </is>
       </c>
       <c r="N117" t="inlineStr"/>
@@ -26273,12 +26273,12 @@
       <c r="P117" t="inlineStr"/>
       <c r="Q117" t="inlineStr">
         <is>
-          <t>61</t>
+          <t>63</t>
         </is>
       </c>
       <c r="R117" t="inlineStr">
         <is>
-          <t>989.9</t>
+          <t>990.4</t>
         </is>
       </c>
       <c r="S117" t="inlineStr">
@@ -26288,106 +26288,106 @@
       </c>
       <c r="T117" t="inlineStr">
         <is>
-          <t>15:30 - 16:00</t>
+          <t>16:00 - 16:30</t>
         </is>
       </c>
       <c r="U117" t="inlineStr">
         <is>
-          <t>211</t>
+          <t>92</t>
         </is>
       </c>
       <c r="V117" t="inlineStr">
         <is>
-          <t>6.1</t>
+          <t>5.5</t>
         </is>
       </c>
       <c r="W117" t="inlineStr">
         <is>
+          <t>5.3</t>
+        </is>
+      </c>
+      <c r="X117" t="inlineStr">
+        <is>
           <t>6.0</t>
         </is>
       </c>
-      <c r="X117" t="inlineStr">
-        <is>
-          <t>6.2</t>
-        </is>
-      </c>
       <c r="Y117" t="inlineStr">
         <is>
-          <t>11.2</t>
+          <t>10.8</t>
         </is>
       </c>
       <c r="Z117" t="inlineStr"/>
       <c r="AA117" t="inlineStr"/>
       <c r="AB117" t="inlineStr">
         <is>
-          <t>24.8</t>
+          <t>23.8</t>
         </is>
       </c>
       <c r="AC117" t="inlineStr"/>
       <c r="AD117" t="inlineStr"/>
       <c r="AE117" t="inlineStr">
         <is>
-          <t>15:30 - 16:00</t>
+          <t>16:00 - 16:30</t>
         </is>
       </c>
       <c r="AF117" t="inlineStr">
         <is>
-          <t>6.1</t>
+          <t>5.5</t>
         </is>
       </c>
       <c r="AG117" t="inlineStr">
         <is>
-          <t>6.2</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="AH117" t="inlineStr">
         <is>
+          <t>5.3</t>
+        </is>
+      </c>
+      <c r="AI117" t="inlineStr">
+        <is>
+          <t>63</t>
+        </is>
+      </c>
+      <c r="AJ117" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="AK117" t="inlineStr">
+        <is>
+          <t>10.8</t>
+        </is>
+      </c>
+      <c r="AL117" t="inlineStr">
+        <is>
+          <t>212</t>
+        </is>
+      </c>
+      <c r="AM117" t="inlineStr">
+        <is>
+          <t>16:00 - 16:30</t>
+        </is>
+      </c>
+      <c r="AN117" t="inlineStr">
+        <is>
+          <t>5.5</t>
+        </is>
+      </c>
+      <c r="AO117" t="inlineStr">
+        <is>
           <t>6.0</t>
         </is>
       </c>
-      <c r="AI117" t="inlineStr">
-        <is>
-          <t>61</t>
-        </is>
-      </c>
-      <c r="AJ117" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="AK117" t="inlineStr">
-        <is>
-          <t>11.2</t>
-        </is>
-      </c>
-      <c r="AL117" t="inlineStr">
-        <is>
-          <t>215</t>
-        </is>
-      </c>
-      <c r="AM117" t="inlineStr">
-        <is>
-          <t>15:30 - 16:00</t>
-        </is>
-      </c>
-      <c r="AN117" t="inlineStr">
-        <is>
-          <t>6.1</t>
-        </is>
-      </c>
-      <c r="AO117" t="inlineStr">
-        <is>
-          <t>6.2</t>
-        </is>
-      </c>
       <c r="AP117" t="inlineStr">
         <is>
-          <t>6.0</t>
+          <t>5.3</t>
         </is>
       </c>
       <c r="AQ117" t="inlineStr">
         <is>
-          <t>61</t>
+          <t>63</t>
         </is>
       </c>
       <c r="AR117" t="inlineStr">
@@ -26397,42 +26397,42 @@
       </c>
       <c r="AS117" t="inlineStr">
         <is>
-          <t>11.2</t>
+          <t>10.8</t>
         </is>
       </c>
       <c r="AT117" t="inlineStr">
         <is>
-          <t>215</t>
+          <t>212</t>
         </is>
       </c>
       <c r="AU117" t="inlineStr">
         <is>
-          <t>24.8</t>
+          <t>23.8</t>
         </is>
       </c>
       <c r="AV117" t="inlineStr">
         <is>
-          <t>989.9</t>
+          <t>990.4</t>
         </is>
       </c>
       <c r="AW117" t="inlineStr">
         <is>
-          <t>211</t>
+          <t>92</t>
         </is>
       </c>
       <c r="AX117" t="inlineStr">
         <is>
-          <t>24.8</t>
+          <t>23.8</t>
         </is>
       </c>
       <c r="AY117" t="inlineStr">
         <is>
-          <t>989.9</t>
+          <t>990.4</t>
         </is>
       </c>
       <c r="AZ117" t="inlineStr">
         <is>
-          <t>211</t>
+          <t>92</t>
         </is>
       </c>
       <c r="BA117" t="inlineStr"/>
@@ -26475,7 +26475,7 @@
       </c>
       <c r="H118" t="inlineStr">
         <is>
-          <t>2026-02-04 16:36:13</t>
+          <t>2026-02-04 16:58:35</t>
         </is>
       </c>
       <c r="I118" t="inlineStr">
@@ -26708,7 +26708,7 @@
       </c>
       <c r="H119" t="inlineStr">
         <is>
-          <t>2026-02-04 16:36:13</t>
+          <t>2026-02-04 16:58:35</t>
         </is>
       </c>
       <c r="I119" t="inlineStr">
@@ -26941,7 +26941,7 @@
       </c>
       <c r="H120" t="inlineStr">
         <is>
-          <t>2026-02-04 16:36:13</t>
+          <t>2026-02-04 16:58:35</t>
         </is>
       </c>
       <c r="I120" t="inlineStr">
@@ -27174,7 +27174,7 @@
       </c>
       <c r="H121" t="inlineStr">
         <is>
-          <t>2026-02-04 16:36:13</t>
+          <t>2026-02-04 16:58:35</t>
         </is>
       </c>
       <c r="I121" t="inlineStr">
@@ -27392,7 +27392,7 @@
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>15:30 - 16:00</t>
+          <t>16:00 - 16:30</t>
         </is>
       </c>
       <c r="F122" t="inlineStr">
@@ -27407,7 +27407,7 @@
       </c>
       <c r="H122" t="inlineStr">
         <is>
-          <t>2026-02-04 16:36:16</t>
+          <t>2026-02-04 16:58:37</t>
         </is>
       </c>
       <c r="I122" t="inlineStr">
@@ -27430,19 +27430,19 @@
       </c>
       <c r="M122" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>23</t>
         </is>
       </c>
       <c r="N122" t="inlineStr"/>
       <c r="O122" t="inlineStr"/>
       <c r="P122" t="inlineStr">
         <is>
-          <t>111</t>
+          <t>110</t>
         </is>
       </c>
       <c r="Q122" t="inlineStr">
         <is>
-          <t>56</t>
+          <t>58</t>
         </is>
       </c>
       <c r="R122" t="inlineStr">
@@ -27457,66 +27457,66 @@
       </c>
       <c r="T122" t="inlineStr">
         <is>
-          <t>15:30 - 16:00</t>
+          <t>16:00 - 16:30</t>
         </is>
       </c>
       <c r="U122" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>23</t>
         </is>
       </c>
       <c r="V122" t="inlineStr">
         <is>
+          <t>0.7</t>
+        </is>
+      </c>
+      <c r="W122" t="inlineStr">
+        <is>
+          <t>0.4</t>
+        </is>
+      </c>
+      <c r="X122" t="inlineStr">
+        <is>
           <t>1.0</t>
         </is>
       </c>
-      <c r="W122" t="inlineStr">
-        <is>
-          <t>0.8</t>
-        </is>
-      </c>
-      <c r="X122" t="inlineStr">
-        <is>
-          <t>1.2</t>
-        </is>
-      </c>
       <c r="Y122" t="inlineStr">
         <is>
-          <t>9.4</t>
+          <t>10.4</t>
         </is>
       </c>
       <c r="Z122" t="inlineStr"/>
       <c r="AA122" t="inlineStr"/>
       <c r="AB122" t="inlineStr">
         <is>
-          <t>34.6</t>
+          <t>30.2</t>
         </is>
       </c>
       <c r="AC122" t="inlineStr"/>
       <c r="AD122" t="inlineStr"/>
       <c r="AE122" t="inlineStr">
         <is>
-          <t>15:30 - 16:00</t>
+          <t>16:00 - 16:30</t>
         </is>
       </c>
       <c r="AF122" t="inlineStr">
         <is>
+          <t>0.7</t>
+        </is>
+      </c>
+      <c r="AG122" t="inlineStr">
+        <is>
           <t>1.0</t>
         </is>
       </c>
-      <c r="AG122" t="inlineStr">
-        <is>
-          <t>1.2</t>
-        </is>
-      </c>
       <c r="AH122" t="inlineStr">
         <is>
-          <t>0.8</t>
+          <t>0.4</t>
         </is>
       </c>
       <c r="AI122" t="inlineStr">
         <is>
-          <t>56</t>
+          <t>58</t>
         </is>
       </c>
       <c r="AJ122" t="inlineStr">
@@ -27526,37 +27526,37 @@
       </c>
       <c r="AK122" t="inlineStr">
         <is>
-          <t>111</t>
+          <t>110</t>
         </is>
       </c>
       <c r="AL122" t="inlineStr">
         <is>
-          <t>9.4</t>
+          <t>10.4</t>
         </is>
       </c>
       <c r="AM122" t="inlineStr">
         <is>
-          <t>15:30 - 16:00</t>
+          <t>16:00 - 16:30</t>
         </is>
       </c>
       <c r="AN122" t="inlineStr">
         <is>
+          <t>0.7</t>
+        </is>
+      </c>
+      <c r="AO122" t="inlineStr">
+        <is>
           <t>1.0</t>
         </is>
       </c>
-      <c r="AO122" t="inlineStr">
-        <is>
-          <t>1.2</t>
-        </is>
-      </c>
       <c r="AP122" t="inlineStr">
         <is>
-          <t>0.8</t>
+          <t>0.4</t>
         </is>
       </c>
       <c r="AQ122" t="inlineStr">
         <is>
-          <t>56</t>
+          <t>58</t>
         </is>
       </c>
       <c r="AR122" t="inlineStr">
@@ -27566,22 +27566,22 @@
       </c>
       <c r="AS122" t="inlineStr">
         <is>
-          <t>111</t>
+          <t>110</t>
         </is>
       </c>
       <c r="AT122" t="inlineStr">
         <is>
-          <t>9.4</t>
+          <t>10.4</t>
         </is>
       </c>
       <c r="AU122" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>23</t>
         </is>
       </c>
       <c r="AV122" t="inlineStr">
         <is>
-          <t>34.6</t>
+          <t>30.2</t>
         </is>
       </c>
       <c r="AW122" t="inlineStr">
@@ -27591,12 +27591,12 @@
       </c>
       <c r="AX122" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>23</t>
         </is>
       </c>
       <c r="AY122" t="inlineStr">
         <is>
-          <t>34.6</t>
+          <t>30.2</t>
         </is>
       </c>
       <c r="AZ122" t="inlineStr">
@@ -27606,7 +27606,7 @@
       </c>
       <c r="BA122" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>23</t>
         </is>
       </c>
     </row>
@@ -27648,7 +27648,7 @@
       </c>
       <c r="H123" t="inlineStr">
         <is>
-          <t>2026-02-04 16:36:18</t>
+          <t>2026-02-04 16:58:39</t>
         </is>
       </c>
       <c r="I123" t="inlineStr">
@@ -27889,7 +27889,7 @@
       </c>
       <c r="H124" t="inlineStr">
         <is>
-          <t>2026-02-04 16:36:18</t>
+          <t>2026-02-04 16:58:39</t>
         </is>
       </c>
       <c r="I124" t="inlineStr">
@@ -28130,7 +28130,7 @@
       </c>
       <c r="H125" t="inlineStr">
         <is>
-          <t>2026-02-04 16:36:18</t>
+          <t>2026-02-04 16:58:39</t>
         </is>
       </c>
       <c r="I125" t="inlineStr">
@@ -28371,7 +28371,7 @@
       </c>
       <c r="H126" t="inlineStr">
         <is>
-          <t>2026-02-04 16:36:18</t>
+          <t>2026-02-04 16:58:39</t>
         </is>
       </c>
       <c r="I126" t="inlineStr">
@@ -28597,7 +28597,7 @@
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>15:30 - 16:00</t>
+          <t>16:00 - 16:30</t>
         </is>
       </c>
       <c r="F127" t="inlineStr">
@@ -28612,7 +28612,7 @@
       </c>
       <c r="H127" t="inlineStr">
         <is>
-          <t>2026-02-04 16:36:20</t>
+          <t>2026-02-04 16:58:41</t>
         </is>
       </c>
       <c r="I127" t="inlineStr">
@@ -28635,7 +28635,7 @@
       </c>
       <c r="M127" t="inlineStr">
         <is>
-          <t>165</t>
+          <t>162</t>
         </is>
       </c>
       <c r="N127" t="inlineStr"/>
@@ -28643,12 +28643,12 @@
       <c r="P127" t="inlineStr"/>
       <c r="Q127" t="inlineStr">
         <is>
-          <t>62</t>
+          <t>63</t>
         </is>
       </c>
       <c r="R127" t="inlineStr">
         <is>
-          <t>990.3</t>
+          <t>990.4</t>
         </is>
       </c>
       <c r="S127" t="inlineStr">
@@ -28658,106 +28658,106 @@
       </c>
       <c r="T127" t="inlineStr">
         <is>
-          <t>15:30 - 16:00</t>
+          <t>16:00 - 16:30</t>
         </is>
       </c>
       <c r="U127" t="inlineStr">
         <is>
-          <t>190</t>
+          <t>99</t>
         </is>
       </c>
       <c r="V127" t="inlineStr">
         <is>
-          <t>13.6</t>
+          <t>13.1</t>
         </is>
       </c>
       <c r="W127" t="inlineStr">
         <is>
+          <t>12.9</t>
+        </is>
+      </c>
+      <c r="X127" t="inlineStr">
+        <is>
           <t>13.3</t>
         </is>
       </c>
-      <c r="X127" t="inlineStr">
-        <is>
-          <t>13.8</t>
-        </is>
-      </c>
       <c r="Y127" t="inlineStr">
         <is>
-          <t>12.6</t>
+          <t>10.1</t>
         </is>
       </c>
       <c r="Z127" t="inlineStr"/>
       <c r="AA127" t="inlineStr"/>
       <c r="AB127" t="inlineStr">
         <is>
-          <t>22.3</t>
+          <t>18.0</t>
         </is>
       </c>
       <c r="AC127" t="inlineStr"/>
       <c r="AD127" t="inlineStr"/>
       <c r="AE127" t="inlineStr">
         <is>
-          <t>15:30 - 16:00</t>
+          <t>16:00 - 16:30</t>
         </is>
       </c>
       <c r="AF127" t="inlineStr">
         <is>
-          <t>13.6</t>
+          <t>13.1</t>
         </is>
       </c>
       <c r="AG127" t="inlineStr">
         <is>
-          <t>13.8</t>
+          <t>13.3</t>
         </is>
       </c>
       <c r="AH127" t="inlineStr">
         <is>
+          <t>12.9</t>
+        </is>
+      </c>
+      <c r="AI127" t="inlineStr">
+        <is>
+          <t>63</t>
+        </is>
+      </c>
+      <c r="AJ127" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="AK127" t="inlineStr">
+        <is>
+          <t>10.1</t>
+        </is>
+      </c>
+      <c r="AL127" t="inlineStr">
+        <is>
+          <t>162</t>
+        </is>
+      </c>
+      <c r="AM127" t="inlineStr">
+        <is>
+          <t>16:00 - 16:30</t>
+        </is>
+      </c>
+      <c r="AN127" t="inlineStr">
+        <is>
+          <t>13.1</t>
+        </is>
+      </c>
+      <c r="AO127" t="inlineStr">
+        <is>
           <t>13.3</t>
         </is>
       </c>
-      <c r="AI127" t="inlineStr">
-        <is>
-          <t>62</t>
-        </is>
-      </c>
-      <c r="AJ127" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="AK127" t="inlineStr">
-        <is>
-          <t>12.6</t>
-        </is>
-      </c>
-      <c r="AL127" t="inlineStr">
-        <is>
-          <t>165</t>
-        </is>
-      </c>
-      <c r="AM127" t="inlineStr">
-        <is>
-          <t>15:30 - 16:00</t>
-        </is>
-      </c>
-      <c r="AN127" t="inlineStr">
-        <is>
-          <t>13.6</t>
-        </is>
-      </c>
-      <c r="AO127" t="inlineStr">
-        <is>
-          <t>13.8</t>
-        </is>
-      </c>
       <c r="AP127" t="inlineStr">
         <is>
-          <t>13.3</t>
+          <t>12.9</t>
         </is>
       </c>
       <c r="AQ127" t="inlineStr">
         <is>
-          <t>62</t>
+          <t>63</t>
         </is>
       </c>
       <c r="AR127" t="inlineStr">
@@ -28767,42 +28767,42 @@
       </c>
       <c r="AS127" t="inlineStr">
         <is>
-          <t>12.6</t>
+          <t>10.1</t>
         </is>
       </c>
       <c r="AT127" t="inlineStr">
         <is>
-          <t>165</t>
+          <t>162</t>
         </is>
       </c>
       <c r="AU127" t="inlineStr">
         <is>
-          <t>22.3</t>
+          <t>18.0</t>
         </is>
       </c>
       <c r="AV127" t="inlineStr">
         <is>
-          <t>990.3</t>
+          <t>990.4</t>
         </is>
       </c>
       <c r="AW127" t="inlineStr">
         <is>
-          <t>190</t>
+          <t>99</t>
         </is>
       </c>
       <c r="AX127" t="inlineStr">
         <is>
-          <t>22.3</t>
+          <t>18.0</t>
         </is>
       </c>
       <c r="AY127" t="inlineStr">
         <is>
-          <t>990.3</t>
+          <t>990.4</t>
         </is>
       </c>
       <c r="AZ127" t="inlineStr">
         <is>
-          <t>190</t>
+          <t>99</t>
         </is>
       </c>
       <c r="BA127" t="inlineStr"/>
@@ -28845,7 +28845,7 @@
       </c>
       <c r="H128" t="inlineStr">
         <is>
-          <t>2026-02-04 16:36:22</t>
+          <t>2026-02-04 16:58:43</t>
         </is>
       </c>
       <c r="I128" t="inlineStr">
@@ -29078,7 +29078,7 @@
       </c>
       <c r="H129" t="inlineStr">
         <is>
-          <t>2026-02-04 16:36:22</t>
+          <t>2026-02-04 16:58:43</t>
         </is>
       </c>
       <c r="I129" t="inlineStr">
@@ -29311,7 +29311,7 @@
       </c>
       <c r="H130" t="inlineStr">
         <is>
-          <t>2026-02-04 16:36:22</t>
+          <t>2026-02-04 16:58:43</t>
         </is>
       </c>
       <c r="I130" t="inlineStr">
@@ -29544,7 +29544,7 @@
       </c>
       <c r="H131" t="inlineStr">
         <is>
-          <t>2026-02-04 16:36:22</t>
+          <t>2026-02-04 16:58:43</t>
         </is>
       </c>
       <c r="I131" t="inlineStr">
@@ -29762,7 +29762,7 @@
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>15:30 - 16:00</t>
+          <t>16:00 - 16:30</t>
         </is>
       </c>
       <c r="F132" t="inlineStr">
@@ -29777,7 +29777,7 @@
       </c>
       <c r="H132" t="inlineStr">
         <is>
-          <t>2026-02-04 16:36:25</t>
+          <t>2026-02-04 16:58:45</t>
         </is>
       </c>
       <c r="I132" t="inlineStr">
@@ -29800,7 +29800,7 @@
       </c>
       <c r="M132" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>239</t>
         </is>
       </c>
       <c r="N132" t="inlineStr"/>
@@ -29808,12 +29808,12 @@
       <c r="P132" t="inlineStr"/>
       <c r="Q132" t="inlineStr">
         <is>
-          <t>70</t>
+          <t>72</t>
         </is>
       </c>
       <c r="R132" t="inlineStr">
         <is>
-          <t>990.8</t>
+          <t>991.2</t>
         </is>
       </c>
       <c r="S132" t="inlineStr">
@@ -29823,62 +29823,62 @@
       </c>
       <c r="T132" t="inlineStr">
         <is>
-          <t>15:30 - 16:00</t>
+          <t>16:00 - 16:30</t>
         </is>
       </c>
       <c r="U132" t="inlineStr"/>
       <c r="V132" t="inlineStr">
         <is>
+          <t>7.2</t>
+        </is>
+      </c>
+      <c r="W132" t="inlineStr">
+        <is>
+          <t>6.9</t>
+        </is>
+      </c>
+      <c r="X132" t="inlineStr">
+        <is>
           <t>7.6</t>
         </is>
       </c>
-      <c r="W132" t="inlineStr">
-        <is>
-          <t>7.5</t>
-        </is>
-      </c>
-      <c r="X132" t="inlineStr">
-        <is>
-          <t>7.7</t>
-        </is>
-      </c>
       <c r="Y132" t="inlineStr">
         <is>
-          <t>15.5</t>
+          <t>13.7</t>
         </is>
       </c>
       <c r="Z132" t="inlineStr"/>
       <c r="AA132" t="inlineStr"/>
       <c r="AB132" t="inlineStr">
         <is>
-          <t>32.0</t>
+          <t>29.5</t>
         </is>
       </c>
       <c r="AC132" t="inlineStr"/>
       <c r="AD132" t="inlineStr"/>
       <c r="AE132" t="inlineStr">
         <is>
-          <t>15:30 - 16:00</t>
+          <t>16:00 - 16:30</t>
         </is>
       </c>
       <c r="AF132" t="inlineStr">
         <is>
+          <t>7.2</t>
+        </is>
+      </c>
+      <c r="AG132" t="inlineStr">
+        <is>
           <t>7.6</t>
         </is>
       </c>
-      <c r="AG132" t="inlineStr">
-        <is>
-          <t>7.7</t>
-        </is>
-      </c>
       <c r="AH132" t="inlineStr">
         <is>
-          <t>7.5</t>
+          <t>6.9</t>
         </is>
       </c>
       <c r="AI132" t="inlineStr">
         <is>
-          <t>70</t>
+          <t>72</t>
         </is>
       </c>
       <c r="AJ132" t="inlineStr">
@@ -29888,37 +29888,37 @@
       </c>
       <c r="AK132" t="inlineStr">
         <is>
-          <t>15.5</t>
+          <t>13.7</t>
         </is>
       </c>
       <c r="AL132" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>239</t>
         </is>
       </c>
       <c r="AM132" t="inlineStr">
         <is>
-          <t>15:30 - 16:00</t>
+          <t>16:00 - 16:30</t>
         </is>
       </c>
       <c r="AN132" t="inlineStr">
         <is>
+          <t>7.2</t>
+        </is>
+      </c>
+      <c r="AO132" t="inlineStr">
+        <is>
           <t>7.6</t>
         </is>
       </c>
-      <c r="AO132" t="inlineStr">
-        <is>
-          <t>7.7</t>
-        </is>
-      </c>
       <c r="AP132" t="inlineStr">
         <is>
-          <t>7.5</t>
+          <t>6.9</t>
         </is>
       </c>
       <c r="AQ132" t="inlineStr">
         <is>
-          <t>70</t>
+          <t>72</t>
         </is>
       </c>
       <c r="AR132" t="inlineStr">
@@ -29928,33 +29928,33 @@
       </c>
       <c r="AS132" t="inlineStr">
         <is>
-          <t>15.5</t>
+          <t>13.7</t>
         </is>
       </c>
       <c r="AT132" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>239</t>
         </is>
       </c>
       <c r="AU132" t="inlineStr">
         <is>
-          <t>32.0</t>
+          <t>29.5</t>
         </is>
       </c>
       <c r="AV132" t="inlineStr">
         <is>
-          <t>990.8</t>
+          <t>991.2</t>
         </is>
       </c>
       <c r="AW132" t="inlineStr"/>
       <c r="AX132" t="inlineStr">
         <is>
-          <t>32.0</t>
+          <t>29.5</t>
         </is>
       </c>
       <c r="AY132" t="inlineStr">
         <is>
-          <t>990.8</t>
+          <t>991.2</t>
         </is>
       </c>
       <c r="AZ132" t="inlineStr"/>
@@ -29998,7 +29998,7 @@
       </c>
       <c r="H133" t="inlineStr">
         <is>
-          <t>2026-02-04 16:36:26</t>
+          <t>2026-02-04 16:58:47</t>
         </is>
       </c>
       <c r="I133" t="inlineStr">
@@ -30219,7 +30219,7 @@
       </c>
       <c r="H134" t="inlineStr">
         <is>
-          <t>2026-02-04 16:36:26</t>
+          <t>2026-02-04 16:58:47</t>
         </is>
       </c>
       <c r="I134" t="inlineStr">
@@ -30440,7 +30440,7 @@
       </c>
       <c r="H135" t="inlineStr">
         <is>
-          <t>2026-02-04 16:36:26</t>
+          <t>2026-02-04 16:58:47</t>
         </is>
       </c>
       <c r="I135" t="inlineStr">
@@ -30661,7 +30661,7 @@
       </c>
       <c r="H136" t="inlineStr">
         <is>
-          <t>2026-02-04 16:36:26</t>
+          <t>2026-02-04 16:58:47</t>
         </is>
       </c>
       <c r="I136" t="inlineStr">
@@ -30867,7 +30867,7 @@
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>15:30 - 16:00</t>
+          <t>16:00 - 16:30</t>
         </is>
       </c>
       <c r="F137" t="inlineStr">
@@ -30882,7 +30882,7 @@
       </c>
       <c r="H137" t="inlineStr">
         <is>
-          <t>2026-02-04 16:36:28</t>
+          <t>2026-02-04 16:58:50</t>
         </is>
       </c>
       <c r="I137" t="inlineStr">
@@ -30905,7 +30905,7 @@
       </c>
       <c r="M137" t="inlineStr">
         <is>
-          <t>254</t>
+          <t>277</t>
         </is>
       </c>
       <c r="N137" t="inlineStr"/>
@@ -30913,7 +30913,7 @@
       <c r="P137" t="inlineStr"/>
       <c r="Q137" t="inlineStr">
         <is>
-          <t>52</t>
+          <t>55</t>
         </is>
       </c>
       <c r="R137" t="inlineStr"/>
@@ -30924,106 +30924,106 @@
       </c>
       <c r="T137" t="inlineStr">
         <is>
-          <t>15:30 - 16:00</t>
+          <t>16:00 - 16:30</t>
         </is>
       </c>
       <c r="U137" t="inlineStr">
         <is>
-          <t>196</t>
+          <t>82</t>
         </is>
       </c>
       <c r="V137" t="inlineStr">
         <is>
-          <t>13.2</t>
+          <t>12.4</t>
         </is>
       </c>
       <c r="W137" t="inlineStr">
         <is>
+          <t>12.1</t>
+        </is>
+      </c>
+      <c r="X137" t="inlineStr">
+        <is>
           <t>12.9</t>
         </is>
       </c>
-      <c r="X137" t="inlineStr">
-        <is>
-          <t>13.4</t>
-        </is>
-      </c>
       <c r="Y137" t="inlineStr">
         <is>
-          <t>11.2</t>
+          <t>10.1</t>
         </is>
       </c>
       <c r="Z137" t="inlineStr"/>
       <c r="AA137" t="inlineStr"/>
       <c r="AB137" t="inlineStr">
         <is>
-          <t>21.2</t>
+          <t>22.7</t>
         </is>
       </c>
       <c r="AC137" t="inlineStr"/>
       <c r="AD137" t="inlineStr"/>
       <c r="AE137" t="inlineStr">
         <is>
-          <t>15:30 - 16:00</t>
+          <t>16:00 - 16:30</t>
         </is>
       </c>
       <c r="AF137" t="inlineStr">
         <is>
-          <t>13.2</t>
+          <t>12.4</t>
         </is>
       </c>
       <c r="AG137" t="inlineStr">
         <is>
-          <t>13.4</t>
+          <t>12.9</t>
         </is>
       </c>
       <c r="AH137" t="inlineStr">
         <is>
+          <t>12.1</t>
+        </is>
+      </c>
+      <c r="AI137" t="inlineStr">
+        <is>
+          <t>55</t>
+        </is>
+      </c>
+      <c r="AJ137" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="AK137" t="inlineStr">
+        <is>
+          <t>10.1</t>
+        </is>
+      </c>
+      <c r="AL137" t="inlineStr">
+        <is>
+          <t>277</t>
+        </is>
+      </c>
+      <c r="AM137" t="inlineStr">
+        <is>
+          <t>16:00 - 16:30</t>
+        </is>
+      </c>
+      <c r="AN137" t="inlineStr">
+        <is>
+          <t>12.4</t>
+        </is>
+      </c>
+      <c r="AO137" t="inlineStr">
+        <is>
           <t>12.9</t>
         </is>
       </c>
-      <c r="AI137" t="inlineStr">
-        <is>
-          <t>52</t>
-        </is>
-      </c>
-      <c r="AJ137" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="AK137" t="inlineStr">
-        <is>
-          <t>11.2</t>
-        </is>
-      </c>
-      <c r="AL137" t="inlineStr">
-        <is>
-          <t>254</t>
-        </is>
-      </c>
-      <c r="AM137" t="inlineStr">
-        <is>
-          <t>15:30 - 16:00</t>
-        </is>
-      </c>
-      <c r="AN137" t="inlineStr">
-        <is>
-          <t>13.2</t>
-        </is>
-      </c>
-      <c r="AO137" t="inlineStr">
-        <is>
-          <t>13.4</t>
-        </is>
-      </c>
       <c r="AP137" t="inlineStr">
         <is>
-          <t>12.9</t>
+          <t>12.1</t>
         </is>
       </c>
       <c r="AQ137" t="inlineStr">
         <is>
-          <t>52</t>
+          <t>55</t>
         </is>
       </c>
       <c r="AR137" t="inlineStr">
@@ -31033,33 +31033,33 @@
       </c>
       <c r="AS137" t="inlineStr">
         <is>
-          <t>11.2</t>
+          <t>10.1</t>
         </is>
       </c>
       <c r="AT137" t="inlineStr">
         <is>
-          <t>254</t>
+          <t>277</t>
         </is>
       </c>
       <c r="AU137" t="inlineStr">
         <is>
-          <t>21.2</t>
+          <t>22.7</t>
         </is>
       </c>
       <c r="AV137" t="inlineStr">
         <is>
-          <t>196</t>
+          <t>82</t>
         </is>
       </c>
       <c r="AW137" t="inlineStr"/>
       <c r="AX137" t="inlineStr">
         <is>
-          <t>21.2</t>
+          <t>22.7</t>
         </is>
       </c>
       <c r="AY137" t="inlineStr">
         <is>
-          <t>196</t>
+          <t>82</t>
         </is>
       </c>
       <c r="AZ137" t="inlineStr"/>
@@ -31103,7 +31103,7 @@
       </c>
       <c r="H138" t="inlineStr">
         <is>
-          <t>2026-02-04 16:36:30</t>
+          <t>2026-02-04 16:58:51</t>
         </is>
       </c>
       <c r="I138" t="inlineStr">
@@ -31324,7 +31324,7 @@
       </c>
       <c r="H139" t="inlineStr">
         <is>
-          <t>2026-02-04 16:36:30</t>
+          <t>2026-02-04 16:58:51</t>
         </is>
       </c>
       <c r="I139" t="inlineStr">
@@ -31545,7 +31545,7 @@
       </c>
       <c r="H140" t="inlineStr">
         <is>
-          <t>2026-02-04 16:36:30</t>
+          <t>2026-02-04 16:58:51</t>
         </is>
       </c>
       <c r="I140" t="inlineStr">
@@ -31766,7 +31766,7 @@
       </c>
       <c r="H141" t="inlineStr">
         <is>
-          <t>2026-02-04 16:36:30</t>
+          <t>2026-02-04 16:58:51</t>
         </is>
       </c>
       <c r="I141" t="inlineStr">
@@ -31972,7 +31972,7 @@
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>15:30 - 16:00</t>
+          <t>16:00 - 16:30</t>
         </is>
       </c>
       <c r="F142" t="inlineStr">
@@ -31987,7 +31987,7 @@
       </c>
       <c r="H142" t="inlineStr">
         <is>
-          <t>2026-02-04 16:36:33</t>
+          <t>2026-02-04 16:58:54</t>
         </is>
       </c>
       <c r="I142" t="inlineStr">
@@ -32010,7 +32010,7 @@
       </c>
       <c r="M142" t="inlineStr">
         <is>
-          <t>317</t>
+          <t>308</t>
         </is>
       </c>
       <c r="N142" t="inlineStr"/>
@@ -32022,7 +32022,7 @@
       </c>
       <c r="Q142" t="inlineStr">
         <is>
-          <t>69</t>
+          <t>68</t>
         </is>
       </c>
       <c r="R142" t="inlineStr"/>
@@ -32033,12 +32033,12 @@
       </c>
       <c r="T142" t="inlineStr">
         <is>
-          <t>15:30 - 16:00</t>
+          <t>16:00 - 16:30</t>
         </is>
       </c>
       <c r="U142" t="inlineStr">
         <is>
-          <t>56</t>
+          <t>26</t>
         </is>
       </c>
       <c r="V142" t="inlineStr">
@@ -32048,31 +32048,31 @@
       </c>
       <c r="W142" t="inlineStr">
         <is>
-          <t>-3.3</t>
+          <t>-3.4</t>
         </is>
       </c>
       <c r="X142" t="inlineStr">
         <is>
-          <t>-3.0</t>
+          <t>-2.8</t>
         </is>
       </c>
       <c r="Y142" t="inlineStr">
         <is>
-          <t>13.0</t>
+          <t>13.3</t>
         </is>
       </c>
       <c r="Z142" t="inlineStr"/>
       <c r="AA142" t="inlineStr"/>
       <c r="AB142" t="inlineStr">
         <is>
-          <t>34.9</t>
+          <t>34.6</t>
         </is>
       </c>
       <c r="AC142" t="inlineStr"/>
       <c r="AD142" t="inlineStr"/>
       <c r="AE142" t="inlineStr">
         <is>
-          <t>15:30 - 16:00</t>
+          <t>16:00 - 16:30</t>
         </is>
       </c>
       <c r="AF142" t="inlineStr">
@@ -32082,17 +32082,17 @@
       </c>
       <c r="AG142" t="inlineStr">
         <is>
-          <t>-3.0</t>
+          <t>-2.8</t>
         </is>
       </c>
       <c r="AH142" t="inlineStr">
         <is>
-          <t>-3.3</t>
+          <t>-3.4</t>
         </is>
       </c>
       <c r="AI142" t="inlineStr">
         <is>
-          <t>69</t>
+          <t>68</t>
         </is>
       </c>
       <c r="AJ142" t="inlineStr">
@@ -32107,12 +32107,12 @@
       </c>
       <c r="AL142" t="inlineStr">
         <is>
-          <t>13.0</t>
+          <t>13.3</t>
         </is>
       </c>
       <c r="AM142" t="inlineStr">
         <is>
-          <t>15:30 - 16:00</t>
+          <t>16:00 - 16:30</t>
         </is>
       </c>
       <c r="AN142" t="inlineStr">
@@ -32122,17 +32122,17 @@
       </c>
       <c r="AO142" t="inlineStr">
         <is>
-          <t>-3.0</t>
+          <t>-2.8</t>
         </is>
       </c>
       <c r="AP142" t="inlineStr">
         <is>
-          <t>-3.3</t>
+          <t>-3.4</t>
         </is>
       </c>
       <c r="AQ142" t="inlineStr">
         <is>
-          <t>69</t>
+          <t>68</t>
         </is>
       </c>
       <c r="AR142" t="inlineStr">
@@ -32147,37 +32147,37 @@
       </c>
       <c r="AT142" t="inlineStr">
         <is>
-          <t>13.0</t>
+          <t>13.3</t>
         </is>
       </c>
       <c r="AU142" t="inlineStr">
         <is>
-          <t>317</t>
+          <t>308</t>
         </is>
       </c>
       <c r="AV142" t="inlineStr">
         <is>
-          <t>34.9</t>
+          <t>34.6</t>
         </is>
       </c>
       <c r="AW142" t="inlineStr">
         <is>
-          <t>56</t>
+          <t>26</t>
         </is>
       </c>
       <c r="AX142" t="inlineStr">
         <is>
-          <t>317</t>
+          <t>308</t>
         </is>
       </c>
       <c r="AY142" t="inlineStr">
         <is>
-          <t>34.9</t>
+          <t>34.6</t>
         </is>
       </c>
       <c r="AZ142" t="inlineStr">
         <is>
-          <t>56</t>
+          <t>26</t>
         </is>
       </c>
       <c r="BA142" t="inlineStr"/>
@@ -32220,7 +32220,7 @@
       </c>
       <c r="H143" t="inlineStr">
         <is>
-          <t>2026-02-04 16:36:35</t>
+          <t>2026-02-04 16:58:55</t>
         </is>
       </c>
       <c r="I143" t="inlineStr">
@@ -32453,7 +32453,7 @@
       </c>
       <c r="H144" t="inlineStr">
         <is>
-          <t>2026-02-04 16:36:35</t>
+          <t>2026-02-04 16:58:55</t>
         </is>
       </c>
       <c r="I144" t="inlineStr">
@@ -32686,7 +32686,7 @@
       </c>
       <c r="H145" t="inlineStr">
         <is>
-          <t>2026-02-04 16:36:35</t>
+          <t>2026-02-04 16:58:55</t>
         </is>
       </c>
       <c r="I145" t="inlineStr">
@@ -32919,7 +32919,7 @@
       </c>
       <c r="H146" t="inlineStr">
         <is>
-          <t>2026-02-04 16:36:35</t>
+          <t>2026-02-04 16:58:55</t>
         </is>
       </c>
       <c r="I146" t="inlineStr">
@@ -33137,7 +33137,7 @@
       </c>
       <c r="E147" t="inlineStr">
         <is>
-          <t>15:30 - 16:00</t>
+          <t>16:00 - 16:30</t>
         </is>
       </c>
       <c r="F147" t="inlineStr">
@@ -33152,7 +33152,7 @@
       </c>
       <c r="H147" t="inlineStr">
         <is>
-          <t>2026-02-04 16:36:37</t>
+          <t>2026-02-04 16:58:58</t>
         </is>
       </c>
       <c r="I147" t="inlineStr">
@@ -33183,12 +33183,12 @@
       </c>
       <c r="Q147" t="inlineStr">
         <is>
-          <t>69</t>
+          <t>71</t>
         </is>
       </c>
       <c r="R147" t="inlineStr">
         <is>
-          <t>992.0</t>
+          <t>992.2</t>
         </is>
       </c>
       <c r="S147" t="inlineStr">
@@ -33198,23 +33198,23 @@
       </c>
       <c r="T147" t="inlineStr">
         <is>
-          <t>15:30 - 16:00</t>
+          <t>16:00 - 16:30</t>
         </is>
       </c>
       <c r="U147" t="inlineStr"/>
       <c r="V147" t="inlineStr">
         <is>
+          <t>7.9</t>
+        </is>
+      </c>
+      <c r="W147" t="inlineStr">
+        <is>
+          <t>7.6</t>
+        </is>
+      </c>
+      <c r="X147" t="inlineStr">
+        <is>
           <t>8.1</t>
-        </is>
-      </c>
-      <c r="W147" t="inlineStr">
-        <is>
-          <t>7.9</t>
-        </is>
-      </c>
-      <c r="X147" t="inlineStr">
-        <is>
-          <t>8.2</t>
         </is>
       </c>
       <c r="Y147" t="inlineStr"/>
@@ -33225,82 +33225,82 @@
       <c r="AD147" t="inlineStr"/>
       <c r="AE147" t="inlineStr">
         <is>
-          <t>15:30 - 16:00</t>
+          <t>16:00 - 16:30</t>
         </is>
       </c>
       <c r="AF147" t="inlineStr">
         <is>
+          <t>7.9</t>
+        </is>
+      </c>
+      <c r="AG147" t="inlineStr">
+        <is>
           <t>8.1</t>
         </is>
       </c>
-      <c r="AG147" t="inlineStr">
-        <is>
-          <t>8.2</t>
-        </is>
-      </c>
       <c r="AH147" t="inlineStr">
         <is>
+          <t>7.6</t>
+        </is>
+      </c>
+      <c r="AI147" t="inlineStr">
+        <is>
+          <t>71</t>
+        </is>
+      </c>
+      <c r="AJ147" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="AK147" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AL147" t="inlineStr">
+        <is>
+          <t>992.2</t>
+        </is>
+      </c>
+      <c r="AM147" t="inlineStr">
+        <is>
+          <t>16:00 - 16:30</t>
+        </is>
+      </c>
+      <c r="AN147" t="inlineStr">
+        <is>
           <t>7.9</t>
         </is>
       </c>
-      <c r="AI147" t="inlineStr">
-        <is>
-          <t>69</t>
-        </is>
-      </c>
-      <c r="AJ147" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="AK147" t="inlineStr">
+      <c r="AO147" t="inlineStr">
+        <is>
+          <t>8.1</t>
+        </is>
+      </c>
+      <c r="AP147" t="inlineStr">
+        <is>
+          <t>7.6</t>
+        </is>
+      </c>
+      <c r="AQ147" t="inlineStr">
+        <is>
+          <t>71</t>
+        </is>
+      </c>
+      <c r="AR147" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="AS147" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="AL147" t="inlineStr">
-        <is>
-          <t>992.0</t>
-        </is>
-      </c>
-      <c r="AM147" t="inlineStr">
-        <is>
-          <t>15:30 - 16:00</t>
-        </is>
-      </c>
-      <c r="AN147" t="inlineStr">
-        <is>
-          <t>8.1</t>
-        </is>
-      </c>
-      <c r="AO147" t="inlineStr">
-        <is>
-          <t>8.2</t>
-        </is>
-      </c>
-      <c r="AP147" t="inlineStr">
-        <is>
-          <t>7.9</t>
-        </is>
-      </c>
-      <c r="AQ147" t="inlineStr">
-        <is>
-          <t>69</t>
-        </is>
-      </c>
-      <c r="AR147" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="AS147" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
       <c r="AT147" t="inlineStr">
         <is>
-          <t>992.0</t>
+          <t>992.2</t>
         </is>
       </c>
       <c r="AU147" t="inlineStr"/>
@@ -33349,7 +33349,7 @@
       </c>
       <c r="H148" t="inlineStr">
         <is>
-          <t>2026-02-04 16:36:39</t>
+          <t>2026-02-04 16:58:59</t>
         </is>
       </c>
       <c r="I148" t="inlineStr">
@@ -33546,7 +33546,7 @@
       </c>
       <c r="H149" t="inlineStr">
         <is>
-          <t>2026-02-04 16:36:39</t>
+          <t>2026-02-04 16:58:59</t>
         </is>
       </c>
       <c r="I149" t="inlineStr">
@@ -33743,7 +33743,7 @@
       </c>
       <c r="H150" t="inlineStr">
         <is>
-          <t>2026-02-04 16:36:39</t>
+          <t>2026-02-04 16:58:59</t>
         </is>
       </c>
       <c r="I150" t="inlineStr">
@@ -33940,7 +33940,7 @@
       </c>
       <c r="H151" t="inlineStr">
         <is>
-          <t>2026-02-04 16:36:39</t>
+          <t>2026-02-04 16:58:59</t>
         </is>
       </c>
       <c r="I151" t="inlineStr">
@@ -34122,7 +34122,7 @@
       </c>
       <c r="E152" t="inlineStr">
         <is>
-          <t>15:30 - 16:00</t>
+          <t>16:00 - 16:30</t>
         </is>
       </c>
       <c r="F152" t="inlineStr">
@@ -34137,7 +34137,7 @@
       </c>
       <c r="H152" t="inlineStr">
         <is>
-          <t>2026-02-04 16:36:42</t>
+          <t>2026-02-04 16:59:02</t>
         </is>
       </c>
       <c r="I152" t="inlineStr">
@@ -34160,7 +34160,7 @@
       </c>
       <c r="M152" t="inlineStr">
         <is>
-          <t>226</t>
+          <t>244</t>
         </is>
       </c>
       <c r="N152" t="inlineStr"/>
@@ -34168,7 +34168,7 @@
       <c r="P152" t="inlineStr"/>
       <c r="Q152" t="inlineStr">
         <is>
-          <t>60</t>
+          <t>58</t>
         </is>
       </c>
       <c r="R152" t="inlineStr">
@@ -34183,66 +34183,66 @@
       </c>
       <c r="T152" t="inlineStr">
         <is>
-          <t>15:30 - 16:00</t>
+          <t>16:00 - 16:30</t>
         </is>
       </c>
       <c r="U152" t="inlineStr">
         <is>
-          <t>213</t>
+          <t>101</t>
         </is>
       </c>
       <c r="V152" t="inlineStr">
         <is>
-          <t>15.1</t>
+          <t>14.9</t>
         </is>
       </c>
       <c r="W152" t="inlineStr">
         <is>
-          <t>14.6</t>
+          <t>14.5</t>
         </is>
       </c>
       <c r="X152" t="inlineStr">
         <is>
-          <t>15.4</t>
+          <t>15.2</t>
         </is>
       </c>
       <c r="Y152" t="inlineStr">
         <is>
-          <t>7.2</t>
+          <t>7.6</t>
         </is>
       </c>
       <c r="Z152" t="inlineStr"/>
       <c r="AA152" t="inlineStr"/>
       <c r="AB152" t="inlineStr">
         <is>
-          <t>14.4</t>
+          <t>19.1</t>
         </is>
       </c>
       <c r="AC152" t="inlineStr"/>
       <c r="AD152" t="inlineStr"/>
       <c r="AE152" t="inlineStr">
         <is>
-          <t>15:30 - 16:00</t>
+          <t>16:00 - 16:30</t>
         </is>
       </c>
       <c r="AF152" t="inlineStr">
         <is>
-          <t>15.1</t>
+          <t>14.9</t>
         </is>
       </c>
       <c r="AG152" t="inlineStr">
         <is>
-          <t>15.4</t>
+          <t>15.2</t>
         </is>
       </c>
       <c r="AH152" t="inlineStr">
         <is>
-          <t>14.6</t>
+          <t>14.5</t>
         </is>
       </c>
       <c r="AI152" t="inlineStr">
         <is>
-          <t>60</t>
+          <t>58</t>
         </is>
       </c>
       <c r="AJ152" t="inlineStr">
@@ -34252,37 +34252,37 @@
       </c>
       <c r="AK152" t="inlineStr">
         <is>
-          <t>7.2</t>
+          <t>7.6</t>
         </is>
       </c>
       <c r="AL152" t="inlineStr">
         <is>
-          <t>226</t>
+          <t>244</t>
         </is>
       </c>
       <c r="AM152" t="inlineStr">
         <is>
-          <t>15:30 - 16:00</t>
+          <t>16:00 - 16:30</t>
         </is>
       </c>
       <c r="AN152" t="inlineStr">
         <is>
-          <t>15.1</t>
+          <t>14.9</t>
         </is>
       </c>
       <c r="AO152" t="inlineStr">
         <is>
-          <t>15.4</t>
+          <t>15.2</t>
         </is>
       </c>
       <c r="AP152" t="inlineStr">
         <is>
-          <t>14.6</t>
+          <t>14.5</t>
         </is>
       </c>
       <c r="AQ152" t="inlineStr">
         <is>
-          <t>60</t>
+          <t>58</t>
         </is>
       </c>
       <c r="AR152" t="inlineStr">
@@ -34292,17 +34292,17 @@
       </c>
       <c r="AS152" t="inlineStr">
         <is>
-          <t>7.2</t>
+          <t>7.6</t>
         </is>
       </c>
       <c r="AT152" t="inlineStr">
         <is>
-          <t>226</t>
+          <t>244</t>
         </is>
       </c>
       <c r="AU152" t="inlineStr">
         <is>
-          <t>14.4</t>
+          <t>19.1</t>
         </is>
       </c>
       <c r="AV152" t="inlineStr">
@@ -34312,12 +34312,12 @@
       </c>
       <c r="AW152" t="inlineStr">
         <is>
-          <t>213</t>
+          <t>101</t>
         </is>
       </c>
       <c r="AX152" t="inlineStr">
         <is>
-          <t>14.4</t>
+          <t>19.1</t>
         </is>
       </c>
       <c r="AY152" t="inlineStr">
@@ -34327,7 +34327,7 @@
       </c>
       <c r="AZ152" t="inlineStr">
         <is>
-          <t>213</t>
+          <t>101</t>
         </is>
       </c>
       <c r="BA152" t="inlineStr"/>
@@ -34370,7 +34370,7 @@
       </c>
       <c r="H153" t="inlineStr">
         <is>
-          <t>2026-02-04 16:36:44</t>
+          <t>2026-02-04 16:59:03</t>
         </is>
       </c>
       <c r="I153" t="inlineStr">
@@ -34603,7 +34603,7 @@
       </c>
       <c r="H154" t="inlineStr">
         <is>
-          <t>2026-02-04 16:36:44</t>
+          <t>2026-02-04 16:59:03</t>
         </is>
       </c>
       <c r="I154" t="inlineStr">
@@ -34836,7 +34836,7 @@
       </c>
       <c r="H155" t="inlineStr">
         <is>
-          <t>2026-02-04 16:36:44</t>
+          <t>2026-02-04 16:59:03</t>
         </is>
       </c>
       <c r="I155" t="inlineStr">
@@ -35069,7 +35069,7 @@
       </c>
       <c r="H156" t="inlineStr">
         <is>
-          <t>2026-02-04 16:36:44</t>
+          <t>2026-02-04 16:59:03</t>
         </is>
       </c>
       <c r="I156" t="inlineStr">
@@ -35287,7 +35287,7 @@
       </c>
       <c r="E157" t="inlineStr">
         <is>
-          <t>15:30 - 16:00</t>
+          <t>16:00 - 16:30</t>
         </is>
       </c>
       <c r="F157" t="inlineStr">
@@ -35302,7 +35302,7 @@
       </c>
       <c r="H157" t="inlineStr">
         <is>
-          <t>2026-02-04 16:36:46</t>
+          <t>2026-02-04 16:59:05</t>
         </is>
       </c>
       <c r="I157" t="inlineStr">
@@ -35329,7 +35329,7 @@
       <c r="P157" t="inlineStr"/>
       <c r="Q157" t="inlineStr">
         <is>
-          <t>67</t>
+          <t>68</t>
         </is>
       </c>
       <c r="R157" t="inlineStr"/>
@@ -35340,18 +35340,18 @@
       </c>
       <c r="T157" t="inlineStr">
         <is>
-          <t>15:30 - 16:00</t>
+          <t>16:00 - 16:30</t>
         </is>
       </c>
       <c r="U157" t="inlineStr"/>
       <c r="V157" t="inlineStr">
         <is>
-          <t>13.4</t>
+          <t>13.1</t>
         </is>
       </c>
       <c r="W157" t="inlineStr">
         <is>
-          <t>13.3</t>
+          <t>12.7</t>
         </is>
       </c>
       <c r="X157" t="inlineStr">
@@ -35367,12 +35367,12 @@
       <c r="AD157" t="inlineStr"/>
       <c r="AE157" t="inlineStr">
         <is>
-          <t>15:30 - 16:00</t>
+          <t>16:00 - 16:30</t>
         </is>
       </c>
       <c r="AF157" t="inlineStr">
         <is>
-          <t>13.4</t>
+          <t>13.1</t>
         </is>
       </c>
       <c r="AG157" t="inlineStr">
@@ -35382,12 +35382,12 @@
       </c>
       <c r="AH157" t="inlineStr">
         <is>
-          <t>13.3</t>
+          <t>12.7</t>
         </is>
       </c>
       <c r="AI157" t="inlineStr">
         <is>
-          <t>67</t>
+          <t>68</t>
         </is>
       </c>
       <c r="AJ157" t="inlineStr">
@@ -35399,12 +35399,12 @@
       <c r="AL157" t="inlineStr"/>
       <c r="AM157" t="inlineStr">
         <is>
-          <t>15:30 - 16:00</t>
+          <t>16:00 - 16:30</t>
         </is>
       </c>
       <c r="AN157" t="inlineStr">
         <is>
-          <t>13.4</t>
+          <t>13.1</t>
         </is>
       </c>
       <c r="AO157" t="inlineStr">
@@ -35414,12 +35414,12 @@
       </c>
       <c r="AP157" t="inlineStr">
         <is>
-          <t>13.3</t>
+          <t>12.7</t>
         </is>
       </c>
       <c r="AQ157" t="inlineStr">
         <is>
-          <t>67</t>
+          <t>68</t>
         </is>
       </c>
       <c r="AR157" t="inlineStr">
@@ -35475,7 +35475,7 @@
       </c>
       <c r="H158" t="inlineStr">
         <is>
-          <t>2026-02-04 16:36:48</t>
+          <t>2026-02-04 16:59:07</t>
         </is>
       </c>
       <c r="I158" t="inlineStr">
@@ -35648,7 +35648,7 @@
       </c>
       <c r="H159" t="inlineStr">
         <is>
-          <t>2026-02-04 16:36:48</t>
+          <t>2026-02-04 16:59:07</t>
         </is>
       </c>
       <c r="I159" t="inlineStr">
@@ -35821,7 +35821,7 @@
       </c>
       <c r="H160" t="inlineStr">
         <is>
-          <t>2026-02-04 16:36:48</t>
+          <t>2026-02-04 16:59:07</t>
         </is>
       </c>
       <c r="I160" t="inlineStr">
@@ -35994,7 +35994,7 @@
       </c>
       <c r="H161" t="inlineStr">
         <is>
-          <t>2026-02-04 16:36:48</t>
+          <t>2026-02-04 16:59:07</t>
         </is>
       </c>
       <c r="I161" t="inlineStr">
@@ -36152,7 +36152,7 @@
       </c>
       <c r="E162" t="inlineStr">
         <is>
-          <t>15:30 - 16:00</t>
+          <t>16:00 - 16:30</t>
         </is>
       </c>
       <c r="F162" t="inlineStr">
@@ -36167,7 +36167,7 @@
       </c>
       <c r="H162" t="inlineStr">
         <is>
-          <t>2026-02-04 16:36:51</t>
+          <t>2026-02-04 16:59:09</t>
         </is>
       </c>
       <c r="I162" t="inlineStr">
@@ -36190,7 +36190,7 @@
       </c>
       <c r="M162" t="inlineStr">
         <is>
-          <t>246</t>
+          <t>280</t>
         </is>
       </c>
       <c r="N162" t="inlineStr"/>
@@ -36209,108 +36209,108 @@
       </c>
       <c r="T162" t="inlineStr">
         <is>
-          <t>15:30 - 16:00</t>
+          <t>16:00 - 16:30</t>
         </is>
       </c>
       <c r="U162" t="inlineStr">
         <is>
-          <t>194</t>
+          <t>110</t>
         </is>
       </c>
       <c r="V162" t="inlineStr">
         <is>
-          <t>8.9</t>
+          <t>8.6</t>
         </is>
       </c>
       <c r="W162" t="inlineStr">
         <is>
+          <t>8.4</t>
+        </is>
+      </c>
+      <c r="X162" t="inlineStr">
+        <is>
           <t>8.8</t>
         </is>
       </c>
-      <c r="X162" t="inlineStr">
-        <is>
-          <t>9.3</t>
-        </is>
-      </c>
       <c r="Y162" t="inlineStr">
         <is>
-          <t>8.6</t>
+          <t>3.6</t>
         </is>
       </c>
       <c r="Z162" t="inlineStr"/>
       <c r="AA162" t="inlineStr"/>
       <c r="AB162" t="inlineStr">
         <is>
-          <t>28.8</t>
+          <t>15.1</t>
         </is>
       </c>
       <c r="AC162" t="inlineStr"/>
       <c r="AD162" t="inlineStr"/>
       <c r="AE162" t="inlineStr">
         <is>
-          <t>15:30 - 16:00</t>
+          <t>16:00 - 16:30</t>
         </is>
       </c>
       <c r="AF162" t="inlineStr">
         <is>
-          <t>8.9</t>
+          <t>8.6</t>
         </is>
       </c>
       <c r="AG162" t="inlineStr">
         <is>
-          <t>9.3</t>
+          <t>8.8</t>
         </is>
       </c>
       <c r="AH162" t="inlineStr">
         <is>
+          <t>8.4</t>
+        </is>
+      </c>
+      <c r="AI162" t="inlineStr">
+        <is>
+          <t>68</t>
+        </is>
+      </c>
+      <c r="AJ162" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="AK162" t="inlineStr">
+        <is>
+          <t>3.6</t>
+        </is>
+      </c>
+      <c r="AL162" t="inlineStr">
+        <is>
+          <t>280</t>
+        </is>
+      </c>
+      <c r="AM162" t="inlineStr">
+        <is>
+          <t>16:00 - 16:30</t>
+        </is>
+      </c>
+      <c r="AN162" t="inlineStr">
+        <is>
+          <t>8.6</t>
+        </is>
+      </c>
+      <c r="AO162" t="inlineStr">
+        <is>
           <t>8.8</t>
         </is>
       </c>
-      <c r="AI162" t="inlineStr">
+      <c r="AP162" t="inlineStr">
+        <is>
+          <t>8.4</t>
+        </is>
+      </c>
+      <c r="AQ162" t="inlineStr">
         <is>
           <t>68</t>
         </is>
       </c>
-      <c r="AJ162" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="AK162" t="inlineStr">
-        <is>
-          <t>8.6</t>
-        </is>
-      </c>
-      <c r="AL162" t="inlineStr">
-        <is>
-          <t>246</t>
-        </is>
-      </c>
-      <c r="AM162" t="inlineStr">
-        <is>
-          <t>15:30 - 16:00</t>
-        </is>
-      </c>
-      <c r="AN162" t="inlineStr">
-        <is>
-          <t>8.9</t>
-        </is>
-      </c>
-      <c r="AO162" t="inlineStr">
-        <is>
-          <t>9.3</t>
-        </is>
-      </c>
-      <c r="AP162" t="inlineStr">
-        <is>
-          <t>8.8</t>
-        </is>
-      </c>
-      <c r="AQ162" t="inlineStr">
-        <is>
-          <t>68</t>
-        </is>
-      </c>
       <c r="AR162" t="inlineStr">
         <is>
           <t>0.0</t>
@@ -36318,33 +36318,33 @@
       </c>
       <c r="AS162" t="inlineStr">
         <is>
-          <t>8.6</t>
+          <t>3.6</t>
         </is>
       </c>
       <c r="AT162" t="inlineStr">
         <is>
-          <t>246</t>
+          <t>280</t>
         </is>
       </c>
       <c r="AU162" t="inlineStr">
         <is>
-          <t>28.8</t>
+          <t>15.1</t>
         </is>
       </c>
       <c r="AV162" t="inlineStr">
         <is>
-          <t>194</t>
+          <t>110</t>
         </is>
       </c>
       <c r="AW162" t="inlineStr"/>
       <c r="AX162" t="inlineStr">
         <is>
-          <t>28.8</t>
+          <t>15.1</t>
         </is>
       </c>
       <c r="AY162" t="inlineStr">
         <is>
-          <t>194</t>
+          <t>110</t>
         </is>
       </c>
       <c r="AZ162" t="inlineStr"/>
@@ -36388,7 +36388,7 @@
       </c>
       <c r="H163" t="inlineStr">
         <is>
-          <t>2026-02-04 16:36:53</t>
+          <t>2026-02-04 16:59:11</t>
         </is>
       </c>
       <c r="I163" t="inlineStr">
@@ -36609,7 +36609,7 @@
       </c>
       <c r="H164" t="inlineStr">
         <is>
-          <t>2026-02-04 16:36:53</t>
+          <t>2026-02-04 16:59:11</t>
         </is>
       </c>
       <c r="I164" t="inlineStr">
@@ -36830,7 +36830,7 @@
       </c>
       <c r="H165" t="inlineStr">
         <is>
-          <t>2026-02-04 16:36:53</t>
+          <t>2026-02-04 16:59:11</t>
         </is>
       </c>
       <c r="I165" t="inlineStr">
@@ -37051,7 +37051,7 @@
       </c>
       <c r="H166" t="inlineStr">
         <is>
-          <t>2026-02-04 16:36:53</t>
+          <t>2026-02-04 16:59:11</t>
         </is>
       </c>
       <c r="I166" t="inlineStr">
@@ -37257,7 +37257,7 @@
       </c>
       <c r="E167" t="inlineStr">
         <is>
-          <t>15:30 - 16:00</t>
+          <t>16:00 - 16:30</t>
         </is>
       </c>
       <c r="F167" t="inlineStr">
@@ -37272,7 +37272,7 @@
       </c>
       <c r="H167" t="inlineStr">
         <is>
-          <t>2026-02-04 16:36:55</t>
+          <t>2026-02-04 16:59:13</t>
         </is>
       </c>
       <c r="I167" t="inlineStr">
@@ -37302,17 +37302,17 @@
       <c r="O167" t="inlineStr"/>
       <c r="P167" t="inlineStr">
         <is>
-          <t>199</t>
+          <t>200</t>
         </is>
       </c>
       <c r="Q167" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>95</t>
         </is>
       </c>
       <c r="R167" t="inlineStr">
         <is>
-          <t>826.5</t>
+          <t>826.9</t>
         </is>
       </c>
       <c r="S167" t="inlineStr">
@@ -37322,27 +37322,27 @@
       </c>
       <c r="T167" t="inlineStr">
         <is>
-          <t>15:30 - 16:00</t>
+          <t>16:00 - 16:30</t>
         </is>
       </c>
       <c r="U167" t="inlineStr">
         <is>
-          <t>81</t>
+          <t>38</t>
         </is>
       </c>
       <c r="V167" t="inlineStr">
         <is>
-          <t>-2.0</t>
+          <t>-3.3</t>
         </is>
       </c>
       <c r="W167" t="inlineStr">
         <is>
+          <t>-4.1</t>
+        </is>
+      </c>
+      <c r="X167" t="inlineStr">
+        <is>
           <t>-2.7</t>
-        </is>
-      </c>
-      <c r="X167" t="inlineStr">
-        <is>
-          <t>-1.5</t>
         </is>
       </c>
       <c r="Y167" t="inlineStr">
@@ -37361,67 +37361,67 @@
       <c r="AD167" t="inlineStr"/>
       <c r="AE167" t="inlineStr">
         <is>
-          <t>15:30 - 16:00</t>
+          <t>16:00 - 16:30</t>
         </is>
       </c>
       <c r="AF167" t="inlineStr">
         <is>
-          <t>-2.0</t>
+          <t>-3.3</t>
         </is>
       </c>
       <c r="AG167" t="inlineStr">
         <is>
-          <t>-1.5</t>
+          <t>-2.7</t>
         </is>
       </c>
       <c r="AH167" t="inlineStr">
         <is>
+          <t>-4.1</t>
+        </is>
+      </c>
+      <c r="AI167" t="inlineStr">
+        <is>
+          <t>95</t>
+        </is>
+      </c>
+      <c r="AJ167" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="AK167" t="inlineStr">
+        <is>
+          <t>200</t>
+        </is>
+      </c>
+      <c r="AL167" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="AM167" t="inlineStr">
+        <is>
+          <t>16:00 - 16:30</t>
+        </is>
+      </c>
+      <c r="AN167" t="inlineStr">
+        <is>
+          <t>-3.3</t>
+        </is>
+      </c>
+      <c r="AO167" t="inlineStr">
+        <is>
           <t>-2.7</t>
         </is>
       </c>
-      <c r="AI167" t="inlineStr">
-        <is>
-          <t>96</t>
-        </is>
-      </c>
-      <c r="AJ167" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="AK167" t="inlineStr">
-        <is>
-          <t>199</t>
-        </is>
-      </c>
-      <c r="AL167" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="AM167" t="inlineStr">
-        <is>
-          <t>15:30 - 16:00</t>
-        </is>
-      </c>
-      <c r="AN167" t="inlineStr">
-        <is>
-          <t>-2.0</t>
-        </is>
-      </c>
-      <c r="AO167" t="inlineStr">
-        <is>
-          <t>-1.5</t>
-        </is>
-      </c>
       <c r="AP167" t="inlineStr">
         <is>
-          <t>-2.7</t>
+          <t>-4.1</t>
         </is>
       </c>
       <c r="AQ167" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>95</t>
         </is>
       </c>
       <c r="AR167" t="inlineStr">
@@ -37431,7 +37431,7 @@
       </c>
       <c r="AS167" t="inlineStr">
         <is>
-          <t>199</t>
+          <t>200</t>
         </is>
       </c>
       <c r="AT167" t="inlineStr">
@@ -37451,7 +37451,7 @@
       </c>
       <c r="AW167" t="inlineStr">
         <is>
-          <t>826.5</t>
+          <t>826.9</t>
         </is>
       </c>
       <c r="AX167" t="inlineStr">
@@ -37466,12 +37466,12 @@
       </c>
       <c r="AZ167" t="inlineStr">
         <is>
-          <t>826.5</t>
+          <t>826.9</t>
         </is>
       </c>
       <c r="BA167" t="inlineStr">
         <is>
-          <t>81</t>
+          <t>38</t>
         </is>
       </c>
     </row>
@@ -37513,7 +37513,7 @@
       </c>
       <c r="H168" t="inlineStr">
         <is>
-          <t>2026-02-04 16:36:57</t>
+          <t>2026-02-04 16:59:15</t>
         </is>
       </c>
       <c r="I168" t="inlineStr">
@@ -37722,7 +37722,7 @@
       </c>
       <c r="H169" t="inlineStr">
         <is>
-          <t>2026-02-04 16:36:57</t>
+          <t>2026-02-04 16:59:15</t>
         </is>
       </c>
       <c r="I169" t="inlineStr">
@@ -37931,7 +37931,7 @@
       </c>
       <c r="H170" t="inlineStr">
         <is>
-          <t>2026-02-04 16:36:57</t>
+          <t>2026-02-04 16:59:15</t>
         </is>
       </c>
       <c r="I170" t="inlineStr">
@@ -38140,7 +38140,7 @@
       </c>
       <c r="H171" t="inlineStr">
         <is>
-          <t>2026-02-04 16:36:57</t>
+          <t>2026-02-04 16:59:15</t>
         </is>
       </c>
       <c r="I171" t="inlineStr">
@@ -38334,7 +38334,7 @@
       </c>
       <c r="E172" t="inlineStr">
         <is>
-          <t>15:30 - 16:00</t>
+          <t>16:00 - 16:30</t>
         </is>
       </c>
       <c r="F172" t="inlineStr">
@@ -38349,7 +38349,7 @@
       </c>
       <c r="H172" t="inlineStr">
         <is>
-          <t>2026-02-04 16:37:00</t>
+          <t>2026-02-04 16:59:18</t>
         </is>
       </c>
       <c r="I172" t="inlineStr">
@@ -38372,7 +38372,7 @@
       </c>
       <c r="M172" t="inlineStr">
         <is>
-          <t>338</t>
+          <t>357</t>
         </is>
       </c>
       <c r="N172" t="inlineStr"/>
@@ -38380,12 +38380,12 @@
       <c r="P172" t="inlineStr"/>
       <c r="Q172" t="inlineStr">
         <is>
-          <t>57</t>
+          <t>62</t>
         </is>
       </c>
       <c r="R172" t="inlineStr">
         <is>
-          <t>992.7</t>
+          <t>993.1</t>
         </is>
       </c>
       <c r="S172" t="inlineStr">
@@ -38395,66 +38395,66 @@
       </c>
       <c r="T172" t="inlineStr">
         <is>
-          <t>15:30 - 16:00</t>
+          <t>16:00 - 16:30</t>
         </is>
       </c>
       <c r="U172" t="inlineStr">
         <is>
-          <t>206</t>
+          <t>60</t>
         </is>
       </c>
       <c r="V172" t="inlineStr">
         <is>
-          <t>14.6</t>
+          <t>13.5</t>
         </is>
       </c>
       <c r="W172" t="inlineStr">
         <is>
-          <t>14.2</t>
+          <t>12.4</t>
         </is>
       </c>
       <c r="X172" t="inlineStr">
         <is>
-          <t>15.0</t>
+          <t>14.5</t>
         </is>
       </c>
       <c r="Y172" t="inlineStr">
         <is>
-          <t>7.9</t>
+          <t>6.5</t>
         </is>
       </c>
       <c r="Z172" t="inlineStr"/>
       <c r="AA172" t="inlineStr"/>
       <c r="AB172" t="inlineStr">
         <is>
-          <t>15.8</t>
+          <t>13.3</t>
         </is>
       </c>
       <c r="AC172" t="inlineStr"/>
       <c r="AD172" t="inlineStr"/>
       <c r="AE172" t="inlineStr">
         <is>
-          <t>15:30 - 16:00</t>
+          <t>16:00 - 16:30</t>
         </is>
       </c>
       <c r="AF172" t="inlineStr">
         <is>
-          <t>14.6</t>
+          <t>13.5</t>
         </is>
       </c>
       <c r="AG172" t="inlineStr">
         <is>
-          <t>15.0</t>
+          <t>14.5</t>
         </is>
       </c>
       <c r="AH172" t="inlineStr">
         <is>
-          <t>14.2</t>
+          <t>12.4</t>
         </is>
       </c>
       <c r="AI172" t="inlineStr">
         <is>
-          <t>57</t>
+          <t>62</t>
         </is>
       </c>
       <c r="AJ172" t="inlineStr">
@@ -38464,37 +38464,37 @@
       </c>
       <c r="AK172" t="inlineStr">
         <is>
-          <t>7.9</t>
+          <t>6.5</t>
         </is>
       </c>
       <c r="AL172" t="inlineStr">
         <is>
-          <t>338</t>
+          <t>357</t>
         </is>
       </c>
       <c r="AM172" t="inlineStr">
         <is>
-          <t>15:30 - 16:00</t>
+          <t>16:00 - 16:30</t>
         </is>
       </c>
       <c r="AN172" t="inlineStr">
         <is>
-          <t>14.6</t>
+          <t>13.5</t>
         </is>
       </c>
       <c r="AO172" t="inlineStr">
         <is>
-          <t>15.0</t>
+          <t>14.5</t>
         </is>
       </c>
       <c r="AP172" t="inlineStr">
         <is>
-          <t>14.2</t>
+          <t>12.4</t>
         </is>
       </c>
       <c r="AQ172" t="inlineStr">
         <is>
-          <t>57</t>
+          <t>62</t>
         </is>
       </c>
       <c r="AR172" t="inlineStr">
@@ -38504,42 +38504,42 @@
       </c>
       <c r="AS172" t="inlineStr">
         <is>
-          <t>7.9</t>
+          <t>6.5</t>
         </is>
       </c>
       <c r="AT172" t="inlineStr">
         <is>
-          <t>338</t>
+          <t>357</t>
         </is>
       </c>
       <c r="AU172" t="inlineStr">
         <is>
-          <t>15.8</t>
+          <t>13.3</t>
         </is>
       </c>
       <c r="AV172" t="inlineStr">
         <is>
-          <t>992.7</t>
+          <t>993.1</t>
         </is>
       </c>
       <c r="AW172" t="inlineStr">
         <is>
-          <t>206</t>
+          <t>60</t>
         </is>
       </c>
       <c r="AX172" t="inlineStr">
         <is>
-          <t>15.8</t>
+          <t>13.3</t>
         </is>
       </c>
       <c r="AY172" t="inlineStr">
         <is>
-          <t>992.7</t>
+          <t>993.1</t>
         </is>
       </c>
       <c r="AZ172" t="inlineStr">
         <is>
-          <t>206</t>
+          <t>60</t>
         </is>
       </c>
       <c r="BA172" t="inlineStr"/>
@@ -38582,7 +38582,7 @@
       </c>
       <c r="H173" t="inlineStr">
         <is>
-          <t>2026-02-04 16:37:02</t>
+          <t>2026-02-04 16:59:19</t>
         </is>
       </c>
       <c r="I173" t="inlineStr">
@@ -38815,7 +38815,7 @@
       </c>
       <c r="H174" t="inlineStr">
         <is>
-          <t>2026-02-04 16:37:02</t>
+          <t>2026-02-04 16:59:19</t>
         </is>
       </c>
       <c r="I174" t="inlineStr">
@@ -39048,7 +39048,7 @@
       </c>
       <c r="H175" t="inlineStr">
         <is>
-          <t>2026-02-04 16:37:02</t>
+          <t>2026-02-04 16:59:19</t>
         </is>
       </c>
       <c r="I175" t="inlineStr">
@@ -39281,7 +39281,7 @@
       </c>
       <c r="H176" t="inlineStr">
         <is>
-          <t>2026-02-04 16:37:02</t>
+          <t>2026-02-04 16:59:19</t>
         </is>
       </c>
       <c r="I176" t="inlineStr">

--- a/src/data/resum_periode_meteocat.xlsx
+++ b/src/data/resum_periode_meteocat.xlsx
@@ -712,7 +712,7 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>16:00 - 16:30</t>
+          <t>16:30 - 17:00</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -727,17 +727,17 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>2026-02-04 16:57:01</t>
+          <t>2026-02-04 17:12:45</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>16:00</t>
+          <t>16:30</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>https://www.meteo.cat/observacions/xema/dades?codi=YT&amp;dia=2026-02-04T16:00Z</t>
+          <t>https://www.meteo.cat/observacions/xema/dades?codi=YT&amp;dia=2026-02-04T16:30Z</t>
         </is>
       </c>
       <c r="K2" t="n">
@@ -753,12 +753,12 @@
       <c r="O2" t="inlineStr"/>
       <c r="P2" t="inlineStr">
         <is>
-          <t>106</t>
+          <t>107</t>
         </is>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>87</t>
+          <t>89</t>
         </is>
       </c>
       <c r="R2" t="inlineStr"/>
@@ -769,27 +769,27 @@
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>16:00 - 16:30</t>
+          <t>16:30 - 17:00</t>
         </is>
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>12</t>
         </is>
       </c>
       <c r="V2" t="inlineStr">
         <is>
-          <t>-0.5</t>
+          <t>-1.1</t>
         </is>
       </c>
       <c r="W2" t="inlineStr">
         <is>
+          <t>-1.4</t>
+        </is>
+      </c>
+      <c r="X2" t="inlineStr">
+        <is>
           <t>-0.9</t>
-        </is>
-      </c>
-      <c r="X2" t="inlineStr">
-        <is>
-          <t>-0.2</t>
         </is>
       </c>
       <c r="Y2" t="inlineStr"/>
@@ -800,67 +800,67 @@
       <c r="AD2" t="inlineStr"/>
       <c r="AE2" t="inlineStr">
         <is>
-          <t>16:00 - 16:30</t>
+          <t>16:30 - 17:00</t>
         </is>
       </c>
       <c r="AF2" t="inlineStr">
         <is>
-          <t>-0.5</t>
+          <t>-1.1</t>
         </is>
       </c>
       <c r="AG2" t="inlineStr">
         <is>
-          <t>-0.2</t>
+          <t>-0.9</t>
         </is>
       </c>
       <c r="AH2" t="inlineStr">
         <is>
+          <t>-1.4</t>
+        </is>
+      </c>
+      <c r="AI2" t="inlineStr">
+        <is>
+          <t>89</t>
+        </is>
+      </c>
+      <c r="AJ2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="AK2" t="inlineStr">
+        <is>
+          <t>107</t>
+        </is>
+      </c>
+      <c r="AL2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="AM2" t="inlineStr">
+        <is>
+          <t>16:30 - 17:00</t>
+        </is>
+      </c>
+      <c r="AN2" t="inlineStr">
+        <is>
+          <t>-1.1</t>
+        </is>
+      </c>
+      <c r="AO2" t="inlineStr">
+        <is>
           <t>-0.9</t>
         </is>
       </c>
-      <c r="AI2" t="inlineStr">
-        <is>
-          <t>87</t>
-        </is>
-      </c>
-      <c r="AJ2" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="AK2" t="inlineStr">
-        <is>
-          <t>106</t>
-        </is>
-      </c>
-      <c r="AL2" t="inlineStr">
-        <is>
-          <t>39</t>
-        </is>
-      </c>
-      <c r="AM2" t="inlineStr">
-        <is>
-          <t>16:00 - 16:30</t>
-        </is>
-      </c>
-      <c r="AN2" t="inlineStr">
-        <is>
-          <t>-0.5</t>
-        </is>
-      </c>
-      <c r="AO2" t="inlineStr">
-        <is>
-          <t>-0.2</t>
-        </is>
-      </c>
       <c r="AP2" t="inlineStr">
         <is>
-          <t>-0.9</t>
+          <t>-1.4</t>
         </is>
       </c>
       <c r="AQ2" t="inlineStr">
         <is>
-          <t>87</t>
+          <t>89</t>
         </is>
       </c>
       <c r="AR2" t="inlineStr">
@@ -870,12 +870,12 @@
       </c>
       <c r="AS2" t="inlineStr">
         <is>
-          <t>106</t>
+          <t>107</t>
         </is>
       </c>
       <c r="AT2" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>12</t>
         </is>
       </c>
       <c r="AU2" t="inlineStr"/>
@@ -924,7 +924,7 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>2026-02-04 16:57:02</t>
+          <t>2026-02-04 17:12:47</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
@@ -1121,7 +1121,7 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>2026-02-04 16:57:02</t>
+          <t>2026-02-04 17:12:47</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
@@ -1318,7 +1318,7 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>2026-02-04 16:57:02</t>
+          <t>2026-02-04 17:12:47</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
@@ -1515,7 +1515,7 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>2026-02-04 16:57:02</t>
+          <t>2026-02-04 17:12:47</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
@@ -1697,7 +1697,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>16:00 - 16:30</t>
+          <t>16:30 - 17:00</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -1712,17 +1712,17 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>2026-02-04 16:57:05</t>
+          <t>2026-02-04 17:12:49</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>16:00</t>
+          <t>16:30</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>https://www.meteo.cat/observacions/xema/dades?codi=Z1&amp;dia=2026-02-04T16:00Z</t>
+          <t>https://www.meteo.cat/observacions/xema/dades?codi=Z1&amp;dia=2026-02-04T16:30Z</t>
         </is>
       </c>
       <c r="K7" t="n">
@@ -1737,7 +1737,7 @@
       <c r="N7" t="inlineStr"/>
       <c r="O7" t="inlineStr">
         <is>
-          <t>250</t>
+          <t>212</t>
         </is>
       </c>
       <c r="P7" t="inlineStr">
@@ -1747,7 +1747,7 @@
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>76</t>
+          <t>80</t>
         </is>
       </c>
       <c r="R7" t="inlineStr"/>
@@ -1758,66 +1758,66 @@
       </c>
       <c r="T7" t="inlineStr">
         <is>
-          <t>16:00 - 16:30</t>
+          <t>16:30 - 17:00</t>
         </is>
       </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>141</t>
+          <t>17</t>
         </is>
       </c>
       <c r="V7" t="inlineStr">
         <is>
-          <t>-1.9</t>
+          <t>-3.4</t>
         </is>
       </c>
       <c r="W7" t="inlineStr">
         <is>
-          <t>-3.3</t>
+          <t>-4.2</t>
         </is>
       </c>
       <c r="X7" t="inlineStr">
         <is>
-          <t>-1.5</t>
+          <t>-2.5</t>
         </is>
       </c>
       <c r="Y7" t="inlineStr"/>
       <c r="Z7" t="inlineStr"/>
       <c r="AA7" t="inlineStr">
         <is>
-          <t>5.0</t>
+          <t>3.6</t>
         </is>
       </c>
       <c r="AB7" t="inlineStr"/>
       <c r="AC7" t="inlineStr"/>
       <c r="AD7" t="inlineStr">
         <is>
-          <t>14.8</t>
+          <t>11.2</t>
         </is>
       </c>
       <c r="AE7" t="inlineStr">
         <is>
-          <t>16:00 - 16:30</t>
+          <t>16:30 - 17:00</t>
         </is>
       </c>
       <c r="AF7" t="inlineStr">
         <is>
-          <t>-1.9</t>
+          <t>-3.4</t>
         </is>
       </c>
       <c r="AG7" t="inlineStr">
         <is>
-          <t>-1.5</t>
+          <t>-2.5</t>
         </is>
       </c>
       <c r="AH7" t="inlineStr">
         <is>
-          <t>-3.3</t>
+          <t>-4.2</t>
         </is>
       </c>
       <c r="AI7" t="inlineStr">
         <is>
-          <t>76</t>
+          <t>80</t>
         </is>
       </c>
       <c r="AJ7" t="inlineStr">
@@ -1832,32 +1832,32 @@
       </c>
       <c r="AL7" t="inlineStr">
         <is>
-          <t>5.0</t>
+          <t>3.6</t>
         </is>
       </c>
       <c r="AM7" t="inlineStr">
         <is>
-          <t>16:00 - 16:30</t>
+          <t>16:30 - 17:00</t>
         </is>
       </c>
       <c r="AN7" t="inlineStr">
         <is>
-          <t>-1.9</t>
+          <t>-3.4</t>
         </is>
       </c>
       <c r="AO7" t="inlineStr">
         <is>
-          <t>-1.5</t>
+          <t>-2.5</t>
         </is>
       </c>
       <c r="AP7" t="inlineStr">
         <is>
-          <t>-3.3</t>
+          <t>-4.2</t>
         </is>
       </c>
       <c r="AQ7" t="inlineStr">
         <is>
-          <t>76</t>
+          <t>80</t>
         </is>
       </c>
       <c r="AR7" t="inlineStr">
@@ -1872,37 +1872,37 @@
       </c>
       <c r="AT7" t="inlineStr">
         <is>
-          <t>5.0</t>
+          <t>3.6</t>
         </is>
       </c>
       <c r="AU7" t="inlineStr">
         <is>
-          <t>250</t>
+          <t>212</t>
         </is>
       </c>
       <c r="AV7" t="inlineStr">
         <is>
-          <t>14.8</t>
+          <t>11.2</t>
         </is>
       </c>
       <c r="AW7" t="inlineStr">
         <is>
-          <t>141</t>
+          <t>17</t>
         </is>
       </c>
       <c r="AX7" t="inlineStr">
         <is>
-          <t>250</t>
+          <t>212</t>
         </is>
       </c>
       <c r="AY7" t="inlineStr">
         <is>
-          <t>14.8</t>
+          <t>11.2</t>
         </is>
       </c>
       <c r="AZ7" t="inlineStr">
         <is>
-          <t>141</t>
+          <t>17</t>
         </is>
       </c>
       <c r="BA7" t="inlineStr"/>
@@ -1945,7 +1945,7 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>2026-02-04 16:57:06</t>
+          <t>2026-02-04 17:12:51</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
@@ -2178,7 +2178,7 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>2026-02-04 16:57:06</t>
+          <t>2026-02-04 17:12:51</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
@@ -2411,7 +2411,7 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>2026-02-04 16:57:06</t>
+          <t>2026-02-04 17:12:51</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
@@ -2644,7 +2644,7 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>2026-02-04 16:57:06</t>
+          <t>2026-02-04 17:12:51</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
@@ -2862,7 +2862,7 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>16:00 - 16:30</t>
+          <t>16:30 - 17:00</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
@@ -2877,17 +2877,17 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>2026-02-04 16:57:09</t>
+          <t>2026-02-04 17:12:53</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>16:00</t>
+          <t>16:30</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>https://www.meteo.cat/observacions/xema/dades?codi=DN&amp;dia=2026-02-04T16:00Z</t>
+          <t>https://www.meteo.cat/observacions/xema/dades?codi=DN&amp;dia=2026-02-04T16:30Z</t>
         </is>
       </c>
       <c r="K12" t="n">
@@ -2900,7 +2900,7 @@
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>303</t>
+          <t>306</t>
         </is>
       </c>
       <c r="N12" t="inlineStr"/>
@@ -2908,12 +2908,12 @@
       <c r="P12" t="inlineStr"/>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>56</t>
+          <t>59</t>
         </is>
       </c>
       <c r="R12" t="inlineStr">
         <is>
-          <t>990.1</t>
+          <t>990.3</t>
         </is>
       </c>
       <c r="S12" t="inlineStr">
@@ -2923,106 +2923,106 @@
       </c>
       <c r="T12" t="inlineStr">
         <is>
-          <t>16:00 - 16:30</t>
+          <t>16:30 - 17:00</t>
         </is>
       </c>
       <c r="U12" t="inlineStr">
         <is>
-          <t>101</t>
+          <t>12</t>
         </is>
       </c>
       <c r="V12" t="inlineStr">
         <is>
-          <t>12.2</t>
+          <t>11.5</t>
         </is>
       </c>
       <c r="W12" t="inlineStr">
         <is>
+          <t>10.7</t>
+        </is>
+      </c>
+      <c r="X12" t="inlineStr">
+        <is>
           <t>11.9</t>
         </is>
       </c>
-      <c r="X12" t="inlineStr">
-        <is>
-          <t>12.3</t>
-        </is>
-      </c>
       <c r="Y12" t="inlineStr">
         <is>
-          <t>16.2</t>
+          <t>5.8</t>
         </is>
       </c>
       <c r="Z12" t="inlineStr"/>
       <c r="AA12" t="inlineStr"/>
       <c r="AB12" t="inlineStr">
         <is>
-          <t>35.3</t>
+          <t>23.0</t>
         </is>
       </c>
       <c r="AC12" t="inlineStr"/>
       <c r="AD12" t="inlineStr"/>
       <c r="AE12" t="inlineStr">
         <is>
-          <t>16:00 - 16:30</t>
+          <t>16:30 - 17:00</t>
         </is>
       </c>
       <c r="AF12" t="inlineStr">
         <is>
-          <t>12.2</t>
+          <t>11.5</t>
         </is>
       </c>
       <c r="AG12" t="inlineStr">
         <is>
-          <t>12.3</t>
+          <t>11.9</t>
         </is>
       </c>
       <c r="AH12" t="inlineStr">
         <is>
+          <t>10.7</t>
+        </is>
+      </c>
+      <c r="AI12" t="inlineStr">
+        <is>
+          <t>59</t>
+        </is>
+      </c>
+      <c r="AJ12" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="AK12" t="inlineStr">
+        <is>
+          <t>5.8</t>
+        </is>
+      </c>
+      <c r="AL12" t="inlineStr">
+        <is>
+          <t>306</t>
+        </is>
+      </c>
+      <c r="AM12" t="inlineStr">
+        <is>
+          <t>16:30 - 17:00</t>
+        </is>
+      </c>
+      <c r="AN12" t="inlineStr">
+        <is>
+          <t>11.5</t>
+        </is>
+      </c>
+      <c r="AO12" t="inlineStr">
+        <is>
           <t>11.9</t>
         </is>
       </c>
-      <c r="AI12" t="inlineStr">
-        <is>
-          <t>56</t>
-        </is>
-      </c>
-      <c r="AJ12" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="AK12" t="inlineStr">
-        <is>
-          <t>16.2</t>
-        </is>
-      </c>
-      <c r="AL12" t="inlineStr">
-        <is>
-          <t>303</t>
-        </is>
-      </c>
-      <c r="AM12" t="inlineStr">
-        <is>
-          <t>16:00 - 16:30</t>
-        </is>
-      </c>
-      <c r="AN12" t="inlineStr">
-        <is>
-          <t>12.2</t>
-        </is>
-      </c>
-      <c r="AO12" t="inlineStr">
-        <is>
-          <t>12.3</t>
-        </is>
-      </c>
       <c r="AP12" t="inlineStr">
         <is>
-          <t>11.9</t>
+          <t>10.7</t>
         </is>
       </c>
       <c r="AQ12" t="inlineStr">
         <is>
-          <t>56</t>
+          <t>59</t>
         </is>
       </c>
       <c r="AR12" t="inlineStr">
@@ -3032,42 +3032,42 @@
       </c>
       <c r="AS12" t="inlineStr">
         <is>
-          <t>16.2</t>
+          <t>5.8</t>
         </is>
       </c>
       <c r="AT12" t="inlineStr">
         <is>
-          <t>303</t>
+          <t>306</t>
         </is>
       </c>
       <c r="AU12" t="inlineStr">
         <is>
-          <t>35.3</t>
+          <t>23.0</t>
         </is>
       </c>
       <c r="AV12" t="inlineStr">
         <is>
-          <t>990.1</t>
+          <t>990.3</t>
         </is>
       </c>
       <c r="AW12" t="inlineStr">
         <is>
-          <t>101</t>
+          <t>12</t>
         </is>
       </c>
       <c r="AX12" t="inlineStr">
         <is>
-          <t>35.3</t>
+          <t>23.0</t>
         </is>
       </c>
       <c r="AY12" t="inlineStr">
         <is>
-          <t>990.1</t>
+          <t>990.3</t>
         </is>
       </c>
       <c r="AZ12" t="inlineStr">
         <is>
-          <t>101</t>
+          <t>12</t>
         </is>
       </c>
       <c r="BA12" t="inlineStr"/>
@@ -3110,7 +3110,7 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>2026-02-04 16:57:10</t>
+          <t>2026-02-04 17:12:55</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
@@ -3343,7 +3343,7 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>2026-02-04 16:57:10</t>
+          <t>2026-02-04 17:12:55</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
@@ -3576,7 +3576,7 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>2026-02-04 16:57:10</t>
+          <t>2026-02-04 17:12:55</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
@@ -3809,7 +3809,7 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>2026-02-04 16:57:10</t>
+          <t>2026-02-04 17:12:55</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
@@ -4027,7 +4027,7 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>16:00 - 16:30</t>
+          <t>16:30 - 17:00</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
@@ -4042,17 +4042,17 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>2026-02-04 16:57:13</t>
+          <t>2026-02-04 17:12:57</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>16:00</t>
+          <t>16:30</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>https://www.meteo.cat/observacions/xema/dades?codi=DJ&amp;dia=2026-02-04T16:00Z</t>
+          <t>https://www.meteo.cat/observacions/xema/dades?codi=DJ&amp;dia=2026-02-04T16:30Z</t>
         </is>
       </c>
       <c r="K17" t="n">
@@ -4065,7 +4065,7 @@
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>220</t>
+          <t>266</t>
         </is>
       </c>
       <c r="N17" t="inlineStr"/>
@@ -4073,12 +4073,12 @@
       <c r="P17" t="inlineStr"/>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>52</t>
+          <t>55</t>
         </is>
       </c>
       <c r="R17" t="inlineStr">
         <is>
-          <t>989.7</t>
+          <t>989.9</t>
         </is>
       </c>
       <c r="S17" t="inlineStr">
@@ -4088,27 +4088,27 @@
       </c>
       <c r="T17" t="inlineStr">
         <is>
-          <t>16:00 - 16:30</t>
+          <t>16:30 - 17:00</t>
         </is>
       </c>
       <c r="U17" t="inlineStr">
         <is>
-          <t>122</t>
+          <t>32</t>
         </is>
       </c>
       <c r="V17" t="inlineStr">
         <is>
-          <t>13.9</t>
+          <t>12.8</t>
         </is>
       </c>
       <c r="W17" t="inlineStr">
         <is>
-          <t>13.7</t>
+          <t>11.8</t>
         </is>
       </c>
       <c r="X17" t="inlineStr">
         <is>
-          <t>14.3</t>
+          <t>13.6</t>
         </is>
       </c>
       <c r="Y17" t="inlineStr">
@@ -4120,34 +4120,34 @@
       <c r="AA17" t="inlineStr"/>
       <c r="AB17" t="inlineStr">
         <is>
-          <t>6.8</t>
+          <t>9.4</t>
         </is>
       </c>
       <c r="AC17" t="inlineStr"/>
       <c r="AD17" t="inlineStr"/>
       <c r="AE17" t="inlineStr">
         <is>
-          <t>16:00 - 16:30</t>
+          <t>16:30 - 17:00</t>
         </is>
       </c>
       <c r="AF17" t="inlineStr">
         <is>
-          <t>13.9</t>
+          <t>12.8</t>
         </is>
       </c>
       <c r="AG17" t="inlineStr">
         <is>
-          <t>14.3</t>
+          <t>13.6</t>
         </is>
       </c>
       <c r="AH17" t="inlineStr">
         <is>
-          <t>13.7</t>
+          <t>11.8</t>
         </is>
       </c>
       <c r="AI17" t="inlineStr">
         <is>
-          <t>52</t>
+          <t>55</t>
         </is>
       </c>
       <c r="AJ17" t="inlineStr">
@@ -4162,32 +4162,32 @@
       </c>
       <c r="AL17" t="inlineStr">
         <is>
-          <t>220</t>
+          <t>266</t>
         </is>
       </c>
       <c r="AM17" t="inlineStr">
         <is>
-          <t>16:00 - 16:30</t>
+          <t>16:30 - 17:00</t>
         </is>
       </c>
       <c r="AN17" t="inlineStr">
         <is>
-          <t>13.9</t>
+          <t>12.8</t>
         </is>
       </c>
       <c r="AO17" t="inlineStr">
         <is>
-          <t>14.3</t>
+          <t>13.6</t>
         </is>
       </c>
       <c r="AP17" t="inlineStr">
         <is>
-          <t>13.7</t>
+          <t>11.8</t>
         </is>
       </c>
       <c r="AQ17" t="inlineStr">
         <is>
-          <t>52</t>
+          <t>55</t>
         </is>
       </c>
       <c r="AR17" t="inlineStr">
@@ -4202,37 +4202,37 @@
       </c>
       <c r="AT17" t="inlineStr">
         <is>
-          <t>220</t>
+          <t>266</t>
         </is>
       </c>
       <c r="AU17" t="inlineStr">
         <is>
-          <t>6.8</t>
+          <t>9.4</t>
         </is>
       </c>
       <c r="AV17" t="inlineStr">
         <is>
-          <t>989.7</t>
+          <t>989.9</t>
         </is>
       </c>
       <c r="AW17" t="inlineStr">
         <is>
-          <t>122</t>
+          <t>32</t>
         </is>
       </c>
       <c r="AX17" t="inlineStr">
         <is>
-          <t>6.8</t>
+          <t>9.4</t>
         </is>
       </c>
       <c r="AY17" t="inlineStr">
         <is>
-          <t>989.7</t>
+          <t>989.9</t>
         </is>
       </c>
       <c r="AZ17" t="inlineStr">
         <is>
-          <t>122</t>
+          <t>32</t>
         </is>
       </c>
       <c r="BA17" t="inlineStr"/>
@@ -4275,7 +4275,7 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>2026-02-04 16:57:14</t>
+          <t>2026-02-04 17:12:59</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
@@ -4508,7 +4508,7 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>2026-02-04 16:57:14</t>
+          <t>2026-02-04 17:12:59</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
@@ -4741,7 +4741,7 @@
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>2026-02-04 16:57:14</t>
+          <t>2026-02-04 17:12:59</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
@@ -4974,7 +4974,7 @@
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>2026-02-04 16:57:14</t>
+          <t>2026-02-04 17:12:59</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
@@ -5192,7 +5192,7 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>16:00 - 16:30</t>
+          <t>16:30 - 17:00</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
@@ -5207,17 +5207,17 @@
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>2026-02-04 16:57:17</t>
+          <t>2026-02-04 17:13:01</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>16:00</t>
+          <t>16:30</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>https://www.meteo.cat/observacions/xema/dades?codi=X4&amp;dia=2026-02-04T16:00Z</t>
+          <t>https://www.meteo.cat/observacions/xema/dades?codi=X4&amp;dia=2026-02-04T16:30Z</t>
         </is>
       </c>
       <c r="K22" t="n">
@@ -5230,7 +5230,7 @@
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>285</t>
+          <t>279</t>
         </is>
       </c>
       <c r="N22" t="inlineStr"/>
@@ -5238,12 +5238,12 @@
       <c r="P22" t="inlineStr"/>
       <c r="Q22" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>51</t>
         </is>
       </c>
       <c r="R22" t="inlineStr">
         <is>
-          <t>991.6</t>
+          <t>992.0</t>
         </is>
       </c>
       <c r="S22" t="inlineStr">
@@ -5253,66 +5253,66 @@
       </c>
       <c r="T22" t="inlineStr">
         <is>
-          <t>16:00 - 16:30</t>
+          <t>16:30 - 17:00</t>
         </is>
       </c>
       <c r="U22" t="inlineStr">
         <is>
-          <t>119</t>
+          <t>34</t>
         </is>
       </c>
       <c r="V22" t="inlineStr">
         <is>
+          <t>13.3</t>
+        </is>
+      </c>
+      <c r="W22" t="inlineStr">
+        <is>
+          <t>13.1</t>
+        </is>
+      </c>
+      <c r="X22" t="inlineStr">
+        <is>
           <t>13.7</t>
         </is>
       </c>
-      <c r="W22" t="inlineStr">
-        <is>
-          <t>13.6</t>
-        </is>
-      </c>
-      <c r="X22" t="inlineStr">
-        <is>
-          <t>13.9</t>
-        </is>
-      </c>
       <c r="Y22" t="inlineStr">
         <is>
-          <t>12.2</t>
+          <t>11.5</t>
         </is>
       </c>
       <c r="Z22" t="inlineStr"/>
       <c r="AA22" t="inlineStr"/>
       <c r="AB22" t="inlineStr">
         <is>
-          <t>25.2</t>
+          <t>25.9</t>
         </is>
       </c>
       <c r="AC22" t="inlineStr"/>
       <c r="AD22" t="inlineStr"/>
       <c r="AE22" t="inlineStr">
         <is>
-          <t>16:00 - 16:30</t>
+          <t>16:30 - 17:00</t>
         </is>
       </c>
       <c r="AF22" t="inlineStr">
         <is>
+          <t>13.3</t>
+        </is>
+      </c>
+      <c r="AG22" t="inlineStr">
+        <is>
           <t>13.7</t>
         </is>
       </c>
-      <c r="AG22" t="inlineStr">
-        <is>
-          <t>13.9</t>
-        </is>
-      </c>
       <c r="AH22" t="inlineStr">
         <is>
-          <t>13.6</t>
+          <t>13.1</t>
         </is>
       </c>
       <c r="AI22" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>51</t>
         </is>
       </c>
       <c r="AJ22" t="inlineStr">
@@ -5322,37 +5322,37 @@
       </c>
       <c r="AK22" t="inlineStr">
         <is>
-          <t>12.2</t>
+          <t>11.5</t>
         </is>
       </c>
       <c r="AL22" t="inlineStr">
         <is>
-          <t>285</t>
+          <t>279</t>
         </is>
       </c>
       <c r="AM22" t="inlineStr">
         <is>
-          <t>16:00 - 16:30</t>
+          <t>16:30 - 17:00</t>
         </is>
       </c>
       <c r="AN22" t="inlineStr">
         <is>
+          <t>13.3</t>
+        </is>
+      </c>
+      <c r="AO22" t="inlineStr">
+        <is>
           <t>13.7</t>
         </is>
       </c>
-      <c r="AO22" t="inlineStr">
-        <is>
-          <t>13.9</t>
-        </is>
-      </c>
       <c r="AP22" t="inlineStr">
         <is>
-          <t>13.6</t>
+          <t>13.1</t>
         </is>
       </c>
       <c r="AQ22" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>51</t>
         </is>
       </c>
       <c r="AR22" t="inlineStr">
@@ -5362,42 +5362,42 @@
       </c>
       <c r="AS22" t="inlineStr">
         <is>
-          <t>12.2</t>
+          <t>11.5</t>
         </is>
       </c>
       <c r="AT22" t="inlineStr">
         <is>
-          <t>285</t>
+          <t>279</t>
         </is>
       </c>
       <c r="AU22" t="inlineStr">
         <is>
-          <t>25.2</t>
+          <t>25.9</t>
         </is>
       </c>
       <c r="AV22" t="inlineStr">
         <is>
-          <t>991.6</t>
+          <t>992.0</t>
         </is>
       </c>
       <c r="AW22" t="inlineStr">
         <is>
-          <t>119</t>
+          <t>34</t>
         </is>
       </c>
       <c r="AX22" t="inlineStr">
         <is>
-          <t>25.2</t>
+          <t>25.9</t>
         </is>
       </c>
       <c r="AY22" t="inlineStr">
         <is>
-          <t>991.6</t>
+          <t>992.0</t>
         </is>
       </c>
       <c r="AZ22" t="inlineStr">
         <is>
-          <t>119</t>
+          <t>34</t>
         </is>
       </c>
       <c r="BA22" t="inlineStr"/>
@@ -5440,7 +5440,7 @@
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>2026-02-04 16:57:19</t>
+          <t>2026-02-04 17:13:03</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
@@ -5673,7 +5673,7 @@
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>2026-02-04 16:57:19</t>
+          <t>2026-02-04 17:13:03</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
@@ -5906,7 +5906,7 @@
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>2026-02-04 16:57:19</t>
+          <t>2026-02-04 17:13:03</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
@@ -6139,7 +6139,7 @@
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>2026-02-04 16:57:19</t>
+          <t>2026-02-04 17:13:03</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
@@ -6357,7 +6357,7 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>16:00 - 16:30</t>
+          <t>16:30 - 17:00</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
@@ -6372,17 +6372,17 @@
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>2026-02-04 16:57:21</t>
+          <t>2026-02-04 17:13:05</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>16:00</t>
+          <t>16:30</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>https://www.meteo.cat/observacions/xema/dades?codi=D5&amp;dia=2026-02-04T16:00Z</t>
+          <t>https://www.meteo.cat/observacions/xema/dades?codi=D5&amp;dia=2026-02-04T16:30Z</t>
         </is>
       </c>
       <c r="K27" t="n">
@@ -6395,7 +6395,7 @@
       </c>
       <c r="M27" t="inlineStr">
         <is>
-          <t>224</t>
+          <t>281</t>
         </is>
       </c>
       <c r="N27" t="inlineStr"/>
@@ -6403,12 +6403,12 @@
       <c r="P27" t="inlineStr"/>
       <c r="Q27" t="inlineStr">
         <is>
-          <t>64</t>
+          <t>66</t>
         </is>
       </c>
       <c r="R27" t="inlineStr">
         <is>
-          <t>991.2</t>
+          <t>991.6</t>
         </is>
       </c>
       <c r="S27" t="inlineStr">
@@ -6418,66 +6418,66 @@
       </c>
       <c r="T27" t="inlineStr">
         <is>
-          <t>16:00 - 16:30</t>
+          <t>16:30 - 17:00</t>
         </is>
       </c>
       <c r="U27" t="inlineStr">
         <is>
-          <t>115</t>
+          <t>35</t>
         </is>
       </c>
       <c r="V27" t="inlineStr">
         <is>
-          <t>10.5</t>
+          <t>9.5</t>
         </is>
       </c>
       <c r="W27" t="inlineStr">
         <is>
-          <t>9.9</t>
+          <t>8.9</t>
         </is>
       </c>
       <c r="X27" t="inlineStr">
         <is>
-          <t>11.1</t>
+          <t>10.0</t>
         </is>
       </c>
       <c r="Y27" t="inlineStr">
         <is>
-          <t>0.7</t>
+          <t>1.1</t>
         </is>
       </c>
       <c r="Z27" t="inlineStr"/>
       <c r="AA27" t="inlineStr"/>
       <c r="AB27" t="inlineStr">
         <is>
-          <t>17.3</t>
+          <t>20.2</t>
         </is>
       </c>
       <c r="AC27" t="inlineStr"/>
       <c r="AD27" t="inlineStr"/>
       <c r="AE27" t="inlineStr">
         <is>
-          <t>16:00 - 16:30</t>
+          <t>16:30 - 17:00</t>
         </is>
       </c>
       <c r="AF27" t="inlineStr">
         <is>
-          <t>10.5</t>
+          <t>9.5</t>
         </is>
       </c>
       <c r="AG27" t="inlineStr">
         <is>
-          <t>11.1</t>
+          <t>10.0</t>
         </is>
       </c>
       <c r="AH27" t="inlineStr">
         <is>
-          <t>9.9</t>
+          <t>8.9</t>
         </is>
       </c>
       <c r="AI27" t="inlineStr">
         <is>
-          <t>64</t>
+          <t>66</t>
         </is>
       </c>
       <c r="AJ27" t="inlineStr">
@@ -6487,37 +6487,37 @@
       </c>
       <c r="AK27" t="inlineStr">
         <is>
-          <t>0.7</t>
+          <t>1.1</t>
         </is>
       </c>
       <c r="AL27" t="inlineStr">
         <is>
-          <t>224</t>
+          <t>281</t>
         </is>
       </c>
       <c r="AM27" t="inlineStr">
         <is>
-          <t>16:00 - 16:30</t>
+          <t>16:30 - 17:00</t>
         </is>
       </c>
       <c r="AN27" t="inlineStr">
         <is>
-          <t>10.5</t>
+          <t>9.5</t>
         </is>
       </c>
       <c r="AO27" t="inlineStr">
         <is>
-          <t>11.1</t>
+          <t>10.0</t>
         </is>
       </c>
       <c r="AP27" t="inlineStr">
         <is>
-          <t>9.9</t>
+          <t>8.9</t>
         </is>
       </c>
       <c r="AQ27" t="inlineStr">
         <is>
-          <t>64</t>
+          <t>66</t>
         </is>
       </c>
       <c r="AR27" t="inlineStr">
@@ -6527,42 +6527,42 @@
       </c>
       <c r="AS27" t="inlineStr">
         <is>
-          <t>0.7</t>
+          <t>1.1</t>
         </is>
       </c>
       <c r="AT27" t="inlineStr">
         <is>
-          <t>224</t>
+          <t>281</t>
         </is>
       </c>
       <c r="AU27" t="inlineStr">
         <is>
-          <t>17.3</t>
+          <t>20.2</t>
         </is>
       </c>
       <c r="AV27" t="inlineStr">
         <is>
-          <t>991.2</t>
+          <t>991.6</t>
         </is>
       </c>
       <c r="AW27" t="inlineStr">
         <is>
-          <t>115</t>
+          <t>35</t>
         </is>
       </c>
       <c r="AX27" t="inlineStr">
         <is>
-          <t>17.3</t>
+          <t>20.2</t>
         </is>
       </c>
       <c r="AY27" t="inlineStr">
         <is>
-          <t>991.2</t>
+          <t>991.6</t>
         </is>
       </c>
       <c r="AZ27" t="inlineStr">
         <is>
-          <t>115</t>
+          <t>35</t>
         </is>
       </c>
       <c r="BA27" t="inlineStr"/>
@@ -6605,7 +6605,7 @@
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>2026-02-04 16:57:23</t>
+          <t>2026-02-04 17:13:07</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
@@ -6838,7 +6838,7 @@
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>2026-02-04 16:57:23</t>
+          <t>2026-02-04 17:13:07</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
@@ -7071,7 +7071,7 @@
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>2026-02-04 16:57:23</t>
+          <t>2026-02-04 17:13:07</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
@@ -7304,7 +7304,7 @@
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>2026-02-04 16:57:23</t>
+          <t>2026-02-04 17:13:07</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
@@ -7522,7 +7522,7 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>16:00 - 16:30</t>
+          <t>16:30 - 17:00</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
@@ -7537,17 +7537,17 @@
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>2026-02-04 16:57:25</t>
+          <t>2026-02-04 17:13:09</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>16:00</t>
+          <t>16:30</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>https://www.meteo.cat/observacions/xema/dades?codi=UN&amp;dia=2026-02-04T16:00Z</t>
+          <t>https://www.meteo.cat/observacions/xema/dades?codi=UN&amp;dia=2026-02-04T16:30Z</t>
         </is>
       </c>
       <c r="K32" t="n">
@@ -7561,14 +7561,14 @@
       <c r="M32" t="inlineStr"/>
       <c r="N32" t="inlineStr">
         <is>
-          <t>196</t>
+          <t>81</t>
         </is>
       </c>
       <c r="O32" t="inlineStr"/>
       <c r="P32" t="inlineStr"/>
       <c r="Q32" t="inlineStr">
         <is>
-          <t>64</t>
+          <t>77</t>
         </is>
       </c>
       <c r="R32" t="inlineStr"/>
@@ -7579,66 +7579,66 @@
       </c>
       <c r="T32" t="inlineStr">
         <is>
-          <t>16:00 - 16:30</t>
+          <t>16:30 - 17:00</t>
         </is>
       </c>
       <c r="U32" t="inlineStr">
         <is>
-          <t>94</t>
+          <t>23</t>
         </is>
       </c>
       <c r="V32" t="inlineStr">
         <is>
-          <t>12.5</t>
+          <t>10.4</t>
         </is>
       </c>
       <c r="W32" t="inlineStr">
         <is>
-          <t>12.1</t>
+          <t>8.4</t>
         </is>
       </c>
       <c r="X32" t="inlineStr">
         <is>
-          <t>13.1</t>
+          <t>12.0</t>
         </is>
       </c>
       <c r="Y32" t="inlineStr"/>
       <c r="Z32" t="inlineStr">
         <is>
-          <t>2.5</t>
+          <t>1.1</t>
         </is>
       </c>
       <c r="AA32" t="inlineStr"/>
       <c r="AB32" t="inlineStr"/>
       <c r="AC32" t="inlineStr">
         <is>
-          <t>7.6</t>
+          <t>4.0</t>
         </is>
       </c>
       <c r="AD32" t="inlineStr"/>
       <c r="AE32" t="inlineStr">
         <is>
-          <t>16:00 - 16:30</t>
+          <t>16:30 - 17:00</t>
         </is>
       </c>
       <c r="AF32" t="inlineStr">
         <is>
-          <t>12.5</t>
+          <t>10.4</t>
         </is>
       </c>
       <c r="AG32" t="inlineStr">
         <is>
-          <t>13.1</t>
+          <t>12.0</t>
         </is>
       </c>
       <c r="AH32" t="inlineStr">
         <is>
-          <t>12.1</t>
+          <t>8.4</t>
         </is>
       </c>
       <c r="AI32" t="inlineStr">
         <is>
-          <t>64</t>
+          <t>77</t>
         </is>
       </c>
       <c r="AJ32" t="inlineStr">
@@ -7648,37 +7648,37 @@
       </c>
       <c r="AK32" t="inlineStr">
         <is>
-          <t>2.5</t>
+          <t>1.1</t>
         </is>
       </c>
       <c r="AL32" t="inlineStr">
         <is>
-          <t>196</t>
+          <t>81</t>
         </is>
       </c>
       <c r="AM32" t="inlineStr">
         <is>
-          <t>16:00 - 16:30</t>
+          <t>16:30 - 17:00</t>
         </is>
       </c>
       <c r="AN32" t="inlineStr">
         <is>
-          <t>12.5</t>
+          <t>10.4</t>
         </is>
       </c>
       <c r="AO32" t="inlineStr">
         <is>
-          <t>13.1</t>
+          <t>12.0</t>
         </is>
       </c>
       <c r="AP32" t="inlineStr">
         <is>
-          <t>12.1</t>
+          <t>8.4</t>
         </is>
       </c>
       <c r="AQ32" t="inlineStr">
         <is>
-          <t>64</t>
+          <t>77</t>
         </is>
       </c>
       <c r="AR32" t="inlineStr">
@@ -7688,33 +7688,33 @@
       </c>
       <c r="AS32" t="inlineStr">
         <is>
-          <t>2.5</t>
+          <t>1.1</t>
         </is>
       </c>
       <c r="AT32" t="inlineStr">
         <is>
-          <t>196</t>
+          <t>81</t>
         </is>
       </c>
       <c r="AU32" t="inlineStr">
         <is>
-          <t>7.6</t>
+          <t>4.0</t>
         </is>
       </c>
       <c r="AV32" t="inlineStr">
         <is>
-          <t>94</t>
+          <t>23</t>
         </is>
       </c>
       <c r="AW32" t="inlineStr"/>
       <c r="AX32" t="inlineStr">
         <is>
-          <t>7.6</t>
+          <t>4.0</t>
         </is>
       </c>
       <c r="AY32" t="inlineStr">
         <is>
-          <t>94</t>
+          <t>23</t>
         </is>
       </c>
       <c r="AZ32" t="inlineStr"/>
@@ -7758,7 +7758,7 @@
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>2026-02-04 16:57:27</t>
+          <t>2026-02-04 17:13:11</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
@@ -7979,7 +7979,7 @@
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>2026-02-04 16:57:27</t>
+          <t>2026-02-04 17:13:11</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
@@ -8200,7 +8200,7 @@
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>2026-02-04 16:57:27</t>
+          <t>2026-02-04 17:13:11</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
@@ -8421,7 +8421,7 @@
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>2026-02-04 16:57:27</t>
+          <t>2026-02-04 17:13:11</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
@@ -8627,7 +8627,7 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>16:00 - 16:30</t>
+          <t>16:30 - 17:00</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
@@ -8642,17 +8642,17 @@
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>2026-02-04 16:57:29</t>
+          <t>2026-02-04 17:13:13</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>16:00</t>
+          <t>16:30</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>https://www.meteo.cat/observacions/xema/dades?codi=MS&amp;dia=2026-02-04T16:00Z</t>
+          <t>https://www.meteo.cat/observacions/xema/dades?codi=MS&amp;dia=2026-02-04T16:30Z</t>
         </is>
       </c>
       <c r="K37" t="n">
@@ -8669,7 +8669,7 @@
       <c r="P37" t="inlineStr"/>
       <c r="Q37" t="inlineStr">
         <is>
-          <t>77</t>
+          <t>84</t>
         </is>
       </c>
       <c r="R37" t="inlineStr"/>
@@ -8680,23 +8680,23 @@
       </c>
       <c r="T37" t="inlineStr">
         <is>
-          <t>16:00 - 16:30</t>
+          <t>16:30 - 17:00</t>
         </is>
       </c>
       <c r="U37" t="inlineStr"/>
       <c r="V37" t="inlineStr">
         <is>
-          <t>5.9</t>
+          <t>4.7</t>
         </is>
       </c>
       <c r="W37" t="inlineStr">
         <is>
-          <t>5.4</t>
+          <t>4.2</t>
         </is>
       </c>
       <c r="X37" t="inlineStr">
         <is>
-          <t>6.8</t>
+          <t>5.3</t>
         </is>
       </c>
       <c r="Y37" t="inlineStr"/>
@@ -8707,27 +8707,27 @@
       <c r="AD37" t="inlineStr"/>
       <c r="AE37" t="inlineStr">
         <is>
-          <t>16:00 - 16:30</t>
+          <t>16:30 - 17:00</t>
         </is>
       </c>
       <c r="AF37" t="inlineStr">
         <is>
-          <t>5.9</t>
+          <t>4.7</t>
         </is>
       </c>
       <c r="AG37" t="inlineStr">
         <is>
-          <t>6.8</t>
+          <t>5.3</t>
         </is>
       </c>
       <c r="AH37" t="inlineStr">
         <is>
-          <t>5.4</t>
+          <t>4.2</t>
         </is>
       </c>
       <c r="AI37" t="inlineStr">
         <is>
-          <t>77</t>
+          <t>84</t>
         </is>
       </c>
       <c r="AJ37" t="inlineStr">
@@ -8739,27 +8739,27 @@
       <c r="AL37" t="inlineStr"/>
       <c r="AM37" t="inlineStr">
         <is>
-          <t>16:00 - 16:30</t>
+          <t>16:30 - 17:00</t>
         </is>
       </c>
       <c r="AN37" t="inlineStr">
         <is>
-          <t>5.9</t>
+          <t>4.7</t>
         </is>
       </c>
       <c r="AO37" t="inlineStr">
         <is>
-          <t>6.8</t>
+          <t>5.3</t>
         </is>
       </c>
       <c r="AP37" t="inlineStr">
         <is>
-          <t>5.4</t>
+          <t>4.2</t>
         </is>
       </c>
       <c r="AQ37" t="inlineStr">
         <is>
-          <t>77</t>
+          <t>84</t>
         </is>
       </c>
       <c r="AR37" t="inlineStr">
@@ -8815,7 +8815,7 @@
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>2026-02-04 16:57:30</t>
+          <t>2026-02-04 17:13:14</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
@@ -8988,7 +8988,7 @@
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>2026-02-04 16:57:30</t>
+          <t>2026-02-04 17:13:14</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
@@ -9161,7 +9161,7 @@
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>2026-02-04 16:57:30</t>
+          <t>2026-02-04 17:13:14</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
@@ -9334,7 +9334,7 @@
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>2026-02-04 16:57:30</t>
+          <t>2026-02-04 17:13:14</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
@@ -9492,7 +9492,7 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>16:00 - 16:30</t>
+          <t>16:30 - 17:00</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
@@ -9507,17 +9507,17 @@
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>2026-02-04 16:57:33</t>
+          <t>2026-02-04 17:13:17</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>16:00</t>
+          <t>16:30</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>https://www.meteo.cat/observacions/xema/dades?codi=W1&amp;dia=2026-02-04T16:00Z</t>
+          <t>https://www.meteo.cat/observacions/xema/dades?codi=W1&amp;dia=2026-02-04T16:30Z</t>
         </is>
       </c>
       <c r="K42" t="n">
@@ -9534,7 +9534,7 @@
       <c r="P42" t="inlineStr"/>
       <c r="Q42" t="inlineStr">
         <is>
-          <t>62</t>
+          <t>72</t>
         </is>
       </c>
       <c r="R42" t="inlineStr"/>
@@ -9545,23 +9545,23 @@
       </c>
       <c r="T42" t="inlineStr">
         <is>
-          <t>16:00 - 16:30</t>
+          <t>16:30 - 17:00</t>
         </is>
       </c>
       <c r="U42" t="inlineStr"/>
       <c r="V42" t="inlineStr">
         <is>
-          <t>13.3</t>
+          <t>12.0</t>
         </is>
       </c>
       <c r="W42" t="inlineStr">
         <is>
+          <t>11.2</t>
+        </is>
+      </c>
+      <c r="X42" t="inlineStr">
+        <is>
           <t>12.9</t>
-        </is>
-      </c>
-      <c r="X42" t="inlineStr">
-        <is>
-          <t>13.5</t>
         </is>
       </c>
       <c r="Y42" t="inlineStr"/>
@@ -9572,27 +9572,27 @@
       <c r="AD42" t="inlineStr"/>
       <c r="AE42" t="inlineStr">
         <is>
-          <t>16:00 - 16:30</t>
+          <t>16:30 - 17:00</t>
         </is>
       </c>
       <c r="AF42" t="inlineStr">
         <is>
-          <t>13.3</t>
+          <t>12.0</t>
         </is>
       </c>
       <c r="AG42" t="inlineStr">
         <is>
-          <t>13.5</t>
+          <t>12.9</t>
         </is>
       </c>
       <c r="AH42" t="inlineStr">
         <is>
-          <t>12.9</t>
+          <t>11.2</t>
         </is>
       </c>
       <c r="AI42" t="inlineStr">
         <is>
-          <t>62</t>
+          <t>72</t>
         </is>
       </c>
       <c r="AJ42" t="inlineStr">
@@ -9604,27 +9604,27 @@
       <c r="AL42" t="inlineStr"/>
       <c r="AM42" t="inlineStr">
         <is>
-          <t>16:00 - 16:30</t>
+          <t>16:30 - 17:00</t>
         </is>
       </c>
       <c r="AN42" t="inlineStr">
         <is>
-          <t>13.3</t>
+          <t>12.0</t>
         </is>
       </c>
       <c r="AO42" t="inlineStr">
         <is>
-          <t>13.5</t>
+          <t>12.9</t>
         </is>
       </c>
       <c r="AP42" t="inlineStr">
         <is>
-          <t>12.9</t>
+          <t>11.2</t>
         </is>
       </c>
       <c r="AQ42" t="inlineStr">
         <is>
-          <t>62</t>
+          <t>72</t>
         </is>
       </c>
       <c r="AR42" t="inlineStr">
@@ -9680,7 +9680,7 @@
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>2026-02-04 16:57:34</t>
+          <t>2026-02-04 17:13:18</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
@@ -9853,7 +9853,7 @@
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>2026-02-04 16:57:34</t>
+          <t>2026-02-04 17:13:18</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
@@ -10026,7 +10026,7 @@
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>2026-02-04 16:57:34</t>
+          <t>2026-02-04 17:13:18</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
@@ -10199,7 +10199,7 @@
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>2026-02-04 16:57:34</t>
+          <t>2026-02-04 17:13:18</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
@@ -10357,7 +10357,7 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>16:00 - 16:30</t>
+          <t>16:30 - 17:00</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
@@ -10372,17 +10372,17 @@
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>2026-02-04 16:57:37</t>
+          <t>2026-02-04 17:13:21</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>16:00</t>
+          <t>16:30</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>https://www.meteo.cat/observacions/xema/dades?codi=DP&amp;dia=2026-02-04T16:00Z</t>
+          <t>https://www.meteo.cat/observacions/xema/dades?codi=DP&amp;dia=2026-02-04T16:30Z</t>
         </is>
       </c>
       <c r="K47" t="n">
@@ -10395,7 +10395,7 @@
       </c>
       <c r="M47" t="inlineStr">
         <is>
-          <t>232</t>
+          <t>223</t>
         </is>
       </c>
       <c r="N47" t="inlineStr"/>
@@ -10407,12 +10407,12 @@
       </c>
       <c r="Q47" t="inlineStr">
         <is>
-          <t>66</t>
+          <t>68</t>
         </is>
       </c>
       <c r="R47" t="inlineStr">
         <is>
-          <t>990.9</t>
+          <t>991.7</t>
         </is>
       </c>
       <c r="S47" t="inlineStr">
@@ -10422,156 +10422,156 @@
       </c>
       <c r="T47" t="inlineStr">
         <is>
-          <t>16:00 - 16:30</t>
+          <t>16:30 - 17:00</t>
         </is>
       </c>
       <c r="U47" t="inlineStr">
         <is>
-          <t>116</t>
+          <t>36</t>
         </is>
       </c>
       <c r="V47" t="inlineStr">
         <is>
-          <t>5.9</t>
+          <t>5.1</t>
         </is>
       </c>
       <c r="W47" t="inlineStr">
         <is>
+          <t>4.3</t>
+        </is>
+      </c>
+      <c r="X47" t="inlineStr">
+        <is>
           <t>5.5</t>
         </is>
       </c>
-      <c r="X47" t="inlineStr">
-        <is>
-          <t>6.2</t>
-        </is>
-      </c>
       <c r="Y47" t="inlineStr">
         <is>
-          <t>20.2</t>
+          <t>17.6</t>
         </is>
       </c>
       <c r="Z47" t="inlineStr"/>
       <c r="AA47" t="inlineStr"/>
       <c r="AB47" t="inlineStr">
         <is>
-          <t>30.6</t>
+          <t>26.6</t>
         </is>
       </c>
       <c r="AC47" t="inlineStr"/>
       <c r="AD47" t="inlineStr"/>
       <c r="AE47" t="inlineStr">
         <is>
-          <t>16:00 - 16:30</t>
+          <t>16:30 - 17:00</t>
         </is>
       </c>
       <c r="AF47" t="inlineStr">
         <is>
-          <t>5.9</t>
+          <t>5.1</t>
         </is>
       </c>
       <c r="AG47" t="inlineStr">
         <is>
-          <t>6.2</t>
+          <t>5.5</t>
         </is>
       </c>
       <c r="AH47" t="inlineStr">
         <is>
+          <t>4.3</t>
+        </is>
+      </c>
+      <c r="AI47" t="inlineStr">
+        <is>
+          <t>68</t>
+        </is>
+      </c>
+      <c r="AJ47" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="AK47" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AL47" t="inlineStr">
+        <is>
+          <t>17.6</t>
+        </is>
+      </c>
+      <c r="AM47" t="inlineStr">
+        <is>
+          <t>16:30 - 17:00</t>
+        </is>
+      </c>
+      <c r="AN47" t="inlineStr">
+        <is>
+          <t>5.1</t>
+        </is>
+      </c>
+      <c r="AO47" t="inlineStr">
+        <is>
           <t>5.5</t>
         </is>
       </c>
-      <c r="AI47" t="inlineStr">
-        <is>
-          <t>66</t>
-        </is>
-      </c>
-      <c r="AJ47" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="AK47" t="inlineStr">
+      <c r="AP47" t="inlineStr">
+        <is>
+          <t>4.3</t>
+        </is>
+      </c>
+      <c r="AQ47" t="inlineStr">
+        <is>
+          <t>68</t>
+        </is>
+      </c>
+      <c r="AR47" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="AS47" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="AL47" t="inlineStr">
-        <is>
-          <t>20.2</t>
-        </is>
-      </c>
-      <c r="AM47" t="inlineStr">
-        <is>
-          <t>16:00 - 16:30</t>
-        </is>
-      </c>
-      <c r="AN47" t="inlineStr">
-        <is>
-          <t>5.9</t>
-        </is>
-      </c>
-      <c r="AO47" t="inlineStr">
-        <is>
-          <t>6.2</t>
-        </is>
-      </c>
-      <c r="AP47" t="inlineStr">
-        <is>
-          <t>5.5</t>
-        </is>
-      </c>
-      <c r="AQ47" t="inlineStr">
-        <is>
-          <t>66</t>
-        </is>
-      </c>
-      <c r="AR47" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="AS47" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
       <c r="AT47" t="inlineStr">
         <is>
-          <t>20.2</t>
+          <t>17.6</t>
         </is>
       </c>
       <c r="AU47" t="inlineStr">
         <is>
-          <t>232</t>
+          <t>223</t>
         </is>
       </c>
       <c r="AV47" t="inlineStr">
         <is>
-          <t>30.6</t>
+          <t>26.6</t>
         </is>
       </c>
       <c r="AW47" t="inlineStr">
         <is>
-          <t>990.9</t>
+          <t>991.7</t>
         </is>
       </c>
       <c r="AX47" t="inlineStr">
         <is>
-          <t>232</t>
+          <t>223</t>
         </is>
       </c>
       <c r="AY47" t="inlineStr">
         <is>
-          <t>30.6</t>
+          <t>26.6</t>
         </is>
       </c>
       <c r="AZ47" t="inlineStr">
         <is>
-          <t>990.9</t>
+          <t>991.7</t>
         </is>
       </c>
       <c r="BA47" t="inlineStr">
         <is>
-          <t>116</t>
+          <t>36</t>
         </is>
       </c>
     </row>
@@ -10613,7 +10613,7 @@
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>2026-02-04 16:57:38</t>
+          <t>2026-02-04 17:13:22</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
@@ -10854,7 +10854,7 @@
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>2026-02-04 16:57:38</t>
+          <t>2026-02-04 17:13:22</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
@@ -11095,7 +11095,7 @@
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>2026-02-04 16:57:38</t>
+          <t>2026-02-04 17:13:22</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
@@ -11336,7 +11336,7 @@
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>2026-02-04 16:57:38</t>
+          <t>2026-02-04 17:13:22</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
@@ -11577,17 +11577,17 @@
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>2026-02-04 16:57:41</t>
+          <t>2026-02-04 17:13:25</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>16:00</t>
+          <t>16:30</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
         <is>
-          <t>https://www.meteo.cat/observacions/xema/dades?codi=XL&amp;dia=2026-02-04T16:00Z</t>
+          <t>https://www.meteo.cat/observacions/xema/dades?codi=XL&amp;dia=2026-02-04T16:30Z</t>
         </is>
       </c>
       <c r="K52" t="n">
@@ -11798,7 +11798,7 @@
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>2026-02-04 16:57:42</t>
+          <t>2026-02-04 17:13:26</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
@@ -12019,7 +12019,7 @@
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>2026-02-04 16:57:42</t>
+          <t>2026-02-04 17:13:26</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
@@ -12240,7 +12240,7 @@
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>2026-02-04 16:57:42</t>
+          <t>2026-02-04 17:13:26</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
@@ -12461,7 +12461,7 @@
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>2026-02-04 16:57:42</t>
+          <t>2026-02-04 17:13:26</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
@@ -12667,7 +12667,7 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>16:00 - 16:30</t>
+          <t>16:30 - 17:00</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
@@ -12682,17 +12682,17 @@
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>2026-02-04 16:57:45</t>
+          <t>2026-02-04 17:13:29</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>16:00</t>
+          <t>16:30</t>
         </is>
       </c>
       <c r="J57" t="inlineStr">
         <is>
-          <t>https://www.meteo.cat/observacions/xema/dades?codi=VZ&amp;dia=2026-02-04T16:00Z</t>
+          <t>https://www.meteo.cat/observacions/xema/dades?codi=VZ&amp;dia=2026-02-04T16:30Z</t>
         </is>
       </c>
       <c r="K57" t="n">
@@ -12709,7 +12709,7 @@
       <c r="P57" t="inlineStr"/>
       <c r="Q57" t="inlineStr">
         <is>
-          <t>52</t>
+          <t>59</t>
         </is>
       </c>
       <c r="R57" t="inlineStr"/>
@@ -12720,23 +12720,23 @@
       </c>
       <c r="T57" t="inlineStr">
         <is>
-          <t>16:00 - 16:30</t>
+          <t>16:30 - 17:00</t>
         </is>
       </c>
       <c r="U57" t="inlineStr"/>
       <c r="V57" t="inlineStr">
         <is>
-          <t>13.8</t>
+          <t>12.7</t>
         </is>
       </c>
       <c r="W57" t="inlineStr">
         <is>
+          <t>10.8</t>
+        </is>
+      </c>
+      <c r="X57" t="inlineStr">
+        <is>
           <t>13.6</t>
-        </is>
-      </c>
-      <c r="X57" t="inlineStr">
-        <is>
-          <t>13.9</t>
         </is>
       </c>
       <c r="Y57" t="inlineStr"/>
@@ -12747,27 +12747,27 @@
       <c r="AD57" t="inlineStr"/>
       <c r="AE57" t="inlineStr">
         <is>
-          <t>16:00 - 16:30</t>
+          <t>16:30 - 17:00</t>
         </is>
       </c>
       <c r="AF57" t="inlineStr">
         <is>
-          <t>13.8</t>
+          <t>12.7</t>
         </is>
       </c>
       <c r="AG57" t="inlineStr">
         <is>
-          <t>13.9</t>
+          <t>13.6</t>
         </is>
       </c>
       <c r="AH57" t="inlineStr">
         <is>
-          <t>13.6</t>
+          <t>10.8</t>
         </is>
       </c>
       <c r="AI57" t="inlineStr">
         <is>
-          <t>52</t>
+          <t>59</t>
         </is>
       </c>
       <c r="AJ57" t="inlineStr">
@@ -12779,27 +12779,27 @@
       <c r="AL57" t="inlineStr"/>
       <c r="AM57" t="inlineStr">
         <is>
-          <t>16:00 - 16:30</t>
+          <t>16:30 - 17:00</t>
         </is>
       </c>
       <c r="AN57" t="inlineStr">
         <is>
-          <t>13.8</t>
+          <t>12.7</t>
         </is>
       </c>
       <c r="AO57" t="inlineStr">
         <is>
-          <t>13.9</t>
+          <t>13.6</t>
         </is>
       </c>
       <c r="AP57" t="inlineStr">
         <is>
-          <t>13.6</t>
+          <t>10.8</t>
         </is>
       </c>
       <c r="AQ57" t="inlineStr">
         <is>
-          <t>52</t>
+          <t>59</t>
         </is>
       </c>
       <c r="AR57" t="inlineStr">
@@ -12855,7 +12855,7 @@
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>2026-02-04 16:57:46</t>
+          <t>2026-02-04 17:13:30</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
@@ -13028,7 +13028,7 @@
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>2026-02-04 16:57:46</t>
+          <t>2026-02-04 17:13:30</t>
         </is>
       </c>
       <c r="I59" t="inlineStr">
@@ -13201,7 +13201,7 @@
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>2026-02-04 16:57:46</t>
+          <t>2026-02-04 17:13:30</t>
         </is>
       </c>
       <c r="I60" t="inlineStr">
@@ -13374,7 +13374,7 @@
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>2026-02-04 16:57:46</t>
+          <t>2026-02-04 17:13:30</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
@@ -13532,7 +13532,7 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>16:00 - 16:30</t>
+          <t>16:30 - 17:00</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
@@ -13547,17 +13547,17 @@
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>2026-02-04 16:57:49</t>
+          <t>2026-02-04 17:13:32</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>16:00</t>
+          <t>16:30</t>
         </is>
       </c>
       <c r="J62" t="inlineStr">
         <is>
-          <t>https://www.meteo.cat/observacions/xema/dades?codi=Z7&amp;dia=2026-02-04T16:00Z</t>
+          <t>https://www.meteo.cat/observacions/xema/dades?codi=Z7&amp;dia=2026-02-04T16:30Z</t>
         </is>
       </c>
       <c r="K62" t="n">
@@ -13570,7 +13570,7 @@
       </c>
       <c r="M62" t="inlineStr">
         <is>
-          <t>205</t>
+          <t>201</t>
         </is>
       </c>
       <c r="N62" t="inlineStr"/>
@@ -13582,7 +13582,7 @@
       </c>
       <c r="Q62" t="inlineStr">
         <is>
-          <t>68</t>
+          <t>67</t>
         </is>
       </c>
       <c r="R62" t="inlineStr"/>
@@ -13593,151 +13593,151 @@
       </c>
       <c r="T62" t="inlineStr">
         <is>
-          <t>16:00 - 16:30</t>
+          <t>16:30 - 17:00</t>
         </is>
       </c>
       <c r="U62" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>15</t>
         </is>
       </c>
       <c r="V62" t="inlineStr">
         <is>
+          <t>-3.3</t>
+        </is>
+      </c>
+      <c r="W62" t="inlineStr">
+        <is>
           <t>-3.5</t>
         </is>
       </c>
-      <c r="W62" t="inlineStr">
-        <is>
-          <t>-3.8</t>
-        </is>
-      </c>
       <c r="X62" t="inlineStr">
         <is>
-          <t>-3.3</t>
+          <t>-3.1</t>
         </is>
       </c>
       <c r="Y62" t="inlineStr">
         <is>
-          <t>13.0</t>
+          <t>9.4</t>
         </is>
       </c>
       <c r="Z62" t="inlineStr"/>
       <c r="AA62" t="inlineStr"/>
       <c r="AB62" t="inlineStr">
         <is>
-          <t>31.7</t>
+          <t>28.1</t>
         </is>
       </c>
       <c r="AC62" t="inlineStr"/>
       <c r="AD62" t="inlineStr"/>
       <c r="AE62" t="inlineStr">
         <is>
-          <t>16:00 - 16:30</t>
+          <t>16:30 - 17:00</t>
         </is>
       </c>
       <c r="AF62" t="inlineStr">
         <is>
+          <t>-3.3</t>
+        </is>
+      </c>
+      <c r="AG62" t="inlineStr">
+        <is>
+          <t>-3.1</t>
+        </is>
+      </c>
+      <c r="AH62" t="inlineStr">
+        <is>
           <t>-3.5</t>
         </is>
       </c>
-      <c r="AG62" t="inlineStr">
+      <c r="AI62" t="inlineStr">
+        <is>
+          <t>67</t>
+        </is>
+      </c>
+      <c r="AJ62" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="AK62" t="inlineStr">
+        <is>
+          <t>68</t>
+        </is>
+      </c>
+      <c r="AL62" t="inlineStr">
+        <is>
+          <t>9.4</t>
+        </is>
+      </c>
+      <c r="AM62" t="inlineStr">
+        <is>
+          <t>16:30 - 17:00</t>
+        </is>
+      </c>
+      <c r="AN62" t="inlineStr">
         <is>
           <t>-3.3</t>
         </is>
       </c>
-      <c r="AH62" t="inlineStr">
-        <is>
-          <t>-3.8</t>
-        </is>
-      </c>
-      <c r="AI62" t="inlineStr">
+      <c r="AO62" t="inlineStr">
+        <is>
+          <t>-3.1</t>
+        </is>
+      </c>
+      <c r="AP62" t="inlineStr">
+        <is>
+          <t>-3.5</t>
+        </is>
+      </c>
+      <c r="AQ62" t="inlineStr">
+        <is>
+          <t>67</t>
+        </is>
+      </c>
+      <c r="AR62" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="AS62" t="inlineStr">
         <is>
           <t>68</t>
         </is>
       </c>
-      <c r="AJ62" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="AK62" t="inlineStr">
-        <is>
-          <t>68</t>
-        </is>
-      </c>
-      <c r="AL62" t="inlineStr">
-        <is>
-          <t>13.0</t>
-        </is>
-      </c>
-      <c r="AM62" t="inlineStr">
-        <is>
-          <t>16:00 - 16:30</t>
-        </is>
-      </c>
-      <c r="AN62" t="inlineStr">
-        <is>
-          <t>-3.5</t>
-        </is>
-      </c>
-      <c r="AO62" t="inlineStr">
-        <is>
-          <t>-3.3</t>
-        </is>
-      </c>
-      <c r="AP62" t="inlineStr">
-        <is>
-          <t>-3.8</t>
-        </is>
-      </c>
-      <c r="AQ62" t="inlineStr">
-        <is>
-          <t>68</t>
-        </is>
-      </c>
-      <c r="AR62" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="AS62" t="inlineStr">
-        <is>
-          <t>68</t>
-        </is>
-      </c>
       <c r="AT62" t="inlineStr">
         <is>
-          <t>13.0</t>
+          <t>9.4</t>
         </is>
       </c>
       <c r="AU62" t="inlineStr">
         <is>
-          <t>205</t>
+          <t>201</t>
         </is>
       </c>
       <c r="AV62" t="inlineStr">
         <is>
-          <t>31.7</t>
+          <t>28.1</t>
         </is>
       </c>
       <c r="AW62" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>15</t>
         </is>
       </c>
       <c r="AX62" t="inlineStr">
         <is>
-          <t>205</t>
+          <t>201</t>
         </is>
       </c>
       <c r="AY62" t="inlineStr">
         <is>
-          <t>31.7</t>
+          <t>28.1</t>
         </is>
       </c>
       <c r="AZ62" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>15</t>
         </is>
       </c>
       <c r="BA62" t="inlineStr"/>
@@ -13780,7 +13780,7 @@
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>2026-02-04 16:57:50</t>
+          <t>2026-02-04 17:13:34</t>
         </is>
       </c>
       <c r="I63" t="inlineStr">
@@ -14013,7 +14013,7 @@
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>2026-02-04 16:57:50</t>
+          <t>2026-02-04 17:13:34</t>
         </is>
       </c>
       <c r="I64" t="inlineStr">
@@ -14246,7 +14246,7 @@
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>2026-02-04 16:57:50</t>
+          <t>2026-02-04 17:13:34</t>
         </is>
       </c>
       <c r="I65" t="inlineStr">
@@ -14479,7 +14479,7 @@
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>2026-02-04 16:57:50</t>
+          <t>2026-02-04 17:13:34</t>
         </is>
       </c>
       <c r="I66" t="inlineStr">
@@ -14697,7 +14697,7 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>16:00 - 16:30</t>
+          <t>16:30 - 17:00</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
@@ -14712,17 +14712,17 @@
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>2026-02-04 16:57:53</t>
+          <t>2026-02-04 17:13:36</t>
         </is>
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>16:00</t>
+          <t>16:30</t>
         </is>
       </c>
       <c r="J67" t="inlineStr">
         <is>
-          <t>https://www.meteo.cat/observacions/xema/dades?codi=XJ&amp;dia=2026-02-04T16:00Z</t>
+          <t>https://www.meteo.cat/observacions/xema/dades?codi=XJ&amp;dia=2026-02-04T16:30Z</t>
         </is>
       </c>
       <c r="K67" t="n">
@@ -14735,7 +14735,7 @@
       </c>
       <c r="M67" t="inlineStr">
         <is>
-          <t>248</t>
+          <t>244</t>
         </is>
       </c>
       <c r="N67" t="inlineStr"/>
@@ -14743,12 +14743,12 @@
       <c r="P67" t="inlineStr"/>
       <c r="Q67" t="inlineStr">
         <is>
-          <t>52</t>
+          <t>56</t>
         </is>
       </c>
       <c r="R67" t="inlineStr">
         <is>
-          <t>990.3</t>
+          <t>990.5</t>
         </is>
       </c>
       <c r="S67" t="inlineStr">
@@ -14758,106 +14758,106 @@
       </c>
       <c r="T67" t="inlineStr">
         <is>
-          <t>16:00 - 16:30</t>
+          <t>16:30 - 17:00</t>
         </is>
       </c>
       <c r="U67" t="inlineStr">
         <is>
-          <t>112</t>
+          <t>36</t>
         </is>
       </c>
       <c r="V67" t="inlineStr">
         <is>
-          <t>13.4</t>
+          <t>12.5</t>
         </is>
       </c>
       <c r="W67" t="inlineStr">
         <is>
+          <t>11.8</t>
+        </is>
+      </c>
+      <c r="X67" t="inlineStr">
+        <is>
           <t>13.1</t>
         </is>
       </c>
-      <c r="X67" t="inlineStr">
-        <is>
-          <t>13.7</t>
-        </is>
-      </c>
       <c r="Y67" t="inlineStr">
         <is>
-          <t>11.2</t>
+          <t>8.3</t>
         </is>
       </c>
       <c r="Z67" t="inlineStr"/>
       <c r="AA67" t="inlineStr"/>
       <c r="AB67" t="inlineStr">
         <is>
-          <t>20.9</t>
+          <t>18.4</t>
         </is>
       </c>
       <c r="AC67" t="inlineStr"/>
       <c r="AD67" t="inlineStr"/>
       <c r="AE67" t="inlineStr">
         <is>
-          <t>16:00 - 16:30</t>
+          <t>16:30 - 17:00</t>
         </is>
       </c>
       <c r="AF67" t="inlineStr">
         <is>
-          <t>13.4</t>
+          <t>12.5</t>
         </is>
       </c>
       <c r="AG67" t="inlineStr">
         <is>
-          <t>13.7</t>
+          <t>13.1</t>
         </is>
       </c>
       <c r="AH67" t="inlineStr">
         <is>
+          <t>11.8</t>
+        </is>
+      </c>
+      <c r="AI67" t="inlineStr">
+        <is>
+          <t>56</t>
+        </is>
+      </c>
+      <c r="AJ67" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="AK67" t="inlineStr">
+        <is>
+          <t>8.3</t>
+        </is>
+      </c>
+      <c r="AL67" t="inlineStr">
+        <is>
+          <t>244</t>
+        </is>
+      </c>
+      <c r="AM67" t="inlineStr">
+        <is>
+          <t>16:30 - 17:00</t>
+        </is>
+      </c>
+      <c r="AN67" t="inlineStr">
+        <is>
+          <t>12.5</t>
+        </is>
+      </c>
+      <c r="AO67" t="inlineStr">
+        <is>
           <t>13.1</t>
         </is>
       </c>
-      <c r="AI67" t="inlineStr">
-        <is>
-          <t>52</t>
-        </is>
-      </c>
-      <c r="AJ67" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="AK67" t="inlineStr">
-        <is>
-          <t>11.2</t>
-        </is>
-      </c>
-      <c r="AL67" t="inlineStr">
-        <is>
-          <t>248</t>
-        </is>
-      </c>
-      <c r="AM67" t="inlineStr">
-        <is>
-          <t>16:00 - 16:30</t>
-        </is>
-      </c>
-      <c r="AN67" t="inlineStr">
-        <is>
-          <t>13.4</t>
-        </is>
-      </c>
-      <c r="AO67" t="inlineStr">
-        <is>
-          <t>13.7</t>
-        </is>
-      </c>
       <c r="AP67" t="inlineStr">
         <is>
-          <t>13.1</t>
+          <t>11.8</t>
         </is>
       </c>
       <c r="AQ67" t="inlineStr">
         <is>
-          <t>52</t>
+          <t>56</t>
         </is>
       </c>
       <c r="AR67" t="inlineStr">
@@ -14867,42 +14867,42 @@
       </c>
       <c r="AS67" t="inlineStr">
         <is>
-          <t>11.2</t>
+          <t>8.3</t>
         </is>
       </c>
       <c r="AT67" t="inlineStr">
         <is>
-          <t>248</t>
+          <t>244</t>
         </is>
       </c>
       <c r="AU67" t="inlineStr">
         <is>
-          <t>20.9</t>
+          <t>18.4</t>
         </is>
       </c>
       <c r="AV67" t="inlineStr">
         <is>
-          <t>990.3</t>
+          <t>990.5</t>
         </is>
       </c>
       <c r="AW67" t="inlineStr">
         <is>
-          <t>112</t>
+          <t>36</t>
         </is>
       </c>
       <c r="AX67" t="inlineStr">
         <is>
-          <t>20.9</t>
+          <t>18.4</t>
         </is>
       </c>
       <c r="AY67" t="inlineStr">
         <is>
-          <t>990.3</t>
+          <t>990.5</t>
         </is>
       </c>
       <c r="AZ67" t="inlineStr">
         <is>
-          <t>112</t>
+          <t>36</t>
         </is>
       </c>
       <c r="BA67" t="inlineStr"/>
@@ -14945,7 +14945,7 @@
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>2026-02-04 16:57:55</t>
+          <t>2026-02-04 17:13:38</t>
         </is>
       </c>
       <c r="I68" t="inlineStr">
@@ -15178,7 +15178,7 @@
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>2026-02-04 16:57:55</t>
+          <t>2026-02-04 17:13:38</t>
         </is>
       </c>
       <c r="I69" t="inlineStr">
@@ -15411,7 +15411,7 @@
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>2026-02-04 16:57:55</t>
+          <t>2026-02-04 17:13:38</t>
         </is>
       </c>
       <c r="I70" t="inlineStr">
@@ -15644,7 +15644,7 @@
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>2026-02-04 16:57:55</t>
+          <t>2026-02-04 17:13:38</t>
         </is>
       </c>
       <c r="I71" t="inlineStr">
@@ -15862,7 +15862,7 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>16:00 - 16:30</t>
+          <t>16:30 - 17:00</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
@@ -15877,17 +15877,17 @@
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>2026-02-04 16:57:57</t>
+          <t>2026-02-04 17:13:40</t>
         </is>
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>16:00</t>
+          <t>16:30</t>
         </is>
       </c>
       <c r="J72" t="inlineStr">
         <is>
-          <t>https://www.meteo.cat/observacions/xema/dades?codi=YU&amp;dia=2026-02-04T16:00Z</t>
+          <t>https://www.meteo.cat/observacions/xema/dades?codi=YU&amp;dia=2026-02-04T16:30Z</t>
         </is>
       </c>
       <c r="K72" t="n">
@@ -15900,7 +15900,7 @@
       </c>
       <c r="M72" t="inlineStr">
         <is>
-          <t>259</t>
+          <t>247</t>
         </is>
       </c>
       <c r="N72" t="inlineStr"/>
@@ -15908,7 +15908,7 @@
       <c r="P72" t="inlineStr"/>
       <c r="Q72" t="inlineStr">
         <is>
-          <t>81</t>
+          <t>82</t>
         </is>
       </c>
       <c r="R72" t="inlineStr"/>
@@ -15919,106 +15919,106 @@
       </c>
       <c r="T72" t="inlineStr">
         <is>
-          <t>16:00 - 16:30</t>
+          <t>16:30 - 17:00</t>
         </is>
       </c>
       <c r="U72" t="inlineStr">
         <is>
-          <t>113</t>
+          <t>45</t>
         </is>
       </c>
       <c r="V72" t="inlineStr">
         <is>
-          <t>5.8</t>
+          <t>5.3</t>
         </is>
       </c>
       <c r="W72" t="inlineStr">
         <is>
-          <t>5.3</t>
+          <t>4.6</t>
         </is>
       </c>
       <c r="X72" t="inlineStr">
         <is>
-          <t>6.2</t>
+          <t>5.6</t>
         </is>
       </c>
       <c r="Y72" t="inlineStr">
         <is>
-          <t>10.4</t>
+          <t>8.3</t>
         </is>
       </c>
       <c r="Z72" t="inlineStr"/>
       <c r="AA72" t="inlineStr"/>
       <c r="AB72" t="inlineStr">
         <is>
-          <t>20.5</t>
+          <t>14.8</t>
         </is>
       </c>
       <c r="AC72" t="inlineStr"/>
       <c r="AD72" t="inlineStr"/>
       <c r="AE72" t="inlineStr">
         <is>
-          <t>16:00 - 16:30</t>
+          <t>16:30 - 17:00</t>
         </is>
       </c>
       <c r="AF72" t="inlineStr">
         <is>
-          <t>5.8</t>
+          <t>5.3</t>
         </is>
       </c>
       <c r="AG72" t="inlineStr">
         <is>
-          <t>6.2</t>
+          <t>5.6</t>
         </is>
       </c>
       <c r="AH72" t="inlineStr">
         <is>
+          <t>4.6</t>
+        </is>
+      </c>
+      <c r="AI72" t="inlineStr">
+        <is>
+          <t>82</t>
+        </is>
+      </c>
+      <c r="AJ72" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="AK72" t="inlineStr">
+        <is>
+          <t>8.3</t>
+        </is>
+      </c>
+      <c r="AL72" t="inlineStr">
+        <is>
+          <t>247</t>
+        </is>
+      </c>
+      <c r="AM72" t="inlineStr">
+        <is>
+          <t>16:30 - 17:00</t>
+        </is>
+      </c>
+      <c r="AN72" t="inlineStr">
+        <is>
           <t>5.3</t>
         </is>
       </c>
-      <c r="AI72" t="inlineStr">
-        <is>
-          <t>81</t>
-        </is>
-      </c>
-      <c r="AJ72" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="AK72" t="inlineStr">
-        <is>
-          <t>10.4</t>
-        </is>
-      </c>
-      <c r="AL72" t="inlineStr">
-        <is>
-          <t>259</t>
-        </is>
-      </c>
-      <c r="AM72" t="inlineStr">
-        <is>
-          <t>16:00 - 16:30</t>
-        </is>
-      </c>
-      <c r="AN72" t="inlineStr">
-        <is>
-          <t>5.8</t>
-        </is>
-      </c>
       <c r="AO72" t="inlineStr">
         <is>
-          <t>6.2</t>
+          <t>5.6</t>
         </is>
       </c>
       <c r="AP72" t="inlineStr">
         <is>
-          <t>5.3</t>
+          <t>4.6</t>
         </is>
       </c>
       <c r="AQ72" t="inlineStr">
         <is>
-          <t>81</t>
+          <t>82</t>
         </is>
       </c>
       <c r="AR72" t="inlineStr">
@@ -16028,33 +16028,33 @@
       </c>
       <c r="AS72" t="inlineStr">
         <is>
-          <t>10.4</t>
+          <t>8.3</t>
         </is>
       </c>
       <c r="AT72" t="inlineStr">
         <is>
-          <t>259</t>
+          <t>247</t>
         </is>
       </c>
       <c r="AU72" t="inlineStr">
         <is>
-          <t>20.5</t>
+          <t>14.8</t>
         </is>
       </c>
       <c r="AV72" t="inlineStr">
         <is>
-          <t>113</t>
+          <t>45</t>
         </is>
       </c>
       <c r="AW72" t="inlineStr"/>
       <c r="AX72" t="inlineStr">
         <is>
-          <t>20.5</t>
+          <t>14.8</t>
         </is>
       </c>
       <c r="AY72" t="inlineStr">
         <is>
-          <t>113</t>
+          <t>45</t>
         </is>
       </c>
       <c r="AZ72" t="inlineStr"/>
@@ -16098,7 +16098,7 @@
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>2026-02-04 16:57:59</t>
+          <t>2026-02-04 17:13:42</t>
         </is>
       </c>
       <c r="I73" t="inlineStr">
@@ -16319,7 +16319,7 @@
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>2026-02-04 16:57:59</t>
+          <t>2026-02-04 17:13:42</t>
         </is>
       </c>
       <c r="I74" t="inlineStr">
@@ -16540,7 +16540,7 @@
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>2026-02-04 16:57:59</t>
+          <t>2026-02-04 17:13:42</t>
         </is>
       </c>
       <c r="I75" t="inlineStr">
@@ -16761,7 +16761,7 @@
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>2026-02-04 16:57:59</t>
+          <t>2026-02-04 17:13:42</t>
         </is>
       </c>
       <c r="I76" t="inlineStr">
@@ -16967,7 +16967,7 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>16:00 - 16:30</t>
+          <t>16:30 - 17:00</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
@@ -16982,17 +16982,17 @@
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>2026-02-04 16:58:01</t>
+          <t>2026-02-04 17:13:45</t>
         </is>
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>16:00</t>
+          <t>16:30</t>
         </is>
       </c>
       <c r="J77" t="inlineStr">
         <is>
-          <t>https://www.meteo.cat/observacions/xema/dades?codi=CD&amp;dia=2026-02-04T16:00Z</t>
+          <t>https://www.meteo.cat/observacions/xema/dades?codi=CD&amp;dia=2026-02-04T16:30Z</t>
         </is>
       </c>
       <c r="K77" t="n">
@@ -17005,7 +17005,7 @@
       </c>
       <c r="M77" t="inlineStr">
         <is>
-          <t>227</t>
+          <t>253</t>
         </is>
       </c>
       <c r="N77" t="inlineStr"/>
@@ -17013,12 +17013,12 @@
       <c r="P77" t="inlineStr"/>
       <c r="Q77" t="inlineStr">
         <is>
-          <t>65</t>
+          <t>67</t>
         </is>
       </c>
       <c r="R77" t="inlineStr">
         <is>
-          <t>991.0</t>
+          <t>991.6</t>
         </is>
       </c>
       <c r="S77" t="inlineStr">
@@ -17028,66 +17028,66 @@
       </c>
       <c r="T77" t="inlineStr">
         <is>
-          <t>16:00 - 16:30</t>
+          <t>16:30 - 17:00</t>
         </is>
       </c>
       <c r="U77" t="inlineStr">
         <is>
-          <t>145</t>
+          <t>34</t>
         </is>
       </c>
       <c r="V77" t="inlineStr">
         <is>
-          <t>8.2</t>
+          <t>7.4</t>
         </is>
       </c>
       <c r="W77" t="inlineStr">
         <is>
-          <t>7.9</t>
+          <t>6.2</t>
         </is>
       </c>
       <c r="X77" t="inlineStr">
         <is>
-          <t>8.8</t>
+          <t>8.1</t>
         </is>
       </c>
       <c r="Y77" t="inlineStr">
         <is>
-          <t>8.3</t>
+          <t>5.4</t>
         </is>
       </c>
       <c r="Z77" t="inlineStr"/>
       <c r="AA77" t="inlineStr"/>
       <c r="AB77" t="inlineStr">
         <is>
-          <t>16.6</t>
+          <t>10.8</t>
         </is>
       </c>
       <c r="AC77" t="inlineStr"/>
       <c r="AD77" t="inlineStr"/>
       <c r="AE77" t="inlineStr">
         <is>
-          <t>16:00 - 16:30</t>
+          <t>16:30 - 17:00</t>
         </is>
       </c>
       <c r="AF77" t="inlineStr">
         <is>
-          <t>8.2</t>
+          <t>7.4</t>
         </is>
       </c>
       <c r="AG77" t="inlineStr">
         <is>
-          <t>8.8</t>
+          <t>8.1</t>
         </is>
       </c>
       <c r="AH77" t="inlineStr">
         <is>
-          <t>7.9</t>
+          <t>6.2</t>
         </is>
       </c>
       <c r="AI77" t="inlineStr">
         <is>
-          <t>65</t>
+          <t>67</t>
         </is>
       </c>
       <c r="AJ77" t="inlineStr">
@@ -17097,37 +17097,37 @@
       </c>
       <c r="AK77" t="inlineStr">
         <is>
-          <t>8.3</t>
+          <t>5.4</t>
         </is>
       </c>
       <c r="AL77" t="inlineStr">
         <is>
-          <t>227</t>
+          <t>253</t>
         </is>
       </c>
       <c r="AM77" t="inlineStr">
         <is>
-          <t>16:00 - 16:30</t>
+          <t>16:30 - 17:00</t>
         </is>
       </c>
       <c r="AN77" t="inlineStr">
         <is>
-          <t>8.2</t>
+          <t>7.4</t>
         </is>
       </c>
       <c r="AO77" t="inlineStr">
         <is>
-          <t>8.8</t>
+          <t>8.1</t>
         </is>
       </c>
       <c r="AP77" t="inlineStr">
         <is>
-          <t>7.9</t>
+          <t>6.2</t>
         </is>
       </c>
       <c r="AQ77" t="inlineStr">
         <is>
-          <t>65</t>
+          <t>67</t>
         </is>
       </c>
       <c r="AR77" t="inlineStr">
@@ -17137,42 +17137,42 @@
       </c>
       <c r="AS77" t="inlineStr">
         <is>
-          <t>8.3</t>
+          <t>5.4</t>
         </is>
       </c>
       <c r="AT77" t="inlineStr">
         <is>
-          <t>227</t>
+          <t>253</t>
         </is>
       </c>
       <c r="AU77" t="inlineStr">
         <is>
-          <t>16.6</t>
+          <t>10.8</t>
         </is>
       </c>
       <c r="AV77" t="inlineStr">
         <is>
-          <t>991.0</t>
+          <t>991.6</t>
         </is>
       </c>
       <c r="AW77" t="inlineStr">
         <is>
-          <t>145</t>
+          <t>34</t>
         </is>
       </c>
       <c r="AX77" t="inlineStr">
         <is>
-          <t>16.6</t>
+          <t>10.8</t>
         </is>
       </c>
       <c r="AY77" t="inlineStr">
         <is>
-          <t>991.0</t>
+          <t>991.6</t>
         </is>
       </c>
       <c r="AZ77" t="inlineStr">
         <is>
-          <t>145</t>
+          <t>34</t>
         </is>
       </c>
       <c r="BA77" t="inlineStr"/>
@@ -17215,7 +17215,7 @@
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>2026-02-04 16:58:02</t>
+          <t>2026-02-04 17:13:46</t>
         </is>
       </c>
       <c r="I78" t="inlineStr">
@@ -17448,7 +17448,7 @@
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>2026-02-04 16:58:02</t>
+          <t>2026-02-04 17:13:46</t>
         </is>
       </c>
       <c r="I79" t="inlineStr">
@@ -17681,7 +17681,7 @@
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>2026-02-04 16:58:02</t>
+          <t>2026-02-04 17:13:46</t>
         </is>
       </c>
       <c r="I80" t="inlineStr">
@@ -17914,7 +17914,7 @@
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>2026-02-04 16:58:02</t>
+          <t>2026-02-04 17:13:46</t>
         </is>
       </c>
       <c r="I81" t="inlineStr">
@@ -18132,7 +18132,7 @@
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>16:00 - 16:30</t>
+          <t>16:30 - 17:00</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
@@ -18147,17 +18147,17 @@
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>2026-02-04 16:58:05</t>
+          <t>2026-02-04 17:13:49</t>
         </is>
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>16:00</t>
+          <t>16:30</t>
         </is>
       </c>
       <c r="J82" t="inlineStr">
         <is>
-          <t>https://www.meteo.cat/observacions/xema/dades?codi=Z2&amp;dia=2026-02-04T16:00Z</t>
+          <t>https://www.meteo.cat/observacions/xema/dades?codi=Z2&amp;dia=2026-02-04T16:30Z</t>
         </is>
       </c>
       <c r="K82" t="n">
@@ -18172,7 +18172,7 @@
       <c r="N82" t="inlineStr"/>
       <c r="O82" t="inlineStr">
         <is>
-          <t>316</t>
+          <t>311</t>
         </is>
       </c>
       <c r="P82" t="inlineStr">
@@ -18193,61 +18193,61 @@
       </c>
       <c r="T82" t="inlineStr">
         <is>
-          <t>16:00 - 16:30</t>
+          <t>16:30 - 17:00</t>
         </is>
       </c>
       <c r="U82" t="inlineStr">
         <is>
-          <t>86</t>
+          <t>22</t>
         </is>
       </c>
       <c r="V82" t="inlineStr">
         <is>
-          <t>-5.2</t>
+          <t>-5.7</t>
         </is>
       </c>
       <c r="W82" t="inlineStr">
         <is>
-          <t>-5.5</t>
+          <t>-5.9</t>
         </is>
       </c>
       <c r="X82" t="inlineStr">
         <is>
-          <t>-5.0</t>
+          <t>-5.3</t>
         </is>
       </c>
       <c r="Y82" t="inlineStr"/>
       <c r="Z82" t="inlineStr"/>
       <c r="AA82" t="inlineStr">
         <is>
-          <t>4.0</t>
+          <t>3.6</t>
         </is>
       </c>
       <c r="AB82" t="inlineStr"/>
       <c r="AC82" t="inlineStr"/>
       <c r="AD82" t="inlineStr">
         <is>
-          <t>5.4</t>
+          <t>5.0</t>
         </is>
       </c>
       <c r="AE82" t="inlineStr">
         <is>
-          <t>16:00 - 16:30</t>
+          <t>16:30 - 17:00</t>
         </is>
       </c>
       <c r="AF82" t="inlineStr">
         <is>
-          <t>-5.2</t>
+          <t>-5.7</t>
         </is>
       </c>
       <c r="AG82" t="inlineStr">
         <is>
-          <t>-5.0</t>
+          <t>-5.3</t>
         </is>
       </c>
       <c r="AH82" t="inlineStr">
         <is>
-          <t>-5.5</t>
+          <t>-5.9</t>
         </is>
       </c>
       <c r="AI82" t="inlineStr">
@@ -18267,27 +18267,27 @@
       </c>
       <c r="AL82" t="inlineStr">
         <is>
-          <t>4.0</t>
+          <t>3.6</t>
         </is>
       </c>
       <c r="AM82" t="inlineStr">
         <is>
-          <t>16:00 - 16:30</t>
+          <t>16:30 - 17:00</t>
         </is>
       </c>
       <c r="AN82" t="inlineStr">
         <is>
-          <t>-5.2</t>
+          <t>-5.7</t>
         </is>
       </c>
       <c r="AO82" t="inlineStr">
         <is>
-          <t>-5.0</t>
+          <t>-5.3</t>
         </is>
       </c>
       <c r="AP82" t="inlineStr">
         <is>
-          <t>-5.5</t>
+          <t>-5.9</t>
         </is>
       </c>
       <c r="AQ82" t="inlineStr">
@@ -18307,37 +18307,37 @@
       </c>
       <c r="AT82" t="inlineStr">
         <is>
-          <t>4.0</t>
+          <t>3.6</t>
         </is>
       </c>
       <c r="AU82" t="inlineStr">
         <is>
-          <t>316</t>
+          <t>311</t>
         </is>
       </c>
       <c r="AV82" t="inlineStr">
         <is>
-          <t>5.4</t>
+          <t>5.0</t>
         </is>
       </c>
       <c r="AW82" t="inlineStr">
         <is>
-          <t>86</t>
+          <t>22</t>
         </is>
       </c>
       <c r="AX82" t="inlineStr">
         <is>
-          <t>316</t>
+          <t>311</t>
         </is>
       </c>
       <c r="AY82" t="inlineStr">
         <is>
-          <t>5.4</t>
+          <t>5.0</t>
         </is>
       </c>
       <c r="AZ82" t="inlineStr">
         <is>
-          <t>86</t>
+          <t>22</t>
         </is>
       </c>
       <c r="BA82" t="inlineStr"/>
@@ -18380,7 +18380,7 @@
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>2026-02-04 16:58:06</t>
+          <t>2026-02-04 17:13:50</t>
         </is>
       </c>
       <c r="I83" t="inlineStr">
@@ -18613,7 +18613,7 @@
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>2026-02-04 16:58:06</t>
+          <t>2026-02-04 17:13:50</t>
         </is>
       </c>
       <c r="I84" t="inlineStr">
@@ -18846,7 +18846,7 @@
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>2026-02-04 16:58:06</t>
+          <t>2026-02-04 17:13:50</t>
         </is>
       </c>
       <c r="I85" t="inlineStr">
@@ -19079,7 +19079,7 @@
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>2026-02-04 16:58:06</t>
+          <t>2026-02-04 17:13:50</t>
         </is>
       </c>
       <c r="I86" t="inlineStr">
@@ -19297,7 +19297,7 @@
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>16:00 - 16:30</t>
+          <t>16:30 - 17:00</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
@@ -19312,17 +19312,17 @@
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>2026-02-04 16:58:09</t>
+          <t>2026-02-04 17:13:53</t>
         </is>
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>16:00</t>
+          <t>16:30</t>
         </is>
       </c>
       <c r="J87" t="inlineStr">
         <is>
-          <t>https://www.meteo.cat/observacions/xema/dades?codi=VK&amp;dia=2026-02-04T16:00Z</t>
+          <t>https://www.meteo.cat/observacions/xema/dades?codi=VK&amp;dia=2026-02-04T16:30Z</t>
         </is>
       </c>
       <c r="K87" t="n">
@@ -19335,7 +19335,7 @@
       </c>
       <c r="M87" t="inlineStr">
         <is>
-          <t>327</t>
+          <t>332</t>
         </is>
       </c>
       <c r="N87" t="inlineStr"/>
@@ -19343,12 +19343,12 @@
       <c r="P87" t="inlineStr"/>
       <c r="Q87" t="inlineStr">
         <is>
-          <t>69</t>
+          <t>74</t>
         </is>
       </c>
       <c r="R87" t="inlineStr">
         <is>
-          <t>993.1</t>
+          <t>993.3</t>
         </is>
       </c>
       <c r="S87" t="inlineStr">
@@ -19358,106 +19358,106 @@
       </c>
       <c r="T87" t="inlineStr">
         <is>
-          <t>16:00 - 16:30</t>
+          <t>16:30 - 17:00</t>
         </is>
       </c>
       <c r="U87" t="inlineStr">
         <is>
-          <t>103</t>
+          <t>22</t>
         </is>
       </c>
       <c r="V87" t="inlineStr">
         <is>
-          <t>10.3</t>
+          <t>9.2</t>
         </is>
       </c>
       <c r="W87" t="inlineStr">
         <is>
+          <t>8.7</t>
+        </is>
+      </c>
+      <c r="X87" t="inlineStr">
+        <is>
           <t>9.7</t>
         </is>
       </c>
-      <c r="X87" t="inlineStr">
-        <is>
-          <t>10.7</t>
-        </is>
-      </c>
       <c r="Y87" t="inlineStr">
         <is>
-          <t>8.3</t>
+          <t>4.7</t>
         </is>
       </c>
       <c r="Z87" t="inlineStr"/>
       <c r="AA87" t="inlineStr"/>
       <c r="AB87" t="inlineStr">
         <is>
-          <t>14.0</t>
+          <t>9.4</t>
         </is>
       </c>
       <c r="AC87" t="inlineStr"/>
       <c r="AD87" t="inlineStr"/>
       <c r="AE87" t="inlineStr">
         <is>
-          <t>16:00 - 16:30</t>
+          <t>16:30 - 17:00</t>
         </is>
       </c>
       <c r="AF87" t="inlineStr">
         <is>
-          <t>10.3</t>
+          <t>9.2</t>
         </is>
       </c>
       <c r="AG87" t="inlineStr">
         <is>
-          <t>10.7</t>
+          <t>9.7</t>
         </is>
       </c>
       <c r="AH87" t="inlineStr">
         <is>
+          <t>8.7</t>
+        </is>
+      </c>
+      <c r="AI87" t="inlineStr">
+        <is>
+          <t>74</t>
+        </is>
+      </c>
+      <c r="AJ87" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="AK87" t="inlineStr">
+        <is>
+          <t>4.7</t>
+        </is>
+      </c>
+      <c r="AL87" t="inlineStr">
+        <is>
+          <t>332</t>
+        </is>
+      </c>
+      <c r="AM87" t="inlineStr">
+        <is>
+          <t>16:30 - 17:00</t>
+        </is>
+      </c>
+      <c r="AN87" t="inlineStr">
+        <is>
+          <t>9.2</t>
+        </is>
+      </c>
+      <c r="AO87" t="inlineStr">
+        <is>
           <t>9.7</t>
         </is>
       </c>
-      <c r="AI87" t="inlineStr">
-        <is>
-          <t>69</t>
-        </is>
-      </c>
-      <c r="AJ87" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="AK87" t="inlineStr">
-        <is>
-          <t>8.3</t>
-        </is>
-      </c>
-      <c r="AL87" t="inlineStr">
-        <is>
-          <t>327</t>
-        </is>
-      </c>
-      <c r="AM87" t="inlineStr">
-        <is>
-          <t>16:00 - 16:30</t>
-        </is>
-      </c>
-      <c r="AN87" t="inlineStr">
-        <is>
-          <t>10.3</t>
-        </is>
-      </c>
-      <c r="AO87" t="inlineStr">
-        <is>
-          <t>10.7</t>
-        </is>
-      </c>
       <c r="AP87" t="inlineStr">
         <is>
-          <t>9.7</t>
+          <t>8.7</t>
         </is>
       </c>
       <c r="AQ87" t="inlineStr">
         <is>
-          <t>69</t>
+          <t>74</t>
         </is>
       </c>
       <c r="AR87" t="inlineStr">
@@ -19467,42 +19467,42 @@
       </c>
       <c r="AS87" t="inlineStr">
         <is>
-          <t>8.3</t>
+          <t>4.7</t>
         </is>
       </c>
       <c r="AT87" t="inlineStr">
         <is>
-          <t>327</t>
+          <t>332</t>
         </is>
       </c>
       <c r="AU87" t="inlineStr">
         <is>
-          <t>14.0</t>
+          <t>9.4</t>
         </is>
       </c>
       <c r="AV87" t="inlineStr">
         <is>
-          <t>993.1</t>
+          <t>993.3</t>
         </is>
       </c>
       <c r="AW87" t="inlineStr">
         <is>
-          <t>103</t>
+          <t>22</t>
         </is>
       </c>
       <c r="AX87" t="inlineStr">
         <is>
-          <t>14.0</t>
+          <t>9.4</t>
         </is>
       </c>
       <c r="AY87" t="inlineStr">
         <is>
-          <t>993.1</t>
+          <t>993.3</t>
         </is>
       </c>
       <c r="AZ87" t="inlineStr">
         <is>
-          <t>103</t>
+          <t>22</t>
         </is>
       </c>
       <c r="BA87" t="inlineStr"/>
@@ -19545,7 +19545,7 @@
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>2026-02-04 16:58:11</t>
+          <t>2026-02-04 17:13:55</t>
         </is>
       </c>
       <c r="I88" t="inlineStr">
@@ -19778,7 +19778,7 @@
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>2026-02-04 16:58:11</t>
+          <t>2026-02-04 17:13:55</t>
         </is>
       </c>
       <c r="I89" t="inlineStr">
@@ -20011,7 +20011,7 @@
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>2026-02-04 16:58:11</t>
+          <t>2026-02-04 17:13:55</t>
         </is>
       </c>
       <c r="I90" t="inlineStr">
@@ -20244,7 +20244,7 @@
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>2026-02-04 16:58:11</t>
+          <t>2026-02-04 17:13:55</t>
         </is>
       </c>
       <c r="I91" t="inlineStr">
@@ -20462,7 +20462,7 @@
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>16:00 - 16:30</t>
+          <t>16:30 - 17:00</t>
         </is>
       </c>
       <c r="F92" t="inlineStr">
@@ -20477,17 +20477,17 @@
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>2026-02-04 16:58:13</t>
+          <t>2026-02-04 17:13:57</t>
         </is>
       </c>
       <c r="I92" t="inlineStr">
         <is>
-          <t>16:00</t>
+          <t>16:30</t>
         </is>
       </c>
       <c r="J92" t="inlineStr">
         <is>
-          <t>https://www.meteo.cat/observacions/xema/dades?codi=Z3&amp;dia=2026-02-04T16:00Z</t>
+          <t>https://www.meteo.cat/observacions/xema/dades?codi=Z3&amp;dia=2026-02-04T16:30Z</t>
         </is>
       </c>
       <c r="K92" t="n">
@@ -20502,17 +20502,17 @@
       <c r="N92" t="inlineStr"/>
       <c r="O92" t="inlineStr">
         <is>
-          <t>257</t>
+          <t>318</t>
         </is>
       </c>
       <c r="P92" t="inlineStr">
         <is>
-          <t>112</t>
+          <t>113</t>
         </is>
       </c>
       <c r="Q92" t="inlineStr">
         <is>
-          <t>83</t>
+          <t>78</t>
         </is>
       </c>
       <c r="R92" t="inlineStr"/>
@@ -20523,66 +20523,66 @@
       </c>
       <c r="T92" t="inlineStr">
         <is>
-          <t>16:00 - 16:30</t>
+          <t>16:30 - 17:00</t>
         </is>
       </c>
       <c r="U92" t="inlineStr">
         <is>
-          <t>163</t>
+          <t>32</t>
         </is>
       </c>
       <c r="V92" t="inlineStr">
         <is>
+          <t>-2.6</t>
+        </is>
+      </c>
+      <c r="W92" t="inlineStr">
+        <is>
+          <t>-3.1</t>
+        </is>
+      </c>
+      <c r="X92" t="inlineStr">
+        <is>
           <t>-2.3</t>
-        </is>
-      </c>
-      <c r="W92" t="inlineStr">
-        <is>
-          <t>-2.7</t>
-        </is>
-      </c>
-      <c r="X92" t="inlineStr">
-        <is>
-          <t>-2.0</t>
         </is>
       </c>
       <c r="Y92" t="inlineStr"/>
       <c r="Z92" t="inlineStr"/>
       <c r="AA92" t="inlineStr">
         <is>
-          <t>2.9</t>
+          <t>1.8</t>
         </is>
       </c>
       <c r="AB92" t="inlineStr"/>
       <c r="AC92" t="inlineStr"/>
       <c r="AD92" t="inlineStr">
         <is>
-          <t>9.4</t>
+          <t>7.2</t>
         </is>
       </c>
       <c r="AE92" t="inlineStr">
         <is>
-          <t>16:00 - 16:30</t>
+          <t>16:30 - 17:00</t>
         </is>
       </c>
       <c r="AF92" t="inlineStr">
         <is>
+          <t>-2.6</t>
+        </is>
+      </c>
+      <c r="AG92" t="inlineStr">
+        <is>
           <t>-2.3</t>
         </is>
       </c>
-      <c r="AG92" t="inlineStr">
-        <is>
-          <t>-2.0</t>
-        </is>
-      </c>
       <c r="AH92" t="inlineStr">
         <is>
-          <t>-2.7</t>
+          <t>-3.1</t>
         </is>
       </c>
       <c r="AI92" t="inlineStr">
         <is>
-          <t>83</t>
+          <t>78</t>
         </is>
       </c>
       <c r="AJ92" t="inlineStr">
@@ -20592,37 +20592,37 @@
       </c>
       <c r="AK92" t="inlineStr">
         <is>
-          <t>112</t>
+          <t>113</t>
         </is>
       </c>
       <c r="AL92" t="inlineStr">
         <is>
-          <t>2.9</t>
+          <t>1.8</t>
         </is>
       </c>
       <c r="AM92" t="inlineStr">
         <is>
-          <t>16:00 - 16:30</t>
+          <t>16:30 - 17:00</t>
         </is>
       </c>
       <c r="AN92" t="inlineStr">
         <is>
+          <t>-2.6</t>
+        </is>
+      </c>
+      <c r="AO92" t="inlineStr">
+        <is>
           <t>-2.3</t>
         </is>
       </c>
-      <c r="AO92" t="inlineStr">
-        <is>
-          <t>-2.0</t>
-        </is>
-      </c>
       <c r="AP92" t="inlineStr">
         <is>
-          <t>-2.7</t>
+          <t>-3.1</t>
         </is>
       </c>
       <c r="AQ92" t="inlineStr">
         <is>
-          <t>83</t>
+          <t>78</t>
         </is>
       </c>
       <c r="AR92" t="inlineStr">
@@ -20632,42 +20632,42 @@
       </c>
       <c r="AS92" t="inlineStr">
         <is>
-          <t>112</t>
+          <t>113</t>
         </is>
       </c>
       <c r="AT92" t="inlineStr">
         <is>
-          <t>2.9</t>
+          <t>1.8</t>
         </is>
       </c>
       <c r="AU92" t="inlineStr">
         <is>
-          <t>257</t>
+          <t>318</t>
         </is>
       </c>
       <c r="AV92" t="inlineStr">
         <is>
-          <t>9.4</t>
+          <t>7.2</t>
         </is>
       </c>
       <c r="AW92" t="inlineStr">
         <is>
-          <t>163</t>
+          <t>32</t>
         </is>
       </c>
       <c r="AX92" t="inlineStr">
         <is>
-          <t>257</t>
+          <t>318</t>
         </is>
       </c>
       <c r="AY92" t="inlineStr">
         <is>
-          <t>9.4</t>
+          <t>7.2</t>
         </is>
       </c>
       <c r="AZ92" t="inlineStr">
         <is>
-          <t>163</t>
+          <t>32</t>
         </is>
       </c>
       <c r="BA92" t="inlineStr"/>
@@ -20710,7 +20710,7 @@
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>2026-02-04 16:58:15</t>
+          <t>2026-02-04 17:13:59</t>
         </is>
       </c>
       <c r="I93" t="inlineStr">
@@ -20943,7 +20943,7 @@
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>2026-02-04 16:58:15</t>
+          <t>2026-02-04 17:13:59</t>
         </is>
       </c>
       <c r="I94" t="inlineStr">
@@ -21176,7 +21176,7 @@
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>2026-02-04 16:58:15</t>
+          <t>2026-02-04 17:13:59</t>
         </is>
       </c>
       <c r="I95" t="inlineStr">
@@ -21409,7 +21409,7 @@
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>2026-02-04 16:58:15</t>
+          <t>2026-02-04 17:13:59</t>
         </is>
       </c>
       <c r="I96" t="inlineStr">
@@ -21627,7 +21627,7 @@
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>16:00 - 16:30</t>
+          <t>16:30 - 17:00</t>
         </is>
       </c>
       <c r="F97" t="inlineStr">
@@ -21642,17 +21642,17 @@
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>2026-02-04 16:58:17</t>
+          <t>2026-02-04 17:14:01</t>
         </is>
       </c>
       <c r="I97" t="inlineStr">
         <is>
-          <t>16:00</t>
+          <t>16:30</t>
         </is>
       </c>
       <c r="J97" t="inlineStr">
         <is>
-          <t>https://www.meteo.cat/observacions/xema/dades?codi=YB&amp;dia=2026-02-04T16:00Z</t>
+          <t>https://www.meteo.cat/observacions/xema/dades?codi=YB&amp;dia=2026-02-04T16:30Z</t>
         </is>
       </c>
       <c r="K97" t="n">
@@ -21665,7 +21665,7 @@
       </c>
       <c r="M97" t="inlineStr">
         <is>
-          <t>214</t>
+          <t>240</t>
         </is>
       </c>
       <c r="N97" t="inlineStr"/>
@@ -21673,12 +21673,12 @@
       <c r="P97" t="inlineStr"/>
       <c r="Q97" t="inlineStr">
         <is>
-          <t>57</t>
+          <t>63</t>
         </is>
       </c>
       <c r="R97" t="inlineStr">
         <is>
-          <t>989.8</t>
+          <t>990.2</t>
         </is>
       </c>
       <c r="S97" t="inlineStr">
@@ -21688,106 +21688,106 @@
       </c>
       <c r="T97" t="inlineStr">
         <is>
-          <t>16:00 - 16:30</t>
+          <t>16:30 - 17:00</t>
         </is>
       </c>
       <c r="U97" t="inlineStr">
         <is>
-          <t>98</t>
+          <t>12</t>
         </is>
       </c>
       <c r="V97" t="inlineStr">
         <is>
-          <t>11.1</t>
+          <t>9.6</t>
         </is>
       </c>
       <c r="W97" t="inlineStr">
         <is>
+          <t>9.2</t>
+        </is>
+      </c>
+      <c r="X97" t="inlineStr">
+        <is>
           <t>10.3</t>
         </is>
       </c>
-      <c r="X97" t="inlineStr">
-        <is>
-          <t>11.4</t>
-        </is>
-      </c>
       <c r="Y97" t="inlineStr">
         <is>
-          <t>6.5</t>
+          <t>2.9</t>
         </is>
       </c>
       <c r="Z97" t="inlineStr"/>
       <c r="AA97" t="inlineStr"/>
       <c r="AB97" t="inlineStr">
         <is>
-          <t>14.8</t>
+          <t>9.4</t>
         </is>
       </c>
       <c r="AC97" t="inlineStr"/>
       <c r="AD97" t="inlineStr"/>
       <c r="AE97" t="inlineStr">
         <is>
-          <t>16:00 - 16:30</t>
+          <t>16:30 - 17:00</t>
         </is>
       </c>
       <c r="AF97" t="inlineStr">
         <is>
-          <t>11.1</t>
+          <t>9.6</t>
         </is>
       </c>
       <c r="AG97" t="inlineStr">
         <is>
-          <t>11.4</t>
+          <t>10.3</t>
         </is>
       </c>
       <c r="AH97" t="inlineStr">
         <is>
+          <t>9.2</t>
+        </is>
+      </c>
+      <c r="AI97" t="inlineStr">
+        <is>
+          <t>63</t>
+        </is>
+      </c>
+      <c r="AJ97" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="AK97" t="inlineStr">
+        <is>
+          <t>2.9</t>
+        </is>
+      </c>
+      <c r="AL97" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="AM97" t="inlineStr">
+        <is>
+          <t>16:30 - 17:00</t>
+        </is>
+      </c>
+      <c r="AN97" t="inlineStr">
+        <is>
+          <t>9.6</t>
+        </is>
+      </c>
+      <c r="AO97" t="inlineStr">
+        <is>
           <t>10.3</t>
         </is>
       </c>
-      <c r="AI97" t="inlineStr">
-        <is>
-          <t>57</t>
-        </is>
-      </c>
-      <c r="AJ97" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="AK97" t="inlineStr">
-        <is>
-          <t>6.5</t>
-        </is>
-      </c>
-      <c r="AL97" t="inlineStr">
-        <is>
-          <t>214</t>
-        </is>
-      </c>
-      <c r="AM97" t="inlineStr">
-        <is>
-          <t>16:00 - 16:30</t>
-        </is>
-      </c>
-      <c r="AN97" t="inlineStr">
-        <is>
-          <t>11.1</t>
-        </is>
-      </c>
-      <c r="AO97" t="inlineStr">
-        <is>
-          <t>11.4</t>
-        </is>
-      </c>
       <c r="AP97" t="inlineStr">
         <is>
-          <t>10.3</t>
+          <t>9.2</t>
         </is>
       </c>
       <c r="AQ97" t="inlineStr">
         <is>
-          <t>57</t>
+          <t>63</t>
         </is>
       </c>
       <c r="AR97" t="inlineStr">
@@ -21797,42 +21797,42 @@
       </c>
       <c r="AS97" t="inlineStr">
         <is>
-          <t>6.5</t>
+          <t>2.9</t>
         </is>
       </c>
       <c r="AT97" t="inlineStr">
         <is>
-          <t>214</t>
+          <t>240</t>
         </is>
       </c>
       <c r="AU97" t="inlineStr">
         <is>
-          <t>14.8</t>
+          <t>9.4</t>
         </is>
       </c>
       <c r="AV97" t="inlineStr">
         <is>
-          <t>989.8</t>
+          <t>990.2</t>
         </is>
       </c>
       <c r="AW97" t="inlineStr">
         <is>
-          <t>98</t>
+          <t>12</t>
         </is>
       </c>
       <c r="AX97" t="inlineStr">
         <is>
-          <t>14.8</t>
+          <t>9.4</t>
         </is>
       </c>
       <c r="AY97" t="inlineStr">
         <is>
-          <t>989.8</t>
+          <t>990.2</t>
         </is>
       </c>
       <c r="AZ97" t="inlineStr">
         <is>
-          <t>98</t>
+          <t>12</t>
         </is>
       </c>
       <c r="BA97" t="inlineStr"/>
@@ -21875,7 +21875,7 @@
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>2026-02-04 16:58:18</t>
+          <t>2026-02-04 17:14:03</t>
         </is>
       </c>
       <c r="I98" t="inlineStr">
@@ -22108,7 +22108,7 @@
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>2026-02-04 16:58:18</t>
+          <t>2026-02-04 17:14:03</t>
         </is>
       </c>
       <c r="I99" t="inlineStr">
@@ -22341,7 +22341,7 @@
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>2026-02-04 16:58:18</t>
+          <t>2026-02-04 17:14:03</t>
         </is>
       </c>
       <c r="I100" t="inlineStr">
@@ -22574,7 +22574,7 @@
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>2026-02-04 16:58:18</t>
+          <t>2026-02-04 17:14:03</t>
         </is>
       </c>
       <c r="I101" t="inlineStr">
@@ -22792,7 +22792,7 @@
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>16:00 - 16:30</t>
+          <t>16:30 - 17:00</t>
         </is>
       </c>
       <c r="F102" t="inlineStr">
@@ -22807,17 +22807,17 @@
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>2026-02-04 16:58:21</t>
+          <t>2026-02-04 17:14:06</t>
         </is>
       </c>
       <c r="I102" t="inlineStr">
         <is>
-          <t>16:00</t>
+          <t>16:30</t>
         </is>
       </c>
       <c r="J102" t="inlineStr">
         <is>
-          <t>https://www.meteo.cat/observacions/xema/dades?codi=YP&amp;dia=2026-02-04T16:00Z</t>
+          <t>https://www.meteo.cat/observacions/xema/dades?codi=YP&amp;dia=2026-02-04T16:30Z</t>
         </is>
       </c>
       <c r="K102" t="n">
@@ -22830,7 +22830,7 @@
       </c>
       <c r="M102" t="inlineStr">
         <is>
-          <t>209</t>
+          <t>212</t>
         </is>
       </c>
       <c r="N102" t="inlineStr"/>
@@ -22838,7 +22838,7 @@
       <c r="P102" t="inlineStr"/>
       <c r="Q102" t="inlineStr">
         <is>
-          <t>75</t>
+          <t>77</t>
         </is>
       </c>
       <c r="R102" t="inlineStr"/>
@@ -22849,106 +22849,106 @@
       </c>
       <c r="T102" t="inlineStr">
         <is>
-          <t>16:00 - 16:30</t>
+          <t>16:30 - 17:00</t>
         </is>
       </c>
       <c r="U102" t="inlineStr">
         <is>
-          <t>102</t>
+          <t>30</t>
         </is>
       </c>
       <c r="V102" t="inlineStr">
         <is>
-          <t>12.1</t>
+          <t>11.7</t>
         </is>
       </c>
       <c r="W102" t="inlineStr">
         <is>
+          <t>11.0</t>
+        </is>
+      </c>
+      <c r="X102" t="inlineStr">
+        <is>
           <t>12.0</t>
         </is>
       </c>
-      <c r="X102" t="inlineStr">
-        <is>
-          <t>12.1</t>
-        </is>
-      </c>
       <c r="Y102" t="inlineStr">
         <is>
-          <t>14.4</t>
+          <t>9.4</t>
         </is>
       </c>
       <c r="Z102" t="inlineStr"/>
       <c r="AA102" t="inlineStr"/>
       <c r="AB102" t="inlineStr">
         <is>
-          <t>23.4</t>
+          <t>16.6</t>
         </is>
       </c>
       <c r="AC102" t="inlineStr"/>
       <c r="AD102" t="inlineStr"/>
       <c r="AE102" t="inlineStr">
         <is>
-          <t>16:00 - 16:30</t>
+          <t>16:30 - 17:00</t>
         </is>
       </c>
       <c r="AF102" t="inlineStr">
         <is>
-          <t>12.1</t>
+          <t>11.7</t>
         </is>
       </c>
       <c r="AG102" t="inlineStr">
         <is>
-          <t>12.1</t>
+          <t>12.0</t>
         </is>
       </c>
       <c r="AH102" t="inlineStr">
         <is>
+          <t>11.0</t>
+        </is>
+      </c>
+      <c r="AI102" t="inlineStr">
+        <is>
+          <t>77</t>
+        </is>
+      </c>
+      <c r="AJ102" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="AK102" t="inlineStr">
+        <is>
+          <t>9.4</t>
+        </is>
+      </c>
+      <c r="AL102" t="inlineStr">
+        <is>
+          <t>212</t>
+        </is>
+      </c>
+      <c r="AM102" t="inlineStr">
+        <is>
+          <t>16:30 - 17:00</t>
+        </is>
+      </c>
+      <c r="AN102" t="inlineStr">
+        <is>
+          <t>11.7</t>
+        </is>
+      </c>
+      <c r="AO102" t="inlineStr">
+        <is>
           <t>12.0</t>
         </is>
       </c>
-      <c r="AI102" t="inlineStr">
-        <is>
-          <t>75</t>
-        </is>
-      </c>
-      <c r="AJ102" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="AK102" t="inlineStr">
-        <is>
-          <t>14.4</t>
-        </is>
-      </c>
-      <c r="AL102" t="inlineStr">
-        <is>
-          <t>209</t>
-        </is>
-      </c>
-      <c r="AM102" t="inlineStr">
-        <is>
-          <t>16:00 - 16:30</t>
-        </is>
-      </c>
-      <c r="AN102" t="inlineStr">
-        <is>
-          <t>12.1</t>
-        </is>
-      </c>
-      <c r="AO102" t="inlineStr">
-        <is>
-          <t>12.1</t>
-        </is>
-      </c>
       <c r="AP102" t="inlineStr">
         <is>
-          <t>12.0</t>
+          <t>11.0</t>
         </is>
       </c>
       <c r="AQ102" t="inlineStr">
         <is>
-          <t>75</t>
+          <t>77</t>
         </is>
       </c>
       <c r="AR102" t="inlineStr">
@@ -22958,33 +22958,33 @@
       </c>
       <c r="AS102" t="inlineStr">
         <is>
-          <t>14.4</t>
+          <t>9.4</t>
         </is>
       </c>
       <c r="AT102" t="inlineStr">
         <is>
-          <t>209</t>
+          <t>212</t>
         </is>
       </c>
       <c r="AU102" t="inlineStr">
         <is>
-          <t>23.4</t>
+          <t>16.6</t>
         </is>
       </c>
       <c r="AV102" t="inlineStr">
         <is>
-          <t>102</t>
+          <t>30</t>
         </is>
       </c>
       <c r="AW102" t="inlineStr"/>
       <c r="AX102" t="inlineStr">
         <is>
-          <t>23.4</t>
+          <t>16.6</t>
         </is>
       </c>
       <c r="AY102" t="inlineStr">
         <is>
-          <t>102</t>
+          <t>30</t>
         </is>
       </c>
       <c r="AZ102" t="inlineStr"/>
@@ -23028,7 +23028,7 @@
       </c>
       <c r="H103" t="inlineStr">
         <is>
-          <t>2026-02-04 16:58:23</t>
+          <t>2026-02-04 17:14:07</t>
         </is>
       </c>
       <c r="I103" t="inlineStr">
@@ -23249,7 +23249,7 @@
       </c>
       <c r="H104" t="inlineStr">
         <is>
-          <t>2026-02-04 16:58:23</t>
+          <t>2026-02-04 17:14:07</t>
         </is>
       </c>
       <c r="I104" t="inlineStr">
@@ -23470,7 +23470,7 @@
       </c>
       <c r="H105" t="inlineStr">
         <is>
-          <t>2026-02-04 16:58:23</t>
+          <t>2026-02-04 17:14:07</t>
         </is>
       </c>
       <c r="I105" t="inlineStr">
@@ -23691,7 +23691,7 @@
       </c>
       <c r="H106" t="inlineStr">
         <is>
-          <t>2026-02-04 16:58:23</t>
+          <t>2026-02-04 17:14:07</t>
         </is>
       </c>
       <c r="I106" t="inlineStr">
@@ -23897,7 +23897,7 @@
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>16:00 - 16:30</t>
+          <t>16:30 - 17:00</t>
         </is>
       </c>
       <c r="F107" t="inlineStr">
@@ -23912,17 +23912,17 @@
       </c>
       <c r="H107" t="inlineStr">
         <is>
-          <t>2026-02-04 16:58:25</t>
+          <t>2026-02-04 17:14:10</t>
         </is>
       </c>
       <c r="I107" t="inlineStr">
         <is>
-          <t>16:00</t>
+          <t>16:30</t>
         </is>
       </c>
       <c r="J107" t="inlineStr">
         <is>
-          <t>https://www.meteo.cat/observacions/xema/dades?codi=J5&amp;dia=2026-02-04T16:00Z</t>
+          <t>https://www.meteo.cat/observacions/xema/dades?codi=J5&amp;dia=2026-02-04T16:30Z</t>
         </is>
       </c>
       <c r="K107" t="n">
@@ -23935,7 +23935,7 @@
       </c>
       <c r="M107" t="inlineStr">
         <is>
-          <t>190</t>
+          <t>33</t>
         </is>
       </c>
       <c r="N107" t="inlineStr"/>
@@ -23943,12 +23943,12 @@
       <c r="P107" t="inlineStr"/>
       <c r="Q107" t="inlineStr">
         <is>
-          <t>66</t>
+          <t>82</t>
         </is>
       </c>
       <c r="R107" t="inlineStr">
         <is>
-          <t>990.0</t>
+          <t>990.4</t>
         </is>
       </c>
       <c r="S107" t="inlineStr">
@@ -23958,27 +23958,27 @@
       </c>
       <c r="T107" t="inlineStr">
         <is>
-          <t>16:00 - 16:30</t>
+          <t>16:30 - 17:00</t>
         </is>
       </c>
       <c r="U107" t="inlineStr">
         <is>
-          <t>82</t>
+          <t>13</t>
         </is>
       </c>
       <c r="V107" t="inlineStr">
         <is>
-          <t>12.1</t>
+          <t>9.4</t>
         </is>
       </c>
       <c r="W107" t="inlineStr">
         <is>
-          <t>10.1</t>
+          <t>8.8</t>
         </is>
       </c>
       <c r="X107" t="inlineStr">
         <is>
-          <t>13.4</t>
+          <t>10.0</t>
         </is>
       </c>
       <c r="Y107" t="inlineStr">
@@ -23997,27 +23997,27 @@
       <c r="AD107" t="inlineStr"/>
       <c r="AE107" t="inlineStr">
         <is>
-          <t>16:00 - 16:30</t>
+          <t>16:30 - 17:00</t>
         </is>
       </c>
       <c r="AF107" t="inlineStr">
         <is>
-          <t>12.1</t>
+          <t>9.4</t>
         </is>
       </c>
       <c r="AG107" t="inlineStr">
         <is>
-          <t>13.4</t>
+          <t>10.0</t>
         </is>
       </c>
       <c r="AH107" t="inlineStr">
         <is>
-          <t>10.1</t>
+          <t>8.8</t>
         </is>
       </c>
       <c r="AI107" t="inlineStr">
         <is>
-          <t>66</t>
+          <t>82</t>
         </is>
       </c>
       <c r="AJ107" t="inlineStr">
@@ -24032,32 +24032,32 @@
       </c>
       <c r="AL107" t="inlineStr">
         <is>
-          <t>190</t>
+          <t>33</t>
         </is>
       </c>
       <c r="AM107" t="inlineStr">
         <is>
-          <t>16:00 - 16:30</t>
+          <t>16:30 - 17:00</t>
         </is>
       </c>
       <c r="AN107" t="inlineStr">
         <is>
-          <t>12.1</t>
+          <t>9.4</t>
         </is>
       </c>
       <c r="AO107" t="inlineStr">
         <is>
-          <t>13.4</t>
+          <t>10.0</t>
         </is>
       </c>
       <c r="AP107" t="inlineStr">
         <is>
-          <t>10.1</t>
+          <t>8.8</t>
         </is>
       </c>
       <c r="AQ107" t="inlineStr">
         <is>
-          <t>66</t>
+          <t>82</t>
         </is>
       </c>
       <c r="AR107" t="inlineStr">
@@ -24072,7 +24072,7 @@
       </c>
       <c r="AT107" t="inlineStr">
         <is>
-          <t>190</t>
+          <t>33</t>
         </is>
       </c>
       <c r="AU107" t="inlineStr">
@@ -24082,12 +24082,12 @@
       </c>
       <c r="AV107" t="inlineStr">
         <is>
-          <t>990.0</t>
+          <t>990.4</t>
         </is>
       </c>
       <c r="AW107" t="inlineStr">
         <is>
-          <t>82</t>
+          <t>13</t>
         </is>
       </c>
       <c r="AX107" t="inlineStr">
@@ -24097,12 +24097,12 @@
       </c>
       <c r="AY107" t="inlineStr">
         <is>
-          <t>990.0</t>
+          <t>990.4</t>
         </is>
       </c>
       <c r="AZ107" t="inlineStr">
         <is>
-          <t>82</t>
+          <t>13</t>
         </is>
       </c>
       <c r="BA107" t="inlineStr"/>
@@ -24145,7 +24145,7 @@
       </c>
       <c r="H108" t="inlineStr">
         <is>
-          <t>2026-02-04 16:58:27</t>
+          <t>2026-02-04 17:14:11</t>
         </is>
       </c>
       <c r="I108" t="inlineStr">
@@ -24378,7 +24378,7 @@
       </c>
       <c r="H109" t="inlineStr">
         <is>
-          <t>2026-02-04 16:58:27</t>
+          <t>2026-02-04 17:14:11</t>
         </is>
       </c>
       <c r="I109" t="inlineStr">
@@ -24611,7 +24611,7 @@
       </c>
       <c r="H110" t="inlineStr">
         <is>
-          <t>2026-02-04 16:58:27</t>
+          <t>2026-02-04 17:14:11</t>
         </is>
       </c>
       <c r="I110" t="inlineStr">
@@ -24844,7 +24844,7 @@
       </c>
       <c r="H111" t="inlineStr">
         <is>
-          <t>2026-02-04 16:58:27</t>
+          <t>2026-02-04 17:14:11</t>
         </is>
       </c>
       <c r="I111" t="inlineStr">
@@ -25062,7 +25062,7 @@
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>16:00 - 16:30</t>
+          <t>16:30 - 17:00</t>
         </is>
       </c>
       <c r="F112" t="inlineStr">
@@ -25077,17 +25077,17 @@
       </c>
       <c r="H112" t="inlineStr">
         <is>
-          <t>2026-02-04 16:58:29</t>
+          <t>2026-02-04 17:14:14</t>
         </is>
       </c>
       <c r="I112" t="inlineStr">
         <is>
-          <t>16:00</t>
+          <t>16:30</t>
         </is>
       </c>
       <c r="J112" t="inlineStr">
         <is>
-          <t>https://www.meteo.cat/observacions/xema/dades?codi=D6&amp;dia=2026-02-04T16:00Z</t>
+          <t>https://www.meteo.cat/observacions/xema/dades?codi=D6&amp;dia=2026-02-04T16:30Z</t>
         </is>
       </c>
       <c r="K112" t="n">
@@ -25100,7 +25100,7 @@
       </c>
       <c r="M112" t="inlineStr">
         <is>
-          <t>204</t>
+          <t>218</t>
         </is>
       </c>
       <c r="N112" t="inlineStr"/>
@@ -25108,12 +25108,12 @@
       <c r="P112" t="inlineStr"/>
       <c r="Q112" t="inlineStr">
         <is>
-          <t>63</t>
+          <t>65</t>
         </is>
       </c>
       <c r="R112" t="inlineStr">
         <is>
-          <t>989.4</t>
+          <t>989.7</t>
         </is>
       </c>
       <c r="S112" t="inlineStr">
@@ -25123,66 +25123,66 @@
       </c>
       <c r="T112" t="inlineStr">
         <is>
-          <t>16:00 - 16:30</t>
+          <t>16:30 - 17:00</t>
         </is>
       </c>
       <c r="U112" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>18</t>
         </is>
       </c>
       <c r="V112" t="inlineStr">
         <is>
-          <t>12.6</t>
+          <t>11.6</t>
         </is>
       </c>
       <c r="W112" t="inlineStr">
         <is>
-          <t>12.0</t>
+          <t>11.1</t>
         </is>
       </c>
       <c r="X112" t="inlineStr">
         <is>
-          <t>13.1</t>
+          <t>12.1</t>
         </is>
       </c>
       <c r="Y112" t="inlineStr">
         <is>
-          <t>24.5</t>
+          <t>20.9</t>
         </is>
       </c>
       <c r="Z112" t="inlineStr"/>
       <c r="AA112" t="inlineStr"/>
       <c r="AB112" t="inlineStr">
         <is>
-          <t>34.9</t>
+          <t>29.5</t>
         </is>
       </c>
       <c r="AC112" t="inlineStr"/>
       <c r="AD112" t="inlineStr"/>
       <c r="AE112" t="inlineStr">
         <is>
-          <t>16:00 - 16:30</t>
+          <t>16:30 - 17:00</t>
         </is>
       </c>
       <c r="AF112" t="inlineStr">
         <is>
-          <t>12.6</t>
+          <t>11.6</t>
         </is>
       </c>
       <c r="AG112" t="inlineStr">
         <is>
-          <t>13.1</t>
+          <t>12.1</t>
         </is>
       </c>
       <c r="AH112" t="inlineStr">
         <is>
-          <t>12.0</t>
+          <t>11.1</t>
         </is>
       </c>
       <c r="AI112" t="inlineStr">
         <is>
-          <t>63</t>
+          <t>65</t>
         </is>
       </c>
       <c r="AJ112" t="inlineStr">
@@ -25192,37 +25192,37 @@
       </c>
       <c r="AK112" t="inlineStr">
         <is>
-          <t>24.5</t>
+          <t>20.9</t>
         </is>
       </c>
       <c r="AL112" t="inlineStr">
         <is>
-          <t>204</t>
+          <t>218</t>
         </is>
       </c>
       <c r="AM112" t="inlineStr">
         <is>
-          <t>16:00 - 16:30</t>
+          <t>16:30 - 17:00</t>
         </is>
       </c>
       <c r="AN112" t="inlineStr">
         <is>
-          <t>12.6</t>
+          <t>11.6</t>
         </is>
       </c>
       <c r="AO112" t="inlineStr">
         <is>
-          <t>13.1</t>
+          <t>12.1</t>
         </is>
       </c>
       <c r="AP112" t="inlineStr">
         <is>
-          <t>12.0</t>
+          <t>11.1</t>
         </is>
       </c>
       <c r="AQ112" t="inlineStr">
         <is>
-          <t>63</t>
+          <t>65</t>
         </is>
       </c>
       <c r="AR112" t="inlineStr">
@@ -25232,42 +25232,42 @@
       </c>
       <c r="AS112" t="inlineStr">
         <is>
-          <t>24.5</t>
+          <t>20.9</t>
         </is>
       </c>
       <c r="AT112" t="inlineStr">
         <is>
-          <t>204</t>
+          <t>218</t>
         </is>
       </c>
       <c r="AU112" t="inlineStr">
         <is>
-          <t>34.9</t>
+          <t>29.5</t>
         </is>
       </c>
       <c r="AV112" t="inlineStr">
         <is>
-          <t>989.4</t>
+          <t>989.7</t>
         </is>
       </c>
       <c r="AW112" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>18</t>
         </is>
       </c>
       <c r="AX112" t="inlineStr">
         <is>
-          <t>34.9</t>
+          <t>29.5</t>
         </is>
       </c>
       <c r="AY112" t="inlineStr">
         <is>
-          <t>989.4</t>
+          <t>989.7</t>
         </is>
       </c>
       <c r="AZ112" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>18</t>
         </is>
       </c>
       <c r="BA112" t="inlineStr"/>
@@ -25310,7 +25310,7 @@
       </c>
       <c r="H113" t="inlineStr">
         <is>
-          <t>2026-02-04 16:58:30</t>
+          <t>2026-02-04 17:14:15</t>
         </is>
       </c>
       <c r="I113" t="inlineStr">
@@ -25543,7 +25543,7 @@
       </c>
       <c r="H114" t="inlineStr">
         <is>
-          <t>2026-02-04 16:58:30</t>
+          <t>2026-02-04 17:14:15</t>
         </is>
       </c>
       <c r="I114" t="inlineStr">
@@ -25776,7 +25776,7 @@
       </c>
       <c r="H115" t="inlineStr">
         <is>
-          <t>2026-02-04 16:58:30</t>
+          <t>2026-02-04 17:14:15</t>
         </is>
       </c>
       <c r="I115" t="inlineStr">
@@ -26009,7 +26009,7 @@
       </c>
       <c r="H116" t="inlineStr">
         <is>
-          <t>2026-02-04 16:58:30</t>
+          <t>2026-02-04 17:14:15</t>
         </is>
       </c>
       <c r="I116" t="inlineStr">
@@ -26227,7 +26227,7 @@
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>16:00 - 16:30</t>
+          <t>16:30 - 17:00</t>
         </is>
       </c>
       <c r="F117" t="inlineStr">
@@ -26242,17 +26242,17 @@
       </c>
       <c r="H117" t="inlineStr">
         <is>
-          <t>2026-02-04 16:58:33</t>
+          <t>2026-02-04 17:14:18</t>
         </is>
       </c>
       <c r="I117" t="inlineStr">
         <is>
-          <t>16:00</t>
+          <t>16:30</t>
         </is>
       </c>
       <c r="J117" t="inlineStr">
         <is>
-          <t>https://www.meteo.cat/observacions/xema/dades?codi=YA&amp;dia=2026-02-04T16:00Z</t>
+          <t>https://www.meteo.cat/observacions/xema/dades?codi=YA&amp;dia=2026-02-04T16:30Z</t>
         </is>
       </c>
       <c r="K117" t="n">
@@ -26265,7 +26265,7 @@
       </c>
       <c r="M117" t="inlineStr">
         <is>
-          <t>212</t>
+          <t>223</t>
         </is>
       </c>
       <c r="N117" t="inlineStr"/>
@@ -26273,12 +26273,12 @@
       <c r="P117" t="inlineStr"/>
       <c r="Q117" t="inlineStr">
         <is>
-          <t>63</t>
+          <t>68</t>
         </is>
       </c>
       <c r="R117" t="inlineStr">
         <is>
-          <t>990.4</t>
+          <t>991.0</t>
         </is>
       </c>
       <c r="S117" t="inlineStr">
@@ -26288,66 +26288,66 @@
       </c>
       <c r="T117" t="inlineStr">
         <is>
-          <t>16:00 - 16:30</t>
+          <t>16:30 - 17:00</t>
         </is>
       </c>
       <c r="U117" t="inlineStr">
         <is>
-          <t>92</t>
+          <t>21</t>
         </is>
       </c>
       <c r="V117" t="inlineStr">
         <is>
-          <t>5.5</t>
+          <t>4.9</t>
         </is>
       </c>
       <c r="W117" t="inlineStr">
         <is>
-          <t>5.3</t>
+          <t>4.6</t>
         </is>
       </c>
       <c r="X117" t="inlineStr">
         <is>
-          <t>6.0</t>
+          <t>5.2</t>
         </is>
       </c>
       <c r="Y117" t="inlineStr">
         <is>
-          <t>10.8</t>
+          <t>10.1</t>
         </is>
       </c>
       <c r="Z117" t="inlineStr"/>
       <c r="AA117" t="inlineStr"/>
       <c r="AB117" t="inlineStr">
         <is>
-          <t>23.8</t>
+          <t>19.4</t>
         </is>
       </c>
       <c r="AC117" t="inlineStr"/>
       <c r="AD117" t="inlineStr"/>
       <c r="AE117" t="inlineStr">
         <is>
-          <t>16:00 - 16:30</t>
+          <t>16:30 - 17:00</t>
         </is>
       </c>
       <c r="AF117" t="inlineStr">
         <is>
-          <t>5.5</t>
+          <t>4.9</t>
         </is>
       </c>
       <c r="AG117" t="inlineStr">
         <is>
-          <t>6.0</t>
+          <t>5.2</t>
         </is>
       </c>
       <c r="AH117" t="inlineStr">
         <is>
-          <t>5.3</t>
+          <t>4.6</t>
         </is>
       </c>
       <c r="AI117" t="inlineStr">
         <is>
-          <t>63</t>
+          <t>68</t>
         </is>
       </c>
       <c r="AJ117" t="inlineStr">
@@ -26357,37 +26357,37 @@
       </c>
       <c r="AK117" t="inlineStr">
         <is>
-          <t>10.8</t>
+          <t>10.1</t>
         </is>
       </c>
       <c r="AL117" t="inlineStr">
         <is>
-          <t>212</t>
+          <t>223</t>
         </is>
       </c>
       <c r="AM117" t="inlineStr">
         <is>
-          <t>16:00 - 16:30</t>
+          <t>16:30 - 17:00</t>
         </is>
       </c>
       <c r="AN117" t="inlineStr">
         <is>
-          <t>5.5</t>
+          <t>4.9</t>
         </is>
       </c>
       <c r="AO117" t="inlineStr">
         <is>
-          <t>6.0</t>
+          <t>5.2</t>
         </is>
       </c>
       <c r="AP117" t="inlineStr">
         <is>
-          <t>5.3</t>
+          <t>4.6</t>
         </is>
       </c>
       <c r="AQ117" t="inlineStr">
         <is>
-          <t>63</t>
+          <t>68</t>
         </is>
       </c>
       <c r="AR117" t="inlineStr">
@@ -26397,42 +26397,42 @@
       </c>
       <c r="AS117" t="inlineStr">
         <is>
-          <t>10.8</t>
+          <t>10.1</t>
         </is>
       </c>
       <c r="AT117" t="inlineStr">
         <is>
-          <t>212</t>
+          <t>223</t>
         </is>
       </c>
       <c r="AU117" t="inlineStr">
         <is>
-          <t>23.8</t>
+          <t>19.4</t>
         </is>
       </c>
       <c r="AV117" t="inlineStr">
         <is>
-          <t>990.4</t>
+          <t>991.0</t>
         </is>
       </c>
       <c r="AW117" t="inlineStr">
         <is>
-          <t>92</t>
+          <t>21</t>
         </is>
       </c>
       <c r="AX117" t="inlineStr">
         <is>
-          <t>23.8</t>
+          <t>19.4</t>
         </is>
       </c>
       <c r="AY117" t="inlineStr">
         <is>
-          <t>990.4</t>
+          <t>991.0</t>
         </is>
       </c>
       <c r="AZ117" t="inlineStr">
         <is>
-          <t>92</t>
+          <t>21</t>
         </is>
       </c>
       <c r="BA117" t="inlineStr"/>
@@ -26475,7 +26475,7 @@
       </c>
       <c r="H118" t="inlineStr">
         <is>
-          <t>2026-02-04 16:58:35</t>
+          <t>2026-02-04 17:14:19</t>
         </is>
       </c>
       <c r="I118" t="inlineStr">
@@ -26708,7 +26708,7 @@
       </c>
       <c r="H119" t="inlineStr">
         <is>
-          <t>2026-02-04 16:58:35</t>
+          <t>2026-02-04 17:14:19</t>
         </is>
       </c>
       <c r="I119" t="inlineStr">
@@ -26941,7 +26941,7 @@
       </c>
       <c r="H120" t="inlineStr">
         <is>
-          <t>2026-02-04 16:58:35</t>
+          <t>2026-02-04 17:14:19</t>
         </is>
       </c>
       <c r="I120" t="inlineStr">
@@ -27174,7 +27174,7 @@
       </c>
       <c r="H121" t="inlineStr">
         <is>
-          <t>2026-02-04 16:58:35</t>
+          <t>2026-02-04 17:14:19</t>
         </is>
       </c>
       <c r="I121" t="inlineStr">
@@ -27392,7 +27392,7 @@
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>16:00 - 16:30</t>
+          <t>16:30 - 17:00</t>
         </is>
       </c>
       <c r="F122" t="inlineStr">
@@ -27407,17 +27407,17 @@
       </c>
       <c r="H122" t="inlineStr">
         <is>
-          <t>2026-02-04 16:58:37</t>
+          <t>2026-02-04 17:14:22</t>
         </is>
       </c>
       <c r="I122" t="inlineStr">
         <is>
-          <t>16:00</t>
+          <t>16:30</t>
         </is>
       </c>
       <c r="J122" t="inlineStr">
         <is>
-          <t>https://www.meteo.cat/observacions/xema/dades?codi=DG&amp;dia=2026-02-04T16:00Z</t>
+          <t>https://www.meteo.cat/observacions/xema/dades?codi=DG&amp;dia=2026-02-04T16:30Z</t>
         </is>
       </c>
       <c r="K122" t="n">
@@ -27430,24 +27430,24 @@
       </c>
       <c r="M122" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>12</t>
         </is>
       </c>
       <c r="N122" t="inlineStr"/>
       <c r="O122" t="inlineStr"/>
       <c r="P122" t="inlineStr">
         <is>
-          <t>110</t>
+          <t>111</t>
         </is>
       </c>
       <c r="Q122" t="inlineStr">
         <is>
-          <t>58</t>
+          <t>56</t>
         </is>
       </c>
       <c r="R122" t="inlineStr">
         <is>
-          <t>825.4</t>
+          <t>825.6</t>
         </is>
       </c>
       <c r="S122" t="inlineStr">
@@ -27457,66 +27457,66 @@
       </c>
       <c r="T122" t="inlineStr">
         <is>
-          <t>16:00 - 16:30</t>
+          <t>16:30 - 17:00</t>
         </is>
       </c>
       <c r="U122" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>9</t>
         </is>
       </c>
       <c r="V122" t="inlineStr">
         <is>
-          <t>0.7</t>
+          <t>0.6</t>
         </is>
       </c>
       <c r="W122" t="inlineStr">
         <is>
-          <t>0.4</t>
+          <t>0.1</t>
         </is>
       </c>
       <c r="X122" t="inlineStr">
         <is>
-          <t>1.0</t>
+          <t>1.1</t>
         </is>
       </c>
       <c r="Y122" t="inlineStr">
         <is>
-          <t>10.4</t>
+          <t>9.4</t>
         </is>
       </c>
       <c r="Z122" t="inlineStr"/>
       <c r="AA122" t="inlineStr"/>
       <c r="AB122" t="inlineStr">
         <is>
-          <t>30.2</t>
+          <t>23.8</t>
         </is>
       </c>
       <c r="AC122" t="inlineStr"/>
       <c r="AD122" t="inlineStr"/>
       <c r="AE122" t="inlineStr">
         <is>
-          <t>16:00 - 16:30</t>
+          <t>16:30 - 17:00</t>
         </is>
       </c>
       <c r="AF122" t="inlineStr">
         <is>
-          <t>0.7</t>
+          <t>0.6</t>
         </is>
       </c>
       <c r="AG122" t="inlineStr">
         <is>
-          <t>1.0</t>
+          <t>1.1</t>
         </is>
       </c>
       <c r="AH122" t="inlineStr">
         <is>
-          <t>0.4</t>
+          <t>0.1</t>
         </is>
       </c>
       <c r="AI122" t="inlineStr">
         <is>
-          <t>58</t>
+          <t>56</t>
         </is>
       </c>
       <c r="AJ122" t="inlineStr">
@@ -27526,37 +27526,37 @@
       </c>
       <c r="AK122" t="inlineStr">
         <is>
-          <t>110</t>
+          <t>111</t>
         </is>
       </c>
       <c r="AL122" t="inlineStr">
         <is>
-          <t>10.4</t>
+          <t>9.4</t>
         </is>
       </c>
       <c r="AM122" t="inlineStr">
         <is>
-          <t>16:00 - 16:30</t>
+          <t>16:30 - 17:00</t>
         </is>
       </c>
       <c r="AN122" t="inlineStr">
         <is>
-          <t>0.7</t>
+          <t>0.6</t>
         </is>
       </c>
       <c r="AO122" t="inlineStr">
         <is>
-          <t>1.0</t>
+          <t>1.1</t>
         </is>
       </c>
       <c r="AP122" t="inlineStr">
         <is>
-          <t>0.4</t>
+          <t>0.1</t>
         </is>
       </c>
       <c r="AQ122" t="inlineStr">
         <is>
-          <t>58</t>
+          <t>56</t>
         </is>
       </c>
       <c r="AR122" t="inlineStr">
@@ -27566,47 +27566,47 @@
       </c>
       <c r="AS122" t="inlineStr">
         <is>
-          <t>110</t>
+          <t>111</t>
         </is>
       </c>
       <c r="AT122" t="inlineStr">
         <is>
-          <t>10.4</t>
+          <t>9.4</t>
         </is>
       </c>
       <c r="AU122" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>12</t>
         </is>
       </c>
       <c r="AV122" t="inlineStr">
         <is>
-          <t>30.2</t>
+          <t>23.8</t>
         </is>
       </c>
       <c r="AW122" t="inlineStr">
         <is>
-          <t>825.4</t>
+          <t>825.6</t>
         </is>
       </c>
       <c r="AX122" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>12</t>
         </is>
       </c>
       <c r="AY122" t="inlineStr">
         <is>
-          <t>30.2</t>
+          <t>23.8</t>
         </is>
       </c>
       <c r="AZ122" t="inlineStr">
         <is>
-          <t>825.4</t>
+          <t>825.6</t>
         </is>
       </c>
       <c r="BA122" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>9</t>
         </is>
       </c>
     </row>
@@ -27648,7 +27648,7 @@
       </c>
       <c r="H123" t="inlineStr">
         <is>
-          <t>2026-02-04 16:58:39</t>
+          <t>2026-02-04 17:14:23</t>
         </is>
       </c>
       <c r="I123" t="inlineStr">
@@ -27889,7 +27889,7 @@
       </c>
       <c r="H124" t="inlineStr">
         <is>
-          <t>2026-02-04 16:58:39</t>
+          <t>2026-02-04 17:14:23</t>
         </is>
       </c>
       <c r="I124" t="inlineStr">
@@ -28130,7 +28130,7 @@
       </c>
       <c r="H125" t="inlineStr">
         <is>
-          <t>2026-02-04 16:58:39</t>
+          <t>2026-02-04 17:14:23</t>
         </is>
       </c>
       <c r="I125" t="inlineStr">
@@ -28371,7 +28371,7 @@
       </c>
       <c r="H126" t="inlineStr">
         <is>
-          <t>2026-02-04 16:58:39</t>
+          <t>2026-02-04 17:14:23</t>
         </is>
       </c>
       <c r="I126" t="inlineStr">
@@ -28597,7 +28597,7 @@
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>16:00 - 16:30</t>
+          <t>16:30 - 17:00</t>
         </is>
       </c>
       <c r="F127" t="inlineStr">
@@ -28612,17 +28612,17 @@
       </c>
       <c r="H127" t="inlineStr">
         <is>
-          <t>2026-02-04 16:58:41</t>
+          <t>2026-02-04 17:14:25</t>
         </is>
       </c>
       <c r="I127" t="inlineStr">
         <is>
-          <t>16:00</t>
+          <t>16:30</t>
         </is>
       </c>
       <c r="J127" t="inlineStr">
         <is>
-          <t>https://www.meteo.cat/observacions/xema/dades?codi=D4&amp;dia=2026-02-04T16:00Z</t>
+          <t>https://www.meteo.cat/observacions/xema/dades?codi=D4&amp;dia=2026-02-04T16:30Z</t>
         </is>
       </c>
       <c r="K127" t="n">
@@ -28635,7 +28635,7 @@
       </c>
       <c r="M127" t="inlineStr">
         <is>
-          <t>162</t>
+          <t>133</t>
         </is>
       </c>
       <c r="N127" t="inlineStr"/>
@@ -28643,12 +28643,12 @@
       <c r="P127" t="inlineStr"/>
       <c r="Q127" t="inlineStr">
         <is>
-          <t>63</t>
+          <t>66</t>
         </is>
       </c>
       <c r="R127" t="inlineStr">
         <is>
-          <t>990.4</t>
+          <t>990.6</t>
         </is>
       </c>
       <c r="S127" t="inlineStr">
@@ -28658,106 +28658,106 @@
       </c>
       <c r="T127" t="inlineStr">
         <is>
-          <t>16:00 - 16:30</t>
+          <t>16:30 - 17:00</t>
         </is>
       </c>
       <c r="U127" t="inlineStr">
         <is>
-          <t>99</t>
+          <t>38</t>
         </is>
       </c>
       <c r="V127" t="inlineStr">
         <is>
-          <t>13.1</t>
+          <t>12.6</t>
         </is>
       </c>
       <c r="W127" t="inlineStr">
         <is>
+          <t>12.3</t>
+        </is>
+      </c>
+      <c r="X127" t="inlineStr">
+        <is>
           <t>12.9</t>
         </is>
       </c>
-      <c r="X127" t="inlineStr">
-        <is>
-          <t>13.3</t>
-        </is>
-      </c>
       <c r="Y127" t="inlineStr">
         <is>
-          <t>10.1</t>
+          <t>6.1</t>
         </is>
       </c>
       <c r="Z127" t="inlineStr"/>
       <c r="AA127" t="inlineStr"/>
       <c r="AB127" t="inlineStr">
         <is>
-          <t>18.0</t>
+          <t>14.8</t>
         </is>
       </c>
       <c r="AC127" t="inlineStr"/>
       <c r="AD127" t="inlineStr"/>
       <c r="AE127" t="inlineStr">
         <is>
-          <t>16:00 - 16:30</t>
+          <t>16:30 - 17:00</t>
         </is>
       </c>
       <c r="AF127" t="inlineStr">
         <is>
-          <t>13.1</t>
+          <t>12.6</t>
         </is>
       </c>
       <c r="AG127" t="inlineStr">
         <is>
-          <t>13.3</t>
+          <t>12.9</t>
         </is>
       </c>
       <c r="AH127" t="inlineStr">
         <is>
+          <t>12.3</t>
+        </is>
+      </c>
+      <c r="AI127" t="inlineStr">
+        <is>
+          <t>66</t>
+        </is>
+      </c>
+      <c r="AJ127" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="AK127" t="inlineStr">
+        <is>
+          <t>6.1</t>
+        </is>
+      </c>
+      <c r="AL127" t="inlineStr">
+        <is>
+          <t>133</t>
+        </is>
+      </c>
+      <c r="AM127" t="inlineStr">
+        <is>
+          <t>16:30 - 17:00</t>
+        </is>
+      </c>
+      <c r="AN127" t="inlineStr">
+        <is>
+          <t>12.6</t>
+        </is>
+      </c>
+      <c r="AO127" t="inlineStr">
+        <is>
           <t>12.9</t>
         </is>
       </c>
-      <c r="AI127" t="inlineStr">
-        <is>
-          <t>63</t>
-        </is>
-      </c>
-      <c r="AJ127" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="AK127" t="inlineStr">
-        <is>
-          <t>10.1</t>
-        </is>
-      </c>
-      <c r="AL127" t="inlineStr">
-        <is>
-          <t>162</t>
-        </is>
-      </c>
-      <c r="AM127" t="inlineStr">
-        <is>
-          <t>16:00 - 16:30</t>
-        </is>
-      </c>
-      <c r="AN127" t="inlineStr">
-        <is>
-          <t>13.1</t>
-        </is>
-      </c>
-      <c r="AO127" t="inlineStr">
-        <is>
-          <t>13.3</t>
-        </is>
-      </c>
       <c r="AP127" t="inlineStr">
         <is>
-          <t>12.9</t>
+          <t>12.3</t>
         </is>
       </c>
       <c r="AQ127" t="inlineStr">
         <is>
-          <t>63</t>
+          <t>66</t>
         </is>
       </c>
       <c r="AR127" t="inlineStr">
@@ -28767,42 +28767,42 @@
       </c>
       <c r="AS127" t="inlineStr">
         <is>
-          <t>10.1</t>
+          <t>6.1</t>
         </is>
       </c>
       <c r="AT127" t="inlineStr">
         <is>
-          <t>162</t>
+          <t>133</t>
         </is>
       </c>
       <c r="AU127" t="inlineStr">
         <is>
-          <t>18.0</t>
+          <t>14.8</t>
         </is>
       </c>
       <c r="AV127" t="inlineStr">
         <is>
-          <t>990.4</t>
+          <t>990.6</t>
         </is>
       </c>
       <c r="AW127" t="inlineStr">
         <is>
-          <t>99</t>
+          <t>38</t>
         </is>
       </c>
       <c r="AX127" t="inlineStr">
         <is>
-          <t>18.0</t>
+          <t>14.8</t>
         </is>
       </c>
       <c r="AY127" t="inlineStr">
         <is>
-          <t>990.4</t>
+          <t>990.6</t>
         </is>
       </c>
       <c r="AZ127" t="inlineStr">
         <is>
-          <t>99</t>
+          <t>38</t>
         </is>
       </c>
       <c r="BA127" t="inlineStr"/>
@@ -28845,7 +28845,7 @@
       </c>
       <c r="H128" t="inlineStr">
         <is>
-          <t>2026-02-04 16:58:43</t>
+          <t>2026-02-04 17:14:27</t>
         </is>
       </c>
       <c r="I128" t="inlineStr">
@@ -29078,7 +29078,7 @@
       </c>
       <c r="H129" t="inlineStr">
         <is>
-          <t>2026-02-04 16:58:43</t>
+          <t>2026-02-04 17:14:27</t>
         </is>
       </c>
       <c r="I129" t="inlineStr">
@@ -29311,7 +29311,7 @@
       </c>
       <c r="H130" t="inlineStr">
         <is>
-          <t>2026-02-04 16:58:43</t>
+          <t>2026-02-04 17:14:27</t>
         </is>
       </c>
       <c r="I130" t="inlineStr">
@@ -29544,7 +29544,7 @@
       </c>
       <c r="H131" t="inlineStr">
         <is>
-          <t>2026-02-04 16:58:43</t>
+          <t>2026-02-04 17:14:27</t>
         </is>
       </c>
       <c r="I131" t="inlineStr">
@@ -29762,7 +29762,7 @@
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>16:00 - 16:30</t>
+          <t>16:30 - 17:00</t>
         </is>
       </c>
       <c r="F132" t="inlineStr">
@@ -29777,17 +29777,17 @@
       </c>
       <c r="H132" t="inlineStr">
         <is>
-          <t>2026-02-04 16:58:45</t>
+          <t>2026-02-04 17:14:29</t>
         </is>
       </c>
       <c r="I132" t="inlineStr">
         <is>
-          <t>16:00</t>
+          <t>16:30</t>
         </is>
       </c>
       <c r="J132" t="inlineStr">
         <is>
-          <t>https://www.meteo.cat/observacions/xema/dades?codi=CI&amp;dia=2026-02-04T16:00Z</t>
+          <t>https://www.meteo.cat/observacions/xema/dades?codi=CI&amp;dia=2026-02-04T16:30Z</t>
         </is>
       </c>
       <c r="K132" t="n">
@@ -29800,7 +29800,7 @@
       </c>
       <c r="M132" t="inlineStr">
         <is>
-          <t>239</t>
+          <t>237</t>
         </is>
       </c>
       <c r="N132" t="inlineStr"/>
@@ -29808,12 +29808,12 @@
       <c r="P132" t="inlineStr"/>
       <c r="Q132" t="inlineStr">
         <is>
-          <t>72</t>
+          <t>75</t>
         </is>
       </c>
       <c r="R132" t="inlineStr">
         <is>
-          <t>991.2</t>
+          <t>991.6</t>
         </is>
       </c>
       <c r="S132" t="inlineStr">
@@ -29823,102 +29823,102 @@
       </c>
       <c r="T132" t="inlineStr">
         <is>
-          <t>16:00 - 16:30</t>
+          <t>16:30 - 17:00</t>
         </is>
       </c>
       <c r="U132" t="inlineStr"/>
       <c r="V132" t="inlineStr">
         <is>
-          <t>7.2</t>
+          <t>6.5</t>
         </is>
       </c>
       <c r="W132" t="inlineStr">
         <is>
+          <t>6.2</t>
+        </is>
+      </c>
+      <c r="X132" t="inlineStr">
+        <is>
           <t>6.9</t>
         </is>
       </c>
-      <c r="X132" t="inlineStr">
-        <is>
-          <t>7.6</t>
-        </is>
-      </c>
       <c r="Y132" t="inlineStr">
         <is>
-          <t>13.7</t>
+          <t>9.7</t>
         </is>
       </c>
       <c r="Z132" t="inlineStr"/>
       <c r="AA132" t="inlineStr"/>
       <c r="AB132" t="inlineStr">
         <is>
-          <t>29.5</t>
+          <t>23.8</t>
         </is>
       </c>
       <c r="AC132" t="inlineStr"/>
       <c r="AD132" t="inlineStr"/>
       <c r="AE132" t="inlineStr">
         <is>
-          <t>16:00 - 16:30</t>
+          <t>16:30 - 17:00</t>
         </is>
       </c>
       <c r="AF132" t="inlineStr">
         <is>
-          <t>7.2</t>
+          <t>6.5</t>
         </is>
       </c>
       <c r="AG132" t="inlineStr">
         <is>
-          <t>7.6</t>
+          <t>6.9</t>
         </is>
       </c>
       <c r="AH132" t="inlineStr">
         <is>
+          <t>6.2</t>
+        </is>
+      </c>
+      <c r="AI132" t="inlineStr">
+        <is>
+          <t>75</t>
+        </is>
+      </c>
+      <c r="AJ132" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="AK132" t="inlineStr">
+        <is>
+          <t>9.7</t>
+        </is>
+      </c>
+      <c r="AL132" t="inlineStr">
+        <is>
+          <t>237</t>
+        </is>
+      </c>
+      <c r="AM132" t="inlineStr">
+        <is>
+          <t>16:30 - 17:00</t>
+        </is>
+      </c>
+      <c r="AN132" t="inlineStr">
+        <is>
+          <t>6.5</t>
+        </is>
+      </c>
+      <c r="AO132" t="inlineStr">
+        <is>
           <t>6.9</t>
         </is>
       </c>
-      <c r="AI132" t="inlineStr">
-        <is>
-          <t>72</t>
-        </is>
-      </c>
-      <c r="AJ132" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="AK132" t="inlineStr">
-        <is>
-          <t>13.7</t>
-        </is>
-      </c>
-      <c r="AL132" t="inlineStr">
-        <is>
-          <t>239</t>
-        </is>
-      </c>
-      <c r="AM132" t="inlineStr">
-        <is>
-          <t>16:00 - 16:30</t>
-        </is>
-      </c>
-      <c r="AN132" t="inlineStr">
-        <is>
-          <t>7.2</t>
-        </is>
-      </c>
-      <c r="AO132" t="inlineStr">
-        <is>
-          <t>7.6</t>
-        </is>
-      </c>
       <c r="AP132" t="inlineStr">
         <is>
-          <t>6.9</t>
+          <t>6.2</t>
         </is>
       </c>
       <c r="AQ132" t="inlineStr">
         <is>
-          <t>72</t>
+          <t>75</t>
         </is>
       </c>
       <c r="AR132" t="inlineStr">
@@ -29928,33 +29928,33 @@
       </c>
       <c r="AS132" t="inlineStr">
         <is>
-          <t>13.7</t>
+          <t>9.7</t>
         </is>
       </c>
       <c r="AT132" t="inlineStr">
         <is>
-          <t>239</t>
+          <t>237</t>
         </is>
       </c>
       <c r="AU132" t="inlineStr">
         <is>
-          <t>29.5</t>
+          <t>23.8</t>
         </is>
       </c>
       <c r="AV132" t="inlineStr">
         <is>
-          <t>991.2</t>
+          <t>991.6</t>
         </is>
       </c>
       <c r="AW132" t="inlineStr"/>
       <c r="AX132" t="inlineStr">
         <is>
-          <t>29.5</t>
+          <t>23.8</t>
         </is>
       </c>
       <c r="AY132" t="inlineStr">
         <is>
-          <t>991.2</t>
+          <t>991.6</t>
         </is>
       </c>
       <c r="AZ132" t="inlineStr"/>
@@ -29998,7 +29998,7 @@
       </c>
       <c r="H133" t="inlineStr">
         <is>
-          <t>2026-02-04 16:58:47</t>
+          <t>2026-02-04 17:14:31</t>
         </is>
       </c>
       <c r="I133" t="inlineStr">
@@ -30219,7 +30219,7 @@
       </c>
       <c r="H134" t="inlineStr">
         <is>
-          <t>2026-02-04 16:58:47</t>
+          <t>2026-02-04 17:14:31</t>
         </is>
       </c>
       <c r="I134" t="inlineStr">
@@ -30440,7 +30440,7 @@
       </c>
       <c r="H135" t="inlineStr">
         <is>
-          <t>2026-02-04 16:58:47</t>
+          <t>2026-02-04 17:14:31</t>
         </is>
       </c>
       <c r="I135" t="inlineStr">
@@ -30661,7 +30661,7 @@
       </c>
       <c r="H136" t="inlineStr">
         <is>
-          <t>2026-02-04 16:58:47</t>
+          <t>2026-02-04 17:14:31</t>
         </is>
       </c>
       <c r="I136" t="inlineStr">
@@ -30867,7 +30867,7 @@
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>16:00 - 16:30</t>
+          <t>16:30 - 17:00</t>
         </is>
       </c>
       <c r="F137" t="inlineStr">
@@ -30882,17 +30882,17 @@
       </c>
       <c r="H137" t="inlineStr">
         <is>
-          <t>2026-02-04 16:58:50</t>
+          <t>2026-02-04 17:14:33</t>
         </is>
       </c>
       <c r="I137" t="inlineStr">
         <is>
-          <t>16:00</t>
+          <t>16:30</t>
         </is>
       </c>
       <c r="J137" t="inlineStr">
         <is>
-          <t>https://www.meteo.cat/observacions/xema/dades?codi=XS&amp;dia=2026-02-04T16:00Z</t>
+          <t>https://www.meteo.cat/observacions/xema/dades?codi=XS&amp;dia=2026-02-04T16:30Z</t>
         </is>
       </c>
       <c r="K137" t="n">
@@ -30905,7 +30905,7 @@
       </c>
       <c r="M137" t="inlineStr">
         <is>
-          <t>277</t>
+          <t>302</t>
         </is>
       </c>
       <c r="N137" t="inlineStr"/>
@@ -30913,7 +30913,7 @@
       <c r="P137" t="inlineStr"/>
       <c r="Q137" t="inlineStr">
         <is>
-          <t>55</t>
+          <t>59</t>
         </is>
       </c>
       <c r="R137" t="inlineStr"/>
@@ -30924,66 +30924,66 @@
       </c>
       <c r="T137" t="inlineStr">
         <is>
-          <t>16:00 - 16:30</t>
+          <t>16:30 - 17:00</t>
         </is>
       </c>
       <c r="U137" t="inlineStr">
         <is>
-          <t>82</t>
+          <t>13</t>
         </is>
       </c>
       <c r="V137" t="inlineStr">
         <is>
-          <t>12.4</t>
+          <t>11.5</t>
         </is>
       </c>
       <c r="W137" t="inlineStr">
         <is>
-          <t>12.1</t>
+          <t>11.2</t>
         </is>
       </c>
       <c r="X137" t="inlineStr">
         <is>
-          <t>12.9</t>
+          <t>12.0</t>
         </is>
       </c>
       <c r="Y137" t="inlineStr">
         <is>
-          <t>10.1</t>
+          <t>6.8</t>
         </is>
       </c>
       <c r="Z137" t="inlineStr"/>
       <c r="AA137" t="inlineStr"/>
       <c r="AB137" t="inlineStr">
         <is>
-          <t>22.7</t>
+          <t>12.2</t>
         </is>
       </c>
       <c r="AC137" t="inlineStr"/>
       <c r="AD137" t="inlineStr"/>
       <c r="AE137" t="inlineStr">
         <is>
-          <t>16:00 - 16:30</t>
+          <t>16:30 - 17:00</t>
         </is>
       </c>
       <c r="AF137" t="inlineStr">
         <is>
-          <t>12.4</t>
+          <t>11.5</t>
         </is>
       </c>
       <c r="AG137" t="inlineStr">
         <is>
-          <t>12.9</t>
+          <t>12.0</t>
         </is>
       </c>
       <c r="AH137" t="inlineStr">
         <is>
-          <t>12.1</t>
+          <t>11.2</t>
         </is>
       </c>
       <c r="AI137" t="inlineStr">
         <is>
-          <t>55</t>
+          <t>59</t>
         </is>
       </c>
       <c r="AJ137" t="inlineStr">
@@ -30993,37 +30993,37 @@
       </c>
       <c r="AK137" t="inlineStr">
         <is>
-          <t>10.1</t>
+          <t>6.8</t>
         </is>
       </c>
       <c r="AL137" t="inlineStr">
         <is>
-          <t>277</t>
+          <t>302</t>
         </is>
       </c>
       <c r="AM137" t="inlineStr">
         <is>
-          <t>16:00 - 16:30</t>
+          <t>16:30 - 17:00</t>
         </is>
       </c>
       <c r="AN137" t="inlineStr">
         <is>
-          <t>12.4</t>
+          <t>11.5</t>
         </is>
       </c>
       <c r="AO137" t="inlineStr">
         <is>
-          <t>12.9</t>
+          <t>12.0</t>
         </is>
       </c>
       <c r="AP137" t="inlineStr">
         <is>
-          <t>12.1</t>
+          <t>11.2</t>
         </is>
       </c>
       <c r="AQ137" t="inlineStr">
         <is>
-          <t>55</t>
+          <t>59</t>
         </is>
       </c>
       <c r="AR137" t="inlineStr">
@@ -31033,33 +31033,33 @@
       </c>
       <c r="AS137" t="inlineStr">
         <is>
-          <t>10.1</t>
+          <t>6.8</t>
         </is>
       </c>
       <c r="AT137" t="inlineStr">
         <is>
-          <t>277</t>
+          <t>302</t>
         </is>
       </c>
       <c r="AU137" t="inlineStr">
         <is>
-          <t>22.7</t>
+          <t>12.2</t>
         </is>
       </c>
       <c r="AV137" t="inlineStr">
         <is>
-          <t>82</t>
+          <t>13</t>
         </is>
       </c>
       <c r="AW137" t="inlineStr"/>
       <c r="AX137" t="inlineStr">
         <is>
-          <t>22.7</t>
+          <t>12.2</t>
         </is>
       </c>
       <c r="AY137" t="inlineStr">
         <is>
-          <t>82</t>
+          <t>13</t>
         </is>
       </c>
       <c r="AZ137" t="inlineStr"/>
@@ -31103,7 +31103,7 @@
       </c>
       <c r="H138" t="inlineStr">
         <is>
-          <t>2026-02-04 16:58:51</t>
+          <t>2026-02-04 17:14:35</t>
         </is>
       </c>
       <c r="I138" t="inlineStr">
@@ -31324,7 +31324,7 @@
       </c>
       <c r="H139" t="inlineStr">
         <is>
-          <t>2026-02-04 16:58:51</t>
+          <t>2026-02-04 17:14:35</t>
         </is>
       </c>
       <c r="I139" t="inlineStr">
@@ -31545,7 +31545,7 @@
       </c>
       <c r="H140" t="inlineStr">
         <is>
-          <t>2026-02-04 16:58:51</t>
+          <t>2026-02-04 17:14:35</t>
         </is>
       </c>
       <c r="I140" t="inlineStr">
@@ -31766,7 +31766,7 @@
       </c>
       <c r="H141" t="inlineStr">
         <is>
-          <t>2026-02-04 16:58:51</t>
+          <t>2026-02-04 17:14:35</t>
         </is>
       </c>
       <c r="I141" t="inlineStr">
@@ -31972,7 +31972,7 @@
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>16:00 - 16:30</t>
+          <t>16:30 - 17:00</t>
         </is>
       </c>
       <c r="F142" t="inlineStr">
@@ -31987,17 +31987,17 @@
       </c>
       <c r="H142" t="inlineStr">
         <is>
-          <t>2026-02-04 16:58:54</t>
+          <t>2026-02-04 17:14:37</t>
         </is>
       </c>
       <c r="I142" t="inlineStr">
         <is>
-          <t>16:00</t>
+          <t>16:30</t>
         </is>
       </c>
       <c r="J142" t="inlineStr">
         <is>
-          <t>https://www.meteo.cat/observacions/xema/dades?codi=ZC&amp;dia=2026-02-04T16:00Z</t>
+          <t>https://www.meteo.cat/observacions/xema/dades?codi=ZC&amp;dia=2026-02-04T16:30Z</t>
         </is>
       </c>
       <c r="K142" t="n">
@@ -32010,7 +32010,7 @@
       </c>
       <c r="M142" t="inlineStr">
         <is>
-          <t>308</t>
+          <t>313</t>
         </is>
       </c>
       <c r="N142" t="inlineStr"/>
@@ -32022,7 +32022,7 @@
       </c>
       <c r="Q142" t="inlineStr">
         <is>
-          <t>68</t>
+          <t>66</t>
         </is>
       </c>
       <c r="R142" t="inlineStr"/>
@@ -32033,66 +32033,66 @@
       </c>
       <c r="T142" t="inlineStr">
         <is>
-          <t>16:00 - 16:30</t>
+          <t>16:30 - 17:00</t>
         </is>
       </c>
       <c r="U142" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>12</t>
         </is>
       </c>
       <c r="V142" t="inlineStr">
         <is>
-          <t>-3.1</t>
+          <t>-2.9</t>
         </is>
       </c>
       <c r="W142" t="inlineStr">
         <is>
-          <t>-3.4</t>
+          <t>-3.3</t>
         </is>
       </c>
       <c r="X142" t="inlineStr">
         <is>
-          <t>-2.8</t>
+          <t>-2.7</t>
         </is>
       </c>
       <c r="Y142" t="inlineStr">
         <is>
-          <t>13.3</t>
+          <t>14.4</t>
         </is>
       </c>
       <c r="Z142" t="inlineStr"/>
       <c r="AA142" t="inlineStr"/>
       <c r="AB142" t="inlineStr">
         <is>
-          <t>34.6</t>
+          <t>38.2</t>
         </is>
       </c>
       <c r="AC142" t="inlineStr"/>
       <c r="AD142" t="inlineStr"/>
       <c r="AE142" t="inlineStr">
         <is>
-          <t>16:00 - 16:30</t>
+          <t>16:30 - 17:00</t>
         </is>
       </c>
       <c r="AF142" t="inlineStr">
         <is>
-          <t>-3.1</t>
+          <t>-2.9</t>
         </is>
       </c>
       <c r="AG142" t="inlineStr">
         <is>
-          <t>-2.8</t>
+          <t>-2.7</t>
         </is>
       </c>
       <c r="AH142" t="inlineStr">
         <is>
-          <t>-3.4</t>
+          <t>-3.3</t>
         </is>
       </c>
       <c r="AI142" t="inlineStr">
         <is>
-          <t>68</t>
+          <t>66</t>
         </is>
       </c>
       <c r="AJ142" t="inlineStr">
@@ -32107,32 +32107,32 @@
       </c>
       <c r="AL142" t="inlineStr">
         <is>
-          <t>13.3</t>
+          <t>14.4</t>
         </is>
       </c>
       <c r="AM142" t="inlineStr">
         <is>
-          <t>16:00 - 16:30</t>
+          <t>16:30 - 17:00</t>
         </is>
       </c>
       <c r="AN142" t="inlineStr">
         <is>
-          <t>-3.1</t>
+          <t>-2.9</t>
         </is>
       </c>
       <c r="AO142" t="inlineStr">
         <is>
-          <t>-2.8</t>
+          <t>-2.7</t>
         </is>
       </c>
       <c r="AP142" t="inlineStr">
         <is>
-          <t>-3.4</t>
+          <t>-3.3</t>
         </is>
       </c>
       <c r="AQ142" t="inlineStr">
         <is>
-          <t>68</t>
+          <t>66</t>
         </is>
       </c>
       <c r="AR142" t="inlineStr">
@@ -32147,37 +32147,37 @@
       </c>
       <c r="AT142" t="inlineStr">
         <is>
-          <t>13.3</t>
+          <t>14.4</t>
         </is>
       </c>
       <c r="AU142" t="inlineStr">
         <is>
-          <t>308</t>
+          <t>313</t>
         </is>
       </c>
       <c r="AV142" t="inlineStr">
         <is>
-          <t>34.6</t>
+          <t>38.2</t>
         </is>
       </c>
       <c r="AW142" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>12</t>
         </is>
       </c>
       <c r="AX142" t="inlineStr">
         <is>
-          <t>308</t>
+          <t>313</t>
         </is>
       </c>
       <c r="AY142" t="inlineStr">
         <is>
-          <t>34.6</t>
+          <t>38.2</t>
         </is>
       </c>
       <c r="AZ142" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>12</t>
         </is>
       </c>
       <c r="BA142" t="inlineStr"/>
@@ -32220,7 +32220,7 @@
       </c>
       <c r="H143" t="inlineStr">
         <is>
-          <t>2026-02-04 16:58:55</t>
+          <t>2026-02-04 17:14:39</t>
         </is>
       </c>
       <c r="I143" t="inlineStr">
@@ -32453,7 +32453,7 @@
       </c>
       <c r="H144" t="inlineStr">
         <is>
-          <t>2026-02-04 16:58:55</t>
+          <t>2026-02-04 17:14:39</t>
         </is>
       </c>
       <c r="I144" t="inlineStr">
@@ -32686,7 +32686,7 @@
       </c>
       <c r="H145" t="inlineStr">
         <is>
-          <t>2026-02-04 16:58:55</t>
+          <t>2026-02-04 17:14:39</t>
         </is>
       </c>
       <c r="I145" t="inlineStr">
@@ -32919,7 +32919,7 @@
       </c>
       <c r="H146" t="inlineStr">
         <is>
-          <t>2026-02-04 16:58:55</t>
+          <t>2026-02-04 17:14:39</t>
         </is>
       </c>
       <c r="I146" t="inlineStr">
@@ -33137,7 +33137,7 @@
       </c>
       <c r="E147" t="inlineStr">
         <is>
-          <t>16:00 - 16:30</t>
+          <t>16:30 - 17:00</t>
         </is>
       </c>
       <c r="F147" t="inlineStr">
@@ -33152,17 +33152,17 @@
       </c>
       <c r="H147" t="inlineStr">
         <is>
-          <t>2026-02-04 16:58:58</t>
+          <t>2026-02-04 17:14:41</t>
         </is>
       </c>
       <c r="I147" t="inlineStr">
         <is>
-          <t>16:00</t>
+          <t>16:30</t>
         </is>
       </c>
       <c r="J147" t="inlineStr">
         <is>
-          <t>https://www.meteo.cat/observacions/xema/dades?codi=XH&amp;dia=2026-02-04T16:00Z</t>
+          <t>https://www.meteo.cat/observacions/xema/dades?codi=XH&amp;dia=2026-02-04T16:30Z</t>
         </is>
       </c>
       <c r="K147" t="n">
@@ -33183,12 +33183,12 @@
       </c>
       <c r="Q147" t="inlineStr">
         <is>
-          <t>71</t>
+          <t>79</t>
         </is>
       </c>
       <c r="R147" t="inlineStr">
         <is>
-          <t>992.2</t>
+          <t>992.8</t>
         </is>
       </c>
       <c r="S147" t="inlineStr">
@@ -33198,23 +33198,23 @@
       </c>
       <c r="T147" t="inlineStr">
         <is>
-          <t>16:00 - 16:30</t>
+          <t>16:30 - 17:00</t>
         </is>
       </c>
       <c r="U147" t="inlineStr"/>
       <c r="V147" t="inlineStr">
         <is>
-          <t>7.9</t>
+          <t>7.0</t>
         </is>
       </c>
       <c r="W147" t="inlineStr">
         <is>
-          <t>7.6</t>
+          <t>6.6</t>
         </is>
       </c>
       <c r="X147" t="inlineStr">
         <is>
-          <t>8.1</t>
+          <t>7.5</t>
         </is>
       </c>
       <c r="Y147" t="inlineStr"/>
@@ -33225,27 +33225,27 @@
       <c r="AD147" t="inlineStr"/>
       <c r="AE147" t="inlineStr">
         <is>
-          <t>16:00 - 16:30</t>
+          <t>16:30 - 17:00</t>
         </is>
       </c>
       <c r="AF147" t="inlineStr">
         <is>
-          <t>7.9</t>
+          <t>7.0</t>
         </is>
       </c>
       <c r="AG147" t="inlineStr">
         <is>
-          <t>8.1</t>
+          <t>7.5</t>
         </is>
       </c>
       <c r="AH147" t="inlineStr">
         <is>
-          <t>7.6</t>
+          <t>6.6</t>
         </is>
       </c>
       <c r="AI147" t="inlineStr">
         <is>
-          <t>71</t>
+          <t>79</t>
         </is>
       </c>
       <c r="AJ147" t="inlineStr">
@@ -33260,32 +33260,32 @@
       </c>
       <c r="AL147" t="inlineStr">
         <is>
-          <t>992.2</t>
+          <t>992.8</t>
         </is>
       </c>
       <c r="AM147" t="inlineStr">
         <is>
-          <t>16:00 - 16:30</t>
+          <t>16:30 - 17:00</t>
         </is>
       </c>
       <c r="AN147" t="inlineStr">
         <is>
-          <t>7.9</t>
+          <t>7.0</t>
         </is>
       </c>
       <c r="AO147" t="inlineStr">
         <is>
-          <t>8.1</t>
+          <t>7.5</t>
         </is>
       </c>
       <c r="AP147" t="inlineStr">
         <is>
-          <t>7.6</t>
+          <t>6.6</t>
         </is>
       </c>
       <c r="AQ147" t="inlineStr">
         <is>
-          <t>71</t>
+          <t>79</t>
         </is>
       </c>
       <c r="AR147" t="inlineStr">
@@ -33300,7 +33300,7 @@
       </c>
       <c r="AT147" t="inlineStr">
         <is>
-          <t>992.2</t>
+          <t>992.8</t>
         </is>
       </c>
       <c r="AU147" t="inlineStr"/>
@@ -33349,7 +33349,7 @@
       </c>
       <c r="H148" t="inlineStr">
         <is>
-          <t>2026-02-04 16:58:59</t>
+          <t>2026-02-04 17:14:43</t>
         </is>
       </c>
       <c r="I148" t="inlineStr">
@@ -33546,7 +33546,7 @@
       </c>
       <c r="H149" t="inlineStr">
         <is>
-          <t>2026-02-04 16:58:59</t>
+          <t>2026-02-04 17:14:43</t>
         </is>
       </c>
       <c r="I149" t="inlineStr">
@@ -33743,7 +33743,7 @@
       </c>
       <c r="H150" t="inlineStr">
         <is>
-          <t>2026-02-04 16:58:59</t>
+          <t>2026-02-04 17:14:43</t>
         </is>
       </c>
       <c r="I150" t="inlineStr">
@@ -33940,7 +33940,7 @@
       </c>
       <c r="H151" t="inlineStr">
         <is>
-          <t>2026-02-04 16:58:59</t>
+          <t>2026-02-04 17:14:43</t>
         </is>
       </c>
       <c r="I151" t="inlineStr">
@@ -34122,7 +34122,7 @@
       </c>
       <c r="E152" t="inlineStr">
         <is>
-          <t>16:00 - 16:30</t>
+          <t>16:30 - 17:00</t>
         </is>
       </c>
       <c r="F152" t="inlineStr">
@@ -34137,17 +34137,17 @@
       </c>
       <c r="H152" t="inlineStr">
         <is>
-          <t>2026-02-04 16:59:02</t>
+          <t>2026-02-04 17:14:45</t>
         </is>
       </c>
       <c r="I152" t="inlineStr">
         <is>
-          <t>16:00</t>
+          <t>16:30</t>
         </is>
       </c>
       <c r="J152" t="inlineStr">
         <is>
-          <t>https://www.meteo.cat/observacions/xema/dades?codi=XE&amp;dia=2026-02-04T16:00Z</t>
+          <t>https://www.meteo.cat/observacions/xema/dades?codi=XE&amp;dia=2026-02-04T16:30Z</t>
         </is>
       </c>
       <c r="K152" t="n">
@@ -34160,7 +34160,7 @@
       </c>
       <c r="M152" t="inlineStr">
         <is>
-          <t>244</t>
+          <t>250</t>
         </is>
       </c>
       <c r="N152" t="inlineStr"/>
@@ -34168,12 +34168,12 @@
       <c r="P152" t="inlineStr"/>
       <c r="Q152" t="inlineStr">
         <is>
-          <t>58</t>
+          <t>57</t>
         </is>
       </c>
       <c r="R152" t="inlineStr">
         <is>
-          <t>992.0</t>
+          <t>992.3</t>
         </is>
       </c>
       <c r="S152" t="inlineStr">
@@ -34183,27 +34183,27 @@
       </c>
       <c r="T152" t="inlineStr">
         <is>
-          <t>16:00 - 16:30</t>
+          <t>16:30 - 17:00</t>
         </is>
       </c>
       <c r="U152" t="inlineStr">
         <is>
-          <t>101</t>
+          <t>19</t>
         </is>
       </c>
       <c r="V152" t="inlineStr">
         <is>
-          <t>14.9</t>
+          <t>14.4</t>
         </is>
       </c>
       <c r="W152" t="inlineStr">
         <is>
-          <t>14.5</t>
+          <t>13.9</t>
         </is>
       </c>
       <c r="X152" t="inlineStr">
         <is>
-          <t>15.2</t>
+          <t>14.6</t>
         </is>
       </c>
       <c r="Y152" t="inlineStr">
@@ -34215,34 +34215,34 @@
       <c r="AA152" t="inlineStr"/>
       <c r="AB152" t="inlineStr">
         <is>
-          <t>19.1</t>
+          <t>17.6</t>
         </is>
       </c>
       <c r="AC152" t="inlineStr"/>
       <c r="AD152" t="inlineStr"/>
       <c r="AE152" t="inlineStr">
         <is>
-          <t>16:00 - 16:30</t>
+          <t>16:30 - 17:00</t>
         </is>
       </c>
       <c r="AF152" t="inlineStr">
         <is>
-          <t>14.9</t>
+          <t>14.4</t>
         </is>
       </c>
       <c r="AG152" t="inlineStr">
         <is>
-          <t>15.2</t>
+          <t>14.6</t>
         </is>
       </c>
       <c r="AH152" t="inlineStr">
         <is>
-          <t>14.5</t>
+          <t>13.9</t>
         </is>
       </c>
       <c r="AI152" t="inlineStr">
         <is>
-          <t>58</t>
+          <t>57</t>
         </is>
       </c>
       <c r="AJ152" t="inlineStr">
@@ -34257,32 +34257,32 @@
       </c>
       <c r="AL152" t="inlineStr">
         <is>
-          <t>244</t>
+          <t>250</t>
         </is>
       </c>
       <c r="AM152" t="inlineStr">
         <is>
-          <t>16:00 - 16:30</t>
+          <t>16:30 - 17:00</t>
         </is>
       </c>
       <c r="AN152" t="inlineStr">
         <is>
-          <t>14.9</t>
+          <t>14.4</t>
         </is>
       </c>
       <c r="AO152" t="inlineStr">
         <is>
-          <t>15.2</t>
+          <t>14.6</t>
         </is>
       </c>
       <c r="AP152" t="inlineStr">
         <is>
-          <t>14.5</t>
+          <t>13.9</t>
         </is>
       </c>
       <c r="AQ152" t="inlineStr">
         <is>
-          <t>58</t>
+          <t>57</t>
         </is>
       </c>
       <c r="AR152" t="inlineStr">
@@ -34297,37 +34297,37 @@
       </c>
       <c r="AT152" t="inlineStr">
         <is>
-          <t>244</t>
+          <t>250</t>
         </is>
       </c>
       <c r="AU152" t="inlineStr">
         <is>
-          <t>19.1</t>
+          <t>17.6</t>
         </is>
       </c>
       <c r="AV152" t="inlineStr">
         <is>
-          <t>992.0</t>
+          <t>992.3</t>
         </is>
       </c>
       <c r="AW152" t="inlineStr">
         <is>
-          <t>101</t>
+          <t>19</t>
         </is>
       </c>
       <c r="AX152" t="inlineStr">
         <is>
-          <t>19.1</t>
+          <t>17.6</t>
         </is>
       </c>
       <c r="AY152" t="inlineStr">
         <is>
-          <t>992.0</t>
+          <t>992.3</t>
         </is>
       </c>
       <c r="AZ152" t="inlineStr">
         <is>
-          <t>101</t>
+          <t>19</t>
         </is>
       </c>
       <c r="BA152" t="inlineStr"/>
@@ -34370,7 +34370,7 @@
       </c>
       <c r="H153" t="inlineStr">
         <is>
-          <t>2026-02-04 16:59:03</t>
+          <t>2026-02-04 17:14:47</t>
         </is>
       </c>
       <c r="I153" t="inlineStr">
@@ -34603,7 +34603,7 @@
       </c>
       <c r="H154" t="inlineStr">
         <is>
-          <t>2026-02-04 16:59:03</t>
+          <t>2026-02-04 17:14:47</t>
         </is>
       </c>
       <c r="I154" t="inlineStr">
@@ -34836,7 +34836,7 @@
       </c>
       <c r="H155" t="inlineStr">
         <is>
-          <t>2026-02-04 16:59:03</t>
+          <t>2026-02-04 17:14:47</t>
         </is>
       </c>
       <c r="I155" t="inlineStr">
@@ -35069,7 +35069,7 @@
       </c>
       <c r="H156" t="inlineStr">
         <is>
-          <t>2026-02-04 16:59:03</t>
+          <t>2026-02-04 17:14:47</t>
         </is>
       </c>
       <c r="I156" t="inlineStr">
@@ -35287,7 +35287,7 @@
       </c>
       <c r="E157" t="inlineStr">
         <is>
-          <t>16:00 - 16:30</t>
+          <t>16:30 - 17:00</t>
         </is>
       </c>
       <c r="F157" t="inlineStr">
@@ -35302,17 +35302,17 @@
       </c>
       <c r="H157" t="inlineStr">
         <is>
-          <t>2026-02-04 16:59:05</t>
+          <t>2026-02-04 17:14:49</t>
         </is>
       </c>
       <c r="I157" t="inlineStr">
         <is>
-          <t>16:00</t>
+          <t>16:30</t>
         </is>
       </c>
       <c r="J157" t="inlineStr">
         <is>
-          <t>https://www.meteo.cat/observacions/xema/dades?codi=UE&amp;dia=2026-02-04T16:00Z</t>
+          <t>https://www.meteo.cat/observacions/xema/dades?codi=UE&amp;dia=2026-02-04T16:30Z</t>
         </is>
       </c>
       <c r="K157" t="n">
@@ -35329,7 +35329,7 @@
       <c r="P157" t="inlineStr"/>
       <c r="Q157" t="inlineStr">
         <is>
-          <t>68</t>
+          <t>76</t>
         </is>
       </c>
       <c r="R157" t="inlineStr"/>
@@ -35340,23 +35340,23 @@
       </c>
       <c r="T157" t="inlineStr">
         <is>
-          <t>16:00 - 16:30</t>
+          <t>16:30 - 17:00</t>
         </is>
       </c>
       <c r="U157" t="inlineStr"/>
       <c r="V157" t="inlineStr">
         <is>
-          <t>13.1</t>
+          <t>12.1</t>
         </is>
       </c>
       <c r="W157" t="inlineStr">
         <is>
-          <t>12.7</t>
+          <t>11.3</t>
         </is>
       </c>
       <c r="X157" t="inlineStr">
         <is>
-          <t>13.5</t>
+          <t>12.6</t>
         </is>
       </c>
       <c r="Y157" t="inlineStr"/>
@@ -35367,27 +35367,27 @@
       <c r="AD157" t="inlineStr"/>
       <c r="AE157" t="inlineStr">
         <is>
-          <t>16:00 - 16:30</t>
+          <t>16:30 - 17:00</t>
         </is>
       </c>
       <c r="AF157" t="inlineStr">
         <is>
-          <t>13.1</t>
+          <t>12.1</t>
         </is>
       </c>
       <c r="AG157" t="inlineStr">
         <is>
-          <t>13.5</t>
+          <t>12.6</t>
         </is>
       </c>
       <c r="AH157" t="inlineStr">
         <is>
-          <t>12.7</t>
+          <t>11.3</t>
         </is>
       </c>
       <c r="AI157" t="inlineStr">
         <is>
-          <t>68</t>
+          <t>76</t>
         </is>
       </c>
       <c r="AJ157" t="inlineStr">
@@ -35399,27 +35399,27 @@
       <c r="AL157" t="inlineStr"/>
       <c r="AM157" t="inlineStr">
         <is>
-          <t>16:00 - 16:30</t>
+          <t>16:30 - 17:00</t>
         </is>
       </c>
       <c r="AN157" t="inlineStr">
         <is>
-          <t>13.1</t>
+          <t>12.1</t>
         </is>
       </c>
       <c r="AO157" t="inlineStr">
         <is>
-          <t>13.5</t>
+          <t>12.6</t>
         </is>
       </c>
       <c r="AP157" t="inlineStr">
         <is>
-          <t>12.7</t>
+          <t>11.3</t>
         </is>
       </c>
       <c r="AQ157" t="inlineStr">
         <is>
-          <t>68</t>
+          <t>76</t>
         </is>
       </c>
       <c r="AR157" t="inlineStr">
@@ -35475,7 +35475,7 @@
       </c>
       <c r="H158" t="inlineStr">
         <is>
-          <t>2026-02-04 16:59:07</t>
+          <t>2026-02-04 17:14:50</t>
         </is>
       </c>
       <c r="I158" t="inlineStr">
@@ -35648,7 +35648,7 @@
       </c>
       <c r="H159" t="inlineStr">
         <is>
-          <t>2026-02-04 16:59:07</t>
+          <t>2026-02-04 17:14:50</t>
         </is>
       </c>
       <c r="I159" t="inlineStr">
@@ -35821,7 +35821,7 @@
       </c>
       <c r="H160" t="inlineStr">
         <is>
-          <t>2026-02-04 16:59:07</t>
+          <t>2026-02-04 17:14:50</t>
         </is>
       </c>
       <c r="I160" t="inlineStr">
@@ -35994,7 +35994,7 @@
       </c>
       <c r="H161" t="inlineStr">
         <is>
-          <t>2026-02-04 16:59:07</t>
+          <t>2026-02-04 17:14:50</t>
         </is>
       </c>
       <c r="I161" t="inlineStr">
@@ -36152,7 +36152,7 @@
       </c>
       <c r="E162" t="inlineStr">
         <is>
-          <t>16:00 - 16:30</t>
+          <t>16:30 - 17:00</t>
         </is>
       </c>
       <c r="F162" t="inlineStr">
@@ -36167,17 +36167,17 @@
       </c>
       <c r="H162" t="inlineStr">
         <is>
-          <t>2026-02-04 16:59:09</t>
+          <t>2026-02-04 17:14:53</t>
         </is>
       </c>
       <c r="I162" t="inlineStr">
         <is>
-          <t>16:00</t>
+          <t>16:30</t>
         </is>
       </c>
       <c r="J162" t="inlineStr">
         <is>
-          <t>https://www.meteo.cat/observacions/xema/dades?codi=XO&amp;dia=2026-02-04T16:00Z</t>
+          <t>https://www.meteo.cat/observacions/xema/dades?codi=XO&amp;dia=2026-02-04T16:30Z</t>
         </is>
       </c>
       <c r="K162" t="n">
@@ -36190,7 +36190,7 @@
       </c>
       <c r="M162" t="inlineStr">
         <is>
-          <t>280</t>
+          <t>192</t>
         </is>
       </c>
       <c r="N162" t="inlineStr"/>
@@ -36198,7 +36198,7 @@
       <c r="P162" t="inlineStr"/>
       <c r="Q162" t="inlineStr">
         <is>
-          <t>68</t>
+          <t>69</t>
         </is>
       </c>
       <c r="R162" t="inlineStr"/>
@@ -36209,27 +36209,27 @@
       </c>
       <c r="T162" t="inlineStr">
         <is>
-          <t>16:00 - 16:30</t>
+          <t>16:30 - 17:00</t>
         </is>
       </c>
       <c r="U162" t="inlineStr">
         <is>
-          <t>110</t>
+          <t>17</t>
         </is>
       </c>
       <c r="V162" t="inlineStr">
         <is>
-          <t>8.6</t>
+          <t>8.3</t>
         </is>
       </c>
       <c r="W162" t="inlineStr">
         <is>
-          <t>8.4</t>
+          <t>8.0</t>
         </is>
       </c>
       <c r="X162" t="inlineStr">
         <is>
-          <t>8.8</t>
+          <t>8.5</t>
         </is>
       </c>
       <c r="Y162" t="inlineStr">
@@ -36241,34 +36241,34 @@
       <c r="AA162" t="inlineStr"/>
       <c r="AB162" t="inlineStr">
         <is>
-          <t>15.1</t>
+          <t>12.6</t>
         </is>
       </c>
       <c r="AC162" t="inlineStr"/>
       <c r="AD162" t="inlineStr"/>
       <c r="AE162" t="inlineStr">
         <is>
-          <t>16:00 - 16:30</t>
+          <t>16:30 - 17:00</t>
         </is>
       </c>
       <c r="AF162" t="inlineStr">
         <is>
-          <t>8.6</t>
+          <t>8.3</t>
         </is>
       </c>
       <c r="AG162" t="inlineStr">
         <is>
-          <t>8.8</t>
+          <t>8.5</t>
         </is>
       </c>
       <c r="AH162" t="inlineStr">
         <is>
-          <t>8.4</t>
+          <t>8.0</t>
         </is>
       </c>
       <c r="AI162" t="inlineStr">
         <is>
-          <t>68</t>
+          <t>69</t>
         </is>
       </c>
       <c r="AJ162" t="inlineStr">
@@ -36283,32 +36283,32 @@
       </c>
       <c r="AL162" t="inlineStr">
         <is>
-          <t>280</t>
+          <t>192</t>
         </is>
       </c>
       <c r="AM162" t="inlineStr">
         <is>
-          <t>16:00 - 16:30</t>
+          <t>16:30 - 17:00</t>
         </is>
       </c>
       <c r="AN162" t="inlineStr">
         <is>
-          <t>8.6</t>
+          <t>8.3</t>
         </is>
       </c>
       <c r="AO162" t="inlineStr">
         <is>
-          <t>8.8</t>
+          <t>8.5</t>
         </is>
       </c>
       <c r="AP162" t="inlineStr">
         <is>
-          <t>8.4</t>
+          <t>8.0</t>
         </is>
       </c>
       <c r="AQ162" t="inlineStr">
         <is>
-          <t>68</t>
+          <t>69</t>
         </is>
       </c>
       <c r="AR162" t="inlineStr">
@@ -36323,28 +36323,28 @@
       </c>
       <c r="AT162" t="inlineStr">
         <is>
-          <t>280</t>
+          <t>192</t>
         </is>
       </c>
       <c r="AU162" t="inlineStr">
         <is>
-          <t>15.1</t>
+          <t>12.6</t>
         </is>
       </c>
       <c r="AV162" t="inlineStr">
         <is>
-          <t>110</t>
+          <t>17</t>
         </is>
       </c>
       <c r="AW162" t="inlineStr"/>
       <c r="AX162" t="inlineStr">
         <is>
-          <t>15.1</t>
+          <t>12.6</t>
         </is>
       </c>
       <c r="AY162" t="inlineStr">
         <is>
-          <t>110</t>
+          <t>17</t>
         </is>
       </c>
       <c r="AZ162" t="inlineStr"/>
@@ -36388,7 +36388,7 @@
       </c>
       <c r="H163" t="inlineStr">
         <is>
-          <t>2026-02-04 16:59:11</t>
+          <t>2026-02-04 17:14:55</t>
         </is>
       </c>
       <c r="I163" t="inlineStr">
@@ -36609,7 +36609,7 @@
       </c>
       <c r="H164" t="inlineStr">
         <is>
-          <t>2026-02-04 16:59:11</t>
+          <t>2026-02-04 17:14:55</t>
         </is>
       </c>
       <c r="I164" t="inlineStr">
@@ -36830,7 +36830,7 @@
       </c>
       <c r="H165" t="inlineStr">
         <is>
-          <t>2026-02-04 16:59:11</t>
+          <t>2026-02-04 17:14:55</t>
         </is>
       </c>
       <c r="I165" t="inlineStr">
@@ -37051,7 +37051,7 @@
       </c>
       <c r="H166" t="inlineStr">
         <is>
-          <t>2026-02-04 16:59:11</t>
+          <t>2026-02-04 17:14:55</t>
         </is>
       </c>
       <c r="I166" t="inlineStr">
@@ -37257,7 +37257,7 @@
       </c>
       <c r="E167" t="inlineStr">
         <is>
-          <t>16:00 - 16:30</t>
+          <t>16:30 - 17:00</t>
         </is>
       </c>
       <c r="F167" t="inlineStr">
@@ -37272,17 +37272,17 @@
       </c>
       <c r="H167" t="inlineStr">
         <is>
-          <t>2026-02-04 16:59:13</t>
+          <t>2026-02-04 17:14:57</t>
         </is>
       </c>
       <c r="I167" t="inlineStr">
         <is>
-          <t>16:00</t>
+          <t>16:30</t>
         </is>
       </c>
       <c r="J167" t="inlineStr">
         <is>
-          <t>https://www.meteo.cat/observacions/xema/dades?codi=VS&amp;dia=2026-02-04T16:00Z</t>
+          <t>https://www.meteo.cat/observacions/xema/dades?codi=VS&amp;dia=2026-02-04T16:30Z</t>
         </is>
       </c>
       <c r="K167" t="n">
@@ -37307,12 +37307,12 @@
       </c>
       <c r="Q167" t="inlineStr">
         <is>
-          <t>95</t>
+          <t>94</t>
         </is>
       </c>
       <c r="R167" t="inlineStr">
         <is>
-          <t>826.9</t>
+          <t>827.7</t>
         </is>
       </c>
       <c r="S167" t="inlineStr">
@@ -37322,27 +37322,27 @@
       </c>
       <c r="T167" t="inlineStr">
         <is>
-          <t>16:00 - 16:30</t>
+          <t>16:30 - 17:00</t>
         </is>
       </c>
       <c r="U167" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>16</t>
         </is>
       </c>
       <c r="V167" t="inlineStr">
         <is>
-          <t>-3.3</t>
+          <t>-4.3</t>
         </is>
       </c>
       <c r="W167" t="inlineStr">
         <is>
+          <t>-4.4</t>
+        </is>
+      </c>
+      <c r="X167" t="inlineStr">
+        <is>
           <t>-4.1</t>
-        </is>
-      </c>
-      <c r="X167" t="inlineStr">
-        <is>
-          <t>-2.7</t>
         </is>
       </c>
       <c r="Y167" t="inlineStr">
@@ -37361,79 +37361,79 @@
       <c r="AD167" t="inlineStr"/>
       <c r="AE167" t="inlineStr">
         <is>
-          <t>16:00 - 16:30</t>
+          <t>16:30 - 17:00</t>
         </is>
       </c>
       <c r="AF167" t="inlineStr">
         <is>
-          <t>-3.3</t>
+          <t>-4.3</t>
         </is>
       </c>
       <c r="AG167" t="inlineStr">
         <is>
-          <t>-2.7</t>
+          <t>-4.1</t>
         </is>
       </c>
       <c r="AH167" t="inlineStr">
         <is>
+          <t>-4.4</t>
+        </is>
+      </c>
+      <c r="AI167" t="inlineStr">
+        <is>
+          <t>94</t>
+        </is>
+      </c>
+      <c r="AJ167" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="AK167" t="inlineStr">
+        <is>
+          <t>200</t>
+        </is>
+      </c>
+      <c r="AL167" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="AM167" t="inlineStr">
+        <is>
+          <t>16:30 - 17:00</t>
+        </is>
+      </c>
+      <c r="AN167" t="inlineStr">
+        <is>
+          <t>-4.3</t>
+        </is>
+      </c>
+      <c r="AO167" t="inlineStr">
+        <is>
           <t>-4.1</t>
         </is>
       </c>
-      <c r="AI167" t="inlineStr">
-        <is>
-          <t>95</t>
-        </is>
-      </c>
-      <c r="AJ167" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="AK167" t="inlineStr">
+      <c r="AP167" t="inlineStr">
+        <is>
+          <t>-4.4</t>
+        </is>
+      </c>
+      <c r="AQ167" t="inlineStr">
+        <is>
+          <t>94</t>
+        </is>
+      </c>
+      <c r="AR167" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="AS167" t="inlineStr">
         <is>
           <t>200</t>
         </is>
       </c>
-      <c r="AL167" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="AM167" t="inlineStr">
-        <is>
-          <t>16:00 - 16:30</t>
-        </is>
-      </c>
-      <c r="AN167" t="inlineStr">
-        <is>
-          <t>-3.3</t>
-        </is>
-      </c>
-      <c r="AO167" t="inlineStr">
-        <is>
-          <t>-2.7</t>
-        </is>
-      </c>
-      <c r="AP167" t="inlineStr">
-        <is>
-          <t>-4.1</t>
-        </is>
-      </c>
-      <c r="AQ167" t="inlineStr">
-        <is>
-          <t>95</t>
-        </is>
-      </c>
-      <c r="AR167" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="AS167" t="inlineStr">
-        <is>
-          <t>200</t>
-        </is>
-      </c>
       <c r="AT167" t="inlineStr">
         <is>
           <t>0.0</t>
@@ -37451,7 +37451,7 @@
       </c>
       <c r="AW167" t="inlineStr">
         <is>
-          <t>826.9</t>
+          <t>827.7</t>
         </is>
       </c>
       <c r="AX167" t="inlineStr">
@@ -37466,12 +37466,12 @@
       </c>
       <c r="AZ167" t="inlineStr">
         <is>
-          <t>826.9</t>
+          <t>827.7</t>
         </is>
       </c>
       <c r="BA167" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>16</t>
         </is>
       </c>
     </row>
@@ -37513,7 +37513,7 @@
       </c>
       <c r="H168" t="inlineStr">
         <is>
-          <t>2026-02-04 16:59:15</t>
+          <t>2026-02-04 17:14:58</t>
         </is>
       </c>
       <c r="I168" t="inlineStr">
@@ -37722,7 +37722,7 @@
       </c>
       <c r="H169" t="inlineStr">
         <is>
-          <t>2026-02-04 16:59:15</t>
+          <t>2026-02-04 17:14:58</t>
         </is>
       </c>
       <c r="I169" t="inlineStr">
@@ -37931,7 +37931,7 @@
       </c>
       <c r="H170" t="inlineStr">
         <is>
-          <t>2026-02-04 16:59:15</t>
+          <t>2026-02-04 17:14:58</t>
         </is>
       </c>
       <c r="I170" t="inlineStr">
@@ -38140,7 +38140,7 @@
       </c>
       <c r="H171" t="inlineStr">
         <is>
-          <t>2026-02-04 16:59:15</t>
+          <t>2026-02-04 17:14:58</t>
         </is>
       </c>
       <c r="I171" t="inlineStr">
@@ -38334,7 +38334,7 @@
       </c>
       <c r="E172" t="inlineStr">
         <is>
-          <t>16:00 - 16:30</t>
+          <t>16:30 - 17:00</t>
         </is>
       </c>
       <c r="F172" t="inlineStr">
@@ -38349,17 +38349,17 @@
       </c>
       <c r="H172" t="inlineStr">
         <is>
-          <t>2026-02-04 16:59:18</t>
+          <t>2026-02-04 17:15:01</t>
         </is>
       </c>
       <c r="I172" t="inlineStr">
         <is>
-          <t>16:00</t>
+          <t>16:30</t>
         </is>
       </c>
       <c r="J172" t="inlineStr">
         <is>
-          <t>https://www.meteo.cat/observacions/xema/dades?codi=D7&amp;dia=2026-02-04T16:00Z</t>
+          <t>https://www.meteo.cat/observacions/xema/dades?codi=D7&amp;dia=2026-02-04T16:30Z</t>
         </is>
       </c>
       <c r="K172" t="n">
@@ -38372,7 +38372,7 @@
       </c>
       <c r="M172" t="inlineStr">
         <is>
-          <t>357</t>
+          <t>29</t>
         </is>
       </c>
       <c r="N172" t="inlineStr"/>
@@ -38380,12 +38380,12 @@
       <c r="P172" t="inlineStr"/>
       <c r="Q172" t="inlineStr">
         <is>
-          <t>62</t>
+          <t>69</t>
         </is>
       </c>
       <c r="R172" t="inlineStr">
         <is>
-          <t>993.1</t>
+          <t>993.2</t>
         </is>
       </c>
       <c r="S172" t="inlineStr">
@@ -38395,66 +38395,66 @@
       </c>
       <c r="T172" t="inlineStr">
         <is>
-          <t>16:00 - 16:30</t>
+          <t>16:30 - 17:00</t>
         </is>
       </c>
       <c r="U172" t="inlineStr">
         <is>
-          <t>60</t>
+          <t>31</t>
         </is>
       </c>
       <c r="V172" t="inlineStr">
         <is>
-          <t>13.5</t>
+          <t>12.1</t>
         </is>
       </c>
       <c r="W172" t="inlineStr">
         <is>
-          <t>12.4</t>
+          <t>11.8</t>
         </is>
       </c>
       <c r="X172" t="inlineStr">
         <is>
-          <t>14.5</t>
+          <t>12.3</t>
         </is>
       </c>
       <c r="Y172" t="inlineStr">
         <is>
-          <t>6.5</t>
+          <t>4.7</t>
         </is>
       </c>
       <c r="Z172" t="inlineStr"/>
       <c r="AA172" t="inlineStr"/>
       <c r="AB172" t="inlineStr">
         <is>
-          <t>13.3</t>
+          <t>10.4</t>
         </is>
       </c>
       <c r="AC172" t="inlineStr"/>
       <c r="AD172" t="inlineStr"/>
       <c r="AE172" t="inlineStr">
         <is>
-          <t>16:00 - 16:30</t>
+          <t>16:30 - 17:00</t>
         </is>
       </c>
       <c r="AF172" t="inlineStr">
         <is>
-          <t>13.5</t>
+          <t>12.1</t>
         </is>
       </c>
       <c r="AG172" t="inlineStr">
         <is>
-          <t>14.5</t>
+          <t>12.3</t>
         </is>
       </c>
       <c r="AH172" t="inlineStr">
         <is>
-          <t>12.4</t>
+          <t>11.8</t>
         </is>
       </c>
       <c r="AI172" t="inlineStr">
         <is>
-          <t>62</t>
+          <t>69</t>
         </is>
       </c>
       <c r="AJ172" t="inlineStr">
@@ -38464,37 +38464,37 @@
       </c>
       <c r="AK172" t="inlineStr">
         <is>
-          <t>6.5</t>
+          <t>4.7</t>
         </is>
       </c>
       <c r="AL172" t="inlineStr">
         <is>
-          <t>357</t>
+          <t>29</t>
         </is>
       </c>
       <c r="AM172" t="inlineStr">
         <is>
-          <t>16:00 - 16:30</t>
+          <t>16:30 - 17:00</t>
         </is>
       </c>
       <c r="AN172" t="inlineStr">
         <is>
-          <t>13.5</t>
+          <t>12.1</t>
         </is>
       </c>
       <c r="AO172" t="inlineStr">
         <is>
-          <t>14.5</t>
+          <t>12.3</t>
         </is>
       </c>
       <c r="AP172" t="inlineStr">
         <is>
-          <t>12.4</t>
+          <t>11.8</t>
         </is>
       </c>
       <c r="AQ172" t="inlineStr">
         <is>
-          <t>62</t>
+          <t>69</t>
         </is>
       </c>
       <c r="AR172" t="inlineStr">
@@ -38504,42 +38504,42 @@
       </c>
       <c r="AS172" t="inlineStr">
         <is>
-          <t>6.5</t>
+          <t>4.7</t>
         </is>
       </c>
       <c r="AT172" t="inlineStr">
         <is>
-          <t>357</t>
+          <t>29</t>
         </is>
       </c>
       <c r="AU172" t="inlineStr">
         <is>
-          <t>13.3</t>
+          <t>10.4</t>
         </is>
       </c>
       <c r="AV172" t="inlineStr">
         <is>
-          <t>993.1</t>
+          <t>993.2</t>
         </is>
       </c>
       <c r="AW172" t="inlineStr">
         <is>
-          <t>60</t>
+          <t>31</t>
         </is>
       </c>
       <c r="AX172" t="inlineStr">
         <is>
-          <t>13.3</t>
+          <t>10.4</t>
         </is>
       </c>
       <c r="AY172" t="inlineStr">
         <is>
-          <t>993.1</t>
+          <t>993.2</t>
         </is>
       </c>
       <c r="AZ172" t="inlineStr">
         <is>
-          <t>60</t>
+          <t>31</t>
         </is>
       </c>
       <c r="BA172" t="inlineStr"/>
@@ -38582,7 +38582,7 @@
       </c>
       <c r="H173" t="inlineStr">
         <is>
-          <t>2026-02-04 16:59:19</t>
+          <t>2026-02-04 17:15:03</t>
         </is>
       </c>
       <c r="I173" t="inlineStr">
@@ -38815,7 +38815,7 @@
       </c>
       <c r="H174" t="inlineStr">
         <is>
-          <t>2026-02-04 16:59:19</t>
+          <t>2026-02-04 17:15:03</t>
         </is>
       </c>
       <c r="I174" t="inlineStr">
@@ -39048,7 +39048,7 @@
       </c>
       <c r="H175" t="inlineStr">
         <is>
-          <t>2026-02-04 16:59:19</t>
+          <t>2026-02-04 17:15:03</t>
         </is>
       </c>
       <c r="I175" t="inlineStr">
@@ -39281,7 +39281,7 @@
       </c>
       <c r="H176" t="inlineStr">
         <is>
-          <t>2026-02-04 16:59:19</t>
+          <t>2026-02-04 17:15:03</t>
         </is>
       </c>
       <c r="I176" t="inlineStr">
@@ -39553,7 +39553,7 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>https://www.meteo.cat/observacions/xema/dades?codi=YT&amp;dia=2026-02-04T16:00Z</t>
+          <t>https://www.meteo.cat/observacions/xema/dades?codi=YT&amp;dia=2026-02-04T16:30Z</t>
         </is>
       </c>
     </row>
@@ -39583,7 +39583,7 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>https://www.meteo.cat/observacions/xema/dades?codi=Z1&amp;dia=2026-02-04T16:00Z</t>
+          <t>https://www.meteo.cat/observacions/xema/dades?codi=Z1&amp;dia=2026-02-04T16:30Z</t>
         </is>
       </c>
     </row>
@@ -39613,7 +39613,7 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>https://www.meteo.cat/observacions/xema/dades?codi=DN&amp;dia=2026-02-04T16:00Z</t>
+          <t>https://www.meteo.cat/observacions/xema/dades?codi=DN&amp;dia=2026-02-04T16:30Z</t>
         </is>
       </c>
     </row>
@@ -39643,7 +39643,7 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>https://www.meteo.cat/observacions/xema/dades?codi=DJ&amp;dia=2026-02-04T16:00Z</t>
+          <t>https://www.meteo.cat/observacions/xema/dades?codi=DJ&amp;dia=2026-02-04T16:30Z</t>
         </is>
       </c>
     </row>
@@ -39673,7 +39673,7 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>https://www.meteo.cat/observacions/xema/dades?codi=X4&amp;dia=2026-02-04T16:00Z</t>
+          <t>https://www.meteo.cat/observacions/xema/dades?codi=X4&amp;dia=2026-02-04T16:30Z</t>
         </is>
       </c>
     </row>
@@ -39703,7 +39703,7 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>https://www.meteo.cat/observacions/xema/dades?codi=D5&amp;dia=2026-02-04T16:00Z</t>
+          <t>https://www.meteo.cat/observacions/xema/dades?codi=D5&amp;dia=2026-02-04T16:30Z</t>
         </is>
       </c>
     </row>
@@ -39733,7 +39733,7 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>https://www.meteo.cat/observacions/xema/dades?codi=UN&amp;dia=2026-02-04T16:00Z</t>
+          <t>https://www.meteo.cat/observacions/xema/dades?codi=UN&amp;dia=2026-02-04T16:30Z</t>
         </is>
       </c>
     </row>
@@ -39763,7 +39763,7 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>https://www.meteo.cat/observacions/xema/dades?codi=MS&amp;dia=2026-02-04T16:00Z</t>
+          <t>https://www.meteo.cat/observacions/xema/dades?codi=MS&amp;dia=2026-02-04T16:30Z</t>
         </is>
       </c>
     </row>
@@ -39793,7 +39793,7 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>https://www.meteo.cat/observacions/xema/dades?codi=W1&amp;dia=2026-02-04T16:00Z</t>
+          <t>https://www.meteo.cat/observacions/xema/dades?codi=W1&amp;dia=2026-02-04T16:30Z</t>
         </is>
       </c>
     </row>
@@ -39823,7 +39823,7 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>https://www.meteo.cat/observacions/xema/dades?codi=DP&amp;dia=2026-02-04T16:00Z</t>
+          <t>https://www.meteo.cat/observacions/xema/dades?codi=DP&amp;dia=2026-02-04T16:30Z</t>
         </is>
       </c>
     </row>
@@ -39853,7 +39853,7 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>https://www.meteo.cat/observacions/xema/dades?codi=XL&amp;dia=2026-02-04T16:00Z</t>
+          <t>https://www.meteo.cat/observacions/xema/dades?codi=XL&amp;dia=2026-02-04T16:30Z</t>
         </is>
       </c>
     </row>
@@ -39883,7 +39883,7 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>https://www.meteo.cat/observacions/xema/dades?codi=VZ&amp;dia=2026-02-04T16:00Z</t>
+          <t>https://www.meteo.cat/observacions/xema/dades?codi=VZ&amp;dia=2026-02-04T16:30Z</t>
         </is>
       </c>
     </row>
@@ -39913,7 +39913,7 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>https://www.meteo.cat/observacions/xema/dades?codi=Z7&amp;dia=2026-02-04T16:00Z</t>
+          <t>https://www.meteo.cat/observacions/xema/dades?codi=Z7&amp;dia=2026-02-04T16:30Z</t>
         </is>
       </c>
     </row>
@@ -39943,7 +39943,7 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>https://www.meteo.cat/observacions/xema/dades?codi=XJ&amp;dia=2026-02-04T16:00Z</t>
+          <t>https://www.meteo.cat/observacions/xema/dades?codi=XJ&amp;dia=2026-02-04T16:30Z</t>
         </is>
       </c>
     </row>
@@ -39973,7 +39973,7 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>https://www.meteo.cat/observacions/xema/dades?codi=YU&amp;dia=2026-02-04T16:00Z</t>
+          <t>https://www.meteo.cat/observacions/xema/dades?codi=YU&amp;dia=2026-02-04T16:30Z</t>
         </is>
       </c>
     </row>
@@ -40003,7 +40003,7 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>https://www.meteo.cat/observacions/xema/dades?codi=CD&amp;dia=2026-02-04T16:00Z</t>
+          <t>https://www.meteo.cat/observacions/xema/dades?codi=CD&amp;dia=2026-02-04T16:30Z</t>
         </is>
       </c>
     </row>
@@ -40033,7 +40033,7 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>https://www.meteo.cat/observacions/xema/dades?codi=Z2&amp;dia=2026-02-04T16:00Z</t>
+          <t>https://www.meteo.cat/observacions/xema/dades?codi=Z2&amp;dia=2026-02-04T16:30Z</t>
         </is>
       </c>
     </row>
@@ -40063,7 +40063,7 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>https://www.meteo.cat/observacions/xema/dades?codi=VK&amp;dia=2026-02-04T16:00Z</t>
+          <t>https://www.meteo.cat/observacions/xema/dades?codi=VK&amp;dia=2026-02-04T16:30Z</t>
         </is>
       </c>
     </row>
@@ -40093,7 +40093,7 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>https://www.meteo.cat/observacions/xema/dades?codi=Z3&amp;dia=2026-02-04T16:00Z</t>
+          <t>https://www.meteo.cat/observacions/xema/dades?codi=Z3&amp;dia=2026-02-04T16:30Z</t>
         </is>
       </c>
     </row>
@@ -40123,7 +40123,7 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>https://www.meteo.cat/observacions/xema/dades?codi=YB&amp;dia=2026-02-04T16:00Z</t>
+          <t>https://www.meteo.cat/observacions/xema/dades?codi=YB&amp;dia=2026-02-04T16:30Z</t>
         </is>
       </c>
     </row>
@@ -40153,7 +40153,7 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>https://www.meteo.cat/observacions/xema/dades?codi=YP&amp;dia=2026-02-04T16:00Z</t>
+          <t>https://www.meteo.cat/observacions/xema/dades?codi=YP&amp;dia=2026-02-04T16:30Z</t>
         </is>
       </c>
     </row>
@@ -40183,7 +40183,7 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>https://www.meteo.cat/observacions/xema/dades?codi=J5&amp;dia=2026-02-04T16:00Z</t>
+          <t>https://www.meteo.cat/observacions/xema/dades?codi=J5&amp;dia=2026-02-04T16:30Z</t>
         </is>
       </c>
     </row>
@@ -40213,7 +40213,7 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>https://www.meteo.cat/observacions/xema/dades?codi=D6&amp;dia=2026-02-04T16:00Z</t>
+          <t>https://www.meteo.cat/observacions/xema/dades?codi=D6&amp;dia=2026-02-04T16:30Z</t>
         </is>
       </c>
     </row>
@@ -40243,7 +40243,7 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>https://www.meteo.cat/observacions/xema/dades?codi=YA&amp;dia=2026-02-04T16:00Z</t>
+          <t>https://www.meteo.cat/observacions/xema/dades?codi=YA&amp;dia=2026-02-04T16:30Z</t>
         </is>
       </c>
     </row>
@@ -40273,7 +40273,7 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>https://www.meteo.cat/observacions/xema/dades?codi=DG&amp;dia=2026-02-04T16:00Z</t>
+          <t>https://www.meteo.cat/observacions/xema/dades?codi=DG&amp;dia=2026-02-04T16:30Z</t>
         </is>
       </c>
     </row>
@@ -40303,7 +40303,7 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>https://www.meteo.cat/observacions/xema/dades?codi=D4&amp;dia=2026-02-04T16:00Z</t>
+          <t>https://www.meteo.cat/observacions/xema/dades?codi=D4&amp;dia=2026-02-04T16:30Z</t>
         </is>
       </c>
     </row>
@@ -40333,7 +40333,7 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>https://www.meteo.cat/observacions/xema/dades?codi=CI&amp;dia=2026-02-04T16:00Z</t>
+          <t>https://www.meteo.cat/observacions/xema/dades?codi=CI&amp;dia=2026-02-04T16:30Z</t>
         </is>
       </c>
     </row>
@@ -40363,7 +40363,7 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>https://www.meteo.cat/observacions/xema/dades?codi=XS&amp;dia=2026-02-04T16:00Z</t>
+          <t>https://www.meteo.cat/observacions/xema/dades?codi=XS&amp;dia=2026-02-04T16:30Z</t>
         </is>
       </c>
     </row>
@@ -40393,7 +40393,7 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>https://www.meteo.cat/observacions/xema/dades?codi=ZC&amp;dia=2026-02-04T16:00Z</t>
+          <t>https://www.meteo.cat/observacions/xema/dades?codi=ZC&amp;dia=2026-02-04T16:30Z</t>
         </is>
       </c>
     </row>
@@ -40423,7 +40423,7 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>https://www.meteo.cat/observacions/xema/dades?codi=XH&amp;dia=2026-02-04T16:00Z</t>
+          <t>https://www.meteo.cat/observacions/xema/dades?codi=XH&amp;dia=2026-02-04T16:30Z</t>
         </is>
       </c>
     </row>
@@ -40453,7 +40453,7 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>https://www.meteo.cat/observacions/xema/dades?codi=XE&amp;dia=2026-02-04T16:00Z</t>
+          <t>https://www.meteo.cat/observacions/xema/dades?codi=XE&amp;dia=2026-02-04T16:30Z</t>
         </is>
       </c>
     </row>
@@ -40483,7 +40483,7 @@
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>https://www.meteo.cat/observacions/xema/dades?codi=UE&amp;dia=2026-02-04T16:00Z</t>
+          <t>https://www.meteo.cat/observacions/xema/dades?codi=UE&amp;dia=2026-02-04T16:30Z</t>
         </is>
       </c>
     </row>
@@ -40513,7 +40513,7 @@
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>https://www.meteo.cat/observacions/xema/dades?codi=XO&amp;dia=2026-02-04T16:00Z</t>
+          <t>https://www.meteo.cat/observacions/xema/dades?codi=XO&amp;dia=2026-02-04T16:30Z</t>
         </is>
       </c>
     </row>
@@ -40543,7 +40543,7 @@
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>https://www.meteo.cat/observacions/xema/dades?codi=VS&amp;dia=2026-02-04T16:00Z</t>
+          <t>https://www.meteo.cat/observacions/xema/dades?codi=VS&amp;dia=2026-02-04T16:30Z</t>
         </is>
       </c>
     </row>
@@ -40573,7 +40573,7 @@
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>https://www.meteo.cat/observacions/xema/dades?codi=D7&amp;dia=2026-02-04T16:00Z</t>
+          <t>https://www.meteo.cat/observacions/xema/dades?codi=D7&amp;dia=2026-02-04T16:30Z</t>
         </is>
       </c>
     </row>

--- a/src/data/resum_periode_meteocat.xlsx
+++ b/src/data/resum_periode_meteocat.xlsx
@@ -712,7 +712,7 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>16:30 - 17:00</t>
+          <t>17:00 - 17:30</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -727,17 +727,17 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>2026-02-04 17:12:45</t>
+          <t>2026-02-04 17:59:47</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>16:30</t>
+          <t>17:00</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>https://www.meteo.cat/observacions/xema/dades?codi=YT&amp;dia=2026-02-04T16:30Z</t>
+          <t>https://www.meteo.cat/observacions/xema/dades?codi=YT&amp;dia=2026-02-04T17:00Z</t>
         </is>
       </c>
       <c r="K2" t="n">
@@ -753,12 +753,12 @@
       <c r="O2" t="inlineStr"/>
       <c r="P2" t="inlineStr">
         <is>
-          <t>107</t>
+          <t>125</t>
         </is>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>89</t>
+          <t>90</t>
         </is>
       </c>
       <c r="R2" t="inlineStr"/>
@@ -769,27 +769,27 @@
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>16:30 - 17:00</t>
+          <t>17:00 - 17:30</t>
         </is>
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>3</t>
         </is>
       </c>
       <c r="V2" t="inlineStr">
         <is>
+          <t>-1.3</t>
+        </is>
+      </c>
+      <c r="W2" t="inlineStr">
+        <is>
+          <t>-1.6</t>
+        </is>
+      </c>
+      <c r="X2" t="inlineStr">
+        <is>
           <t>-1.1</t>
-        </is>
-      </c>
-      <c r="W2" t="inlineStr">
-        <is>
-          <t>-1.4</t>
-        </is>
-      </c>
-      <c r="X2" t="inlineStr">
-        <is>
-          <t>-0.9</t>
         </is>
       </c>
       <c r="Y2" t="inlineStr"/>
@@ -800,27 +800,27 @@
       <c r="AD2" t="inlineStr"/>
       <c r="AE2" t="inlineStr">
         <is>
-          <t>16:30 - 17:00</t>
+          <t>17:00 - 17:30</t>
         </is>
       </c>
       <c r="AF2" t="inlineStr">
         <is>
+          <t>-1.3</t>
+        </is>
+      </c>
+      <c r="AG2" t="inlineStr">
+        <is>
           <t>-1.1</t>
         </is>
       </c>
-      <c r="AG2" t="inlineStr">
-        <is>
-          <t>-0.9</t>
-        </is>
-      </c>
       <c r="AH2" t="inlineStr">
         <is>
-          <t>-1.4</t>
+          <t>-1.6</t>
         </is>
       </c>
       <c r="AI2" t="inlineStr">
         <is>
-          <t>89</t>
+          <t>90</t>
         </is>
       </c>
       <c r="AJ2" t="inlineStr">
@@ -830,37 +830,37 @@
       </c>
       <c r="AK2" t="inlineStr">
         <is>
-          <t>107</t>
+          <t>125</t>
         </is>
       </c>
       <c r="AL2" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>3</t>
         </is>
       </c>
       <c r="AM2" t="inlineStr">
         <is>
-          <t>16:30 - 17:00</t>
+          <t>17:00 - 17:30</t>
         </is>
       </c>
       <c r="AN2" t="inlineStr">
         <is>
+          <t>-1.3</t>
+        </is>
+      </c>
+      <c r="AO2" t="inlineStr">
+        <is>
           <t>-1.1</t>
         </is>
       </c>
-      <c r="AO2" t="inlineStr">
-        <is>
-          <t>-0.9</t>
-        </is>
-      </c>
       <c r="AP2" t="inlineStr">
         <is>
-          <t>-1.4</t>
+          <t>-1.6</t>
         </is>
       </c>
       <c r="AQ2" t="inlineStr">
         <is>
-          <t>89</t>
+          <t>90</t>
         </is>
       </c>
       <c r="AR2" t="inlineStr">
@@ -870,12 +870,12 @@
       </c>
       <c r="AS2" t="inlineStr">
         <is>
-          <t>107</t>
+          <t>125</t>
         </is>
       </c>
       <c r="AT2" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>3</t>
         </is>
       </c>
       <c r="AU2" t="inlineStr"/>
@@ -924,7 +924,7 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>2026-02-04 17:12:47</t>
+          <t>2026-02-04 17:59:49</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
@@ -1121,7 +1121,7 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>2026-02-04 17:12:47</t>
+          <t>2026-02-04 17:59:49</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
@@ -1318,7 +1318,7 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>2026-02-04 17:12:47</t>
+          <t>2026-02-04 17:59:49</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
@@ -1515,7 +1515,7 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>2026-02-04 17:12:47</t>
+          <t>2026-02-04 17:59:49</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
@@ -1697,7 +1697,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>16:30 - 17:00</t>
+          <t>17:00 - 17:30</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -1712,17 +1712,17 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>2026-02-04 17:12:49</t>
+          <t>2026-02-04 17:59:51</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>16:30</t>
+          <t>17:00</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>https://www.meteo.cat/observacions/xema/dades?codi=Z1&amp;dia=2026-02-04T16:30Z</t>
+          <t>https://www.meteo.cat/observacions/xema/dades?codi=Z1&amp;dia=2026-02-04T17:00Z</t>
         </is>
       </c>
       <c r="K7" t="n">
@@ -1737,7 +1737,7 @@
       <c r="N7" t="inlineStr"/>
       <c r="O7" t="inlineStr">
         <is>
-          <t>212</t>
+          <t>225</t>
         </is>
       </c>
       <c r="P7" t="inlineStr">
@@ -1747,7 +1747,7 @@
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>77</t>
         </is>
       </c>
       <c r="R7" t="inlineStr"/>
@@ -1758,151 +1758,151 @@
       </c>
       <c r="T7" t="inlineStr">
         <is>
-          <t>16:30 - 17:00</t>
+          <t>17:00 - 17:30</t>
         </is>
       </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>2</t>
         </is>
       </c>
       <c r="V7" t="inlineStr">
         <is>
-          <t>-3.4</t>
+          <t>-2.5</t>
         </is>
       </c>
       <c r="W7" t="inlineStr">
         <is>
-          <t>-4.2</t>
+          <t>-2.9</t>
         </is>
       </c>
       <c r="X7" t="inlineStr">
         <is>
-          <t>-2.5</t>
+          <t>-2.4</t>
         </is>
       </c>
       <c r="Y7" t="inlineStr"/>
       <c r="Z7" t="inlineStr"/>
       <c r="AA7" t="inlineStr">
         <is>
-          <t>3.6</t>
+          <t>7.2</t>
         </is>
       </c>
       <c r="AB7" t="inlineStr"/>
       <c r="AC7" t="inlineStr"/>
       <c r="AD7" t="inlineStr">
         <is>
-          <t>11.2</t>
+          <t>12.2</t>
         </is>
       </c>
       <c r="AE7" t="inlineStr">
         <is>
-          <t>16:30 - 17:00</t>
+          <t>17:00 - 17:30</t>
         </is>
       </c>
       <c r="AF7" t="inlineStr">
         <is>
-          <t>-3.4</t>
+          <t>-2.5</t>
         </is>
       </c>
       <c r="AG7" t="inlineStr">
         <is>
+          <t>-2.4</t>
+        </is>
+      </c>
+      <c r="AH7" t="inlineStr">
+        <is>
+          <t>-2.9</t>
+        </is>
+      </c>
+      <c r="AI7" t="inlineStr">
+        <is>
+          <t>77</t>
+        </is>
+      </c>
+      <c r="AJ7" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="AK7" t="inlineStr">
+        <is>
+          <t>180</t>
+        </is>
+      </c>
+      <c r="AL7" t="inlineStr">
+        <is>
+          <t>7.2</t>
+        </is>
+      </c>
+      <c r="AM7" t="inlineStr">
+        <is>
+          <t>17:00 - 17:30</t>
+        </is>
+      </c>
+      <c r="AN7" t="inlineStr">
+        <is>
           <t>-2.5</t>
         </is>
       </c>
-      <c r="AH7" t="inlineStr">
-        <is>
-          <t>-4.2</t>
-        </is>
-      </c>
-      <c r="AI7" t="inlineStr">
-        <is>
-          <t>80</t>
-        </is>
-      </c>
-      <c r="AJ7" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="AK7" t="inlineStr">
+      <c r="AO7" t="inlineStr">
+        <is>
+          <t>-2.4</t>
+        </is>
+      </c>
+      <c r="AP7" t="inlineStr">
+        <is>
+          <t>-2.9</t>
+        </is>
+      </c>
+      <c r="AQ7" t="inlineStr">
+        <is>
+          <t>77</t>
+        </is>
+      </c>
+      <c r="AR7" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="AS7" t="inlineStr">
         <is>
           <t>180</t>
         </is>
       </c>
-      <c r="AL7" t="inlineStr">
-        <is>
-          <t>3.6</t>
-        </is>
-      </c>
-      <c r="AM7" t="inlineStr">
-        <is>
-          <t>16:30 - 17:00</t>
-        </is>
-      </c>
-      <c r="AN7" t="inlineStr">
-        <is>
-          <t>-3.4</t>
-        </is>
-      </c>
-      <c r="AO7" t="inlineStr">
-        <is>
-          <t>-2.5</t>
-        </is>
-      </c>
-      <c r="AP7" t="inlineStr">
-        <is>
-          <t>-4.2</t>
-        </is>
-      </c>
-      <c r="AQ7" t="inlineStr">
-        <is>
-          <t>80</t>
-        </is>
-      </c>
-      <c r="AR7" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="AS7" t="inlineStr">
-        <is>
-          <t>180</t>
-        </is>
-      </c>
       <c r="AT7" t="inlineStr">
         <is>
-          <t>3.6</t>
+          <t>7.2</t>
         </is>
       </c>
       <c r="AU7" t="inlineStr">
         <is>
-          <t>212</t>
+          <t>225</t>
         </is>
       </c>
       <c r="AV7" t="inlineStr">
         <is>
-          <t>11.2</t>
+          <t>12.2</t>
         </is>
       </c>
       <c r="AW7" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>2</t>
         </is>
       </c>
       <c r="AX7" t="inlineStr">
         <is>
-          <t>212</t>
+          <t>225</t>
         </is>
       </c>
       <c r="AY7" t="inlineStr">
         <is>
-          <t>11.2</t>
+          <t>12.2</t>
         </is>
       </c>
       <c r="AZ7" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>2</t>
         </is>
       </c>
       <c r="BA7" t="inlineStr"/>
@@ -1945,7 +1945,7 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>2026-02-04 17:12:51</t>
+          <t>2026-02-04 17:59:53</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
@@ -2178,7 +2178,7 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>2026-02-04 17:12:51</t>
+          <t>2026-02-04 17:59:53</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
@@ -2411,7 +2411,7 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>2026-02-04 17:12:51</t>
+          <t>2026-02-04 17:59:53</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
@@ -2644,7 +2644,7 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>2026-02-04 17:12:51</t>
+          <t>2026-02-04 17:59:53</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
@@ -2862,7 +2862,7 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>16:30 - 17:00</t>
+          <t>17:00 - 17:30</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
@@ -2877,17 +2877,17 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>2026-02-04 17:12:53</t>
+          <t>2026-02-04 17:59:56</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>16:30</t>
+          <t>17:00</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>https://www.meteo.cat/observacions/xema/dades?codi=DN&amp;dia=2026-02-04T16:30Z</t>
+          <t>https://www.meteo.cat/observacions/xema/dades?codi=DN&amp;dia=2026-02-04T17:00Z</t>
         </is>
       </c>
       <c r="K12" t="n">
@@ -2900,7 +2900,7 @@
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>306</t>
+          <t>298</t>
         </is>
       </c>
       <c r="N12" t="inlineStr"/>
@@ -2908,12 +2908,12 @@
       <c r="P12" t="inlineStr"/>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>59</t>
+          <t>65</t>
         </is>
       </c>
       <c r="R12" t="inlineStr">
         <is>
-          <t>990.3</t>
+          <t>990.8</t>
         </is>
       </c>
       <c r="S12" t="inlineStr">
@@ -2923,66 +2923,66 @@
       </c>
       <c r="T12" t="inlineStr">
         <is>
-          <t>16:30 - 17:00</t>
+          <t>17:00 - 17:30</t>
         </is>
       </c>
       <c r="U12" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>0</t>
         </is>
       </c>
       <c r="V12" t="inlineStr">
         <is>
-          <t>11.5</t>
+          <t>10.1</t>
         </is>
       </c>
       <c r="W12" t="inlineStr">
         <is>
-          <t>10.7</t>
+          <t>9.6</t>
         </is>
       </c>
       <c r="X12" t="inlineStr">
         <is>
-          <t>11.9</t>
+          <t>10.6</t>
         </is>
       </c>
       <c r="Y12" t="inlineStr">
         <is>
-          <t>5.8</t>
+          <t>4.3</t>
         </is>
       </c>
       <c r="Z12" t="inlineStr"/>
       <c r="AA12" t="inlineStr"/>
       <c r="AB12" t="inlineStr">
         <is>
-          <t>23.0</t>
+          <t>14.4</t>
         </is>
       </c>
       <c r="AC12" t="inlineStr"/>
       <c r="AD12" t="inlineStr"/>
       <c r="AE12" t="inlineStr">
         <is>
-          <t>16:30 - 17:00</t>
+          <t>17:00 - 17:30</t>
         </is>
       </c>
       <c r="AF12" t="inlineStr">
         <is>
-          <t>11.5</t>
+          <t>10.1</t>
         </is>
       </c>
       <c r="AG12" t="inlineStr">
         <is>
-          <t>11.9</t>
+          <t>10.6</t>
         </is>
       </c>
       <c r="AH12" t="inlineStr">
         <is>
-          <t>10.7</t>
+          <t>9.6</t>
         </is>
       </c>
       <c r="AI12" t="inlineStr">
         <is>
-          <t>59</t>
+          <t>65</t>
         </is>
       </c>
       <c r="AJ12" t="inlineStr">
@@ -2992,37 +2992,37 @@
       </c>
       <c r="AK12" t="inlineStr">
         <is>
-          <t>5.8</t>
+          <t>4.3</t>
         </is>
       </c>
       <c r="AL12" t="inlineStr">
         <is>
-          <t>306</t>
+          <t>298</t>
         </is>
       </c>
       <c r="AM12" t="inlineStr">
         <is>
-          <t>16:30 - 17:00</t>
+          <t>17:00 - 17:30</t>
         </is>
       </c>
       <c r="AN12" t="inlineStr">
         <is>
-          <t>11.5</t>
+          <t>10.1</t>
         </is>
       </c>
       <c r="AO12" t="inlineStr">
         <is>
-          <t>11.9</t>
+          <t>10.6</t>
         </is>
       </c>
       <c r="AP12" t="inlineStr">
         <is>
-          <t>10.7</t>
+          <t>9.6</t>
         </is>
       </c>
       <c r="AQ12" t="inlineStr">
         <is>
-          <t>59</t>
+          <t>65</t>
         </is>
       </c>
       <c r="AR12" t="inlineStr">
@@ -3032,42 +3032,42 @@
       </c>
       <c r="AS12" t="inlineStr">
         <is>
-          <t>5.8</t>
+          <t>4.3</t>
         </is>
       </c>
       <c r="AT12" t="inlineStr">
         <is>
-          <t>306</t>
+          <t>298</t>
         </is>
       </c>
       <c r="AU12" t="inlineStr">
         <is>
-          <t>23.0</t>
+          <t>14.4</t>
         </is>
       </c>
       <c r="AV12" t="inlineStr">
         <is>
-          <t>990.3</t>
+          <t>990.8</t>
         </is>
       </c>
       <c r="AW12" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AX12" t="inlineStr">
         <is>
-          <t>23.0</t>
+          <t>14.4</t>
         </is>
       </c>
       <c r="AY12" t="inlineStr">
         <is>
-          <t>990.3</t>
+          <t>990.8</t>
         </is>
       </c>
       <c r="AZ12" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>0</t>
         </is>
       </c>
       <c r="BA12" t="inlineStr"/>
@@ -3110,7 +3110,7 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>2026-02-04 17:12:55</t>
+          <t>2026-02-04 17:59:58</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
@@ -3343,7 +3343,7 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>2026-02-04 17:12:55</t>
+          <t>2026-02-04 17:59:58</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
@@ -3576,7 +3576,7 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>2026-02-04 17:12:55</t>
+          <t>2026-02-04 17:59:58</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
@@ -3809,7 +3809,7 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>2026-02-04 17:12:55</t>
+          <t>2026-02-04 17:59:58</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
@@ -4027,7 +4027,7 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>16:30 - 17:00</t>
+          <t>17:00 - 17:30</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
@@ -4042,17 +4042,17 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>2026-02-04 17:12:57</t>
+          <t>2026-02-04 18:00:01</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>16:30</t>
+          <t>17:00</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>https://www.meteo.cat/observacions/xema/dades?codi=DJ&amp;dia=2026-02-04T16:30Z</t>
+          <t>https://www.meteo.cat/observacions/xema/dades?codi=DJ&amp;dia=2026-02-04T17:00Z</t>
         </is>
       </c>
       <c r="K17" t="n">
@@ -4065,7 +4065,7 @@
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>266</t>
+          <t>263</t>
         </is>
       </c>
       <c r="N17" t="inlineStr"/>
@@ -4073,12 +4073,12 @@
       <c r="P17" t="inlineStr"/>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>55</t>
+          <t>62</t>
         </is>
       </c>
       <c r="R17" t="inlineStr">
         <is>
-          <t>989.9</t>
+          <t>990.5</t>
         </is>
       </c>
       <c r="S17" t="inlineStr">
@@ -4088,106 +4088,106 @@
       </c>
       <c r="T17" t="inlineStr">
         <is>
-          <t>16:30 - 17:00</t>
+          <t>17:00 - 17:30</t>
         </is>
       </c>
       <c r="U17" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>0</t>
         </is>
       </c>
       <c r="V17" t="inlineStr">
         <is>
-          <t>12.8</t>
+          <t>11.2</t>
         </is>
       </c>
       <c r="W17" t="inlineStr">
         <is>
+          <t>10.7</t>
+        </is>
+      </c>
+      <c r="X17" t="inlineStr">
+        <is>
           <t>11.8</t>
         </is>
       </c>
-      <c r="X17" t="inlineStr">
-        <is>
-          <t>13.6</t>
-        </is>
-      </c>
       <c r="Y17" t="inlineStr">
         <is>
-          <t>2.9</t>
+          <t>3.6</t>
         </is>
       </c>
       <c r="Z17" t="inlineStr"/>
       <c r="AA17" t="inlineStr"/>
       <c r="AB17" t="inlineStr">
         <is>
-          <t>9.4</t>
+          <t>7.9</t>
         </is>
       </c>
       <c r="AC17" t="inlineStr"/>
       <c r="AD17" t="inlineStr"/>
       <c r="AE17" t="inlineStr">
         <is>
-          <t>16:30 - 17:00</t>
+          <t>17:00 - 17:30</t>
         </is>
       </c>
       <c r="AF17" t="inlineStr">
         <is>
-          <t>12.8</t>
+          <t>11.2</t>
         </is>
       </c>
       <c r="AG17" t="inlineStr">
         <is>
-          <t>13.6</t>
+          <t>11.8</t>
         </is>
       </c>
       <c r="AH17" t="inlineStr">
         <is>
+          <t>10.7</t>
+        </is>
+      </c>
+      <c r="AI17" t="inlineStr">
+        <is>
+          <t>62</t>
+        </is>
+      </c>
+      <c r="AJ17" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="AK17" t="inlineStr">
+        <is>
+          <t>3.6</t>
+        </is>
+      </c>
+      <c r="AL17" t="inlineStr">
+        <is>
+          <t>263</t>
+        </is>
+      </c>
+      <c r="AM17" t="inlineStr">
+        <is>
+          <t>17:00 - 17:30</t>
+        </is>
+      </c>
+      <c r="AN17" t="inlineStr">
+        <is>
+          <t>11.2</t>
+        </is>
+      </c>
+      <c r="AO17" t="inlineStr">
+        <is>
           <t>11.8</t>
         </is>
       </c>
-      <c r="AI17" t="inlineStr">
-        <is>
-          <t>55</t>
-        </is>
-      </c>
-      <c r="AJ17" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="AK17" t="inlineStr">
-        <is>
-          <t>2.9</t>
-        </is>
-      </c>
-      <c r="AL17" t="inlineStr">
-        <is>
-          <t>266</t>
-        </is>
-      </c>
-      <c r="AM17" t="inlineStr">
-        <is>
-          <t>16:30 - 17:00</t>
-        </is>
-      </c>
-      <c r="AN17" t="inlineStr">
-        <is>
-          <t>12.8</t>
-        </is>
-      </c>
-      <c r="AO17" t="inlineStr">
-        <is>
-          <t>13.6</t>
-        </is>
-      </c>
       <c r="AP17" t="inlineStr">
         <is>
-          <t>11.8</t>
+          <t>10.7</t>
         </is>
       </c>
       <c r="AQ17" t="inlineStr">
         <is>
-          <t>55</t>
+          <t>62</t>
         </is>
       </c>
       <c r="AR17" t="inlineStr">
@@ -4197,42 +4197,42 @@
       </c>
       <c r="AS17" t="inlineStr">
         <is>
-          <t>2.9</t>
+          <t>3.6</t>
         </is>
       </c>
       <c r="AT17" t="inlineStr">
         <is>
-          <t>266</t>
+          <t>263</t>
         </is>
       </c>
       <c r="AU17" t="inlineStr">
         <is>
-          <t>9.4</t>
+          <t>7.9</t>
         </is>
       </c>
       <c r="AV17" t="inlineStr">
         <is>
-          <t>989.9</t>
+          <t>990.5</t>
         </is>
       </c>
       <c r="AW17" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AX17" t="inlineStr">
         <is>
-          <t>9.4</t>
+          <t>7.9</t>
         </is>
       </c>
       <c r="AY17" t="inlineStr">
         <is>
-          <t>989.9</t>
+          <t>990.5</t>
         </is>
       </c>
       <c r="AZ17" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>0</t>
         </is>
       </c>
       <c r="BA17" t="inlineStr"/>
@@ -4275,7 +4275,7 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>2026-02-04 17:12:59</t>
+          <t>2026-02-04 18:00:02</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
@@ -4508,7 +4508,7 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>2026-02-04 17:12:59</t>
+          <t>2026-02-04 18:00:02</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
@@ -4741,7 +4741,7 @@
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>2026-02-04 17:12:59</t>
+          <t>2026-02-04 18:00:02</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
@@ -4974,7 +4974,7 @@
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>2026-02-04 17:12:59</t>
+          <t>2026-02-04 18:00:02</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
@@ -5192,7 +5192,7 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>16:30 - 17:00</t>
+          <t>17:00 - 17:30</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
@@ -5207,17 +5207,17 @@
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>2026-02-04 17:13:01</t>
+          <t>2026-02-04 18:00:05</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>16:30</t>
+          <t>17:30</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>https://www.meteo.cat/observacions/xema/dades?codi=X4&amp;dia=2026-02-04T16:30Z</t>
+          <t>https://www.meteo.cat/observacions/xema/dades?codi=X4&amp;dia=2026-02-04T17:30Z</t>
         </is>
       </c>
       <c r="K22" t="n">
@@ -5230,7 +5230,7 @@
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>279</t>
+          <t>290</t>
         </is>
       </c>
       <c r="N22" t="inlineStr"/>
@@ -5238,12 +5238,12 @@
       <c r="P22" t="inlineStr"/>
       <c r="Q22" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>52</t>
         </is>
       </c>
       <c r="R22" t="inlineStr">
         <is>
-          <t>992.0</t>
+          <t>992.2</t>
         </is>
       </c>
       <c r="S22" t="inlineStr">
@@ -5253,106 +5253,106 @@
       </c>
       <c r="T22" t="inlineStr">
         <is>
-          <t>16:30 - 17:00</t>
+          <t>17:00 - 17:30</t>
         </is>
       </c>
       <c r="U22" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>1</t>
         </is>
       </c>
       <c r="V22" t="inlineStr">
         <is>
-          <t>13.3</t>
+          <t>13.0</t>
         </is>
       </c>
       <c r="W22" t="inlineStr">
         <is>
+          <t>12.9</t>
+        </is>
+      </c>
+      <c r="X22" t="inlineStr">
+        <is>
           <t>13.1</t>
         </is>
       </c>
-      <c r="X22" t="inlineStr">
-        <is>
-          <t>13.7</t>
-        </is>
-      </c>
       <c r="Y22" t="inlineStr">
         <is>
-          <t>11.5</t>
+          <t>9.0</t>
         </is>
       </c>
       <c r="Z22" t="inlineStr"/>
       <c r="AA22" t="inlineStr"/>
       <c r="AB22" t="inlineStr">
         <is>
-          <t>25.9</t>
+          <t>19.1</t>
         </is>
       </c>
       <c r="AC22" t="inlineStr"/>
       <c r="AD22" t="inlineStr"/>
       <c r="AE22" t="inlineStr">
         <is>
-          <t>16:30 - 17:00</t>
+          <t>17:00 - 17:30</t>
         </is>
       </c>
       <c r="AF22" t="inlineStr">
         <is>
-          <t>13.3</t>
+          <t>13.0</t>
         </is>
       </c>
       <c r="AG22" t="inlineStr">
         <is>
-          <t>13.7</t>
+          <t>13.1</t>
         </is>
       </c>
       <c r="AH22" t="inlineStr">
         <is>
+          <t>12.9</t>
+        </is>
+      </c>
+      <c r="AI22" t="inlineStr">
+        <is>
+          <t>52</t>
+        </is>
+      </c>
+      <c r="AJ22" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="AK22" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="AL22" t="inlineStr">
+        <is>
+          <t>290</t>
+        </is>
+      </c>
+      <c r="AM22" t="inlineStr">
+        <is>
+          <t>17:00 - 17:30</t>
+        </is>
+      </c>
+      <c r="AN22" t="inlineStr">
+        <is>
+          <t>13.0</t>
+        </is>
+      </c>
+      <c r="AO22" t="inlineStr">
+        <is>
           <t>13.1</t>
         </is>
       </c>
-      <c r="AI22" t="inlineStr">
-        <is>
-          <t>51</t>
-        </is>
-      </c>
-      <c r="AJ22" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="AK22" t="inlineStr">
-        <is>
-          <t>11.5</t>
-        </is>
-      </c>
-      <c r="AL22" t="inlineStr">
-        <is>
-          <t>279</t>
-        </is>
-      </c>
-      <c r="AM22" t="inlineStr">
-        <is>
-          <t>16:30 - 17:00</t>
-        </is>
-      </c>
-      <c r="AN22" t="inlineStr">
-        <is>
-          <t>13.3</t>
-        </is>
-      </c>
-      <c r="AO22" t="inlineStr">
-        <is>
-          <t>13.7</t>
-        </is>
-      </c>
       <c r="AP22" t="inlineStr">
         <is>
-          <t>13.1</t>
+          <t>12.9</t>
         </is>
       </c>
       <c r="AQ22" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>52</t>
         </is>
       </c>
       <c r="AR22" t="inlineStr">
@@ -5362,42 +5362,42 @@
       </c>
       <c r="AS22" t="inlineStr">
         <is>
-          <t>11.5</t>
+          <t>9.0</t>
         </is>
       </c>
       <c r="AT22" t="inlineStr">
         <is>
-          <t>279</t>
+          <t>290</t>
         </is>
       </c>
       <c r="AU22" t="inlineStr">
         <is>
-          <t>25.9</t>
+          <t>19.1</t>
         </is>
       </c>
       <c r="AV22" t="inlineStr">
         <is>
-          <t>992.0</t>
+          <t>992.2</t>
         </is>
       </c>
       <c r="AW22" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>1</t>
         </is>
       </c>
       <c r="AX22" t="inlineStr">
         <is>
-          <t>25.9</t>
+          <t>19.1</t>
         </is>
       </c>
       <c r="AY22" t="inlineStr">
         <is>
-          <t>992.0</t>
+          <t>992.2</t>
         </is>
       </c>
       <c r="AZ22" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>1</t>
         </is>
       </c>
       <c r="BA22" t="inlineStr"/>
@@ -5440,7 +5440,7 @@
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>2026-02-04 17:13:03</t>
+          <t>2026-02-04 18:00:07</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
@@ -5673,7 +5673,7 @@
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>2026-02-04 17:13:03</t>
+          <t>2026-02-04 18:00:07</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
@@ -5906,7 +5906,7 @@
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>2026-02-04 17:13:03</t>
+          <t>2026-02-04 18:00:07</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
@@ -6139,7 +6139,7 @@
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>2026-02-04 17:13:03</t>
+          <t>2026-02-04 18:00:07</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
@@ -6357,7 +6357,7 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>16:30 - 17:00</t>
+          <t>17:00 - 17:30</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
@@ -6372,17 +6372,17 @@
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>2026-02-04 17:13:05</t>
+          <t>2026-02-04 18:00:10</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>16:30</t>
+          <t>17:30</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>https://www.meteo.cat/observacions/xema/dades?codi=D5&amp;dia=2026-02-04T16:30Z</t>
+          <t>https://www.meteo.cat/observacions/xema/dades?codi=D5&amp;dia=2026-02-04T17:30Z</t>
         </is>
       </c>
       <c r="K27" t="n">
@@ -6395,7 +6395,7 @@
       </c>
       <c r="M27" t="inlineStr">
         <is>
-          <t>281</t>
+          <t>263</t>
         </is>
       </c>
       <c r="N27" t="inlineStr"/>
@@ -6403,12 +6403,12 @@
       <c r="P27" t="inlineStr"/>
       <c r="Q27" t="inlineStr">
         <is>
-          <t>66</t>
+          <t>69</t>
         </is>
       </c>
       <c r="R27" t="inlineStr">
         <is>
-          <t>991.6</t>
+          <t>991.9</t>
         </is>
       </c>
       <c r="S27" t="inlineStr">
@@ -6418,106 +6418,106 @@
       </c>
       <c r="T27" t="inlineStr">
         <is>
-          <t>16:30 - 17:00</t>
+          <t>17:00 - 17:30</t>
         </is>
       </c>
       <c r="U27" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>2</t>
         </is>
       </c>
       <c r="V27" t="inlineStr">
         <is>
-          <t>9.5</t>
+          <t>8.6</t>
         </is>
       </c>
       <c r="W27" t="inlineStr">
         <is>
+          <t>8.3</t>
+        </is>
+      </c>
+      <c r="X27" t="inlineStr">
+        <is>
           <t>8.9</t>
         </is>
       </c>
-      <c r="X27" t="inlineStr">
-        <is>
-          <t>10.0</t>
-        </is>
-      </c>
       <c r="Y27" t="inlineStr">
         <is>
-          <t>1.1</t>
+          <t>1.8</t>
         </is>
       </c>
       <c r="Z27" t="inlineStr"/>
       <c r="AA27" t="inlineStr"/>
       <c r="AB27" t="inlineStr">
         <is>
-          <t>20.2</t>
+          <t>22.3</t>
         </is>
       </c>
       <c r="AC27" t="inlineStr"/>
       <c r="AD27" t="inlineStr"/>
       <c r="AE27" t="inlineStr">
         <is>
-          <t>16:30 - 17:00</t>
+          <t>17:00 - 17:30</t>
         </is>
       </c>
       <c r="AF27" t="inlineStr">
         <is>
-          <t>9.5</t>
+          <t>8.6</t>
         </is>
       </c>
       <c r="AG27" t="inlineStr">
         <is>
-          <t>10.0</t>
+          <t>8.9</t>
         </is>
       </c>
       <c r="AH27" t="inlineStr">
         <is>
+          <t>8.3</t>
+        </is>
+      </c>
+      <c r="AI27" t="inlineStr">
+        <is>
+          <t>69</t>
+        </is>
+      </c>
+      <c r="AJ27" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="AK27" t="inlineStr">
+        <is>
+          <t>1.8</t>
+        </is>
+      </c>
+      <c r="AL27" t="inlineStr">
+        <is>
+          <t>263</t>
+        </is>
+      </c>
+      <c r="AM27" t="inlineStr">
+        <is>
+          <t>17:00 - 17:30</t>
+        </is>
+      </c>
+      <c r="AN27" t="inlineStr">
+        <is>
+          <t>8.6</t>
+        </is>
+      </c>
+      <c r="AO27" t="inlineStr">
+        <is>
           <t>8.9</t>
         </is>
       </c>
-      <c r="AI27" t="inlineStr">
-        <is>
-          <t>66</t>
-        </is>
-      </c>
-      <c r="AJ27" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="AK27" t="inlineStr">
-        <is>
-          <t>1.1</t>
-        </is>
-      </c>
-      <c r="AL27" t="inlineStr">
-        <is>
-          <t>281</t>
-        </is>
-      </c>
-      <c r="AM27" t="inlineStr">
-        <is>
-          <t>16:30 - 17:00</t>
-        </is>
-      </c>
-      <c r="AN27" t="inlineStr">
-        <is>
-          <t>9.5</t>
-        </is>
-      </c>
-      <c r="AO27" t="inlineStr">
-        <is>
-          <t>10.0</t>
-        </is>
-      </c>
       <c r="AP27" t="inlineStr">
         <is>
-          <t>8.9</t>
+          <t>8.3</t>
         </is>
       </c>
       <c r="AQ27" t="inlineStr">
         <is>
-          <t>66</t>
+          <t>69</t>
         </is>
       </c>
       <c r="AR27" t="inlineStr">
@@ -6527,42 +6527,42 @@
       </c>
       <c r="AS27" t="inlineStr">
         <is>
-          <t>1.1</t>
+          <t>1.8</t>
         </is>
       </c>
       <c r="AT27" t="inlineStr">
         <is>
-          <t>281</t>
+          <t>263</t>
         </is>
       </c>
       <c r="AU27" t="inlineStr">
         <is>
-          <t>20.2</t>
+          <t>22.3</t>
         </is>
       </c>
       <c r="AV27" t="inlineStr">
         <is>
-          <t>991.6</t>
+          <t>991.9</t>
         </is>
       </c>
       <c r="AW27" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>2</t>
         </is>
       </c>
       <c r="AX27" t="inlineStr">
         <is>
-          <t>20.2</t>
+          <t>22.3</t>
         </is>
       </c>
       <c r="AY27" t="inlineStr">
         <is>
-          <t>991.6</t>
+          <t>991.9</t>
         </is>
       </c>
       <c r="AZ27" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>2</t>
         </is>
       </c>
       <c r="BA27" t="inlineStr"/>
@@ -6605,7 +6605,7 @@
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>2026-02-04 17:13:07</t>
+          <t>2026-02-04 18:00:12</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
@@ -6838,7 +6838,7 @@
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>2026-02-04 17:13:07</t>
+          <t>2026-02-04 18:00:12</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
@@ -7071,7 +7071,7 @@
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>2026-02-04 17:13:07</t>
+          <t>2026-02-04 18:00:12</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
@@ -7304,7 +7304,7 @@
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>2026-02-04 17:13:07</t>
+          <t>2026-02-04 18:00:12</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
@@ -7522,7 +7522,7 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>16:30 - 17:00</t>
+          <t>17:00 - 17:30</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
@@ -7537,17 +7537,17 @@
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>2026-02-04 17:13:09</t>
+          <t>2026-02-04 18:00:14</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>16:30</t>
+          <t>17:30</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>https://www.meteo.cat/observacions/xema/dades?codi=UN&amp;dia=2026-02-04T16:30Z</t>
+          <t>https://www.meteo.cat/observacions/xema/dades?codi=UN&amp;dia=2026-02-04T17:30Z</t>
         </is>
       </c>
       <c r="K32" t="n">
@@ -7561,14 +7561,14 @@
       <c r="M32" t="inlineStr"/>
       <c r="N32" t="inlineStr">
         <is>
-          <t>81</t>
+          <t>74</t>
         </is>
       </c>
       <c r="O32" t="inlineStr"/>
       <c r="P32" t="inlineStr"/>
       <c r="Q32" t="inlineStr">
         <is>
-          <t>77</t>
+          <t>89</t>
         </is>
       </c>
       <c r="R32" t="inlineStr"/>
@@ -7579,66 +7579,66 @@
       </c>
       <c r="T32" t="inlineStr">
         <is>
-          <t>16:30 - 17:00</t>
+          <t>17:00 - 17:30</t>
         </is>
       </c>
       <c r="U32" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>0</t>
         </is>
       </c>
       <c r="V32" t="inlineStr">
         <is>
-          <t>10.4</t>
+          <t>7.4</t>
         </is>
       </c>
       <c r="W32" t="inlineStr">
         <is>
-          <t>8.4</t>
+          <t>6.5</t>
         </is>
       </c>
       <c r="X32" t="inlineStr">
         <is>
-          <t>12.0</t>
+          <t>8.3</t>
         </is>
       </c>
       <c r="Y32" t="inlineStr"/>
       <c r="Z32" t="inlineStr">
         <is>
-          <t>1.1</t>
+          <t>1.8</t>
         </is>
       </c>
       <c r="AA32" t="inlineStr"/>
       <c r="AB32" t="inlineStr"/>
       <c r="AC32" t="inlineStr">
         <is>
-          <t>4.0</t>
+          <t>5.0</t>
         </is>
       </c>
       <c r="AD32" t="inlineStr"/>
       <c r="AE32" t="inlineStr">
         <is>
-          <t>16:30 - 17:00</t>
+          <t>17:00 - 17:30</t>
         </is>
       </c>
       <c r="AF32" t="inlineStr">
         <is>
-          <t>10.4</t>
+          <t>7.4</t>
         </is>
       </c>
       <c r="AG32" t="inlineStr">
         <is>
-          <t>12.0</t>
+          <t>8.3</t>
         </is>
       </c>
       <c r="AH32" t="inlineStr">
         <is>
-          <t>8.4</t>
+          <t>6.5</t>
         </is>
       </c>
       <c r="AI32" t="inlineStr">
         <is>
-          <t>77</t>
+          <t>89</t>
         </is>
       </c>
       <c r="AJ32" t="inlineStr">
@@ -7648,37 +7648,37 @@
       </c>
       <c r="AK32" t="inlineStr">
         <is>
-          <t>1.1</t>
+          <t>1.8</t>
         </is>
       </c>
       <c r="AL32" t="inlineStr">
         <is>
-          <t>81</t>
+          <t>74</t>
         </is>
       </c>
       <c r="AM32" t="inlineStr">
         <is>
-          <t>16:30 - 17:00</t>
+          <t>17:00 - 17:30</t>
         </is>
       </c>
       <c r="AN32" t="inlineStr">
         <is>
-          <t>10.4</t>
+          <t>7.4</t>
         </is>
       </c>
       <c r="AO32" t="inlineStr">
         <is>
-          <t>12.0</t>
+          <t>8.3</t>
         </is>
       </c>
       <c r="AP32" t="inlineStr">
         <is>
-          <t>8.4</t>
+          <t>6.5</t>
         </is>
       </c>
       <c r="AQ32" t="inlineStr">
         <is>
-          <t>77</t>
+          <t>89</t>
         </is>
       </c>
       <c r="AR32" t="inlineStr">
@@ -7688,33 +7688,33 @@
       </c>
       <c r="AS32" t="inlineStr">
         <is>
-          <t>1.1</t>
+          <t>1.8</t>
         </is>
       </c>
       <c r="AT32" t="inlineStr">
         <is>
-          <t>81</t>
+          <t>74</t>
         </is>
       </c>
       <c r="AU32" t="inlineStr">
         <is>
-          <t>4.0</t>
+          <t>5.0</t>
         </is>
       </c>
       <c r="AV32" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AW32" t="inlineStr"/>
       <c r="AX32" t="inlineStr">
         <is>
-          <t>4.0</t>
+          <t>5.0</t>
         </is>
       </c>
       <c r="AY32" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AZ32" t="inlineStr"/>
@@ -7758,7 +7758,7 @@
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>2026-02-04 17:13:11</t>
+          <t>2026-02-04 18:00:16</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
@@ -7979,7 +7979,7 @@
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>2026-02-04 17:13:11</t>
+          <t>2026-02-04 18:00:16</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
@@ -8200,7 +8200,7 @@
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>2026-02-04 17:13:11</t>
+          <t>2026-02-04 18:00:16</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
@@ -8421,7 +8421,7 @@
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>2026-02-04 17:13:11</t>
+          <t>2026-02-04 18:00:16</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
@@ -8627,7 +8627,7 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>16:30 - 17:00</t>
+          <t>17:00 - 17:30</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
@@ -8642,17 +8642,17 @@
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>2026-02-04 17:13:13</t>
+          <t>2026-02-04 18:00:19</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>16:30</t>
+          <t>17:30</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>https://www.meteo.cat/observacions/xema/dades?codi=MS&amp;dia=2026-02-04T16:30Z</t>
+          <t>https://www.meteo.cat/observacions/xema/dades?codi=MS&amp;dia=2026-02-04T17:30Z</t>
         </is>
       </c>
       <c r="K37" t="n">
@@ -8669,7 +8669,7 @@
       <c r="P37" t="inlineStr"/>
       <c r="Q37" t="inlineStr">
         <is>
-          <t>84</t>
+          <t>89</t>
         </is>
       </c>
       <c r="R37" t="inlineStr"/>
@@ -8680,23 +8680,23 @@
       </c>
       <c r="T37" t="inlineStr">
         <is>
-          <t>16:30 - 17:00</t>
+          <t>17:00 - 17:30</t>
         </is>
       </c>
       <c r="U37" t="inlineStr"/>
       <c r="V37" t="inlineStr">
         <is>
-          <t>4.7</t>
+          <t>3.9</t>
         </is>
       </c>
       <c r="W37" t="inlineStr">
         <is>
+          <t>3.4</t>
+        </is>
+      </c>
+      <c r="X37" t="inlineStr">
+        <is>
           <t>4.2</t>
-        </is>
-      </c>
-      <c r="X37" t="inlineStr">
-        <is>
-          <t>5.3</t>
         </is>
       </c>
       <c r="Y37" t="inlineStr"/>
@@ -8707,27 +8707,27 @@
       <c r="AD37" t="inlineStr"/>
       <c r="AE37" t="inlineStr">
         <is>
-          <t>16:30 - 17:00</t>
+          <t>17:00 - 17:30</t>
         </is>
       </c>
       <c r="AF37" t="inlineStr">
         <is>
-          <t>4.7</t>
+          <t>3.9</t>
         </is>
       </c>
       <c r="AG37" t="inlineStr">
         <is>
-          <t>5.3</t>
+          <t>4.2</t>
         </is>
       </c>
       <c r="AH37" t="inlineStr">
         <is>
-          <t>4.2</t>
+          <t>3.4</t>
         </is>
       </c>
       <c r="AI37" t="inlineStr">
         <is>
-          <t>84</t>
+          <t>89</t>
         </is>
       </c>
       <c r="AJ37" t="inlineStr">
@@ -8739,27 +8739,27 @@
       <c r="AL37" t="inlineStr"/>
       <c r="AM37" t="inlineStr">
         <is>
-          <t>16:30 - 17:00</t>
+          <t>17:00 - 17:30</t>
         </is>
       </c>
       <c r="AN37" t="inlineStr">
         <is>
-          <t>4.7</t>
+          <t>3.9</t>
         </is>
       </c>
       <c r="AO37" t="inlineStr">
         <is>
-          <t>5.3</t>
+          <t>4.2</t>
         </is>
       </c>
       <c r="AP37" t="inlineStr">
         <is>
-          <t>4.2</t>
+          <t>3.4</t>
         </is>
       </c>
       <c r="AQ37" t="inlineStr">
         <is>
-          <t>84</t>
+          <t>89</t>
         </is>
       </c>
       <c r="AR37" t="inlineStr">
@@ -8815,7 +8815,7 @@
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>2026-02-04 17:13:14</t>
+          <t>2026-02-04 18:00:20</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
@@ -8988,7 +8988,7 @@
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>2026-02-04 17:13:14</t>
+          <t>2026-02-04 18:00:20</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
@@ -9161,7 +9161,7 @@
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>2026-02-04 17:13:14</t>
+          <t>2026-02-04 18:00:20</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
@@ -9334,7 +9334,7 @@
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>2026-02-04 17:13:14</t>
+          <t>2026-02-04 18:00:20</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
@@ -9492,7 +9492,7 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>16:30 - 17:00</t>
+          <t>17:00 - 17:30</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
@@ -9507,17 +9507,17 @@
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>2026-02-04 17:13:17</t>
+          <t>2026-02-04 18:00:23</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>16:30</t>
+          <t>17:30</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>https://www.meteo.cat/observacions/xema/dades?codi=W1&amp;dia=2026-02-04T16:30Z</t>
+          <t>https://www.meteo.cat/observacions/xema/dades?codi=W1&amp;dia=2026-02-04T17:30Z</t>
         </is>
       </c>
       <c r="K42" t="n">
@@ -9534,7 +9534,7 @@
       <c r="P42" t="inlineStr"/>
       <c r="Q42" t="inlineStr">
         <is>
-          <t>72</t>
+          <t>78</t>
         </is>
       </c>
       <c r="R42" t="inlineStr"/>
@@ -9545,23 +9545,23 @@
       </c>
       <c r="T42" t="inlineStr">
         <is>
-          <t>16:30 - 17:00</t>
+          <t>17:00 - 17:30</t>
         </is>
       </c>
       <c r="U42" t="inlineStr"/>
       <c r="V42" t="inlineStr">
         <is>
-          <t>12.0</t>
+          <t>10.7</t>
         </is>
       </c>
       <c r="W42" t="inlineStr">
         <is>
-          <t>11.2</t>
+          <t>9.8</t>
         </is>
       </c>
       <c r="X42" t="inlineStr">
         <is>
-          <t>12.9</t>
+          <t>11.1</t>
         </is>
       </c>
       <c r="Y42" t="inlineStr"/>
@@ -9572,27 +9572,27 @@
       <c r="AD42" t="inlineStr"/>
       <c r="AE42" t="inlineStr">
         <is>
-          <t>16:30 - 17:00</t>
+          <t>17:00 - 17:30</t>
         </is>
       </c>
       <c r="AF42" t="inlineStr">
         <is>
-          <t>12.0</t>
+          <t>10.7</t>
         </is>
       </c>
       <c r="AG42" t="inlineStr">
         <is>
-          <t>12.9</t>
+          <t>11.1</t>
         </is>
       </c>
       <c r="AH42" t="inlineStr">
         <is>
-          <t>11.2</t>
+          <t>9.8</t>
         </is>
       </c>
       <c r="AI42" t="inlineStr">
         <is>
-          <t>72</t>
+          <t>78</t>
         </is>
       </c>
       <c r="AJ42" t="inlineStr">
@@ -9604,27 +9604,27 @@
       <c r="AL42" t="inlineStr"/>
       <c r="AM42" t="inlineStr">
         <is>
-          <t>16:30 - 17:00</t>
+          <t>17:00 - 17:30</t>
         </is>
       </c>
       <c r="AN42" t="inlineStr">
         <is>
-          <t>12.0</t>
+          <t>10.7</t>
         </is>
       </c>
       <c r="AO42" t="inlineStr">
         <is>
-          <t>12.9</t>
+          <t>11.1</t>
         </is>
       </c>
       <c r="AP42" t="inlineStr">
         <is>
-          <t>11.2</t>
+          <t>9.8</t>
         </is>
       </c>
       <c r="AQ42" t="inlineStr">
         <is>
-          <t>72</t>
+          <t>78</t>
         </is>
       </c>
       <c r="AR42" t="inlineStr">
@@ -9680,7 +9680,7 @@
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>2026-02-04 17:13:18</t>
+          <t>2026-02-04 18:00:24</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
@@ -9853,7 +9853,7 @@
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>2026-02-04 17:13:18</t>
+          <t>2026-02-04 18:00:24</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
@@ -10026,7 +10026,7 @@
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>2026-02-04 17:13:18</t>
+          <t>2026-02-04 18:00:24</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
@@ -10199,7 +10199,7 @@
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>2026-02-04 17:13:18</t>
+          <t>2026-02-04 18:00:24</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
@@ -10357,7 +10357,7 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>16:30 - 17:00</t>
+          <t>17:00 - 17:30</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
@@ -10372,17 +10372,17 @@
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>2026-02-04 17:13:21</t>
+          <t>2026-02-04 18:00:27</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>16:30</t>
+          <t>17:30</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>https://www.meteo.cat/observacions/xema/dades?codi=DP&amp;dia=2026-02-04T16:30Z</t>
+          <t>https://www.meteo.cat/observacions/xema/dades?codi=DP&amp;dia=2026-02-04T17:30Z</t>
         </is>
       </c>
       <c r="K47" t="n">
@@ -10395,7 +10395,7 @@
       </c>
       <c r="M47" t="inlineStr">
         <is>
-          <t>223</t>
+          <t>192</t>
         </is>
       </c>
       <c r="N47" t="inlineStr"/>
@@ -10407,12 +10407,12 @@
       </c>
       <c r="Q47" t="inlineStr">
         <is>
-          <t>68</t>
+          <t>72</t>
         </is>
       </c>
       <c r="R47" t="inlineStr">
         <is>
-          <t>991.7</t>
+          <t>992.5</t>
         </is>
       </c>
       <c r="S47" t="inlineStr">
@@ -10422,156 +10422,156 @@
       </c>
       <c r="T47" t="inlineStr">
         <is>
-          <t>16:30 - 17:00</t>
+          <t>17:00 - 17:30</t>
         </is>
       </c>
       <c r="U47" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>0</t>
         </is>
       </c>
       <c r="V47" t="inlineStr">
         <is>
-          <t>5.1</t>
+          <t>3.8</t>
         </is>
       </c>
       <c r="W47" t="inlineStr">
         <is>
+          <t>3.1</t>
+        </is>
+      </c>
+      <c r="X47" t="inlineStr">
+        <is>
           <t>4.3</t>
         </is>
       </c>
-      <c r="X47" t="inlineStr">
-        <is>
-          <t>5.5</t>
-        </is>
-      </c>
       <c r="Y47" t="inlineStr">
         <is>
-          <t>17.6</t>
+          <t>12.6</t>
         </is>
       </c>
       <c r="Z47" t="inlineStr"/>
       <c r="AA47" t="inlineStr"/>
       <c r="AB47" t="inlineStr">
         <is>
-          <t>26.6</t>
+          <t>19.4</t>
         </is>
       </c>
       <c r="AC47" t="inlineStr"/>
       <c r="AD47" t="inlineStr"/>
       <c r="AE47" t="inlineStr">
         <is>
-          <t>16:30 - 17:00</t>
+          <t>17:00 - 17:30</t>
         </is>
       </c>
       <c r="AF47" t="inlineStr">
         <is>
-          <t>5.1</t>
+          <t>3.8</t>
         </is>
       </c>
       <c r="AG47" t="inlineStr">
         <is>
-          <t>5.5</t>
+          <t>4.3</t>
         </is>
       </c>
       <c r="AH47" t="inlineStr">
         <is>
+          <t>3.1</t>
+        </is>
+      </c>
+      <c r="AI47" t="inlineStr">
+        <is>
+          <t>72</t>
+        </is>
+      </c>
+      <c r="AJ47" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="AK47" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AL47" t="inlineStr">
+        <is>
+          <t>12.6</t>
+        </is>
+      </c>
+      <c r="AM47" t="inlineStr">
+        <is>
+          <t>17:00 - 17:30</t>
+        </is>
+      </c>
+      <c r="AN47" t="inlineStr">
+        <is>
+          <t>3.8</t>
+        </is>
+      </c>
+      <c r="AO47" t="inlineStr">
+        <is>
           <t>4.3</t>
         </is>
       </c>
-      <c r="AI47" t="inlineStr">
-        <is>
-          <t>68</t>
-        </is>
-      </c>
-      <c r="AJ47" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="AK47" t="inlineStr">
+      <c r="AP47" t="inlineStr">
+        <is>
+          <t>3.1</t>
+        </is>
+      </c>
+      <c r="AQ47" t="inlineStr">
+        <is>
+          <t>72</t>
+        </is>
+      </c>
+      <c r="AR47" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="AS47" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="AL47" t="inlineStr">
-        <is>
-          <t>17.6</t>
-        </is>
-      </c>
-      <c r="AM47" t="inlineStr">
-        <is>
-          <t>16:30 - 17:00</t>
-        </is>
-      </c>
-      <c r="AN47" t="inlineStr">
-        <is>
-          <t>5.1</t>
-        </is>
-      </c>
-      <c r="AO47" t="inlineStr">
-        <is>
-          <t>5.5</t>
-        </is>
-      </c>
-      <c r="AP47" t="inlineStr">
-        <is>
-          <t>4.3</t>
-        </is>
-      </c>
-      <c r="AQ47" t="inlineStr">
-        <is>
-          <t>68</t>
-        </is>
-      </c>
-      <c r="AR47" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="AS47" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
       <c r="AT47" t="inlineStr">
         <is>
-          <t>17.6</t>
+          <t>12.6</t>
         </is>
       </c>
       <c r="AU47" t="inlineStr">
         <is>
-          <t>223</t>
+          <t>192</t>
         </is>
       </c>
       <c r="AV47" t="inlineStr">
         <is>
-          <t>26.6</t>
+          <t>19.4</t>
         </is>
       </c>
       <c r="AW47" t="inlineStr">
         <is>
-          <t>991.7</t>
+          <t>992.5</t>
         </is>
       </c>
       <c r="AX47" t="inlineStr">
         <is>
-          <t>223</t>
+          <t>192</t>
         </is>
       </c>
       <c r="AY47" t="inlineStr">
         <is>
-          <t>26.6</t>
+          <t>19.4</t>
         </is>
       </c>
       <c r="AZ47" t="inlineStr">
         <is>
-          <t>991.7</t>
+          <t>992.5</t>
         </is>
       </c>
       <c r="BA47" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -10613,7 +10613,7 @@
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>2026-02-04 17:13:22</t>
+          <t>2026-02-04 18:00:29</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
@@ -10854,7 +10854,7 @@
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>2026-02-04 17:13:22</t>
+          <t>2026-02-04 18:00:29</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
@@ -11095,7 +11095,7 @@
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>2026-02-04 17:13:22</t>
+          <t>2026-02-04 18:00:29</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
@@ -11336,7 +11336,7 @@
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>2026-02-04 17:13:22</t>
+          <t>2026-02-04 18:00:29</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
@@ -11562,7 +11562,7 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>16:00 - 16:30</t>
+          <t>17:00 - 17:30</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
@@ -11577,17 +11577,17 @@
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>2026-02-04 17:13:25</t>
+          <t>2026-02-04 18:00:32</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>16:30</t>
+          <t>17:30</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
         <is>
-          <t>https://www.meteo.cat/observacions/xema/dades?codi=XL&amp;dia=2026-02-04T16:30Z</t>
+          <t>https://www.meteo.cat/observacions/xema/dades?codi=XL&amp;dia=2026-02-04T17:30Z</t>
         </is>
       </c>
       <c r="K52" t="n">
@@ -11600,7 +11600,7 @@
       </c>
       <c r="M52" t="inlineStr">
         <is>
-          <t>287</t>
+          <t>293</t>
         </is>
       </c>
       <c r="N52" t="inlineStr"/>
@@ -11608,7 +11608,7 @@
       <c r="P52" t="inlineStr"/>
       <c r="Q52" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>65</t>
         </is>
       </c>
       <c r="R52" t="inlineStr"/>
@@ -11619,66 +11619,66 @@
       </c>
       <c r="T52" t="inlineStr">
         <is>
-          <t>16:00 - 16:30</t>
+          <t>17:00 - 17:30</t>
         </is>
       </c>
       <c r="U52" t="inlineStr">
         <is>
-          <t>114</t>
+          <t>1</t>
         </is>
       </c>
       <c r="V52" t="inlineStr">
         <is>
-          <t>13.7</t>
+          <t>10.6</t>
         </is>
       </c>
       <c r="W52" t="inlineStr">
         <is>
-          <t>12.9</t>
+          <t>9.9</t>
         </is>
       </c>
       <c r="X52" t="inlineStr">
         <is>
-          <t>14.3</t>
+          <t>11.6</t>
         </is>
       </c>
       <c r="Y52" t="inlineStr">
         <is>
-          <t>11.5</t>
+          <t>7.2</t>
         </is>
       </c>
       <c r="Z52" t="inlineStr"/>
       <c r="AA52" t="inlineStr"/>
       <c r="AB52" t="inlineStr">
         <is>
-          <t>23.4</t>
+          <t>14.0</t>
         </is>
       </c>
       <c r="AC52" t="inlineStr"/>
       <c r="AD52" t="inlineStr"/>
       <c r="AE52" t="inlineStr">
         <is>
-          <t>16:00 - 16:30</t>
+          <t>17:00 - 17:30</t>
         </is>
       </c>
       <c r="AF52" t="inlineStr">
         <is>
-          <t>13.7</t>
+          <t>10.6</t>
         </is>
       </c>
       <c r="AG52" t="inlineStr">
         <is>
-          <t>14.3</t>
+          <t>11.6</t>
         </is>
       </c>
       <c r="AH52" t="inlineStr">
         <is>
-          <t>12.9</t>
+          <t>9.9</t>
         </is>
       </c>
       <c r="AI52" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>65</t>
         </is>
       </c>
       <c r="AJ52" t="inlineStr">
@@ -11688,37 +11688,37 @@
       </c>
       <c r="AK52" t="inlineStr">
         <is>
-          <t>11.5</t>
+          <t>7.2</t>
         </is>
       </c>
       <c r="AL52" t="inlineStr">
         <is>
-          <t>287</t>
+          <t>293</t>
         </is>
       </c>
       <c r="AM52" t="inlineStr">
         <is>
-          <t>16:00 - 16:30</t>
+          <t>17:00 - 17:30</t>
         </is>
       </c>
       <c r="AN52" t="inlineStr">
         <is>
-          <t>13.7</t>
+          <t>10.6</t>
         </is>
       </c>
       <c r="AO52" t="inlineStr">
         <is>
-          <t>14.3</t>
+          <t>11.6</t>
         </is>
       </c>
       <c r="AP52" t="inlineStr">
         <is>
-          <t>12.9</t>
+          <t>9.9</t>
         </is>
       </c>
       <c r="AQ52" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>65</t>
         </is>
       </c>
       <c r="AR52" t="inlineStr">
@@ -11728,33 +11728,33 @@
       </c>
       <c r="AS52" t="inlineStr">
         <is>
-          <t>11.5</t>
+          <t>7.2</t>
         </is>
       </c>
       <c r="AT52" t="inlineStr">
         <is>
-          <t>287</t>
+          <t>293</t>
         </is>
       </c>
       <c r="AU52" t="inlineStr">
         <is>
-          <t>23.4</t>
+          <t>14.0</t>
         </is>
       </c>
       <c r="AV52" t="inlineStr">
         <is>
-          <t>114</t>
+          <t>1</t>
         </is>
       </c>
       <c r="AW52" t="inlineStr"/>
       <c r="AX52" t="inlineStr">
         <is>
-          <t>23.4</t>
+          <t>14.0</t>
         </is>
       </c>
       <c r="AY52" t="inlineStr">
         <is>
-          <t>114</t>
+          <t>1</t>
         </is>
       </c>
       <c r="AZ52" t="inlineStr"/>
@@ -11798,7 +11798,7 @@
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>2026-02-04 17:13:26</t>
+          <t>2026-02-04 18:00:34</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
@@ -12019,7 +12019,7 @@
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>2026-02-04 17:13:26</t>
+          <t>2026-02-04 18:00:34</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
@@ -12240,7 +12240,7 @@
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>2026-02-04 17:13:26</t>
+          <t>2026-02-04 18:00:34</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
@@ -12461,7 +12461,7 @@
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>2026-02-04 17:13:26</t>
+          <t>2026-02-04 18:00:34</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
@@ -12667,7 +12667,7 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>16:30 - 17:00</t>
+          <t>17:00 - 17:30</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
@@ -12682,17 +12682,17 @@
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>2026-02-04 17:13:29</t>
+          <t>2026-02-04 18:00:36</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>16:30</t>
+          <t>17:30</t>
         </is>
       </c>
       <c r="J57" t="inlineStr">
         <is>
-          <t>https://www.meteo.cat/observacions/xema/dades?codi=VZ&amp;dia=2026-02-04T16:30Z</t>
+          <t>https://www.meteo.cat/observacions/xema/dades?codi=VZ&amp;dia=2026-02-04T17:30Z</t>
         </is>
       </c>
       <c r="K57" t="n">
@@ -12709,7 +12709,7 @@
       <c r="P57" t="inlineStr"/>
       <c r="Q57" t="inlineStr">
         <is>
-          <t>59</t>
+          <t>75</t>
         </is>
       </c>
       <c r="R57" t="inlineStr"/>
@@ -12720,23 +12720,23 @@
       </c>
       <c r="T57" t="inlineStr">
         <is>
-          <t>16:30 - 17:00</t>
+          <t>17:00 - 17:30</t>
         </is>
       </c>
       <c r="U57" t="inlineStr"/>
       <c r="V57" t="inlineStr">
         <is>
-          <t>12.7</t>
+          <t>10.0</t>
         </is>
       </c>
       <c r="W57" t="inlineStr">
         <is>
+          <t>8.4</t>
+        </is>
+      </c>
+      <c r="X57" t="inlineStr">
+        <is>
           <t>10.8</t>
-        </is>
-      </c>
-      <c r="X57" t="inlineStr">
-        <is>
-          <t>13.6</t>
         </is>
       </c>
       <c r="Y57" t="inlineStr"/>
@@ -12747,27 +12747,27 @@
       <c r="AD57" t="inlineStr"/>
       <c r="AE57" t="inlineStr">
         <is>
-          <t>16:30 - 17:00</t>
+          <t>17:00 - 17:30</t>
         </is>
       </c>
       <c r="AF57" t="inlineStr">
         <is>
-          <t>12.7</t>
+          <t>10.0</t>
         </is>
       </c>
       <c r="AG57" t="inlineStr">
         <is>
-          <t>13.6</t>
+          <t>10.8</t>
         </is>
       </c>
       <c r="AH57" t="inlineStr">
         <is>
-          <t>10.8</t>
+          <t>8.4</t>
         </is>
       </c>
       <c r="AI57" t="inlineStr">
         <is>
-          <t>59</t>
+          <t>75</t>
         </is>
       </c>
       <c r="AJ57" t="inlineStr">
@@ -12779,27 +12779,27 @@
       <c r="AL57" t="inlineStr"/>
       <c r="AM57" t="inlineStr">
         <is>
-          <t>16:30 - 17:00</t>
+          <t>17:00 - 17:30</t>
         </is>
       </c>
       <c r="AN57" t="inlineStr">
         <is>
-          <t>12.7</t>
+          <t>10.0</t>
         </is>
       </c>
       <c r="AO57" t="inlineStr">
         <is>
-          <t>13.6</t>
+          <t>10.8</t>
         </is>
       </c>
       <c r="AP57" t="inlineStr">
         <is>
-          <t>10.8</t>
+          <t>8.4</t>
         </is>
       </c>
       <c r="AQ57" t="inlineStr">
         <is>
-          <t>59</t>
+          <t>75</t>
         </is>
       </c>
       <c r="AR57" t="inlineStr">
@@ -12855,7 +12855,7 @@
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>2026-02-04 17:13:30</t>
+          <t>2026-02-04 18:00:38</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
@@ -13028,7 +13028,7 @@
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>2026-02-04 17:13:30</t>
+          <t>2026-02-04 18:00:38</t>
         </is>
       </c>
       <c r="I59" t="inlineStr">
@@ -13201,7 +13201,7 @@
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>2026-02-04 17:13:30</t>
+          <t>2026-02-04 18:00:38</t>
         </is>
       </c>
       <c r="I60" t="inlineStr">
@@ -13374,7 +13374,7 @@
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>2026-02-04 17:13:30</t>
+          <t>2026-02-04 18:00:38</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
@@ -13532,7 +13532,7 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>16:30 - 17:00</t>
+          <t>17:00 - 17:30</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
@@ -13547,17 +13547,17 @@
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>2026-02-04 17:13:32</t>
+          <t>2026-02-04 18:00:41</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>16:30</t>
+          <t>17:30</t>
         </is>
       </c>
       <c r="J62" t="inlineStr">
         <is>
-          <t>https://www.meteo.cat/observacions/xema/dades?codi=Z7&amp;dia=2026-02-04T16:30Z</t>
+          <t>https://www.meteo.cat/observacions/xema/dades?codi=Z7&amp;dia=2026-02-04T17:30Z</t>
         </is>
       </c>
       <c r="K62" t="n">
@@ -13570,7 +13570,7 @@
       </c>
       <c r="M62" t="inlineStr">
         <is>
-          <t>201</t>
+          <t>161</t>
         </is>
       </c>
       <c r="N62" t="inlineStr"/>
@@ -13593,22 +13593,22 @@
       </c>
       <c r="T62" t="inlineStr">
         <is>
-          <t>16:30 - 17:00</t>
+          <t>17:00 - 17:30</t>
         </is>
       </c>
       <c r="U62" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>2</t>
         </is>
       </c>
       <c r="V62" t="inlineStr">
         <is>
-          <t>-3.3</t>
+          <t>-3.4</t>
         </is>
       </c>
       <c r="W62" t="inlineStr">
         <is>
-          <t>-3.5</t>
+          <t>-3.7</t>
         </is>
       </c>
       <c r="X62" t="inlineStr">
@@ -13618,26 +13618,26 @@
       </c>
       <c r="Y62" t="inlineStr">
         <is>
-          <t>9.4</t>
+          <t>5.8</t>
         </is>
       </c>
       <c r="Z62" t="inlineStr"/>
       <c r="AA62" t="inlineStr"/>
       <c r="AB62" t="inlineStr">
         <is>
-          <t>28.1</t>
+          <t>23.0</t>
         </is>
       </c>
       <c r="AC62" t="inlineStr"/>
       <c r="AD62" t="inlineStr"/>
       <c r="AE62" t="inlineStr">
         <is>
-          <t>16:30 - 17:00</t>
+          <t>17:00 - 17:30</t>
         </is>
       </c>
       <c r="AF62" t="inlineStr">
         <is>
-          <t>-3.3</t>
+          <t>-3.4</t>
         </is>
       </c>
       <c r="AG62" t="inlineStr">
@@ -13647,7 +13647,7 @@
       </c>
       <c r="AH62" t="inlineStr">
         <is>
-          <t>-3.5</t>
+          <t>-3.7</t>
         </is>
       </c>
       <c r="AI62" t="inlineStr">
@@ -13667,17 +13667,17 @@
       </c>
       <c r="AL62" t="inlineStr">
         <is>
-          <t>9.4</t>
+          <t>5.8</t>
         </is>
       </c>
       <c r="AM62" t="inlineStr">
         <is>
-          <t>16:30 - 17:00</t>
+          <t>17:00 - 17:30</t>
         </is>
       </c>
       <c r="AN62" t="inlineStr">
         <is>
-          <t>-3.3</t>
+          <t>-3.4</t>
         </is>
       </c>
       <c r="AO62" t="inlineStr">
@@ -13687,7 +13687,7 @@
       </c>
       <c r="AP62" t="inlineStr">
         <is>
-          <t>-3.5</t>
+          <t>-3.7</t>
         </is>
       </c>
       <c r="AQ62" t="inlineStr">
@@ -13707,37 +13707,37 @@
       </c>
       <c r="AT62" t="inlineStr">
         <is>
-          <t>9.4</t>
+          <t>5.8</t>
         </is>
       </c>
       <c r="AU62" t="inlineStr">
         <is>
-          <t>201</t>
+          <t>161</t>
         </is>
       </c>
       <c r="AV62" t="inlineStr">
         <is>
-          <t>28.1</t>
+          <t>23.0</t>
         </is>
       </c>
       <c r="AW62" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>2</t>
         </is>
       </c>
       <c r="AX62" t="inlineStr">
         <is>
-          <t>201</t>
+          <t>161</t>
         </is>
       </c>
       <c r="AY62" t="inlineStr">
         <is>
-          <t>28.1</t>
+          <t>23.0</t>
         </is>
       </c>
       <c r="AZ62" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>2</t>
         </is>
       </c>
       <c r="BA62" t="inlineStr"/>
@@ -13780,7 +13780,7 @@
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>2026-02-04 17:13:34</t>
+          <t>2026-02-04 18:00:42</t>
         </is>
       </c>
       <c r="I63" t="inlineStr">
@@ -14013,7 +14013,7 @@
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>2026-02-04 17:13:34</t>
+          <t>2026-02-04 18:00:42</t>
         </is>
       </c>
       <c r="I64" t="inlineStr">
@@ -14246,7 +14246,7 @@
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>2026-02-04 17:13:34</t>
+          <t>2026-02-04 18:00:42</t>
         </is>
       </c>
       <c r="I65" t="inlineStr">
@@ -14479,7 +14479,7 @@
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>2026-02-04 17:13:34</t>
+          <t>2026-02-04 18:00:42</t>
         </is>
       </c>
       <c r="I66" t="inlineStr">
@@ -14697,7 +14697,7 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>16:30 - 17:00</t>
+          <t>17:00 - 17:30</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
@@ -14712,17 +14712,17 @@
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>2026-02-04 17:13:36</t>
+          <t>2026-02-04 18:00:45</t>
         </is>
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>16:30</t>
+          <t>17:30</t>
         </is>
       </c>
       <c r="J67" t="inlineStr">
         <is>
-          <t>https://www.meteo.cat/observacions/xema/dades?codi=XJ&amp;dia=2026-02-04T16:30Z</t>
+          <t>https://www.meteo.cat/observacions/xema/dades?codi=XJ&amp;dia=2026-02-04T17:30Z</t>
         </is>
       </c>
       <c r="K67" t="n">
@@ -14735,7 +14735,7 @@
       </c>
       <c r="M67" t="inlineStr">
         <is>
-          <t>244</t>
+          <t>243</t>
         </is>
       </c>
       <c r="N67" t="inlineStr"/>
@@ -14743,12 +14743,12 @@
       <c r="P67" t="inlineStr"/>
       <c r="Q67" t="inlineStr">
         <is>
-          <t>56</t>
+          <t>61</t>
         </is>
       </c>
       <c r="R67" t="inlineStr">
         <is>
-          <t>990.5</t>
+          <t>990.9</t>
         </is>
       </c>
       <c r="S67" t="inlineStr">
@@ -14758,106 +14758,106 @@
       </c>
       <c r="T67" t="inlineStr">
         <is>
-          <t>16:30 - 17:00</t>
+          <t>17:00 - 17:30</t>
         </is>
       </c>
       <c r="U67" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>0</t>
         </is>
       </c>
       <c r="V67" t="inlineStr">
         <is>
-          <t>12.5</t>
+          <t>11.2</t>
         </is>
       </c>
       <c r="W67" t="inlineStr">
         <is>
+          <t>10.6</t>
+        </is>
+      </c>
+      <c r="X67" t="inlineStr">
+        <is>
           <t>11.8</t>
         </is>
       </c>
-      <c r="X67" t="inlineStr">
-        <is>
-          <t>13.1</t>
-        </is>
-      </c>
       <c r="Y67" t="inlineStr">
         <is>
-          <t>8.3</t>
+          <t>5.4</t>
         </is>
       </c>
       <c r="Z67" t="inlineStr"/>
       <c r="AA67" t="inlineStr"/>
       <c r="AB67" t="inlineStr">
         <is>
-          <t>18.4</t>
+          <t>9.4</t>
         </is>
       </c>
       <c r="AC67" t="inlineStr"/>
       <c r="AD67" t="inlineStr"/>
       <c r="AE67" t="inlineStr">
         <is>
-          <t>16:30 - 17:00</t>
+          <t>17:00 - 17:30</t>
         </is>
       </c>
       <c r="AF67" t="inlineStr">
         <is>
-          <t>12.5</t>
+          <t>11.2</t>
         </is>
       </c>
       <c r="AG67" t="inlineStr">
         <is>
-          <t>13.1</t>
+          <t>11.8</t>
         </is>
       </c>
       <c r="AH67" t="inlineStr">
         <is>
+          <t>10.6</t>
+        </is>
+      </c>
+      <c r="AI67" t="inlineStr">
+        <is>
+          <t>61</t>
+        </is>
+      </c>
+      <c r="AJ67" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="AK67" t="inlineStr">
+        <is>
+          <t>5.4</t>
+        </is>
+      </c>
+      <c r="AL67" t="inlineStr">
+        <is>
+          <t>243</t>
+        </is>
+      </c>
+      <c r="AM67" t="inlineStr">
+        <is>
+          <t>17:00 - 17:30</t>
+        </is>
+      </c>
+      <c r="AN67" t="inlineStr">
+        <is>
+          <t>11.2</t>
+        </is>
+      </c>
+      <c r="AO67" t="inlineStr">
+        <is>
           <t>11.8</t>
         </is>
       </c>
-      <c r="AI67" t="inlineStr">
-        <is>
-          <t>56</t>
-        </is>
-      </c>
-      <c r="AJ67" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="AK67" t="inlineStr">
-        <is>
-          <t>8.3</t>
-        </is>
-      </c>
-      <c r="AL67" t="inlineStr">
-        <is>
-          <t>244</t>
-        </is>
-      </c>
-      <c r="AM67" t="inlineStr">
-        <is>
-          <t>16:30 - 17:00</t>
-        </is>
-      </c>
-      <c r="AN67" t="inlineStr">
-        <is>
-          <t>12.5</t>
-        </is>
-      </c>
-      <c r="AO67" t="inlineStr">
-        <is>
-          <t>13.1</t>
-        </is>
-      </c>
       <c r="AP67" t="inlineStr">
         <is>
-          <t>11.8</t>
+          <t>10.6</t>
         </is>
       </c>
       <c r="AQ67" t="inlineStr">
         <is>
-          <t>56</t>
+          <t>61</t>
         </is>
       </c>
       <c r="AR67" t="inlineStr">
@@ -14867,42 +14867,42 @@
       </c>
       <c r="AS67" t="inlineStr">
         <is>
-          <t>8.3</t>
+          <t>5.4</t>
         </is>
       </c>
       <c r="AT67" t="inlineStr">
         <is>
-          <t>244</t>
+          <t>243</t>
         </is>
       </c>
       <c r="AU67" t="inlineStr">
         <is>
-          <t>18.4</t>
+          <t>9.4</t>
         </is>
       </c>
       <c r="AV67" t="inlineStr">
         <is>
-          <t>990.5</t>
+          <t>990.9</t>
         </is>
       </c>
       <c r="AW67" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AX67" t="inlineStr">
         <is>
-          <t>18.4</t>
+          <t>9.4</t>
         </is>
       </c>
       <c r="AY67" t="inlineStr">
         <is>
-          <t>990.5</t>
+          <t>990.9</t>
         </is>
       </c>
       <c r="AZ67" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>0</t>
         </is>
       </c>
       <c r="BA67" t="inlineStr"/>
@@ -14945,7 +14945,7 @@
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>2026-02-04 17:13:38</t>
+          <t>2026-02-04 18:00:47</t>
         </is>
       </c>
       <c r="I68" t="inlineStr">
@@ -15178,7 +15178,7 @@
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>2026-02-04 17:13:38</t>
+          <t>2026-02-04 18:00:47</t>
         </is>
       </c>
       <c r="I69" t="inlineStr">
@@ -15411,7 +15411,7 @@
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>2026-02-04 17:13:38</t>
+          <t>2026-02-04 18:00:47</t>
         </is>
       </c>
       <c r="I70" t="inlineStr">
@@ -15644,7 +15644,7 @@
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>2026-02-04 17:13:38</t>
+          <t>2026-02-04 18:00:47</t>
         </is>
       </c>
       <c r="I71" t="inlineStr">
@@ -15862,7 +15862,7 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>16:30 - 17:00</t>
+          <t>17:00 - 17:30</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
@@ -15877,17 +15877,17 @@
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>2026-02-04 17:13:40</t>
+          <t>2026-02-04 18:00:50</t>
         </is>
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>16:30</t>
+          <t>17:30</t>
         </is>
       </c>
       <c r="J72" t="inlineStr">
         <is>
-          <t>https://www.meteo.cat/observacions/xema/dades?codi=YU&amp;dia=2026-02-04T16:30Z</t>
+          <t>https://www.meteo.cat/observacions/xema/dades?codi=YU&amp;dia=2026-02-04T17:30Z</t>
         </is>
       </c>
       <c r="K72" t="n">
@@ -15900,7 +15900,7 @@
       </c>
       <c r="M72" t="inlineStr">
         <is>
-          <t>247</t>
+          <t>242</t>
         </is>
       </c>
       <c r="N72" t="inlineStr"/>
@@ -15908,7 +15908,7 @@
       <c r="P72" t="inlineStr"/>
       <c r="Q72" t="inlineStr">
         <is>
-          <t>82</t>
+          <t>86</t>
         </is>
       </c>
       <c r="R72" t="inlineStr"/>
@@ -15919,106 +15919,106 @@
       </c>
       <c r="T72" t="inlineStr">
         <is>
-          <t>16:30 - 17:00</t>
+          <t>17:00 - 17:30</t>
         </is>
       </c>
       <c r="U72" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>1</t>
         </is>
       </c>
       <c r="V72" t="inlineStr">
         <is>
-          <t>5.3</t>
+          <t>4.3</t>
         </is>
       </c>
       <c r="W72" t="inlineStr">
         <is>
+          <t>4.2</t>
+        </is>
+      </c>
+      <c r="X72" t="inlineStr">
+        <is>
           <t>4.6</t>
         </is>
       </c>
-      <c r="X72" t="inlineStr">
-        <is>
-          <t>5.6</t>
-        </is>
-      </c>
       <c r="Y72" t="inlineStr">
         <is>
-          <t>8.3</t>
+          <t>7.9</t>
         </is>
       </c>
       <c r="Z72" t="inlineStr"/>
       <c r="AA72" t="inlineStr"/>
       <c r="AB72" t="inlineStr">
         <is>
-          <t>14.8</t>
+          <t>13.7</t>
         </is>
       </c>
       <c r="AC72" t="inlineStr"/>
       <c r="AD72" t="inlineStr"/>
       <c r="AE72" t="inlineStr">
         <is>
-          <t>16:30 - 17:00</t>
+          <t>17:00 - 17:30</t>
         </is>
       </c>
       <c r="AF72" t="inlineStr">
         <is>
-          <t>5.3</t>
+          <t>4.3</t>
         </is>
       </c>
       <c r="AG72" t="inlineStr">
         <is>
-          <t>5.6</t>
+          <t>4.6</t>
         </is>
       </c>
       <c r="AH72" t="inlineStr">
         <is>
+          <t>4.2</t>
+        </is>
+      </c>
+      <c r="AI72" t="inlineStr">
+        <is>
+          <t>86</t>
+        </is>
+      </c>
+      <c r="AJ72" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="AK72" t="inlineStr">
+        <is>
+          <t>7.9</t>
+        </is>
+      </c>
+      <c r="AL72" t="inlineStr">
+        <is>
+          <t>242</t>
+        </is>
+      </c>
+      <c r="AM72" t="inlineStr">
+        <is>
+          <t>17:00 - 17:30</t>
+        </is>
+      </c>
+      <c r="AN72" t="inlineStr">
+        <is>
+          <t>4.3</t>
+        </is>
+      </c>
+      <c r="AO72" t="inlineStr">
+        <is>
           <t>4.6</t>
         </is>
       </c>
-      <c r="AI72" t="inlineStr">
-        <is>
-          <t>82</t>
-        </is>
-      </c>
-      <c r="AJ72" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="AK72" t="inlineStr">
-        <is>
-          <t>8.3</t>
-        </is>
-      </c>
-      <c r="AL72" t="inlineStr">
-        <is>
-          <t>247</t>
-        </is>
-      </c>
-      <c r="AM72" t="inlineStr">
-        <is>
-          <t>16:30 - 17:00</t>
-        </is>
-      </c>
-      <c r="AN72" t="inlineStr">
-        <is>
-          <t>5.3</t>
-        </is>
-      </c>
-      <c r="AO72" t="inlineStr">
-        <is>
-          <t>5.6</t>
-        </is>
-      </c>
       <c r="AP72" t="inlineStr">
         <is>
-          <t>4.6</t>
+          <t>4.2</t>
         </is>
       </c>
       <c r="AQ72" t="inlineStr">
         <is>
-          <t>82</t>
+          <t>86</t>
         </is>
       </c>
       <c r="AR72" t="inlineStr">
@@ -16028,33 +16028,33 @@
       </c>
       <c r="AS72" t="inlineStr">
         <is>
-          <t>8.3</t>
+          <t>7.9</t>
         </is>
       </c>
       <c r="AT72" t="inlineStr">
         <is>
-          <t>247</t>
+          <t>242</t>
         </is>
       </c>
       <c r="AU72" t="inlineStr">
         <is>
-          <t>14.8</t>
+          <t>13.7</t>
         </is>
       </c>
       <c r="AV72" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>1</t>
         </is>
       </c>
       <c r="AW72" t="inlineStr"/>
       <c r="AX72" t="inlineStr">
         <is>
-          <t>14.8</t>
+          <t>13.7</t>
         </is>
       </c>
       <c r="AY72" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>1</t>
         </is>
       </c>
       <c r="AZ72" t="inlineStr"/>
@@ -16098,7 +16098,7 @@
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>2026-02-04 17:13:42</t>
+          <t>2026-02-04 18:00:52</t>
         </is>
       </c>
       <c r="I73" t="inlineStr">
@@ -16319,7 +16319,7 @@
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>2026-02-04 17:13:42</t>
+          <t>2026-02-04 18:00:52</t>
         </is>
       </c>
       <c r="I74" t="inlineStr">
@@ -16540,7 +16540,7 @@
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>2026-02-04 17:13:42</t>
+          <t>2026-02-04 18:00:52</t>
         </is>
       </c>
       <c r="I75" t="inlineStr">
@@ -16761,7 +16761,7 @@
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>2026-02-04 17:13:42</t>
+          <t>2026-02-04 18:00:52</t>
         </is>
       </c>
       <c r="I76" t="inlineStr">
@@ -16967,7 +16967,7 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>16:30 - 17:00</t>
+          <t>17:00 - 17:30</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
@@ -16982,17 +16982,17 @@
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>2026-02-04 17:13:45</t>
+          <t>2026-02-04 18:00:55</t>
         </is>
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>16:30</t>
+          <t>17:30</t>
         </is>
       </c>
       <c r="J77" t="inlineStr">
         <is>
-          <t>https://www.meteo.cat/observacions/xema/dades?codi=CD&amp;dia=2026-02-04T16:30Z</t>
+          <t>https://www.meteo.cat/observacions/xema/dades?codi=CD&amp;dia=2026-02-04T17:30Z</t>
         </is>
       </c>
       <c r="K77" t="n">
@@ -17005,7 +17005,7 @@
       </c>
       <c r="M77" t="inlineStr">
         <is>
-          <t>253</t>
+          <t>310</t>
         </is>
       </c>
       <c r="N77" t="inlineStr"/>
@@ -17013,12 +17013,12 @@
       <c r="P77" t="inlineStr"/>
       <c r="Q77" t="inlineStr">
         <is>
-          <t>67</t>
+          <t>75</t>
         </is>
       </c>
       <c r="R77" t="inlineStr">
         <is>
-          <t>991.6</t>
+          <t>992.5</t>
         </is>
       </c>
       <c r="S77" t="inlineStr">
@@ -17028,106 +17028,106 @@
       </c>
       <c r="T77" t="inlineStr">
         <is>
-          <t>16:30 - 17:00</t>
+          <t>17:00 - 17:30</t>
         </is>
       </c>
       <c r="U77" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>1</t>
         </is>
       </c>
       <c r="V77" t="inlineStr">
         <is>
-          <t>7.4</t>
+          <t>5.7</t>
         </is>
       </c>
       <c r="W77" t="inlineStr">
         <is>
+          <t>5.3</t>
+        </is>
+      </c>
+      <c r="X77" t="inlineStr">
+        <is>
           <t>6.2</t>
         </is>
       </c>
-      <c r="X77" t="inlineStr">
-        <is>
-          <t>8.1</t>
-        </is>
-      </c>
       <c r="Y77" t="inlineStr">
         <is>
-          <t>5.4</t>
+          <t>4.7</t>
         </is>
       </c>
       <c r="Z77" t="inlineStr"/>
       <c r="AA77" t="inlineStr"/>
       <c r="AB77" t="inlineStr">
         <is>
-          <t>10.8</t>
+          <t>10.4</t>
         </is>
       </c>
       <c r="AC77" t="inlineStr"/>
       <c r="AD77" t="inlineStr"/>
       <c r="AE77" t="inlineStr">
         <is>
-          <t>16:30 - 17:00</t>
+          <t>17:00 - 17:30</t>
         </is>
       </c>
       <c r="AF77" t="inlineStr">
         <is>
-          <t>7.4</t>
+          <t>5.7</t>
         </is>
       </c>
       <c r="AG77" t="inlineStr">
         <is>
-          <t>8.1</t>
+          <t>6.2</t>
         </is>
       </c>
       <c r="AH77" t="inlineStr">
         <is>
+          <t>5.3</t>
+        </is>
+      </c>
+      <c r="AI77" t="inlineStr">
+        <is>
+          <t>75</t>
+        </is>
+      </c>
+      <c r="AJ77" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="AK77" t="inlineStr">
+        <is>
+          <t>4.7</t>
+        </is>
+      </c>
+      <c r="AL77" t="inlineStr">
+        <is>
+          <t>310</t>
+        </is>
+      </c>
+      <c r="AM77" t="inlineStr">
+        <is>
+          <t>17:00 - 17:30</t>
+        </is>
+      </c>
+      <c r="AN77" t="inlineStr">
+        <is>
+          <t>5.7</t>
+        </is>
+      </c>
+      <c r="AO77" t="inlineStr">
+        <is>
           <t>6.2</t>
         </is>
       </c>
-      <c r="AI77" t="inlineStr">
-        <is>
-          <t>67</t>
-        </is>
-      </c>
-      <c r="AJ77" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="AK77" t="inlineStr">
-        <is>
-          <t>5.4</t>
-        </is>
-      </c>
-      <c r="AL77" t="inlineStr">
-        <is>
-          <t>253</t>
-        </is>
-      </c>
-      <c r="AM77" t="inlineStr">
-        <is>
-          <t>16:30 - 17:00</t>
-        </is>
-      </c>
-      <c r="AN77" t="inlineStr">
-        <is>
-          <t>7.4</t>
-        </is>
-      </c>
-      <c r="AO77" t="inlineStr">
-        <is>
-          <t>8.1</t>
-        </is>
-      </c>
       <c r="AP77" t="inlineStr">
         <is>
-          <t>6.2</t>
+          <t>5.3</t>
         </is>
       </c>
       <c r="AQ77" t="inlineStr">
         <is>
-          <t>67</t>
+          <t>75</t>
         </is>
       </c>
       <c r="AR77" t="inlineStr">
@@ -17137,42 +17137,42 @@
       </c>
       <c r="AS77" t="inlineStr">
         <is>
-          <t>5.4</t>
+          <t>4.7</t>
         </is>
       </c>
       <c r="AT77" t="inlineStr">
         <is>
-          <t>253</t>
+          <t>310</t>
         </is>
       </c>
       <c r="AU77" t="inlineStr">
         <is>
-          <t>10.8</t>
+          <t>10.4</t>
         </is>
       </c>
       <c r="AV77" t="inlineStr">
         <is>
-          <t>991.6</t>
+          <t>992.5</t>
         </is>
       </c>
       <c r="AW77" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>1</t>
         </is>
       </c>
       <c r="AX77" t="inlineStr">
         <is>
-          <t>10.8</t>
+          <t>10.4</t>
         </is>
       </c>
       <c r="AY77" t="inlineStr">
         <is>
-          <t>991.6</t>
+          <t>992.5</t>
         </is>
       </c>
       <c r="AZ77" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>1</t>
         </is>
       </c>
       <c r="BA77" t="inlineStr"/>
@@ -17215,7 +17215,7 @@
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>2026-02-04 17:13:46</t>
+          <t>2026-02-04 18:00:56</t>
         </is>
       </c>
       <c r="I78" t="inlineStr">
@@ -17448,7 +17448,7 @@
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>2026-02-04 17:13:46</t>
+          <t>2026-02-04 18:00:56</t>
         </is>
       </c>
       <c r="I79" t="inlineStr">
@@ -17681,7 +17681,7 @@
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>2026-02-04 17:13:46</t>
+          <t>2026-02-04 18:00:56</t>
         </is>
       </c>
       <c r="I80" t="inlineStr">
@@ -17914,7 +17914,7 @@
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>2026-02-04 17:13:46</t>
+          <t>2026-02-04 18:00:56</t>
         </is>
       </c>
       <c r="I81" t="inlineStr">
@@ -18132,7 +18132,7 @@
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>16:30 - 17:00</t>
+          <t>17:00 - 17:30</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
@@ -18147,17 +18147,17 @@
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>2026-02-04 17:13:49</t>
+          <t>2026-02-04 18:00:59</t>
         </is>
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>16:30</t>
+          <t>17:30</t>
         </is>
       </c>
       <c r="J82" t="inlineStr">
         <is>
-          <t>https://www.meteo.cat/observacions/xema/dades?codi=Z2&amp;dia=2026-02-04T16:30Z</t>
+          <t>https://www.meteo.cat/observacions/xema/dades?codi=Z2&amp;dia=2026-02-04T17:30Z</t>
         </is>
       </c>
       <c r="K82" t="n">
@@ -18172,12 +18172,12 @@
       <c r="N82" t="inlineStr"/>
       <c r="O82" t="inlineStr">
         <is>
-          <t>311</t>
+          <t>304</t>
         </is>
       </c>
       <c r="P82" t="inlineStr">
         <is>
-          <t>113</t>
+          <t>112</t>
         </is>
       </c>
       <c r="Q82" t="inlineStr">
@@ -18193,17 +18193,17 @@
       </c>
       <c r="T82" t="inlineStr">
         <is>
-          <t>16:30 - 17:00</t>
+          <t>17:00 - 17:30</t>
         </is>
       </c>
       <c r="U82" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>3</t>
         </is>
       </c>
       <c r="V82" t="inlineStr">
         <is>
-          <t>-5.7</t>
+          <t>-5.8</t>
         </is>
       </c>
       <c r="W82" t="inlineStr">
@@ -18213,88 +18213,88 @@
       </c>
       <c r="X82" t="inlineStr">
         <is>
-          <t>-5.3</t>
+          <t>-5.6</t>
         </is>
       </c>
       <c r="Y82" t="inlineStr"/>
       <c r="Z82" t="inlineStr"/>
       <c r="AA82" t="inlineStr">
         <is>
-          <t>3.6</t>
+          <t>5.0</t>
         </is>
       </c>
       <c r="AB82" t="inlineStr"/>
       <c r="AC82" t="inlineStr"/>
       <c r="AD82" t="inlineStr">
         <is>
+          <t>7.9</t>
+        </is>
+      </c>
+      <c r="AE82" t="inlineStr">
+        <is>
+          <t>17:00 - 17:30</t>
+        </is>
+      </c>
+      <c r="AF82" t="inlineStr">
+        <is>
+          <t>-5.8</t>
+        </is>
+      </c>
+      <c r="AG82" t="inlineStr">
+        <is>
+          <t>-5.6</t>
+        </is>
+      </c>
+      <c r="AH82" t="inlineStr">
+        <is>
+          <t>-5.9</t>
+        </is>
+      </c>
+      <c r="AI82" t="inlineStr">
+        <is>
+          <t>95</t>
+        </is>
+      </c>
+      <c r="AJ82" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="AK82" t="inlineStr">
+        <is>
+          <t>112</t>
+        </is>
+      </c>
+      <c r="AL82" t="inlineStr">
+        <is>
           <t>5.0</t>
         </is>
       </c>
-      <c r="AE82" t="inlineStr">
-        <is>
-          <t>16:30 - 17:00</t>
-        </is>
-      </c>
-      <c r="AF82" t="inlineStr">
-        <is>
-          <t>-5.7</t>
-        </is>
-      </c>
-      <c r="AG82" t="inlineStr">
-        <is>
-          <t>-5.3</t>
-        </is>
-      </c>
-      <c r="AH82" t="inlineStr">
+      <c r="AM82" t="inlineStr">
+        <is>
+          <t>17:00 - 17:30</t>
+        </is>
+      </c>
+      <c r="AN82" t="inlineStr">
+        <is>
+          <t>-5.8</t>
+        </is>
+      </c>
+      <c r="AO82" t="inlineStr">
+        <is>
+          <t>-5.6</t>
+        </is>
+      </c>
+      <c r="AP82" t="inlineStr">
         <is>
           <t>-5.9</t>
         </is>
       </c>
-      <c r="AI82" t="inlineStr">
+      <c r="AQ82" t="inlineStr">
         <is>
           <t>95</t>
         </is>
       </c>
-      <c r="AJ82" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="AK82" t="inlineStr">
-        <is>
-          <t>113</t>
-        </is>
-      </c>
-      <c r="AL82" t="inlineStr">
-        <is>
-          <t>3.6</t>
-        </is>
-      </c>
-      <c r="AM82" t="inlineStr">
-        <is>
-          <t>16:30 - 17:00</t>
-        </is>
-      </c>
-      <c r="AN82" t="inlineStr">
-        <is>
-          <t>-5.7</t>
-        </is>
-      </c>
-      <c r="AO82" t="inlineStr">
-        <is>
-          <t>-5.3</t>
-        </is>
-      </c>
-      <c r="AP82" t="inlineStr">
-        <is>
-          <t>-5.9</t>
-        </is>
-      </c>
-      <c r="AQ82" t="inlineStr">
-        <is>
-          <t>95</t>
-        </is>
-      </c>
       <c r="AR82" t="inlineStr">
         <is>
           <t>0.0</t>
@@ -18302,42 +18302,42 @@
       </c>
       <c r="AS82" t="inlineStr">
         <is>
-          <t>113</t>
+          <t>112</t>
         </is>
       </c>
       <c r="AT82" t="inlineStr">
         <is>
-          <t>3.6</t>
+          <t>5.0</t>
         </is>
       </c>
       <c r="AU82" t="inlineStr">
         <is>
-          <t>311</t>
+          <t>304</t>
         </is>
       </c>
       <c r="AV82" t="inlineStr">
         <is>
-          <t>5.0</t>
+          <t>7.9</t>
         </is>
       </c>
       <c r="AW82" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>3</t>
         </is>
       </c>
       <c r="AX82" t="inlineStr">
         <is>
-          <t>311</t>
+          <t>304</t>
         </is>
       </c>
       <c r="AY82" t="inlineStr">
         <is>
-          <t>5.0</t>
+          <t>7.9</t>
         </is>
       </c>
       <c r="AZ82" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>3</t>
         </is>
       </c>
       <c r="BA82" t="inlineStr"/>
@@ -18380,7 +18380,7 @@
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>2026-02-04 17:13:50</t>
+          <t>2026-02-04 18:01:01</t>
         </is>
       </c>
       <c r="I83" t="inlineStr">
@@ -18613,7 +18613,7 @@
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>2026-02-04 17:13:50</t>
+          <t>2026-02-04 18:01:01</t>
         </is>
       </c>
       <c r="I84" t="inlineStr">
@@ -18846,7 +18846,7 @@
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>2026-02-04 17:13:50</t>
+          <t>2026-02-04 18:01:01</t>
         </is>
       </c>
       <c r="I85" t="inlineStr">
@@ -19079,7 +19079,7 @@
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>2026-02-04 17:13:50</t>
+          <t>2026-02-04 18:01:01</t>
         </is>
       </c>
       <c r="I86" t="inlineStr">
@@ -19297,7 +19297,7 @@
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>16:30 - 17:00</t>
+          <t>17:00 - 17:30</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
@@ -19312,17 +19312,17 @@
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>2026-02-04 17:13:53</t>
+          <t>2026-02-04 18:01:03</t>
         </is>
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>16:30</t>
+          <t>17:30</t>
         </is>
       </c>
       <c r="J87" t="inlineStr">
         <is>
-          <t>https://www.meteo.cat/observacions/xema/dades?codi=VK&amp;dia=2026-02-04T16:30Z</t>
+          <t>https://www.meteo.cat/observacions/xema/dades?codi=VK&amp;dia=2026-02-04T17:30Z</t>
         </is>
       </c>
       <c r="K87" t="n">
@@ -19335,7 +19335,7 @@
       </c>
       <c r="M87" t="inlineStr">
         <is>
-          <t>332</t>
+          <t>334</t>
         </is>
       </c>
       <c r="N87" t="inlineStr"/>
@@ -19343,12 +19343,12 @@
       <c r="P87" t="inlineStr"/>
       <c r="Q87" t="inlineStr">
         <is>
-          <t>74</t>
+          <t>79</t>
         </is>
       </c>
       <c r="R87" t="inlineStr">
         <is>
-          <t>993.3</t>
+          <t>993.5</t>
         </is>
       </c>
       <c r="S87" t="inlineStr">
@@ -19358,106 +19358,106 @@
       </c>
       <c r="T87" t="inlineStr">
         <is>
-          <t>16:30 - 17:00</t>
+          <t>17:00 - 17:30</t>
         </is>
       </c>
       <c r="U87" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>2</t>
         </is>
       </c>
       <c r="V87" t="inlineStr">
         <is>
-          <t>9.2</t>
+          <t>8.1</t>
         </is>
       </c>
       <c r="W87" t="inlineStr">
         <is>
+          <t>7.2</t>
+        </is>
+      </c>
+      <c r="X87" t="inlineStr">
+        <is>
           <t>8.7</t>
         </is>
       </c>
-      <c r="X87" t="inlineStr">
-        <is>
-          <t>9.7</t>
-        </is>
-      </c>
       <c r="Y87" t="inlineStr">
         <is>
-          <t>4.7</t>
+          <t>2.5</t>
         </is>
       </c>
       <c r="Z87" t="inlineStr"/>
       <c r="AA87" t="inlineStr"/>
       <c r="AB87" t="inlineStr">
         <is>
-          <t>9.4</t>
+          <t>5.0</t>
         </is>
       </c>
       <c r="AC87" t="inlineStr"/>
       <c r="AD87" t="inlineStr"/>
       <c r="AE87" t="inlineStr">
         <is>
-          <t>16:30 - 17:00</t>
+          <t>17:00 - 17:30</t>
         </is>
       </c>
       <c r="AF87" t="inlineStr">
         <is>
-          <t>9.2</t>
+          <t>8.1</t>
         </is>
       </c>
       <c r="AG87" t="inlineStr">
         <is>
-          <t>9.7</t>
+          <t>8.7</t>
         </is>
       </c>
       <c r="AH87" t="inlineStr">
         <is>
+          <t>7.2</t>
+        </is>
+      </c>
+      <c r="AI87" t="inlineStr">
+        <is>
+          <t>79</t>
+        </is>
+      </c>
+      <c r="AJ87" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="AK87" t="inlineStr">
+        <is>
+          <t>2.5</t>
+        </is>
+      </c>
+      <c r="AL87" t="inlineStr">
+        <is>
+          <t>334</t>
+        </is>
+      </c>
+      <c r="AM87" t="inlineStr">
+        <is>
+          <t>17:00 - 17:30</t>
+        </is>
+      </c>
+      <c r="AN87" t="inlineStr">
+        <is>
+          <t>8.1</t>
+        </is>
+      </c>
+      <c r="AO87" t="inlineStr">
+        <is>
           <t>8.7</t>
         </is>
       </c>
-      <c r="AI87" t="inlineStr">
-        <is>
-          <t>74</t>
-        </is>
-      </c>
-      <c r="AJ87" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="AK87" t="inlineStr">
-        <is>
-          <t>4.7</t>
-        </is>
-      </c>
-      <c r="AL87" t="inlineStr">
-        <is>
-          <t>332</t>
-        </is>
-      </c>
-      <c r="AM87" t="inlineStr">
-        <is>
-          <t>16:30 - 17:00</t>
-        </is>
-      </c>
-      <c r="AN87" t="inlineStr">
-        <is>
-          <t>9.2</t>
-        </is>
-      </c>
-      <c r="AO87" t="inlineStr">
-        <is>
-          <t>9.7</t>
-        </is>
-      </c>
       <c r="AP87" t="inlineStr">
         <is>
-          <t>8.7</t>
+          <t>7.2</t>
         </is>
       </c>
       <c r="AQ87" t="inlineStr">
         <is>
-          <t>74</t>
+          <t>79</t>
         </is>
       </c>
       <c r="AR87" t="inlineStr">
@@ -19467,42 +19467,42 @@
       </c>
       <c r="AS87" t="inlineStr">
         <is>
-          <t>4.7</t>
+          <t>2.5</t>
         </is>
       </c>
       <c r="AT87" t="inlineStr">
         <is>
-          <t>332</t>
+          <t>334</t>
         </is>
       </c>
       <c r="AU87" t="inlineStr">
         <is>
-          <t>9.4</t>
+          <t>5.0</t>
         </is>
       </c>
       <c r="AV87" t="inlineStr">
         <is>
-          <t>993.3</t>
+          <t>993.5</t>
         </is>
       </c>
       <c r="AW87" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>2</t>
         </is>
       </c>
       <c r="AX87" t="inlineStr">
         <is>
-          <t>9.4</t>
+          <t>5.0</t>
         </is>
       </c>
       <c r="AY87" t="inlineStr">
         <is>
-          <t>993.3</t>
+          <t>993.5</t>
         </is>
       </c>
       <c r="AZ87" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>2</t>
         </is>
       </c>
       <c r="BA87" t="inlineStr"/>
@@ -19545,7 +19545,7 @@
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>2026-02-04 17:13:55</t>
+          <t>2026-02-04 18:01:05</t>
         </is>
       </c>
       <c r="I88" t="inlineStr">
@@ -19778,7 +19778,7 @@
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>2026-02-04 17:13:55</t>
+          <t>2026-02-04 18:01:05</t>
         </is>
       </c>
       <c r="I89" t="inlineStr">
@@ -20011,7 +20011,7 @@
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>2026-02-04 17:13:55</t>
+          <t>2026-02-04 18:01:05</t>
         </is>
       </c>
       <c r="I90" t="inlineStr">
@@ -20244,7 +20244,7 @@
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>2026-02-04 17:13:55</t>
+          <t>2026-02-04 18:01:05</t>
         </is>
       </c>
       <c r="I91" t="inlineStr">
@@ -20462,7 +20462,7 @@
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>16:30 - 17:00</t>
+          <t>17:00 - 17:30</t>
         </is>
       </c>
       <c r="F92" t="inlineStr">
@@ -20477,17 +20477,17 @@
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>2026-02-04 17:13:57</t>
+          <t>2026-02-04 18:01:08</t>
         </is>
       </c>
       <c r="I92" t="inlineStr">
         <is>
-          <t>16:30</t>
+          <t>17:30</t>
         </is>
       </c>
       <c r="J92" t="inlineStr">
         <is>
-          <t>https://www.meteo.cat/observacions/xema/dades?codi=Z3&amp;dia=2026-02-04T16:30Z</t>
+          <t>https://www.meteo.cat/observacions/xema/dades?codi=Z3&amp;dia=2026-02-04T17:30Z</t>
         </is>
       </c>
       <c r="K92" t="n">
@@ -20502,17 +20502,17 @@
       <c r="N92" t="inlineStr"/>
       <c r="O92" t="inlineStr">
         <is>
-          <t>318</t>
+          <t>4</t>
         </is>
       </c>
       <c r="P92" t="inlineStr">
         <is>
-          <t>113</t>
+          <t>112</t>
         </is>
       </c>
       <c r="Q92" t="inlineStr">
         <is>
-          <t>78</t>
+          <t>83</t>
         </is>
       </c>
       <c r="R92" t="inlineStr"/>
@@ -20523,66 +20523,66 @@
       </c>
       <c r="T92" t="inlineStr">
         <is>
-          <t>16:30 - 17:00</t>
+          <t>17:00 - 17:30</t>
         </is>
       </c>
       <c r="U92" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>1</t>
         </is>
       </c>
       <c r="V92" t="inlineStr">
         <is>
-          <t>-2.6</t>
+          <t>-3.3</t>
         </is>
       </c>
       <c r="W92" t="inlineStr">
         <is>
-          <t>-3.1</t>
+          <t>-3.5</t>
         </is>
       </c>
       <c r="X92" t="inlineStr">
         <is>
-          <t>-2.3</t>
+          <t>-3.0</t>
         </is>
       </c>
       <c r="Y92" t="inlineStr"/>
       <c r="Z92" t="inlineStr"/>
       <c r="AA92" t="inlineStr">
         <is>
-          <t>1.8</t>
+          <t>1.4</t>
         </is>
       </c>
       <c r="AB92" t="inlineStr"/>
       <c r="AC92" t="inlineStr"/>
       <c r="AD92" t="inlineStr">
         <is>
-          <t>7.2</t>
+          <t>5.4</t>
         </is>
       </c>
       <c r="AE92" t="inlineStr">
         <is>
-          <t>16:30 - 17:00</t>
+          <t>17:00 - 17:30</t>
         </is>
       </c>
       <c r="AF92" t="inlineStr">
         <is>
-          <t>-2.6</t>
+          <t>-3.3</t>
         </is>
       </c>
       <c r="AG92" t="inlineStr">
         <is>
-          <t>-2.3</t>
+          <t>-3.0</t>
         </is>
       </c>
       <c r="AH92" t="inlineStr">
         <is>
-          <t>-3.1</t>
+          <t>-3.5</t>
         </is>
       </c>
       <c r="AI92" t="inlineStr">
         <is>
-          <t>78</t>
+          <t>83</t>
         </is>
       </c>
       <c r="AJ92" t="inlineStr">
@@ -20592,37 +20592,37 @@
       </c>
       <c r="AK92" t="inlineStr">
         <is>
-          <t>113</t>
+          <t>112</t>
         </is>
       </c>
       <c r="AL92" t="inlineStr">
         <is>
-          <t>1.8</t>
+          <t>1.4</t>
         </is>
       </c>
       <c r="AM92" t="inlineStr">
         <is>
-          <t>16:30 - 17:00</t>
+          <t>17:00 - 17:30</t>
         </is>
       </c>
       <c r="AN92" t="inlineStr">
         <is>
-          <t>-2.6</t>
+          <t>-3.3</t>
         </is>
       </c>
       <c r="AO92" t="inlineStr">
         <is>
-          <t>-2.3</t>
+          <t>-3.0</t>
         </is>
       </c>
       <c r="AP92" t="inlineStr">
         <is>
-          <t>-3.1</t>
+          <t>-3.5</t>
         </is>
       </c>
       <c r="AQ92" t="inlineStr">
         <is>
-          <t>78</t>
+          <t>83</t>
         </is>
       </c>
       <c r="AR92" t="inlineStr">
@@ -20632,42 +20632,42 @@
       </c>
       <c r="AS92" t="inlineStr">
         <is>
-          <t>113</t>
+          <t>112</t>
         </is>
       </c>
       <c r="AT92" t="inlineStr">
         <is>
-          <t>1.8</t>
+          <t>1.4</t>
         </is>
       </c>
       <c r="AU92" t="inlineStr">
         <is>
-          <t>318</t>
+          <t>4</t>
         </is>
       </c>
       <c r="AV92" t="inlineStr">
         <is>
-          <t>7.2</t>
+          <t>5.4</t>
         </is>
       </c>
       <c r="AW92" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>1</t>
         </is>
       </c>
       <c r="AX92" t="inlineStr">
         <is>
-          <t>318</t>
+          <t>4</t>
         </is>
       </c>
       <c r="AY92" t="inlineStr">
         <is>
-          <t>7.2</t>
+          <t>5.4</t>
         </is>
       </c>
       <c r="AZ92" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>1</t>
         </is>
       </c>
       <c r="BA92" t="inlineStr"/>
@@ -20710,7 +20710,7 @@
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>2026-02-04 17:13:59</t>
+          <t>2026-02-04 18:01:09</t>
         </is>
       </c>
       <c r="I93" t="inlineStr">
@@ -20943,7 +20943,7 @@
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>2026-02-04 17:13:59</t>
+          <t>2026-02-04 18:01:09</t>
         </is>
       </c>
       <c r="I94" t="inlineStr">
@@ -21176,7 +21176,7 @@
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>2026-02-04 17:13:59</t>
+          <t>2026-02-04 18:01:09</t>
         </is>
       </c>
       <c r="I95" t="inlineStr">
@@ -21409,7 +21409,7 @@
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>2026-02-04 17:13:59</t>
+          <t>2026-02-04 18:01:09</t>
         </is>
       </c>
       <c r="I96" t="inlineStr">
@@ -21627,7 +21627,7 @@
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>16:30 - 17:00</t>
+          <t>17:00 - 17:30</t>
         </is>
       </c>
       <c r="F97" t="inlineStr">
@@ -21642,17 +21642,17 @@
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>2026-02-04 17:14:01</t>
+          <t>2026-02-04 18:01:12</t>
         </is>
       </c>
       <c r="I97" t="inlineStr">
         <is>
-          <t>16:30</t>
+          <t>17:30</t>
         </is>
       </c>
       <c r="J97" t="inlineStr">
         <is>
-          <t>https://www.meteo.cat/observacions/xema/dades?codi=YB&amp;dia=2026-02-04T16:30Z</t>
+          <t>https://www.meteo.cat/observacions/xema/dades?codi=YB&amp;dia=2026-02-04T17:30Z</t>
         </is>
       </c>
       <c r="K97" t="n">
@@ -21665,7 +21665,7 @@
       </c>
       <c r="M97" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>158</t>
         </is>
       </c>
       <c r="N97" t="inlineStr"/>
@@ -21673,12 +21673,12 @@
       <c r="P97" t="inlineStr"/>
       <c r="Q97" t="inlineStr">
         <is>
-          <t>63</t>
+          <t>68</t>
         </is>
       </c>
       <c r="R97" t="inlineStr">
         <is>
-          <t>990.2</t>
+          <t>991.1</t>
         </is>
       </c>
       <c r="S97" t="inlineStr">
@@ -21688,106 +21688,106 @@
       </c>
       <c r="T97" t="inlineStr">
         <is>
-          <t>16:30 - 17:00</t>
+          <t>17:00 - 17:30</t>
         </is>
       </c>
       <c r="U97" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>0</t>
         </is>
       </c>
       <c r="V97" t="inlineStr">
         <is>
-          <t>9.6</t>
+          <t>8.1</t>
         </is>
       </c>
       <c r="W97" t="inlineStr">
         <is>
+          <t>7.2</t>
+        </is>
+      </c>
+      <c r="X97" t="inlineStr">
+        <is>
           <t>9.2</t>
         </is>
       </c>
-      <c r="X97" t="inlineStr">
-        <is>
-          <t>10.3</t>
-        </is>
-      </c>
       <c r="Y97" t="inlineStr">
         <is>
-          <t>2.9</t>
+          <t>1.1</t>
         </is>
       </c>
       <c r="Z97" t="inlineStr"/>
       <c r="AA97" t="inlineStr"/>
       <c r="AB97" t="inlineStr">
         <is>
-          <t>9.4</t>
+          <t>4.0</t>
         </is>
       </c>
       <c r="AC97" t="inlineStr"/>
       <c r="AD97" t="inlineStr"/>
       <c r="AE97" t="inlineStr">
         <is>
-          <t>16:30 - 17:00</t>
+          <t>17:00 - 17:30</t>
         </is>
       </c>
       <c r="AF97" t="inlineStr">
         <is>
-          <t>9.6</t>
+          <t>8.1</t>
         </is>
       </c>
       <c r="AG97" t="inlineStr">
         <is>
-          <t>10.3</t>
+          <t>9.2</t>
         </is>
       </c>
       <c r="AH97" t="inlineStr">
         <is>
+          <t>7.2</t>
+        </is>
+      </c>
+      <c r="AI97" t="inlineStr">
+        <is>
+          <t>68</t>
+        </is>
+      </c>
+      <c r="AJ97" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="AK97" t="inlineStr">
+        <is>
+          <t>1.1</t>
+        </is>
+      </c>
+      <c r="AL97" t="inlineStr">
+        <is>
+          <t>158</t>
+        </is>
+      </c>
+      <c r="AM97" t="inlineStr">
+        <is>
+          <t>17:00 - 17:30</t>
+        </is>
+      </c>
+      <c r="AN97" t="inlineStr">
+        <is>
+          <t>8.1</t>
+        </is>
+      </c>
+      <c r="AO97" t="inlineStr">
+        <is>
           <t>9.2</t>
         </is>
       </c>
-      <c r="AI97" t="inlineStr">
-        <is>
-          <t>63</t>
-        </is>
-      </c>
-      <c r="AJ97" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="AK97" t="inlineStr">
-        <is>
-          <t>2.9</t>
-        </is>
-      </c>
-      <c r="AL97" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="AM97" t="inlineStr">
-        <is>
-          <t>16:30 - 17:00</t>
-        </is>
-      </c>
-      <c r="AN97" t="inlineStr">
-        <is>
-          <t>9.6</t>
-        </is>
-      </c>
-      <c r="AO97" t="inlineStr">
-        <is>
-          <t>10.3</t>
-        </is>
-      </c>
       <c r="AP97" t="inlineStr">
         <is>
-          <t>9.2</t>
+          <t>7.2</t>
         </is>
       </c>
       <c r="AQ97" t="inlineStr">
         <is>
-          <t>63</t>
+          <t>68</t>
         </is>
       </c>
       <c r="AR97" t="inlineStr">
@@ -21797,42 +21797,42 @@
       </c>
       <c r="AS97" t="inlineStr">
         <is>
-          <t>2.9</t>
+          <t>1.1</t>
         </is>
       </c>
       <c r="AT97" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>158</t>
         </is>
       </c>
       <c r="AU97" t="inlineStr">
         <is>
-          <t>9.4</t>
+          <t>4.0</t>
         </is>
       </c>
       <c r="AV97" t="inlineStr">
         <is>
-          <t>990.2</t>
+          <t>991.1</t>
         </is>
       </c>
       <c r="AW97" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AX97" t="inlineStr">
         <is>
-          <t>9.4</t>
+          <t>4.0</t>
         </is>
       </c>
       <c r="AY97" t="inlineStr">
         <is>
-          <t>990.2</t>
+          <t>991.1</t>
         </is>
       </c>
       <c r="AZ97" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>0</t>
         </is>
       </c>
       <c r="BA97" t="inlineStr"/>
@@ -21875,7 +21875,7 @@
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>2026-02-04 17:14:03</t>
+          <t>2026-02-04 18:01:13</t>
         </is>
       </c>
       <c r="I98" t="inlineStr">
@@ -22108,7 +22108,7 @@
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>2026-02-04 17:14:03</t>
+          <t>2026-02-04 18:01:13</t>
         </is>
       </c>
       <c r="I99" t="inlineStr">
@@ -22341,7 +22341,7 @@
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>2026-02-04 17:14:03</t>
+          <t>2026-02-04 18:01:13</t>
         </is>
       </c>
       <c r="I100" t="inlineStr">
@@ -22574,7 +22574,7 @@
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>2026-02-04 17:14:03</t>
+          <t>2026-02-04 18:01:13</t>
         </is>
       </c>
       <c r="I101" t="inlineStr">
@@ -22792,7 +22792,7 @@
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>16:30 - 17:00</t>
+          <t>17:00 - 17:30</t>
         </is>
       </c>
       <c r="F102" t="inlineStr">
@@ -22807,17 +22807,17 @@
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>2026-02-04 17:14:06</t>
+          <t>2026-02-04 18:01:16</t>
         </is>
       </c>
       <c r="I102" t="inlineStr">
         <is>
-          <t>16:30</t>
+          <t>17:30</t>
         </is>
       </c>
       <c r="J102" t="inlineStr">
         <is>
-          <t>https://www.meteo.cat/observacions/xema/dades?codi=YP&amp;dia=2026-02-04T16:30Z</t>
+          <t>https://www.meteo.cat/observacions/xema/dades?codi=YP&amp;dia=2026-02-04T17:30Z</t>
         </is>
       </c>
       <c r="K102" t="n">
@@ -22830,7 +22830,7 @@
       </c>
       <c r="M102" t="inlineStr">
         <is>
-          <t>212</t>
+          <t>225</t>
         </is>
       </c>
       <c r="N102" t="inlineStr"/>
@@ -22838,7 +22838,7 @@
       <c r="P102" t="inlineStr"/>
       <c r="Q102" t="inlineStr">
         <is>
-          <t>77</t>
+          <t>85</t>
         </is>
       </c>
       <c r="R102" t="inlineStr"/>
@@ -22849,106 +22849,106 @@
       </c>
       <c r="T102" t="inlineStr">
         <is>
-          <t>16:30 - 17:00</t>
+          <t>17:00 - 17:30</t>
         </is>
       </c>
       <c r="U102" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>0</t>
         </is>
       </c>
       <c r="V102" t="inlineStr">
         <is>
-          <t>11.7</t>
+          <t>9.8</t>
         </is>
       </c>
       <c r="W102" t="inlineStr">
         <is>
+          <t>8.8</t>
+        </is>
+      </c>
+      <c r="X102" t="inlineStr">
+        <is>
           <t>11.0</t>
         </is>
       </c>
-      <c r="X102" t="inlineStr">
-        <is>
-          <t>12.0</t>
-        </is>
-      </c>
       <c r="Y102" t="inlineStr">
         <is>
-          <t>9.4</t>
+          <t>2.5</t>
         </is>
       </c>
       <c r="Z102" t="inlineStr"/>
       <c r="AA102" t="inlineStr"/>
       <c r="AB102" t="inlineStr">
         <is>
-          <t>16.6</t>
+          <t>9.0</t>
         </is>
       </c>
       <c r="AC102" t="inlineStr"/>
       <c r="AD102" t="inlineStr"/>
       <c r="AE102" t="inlineStr">
         <is>
-          <t>16:30 - 17:00</t>
+          <t>17:00 - 17:30</t>
         </is>
       </c>
       <c r="AF102" t="inlineStr">
         <is>
-          <t>11.7</t>
+          <t>9.8</t>
         </is>
       </c>
       <c r="AG102" t="inlineStr">
         <is>
-          <t>12.0</t>
+          <t>11.0</t>
         </is>
       </c>
       <c r="AH102" t="inlineStr">
         <is>
+          <t>8.8</t>
+        </is>
+      </c>
+      <c r="AI102" t="inlineStr">
+        <is>
+          <t>85</t>
+        </is>
+      </c>
+      <c r="AJ102" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="AK102" t="inlineStr">
+        <is>
+          <t>2.5</t>
+        </is>
+      </c>
+      <c r="AL102" t="inlineStr">
+        <is>
+          <t>225</t>
+        </is>
+      </c>
+      <c r="AM102" t="inlineStr">
+        <is>
+          <t>17:00 - 17:30</t>
+        </is>
+      </c>
+      <c r="AN102" t="inlineStr">
+        <is>
+          <t>9.8</t>
+        </is>
+      </c>
+      <c r="AO102" t="inlineStr">
+        <is>
           <t>11.0</t>
         </is>
       </c>
-      <c r="AI102" t="inlineStr">
-        <is>
-          <t>77</t>
-        </is>
-      </c>
-      <c r="AJ102" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="AK102" t="inlineStr">
-        <is>
-          <t>9.4</t>
-        </is>
-      </c>
-      <c r="AL102" t="inlineStr">
-        <is>
-          <t>212</t>
-        </is>
-      </c>
-      <c r="AM102" t="inlineStr">
-        <is>
-          <t>16:30 - 17:00</t>
-        </is>
-      </c>
-      <c r="AN102" t="inlineStr">
-        <is>
-          <t>11.7</t>
-        </is>
-      </c>
-      <c r="AO102" t="inlineStr">
-        <is>
-          <t>12.0</t>
-        </is>
-      </c>
       <c r="AP102" t="inlineStr">
         <is>
-          <t>11.0</t>
+          <t>8.8</t>
         </is>
       </c>
       <c r="AQ102" t="inlineStr">
         <is>
-          <t>77</t>
+          <t>85</t>
         </is>
       </c>
       <c r="AR102" t="inlineStr">
@@ -22958,33 +22958,33 @@
       </c>
       <c r="AS102" t="inlineStr">
         <is>
-          <t>9.4</t>
+          <t>2.5</t>
         </is>
       </c>
       <c r="AT102" t="inlineStr">
         <is>
-          <t>212</t>
+          <t>225</t>
         </is>
       </c>
       <c r="AU102" t="inlineStr">
         <is>
-          <t>16.6</t>
+          <t>9.0</t>
         </is>
       </c>
       <c r="AV102" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AW102" t="inlineStr"/>
       <c r="AX102" t="inlineStr">
         <is>
-          <t>16.6</t>
+          <t>9.0</t>
         </is>
       </c>
       <c r="AY102" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AZ102" t="inlineStr"/>
@@ -23028,7 +23028,7 @@
       </c>
       <c r="H103" t="inlineStr">
         <is>
-          <t>2026-02-04 17:14:07</t>
+          <t>2026-02-04 18:01:18</t>
         </is>
       </c>
       <c r="I103" t="inlineStr">
@@ -23249,7 +23249,7 @@
       </c>
       <c r="H104" t="inlineStr">
         <is>
-          <t>2026-02-04 17:14:07</t>
+          <t>2026-02-04 18:01:18</t>
         </is>
       </c>
       <c r="I104" t="inlineStr">
@@ -23470,7 +23470,7 @@
       </c>
       <c r="H105" t="inlineStr">
         <is>
-          <t>2026-02-04 17:14:07</t>
+          <t>2026-02-04 18:01:18</t>
         </is>
       </c>
       <c r="I105" t="inlineStr">
@@ -23691,7 +23691,7 @@
       </c>
       <c r="H106" t="inlineStr">
         <is>
-          <t>2026-02-04 17:14:07</t>
+          <t>2026-02-04 18:01:18</t>
         </is>
       </c>
       <c r="I106" t="inlineStr">
@@ -23897,7 +23897,7 @@
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>16:30 - 17:00</t>
+          <t>17:00 - 17:30</t>
         </is>
       </c>
       <c r="F107" t="inlineStr">
@@ -23912,17 +23912,17 @@
       </c>
       <c r="H107" t="inlineStr">
         <is>
-          <t>2026-02-04 17:14:10</t>
+          <t>2026-02-04 18:01:21</t>
         </is>
       </c>
       <c r="I107" t="inlineStr">
         <is>
-          <t>16:30</t>
+          <t>17:30</t>
         </is>
       </c>
       <c r="J107" t="inlineStr">
         <is>
-          <t>https://www.meteo.cat/observacions/xema/dades?codi=J5&amp;dia=2026-02-04T16:30Z</t>
+          <t>https://www.meteo.cat/observacions/xema/dades?codi=J5&amp;dia=2026-02-04T17:30Z</t>
         </is>
       </c>
       <c r="K107" t="n">
@@ -23935,7 +23935,7 @@
       </c>
       <c r="M107" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>35</t>
         </is>
       </c>
       <c r="N107" t="inlineStr"/>
@@ -23943,12 +23943,12 @@
       <c r="P107" t="inlineStr"/>
       <c r="Q107" t="inlineStr">
         <is>
-          <t>82</t>
+          <t>88</t>
         </is>
       </c>
       <c r="R107" t="inlineStr">
         <is>
-          <t>990.4</t>
+          <t>990.8</t>
         </is>
       </c>
       <c r="S107" t="inlineStr">
@@ -23958,151 +23958,151 @@
       </c>
       <c r="T107" t="inlineStr">
         <is>
-          <t>16:30 - 17:00</t>
+          <t>17:00 - 17:30</t>
         </is>
       </c>
       <c r="U107" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>0</t>
         </is>
       </c>
       <c r="V107" t="inlineStr">
         <is>
+          <t>8.7</t>
+        </is>
+      </c>
+      <c r="W107" t="inlineStr">
+        <is>
+          <t>8.4</t>
+        </is>
+      </c>
+      <c r="X107" t="inlineStr">
+        <is>
+          <t>8.9</t>
+        </is>
+      </c>
+      <c r="Y107" t="inlineStr">
+        <is>
           <t>9.4</t>
-        </is>
-      </c>
-      <c r="W107" t="inlineStr">
-        <is>
-          <t>8.8</t>
-        </is>
-      </c>
-      <c r="X107" t="inlineStr">
-        <is>
-          <t>10.0</t>
-        </is>
-      </c>
-      <c r="Y107" t="inlineStr">
-        <is>
-          <t>1.1</t>
         </is>
       </c>
       <c r="Z107" t="inlineStr"/>
       <c r="AA107" t="inlineStr"/>
       <c r="AB107" t="inlineStr">
         <is>
-          <t>5.0</t>
+          <t>13.7</t>
         </is>
       </c>
       <c r="AC107" t="inlineStr"/>
       <c r="AD107" t="inlineStr"/>
       <c r="AE107" t="inlineStr">
         <is>
-          <t>16:30 - 17:00</t>
+          <t>17:00 - 17:30</t>
         </is>
       </c>
       <c r="AF107" t="inlineStr">
         <is>
+          <t>8.7</t>
+        </is>
+      </c>
+      <c r="AG107" t="inlineStr">
+        <is>
+          <t>8.9</t>
+        </is>
+      </c>
+      <c r="AH107" t="inlineStr">
+        <is>
+          <t>8.4</t>
+        </is>
+      </c>
+      <c r="AI107" t="inlineStr">
+        <is>
+          <t>88</t>
+        </is>
+      </c>
+      <c r="AJ107" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="AK107" t="inlineStr">
+        <is>
           <t>9.4</t>
         </is>
       </c>
-      <c r="AG107" t="inlineStr">
-        <is>
-          <t>10.0</t>
-        </is>
-      </c>
-      <c r="AH107" t="inlineStr">
-        <is>
-          <t>8.8</t>
-        </is>
-      </c>
-      <c r="AI107" t="inlineStr">
-        <is>
-          <t>82</t>
-        </is>
-      </c>
-      <c r="AJ107" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="AK107" t="inlineStr">
-        <is>
-          <t>1.1</t>
-        </is>
-      </c>
       <c r="AL107" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>35</t>
         </is>
       </c>
       <c r="AM107" t="inlineStr">
         <is>
-          <t>16:30 - 17:00</t>
+          <t>17:00 - 17:30</t>
         </is>
       </c>
       <c r="AN107" t="inlineStr">
         <is>
+          <t>8.7</t>
+        </is>
+      </c>
+      <c r="AO107" t="inlineStr">
+        <is>
+          <t>8.9</t>
+        </is>
+      </c>
+      <c r="AP107" t="inlineStr">
+        <is>
+          <t>8.4</t>
+        </is>
+      </c>
+      <c r="AQ107" t="inlineStr">
+        <is>
+          <t>88</t>
+        </is>
+      </c>
+      <c r="AR107" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="AS107" t="inlineStr">
+        <is>
           <t>9.4</t>
         </is>
       </c>
-      <c r="AO107" t="inlineStr">
-        <is>
-          <t>10.0</t>
-        </is>
-      </c>
-      <c r="AP107" t="inlineStr">
-        <is>
-          <t>8.8</t>
-        </is>
-      </c>
-      <c r="AQ107" t="inlineStr">
-        <is>
-          <t>82</t>
-        </is>
-      </c>
-      <c r="AR107" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="AS107" t="inlineStr">
-        <is>
-          <t>1.1</t>
-        </is>
-      </c>
       <c r="AT107" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>35</t>
         </is>
       </c>
       <c r="AU107" t="inlineStr">
         <is>
-          <t>5.0</t>
+          <t>13.7</t>
         </is>
       </c>
       <c r="AV107" t="inlineStr">
         <is>
-          <t>990.4</t>
+          <t>990.8</t>
         </is>
       </c>
       <c r="AW107" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AX107" t="inlineStr">
         <is>
-          <t>5.0</t>
+          <t>13.7</t>
         </is>
       </c>
       <c r="AY107" t="inlineStr">
         <is>
-          <t>990.4</t>
+          <t>990.8</t>
         </is>
       </c>
       <c r="AZ107" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>0</t>
         </is>
       </c>
       <c r="BA107" t="inlineStr"/>
@@ -24145,7 +24145,7 @@
       </c>
       <c r="H108" t="inlineStr">
         <is>
-          <t>2026-02-04 17:14:11</t>
+          <t>2026-02-04 18:01:23</t>
         </is>
       </c>
       <c r="I108" t="inlineStr">
@@ -24378,7 +24378,7 @@
       </c>
       <c r="H109" t="inlineStr">
         <is>
-          <t>2026-02-04 17:14:11</t>
+          <t>2026-02-04 18:01:23</t>
         </is>
       </c>
       <c r="I109" t="inlineStr">
@@ -24611,7 +24611,7 @@
       </c>
       <c r="H110" t="inlineStr">
         <is>
-          <t>2026-02-04 17:14:11</t>
+          <t>2026-02-04 18:01:23</t>
         </is>
       </c>
       <c r="I110" t="inlineStr">
@@ -24844,7 +24844,7 @@
       </c>
       <c r="H111" t="inlineStr">
         <is>
-          <t>2026-02-04 17:14:11</t>
+          <t>2026-02-04 18:01:23</t>
         </is>
       </c>
       <c r="I111" t="inlineStr">
@@ -25062,7 +25062,7 @@
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>16:30 - 17:00</t>
+          <t>17:00 - 17:30</t>
         </is>
       </c>
       <c r="F112" t="inlineStr">
@@ -25077,17 +25077,17 @@
       </c>
       <c r="H112" t="inlineStr">
         <is>
-          <t>2026-02-04 17:14:14</t>
+          <t>2026-02-04 18:01:25</t>
         </is>
       </c>
       <c r="I112" t="inlineStr">
         <is>
-          <t>16:30</t>
+          <t>17:30</t>
         </is>
       </c>
       <c r="J112" t="inlineStr">
         <is>
-          <t>https://www.meteo.cat/observacions/xema/dades?codi=D6&amp;dia=2026-02-04T16:30Z</t>
+          <t>https://www.meteo.cat/observacions/xema/dades?codi=D6&amp;dia=2026-02-04T17:30Z</t>
         </is>
       </c>
       <c r="K112" t="n">
@@ -25100,7 +25100,7 @@
       </c>
       <c r="M112" t="inlineStr">
         <is>
-          <t>218</t>
+          <t>223</t>
         </is>
       </c>
       <c r="N112" t="inlineStr"/>
@@ -25108,12 +25108,12 @@
       <c r="P112" t="inlineStr"/>
       <c r="Q112" t="inlineStr">
         <is>
-          <t>65</t>
+          <t>68</t>
         </is>
       </c>
       <c r="R112" t="inlineStr">
         <is>
-          <t>989.7</t>
+          <t>990.0</t>
         </is>
       </c>
       <c r="S112" t="inlineStr">
@@ -25123,106 +25123,106 @@
       </c>
       <c r="T112" t="inlineStr">
         <is>
-          <t>16:30 - 17:00</t>
+          <t>17:00 - 17:30</t>
         </is>
       </c>
       <c r="U112" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>0</t>
         </is>
       </c>
       <c r="V112" t="inlineStr">
         <is>
-          <t>11.6</t>
+          <t>10.9</t>
         </is>
       </c>
       <c r="W112" t="inlineStr">
         <is>
+          <t>10.7</t>
+        </is>
+      </c>
+      <c r="X112" t="inlineStr">
+        <is>
           <t>11.1</t>
         </is>
       </c>
-      <c r="X112" t="inlineStr">
-        <is>
-          <t>12.1</t>
-        </is>
-      </c>
       <c r="Y112" t="inlineStr">
         <is>
-          <t>20.9</t>
+          <t>23.4</t>
         </is>
       </c>
       <c r="Z112" t="inlineStr"/>
       <c r="AA112" t="inlineStr"/>
       <c r="AB112" t="inlineStr">
         <is>
-          <t>29.5</t>
+          <t>31.7</t>
         </is>
       </c>
       <c r="AC112" t="inlineStr"/>
       <c r="AD112" t="inlineStr"/>
       <c r="AE112" t="inlineStr">
         <is>
-          <t>16:30 - 17:00</t>
+          <t>17:00 - 17:30</t>
         </is>
       </c>
       <c r="AF112" t="inlineStr">
         <is>
-          <t>11.6</t>
+          <t>10.9</t>
         </is>
       </c>
       <c r="AG112" t="inlineStr">
         <is>
-          <t>12.1</t>
+          <t>11.1</t>
         </is>
       </c>
       <c r="AH112" t="inlineStr">
         <is>
+          <t>10.7</t>
+        </is>
+      </c>
+      <c r="AI112" t="inlineStr">
+        <is>
+          <t>68</t>
+        </is>
+      </c>
+      <c r="AJ112" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="AK112" t="inlineStr">
+        <is>
+          <t>23.4</t>
+        </is>
+      </c>
+      <c r="AL112" t="inlineStr">
+        <is>
+          <t>223</t>
+        </is>
+      </c>
+      <c r="AM112" t="inlineStr">
+        <is>
+          <t>17:00 - 17:30</t>
+        </is>
+      </c>
+      <c r="AN112" t="inlineStr">
+        <is>
+          <t>10.9</t>
+        </is>
+      </c>
+      <c r="AO112" t="inlineStr">
+        <is>
           <t>11.1</t>
         </is>
       </c>
-      <c r="AI112" t="inlineStr">
-        <is>
-          <t>65</t>
-        </is>
-      </c>
-      <c r="AJ112" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="AK112" t="inlineStr">
-        <is>
-          <t>20.9</t>
-        </is>
-      </c>
-      <c r="AL112" t="inlineStr">
-        <is>
-          <t>218</t>
-        </is>
-      </c>
-      <c r="AM112" t="inlineStr">
-        <is>
-          <t>16:30 - 17:00</t>
-        </is>
-      </c>
-      <c r="AN112" t="inlineStr">
-        <is>
-          <t>11.6</t>
-        </is>
-      </c>
-      <c r="AO112" t="inlineStr">
-        <is>
-          <t>12.1</t>
-        </is>
-      </c>
       <c r="AP112" t="inlineStr">
         <is>
-          <t>11.1</t>
+          <t>10.7</t>
         </is>
       </c>
       <c r="AQ112" t="inlineStr">
         <is>
-          <t>65</t>
+          <t>68</t>
         </is>
       </c>
       <c r="AR112" t="inlineStr">
@@ -25232,42 +25232,42 @@
       </c>
       <c r="AS112" t="inlineStr">
         <is>
-          <t>20.9</t>
+          <t>23.4</t>
         </is>
       </c>
       <c r="AT112" t="inlineStr">
         <is>
-          <t>218</t>
+          <t>223</t>
         </is>
       </c>
       <c r="AU112" t="inlineStr">
         <is>
-          <t>29.5</t>
+          <t>31.7</t>
         </is>
       </c>
       <c r="AV112" t="inlineStr">
         <is>
-          <t>989.7</t>
+          <t>990.0</t>
         </is>
       </c>
       <c r="AW112" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AX112" t="inlineStr">
         <is>
-          <t>29.5</t>
+          <t>31.7</t>
         </is>
       </c>
       <c r="AY112" t="inlineStr">
         <is>
-          <t>989.7</t>
+          <t>990.0</t>
         </is>
       </c>
       <c r="AZ112" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>0</t>
         </is>
       </c>
       <c r="BA112" t="inlineStr"/>
@@ -25310,7 +25310,7 @@
       </c>
       <c r="H113" t="inlineStr">
         <is>
-          <t>2026-02-04 17:14:15</t>
+          <t>2026-02-04 18:01:27</t>
         </is>
       </c>
       <c r="I113" t="inlineStr">
@@ -25543,7 +25543,7 @@
       </c>
       <c r="H114" t="inlineStr">
         <is>
-          <t>2026-02-04 17:14:15</t>
+          <t>2026-02-04 18:01:27</t>
         </is>
       </c>
       <c r="I114" t="inlineStr">
@@ -25776,7 +25776,7 @@
       </c>
       <c r="H115" t="inlineStr">
         <is>
-          <t>2026-02-04 17:14:15</t>
+          <t>2026-02-04 18:01:27</t>
         </is>
       </c>
       <c r="I115" t="inlineStr">
@@ -26009,7 +26009,7 @@
       </c>
       <c r="H116" t="inlineStr">
         <is>
-          <t>2026-02-04 17:14:15</t>
+          <t>2026-02-04 18:01:27</t>
         </is>
       </c>
       <c r="I116" t="inlineStr">
@@ -26227,7 +26227,7 @@
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>16:30 - 17:00</t>
+          <t>17:00 - 17:30</t>
         </is>
       </c>
       <c r="F117" t="inlineStr">
@@ -26242,17 +26242,17 @@
       </c>
       <c r="H117" t="inlineStr">
         <is>
-          <t>2026-02-04 17:14:18</t>
+          <t>2026-02-04 18:01:29</t>
         </is>
       </c>
       <c r="I117" t="inlineStr">
         <is>
-          <t>16:30</t>
+          <t>17:30</t>
         </is>
       </c>
       <c r="J117" t="inlineStr">
         <is>
-          <t>https://www.meteo.cat/observacions/xema/dades?codi=YA&amp;dia=2026-02-04T16:30Z</t>
+          <t>https://www.meteo.cat/observacions/xema/dades?codi=YA&amp;dia=2026-02-04T17:30Z</t>
         </is>
       </c>
       <c r="K117" t="n">
@@ -26265,7 +26265,7 @@
       </c>
       <c r="M117" t="inlineStr">
         <is>
-          <t>223</t>
+          <t>226</t>
         </is>
       </c>
       <c r="N117" t="inlineStr"/>
@@ -26273,12 +26273,12 @@
       <c r="P117" t="inlineStr"/>
       <c r="Q117" t="inlineStr">
         <is>
-          <t>68</t>
+          <t>71</t>
         </is>
       </c>
       <c r="R117" t="inlineStr">
         <is>
-          <t>991.0</t>
+          <t>991.6</t>
         </is>
       </c>
       <c r="S117" t="inlineStr">
@@ -26288,106 +26288,106 @@
       </c>
       <c r="T117" t="inlineStr">
         <is>
-          <t>16:30 - 17:00</t>
+          <t>17:00 - 17:30</t>
         </is>
       </c>
       <c r="U117" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>1</t>
         </is>
       </c>
       <c r="V117" t="inlineStr">
         <is>
-          <t>4.9</t>
+          <t>4.3</t>
         </is>
       </c>
       <c r="W117" t="inlineStr">
         <is>
+          <t>3.9</t>
+        </is>
+      </c>
+      <c r="X117" t="inlineStr">
+        <is>
           <t>4.6</t>
         </is>
       </c>
-      <c r="X117" t="inlineStr">
-        <is>
-          <t>5.2</t>
-        </is>
-      </c>
       <c r="Y117" t="inlineStr">
         <is>
-          <t>10.1</t>
+          <t>6.5</t>
         </is>
       </c>
       <c r="Z117" t="inlineStr"/>
       <c r="AA117" t="inlineStr"/>
       <c r="AB117" t="inlineStr">
         <is>
-          <t>19.4</t>
+          <t>16.2</t>
         </is>
       </c>
       <c r="AC117" t="inlineStr"/>
       <c r="AD117" t="inlineStr"/>
       <c r="AE117" t="inlineStr">
         <is>
-          <t>16:30 - 17:00</t>
+          <t>17:00 - 17:30</t>
         </is>
       </c>
       <c r="AF117" t="inlineStr">
         <is>
-          <t>4.9</t>
+          <t>4.3</t>
         </is>
       </c>
       <c r="AG117" t="inlineStr">
         <is>
-          <t>5.2</t>
+          <t>4.6</t>
         </is>
       </c>
       <c r="AH117" t="inlineStr">
         <is>
+          <t>3.9</t>
+        </is>
+      </c>
+      <c r="AI117" t="inlineStr">
+        <is>
+          <t>71</t>
+        </is>
+      </c>
+      <c r="AJ117" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="AK117" t="inlineStr">
+        <is>
+          <t>6.5</t>
+        </is>
+      </c>
+      <c r="AL117" t="inlineStr">
+        <is>
+          <t>226</t>
+        </is>
+      </c>
+      <c r="AM117" t="inlineStr">
+        <is>
+          <t>17:00 - 17:30</t>
+        </is>
+      </c>
+      <c r="AN117" t="inlineStr">
+        <is>
+          <t>4.3</t>
+        </is>
+      </c>
+      <c r="AO117" t="inlineStr">
+        <is>
           <t>4.6</t>
         </is>
       </c>
-      <c r="AI117" t="inlineStr">
-        <is>
-          <t>68</t>
-        </is>
-      </c>
-      <c r="AJ117" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="AK117" t="inlineStr">
-        <is>
-          <t>10.1</t>
-        </is>
-      </c>
-      <c r="AL117" t="inlineStr">
-        <is>
-          <t>223</t>
-        </is>
-      </c>
-      <c r="AM117" t="inlineStr">
-        <is>
-          <t>16:30 - 17:00</t>
-        </is>
-      </c>
-      <c r="AN117" t="inlineStr">
-        <is>
-          <t>4.9</t>
-        </is>
-      </c>
-      <c r="AO117" t="inlineStr">
-        <is>
-          <t>5.2</t>
-        </is>
-      </c>
       <c r="AP117" t="inlineStr">
         <is>
-          <t>4.6</t>
+          <t>3.9</t>
         </is>
       </c>
       <c r="AQ117" t="inlineStr">
         <is>
-          <t>68</t>
+          <t>71</t>
         </is>
       </c>
       <c r="AR117" t="inlineStr">
@@ -26397,42 +26397,42 @@
       </c>
       <c r="AS117" t="inlineStr">
         <is>
-          <t>10.1</t>
+          <t>6.5</t>
         </is>
       </c>
       <c r="AT117" t="inlineStr">
         <is>
-          <t>223</t>
+          <t>226</t>
         </is>
       </c>
       <c r="AU117" t="inlineStr">
         <is>
-          <t>19.4</t>
+          <t>16.2</t>
         </is>
       </c>
       <c r="AV117" t="inlineStr">
         <is>
-          <t>991.0</t>
+          <t>991.6</t>
         </is>
       </c>
       <c r="AW117" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>1</t>
         </is>
       </c>
       <c r="AX117" t="inlineStr">
         <is>
-          <t>19.4</t>
+          <t>16.2</t>
         </is>
       </c>
       <c r="AY117" t="inlineStr">
         <is>
-          <t>991.0</t>
+          <t>991.6</t>
         </is>
       </c>
       <c r="AZ117" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>1</t>
         </is>
       </c>
       <c r="BA117" t="inlineStr"/>
@@ -26475,7 +26475,7 @@
       </c>
       <c r="H118" t="inlineStr">
         <is>
-          <t>2026-02-04 17:14:19</t>
+          <t>2026-02-04 18:01:31</t>
         </is>
       </c>
       <c r="I118" t="inlineStr">
@@ -26708,7 +26708,7 @@
       </c>
       <c r="H119" t="inlineStr">
         <is>
-          <t>2026-02-04 17:14:19</t>
+          <t>2026-02-04 18:01:31</t>
         </is>
       </c>
       <c r="I119" t="inlineStr">
@@ -26941,7 +26941,7 @@
       </c>
       <c r="H120" t="inlineStr">
         <is>
-          <t>2026-02-04 17:14:19</t>
+          <t>2026-02-04 18:01:31</t>
         </is>
       </c>
       <c r="I120" t="inlineStr">
@@ -27174,7 +27174,7 @@
       </c>
       <c r="H121" t="inlineStr">
         <is>
-          <t>2026-02-04 17:14:19</t>
+          <t>2026-02-04 18:01:31</t>
         </is>
       </c>
       <c r="I121" t="inlineStr">
@@ -27392,7 +27392,7 @@
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>16:30 - 17:00</t>
+          <t>17:00 - 17:30</t>
         </is>
       </c>
       <c r="F122" t="inlineStr">
@@ -27407,17 +27407,17 @@
       </c>
       <c r="H122" t="inlineStr">
         <is>
-          <t>2026-02-04 17:14:22</t>
+          <t>2026-02-04 18:01:34</t>
         </is>
       </c>
       <c r="I122" t="inlineStr">
         <is>
-          <t>16:30</t>
+          <t>17:30</t>
         </is>
       </c>
       <c r="J122" t="inlineStr">
         <is>
-          <t>https://www.meteo.cat/observacions/xema/dades?codi=DG&amp;dia=2026-02-04T16:30Z</t>
+          <t>https://www.meteo.cat/observacions/xema/dades?codi=DG&amp;dia=2026-02-04T17:30Z</t>
         </is>
       </c>
       <c r="K122" t="n">
@@ -27430,24 +27430,24 @@
       </c>
       <c r="M122" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>9</t>
         </is>
       </c>
       <c r="N122" t="inlineStr"/>
       <c r="O122" t="inlineStr"/>
       <c r="P122" t="inlineStr">
         <is>
-          <t>111</t>
+          <t>110</t>
         </is>
       </c>
       <c r="Q122" t="inlineStr">
         <is>
-          <t>56</t>
+          <t>57</t>
         </is>
       </c>
       <c r="R122" t="inlineStr">
         <is>
-          <t>825.6</t>
+          <t>826.0</t>
         </is>
       </c>
       <c r="S122" t="inlineStr">
@@ -27457,27 +27457,27 @@
       </c>
       <c r="T122" t="inlineStr">
         <is>
-          <t>16:30 - 17:00</t>
+          <t>17:00 - 17:30</t>
         </is>
       </c>
       <c r="U122" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>0</t>
         </is>
       </c>
       <c r="V122" t="inlineStr">
         <is>
-          <t>0.6</t>
+          <t>0.3</t>
         </is>
       </c>
       <c r="W122" t="inlineStr">
         <is>
-          <t>0.1</t>
+          <t>-0.1</t>
         </is>
       </c>
       <c r="X122" t="inlineStr">
         <is>
-          <t>1.1</t>
+          <t>0.9</t>
         </is>
       </c>
       <c r="Y122" t="inlineStr">
@@ -27489,34 +27489,34 @@
       <c r="AA122" t="inlineStr"/>
       <c r="AB122" t="inlineStr">
         <is>
-          <t>23.8</t>
+          <t>20.5</t>
         </is>
       </c>
       <c r="AC122" t="inlineStr"/>
       <c r="AD122" t="inlineStr"/>
       <c r="AE122" t="inlineStr">
         <is>
-          <t>16:30 - 17:00</t>
+          <t>17:00 - 17:30</t>
         </is>
       </c>
       <c r="AF122" t="inlineStr">
         <is>
-          <t>0.6</t>
+          <t>0.3</t>
         </is>
       </c>
       <c r="AG122" t="inlineStr">
         <is>
-          <t>1.1</t>
+          <t>0.9</t>
         </is>
       </c>
       <c r="AH122" t="inlineStr">
         <is>
-          <t>0.1</t>
+          <t>-0.1</t>
         </is>
       </c>
       <c r="AI122" t="inlineStr">
         <is>
-          <t>56</t>
+          <t>57</t>
         </is>
       </c>
       <c r="AJ122" t="inlineStr">
@@ -27526,7 +27526,7 @@
       </c>
       <c r="AK122" t="inlineStr">
         <is>
-          <t>111</t>
+          <t>110</t>
         </is>
       </c>
       <c r="AL122" t="inlineStr">
@@ -27536,27 +27536,27 @@
       </c>
       <c r="AM122" t="inlineStr">
         <is>
-          <t>16:30 - 17:00</t>
+          <t>17:00 - 17:30</t>
         </is>
       </c>
       <c r="AN122" t="inlineStr">
         <is>
-          <t>0.6</t>
+          <t>0.3</t>
         </is>
       </c>
       <c r="AO122" t="inlineStr">
         <is>
-          <t>1.1</t>
+          <t>0.9</t>
         </is>
       </c>
       <c r="AP122" t="inlineStr">
         <is>
-          <t>0.1</t>
+          <t>-0.1</t>
         </is>
       </c>
       <c r="AQ122" t="inlineStr">
         <is>
-          <t>56</t>
+          <t>57</t>
         </is>
       </c>
       <c r="AR122" t="inlineStr">
@@ -27566,7 +27566,7 @@
       </c>
       <c r="AS122" t="inlineStr">
         <is>
-          <t>111</t>
+          <t>110</t>
         </is>
       </c>
       <c r="AT122" t="inlineStr">
@@ -27576,37 +27576,37 @@
       </c>
       <c r="AU122" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>9</t>
         </is>
       </c>
       <c r="AV122" t="inlineStr">
         <is>
-          <t>23.8</t>
+          <t>20.5</t>
         </is>
       </c>
       <c r="AW122" t="inlineStr">
         <is>
-          <t>825.6</t>
+          <t>826.0</t>
         </is>
       </c>
       <c r="AX122" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>9</t>
         </is>
       </c>
       <c r="AY122" t="inlineStr">
         <is>
-          <t>23.8</t>
+          <t>20.5</t>
         </is>
       </c>
       <c r="AZ122" t="inlineStr">
         <is>
-          <t>825.6</t>
+          <t>826.0</t>
         </is>
       </c>
       <c r="BA122" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -27648,7 +27648,7 @@
       </c>
       <c r="H123" t="inlineStr">
         <is>
-          <t>2026-02-04 17:14:23</t>
+          <t>2026-02-04 18:01:36</t>
         </is>
       </c>
       <c r="I123" t="inlineStr">
@@ -27889,7 +27889,7 @@
       </c>
       <c r="H124" t="inlineStr">
         <is>
-          <t>2026-02-04 17:14:23</t>
+          <t>2026-02-04 18:01:36</t>
         </is>
       </c>
       <c r="I124" t="inlineStr">
@@ -28130,7 +28130,7 @@
       </c>
       <c r="H125" t="inlineStr">
         <is>
-          <t>2026-02-04 17:14:23</t>
+          <t>2026-02-04 18:01:36</t>
         </is>
       </c>
       <c r="I125" t="inlineStr">
@@ -28371,7 +28371,7 @@
       </c>
       <c r="H126" t="inlineStr">
         <is>
-          <t>2026-02-04 17:14:23</t>
+          <t>2026-02-04 18:01:36</t>
         </is>
       </c>
       <c r="I126" t="inlineStr">
@@ -28597,7 +28597,7 @@
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>16:30 - 17:00</t>
+          <t>17:00 - 17:30</t>
         </is>
       </c>
       <c r="F127" t="inlineStr">
@@ -28612,17 +28612,17 @@
       </c>
       <c r="H127" t="inlineStr">
         <is>
-          <t>2026-02-04 17:14:25</t>
+          <t>2026-02-04 18:01:39</t>
         </is>
       </c>
       <c r="I127" t="inlineStr">
         <is>
-          <t>16:30</t>
+          <t>17:30</t>
         </is>
       </c>
       <c r="J127" t="inlineStr">
         <is>
-          <t>https://www.meteo.cat/observacions/xema/dades?codi=D4&amp;dia=2026-02-04T16:30Z</t>
+          <t>https://www.meteo.cat/observacions/xema/dades?codi=D4&amp;dia=2026-02-04T17:30Z</t>
         </is>
       </c>
       <c r="K127" t="n">
@@ -28635,7 +28635,7 @@
       </c>
       <c r="M127" t="inlineStr">
         <is>
-          <t>133</t>
+          <t>73</t>
         </is>
       </c>
       <c r="N127" t="inlineStr"/>
@@ -28643,12 +28643,12 @@
       <c r="P127" t="inlineStr"/>
       <c r="Q127" t="inlineStr">
         <is>
-          <t>66</t>
+          <t>72</t>
         </is>
       </c>
       <c r="R127" t="inlineStr">
         <is>
-          <t>990.6</t>
+          <t>990.8</t>
         </is>
       </c>
       <c r="S127" t="inlineStr">
@@ -28658,66 +28658,66 @@
       </c>
       <c r="T127" t="inlineStr">
         <is>
-          <t>16:30 - 17:00</t>
+          <t>17:00 - 17:30</t>
         </is>
       </c>
       <c r="U127" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>1</t>
         </is>
       </c>
       <c r="V127" t="inlineStr">
         <is>
-          <t>12.6</t>
+          <t>11.7</t>
         </is>
       </c>
       <c r="W127" t="inlineStr">
         <is>
-          <t>12.3</t>
+          <t>11.1</t>
         </is>
       </c>
       <c r="X127" t="inlineStr">
         <is>
-          <t>12.9</t>
+          <t>12.2</t>
         </is>
       </c>
       <c r="Y127" t="inlineStr">
         <is>
-          <t>6.1</t>
+          <t>5.4</t>
         </is>
       </c>
       <c r="Z127" t="inlineStr"/>
       <c r="AA127" t="inlineStr"/>
       <c r="AB127" t="inlineStr">
         <is>
-          <t>14.8</t>
+          <t>10.4</t>
         </is>
       </c>
       <c r="AC127" t="inlineStr"/>
       <c r="AD127" t="inlineStr"/>
       <c r="AE127" t="inlineStr">
         <is>
-          <t>16:30 - 17:00</t>
+          <t>17:00 - 17:30</t>
         </is>
       </c>
       <c r="AF127" t="inlineStr">
         <is>
-          <t>12.6</t>
+          <t>11.7</t>
         </is>
       </c>
       <c r="AG127" t="inlineStr">
         <is>
-          <t>12.9</t>
+          <t>12.2</t>
         </is>
       </c>
       <c r="AH127" t="inlineStr">
         <is>
-          <t>12.3</t>
+          <t>11.1</t>
         </is>
       </c>
       <c r="AI127" t="inlineStr">
         <is>
-          <t>66</t>
+          <t>72</t>
         </is>
       </c>
       <c r="AJ127" t="inlineStr">
@@ -28727,37 +28727,37 @@
       </c>
       <c r="AK127" t="inlineStr">
         <is>
-          <t>6.1</t>
+          <t>5.4</t>
         </is>
       </c>
       <c r="AL127" t="inlineStr">
         <is>
-          <t>133</t>
+          <t>73</t>
         </is>
       </c>
       <c r="AM127" t="inlineStr">
         <is>
-          <t>16:30 - 17:00</t>
+          <t>17:00 - 17:30</t>
         </is>
       </c>
       <c r="AN127" t="inlineStr">
         <is>
-          <t>12.6</t>
+          <t>11.7</t>
         </is>
       </c>
       <c r="AO127" t="inlineStr">
         <is>
-          <t>12.9</t>
+          <t>12.2</t>
         </is>
       </c>
       <c r="AP127" t="inlineStr">
         <is>
-          <t>12.3</t>
+          <t>11.1</t>
         </is>
       </c>
       <c r="AQ127" t="inlineStr">
         <is>
-          <t>66</t>
+          <t>72</t>
         </is>
       </c>
       <c r="AR127" t="inlineStr">
@@ -28767,42 +28767,42 @@
       </c>
       <c r="AS127" t="inlineStr">
         <is>
-          <t>6.1</t>
+          <t>5.4</t>
         </is>
       </c>
       <c r="AT127" t="inlineStr">
         <is>
-          <t>133</t>
+          <t>73</t>
         </is>
       </c>
       <c r="AU127" t="inlineStr">
         <is>
-          <t>14.8</t>
+          <t>10.4</t>
         </is>
       </c>
       <c r="AV127" t="inlineStr">
         <is>
-          <t>990.6</t>
+          <t>990.8</t>
         </is>
       </c>
       <c r="AW127" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>1</t>
         </is>
       </c>
       <c r="AX127" t="inlineStr">
         <is>
-          <t>14.8</t>
+          <t>10.4</t>
         </is>
       </c>
       <c r="AY127" t="inlineStr">
         <is>
-          <t>990.6</t>
+          <t>990.8</t>
         </is>
       </c>
       <c r="AZ127" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>1</t>
         </is>
       </c>
       <c r="BA127" t="inlineStr"/>
@@ -28845,7 +28845,7 @@
       </c>
       <c r="H128" t="inlineStr">
         <is>
-          <t>2026-02-04 17:14:27</t>
+          <t>2026-02-04 18:01:40</t>
         </is>
       </c>
       <c r="I128" t="inlineStr">
@@ -29078,7 +29078,7 @@
       </c>
       <c r="H129" t="inlineStr">
         <is>
-          <t>2026-02-04 17:14:27</t>
+          <t>2026-02-04 18:01:40</t>
         </is>
       </c>
       <c r="I129" t="inlineStr">
@@ -29311,7 +29311,7 @@
       </c>
       <c r="H130" t="inlineStr">
         <is>
-          <t>2026-02-04 17:14:27</t>
+          <t>2026-02-04 18:01:40</t>
         </is>
       </c>
       <c r="I130" t="inlineStr">
@@ -29544,7 +29544,7 @@
       </c>
       <c r="H131" t="inlineStr">
         <is>
-          <t>2026-02-04 17:14:27</t>
+          <t>2026-02-04 18:01:40</t>
         </is>
       </c>
       <c r="I131" t="inlineStr">
@@ -29762,7 +29762,7 @@
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>16:30 - 17:00</t>
+          <t>17:00 - 17:30</t>
         </is>
       </c>
       <c r="F132" t="inlineStr">
@@ -29777,17 +29777,17 @@
       </c>
       <c r="H132" t="inlineStr">
         <is>
-          <t>2026-02-04 17:14:29</t>
+          <t>2026-02-04 18:01:43</t>
         </is>
       </c>
       <c r="I132" t="inlineStr">
         <is>
-          <t>16:30</t>
+          <t>17:30</t>
         </is>
       </c>
       <c r="J132" t="inlineStr">
         <is>
-          <t>https://www.meteo.cat/observacions/xema/dades?codi=CI&amp;dia=2026-02-04T16:30Z</t>
+          <t>https://www.meteo.cat/observacions/xema/dades?codi=CI&amp;dia=2026-02-04T17:30Z</t>
         </is>
       </c>
       <c r="K132" t="n">
@@ -29800,7 +29800,7 @@
       </c>
       <c r="M132" t="inlineStr">
         <is>
-          <t>237</t>
+          <t>259</t>
         </is>
       </c>
       <c r="N132" t="inlineStr"/>
@@ -29808,12 +29808,12 @@
       <c r="P132" t="inlineStr"/>
       <c r="Q132" t="inlineStr">
         <is>
-          <t>75</t>
+          <t>77</t>
         </is>
       </c>
       <c r="R132" t="inlineStr">
         <is>
-          <t>991.6</t>
+          <t>992.3</t>
         </is>
       </c>
       <c r="S132" t="inlineStr">
@@ -29823,62 +29823,62 @@
       </c>
       <c r="T132" t="inlineStr">
         <is>
-          <t>16:30 - 17:00</t>
+          <t>17:00 - 17:30</t>
         </is>
       </c>
       <c r="U132" t="inlineStr"/>
       <c r="V132" t="inlineStr">
         <is>
-          <t>6.5</t>
+          <t>5.9</t>
         </is>
       </c>
       <c r="W132" t="inlineStr">
         <is>
-          <t>6.2</t>
+          <t>5.7</t>
         </is>
       </c>
       <c r="X132" t="inlineStr">
         <is>
-          <t>6.9</t>
+          <t>6.1</t>
         </is>
       </c>
       <c r="Y132" t="inlineStr">
         <is>
-          <t>9.7</t>
+          <t>7.2</t>
         </is>
       </c>
       <c r="Z132" t="inlineStr"/>
       <c r="AA132" t="inlineStr"/>
       <c r="AB132" t="inlineStr">
         <is>
-          <t>23.8</t>
+          <t>17.6</t>
         </is>
       </c>
       <c r="AC132" t="inlineStr"/>
       <c r="AD132" t="inlineStr"/>
       <c r="AE132" t="inlineStr">
         <is>
-          <t>16:30 - 17:00</t>
+          <t>17:00 - 17:30</t>
         </is>
       </c>
       <c r="AF132" t="inlineStr">
         <is>
-          <t>6.5</t>
+          <t>5.9</t>
         </is>
       </c>
       <c r="AG132" t="inlineStr">
         <is>
-          <t>6.9</t>
+          <t>6.1</t>
         </is>
       </c>
       <c r="AH132" t="inlineStr">
         <is>
-          <t>6.2</t>
+          <t>5.7</t>
         </is>
       </c>
       <c r="AI132" t="inlineStr">
         <is>
-          <t>75</t>
+          <t>77</t>
         </is>
       </c>
       <c r="AJ132" t="inlineStr">
@@ -29888,37 +29888,37 @@
       </c>
       <c r="AK132" t="inlineStr">
         <is>
-          <t>9.7</t>
+          <t>7.2</t>
         </is>
       </c>
       <c r="AL132" t="inlineStr">
         <is>
-          <t>237</t>
+          <t>259</t>
         </is>
       </c>
       <c r="AM132" t="inlineStr">
         <is>
-          <t>16:30 - 17:00</t>
+          <t>17:00 - 17:30</t>
         </is>
       </c>
       <c r="AN132" t="inlineStr">
         <is>
-          <t>6.5</t>
+          <t>5.9</t>
         </is>
       </c>
       <c r="AO132" t="inlineStr">
         <is>
-          <t>6.9</t>
+          <t>6.1</t>
         </is>
       </c>
       <c r="AP132" t="inlineStr">
         <is>
-          <t>6.2</t>
+          <t>5.7</t>
         </is>
       </c>
       <c r="AQ132" t="inlineStr">
         <is>
-          <t>75</t>
+          <t>77</t>
         </is>
       </c>
       <c r="AR132" t="inlineStr">
@@ -29928,33 +29928,33 @@
       </c>
       <c r="AS132" t="inlineStr">
         <is>
-          <t>9.7</t>
+          <t>7.2</t>
         </is>
       </c>
       <c r="AT132" t="inlineStr">
         <is>
-          <t>237</t>
+          <t>259</t>
         </is>
       </c>
       <c r="AU132" t="inlineStr">
         <is>
-          <t>23.8</t>
+          <t>17.6</t>
         </is>
       </c>
       <c r="AV132" t="inlineStr">
         <is>
-          <t>991.6</t>
+          <t>992.3</t>
         </is>
       </c>
       <c r="AW132" t="inlineStr"/>
       <c r="AX132" t="inlineStr">
         <is>
-          <t>23.8</t>
+          <t>17.6</t>
         </is>
       </c>
       <c r="AY132" t="inlineStr">
         <is>
-          <t>991.6</t>
+          <t>992.3</t>
         </is>
       </c>
       <c r="AZ132" t="inlineStr"/>
@@ -29998,7 +29998,7 @@
       </c>
       <c r="H133" t="inlineStr">
         <is>
-          <t>2026-02-04 17:14:31</t>
+          <t>2026-02-04 18:01:45</t>
         </is>
       </c>
       <c r="I133" t="inlineStr">
@@ -30219,7 +30219,7 @@
       </c>
       <c r="H134" t="inlineStr">
         <is>
-          <t>2026-02-04 17:14:31</t>
+          <t>2026-02-04 18:01:45</t>
         </is>
       </c>
       <c r="I134" t="inlineStr">
@@ -30440,7 +30440,7 @@
       </c>
       <c r="H135" t="inlineStr">
         <is>
-          <t>2026-02-04 17:14:31</t>
+          <t>2026-02-04 18:01:45</t>
         </is>
       </c>
       <c r="I135" t="inlineStr">
@@ -30661,7 +30661,7 @@
       </c>
       <c r="H136" t="inlineStr">
         <is>
-          <t>2026-02-04 17:14:31</t>
+          <t>2026-02-04 18:01:45</t>
         </is>
       </c>
       <c r="I136" t="inlineStr">
@@ -30867,7 +30867,7 @@
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>16:30 - 17:00</t>
+          <t>17:00 - 17:30</t>
         </is>
       </c>
       <c r="F137" t="inlineStr">
@@ -30882,17 +30882,17 @@
       </c>
       <c r="H137" t="inlineStr">
         <is>
-          <t>2026-02-04 17:14:33</t>
+          <t>2026-02-04 18:01:47</t>
         </is>
       </c>
       <c r="I137" t="inlineStr">
         <is>
-          <t>16:30</t>
+          <t>17:30</t>
         </is>
       </c>
       <c r="J137" t="inlineStr">
         <is>
-          <t>https://www.meteo.cat/observacions/xema/dades?codi=XS&amp;dia=2026-02-04T16:30Z</t>
+          <t>https://www.meteo.cat/observacions/xema/dades?codi=XS&amp;dia=2026-02-04T17:30Z</t>
         </is>
       </c>
       <c r="K137" t="n">
@@ -30905,7 +30905,7 @@
       </c>
       <c r="M137" t="inlineStr">
         <is>
-          <t>302</t>
+          <t>279</t>
         </is>
       </c>
       <c r="N137" t="inlineStr"/>
@@ -30913,7 +30913,7 @@
       <c r="P137" t="inlineStr"/>
       <c r="Q137" t="inlineStr">
         <is>
-          <t>59</t>
+          <t>66</t>
         </is>
       </c>
       <c r="R137" t="inlineStr"/>
@@ -30924,142 +30924,142 @@
       </c>
       <c r="T137" t="inlineStr">
         <is>
-          <t>16:30 - 17:00</t>
+          <t>17:00 - 17:30</t>
         </is>
       </c>
       <c r="U137" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>0</t>
         </is>
       </c>
       <c r="V137" t="inlineStr">
         <is>
-          <t>11.5</t>
+          <t>10.2</t>
         </is>
       </c>
       <c r="W137" t="inlineStr">
         <is>
+          <t>8.8</t>
+        </is>
+      </c>
+      <c r="X137" t="inlineStr">
+        <is>
           <t>11.2</t>
         </is>
       </c>
-      <c r="X137" t="inlineStr">
-        <is>
-          <t>12.0</t>
-        </is>
-      </c>
       <c r="Y137" t="inlineStr">
         <is>
-          <t>6.8</t>
+          <t>4.7</t>
         </is>
       </c>
       <c r="Z137" t="inlineStr"/>
       <c r="AA137" t="inlineStr"/>
       <c r="AB137" t="inlineStr">
         <is>
-          <t>12.2</t>
+          <t>11.5</t>
         </is>
       </c>
       <c r="AC137" t="inlineStr"/>
       <c r="AD137" t="inlineStr"/>
       <c r="AE137" t="inlineStr">
         <is>
-          <t>16:30 - 17:00</t>
+          <t>17:00 - 17:30</t>
         </is>
       </c>
       <c r="AF137" t="inlineStr">
         <is>
+          <t>10.2</t>
+        </is>
+      </c>
+      <c r="AG137" t="inlineStr">
+        <is>
+          <t>11.2</t>
+        </is>
+      </c>
+      <c r="AH137" t="inlineStr">
+        <is>
+          <t>8.8</t>
+        </is>
+      </c>
+      <c r="AI137" t="inlineStr">
+        <is>
+          <t>66</t>
+        </is>
+      </c>
+      <c r="AJ137" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="AK137" t="inlineStr">
+        <is>
+          <t>4.7</t>
+        </is>
+      </c>
+      <c r="AL137" t="inlineStr">
+        <is>
+          <t>279</t>
+        </is>
+      </c>
+      <c r="AM137" t="inlineStr">
+        <is>
+          <t>17:00 - 17:30</t>
+        </is>
+      </c>
+      <c r="AN137" t="inlineStr">
+        <is>
+          <t>10.2</t>
+        </is>
+      </c>
+      <c r="AO137" t="inlineStr">
+        <is>
+          <t>11.2</t>
+        </is>
+      </c>
+      <c r="AP137" t="inlineStr">
+        <is>
+          <t>8.8</t>
+        </is>
+      </c>
+      <c r="AQ137" t="inlineStr">
+        <is>
+          <t>66</t>
+        </is>
+      </c>
+      <c r="AR137" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="AS137" t="inlineStr">
+        <is>
+          <t>4.7</t>
+        </is>
+      </c>
+      <c r="AT137" t="inlineStr">
+        <is>
+          <t>279</t>
+        </is>
+      </c>
+      <c r="AU137" t="inlineStr">
+        <is>
           <t>11.5</t>
         </is>
       </c>
-      <c r="AG137" t="inlineStr">
-        <is>
-          <t>12.0</t>
-        </is>
-      </c>
-      <c r="AH137" t="inlineStr">
-        <is>
-          <t>11.2</t>
-        </is>
-      </c>
-      <c r="AI137" t="inlineStr">
-        <is>
-          <t>59</t>
-        </is>
-      </c>
-      <c r="AJ137" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="AK137" t="inlineStr">
-        <is>
-          <t>6.8</t>
-        </is>
-      </c>
-      <c r="AL137" t="inlineStr">
-        <is>
-          <t>302</t>
-        </is>
-      </c>
-      <c r="AM137" t="inlineStr">
-        <is>
-          <t>16:30 - 17:00</t>
-        </is>
-      </c>
-      <c r="AN137" t="inlineStr">
-        <is>
-          <t>11.5</t>
-        </is>
-      </c>
-      <c r="AO137" t="inlineStr">
-        <is>
-          <t>12.0</t>
-        </is>
-      </c>
-      <c r="AP137" t="inlineStr">
-        <is>
-          <t>11.2</t>
-        </is>
-      </c>
-      <c r="AQ137" t="inlineStr">
-        <is>
-          <t>59</t>
-        </is>
-      </c>
-      <c r="AR137" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="AS137" t="inlineStr">
-        <is>
-          <t>6.8</t>
-        </is>
-      </c>
-      <c r="AT137" t="inlineStr">
-        <is>
-          <t>302</t>
-        </is>
-      </c>
-      <c r="AU137" t="inlineStr">
-        <is>
-          <t>12.2</t>
-        </is>
-      </c>
       <c r="AV137" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AW137" t="inlineStr"/>
       <c r="AX137" t="inlineStr">
         <is>
-          <t>12.2</t>
+          <t>11.5</t>
         </is>
       </c>
       <c r="AY137" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AZ137" t="inlineStr"/>
@@ -31103,7 +31103,7 @@
       </c>
       <c r="H138" t="inlineStr">
         <is>
-          <t>2026-02-04 17:14:35</t>
+          <t>2026-02-04 18:01:49</t>
         </is>
       </c>
       <c r="I138" t="inlineStr">
@@ -31324,7 +31324,7 @@
       </c>
       <c r="H139" t="inlineStr">
         <is>
-          <t>2026-02-04 17:14:35</t>
+          <t>2026-02-04 18:01:49</t>
         </is>
       </c>
       <c r="I139" t="inlineStr">
@@ -31545,7 +31545,7 @@
       </c>
       <c r="H140" t="inlineStr">
         <is>
-          <t>2026-02-04 17:14:35</t>
+          <t>2026-02-04 18:01:49</t>
         </is>
       </c>
       <c r="I140" t="inlineStr">
@@ -31766,7 +31766,7 @@
       </c>
       <c r="H141" t="inlineStr">
         <is>
-          <t>2026-02-04 17:14:35</t>
+          <t>2026-02-04 18:01:49</t>
         </is>
       </c>
       <c r="I141" t="inlineStr">
@@ -31972,7 +31972,7 @@
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>16:30 - 17:00</t>
+          <t>17:00 - 17:30</t>
         </is>
       </c>
       <c r="F142" t="inlineStr">
@@ -31987,17 +31987,17 @@
       </c>
       <c r="H142" t="inlineStr">
         <is>
-          <t>2026-02-04 17:14:37</t>
+          <t>2026-02-04 18:01:51</t>
         </is>
       </c>
       <c r="I142" t="inlineStr">
         <is>
-          <t>16:30</t>
+          <t>17:30</t>
         </is>
       </c>
       <c r="J142" t="inlineStr">
         <is>
-          <t>https://www.meteo.cat/observacions/xema/dades?codi=ZC&amp;dia=2026-02-04T16:30Z</t>
+          <t>https://www.meteo.cat/observacions/xema/dades?codi=ZC&amp;dia=2026-02-04T17:30Z</t>
         </is>
       </c>
       <c r="K142" t="n">
@@ -32010,7 +32010,7 @@
       </c>
       <c r="M142" t="inlineStr">
         <is>
-          <t>313</t>
+          <t>280</t>
         </is>
       </c>
       <c r="N142" t="inlineStr"/>
@@ -32022,7 +32022,7 @@
       </c>
       <c r="Q142" t="inlineStr">
         <is>
-          <t>66</t>
+          <t>65</t>
         </is>
       </c>
       <c r="R142" t="inlineStr"/>
@@ -32033,12 +32033,12 @@
       </c>
       <c r="T142" t="inlineStr">
         <is>
-          <t>16:30 - 17:00</t>
+          <t>17:00 - 17:30</t>
         </is>
       </c>
       <c r="U142" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>0</t>
         </is>
       </c>
       <c r="V142" t="inlineStr">
@@ -32048,31 +32048,31 @@
       </c>
       <c r="W142" t="inlineStr">
         <is>
-          <t>-3.3</t>
+          <t>-3.1</t>
         </is>
       </c>
       <c r="X142" t="inlineStr">
         <is>
-          <t>-2.7</t>
+          <t>-2.8</t>
         </is>
       </c>
       <c r="Y142" t="inlineStr">
         <is>
-          <t>14.4</t>
+          <t>11.5</t>
         </is>
       </c>
       <c r="Z142" t="inlineStr"/>
       <c r="AA142" t="inlineStr"/>
       <c r="AB142" t="inlineStr">
         <is>
-          <t>38.2</t>
+          <t>38.9</t>
         </is>
       </c>
       <c r="AC142" t="inlineStr"/>
       <c r="AD142" t="inlineStr"/>
       <c r="AE142" t="inlineStr">
         <is>
-          <t>16:30 - 17:00</t>
+          <t>17:00 - 17:30</t>
         </is>
       </c>
       <c r="AF142" t="inlineStr">
@@ -32082,17 +32082,17 @@
       </c>
       <c r="AG142" t="inlineStr">
         <is>
-          <t>-2.7</t>
+          <t>-2.8</t>
         </is>
       </c>
       <c r="AH142" t="inlineStr">
         <is>
-          <t>-3.3</t>
+          <t>-3.1</t>
         </is>
       </c>
       <c r="AI142" t="inlineStr">
         <is>
-          <t>66</t>
+          <t>65</t>
         </is>
       </c>
       <c r="AJ142" t="inlineStr">
@@ -32107,12 +32107,12 @@
       </c>
       <c r="AL142" t="inlineStr">
         <is>
-          <t>14.4</t>
+          <t>11.5</t>
         </is>
       </c>
       <c r="AM142" t="inlineStr">
         <is>
-          <t>16:30 - 17:00</t>
+          <t>17:00 - 17:30</t>
         </is>
       </c>
       <c r="AN142" t="inlineStr">
@@ -32122,17 +32122,17 @@
       </c>
       <c r="AO142" t="inlineStr">
         <is>
-          <t>-2.7</t>
+          <t>-2.8</t>
         </is>
       </c>
       <c r="AP142" t="inlineStr">
         <is>
-          <t>-3.3</t>
+          <t>-3.1</t>
         </is>
       </c>
       <c r="AQ142" t="inlineStr">
         <is>
-          <t>66</t>
+          <t>65</t>
         </is>
       </c>
       <c r="AR142" t="inlineStr">
@@ -32147,37 +32147,37 @@
       </c>
       <c r="AT142" t="inlineStr">
         <is>
-          <t>14.4</t>
+          <t>11.5</t>
         </is>
       </c>
       <c r="AU142" t="inlineStr">
         <is>
-          <t>313</t>
+          <t>280</t>
         </is>
       </c>
       <c r="AV142" t="inlineStr">
         <is>
-          <t>38.2</t>
+          <t>38.9</t>
         </is>
       </c>
       <c r="AW142" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AX142" t="inlineStr">
         <is>
-          <t>313</t>
+          <t>280</t>
         </is>
       </c>
       <c r="AY142" t="inlineStr">
         <is>
-          <t>38.2</t>
+          <t>38.9</t>
         </is>
       </c>
       <c r="AZ142" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>0</t>
         </is>
       </c>
       <c r="BA142" t="inlineStr"/>
@@ -32220,7 +32220,7 @@
       </c>
       <c r="H143" t="inlineStr">
         <is>
-          <t>2026-02-04 17:14:39</t>
+          <t>2026-02-04 18:01:53</t>
         </is>
       </c>
       <c r="I143" t="inlineStr">
@@ -32453,7 +32453,7 @@
       </c>
       <c r="H144" t="inlineStr">
         <is>
-          <t>2026-02-04 17:14:39</t>
+          <t>2026-02-04 18:01:53</t>
         </is>
       </c>
       <c r="I144" t="inlineStr">
@@ -32686,7 +32686,7 @@
       </c>
       <c r="H145" t="inlineStr">
         <is>
-          <t>2026-02-04 17:14:39</t>
+          <t>2026-02-04 18:01:53</t>
         </is>
       </c>
       <c r="I145" t="inlineStr">
@@ -32919,7 +32919,7 @@
       </c>
       <c r="H146" t="inlineStr">
         <is>
-          <t>2026-02-04 17:14:39</t>
+          <t>2026-02-04 18:01:53</t>
         </is>
       </c>
       <c r="I146" t="inlineStr">
@@ -33137,7 +33137,7 @@
       </c>
       <c r="E147" t="inlineStr">
         <is>
-          <t>16:30 - 17:00</t>
+          <t>17:00 - 17:30</t>
         </is>
       </c>
       <c r="F147" t="inlineStr">
@@ -33152,17 +33152,17 @@
       </c>
       <c r="H147" t="inlineStr">
         <is>
-          <t>2026-02-04 17:14:41</t>
+          <t>2026-02-04 18:01:56</t>
         </is>
       </c>
       <c r="I147" t="inlineStr">
         <is>
-          <t>16:30</t>
+          <t>17:30</t>
         </is>
       </c>
       <c r="J147" t="inlineStr">
         <is>
-          <t>https://www.meteo.cat/observacions/xema/dades?codi=XH&amp;dia=2026-02-04T16:30Z</t>
+          <t>https://www.meteo.cat/observacions/xema/dades?codi=XH&amp;dia=2026-02-04T17:30Z</t>
         </is>
       </c>
       <c r="K147" t="n">
@@ -33183,12 +33183,12 @@
       </c>
       <c r="Q147" t="inlineStr">
         <is>
-          <t>79</t>
+          <t>83</t>
         </is>
       </c>
       <c r="R147" t="inlineStr">
         <is>
-          <t>992.8</t>
+          <t>993.0</t>
         </is>
       </c>
       <c r="S147" t="inlineStr">
@@ -33198,23 +33198,23 @@
       </c>
       <c r="T147" t="inlineStr">
         <is>
-          <t>16:30 - 17:00</t>
+          <t>17:00 - 17:30</t>
         </is>
       </c>
       <c r="U147" t="inlineStr"/>
       <c r="V147" t="inlineStr">
         <is>
-          <t>7.0</t>
+          <t>6.4</t>
         </is>
       </c>
       <c r="W147" t="inlineStr">
         <is>
+          <t>6.3</t>
+        </is>
+      </c>
+      <c r="X147" t="inlineStr">
+        <is>
           <t>6.6</t>
-        </is>
-      </c>
-      <c r="X147" t="inlineStr">
-        <is>
-          <t>7.5</t>
         </is>
       </c>
       <c r="Y147" t="inlineStr"/>
@@ -33225,82 +33225,82 @@
       <c r="AD147" t="inlineStr"/>
       <c r="AE147" t="inlineStr">
         <is>
-          <t>16:30 - 17:00</t>
+          <t>17:00 - 17:30</t>
         </is>
       </c>
       <c r="AF147" t="inlineStr">
         <is>
-          <t>7.0</t>
+          <t>6.4</t>
         </is>
       </c>
       <c r="AG147" t="inlineStr">
         <is>
-          <t>7.5</t>
+          <t>6.6</t>
         </is>
       </c>
       <c r="AH147" t="inlineStr">
         <is>
+          <t>6.3</t>
+        </is>
+      </c>
+      <c r="AI147" t="inlineStr">
+        <is>
+          <t>83</t>
+        </is>
+      </c>
+      <c r="AJ147" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="AK147" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AL147" t="inlineStr">
+        <is>
+          <t>993.0</t>
+        </is>
+      </c>
+      <c r="AM147" t="inlineStr">
+        <is>
+          <t>17:00 - 17:30</t>
+        </is>
+      </c>
+      <c r="AN147" t="inlineStr">
+        <is>
+          <t>6.4</t>
+        </is>
+      </c>
+      <c r="AO147" t="inlineStr">
+        <is>
           <t>6.6</t>
         </is>
       </c>
-      <c r="AI147" t="inlineStr">
-        <is>
-          <t>79</t>
-        </is>
-      </c>
-      <c r="AJ147" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="AK147" t="inlineStr">
+      <c r="AP147" t="inlineStr">
+        <is>
+          <t>6.3</t>
+        </is>
+      </c>
+      <c r="AQ147" t="inlineStr">
+        <is>
+          <t>83</t>
+        </is>
+      </c>
+      <c r="AR147" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="AS147" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="AL147" t="inlineStr">
-        <is>
-          <t>992.8</t>
-        </is>
-      </c>
-      <c r="AM147" t="inlineStr">
-        <is>
-          <t>16:30 - 17:00</t>
-        </is>
-      </c>
-      <c r="AN147" t="inlineStr">
-        <is>
-          <t>7.0</t>
-        </is>
-      </c>
-      <c r="AO147" t="inlineStr">
-        <is>
-          <t>7.5</t>
-        </is>
-      </c>
-      <c r="AP147" t="inlineStr">
-        <is>
-          <t>6.6</t>
-        </is>
-      </c>
-      <c r="AQ147" t="inlineStr">
-        <is>
-          <t>79</t>
-        </is>
-      </c>
-      <c r="AR147" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="AS147" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
       <c r="AT147" t="inlineStr">
         <is>
-          <t>992.8</t>
+          <t>993.0</t>
         </is>
       </c>
       <c r="AU147" t="inlineStr"/>
@@ -33349,7 +33349,7 @@
       </c>
       <c r="H148" t="inlineStr">
         <is>
-          <t>2026-02-04 17:14:43</t>
+          <t>2026-02-04 18:01:57</t>
         </is>
       </c>
       <c r="I148" t="inlineStr">
@@ -33546,7 +33546,7 @@
       </c>
       <c r="H149" t="inlineStr">
         <is>
-          <t>2026-02-04 17:14:43</t>
+          <t>2026-02-04 18:01:57</t>
         </is>
       </c>
       <c r="I149" t="inlineStr">
@@ -33743,7 +33743,7 @@
       </c>
       <c r="H150" t="inlineStr">
         <is>
-          <t>2026-02-04 17:14:43</t>
+          <t>2026-02-04 18:01:57</t>
         </is>
       </c>
       <c r="I150" t="inlineStr">
@@ -33940,7 +33940,7 @@
       </c>
       <c r="H151" t="inlineStr">
         <is>
-          <t>2026-02-04 17:14:43</t>
+          <t>2026-02-04 18:01:57</t>
         </is>
       </c>
       <c r="I151" t="inlineStr">
@@ -34122,7 +34122,7 @@
       </c>
       <c r="E152" t="inlineStr">
         <is>
-          <t>16:30 - 17:00</t>
+          <t>17:00 - 17:30</t>
         </is>
       </c>
       <c r="F152" t="inlineStr">
@@ -34137,17 +34137,17 @@
       </c>
       <c r="H152" t="inlineStr">
         <is>
-          <t>2026-02-04 17:14:45</t>
+          <t>2026-02-04 18:02:00</t>
         </is>
       </c>
       <c r="I152" t="inlineStr">
         <is>
-          <t>16:30</t>
+          <t>17:30</t>
         </is>
       </c>
       <c r="J152" t="inlineStr">
         <is>
-          <t>https://www.meteo.cat/observacions/xema/dades?codi=XE&amp;dia=2026-02-04T16:30Z</t>
+          <t>https://www.meteo.cat/observacions/xema/dades?codi=XE&amp;dia=2026-02-04T17:30Z</t>
         </is>
       </c>
       <c r="K152" t="n">
@@ -34160,7 +34160,7 @@
       </c>
       <c r="M152" t="inlineStr">
         <is>
-          <t>250</t>
+          <t>209</t>
         </is>
       </c>
       <c r="N152" t="inlineStr"/>
@@ -34168,7 +34168,7 @@
       <c r="P152" t="inlineStr"/>
       <c r="Q152" t="inlineStr">
         <is>
-          <t>57</t>
+          <t>67</t>
         </is>
       </c>
       <c r="R152" t="inlineStr">
@@ -34183,66 +34183,66 @@
       </c>
       <c r="T152" t="inlineStr">
         <is>
-          <t>16:30 - 17:00</t>
+          <t>17:00 - 17:30</t>
         </is>
       </c>
       <c r="U152" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>3</t>
         </is>
       </c>
       <c r="V152" t="inlineStr">
         <is>
-          <t>14.4</t>
+          <t>13.1</t>
         </is>
       </c>
       <c r="W152" t="inlineStr">
         <is>
-          <t>13.9</t>
+          <t>12.5</t>
         </is>
       </c>
       <c r="X152" t="inlineStr">
         <is>
-          <t>14.6</t>
+          <t>13.8</t>
         </is>
       </c>
       <c r="Y152" t="inlineStr">
         <is>
-          <t>7.6</t>
+          <t>6.1</t>
         </is>
       </c>
       <c r="Z152" t="inlineStr"/>
       <c r="AA152" t="inlineStr"/>
       <c r="AB152" t="inlineStr">
         <is>
-          <t>17.6</t>
+          <t>14.0</t>
         </is>
       </c>
       <c r="AC152" t="inlineStr"/>
       <c r="AD152" t="inlineStr"/>
       <c r="AE152" t="inlineStr">
         <is>
-          <t>16:30 - 17:00</t>
+          <t>17:00 - 17:30</t>
         </is>
       </c>
       <c r="AF152" t="inlineStr">
         <is>
-          <t>14.4</t>
+          <t>13.1</t>
         </is>
       </c>
       <c r="AG152" t="inlineStr">
         <is>
-          <t>14.6</t>
+          <t>13.8</t>
         </is>
       </c>
       <c r="AH152" t="inlineStr">
         <is>
-          <t>13.9</t>
+          <t>12.5</t>
         </is>
       </c>
       <c r="AI152" t="inlineStr">
         <is>
-          <t>57</t>
+          <t>67</t>
         </is>
       </c>
       <c r="AJ152" t="inlineStr">
@@ -34252,37 +34252,37 @@
       </c>
       <c r="AK152" t="inlineStr">
         <is>
-          <t>7.6</t>
+          <t>6.1</t>
         </is>
       </c>
       <c r="AL152" t="inlineStr">
         <is>
-          <t>250</t>
+          <t>209</t>
         </is>
       </c>
       <c r="AM152" t="inlineStr">
         <is>
-          <t>16:30 - 17:00</t>
+          <t>17:00 - 17:30</t>
         </is>
       </c>
       <c r="AN152" t="inlineStr">
         <is>
-          <t>14.4</t>
+          <t>13.1</t>
         </is>
       </c>
       <c r="AO152" t="inlineStr">
         <is>
-          <t>14.6</t>
+          <t>13.8</t>
         </is>
       </c>
       <c r="AP152" t="inlineStr">
         <is>
-          <t>13.9</t>
+          <t>12.5</t>
         </is>
       </c>
       <c r="AQ152" t="inlineStr">
         <is>
-          <t>57</t>
+          <t>67</t>
         </is>
       </c>
       <c r="AR152" t="inlineStr">
@@ -34292,17 +34292,17 @@
       </c>
       <c r="AS152" t="inlineStr">
         <is>
-          <t>7.6</t>
+          <t>6.1</t>
         </is>
       </c>
       <c r="AT152" t="inlineStr">
         <is>
-          <t>250</t>
+          <t>209</t>
         </is>
       </c>
       <c r="AU152" t="inlineStr">
         <is>
-          <t>17.6</t>
+          <t>14.0</t>
         </is>
       </c>
       <c r="AV152" t="inlineStr">
@@ -34312,12 +34312,12 @@
       </c>
       <c r="AW152" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>3</t>
         </is>
       </c>
       <c r="AX152" t="inlineStr">
         <is>
-          <t>17.6</t>
+          <t>14.0</t>
         </is>
       </c>
       <c r="AY152" t="inlineStr">
@@ -34327,7 +34327,7 @@
       </c>
       <c r="AZ152" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>3</t>
         </is>
       </c>
       <c r="BA152" t="inlineStr"/>
@@ -34370,7 +34370,7 @@
       </c>
       <c r="H153" t="inlineStr">
         <is>
-          <t>2026-02-04 17:14:47</t>
+          <t>2026-02-04 18:02:02</t>
         </is>
       </c>
       <c r="I153" t="inlineStr">
@@ -34603,7 +34603,7 @@
       </c>
       <c r="H154" t="inlineStr">
         <is>
-          <t>2026-02-04 17:14:47</t>
+          <t>2026-02-04 18:02:02</t>
         </is>
       </c>
       <c r="I154" t="inlineStr">
@@ -34836,7 +34836,7 @@
       </c>
       <c r="H155" t="inlineStr">
         <is>
-          <t>2026-02-04 17:14:47</t>
+          <t>2026-02-04 18:02:02</t>
         </is>
       </c>
       <c r="I155" t="inlineStr">
@@ -35069,7 +35069,7 @@
       </c>
       <c r="H156" t="inlineStr">
         <is>
-          <t>2026-02-04 17:14:47</t>
+          <t>2026-02-04 18:02:02</t>
         </is>
       </c>
       <c r="I156" t="inlineStr">
@@ -35287,7 +35287,7 @@
       </c>
       <c r="E157" t="inlineStr">
         <is>
-          <t>16:30 - 17:00</t>
+          <t>17:00 - 17:30</t>
         </is>
       </c>
       <c r="F157" t="inlineStr">
@@ -35302,17 +35302,17 @@
       </c>
       <c r="H157" t="inlineStr">
         <is>
-          <t>2026-02-04 17:14:49</t>
+          <t>2026-02-04 18:02:05</t>
         </is>
       </c>
       <c r="I157" t="inlineStr">
         <is>
-          <t>16:30</t>
+          <t>17:30</t>
         </is>
       </c>
       <c r="J157" t="inlineStr">
         <is>
-          <t>https://www.meteo.cat/observacions/xema/dades?codi=UE&amp;dia=2026-02-04T16:30Z</t>
+          <t>https://www.meteo.cat/observacions/xema/dades?codi=UE&amp;dia=2026-02-04T17:30Z</t>
         </is>
       </c>
       <c r="K157" t="n">
@@ -35329,7 +35329,7 @@
       <c r="P157" t="inlineStr"/>
       <c r="Q157" t="inlineStr">
         <is>
-          <t>76</t>
+          <t>82</t>
         </is>
       </c>
       <c r="R157" t="inlineStr"/>
@@ -35340,23 +35340,23 @@
       </c>
       <c r="T157" t="inlineStr">
         <is>
-          <t>16:30 - 17:00</t>
+          <t>17:00 - 17:30</t>
         </is>
       </c>
       <c r="U157" t="inlineStr"/>
       <c r="V157" t="inlineStr">
         <is>
-          <t>12.1</t>
+          <t>10.9</t>
         </is>
       </c>
       <c r="W157" t="inlineStr">
         <is>
+          <t>10.5</t>
+        </is>
+      </c>
+      <c r="X157" t="inlineStr">
+        <is>
           <t>11.3</t>
-        </is>
-      </c>
-      <c r="X157" t="inlineStr">
-        <is>
-          <t>12.6</t>
         </is>
       </c>
       <c r="Y157" t="inlineStr"/>
@@ -35367,27 +35367,27 @@
       <c r="AD157" t="inlineStr"/>
       <c r="AE157" t="inlineStr">
         <is>
-          <t>16:30 - 17:00</t>
+          <t>17:00 - 17:30</t>
         </is>
       </c>
       <c r="AF157" t="inlineStr">
         <is>
-          <t>12.1</t>
+          <t>10.9</t>
         </is>
       </c>
       <c r="AG157" t="inlineStr">
         <is>
-          <t>12.6</t>
+          <t>11.3</t>
         </is>
       </c>
       <c r="AH157" t="inlineStr">
         <is>
-          <t>11.3</t>
+          <t>10.5</t>
         </is>
       </c>
       <c r="AI157" t="inlineStr">
         <is>
-          <t>76</t>
+          <t>82</t>
         </is>
       </c>
       <c r="AJ157" t="inlineStr">
@@ -35399,27 +35399,27 @@
       <c r="AL157" t="inlineStr"/>
       <c r="AM157" t="inlineStr">
         <is>
-          <t>16:30 - 17:00</t>
+          <t>17:00 - 17:30</t>
         </is>
       </c>
       <c r="AN157" t="inlineStr">
         <is>
-          <t>12.1</t>
+          <t>10.9</t>
         </is>
       </c>
       <c r="AO157" t="inlineStr">
         <is>
-          <t>12.6</t>
+          <t>11.3</t>
         </is>
       </c>
       <c r="AP157" t="inlineStr">
         <is>
-          <t>11.3</t>
+          <t>10.5</t>
         </is>
       </c>
       <c r="AQ157" t="inlineStr">
         <is>
-          <t>76</t>
+          <t>82</t>
         </is>
       </c>
       <c r="AR157" t="inlineStr">
@@ -35475,7 +35475,7 @@
       </c>
       <c r="H158" t="inlineStr">
         <is>
-          <t>2026-02-04 17:14:50</t>
+          <t>2026-02-04 18:02:06</t>
         </is>
       </c>
       <c r="I158" t="inlineStr">
@@ -35648,7 +35648,7 @@
       </c>
       <c r="H159" t="inlineStr">
         <is>
-          <t>2026-02-04 17:14:50</t>
+          <t>2026-02-04 18:02:06</t>
         </is>
       </c>
       <c r="I159" t="inlineStr">
@@ -35821,7 +35821,7 @@
       </c>
       <c r="H160" t="inlineStr">
         <is>
-          <t>2026-02-04 17:14:50</t>
+          <t>2026-02-04 18:02:06</t>
         </is>
       </c>
       <c r="I160" t="inlineStr">
@@ -35994,7 +35994,7 @@
       </c>
       <c r="H161" t="inlineStr">
         <is>
-          <t>2026-02-04 17:14:50</t>
+          <t>2026-02-04 18:02:06</t>
         </is>
       </c>
       <c r="I161" t="inlineStr">
@@ -36152,7 +36152,7 @@
       </c>
       <c r="E162" t="inlineStr">
         <is>
-          <t>16:30 - 17:00</t>
+          <t>17:00 - 17:30</t>
         </is>
       </c>
       <c r="F162" t="inlineStr">
@@ -36167,17 +36167,17 @@
       </c>
       <c r="H162" t="inlineStr">
         <is>
-          <t>2026-02-04 17:14:53</t>
+          <t>2026-02-04 18:02:09</t>
         </is>
       </c>
       <c r="I162" t="inlineStr">
         <is>
-          <t>16:30</t>
+          <t>17:30</t>
         </is>
       </c>
       <c r="J162" t="inlineStr">
         <is>
-          <t>https://www.meteo.cat/observacions/xema/dades?codi=XO&amp;dia=2026-02-04T16:30Z</t>
+          <t>https://www.meteo.cat/observacions/xema/dades?codi=XO&amp;dia=2026-02-04T17:30Z</t>
         </is>
       </c>
       <c r="K162" t="n">
@@ -36190,7 +36190,7 @@
       </c>
       <c r="M162" t="inlineStr">
         <is>
-          <t>192</t>
+          <t>199</t>
         </is>
       </c>
       <c r="N162" t="inlineStr"/>
@@ -36198,7 +36198,7 @@
       <c r="P162" t="inlineStr"/>
       <c r="Q162" t="inlineStr">
         <is>
-          <t>69</t>
+          <t>73</t>
         </is>
       </c>
       <c r="R162" t="inlineStr"/>
@@ -36209,66 +36209,66 @@
       </c>
       <c r="T162" t="inlineStr">
         <is>
-          <t>16:30 - 17:00</t>
+          <t>17:00 - 17:30</t>
         </is>
       </c>
       <c r="U162" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>0</t>
         </is>
       </c>
       <c r="V162" t="inlineStr">
         <is>
-          <t>8.3</t>
+          <t>7.4</t>
         </is>
       </c>
       <c r="W162" t="inlineStr">
         <is>
-          <t>8.0</t>
+          <t>7.1</t>
         </is>
       </c>
       <c r="X162" t="inlineStr">
         <is>
-          <t>8.5</t>
+          <t>7.9</t>
         </is>
       </c>
       <c r="Y162" t="inlineStr">
         <is>
-          <t>3.6</t>
+          <t>2.5</t>
         </is>
       </c>
       <c r="Z162" t="inlineStr"/>
       <c r="AA162" t="inlineStr"/>
       <c r="AB162" t="inlineStr">
         <is>
-          <t>12.6</t>
+          <t>8.6</t>
         </is>
       </c>
       <c r="AC162" t="inlineStr"/>
       <c r="AD162" t="inlineStr"/>
       <c r="AE162" t="inlineStr">
         <is>
-          <t>16:30 - 17:00</t>
+          <t>17:00 - 17:30</t>
         </is>
       </c>
       <c r="AF162" t="inlineStr">
         <is>
-          <t>8.3</t>
+          <t>7.4</t>
         </is>
       </c>
       <c r="AG162" t="inlineStr">
         <is>
-          <t>8.5</t>
+          <t>7.9</t>
         </is>
       </c>
       <c r="AH162" t="inlineStr">
         <is>
-          <t>8.0</t>
+          <t>7.1</t>
         </is>
       </c>
       <c r="AI162" t="inlineStr">
         <is>
-          <t>69</t>
+          <t>73</t>
         </is>
       </c>
       <c r="AJ162" t="inlineStr">
@@ -36278,37 +36278,37 @@
       </c>
       <c r="AK162" t="inlineStr">
         <is>
-          <t>3.6</t>
+          <t>2.5</t>
         </is>
       </c>
       <c r="AL162" t="inlineStr">
         <is>
-          <t>192</t>
+          <t>199</t>
         </is>
       </c>
       <c r="AM162" t="inlineStr">
         <is>
-          <t>16:30 - 17:00</t>
+          <t>17:00 - 17:30</t>
         </is>
       </c>
       <c r="AN162" t="inlineStr">
         <is>
-          <t>8.3</t>
+          <t>7.4</t>
         </is>
       </c>
       <c r="AO162" t="inlineStr">
         <is>
-          <t>8.5</t>
+          <t>7.9</t>
         </is>
       </c>
       <c r="AP162" t="inlineStr">
         <is>
-          <t>8.0</t>
+          <t>7.1</t>
         </is>
       </c>
       <c r="AQ162" t="inlineStr">
         <is>
-          <t>69</t>
+          <t>73</t>
         </is>
       </c>
       <c r="AR162" t="inlineStr">
@@ -36318,33 +36318,33 @@
       </c>
       <c r="AS162" t="inlineStr">
         <is>
-          <t>3.6</t>
+          <t>2.5</t>
         </is>
       </c>
       <c r="AT162" t="inlineStr">
         <is>
-          <t>192</t>
+          <t>199</t>
         </is>
       </c>
       <c r="AU162" t="inlineStr">
         <is>
-          <t>12.6</t>
+          <t>8.6</t>
         </is>
       </c>
       <c r="AV162" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AW162" t="inlineStr"/>
       <c r="AX162" t="inlineStr">
         <is>
-          <t>12.6</t>
+          <t>8.6</t>
         </is>
       </c>
       <c r="AY162" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AZ162" t="inlineStr"/>
@@ -36388,7 +36388,7 @@
       </c>
       <c r="H163" t="inlineStr">
         <is>
-          <t>2026-02-04 17:14:55</t>
+          <t>2026-02-04 18:02:11</t>
         </is>
       </c>
       <c r="I163" t="inlineStr">
@@ -36609,7 +36609,7 @@
       </c>
       <c r="H164" t="inlineStr">
         <is>
-          <t>2026-02-04 17:14:55</t>
+          <t>2026-02-04 18:02:11</t>
         </is>
       </c>
       <c r="I164" t="inlineStr">
@@ -36830,7 +36830,7 @@
       </c>
       <c r="H165" t="inlineStr">
         <is>
-          <t>2026-02-04 17:14:55</t>
+          <t>2026-02-04 18:02:11</t>
         </is>
       </c>
       <c r="I165" t="inlineStr">
@@ -37051,7 +37051,7 @@
       </c>
       <c r="H166" t="inlineStr">
         <is>
-          <t>2026-02-04 17:14:55</t>
+          <t>2026-02-04 18:02:11</t>
         </is>
       </c>
       <c r="I166" t="inlineStr">
@@ -37257,7 +37257,7 @@
       </c>
       <c r="E167" t="inlineStr">
         <is>
-          <t>16:30 - 17:00</t>
+          <t>17:00 - 17:30</t>
         </is>
       </c>
       <c r="F167" t="inlineStr">
@@ -37272,17 +37272,17 @@
       </c>
       <c r="H167" t="inlineStr">
         <is>
-          <t>2026-02-04 17:14:57</t>
+          <t>2026-02-04 18:02:14</t>
         </is>
       </c>
       <c r="I167" t="inlineStr">
         <is>
-          <t>16:30</t>
+          <t>17:30</t>
         </is>
       </c>
       <c r="J167" t="inlineStr">
         <is>
-          <t>https://www.meteo.cat/observacions/xema/dades?codi=VS&amp;dia=2026-02-04T16:30Z</t>
+          <t>https://www.meteo.cat/observacions/xema/dades?codi=VS&amp;dia=2026-02-04T17:30Z</t>
         </is>
       </c>
       <c r="K167" t="n">
@@ -37312,7 +37312,7 @@
       </c>
       <c r="R167" t="inlineStr">
         <is>
-          <t>827.7</t>
+          <t>827.9</t>
         </is>
       </c>
       <c r="S167" t="inlineStr">
@@ -37322,27 +37322,27 @@
       </c>
       <c r="T167" t="inlineStr">
         <is>
-          <t>16:30 - 17:00</t>
+          <t>17:00 - 17:30</t>
         </is>
       </c>
       <c r="U167" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>2</t>
         </is>
       </c>
       <c r="V167" t="inlineStr">
         <is>
-          <t>-4.3</t>
+          <t>-4.6</t>
         </is>
       </c>
       <c r="W167" t="inlineStr">
         <is>
-          <t>-4.4</t>
+          <t>-4.7</t>
         </is>
       </c>
       <c r="X167" t="inlineStr">
         <is>
-          <t>-4.1</t>
+          <t>-4.5</t>
         </is>
       </c>
       <c r="Y167" t="inlineStr">
@@ -37361,22 +37361,22 @@
       <c r="AD167" t="inlineStr"/>
       <c r="AE167" t="inlineStr">
         <is>
-          <t>16:30 - 17:00</t>
+          <t>17:00 - 17:30</t>
         </is>
       </c>
       <c r="AF167" t="inlineStr">
         <is>
-          <t>-4.3</t>
+          <t>-4.6</t>
         </is>
       </c>
       <c r="AG167" t="inlineStr">
         <is>
-          <t>-4.1</t>
+          <t>-4.5</t>
         </is>
       </c>
       <c r="AH167" t="inlineStr">
         <is>
-          <t>-4.4</t>
+          <t>-4.7</t>
         </is>
       </c>
       <c r="AI167" t="inlineStr">
@@ -37401,22 +37401,22 @@
       </c>
       <c r="AM167" t="inlineStr">
         <is>
-          <t>16:30 - 17:00</t>
+          <t>17:00 - 17:30</t>
         </is>
       </c>
       <c r="AN167" t="inlineStr">
         <is>
-          <t>-4.3</t>
+          <t>-4.6</t>
         </is>
       </c>
       <c r="AO167" t="inlineStr">
         <is>
-          <t>-4.1</t>
+          <t>-4.5</t>
         </is>
       </c>
       <c r="AP167" t="inlineStr">
         <is>
-          <t>-4.4</t>
+          <t>-4.7</t>
         </is>
       </c>
       <c r="AQ167" t="inlineStr">
@@ -37451,7 +37451,7 @@
       </c>
       <c r="AW167" t="inlineStr">
         <is>
-          <t>827.7</t>
+          <t>827.9</t>
         </is>
       </c>
       <c r="AX167" t="inlineStr">
@@ -37466,12 +37466,12 @@
       </c>
       <c r="AZ167" t="inlineStr">
         <is>
-          <t>827.7</t>
+          <t>827.9</t>
         </is>
       </c>
       <c r="BA167" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -37513,7 +37513,7 @@
       </c>
       <c r="H168" t="inlineStr">
         <is>
-          <t>2026-02-04 17:14:58</t>
+          <t>2026-02-04 18:02:16</t>
         </is>
       </c>
       <c r="I168" t="inlineStr">
@@ -37722,7 +37722,7 @@
       </c>
       <c r="H169" t="inlineStr">
         <is>
-          <t>2026-02-04 17:14:58</t>
+          <t>2026-02-04 18:02:16</t>
         </is>
       </c>
       <c r="I169" t="inlineStr">
@@ -37931,7 +37931,7 @@
       </c>
       <c r="H170" t="inlineStr">
         <is>
-          <t>2026-02-04 17:14:58</t>
+          <t>2026-02-04 18:02:16</t>
         </is>
       </c>
       <c r="I170" t="inlineStr">
@@ -38140,7 +38140,7 @@
       </c>
       <c r="H171" t="inlineStr">
         <is>
-          <t>2026-02-04 17:14:58</t>
+          <t>2026-02-04 18:02:16</t>
         </is>
       </c>
       <c r="I171" t="inlineStr">
@@ -38334,7 +38334,7 @@
       </c>
       <c r="E172" t="inlineStr">
         <is>
-          <t>16:30 - 17:00</t>
+          <t>17:00 - 17:30</t>
         </is>
       </c>
       <c r="F172" t="inlineStr">
@@ -38349,17 +38349,17 @@
       </c>
       <c r="H172" t="inlineStr">
         <is>
-          <t>2026-02-04 17:15:01</t>
+          <t>2026-02-04 18:02:18</t>
         </is>
       </c>
       <c r="I172" t="inlineStr">
         <is>
-          <t>16:30</t>
+          <t>17:30</t>
         </is>
       </c>
       <c r="J172" t="inlineStr">
         <is>
-          <t>https://www.meteo.cat/observacions/xema/dades?codi=D7&amp;dia=2026-02-04T16:30Z</t>
+          <t>https://www.meteo.cat/observacions/xema/dades?codi=D7&amp;dia=2026-02-04T17:30Z</t>
         </is>
       </c>
       <c r="K172" t="n">
@@ -38372,7 +38372,7 @@
       </c>
       <c r="M172" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>333</t>
         </is>
       </c>
       <c r="N172" t="inlineStr"/>
@@ -38380,12 +38380,12 @@
       <c r="P172" t="inlineStr"/>
       <c r="Q172" t="inlineStr">
         <is>
-          <t>69</t>
+          <t>71</t>
         </is>
       </c>
       <c r="R172" t="inlineStr">
         <is>
-          <t>993.2</t>
+          <t>993.3</t>
         </is>
       </c>
       <c r="S172" t="inlineStr">
@@ -38395,106 +38395,106 @@
       </c>
       <c r="T172" t="inlineStr">
         <is>
-          <t>16:30 - 17:00</t>
+          <t>17:00 - 17:30</t>
         </is>
       </c>
       <c r="U172" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>2</t>
         </is>
       </c>
       <c r="V172" t="inlineStr">
         <is>
-          <t>12.1</t>
+          <t>11.4</t>
         </is>
       </c>
       <c r="W172" t="inlineStr">
         <is>
+          <t>10.7</t>
+        </is>
+      </c>
+      <c r="X172" t="inlineStr">
+        <is>
           <t>11.8</t>
         </is>
       </c>
-      <c r="X172" t="inlineStr">
-        <is>
-          <t>12.3</t>
-        </is>
-      </c>
       <c r="Y172" t="inlineStr">
         <is>
-          <t>4.7</t>
+          <t>4.3</t>
         </is>
       </c>
       <c r="Z172" t="inlineStr"/>
       <c r="AA172" t="inlineStr"/>
       <c r="AB172" t="inlineStr">
         <is>
-          <t>10.4</t>
+          <t>6.8</t>
         </is>
       </c>
       <c r="AC172" t="inlineStr"/>
       <c r="AD172" t="inlineStr"/>
       <c r="AE172" t="inlineStr">
         <is>
-          <t>16:30 - 17:00</t>
+          <t>17:00 - 17:30</t>
         </is>
       </c>
       <c r="AF172" t="inlineStr">
         <is>
-          <t>12.1</t>
+          <t>11.4</t>
         </is>
       </c>
       <c r="AG172" t="inlineStr">
         <is>
-          <t>12.3</t>
+          <t>11.8</t>
         </is>
       </c>
       <c r="AH172" t="inlineStr">
         <is>
+          <t>10.7</t>
+        </is>
+      </c>
+      <c r="AI172" t="inlineStr">
+        <is>
+          <t>71</t>
+        </is>
+      </c>
+      <c r="AJ172" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="AK172" t="inlineStr">
+        <is>
+          <t>4.3</t>
+        </is>
+      </c>
+      <c r="AL172" t="inlineStr">
+        <is>
+          <t>333</t>
+        </is>
+      </c>
+      <c r="AM172" t="inlineStr">
+        <is>
+          <t>17:00 - 17:30</t>
+        </is>
+      </c>
+      <c r="AN172" t="inlineStr">
+        <is>
+          <t>11.4</t>
+        </is>
+      </c>
+      <c r="AO172" t="inlineStr">
+        <is>
           <t>11.8</t>
         </is>
       </c>
-      <c r="AI172" t="inlineStr">
-        <is>
-          <t>69</t>
-        </is>
-      </c>
-      <c r="AJ172" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="AK172" t="inlineStr">
-        <is>
-          <t>4.7</t>
-        </is>
-      </c>
-      <c r="AL172" t="inlineStr">
-        <is>
-          <t>29</t>
-        </is>
-      </c>
-      <c r="AM172" t="inlineStr">
-        <is>
-          <t>16:30 - 17:00</t>
-        </is>
-      </c>
-      <c r="AN172" t="inlineStr">
-        <is>
-          <t>12.1</t>
-        </is>
-      </c>
-      <c r="AO172" t="inlineStr">
-        <is>
-          <t>12.3</t>
-        </is>
-      </c>
       <c r="AP172" t="inlineStr">
         <is>
-          <t>11.8</t>
+          <t>10.7</t>
         </is>
       </c>
       <c r="AQ172" t="inlineStr">
         <is>
-          <t>69</t>
+          <t>71</t>
         </is>
       </c>
       <c r="AR172" t="inlineStr">
@@ -38504,42 +38504,42 @@
       </c>
       <c r="AS172" t="inlineStr">
         <is>
-          <t>4.7</t>
+          <t>4.3</t>
         </is>
       </c>
       <c r="AT172" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>333</t>
         </is>
       </c>
       <c r="AU172" t="inlineStr">
         <is>
-          <t>10.4</t>
+          <t>6.8</t>
         </is>
       </c>
       <c r="AV172" t="inlineStr">
         <is>
-          <t>993.2</t>
+          <t>993.3</t>
         </is>
       </c>
       <c r="AW172" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>2</t>
         </is>
       </c>
       <c r="AX172" t="inlineStr">
         <is>
-          <t>10.4</t>
+          <t>6.8</t>
         </is>
       </c>
       <c r="AY172" t="inlineStr">
         <is>
-          <t>993.2</t>
+          <t>993.3</t>
         </is>
       </c>
       <c r="AZ172" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>2</t>
         </is>
       </c>
       <c r="BA172" t="inlineStr"/>
@@ -38582,7 +38582,7 @@
       </c>
       <c r="H173" t="inlineStr">
         <is>
-          <t>2026-02-04 17:15:03</t>
+          <t>2026-02-04 18:02:20</t>
         </is>
       </c>
       <c r="I173" t="inlineStr">
@@ -38815,7 +38815,7 @@
       </c>
       <c r="H174" t="inlineStr">
         <is>
-          <t>2026-02-04 17:15:03</t>
+          <t>2026-02-04 18:02:20</t>
         </is>
       </c>
       <c r="I174" t="inlineStr">
@@ -39048,7 +39048,7 @@
       </c>
       <c r="H175" t="inlineStr">
         <is>
-          <t>2026-02-04 17:15:03</t>
+          <t>2026-02-04 18:02:20</t>
         </is>
       </c>
       <c r="I175" t="inlineStr">
@@ -39281,7 +39281,7 @@
       </c>
       <c r="H176" t="inlineStr">
         <is>
-          <t>2026-02-04 17:15:03</t>
+          <t>2026-02-04 18:02:20</t>
         </is>
       </c>
       <c r="I176" t="inlineStr">
@@ -39553,7 +39553,7 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>https://www.meteo.cat/observacions/xema/dades?codi=YT&amp;dia=2026-02-04T16:30Z</t>
+          <t>https://www.meteo.cat/observacions/xema/dades?codi=YT&amp;dia=2026-02-04T17:00Z</t>
         </is>
       </c>
     </row>
@@ -39583,7 +39583,7 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>https://www.meteo.cat/observacions/xema/dades?codi=Z1&amp;dia=2026-02-04T16:30Z</t>
+          <t>https://www.meteo.cat/observacions/xema/dades?codi=Z1&amp;dia=2026-02-04T17:00Z</t>
         </is>
       </c>
     </row>
@@ -39613,7 +39613,7 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>https://www.meteo.cat/observacions/xema/dades?codi=DN&amp;dia=2026-02-04T16:30Z</t>
+          <t>https://www.meteo.cat/observacions/xema/dades?codi=DN&amp;dia=2026-02-04T17:00Z</t>
         </is>
       </c>
     </row>
@@ -39643,7 +39643,7 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>https://www.meteo.cat/observacions/xema/dades?codi=DJ&amp;dia=2026-02-04T16:30Z</t>
+          <t>https://www.meteo.cat/observacions/xema/dades?codi=DJ&amp;dia=2026-02-04T17:00Z</t>
         </is>
       </c>
     </row>
@@ -39673,7 +39673,7 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>https://www.meteo.cat/observacions/xema/dades?codi=X4&amp;dia=2026-02-04T16:30Z</t>
+          <t>https://www.meteo.cat/observacions/xema/dades?codi=X4&amp;dia=2026-02-04T17:30Z</t>
         </is>
       </c>
     </row>
@@ -39703,7 +39703,7 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>https://www.meteo.cat/observacions/xema/dades?codi=D5&amp;dia=2026-02-04T16:30Z</t>
+          <t>https://www.meteo.cat/observacions/xema/dades?codi=D5&amp;dia=2026-02-04T17:30Z</t>
         </is>
       </c>
     </row>
@@ -39733,7 +39733,7 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>https://www.meteo.cat/observacions/xema/dades?codi=UN&amp;dia=2026-02-04T16:30Z</t>
+          <t>https://www.meteo.cat/observacions/xema/dades?codi=UN&amp;dia=2026-02-04T17:30Z</t>
         </is>
       </c>
     </row>
@@ -39763,7 +39763,7 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>https://www.meteo.cat/observacions/xema/dades?codi=MS&amp;dia=2026-02-04T16:30Z</t>
+          <t>https://www.meteo.cat/observacions/xema/dades?codi=MS&amp;dia=2026-02-04T17:30Z</t>
         </is>
       </c>
     </row>
@@ -39793,7 +39793,7 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>https://www.meteo.cat/observacions/xema/dades?codi=W1&amp;dia=2026-02-04T16:30Z</t>
+          <t>https://www.meteo.cat/observacions/xema/dades?codi=W1&amp;dia=2026-02-04T17:30Z</t>
         </is>
       </c>
     </row>
@@ -39823,7 +39823,7 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>https://www.meteo.cat/observacions/xema/dades?codi=DP&amp;dia=2026-02-04T16:30Z</t>
+          <t>https://www.meteo.cat/observacions/xema/dades?codi=DP&amp;dia=2026-02-04T17:30Z</t>
         </is>
       </c>
     </row>
@@ -39853,7 +39853,7 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>https://www.meteo.cat/observacions/xema/dades?codi=XL&amp;dia=2026-02-04T16:30Z</t>
+          <t>https://www.meteo.cat/observacions/xema/dades?codi=XL&amp;dia=2026-02-04T17:30Z</t>
         </is>
       </c>
     </row>
@@ -39883,7 +39883,7 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>https://www.meteo.cat/observacions/xema/dades?codi=VZ&amp;dia=2026-02-04T16:30Z</t>
+          <t>https://www.meteo.cat/observacions/xema/dades?codi=VZ&amp;dia=2026-02-04T17:30Z</t>
         </is>
       </c>
     </row>
@@ -39913,7 +39913,7 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>https://www.meteo.cat/observacions/xema/dades?codi=Z7&amp;dia=2026-02-04T16:30Z</t>
+          <t>https://www.meteo.cat/observacions/xema/dades?codi=Z7&amp;dia=2026-02-04T17:30Z</t>
         </is>
       </c>
     </row>
@@ -39943,7 +39943,7 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>https://www.meteo.cat/observacions/xema/dades?codi=XJ&amp;dia=2026-02-04T16:30Z</t>
+          <t>https://www.meteo.cat/observacions/xema/dades?codi=XJ&amp;dia=2026-02-04T17:30Z</t>
         </is>
       </c>
     </row>
@@ -39973,7 +39973,7 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>https://www.meteo.cat/observacions/xema/dades?codi=YU&amp;dia=2026-02-04T16:30Z</t>
+          <t>https://www.meteo.cat/observacions/xema/dades?codi=YU&amp;dia=2026-02-04T17:30Z</t>
         </is>
       </c>
     </row>
@@ -40003,7 +40003,7 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>https://www.meteo.cat/observacions/xema/dades?codi=CD&amp;dia=2026-02-04T16:30Z</t>
+          <t>https://www.meteo.cat/observacions/xema/dades?codi=CD&amp;dia=2026-02-04T17:30Z</t>
         </is>
       </c>
     </row>
@@ -40033,7 +40033,7 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>https://www.meteo.cat/observacions/xema/dades?codi=Z2&amp;dia=2026-02-04T16:30Z</t>
+          <t>https://www.meteo.cat/observacions/xema/dades?codi=Z2&amp;dia=2026-02-04T17:30Z</t>
         </is>
       </c>
     </row>
@@ -40063,7 +40063,7 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>https://www.meteo.cat/observacions/xema/dades?codi=VK&amp;dia=2026-02-04T16:30Z</t>
+          <t>https://www.meteo.cat/observacions/xema/dades?codi=VK&amp;dia=2026-02-04T17:30Z</t>
         </is>
       </c>
     </row>
@@ -40093,7 +40093,7 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>https://www.meteo.cat/observacions/xema/dades?codi=Z3&amp;dia=2026-02-04T16:30Z</t>
+          <t>https://www.meteo.cat/observacions/xema/dades?codi=Z3&amp;dia=2026-02-04T17:30Z</t>
         </is>
       </c>
     </row>
@@ -40123,7 +40123,7 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>https://www.meteo.cat/observacions/xema/dades?codi=YB&amp;dia=2026-02-04T16:30Z</t>
+          <t>https://www.meteo.cat/observacions/xema/dades?codi=YB&amp;dia=2026-02-04T17:30Z</t>
         </is>
       </c>
     </row>
@@ -40153,7 +40153,7 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>https://www.meteo.cat/observacions/xema/dades?codi=YP&amp;dia=2026-02-04T16:30Z</t>
+          <t>https://www.meteo.cat/observacions/xema/dades?codi=YP&amp;dia=2026-02-04T17:30Z</t>
         </is>
       </c>
     </row>
@@ -40183,7 +40183,7 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>https://www.meteo.cat/observacions/xema/dades?codi=J5&amp;dia=2026-02-04T16:30Z</t>
+          <t>https://www.meteo.cat/observacions/xema/dades?codi=J5&amp;dia=2026-02-04T17:30Z</t>
         </is>
       </c>
     </row>
@@ -40213,7 +40213,7 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>https://www.meteo.cat/observacions/xema/dades?codi=D6&amp;dia=2026-02-04T16:30Z</t>
+          <t>https://www.meteo.cat/observacions/xema/dades?codi=D6&amp;dia=2026-02-04T17:30Z</t>
         </is>
       </c>
     </row>
@@ -40243,7 +40243,7 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>https://www.meteo.cat/observacions/xema/dades?codi=YA&amp;dia=2026-02-04T16:30Z</t>
+          <t>https://www.meteo.cat/observacions/xema/dades?codi=YA&amp;dia=2026-02-04T17:30Z</t>
         </is>
       </c>
     </row>
@@ -40273,7 +40273,7 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>https://www.meteo.cat/observacions/xema/dades?codi=DG&amp;dia=2026-02-04T16:30Z</t>
+          <t>https://www.meteo.cat/observacions/xema/dades?codi=DG&amp;dia=2026-02-04T17:30Z</t>
         </is>
       </c>
     </row>
@@ -40303,7 +40303,7 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>https://www.meteo.cat/observacions/xema/dades?codi=D4&amp;dia=2026-02-04T16:30Z</t>
+          <t>https://www.meteo.cat/observacions/xema/dades?codi=D4&amp;dia=2026-02-04T17:30Z</t>
         </is>
       </c>
     </row>
@@ -40333,7 +40333,7 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>https://www.meteo.cat/observacions/xema/dades?codi=CI&amp;dia=2026-02-04T16:30Z</t>
+          <t>https://www.meteo.cat/observacions/xema/dades?codi=CI&amp;dia=2026-02-04T17:30Z</t>
         </is>
       </c>
     </row>
@@ -40363,7 +40363,7 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>https://www.meteo.cat/observacions/xema/dades?codi=XS&amp;dia=2026-02-04T16:30Z</t>
+          <t>https://www.meteo.cat/observacions/xema/dades?codi=XS&amp;dia=2026-02-04T17:30Z</t>
         </is>
       </c>
     </row>
@@ -40393,7 +40393,7 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>https://www.meteo.cat/observacions/xema/dades?codi=ZC&amp;dia=2026-02-04T16:30Z</t>
+          <t>https://www.meteo.cat/observacions/xema/dades?codi=ZC&amp;dia=2026-02-04T17:30Z</t>
         </is>
       </c>
     </row>
@@ -40423,7 +40423,7 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>https://www.meteo.cat/observacions/xema/dades?codi=XH&amp;dia=2026-02-04T16:30Z</t>
+          <t>https://www.meteo.cat/observacions/xema/dades?codi=XH&amp;dia=2026-02-04T17:30Z</t>
         </is>
       </c>
     </row>
@@ -40453,7 +40453,7 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>https://www.meteo.cat/observacions/xema/dades?codi=XE&amp;dia=2026-02-04T16:30Z</t>
+          <t>https://www.meteo.cat/observacions/xema/dades?codi=XE&amp;dia=2026-02-04T17:30Z</t>
         </is>
       </c>
     </row>
@@ -40483,7 +40483,7 @@
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>https://www.meteo.cat/observacions/xema/dades?codi=UE&amp;dia=2026-02-04T16:30Z</t>
+          <t>https://www.meteo.cat/observacions/xema/dades?codi=UE&amp;dia=2026-02-04T17:30Z</t>
         </is>
       </c>
     </row>
@@ -40513,7 +40513,7 @@
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>https://www.meteo.cat/observacions/xema/dades?codi=XO&amp;dia=2026-02-04T16:30Z</t>
+          <t>https://www.meteo.cat/observacions/xema/dades?codi=XO&amp;dia=2026-02-04T17:30Z</t>
         </is>
       </c>
     </row>
@@ -40543,7 +40543,7 @@
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>https://www.meteo.cat/observacions/xema/dades?codi=VS&amp;dia=2026-02-04T16:30Z</t>
+          <t>https://www.meteo.cat/observacions/xema/dades?codi=VS&amp;dia=2026-02-04T17:30Z</t>
         </is>
       </c>
     </row>
@@ -40573,7 +40573,7 @@
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>https://www.meteo.cat/observacions/xema/dades?codi=D7&amp;dia=2026-02-04T16:30Z</t>
+          <t>https://www.meteo.cat/observacions/xema/dades?codi=D7&amp;dia=2026-02-04T17:30Z</t>
         </is>
       </c>
     </row>

--- a/src/data/resum_periode_meteocat.xlsx
+++ b/src/data/resum_periode_meteocat.xlsx
@@ -712,7 +712,7 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>17:00 - 17:30</t>
+          <t>17:30 - 18:00</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -727,17 +727,17 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>2026-02-04 17:59:47</t>
+          <t>2026-02-04 18:23:56</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>17:00</t>
+          <t>17:30</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>https://www.meteo.cat/observacions/xema/dades?codi=YT&amp;dia=2026-02-04T17:00Z</t>
+          <t>https://www.meteo.cat/observacions/xema/dades?codi=YT&amp;dia=2026-02-04T17:30Z</t>
         </is>
       </c>
       <c r="K2" t="n">
@@ -753,12 +753,12 @@
       <c r="O2" t="inlineStr"/>
       <c r="P2" t="inlineStr">
         <is>
-          <t>125</t>
+          <t>118</t>
         </is>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>90</t>
+          <t>91</t>
         </is>
       </c>
       <c r="R2" t="inlineStr"/>
@@ -769,27 +769,27 @@
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>17:00 - 17:30</t>
+          <t>17:30 - 18:00</t>
         </is>
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="V2" t="inlineStr">
         <is>
-          <t>-1.3</t>
+          <t>-1.7</t>
         </is>
       </c>
       <c r="W2" t="inlineStr">
         <is>
-          <t>-1.6</t>
+          <t>-2.0</t>
         </is>
       </c>
       <c r="X2" t="inlineStr">
         <is>
-          <t>-1.1</t>
+          <t>-1.4</t>
         </is>
       </c>
       <c r="Y2" t="inlineStr"/>
@@ -800,27 +800,27 @@
       <c r="AD2" t="inlineStr"/>
       <c r="AE2" t="inlineStr">
         <is>
-          <t>17:00 - 17:30</t>
+          <t>17:30 - 18:00</t>
         </is>
       </c>
       <c r="AF2" t="inlineStr">
         <is>
-          <t>-1.3</t>
+          <t>-1.7</t>
         </is>
       </c>
       <c r="AG2" t="inlineStr">
         <is>
-          <t>-1.1</t>
+          <t>-1.4</t>
         </is>
       </c>
       <c r="AH2" t="inlineStr">
         <is>
-          <t>-1.6</t>
+          <t>-2.0</t>
         </is>
       </c>
       <c r="AI2" t="inlineStr">
         <is>
-          <t>90</t>
+          <t>91</t>
         </is>
       </c>
       <c r="AJ2" t="inlineStr">
@@ -830,37 +830,37 @@
       </c>
       <c r="AK2" t="inlineStr">
         <is>
-          <t>125</t>
+          <t>118</t>
         </is>
       </c>
       <c r="AL2" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AM2" t="inlineStr">
         <is>
-          <t>17:00 - 17:30</t>
+          <t>17:30 - 18:00</t>
         </is>
       </c>
       <c r="AN2" t="inlineStr">
         <is>
-          <t>-1.3</t>
+          <t>-1.7</t>
         </is>
       </c>
       <c r="AO2" t="inlineStr">
         <is>
-          <t>-1.1</t>
+          <t>-1.4</t>
         </is>
       </c>
       <c r="AP2" t="inlineStr">
         <is>
-          <t>-1.6</t>
+          <t>-2.0</t>
         </is>
       </c>
       <c r="AQ2" t="inlineStr">
         <is>
-          <t>90</t>
+          <t>91</t>
         </is>
       </c>
       <c r="AR2" t="inlineStr">
@@ -870,12 +870,12 @@
       </c>
       <c r="AS2" t="inlineStr">
         <is>
-          <t>125</t>
+          <t>118</t>
         </is>
       </c>
       <c r="AT2" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AU2" t="inlineStr"/>
@@ -924,7 +924,7 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>2026-02-04 17:59:49</t>
+          <t>2026-02-04 18:23:57</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
@@ -1121,7 +1121,7 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>2026-02-04 17:59:49</t>
+          <t>2026-02-04 18:23:57</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
@@ -1318,7 +1318,7 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>2026-02-04 17:59:49</t>
+          <t>2026-02-04 18:23:57</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
@@ -1515,7 +1515,7 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>2026-02-04 17:59:49</t>
+          <t>2026-02-04 18:23:57</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
@@ -1697,7 +1697,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>17:00 - 17:30</t>
+          <t>17:30 - 18:00</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -1712,17 +1712,17 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>2026-02-04 17:59:51</t>
+          <t>2026-02-04 18:24:00</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>17:00</t>
+          <t>17:30</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>https://www.meteo.cat/observacions/xema/dades?codi=Z1&amp;dia=2026-02-04T17:00Z</t>
+          <t>https://www.meteo.cat/observacions/xema/dades?codi=Z1&amp;dia=2026-02-04T17:30Z</t>
         </is>
       </c>
       <c r="K7" t="n">
@@ -1737,7 +1737,7 @@
       <c r="N7" t="inlineStr"/>
       <c r="O7" t="inlineStr">
         <is>
-          <t>225</t>
+          <t>210</t>
         </is>
       </c>
       <c r="P7" t="inlineStr">
@@ -1758,61 +1758,61 @@
       </c>
       <c r="T7" t="inlineStr">
         <is>
-          <t>17:00 - 17:30</t>
+          <t>17:30 - 18:00</t>
         </is>
       </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="V7" t="inlineStr">
         <is>
-          <t>-2.5</t>
+          <t>-2.6</t>
         </is>
       </c>
       <c r="W7" t="inlineStr">
         <is>
-          <t>-2.9</t>
+          <t>-3.1</t>
         </is>
       </c>
       <c r="X7" t="inlineStr">
         <is>
-          <t>-2.4</t>
+          <t>-2.3</t>
         </is>
       </c>
       <c r="Y7" t="inlineStr"/>
       <c r="Z7" t="inlineStr"/>
       <c r="AA7" t="inlineStr">
         <is>
-          <t>7.2</t>
+          <t>4.7</t>
         </is>
       </c>
       <c r="AB7" t="inlineStr"/>
       <c r="AC7" t="inlineStr"/>
       <c r="AD7" t="inlineStr">
         <is>
-          <t>12.2</t>
+          <t>10.1</t>
         </is>
       </c>
       <c r="AE7" t="inlineStr">
         <is>
-          <t>17:00 - 17:30</t>
+          <t>17:30 - 18:00</t>
         </is>
       </c>
       <c r="AF7" t="inlineStr">
         <is>
-          <t>-2.5</t>
+          <t>-2.6</t>
         </is>
       </c>
       <c r="AG7" t="inlineStr">
         <is>
-          <t>-2.4</t>
+          <t>-2.3</t>
         </is>
       </c>
       <c r="AH7" t="inlineStr">
         <is>
-          <t>-2.9</t>
+          <t>-3.1</t>
         </is>
       </c>
       <c r="AI7" t="inlineStr">
@@ -1832,27 +1832,27 @@
       </c>
       <c r="AL7" t="inlineStr">
         <is>
-          <t>7.2</t>
+          <t>4.7</t>
         </is>
       </c>
       <c r="AM7" t="inlineStr">
         <is>
-          <t>17:00 - 17:30</t>
+          <t>17:30 - 18:00</t>
         </is>
       </c>
       <c r="AN7" t="inlineStr">
         <is>
-          <t>-2.5</t>
+          <t>-2.6</t>
         </is>
       </c>
       <c r="AO7" t="inlineStr">
         <is>
-          <t>-2.4</t>
+          <t>-2.3</t>
         </is>
       </c>
       <c r="AP7" t="inlineStr">
         <is>
-          <t>-2.9</t>
+          <t>-3.1</t>
         </is>
       </c>
       <c r="AQ7" t="inlineStr">
@@ -1872,37 +1872,37 @@
       </c>
       <c r="AT7" t="inlineStr">
         <is>
-          <t>7.2</t>
+          <t>4.7</t>
         </is>
       </c>
       <c r="AU7" t="inlineStr">
         <is>
-          <t>225</t>
+          <t>210</t>
         </is>
       </c>
       <c r="AV7" t="inlineStr">
         <is>
-          <t>12.2</t>
+          <t>10.1</t>
         </is>
       </c>
       <c r="AW7" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AX7" t="inlineStr">
         <is>
-          <t>225</t>
+          <t>210</t>
         </is>
       </c>
       <c r="AY7" t="inlineStr">
         <is>
-          <t>12.2</t>
+          <t>10.1</t>
         </is>
       </c>
       <c r="AZ7" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="BA7" t="inlineStr"/>
@@ -1945,7 +1945,7 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>2026-02-04 17:59:53</t>
+          <t>2026-02-04 18:24:01</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
@@ -2178,7 +2178,7 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>2026-02-04 17:59:53</t>
+          <t>2026-02-04 18:24:01</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
@@ -2411,7 +2411,7 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>2026-02-04 17:59:53</t>
+          <t>2026-02-04 18:24:01</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
@@ -2644,7 +2644,7 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>2026-02-04 17:59:53</t>
+          <t>2026-02-04 18:24:01</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
@@ -2862,7 +2862,7 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>17:00 - 17:30</t>
+          <t>17:30 - 18:00</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
@@ -2877,17 +2877,17 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>2026-02-04 17:59:56</t>
+          <t>2026-02-04 18:24:04</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>17:00</t>
+          <t>17:30</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>https://www.meteo.cat/observacions/xema/dades?codi=DN&amp;dia=2026-02-04T17:00Z</t>
+          <t>https://www.meteo.cat/observacions/xema/dades?codi=DN&amp;dia=2026-02-04T17:30Z</t>
         </is>
       </c>
       <c r="K12" t="n">
@@ -2900,7 +2900,7 @@
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>298</t>
+          <t>300</t>
         </is>
       </c>
       <c r="N12" t="inlineStr"/>
@@ -2908,12 +2908,12 @@
       <c r="P12" t="inlineStr"/>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>65</t>
+          <t>60</t>
         </is>
       </c>
       <c r="R12" t="inlineStr">
         <is>
-          <t>990.8</t>
+          <t>991.1</t>
         </is>
       </c>
       <c r="S12" t="inlineStr">
@@ -2923,7 +2923,7 @@
       </c>
       <c r="T12" t="inlineStr">
         <is>
-          <t>17:00 - 17:30</t>
+          <t>17:30 - 18:00</t>
         </is>
       </c>
       <c r="U12" t="inlineStr">
@@ -2933,56 +2933,56 @@
       </c>
       <c r="V12" t="inlineStr">
         <is>
-          <t>10.1</t>
+          <t>11.2</t>
         </is>
       </c>
       <c r="W12" t="inlineStr">
         <is>
-          <t>9.6</t>
+          <t>10.6</t>
         </is>
       </c>
       <c r="X12" t="inlineStr">
         <is>
-          <t>10.6</t>
+          <t>11.5</t>
         </is>
       </c>
       <c r="Y12" t="inlineStr">
         <is>
-          <t>4.3</t>
+          <t>12.2</t>
         </is>
       </c>
       <c r="Z12" t="inlineStr"/>
       <c r="AA12" t="inlineStr"/>
       <c r="AB12" t="inlineStr">
         <is>
-          <t>14.4</t>
+          <t>28.4</t>
         </is>
       </c>
       <c r="AC12" t="inlineStr"/>
       <c r="AD12" t="inlineStr"/>
       <c r="AE12" t="inlineStr">
         <is>
-          <t>17:00 - 17:30</t>
+          <t>17:30 - 18:00</t>
         </is>
       </c>
       <c r="AF12" t="inlineStr">
         <is>
-          <t>10.1</t>
+          <t>11.2</t>
         </is>
       </c>
       <c r="AG12" t="inlineStr">
         <is>
+          <t>11.5</t>
+        </is>
+      </c>
+      <c r="AH12" t="inlineStr">
+        <is>
           <t>10.6</t>
         </is>
       </c>
-      <c r="AH12" t="inlineStr">
-        <is>
-          <t>9.6</t>
-        </is>
-      </c>
       <c r="AI12" t="inlineStr">
         <is>
-          <t>65</t>
+          <t>60</t>
         </is>
       </c>
       <c r="AJ12" t="inlineStr">
@@ -2992,37 +2992,37 @@
       </c>
       <c r="AK12" t="inlineStr">
         <is>
-          <t>4.3</t>
+          <t>12.2</t>
         </is>
       </c>
       <c r="AL12" t="inlineStr">
         <is>
-          <t>298</t>
+          <t>300</t>
         </is>
       </c>
       <c r="AM12" t="inlineStr">
         <is>
-          <t>17:00 - 17:30</t>
+          <t>17:30 - 18:00</t>
         </is>
       </c>
       <c r="AN12" t="inlineStr">
         <is>
-          <t>10.1</t>
+          <t>11.2</t>
         </is>
       </c>
       <c r="AO12" t="inlineStr">
         <is>
+          <t>11.5</t>
+        </is>
+      </c>
+      <c r="AP12" t="inlineStr">
+        <is>
           <t>10.6</t>
         </is>
       </c>
-      <c r="AP12" t="inlineStr">
-        <is>
-          <t>9.6</t>
-        </is>
-      </c>
       <c r="AQ12" t="inlineStr">
         <is>
-          <t>65</t>
+          <t>60</t>
         </is>
       </c>
       <c r="AR12" t="inlineStr">
@@ -3032,22 +3032,22 @@
       </c>
       <c r="AS12" t="inlineStr">
         <is>
-          <t>4.3</t>
+          <t>12.2</t>
         </is>
       </c>
       <c r="AT12" t="inlineStr">
         <is>
-          <t>298</t>
+          <t>300</t>
         </is>
       </c>
       <c r="AU12" t="inlineStr">
         <is>
-          <t>14.4</t>
+          <t>28.4</t>
         </is>
       </c>
       <c r="AV12" t="inlineStr">
         <is>
-          <t>990.8</t>
+          <t>991.1</t>
         </is>
       </c>
       <c r="AW12" t="inlineStr">
@@ -3057,12 +3057,12 @@
       </c>
       <c r="AX12" t="inlineStr">
         <is>
-          <t>14.4</t>
+          <t>28.4</t>
         </is>
       </c>
       <c r="AY12" t="inlineStr">
         <is>
-          <t>990.8</t>
+          <t>991.1</t>
         </is>
       </c>
       <c r="AZ12" t="inlineStr">
@@ -3110,7 +3110,7 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>2026-02-04 17:59:58</t>
+          <t>2026-02-04 18:24:06</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
@@ -3343,7 +3343,7 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>2026-02-04 17:59:58</t>
+          <t>2026-02-04 18:24:06</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
@@ -3576,7 +3576,7 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>2026-02-04 17:59:58</t>
+          <t>2026-02-04 18:24:06</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
@@ -3809,7 +3809,7 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>2026-02-04 17:59:58</t>
+          <t>2026-02-04 18:24:06</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
@@ -4027,7 +4027,7 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>17:00 - 17:30</t>
+          <t>17:30 - 18:00</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
@@ -4042,17 +4042,17 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>2026-02-04 18:00:01</t>
+          <t>2026-02-04 18:24:08</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>17:00</t>
+          <t>17:30</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>https://www.meteo.cat/observacions/xema/dades?codi=DJ&amp;dia=2026-02-04T17:00Z</t>
+          <t>https://www.meteo.cat/observacions/xema/dades?codi=DJ&amp;dia=2026-02-04T17:30Z</t>
         </is>
       </c>
       <c r="K17" t="n">
@@ -4065,7 +4065,7 @@
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>263</t>
+          <t>305</t>
         </is>
       </c>
       <c r="N17" t="inlineStr"/>
@@ -4073,12 +4073,12 @@
       <c r="P17" t="inlineStr"/>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>62</t>
+          <t>63</t>
         </is>
       </c>
       <c r="R17" t="inlineStr">
         <is>
-          <t>990.5</t>
+          <t>991.1</t>
         </is>
       </c>
       <c r="S17" t="inlineStr">
@@ -4088,7 +4088,7 @@
       </c>
       <c r="T17" t="inlineStr">
         <is>
-          <t>17:00 - 17:30</t>
+          <t>17:30 - 18:00</t>
         </is>
       </c>
       <c r="U17" t="inlineStr">
@@ -4098,56 +4098,56 @@
       </c>
       <c r="V17" t="inlineStr">
         <is>
-          <t>11.2</t>
+          <t>10.8</t>
         </is>
       </c>
       <c r="W17" t="inlineStr">
         <is>
-          <t>10.7</t>
+          <t>10.5</t>
         </is>
       </c>
       <c r="X17" t="inlineStr">
         <is>
-          <t>11.8</t>
+          <t>11.0</t>
         </is>
       </c>
       <c r="Y17" t="inlineStr">
         <is>
-          <t>3.6</t>
+          <t>5.0</t>
         </is>
       </c>
       <c r="Z17" t="inlineStr"/>
       <c r="AA17" t="inlineStr"/>
       <c r="AB17" t="inlineStr">
         <is>
-          <t>7.9</t>
+          <t>7.6</t>
         </is>
       </c>
       <c r="AC17" t="inlineStr"/>
       <c r="AD17" t="inlineStr"/>
       <c r="AE17" t="inlineStr">
         <is>
-          <t>17:00 - 17:30</t>
+          <t>17:30 - 18:00</t>
         </is>
       </c>
       <c r="AF17" t="inlineStr">
         <is>
-          <t>11.2</t>
+          <t>10.8</t>
         </is>
       </c>
       <c r="AG17" t="inlineStr">
         <is>
-          <t>11.8</t>
+          <t>11.0</t>
         </is>
       </c>
       <c r="AH17" t="inlineStr">
         <is>
-          <t>10.7</t>
+          <t>10.5</t>
         </is>
       </c>
       <c r="AI17" t="inlineStr">
         <is>
-          <t>62</t>
+          <t>63</t>
         </is>
       </c>
       <c r="AJ17" t="inlineStr">
@@ -4157,37 +4157,37 @@
       </c>
       <c r="AK17" t="inlineStr">
         <is>
-          <t>3.6</t>
+          <t>5.0</t>
         </is>
       </c>
       <c r="AL17" t="inlineStr">
         <is>
-          <t>263</t>
+          <t>305</t>
         </is>
       </c>
       <c r="AM17" t="inlineStr">
         <is>
-          <t>17:00 - 17:30</t>
+          <t>17:30 - 18:00</t>
         </is>
       </c>
       <c r="AN17" t="inlineStr">
         <is>
-          <t>11.2</t>
+          <t>10.8</t>
         </is>
       </c>
       <c r="AO17" t="inlineStr">
         <is>
-          <t>11.8</t>
+          <t>11.0</t>
         </is>
       </c>
       <c r="AP17" t="inlineStr">
         <is>
-          <t>10.7</t>
+          <t>10.5</t>
         </is>
       </c>
       <c r="AQ17" t="inlineStr">
         <is>
-          <t>62</t>
+          <t>63</t>
         </is>
       </c>
       <c r="AR17" t="inlineStr">
@@ -4197,22 +4197,22 @@
       </c>
       <c r="AS17" t="inlineStr">
         <is>
-          <t>3.6</t>
+          <t>5.0</t>
         </is>
       </c>
       <c r="AT17" t="inlineStr">
         <is>
-          <t>263</t>
+          <t>305</t>
         </is>
       </c>
       <c r="AU17" t="inlineStr">
         <is>
-          <t>7.9</t>
+          <t>7.6</t>
         </is>
       </c>
       <c r="AV17" t="inlineStr">
         <is>
-          <t>990.5</t>
+          <t>991.1</t>
         </is>
       </c>
       <c r="AW17" t="inlineStr">
@@ -4222,12 +4222,12 @@
       </c>
       <c r="AX17" t="inlineStr">
         <is>
-          <t>7.9</t>
+          <t>7.6</t>
         </is>
       </c>
       <c r="AY17" t="inlineStr">
         <is>
-          <t>990.5</t>
+          <t>991.1</t>
         </is>
       </c>
       <c r="AZ17" t="inlineStr">
@@ -4275,7 +4275,7 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>2026-02-04 18:00:02</t>
+          <t>2026-02-04 18:24:10</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
@@ -4508,7 +4508,7 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>2026-02-04 18:00:02</t>
+          <t>2026-02-04 18:24:10</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
@@ -4741,7 +4741,7 @@
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>2026-02-04 18:00:02</t>
+          <t>2026-02-04 18:24:10</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
@@ -4974,7 +4974,7 @@
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>2026-02-04 18:00:02</t>
+          <t>2026-02-04 18:24:10</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
@@ -5192,7 +5192,7 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>17:00 - 17:30</t>
+          <t>17:30 - 18:00</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
@@ -5207,7 +5207,7 @@
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>2026-02-04 18:00:05</t>
+          <t>2026-02-04 18:24:12</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
@@ -5230,7 +5230,7 @@
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>290</t>
+          <t>277</t>
         </is>
       </c>
       <c r="N22" t="inlineStr"/>
@@ -5238,12 +5238,12 @@
       <c r="P22" t="inlineStr"/>
       <c r="Q22" t="inlineStr">
         <is>
-          <t>52</t>
+          <t>53</t>
         </is>
       </c>
       <c r="R22" t="inlineStr">
         <is>
-          <t>992.2</t>
+          <t>992.4</t>
         </is>
       </c>
       <c r="S22" t="inlineStr">
@@ -5253,106 +5253,106 @@
       </c>
       <c r="T22" t="inlineStr">
         <is>
-          <t>17:00 - 17:30</t>
+          <t>17:30 - 18:00</t>
         </is>
       </c>
       <c r="U22" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="V22" t="inlineStr">
         <is>
-          <t>13.0</t>
+          <t>12.8</t>
         </is>
       </c>
       <c r="W22" t="inlineStr">
         <is>
+          <t>12.6</t>
+        </is>
+      </c>
+      <c r="X22" t="inlineStr">
+        <is>
           <t>12.9</t>
         </is>
       </c>
-      <c r="X22" t="inlineStr">
-        <is>
-          <t>13.1</t>
-        </is>
-      </c>
       <c r="Y22" t="inlineStr">
         <is>
-          <t>9.0</t>
+          <t>8.3</t>
         </is>
       </c>
       <c r="Z22" t="inlineStr"/>
       <c r="AA22" t="inlineStr"/>
       <c r="AB22" t="inlineStr">
         <is>
-          <t>19.1</t>
+          <t>19.8</t>
         </is>
       </c>
       <c r="AC22" t="inlineStr"/>
       <c r="AD22" t="inlineStr"/>
       <c r="AE22" t="inlineStr">
         <is>
-          <t>17:00 - 17:30</t>
+          <t>17:30 - 18:00</t>
         </is>
       </c>
       <c r="AF22" t="inlineStr">
         <is>
-          <t>13.0</t>
+          <t>12.8</t>
         </is>
       </c>
       <c r="AG22" t="inlineStr">
         <is>
-          <t>13.1</t>
+          <t>12.9</t>
         </is>
       </c>
       <c r="AH22" t="inlineStr">
         <is>
+          <t>12.6</t>
+        </is>
+      </c>
+      <c r="AI22" t="inlineStr">
+        <is>
+          <t>53</t>
+        </is>
+      </c>
+      <c r="AJ22" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="AK22" t="inlineStr">
+        <is>
+          <t>8.3</t>
+        </is>
+      </c>
+      <c r="AL22" t="inlineStr">
+        <is>
+          <t>277</t>
+        </is>
+      </c>
+      <c r="AM22" t="inlineStr">
+        <is>
+          <t>17:30 - 18:00</t>
+        </is>
+      </c>
+      <c r="AN22" t="inlineStr">
+        <is>
+          <t>12.8</t>
+        </is>
+      </c>
+      <c r="AO22" t="inlineStr">
+        <is>
           <t>12.9</t>
         </is>
       </c>
-      <c r="AI22" t="inlineStr">
-        <is>
-          <t>52</t>
-        </is>
-      </c>
-      <c r="AJ22" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="AK22" t="inlineStr">
-        <is>
-          <t>9.0</t>
-        </is>
-      </c>
-      <c r="AL22" t="inlineStr">
-        <is>
-          <t>290</t>
-        </is>
-      </c>
-      <c r="AM22" t="inlineStr">
-        <is>
-          <t>17:00 - 17:30</t>
-        </is>
-      </c>
-      <c r="AN22" t="inlineStr">
-        <is>
-          <t>13.0</t>
-        </is>
-      </c>
-      <c r="AO22" t="inlineStr">
-        <is>
-          <t>13.1</t>
-        </is>
-      </c>
       <c r="AP22" t="inlineStr">
         <is>
-          <t>12.9</t>
+          <t>12.6</t>
         </is>
       </c>
       <c r="AQ22" t="inlineStr">
         <is>
-          <t>52</t>
+          <t>53</t>
         </is>
       </c>
       <c r="AR22" t="inlineStr">
@@ -5362,42 +5362,42 @@
       </c>
       <c r="AS22" t="inlineStr">
         <is>
-          <t>9.0</t>
+          <t>8.3</t>
         </is>
       </c>
       <c r="AT22" t="inlineStr">
         <is>
-          <t>290</t>
+          <t>277</t>
         </is>
       </c>
       <c r="AU22" t="inlineStr">
         <is>
-          <t>19.1</t>
+          <t>19.8</t>
         </is>
       </c>
       <c r="AV22" t="inlineStr">
         <is>
-          <t>992.2</t>
+          <t>992.4</t>
         </is>
       </c>
       <c r="AW22" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AX22" t="inlineStr">
         <is>
-          <t>19.1</t>
+          <t>19.8</t>
         </is>
       </c>
       <c r="AY22" t="inlineStr">
         <is>
-          <t>992.2</t>
+          <t>992.4</t>
         </is>
       </c>
       <c r="AZ22" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="BA22" t="inlineStr"/>
@@ -5440,7 +5440,7 @@
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>2026-02-04 18:00:07</t>
+          <t>2026-02-04 18:24:14</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
@@ -5673,7 +5673,7 @@
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>2026-02-04 18:00:07</t>
+          <t>2026-02-04 18:24:14</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
@@ -5906,7 +5906,7 @@
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>2026-02-04 18:00:07</t>
+          <t>2026-02-04 18:24:14</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
@@ -6139,7 +6139,7 @@
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>2026-02-04 18:00:07</t>
+          <t>2026-02-04 18:24:14</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
@@ -6357,7 +6357,7 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>17:00 - 17:30</t>
+          <t>17:30 - 18:00</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
@@ -6372,7 +6372,7 @@
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>2026-02-04 18:00:10</t>
+          <t>2026-02-04 18:24:16</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
@@ -6395,7 +6395,7 @@
       </c>
       <c r="M27" t="inlineStr">
         <is>
-          <t>263</t>
+          <t>285</t>
         </is>
       </c>
       <c r="N27" t="inlineStr"/>
@@ -6403,12 +6403,12 @@
       <c r="P27" t="inlineStr"/>
       <c r="Q27" t="inlineStr">
         <is>
-          <t>69</t>
+          <t>71</t>
         </is>
       </c>
       <c r="R27" t="inlineStr">
         <is>
-          <t>991.9</t>
+          <t>992.3</t>
         </is>
       </c>
       <c r="S27" t="inlineStr">
@@ -6418,27 +6418,27 @@
       </c>
       <c r="T27" t="inlineStr">
         <is>
-          <t>17:00 - 17:30</t>
+          <t>17:30 - 18:00</t>
         </is>
       </c>
       <c r="U27" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="V27" t="inlineStr">
         <is>
-          <t>8.6</t>
+          <t>8.3</t>
         </is>
       </c>
       <c r="W27" t="inlineStr">
         <is>
+          <t>8.2</t>
+        </is>
+      </c>
+      <c r="X27" t="inlineStr">
+        <is>
           <t>8.3</t>
-        </is>
-      </c>
-      <c r="X27" t="inlineStr">
-        <is>
-          <t>8.9</t>
         </is>
       </c>
       <c r="Y27" t="inlineStr">
@@ -6450,119 +6450,119 @@
       <c r="AA27" t="inlineStr"/>
       <c r="AB27" t="inlineStr">
         <is>
-          <t>22.3</t>
+          <t>27.7</t>
         </is>
       </c>
       <c r="AC27" t="inlineStr"/>
       <c r="AD27" t="inlineStr"/>
       <c r="AE27" t="inlineStr">
         <is>
-          <t>17:00 - 17:30</t>
+          <t>17:30 - 18:00</t>
         </is>
       </c>
       <c r="AF27" t="inlineStr">
         <is>
-          <t>8.6</t>
+          <t>8.3</t>
         </is>
       </c>
       <c r="AG27" t="inlineStr">
         <is>
-          <t>8.9</t>
+          <t>8.3</t>
         </is>
       </c>
       <c r="AH27" t="inlineStr">
         <is>
+          <t>8.2</t>
+        </is>
+      </c>
+      <c r="AI27" t="inlineStr">
+        <is>
+          <t>71</t>
+        </is>
+      </c>
+      <c r="AJ27" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="AK27" t="inlineStr">
+        <is>
+          <t>1.8</t>
+        </is>
+      </c>
+      <c r="AL27" t="inlineStr">
+        <is>
+          <t>285</t>
+        </is>
+      </c>
+      <c r="AM27" t="inlineStr">
+        <is>
+          <t>17:30 - 18:00</t>
+        </is>
+      </c>
+      <c r="AN27" t="inlineStr">
+        <is>
           <t>8.3</t>
         </is>
       </c>
-      <c r="AI27" t="inlineStr">
-        <is>
-          <t>69</t>
-        </is>
-      </c>
-      <c r="AJ27" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="AK27" t="inlineStr">
+      <c r="AO27" t="inlineStr">
+        <is>
+          <t>8.3</t>
+        </is>
+      </c>
+      <c r="AP27" t="inlineStr">
+        <is>
+          <t>8.2</t>
+        </is>
+      </c>
+      <c r="AQ27" t="inlineStr">
+        <is>
+          <t>71</t>
+        </is>
+      </c>
+      <c r="AR27" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="AS27" t="inlineStr">
         <is>
           <t>1.8</t>
         </is>
       </c>
-      <c r="AL27" t="inlineStr">
-        <is>
-          <t>263</t>
-        </is>
-      </c>
-      <c r="AM27" t="inlineStr">
-        <is>
-          <t>17:00 - 17:30</t>
-        </is>
-      </c>
-      <c r="AN27" t="inlineStr">
-        <is>
-          <t>8.6</t>
-        </is>
-      </c>
-      <c r="AO27" t="inlineStr">
-        <is>
-          <t>8.9</t>
-        </is>
-      </c>
-      <c r="AP27" t="inlineStr">
-        <is>
-          <t>8.3</t>
-        </is>
-      </c>
-      <c r="AQ27" t="inlineStr">
-        <is>
-          <t>69</t>
-        </is>
-      </c>
-      <c r="AR27" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="AS27" t="inlineStr">
-        <is>
-          <t>1.8</t>
-        </is>
-      </c>
       <c r="AT27" t="inlineStr">
         <is>
-          <t>263</t>
+          <t>285</t>
         </is>
       </c>
       <c r="AU27" t="inlineStr">
         <is>
-          <t>22.3</t>
+          <t>27.7</t>
         </is>
       </c>
       <c r="AV27" t="inlineStr">
         <is>
-          <t>991.9</t>
+          <t>992.3</t>
         </is>
       </c>
       <c r="AW27" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AX27" t="inlineStr">
         <is>
-          <t>22.3</t>
+          <t>27.7</t>
         </is>
       </c>
       <c r="AY27" t="inlineStr">
         <is>
-          <t>991.9</t>
+          <t>992.3</t>
         </is>
       </c>
       <c r="AZ27" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="BA27" t="inlineStr"/>
@@ -6605,7 +6605,7 @@
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>2026-02-04 18:00:12</t>
+          <t>2026-02-04 18:24:18</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
@@ -6838,7 +6838,7 @@
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>2026-02-04 18:00:12</t>
+          <t>2026-02-04 18:24:18</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
@@ -7071,7 +7071,7 @@
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>2026-02-04 18:00:12</t>
+          <t>2026-02-04 18:24:18</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
@@ -7304,7 +7304,7 @@
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>2026-02-04 18:00:12</t>
+          <t>2026-02-04 18:24:18</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
@@ -7522,7 +7522,7 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>17:00 - 17:30</t>
+          <t>17:30 - 18:00</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
@@ -7537,7 +7537,7 @@
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>2026-02-04 18:00:14</t>
+          <t>2026-02-04 18:24:20</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
@@ -7568,7 +7568,7 @@
       <c r="P32" t="inlineStr"/>
       <c r="Q32" t="inlineStr">
         <is>
-          <t>89</t>
+          <t>93</t>
         </is>
       </c>
       <c r="R32" t="inlineStr"/>
@@ -7579,7 +7579,7 @@
       </c>
       <c r="T32" t="inlineStr">
         <is>
-          <t>17:00 - 17:30</t>
+          <t>17:30 - 18:00</t>
         </is>
       </c>
       <c r="U32" t="inlineStr">
@@ -7589,116 +7589,116 @@
       </c>
       <c r="V32" t="inlineStr">
         <is>
-          <t>7.4</t>
+          <t>5.9</t>
         </is>
       </c>
       <c r="W32" t="inlineStr">
         <is>
+          <t>5.4</t>
+        </is>
+      </c>
+      <c r="X32" t="inlineStr">
+        <is>
           <t>6.5</t>
-        </is>
-      </c>
-      <c r="X32" t="inlineStr">
-        <is>
-          <t>8.3</t>
         </is>
       </c>
       <c r="Y32" t="inlineStr"/>
       <c r="Z32" t="inlineStr">
         <is>
-          <t>1.8</t>
+          <t>2.2</t>
         </is>
       </c>
       <c r="AA32" t="inlineStr"/>
       <c r="AB32" t="inlineStr"/>
       <c r="AC32" t="inlineStr">
         <is>
-          <t>5.0</t>
+          <t>4.3</t>
         </is>
       </c>
       <c r="AD32" t="inlineStr"/>
       <c r="AE32" t="inlineStr">
         <is>
-          <t>17:00 - 17:30</t>
+          <t>17:30 - 18:00</t>
         </is>
       </c>
       <c r="AF32" t="inlineStr">
         <is>
-          <t>7.4</t>
+          <t>5.9</t>
         </is>
       </c>
       <c r="AG32" t="inlineStr">
         <is>
-          <t>8.3</t>
+          <t>6.5</t>
         </is>
       </c>
       <c r="AH32" t="inlineStr">
         <is>
+          <t>5.4</t>
+        </is>
+      </c>
+      <c r="AI32" t="inlineStr">
+        <is>
+          <t>93</t>
+        </is>
+      </c>
+      <c r="AJ32" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="AK32" t="inlineStr">
+        <is>
+          <t>2.2</t>
+        </is>
+      </c>
+      <c r="AL32" t="inlineStr">
+        <is>
+          <t>74</t>
+        </is>
+      </c>
+      <c r="AM32" t="inlineStr">
+        <is>
+          <t>17:30 - 18:00</t>
+        </is>
+      </c>
+      <c r="AN32" t="inlineStr">
+        <is>
+          <t>5.9</t>
+        </is>
+      </c>
+      <c r="AO32" t="inlineStr">
+        <is>
           <t>6.5</t>
         </is>
       </c>
-      <c r="AI32" t="inlineStr">
-        <is>
-          <t>89</t>
-        </is>
-      </c>
-      <c r="AJ32" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="AK32" t="inlineStr">
-        <is>
-          <t>1.8</t>
-        </is>
-      </c>
-      <c r="AL32" t="inlineStr">
+      <c r="AP32" t="inlineStr">
+        <is>
+          <t>5.4</t>
+        </is>
+      </c>
+      <c r="AQ32" t="inlineStr">
+        <is>
+          <t>93</t>
+        </is>
+      </c>
+      <c r="AR32" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="AS32" t="inlineStr">
+        <is>
+          <t>2.2</t>
+        </is>
+      </c>
+      <c r="AT32" t="inlineStr">
         <is>
           <t>74</t>
         </is>
       </c>
-      <c r="AM32" t="inlineStr">
-        <is>
-          <t>17:00 - 17:30</t>
-        </is>
-      </c>
-      <c r="AN32" t="inlineStr">
-        <is>
-          <t>7.4</t>
-        </is>
-      </c>
-      <c r="AO32" t="inlineStr">
-        <is>
-          <t>8.3</t>
-        </is>
-      </c>
-      <c r="AP32" t="inlineStr">
-        <is>
-          <t>6.5</t>
-        </is>
-      </c>
-      <c r="AQ32" t="inlineStr">
-        <is>
-          <t>89</t>
-        </is>
-      </c>
-      <c r="AR32" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="AS32" t="inlineStr">
-        <is>
-          <t>1.8</t>
-        </is>
-      </c>
-      <c r="AT32" t="inlineStr">
-        <is>
-          <t>74</t>
-        </is>
-      </c>
       <c r="AU32" t="inlineStr">
         <is>
-          <t>5.0</t>
+          <t>4.3</t>
         </is>
       </c>
       <c r="AV32" t="inlineStr">
@@ -7709,7 +7709,7 @@
       <c r="AW32" t="inlineStr"/>
       <c r="AX32" t="inlineStr">
         <is>
-          <t>5.0</t>
+          <t>4.3</t>
         </is>
       </c>
       <c r="AY32" t="inlineStr">
@@ -7758,7 +7758,7 @@
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>2026-02-04 18:00:16</t>
+          <t>2026-02-04 18:24:22</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
@@ -7979,7 +7979,7 @@
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>2026-02-04 18:00:16</t>
+          <t>2026-02-04 18:24:22</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
@@ -8200,7 +8200,7 @@
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>2026-02-04 18:00:16</t>
+          <t>2026-02-04 18:24:22</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
@@ -8421,7 +8421,7 @@
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>2026-02-04 18:00:16</t>
+          <t>2026-02-04 18:24:22</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
@@ -8627,7 +8627,7 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>17:00 - 17:30</t>
+          <t>17:30 - 18:00</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
@@ -8642,7 +8642,7 @@
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>2026-02-04 18:00:19</t>
+          <t>2026-02-04 18:24:24</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
@@ -8669,7 +8669,7 @@
       <c r="P37" t="inlineStr"/>
       <c r="Q37" t="inlineStr">
         <is>
-          <t>89</t>
+          <t>93</t>
         </is>
       </c>
       <c r="R37" t="inlineStr"/>
@@ -8680,23 +8680,23 @@
       </c>
       <c r="T37" t="inlineStr">
         <is>
-          <t>17:00 - 17:30</t>
+          <t>17:30 - 18:00</t>
         </is>
       </c>
       <c r="U37" t="inlineStr"/>
       <c r="V37" t="inlineStr">
         <is>
-          <t>3.9</t>
+          <t>3.0</t>
         </is>
       </c>
       <c r="W37" t="inlineStr">
         <is>
-          <t>3.4</t>
+          <t>2.5</t>
         </is>
       </c>
       <c r="X37" t="inlineStr">
         <is>
-          <t>4.2</t>
+          <t>3.5</t>
         </is>
       </c>
       <c r="Y37" t="inlineStr"/>
@@ -8707,27 +8707,27 @@
       <c r="AD37" t="inlineStr"/>
       <c r="AE37" t="inlineStr">
         <is>
-          <t>17:00 - 17:30</t>
+          <t>17:30 - 18:00</t>
         </is>
       </c>
       <c r="AF37" t="inlineStr">
         <is>
-          <t>3.9</t>
+          <t>3.0</t>
         </is>
       </c>
       <c r="AG37" t="inlineStr">
         <is>
-          <t>4.2</t>
+          <t>3.5</t>
         </is>
       </c>
       <c r="AH37" t="inlineStr">
         <is>
-          <t>3.4</t>
+          <t>2.5</t>
         </is>
       </c>
       <c r="AI37" t="inlineStr">
         <is>
-          <t>89</t>
+          <t>93</t>
         </is>
       </c>
       <c r="AJ37" t="inlineStr">
@@ -8739,27 +8739,27 @@
       <c r="AL37" t="inlineStr"/>
       <c r="AM37" t="inlineStr">
         <is>
-          <t>17:00 - 17:30</t>
+          <t>17:30 - 18:00</t>
         </is>
       </c>
       <c r="AN37" t="inlineStr">
         <is>
-          <t>3.9</t>
+          <t>3.0</t>
         </is>
       </c>
       <c r="AO37" t="inlineStr">
         <is>
-          <t>4.2</t>
+          <t>3.5</t>
         </is>
       </c>
       <c r="AP37" t="inlineStr">
         <is>
-          <t>3.4</t>
+          <t>2.5</t>
         </is>
       </c>
       <c r="AQ37" t="inlineStr">
         <is>
-          <t>89</t>
+          <t>93</t>
         </is>
       </c>
       <c r="AR37" t="inlineStr">
@@ -8815,7 +8815,7 @@
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>2026-02-04 18:00:20</t>
+          <t>2026-02-04 18:24:25</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
@@ -8988,7 +8988,7 @@
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>2026-02-04 18:00:20</t>
+          <t>2026-02-04 18:24:25</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
@@ -9161,7 +9161,7 @@
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>2026-02-04 18:00:20</t>
+          <t>2026-02-04 18:24:25</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
@@ -9334,7 +9334,7 @@
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>2026-02-04 18:00:20</t>
+          <t>2026-02-04 18:24:25</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
@@ -9492,7 +9492,7 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>17:00 - 17:30</t>
+          <t>17:30 - 18:00</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
@@ -9507,7 +9507,7 @@
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>2026-02-04 18:00:23</t>
+          <t>2026-02-04 18:24:27</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
@@ -9534,7 +9534,7 @@
       <c r="P42" t="inlineStr"/>
       <c r="Q42" t="inlineStr">
         <is>
-          <t>78</t>
+          <t>80</t>
         </is>
       </c>
       <c r="R42" t="inlineStr"/>
@@ -9545,23 +9545,23 @@
       </c>
       <c r="T42" t="inlineStr">
         <is>
-          <t>17:00 - 17:30</t>
+          <t>17:30 - 18:00</t>
         </is>
       </c>
       <c r="U42" t="inlineStr"/>
       <c r="V42" t="inlineStr">
         <is>
-          <t>10.7</t>
+          <t>9.8</t>
         </is>
       </c>
       <c r="W42" t="inlineStr">
         <is>
-          <t>9.8</t>
+          <t>9.3</t>
         </is>
       </c>
       <c r="X42" t="inlineStr">
         <is>
-          <t>11.1</t>
+          <t>10.1</t>
         </is>
       </c>
       <c r="Y42" t="inlineStr"/>
@@ -9572,27 +9572,27 @@
       <c r="AD42" t="inlineStr"/>
       <c r="AE42" t="inlineStr">
         <is>
-          <t>17:00 - 17:30</t>
+          <t>17:30 - 18:00</t>
         </is>
       </c>
       <c r="AF42" t="inlineStr">
         <is>
-          <t>10.7</t>
+          <t>9.8</t>
         </is>
       </c>
       <c r="AG42" t="inlineStr">
         <is>
-          <t>11.1</t>
+          <t>10.1</t>
         </is>
       </c>
       <c r="AH42" t="inlineStr">
         <is>
-          <t>9.8</t>
+          <t>9.3</t>
         </is>
       </c>
       <c r="AI42" t="inlineStr">
         <is>
-          <t>78</t>
+          <t>80</t>
         </is>
       </c>
       <c r="AJ42" t="inlineStr">
@@ -9604,27 +9604,27 @@
       <c r="AL42" t="inlineStr"/>
       <c r="AM42" t="inlineStr">
         <is>
-          <t>17:00 - 17:30</t>
+          <t>17:30 - 18:00</t>
         </is>
       </c>
       <c r="AN42" t="inlineStr">
         <is>
-          <t>10.7</t>
+          <t>9.8</t>
         </is>
       </c>
       <c r="AO42" t="inlineStr">
         <is>
-          <t>11.1</t>
+          <t>10.1</t>
         </is>
       </c>
       <c r="AP42" t="inlineStr">
         <is>
-          <t>9.8</t>
+          <t>9.3</t>
         </is>
       </c>
       <c r="AQ42" t="inlineStr">
         <is>
-          <t>78</t>
+          <t>80</t>
         </is>
       </c>
       <c r="AR42" t="inlineStr">
@@ -9680,7 +9680,7 @@
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>2026-02-04 18:00:24</t>
+          <t>2026-02-04 18:24:29</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
@@ -9853,7 +9853,7 @@
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>2026-02-04 18:00:24</t>
+          <t>2026-02-04 18:24:29</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
@@ -10026,7 +10026,7 @@
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>2026-02-04 18:00:24</t>
+          <t>2026-02-04 18:24:29</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
@@ -10199,7 +10199,7 @@
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>2026-02-04 18:00:24</t>
+          <t>2026-02-04 18:24:29</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
@@ -10357,7 +10357,7 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>17:00 - 17:30</t>
+          <t>17:30 - 18:00</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
@@ -10372,7 +10372,7 @@
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>2026-02-04 18:00:27</t>
+          <t>2026-02-04 18:24:31</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
@@ -10395,7 +10395,7 @@
       </c>
       <c r="M47" t="inlineStr">
         <is>
-          <t>192</t>
+          <t>202</t>
         </is>
       </c>
       <c r="N47" t="inlineStr"/>
@@ -10412,7 +10412,7 @@
       </c>
       <c r="R47" t="inlineStr">
         <is>
-          <t>992.5</t>
+          <t>993.1</t>
         </is>
       </c>
       <c r="S47" t="inlineStr">
@@ -10422,7 +10422,7 @@
       </c>
       <c r="T47" t="inlineStr">
         <is>
-          <t>17:00 - 17:30</t>
+          <t>17:30 - 18:00</t>
         </is>
       </c>
       <c r="U47" t="inlineStr">
@@ -10432,51 +10432,51 @@
       </c>
       <c r="V47" t="inlineStr">
         <is>
-          <t>3.8</t>
+          <t>3.3</t>
         </is>
       </c>
       <c r="W47" t="inlineStr">
         <is>
-          <t>3.1</t>
+          <t>2.8</t>
         </is>
       </c>
       <c r="X47" t="inlineStr">
         <is>
-          <t>4.3</t>
+          <t>3.5</t>
         </is>
       </c>
       <c r="Y47" t="inlineStr">
         <is>
-          <t>12.6</t>
+          <t>13.3</t>
         </is>
       </c>
       <c r="Z47" t="inlineStr"/>
       <c r="AA47" t="inlineStr"/>
       <c r="AB47" t="inlineStr">
         <is>
-          <t>19.4</t>
+          <t>19.8</t>
         </is>
       </c>
       <c r="AC47" t="inlineStr"/>
       <c r="AD47" t="inlineStr"/>
       <c r="AE47" t="inlineStr">
         <is>
-          <t>17:00 - 17:30</t>
+          <t>17:30 - 18:00</t>
         </is>
       </c>
       <c r="AF47" t="inlineStr">
         <is>
-          <t>3.8</t>
+          <t>3.3</t>
         </is>
       </c>
       <c r="AG47" t="inlineStr">
         <is>
-          <t>4.3</t>
+          <t>3.5</t>
         </is>
       </c>
       <c r="AH47" t="inlineStr">
         <is>
-          <t>3.1</t>
+          <t>2.8</t>
         </is>
       </c>
       <c r="AI47" t="inlineStr">
@@ -10496,27 +10496,27 @@
       </c>
       <c r="AL47" t="inlineStr">
         <is>
-          <t>12.6</t>
+          <t>13.3</t>
         </is>
       </c>
       <c r="AM47" t="inlineStr">
         <is>
-          <t>17:00 - 17:30</t>
+          <t>17:30 - 18:00</t>
         </is>
       </c>
       <c r="AN47" t="inlineStr">
         <is>
-          <t>3.8</t>
+          <t>3.3</t>
         </is>
       </c>
       <c r="AO47" t="inlineStr">
         <is>
-          <t>4.3</t>
+          <t>3.5</t>
         </is>
       </c>
       <c r="AP47" t="inlineStr">
         <is>
-          <t>3.1</t>
+          <t>2.8</t>
         </is>
       </c>
       <c r="AQ47" t="inlineStr">
@@ -10536,37 +10536,37 @@
       </c>
       <c r="AT47" t="inlineStr">
         <is>
-          <t>12.6</t>
+          <t>13.3</t>
         </is>
       </c>
       <c r="AU47" t="inlineStr">
         <is>
-          <t>192</t>
+          <t>202</t>
         </is>
       </c>
       <c r="AV47" t="inlineStr">
         <is>
-          <t>19.4</t>
+          <t>19.8</t>
         </is>
       </c>
       <c r="AW47" t="inlineStr">
         <is>
-          <t>992.5</t>
+          <t>993.1</t>
         </is>
       </c>
       <c r="AX47" t="inlineStr">
         <is>
-          <t>192</t>
+          <t>202</t>
         </is>
       </c>
       <c r="AY47" t="inlineStr">
         <is>
-          <t>19.4</t>
+          <t>19.8</t>
         </is>
       </c>
       <c r="AZ47" t="inlineStr">
         <is>
-          <t>992.5</t>
+          <t>993.1</t>
         </is>
       </c>
       <c r="BA47" t="inlineStr">
@@ -10613,7 +10613,7 @@
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>2026-02-04 18:00:29</t>
+          <t>2026-02-04 18:24:33</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
@@ -10854,7 +10854,7 @@
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>2026-02-04 18:00:29</t>
+          <t>2026-02-04 18:24:33</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
@@ -11095,7 +11095,7 @@
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>2026-02-04 18:00:29</t>
+          <t>2026-02-04 18:24:33</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
@@ -11336,7 +11336,7 @@
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>2026-02-04 18:00:29</t>
+          <t>2026-02-04 18:24:33</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
@@ -11562,7 +11562,7 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>17:00 - 17:30</t>
+          <t>17:30 - 18:00</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
@@ -11577,7 +11577,7 @@
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>2026-02-04 18:00:32</t>
+          <t>2026-02-04 18:24:35</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
@@ -11600,7 +11600,7 @@
       </c>
       <c r="M52" t="inlineStr">
         <is>
-          <t>293</t>
+          <t>280</t>
         </is>
       </c>
       <c r="N52" t="inlineStr"/>
@@ -11608,7 +11608,7 @@
       <c r="P52" t="inlineStr"/>
       <c r="Q52" t="inlineStr">
         <is>
-          <t>65</t>
+          <t>73</t>
         </is>
       </c>
       <c r="R52" t="inlineStr"/>
@@ -11619,106 +11619,106 @@
       </c>
       <c r="T52" t="inlineStr">
         <is>
-          <t>17:00 - 17:30</t>
+          <t>17:30 - 18:00</t>
         </is>
       </c>
       <c r="U52" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="V52" t="inlineStr">
         <is>
-          <t>10.6</t>
+          <t>9.0</t>
         </is>
       </c>
       <c r="W52" t="inlineStr">
         <is>
+          <t>7.8</t>
+        </is>
+      </c>
+      <c r="X52" t="inlineStr">
+        <is>
           <t>9.9</t>
         </is>
       </c>
-      <c r="X52" t="inlineStr">
-        <is>
-          <t>11.6</t>
-        </is>
-      </c>
       <c r="Y52" t="inlineStr">
         <is>
-          <t>7.2</t>
+          <t>5.0</t>
         </is>
       </c>
       <c r="Z52" t="inlineStr"/>
       <c r="AA52" t="inlineStr"/>
       <c r="AB52" t="inlineStr">
         <is>
-          <t>14.0</t>
+          <t>8.3</t>
         </is>
       </c>
       <c r="AC52" t="inlineStr"/>
       <c r="AD52" t="inlineStr"/>
       <c r="AE52" t="inlineStr">
         <is>
-          <t>17:00 - 17:30</t>
+          <t>17:30 - 18:00</t>
         </is>
       </c>
       <c r="AF52" t="inlineStr">
         <is>
-          <t>10.6</t>
+          <t>9.0</t>
         </is>
       </c>
       <c r="AG52" t="inlineStr">
         <is>
-          <t>11.6</t>
+          <t>9.9</t>
         </is>
       </c>
       <c r="AH52" t="inlineStr">
         <is>
+          <t>7.8</t>
+        </is>
+      </c>
+      <c r="AI52" t="inlineStr">
+        <is>
+          <t>73</t>
+        </is>
+      </c>
+      <c r="AJ52" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="AK52" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="AL52" t="inlineStr">
+        <is>
+          <t>280</t>
+        </is>
+      </c>
+      <c r="AM52" t="inlineStr">
+        <is>
+          <t>17:30 - 18:00</t>
+        </is>
+      </c>
+      <c r="AN52" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="AO52" t="inlineStr">
+        <is>
           <t>9.9</t>
         </is>
       </c>
-      <c r="AI52" t="inlineStr">
-        <is>
-          <t>65</t>
-        </is>
-      </c>
-      <c r="AJ52" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="AK52" t="inlineStr">
-        <is>
-          <t>7.2</t>
-        </is>
-      </c>
-      <c r="AL52" t="inlineStr">
-        <is>
-          <t>293</t>
-        </is>
-      </c>
-      <c r="AM52" t="inlineStr">
-        <is>
-          <t>17:00 - 17:30</t>
-        </is>
-      </c>
-      <c r="AN52" t="inlineStr">
-        <is>
-          <t>10.6</t>
-        </is>
-      </c>
-      <c r="AO52" t="inlineStr">
-        <is>
-          <t>11.6</t>
-        </is>
-      </c>
       <c r="AP52" t="inlineStr">
         <is>
-          <t>9.9</t>
+          <t>7.8</t>
         </is>
       </c>
       <c r="AQ52" t="inlineStr">
         <is>
-          <t>65</t>
+          <t>73</t>
         </is>
       </c>
       <c r="AR52" t="inlineStr">
@@ -11728,33 +11728,33 @@
       </c>
       <c r="AS52" t="inlineStr">
         <is>
-          <t>7.2</t>
+          <t>5.0</t>
         </is>
       </c>
       <c r="AT52" t="inlineStr">
         <is>
-          <t>293</t>
+          <t>280</t>
         </is>
       </c>
       <c r="AU52" t="inlineStr">
         <is>
-          <t>14.0</t>
+          <t>8.3</t>
         </is>
       </c>
       <c r="AV52" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AW52" t="inlineStr"/>
       <c r="AX52" t="inlineStr">
         <is>
-          <t>14.0</t>
+          <t>8.3</t>
         </is>
       </c>
       <c r="AY52" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AZ52" t="inlineStr"/>
@@ -11798,7 +11798,7 @@
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>2026-02-04 18:00:34</t>
+          <t>2026-02-04 18:24:37</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
@@ -12019,7 +12019,7 @@
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>2026-02-04 18:00:34</t>
+          <t>2026-02-04 18:24:37</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
@@ -12240,7 +12240,7 @@
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>2026-02-04 18:00:34</t>
+          <t>2026-02-04 18:24:37</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
@@ -12461,7 +12461,7 @@
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>2026-02-04 18:00:34</t>
+          <t>2026-02-04 18:24:37</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
@@ -12667,7 +12667,7 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>17:00 - 17:30</t>
+          <t>17:30 - 18:00</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
@@ -12682,7 +12682,7 @@
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>2026-02-04 18:00:36</t>
+          <t>2026-02-04 18:24:39</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
@@ -12709,7 +12709,7 @@
       <c r="P57" t="inlineStr"/>
       <c r="Q57" t="inlineStr">
         <is>
-          <t>75</t>
+          <t>83</t>
         </is>
       </c>
       <c r="R57" t="inlineStr"/>
@@ -12720,23 +12720,23 @@
       </c>
       <c r="T57" t="inlineStr">
         <is>
-          <t>17:00 - 17:30</t>
+          <t>17:30 - 18:00</t>
         </is>
       </c>
       <c r="U57" t="inlineStr"/>
       <c r="V57" t="inlineStr">
         <is>
-          <t>10.0</t>
+          <t>8.0</t>
         </is>
       </c>
       <c r="W57" t="inlineStr">
         <is>
-          <t>8.4</t>
+          <t>7.7</t>
         </is>
       </c>
       <c r="X57" t="inlineStr">
         <is>
-          <t>10.8</t>
+          <t>8.3</t>
         </is>
       </c>
       <c r="Y57" t="inlineStr"/>
@@ -12747,27 +12747,27 @@
       <c r="AD57" t="inlineStr"/>
       <c r="AE57" t="inlineStr">
         <is>
-          <t>17:00 - 17:30</t>
+          <t>17:30 - 18:00</t>
         </is>
       </c>
       <c r="AF57" t="inlineStr">
         <is>
-          <t>10.0</t>
+          <t>8.0</t>
         </is>
       </c>
       <c r="AG57" t="inlineStr">
         <is>
-          <t>10.8</t>
+          <t>8.3</t>
         </is>
       </c>
       <c r="AH57" t="inlineStr">
         <is>
-          <t>8.4</t>
+          <t>7.7</t>
         </is>
       </c>
       <c r="AI57" t="inlineStr">
         <is>
-          <t>75</t>
+          <t>83</t>
         </is>
       </c>
       <c r="AJ57" t="inlineStr">
@@ -12779,27 +12779,27 @@
       <c r="AL57" t="inlineStr"/>
       <c r="AM57" t="inlineStr">
         <is>
-          <t>17:00 - 17:30</t>
+          <t>17:30 - 18:00</t>
         </is>
       </c>
       <c r="AN57" t="inlineStr">
         <is>
-          <t>10.0</t>
+          <t>8.0</t>
         </is>
       </c>
       <c r="AO57" t="inlineStr">
         <is>
-          <t>10.8</t>
+          <t>8.3</t>
         </is>
       </c>
       <c r="AP57" t="inlineStr">
         <is>
-          <t>8.4</t>
+          <t>7.7</t>
         </is>
       </c>
       <c r="AQ57" t="inlineStr">
         <is>
-          <t>75</t>
+          <t>83</t>
         </is>
       </c>
       <c r="AR57" t="inlineStr">
@@ -12855,7 +12855,7 @@
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>2026-02-04 18:00:38</t>
+          <t>2026-02-04 18:24:41</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
@@ -13028,7 +13028,7 @@
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>2026-02-04 18:00:38</t>
+          <t>2026-02-04 18:24:41</t>
         </is>
       </c>
       <c r="I59" t="inlineStr">
@@ -13201,7 +13201,7 @@
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>2026-02-04 18:00:38</t>
+          <t>2026-02-04 18:24:41</t>
         </is>
       </c>
       <c r="I60" t="inlineStr">
@@ -13374,7 +13374,7 @@
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>2026-02-04 18:00:38</t>
+          <t>2026-02-04 18:24:41</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
@@ -13532,7 +13532,7 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>17:00 - 17:30</t>
+          <t>17:30 - 18:00</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
@@ -13547,7 +13547,7 @@
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>2026-02-04 18:00:41</t>
+          <t>2026-02-04 18:24:43</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
@@ -13570,7 +13570,7 @@
       </c>
       <c r="M62" t="inlineStr">
         <is>
-          <t>161</t>
+          <t>239</t>
         </is>
       </c>
       <c r="N62" t="inlineStr"/>
@@ -13593,22 +13593,22 @@
       </c>
       <c r="T62" t="inlineStr">
         <is>
-          <t>17:00 - 17:30</t>
+          <t>17:30 - 18:00</t>
         </is>
       </c>
       <c r="U62" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="V62" t="inlineStr">
         <is>
+          <t>-3.2</t>
+        </is>
+      </c>
+      <c r="W62" t="inlineStr">
+        <is>
           <t>-3.4</t>
-        </is>
-      </c>
-      <c r="W62" t="inlineStr">
-        <is>
-          <t>-3.7</t>
         </is>
       </c>
       <c r="X62" t="inlineStr">
@@ -13625,119 +13625,119 @@
       <c r="AA62" t="inlineStr"/>
       <c r="AB62" t="inlineStr">
         <is>
-          <t>23.0</t>
+          <t>14.8</t>
         </is>
       </c>
       <c r="AC62" t="inlineStr"/>
       <c r="AD62" t="inlineStr"/>
       <c r="AE62" t="inlineStr">
         <is>
-          <t>17:00 - 17:30</t>
+          <t>17:30 - 18:00</t>
         </is>
       </c>
       <c r="AF62" t="inlineStr">
         <is>
+          <t>-3.2</t>
+        </is>
+      </c>
+      <c r="AG62" t="inlineStr">
+        <is>
+          <t>-3.1</t>
+        </is>
+      </c>
+      <c r="AH62" t="inlineStr">
+        <is>
           <t>-3.4</t>
         </is>
       </c>
-      <c r="AG62" t="inlineStr">
+      <c r="AI62" t="inlineStr">
+        <is>
+          <t>67</t>
+        </is>
+      </c>
+      <c r="AJ62" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="AK62" t="inlineStr">
+        <is>
+          <t>68</t>
+        </is>
+      </c>
+      <c r="AL62" t="inlineStr">
+        <is>
+          <t>5.8</t>
+        </is>
+      </c>
+      <c r="AM62" t="inlineStr">
+        <is>
+          <t>17:30 - 18:00</t>
+        </is>
+      </c>
+      <c r="AN62" t="inlineStr">
+        <is>
+          <t>-3.2</t>
+        </is>
+      </c>
+      <c r="AO62" t="inlineStr">
         <is>
           <t>-3.1</t>
         </is>
       </c>
-      <c r="AH62" t="inlineStr">
-        <is>
-          <t>-3.7</t>
-        </is>
-      </c>
-      <c r="AI62" t="inlineStr">
+      <c r="AP62" t="inlineStr">
+        <is>
+          <t>-3.4</t>
+        </is>
+      </c>
+      <c r="AQ62" t="inlineStr">
         <is>
           <t>67</t>
         </is>
       </c>
-      <c r="AJ62" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="AK62" t="inlineStr">
+      <c r="AR62" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="AS62" t="inlineStr">
         <is>
           <t>68</t>
         </is>
       </c>
-      <c r="AL62" t="inlineStr">
+      <c r="AT62" t="inlineStr">
         <is>
           <t>5.8</t>
         </is>
       </c>
-      <c r="AM62" t="inlineStr">
-        <is>
-          <t>17:00 - 17:30</t>
-        </is>
-      </c>
-      <c r="AN62" t="inlineStr">
-        <is>
-          <t>-3.4</t>
-        </is>
-      </c>
-      <c r="AO62" t="inlineStr">
-        <is>
-          <t>-3.1</t>
-        </is>
-      </c>
-      <c r="AP62" t="inlineStr">
-        <is>
-          <t>-3.7</t>
-        </is>
-      </c>
-      <c r="AQ62" t="inlineStr">
-        <is>
-          <t>67</t>
-        </is>
-      </c>
-      <c r="AR62" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="AS62" t="inlineStr">
-        <is>
-          <t>68</t>
-        </is>
-      </c>
-      <c r="AT62" t="inlineStr">
-        <is>
-          <t>5.8</t>
-        </is>
-      </c>
       <c r="AU62" t="inlineStr">
         <is>
-          <t>161</t>
+          <t>239</t>
         </is>
       </c>
       <c r="AV62" t="inlineStr">
         <is>
-          <t>23.0</t>
+          <t>14.8</t>
         </is>
       </c>
       <c r="AW62" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AX62" t="inlineStr">
         <is>
-          <t>161</t>
+          <t>239</t>
         </is>
       </c>
       <c r="AY62" t="inlineStr">
         <is>
-          <t>23.0</t>
+          <t>14.8</t>
         </is>
       </c>
       <c r="AZ62" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="BA62" t="inlineStr"/>
@@ -13780,7 +13780,7 @@
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>2026-02-04 18:00:42</t>
+          <t>2026-02-04 18:24:45</t>
         </is>
       </c>
       <c r="I63" t="inlineStr">
@@ -14013,7 +14013,7 @@
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>2026-02-04 18:00:42</t>
+          <t>2026-02-04 18:24:45</t>
         </is>
       </c>
       <c r="I64" t="inlineStr">
@@ -14246,7 +14246,7 @@
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>2026-02-04 18:00:42</t>
+          <t>2026-02-04 18:24:45</t>
         </is>
       </c>
       <c r="I65" t="inlineStr">
@@ -14479,7 +14479,7 @@
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>2026-02-04 18:00:42</t>
+          <t>2026-02-04 18:24:45</t>
         </is>
       </c>
       <c r="I66" t="inlineStr">
@@ -14697,7 +14697,7 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>17:00 - 17:30</t>
+          <t>17:30 - 18:00</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
@@ -14712,7 +14712,7 @@
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>2026-02-04 18:00:45</t>
+          <t>2026-02-04 18:24:47</t>
         </is>
       </c>
       <c r="I67" t="inlineStr">
@@ -14735,7 +14735,7 @@
       </c>
       <c r="M67" t="inlineStr">
         <is>
-          <t>243</t>
+          <t>247</t>
         </is>
       </c>
       <c r="N67" t="inlineStr"/>
@@ -14743,12 +14743,12 @@
       <c r="P67" t="inlineStr"/>
       <c r="Q67" t="inlineStr">
         <is>
-          <t>61</t>
+          <t>68</t>
         </is>
       </c>
       <c r="R67" t="inlineStr">
         <is>
-          <t>990.9</t>
+          <t>991.4</t>
         </is>
       </c>
       <c r="S67" t="inlineStr">
@@ -14758,7 +14758,7 @@
       </c>
       <c r="T67" t="inlineStr">
         <is>
-          <t>17:00 - 17:30</t>
+          <t>17:30 - 18:00</t>
         </is>
       </c>
       <c r="U67" t="inlineStr">
@@ -14768,96 +14768,96 @@
       </c>
       <c r="V67" t="inlineStr">
         <is>
-          <t>11.2</t>
+          <t>9.6</t>
         </is>
       </c>
       <c r="W67" t="inlineStr">
         <is>
+          <t>8.2</t>
+        </is>
+      </c>
+      <c r="X67" t="inlineStr">
+        <is>
           <t>10.6</t>
         </is>
       </c>
-      <c r="X67" t="inlineStr">
-        <is>
-          <t>11.8</t>
-        </is>
-      </c>
       <c r="Y67" t="inlineStr">
         <is>
-          <t>5.4</t>
+          <t>3.6</t>
         </is>
       </c>
       <c r="Z67" t="inlineStr"/>
       <c r="AA67" t="inlineStr"/>
       <c r="AB67" t="inlineStr">
         <is>
-          <t>9.4</t>
+          <t>9.0</t>
         </is>
       </c>
       <c r="AC67" t="inlineStr"/>
       <c r="AD67" t="inlineStr"/>
       <c r="AE67" t="inlineStr">
         <is>
-          <t>17:00 - 17:30</t>
+          <t>17:30 - 18:00</t>
         </is>
       </c>
       <c r="AF67" t="inlineStr">
         <is>
-          <t>11.2</t>
+          <t>9.6</t>
         </is>
       </c>
       <c r="AG67" t="inlineStr">
         <is>
-          <t>11.8</t>
+          <t>10.6</t>
         </is>
       </c>
       <c r="AH67" t="inlineStr">
         <is>
+          <t>8.2</t>
+        </is>
+      </c>
+      <c r="AI67" t="inlineStr">
+        <is>
+          <t>68</t>
+        </is>
+      </c>
+      <c r="AJ67" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="AK67" t="inlineStr">
+        <is>
+          <t>3.6</t>
+        </is>
+      </c>
+      <c r="AL67" t="inlineStr">
+        <is>
+          <t>247</t>
+        </is>
+      </c>
+      <c r="AM67" t="inlineStr">
+        <is>
+          <t>17:30 - 18:00</t>
+        </is>
+      </c>
+      <c r="AN67" t="inlineStr">
+        <is>
+          <t>9.6</t>
+        </is>
+      </c>
+      <c r="AO67" t="inlineStr">
+        <is>
           <t>10.6</t>
         </is>
       </c>
-      <c r="AI67" t="inlineStr">
-        <is>
-          <t>61</t>
-        </is>
-      </c>
-      <c r="AJ67" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="AK67" t="inlineStr">
-        <is>
-          <t>5.4</t>
-        </is>
-      </c>
-      <c r="AL67" t="inlineStr">
-        <is>
-          <t>243</t>
-        </is>
-      </c>
-      <c r="AM67" t="inlineStr">
-        <is>
-          <t>17:00 - 17:30</t>
-        </is>
-      </c>
-      <c r="AN67" t="inlineStr">
-        <is>
-          <t>11.2</t>
-        </is>
-      </c>
-      <c r="AO67" t="inlineStr">
-        <is>
-          <t>11.8</t>
-        </is>
-      </c>
       <c r="AP67" t="inlineStr">
         <is>
-          <t>10.6</t>
+          <t>8.2</t>
         </is>
       </c>
       <c r="AQ67" t="inlineStr">
         <is>
-          <t>61</t>
+          <t>68</t>
         </is>
       </c>
       <c r="AR67" t="inlineStr">
@@ -14867,22 +14867,22 @@
       </c>
       <c r="AS67" t="inlineStr">
         <is>
-          <t>5.4</t>
+          <t>3.6</t>
         </is>
       </c>
       <c r="AT67" t="inlineStr">
         <is>
-          <t>243</t>
+          <t>247</t>
         </is>
       </c>
       <c r="AU67" t="inlineStr">
         <is>
-          <t>9.4</t>
+          <t>9.0</t>
         </is>
       </c>
       <c r="AV67" t="inlineStr">
         <is>
-          <t>990.9</t>
+          <t>991.4</t>
         </is>
       </c>
       <c r="AW67" t="inlineStr">
@@ -14892,12 +14892,12 @@
       </c>
       <c r="AX67" t="inlineStr">
         <is>
-          <t>9.4</t>
+          <t>9.0</t>
         </is>
       </c>
       <c r="AY67" t="inlineStr">
         <is>
-          <t>990.9</t>
+          <t>991.4</t>
         </is>
       </c>
       <c r="AZ67" t="inlineStr">
@@ -14945,7 +14945,7 @@
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>2026-02-04 18:00:47</t>
+          <t>2026-02-04 18:24:48</t>
         </is>
       </c>
       <c r="I68" t="inlineStr">
@@ -15178,7 +15178,7 @@
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>2026-02-04 18:00:47</t>
+          <t>2026-02-04 18:24:48</t>
         </is>
       </c>
       <c r="I69" t="inlineStr">
@@ -15411,7 +15411,7 @@
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>2026-02-04 18:00:47</t>
+          <t>2026-02-04 18:24:48</t>
         </is>
       </c>
       <c r="I70" t="inlineStr">
@@ -15644,7 +15644,7 @@
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>2026-02-04 18:00:47</t>
+          <t>2026-02-04 18:24:48</t>
         </is>
       </c>
       <c r="I71" t="inlineStr">
@@ -15862,7 +15862,7 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>17:00 - 17:30</t>
+          <t>17:30 - 18:00</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
@@ -15877,7 +15877,7 @@
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>2026-02-04 18:00:50</t>
+          <t>2026-02-04 18:24:51</t>
         </is>
       </c>
       <c r="I72" t="inlineStr">
@@ -15900,7 +15900,7 @@
       </c>
       <c r="M72" t="inlineStr">
         <is>
-          <t>242</t>
+          <t>259</t>
         </is>
       </c>
       <c r="N72" t="inlineStr"/>
@@ -15908,7 +15908,7 @@
       <c r="P72" t="inlineStr"/>
       <c r="Q72" t="inlineStr">
         <is>
-          <t>86</t>
+          <t>89</t>
         </is>
       </c>
       <c r="R72" t="inlineStr"/>
@@ -15919,106 +15919,106 @@
       </c>
       <c r="T72" t="inlineStr">
         <is>
-          <t>17:00 - 17:30</t>
+          <t>17:30 - 18:00</t>
         </is>
       </c>
       <c r="U72" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="V72" t="inlineStr">
         <is>
-          <t>4.3</t>
+          <t>3.8</t>
         </is>
       </c>
       <c r="W72" t="inlineStr">
         <is>
+          <t>3.3</t>
+        </is>
+      </c>
+      <c r="X72" t="inlineStr">
+        <is>
           <t>4.2</t>
         </is>
       </c>
-      <c r="X72" t="inlineStr">
-        <is>
-          <t>4.6</t>
-        </is>
-      </c>
       <c r="Y72" t="inlineStr">
         <is>
-          <t>7.9</t>
+          <t>5.4</t>
         </is>
       </c>
       <c r="Z72" t="inlineStr"/>
       <c r="AA72" t="inlineStr"/>
       <c r="AB72" t="inlineStr">
         <is>
-          <t>13.7</t>
+          <t>14.0</t>
         </is>
       </c>
       <c r="AC72" t="inlineStr"/>
       <c r="AD72" t="inlineStr"/>
       <c r="AE72" t="inlineStr">
         <is>
-          <t>17:00 - 17:30</t>
+          <t>17:30 - 18:00</t>
         </is>
       </c>
       <c r="AF72" t="inlineStr">
         <is>
-          <t>4.3</t>
+          <t>3.8</t>
         </is>
       </c>
       <c r="AG72" t="inlineStr">
         <is>
-          <t>4.6</t>
+          <t>4.2</t>
         </is>
       </c>
       <c r="AH72" t="inlineStr">
         <is>
+          <t>3.3</t>
+        </is>
+      </c>
+      <c r="AI72" t="inlineStr">
+        <is>
+          <t>89</t>
+        </is>
+      </c>
+      <c r="AJ72" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="AK72" t="inlineStr">
+        <is>
+          <t>5.4</t>
+        </is>
+      </c>
+      <c r="AL72" t="inlineStr">
+        <is>
+          <t>259</t>
+        </is>
+      </c>
+      <c r="AM72" t="inlineStr">
+        <is>
+          <t>17:30 - 18:00</t>
+        </is>
+      </c>
+      <c r="AN72" t="inlineStr">
+        <is>
+          <t>3.8</t>
+        </is>
+      </c>
+      <c r="AO72" t="inlineStr">
+        <is>
           <t>4.2</t>
         </is>
       </c>
-      <c r="AI72" t="inlineStr">
-        <is>
-          <t>86</t>
-        </is>
-      </c>
-      <c r="AJ72" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="AK72" t="inlineStr">
-        <is>
-          <t>7.9</t>
-        </is>
-      </c>
-      <c r="AL72" t="inlineStr">
-        <is>
-          <t>242</t>
-        </is>
-      </c>
-      <c r="AM72" t="inlineStr">
-        <is>
-          <t>17:00 - 17:30</t>
-        </is>
-      </c>
-      <c r="AN72" t="inlineStr">
-        <is>
-          <t>4.3</t>
-        </is>
-      </c>
-      <c r="AO72" t="inlineStr">
-        <is>
-          <t>4.6</t>
-        </is>
-      </c>
       <c r="AP72" t="inlineStr">
         <is>
-          <t>4.2</t>
+          <t>3.3</t>
         </is>
       </c>
       <c r="AQ72" t="inlineStr">
         <is>
-          <t>86</t>
+          <t>89</t>
         </is>
       </c>
       <c r="AR72" t="inlineStr">
@@ -16028,33 +16028,33 @@
       </c>
       <c r="AS72" t="inlineStr">
         <is>
-          <t>7.9</t>
+          <t>5.4</t>
         </is>
       </c>
       <c r="AT72" t="inlineStr">
         <is>
-          <t>242</t>
+          <t>259</t>
         </is>
       </c>
       <c r="AU72" t="inlineStr">
         <is>
-          <t>13.7</t>
+          <t>14.0</t>
         </is>
       </c>
       <c r="AV72" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AW72" t="inlineStr"/>
       <c r="AX72" t="inlineStr">
         <is>
-          <t>13.7</t>
+          <t>14.0</t>
         </is>
       </c>
       <c r="AY72" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AZ72" t="inlineStr"/>
@@ -16098,7 +16098,7 @@
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>2026-02-04 18:00:52</t>
+          <t>2026-02-04 18:24:52</t>
         </is>
       </c>
       <c r="I73" t="inlineStr">
@@ -16319,7 +16319,7 @@
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>2026-02-04 18:00:52</t>
+          <t>2026-02-04 18:24:52</t>
         </is>
       </c>
       <c r="I74" t="inlineStr">
@@ -16540,7 +16540,7 @@
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>2026-02-04 18:00:52</t>
+          <t>2026-02-04 18:24:52</t>
         </is>
       </c>
       <c r="I75" t="inlineStr">
@@ -16761,7 +16761,7 @@
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>2026-02-04 18:00:52</t>
+          <t>2026-02-04 18:24:52</t>
         </is>
       </c>
       <c r="I76" t="inlineStr">
@@ -16967,7 +16967,7 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>17:00 - 17:30</t>
+          <t>17:30 - 18:00</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
@@ -16982,7 +16982,7 @@
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>2026-02-04 18:00:55</t>
+          <t>2026-02-04 18:24:55</t>
         </is>
       </c>
       <c r="I77" t="inlineStr">
@@ -17005,7 +17005,7 @@
       </c>
       <c r="M77" t="inlineStr">
         <is>
-          <t>310</t>
+          <t>105</t>
         </is>
       </c>
       <c r="N77" t="inlineStr"/>
@@ -17013,12 +17013,12 @@
       <c r="P77" t="inlineStr"/>
       <c r="Q77" t="inlineStr">
         <is>
-          <t>75</t>
+          <t>76</t>
         </is>
       </c>
       <c r="R77" t="inlineStr">
         <is>
-          <t>992.5</t>
+          <t>992.9</t>
         </is>
       </c>
       <c r="S77" t="inlineStr">
@@ -17028,66 +17028,66 @@
       </c>
       <c r="T77" t="inlineStr">
         <is>
-          <t>17:00 - 17:30</t>
+          <t>17:30 - 18:00</t>
         </is>
       </c>
       <c r="U77" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="V77" t="inlineStr">
         <is>
-          <t>5.7</t>
+          <t>5.4</t>
         </is>
       </c>
       <c r="W77" t="inlineStr">
         <is>
-          <t>5.3</t>
+          <t>4.9</t>
         </is>
       </c>
       <c r="X77" t="inlineStr">
         <is>
-          <t>6.2</t>
+          <t>5.6</t>
         </is>
       </c>
       <c r="Y77" t="inlineStr">
         <is>
-          <t>4.7</t>
+          <t>4.0</t>
         </is>
       </c>
       <c r="Z77" t="inlineStr"/>
       <c r="AA77" t="inlineStr"/>
       <c r="AB77" t="inlineStr">
         <is>
-          <t>10.4</t>
+          <t>7.2</t>
         </is>
       </c>
       <c r="AC77" t="inlineStr"/>
       <c r="AD77" t="inlineStr"/>
       <c r="AE77" t="inlineStr">
         <is>
-          <t>17:00 - 17:30</t>
+          <t>17:30 - 18:00</t>
         </is>
       </c>
       <c r="AF77" t="inlineStr">
         <is>
-          <t>5.7</t>
+          <t>5.4</t>
         </is>
       </c>
       <c r="AG77" t="inlineStr">
         <is>
-          <t>6.2</t>
+          <t>5.6</t>
         </is>
       </c>
       <c r="AH77" t="inlineStr">
         <is>
-          <t>5.3</t>
+          <t>4.9</t>
         </is>
       </c>
       <c r="AI77" t="inlineStr">
         <is>
-          <t>75</t>
+          <t>76</t>
         </is>
       </c>
       <c r="AJ77" t="inlineStr">
@@ -17097,37 +17097,37 @@
       </c>
       <c r="AK77" t="inlineStr">
         <is>
-          <t>4.7</t>
+          <t>4.0</t>
         </is>
       </c>
       <c r="AL77" t="inlineStr">
         <is>
-          <t>310</t>
+          <t>105</t>
         </is>
       </c>
       <c r="AM77" t="inlineStr">
         <is>
-          <t>17:00 - 17:30</t>
+          <t>17:30 - 18:00</t>
         </is>
       </c>
       <c r="AN77" t="inlineStr">
         <is>
-          <t>5.7</t>
+          <t>5.4</t>
         </is>
       </c>
       <c r="AO77" t="inlineStr">
         <is>
-          <t>6.2</t>
+          <t>5.6</t>
         </is>
       </c>
       <c r="AP77" t="inlineStr">
         <is>
-          <t>5.3</t>
+          <t>4.9</t>
         </is>
       </c>
       <c r="AQ77" t="inlineStr">
         <is>
-          <t>75</t>
+          <t>76</t>
         </is>
       </c>
       <c r="AR77" t="inlineStr">
@@ -17137,42 +17137,42 @@
       </c>
       <c r="AS77" t="inlineStr">
         <is>
-          <t>4.7</t>
+          <t>4.0</t>
         </is>
       </c>
       <c r="AT77" t="inlineStr">
         <is>
-          <t>310</t>
+          <t>105</t>
         </is>
       </c>
       <c r="AU77" t="inlineStr">
         <is>
-          <t>10.4</t>
+          <t>7.2</t>
         </is>
       </c>
       <c r="AV77" t="inlineStr">
         <is>
-          <t>992.5</t>
+          <t>992.9</t>
         </is>
       </c>
       <c r="AW77" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AX77" t="inlineStr">
         <is>
-          <t>10.4</t>
+          <t>7.2</t>
         </is>
       </c>
       <c r="AY77" t="inlineStr">
         <is>
-          <t>992.5</t>
+          <t>992.9</t>
         </is>
       </c>
       <c r="AZ77" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="BA77" t="inlineStr"/>
@@ -17215,7 +17215,7 @@
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>2026-02-04 18:00:56</t>
+          <t>2026-02-04 18:24:57</t>
         </is>
       </c>
       <c r="I78" t="inlineStr">
@@ -17448,7 +17448,7 @@
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>2026-02-04 18:00:56</t>
+          <t>2026-02-04 18:24:57</t>
         </is>
       </c>
       <c r="I79" t="inlineStr">
@@ -17681,7 +17681,7 @@
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>2026-02-04 18:00:56</t>
+          <t>2026-02-04 18:24:57</t>
         </is>
       </c>
       <c r="I80" t="inlineStr">
@@ -17914,7 +17914,7 @@
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>2026-02-04 18:00:56</t>
+          <t>2026-02-04 18:24:57</t>
         </is>
       </c>
       <c r="I81" t="inlineStr">
@@ -18132,7 +18132,7 @@
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>17:00 - 17:30</t>
+          <t>17:30 - 18:00</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
@@ -18147,7 +18147,7 @@
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>2026-02-04 18:00:59</t>
+          <t>2026-02-04 18:24:59</t>
         </is>
       </c>
       <c r="I82" t="inlineStr">
@@ -18172,12 +18172,12 @@
       <c r="N82" t="inlineStr"/>
       <c r="O82" t="inlineStr">
         <is>
-          <t>304</t>
+          <t>295</t>
         </is>
       </c>
       <c r="P82" t="inlineStr">
         <is>
-          <t>112</t>
+          <t>113</t>
         </is>
       </c>
       <c r="Q82" t="inlineStr">
@@ -18193,63 +18193,63 @@
       </c>
       <c r="T82" t="inlineStr">
         <is>
-          <t>17:00 - 17:30</t>
+          <t>17:30 - 18:00</t>
         </is>
       </c>
       <c r="U82" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="V82" t="inlineStr">
         <is>
+          <t>-5.7</t>
+        </is>
+      </c>
+      <c r="W82" t="inlineStr">
+        <is>
           <t>-5.8</t>
         </is>
       </c>
-      <c r="W82" t="inlineStr">
-        <is>
-          <t>-5.9</t>
-        </is>
-      </c>
       <c r="X82" t="inlineStr">
         <is>
-          <t>-5.6</t>
+          <t>-5.5</t>
         </is>
       </c>
       <c r="Y82" t="inlineStr"/>
       <c r="Z82" t="inlineStr"/>
       <c r="AA82" t="inlineStr">
         <is>
-          <t>5.0</t>
+          <t>5.8</t>
         </is>
       </c>
       <c r="AB82" t="inlineStr"/>
       <c r="AC82" t="inlineStr"/>
       <c r="AD82" t="inlineStr">
         <is>
-          <t>7.9</t>
+          <t>7.6</t>
         </is>
       </c>
       <c r="AE82" t="inlineStr">
         <is>
-          <t>17:00 - 17:30</t>
+          <t>17:30 - 18:00</t>
         </is>
       </c>
       <c r="AF82" t="inlineStr">
         <is>
+          <t>-5.7</t>
+        </is>
+      </c>
+      <c r="AG82" t="inlineStr">
+        <is>
+          <t>-5.5</t>
+        </is>
+      </c>
+      <c r="AH82" t="inlineStr">
+        <is>
           <t>-5.8</t>
         </is>
       </c>
-      <c r="AG82" t="inlineStr">
-        <is>
-          <t>-5.6</t>
-        </is>
-      </c>
-      <c r="AH82" t="inlineStr">
-        <is>
-          <t>-5.9</t>
-        </is>
-      </c>
       <c r="AI82" t="inlineStr">
         <is>
           <t>95</t>
@@ -18262,34 +18262,34 @@
       </c>
       <c r="AK82" t="inlineStr">
         <is>
-          <t>112</t>
+          <t>113</t>
         </is>
       </c>
       <c r="AL82" t="inlineStr">
         <is>
-          <t>5.0</t>
+          <t>5.8</t>
         </is>
       </c>
       <c r="AM82" t="inlineStr">
         <is>
-          <t>17:00 - 17:30</t>
+          <t>17:30 - 18:00</t>
         </is>
       </c>
       <c r="AN82" t="inlineStr">
         <is>
+          <t>-5.7</t>
+        </is>
+      </c>
+      <c r="AO82" t="inlineStr">
+        <is>
+          <t>-5.5</t>
+        </is>
+      </c>
+      <c r="AP82" t="inlineStr">
+        <is>
           <t>-5.8</t>
         </is>
       </c>
-      <c r="AO82" t="inlineStr">
-        <is>
-          <t>-5.6</t>
-        </is>
-      </c>
-      <c r="AP82" t="inlineStr">
-        <is>
-          <t>-5.9</t>
-        </is>
-      </c>
       <c r="AQ82" t="inlineStr">
         <is>
           <t>95</t>
@@ -18302,42 +18302,42 @@
       </c>
       <c r="AS82" t="inlineStr">
         <is>
-          <t>112</t>
+          <t>113</t>
         </is>
       </c>
       <c r="AT82" t="inlineStr">
         <is>
-          <t>5.0</t>
+          <t>5.8</t>
         </is>
       </c>
       <c r="AU82" t="inlineStr">
         <is>
-          <t>304</t>
+          <t>295</t>
         </is>
       </c>
       <c r="AV82" t="inlineStr">
         <is>
-          <t>7.9</t>
+          <t>7.6</t>
         </is>
       </c>
       <c r="AW82" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AX82" t="inlineStr">
         <is>
-          <t>304</t>
+          <t>295</t>
         </is>
       </c>
       <c r="AY82" t="inlineStr">
         <is>
-          <t>7.9</t>
+          <t>7.6</t>
         </is>
       </c>
       <c r="AZ82" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="BA82" t="inlineStr"/>
@@ -18380,7 +18380,7 @@
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>2026-02-04 18:01:01</t>
+          <t>2026-02-04 18:25:01</t>
         </is>
       </c>
       <c r="I83" t="inlineStr">
@@ -18613,7 +18613,7 @@
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>2026-02-04 18:01:01</t>
+          <t>2026-02-04 18:25:01</t>
         </is>
       </c>
       <c r="I84" t="inlineStr">
@@ -18846,7 +18846,7 @@
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>2026-02-04 18:01:01</t>
+          <t>2026-02-04 18:25:01</t>
         </is>
       </c>
       <c r="I85" t="inlineStr">
@@ -19079,7 +19079,7 @@
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>2026-02-04 18:01:01</t>
+          <t>2026-02-04 18:25:01</t>
         </is>
       </c>
       <c r="I86" t="inlineStr">
@@ -19297,7 +19297,7 @@
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>17:00 - 17:30</t>
+          <t>17:30 - 18:00</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
@@ -19312,7 +19312,7 @@
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>2026-02-04 18:01:03</t>
+          <t>2026-02-04 18:25:03</t>
         </is>
       </c>
       <c r="I87" t="inlineStr">
@@ -19335,7 +19335,7 @@
       </c>
       <c r="M87" t="inlineStr">
         <is>
-          <t>334</t>
+          <t>191</t>
         </is>
       </c>
       <c r="N87" t="inlineStr"/>
@@ -19343,12 +19343,12 @@
       <c r="P87" t="inlineStr"/>
       <c r="Q87" t="inlineStr">
         <is>
-          <t>79</t>
+          <t>84</t>
         </is>
       </c>
       <c r="R87" t="inlineStr">
         <is>
-          <t>993.5</t>
+          <t>993.9</t>
         </is>
       </c>
       <c r="S87" t="inlineStr">
@@ -19358,66 +19358,66 @@
       </c>
       <c r="T87" t="inlineStr">
         <is>
-          <t>17:00 - 17:30</t>
+          <t>17:30 - 18:00</t>
         </is>
       </c>
       <c r="U87" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="V87" t="inlineStr">
         <is>
-          <t>8.1</t>
+          <t>7.3</t>
         </is>
       </c>
       <c r="W87" t="inlineStr">
         <is>
-          <t>7.2</t>
+          <t>7.0</t>
         </is>
       </c>
       <c r="X87" t="inlineStr">
         <is>
-          <t>8.7</t>
+          <t>7.4</t>
         </is>
       </c>
       <c r="Y87" t="inlineStr">
         <is>
-          <t>2.5</t>
+          <t>3.6</t>
         </is>
       </c>
       <c r="Z87" t="inlineStr"/>
       <c r="AA87" t="inlineStr"/>
       <c r="AB87" t="inlineStr">
         <is>
-          <t>5.0</t>
+          <t>5.8</t>
         </is>
       </c>
       <c r="AC87" t="inlineStr"/>
       <c r="AD87" t="inlineStr"/>
       <c r="AE87" t="inlineStr">
         <is>
-          <t>17:00 - 17:30</t>
+          <t>17:30 - 18:00</t>
         </is>
       </c>
       <c r="AF87" t="inlineStr">
         <is>
-          <t>8.1</t>
+          <t>7.3</t>
         </is>
       </c>
       <c r="AG87" t="inlineStr">
         <is>
-          <t>8.7</t>
+          <t>7.4</t>
         </is>
       </c>
       <c r="AH87" t="inlineStr">
         <is>
-          <t>7.2</t>
+          <t>7.0</t>
         </is>
       </c>
       <c r="AI87" t="inlineStr">
         <is>
-          <t>79</t>
+          <t>84</t>
         </is>
       </c>
       <c r="AJ87" t="inlineStr">
@@ -19427,37 +19427,37 @@
       </c>
       <c r="AK87" t="inlineStr">
         <is>
-          <t>2.5</t>
+          <t>3.6</t>
         </is>
       </c>
       <c r="AL87" t="inlineStr">
         <is>
-          <t>334</t>
+          <t>191</t>
         </is>
       </c>
       <c r="AM87" t="inlineStr">
         <is>
-          <t>17:00 - 17:30</t>
+          <t>17:30 - 18:00</t>
         </is>
       </c>
       <c r="AN87" t="inlineStr">
         <is>
-          <t>8.1</t>
+          <t>7.3</t>
         </is>
       </c>
       <c r="AO87" t="inlineStr">
         <is>
-          <t>8.7</t>
+          <t>7.4</t>
         </is>
       </c>
       <c r="AP87" t="inlineStr">
         <is>
-          <t>7.2</t>
+          <t>7.0</t>
         </is>
       </c>
       <c r="AQ87" t="inlineStr">
         <is>
-          <t>79</t>
+          <t>84</t>
         </is>
       </c>
       <c r="AR87" t="inlineStr">
@@ -19467,42 +19467,42 @@
       </c>
       <c r="AS87" t="inlineStr">
         <is>
-          <t>2.5</t>
+          <t>3.6</t>
         </is>
       </c>
       <c r="AT87" t="inlineStr">
         <is>
-          <t>334</t>
+          <t>191</t>
         </is>
       </c>
       <c r="AU87" t="inlineStr">
         <is>
-          <t>5.0</t>
+          <t>5.8</t>
         </is>
       </c>
       <c r="AV87" t="inlineStr">
         <is>
-          <t>993.5</t>
+          <t>993.9</t>
         </is>
       </c>
       <c r="AW87" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AX87" t="inlineStr">
         <is>
-          <t>5.0</t>
+          <t>5.8</t>
         </is>
       </c>
       <c r="AY87" t="inlineStr">
         <is>
-          <t>993.5</t>
+          <t>993.9</t>
         </is>
       </c>
       <c r="AZ87" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="BA87" t="inlineStr"/>
@@ -19545,7 +19545,7 @@
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>2026-02-04 18:01:05</t>
+          <t>2026-02-04 18:25:05</t>
         </is>
       </c>
       <c r="I88" t="inlineStr">
@@ -19778,7 +19778,7 @@
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>2026-02-04 18:01:05</t>
+          <t>2026-02-04 18:25:05</t>
         </is>
       </c>
       <c r="I89" t="inlineStr">
@@ -20011,7 +20011,7 @@
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>2026-02-04 18:01:05</t>
+          <t>2026-02-04 18:25:05</t>
         </is>
       </c>
       <c r="I90" t="inlineStr">
@@ -20244,7 +20244,7 @@
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>2026-02-04 18:01:05</t>
+          <t>2026-02-04 18:25:05</t>
         </is>
       </c>
       <c r="I91" t="inlineStr">
@@ -20462,7 +20462,7 @@
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>17:00 - 17:30</t>
+          <t>17:30 - 18:00</t>
         </is>
       </c>
       <c r="F92" t="inlineStr">
@@ -20477,7 +20477,7 @@
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>2026-02-04 18:01:08</t>
+          <t>2026-02-04 18:25:07</t>
         </is>
       </c>
       <c r="I92" t="inlineStr">
@@ -20502,7 +20502,7 @@
       <c r="N92" t="inlineStr"/>
       <c r="O92" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>29</t>
         </is>
       </c>
       <c r="P92" t="inlineStr">
@@ -20512,7 +20512,7 @@
       </c>
       <c r="Q92" t="inlineStr">
         <is>
-          <t>83</t>
+          <t>80</t>
         </is>
       </c>
       <c r="R92" t="inlineStr"/>
@@ -20523,22 +20523,22 @@
       </c>
       <c r="T92" t="inlineStr">
         <is>
-          <t>17:00 - 17:30</t>
+          <t>17:30 - 18:00</t>
         </is>
       </c>
       <c r="U92" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="V92" t="inlineStr">
         <is>
+          <t>-3.2</t>
+        </is>
+      </c>
+      <c r="W92" t="inlineStr">
+        <is>
           <t>-3.3</t>
-        </is>
-      </c>
-      <c r="W92" t="inlineStr">
-        <is>
-          <t>-3.5</t>
         </is>
       </c>
       <c r="X92" t="inlineStr">
@@ -20550,124 +20550,124 @@
       <c r="Z92" t="inlineStr"/>
       <c r="AA92" t="inlineStr">
         <is>
-          <t>1.4</t>
+          <t>2.5</t>
         </is>
       </c>
       <c r="AB92" t="inlineStr"/>
       <c r="AC92" t="inlineStr"/>
       <c r="AD92" t="inlineStr">
         <is>
-          <t>5.4</t>
+          <t>8.6</t>
         </is>
       </c>
       <c r="AE92" t="inlineStr">
         <is>
-          <t>17:00 - 17:30</t>
+          <t>17:30 - 18:00</t>
         </is>
       </c>
       <c r="AF92" t="inlineStr">
         <is>
+          <t>-3.2</t>
+        </is>
+      </c>
+      <c r="AG92" t="inlineStr">
+        <is>
+          <t>-3.0</t>
+        </is>
+      </c>
+      <c r="AH92" t="inlineStr">
+        <is>
           <t>-3.3</t>
         </is>
       </c>
-      <c r="AG92" t="inlineStr">
+      <c r="AI92" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="AJ92" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="AK92" t="inlineStr">
+        <is>
+          <t>112</t>
+        </is>
+      </c>
+      <c r="AL92" t="inlineStr">
+        <is>
+          <t>2.5</t>
+        </is>
+      </c>
+      <c r="AM92" t="inlineStr">
+        <is>
+          <t>17:30 - 18:00</t>
+        </is>
+      </c>
+      <c r="AN92" t="inlineStr">
+        <is>
+          <t>-3.2</t>
+        </is>
+      </c>
+      <c r="AO92" t="inlineStr">
         <is>
           <t>-3.0</t>
         </is>
       </c>
-      <c r="AH92" t="inlineStr">
-        <is>
-          <t>-3.5</t>
-        </is>
-      </c>
-      <c r="AI92" t="inlineStr">
-        <is>
-          <t>83</t>
-        </is>
-      </c>
-      <c r="AJ92" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="AK92" t="inlineStr">
+      <c r="AP92" t="inlineStr">
+        <is>
+          <t>-3.3</t>
+        </is>
+      </c>
+      <c r="AQ92" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="AR92" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="AS92" t="inlineStr">
         <is>
           <t>112</t>
         </is>
       </c>
-      <c r="AL92" t="inlineStr">
-        <is>
-          <t>1.4</t>
-        </is>
-      </c>
-      <c r="AM92" t="inlineStr">
-        <is>
-          <t>17:00 - 17:30</t>
-        </is>
-      </c>
-      <c r="AN92" t="inlineStr">
-        <is>
-          <t>-3.3</t>
-        </is>
-      </c>
-      <c r="AO92" t="inlineStr">
-        <is>
-          <t>-3.0</t>
-        </is>
-      </c>
-      <c r="AP92" t="inlineStr">
-        <is>
-          <t>-3.5</t>
-        </is>
-      </c>
-      <c r="AQ92" t="inlineStr">
-        <is>
-          <t>83</t>
-        </is>
-      </c>
-      <c r="AR92" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="AS92" t="inlineStr">
-        <is>
-          <t>112</t>
-        </is>
-      </c>
       <c r="AT92" t="inlineStr">
         <is>
-          <t>1.4</t>
+          <t>2.5</t>
         </is>
       </c>
       <c r="AU92" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>29</t>
         </is>
       </c>
       <c r="AV92" t="inlineStr">
         <is>
-          <t>5.4</t>
+          <t>8.6</t>
         </is>
       </c>
       <c r="AW92" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AX92" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>29</t>
         </is>
       </c>
       <c r="AY92" t="inlineStr">
         <is>
-          <t>5.4</t>
+          <t>8.6</t>
         </is>
       </c>
       <c r="AZ92" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="BA92" t="inlineStr"/>
@@ -20710,7 +20710,7 @@
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>2026-02-04 18:01:09</t>
+          <t>2026-02-04 18:25:09</t>
         </is>
       </c>
       <c r="I93" t="inlineStr">
@@ -20943,7 +20943,7 @@
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>2026-02-04 18:01:09</t>
+          <t>2026-02-04 18:25:09</t>
         </is>
       </c>
       <c r="I94" t="inlineStr">
@@ -21176,7 +21176,7 @@
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>2026-02-04 18:01:09</t>
+          <t>2026-02-04 18:25:09</t>
         </is>
       </c>
       <c r="I95" t="inlineStr">
@@ -21409,7 +21409,7 @@
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>2026-02-04 18:01:09</t>
+          <t>2026-02-04 18:25:09</t>
         </is>
       </c>
       <c r="I96" t="inlineStr">
@@ -21627,7 +21627,7 @@
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>17:00 - 17:30</t>
+          <t>17:30 - 18:00</t>
         </is>
       </c>
       <c r="F97" t="inlineStr">
@@ -21642,7 +21642,7 @@
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>2026-02-04 18:01:12</t>
+          <t>2026-02-04 18:25:11</t>
         </is>
       </c>
       <c r="I97" t="inlineStr">
@@ -21665,7 +21665,7 @@
       </c>
       <c r="M97" t="inlineStr">
         <is>
-          <t>158</t>
+          <t>266</t>
         </is>
       </c>
       <c r="N97" t="inlineStr"/>
@@ -21673,12 +21673,12 @@
       <c r="P97" t="inlineStr"/>
       <c r="Q97" t="inlineStr">
         <is>
-          <t>68</t>
+          <t>77</t>
         </is>
       </c>
       <c r="R97" t="inlineStr">
         <is>
-          <t>991.1</t>
+          <t>991.7</t>
         </is>
       </c>
       <c r="S97" t="inlineStr">
@@ -21688,7 +21688,7 @@
       </c>
       <c r="T97" t="inlineStr">
         <is>
-          <t>17:00 - 17:30</t>
+          <t>17:30 - 18:00</t>
         </is>
       </c>
       <c r="U97" t="inlineStr">
@@ -21698,56 +21698,56 @@
       </c>
       <c r="V97" t="inlineStr">
         <is>
-          <t>8.1</t>
+          <t>6.6</t>
         </is>
       </c>
       <c r="W97" t="inlineStr">
         <is>
-          <t>7.2</t>
+          <t>6.2</t>
         </is>
       </c>
       <c r="X97" t="inlineStr">
         <is>
-          <t>9.2</t>
+          <t>7.1</t>
         </is>
       </c>
       <c r="Y97" t="inlineStr">
         <is>
-          <t>1.1</t>
+          <t>3.2</t>
         </is>
       </c>
       <c r="Z97" t="inlineStr"/>
       <c r="AA97" t="inlineStr"/>
       <c r="AB97" t="inlineStr">
         <is>
-          <t>4.0</t>
+          <t>8.3</t>
         </is>
       </c>
       <c r="AC97" t="inlineStr"/>
       <c r="AD97" t="inlineStr"/>
       <c r="AE97" t="inlineStr">
         <is>
-          <t>17:00 - 17:30</t>
+          <t>17:30 - 18:00</t>
         </is>
       </c>
       <c r="AF97" t="inlineStr">
         <is>
-          <t>8.1</t>
+          <t>6.6</t>
         </is>
       </c>
       <c r="AG97" t="inlineStr">
         <is>
-          <t>9.2</t>
+          <t>7.1</t>
         </is>
       </c>
       <c r="AH97" t="inlineStr">
         <is>
-          <t>7.2</t>
+          <t>6.2</t>
         </is>
       </c>
       <c r="AI97" t="inlineStr">
         <is>
-          <t>68</t>
+          <t>77</t>
         </is>
       </c>
       <c r="AJ97" t="inlineStr">
@@ -21757,37 +21757,37 @@
       </c>
       <c r="AK97" t="inlineStr">
         <is>
-          <t>1.1</t>
+          <t>3.2</t>
         </is>
       </c>
       <c r="AL97" t="inlineStr">
         <is>
-          <t>158</t>
+          <t>266</t>
         </is>
       </c>
       <c r="AM97" t="inlineStr">
         <is>
-          <t>17:00 - 17:30</t>
+          <t>17:30 - 18:00</t>
         </is>
       </c>
       <c r="AN97" t="inlineStr">
         <is>
-          <t>8.1</t>
+          <t>6.6</t>
         </is>
       </c>
       <c r="AO97" t="inlineStr">
         <is>
-          <t>9.2</t>
+          <t>7.1</t>
         </is>
       </c>
       <c r="AP97" t="inlineStr">
         <is>
-          <t>7.2</t>
+          <t>6.2</t>
         </is>
       </c>
       <c r="AQ97" t="inlineStr">
         <is>
-          <t>68</t>
+          <t>77</t>
         </is>
       </c>
       <c r="AR97" t="inlineStr">
@@ -21797,22 +21797,22 @@
       </c>
       <c r="AS97" t="inlineStr">
         <is>
-          <t>1.1</t>
+          <t>3.2</t>
         </is>
       </c>
       <c r="AT97" t="inlineStr">
         <is>
-          <t>158</t>
+          <t>266</t>
         </is>
       </c>
       <c r="AU97" t="inlineStr">
         <is>
-          <t>4.0</t>
+          <t>8.3</t>
         </is>
       </c>
       <c r="AV97" t="inlineStr">
         <is>
-          <t>991.1</t>
+          <t>991.7</t>
         </is>
       </c>
       <c r="AW97" t="inlineStr">
@@ -21822,12 +21822,12 @@
       </c>
       <c r="AX97" t="inlineStr">
         <is>
-          <t>4.0</t>
+          <t>8.3</t>
         </is>
       </c>
       <c r="AY97" t="inlineStr">
         <is>
-          <t>991.1</t>
+          <t>991.7</t>
         </is>
       </c>
       <c r="AZ97" t="inlineStr">
@@ -21875,7 +21875,7 @@
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>2026-02-04 18:01:13</t>
+          <t>2026-02-04 18:25:13</t>
         </is>
       </c>
       <c r="I98" t="inlineStr">
@@ -22108,7 +22108,7 @@
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>2026-02-04 18:01:13</t>
+          <t>2026-02-04 18:25:13</t>
         </is>
       </c>
       <c r="I99" t="inlineStr">
@@ -22341,7 +22341,7 @@
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>2026-02-04 18:01:13</t>
+          <t>2026-02-04 18:25:13</t>
         </is>
       </c>
       <c r="I100" t="inlineStr">
@@ -22574,7 +22574,7 @@
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>2026-02-04 18:01:13</t>
+          <t>2026-02-04 18:25:13</t>
         </is>
       </c>
       <c r="I101" t="inlineStr">
@@ -22792,7 +22792,7 @@
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>17:00 - 17:30</t>
+          <t>17:30 - 18:00</t>
         </is>
       </c>
       <c r="F102" t="inlineStr">
@@ -22807,7 +22807,7 @@
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>2026-02-04 18:01:16</t>
+          <t>2026-02-04 18:25:16</t>
         </is>
       </c>
       <c r="I102" t="inlineStr">
@@ -22830,7 +22830,7 @@
       </c>
       <c r="M102" t="inlineStr">
         <is>
-          <t>225</t>
+          <t>163</t>
         </is>
       </c>
       <c r="N102" t="inlineStr"/>
@@ -22838,7 +22838,7 @@
       <c r="P102" t="inlineStr"/>
       <c r="Q102" t="inlineStr">
         <is>
-          <t>85</t>
+          <t>91</t>
         </is>
       </c>
       <c r="R102" t="inlineStr"/>
@@ -22849,7 +22849,7 @@
       </c>
       <c r="T102" t="inlineStr">
         <is>
-          <t>17:00 - 17:30</t>
+          <t>17:30 - 18:00</t>
         </is>
       </c>
       <c r="U102" t="inlineStr">
@@ -22859,96 +22859,96 @@
       </c>
       <c r="V102" t="inlineStr">
         <is>
-          <t>9.8</t>
+          <t>8.4</t>
         </is>
       </c>
       <c r="W102" t="inlineStr">
         <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="X102" t="inlineStr">
+        <is>
           <t>8.8</t>
         </is>
       </c>
-      <c r="X102" t="inlineStr">
-        <is>
-          <t>11.0</t>
-        </is>
-      </c>
       <c r="Y102" t="inlineStr">
         <is>
-          <t>2.5</t>
+          <t>1.8</t>
         </is>
       </c>
       <c r="Z102" t="inlineStr"/>
       <c r="AA102" t="inlineStr"/>
       <c r="AB102" t="inlineStr">
         <is>
-          <t>9.0</t>
+          <t>4.0</t>
         </is>
       </c>
       <c r="AC102" t="inlineStr"/>
       <c r="AD102" t="inlineStr"/>
       <c r="AE102" t="inlineStr">
         <is>
-          <t>17:00 - 17:30</t>
+          <t>17:30 - 18:00</t>
         </is>
       </c>
       <c r="AF102" t="inlineStr">
         <is>
-          <t>9.8</t>
+          <t>8.4</t>
         </is>
       </c>
       <c r="AG102" t="inlineStr">
         <is>
-          <t>11.0</t>
+          <t>8.8</t>
         </is>
       </c>
       <c r="AH102" t="inlineStr">
         <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="AI102" t="inlineStr">
+        <is>
+          <t>91</t>
+        </is>
+      </c>
+      <c r="AJ102" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="AK102" t="inlineStr">
+        <is>
+          <t>1.8</t>
+        </is>
+      </c>
+      <c r="AL102" t="inlineStr">
+        <is>
+          <t>163</t>
+        </is>
+      </c>
+      <c r="AM102" t="inlineStr">
+        <is>
+          <t>17:30 - 18:00</t>
+        </is>
+      </c>
+      <c r="AN102" t="inlineStr">
+        <is>
+          <t>8.4</t>
+        </is>
+      </c>
+      <c r="AO102" t="inlineStr">
+        <is>
           <t>8.8</t>
         </is>
       </c>
-      <c r="AI102" t="inlineStr">
-        <is>
-          <t>85</t>
-        </is>
-      </c>
-      <c r="AJ102" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="AK102" t="inlineStr">
-        <is>
-          <t>2.5</t>
-        </is>
-      </c>
-      <c r="AL102" t="inlineStr">
-        <is>
-          <t>225</t>
-        </is>
-      </c>
-      <c r="AM102" t="inlineStr">
-        <is>
-          <t>17:00 - 17:30</t>
-        </is>
-      </c>
-      <c r="AN102" t="inlineStr">
-        <is>
-          <t>9.8</t>
-        </is>
-      </c>
-      <c r="AO102" t="inlineStr">
-        <is>
-          <t>11.0</t>
-        </is>
-      </c>
       <c r="AP102" t="inlineStr">
         <is>
-          <t>8.8</t>
+          <t>8.0</t>
         </is>
       </c>
       <c r="AQ102" t="inlineStr">
         <is>
-          <t>85</t>
+          <t>91</t>
         </is>
       </c>
       <c r="AR102" t="inlineStr">
@@ -22958,17 +22958,17 @@
       </c>
       <c r="AS102" t="inlineStr">
         <is>
-          <t>2.5</t>
+          <t>1.8</t>
         </is>
       </c>
       <c r="AT102" t="inlineStr">
         <is>
-          <t>225</t>
+          <t>163</t>
         </is>
       </c>
       <c r="AU102" t="inlineStr">
         <is>
-          <t>9.0</t>
+          <t>4.0</t>
         </is>
       </c>
       <c r="AV102" t="inlineStr">
@@ -22979,7 +22979,7 @@
       <c r="AW102" t="inlineStr"/>
       <c r="AX102" t="inlineStr">
         <is>
-          <t>9.0</t>
+          <t>4.0</t>
         </is>
       </c>
       <c r="AY102" t="inlineStr">
@@ -23028,7 +23028,7 @@
       </c>
       <c r="H103" t="inlineStr">
         <is>
-          <t>2026-02-04 18:01:18</t>
+          <t>2026-02-04 18:25:17</t>
         </is>
       </c>
       <c r="I103" t="inlineStr">
@@ -23249,7 +23249,7 @@
       </c>
       <c r="H104" t="inlineStr">
         <is>
-          <t>2026-02-04 18:01:18</t>
+          <t>2026-02-04 18:25:17</t>
         </is>
       </c>
       <c r="I104" t="inlineStr">
@@ -23470,7 +23470,7 @@
       </c>
       <c r="H105" t="inlineStr">
         <is>
-          <t>2026-02-04 18:01:18</t>
+          <t>2026-02-04 18:25:17</t>
         </is>
       </c>
       <c r="I105" t="inlineStr">
@@ -23691,7 +23691,7 @@
       </c>
       <c r="H106" t="inlineStr">
         <is>
-          <t>2026-02-04 18:01:18</t>
+          <t>2026-02-04 18:25:17</t>
         </is>
       </c>
       <c r="I106" t="inlineStr">
@@ -23897,7 +23897,7 @@
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>17:00 - 17:30</t>
+          <t>17:30 - 18:00</t>
         </is>
       </c>
       <c r="F107" t="inlineStr">
@@ -23912,7 +23912,7 @@
       </c>
       <c r="H107" t="inlineStr">
         <is>
-          <t>2026-02-04 18:01:21</t>
+          <t>2026-02-04 18:25:19</t>
         </is>
       </c>
       <c r="I107" t="inlineStr">
@@ -23935,7 +23935,7 @@
       </c>
       <c r="M107" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>34</t>
         </is>
       </c>
       <c r="N107" t="inlineStr"/>
@@ -23943,12 +23943,12 @@
       <c r="P107" t="inlineStr"/>
       <c r="Q107" t="inlineStr">
         <is>
-          <t>88</t>
+          <t>85</t>
         </is>
       </c>
       <c r="R107" t="inlineStr">
         <is>
-          <t>990.8</t>
+          <t>991.2</t>
         </is>
       </c>
       <c r="S107" t="inlineStr">
@@ -23958,7 +23958,7 @@
       </c>
       <c r="T107" t="inlineStr">
         <is>
-          <t>17:00 - 17:30</t>
+          <t>17:30 - 18:00</t>
         </is>
       </c>
       <c r="U107" t="inlineStr">
@@ -23968,96 +23968,96 @@
       </c>
       <c r="V107" t="inlineStr">
         <is>
+          <t>8.4</t>
+        </is>
+      </c>
+      <c r="W107" t="inlineStr">
+        <is>
+          <t>8.2</t>
+        </is>
+      </c>
+      <c r="X107" t="inlineStr">
+        <is>
           <t>8.7</t>
         </is>
       </c>
-      <c r="W107" t="inlineStr">
-        <is>
-          <t>8.4</t>
-        </is>
-      </c>
-      <c r="X107" t="inlineStr">
-        <is>
-          <t>8.9</t>
-        </is>
-      </c>
       <c r="Y107" t="inlineStr">
         <is>
-          <t>9.4</t>
+          <t>5.8</t>
         </is>
       </c>
       <c r="Z107" t="inlineStr"/>
       <c r="AA107" t="inlineStr"/>
       <c r="AB107" t="inlineStr">
         <is>
-          <t>13.7</t>
+          <t>9.7</t>
         </is>
       </c>
       <c r="AC107" t="inlineStr"/>
       <c r="AD107" t="inlineStr"/>
       <c r="AE107" t="inlineStr">
         <is>
-          <t>17:00 - 17:30</t>
+          <t>17:30 - 18:00</t>
         </is>
       </c>
       <c r="AF107" t="inlineStr">
         <is>
+          <t>8.4</t>
+        </is>
+      </c>
+      <c r="AG107" t="inlineStr">
+        <is>
           <t>8.7</t>
         </is>
       </c>
-      <c r="AG107" t="inlineStr">
-        <is>
-          <t>8.9</t>
-        </is>
-      </c>
       <c r="AH107" t="inlineStr">
         <is>
+          <t>8.2</t>
+        </is>
+      </c>
+      <c r="AI107" t="inlineStr">
+        <is>
+          <t>85</t>
+        </is>
+      </c>
+      <c r="AJ107" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="AK107" t="inlineStr">
+        <is>
+          <t>5.8</t>
+        </is>
+      </c>
+      <c r="AL107" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="AM107" t="inlineStr">
+        <is>
+          <t>17:30 - 18:00</t>
+        </is>
+      </c>
+      <c r="AN107" t="inlineStr">
+        <is>
           <t>8.4</t>
         </is>
       </c>
-      <c r="AI107" t="inlineStr">
-        <is>
-          <t>88</t>
-        </is>
-      </c>
-      <c r="AJ107" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="AK107" t="inlineStr">
-        <is>
-          <t>9.4</t>
-        </is>
-      </c>
-      <c r="AL107" t="inlineStr">
-        <is>
-          <t>35</t>
-        </is>
-      </c>
-      <c r="AM107" t="inlineStr">
-        <is>
-          <t>17:00 - 17:30</t>
-        </is>
-      </c>
-      <c r="AN107" t="inlineStr">
+      <c r="AO107" t="inlineStr">
         <is>
           <t>8.7</t>
         </is>
       </c>
-      <c r="AO107" t="inlineStr">
-        <is>
-          <t>8.9</t>
-        </is>
-      </c>
       <c r="AP107" t="inlineStr">
         <is>
-          <t>8.4</t>
+          <t>8.2</t>
         </is>
       </c>
       <c r="AQ107" t="inlineStr">
         <is>
-          <t>88</t>
+          <t>85</t>
         </is>
       </c>
       <c r="AR107" t="inlineStr">
@@ -24067,22 +24067,22 @@
       </c>
       <c r="AS107" t="inlineStr">
         <is>
-          <t>9.4</t>
+          <t>5.8</t>
         </is>
       </c>
       <c r="AT107" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>34</t>
         </is>
       </c>
       <c r="AU107" t="inlineStr">
         <is>
-          <t>13.7</t>
+          <t>9.7</t>
         </is>
       </c>
       <c r="AV107" t="inlineStr">
         <is>
-          <t>990.8</t>
+          <t>991.2</t>
         </is>
       </c>
       <c r="AW107" t="inlineStr">
@@ -24092,12 +24092,12 @@
       </c>
       <c r="AX107" t="inlineStr">
         <is>
-          <t>13.7</t>
+          <t>9.7</t>
         </is>
       </c>
       <c r="AY107" t="inlineStr">
         <is>
-          <t>990.8</t>
+          <t>991.2</t>
         </is>
       </c>
       <c r="AZ107" t="inlineStr">
@@ -24145,7 +24145,7 @@
       </c>
       <c r="H108" t="inlineStr">
         <is>
-          <t>2026-02-04 18:01:23</t>
+          <t>2026-02-04 18:25:21</t>
         </is>
       </c>
       <c r="I108" t="inlineStr">
@@ -24378,7 +24378,7 @@
       </c>
       <c r="H109" t="inlineStr">
         <is>
-          <t>2026-02-04 18:01:23</t>
+          <t>2026-02-04 18:25:21</t>
         </is>
       </c>
       <c r="I109" t="inlineStr">
@@ -24611,7 +24611,7 @@
       </c>
       <c r="H110" t="inlineStr">
         <is>
-          <t>2026-02-04 18:01:23</t>
+          <t>2026-02-04 18:25:21</t>
         </is>
       </c>
       <c r="I110" t="inlineStr">
@@ -24844,7 +24844,7 @@
       </c>
       <c r="H111" t="inlineStr">
         <is>
-          <t>2026-02-04 18:01:23</t>
+          <t>2026-02-04 18:25:21</t>
         </is>
       </c>
       <c r="I111" t="inlineStr">
@@ -25062,7 +25062,7 @@
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>17:00 - 17:30</t>
+          <t>17:30 - 18:00</t>
         </is>
       </c>
       <c r="F112" t="inlineStr">
@@ -25077,7 +25077,7 @@
       </c>
       <c r="H112" t="inlineStr">
         <is>
-          <t>2026-02-04 18:01:25</t>
+          <t>2026-02-04 18:25:24</t>
         </is>
       </c>
       <c r="I112" t="inlineStr">
@@ -25100,7 +25100,7 @@
       </c>
       <c r="M112" t="inlineStr">
         <is>
-          <t>223</t>
+          <t>235</t>
         </is>
       </c>
       <c r="N112" t="inlineStr"/>
@@ -25108,12 +25108,12 @@
       <c r="P112" t="inlineStr"/>
       <c r="Q112" t="inlineStr">
         <is>
-          <t>68</t>
+          <t>67</t>
         </is>
       </c>
       <c r="R112" t="inlineStr">
         <is>
-          <t>990.0</t>
+          <t>990.5</t>
         </is>
       </c>
       <c r="S112" t="inlineStr">
@@ -25123,7 +25123,7 @@
       </c>
       <c r="T112" t="inlineStr">
         <is>
-          <t>17:00 - 17:30</t>
+          <t>17:30 - 18:00</t>
         </is>
       </c>
       <c r="U112" t="inlineStr">
@@ -25133,56 +25133,56 @@
       </c>
       <c r="V112" t="inlineStr">
         <is>
+          <t>10.8</t>
+        </is>
+      </c>
+      <c r="W112" t="inlineStr">
+        <is>
+          <t>10.6</t>
+        </is>
+      </c>
+      <c r="X112" t="inlineStr">
+        <is>
           <t>10.9</t>
         </is>
       </c>
-      <c r="W112" t="inlineStr">
-        <is>
-          <t>10.7</t>
-        </is>
-      </c>
-      <c r="X112" t="inlineStr">
-        <is>
-          <t>11.1</t>
-        </is>
-      </c>
       <c r="Y112" t="inlineStr">
         <is>
-          <t>23.4</t>
+          <t>22.7</t>
         </is>
       </c>
       <c r="Z112" t="inlineStr"/>
       <c r="AA112" t="inlineStr"/>
       <c r="AB112" t="inlineStr">
         <is>
-          <t>31.7</t>
+          <t>28.1</t>
         </is>
       </c>
       <c r="AC112" t="inlineStr"/>
       <c r="AD112" t="inlineStr"/>
       <c r="AE112" t="inlineStr">
         <is>
-          <t>17:00 - 17:30</t>
+          <t>17:30 - 18:00</t>
         </is>
       </c>
       <c r="AF112" t="inlineStr">
         <is>
+          <t>10.8</t>
+        </is>
+      </c>
+      <c r="AG112" t="inlineStr">
+        <is>
           <t>10.9</t>
         </is>
       </c>
-      <c r="AG112" t="inlineStr">
-        <is>
-          <t>11.1</t>
-        </is>
-      </c>
       <c r="AH112" t="inlineStr">
         <is>
-          <t>10.7</t>
+          <t>10.6</t>
         </is>
       </c>
       <c r="AI112" t="inlineStr">
         <is>
-          <t>68</t>
+          <t>67</t>
         </is>
       </c>
       <c r="AJ112" t="inlineStr">
@@ -25192,37 +25192,37 @@
       </c>
       <c r="AK112" t="inlineStr">
         <is>
-          <t>23.4</t>
+          <t>22.7</t>
         </is>
       </c>
       <c r="AL112" t="inlineStr">
         <is>
-          <t>223</t>
+          <t>235</t>
         </is>
       </c>
       <c r="AM112" t="inlineStr">
         <is>
-          <t>17:00 - 17:30</t>
+          <t>17:30 - 18:00</t>
         </is>
       </c>
       <c r="AN112" t="inlineStr">
         <is>
+          <t>10.8</t>
+        </is>
+      </c>
+      <c r="AO112" t="inlineStr">
+        <is>
           <t>10.9</t>
         </is>
       </c>
-      <c r="AO112" t="inlineStr">
-        <is>
-          <t>11.1</t>
-        </is>
-      </c>
       <c r="AP112" t="inlineStr">
         <is>
-          <t>10.7</t>
+          <t>10.6</t>
         </is>
       </c>
       <c r="AQ112" t="inlineStr">
         <is>
-          <t>68</t>
+          <t>67</t>
         </is>
       </c>
       <c r="AR112" t="inlineStr">
@@ -25232,22 +25232,22 @@
       </c>
       <c r="AS112" t="inlineStr">
         <is>
-          <t>23.4</t>
+          <t>22.7</t>
         </is>
       </c>
       <c r="AT112" t="inlineStr">
         <is>
-          <t>223</t>
+          <t>235</t>
         </is>
       </c>
       <c r="AU112" t="inlineStr">
         <is>
-          <t>31.7</t>
+          <t>28.1</t>
         </is>
       </c>
       <c r="AV112" t="inlineStr">
         <is>
-          <t>990.0</t>
+          <t>990.5</t>
         </is>
       </c>
       <c r="AW112" t="inlineStr">
@@ -25257,12 +25257,12 @@
       </c>
       <c r="AX112" t="inlineStr">
         <is>
-          <t>31.7</t>
+          <t>28.1</t>
         </is>
       </c>
       <c r="AY112" t="inlineStr">
         <is>
-          <t>990.0</t>
+          <t>990.5</t>
         </is>
       </c>
       <c r="AZ112" t="inlineStr">
@@ -25310,7 +25310,7 @@
       </c>
       <c r="H113" t="inlineStr">
         <is>
-          <t>2026-02-04 18:01:27</t>
+          <t>2026-02-04 18:25:25</t>
         </is>
       </c>
       <c r="I113" t="inlineStr">
@@ -25543,7 +25543,7 @@
       </c>
       <c r="H114" t="inlineStr">
         <is>
-          <t>2026-02-04 18:01:27</t>
+          <t>2026-02-04 18:25:25</t>
         </is>
       </c>
       <c r="I114" t="inlineStr">
@@ -25776,7 +25776,7 @@
       </c>
       <c r="H115" t="inlineStr">
         <is>
-          <t>2026-02-04 18:01:27</t>
+          <t>2026-02-04 18:25:25</t>
         </is>
       </c>
       <c r="I115" t="inlineStr">
@@ -26009,7 +26009,7 @@
       </c>
       <c r="H116" t="inlineStr">
         <is>
-          <t>2026-02-04 18:01:27</t>
+          <t>2026-02-04 18:25:25</t>
         </is>
       </c>
       <c r="I116" t="inlineStr">
@@ -26227,7 +26227,7 @@
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>17:00 - 17:30</t>
+          <t>17:30 - 18:00</t>
         </is>
       </c>
       <c r="F117" t="inlineStr">
@@ -26242,7 +26242,7 @@
       </c>
       <c r="H117" t="inlineStr">
         <is>
-          <t>2026-02-04 18:01:29</t>
+          <t>2026-02-04 18:25:28</t>
         </is>
       </c>
       <c r="I117" t="inlineStr">
@@ -26265,7 +26265,7 @@
       </c>
       <c r="M117" t="inlineStr">
         <is>
-          <t>226</t>
+          <t>285</t>
         </is>
       </c>
       <c r="N117" t="inlineStr"/>
@@ -26273,12 +26273,12 @@
       <c r="P117" t="inlineStr"/>
       <c r="Q117" t="inlineStr">
         <is>
-          <t>71</t>
+          <t>76</t>
         </is>
       </c>
       <c r="R117" t="inlineStr">
         <is>
-          <t>991.6</t>
+          <t>992.7</t>
         </is>
       </c>
       <c r="S117" t="inlineStr">
@@ -26288,66 +26288,66 @@
       </c>
       <c r="T117" t="inlineStr">
         <is>
-          <t>17:00 - 17:30</t>
+          <t>17:30 - 18:00</t>
         </is>
       </c>
       <c r="U117" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="V117" t="inlineStr">
         <is>
-          <t>4.3</t>
+          <t>3.1</t>
         </is>
       </c>
       <c r="W117" t="inlineStr">
         <is>
-          <t>3.9</t>
+          <t>2.5</t>
         </is>
       </c>
       <c r="X117" t="inlineStr">
         <is>
-          <t>4.6</t>
+          <t>3.8</t>
         </is>
       </c>
       <c r="Y117" t="inlineStr">
         <is>
-          <t>6.5</t>
+          <t>1.4</t>
         </is>
       </c>
       <c r="Z117" t="inlineStr"/>
       <c r="AA117" t="inlineStr"/>
       <c r="AB117" t="inlineStr">
         <is>
-          <t>16.2</t>
+          <t>7.2</t>
         </is>
       </c>
       <c r="AC117" t="inlineStr"/>
       <c r="AD117" t="inlineStr"/>
       <c r="AE117" t="inlineStr">
         <is>
-          <t>17:00 - 17:30</t>
+          <t>17:30 - 18:00</t>
         </is>
       </c>
       <c r="AF117" t="inlineStr">
         <is>
-          <t>4.3</t>
+          <t>3.1</t>
         </is>
       </c>
       <c r="AG117" t="inlineStr">
         <is>
-          <t>4.6</t>
+          <t>3.8</t>
         </is>
       </c>
       <c r="AH117" t="inlineStr">
         <is>
-          <t>3.9</t>
+          <t>2.5</t>
         </is>
       </c>
       <c r="AI117" t="inlineStr">
         <is>
-          <t>71</t>
+          <t>76</t>
         </is>
       </c>
       <c r="AJ117" t="inlineStr">
@@ -26357,37 +26357,37 @@
       </c>
       <c r="AK117" t="inlineStr">
         <is>
-          <t>6.5</t>
+          <t>1.4</t>
         </is>
       </c>
       <c r="AL117" t="inlineStr">
         <is>
-          <t>226</t>
+          <t>285</t>
         </is>
       </c>
       <c r="AM117" t="inlineStr">
         <is>
-          <t>17:00 - 17:30</t>
+          <t>17:30 - 18:00</t>
         </is>
       </c>
       <c r="AN117" t="inlineStr">
         <is>
-          <t>4.3</t>
+          <t>3.1</t>
         </is>
       </c>
       <c r="AO117" t="inlineStr">
         <is>
-          <t>4.6</t>
+          <t>3.8</t>
         </is>
       </c>
       <c r="AP117" t="inlineStr">
         <is>
-          <t>3.9</t>
+          <t>2.5</t>
         </is>
       </c>
       <c r="AQ117" t="inlineStr">
         <is>
-          <t>71</t>
+          <t>76</t>
         </is>
       </c>
       <c r="AR117" t="inlineStr">
@@ -26397,42 +26397,42 @@
       </c>
       <c r="AS117" t="inlineStr">
         <is>
-          <t>6.5</t>
+          <t>1.4</t>
         </is>
       </c>
       <c r="AT117" t="inlineStr">
         <is>
-          <t>226</t>
+          <t>285</t>
         </is>
       </c>
       <c r="AU117" t="inlineStr">
         <is>
-          <t>16.2</t>
+          <t>7.2</t>
         </is>
       </c>
       <c r="AV117" t="inlineStr">
         <is>
-          <t>991.6</t>
+          <t>992.7</t>
         </is>
       </c>
       <c r="AW117" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AX117" t="inlineStr">
         <is>
-          <t>16.2</t>
+          <t>7.2</t>
         </is>
       </c>
       <c r="AY117" t="inlineStr">
         <is>
-          <t>991.6</t>
+          <t>992.7</t>
         </is>
       </c>
       <c r="AZ117" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="BA117" t="inlineStr"/>
@@ -26475,7 +26475,7 @@
       </c>
       <c r="H118" t="inlineStr">
         <is>
-          <t>2026-02-04 18:01:31</t>
+          <t>2026-02-04 18:25:29</t>
         </is>
       </c>
       <c r="I118" t="inlineStr">
@@ -26708,7 +26708,7 @@
       </c>
       <c r="H119" t="inlineStr">
         <is>
-          <t>2026-02-04 18:01:31</t>
+          <t>2026-02-04 18:25:29</t>
         </is>
       </c>
       <c r="I119" t="inlineStr">
@@ -26941,7 +26941,7 @@
       </c>
       <c r="H120" t="inlineStr">
         <is>
-          <t>2026-02-04 18:01:31</t>
+          <t>2026-02-04 18:25:29</t>
         </is>
       </c>
       <c r="I120" t="inlineStr">
@@ -27174,7 +27174,7 @@
       </c>
       <c r="H121" t="inlineStr">
         <is>
-          <t>2026-02-04 18:01:31</t>
+          <t>2026-02-04 18:25:29</t>
         </is>
       </c>
       <c r="I121" t="inlineStr">
@@ -27392,7 +27392,7 @@
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>17:00 - 17:30</t>
+          <t>17:30 - 18:00</t>
         </is>
       </c>
       <c r="F122" t="inlineStr">
@@ -27407,7 +27407,7 @@
       </c>
       <c r="H122" t="inlineStr">
         <is>
-          <t>2026-02-04 18:01:34</t>
+          <t>2026-02-04 18:25:31</t>
         </is>
       </c>
       <c r="I122" t="inlineStr">
@@ -27430,7 +27430,7 @@
       </c>
       <c r="M122" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>359</t>
         </is>
       </c>
       <c r="N122" t="inlineStr"/>
@@ -27442,12 +27442,12 @@
       </c>
       <c r="Q122" t="inlineStr">
         <is>
-          <t>57</t>
+          <t>58</t>
         </is>
       </c>
       <c r="R122" t="inlineStr">
         <is>
-          <t>826.0</t>
+          <t>826.3</t>
         </is>
       </c>
       <c r="S122" t="inlineStr">
@@ -27457,7 +27457,7 @@
       </c>
       <c r="T122" t="inlineStr">
         <is>
-          <t>17:00 - 17:30</t>
+          <t>17:30 - 18:00</t>
         </is>
       </c>
       <c r="U122" t="inlineStr">
@@ -27467,56 +27467,56 @@
       </c>
       <c r="V122" t="inlineStr">
         <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="W122" t="inlineStr">
+        <is>
+          <t>-0.5</t>
+        </is>
+      </c>
+      <c r="X122" t="inlineStr">
+        <is>
           <t>0.3</t>
         </is>
       </c>
-      <c r="W122" t="inlineStr">
-        <is>
-          <t>-0.1</t>
-        </is>
-      </c>
-      <c r="X122" t="inlineStr">
-        <is>
-          <t>0.9</t>
-        </is>
-      </c>
       <c r="Y122" t="inlineStr">
         <is>
-          <t>9.4</t>
+          <t>8.6</t>
         </is>
       </c>
       <c r="Z122" t="inlineStr"/>
       <c r="AA122" t="inlineStr"/>
       <c r="AB122" t="inlineStr">
         <is>
-          <t>20.5</t>
+          <t>24.5</t>
         </is>
       </c>
       <c r="AC122" t="inlineStr"/>
       <c r="AD122" t="inlineStr"/>
       <c r="AE122" t="inlineStr">
         <is>
-          <t>17:00 - 17:30</t>
+          <t>17:30 - 18:00</t>
         </is>
       </c>
       <c r="AF122" t="inlineStr">
         <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="AG122" t="inlineStr">
+        <is>
           <t>0.3</t>
         </is>
       </c>
-      <c r="AG122" t="inlineStr">
-        <is>
-          <t>0.9</t>
-        </is>
-      </c>
       <c r="AH122" t="inlineStr">
         <is>
-          <t>-0.1</t>
+          <t>-0.5</t>
         </is>
       </c>
       <c r="AI122" t="inlineStr">
         <is>
-          <t>57</t>
+          <t>58</t>
         </is>
       </c>
       <c r="AJ122" t="inlineStr">
@@ -27531,32 +27531,32 @@
       </c>
       <c r="AL122" t="inlineStr">
         <is>
-          <t>9.4</t>
+          <t>8.6</t>
         </is>
       </c>
       <c r="AM122" t="inlineStr">
         <is>
-          <t>17:00 - 17:30</t>
+          <t>17:30 - 18:00</t>
         </is>
       </c>
       <c r="AN122" t="inlineStr">
         <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="AO122" t="inlineStr">
+        <is>
           <t>0.3</t>
         </is>
       </c>
-      <c r="AO122" t="inlineStr">
-        <is>
-          <t>0.9</t>
-        </is>
-      </c>
       <c r="AP122" t="inlineStr">
         <is>
-          <t>-0.1</t>
+          <t>-0.5</t>
         </is>
       </c>
       <c r="AQ122" t="inlineStr">
         <is>
-          <t>57</t>
+          <t>58</t>
         </is>
       </c>
       <c r="AR122" t="inlineStr">
@@ -27571,37 +27571,37 @@
       </c>
       <c r="AT122" t="inlineStr">
         <is>
-          <t>9.4</t>
+          <t>8.6</t>
         </is>
       </c>
       <c r="AU122" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>359</t>
         </is>
       </c>
       <c r="AV122" t="inlineStr">
         <is>
-          <t>20.5</t>
+          <t>24.5</t>
         </is>
       </c>
       <c r="AW122" t="inlineStr">
         <is>
-          <t>826.0</t>
+          <t>826.3</t>
         </is>
       </c>
       <c r="AX122" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>359</t>
         </is>
       </c>
       <c r="AY122" t="inlineStr">
         <is>
-          <t>20.5</t>
+          <t>24.5</t>
         </is>
       </c>
       <c r="AZ122" t="inlineStr">
         <is>
-          <t>826.0</t>
+          <t>826.3</t>
         </is>
       </c>
       <c r="BA122" t="inlineStr">
@@ -27648,7 +27648,7 @@
       </c>
       <c r="H123" t="inlineStr">
         <is>
-          <t>2026-02-04 18:01:36</t>
+          <t>2026-02-04 18:25:33</t>
         </is>
       </c>
       <c r="I123" t="inlineStr">
@@ -27889,7 +27889,7 @@
       </c>
       <c r="H124" t="inlineStr">
         <is>
-          <t>2026-02-04 18:01:36</t>
+          <t>2026-02-04 18:25:33</t>
         </is>
       </c>
       <c r="I124" t="inlineStr">
@@ -28130,7 +28130,7 @@
       </c>
       <c r="H125" t="inlineStr">
         <is>
-          <t>2026-02-04 18:01:36</t>
+          <t>2026-02-04 18:25:33</t>
         </is>
       </c>
       <c r="I125" t="inlineStr">
@@ -28371,7 +28371,7 @@
       </c>
       <c r="H126" t="inlineStr">
         <is>
-          <t>2026-02-04 18:01:36</t>
+          <t>2026-02-04 18:25:33</t>
         </is>
       </c>
       <c r="I126" t="inlineStr">
@@ -28597,7 +28597,7 @@
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>17:00 - 17:30</t>
+          <t>17:30 - 18:00</t>
         </is>
       </c>
       <c r="F127" t="inlineStr">
@@ -28612,7 +28612,7 @@
       </c>
       <c r="H127" t="inlineStr">
         <is>
-          <t>2026-02-04 18:01:39</t>
+          <t>2026-02-04 18:25:36</t>
         </is>
       </c>
       <c r="I127" t="inlineStr">
@@ -28643,12 +28643,12 @@
       <c r="P127" t="inlineStr"/>
       <c r="Q127" t="inlineStr">
         <is>
-          <t>72</t>
+          <t>77</t>
         </is>
       </c>
       <c r="R127" t="inlineStr">
         <is>
-          <t>990.8</t>
+          <t>991.1</t>
         </is>
       </c>
       <c r="S127" t="inlineStr">
@@ -28658,66 +28658,66 @@
       </c>
       <c r="T127" t="inlineStr">
         <is>
-          <t>17:00 - 17:30</t>
+          <t>17:30 - 18:00</t>
         </is>
       </c>
       <c r="U127" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="V127" t="inlineStr">
         <is>
-          <t>11.7</t>
+          <t>10.3</t>
         </is>
       </c>
       <c r="W127" t="inlineStr">
         <is>
-          <t>11.1</t>
+          <t>9.6</t>
         </is>
       </c>
       <c r="X127" t="inlineStr">
         <is>
-          <t>12.2</t>
+          <t>11.0</t>
         </is>
       </c>
       <c r="Y127" t="inlineStr">
         <is>
-          <t>5.4</t>
+          <t>3.2</t>
         </is>
       </c>
       <c r="Z127" t="inlineStr"/>
       <c r="AA127" t="inlineStr"/>
       <c r="AB127" t="inlineStr">
         <is>
-          <t>10.4</t>
+          <t>6.1</t>
         </is>
       </c>
       <c r="AC127" t="inlineStr"/>
       <c r="AD127" t="inlineStr"/>
       <c r="AE127" t="inlineStr">
         <is>
-          <t>17:00 - 17:30</t>
+          <t>17:30 - 18:00</t>
         </is>
       </c>
       <c r="AF127" t="inlineStr">
         <is>
-          <t>11.7</t>
+          <t>10.3</t>
         </is>
       </c>
       <c r="AG127" t="inlineStr">
         <is>
-          <t>12.2</t>
+          <t>11.0</t>
         </is>
       </c>
       <c r="AH127" t="inlineStr">
         <is>
-          <t>11.1</t>
+          <t>9.6</t>
         </is>
       </c>
       <c r="AI127" t="inlineStr">
         <is>
-          <t>72</t>
+          <t>77</t>
         </is>
       </c>
       <c r="AJ127" t="inlineStr">
@@ -28727,7 +28727,7 @@
       </c>
       <c r="AK127" t="inlineStr">
         <is>
-          <t>5.4</t>
+          <t>3.2</t>
         </is>
       </c>
       <c r="AL127" t="inlineStr">
@@ -28737,27 +28737,27 @@
       </c>
       <c r="AM127" t="inlineStr">
         <is>
-          <t>17:00 - 17:30</t>
+          <t>17:30 - 18:00</t>
         </is>
       </c>
       <c r="AN127" t="inlineStr">
         <is>
-          <t>11.7</t>
+          <t>10.3</t>
         </is>
       </c>
       <c r="AO127" t="inlineStr">
         <is>
-          <t>12.2</t>
+          <t>11.0</t>
         </is>
       </c>
       <c r="AP127" t="inlineStr">
         <is>
-          <t>11.1</t>
+          <t>9.6</t>
         </is>
       </c>
       <c r="AQ127" t="inlineStr">
         <is>
-          <t>72</t>
+          <t>77</t>
         </is>
       </c>
       <c r="AR127" t="inlineStr">
@@ -28767,7 +28767,7 @@
       </c>
       <c r="AS127" t="inlineStr">
         <is>
-          <t>5.4</t>
+          <t>3.2</t>
         </is>
       </c>
       <c r="AT127" t="inlineStr">
@@ -28777,32 +28777,32 @@
       </c>
       <c r="AU127" t="inlineStr">
         <is>
-          <t>10.4</t>
+          <t>6.1</t>
         </is>
       </c>
       <c r="AV127" t="inlineStr">
         <is>
-          <t>990.8</t>
+          <t>991.1</t>
         </is>
       </c>
       <c r="AW127" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AX127" t="inlineStr">
         <is>
-          <t>10.4</t>
+          <t>6.1</t>
         </is>
       </c>
       <c r="AY127" t="inlineStr">
         <is>
-          <t>990.8</t>
+          <t>991.1</t>
         </is>
       </c>
       <c r="AZ127" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="BA127" t="inlineStr"/>
@@ -28845,7 +28845,7 @@
       </c>
       <c r="H128" t="inlineStr">
         <is>
-          <t>2026-02-04 18:01:40</t>
+          <t>2026-02-04 18:25:37</t>
         </is>
       </c>
       <c r="I128" t="inlineStr">
@@ -29078,7 +29078,7 @@
       </c>
       <c r="H129" t="inlineStr">
         <is>
-          <t>2026-02-04 18:01:40</t>
+          <t>2026-02-04 18:25:37</t>
         </is>
       </c>
       <c r="I129" t="inlineStr">
@@ -29311,7 +29311,7 @@
       </c>
       <c r="H130" t="inlineStr">
         <is>
-          <t>2026-02-04 18:01:40</t>
+          <t>2026-02-04 18:25:37</t>
         </is>
       </c>
       <c r="I130" t="inlineStr">
@@ -29544,7 +29544,7 @@
       </c>
       <c r="H131" t="inlineStr">
         <is>
-          <t>2026-02-04 18:01:40</t>
+          <t>2026-02-04 18:25:37</t>
         </is>
       </c>
       <c r="I131" t="inlineStr">
@@ -29762,7 +29762,7 @@
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>17:00 - 17:30</t>
+          <t>17:30 - 18:00</t>
         </is>
       </c>
       <c r="F132" t="inlineStr">
@@ -29777,7 +29777,7 @@
       </c>
       <c r="H132" t="inlineStr">
         <is>
-          <t>2026-02-04 18:01:43</t>
+          <t>2026-02-04 18:25:40</t>
         </is>
       </c>
       <c r="I132" t="inlineStr">
@@ -29800,7 +29800,7 @@
       </c>
       <c r="M132" t="inlineStr">
         <is>
-          <t>259</t>
+          <t>258</t>
         </is>
       </c>
       <c r="N132" t="inlineStr"/>
@@ -29808,12 +29808,12 @@
       <c r="P132" t="inlineStr"/>
       <c r="Q132" t="inlineStr">
         <is>
-          <t>77</t>
+          <t>79</t>
         </is>
       </c>
       <c r="R132" t="inlineStr">
         <is>
-          <t>992.3</t>
+          <t>992.8</t>
         </is>
       </c>
       <c r="S132" t="inlineStr">
@@ -29823,102 +29823,102 @@
       </c>
       <c r="T132" t="inlineStr">
         <is>
-          <t>17:00 - 17:30</t>
+          <t>17:30 - 18:00</t>
         </is>
       </c>
       <c r="U132" t="inlineStr"/>
       <c r="V132" t="inlineStr">
         <is>
-          <t>5.9</t>
+          <t>5.7</t>
         </is>
       </c>
       <c r="W132" t="inlineStr">
         <is>
-          <t>5.7</t>
+          <t>5.5</t>
         </is>
       </c>
       <c r="X132" t="inlineStr">
         <is>
-          <t>6.1</t>
+          <t>5.8</t>
         </is>
       </c>
       <c r="Y132" t="inlineStr">
         <is>
-          <t>7.2</t>
+          <t>10.8</t>
         </is>
       </c>
       <c r="Z132" t="inlineStr"/>
       <c r="AA132" t="inlineStr"/>
       <c r="AB132" t="inlineStr">
         <is>
-          <t>17.6</t>
+          <t>22.3</t>
         </is>
       </c>
       <c r="AC132" t="inlineStr"/>
       <c r="AD132" t="inlineStr"/>
       <c r="AE132" t="inlineStr">
         <is>
-          <t>17:00 - 17:30</t>
+          <t>17:30 - 18:00</t>
         </is>
       </c>
       <c r="AF132" t="inlineStr">
         <is>
-          <t>5.9</t>
+          <t>5.7</t>
         </is>
       </c>
       <c r="AG132" t="inlineStr">
         <is>
-          <t>6.1</t>
+          <t>5.8</t>
         </is>
       </c>
       <c r="AH132" t="inlineStr">
         <is>
+          <t>5.5</t>
+        </is>
+      </c>
+      <c r="AI132" t="inlineStr">
+        <is>
+          <t>79</t>
+        </is>
+      </c>
+      <c r="AJ132" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="AK132" t="inlineStr">
+        <is>
+          <t>10.8</t>
+        </is>
+      </c>
+      <c r="AL132" t="inlineStr">
+        <is>
+          <t>258</t>
+        </is>
+      </c>
+      <c r="AM132" t="inlineStr">
+        <is>
+          <t>17:30 - 18:00</t>
+        </is>
+      </c>
+      <c r="AN132" t="inlineStr">
+        <is>
           <t>5.7</t>
         </is>
       </c>
-      <c r="AI132" t="inlineStr">
-        <is>
-          <t>77</t>
-        </is>
-      </c>
-      <c r="AJ132" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="AK132" t="inlineStr">
-        <is>
-          <t>7.2</t>
-        </is>
-      </c>
-      <c r="AL132" t="inlineStr">
-        <is>
-          <t>259</t>
-        </is>
-      </c>
-      <c r="AM132" t="inlineStr">
-        <is>
-          <t>17:00 - 17:30</t>
-        </is>
-      </c>
-      <c r="AN132" t="inlineStr">
-        <is>
-          <t>5.9</t>
-        </is>
-      </c>
       <c r="AO132" t="inlineStr">
         <is>
-          <t>6.1</t>
+          <t>5.8</t>
         </is>
       </c>
       <c r="AP132" t="inlineStr">
         <is>
-          <t>5.7</t>
+          <t>5.5</t>
         </is>
       </c>
       <c r="AQ132" t="inlineStr">
         <is>
-          <t>77</t>
+          <t>79</t>
         </is>
       </c>
       <c r="AR132" t="inlineStr">
@@ -29928,33 +29928,33 @@
       </c>
       <c r="AS132" t="inlineStr">
         <is>
-          <t>7.2</t>
+          <t>10.8</t>
         </is>
       </c>
       <c r="AT132" t="inlineStr">
         <is>
-          <t>259</t>
+          <t>258</t>
         </is>
       </c>
       <c r="AU132" t="inlineStr">
         <is>
-          <t>17.6</t>
+          <t>22.3</t>
         </is>
       </c>
       <c r="AV132" t="inlineStr">
         <is>
-          <t>992.3</t>
+          <t>992.8</t>
         </is>
       </c>
       <c r="AW132" t="inlineStr"/>
       <c r="AX132" t="inlineStr">
         <is>
-          <t>17.6</t>
+          <t>22.3</t>
         </is>
       </c>
       <c r="AY132" t="inlineStr">
         <is>
-          <t>992.3</t>
+          <t>992.8</t>
         </is>
       </c>
       <c r="AZ132" t="inlineStr"/>
@@ -29998,7 +29998,7 @@
       </c>
       <c r="H133" t="inlineStr">
         <is>
-          <t>2026-02-04 18:01:45</t>
+          <t>2026-02-04 18:25:41</t>
         </is>
       </c>
       <c r="I133" t="inlineStr">
@@ -30219,7 +30219,7 @@
       </c>
       <c r="H134" t="inlineStr">
         <is>
-          <t>2026-02-04 18:01:45</t>
+          <t>2026-02-04 18:25:41</t>
         </is>
       </c>
       <c r="I134" t="inlineStr">
@@ -30440,7 +30440,7 @@
       </c>
       <c r="H135" t="inlineStr">
         <is>
-          <t>2026-02-04 18:01:45</t>
+          <t>2026-02-04 18:25:41</t>
         </is>
       </c>
       <c r="I135" t="inlineStr">
@@ -30661,7 +30661,7 @@
       </c>
       <c r="H136" t="inlineStr">
         <is>
-          <t>2026-02-04 18:01:45</t>
+          <t>2026-02-04 18:25:41</t>
         </is>
       </c>
       <c r="I136" t="inlineStr">
@@ -30867,7 +30867,7 @@
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>17:00 - 17:30</t>
+          <t>17:30 - 18:00</t>
         </is>
       </c>
       <c r="F137" t="inlineStr">
@@ -30882,7 +30882,7 @@
       </c>
       <c r="H137" t="inlineStr">
         <is>
-          <t>2026-02-04 18:01:47</t>
+          <t>2026-02-04 18:25:44</t>
         </is>
       </c>
       <c r="I137" t="inlineStr">
@@ -30905,7 +30905,7 @@
       </c>
       <c r="M137" t="inlineStr">
         <is>
-          <t>279</t>
+          <t>284</t>
         </is>
       </c>
       <c r="N137" t="inlineStr"/>
@@ -30913,7 +30913,7 @@
       <c r="P137" t="inlineStr"/>
       <c r="Q137" t="inlineStr">
         <is>
-          <t>66</t>
+          <t>74</t>
         </is>
       </c>
       <c r="R137" t="inlineStr"/>
@@ -30924,7 +30924,7 @@
       </c>
       <c r="T137" t="inlineStr">
         <is>
-          <t>17:00 - 17:30</t>
+          <t>17:30 - 18:00</t>
         </is>
       </c>
       <c r="U137" t="inlineStr">
@@ -30934,96 +30934,96 @@
       </c>
       <c r="V137" t="inlineStr">
         <is>
-          <t>10.2</t>
+          <t>8.4</t>
         </is>
       </c>
       <c r="W137" t="inlineStr">
         <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="X137" t="inlineStr">
+        <is>
           <t>8.8</t>
         </is>
       </c>
-      <c r="X137" t="inlineStr">
-        <is>
-          <t>11.2</t>
-        </is>
-      </c>
       <c r="Y137" t="inlineStr">
         <is>
-          <t>4.7</t>
+          <t>4.0</t>
         </is>
       </c>
       <c r="Z137" t="inlineStr"/>
       <c r="AA137" t="inlineStr"/>
       <c r="AB137" t="inlineStr">
         <is>
-          <t>11.5</t>
+          <t>7.2</t>
         </is>
       </c>
       <c r="AC137" t="inlineStr"/>
       <c r="AD137" t="inlineStr"/>
       <c r="AE137" t="inlineStr">
         <is>
-          <t>17:00 - 17:30</t>
+          <t>17:30 - 18:00</t>
         </is>
       </c>
       <c r="AF137" t="inlineStr">
         <is>
-          <t>10.2</t>
+          <t>8.4</t>
         </is>
       </c>
       <c r="AG137" t="inlineStr">
         <is>
-          <t>11.2</t>
+          <t>8.8</t>
         </is>
       </c>
       <c r="AH137" t="inlineStr">
         <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="AI137" t="inlineStr">
+        <is>
+          <t>74</t>
+        </is>
+      </c>
+      <c r="AJ137" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="AK137" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="AL137" t="inlineStr">
+        <is>
+          <t>284</t>
+        </is>
+      </c>
+      <c r="AM137" t="inlineStr">
+        <is>
+          <t>17:30 - 18:00</t>
+        </is>
+      </c>
+      <c r="AN137" t="inlineStr">
+        <is>
+          <t>8.4</t>
+        </is>
+      </c>
+      <c r="AO137" t="inlineStr">
+        <is>
           <t>8.8</t>
         </is>
       </c>
-      <c r="AI137" t="inlineStr">
-        <is>
-          <t>66</t>
-        </is>
-      </c>
-      <c r="AJ137" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="AK137" t="inlineStr">
-        <is>
-          <t>4.7</t>
-        </is>
-      </c>
-      <c r="AL137" t="inlineStr">
-        <is>
-          <t>279</t>
-        </is>
-      </c>
-      <c r="AM137" t="inlineStr">
-        <is>
-          <t>17:00 - 17:30</t>
-        </is>
-      </c>
-      <c r="AN137" t="inlineStr">
-        <is>
-          <t>10.2</t>
-        </is>
-      </c>
-      <c r="AO137" t="inlineStr">
-        <is>
-          <t>11.2</t>
-        </is>
-      </c>
       <c r="AP137" t="inlineStr">
         <is>
-          <t>8.8</t>
+          <t>8.0</t>
         </is>
       </c>
       <c r="AQ137" t="inlineStr">
         <is>
-          <t>66</t>
+          <t>74</t>
         </is>
       </c>
       <c r="AR137" t="inlineStr">
@@ -31033,17 +31033,17 @@
       </c>
       <c r="AS137" t="inlineStr">
         <is>
-          <t>4.7</t>
+          <t>4.0</t>
         </is>
       </c>
       <c r="AT137" t="inlineStr">
         <is>
-          <t>279</t>
+          <t>284</t>
         </is>
       </c>
       <c r="AU137" t="inlineStr">
         <is>
-          <t>11.5</t>
+          <t>7.2</t>
         </is>
       </c>
       <c r="AV137" t="inlineStr">
@@ -31054,7 +31054,7 @@
       <c r="AW137" t="inlineStr"/>
       <c r="AX137" t="inlineStr">
         <is>
-          <t>11.5</t>
+          <t>7.2</t>
         </is>
       </c>
       <c r="AY137" t="inlineStr">
@@ -31103,7 +31103,7 @@
       </c>
       <c r="H138" t="inlineStr">
         <is>
-          <t>2026-02-04 18:01:49</t>
+          <t>2026-02-04 18:25:45</t>
         </is>
       </c>
       <c r="I138" t="inlineStr">
@@ -31324,7 +31324,7 @@
       </c>
       <c r="H139" t="inlineStr">
         <is>
-          <t>2026-02-04 18:01:49</t>
+          <t>2026-02-04 18:25:45</t>
         </is>
       </c>
       <c r="I139" t="inlineStr">
@@ -31545,7 +31545,7 @@
       </c>
       <c r="H140" t="inlineStr">
         <is>
-          <t>2026-02-04 18:01:49</t>
+          <t>2026-02-04 18:25:45</t>
         </is>
       </c>
       <c r="I140" t="inlineStr">
@@ -31766,7 +31766,7 @@
       </c>
       <c r="H141" t="inlineStr">
         <is>
-          <t>2026-02-04 18:01:49</t>
+          <t>2026-02-04 18:25:45</t>
         </is>
       </c>
       <c r="I141" t="inlineStr">
@@ -31972,7 +31972,7 @@
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>17:00 - 17:30</t>
+          <t>17:30 - 18:00</t>
         </is>
       </c>
       <c r="F142" t="inlineStr">
@@ -31987,7 +31987,7 @@
       </c>
       <c r="H142" t="inlineStr">
         <is>
-          <t>2026-02-04 18:01:51</t>
+          <t>2026-02-04 18:25:48</t>
         </is>
       </c>
       <c r="I142" t="inlineStr">
@@ -32010,7 +32010,7 @@
       </c>
       <c r="M142" t="inlineStr">
         <is>
-          <t>280</t>
+          <t>273</t>
         </is>
       </c>
       <c r="N142" t="inlineStr"/>
@@ -32022,7 +32022,7 @@
       </c>
       <c r="Q142" t="inlineStr">
         <is>
-          <t>65</t>
+          <t>63</t>
         </is>
       </c>
       <c r="R142" t="inlineStr"/>
@@ -32033,7 +32033,7 @@
       </c>
       <c r="T142" t="inlineStr">
         <is>
-          <t>17:00 - 17:30</t>
+          <t>17:30 - 18:00</t>
         </is>
       </c>
       <c r="U142" t="inlineStr">
@@ -32043,12 +32043,12 @@
       </c>
       <c r="V142" t="inlineStr">
         <is>
-          <t>-2.9</t>
+          <t>-3.0</t>
         </is>
       </c>
       <c r="W142" t="inlineStr">
         <is>
-          <t>-3.1</t>
+          <t>-3.2</t>
         </is>
       </c>
       <c r="X142" t="inlineStr">
@@ -32058,26 +32058,26 @@
       </c>
       <c r="Y142" t="inlineStr">
         <is>
-          <t>11.5</t>
+          <t>9.0</t>
         </is>
       </c>
       <c r="Z142" t="inlineStr"/>
       <c r="AA142" t="inlineStr"/>
       <c r="AB142" t="inlineStr">
         <is>
-          <t>38.9</t>
+          <t>25.6</t>
         </is>
       </c>
       <c r="AC142" t="inlineStr"/>
       <c r="AD142" t="inlineStr"/>
       <c r="AE142" t="inlineStr">
         <is>
-          <t>17:00 - 17:30</t>
+          <t>17:30 - 18:00</t>
         </is>
       </c>
       <c r="AF142" t="inlineStr">
         <is>
-          <t>-2.9</t>
+          <t>-3.0</t>
         </is>
       </c>
       <c r="AG142" t="inlineStr">
@@ -32087,12 +32087,12 @@
       </c>
       <c r="AH142" t="inlineStr">
         <is>
-          <t>-3.1</t>
+          <t>-3.2</t>
         </is>
       </c>
       <c r="AI142" t="inlineStr">
         <is>
-          <t>65</t>
+          <t>63</t>
         </is>
       </c>
       <c r="AJ142" t="inlineStr">
@@ -32107,17 +32107,17 @@
       </c>
       <c r="AL142" t="inlineStr">
         <is>
-          <t>11.5</t>
+          <t>9.0</t>
         </is>
       </c>
       <c r="AM142" t="inlineStr">
         <is>
-          <t>17:00 - 17:30</t>
+          <t>17:30 - 18:00</t>
         </is>
       </c>
       <c r="AN142" t="inlineStr">
         <is>
-          <t>-2.9</t>
+          <t>-3.0</t>
         </is>
       </c>
       <c r="AO142" t="inlineStr">
@@ -32127,12 +32127,12 @@
       </c>
       <c r="AP142" t="inlineStr">
         <is>
-          <t>-3.1</t>
+          <t>-3.2</t>
         </is>
       </c>
       <c r="AQ142" t="inlineStr">
         <is>
-          <t>65</t>
+          <t>63</t>
         </is>
       </c>
       <c r="AR142" t="inlineStr">
@@ -32147,17 +32147,17 @@
       </c>
       <c r="AT142" t="inlineStr">
         <is>
-          <t>11.5</t>
+          <t>9.0</t>
         </is>
       </c>
       <c r="AU142" t="inlineStr">
         <is>
-          <t>280</t>
+          <t>273</t>
         </is>
       </c>
       <c r="AV142" t="inlineStr">
         <is>
-          <t>38.9</t>
+          <t>25.6</t>
         </is>
       </c>
       <c r="AW142" t="inlineStr">
@@ -32167,12 +32167,12 @@
       </c>
       <c r="AX142" t="inlineStr">
         <is>
-          <t>280</t>
+          <t>273</t>
         </is>
       </c>
       <c r="AY142" t="inlineStr">
         <is>
-          <t>38.9</t>
+          <t>25.6</t>
         </is>
       </c>
       <c r="AZ142" t="inlineStr">
@@ -32220,7 +32220,7 @@
       </c>
       <c r="H143" t="inlineStr">
         <is>
-          <t>2026-02-04 18:01:53</t>
+          <t>2026-02-04 18:25:49</t>
         </is>
       </c>
       <c r="I143" t="inlineStr">
@@ -32453,7 +32453,7 @@
       </c>
       <c r="H144" t="inlineStr">
         <is>
-          <t>2026-02-04 18:01:53</t>
+          <t>2026-02-04 18:25:49</t>
         </is>
       </c>
       <c r="I144" t="inlineStr">
@@ -32686,7 +32686,7 @@
       </c>
       <c r="H145" t="inlineStr">
         <is>
-          <t>2026-02-04 18:01:53</t>
+          <t>2026-02-04 18:25:49</t>
         </is>
       </c>
       <c r="I145" t="inlineStr">
@@ -32919,7 +32919,7 @@
       </c>
       <c r="H146" t="inlineStr">
         <is>
-          <t>2026-02-04 18:01:53</t>
+          <t>2026-02-04 18:25:49</t>
         </is>
       </c>
       <c r="I146" t="inlineStr">
@@ -33137,7 +33137,7 @@
       </c>
       <c r="E147" t="inlineStr">
         <is>
-          <t>17:00 - 17:30</t>
+          <t>17:30 - 18:00</t>
         </is>
       </c>
       <c r="F147" t="inlineStr">
@@ -33152,7 +33152,7 @@
       </c>
       <c r="H147" t="inlineStr">
         <is>
-          <t>2026-02-04 18:01:56</t>
+          <t>2026-02-04 18:25:52</t>
         </is>
       </c>
       <c r="I147" t="inlineStr">
@@ -33183,12 +33183,12 @@
       </c>
       <c r="Q147" t="inlineStr">
         <is>
-          <t>83</t>
+          <t>85</t>
         </is>
       </c>
       <c r="R147" t="inlineStr">
         <is>
-          <t>993.0</t>
+          <t>993.5</t>
         </is>
       </c>
       <c r="S147" t="inlineStr">
@@ -33198,23 +33198,23 @@
       </c>
       <c r="T147" t="inlineStr">
         <is>
-          <t>17:00 - 17:30</t>
+          <t>17:30 - 18:00</t>
         </is>
       </c>
       <c r="U147" t="inlineStr"/>
       <c r="V147" t="inlineStr">
         <is>
-          <t>6.4</t>
+          <t>6.2</t>
         </is>
       </c>
       <c r="W147" t="inlineStr">
         <is>
-          <t>6.3</t>
+          <t>5.8</t>
         </is>
       </c>
       <c r="X147" t="inlineStr">
         <is>
-          <t>6.6</t>
+          <t>6.5</t>
         </is>
       </c>
       <c r="Y147" t="inlineStr"/>
@@ -33225,27 +33225,27 @@
       <c r="AD147" t="inlineStr"/>
       <c r="AE147" t="inlineStr">
         <is>
-          <t>17:00 - 17:30</t>
+          <t>17:30 - 18:00</t>
         </is>
       </c>
       <c r="AF147" t="inlineStr">
         <is>
-          <t>6.4</t>
+          <t>6.2</t>
         </is>
       </c>
       <c r="AG147" t="inlineStr">
         <is>
-          <t>6.6</t>
+          <t>6.5</t>
         </is>
       </c>
       <c r="AH147" t="inlineStr">
         <is>
-          <t>6.3</t>
+          <t>5.8</t>
         </is>
       </c>
       <c r="AI147" t="inlineStr">
         <is>
-          <t>83</t>
+          <t>85</t>
         </is>
       </c>
       <c r="AJ147" t="inlineStr">
@@ -33260,32 +33260,32 @@
       </c>
       <c r="AL147" t="inlineStr">
         <is>
-          <t>993.0</t>
+          <t>993.5</t>
         </is>
       </c>
       <c r="AM147" t="inlineStr">
         <is>
-          <t>17:00 - 17:30</t>
+          <t>17:30 - 18:00</t>
         </is>
       </c>
       <c r="AN147" t="inlineStr">
         <is>
-          <t>6.4</t>
+          <t>6.2</t>
         </is>
       </c>
       <c r="AO147" t="inlineStr">
         <is>
-          <t>6.6</t>
+          <t>6.5</t>
         </is>
       </c>
       <c r="AP147" t="inlineStr">
         <is>
-          <t>6.3</t>
+          <t>5.8</t>
         </is>
       </c>
       <c r="AQ147" t="inlineStr">
         <is>
-          <t>83</t>
+          <t>85</t>
         </is>
       </c>
       <c r="AR147" t="inlineStr">
@@ -33300,7 +33300,7 @@
       </c>
       <c r="AT147" t="inlineStr">
         <is>
-          <t>993.0</t>
+          <t>993.5</t>
         </is>
       </c>
       <c r="AU147" t="inlineStr"/>
@@ -33349,7 +33349,7 @@
       </c>
       <c r="H148" t="inlineStr">
         <is>
-          <t>2026-02-04 18:01:57</t>
+          <t>2026-02-04 18:25:53</t>
         </is>
       </c>
       <c r="I148" t="inlineStr">
@@ -33546,7 +33546,7 @@
       </c>
       <c r="H149" t="inlineStr">
         <is>
-          <t>2026-02-04 18:01:57</t>
+          <t>2026-02-04 18:25:53</t>
         </is>
       </c>
       <c r="I149" t="inlineStr">
@@ -33743,7 +33743,7 @@
       </c>
       <c r="H150" t="inlineStr">
         <is>
-          <t>2026-02-04 18:01:57</t>
+          <t>2026-02-04 18:25:53</t>
         </is>
       </c>
       <c r="I150" t="inlineStr">
@@ -33940,7 +33940,7 @@
       </c>
       <c r="H151" t="inlineStr">
         <is>
-          <t>2026-02-04 18:01:57</t>
+          <t>2026-02-04 18:25:53</t>
         </is>
       </c>
       <c r="I151" t="inlineStr">
@@ -34122,7 +34122,7 @@
       </c>
       <c r="E152" t="inlineStr">
         <is>
-          <t>17:00 - 17:30</t>
+          <t>17:30 - 18:00</t>
         </is>
       </c>
       <c r="F152" t="inlineStr">
@@ -34137,7 +34137,7 @@
       </c>
       <c r="H152" t="inlineStr">
         <is>
-          <t>2026-02-04 18:02:00</t>
+          <t>2026-02-04 18:25:56</t>
         </is>
       </c>
       <c r="I152" t="inlineStr">
@@ -34160,7 +34160,7 @@
       </c>
       <c r="M152" t="inlineStr">
         <is>
-          <t>209</t>
+          <t>218</t>
         </is>
       </c>
       <c r="N152" t="inlineStr"/>
@@ -34168,12 +34168,12 @@
       <c r="P152" t="inlineStr"/>
       <c r="Q152" t="inlineStr">
         <is>
-          <t>67</t>
+          <t>72</t>
         </is>
       </c>
       <c r="R152" t="inlineStr">
         <is>
-          <t>992.3</t>
+          <t>992.7</t>
         </is>
       </c>
       <c r="S152" t="inlineStr">
@@ -34183,106 +34183,106 @@
       </c>
       <c r="T152" t="inlineStr">
         <is>
-          <t>17:00 - 17:30</t>
+          <t>17:30 - 18:00</t>
         </is>
       </c>
       <c r="U152" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="V152" t="inlineStr">
         <is>
-          <t>13.1</t>
+          <t>12.1</t>
         </is>
       </c>
       <c r="W152" t="inlineStr">
         <is>
+          <t>11.9</t>
+        </is>
+      </c>
+      <c r="X152" t="inlineStr">
+        <is>
           <t>12.5</t>
         </is>
       </c>
-      <c r="X152" t="inlineStr">
-        <is>
-          <t>13.8</t>
-        </is>
-      </c>
       <c r="Y152" t="inlineStr">
         <is>
-          <t>6.1</t>
+          <t>4.7</t>
         </is>
       </c>
       <c r="Z152" t="inlineStr"/>
       <c r="AA152" t="inlineStr"/>
       <c r="AB152" t="inlineStr">
         <is>
-          <t>14.0</t>
+          <t>8.6</t>
         </is>
       </c>
       <c r="AC152" t="inlineStr"/>
       <c r="AD152" t="inlineStr"/>
       <c r="AE152" t="inlineStr">
         <is>
-          <t>17:00 - 17:30</t>
+          <t>17:30 - 18:00</t>
         </is>
       </c>
       <c r="AF152" t="inlineStr">
         <is>
-          <t>13.1</t>
+          <t>12.1</t>
         </is>
       </c>
       <c r="AG152" t="inlineStr">
         <is>
-          <t>13.8</t>
+          <t>12.5</t>
         </is>
       </c>
       <c r="AH152" t="inlineStr">
         <is>
+          <t>11.9</t>
+        </is>
+      </c>
+      <c r="AI152" t="inlineStr">
+        <is>
+          <t>72</t>
+        </is>
+      </c>
+      <c r="AJ152" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="AK152" t="inlineStr">
+        <is>
+          <t>4.7</t>
+        </is>
+      </c>
+      <c r="AL152" t="inlineStr">
+        <is>
+          <t>218</t>
+        </is>
+      </c>
+      <c r="AM152" t="inlineStr">
+        <is>
+          <t>17:30 - 18:00</t>
+        </is>
+      </c>
+      <c r="AN152" t="inlineStr">
+        <is>
+          <t>12.1</t>
+        </is>
+      </c>
+      <c r="AO152" t="inlineStr">
+        <is>
           <t>12.5</t>
         </is>
       </c>
-      <c r="AI152" t="inlineStr">
-        <is>
-          <t>67</t>
-        </is>
-      </c>
-      <c r="AJ152" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="AK152" t="inlineStr">
-        <is>
-          <t>6.1</t>
-        </is>
-      </c>
-      <c r="AL152" t="inlineStr">
-        <is>
-          <t>209</t>
-        </is>
-      </c>
-      <c r="AM152" t="inlineStr">
-        <is>
-          <t>17:00 - 17:30</t>
-        </is>
-      </c>
-      <c r="AN152" t="inlineStr">
-        <is>
-          <t>13.1</t>
-        </is>
-      </c>
-      <c r="AO152" t="inlineStr">
-        <is>
-          <t>13.8</t>
-        </is>
-      </c>
       <c r="AP152" t="inlineStr">
         <is>
-          <t>12.5</t>
+          <t>11.9</t>
         </is>
       </c>
       <c r="AQ152" t="inlineStr">
         <is>
-          <t>67</t>
+          <t>72</t>
         </is>
       </c>
       <c r="AR152" t="inlineStr">
@@ -34292,42 +34292,42 @@
       </c>
       <c r="AS152" t="inlineStr">
         <is>
-          <t>6.1</t>
+          <t>4.7</t>
         </is>
       </c>
       <c r="AT152" t="inlineStr">
         <is>
-          <t>209</t>
+          <t>218</t>
         </is>
       </c>
       <c r="AU152" t="inlineStr">
         <is>
-          <t>14.0</t>
+          <t>8.6</t>
         </is>
       </c>
       <c r="AV152" t="inlineStr">
         <is>
-          <t>992.3</t>
+          <t>992.7</t>
         </is>
       </c>
       <c r="AW152" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AX152" t="inlineStr">
         <is>
-          <t>14.0</t>
+          <t>8.6</t>
         </is>
       </c>
       <c r="AY152" t="inlineStr">
         <is>
-          <t>992.3</t>
+          <t>992.7</t>
         </is>
       </c>
       <c r="AZ152" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="BA152" t="inlineStr"/>
@@ -34370,7 +34370,7 @@
       </c>
       <c r="H153" t="inlineStr">
         <is>
-          <t>2026-02-04 18:02:02</t>
+          <t>2026-02-04 18:25:57</t>
         </is>
       </c>
       <c r="I153" t="inlineStr">
@@ -34603,7 +34603,7 @@
       </c>
       <c r="H154" t="inlineStr">
         <is>
-          <t>2026-02-04 18:02:02</t>
+          <t>2026-02-04 18:25:57</t>
         </is>
       </c>
       <c r="I154" t="inlineStr">
@@ -34836,7 +34836,7 @@
       </c>
       <c r="H155" t="inlineStr">
         <is>
-          <t>2026-02-04 18:02:02</t>
+          <t>2026-02-04 18:25:57</t>
         </is>
       </c>
       <c r="I155" t="inlineStr">
@@ -35069,7 +35069,7 @@
       </c>
       <c r="H156" t="inlineStr">
         <is>
-          <t>2026-02-04 18:02:02</t>
+          <t>2026-02-04 18:25:57</t>
         </is>
       </c>
       <c r="I156" t="inlineStr">
@@ -35287,7 +35287,7 @@
       </c>
       <c r="E157" t="inlineStr">
         <is>
-          <t>17:00 - 17:30</t>
+          <t>17:30 - 18:00</t>
         </is>
       </c>
       <c r="F157" t="inlineStr">
@@ -35302,7 +35302,7 @@
       </c>
       <c r="H157" t="inlineStr">
         <is>
-          <t>2026-02-04 18:02:05</t>
+          <t>2026-02-04 18:26:00</t>
         </is>
       </c>
       <c r="I157" t="inlineStr">
@@ -35329,7 +35329,7 @@
       <c r="P157" t="inlineStr"/>
       <c r="Q157" t="inlineStr">
         <is>
-          <t>82</t>
+          <t>87</t>
         </is>
       </c>
       <c r="R157" t="inlineStr"/>
@@ -35340,23 +35340,23 @@
       </c>
       <c r="T157" t="inlineStr">
         <is>
-          <t>17:00 - 17:30</t>
+          <t>17:30 - 18:00</t>
         </is>
       </c>
       <c r="U157" t="inlineStr"/>
       <c r="V157" t="inlineStr">
         <is>
-          <t>10.9</t>
+          <t>9.7</t>
         </is>
       </c>
       <c r="W157" t="inlineStr">
         <is>
-          <t>10.5</t>
+          <t>9.2</t>
         </is>
       </c>
       <c r="X157" t="inlineStr">
         <is>
-          <t>11.3</t>
+          <t>10.4</t>
         </is>
       </c>
       <c r="Y157" t="inlineStr"/>
@@ -35367,27 +35367,27 @@
       <c r="AD157" t="inlineStr"/>
       <c r="AE157" t="inlineStr">
         <is>
-          <t>17:00 - 17:30</t>
+          <t>17:30 - 18:00</t>
         </is>
       </c>
       <c r="AF157" t="inlineStr">
         <is>
-          <t>10.9</t>
+          <t>9.7</t>
         </is>
       </c>
       <c r="AG157" t="inlineStr">
         <is>
-          <t>11.3</t>
+          <t>10.4</t>
         </is>
       </c>
       <c r="AH157" t="inlineStr">
         <is>
-          <t>10.5</t>
+          <t>9.2</t>
         </is>
       </c>
       <c r="AI157" t="inlineStr">
         <is>
-          <t>82</t>
+          <t>87</t>
         </is>
       </c>
       <c r="AJ157" t="inlineStr">
@@ -35399,27 +35399,27 @@
       <c r="AL157" t="inlineStr"/>
       <c r="AM157" t="inlineStr">
         <is>
-          <t>17:00 - 17:30</t>
+          <t>17:30 - 18:00</t>
         </is>
       </c>
       <c r="AN157" t="inlineStr">
         <is>
-          <t>10.9</t>
+          <t>9.7</t>
         </is>
       </c>
       <c r="AO157" t="inlineStr">
         <is>
-          <t>11.3</t>
+          <t>10.4</t>
         </is>
       </c>
       <c r="AP157" t="inlineStr">
         <is>
-          <t>10.5</t>
+          <t>9.2</t>
         </is>
       </c>
       <c r="AQ157" t="inlineStr">
         <is>
-          <t>82</t>
+          <t>87</t>
         </is>
       </c>
       <c r="AR157" t="inlineStr">
@@ -35475,7 +35475,7 @@
       </c>
       <c r="H158" t="inlineStr">
         <is>
-          <t>2026-02-04 18:02:06</t>
+          <t>2026-02-04 18:26:01</t>
         </is>
       </c>
       <c r="I158" t="inlineStr">
@@ -35648,7 +35648,7 @@
       </c>
       <c r="H159" t="inlineStr">
         <is>
-          <t>2026-02-04 18:02:06</t>
+          <t>2026-02-04 18:26:01</t>
         </is>
       </c>
       <c r="I159" t="inlineStr">
@@ -35821,7 +35821,7 @@
       </c>
       <c r="H160" t="inlineStr">
         <is>
-          <t>2026-02-04 18:02:06</t>
+          <t>2026-02-04 18:26:01</t>
         </is>
       </c>
       <c r="I160" t="inlineStr">
@@ -35994,7 +35994,7 @@
       </c>
       <c r="H161" t="inlineStr">
         <is>
-          <t>2026-02-04 18:02:06</t>
+          <t>2026-02-04 18:26:01</t>
         </is>
       </c>
       <c r="I161" t="inlineStr">
@@ -36152,7 +36152,7 @@
       </c>
       <c r="E162" t="inlineStr">
         <is>
-          <t>17:00 - 17:30</t>
+          <t>17:30 - 18:00</t>
         </is>
       </c>
       <c r="F162" t="inlineStr">
@@ -36167,7 +36167,7 @@
       </c>
       <c r="H162" t="inlineStr">
         <is>
-          <t>2026-02-04 18:02:09</t>
+          <t>2026-02-04 18:26:04</t>
         </is>
       </c>
       <c r="I162" t="inlineStr">
@@ -36190,7 +36190,7 @@
       </c>
       <c r="M162" t="inlineStr">
         <is>
-          <t>199</t>
+          <t>196</t>
         </is>
       </c>
       <c r="N162" t="inlineStr"/>
@@ -36198,7 +36198,7 @@
       <c r="P162" t="inlineStr"/>
       <c r="Q162" t="inlineStr">
         <is>
-          <t>73</t>
+          <t>77</t>
         </is>
       </c>
       <c r="R162" t="inlineStr"/>
@@ -36209,7 +36209,7 @@
       </c>
       <c r="T162" t="inlineStr">
         <is>
-          <t>17:00 - 17:30</t>
+          <t>17:30 - 18:00</t>
         </is>
       </c>
       <c r="U162" t="inlineStr">
@@ -36219,17 +36219,17 @@
       </c>
       <c r="V162" t="inlineStr">
         <is>
-          <t>7.4</t>
+          <t>6.7</t>
         </is>
       </c>
       <c r="W162" t="inlineStr">
         <is>
+          <t>6.3</t>
+        </is>
+      </c>
+      <c r="X162" t="inlineStr">
+        <is>
           <t>7.1</t>
-        </is>
-      </c>
-      <c r="X162" t="inlineStr">
-        <is>
-          <t>7.9</t>
         </is>
       </c>
       <c r="Y162" t="inlineStr">
@@ -36241,94 +36241,94 @@
       <c r="AA162" t="inlineStr"/>
       <c r="AB162" t="inlineStr">
         <is>
-          <t>8.6</t>
+          <t>6.8</t>
         </is>
       </c>
       <c r="AC162" t="inlineStr"/>
       <c r="AD162" t="inlineStr"/>
       <c r="AE162" t="inlineStr">
         <is>
-          <t>17:00 - 17:30</t>
+          <t>17:30 - 18:00</t>
         </is>
       </c>
       <c r="AF162" t="inlineStr">
         <is>
-          <t>7.4</t>
+          <t>6.7</t>
         </is>
       </c>
       <c r="AG162" t="inlineStr">
         <is>
-          <t>7.9</t>
+          <t>7.1</t>
         </is>
       </c>
       <c r="AH162" t="inlineStr">
         <is>
+          <t>6.3</t>
+        </is>
+      </c>
+      <c r="AI162" t="inlineStr">
+        <is>
+          <t>77</t>
+        </is>
+      </c>
+      <c r="AJ162" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="AK162" t="inlineStr">
+        <is>
+          <t>2.5</t>
+        </is>
+      </c>
+      <c r="AL162" t="inlineStr">
+        <is>
+          <t>196</t>
+        </is>
+      </c>
+      <c r="AM162" t="inlineStr">
+        <is>
+          <t>17:30 - 18:00</t>
+        </is>
+      </c>
+      <c r="AN162" t="inlineStr">
+        <is>
+          <t>6.7</t>
+        </is>
+      </c>
+      <c r="AO162" t="inlineStr">
+        <is>
           <t>7.1</t>
         </is>
       </c>
-      <c r="AI162" t="inlineStr">
-        <is>
-          <t>73</t>
-        </is>
-      </c>
-      <c r="AJ162" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="AK162" t="inlineStr">
+      <c r="AP162" t="inlineStr">
+        <is>
+          <t>6.3</t>
+        </is>
+      </c>
+      <c r="AQ162" t="inlineStr">
+        <is>
+          <t>77</t>
+        </is>
+      </c>
+      <c r="AR162" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="AS162" t="inlineStr">
         <is>
           <t>2.5</t>
         </is>
       </c>
-      <c r="AL162" t="inlineStr">
-        <is>
-          <t>199</t>
-        </is>
-      </c>
-      <c r="AM162" t="inlineStr">
-        <is>
-          <t>17:00 - 17:30</t>
-        </is>
-      </c>
-      <c r="AN162" t="inlineStr">
-        <is>
-          <t>7.4</t>
-        </is>
-      </c>
-      <c r="AO162" t="inlineStr">
-        <is>
-          <t>7.9</t>
-        </is>
-      </c>
-      <c r="AP162" t="inlineStr">
-        <is>
-          <t>7.1</t>
-        </is>
-      </c>
-      <c r="AQ162" t="inlineStr">
-        <is>
-          <t>73</t>
-        </is>
-      </c>
-      <c r="AR162" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="AS162" t="inlineStr">
-        <is>
-          <t>2.5</t>
-        </is>
-      </c>
       <c r="AT162" t="inlineStr">
         <is>
-          <t>199</t>
+          <t>196</t>
         </is>
       </c>
       <c r="AU162" t="inlineStr">
         <is>
-          <t>8.6</t>
+          <t>6.8</t>
         </is>
       </c>
       <c r="AV162" t="inlineStr">
@@ -36339,7 +36339,7 @@
       <c r="AW162" t="inlineStr"/>
       <c r="AX162" t="inlineStr">
         <is>
-          <t>8.6</t>
+          <t>6.8</t>
         </is>
       </c>
       <c r="AY162" t="inlineStr">
@@ -36388,7 +36388,7 @@
       </c>
       <c r="H163" t="inlineStr">
         <is>
-          <t>2026-02-04 18:02:11</t>
+          <t>2026-02-04 18:26:05</t>
         </is>
       </c>
       <c r="I163" t="inlineStr">
@@ -36609,7 +36609,7 @@
       </c>
       <c r="H164" t="inlineStr">
         <is>
-          <t>2026-02-04 18:02:11</t>
+          <t>2026-02-04 18:26:05</t>
         </is>
       </c>
       <c r="I164" t="inlineStr">
@@ -36830,7 +36830,7 @@
       </c>
       <c r="H165" t="inlineStr">
         <is>
-          <t>2026-02-04 18:02:11</t>
+          <t>2026-02-04 18:26:05</t>
         </is>
       </c>
       <c r="I165" t="inlineStr">
@@ -37051,7 +37051,7 @@
       </c>
       <c r="H166" t="inlineStr">
         <is>
-          <t>2026-02-04 18:02:11</t>
+          <t>2026-02-04 18:26:05</t>
         </is>
       </c>
       <c r="I166" t="inlineStr">
@@ -37257,7 +37257,7 @@
       </c>
       <c r="E167" t="inlineStr">
         <is>
-          <t>17:00 - 17:30</t>
+          <t>17:30 - 18:00</t>
         </is>
       </c>
       <c r="F167" t="inlineStr">
@@ -37272,7 +37272,7 @@
       </c>
       <c r="H167" t="inlineStr">
         <is>
-          <t>2026-02-04 18:02:14</t>
+          <t>2026-02-04 18:26:08</t>
         </is>
       </c>
       <c r="I167" t="inlineStr">
@@ -37307,12 +37307,12 @@
       </c>
       <c r="Q167" t="inlineStr">
         <is>
-          <t>94</t>
+          <t>93</t>
         </is>
       </c>
       <c r="R167" t="inlineStr">
         <is>
-          <t>827.9</t>
+          <t>828.1</t>
         </is>
       </c>
       <c r="S167" t="inlineStr">
@@ -37322,27 +37322,27 @@
       </c>
       <c r="T167" t="inlineStr">
         <is>
-          <t>17:00 - 17:30</t>
+          <t>17:30 - 18:00</t>
         </is>
       </c>
       <c r="U167" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="V167" t="inlineStr">
         <is>
-          <t>-4.6</t>
+          <t>-4.9</t>
         </is>
       </c>
       <c r="W167" t="inlineStr">
         <is>
+          <t>-5.1</t>
+        </is>
+      </c>
+      <c r="X167" t="inlineStr">
+        <is>
           <t>-4.7</t>
-        </is>
-      </c>
-      <c r="X167" t="inlineStr">
-        <is>
-          <t>-4.5</t>
         </is>
       </c>
       <c r="Y167" t="inlineStr">
@@ -37361,79 +37361,79 @@
       <c r="AD167" t="inlineStr"/>
       <c r="AE167" t="inlineStr">
         <is>
-          <t>17:00 - 17:30</t>
+          <t>17:30 - 18:00</t>
         </is>
       </c>
       <c r="AF167" t="inlineStr">
         <is>
-          <t>-4.6</t>
+          <t>-4.9</t>
         </is>
       </c>
       <c r="AG167" t="inlineStr">
         <is>
-          <t>-4.5</t>
+          <t>-4.7</t>
         </is>
       </c>
       <c r="AH167" t="inlineStr">
         <is>
+          <t>-5.1</t>
+        </is>
+      </c>
+      <c r="AI167" t="inlineStr">
+        <is>
+          <t>93</t>
+        </is>
+      </c>
+      <c r="AJ167" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="AK167" t="inlineStr">
+        <is>
+          <t>200</t>
+        </is>
+      </c>
+      <c r="AL167" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="AM167" t="inlineStr">
+        <is>
+          <t>17:30 - 18:00</t>
+        </is>
+      </c>
+      <c r="AN167" t="inlineStr">
+        <is>
+          <t>-4.9</t>
+        </is>
+      </c>
+      <c r="AO167" t="inlineStr">
+        <is>
           <t>-4.7</t>
         </is>
       </c>
-      <c r="AI167" t="inlineStr">
-        <is>
-          <t>94</t>
-        </is>
-      </c>
-      <c r="AJ167" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="AK167" t="inlineStr">
+      <c r="AP167" t="inlineStr">
+        <is>
+          <t>-5.1</t>
+        </is>
+      </c>
+      <c r="AQ167" t="inlineStr">
+        <is>
+          <t>93</t>
+        </is>
+      </c>
+      <c r="AR167" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="AS167" t="inlineStr">
         <is>
           <t>200</t>
         </is>
       </c>
-      <c r="AL167" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="AM167" t="inlineStr">
-        <is>
-          <t>17:00 - 17:30</t>
-        </is>
-      </c>
-      <c r="AN167" t="inlineStr">
-        <is>
-          <t>-4.6</t>
-        </is>
-      </c>
-      <c r="AO167" t="inlineStr">
-        <is>
-          <t>-4.5</t>
-        </is>
-      </c>
-      <c r="AP167" t="inlineStr">
-        <is>
-          <t>-4.7</t>
-        </is>
-      </c>
-      <c r="AQ167" t="inlineStr">
-        <is>
-          <t>94</t>
-        </is>
-      </c>
-      <c r="AR167" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="AS167" t="inlineStr">
-        <is>
-          <t>200</t>
-        </is>
-      </c>
       <c r="AT167" t="inlineStr">
         <is>
           <t>0.0</t>
@@ -37451,7 +37451,7 @@
       </c>
       <c r="AW167" t="inlineStr">
         <is>
-          <t>827.9</t>
+          <t>828.1</t>
         </is>
       </c>
       <c r="AX167" t="inlineStr">
@@ -37466,12 +37466,12 @@
       </c>
       <c r="AZ167" t="inlineStr">
         <is>
-          <t>827.9</t>
+          <t>828.1</t>
         </is>
       </c>
       <c r="BA167" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -37513,7 +37513,7 @@
       </c>
       <c r="H168" t="inlineStr">
         <is>
-          <t>2026-02-04 18:02:16</t>
+          <t>2026-02-04 18:26:09</t>
         </is>
       </c>
       <c r="I168" t="inlineStr">
@@ -37722,7 +37722,7 @@
       </c>
       <c r="H169" t="inlineStr">
         <is>
-          <t>2026-02-04 18:02:16</t>
+          <t>2026-02-04 18:26:09</t>
         </is>
       </c>
       <c r="I169" t="inlineStr">
@@ -37931,7 +37931,7 @@
       </c>
       <c r="H170" t="inlineStr">
         <is>
-          <t>2026-02-04 18:02:16</t>
+          <t>2026-02-04 18:26:09</t>
         </is>
       </c>
       <c r="I170" t="inlineStr">
@@ -38140,7 +38140,7 @@
       </c>
       <c r="H171" t="inlineStr">
         <is>
-          <t>2026-02-04 18:02:16</t>
+          <t>2026-02-04 18:26:09</t>
         </is>
       </c>
       <c r="I171" t="inlineStr">
@@ -38334,7 +38334,7 @@
       </c>
       <c r="E172" t="inlineStr">
         <is>
-          <t>17:00 - 17:30</t>
+          <t>17:30 - 18:00</t>
         </is>
       </c>
       <c r="F172" t="inlineStr">
@@ -38349,7 +38349,7 @@
       </c>
       <c r="H172" t="inlineStr">
         <is>
-          <t>2026-02-04 18:02:18</t>
+          <t>2026-02-04 18:26:12</t>
         </is>
       </c>
       <c r="I172" t="inlineStr">
@@ -38372,7 +38372,7 @@
       </c>
       <c r="M172" t="inlineStr">
         <is>
-          <t>333</t>
+          <t>10</t>
         </is>
       </c>
       <c r="N172" t="inlineStr"/>
@@ -38380,12 +38380,12 @@
       <c r="P172" t="inlineStr"/>
       <c r="Q172" t="inlineStr">
         <is>
-          <t>71</t>
+          <t>80</t>
         </is>
       </c>
       <c r="R172" t="inlineStr">
         <is>
-          <t>993.3</t>
+          <t>993.7</t>
         </is>
       </c>
       <c r="S172" t="inlineStr">
@@ -38395,66 +38395,66 @@
       </c>
       <c r="T172" t="inlineStr">
         <is>
-          <t>17:00 - 17:30</t>
+          <t>17:30 - 18:00</t>
         </is>
       </c>
       <c r="U172" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="V172" t="inlineStr">
         <is>
-          <t>11.4</t>
+          <t>9.8</t>
         </is>
       </c>
       <c r="W172" t="inlineStr">
         <is>
-          <t>10.7</t>
+          <t>9.5</t>
         </is>
       </c>
       <c r="X172" t="inlineStr">
         <is>
-          <t>11.8</t>
+          <t>10.6</t>
         </is>
       </c>
       <c r="Y172" t="inlineStr">
         <is>
-          <t>4.3</t>
+          <t>2.2</t>
         </is>
       </c>
       <c r="Z172" t="inlineStr"/>
       <c r="AA172" t="inlineStr"/>
       <c r="AB172" t="inlineStr">
         <is>
-          <t>6.8</t>
+          <t>4.0</t>
         </is>
       </c>
       <c r="AC172" t="inlineStr"/>
       <c r="AD172" t="inlineStr"/>
       <c r="AE172" t="inlineStr">
         <is>
-          <t>17:00 - 17:30</t>
+          <t>17:30 - 18:00</t>
         </is>
       </c>
       <c r="AF172" t="inlineStr">
         <is>
-          <t>11.4</t>
+          <t>9.8</t>
         </is>
       </c>
       <c r="AG172" t="inlineStr">
         <is>
-          <t>11.8</t>
+          <t>10.6</t>
         </is>
       </c>
       <c r="AH172" t="inlineStr">
         <is>
-          <t>10.7</t>
+          <t>9.5</t>
         </is>
       </c>
       <c r="AI172" t="inlineStr">
         <is>
-          <t>71</t>
+          <t>80</t>
         </is>
       </c>
       <c r="AJ172" t="inlineStr">
@@ -38464,37 +38464,37 @@
       </c>
       <c r="AK172" t="inlineStr">
         <is>
-          <t>4.3</t>
+          <t>2.2</t>
         </is>
       </c>
       <c r="AL172" t="inlineStr">
         <is>
-          <t>333</t>
+          <t>10</t>
         </is>
       </c>
       <c r="AM172" t="inlineStr">
         <is>
-          <t>17:00 - 17:30</t>
+          <t>17:30 - 18:00</t>
         </is>
       </c>
       <c r="AN172" t="inlineStr">
         <is>
-          <t>11.4</t>
+          <t>9.8</t>
         </is>
       </c>
       <c r="AO172" t="inlineStr">
         <is>
-          <t>11.8</t>
+          <t>10.6</t>
         </is>
       </c>
       <c r="AP172" t="inlineStr">
         <is>
-          <t>10.7</t>
+          <t>9.5</t>
         </is>
       </c>
       <c r="AQ172" t="inlineStr">
         <is>
-          <t>71</t>
+          <t>80</t>
         </is>
       </c>
       <c r="AR172" t="inlineStr">
@@ -38504,42 +38504,42 @@
       </c>
       <c r="AS172" t="inlineStr">
         <is>
-          <t>4.3</t>
+          <t>2.2</t>
         </is>
       </c>
       <c r="AT172" t="inlineStr">
         <is>
-          <t>333</t>
+          <t>10</t>
         </is>
       </c>
       <c r="AU172" t="inlineStr">
         <is>
-          <t>6.8</t>
+          <t>4.0</t>
         </is>
       </c>
       <c r="AV172" t="inlineStr">
         <is>
-          <t>993.3</t>
+          <t>993.7</t>
         </is>
       </c>
       <c r="AW172" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AX172" t="inlineStr">
         <is>
-          <t>6.8</t>
+          <t>4.0</t>
         </is>
       </c>
       <c r="AY172" t="inlineStr">
         <is>
-          <t>993.3</t>
+          <t>993.7</t>
         </is>
       </c>
       <c r="AZ172" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="BA172" t="inlineStr"/>
@@ -38582,7 +38582,7 @@
       </c>
       <c r="H173" t="inlineStr">
         <is>
-          <t>2026-02-04 18:02:20</t>
+          <t>2026-02-04 18:26:13</t>
         </is>
       </c>
       <c r="I173" t="inlineStr">
@@ -38815,7 +38815,7 @@
       </c>
       <c r="H174" t="inlineStr">
         <is>
-          <t>2026-02-04 18:02:20</t>
+          <t>2026-02-04 18:26:13</t>
         </is>
       </c>
       <c r="I174" t="inlineStr">
@@ -39048,7 +39048,7 @@
       </c>
       <c r="H175" t="inlineStr">
         <is>
-          <t>2026-02-04 18:02:20</t>
+          <t>2026-02-04 18:26:13</t>
         </is>
       </c>
       <c r="I175" t="inlineStr">
@@ -39281,7 +39281,7 @@
       </c>
       <c r="H176" t="inlineStr">
         <is>
-          <t>2026-02-04 18:02:20</t>
+          <t>2026-02-04 18:26:13</t>
         </is>
       </c>
       <c r="I176" t="inlineStr">
@@ -39553,7 +39553,7 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>https://www.meteo.cat/observacions/xema/dades?codi=YT&amp;dia=2026-02-04T17:00Z</t>
+          <t>https://www.meteo.cat/observacions/xema/dades?codi=YT&amp;dia=2026-02-04T17:30Z</t>
         </is>
       </c>
     </row>
@@ -39583,7 +39583,7 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>https://www.meteo.cat/observacions/xema/dades?codi=Z1&amp;dia=2026-02-04T17:00Z</t>
+          <t>https://www.meteo.cat/observacions/xema/dades?codi=Z1&amp;dia=2026-02-04T17:30Z</t>
         </is>
       </c>
     </row>
@@ -39613,7 +39613,7 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>https://www.meteo.cat/observacions/xema/dades?codi=DN&amp;dia=2026-02-04T17:00Z</t>
+          <t>https://www.meteo.cat/observacions/xema/dades?codi=DN&amp;dia=2026-02-04T17:30Z</t>
         </is>
       </c>
     </row>
@@ -39643,7 +39643,7 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>https://www.meteo.cat/observacions/xema/dades?codi=DJ&amp;dia=2026-02-04T17:00Z</t>
+          <t>https://www.meteo.cat/observacions/xema/dades?codi=DJ&amp;dia=2026-02-04T17:30Z</t>
         </is>
       </c>
     </row>

--- a/src/data/resum_periode_meteocat.xlsx
+++ b/src/data/resum_periode_meteocat.xlsx
@@ -712,7 +712,7 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>17:30 - 18:00</t>
+          <t>18:00 - 18:30</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -727,17 +727,17 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>2026-02-04 18:23:56</t>
+          <t>2026-02-04 18:47:57</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>17:30</t>
+          <t>18:00</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>https://www.meteo.cat/observacions/xema/dades?codi=YT&amp;dia=2026-02-04T17:30Z</t>
+          <t>https://www.meteo.cat/observacions/xema/dades?codi=YT&amp;dia=2026-02-04T18:00Z</t>
         </is>
       </c>
       <c r="K2" t="n">
@@ -758,7 +758,7 @@
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>91</t>
+          <t>92</t>
         </is>
       </c>
       <c r="R2" t="inlineStr"/>
@@ -769,7 +769,7 @@
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>17:30 - 18:00</t>
+          <t>18:00 - 18:30</t>
         </is>
       </c>
       <c r="U2" t="inlineStr">
@@ -779,17 +779,17 @@
       </c>
       <c r="V2" t="inlineStr">
         <is>
-          <t>-1.7</t>
+          <t>-2.2</t>
         </is>
       </c>
       <c r="W2" t="inlineStr">
         <is>
+          <t>-2.3</t>
+        </is>
+      </c>
+      <c r="X2" t="inlineStr">
+        <is>
           <t>-2.0</t>
-        </is>
-      </c>
-      <c r="X2" t="inlineStr">
-        <is>
-          <t>-1.4</t>
         </is>
       </c>
       <c r="Y2" t="inlineStr"/>
@@ -800,67 +800,67 @@
       <c r="AD2" t="inlineStr"/>
       <c r="AE2" t="inlineStr">
         <is>
-          <t>17:30 - 18:00</t>
+          <t>18:00 - 18:30</t>
         </is>
       </c>
       <c r="AF2" t="inlineStr">
         <is>
-          <t>-1.7</t>
+          <t>-2.2</t>
         </is>
       </c>
       <c r="AG2" t="inlineStr">
         <is>
-          <t>-1.4</t>
+          <t>-2.0</t>
         </is>
       </c>
       <c r="AH2" t="inlineStr">
         <is>
+          <t>-2.3</t>
+        </is>
+      </c>
+      <c r="AI2" t="inlineStr">
+        <is>
+          <t>92</t>
+        </is>
+      </c>
+      <c r="AJ2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="AK2" t="inlineStr">
+        <is>
+          <t>118</t>
+        </is>
+      </c>
+      <c r="AL2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AM2" t="inlineStr">
+        <is>
+          <t>18:00 - 18:30</t>
+        </is>
+      </c>
+      <c r="AN2" t="inlineStr">
+        <is>
+          <t>-2.2</t>
+        </is>
+      </c>
+      <c r="AO2" t="inlineStr">
+        <is>
           <t>-2.0</t>
         </is>
       </c>
-      <c r="AI2" t="inlineStr">
-        <is>
-          <t>91</t>
-        </is>
-      </c>
-      <c r="AJ2" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="AK2" t="inlineStr">
-        <is>
-          <t>118</t>
-        </is>
-      </c>
-      <c r="AL2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AM2" t="inlineStr">
-        <is>
-          <t>17:30 - 18:00</t>
-        </is>
-      </c>
-      <c r="AN2" t="inlineStr">
-        <is>
-          <t>-1.7</t>
-        </is>
-      </c>
-      <c r="AO2" t="inlineStr">
-        <is>
-          <t>-1.4</t>
-        </is>
-      </c>
       <c r="AP2" t="inlineStr">
         <is>
-          <t>-2.0</t>
+          <t>-2.3</t>
         </is>
       </c>
       <c r="AQ2" t="inlineStr">
         <is>
-          <t>91</t>
+          <t>92</t>
         </is>
       </c>
       <c r="AR2" t="inlineStr">
@@ -924,7 +924,7 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>2026-02-04 18:23:57</t>
+          <t>2026-02-04 18:47:59</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
@@ -1121,7 +1121,7 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>2026-02-04 18:23:57</t>
+          <t>2026-02-04 18:47:59</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
@@ -1318,7 +1318,7 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>2026-02-04 18:23:57</t>
+          <t>2026-02-04 18:47:59</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
@@ -1515,7 +1515,7 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>2026-02-04 18:23:57</t>
+          <t>2026-02-04 18:47:59</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
@@ -1697,7 +1697,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>17:30 - 18:00</t>
+          <t>18:00 - 18:30</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -1712,17 +1712,17 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>2026-02-04 18:24:00</t>
+          <t>2026-02-04 18:48:01</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>17:30</t>
+          <t>18:00</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>https://www.meteo.cat/observacions/xema/dades?codi=Z1&amp;dia=2026-02-04T17:30Z</t>
+          <t>https://www.meteo.cat/observacions/xema/dades?codi=Z1&amp;dia=2026-02-04T18:00Z</t>
         </is>
       </c>
       <c r="K7" t="n">
@@ -1737,7 +1737,7 @@
       <c r="N7" t="inlineStr"/>
       <c r="O7" t="inlineStr">
         <is>
-          <t>210</t>
+          <t>201</t>
         </is>
       </c>
       <c r="P7" t="inlineStr">
@@ -1747,7 +1747,7 @@
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>77</t>
+          <t>78</t>
         </is>
       </c>
       <c r="R7" t="inlineStr"/>
@@ -1758,7 +1758,7 @@
       </c>
       <c r="T7" t="inlineStr">
         <is>
-          <t>17:30 - 18:00</t>
+          <t>18:00 - 18:30</t>
         </is>
       </c>
       <c r="U7" t="inlineStr">
@@ -1768,56 +1768,56 @@
       </c>
       <c r="V7" t="inlineStr">
         <is>
-          <t>-2.6</t>
+          <t>-2.8</t>
         </is>
       </c>
       <c r="W7" t="inlineStr">
         <is>
-          <t>-3.1</t>
+          <t>-3.3</t>
         </is>
       </c>
       <c r="X7" t="inlineStr">
         <is>
-          <t>-2.3</t>
+          <t>-2.5</t>
         </is>
       </c>
       <c r="Y7" t="inlineStr"/>
       <c r="Z7" t="inlineStr"/>
       <c r="AA7" t="inlineStr">
         <is>
-          <t>4.7</t>
+          <t>2.2</t>
         </is>
       </c>
       <c r="AB7" t="inlineStr"/>
       <c r="AC7" t="inlineStr"/>
       <c r="AD7" t="inlineStr">
         <is>
-          <t>10.1</t>
+          <t>6.8</t>
         </is>
       </c>
       <c r="AE7" t="inlineStr">
         <is>
-          <t>17:30 - 18:00</t>
+          <t>18:00 - 18:30</t>
         </is>
       </c>
       <c r="AF7" t="inlineStr">
         <is>
-          <t>-2.6</t>
+          <t>-2.8</t>
         </is>
       </c>
       <c r="AG7" t="inlineStr">
         <is>
-          <t>-2.3</t>
+          <t>-2.5</t>
         </is>
       </c>
       <c r="AH7" t="inlineStr">
         <is>
-          <t>-3.1</t>
+          <t>-3.3</t>
         </is>
       </c>
       <c r="AI7" t="inlineStr">
         <is>
-          <t>77</t>
+          <t>78</t>
         </is>
       </c>
       <c r="AJ7" t="inlineStr">
@@ -1832,32 +1832,32 @@
       </c>
       <c r="AL7" t="inlineStr">
         <is>
-          <t>4.7</t>
+          <t>2.2</t>
         </is>
       </c>
       <c r="AM7" t="inlineStr">
         <is>
-          <t>17:30 - 18:00</t>
+          <t>18:00 - 18:30</t>
         </is>
       </c>
       <c r="AN7" t="inlineStr">
         <is>
-          <t>-2.6</t>
+          <t>-2.8</t>
         </is>
       </c>
       <c r="AO7" t="inlineStr">
         <is>
-          <t>-2.3</t>
+          <t>-2.5</t>
         </is>
       </c>
       <c r="AP7" t="inlineStr">
         <is>
-          <t>-3.1</t>
+          <t>-3.3</t>
         </is>
       </c>
       <c r="AQ7" t="inlineStr">
         <is>
-          <t>77</t>
+          <t>78</t>
         </is>
       </c>
       <c r="AR7" t="inlineStr">
@@ -1872,17 +1872,17 @@
       </c>
       <c r="AT7" t="inlineStr">
         <is>
-          <t>4.7</t>
+          <t>2.2</t>
         </is>
       </c>
       <c r="AU7" t="inlineStr">
         <is>
-          <t>210</t>
+          <t>201</t>
         </is>
       </c>
       <c r="AV7" t="inlineStr">
         <is>
-          <t>10.1</t>
+          <t>6.8</t>
         </is>
       </c>
       <c r="AW7" t="inlineStr">
@@ -1892,12 +1892,12 @@
       </c>
       <c r="AX7" t="inlineStr">
         <is>
-          <t>210</t>
+          <t>201</t>
         </is>
       </c>
       <c r="AY7" t="inlineStr">
         <is>
-          <t>10.1</t>
+          <t>6.8</t>
         </is>
       </c>
       <c r="AZ7" t="inlineStr">
@@ -1945,7 +1945,7 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>2026-02-04 18:24:01</t>
+          <t>2026-02-04 18:48:03</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
@@ -2178,7 +2178,7 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>2026-02-04 18:24:01</t>
+          <t>2026-02-04 18:48:03</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
@@ -2411,7 +2411,7 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>2026-02-04 18:24:01</t>
+          <t>2026-02-04 18:48:03</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
@@ -2644,7 +2644,7 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>2026-02-04 18:24:01</t>
+          <t>2026-02-04 18:48:03</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
@@ -2862,7 +2862,7 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>17:30 - 18:00</t>
+          <t>18:00 - 18:30</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
@@ -2877,17 +2877,17 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>2026-02-04 18:24:04</t>
+          <t>2026-02-04 18:48:06</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>17:30</t>
+          <t>18:00</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>https://www.meteo.cat/observacions/xema/dades?codi=DN&amp;dia=2026-02-04T17:30Z</t>
+          <t>https://www.meteo.cat/observacions/xema/dades?codi=DN&amp;dia=2026-02-04T18:00Z</t>
         </is>
       </c>
       <c r="K12" t="n">
@@ -2900,7 +2900,7 @@
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>300</t>
+          <t>302</t>
         </is>
       </c>
       <c r="N12" t="inlineStr"/>
@@ -2913,7 +2913,7 @@
       </c>
       <c r="R12" t="inlineStr">
         <is>
-          <t>991.1</t>
+          <t>991.5</t>
         </is>
       </c>
       <c r="S12" t="inlineStr">
@@ -2923,7 +2923,7 @@
       </c>
       <c r="T12" t="inlineStr">
         <is>
-          <t>17:30 - 18:00</t>
+          <t>18:00 - 18:30</t>
         </is>
       </c>
       <c r="U12" t="inlineStr">
@@ -2933,51 +2933,51 @@
       </c>
       <c r="V12" t="inlineStr">
         <is>
-          <t>11.2</t>
+          <t>11.0</t>
         </is>
       </c>
       <c r="W12" t="inlineStr">
         <is>
-          <t>10.6</t>
+          <t>10.0</t>
         </is>
       </c>
       <c r="X12" t="inlineStr">
         <is>
-          <t>11.5</t>
+          <t>11.4</t>
         </is>
       </c>
       <c r="Y12" t="inlineStr">
         <is>
-          <t>12.2</t>
+          <t>10.1</t>
         </is>
       </c>
       <c r="Z12" t="inlineStr"/>
       <c r="AA12" t="inlineStr"/>
       <c r="AB12" t="inlineStr">
         <is>
-          <t>28.4</t>
+          <t>22.3</t>
         </is>
       </c>
       <c r="AC12" t="inlineStr"/>
       <c r="AD12" t="inlineStr"/>
       <c r="AE12" t="inlineStr">
         <is>
-          <t>17:30 - 18:00</t>
+          <t>18:00 - 18:30</t>
         </is>
       </c>
       <c r="AF12" t="inlineStr">
         <is>
-          <t>11.2</t>
+          <t>11.0</t>
         </is>
       </c>
       <c r="AG12" t="inlineStr">
         <is>
-          <t>11.5</t>
+          <t>11.4</t>
         </is>
       </c>
       <c r="AH12" t="inlineStr">
         <is>
-          <t>10.6</t>
+          <t>10.0</t>
         </is>
       </c>
       <c r="AI12" t="inlineStr">
@@ -2992,32 +2992,32 @@
       </c>
       <c r="AK12" t="inlineStr">
         <is>
-          <t>12.2</t>
+          <t>10.1</t>
         </is>
       </c>
       <c r="AL12" t="inlineStr">
         <is>
-          <t>300</t>
+          <t>302</t>
         </is>
       </c>
       <c r="AM12" t="inlineStr">
         <is>
-          <t>17:30 - 18:00</t>
+          <t>18:00 - 18:30</t>
         </is>
       </c>
       <c r="AN12" t="inlineStr">
         <is>
-          <t>11.2</t>
+          <t>11.0</t>
         </is>
       </c>
       <c r="AO12" t="inlineStr">
         <is>
-          <t>11.5</t>
+          <t>11.4</t>
         </is>
       </c>
       <c r="AP12" t="inlineStr">
         <is>
-          <t>10.6</t>
+          <t>10.0</t>
         </is>
       </c>
       <c r="AQ12" t="inlineStr">
@@ -3032,22 +3032,22 @@
       </c>
       <c r="AS12" t="inlineStr">
         <is>
-          <t>12.2</t>
+          <t>10.1</t>
         </is>
       </c>
       <c r="AT12" t="inlineStr">
         <is>
-          <t>300</t>
+          <t>302</t>
         </is>
       </c>
       <c r="AU12" t="inlineStr">
         <is>
-          <t>28.4</t>
+          <t>22.3</t>
         </is>
       </c>
       <c r="AV12" t="inlineStr">
         <is>
-          <t>991.1</t>
+          <t>991.5</t>
         </is>
       </c>
       <c r="AW12" t="inlineStr">
@@ -3057,12 +3057,12 @@
       </c>
       <c r="AX12" t="inlineStr">
         <is>
-          <t>28.4</t>
+          <t>22.3</t>
         </is>
       </c>
       <c r="AY12" t="inlineStr">
         <is>
-          <t>991.1</t>
+          <t>991.5</t>
         </is>
       </c>
       <c r="AZ12" t="inlineStr">
@@ -3110,7 +3110,7 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>2026-02-04 18:24:06</t>
+          <t>2026-02-04 18:48:07</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
@@ -3343,7 +3343,7 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>2026-02-04 18:24:06</t>
+          <t>2026-02-04 18:48:07</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
@@ -3576,7 +3576,7 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>2026-02-04 18:24:06</t>
+          <t>2026-02-04 18:48:07</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
@@ -3809,7 +3809,7 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>2026-02-04 18:24:06</t>
+          <t>2026-02-04 18:48:07</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
@@ -4027,7 +4027,7 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>17:30 - 18:00</t>
+          <t>18:00 - 18:30</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
@@ -4042,17 +4042,17 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>2026-02-04 18:24:08</t>
+          <t>2026-02-04 18:48:10</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>17:30</t>
+          <t>18:00</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>https://www.meteo.cat/observacions/xema/dades?codi=DJ&amp;dia=2026-02-04T17:30Z</t>
+          <t>https://www.meteo.cat/observacions/xema/dades?codi=DJ&amp;dia=2026-02-04T18:00Z</t>
         </is>
       </c>
       <c r="K17" t="n">
@@ -4065,7 +4065,7 @@
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>305</t>
+          <t>353</t>
         </is>
       </c>
       <c r="N17" t="inlineStr"/>
@@ -4078,7 +4078,7 @@
       </c>
       <c r="R17" t="inlineStr">
         <is>
-          <t>991.1</t>
+          <t>991.4</t>
         </is>
       </c>
       <c r="S17" t="inlineStr">
@@ -4088,7 +4088,7 @@
       </c>
       <c r="T17" t="inlineStr">
         <is>
-          <t>17:30 - 18:00</t>
+          <t>18:00 - 18:30</t>
         </is>
       </c>
       <c r="U17" t="inlineStr">
@@ -4098,51 +4098,51 @@
       </c>
       <c r="V17" t="inlineStr">
         <is>
-          <t>10.8</t>
+          <t>10.2</t>
         </is>
       </c>
       <c r="W17" t="inlineStr">
         <is>
-          <t>10.5</t>
+          <t>9.4</t>
         </is>
       </c>
       <c r="X17" t="inlineStr">
         <is>
-          <t>11.0</t>
+          <t>10.6</t>
         </is>
       </c>
       <c r="Y17" t="inlineStr">
         <is>
-          <t>5.0</t>
+          <t>4.7</t>
         </is>
       </c>
       <c r="Z17" t="inlineStr"/>
       <c r="AA17" t="inlineStr"/>
       <c r="AB17" t="inlineStr">
         <is>
-          <t>7.6</t>
+          <t>8.6</t>
         </is>
       </c>
       <c r="AC17" t="inlineStr"/>
       <c r="AD17" t="inlineStr"/>
       <c r="AE17" t="inlineStr">
         <is>
-          <t>17:30 - 18:00</t>
+          <t>18:00 - 18:30</t>
         </is>
       </c>
       <c r="AF17" t="inlineStr">
         <is>
-          <t>10.8</t>
+          <t>10.2</t>
         </is>
       </c>
       <c r="AG17" t="inlineStr">
         <is>
-          <t>11.0</t>
+          <t>10.6</t>
         </is>
       </c>
       <c r="AH17" t="inlineStr">
         <is>
-          <t>10.5</t>
+          <t>9.4</t>
         </is>
       </c>
       <c r="AI17" t="inlineStr">
@@ -4157,32 +4157,32 @@
       </c>
       <c r="AK17" t="inlineStr">
         <is>
-          <t>5.0</t>
+          <t>4.7</t>
         </is>
       </c>
       <c r="AL17" t="inlineStr">
         <is>
-          <t>305</t>
+          <t>353</t>
         </is>
       </c>
       <c r="AM17" t="inlineStr">
         <is>
-          <t>17:30 - 18:00</t>
+          <t>18:00 - 18:30</t>
         </is>
       </c>
       <c r="AN17" t="inlineStr">
         <is>
-          <t>10.8</t>
+          <t>10.2</t>
         </is>
       </c>
       <c r="AO17" t="inlineStr">
         <is>
-          <t>11.0</t>
+          <t>10.6</t>
         </is>
       </c>
       <c r="AP17" t="inlineStr">
         <is>
-          <t>10.5</t>
+          <t>9.4</t>
         </is>
       </c>
       <c r="AQ17" t="inlineStr">
@@ -4197,22 +4197,22 @@
       </c>
       <c r="AS17" t="inlineStr">
         <is>
-          <t>5.0</t>
+          <t>4.7</t>
         </is>
       </c>
       <c r="AT17" t="inlineStr">
         <is>
-          <t>305</t>
+          <t>353</t>
         </is>
       </c>
       <c r="AU17" t="inlineStr">
         <is>
-          <t>7.6</t>
+          <t>8.6</t>
         </is>
       </c>
       <c r="AV17" t="inlineStr">
         <is>
-          <t>991.1</t>
+          <t>991.4</t>
         </is>
       </c>
       <c r="AW17" t="inlineStr">
@@ -4222,12 +4222,12 @@
       </c>
       <c r="AX17" t="inlineStr">
         <is>
-          <t>7.6</t>
+          <t>8.6</t>
         </is>
       </c>
       <c r="AY17" t="inlineStr">
         <is>
-          <t>991.1</t>
+          <t>991.4</t>
         </is>
       </c>
       <c r="AZ17" t="inlineStr">
@@ -4275,7 +4275,7 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>2026-02-04 18:24:10</t>
+          <t>2026-02-04 18:48:12</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
@@ -4508,7 +4508,7 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>2026-02-04 18:24:10</t>
+          <t>2026-02-04 18:48:12</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
@@ -4741,7 +4741,7 @@
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>2026-02-04 18:24:10</t>
+          <t>2026-02-04 18:48:12</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
@@ -4974,7 +4974,7 @@
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>2026-02-04 18:24:10</t>
+          <t>2026-02-04 18:48:12</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
@@ -5192,7 +5192,7 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>17:30 - 18:00</t>
+          <t>18:00 - 18:30</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
@@ -5207,17 +5207,17 @@
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>2026-02-04 18:24:12</t>
+          <t>2026-02-04 18:48:14</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>17:30</t>
+          <t>18:00</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>https://www.meteo.cat/observacions/xema/dades?codi=X4&amp;dia=2026-02-04T17:30Z</t>
+          <t>https://www.meteo.cat/observacions/xema/dades?codi=X4&amp;dia=2026-02-04T18:00Z</t>
         </is>
       </c>
       <c r="K22" t="n">
@@ -5230,7 +5230,7 @@
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>277</t>
+          <t>257</t>
         </is>
       </c>
       <c r="N22" t="inlineStr"/>
@@ -5238,12 +5238,12 @@
       <c r="P22" t="inlineStr"/>
       <c r="Q22" t="inlineStr">
         <is>
-          <t>53</t>
+          <t>55</t>
         </is>
       </c>
       <c r="R22" t="inlineStr">
         <is>
-          <t>992.4</t>
+          <t>993.2</t>
         </is>
       </c>
       <c r="S22" t="inlineStr">
@@ -5253,7 +5253,7 @@
       </c>
       <c r="T22" t="inlineStr">
         <is>
-          <t>17:30 - 18:00</t>
+          <t>18:00 - 18:30</t>
         </is>
       </c>
       <c r="U22" t="inlineStr">
@@ -5263,96 +5263,96 @@
       </c>
       <c r="V22" t="inlineStr">
         <is>
-          <t>12.8</t>
+          <t>12.5</t>
         </is>
       </c>
       <c r="W22" t="inlineStr">
         <is>
+          <t>12.4</t>
+        </is>
+      </c>
+      <c r="X22" t="inlineStr">
+        <is>
           <t>12.6</t>
         </is>
       </c>
-      <c r="X22" t="inlineStr">
-        <is>
-          <t>12.9</t>
-        </is>
-      </c>
       <c r="Y22" t="inlineStr">
         <is>
-          <t>8.3</t>
+          <t>7.6</t>
         </is>
       </c>
       <c r="Z22" t="inlineStr"/>
       <c r="AA22" t="inlineStr"/>
       <c r="AB22" t="inlineStr">
         <is>
-          <t>19.8</t>
+          <t>16.9</t>
         </is>
       </c>
       <c r="AC22" t="inlineStr"/>
       <c r="AD22" t="inlineStr"/>
       <c r="AE22" t="inlineStr">
         <is>
-          <t>17:30 - 18:00</t>
+          <t>18:00 - 18:30</t>
         </is>
       </c>
       <c r="AF22" t="inlineStr">
         <is>
-          <t>12.8</t>
+          <t>12.5</t>
         </is>
       </c>
       <c r="AG22" t="inlineStr">
         <is>
-          <t>12.9</t>
+          <t>12.6</t>
         </is>
       </c>
       <c r="AH22" t="inlineStr">
         <is>
+          <t>12.4</t>
+        </is>
+      </c>
+      <c r="AI22" t="inlineStr">
+        <is>
+          <t>55</t>
+        </is>
+      </c>
+      <c r="AJ22" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="AK22" t="inlineStr">
+        <is>
+          <t>7.6</t>
+        </is>
+      </c>
+      <c r="AL22" t="inlineStr">
+        <is>
+          <t>257</t>
+        </is>
+      </c>
+      <c r="AM22" t="inlineStr">
+        <is>
+          <t>18:00 - 18:30</t>
+        </is>
+      </c>
+      <c r="AN22" t="inlineStr">
+        <is>
+          <t>12.5</t>
+        </is>
+      </c>
+      <c r="AO22" t="inlineStr">
+        <is>
           <t>12.6</t>
         </is>
       </c>
-      <c r="AI22" t="inlineStr">
-        <is>
-          <t>53</t>
-        </is>
-      </c>
-      <c r="AJ22" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="AK22" t="inlineStr">
-        <is>
-          <t>8.3</t>
-        </is>
-      </c>
-      <c r="AL22" t="inlineStr">
-        <is>
-          <t>277</t>
-        </is>
-      </c>
-      <c r="AM22" t="inlineStr">
-        <is>
-          <t>17:30 - 18:00</t>
-        </is>
-      </c>
-      <c r="AN22" t="inlineStr">
-        <is>
-          <t>12.8</t>
-        </is>
-      </c>
-      <c r="AO22" t="inlineStr">
-        <is>
-          <t>12.9</t>
-        </is>
-      </c>
       <c r="AP22" t="inlineStr">
         <is>
-          <t>12.6</t>
+          <t>12.4</t>
         </is>
       </c>
       <c r="AQ22" t="inlineStr">
         <is>
-          <t>53</t>
+          <t>55</t>
         </is>
       </c>
       <c r="AR22" t="inlineStr">
@@ -5362,22 +5362,22 @@
       </c>
       <c r="AS22" t="inlineStr">
         <is>
-          <t>8.3</t>
+          <t>7.6</t>
         </is>
       </c>
       <c r="AT22" t="inlineStr">
         <is>
-          <t>277</t>
+          <t>257</t>
         </is>
       </c>
       <c r="AU22" t="inlineStr">
         <is>
-          <t>19.8</t>
+          <t>16.9</t>
         </is>
       </c>
       <c r="AV22" t="inlineStr">
         <is>
-          <t>992.4</t>
+          <t>993.2</t>
         </is>
       </c>
       <c r="AW22" t="inlineStr">
@@ -5387,12 +5387,12 @@
       </c>
       <c r="AX22" t="inlineStr">
         <is>
-          <t>19.8</t>
+          <t>16.9</t>
         </is>
       </c>
       <c r="AY22" t="inlineStr">
         <is>
-          <t>992.4</t>
+          <t>993.2</t>
         </is>
       </c>
       <c r="AZ22" t="inlineStr">
@@ -5440,7 +5440,7 @@
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>2026-02-04 18:24:14</t>
+          <t>2026-02-04 18:48:16</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
@@ -5673,7 +5673,7 @@
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>2026-02-04 18:24:14</t>
+          <t>2026-02-04 18:48:16</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
@@ -5906,7 +5906,7 @@
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>2026-02-04 18:24:14</t>
+          <t>2026-02-04 18:48:16</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
@@ -6139,7 +6139,7 @@
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>2026-02-04 18:24:14</t>
+          <t>2026-02-04 18:48:16</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
@@ -6357,7 +6357,7 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>17:30 - 18:00</t>
+          <t>18:00 - 18:30</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
@@ -6372,17 +6372,17 @@
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>2026-02-04 18:24:16</t>
+          <t>2026-02-04 18:48:18</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>17:30</t>
+          <t>18:00</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>https://www.meteo.cat/observacions/xema/dades?codi=D5&amp;dia=2026-02-04T17:30Z</t>
+          <t>https://www.meteo.cat/observacions/xema/dades?codi=D5&amp;dia=2026-02-04T18:00Z</t>
         </is>
       </c>
       <c r="K27" t="n">
@@ -6395,7 +6395,7 @@
       </c>
       <c r="M27" t="inlineStr">
         <is>
-          <t>285</t>
+          <t>226</t>
         </is>
       </c>
       <c r="N27" t="inlineStr"/>
@@ -6403,12 +6403,12 @@
       <c r="P27" t="inlineStr"/>
       <c r="Q27" t="inlineStr">
         <is>
-          <t>71</t>
+          <t>73</t>
         </is>
       </c>
       <c r="R27" t="inlineStr">
         <is>
-          <t>992.3</t>
+          <t>993.2</t>
         </is>
       </c>
       <c r="S27" t="inlineStr">
@@ -6418,7 +6418,7 @@
       </c>
       <c r="T27" t="inlineStr">
         <is>
-          <t>17:30 - 18:00</t>
+          <t>18:00 - 18:30</t>
         </is>
       </c>
       <c r="U27" t="inlineStr">
@@ -6428,96 +6428,96 @@
       </c>
       <c r="V27" t="inlineStr">
         <is>
-          <t>8.3</t>
+          <t>8.0</t>
         </is>
       </c>
       <c r="W27" t="inlineStr">
         <is>
+          <t>7.9</t>
+        </is>
+      </c>
+      <c r="X27" t="inlineStr">
+        <is>
           <t>8.2</t>
         </is>
       </c>
-      <c r="X27" t="inlineStr">
-        <is>
-          <t>8.3</t>
-        </is>
-      </c>
       <c r="Y27" t="inlineStr">
         <is>
-          <t>1.8</t>
+          <t>7.2</t>
         </is>
       </c>
       <c r="Z27" t="inlineStr"/>
       <c r="AA27" t="inlineStr"/>
       <c r="AB27" t="inlineStr">
         <is>
-          <t>27.7</t>
+          <t>35.6</t>
         </is>
       </c>
       <c r="AC27" t="inlineStr"/>
       <c r="AD27" t="inlineStr"/>
       <c r="AE27" t="inlineStr">
         <is>
-          <t>17:30 - 18:00</t>
+          <t>18:00 - 18:30</t>
         </is>
       </c>
       <c r="AF27" t="inlineStr">
         <is>
-          <t>8.3</t>
+          <t>8.0</t>
         </is>
       </c>
       <c r="AG27" t="inlineStr">
         <is>
-          <t>8.3</t>
+          <t>8.2</t>
         </is>
       </c>
       <c r="AH27" t="inlineStr">
         <is>
+          <t>7.9</t>
+        </is>
+      </c>
+      <c r="AI27" t="inlineStr">
+        <is>
+          <t>73</t>
+        </is>
+      </c>
+      <c r="AJ27" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="AK27" t="inlineStr">
+        <is>
+          <t>7.2</t>
+        </is>
+      </c>
+      <c r="AL27" t="inlineStr">
+        <is>
+          <t>226</t>
+        </is>
+      </c>
+      <c r="AM27" t="inlineStr">
+        <is>
+          <t>18:00 - 18:30</t>
+        </is>
+      </c>
+      <c r="AN27" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="AO27" t="inlineStr">
+        <is>
           <t>8.2</t>
         </is>
       </c>
-      <c r="AI27" t="inlineStr">
-        <is>
-          <t>71</t>
-        </is>
-      </c>
-      <c r="AJ27" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="AK27" t="inlineStr">
-        <is>
-          <t>1.8</t>
-        </is>
-      </c>
-      <c r="AL27" t="inlineStr">
-        <is>
-          <t>285</t>
-        </is>
-      </c>
-      <c r="AM27" t="inlineStr">
-        <is>
-          <t>17:30 - 18:00</t>
-        </is>
-      </c>
-      <c r="AN27" t="inlineStr">
-        <is>
-          <t>8.3</t>
-        </is>
-      </c>
-      <c r="AO27" t="inlineStr">
-        <is>
-          <t>8.3</t>
-        </is>
-      </c>
       <c r="AP27" t="inlineStr">
         <is>
-          <t>8.2</t>
+          <t>7.9</t>
         </is>
       </c>
       <c r="AQ27" t="inlineStr">
         <is>
-          <t>71</t>
+          <t>73</t>
         </is>
       </c>
       <c r="AR27" t="inlineStr">
@@ -6527,22 +6527,22 @@
       </c>
       <c r="AS27" t="inlineStr">
         <is>
-          <t>1.8</t>
+          <t>7.2</t>
         </is>
       </c>
       <c r="AT27" t="inlineStr">
         <is>
-          <t>285</t>
+          <t>226</t>
         </is>
       </c>
       <c r="AU27" t="inlineStr">
         <is>
-          <t>27.7</t>
+          <t>35.6</t>
         </is>
       </c>
       <c r="AV27" t="inlineStr">
         <is>
-          <t>992.3</t>
+          <t>993.2</t>
         </is>
       </c>
       <c r="AW27" t="inlineStr">
@@ -6552,12 +6552,12 @@
       </c>
       <c r="AX27" t="inlineStr">
         <is>
-          <t>27.7</t>
+          <t>35.6</t>
         </is>
       </c>
       <c r="AY27" t="inlineStr">
         <is>
-          <t>992.3</t>
+          <t>993.2</t>
         </is>
       </c>
       <c r="AZ27" t="inlineStr">
@@ -6605,7 +6605,7 @@
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>2026-02-04 18:24:18</t>
+          <t>2026-02-04 18:48:20</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
@@ -6838,7 +6838,7 @@
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>2026-02-04 18:24:18</t>
+          <t>2026-02-04 18:48:20</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
@@ -7071,7 +7071,7 @@
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>2026-02-04 18:24:18</t>
+          <t>2026-02-04 18:48:20</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
@@ -7304,7 +7304,7 @@
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>2026-02-04 18:24:18</t>
+          <t>2026-02-04 18:48:20</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
@@ -7522,7 +7522,7 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>17:30 - 18:00</t>
+          <t>18:00 - 18:30</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
@@ -7537,17 +7537,17 @@
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>2026-02-04 18:24:20</t>
+          <t>2026-02-04 18:48:22</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>17:30</t>
+          <t>18:00</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>https://www.meteo.cat/observacions/xema/dades?codi=UN&amp;dia=2026-02-04T17:30Z</t>
+          <t>https://www.meteo.cat/observacions/xema/dades?codi=UN&amp;dia=2026-02-04T18:00Z</t>
         </is>
       </c>
       <c r="K32" t="n">
@@ -7561,14 +7561,14 @@
       <c r="M32" t="inlineStr"/>
       <c r="N32" t="inlineStr">
         <is>
-          <t>74</t>
+          <t>75</t>
         </is>
       </c>
       <c r="O32" t="inlineStr"/>
       <c r="P32" t="inlineStr"/>
       <c r="Q32" t="inlineStr">
         <is>
-          <t>93</t>
+          <t>94</t>
         </is>
       </c>
       <c r="R32" t="inlineStr"/>
@@ -7579,7 +7579,7 @@
       </c>
       <c r="T32" t="inlineStr">
         <is>
-          <t>17:30 - 18:00</t>
+          <t>18:00 - 18:30</t>
         </is>
       </c>
       <c r="U32" t="inlineStr">
@@ -7589,17 +7589,17 @@
       </c>
       <c r="V32" t="inlineStr">
         <is>
-          <t>5.9</t>
+          <t>5.2</t>
         </is>
       </c>
       <c r="W32" t="inlineStr">
         <is>
-          <t>5.4</t>
+          <t>4.8</t>
         </is>
       </c>
       <c r="X32" t="inlineStr">
         <is>
-          <t>6.5</t>
+          <t>5.5</t>
         </is>
       </c>
       <c r="Y32" t="inlineStr"/>
@@ -7618,27 +7618,27 @@
       <c r="AD32" t="inlineStr"/>
       <c r="AE32" t="inlineStr">
         <is>
-          <t>17:30 - 18:00</t>
+          <t>18:00 - 18:30</t>
         </is>
       </c>
       <c r="AF32" t="inlineStr">
         <is>
-          <t>5.9</t>
+          <t>5.2</t>
         </is>
       </c>
       <c r="AG32" t="inlineStr">
         <is>
-          <t>6.5</t>
+          <t>5.5</t>
         </is>
       </c>
       <c r="AH32" t="inlineStr">
         <is>
-          <t>5.4</t>
+          <t>4.8</t>
         </is>
       </c>
       <c r="AI32" t="inlineStr">
         <is>
-          <t>93</t>
+          <t>94</t>
         </is>
       </c>
       <c r="AJ32" t="inlineStr">
@@ -7653,32 +7653,32 @@
       </c>
       <c r="AL32" t="inlineStr">
         <is>
-          <t>74</t>
+          <t>75</t>
         </is>
       </c>
       <c r="AM32" t="inlineStr">
         <is>
-          <t>17:30 - 18:00</t>
+          <t>18:00 - 18:30</t>
         </is>
       </c>
       <c r="AN32" t="inlineStr">
         <is>
-          <t>5.9</t>
+          <t>5.2</t>
         </is>
       </c>
       <c r="AO32" t="inlineStr">
         <is>
-          <t>6.5</t>
+          <t>5.5</t>
         </is>
       </c>
       <c r="AP32" t="inlineStr">
         <is>
-          <t>5.4</t>
+          <t>4.8</t>
         </is>
       </c>
       <c r="AQ32" t="inlineStr">
         <is>
-          <t>93</t>
+          <t>94</t>
         </is>
       </c>
       <c r="AR32" t="inlineStr">
@@ -7693,7 +7693,7 @@
       </c>
       <c r="AT32" t="inlineStr">
         <is>
-          <t>74</t>
+          <t>75</t>
         </is>
       </c>
       <c r="AU32" t="inlineStr">
@@ -7758,7 +7758,7 @@
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>2026-02-04 18:24:22</t>
+          <t>2026-02-04 18:48:24</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
@@ -7979,7 +7979,7 @@
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>2026-02-04 18:24:22</t>
+          <t>2026-02-04 18:48:24</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
@@ -8200,7 +8200,7 @@
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>2026-02-04 18:24:22</t>
+          <t>2026-02-04 18:48:24</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
@@ -8421,7 +8421,7 @@
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>2026-02-04 18:24:22</t>
+          <t>2026-02-04 18:48:24</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
@@ -8627,7 +8627,7 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>17:30 - 18:00</t>
+          <t>18:00 - 18:30</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
@@ -8642,17 +8642,17 @@
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>2026-02-04 18:24:24</t>
+          <t>2026-02-04 18:48:27</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>17:30</t>
+          <t>18:00</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>https://www.meteo.cat/observacions/xema/dades?codi=MS&amp;dia=2026-02-04T17:30Z</t>
+          <t>https://www.meteo.cat/observacions/xema/dades?codi=MS&amp;dia=2026-02-04T18:00Z</t>
         </is>
       </c>
       <c r="K37" t="n">
@@ -8669,7 +8669,7 @@
       <c r="P37" t="inlineStr"/>
       <c r="Q37" t="inlineStr">
         <is>
-          <t>93</t>
+          <t>96</t>
         </is>
       </c>
       <c r="R37" t="inlineStr"/>
@@ -8680,23 +8680,23 @@
       </c>
       <c r="T37" t="inlineStr">
         <is>
-          <t>17:30 - 18:00</t>
+          <t>18:00 - 18:30</t>
         </is>
       </c>
       <c r="U37" t="inlineStr"/>
       <c r="V37" t="inlineStr">
         <is>
-          <t>3.0</t>
+          <t>2.3</t>
         </is>
       </c>
       <c r="W37" t="inlineStr">
         <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="X37" t="inlineStr">
+        <is>
           <t>2.5</t>
-        </is>
-      </c>
-      <c r="X37" t="inlineStr">
-        <is>
-          <t>3.5</t>
         </is>
       </c>
       <c r="Y37" t="inlineStr"/>
@@ -8707,27 +8707,27 @@
       <c r="AD37" t="inlineStr"/>
       <c r="AE37" t="inlineStr">
         <is>
-          <t>17:30 - 18:00</t>
+          <t>18:00 - 18:30</t>
         </is>
       </c>
       <c r="AF37" t="inlineStr">
         <is>
-          <t>3.0</t>
+          <t>2.3</t>
         </is>
       </c>
       <c r="AG37" t="inlineStr">
         <is>
-          <t>3.5</t>
+          <t>2.5</t>
         </is>
       </c>
       <c r="AH37" t="inlineStr">
         <is>
-          <t>2.5</t>
+          <t>2.0</t>
         </is>
       </c>
       <c r="AI37" t="inlineStr">
         <is>
-          <t>93</t>
+          <t>96</t>
         </is>
       </c>
       <c r="AJ37" t="inlineStr">
@@ -8739,27 +8739,27 @@
       <c r="AL37" t="inlineStr"/>
       <c r="AM37" t="inlineStr">
         <is>
-          <t>17:30 - 18:00</t>
+          <t>18:00 - 18:30</t>
         </is>
       </c>
       <c r="AN37" t="inlineStr">
         <is>
-          <t>3.0</t>
+          <t>2.3</t>
         </is>
       </c>
       <c r="AO37" t="inlineStr">
         <is>
-          <t>3.5</t>
+          <t>2.5</t>
         </is>
       </c>
       <c r="AP37" t="inlineStr">
         <is>
-          <t>2.5</t>
+          <t>2.0</t>
         </is>
       </c>
       <c r="AQ37" t="inlineStr">
         <is>
-          <t>93</t>
+          <t>96</t>
         </is>
       </c>
       <c r="AR37" t="inlineStr">
@@ -8815,7 +8815,7 @@
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>2026-02-04 18:24:25</t>
+          <t>2026-02-04 18:48:28</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
@@ -8988,7 +8988,7 @@
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>2026-02-04 18:24:25</t>
+          <t>2026-02-04 18:48:28</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
@@ -9161,7 +9161,7 @@
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>2026-02-04 18:24:25</t>
+          <t>2026-02-04 18:48:28</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
@@ -9334,7 +9334,7 @@
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>2026-02-04 18:24:25</t>
+          <t>2026-02-04 18:48:28</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
@@ -9492,7 +9492,7 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>17:30 - 18:00</t>
+          <t>18:00 - 18:30</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
@@ -9507,17 +9507,17 @@
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>2026-02-04 18:24:27</t>
+          <t>2026-02-04 18:48:31</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>17:30</t>
+          <t>18:00</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>https://www.meteo.cat/observacions/xema/dades?codi=W1&amp;dia=2026-02-04T17:30Z</t>
+          <t>https://www.meteo.cat/observacions/xema/dades?codi=W1&amp;dia=2026-02-04T18:00Z</t>
         </is>
       </c>
       <c r="K42" t="n">
@@ -9534,7 +9534,7 @@
       <c r="P42" t="inlineStr"/>
       <c r="Q42" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>83</t>
         </is>
       </c>
       <c r="R42" t="inlineStr"/>
@@ -9545,23 +9545,23 @@
       </c>
       <c r="T42" t="inlineStr">
         <is>
-          <t>17:30 - 18:00</t>
+          <t>18:00 - 18:30</t>
         </is>
       </c>
       <c r="U42" t="inlineStr"/>
       <c r="V42" t="inlineStr">
         <is>
-          <t>9.8</t>
+          <t>9.2</t>
         </is>
       </c>
       <c r="W42" t="inlineStr">
         <is>
-          <t>9.3</t>
+          <t>8.6</t>
         </is>
       </c>
       <c r="X42" t="inlineStr">
         <is>
-          <t>10.1</t>
+          <t>9.6</t>
         </is>
       </c>
       <c r="Y42" t="inlineStr"/>
@@ -9572,27 +9572,27 @@
       <c r="AD42" t="inlineStr"/>
       <c r="AE42" t="inlineStr">
         <is>
-          <t>17:30 - 18:00</t>
+          <t>18:00 - 18:30</t>
         </is>
       </c>
       <c r="AF42" t="inlineStr">
         <is>
-          <t>9.8</t>
+          <t>9.2</t>
         </is>
       </c>
       <c r="AG42" t="inlineStr">
         <is>
-          <t>10.1</t>
+          <t>9.6</t>
         </is>
       </c>
       <c r="AH42" t="inlineStr">
         <is>
-          <t>9.3</t>
+          <t>8.6</t>
         </is>
       </c>
       <c r="AI42" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>83</t>
         </is>
       </c>
       <c r="AJ42" t="inlineStr">
@@ -9604,27 +9604,27 @@
       <c r="AL42" t="inlineStr"/>
       <c r="AM42" t="inlineStr">
         <is>
-          <t>17:30 - 18:00</t>
+          <t>18:00 - 18:30</t>
         </is>
       </c>
       <c r="AN42" t="inlineStr">
         <is>
-          <t>9.8</t>
+          <t>9.2</t>
         </is>
       </c>
       <c r="AO42" t="inlineStr">
         <is>
-          <t>10.1</t>
+          <t>9.6</t>
         </is>
       </c>
       <c r="AP42" t="inlineStr">
         <is>
-          <t>9.3</t>
+          <t>8.6</t>
         </is>
       </c>
       <c r="AQ42" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>83</t>
         </is>
       </c>
       <c r="AR42" t="inlineStr">
@@ -9680,7 +9680,7 @@
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>2026-02-04 18:24:29</t>
+          <t>2026-02-04 18:48:32</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
@@ -9853,7 +9853,7 @@
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>2026-02-04 18:24:29</t>
+          <t>2026-02-04 18:48:32</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
@@ -10026,7 +10026,7 @@
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>2026-02-04 18:24:29</t>
+          <t>2026-02-04 18:48:32</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
@@ -10199,7 +10199,7 @@
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>2026-02-04 18:24:29</t>
+          <t>2026-02-04 18:48:32</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
@@ -10357,7 +10357,7 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>17:30 - 18:00</t>
+          <t>18:00 - 18:30</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
@@ -10372,17 +10372,17 @@
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>2026-02-04 18:24:31</t>
+          <t>2026-02-04 18:48:35</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>17:30</t>
+          <t>18:00</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>https://www.meteo.cat/observacions/xema/dades?codi=DP&amp;dia=2026-02-04T17:30Z</t>
+          <t>https://www.meteo.cat/observacions/xema/dades?codi=DP&amp;dia=2026-02-04T18:00Z</t>
         </is>
       </c>
       <c r="K47" t="n">
@@ -10395,7 +10395,7 @@
       </c>
       <c r="M47" t="inlineStr">
         <is>
-          <t>202</t>
+          <t>203</t>
         </is>
       </c>
       <c r="N47" t="inlineStr"/>
@@ -10407,12 +10407,12 @@
       </c>
       <c r="Q47" t="inlineStr">
         <is>
-          <t>72</t>
+          <t>74</t>
         </is>
       </c>
       <c r="R47" t="inlineStr">
         <is>
-          <t>993.1</t>
+          <t>993.7</t>
         </is>
       </c>
       <c r="S47" t="inlineStr">
@@ -10422,7 +10422,7 @@
       </c>
       <c r="T47" t="inlineStr">
         <is>
-          <t>17:30 - 18:00</t>
+          <t>18:00 - 18:30</t>
         </is>
       </c>
       <c r="U47" t="inlineStr">
@@ -10432,12 +10432,12 @@
       </c>
       <c r="V47" t="inlineStr">
         <is>
-          <t>3.3</t>
+          <t>3.0</t>
         </is>
       </c>
       <c r="W47" t="inlineStr">
         <is>
-          <t>2.8</t>
+          <t>2.6</t>
         </is>
       </c>
       <c r="X47" t="inlineStr">
@@ -10447,26 +10447,26 @@
       </c>
       <c r="Y47" t="inlineStr">
         <is>
-          <t>13.3</t>
+          <t>12.2</t>
         </is>
       </c>
       <c r="Z47" t="inlineStr"/>
       <c r="AA47" t="inlineStr"/>
       <c r="AB47" t="inlineStr">
         <is>
-          <t>19.8</t>
+          <t>18.0</t>
         </is>
       </c>
       <c r="AC47" t="inlineStr"/>
       <c r="AD47" t="inlineStr"/>
       <c r="AE47" t="inlineStr">
         <is>
-          <t>17:30 - 18:00</t>
+          <t>18:00 - 18:30</t>
         </is>
       </c>
       <c r="AF47" t="inlineStr">
         <is>
-          <t>3.3</t>
+          <t>3.0</t>
         </is>
       </c>
       <c r="AG47" t="inlineStr">
@@ -10476,12 +10476,12 @@
       </c>
       <c r="AH47" t="inlineStr">
         <is>
-          <t>2.8</t>
+          <t>2.6</t>
         </is>
       </c>
       <c r="AI47" t="inlineStr">
         <is>
-          <t>72</t>
+          <t>74</t>
         </is>
       </c>
       <c r="AJ47" t="inlineStr">
@@ -10496,17 +10496,17 @@
       </c>
       <c r="AL47" t="inlineStr">
         <is>
-          <t>13.3</t>
+          <t>12.2</t>
         </is>
       </c>
       <c r="AM47" t="inlineStr">
         <is>
-          <t>17:30 - 18:00</t>
+          <t>18:00 - 18:30</t>
         </is>
       </c>
       <c r="AN47" t="inlineStr">
         <is>
-          <t>3.3</t>
+          <t>3.0</t>
         </is>
       </c>
       <c r="AO47" t="inlineStr">
@@ -10516,12 +10516,12 @@
       </c>
       <c r="AP47" t="inlineStr">
         <is>
-          <t>2.8</t>
+          <t>2.6</t>
         </is>
       </c>
       <c r="AQ47" t="inlineStr">
         <is>
-          <t>72</t>
+          <t>74</t>
         </is>
       </c>
       <c r="AR47" t="inlineStr">
@@ -10536,37 +10536,37 @@
       </c>
       <c r="AT47" t="inlineStr">
         <is>
-          <t>13.3</t>
+          <t>12.2</t>
         </is>
       </c>
       <c r="AU47" t="inlineStr">
         <is>
-          <t>202</t>
+          <t>203</t>
         </is>
       </c>
       <c r="AV47" t="inlineStr">
         <is>
-          <t>19.8</t>
+          <t>18.0</t>
         </is>
       </c>
       <c r="AW47" t="inlineStr">
         <is>
-          <t>993.1</t>
+          <t>993.7</t>
         </is>
       </c>
       <c r="AX47" t="inlineStr">
         <is>
-          <t>202</t>
+          <t>203</t>
         </is>
       </c>
       <c r="AY47" t="inlineStr">
         <is>
-          <t>19.8</t>
+          <t>18.0</t>
         </is>
       </c>
       <c r="AZ47" t="inlineStr">
         <is>
-          <t>993.1</t>
+          <t>993.7</t>
         </is>
       </c>
       <c r="BA47" t="inlineStr">
@@ -10613,7 +10613,7 @@
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>2026-02-04 18:24:33</t>
+          <t>2026-02-04 18:48:37</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
@@ -10854,7 +10854,7 @@
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>2026-02-04 18:24:33</t>
+          <t>2026-02-04 18:48:37</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
@@ -11095,7 +11095,7 @@
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>2026-02-04 18:24:33</t>
+          <t>2026-02-04 18:48:37</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
@@ -11336,7 +11336,7 @@
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>2026-02-04 18:24:33</t>
+          <t>2026-02-04 18:48:37</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
@@ -11562,7 +11562,7 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>17:30 - 18:00</t>
+          <t>18:00 - 18:30</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
@@ -11577,17 +11577,17 @@
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>2026-02-04 18:24:35</t>
+          <t>2026-02-04 18:48:39</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>17:30</t>
+          <t>18:00</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
         <is>
-          <t>https://www.meteo.cat/observacions/xema/dades?codi=XL&amp;dia=2026-02-04T17:30Z</t>
+          <t>https://www.meteo.cat/observacions/xema/dades?codi=XL&amp;dia=2026-02-04T18:00Z</t>
         </is>
       </c>
       <c r="K52" t="n">
@@ -11600,7 +11600,7 @@
       </c>
       <c r="M52" t="inlineStr">
         <is>
-          <t>280</t>
+          <t>295</t>
         </is>
       </c>
       <c r="N52" t="inlineStr"/>
@@ -11608,7 +11608,7 @@
       <c r="P52" t="inlineStr"/>
       <c r="Q52" t="inlineStr">
         <is>
-          <t>73</t>
+          <t>78</t>
         </is>
       </c>
       <c r="R52" t="inlineStr"/>
@@ -11619,7 +11619,7 @@
       </c>
       <c r="T52" t="inlineStr">
         <is>
-          <t>17:30 - 18:00</t>
+          <t>18:00 - 18:30</t>
         </is>
       </c>
       <c r="U52" t="inlineStr">
@@ -11629,22 +11629,22 @@
       </c>
       <c r="V52" t="inlineStr">
         <is>
-          <t>9.0</t>
+          <t>8.1</t>
         </is>
       </c>
       <c r="W52" t="inlineStr">
         <is>
-          <t>7.8</t>
+          <t>7.7</t>
         </is>
       </c>
       <c r="X52" t="inlineStr">
         <is>
-          <t>9.9</t>
+          <t>8.5</t>
         </is>
       </c>
       <c r="Y52" t="inlineStr">
         <is>
-          <t>5.0</t>
+          <t>3.6</t>
         </is>
       </c>
       <c r="Z52" t="inlineStr"/>
@@ -11658,27 +11658,27 @@
       <c r="AD52" t="inlineStr"/>
       <c r="AE52" t="inlineStr">
         <is>
-          <t>17:30 - 18:00</t>
+          <t>18:00 - 18:30</t>
         </is>
       </c>
       <c r="AF52" t="inlineStr">
         <is>
-          <t>9.0</t>
+          <t>8.1</t>
         </is>
       </c>
       <c r="AG52" t="inlineStr">
         <is>
-          <t>9.9</t>
+          <t>8.5</t>
         </is>
       </c>
       <c r="AH52" t="inlineStr">
         <is>
-          <t>7.8</t>
+          <t>7.7</t>
         </is>
       </c>
       <c r="AI52" t="inlineStr">
         <is>
-          <t>73</t>
+          <t>78</t>
         </is>
       </c>
       <c r="AJ52" t="inlineStr">
@@ -11688,37 +11688,37 @@
       </c>
       <c r="AK52" t="inlineStr">
         <is>
-          <t>5.0</t>
+          <t>3.6</t>
         </is>
       </c>
       <c r="AL52" t="inlineStr">
         <is>
-          <t>280</t>
+          <t>295</t>
         </is>
       </c>
       <c r="AM52" t="inlineStr">
         <is>
-          <t>17:30 - 18:00</t>
+          <t>18:00 - 18:30</t>
         </is>
       </c>
       <c r="AN52" t="inlineStr">
         <is>
-          <t>9.0</t>
+          <t>8.1</t>
         </is>
       </c>
       <c r="AO52" t="inlineStr">
         <is>
-          <t>9.9</t>
+          <t>8.5</t>
         </is>
       </c>
       <c r="AP52" t="inlineStr">
         <is>
-          <t>7.8</t>
+          <t>7.7</t>
         </is>
       </c>
       <c r="AQ52" t="inlineStr">
         <is>
-          <t>73</t>
+          <t>78</t>
         </is>
       </c>
       <c r="AR52" t="inlineStr">
@@ -11728,12 +11728,12 @@
       </c>
       <c r="AS52" t="inlineStr">
         <is>
-          <t>5.0</t>
+          <t>3.6</t>
         </is>
       </c>
       <c r="AT52" t="inlineStr">
         <is>
-          <t>280</t>
+          <t>295</t>
         </is>
       </c>
       <c r="AU52" t="inlineStr">
@@ -11798,7 +11798,7 @@
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>2026-02-04 18:24:37</t>
+          <t>2026-02-04 18:48:41</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
@@ -12019,7 +12019,7 @@
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>2026-02-04 18:24:37</t>
+          <t>2026-02-04 18:48:41</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
@@ -12240,7 +12240,7 @@
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>2026-02-04 18:24:37</t>
+          <t>2026-02-04 18:48:41</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
@@ -12461,7 +12461,7 @@
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>2026-02-04 18:24:37</t>
+          <t>2026-02-04 18:48:41</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
@@ -12667,7 +12667,7 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>17:30 - 18:00</t>
+          <t>18:00 - 18:30</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
@@ -12682,17 +12682,17 @@
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>2026-02-04 18:24:39</t>
+          <t>2026-02-04 18:48:44</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>17:30</t>
+          <t>18:00</t>
         </is>
       </c>
       <c r="J57" t="inlineStr">
         <is>
-          <t>https://www.meteo.cat/observacions/xema/dades?codi=VZ&amp;dia=2026-02-04T17:30Z</t>
+          <t>https://www.meteo.cat/observacions/xema/dades?codi=VZ&amp;dia=2026-02-04T18:00Z</t>
         </is>
       </c>
       <c r="K57" t="n">
@@ -12709,7 +12709,7 @@
       <c r="P57" t="inlineStr"/>
       <c r="Q57" t="inlineStr">
         <is>
-          <t>83</t>
+          <t>82</t>
         </is>
       </c>
       <c r="R57" t="inlineStr"/>
@@ -12720,23 +12720,23 @@
       </c>
       <c r="T57" t="inlineStr">
         <is>
-          <t>17:30 - 18:00</t>
+          <t>18:00 - 18:30</t>
         </is>
       </c>
       <c r="U57" t="inlineStr"/>
       <c r="V57" t="inlineStr">
         <is>
-          <t>8.0</t>
+          <t>7.8</t>
         </is>
       </c>
       <c r="W57" t="inlineStr">
         <is>
-          <t>7.7</t>
+          <t>7.3</t>
         </is>
       </c>
       <c r="X57" t="inlineStr">
         <is>
-          <t>8.3</t>
+          <t>8.2</t>
         </is>
       </c>
       <c r="Y57" t="inlineStr"/>
@@ -12747,27 +12747,27 @@
       <c r="AD57" t="inlineStr"/>
       <c r="AE57" t="inlineStr">
         <is>
-          <t>17:30 - 18:00</t>
+          <t>18:00 - 18:30</t>
         </is>
       </c>
       <c r="AF57" t="inlineStr">
         <is>
-          <t>8.0</t>
+          <t>7.8</t>
         </is>
       </c>
       <c r="AG57" t="inlineStr">
         <is>
-          <t>8.3</t>
+          <t>8.2</t>
         </is>
       </c>
       <c r="AH57" t="inlineStr">
         <is>
-          <t>7.7</t>
+          <t>7.3</t>
         </is>
       </c>
       <c r="AI57" t="inlineStr">
         <is>
-          <t>83</t>
+          <t>82</t>
         </is>
       </c>
       <c r="AJ57" t="inlineStr">
@@ -12779,27 +12779,27 @@
       <c r="AL57" t="inlineStr"/>
       <c r="AM57" t="inlineStr">
         <is>
-          <t>17:30 - 18:00</t>
+          <t>18:00 - 18:30</t>
         </is>
       </c>
       <c r="AN57" t="inlineStr">
         <is>
-          <t>8.0</t>
+          <t>7.8</t>
         </is>
       </c>
       <c r="AO57" t="inlineStr">
         <is>
-          <t>8.3</t>
+          <t>8.2</t>
         </is>
       </c>
       <c r="AP57" t="inlineStr">
         <is>
-          <t>7.7</t>
+          <t>7.3</t>
         </is>
       </c>
       <c r="AQ57" t="inlineStr">
         <is>
-          <t>83</t>
+          <t>82</t>
         </is>
       </c>
       <c r="AR57" t="inlineStr">
@@ -12855,7 +12855,7 @@
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>2026-02-04 18:24:41</t>
+          <t>2026-02-04 18:48:45</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
@@ -13028,7 +13028,7 @@
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>2026-02-04 18:24:41</t>
+          <t>2026-02-04 18:48:45</t>
         </is>
       </c>
       <c r="I59" t="inlineStr">
@@ -13201,7 +13201,7 @@
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>2026-02-04 18:24:41</t>
+          <t>2026-02-04 18:48:45</t>
         </is>
       </c>
       <c r="I60" t="inlineStr">
@@ -13374,7 +13374,7 @@
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>2026-02-04 18:24:41</t>
+          <t>2026-02-04 18:48:45</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
@@ -13532,7 +13532,7 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>17:30 - 18:00</t>
+          <t>18:00 - 18:30</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
@@ -13547,17 +13547,17 @@
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>2026-02-04 18:24:43</t>
+          <t>2026-02-04 18:48:48</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>17:30</t>
+          <t>18:00</t>
         </is>
       </c>
       <c r="J62" t="inlineStr">
         <is>
-          <t>https://www.meteo.cat/observacions/xema/dades?codi=Z7&amp;dia=2026-02-04T17:30Z</t>
+          <t>https://www.meteo.cat/observacions/xema/dades?codi=Z7&amp;dia=2026-02-04T18:00Z</t>
         </is>
       </c>
       <c r="K62" t="n">
@@ -13570,7 +13570,7 @@
       </c>
       <c r="M62" t="inlineStr">
         <is>
-          <t>239</t>
+          <t>227</t>
         </is>
       </c>
       <c r="N62" t="inlineStr"/>
@@ -13582,7 +13582,7 @@
       </c>
       <c r="Q62" t="inlineStr">
         <is>
-          <t>67</t>
+          <t>65</t>
         </is>
       </c>
       <c r="R62" t="inlineStr"/>
@@ -13593,7 +13593,7 @@
       </c>
       <c r="T62" t="inlineStr">
         <is>
-          <t>17:30 - 18:00</t>
+          <t>18:00 - 18:30</t>
         </is>
       </c>
       <c r="U62" t="inlineStr">
@@ -13603,7 +13603,7 @@
       </c>
       <c r="V62" t="inlineStr">
         <is>
-          <t>-3.2</t>
+          <t>-3.0</t>
         </is>
       </c>
       <c r="W62" t="inlineStr">
@@ -13613,36 +13613,36 @@
       </c>
       <c r="X62" t="inlineStr">
         <is>
-          <t>-3.1</t>
+          <t>-2.7</t>
         </is>
       </c>
       <c r="Y62" t="inlineStr">
         <is>
-          <t>5.8</t>
+          <t>6.8</t>
         </is>
       </c>
       <c r="Z62" t="inlineStr"/>
       <c r="AA62" t="inlineStr"/>
       <c r="AB62" t="inlineStr">
         <is>
-          <t>14.8</t>
+          <t>24.8</t>
         </is>
       </c>
       <c r="AC62" t="inlineStr"/>
       <c r="AD62" t="inlineStr"/>
       <c r="AE62" t="inlineStr">
         <is>
-          <t>17:30 - 18:00</t>
+          <t>18:00 - 18:30</t>
         </is>
       </c>
       <c r="AF62" t="inlineStr">
         <is>
-          <t>-3.2</t>
+          <t>-3.0</t>
         </is>
       </c>
       <c r="AG62" t="inlineStr">
         <is>
-          <t>-3.1</t>
+          <t>-2.7</t>
         </is>
       </c>
       <c r="AH62" t="inlineStr">
@@ -13652,7 +13652,7 @@
       </c>
       <c r="AI62" t="inlineStr">
         <is>
-          <t>67</t>
+          <t>65</t>
         </is>
       </c>
       <c r="AJ62" t="inlineStr">
@@ -13667,22 +13667,22 @@
       </c>
       <c r="AL62" t="inlineStr">
         <is>
-          <t>5.8</t>
+          <t>6.8</t>
         </is>
       </c>
       <c r="AM62" t="inlineStr">
         <is>
-          <t>17:30 - 18:00</t>
+          <t>18:00 - 18:30</t>
         </is>
       </c>
       <c r="AN62" t="inlineStr">
         <is>
-          <t>-3.2</t>
+          <t>-3.0</t>
         </is>
       </c>
       <c r="AO62" t="inlineStr">
         <is>
-          <t>-3.1</t>
+          <t>-2.7</t>
         </is>
       </c>
       <c r="AP62" t="inlineStr">
@@ -13692,7 +13692,7 @@
       </c>
       <c r="AQ62" t="inlineStr">
         <is>
-          <t>67</t>
+          <t>65</t>
         </is>
       </c>
       <c r="AR62" t="inlineStr">
@@ -13707,17 +13707,17 @@
       </c>
       <c r="AT62" t="inlineStr">
         <is>
-          <t>5.8</t>
+          <t>6.8</t>
         </is>
       </c>
       <c r="AU62" t="inlineStr">
         <is>
-          <t>239</t>
+          <t>227</t>
         </is>
       </c>
       <c r="AV62" t="inlineStr">
         <is>
-          <t>14.8</t>
+          <t>24.8</t>
         </is>
       </c>
       <c r="AW62" t="inlineStr">
@@ -13727,12 +13727,12 @@
       </c>
       <c r="AX62" t="inlineStr">
         <is>
-          <t>239</t>
+          <t>227</t>
         </is>
       </c>
       <c r="AY62" t="inlineStr">
         <is>
-          <t>14.8</t>
+          <t>24.8</t>
         </is>
       </c>
       <c r="AZ62" t="inlineStr">
@@ -13780,7 +13780,7 @@
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>2026-02-04 18:24:45</t>
+          <t>2026-02-04 18:48:49</t>
         </is>
       </c>
       <c r="I63" t="inlineStr">
@@ -14013,7 +14013,7 @@
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>2026-02-04 18:24:45</t>
+          <t>2026-02-04 18:48:49</t>
         </is>
       </c>
       <c r="I64" t="inlineStr">
@@ -14246,7 +14246,7 @@
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>2026-02-04 18:24:45</t>
+          <t>2026-02-04 18:48:49</t>
         </is>
       </c>
       <c r="I65" t="inlineStr">
@@ -14479,7 +14479,7 @@
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>2026-02-04 18:24:45</t>
+          <t>2026-02-04 18:48:49</t>
         </is>
       </c>
       <c r="I66" t="inlineStr">
@@ -14697,7 +14697,7 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>17:30 - 18:00</t>
+          <t>18:00 - 18:30</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
@@ -14712,17 +14712,17 @@
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>2026-02-04 18:24:47</t>
+          <t>2026-02-04 18:48:52</t>
         </is>
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>17:30</t>
+          <t>18:00</t>
         </is>
       </c>
       <c r="J67" t="inlineStr">
         <is>
-          <t>https://www.meteo.cat/observacions/xema/dades?codi=XJ&amp;dia=2026-02-04T17:30Z</t>
+          <t>https://www.meteo.cat/observacions/xema/dades?codi=XJ&amp;dia=2026-02-04T18:00Z</t>
         </is>
       </c>
       <c r="K67" t="n">
@@ -14735,7 +14735,7 @@
       </c>
       <c r="M67" t="inlineStr">
         <is>
-          <t>247</t>
+          <t>204</t>
         </is>
       </c>
       <c r="N67" t="inlineStr"/>
@@ -14743,12 +14743,12 @@
       <c r="P67" t="inlineStr"/>
       <c r="Q67" t="inlineStr">
         <is>
-          <t>68</t>
+          <t>73</t>
         </is>
       </c>
       <c r="R67" t="inlineStr">
         <is>
-          <t>991.4</t>
+          <t>991.8</t>
         </is>
       </c>
       <c r="S67" t="inlineStr">
@@ -14758,7 +14758,7 @@
       </c>
       <c r="T67" t="inlineStr">
         <is>
-          <t>17:30 - 18:00</t>
+          <t>18:00 - 18:30</t>
         </is>
       </c>
       <c r="U67" t="inlineStr">
@@ -14768,56 +14768,56 @@
       </c>
       <c r="V67" t="inlineStr">
         <is>
-          <t>9.6</t>
+          <t>8.5</t>
         </is>
       </c>
       <c r="W67" t="inlineStr">
         <is>
-          <t>8.2</t>
+          <t>7.4</t>
         </is>
       </c>
       <c r="X67" t="inlineStr">
         <is>
-          <t>10.6</t>
+          <t>9.4</t>
         </is>
       </c>
       <c r="Y67" t="inlineStr">
         <is>
-          <t>3.6</t>
+          <t>3.2</t>
         </is>
       </c>
       <c r="Z67" t="inlineStr"/>
       <c r="AA67" t="inlineStr"/>
       <c r="AB67" t="inlineStr">
         <is>
-          <t>9.0</t>
+          <t>7.9</t>
         </is>
       </c>
       <c r="AC67" t="inlineStr"/>
       <c r="AD67" t="inlineStr"/>
       <c r="AE67" t="inlineStr">
         <is>
-          <t>17:30 - 18:00</t>
+          <t>18:00 - 18:30</t>
         </is>
       </c>
       <c r="AF67" t="inlineStr">
         <is>
-          <t>9.6</t>
+          <t>8.5</t>
         </is>
       </c>
       <c r="AG67" t="inlineStr">
         <is>
-          <t>10.6</t>
+          <t>9.4</t>
         </is>
       </c>
       <c r="AH67" t="inlineStr">
         <is>
-          <t>8.2</t>
+          <t>7.4</t>
         </is>
       </c>
       <c r="AI67" t="inlineStr">
         <is>
-          <t>68</t>
+          <t>73</t>
         </is>
       </c>
       <c r="AJ67" t="inlineStr">
@@ -14827,37 +14827,37 @@
       </c>
       <c r="AK67" t="inlineStr">
         <is>
-          <t>3.6</t>
+          <t>3.2</t>
         </is>
       </c>
       <c r="AL67" t="inlineStr">
         <is>
-          <t>247</t>
+          <t>204</t>
         </is>
       </c>
       <c r="AM67" t="inlineStr">
         <is>
-          <t>17:30 - 18:00</t>
+          <t>18:00 - 18:30</t>
         </is>
       </c>
       <c r="AN67" t="inlineStr">
         <is>
-          <t>9.6</t>
+          <t>8.5</t>
         </is>
       </c>
       <c r="AO67" t="inlineStr">
         <is>
-          <t>10.6</t>
+          <t>9.4</t>
         </is>
       </c>
       <c r="AP67" t="inlineStr">
         <is>
-          <t>8.2</t>
+          <t>7.4</t>
         </is>
       </c>
       <c r="AQ67" t="inlineStr">
         <is>
-          <t>68</t>
+          <t>73</t>
         </is>
       </c>
       <c r="AR67" t="inlineStr">
@@ -14867,22 +14867,22 @@
       </c>
       <c r="AS67" t="inlineStr">
         <is>
-          <t>3.6</t>
+          <t>3.2</t>
         </is>
       </c>
       <c r="AT67" t="inlineStr">
         <is>
-          <t>247</t>
+          <t>204</t>
         </is>
       </c>
       <c r="AU67" t="inlineStr">
         <is>
-          <t>9.0</t>
+          <t>7.9</t>
         </is>
       </c>
       <c r="AV67" t="inlineStr">
         <is>
-          <t>991.4</t>
+          <t>991.8</t>
         </is>
       </c>
       <c r="AW67" t="inlineStr">
@@ -14892,12 +14892,12 @@
       </c>
       <c r="AX67" t="inlineStr">
         <is>
-          <t>9.0</t>
+          <t>7.9</t>
         </is>
       </c>
       <c r="AY67" t="inlineStr">
         <is>
-          <t>991.4</t>
+          <t>991.8</t>
         </is>
       </c>
       <c r="AZ67" t="inlineStr">
@@ -14945,7 +14945,7 @@
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>2026-02-04 18:24:48</t>
+          <t>2026-02-04 18:48:54</t>
         </is>
       </c>
       <c r="I68" t="inlineStr">
@@ -15178,7 +15178,7 @@
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>2026-02-04 18:24:48</t>
+          <t>2026-02-04 18:48:54</t>
         </is>
       </c>
       <c r="I69" t="inlineStr">
@@ -15411,7 +15411,7 @@
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>2026-02-04 18:24:48</t>
+          <t>2026-02-04 18:48:54</t>
         </is>
       </c>
       <c r="I70" t="inlineStr">
@@ -15644,7 +15644,7 @@
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>2026-02-04 18:24:48</t>
+          <t>2026-02-04 18:48:54</t>
         </is>
       </c>
       <c r="I71" t="inlineStr">
@@ -15862,7 +15862,7 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>17:30 - 18:00</t>
+          <t>18:00 - 18:30</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
@@ -15877,17 +15877,17 @@
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>2026-02-04 18:24:51</t>
+          <t>2026-02-04 18:48:57</t>
         </is>
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>17:30</t>
+          <t>18:00</t>
         </is>
       </c>
       <c r="J72" t="inlineStr">
         <is>
-          <t>https://www.meteo.cat/observacions/xema/dades?codi=YU&amp;dia=2026-02-04T17:30Z</t>
+          <t>https://www.meteo.cat/observacions/xema/dades?codi=YU&amp;dia=2026-02-04T18:00Z</t>
         </is>
       </c>
       <c r="K72" t="n">
@@ -15900,7 +15900,7 @@
       </c>
       <c r="M72" t="inlineStr">
         <is>
-          <t>259</t>
+          <t>304</t>
         </is>
       </c>
       <c r="N72" t="inlineStr"/>
@@ -15908,7 +15908,7 @@
       <c r="P72" t="inlineStr"/>
       <c r="Q72" t="inlineStr">
         <is>
-          <t>89</t>
+          <t>92</t>
         </is>
       </c>
       <c r="R72" t="inlineStr"/>
@@ -15919,7 +15919,7 @@
       </c>
       <c r="T72" t="inlineStr">
         <is>
-          <t>17:30 - 18:00</t>
+          <t>18:00 - 18:30</t>
         </is>
       </c>
       <c r="U72" t="inlineStr">
@@ -15929,96 +15929,96 @@
       </c>
       <c r="V72" t="inlineStr">
         <is>
-          <t>3.8</t>
+          <t>3.1</t>
         </is>
       </c>
       <c r="W72" t="inlineStr">
         <is>
+          <t>2.8</t>
+        </is>
+      </c>
+      <c r="X72" t="inlineStr">
+        <is>
           <t>3.3</t>
         </is>
       </c>
-      <c r="X72" t="inlineStr">
-        <is>
-          <t>4.2</t>
-        </is>
-      </c>
       <c r="Y72" t="inlineStr">
         <is>
-          <t>5.4</t>
+          <t>3.2</t>
         </is>
       </c>
       <c r="Z72" t="inlineStr"/>
       <c r="AA72" t="inlineStr"/>
       <c r="AB72" t="inlineStr">
         <is>
-          <t>14.0</t>
+          <t>9.0</t>
         </is>
       </c>
       <c r="AC72" t="inlineStr"/>
       <c r="AD72" t="inlineStr"/>
       <c r="AE72" t="inlineStr">
         <is>
-          <t>17:30 - 18:00</t>
+          <t>18:00 - 18:30</t>
         </is>
       </c>
       <c r="AF72" t="inlineStr">
         <is>
-          <t>3.8</t>
+          <t>3.1</t>
         </is>
       </c>
       <c r="AG72" t="inlineStr">
         <is>
-          <t>4.2</t>
+          <t>3.3</t>
         </is>
       </c>
       <c r="AH72" t="inlineStr">
         <is>
+          <t>2.8</t>
+        </is>
+      </c>
+      <c r="AI72" t="inlineStr">
+        <is>
+          <t>92</t>
+        </is>
+      </c>
+      <c r="AJ72" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="AK72" t="inlineStr">
+        <is>
+          <t>3.2</t>
+        </is>
+      </c>
+      <c r="AL72" t="inlineStr">
+        <is>
+          <t>304</t>
+        </is>
+      </c>
+      <c r="AM72" t="inlineStr">
+        <is>
+          <t>18:00 - 18:30</t>
+        </is>
+      </c>
+      <c r="AN72" t="inlineStr">
+        <is>
+          <t>3.1</t>
+        </is>
+      </c>
+      <c r="AO72" t="inlineStr">
+        <is>
           <t>3.3</t>
         </is>
       </c>
-      <c r="AI72" t="inlineStr">
-        <is>
-          <t>89</t>
-        </is>
-      </c>
-      <c r="AJ72" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="AK72" t="inlineStr">
-        <is>
-          <t>5.4</t>
-        </is>
-      </c>
-      <c r="AL72" t="inlineStr">
-        <is>
-          <t>259</t>
-        </is>
-      </c>
-      <c r="AM72" t="inlineStr">
-        <is>
-          <t>17:30 - 18:00</t>
-        </is>
-      </c>
-      <c r="AN72" t="inlineStr">
-        <is>
-          <t>3.8</t>
-        </is>
-      </c>
-      <c r="AO72" t="inlineStr">
-        <is>
-          <t>4.2</t>
-        </is>
-      </c>
       <c r="AP72" t="inlineStr">
         <is>
-          <t>3.3</t>
+          <t>2.8</t>
         </is>
       </c>
       <c r="AQ72" t="inlineStr">
         <is>
-          <t>89</t>
+          <t>92</t>
         </is>
       </c>
       <c r="AR72" t="inlineStr">
@@ -16028,17 +16028,17 @@
       </c>
       <c r="AS72" t="inlineStr">
         <is>
-          <t>5.4</t>
+          <t>3.2</t>
         </is>
       </c>
       <c r="AT72" t="inlineStr">
         <is>
-          <t>259</t>
+          <t>304</t>
         </is>
       </c>
       <c r="AU72" t="inlineStr">
         <is>
-          <t>14.0</t>
+          <t>9.0</t>
         </is>
       </c>
       <c r="AV72" t="inlineStr">
@@ -16049,7 +16049,7 @@
       <c r="AW72" t="inlineStr"/>
       <c r="AX72" t="inlineStr">
         <is>
-          <t>14.0</t>
+          <t>9.0</t>
         </is>
       </c>
       <c r="AY72" t="inlineStr">
@@ -16098,7 +16098,7 @@
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>2026-02-04 18:24:52</t>
+          <t>2026-02-04 18:48:58</t>
         </is>
       </c>
       <c r="I73" t="inlineStr">
@@ -16319,7 +16319,7 @@
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>2026-02-04 18:24:52</t>
+          <t>2026-02-04 18:48:58</t>
         </is>
       </c>
       <c r="I74" t="inlineStr">
@@ -16540,7 +16540,7 @@
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>2026-02-04 18:24:52</t>
+          <t>2026-02-04 18:48:58</t>
         </is>
       </c>
       <c r="I75" t="inlineStr">
@@ -16761,7 +16761,7 @@
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>2026-02-04 18:24:52</t>
+          <t>2026-02-04 18:48:58</t>
         </is>
       </c>
       <c r="I76" t="inlineStr">
@@ -16967,7 +16967,7 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>17:30 - 18:00</t>
+          <t>18:00 - 18:30</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
@@ -16982,17 +16982,17 @@
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>2026-02-04 18:24:55</t>
+          <t>2026-02-04 18:49:01</t>
         </is>
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>17:30</t>
+          <t>18:00</t>
         </is>
       </c>
       <c r="J77" t="inlineStr">
         <is>
-          <t>https://www.meteo.cat/observacions/xema/dades?codi=CD&amp;dia=2026-02-04T17:30Z</t>
+          <t>https://www.meteo.cat/observacions/xema/dades?codi=CD&amp;dia=2026-02-04T18:00Z</t>
         </is>
       </c>
       <c r="K77" t="n">
@@ -17005,7 +17005,7 @@
       </c>
       <c r="M77" t="inlineStr">
         <is>
-          <t>105</t>
+          <t>63</t>
         </is>
       </c>
       <c r="N77" t="inlineStr"/>
@@ -17013,12 +17013,12 @@
       <c r="P77" t="inlineStr"/>
       <c r="Q77" t="inlineStr">
         <is>
-          <t>76</t>
+          <t>78</t>
         </is>
       </c>
       <c r="R77" t="inlineStr">
         <is>
-          <t>992.9</t>
+          <t>993.7</t>
         </is>
       </c>
       <c r="S77" t="inlineStr">
@@ -17028,7 +17028,7 @@
       </c>
       <c r="T77" t="inlineStr">
         <is>
-          <t>17:30 - 18:00</t>
+          <t>18:00 - 18:30</t>
         </is>
       </c>
       <c r="U77" t="inlineStr">
@@ -17038,56 +17038,56 @@
       </c>
       <c r="V77" t="inlineStr">
         <is>
-          <t>5.4</t>
+          <t>4.6</t>
         </is>
       </c>
       <c r="W77" t="inlineStr">
         <is>
-          <t>4.9</t>
+          <t>4.1</t>
         </is>
       </c>
       <c r="X77" t="inlineStr">
         <is>
-          <t>5.6</t>
+          <t>5.1</t>
         </is>
       </c>
       <c r="Y77" t="inlineStr">
         <is>
-          <t>4.0</t>
+          <t>2.5</t>
         </is>
       </c>
       <c r="Z77" t="inlineStr"/>
       <c r="AA77" t="inlineStr"/>
       <c r="AB77" t="inlineStr">
         <is>
-          <t>7.2</t>
+          <t>7.9</t>
         </is>
       </c>
       <c r="AC77" t="inlineStr"/>
       <c r="AD77" t="inlineStr"/>
       <c r="AE77" t="inlineStr">
         <is>
-          <t>17:30 - 18:00</t>
+          <t>18:00 - 18:30</t>
         </is>
       </c>
       <c r="AF77" t="inlineStr">
         <is>
-          <t>5.4</t>
+          <t>4.6</t>
         </is>
       </c>
       <c r="AG77" t="inlineStr">
         <is>
-          <t>5.6</t>
+          <t>5.1</t>
         </is>
       </c>
       <c r="AH77" t="inlineStr">
         <is>
-          <t>4.9</t>
+          <t>4.1</t>
         </is>
       </c>
       <c r="AI77" t="inlineStr">
         <is>
-          <t>76</t>
+          <t>78</t>
         </is>
       </c>
       <c r="AJ77" t="inlineStr">
@@ -17097,37 +17097,37 @@
       </c>
       <c r="AK77" t="inlineStr">
         <is>
-          <t>4.0</t>
+          <t>2.5</t>
         </is>
       </c>
       <c r="AL77" t="inlineStr">
         <is>
-          <t>105</t>
+          <t>63</t>
         </is>
       </c>
       <c r="AM77" t="inlineStr">
         <is>
-          <t>17:30 - 18:00</t>
+          <t>18:00 - 18:30</t>
         </is>
       </c>
       <c r="AN77" t="inlineStr">
         <is>
-          <t>5.4</t>
+          <t>4.6</t>
         </is>
       </c>
       <c r="AO77" t="inlineStr">
         <is>
-          <t>5.6</t>
+          <t>5.1</t>
         </is>
       </c>
       <c r="AP77" t="inlineStr">
         <is>
-          <t>4.9</t>
+          <t>4.1</t>
         </is>
       </c>
       <c r="AQ77" t="inlineStr">
         <is>
-          <t>76</t>
+          <t>78</t>
         </is>
       </c>
       <c r="AR77" t="inlineStr">
@@ -17137,22 +17137,22 @@
       </c>
       <c r="AS77" t="inlineStr">
         <is>
-          <t>4.0</t>
+          <t>2.5</t>
         </is>
       </c>
       <c r="AT77" t="inlineStr">
         <is>
-          <t>105</t>
+          <t>63</t>
         </is>
       </c>
       <c r="AU77" t="inlineStr">
         <is>
-          <t>7.2</t>
+          <t>7.9</t>
         </is>
       </c>
       <c r="AV77" t="inlineStr">
         <is>
-          <t>992.9</t>
+          <t>993.7</t>
         </is>
       </c>
       <c r="AW77" t="inlineStr">
@@ -17162,12 +17162,12 @@
       </c>
       <c r="AX77" t="inlineStr">
         <is>
-          <t>7.2</t>
+          <t>7.9</t>
         </is>
       </c>
       <c r="AY77" t="inlineStr">
         <is>
-          <t>992.9</t>
+          <t>993.7</t>
         </is>
       </c>
       <c r="AZ77" t="inlineStr">
@@ -17215,7 +17215,7 @@
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>2026-02-04 18:24:57</t>
+          <t>2026-02-04 18:49:03</t>
         </is>
       </c>
       <c r="I78" t="inlineStr">
@@ -17448,7 +17448,7 @@
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>2026-02-04 18:24:57</t>
+          <t>2026-02-04 18:49:03</t>
         </is>
       </c>
       <c r="I79" t="inlineStr">
@@ -17681,7 +17681,7 @@
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>2026-02-04 18:24:57</t>
+          <t>2026-02-04 18:49:03</t>
         </is>
       </c>
       <c r="I80" t="inlineStr">
@@ -17914,7 +17914,7 @@
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>2026-02-04 18:24:57</t>
+          <t>2026-02-04 18:49:03</t>
         </is>
       </c>
       <c r="I81" t="inlineStr">
@@ -18132,7 +18132,7 @@
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>17:30 - 18:00</t>
+          <t>18:00 - 18:30</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
@@ -18147,17 +18147,17 @@
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>2026-02-04 18:24:59</t>
+          <t>2026-02-04 18:49:05</t>
         </is>
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>17:30</t>
+          <t>18:00</t>
         </is>
       </c>
       <c r="J82" t="inlineStr">
         <is>
-          <t>https://www.meteo.cat/observacions/xema/dades?codi=Z2&amp;dia=2026-02-04T17:30Z</t>
+          <t>https://www.meteo.cat/observacions/xema/dades?codi=Z2&amp;dia=2026-02-04T18:00Z</t>
         </is>
       </c>
       <c r="K82" t="n">
@@ -18172,17 +18172,17 @@
       <c r="N82" t="inlineStr"/>
       <c r="O82" t="inlineStr">
         <is>
-          <t>295</t>
+          <t>289</t>
         </is>
       </c>
       <c r="P82" t="inlineStr">
         <is>
-          <t>113</t>
+          <t>114</t>
         </is>
       </c>
       <c r="Q82" t="inlineStr">
         <is>
-          <t>95</t>
+          <t>96</t>
         </is>
       </c>
       <c r="R82" t="inlineStr"/>
@@ -18193,7 +18193,7 @@
       </c>
       <c r="T82" t="inlineStr">
         <is>
-          <t>17:30 - 18:00</t>
+          <t>18:00 - 18:30</t>
         </is>
       </c>
       <c r="U82" t="inlineStr">
@@ -18203,56 +18203,56 @@
       </c>
       <c r="V82" t="inlineStr">
         <is>
-          <t>-5.7</t>
+          <t>-5.1</t>
         </is>
       </c>
       <c r="W82" t="inlineStr">
         <is>
-          <t>-5.8</t>
+          <t>-5.4</t>
         </is>
       </c>
       <c r="X82" t="inlineStr">
         <is>
-          <t>-5.5</t>
+          <t>-4.9</t>
         </is>
       </c>
       <c r="Y82" t="inlineStr"/>
       <c r="Z82" t="inlineStr"/>
       <c r="AA82" t="inlineStr">
         <is>
-          <t>5.8</t>
+          <t>6.1</t>
         </is>
       </c>
       <c r="AB82" t="inlineStr"/>
       <c r="AC82" t="inlineStr"/>
       <c r="AD82" t="inlineStr">
         <is>
-          <t>7.6</t>
+          <t>8.6</t>
         </is>
       </c>
       <c r="AE82" t="inlineStr">
         <is>
-          <t>17:30 - 18:00</t>
+          <t>18:00 - 18:30</t>
         </is>
       </c>
       <c r="AF82" t="inlineStr">
         <is>
-          <t>-5.7</t>
+          <t>-5.1</t>
         </is>
       </c>
       <c r="AG82" t="inlineStr">
         <is>
-          <t>-5.5</t>
+          <t>-4.9</t>
         </is>
       </c>
       <c r="AH82" t="inlineStr">
         <is>
-          <t>-5.8</t>
+          <t>-5.4</t>
         </is>
       </c>
       <c r="AI82" t="inlineStr">
         <is>
-          <t>95</t>
+          <t>96</t>
         </is>
       </c>
       <c r="AJ82" t="inlineStr">
@@ -18262,37 +18262,37 @@
       </c>
       <c r="AK82" t="inlineStr">
         <is>
-          <t>113</t>
+          <t>114</t>
         </is>
       </c>
       <c r="AL82" t="inlineStr">
         <is>
-          <t>5.8</t>
+          <t>6.1</t>
         </is>
       </c>
       <c r="AM82" t="inlineStr">
         <is>
-          <t>17:30 - 18:00</t>
+          <t>18:00 - 18:30</t>
         </is>
       </c>
       <c r="AN82" t="inlineStr">
         <is>
-          <t>-5.7</t>
+          <t>-5.1</t>
         </is>
       </c>
       <c r="AO82" t="inlineStr">
         <is>
-          <t>-5.5</t>
+          <t>-4.9</t>
         </is>
       </c>
       <c r="AP82" t="inlineStr">
         <is>
-          <t>-5.8</t>
+          <t>-5.4</t>
         </is>
       </c>
       <c r="AQ82" t="inlineStr">
         <is>
-          <t>95</t>
+          <t>96</t>
         </is>
       </c>
       <c r="AR82" t="inlineStr">
@@ -18302,22 +18302,22 @@
       </c>
       <c r="AS82" t="inlineStr">
         <is>
-          <t>113</t>
+          <t>114</t>
         </is>
       </c>
       <c r="AT82" t="inlineStr">
         <is>
-          <t>5.8</t>
+          <t>6.1</t>
         </is>
       </c>
       <c r="AU82" t="inlineStr">
         <is>
-          <t>295</t>
+          <t>289</t>
         </is>
       </c>
       <c r="AV82" t="inlineStr">
         <is>
-          <t>7.6</t>
+          <t>8.6</t>
         </is>
       </c>
       <c r="AW82" t="inlineStr">
@@ -18327,12 +18327,12 @@
       </c>
       <c r="AX82" t="inlineStr">
         <is>
-          <t>295</t>
+          <t>289</t>
         </is>
       </c>
       <c r="AY82" t="inlineStr">
         <is>
-          <t>7.6</t>
+          <t>8.6</t>
         </is>
       </c>
       <c r="AZ82" t="inlineStr">
@@ -18380,7 +18380,7 @@
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>2026-02-04 18:25:01</t>
+          <t>2026-02-04 18:49:07</t>
         </is>
       </c>
       <c r="I83" t="inlineStr">
@@ -18613,7 +18613,7 @@
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>2026-02-04 18:25:01</t>
+          <t>2026-02-04 18:49:07</t>
         </is>
       </c>
       <c r="I84" t="inlineStr">
@@ -18846,7 +18846,7 @@
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>2026-02-04 18:25:01</t>
+          <t>2026-02-04 18:49:07</t>
         </is>
       </c>
       <c r="I85" t="inlineStr">
@@ -19079,7 +19079,7 @@
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>2026-02-04 18:25:01</t>
+          <t>2026-02-04 18:49:07</t>
         </is>
       </c>
       <c r="I86" t="inlineStr">
@@ -19297,7 +19297,7 @@
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>17:30 - 18:00</t>
+          <t>18:00 - 18:30</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
@@ -19312,17 +19312,17 @@
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>2026-02-04 18:25:03</t>
+          <t>2026-02-04 18:49:10</t>
         </is>
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>17:30</t>
+          <t>18:00</t>
         </is>
       </c>
       <c r="J87" t="inlineStr">
         <is>
-          <t>https://www.meteo.cat/observacions/xema/dades?codi=VK&amp;dia=2026-02-04T17:30Z</t>
+          <t>https://www.meteo.cat/observacions/xema/dades?codi=VK&amp;dia=2026-02-04T18:00Z</t>
         </is>
       </c>
       <c r="K87" t="n">
@@ -19335,7 +19335,7 @@
       </c>
       <c r="M87" t="inlineStr">
         <is>
-          <t>191</t>
+          <t>212</t>
         </is>
       </c>
       <c r="N87" t="inlineStr"/>
@@ -19343,12 +19343,12 @@
       <c r="P87" t="inlineStr"/>
       <c r="Q87" t="inlineStr">
         <is>
-          <t>84</t>
+          <t>91</t>
         </is>
       </c>
       <c r="R87" t="inlineStr">
         <is>
-          <t>993.9</t>
+          <t>994.1</t>
         </is>
       </c>
       <c r="S87" t="inlineStr">
@@ -19358,7 +19358,7 @@
       </c>
       <c r="T87" t="inlineStr">
         <is>
-          <t>17:30 - 18:00</t>
+          <t>18:00 - 18:30</t>
         </is>
       </c>
       <c r="U87" t="inlineStr">
@@ -19368,96 +19368,96 @@
       </c>
       <c r="V87" t="inlineStr">
         <is>
-          <t>7.3</t>
+          <t>6.7</t>
         </is>
       </c>
       <c r="W87" t="inlineStr">
         <is>
+          <t>6.5</t>
+        </is>
+      </c>
+      <c r="X87" t="inlineStr">
+        <is>
           <t>7.0</t>
         </is>
       </c>
-      <c r="X87" t="inlineStr">
-        <is>
-          <t>7.4</t>
-        </is>
-      </c>
       <c r="Y87" t="inlineStr">
         <is>
-          <t>3.6</t>
+          <t>4.3</t>
         </is>
       </c>
       <c r="Z87" t="inlineStr"/>
       <c r="AA87" t="inlineStr"/>
       <c r="AB87" t="inlineStr">
         <is>
-          <t>5.8</t>
+          <t>5.4</t>
         </is>
       </c>
       <c r="AC87" t="inlineStr"/>
       <c r="AD87" t="inlineStr"/>
       <c r="AE87" t="inlineStr">
         <is>
-          <t>17:30 - 18:00</t>
+          <t>18:00 - 18:30</t>
         </is>
       </c>
       <c r="AF87" t="inlineStr">
         <is>
-          <t>7.3</t>
+          <t>6.7</t>
         </is>
       </c>
       <c r="AG87" t="inlineStr">
         <is>
-          <t>7.4</t>
+          <t>7.0</t>
         </is>
       </c>
       <c r="AH87" t="inlineStr">
         <is>
+          <t>6.5</t>
+        </is>
+      </c>
+      <c r="AI87" t="inlineStr">
+        <is>
+          <t>91</t>
+        </is>
+      </c>
+      <c r="AJ87" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="AK87" t="inlineStr">
+        <is>
+          <t>4.3</t>
+        </is>
+      </c>
+      <c r="AL87" t="inlineStr">
+        <is>
+          <t>212</t>
+        </is>
+      </c>
+      <c r="AM87" t="inlineStr">
+        <is>
+          <t>18:00 - 18:30</t>
+        </is>
+      </c>
+      <c r="AN87" t="inlineStr">
+        <is>
+          <t>6.7</t>
+        </is>
+      </c>
+      <c r="AO87" t="inlineStr">
+        <is>
           <t>7.0</t>
         </is>
       </c>
-      <c r="AI87" t="inlineStr">
-        <is>
-          <t>84</t>
-        </is>
-      </c>
-      <c r="AJ87" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="AK87" t="inlineStr">
-        <is>
-          <t>3.6</t>
-        </is>
-      </c>
-      <c r="AL87" t="inlineStr">
-        <is>
-          <t>191</t>
-        </is>
-      </c>
-      <c r="AM87" t="inlineStr">
-        <is>
-          <t>17:30 - 18:00</t>
-        </is>
-      </c>
-      <c r="AN87" t="inlineStr">
-        <is>
-          <t>7.3</t>
-        </is>
-      </c>
-      <c r="AO87" t="inlineStr">
-        <is>
-          <t>7.4</t>
-        </is>
-      </c>
       <c r="AP87" t="inlineStr">
         <is>
-          <t>7.0</t>
+          <t>6.5</t>
         </is>
       </c>
       <c r="AQ87" t="inlineStr">
         <is>
-          <t>84</t>
+          <t>91</t>
         </is>
       </c>
       <c r="AR87" t="inlineStr">
@@ -19467,22 +19467,22 @@
       </c>
       <c r="AS87" t="inlineStr">
         <is>
-          <t>3.6</t>
+          <t>4.3</t>
         </is>
       </c>
       <c r="AT87" t="inlineStr">
         <is>
-          <t>191</t>
+          <t>212</t>
         </is>
       </c>
       <c r="AU87" t="inlineStr">
         <is>
-          <t>5.8</t>
+          <t>5.4</t>
         </is>
       </c>
       <c r="AV87" t="inlineStr">
         <is>
-          <t>993.9</t>
+          <t>994.1</t>
         </is>
       </c>
       <c r="AW87" t="inlineStr">
@@ -19492,12 +19492,12 @@
       </c>
       <c r="AX87" t="inlineStr">
         <is>
-          <t>5.8</t>
+          <t>5.4</t>
         </is>
       </c>
       <c r="AY87" t="inlineStr">
         <is>
-          <t>993.9</t>
+          <t>994.1</t>
         </is>
       </c>
       <c r="AZ87" t="inlineStr">
@@ -19545,7 +19545,7 @@
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>2026-02-04 18:25:05</t>
+          <t>2026-02-04 18:49:11</t>
         </is>
       </c>
       <c r="I88" t="inlineStr">
@@ -19778,7 +19778,7 @@
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>2026-02-04 18:25:05</t>
+          <t>2026-02-04 18:49:11</t>
         </is>
       </c>
       <c r="I89" t="inlineStr">
@@ -20011,7 +20011,7 @@
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>2026-02-04 18:25:05</t>
+          <t>2026-02-04 18:49:11</t>
         </is>
       </c>
       <c r="I90" t="inlineStr">
@@ -20244,7 +20244,7 @@
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>2026-02-04 18:25:05</t>
+          <t>2026-02-04 18:49:11</t>
         </is>
       </c>
       <c r="I91" t="inlineStr">
@@ -20462,7 +20462,7 @@
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>17:30 - 18:00</t>
+          <t>18:00 - 18:30</t>
         </is>
       </c>
       <c r="F92" t="inlineStr">
@@ -20477,17 +20477,17 @@
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>2026-02-04 18:25:07</t>
+          <t>2026-02-04 18:49:14</t>
         </is>
       </c>
       <c r="I92" t="inlineStr">
         <is>
-          <t>17:30</t>
+          <t>18:00</t>
         </is>
       </c>
       <c r="J92" t="inlineStr">
         <is>
-          <t>https://www.meteo.cat/observacions/xema/dades?codi=Z3&amp;dia=2026-02-04T17:30Z</t>
+          <t>https://www.meteo.cat/observacions/xema/dades?codi=Z3&amp;dia=2026-02-04T18:00Z</t>
         </is>
       </c>
       <c r="K92" t="n">
@@ -20502,7 +20502,7 @@
       <c r="N92" t="inlineStr"/>
       <c r="O92" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>25</t>
         </is>
       </c>
       <c r="P92" t="inlineStr">
@@ -20523,7 +20523,7 @@
       </c>
       <c r="T92" t="inlineStr">
         <is>
-          <t>17:30 - 18:00</t>
+          <t>18:00 - 18:30</t>
         </is>
       </c>
       <c r="U92" t="inlineStr">
@@ -20538,12 +20538,12 @@
       </c>
       <c r="W92" t="inlineStr">
         <is>
-          <t>-3.3</t>
+          <t>-3.4</t>
         </is>
       </c>
       <c r="X92" t="inlineStr">
         <is>
-          <t>-3.0</t>
+          <t>-2.8</t>
         </is>
       </c>
       <c r="Y92" t="inlineStr"/>
@@ -20562,7 +20562,7 @@
       </c>
       <c r="AE92" t="inlineStr">
         <is>
-          <t>17:30 - 18:00</t>
+          <t>18:00 - 18:30</t>
         </is>
       </c>
       <c r="AF92" t="inlineStr">
@@ -20572,12 +20572,12 @@
       </c>
       <c r="AG92" t="inlineStr">
         <is>
-          <t>-3.0</t>
+          <t>-2.8</t>
         </is>
       </c>
       <c r="AH92" t="inlineStr">
         <is>
-          <t>-3.3</t>
+          <t>-3.4</t>
         </is>
       </c>
       <c r="AI92" t="inlineStr">
@@ -20602,7 +20602,7 @@
       </c>
       <c r="AM92" t="inlineStr">
         <is>
-          <t>17:30 - 18:00</t>
+          <t>18:00 - 18:30</t>
         </is>
       </c>
       <c r="AN92" t="inlineStr">
@@ -20612,12 +20612,12 @@
       </c>
       <c r="AO92" t="inlineStr">
         <is>
-          <t>-3.0</t>
+          <t>-2.8</t>
         </is>
       </c>
       <c r="AP92" t="inlineStr">
         <is>
-          <t>-3.3</t>
+          <t>-3.4</t>
         </is>
       </c>
       <c r="AQ92" t="inlineStr">
@@ -20642,7 +20642,7 @@
       </c>
       <c r="AU92" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>25</t>
         </is>
       </c>
       <c r="AV92" t="inlineStr">
@@ -20657,7 +20657,7 @@
       </c>
       <c r="AX92" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>25</t>
         </is>
       </c>
       <c r="AY92" t="inlineStr">
@@ -20710,7 +20710,7 @@
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>2026-02-04 18:25:09</t>
+          <t>2026-02-04 18:49:16</t>
         </is>
       </c>
       <c r="I93" t="inlineStr">
@@ -20943,7 +20943,7 @@
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>2026-02-04 18:25:09</t>
+          <t>2026-02-04 18:49:16</t>
         </is>
       </c>
       <c r="I94" t="inlineStr">
@@ -21176,7 +21176,7 @@
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>2026-02-04 18:25:09</t>
+          <t>2026-02-04 18:49:16</t>
         </is>
       </c>
       <c r="I95" t="inlineStr">
@@ -21409,7 +21409,7 @@
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>2026-02-04 18:25:09</t>
+          <t>2026-02-04 18:49:16</t>
         </is>
       </c>
       <c r="I96" t="inlineStr">
@@ -21627,7 +21627,7 @@
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>17:30 - 18:00</t>
+          <t>18:00 - 18:30</t>
         </is>
       </c>
       <c r="F97" t="inlineStr">
@@ -21642,17 +21642,17 @@
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>2026-02-04 18:25:11</t>
+          <t>2026-02-04 18:49:19</t>
         </is>
       </c>
       <c r="I97" t="inlineStr">
         <is>
-          <t>17:30</t>
+          <t>18:00</t>
         </is>
       </c>
       <c r="J97" t="inlineStr">
         <is>
-          <t>https://www.meteo.cat/observacions/xema/dades?codi=YB&amp;dia=2026-02-04T17:30Z</t>
+          <t>https://www.meteo.cat/observacions/xema/dades?codi=YB&amp;dia=2026-02-04T18:00Z</t>
         </is>
       </c>
       <c r="K97" t="n">
@@ -21665,7 +21665,7 @@
       </c>
       <c r="M97" t="inlineStr">
         <is>
-          <t>266</t>
+          <t>274</t>
         </is>
       </c>
       <c r="N97" t="inlineStr"/>
@@ -21673,12 +21673,12 @@
       <c r="P97" t="inlineStr"/>
       <c r="Q97" t="inlineStr">
         <is>
-          <t>77</t>
+          <t>82</t>
         </is>
       </c>
       <c r="R97" t="inlineStr">
         <is>
-          <t>991.7</t>
+          <t>992.6</t>
         </is>
       </c>
       <c r="S97" t="inlineStr">
@@ -21688,7 +21688,7 @@
       </c>
       <c r="T97" t="inlineStr">
         <is>
-          <t>17:30 - 18:00</t>
+          <t>18:00 - 18:30</t>
         </is>
       </c>
       <c r="U97" t="inlineStr">
@@ -21698,56 +21698,56 @@
       </c>
       <c r="V97" t="inlineStr">
         <is>
-          <t>6.6</t>
+          <t>5.3</t>
         </is>
       </c>
       <c r="W97" t="inlineStr">
         <is>
-          <t>6.2</t>
+          <t>4.6</t>
         </is>
       </c>
       <c r="X97" t="inlineStr">
         <is>
-          <t>7.1</t>
+          <t>6.4</t>
         </is>
       </c>
       <c r="Y97" t="inlineStr">
         <is>
-          <t>3.2</t>
+          <t>2.2</t>
         </is>
       </c>
       <c r="Z97" t="inlineStr"/>
       <c r="AA97" t="inlineStr"/>
       <c r="AB97" t="inlineStr">
         <is>
-          <t>8.3</t>
+          <t>5.8</t>
         </is>
       </c>
       <c r="AC97" t="inlineStr"/>
       <c r="AD97" t="inlineStr"/>
       <c r="AE97" t="inlineStr">
         <is>
-          <t>17:30 - 18:00</t>
+          <t>18:00 - 18:30</t>
         </is>
       </c>
       <c r="AF97" t="inlineStr">
         <is>
-          <t>6.6</t>
+          <t>5.3</t>
         </is>
       </c>
       <c r="AG97" t="inlineStr">
         <is>
-          <t>7.1</t>
+          <t>6.4</t>
         </is>
       </c>
       <c r="AH97" t="inlineStr">
         <is>
-          <t>6.2</t>
+          <t>4.6</t>
         </is>
       </c>
       <c r="AI97" t="inlineStr">
         <is>
-          <t>77</t>
+          <t>82</t>
         </is>
       </c>
       <c r="AJ97" t="inlineStr">
@@ -21757,37 +21757,37 @@
       </c>
       <c r="AK97" t="inlineStr">
         <is>
-          <t>3.2</t>
+          <t>2.2</t>
         </is>
       </c>
       <c r="AL97" t="inlineStr">
         <is>
-          <t>266</t>
+          <t>274</t>
         </is>
       </c>
       <c r="AM97" t="inlineStr">
         <is>
-          <t>17:30 - 18:00</t>
+          <t>18:00 - 18:30</t>
         </is>
       </c>
       <c r="AN97" t="inlineStr">
         <is>
-          <t>6.6</t>
+          <t>5.3</t>
         </is>
       </c>
       <c r="AO97" t="inlineStr">
         <is>
-          <t>7.1</t>
+          <t>6.4</t>
         </is>
       </c>
       <c r="AP97" t="inlineStr">
         <is>
-          <t>6.2</t>
+          <t>4.6</t>
         </is>
       </c>
       <c r="AQ97" t="inlineStr">
         <is>
-          <t>77</t>
+          <t>82</t>
         </is>
       </c>
       <c r="AR97" t="inlineStr">
@@ -21797,22 +21797,22 @@
       </c>
       <c r="AS97" t="inlineStr">
         <is>
-          <t>3.2</t>
+          <t>2.2</t>
         </is>
       </c>
       <c r="AT97" t="inlineStr">
         <is>
-          <t>266</t>
+          <t>274</t>
         </is>
       </c>
       <c r="AU97" t="inlineStr">
         <is>
-          <t>8.3</t>
+          <t>5.8</t>
         </is>
       </c>
       <c r="AV97" t="inlineStr">
         <is>
-          <t>991.7</t>
+          <t>992.6</t>
         </is>
       </c>
       <c r="AW97" t="inlineStr">
@@ -21822,12 +21822,12 @@
       </c>
       <c r="AX97" t="inlineStr">
         <is>
-          <t>8.3</t>
+          <t>5.8</t>
         </is>
       </c>
       <c r="AY97" t="inlineStr">
         <is>
-          <t>991.7</t>
+          <t>992.6</t>
         </is>
       </c>
       <c r="AZ97" t="inlineStr">
@@ -21875,7 +21875,7 @@
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>2026-02-04 18:25:13</t>
+          <t>2026-02-04 18:49:20</t>
         </is>
       </c>
       <c r="I98" t="inlineStr">
@@ -22108,7 +22108,7 @@
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>2026-02-04 18:25:13</t>
+          <t>2026-02-04 18:49:20</t>
         </is>
       </c>
       <c r="I99" t="inlineStr">
@@ -22341,7 +22341,7 @@
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>2026-02-04 18:25:13</t>
+          <t>2026-02-04 18:49:20</t>
         </is>
       </c>
       <c r="I100" t="inlineStr">
@@ -22574,7 +22574,7 @@
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>2026-02-04 18:25:13</t>
+          <t>2026-02-04 18:49:20</t>
         </is>
       </c>
       <c r="I101" t="inlineStr">
@@ -22792,7 +22792,7 @@
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>17:30 - 18:00</t>
+          <t>18:00 - 18:30</t>
         </is>
       </c>
       <c r="F102" t="inlineStr">
@@ -22807,17 +22807,17 @@
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>2026-02-04 18:25:16</t>
+          <t>2026-02-04 18:49:23</t>
         </is>
       </c>
       <c r="I102" t="inlineStr">
         <is>
-          <t>17:30</t>
+          <t>18:00</t>
         </is>
       </c>
       <c r="J102" t="inlineStr">
         <is>
-          <t>https://www.meteo.cat/observacions/xema/dades?codi=YP&amp;dia=2026-02-04T17:30Z</t>
+          <t>https://www.meteo.cat/observacions/xema/dades?codi=YP&amp;dia=2026-02-04T18:00Z</t>
         </is>
       </c>
       <c r="K102" t="n">
@@ -22830,7 +22830,7 @@
       </c>
       <c r="M102" t="inlineStr">
         <is>
-          <t>163</t>
+          <t>105</t>
         </is>
       </c>
       <c r="N102" t="inlineStr"/>
@@ -22838,7 +22838,7 @@
       <c r="P102" t="inlineStr"/>
       <c r="Q102" t="inlineStr">
         <is>
-          <t>91</t>
+          <t>90</t>
         </is>
       </c>
       <c r="R102" t="inlineStr"/>
@@ -22849,7 +22849,7 @@
       </c>
       <c r="T102" t="inlineStr">
         <is>
-          <t>17:30 - 18:00</t>
+          <t>18:00 - 18:30</t>
         </is>
       </c>
       <c r="U102" t="inlineStr">
@@ -22859,96 +22859,96 @@
       </c>
       <c r="V102" t="inlineStr">
         <is>
-          <t>8.4</t>
+          <t>8.0</t>
         </is>
       </c>
       <c r="W102" t="inlineStr">
         <is>
-          <t>8.0</t>
+          <t>7.6</t>
         </is>
       </c>
       <c r="X102" t="inlineStr">
         <is>
-          <t>8.8</t>
+          <t>8.6</t>
         </is>
       </c>
       <c r="Y102" t="inlineStr">
         <is>
-          <t>1.8</t>
+          <t>3.6</t>
         </is>
       </c>
       <c r="Z102" t="inlineStr"/>
       <c r="AA102" t="inlineStr"/>
       <c r="AB102" t="inlineStr">
         <is>
-          <t>4.0</t>
+          <t>8.3</t>
         </is>
       </c>
       <c r="AC102" t="inlineStr"/>
       <c r="AD102" t="inlineStr"/>
       <c r="AE102" t="inlineStr">
         <is>
-          <t>17:30 - 18:00</t>
+          <t>18:00 - 18:30</t>
         </is>
       </c>
       <c r="AF102" t="inlineStr">
         <is>
-          <t>8.4</t>
+          <t>8.0</t>
         </is>
       </c>
       <c r="AG102" t="inlineStr">
         <is>
-          <t>8.8</t>
+          <t>8.6</t>
         </is>
       </c>
       <c r="AH102" t="inlineStr">
         <is>
+          <t>7.6</t>
+        </is>
+      </c>
+      <c r="AI102" t="inlineStr">
+        <is>
+          <t>90</t>
+        </is>
+      </c>
+      <c r="AJ102" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="AK102" t="inlineStr">
+        <is>
+          <t>3.6</t>
+        </is>
+      </c>
+      <c r="AL102" t="inlineStr">
+        <is>
+          <t>105</t>
+        </is>
+      </c>
+      <c r="AM102" t="inlineStr">
+        <is>
+          <t>18:00 - 18:30</t>
+        </is>
+      </c>
+      <c r="AN102" t="inlineStr">
+        <is>
           <t>8.0</t>
         </is>
       </c>
-      <c r="AI102" t="inlineStr">
-        <is>
-          <t>91</t>
-        </is>
-      </c>
-      <c r="AJ102" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="AK102" t="inlineStr">
-        <is>
-          <t>1.8</t>
-        </is>
-      </c>
-      <c r="AL102" t="inlineStr">
-        <is>
-          <t>163</t>
-        </is>
-      </c>
-      <c r="AM102" t="inlineStr">
-        <is>
-          <t>17:30 - 18:00</t>
-        </is>
-      </c>
-      <c r="AN102" t="inlineStr">
-        <is>
-          <t>8.4</t>
-        </is>
-      </c>
       <c r="AO102" t="inlineStr">
         <is>
-          <t>8.8</t>
+          <t>8.6</t>
         </is>
       </c>
       <c r="AP102" t="inlineStr">
         <is>
-          <t>8.0</t>
+          <t>7.6</t>
         </is>
       </c>
       <c r="AQ102" t="inlineStr">
         <is>
-          <t>91</t>
+          <t>90</t>
         </is>
       </c>
       <c r="AR102" t="inlineStr">
@@ -22958,17 +22958,17 @@
       </c>
       <c r="AS102" t="inlineStr">
         <is>
-          <t>1.8</t>
+          <t>3.6</t>
         </is>
       </c>
       <c r="AT102" t="inlineStr">
         <is>
-          <t>163</t>
+          <t>105</t>
         </is>
       </c>
       <c r="AU102" t="inlineStr">
         <is>
-          <t>4.0</t>
+          <t>8.3</t>
         </is>
       </c>
       <c r="AV102" t="inlineStr">
@@ -22979,7 +22979,7 @@
       <c r="AW102" t="inlineStr"/>
       <c r="AX102" t="inlineStr">
         <is>
-          <t>4.0</t>
+          <t>8.3</t>
         </is>
       </c>
       <c r="AY102" t="inlineStr">
@@ -23028,7 +23028,7 @@
       </c>
       <c r="H103" t="inlineStr">
         <is>
-          <t>2026-02-04 18:25:17</t>
+          <t>2026-02-04 18:49:24</t>
         </is>
       </c>
       <c r="I103" t="inlineStr">
@@ -23249,7 +23249,7 @@
       </c>
       <c r="H104" t="inlineStr">
         <is>
-          <t>2026-02-04 18:25:17</t>
+          <t>2026-02-04 18:49:24</t>
         </is>
       </c>
       <c r="I104" t="inlineStr">
@@ -23470,7 +23470,7 @@
       </c>
       <c r="H105" t="inlineStr">
         <is>
-          <t>2026-02-04 18:25:17</t>
+          <t>2026-02-04 18:49:24</t>
         </is>
       </c>
       <c r="I105" t="inlineStr">
@@ -23691,7 +23691,7 @@
       </c>
       <c r="H106" t="inlineStr">
         <is>
-          <t>2026-02-04 18:25:17</t>
+          <t>2026-02-04 18:49:24</t>
         </is>
       </c>
       <c r="I106" t="inlineStr">
@@ -23897,7 +23897,7 @@
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>17:30 - 18:00</t>
+          <t>18:00 - 18:30</t>
         </is>
       </c>
       <c r="F107" t="inlineStr">
@@ -23912,17 +23912,17 @@
       </c>
       <c r="H107" t="inlineStr">
         <is>
-          <t>2026-02-04 18:25:19</t>
+          <t>2026-02-04 18:49:26</t>
         </is>
       </c>
       <c r="I107" t="inlineStr">
         <is>
-          <t>17:30</t>
+          <t>18:00</t>
         </is>
       </c>
       <c r="J107" t="inlineStr">
         <is>
-          <t>https://www.meteo.cat/observacions/xema/dades?codi=J5&amp;dia=2026-02-04T17:30Z</t>
+          <t>https://www.meteo.cat/observacions/xema/dades?codi=J5&amp;dia=2026-02-04T18:00Z</t>
         </is>
       </c>
       <c r="K107" t="n">
@@ -23935,7 +23935,7 @@
       </c>
       <c r="M107" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>29</t>
         </is>
       </c>
       <c r="N107" t="inlineStr"/>
@@ -23943,12 +23943,12 @@
       <c r="P107" t="inlineStr"/>
       <c r="Q107" t="inlineStr">
         <is>
-          <t>85</t>
+          <t>89</t>
         </is>
       </c>
       <c r="R107" t="inlineStr">
         <is>
-          <t>991.2</t>
+          <t>991.8</t>
         </is>
       </c>
       <c r="S107" t="inlineStr">
@@ -23958,7 +23958,7 @@
       </c>
       <c r="T107" t="inlineStr">
         <is>
-          <t>17:30 - 18:00</t>
+          <t>18:00 - 18:30</t>
         </is>
       </c>
       <c r="U107" t="inlineStr">
@@ -23968,96 +23968,96 @@
       </c>
       <c r="V107" t="inlineStr">
         <is>
-          <t>8.4</t>
+          <t>7.8</t>
         </is>
       </c>
       <c r="W107" t="inlineStr">
         <is>
+          <t>7.4</t>
+        </is>
+      </c>
+      <c r="X107" t="inlineStr">
+        <is>
           <t>8.2</t>
         </is>
       </c>
-      <c r="X107" t="inlineStr">
-        <is>
-          <t>8.7</t>
-        </is>
-      </c>
       <c r="Y107" t="inlineStr">
         <is>
-          <t>5.8</t>
+          <t>7.6</t>
         </is>
       </c>
       <c r="Z107" t="inlineStr"/>
       <c r="AA107" t="inlineStr"/>
       <c r="AB107" t="inlineStr">
         <is>
-          <t>9.7</t>
+          <t>15.8</t>
         </is>
       </c>
       <c r="AC107" t="inlineStr"/>
       <c r="AD107" t="inlineStr"/>
       <c r="AE107" t="inlineStr">
         <is>
-          <t>17:30 - 18:00</t>
+          <t>18:00 - 18:30</t>
         </is>
       </c>
       <c r="AF107" t="inlineStr">
         <is>
-          <t>8.4</t>
+          <t>7.8</t>
         </is>
       </c>
       <c r="AG107" t="inlineStr">
         <is>
-          <t>8.7</t>
+          <t>8.2</t>
         </is>
       </c>
       <c r="AH107" t="inlineStr">
         <is>
+          <t>7.4</t>
+        </is>
+      </c>
+      <c r="AI107" t="inlineStr">
+        <is>
+          <t>89</t>
+        </is>
+      </c>
+      <c r="AJ107" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="AK107" t="inlineStr">
+        <is>
+          <t>7.6</t>
+        </is>
+      </c>
+      <c r="AL107" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="AM107" t="inlineStr">
+        <is>
+          <t>18:00 - 18:30</t>
+        </is>
+      </c>
+      <c r="AN107" t="inlineStr">
+        <is>
+          <t>7.8</t>
+        </is>
+      </c>
+      <c r="AO107" t="inlineStr">
+        <is>
           <t>8.2</t>
         </is>
       </c>
-      <c r="AI107" t="inlineStr">
-        <is>
-          <t>85</t>
-        </is>
-      </c>
-      <c r="AJ107" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="AK107" t="inlineStr">
-        <is>
-          <t>5.8</t>
-        </is>
-      </c>
-      <c r="AL107" t="inlineStr">
-        <is>
-          <t>34</t>
-        </is>
-      </c>
-      <c r="AM107" t="inlineStr">
-        <is>
-          <t>17:30 - 18:00</t>
-        </is>
-      </c>
-      <c r="AN107" t="inlineStr">
-        <is>
-          <t>8.4</t>
-        </is>
-      </c>
-      <c r="AO107" t="inlineStr">
-        <is>
-          <t>8.7</t>
-        </is>
-      </c>
       <c r="AP107" t="inlineStr">
         <is>
-          <t>8.2</t>
+          <t>7.4</t>
         </is>
       </c>
       <c r="AQ107" t="inlineStr">
         <is>
-          <t>85</t>
+          <t>89</t>
         </is>
       </c>
       <c r="AR107" t="inlineStr">
@@ -24067,22 +24067,22 @@
       </c>
       <c r="AS107" t="inlineStr">
         <is>
-          <t>5.8</t>
+          <t>7.6</t>
         </is>
       </c>
       <c r="AT107" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>29</t>
         </is>
       </c>
       <c r="AU107" t="inlineStr">
         <is>
-          <t>9.7</t>
+          <t>15.8</t>
         </is>
       </c>
       <c r="AV107" t="inlineStr">
         <is>
-          <t>991.2</t>
+          <t>991.8</t>
         </is>
       </c>
       <c r="AW107" t="inlineStr">
@@ -24092,12 +24092,12 @@
       </c>
       <c r="AX107" t="inlineStr">
         <is>
-          <t>9.7</t>
+          <t>15.8</t>
         </is>
       </c>
       <c r="AY107" t="inlineStr">
         <is>
-          <t>991.2</t>
+          <t>991.8</t>
         </is>
       </c>
       <c r="AZ107" t="inlineStr">
@@ -24145,7 +24145,7 @@
       </c>
       <c r="H108" t="inlineStr">
         <is>
-          <t>2026-02-04 18:25:21</t>
+          <t>2026-02-04 18:49:28</t>
         </is>
       </c>
       <c r="I108" t="inlineStr">
@@ -24378,7 +24378,7 @@
       </c>
       <c r="H109" t="inlineStr">
         <is>
-          <t>2026-02-04 18:25:21</t>
+          <t>2026-02-04 18:49:28</t>
         </is>
       </c>
       <c r="I109" t="inlineStr">
@@ -24611,7 +24611,7 @@
       </c>
       <c r="H110" t="inlineStr">
         <is>
-          <t>2026-02-04 18:25:21</t>
+          <t>2026-02-04 18:49:28</t>
         </is>
       </c>
       <c r="I110" t="inlineStr">
@@ -24844,7 +24844,7 @@
       </c>
       <c r="H111" t="inlineStr">
         <is>
-          <t>2026-02-04 18:25:21</t>
+          <t>2026-02-04 18:49:28</t>
         </is>
       </c>
       <c r="I111" t="inlineStr">
@@ -25062,7 +25062,7 @@
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>17:30 - 18:00</t>
+          <t>18:00 - 18:30</t>
         </is>
       </c>
       <c r="F112" t="inlineStr">
@@ -25077,17 +25077,17 @@
       </c>
       <c r="H112" t="inlineStr">
         <is>
-          <t>2026-02-04 18:25:24</t>
+          <t>2026-02-04 18:49:31</t>
         </is>
       </c>
       <c r="I112" t="inlineStr">
         <is>
-          <t>17:30</t>
+          <t>18:00</t>
         </is>
       </c>
       <c r="J112" t="inlineStr">
         <is>
-          <t>https://www.meteo.cat/observacions/xema/dades?codi=D6&amp;dia=2026-02-04T17:30Z</t>
+          <t>https://www.meteo.cat/observacions/xema/dades?codi=D6&amp;dia=2026-02-04T18:00Z</t>
         </is>
       </c>
       <c r="K112" t="n">
@@ -25100,7 +25100,7 @@
       </c>
       <c r="M112" t="inlineStr">
         <is>
-          <t>235</t>
+          <t>277</t>
         </is>
       </c>
       <c r="N112" t="inlineStr"/>
@@ -25108,12 +25108,12 @@
       <c r="P112" t="inlineStr"/>
       <c r="Q112" t="inlineStr">
         <is>
-          <t>67</t>
+          <t>63</t>
         </is>
       </c>
       <c r="R112" t="inlineStr">
         <is>
-          <t>990.5</t>
+          <t>990.8</t>
         </is>
       </c>
       <c r="S112" t="inlineStr">
@@ -25123,7 +25123,7 @@
       </c>
       <c r="T112" t="inlineStr">
         <is>
-          <t>17:30 - 18:00</t>
+          <t>18:00 - 18:30</t>
         </is>
       </c>
       <c r="U112" t="inlineStr">
@@ -25133,56 +25133,56 @@
       </c>
       <c r="V112" t="inlineStr">
         <is>
+          <t>11.1</t>
+        </is>
+      </c>
+      <c r="W112" t="inlineStr">
+        <is>
           <t>10.8</t>
         </is>
       </c>
-      <c r="W112" t="inlineStr">
-        <is>
-          <t>10.6</t>
-        </is>
-      </c>
       <c r="X112" t="inlineStr">
         <is>
-          <t>10.9</t>
+          <t>11.4</t>
         </is>
       </c>
       <c r="Y112" t="inlineStr">
         <is>
-          <t>22.7</t>
+          <t>13.0</t>
         </is>
       </c>
       <c r="Z112" t="inlineStr"/>
       <c r="AA112" t="inlineStr"/>
       <c r="AB112" t="inlineStr">
         <is>
-          <t>28.1</t>
+          <t>19.4</t>
         </is>
       </c>
       <c r="AC112" t="inlineStr"/>
       <c r="AD112" t="inlineStr"/>
       <c r="AE112" t="inlineStr">
         <is>
-          <t>17:30 - 18:00</t>
+          <t>18:00 - 18:30</t>
         </is>
       </c>
       <c r="AF112" t="inlineStr">
         <is>
+          <t>11.1</t>
+        </is>
+      </c>
+      <c r="AG112" t="inlineStr">
+        <is>
+          <t>11.4</t>
+        </is>
+      </c>
+      <c r="AH112" t="inlineStr">
+        <is>
           <t>10.8</t>
         </is>
       </c>
-      <c r="AG112" t="inlineStr">
-        <is>
-          <t>10.9</t>
-        </is>
-      </c>
-      <c r="AH112" t="inlineStr">
-        <is>
-          <t>10.6</t>
-        </is>
-      </c>
       <c r="AI112" t="inlineStr">
         <is>
-          <t>67</t>
+          <t>63</t>
         </is>
       </c>
       <c r="AJ112" t="inlineStr">
@@ -25192,37 +25192,37 @@
       </c>
       <c r="AK112" t="inlineStr">
         <is>
-          <t>22.7</t>
+          <t>13.0</t>
         </is>
       </c>
       <c r="AL112" t="inlineStr">
         <is>
-          <t>235</t>
+          <t>277</t>
         </is>
       </c>
       <c r="AM112" t="inlineStr">
         <is>
-          <t>17:30 - 18:00</t>
+          <t>18:00 - 18:30</t>
         </is>
       </c>
       <c r="AN112" t="inlineStr">
         <is>
+          <t>11.1</t>
+        </is>
+      </c>
+      <c r="AO112" t="inlineStr">
+        <is>
+          <t>11.4</t>
+        </is>
+      </c>
+      <c r="AP112" t="inlineStr">
+        <is>
           <t>10.8</t>
         </is>
       </c>
-      <c r="AO112" t="inlineStr">
-        <is>
-          <t>10.9</t>
-        </is>
-      </c>
-      <c r="AP112" t="inlineStr">
-        <is>
-          <t>10.6</t>
-        </is>
-      </c>
       <c r="AQ112" t="inlineStr">
         <is>
-          <t>67</t>
+          <t>63</t>
         </is>
       </c>
       <c r="AR112" t="inlineStr">
@@ -25232,22 +25232,22 @@
       </c>
       <c r="AS112" t="inlineStr">
         <is>
-          <t>22.7</t>
+          <t>13.0</t>
         </is>
       </c>
       <c r="AT112" t="inlineStr">
         <is>
-          <t>235</t>
+          <t>277</t>
         </is>
       </c>
       <c r="AU112" t="inlineStr">
         <is>
-          <t>28.1</t>
+          <t>19.4</t>
         </is>
       </c>
       <c r="AV112" t="inlineStr">
         <is>
-          <t>990.5</t>
+          <t>990.8</t>
         </is>
       </c>
       <c r="AW112" t="inlineStr">
@@ -25257,12 +25257,12 @@
       </c>
       <c r="AX112" t="inlineStr">
         <is>
-          <t>28.1</t>
+          <t>19.4</t>
         </is>
       </c>
       <c r="AY112" t="inlineStr">
         <is>
-          <t>990.5</t>
+          <t>990.8</t>
         </is>
       </c>
       <c r="AZ112" t="inlineStr">
@@ -25310,7 +25310,7 @@
       </c>
       <c r="H113" t="inlineStr">
         <is>
-          <t>2026-02-04 18:25:25</t>
+          <t>2026-02-04 18:49:32</t>
         </is>
       </c>
       <c r="I113" t="inlineStr">
@@ -25543,7 +25543,7 @@
       </c>
       <c r="H114" t="inlineStr">
         <is>
-          <t>2026-02-04 18:25:25</t>
+          <t>2026-02-04 18:49:32</t>
         </is>
       </c>
       <c r="I114" t="inlineStr">
@@ -25776,7 +25776,7 @@
       </c>
       <c r="H115" t="inlineStr">
         <is>
-          <t>2026-02-04 18:25:25</t>
+          <t>2026-02-04 18:49:32</t>
         </is>
       </c>
       <c r="I115" t="inlineStr">
@@ -26009,7 +26009,7 @@
       </c>
       <c r="H116" t="inlineStr">
         <is>
-          <t>2026-02-04 18:25:25</t>
+          <t>2026-02-04 18:49:32</t>
         </is>
       </c>
       <c r="I116" t="inlineStr">
@@ -26227,7 +26227,7 @@
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>17:30 - 18:00</t>
+          <t>18:00 - 18:30</t>
         </is>
       </c>
       <c r="F117" t="inlineStr">
@@ -26242,17 +26242,17 @@
       </c>
       <c r="H117" t="inlineStr">
         <is>
-          <t>2026-02-04 18:25:28</t>
+          <t>2026-02-04 18:49:35</t>
         </is>
       </c>
       <c r="I117" t="inlineStr">
         <is>
-          <t>17:30</t>
+          <t>18:00</t>
         </is>
       </c>
       <c r="J117" t="inlineStr">
         <is>
-          <t>https://www.meteo.cat/observacions/xema/dades?codi=YA&amp;dia=2026-02-04T17:30Z</t>
+          <t>https://www.meteo.cat/observacions/xema/dades?codi=YA&amp;dia=2026-02-04T18:00Z</t>
         </is>
       </c>
       <c r="K117" t="n">
@@ -26265,7 +26265,7 @@
       </c>
       <c r="M117" t="inlineStr">
         <is>
-          <t>285</t>
+          <t>49</t>
         </is>
       </c>
       <c r="N117" t="inlineStr"/>
@@ -26273,12 +26273,12 @@
       <c r="P117" t="inlineStr"/>
       <c r="Q117" t="inlineStr">
         <is>
-          <t>76</t>
+          <t>79</t>
         </is>
       </c>
       <c r="R117" t="inlineStr">
         <is>
-          <t>992.7</t>
+          <t>993.5</t>
         </is>
       </c>
       <c r="S117" t="inlineStr">
@@ -26288,7 +26288,7 @@
       </c>
       <c r="T117" t="inlineStr">
         <is>
-          <t>17:30 - 18:00</t>
+          <t>18:00 - 18:30</t>
         </is>
       </c>
       <c r="U117" t="inlineStr">
@@ -26298,56 +26298,56 @@
       </c>
       <c r="V117" t="inlineStr">
         <is>
-          <t>3.1</t>
+          <t>2.4</t>
         </is>
       </c>
       <c r="W117" t="inlineStr">
         <is>
-          <t>2.5</t>
+          <t>2.2</t>
         </is>
       </c>
       <c r="X117" t="inlineStr">
         <is>
-          <t>3.8</t>
+          <t>2.8</t>
         </is>
       </c>
       <c r="Y117" t="inlineStr">
         <is>
-          <t>1.4</t>
+          <t>2.9</t>
         </is>
       </c>
       <c r="Z117" t="inlineStr"/>
       <c r="AA117" t="inlineStr"/>
       <c r="AB117" t="inlineStr">
         <is>
-          <t>7.2</t>
+          <t>5.4</t>
         </is>
       </c>
       <c r="AC117" t="inlineStr"/>
       <c r="AD117" t="inlineStr"/>
       <c r="AE117" t="inlineStr">
         <is>
-          <t>17:30 - 18:00</t>
+          <t>18:00 - 18:30</t>
         </is>
       </c>
       <c r="AF117" t="inlineStr">
         <is>
-          <t>3.1</t>
+          <t>2.4</t>
         </is>
       </c>
       <c r="AG117" t="inlineStr">
         <is>
-          <t>3.8</t>
+          <t>2.8</t>
         </is>
       </c>
       <c r="AH117" t="inlineStr">
         <is>
-          <t>2.5</t>
+          <t>2.2</t>
         </is>
       </c>
       <c r="AI117" t="inlineStr">
         <is>
-          <t>76</t>
+          <t>79</t>
         </is>
       </c>
       <c r="AJ117" t="inlineStr">
@@ -26357,37 +26357,37 @@
       </c>
       <c r="AK117" t="inlineStr">
         <is>
-          <t>1.4</t>
+          <t>2.9</t>
         </is>
       </c>
       <c r="AL117" t="inlineStr">
         <is>
-          <t>285</t>
+          <t>49</t>
         </is>
       </c>
       <c r="AM117" t="inlineStr">
         <is>
-          <t>17:30 - 18:00</t>
+          <t>18:00 - 18:30</t>
         </is>
       </c>
       <c r="AN117" t="inlineStr">
         <is>
-          <t>3.1</t>
+          <t>2.4</t>
         </is>
       </c>
       <c r="AO117" t="inlineStr">
         <is>
-          <t>3.8</t>
+          <t>2.8</t>
         </is>
       </c>
       <c r="AP117" t="inlineStr">
         <is>
-          <t>2.5</t>
+          <t>2.2</t>
         </is>
       </c>
       <c r="AQ117" t="inlineStr">
         <is>
-          <t>76</t>
+          <t>79</t>
         </is>
       </c>
       <c r="AR117" t="inlineStr">
@@ -26397,22 +26397,22 @@
       </c>
       <c r="AS117" t="inlineStr">
         <is>
-          <t>1.4</t>
+          <t>2.9</t>
         </is>
       </c>
       <c r="AT117" t="inlineStr">
         <is>
-          <t>285</t>
+          <t>49</t>
         </is>
       </c>
       <c r="AU117" t="inlineStr">
         <is>
-          <t>7.2</t>
+          <t>5.4</t>
         </is>
       </c>
       <c r="AV117" t="inlineStr">
         <is>
-          <t>992.7</t>
+          <t>993.5</t>
         </is>
       </c>
       <c r="AW117" t="inlineStr">
@@ -26422,12 +26422,12 @@
       </c>
       <c r="AX117" t="inlineStr">
         <is>
-          <t>7.2</t>
+          <t>5.4</t>
         </is>
       </c>
       <c r="AY117" t="inlineStr">
         <is>
-          <t>992.7</t>
+          <t>993.5</t>
         </is>
       </c>
       <c r="AZ117" t="inlineStr">
@@ -26475,7 +26475,7 @@
       </c>
       <c r="H118" t="inlineStr">
         <is>
-          <t>2026-02-04 18:25:29</t>
+          <t>2026-02-04 18:49:37</t>
         </is>
       </c>
       <c r="I118" t="inlineStr">
@@ -26708,7 +26708,7 @@
       </c>
       <c r="H119" t="inlineStr">
         <is>
-          <t>2026-02-04 18:25:29</t>
+          <t>2026-02-04 18:49:37</t>
         </is>
       </c>
       <c r="I119" t="inlineStr">
@@ -26941,7 +26941,7 @@
       </c>
       <c r="H120" t="inlineStr">
         <is>
-          <t>2026-02-04 18:25:29</t>
+          <t>2026-02-04 18:49:37</t>
         </is>
       </c>
       <c r="I120" t="inlineStr">
@@ -27174,7 +27174,7 @@
       </c>
       <c r="H121" t="inlineStr">
         <is>
-          <t>2026-02-04 18:25:29</t>
+          <t>2026-02-04 18:49:37</t>
         </is>
       </c>
       <c r="I121" t="inlineStr">
@@ -27392,7 +27392,7 @@
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>17:30 - 18:00</t>
+          <t>18:00 - 18:30</t>
         </is>
       </c>
       <c r="F122" t="inlineStr">
@@ -27407,17 +27407,17 @@
       </c>
       <c r="H122" t="inlineStr">
         <is>
-          <t>2026-02-04 18:25:31</t>
+          <t>2026-02-04 18:49:40</t>
         </is>
       </c>
       <c r="I122" t="inlineStr">
         <is>
-          <t>17:30</t>
+          <t>18:00</t>
         </is>
       </c>
       <c r="J122" t="inlineStr">
         <is>
-          <t>https://www.meteo.cat/observacions/xema/dades?codi=DG&amp;dia=2026-02-04T17:30Z</t>
+          <t>https://www.meteo.cat/observacions/xema/dades?codi=DG&amp;dia=2026-02-04T18:00Z</t>
         </is>
       </c>
       <c r="K122" t="n">
@@ -27430,7 +27430,7 @@
       </c>
       <c r="M122" t="inlineStr">
         <is>
-          <t>359</t>
+          <t>17</t>
         </is>
       </c>
       <c r="N122" t="inlineStr"/>
@@ -27442,12 +27442,12 @@
       </c>
       <c r="Q122" t="inlineStr">
         <is>
-          <t>58</t>
+          <t>56</t>
         </is>
       </c>
       <c r="R122" t="inlineStr">
         <is>
-          <t>826.3</t>
+          <t>826.8</t>
         </is>
       </c>
       <c r="S122" t="inlineStr">
@@ -27457,7 +27457,7 @@
       </c>
       <c r="T122" t="inlineStr">
         <is>
-          <t>17:30 - 18:00</t>
+          <t>18:00 - 18:30</t>
         </is>
       </c>
       <c r="U122" t="inlineStr">
@@ -27467,141 +27467,141 @@
       </c>
       <c r="V122" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>0.3</t>
         </is>
       </c>
       <c r="W122" t="inlineStr">
         <is>
-          <t>-0.5</t>
+          <t>-0.1</t>
         </is>
       </c>
       <c r="X122" t="inlineStr">
         <is>
-          <t>0.3</t>
+          <t>0.8</t>
         </is>
       </c>
       <c r="Y122" t="inlineStr">
         <is>
-          <t>8.6</t>
+          <t>10.1</t>
         </is>
       </c>
       <c r="Z122" t="inlineStr"/>
       <c r="AA122" t="inlineStr"/>
       <c r="AB122" t="inlineStr">
         <is>
-          <t>24.5</t>
+          <t>20.5</t>
         </is>
       </c>
       <c r="AC122" t="inlineStr"/>
       <c r="AD122" t="inlineStr"/>
       <c r="AE122" t="inlineStr">
         <is>
-          <t>17:30 - 18:00</t>
+          <t>18:00 - 18:30</t>
         </is>
       </c>
       <c r="AF122" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>0.3</t>
         </is>
       </c>
       <c r="AG122" t="inlineStr">
         <is>
+          <t>0.8</t>
+        </is>
+      </c>
+      <c r="AH122" t="inlineStr">
+        <is>
+          <t>-0.1</t>
+        </is>
+      </c>
+      <c r="AI122" t="inlineStr">
+        <is>
+          <t>56</t>
+        </is>
+      </c>
+      <c r="AJ122" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="AK122" t="inlineStr">
+        <is>
+          <t>110</t>
+        </is>
+      </c>
+      <c r="AL122" t="inlineStr">
+        <is>
+          <t>10.1</t>
+        </is>
+      </c>
+      <c r="AM122" t="inlineStr">
+        <is>
+          <t>18:00 - 18:30</t>
+        </is>
+      </c>
+      <c r="AN122" t="inlineStr">
+        <is>
           <t>0.3</t>
         </is>
       </c>
-      <c r="AH122" t="inlineStr">
-        <is>
-          <t>-0.5</t>
-        </is>
-      </c>
-      <c r="AI122" t="inlineStr">
-        <is>
-          <t>58</t>
-        </is>
-      </c>
-      <c r="AJ122" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="AK122" t="inlineStr">
+      <c r="AO122" t="inlineStr">
+        <is>
+          <t>0.8</t>
+        </is>
+      </c>
+      <c r="AP122" t="inlineStr">
+        <is>
+          <t>-0.1</t>
+        </is>
+      </c>
+      <c r="AQ122" t="inlineStr">
+        <is>
+          <t>56</t>
+        </is>
+      </c>
+      <c r="AR122" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="AS122" t="inlineStr">
         <is>
           <t>110</t>
         </is>
       </c>
-      <c r="AL122" t="inlineStr">
-        <is>
-          <t>8.6</t>
-        </is>
-      </c>
-      <c r="AM122" t="inlineStr">
-        <is>
-          <t>17:30 - 18:00</t>
-        </is>
-      </c>
-      <c r="AN122" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="AO122" t="inlineStr">
-        <is>
-          <t>0.3</t>
-        </is>
-      </c>
-      <c r="AP122" t="inlineStr">
-        <is>
-          <t>-0.5</t>
-        </is>
-      </c>
-      <c r="AQ122" t="inlineStr">
-        <is>
-          <t>58</t>
-        </is>
-      </c>
-      <c r="AR122" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="AS122" t="inlineStr">
-        <is>
-          <t>110</t>
-        </is>
-      </c>
       <c r="AT122" t="inlineStr">
         <is>
-          <t>8.6</t>
+          <t>10.1</t>
         </is>
       </c>
       <c r="AU122" t="inlineStr">
         <is>
-          <t>359</t>
+          <t>17</t>
         </is>
       </c>
       <c r="AV122" t="inlineStr">
         <is>
-          <t>24.5</t>
+          <t>20.5</t>
         </is>
       </c>
       <c r="AW122" t="inlineStr">
         <is>
-          <t>826.3</t>
+          <t>826.8</t>
         </is>
       </c>
       <c r="AX122" t="inlineStr">
         <is>
-          <t>359</t>
+          <t>17</t>
         </is>
       </c>
       <c r="AY122" t="inlineStr">
         <is>
-          <t>24.5</t>
+          <t>20.5</t>
         </is>
       </c>
       <c r="AZ122" t="inlineStr">
         <is>
-          <t>826.3</t>
+          <t>826.8</t>
         </is>
       </c>
       <c r="BA122" t="inlineStr">
@@ -27648,7 +27648,7 @@
       </c>
       <c r="H123" t="inlineStr">
         <is>
-          <t>2026-02-04 18:25:33</t>
+          <t>2026-02-04 18:49:41</t>
         </is>
       </c>
       <c r="I123" t="inlineStr">
@@ -27889,7 +27889,7 @@
       </c>
       <c r="H124" t="inlineStr">
         <is>
-          <t>2026-02-04 18:25:33</t>
+          <t>2026-02-04 18:49:41</t>
         </is>
       </c>
       <c r="I124" t="inlineStr">
@@ -28130,7 +28130,7 @@
       </c>
       <c r="H125" t="inlineStr">
         <is>
-          <t>2026-02-04 18:25:33</t>
+          <t>2026-02-04 18:49:41</t>
         </is>
       </c>
       <c r="I125" t="inlineStr">
@@ -28371,7 +28371,7 @@
       </c>
       <c r="H126" t="inlineStr">
         <is>
-          <t>2026-02-04 18:25:33</t>
+          <t>2026-02-04 18:49:41</t>
         </is>
       </c>
       <c r="I126" t="inlineStr">
@@ -28597,7 +28597,7 @@
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>17:30 - 18:00</t>
+          <t>18:00 - 18:30</t>
         </is>
       </c>
       <c r="F127" t="inlineStr">
@@ -28612,17 +28612,17 @@
       </c>
       <c r="H127" t="inlineStr">
         <is>
-          <t>2026-02-04 18:25:36</t>
+          <t>2026-02-04 18:49:44</t>
         </is>
       </c>
       <c r="I127" t="inlineStr">
         <is>
-          <t>17:30</t>
+          <t>18:00</t>
         </is>
       </c>
       <c r="J127" t="inlineStr">
         <is>
-          <t>https://www.meteo.cat/observacions/xema/dades?codi=D4&amp;dia=2026-02-04T17:30Z</t>
+          <t>https://www.meteo.cat/observacions/xema/dades?codi=D4&amp;dia=2026-02-04T18:00Z</t>
         </is>
       </c>
       <c r="K127" t="n">
@@ -28635,7 +28635,7 @@
       </c>
       <c r="M127" t="inlineStr">
         <is>
-          <t>73</t>
+          <t>62</t>
         </is>
       </c>
       <c r="N127" t="inlineStr"/>
@@ -28643,12 +28643,12 @@
       <c r="P127" t="inlineStr"/>
       <c r="Q127" t="inlineStr">
         <is>
-          <t>77</t>
+          <t>79</t>
         </is>
       </c>
       <c r="R127" t="inlineStr">
         <is>
-          <t>991.1</t>
+          <t>991.4</t>
         </is>
       </c>
       <c r="S127" t="inlineStr">
@@ -28658,7 +28658,7 @@
       </c>
       <c r="T127" t="inlineStr">
         <is>
-          <t>17:30 - 18:00</t>
+          <t>18:00 - 18:30</t>
         </is>
       </c>
       <c r="U127" t="inlineStr">
@@ -28668,56 +28668,56 @@
       </c>
       <c r="V127" t="inlineStr">
         <is>
-          <t>10.3</t>
+          <t>9.5</t>
         </is>
       </c>
       <c r="W127" t="inlineStr">
         <is>
-          <t>9.6</t>
+          <t>9.3</t>
         </is>
       </c>
       <c r="X127" t="inlineStr">
         <is>
-          <t>11.0</t>
+          <t>9.7</t>
         </is>
       </c>
       <c r="Y127" t="inlineStr">
         <is>
-          <t>3.2</t>
+          <t>5.8</t>
         </is>
       </c>
       <c r="Z127" t="inlineStr"/>
       <c r="AA127" t="inlineStr"/>
       <c r="AB127" t="inlineStr">
         <is>
-          <t>6.1</t>
+          <t>9.4</t>
         </is>
       </c>
       <c r="AC127" t="inlineStr"/>
       <c r="AD127" t="inlineStr"/>
       <c r="AE127" t="inlineStr">
         <is>
-          <t>17:30 - 18:00</t>
+          <t>18:00 - 18:30</t>
         </is>
       </c>
       <c r="AF127" t="inlineStr">
         <is>
-          <t>10.3</t>
+          <t>9.5</t>
         </is>
       </c>
       <c r="AG127" t="inlineStr">
         <is>
-          <t>11.0</t>
+          <t>9.7</t>
         </is>
       </c>
       <c r="AH127" t="inlineStr">
         <is>
-          <t>9.6</t>
+          <t>9.3</t>
         </is>
       </c>
       <c r="AI127" t="inlineStr">
         <is>
-          <t>77</t>
+          <t>79</t>
         </is>
       </c>
       <c r="AJ127" t="inlineStr">
@@ -28727,37 +28727,37 @@
       </c>
       <c r="AK127" t="inlineStr">
         <is>
-          <t>3.2</t>
+          <t>5.8</t>
         </is>
       </c>
       <c r="AL127" t="inlineStr">
         <is>
-          <t>73</t>
+          <t>62</t>
         </is>
       </c>
       <c r="AM127" t="inlineStr">
         <is>
-          <t>17:30 - 18:00</t>
+          <t>18:00 - 18:30</t>
         </is>
       </c>
       <c r="AN127" t="inlineStr">
         <is>
-          <t>10.3</t>
+          <t>9.5</t>
         </is>
       </c>
       <c r="AO127" t="inlineStr">
         <is>
-          <t>11.0</t>
+          <t>9.7</t>
         </is>
       </c>
       <c r="AP127" t="inlineStr">
         <is>
-          <t>9.6</t>
+          <t>9.3</t>
         </is>
       </c>
       <c r="AQ127" t="inlineStr">
         <is>
-          <t>77</t>
+          <t>79</t>
         </is>
       </c>
       <c r="AR127" t="inlineStr">
@@ -28767,22 +28767,22 @@
       </c>
       <c r="AS127" t="inlineStr">
         <is>
-          <t>3.2</t>
+          <t>5.8</t>
         </is>
       </c>
       <c r="AT127" t="inlineStr">
         <is>
-          <t>73</t>
+          <t>62</t>
         </is>
       </c>
       <c r="AU127" t="inlineStr">
         <is>
-          <t>6.1</t>
+          <t>9.4</t>
         </is>
       </c>
       <c r="AV127" t="inlineStr">
         <is>
-          <t>991.1</t>
+          <t>991.4</t>
         </is>
       </c>
       <c r="AW127" t="inlineStr">
@@ -28792,12 +28792,12 @@
       </c>
       <c r="AX127" t="inlineStr">
         <is>
-          <t>6.1</t>
+          <t>9.4</t>
         </is>
       </c>
       <c r="AY127" t="inlineStr">
         <is>
-          <t>991.1</t>
+          <t>991.4</t>
         </is>
       </c>
       <c r="AZ127" t="inlineStr">
@@ -28845,7 +28845,7 @@
       </c>
       <c r="H128" t="inlineStr">
         <is>
-          <t>2026-02-04 18:25:37</t>
+          <t>2026-02-04 18:49:46</t>
         </is>
       </c>
       <c r="I128" t="inlineStr">
@@ -29078,7 +29078,7 @@
       </c>
       <c r="H129" t="inlineStr">
         <is>
-          <t>2026-02-04 18:25:37</t>
+          <t>2026-02-04 18:49:46</t>
         </is>
       </c>
       <c r="I129" t="inlineStr">
@@ -29311,7 +29311,7 @@
       </c>
       <c r="H130" t="inlineStr">
         <is>
-          <t>2026-02-04 18:25:37</t>
+          <t>2026-02-04 18:49:46</t>
         </is>
       </c>
       <c r="I130" t="inlineStr">
@@ -29544,7 +29544,7 @@
       </c>
       <c r="H131" t="inlineStr">
         <is>
-          <t>2026-02-04 18:25:37</t>
+          <t>2026-02-04 18:49:46</t>
         </is>
       </c>
       <c r="I131" t="inlineStr">
@@ -29762,7 +29762,7 @@
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>17:30 - 18:00</t>
+          <t>18:00 - 18:30</t>
         </is>
       </c>
       <c r="F132" t="inlineStr">
@@ -29777,17 +29777,17 @@
       </c>
       <c r="H132" t="inlineStr">
         <is>
-          <t>2026-02-04 18:25:40</t>
+          <t>2026-02-04 18:49:48</t>
         </is>
       </c>
       <c r="I132" t="inlineStr">
         <is>
-          <t>17:30</t>
+          <t>18:00</t>
         </is>
       </c>
       <c r="J132" t="inlineStr">
         <is>
-          <t>https://www.meteo.cat/observacions/xema/dades?codi=CI&amp;dia=2026-02-04T17:30Z</t>
+          <t>https://www.meteo.cat/observacions/xema/dades?codi=CI&amp;dia=2026-02-04T18:00Z</t>
         </is>
       </c>
       <c r="K132" t="n">
@@ -29800,7 +29800,7 @@
       </c>
       <c r="M132" t="inlineStr">
         <is>
-          <t>258</t>
+          <t>248</t>
         </is>
       </c>
       <c r="N132" t="inlineStr"/>
@@ -29808,12 +29808,12 @@
       <c r="P132" t="inlineStr"/>
       <c r="Q132" t="inlineStr">
         <is>
-          <t>79</t>
+          <t>81</t>
         </is>
       </c>
       <c r="R132" t="inlineStr">
         <is>
-          <t>992.8</t>
+          <t>993.5</t>
         </is>
       </c>
       <c r="S132" t="inlineStr">
@@ -29823,62 +29823,62 @@
       </c>
       <c r="T132" t="inlineStr">
         <is>
-          <t>17:30 - 18:00</t>
+          <t>18:00 - 18:30</t>
         </is>
       </c>
       <c r="U132" t="inlineStr"/>
       <c r="V132" t="inlineStr">
         <is>
-          <t>5.7</t>
+          <t>5.3</t>
         </is>
       </c>
       <c r="W132" t="inlineStr">
         <is>
-          <t>5.5</t>
+          <t>5.2</t>
         </is>
       </c>
       <c r="X132" t="inlineStr">
         <is>
-          <t>5.8</t>
+          <t>5.4</t>
         </is>
       </c>
       <c r="Y132" t="inlineStr">
         <is>
-          <t>10.8</t>
+          <t>9.7</t>
         </is>
       </c>
       <c r="Z132" t="inlineStr"/>
       <c r="AA132" t="inlineStr"/>
       <c r="AB132" t="inlineStr">
         <is>
-          <t>22.3</t>
+          <t>23.4</t>
         </is>
       </c>
       <c r="AC132" t="inlineStr"/>
       <c r="AD132" t="inlineStr"/>
       <c r="AE132" t="inlineStr">
         <is>
-          <t>17:30 - 18:00</t>
+          <t>18:00 - 18:30</t>
         </is>
       </c>
       <c r="AF132" t="inlineStr">
         <is>
-          <t>5.7</t>
+          <t>5.3</t>
         </is>
       </c>
       <c r="AG132" t="inlineStr">
         <is>
-          <t>5.8</t>
+          <t>5.4</t>
         </is>
       </c>
       <c r="AH132" t="inlineStr">
         <is>
-          <t>5.5</t>
+          <t>5.2</t>
         </is>
       </c>
       <c r="AI132" t="inlineStr">
         <is>
-          <t>79</t>
+          <t>81</t>
         </is>
       </c>
       <c r="AJ132" t="inlineStr">
@@ -29888,37 +29888,37 @@
       </c>
       <c r="AK132" t="inlineStr">
         <is>
-          <t>10.8</t>
+          <t>9.7</t>
         </is>
       </c>
       <c r="AL132" t="inlineStr">
         <is>
-          <t>258</t>
+          <t>248</t>
         </is>
       </c>
       <c r="AM132" t="inlineStr">
         <is>
-          <t>17:30 - 18:00</t>
+          <t>18:00 - 18:30</t>
         </is>
       </c>
       <c r="AN132" t="inlineStr">
         <is>
-          <t>5.7</t>
+          <t>5.3</t>
         </is>
       </c>
       <c r="AO132" t="inlineStr">
         <is>
-          <t>5.8</t>
+          <t>5.4</t>
         </is>
       </c>
       <c r="AP132" t="inlineStr">
         <is>
-          <t>5.5</t>
+          <t>5.2</t>
         </is>
       </c>
       <c r="AQ132" t="inlineStr">
         <is>
-          <t>79</t>
+          <t>81</t>
         </is>
       </c>
       <c r="AR132" t="inlineStr">
@@ -29928,33 +29928,33 @@
       </c>
       <c r="AS132" t="inlineStr">
         <is>
-          <t>10.8</t>
+          <t>9.7</t>
         </is>
       </c>
       <c r="AT132" t="inlineStr">
         <is>
-          <t>258</t>
+          <t>248</t>
         </is>
       </c>
       <c r="AU132" t="inlineStr">
         <is>
-          <t>22.3</t>
+          <t>23.4</t>
         </is>
       </c>
       <c r="AV132" t="inlineStr">
         <is>
-          <t>992.8</t>
+          <t>993.5</t>
         </is>
       </c>
       <c r="AW132" t="inlineStr"/>
       <c r="AX132" t="inlineStr">
         <is>
-          <t>22.3</t>
+          <t>23.4</t>
         </is>
       </c>
       <c r="AY132" t="inlineStr">
         <is>
-          <t>992.8</t>
+          <t>993.5</t>
         </is>
       </c>
       <c r="AZ132" t="inlineStr"/>
@@ -29998,7 +29998,7 @@
       </c>
       <c r="H133" t="inlineStr">
         <is>
-          <t>2026-02-04 18:25:41</t>
+          <t>2026-02-04 18:49:50</t>
         </is>
       </c>
       <c r="I133" t="inlineStr">
@@ -30219,7 +30219,7 @@
       </c>
       <c r="H134" t="inlineStr">
         <is>
-          <t>2026-02-04 18:25:41</t>
+          <t>2026-02-04 18:49:50</t>
         </is>
       </c>
       <c r="I134" t="inlineStr">
@@ -30440,7 +30440,7 @@
       </c>
       <c r="H135" t="inlineStr">
         <is>
-          <t>2026-02-04 18:25:41</t>
+          <t>2026-02-04 18:49:50</t>
         </is>
       </c>
       <c r="I135" t="inlineStr">
@@ -30661,7 +30661,7 @@
       </c>
       <c r="H136" t="inlineStr">
         <is>
-          <t>2026-02-04 18:25:41</t>
+          <t>2026-02-04 18:49:50</t>
         </is>
       </c>
       <c r="I136" t="inlineStr">
@@ -30867,7 +30867,7 @@
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>17:30 - 18:00</t>
+          <t>18:00 - 18:30</t>
         </is>
       </c>
       <c r="F137" t="inlineStr">
@@ -30882,17 +30882,17 @@
       </c>
       <c r="H137" t="inlineStr">
         <is>
-          <t>2026-02-04 18:25:44</t>
+          <t>2026-02-04 18:49:53</t>
         </is>
       </c>
       <c r="I137" t="inlineStr">
         <is>
-          <t>17:30</t>
+          <t>18:00</t>
         </is>
       </c>
       <c r="J137" t="inlineStr">
         <is>
-          <t>https://www.meteo.cat/observacions/xema/dades?codi=XS&amp;dia=2026-02-04T17:30Z</t>
+          <t>https://www.meteo.cat/observacions/xema/dades?codi=XS&amp;dia=2026-02-04T18:00Z</t>
         </is>
       </c>
       <c r="K137" t="n">
@@ -30905,7 +30905,7 @@
       </c>
       <c r="M137" t="inlineStr">
         <is>
-          <t>284</t>
+          <t>326</t>
         </is>
       </c>
       <c r="N137" t="inlineStr"/>
@@ -30913,7 +30913,7 @@
       <c r="P137" t="inlineStr"/>
       <c r="Q137" t="inlineStr">
         <is>
-          <t>74</t>
+          <t>76</t>
         </is>
       </c>
       <c r="R137" t="inlineStr"/>
@@ -30924,7 +30924,7 @@
       </c>
       <c r="T137" t="inlineStr">
         <is>
-          <t>17:30 - 18:00</t>
+          <t>18:00 - 18:30</t>
         </is>
       </c>
       <c r="U137" t="inlineStr">
@@ -30934,96 +30934,96 @@
       </c>
       <c r="V137" t="inlineStr">
         <is>
-          <t>8.4</t>
+          <t>7.6</t>
         </is>
       </c>
       <c r="W137" t="inlineStr">
         <is>
+          <t>7.2</t>
+        </is>
+      </c>
+      <c r="X137" t="inlineStr">
+        <is>
           <t>8.0</t>
         </is>
       </c>
-      <c r="X137" t="inlineStr">
-        <is>
-          <t>8.8</t>
-        </is>
-      </c>
       <c r="Y137" t="inlineStr">
         <is>
-          <t>4.0</t>
+          <t>2.5</t>
         </is>
       </c>
       <c r="Z137" t="inlineStr"/>
       <c r="AA137" t="inlineStr"/>
       <c r="AB137" t="inlineStr">
         <is>
-          <t>7.2</t>
+          <t>8.3</t>
         </is>
       </c>
       <c r="AC137" t="inlineStr"/>
       <c r="AD137" t="inlineStr"/>
       <c r="AE137" t="inlineStr">
         <is>
-          <t>17:30 - 18:00</t>
+          <t>18:00 - 18:30</t>
         </is>
       </c>
       <c r="AF137" t="inlineStr">
         <is>
-          <t>8.4</t>
+          <t>7.6</t>
         </is>
       </c>
       <c r="AG137" t="inlineStr">
         <is>
-          <t>8.8</t>
+          <t>8.0</t>
         </is>
       </c>
       <c r="AH137" t="inlineStr">
         <is>
+          <t>7.2</t>
+        </is>
+      </c>
+      <c r="AI137" t="inlineStr">
+        <is>
+          <t>76</t>
+        </is>
+      </c>
+      <c r="AJ137" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="AK137" t="inlineStr">
+        <is>
+          <t>2.5</t>
+        </is>
+      </c>
+      <c r="AL137" t="inlineStr">
+        <is>
+          <t>326</t>
+        </is>
+      </c>
+      <c r="AM137" t="inlineStr">
+        <is>
+          <t>18:00 - 18:30</t>
+        </is>
+      </c>
+      <c r="AN137" t="inlineStr">
+        <is>
+          <t>7.6</t>
+        </is>
+      </c>
+      <c r="AO137" t="inlineStr">
+        <is>
           <t>8.0</t>
         </is>
       </c>
-      <c r="AI137" t="inlineStr">
-        <is>
-          <t>74</t>
-        </is>
-      </c>
-      <c r="AJ137" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="AK137" t="inlineStr">
-        <is>
-          <t>4.0</t>
-        </is>
-      </c>
-      <c r="AL137" t="inlineStr">
-        <is>
-          <t>284</t>
-        </is>
-      </c>
-      <c r="AM137" t="inlineStr">
-        <is>
-          <t>17:30 - 18:00</t>
-        </is>
-      </c>
-      <c r="AN137" t="inlineStr">
-        <is>
-          <t>8.4</t>
-        </is>
-      </c>
-      <c r="AO137" t="inlineStr">
-        <is>
-          <t>8.8</t>
-        </is>
-      </c>
       <c r="AP137" t="inlineStr">
         <is>
-          <t>8.0</t>
+          <t>7.2</t>
         </is>
       </c>
       <c r="AQ137" t="inlineStr">
         <is>
-          <t>74</t>
+          <t>76</t>
         </is>
       </c>
       <c r="AR137" t="inlineStr">
@@ -31033,17 +31033,17 @@
       </c>
       <c r="AS137" t="inlineStr">
         <is>
-          <t>4.0</t>
+          <t>2.5</t>
         </is>
       </c>
       <c r="AT137" t="inlineStr">
         <is>
-          <t>284</t>
+          <t>326</t>
         </is>
       </c>
       <c r="AU137" t="inlineStr">
         <is>
-          <t>7.2</t>
+          <t>8.3</t>
         </is>
       </c>
       <c r="AV137" t="inlineStr">
@@ -31054,7 +31054,7 @@
       <c r="AW137" t="inlineStr"/>
       <c r="AX137" t="inlineStr">
         <is>
-          <t>7.2</t>
+          <t>8.3</t>
         </is>
       </c>
       <c r="AY137" t="inlineStr">
@@ -31103,7 +31103,7 @@
       </c>
       <c r="H138" t="inlineStr">
         <is>
-          <t>2026-02-04 18:25:45</t>
+          <t>2026-02-04 18:49:54</t>
         </is>
       </c>
       <c r="I138" t="inlineStr">
@@ -31324,7 +31324,7 @@
       </c>
       <c r="H139" t="inlineStr">
         <is>
-          <t>2026-02-04 18:25:45</t>
+          <t>2026-02-04 18:49:54</t>
         </is>
       </c>
       <c r="I139" t="inlineStr">
@@ -31545,7 +31545,7 @@
       </c>
       <c r="H140" t="inlineStr">
         <is>
-          <t>2026-02-04 18:25:45</t>
+          <t>2026-02-04 18:49:54</t>
         </is>
       </c>
       <c r="I140" t="inlineStr">
@@ -31766,7 +31766,7 @@
       </c>
       <c r="H141" t="inlineStr">
         <is>
-          <t>2026-02-04 18:25:45</t>
+          <t>2026-02-04 18:49:54</t>
         </is>
       </c>
       <c r="I141" t="inlineStr">
@@ -31972,7 +31972,7 @@
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>17:30 - 18:00</t>
+          <t>18:00 - 18:30</t>
         </is>
       </c>
       <c r="F142" t="inlineStr">
@@ -31987,17 +31987,17 @@
       </c>
       <c r="H142" t="inlineStr">
         <is>
-          <t>2026-02-04 18:25:48</t>
+          <t>2026-02-04 18:49:57</t>
         </is>
       </c>
       <c r="I142" t="inlineStr">
         <is>
-          <t>17:30</t>
+          <t>18:00</t>
         </is>
       </c>
       <c r="J142" t="inlineStr">
         <is>
-          <t>https://www.meteo.cat/observacions/xema/dades?codi=ZC&amp;dia=2026-02-04T17:30Z</t>
+          <t>https://www.meteo.cat/observacions/xema/dades?codi=ZC&amp;dia=2026-02-04T18:00Z</t>
         </is>
       </c>
       <c r="K142" t="n">
@@ -32010,7 +32010,7 @@
       </c>
       <c r="M142" t="inlineStr">
         <is>
-          <t>273</t>
+          <t>280</t>
         </is>
       </c>
       <c r="N142" t="inlineStr"/>
@@ -32033,7 +32033,7 @@
       </c>
       <c r="T142" t="inlineStr">
         <is>
-          <t>17:30 - 18:00</t>
+          <t>18:00 - 18:30</t>
         </is>
       </c>
       <c r="U142" t="inlineStr">
@@ -32043,7 +32043,7 @@
       </c>
       <c r="V142" t="inlineStr">
         <is>
-          <t>-3.0</t>
+          <t>-2.8</t>
         </is>
       </c>
       <c r="W142" t="inlineStr">
@@ -32053,111 +32053,111 @@
       </c>
       <c r="X142" t="inlineStr">
         <is>
-          <t>-2.8</t>
+          <t>-2.4</t>
         </is>
       </c>
       <c r="Y142" t="inlineStr">
         <is>
-          <t>9.0</t>
+          <t>10.1</t>
         </is>
       </c>
       <c r="Z142" t="inlineStr"/>
       <c r="AA142" t="inlineStr"/>
       <c r="AB142" t="inlineStr">
         <is>
-          <t>25.6</t>
+          <t>29.9</t>
         </is>
       </c>
       <c r="AC142" t="inlineStr"/>
       <c r="AD142" t="inlineStr"/>
       <c r="AE142" t="inlineStr">
         <is>
-          <t>17:30 - 18:00</t>
+          <t>18:00 - 18:30</t>
         </is>
       </c>
       <c r="AF142" t="inlineStr">
         <is>
-          <t>-3.0</t>
+          <t>-2.8</t>
         </is>
       </c>
       <c r="AG142" t="inlineStr">
         <is>
+          <t>-2.4</t>
+        </is>
+      </c>
+      <c r="AH142" t="inlineStr">
+        <is>
+          <t>-3.2</t>
+        </is>
+      </c>
+      <c r="AI142" t="inlineStr">
+        <is>
+          <t>63</t>
+        </is>
+      </c>
+      <c r="AJ142" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="AK142" t="inlineStr">
+        <is>
+          <t>57</t>
+        </is>
+      </c>
+      <c r="AL142" t="inlineStr">
+        <is>
+          <t>10.1</t>
+        </is>
+      </c>
+      <c r="AM142" t="inlineStr">
+        <is>
+          <t>18:00 - 18:30</t>
+        </is>
+      </c>
+      <c r="AN142" t="inlineStr">
+        <is>
           <t>-2.8</t>
         </is>
       </c>
-      <c r="AH142" t="inlineStr">
+      <c r="AO142" t="inlineStr">
+        <is>
+          <t>-2.4</t>
+        </is>
+      </c>
+      <c r="AP142" t="inlineStr">
         <is>
           <t>-3.2</t>
         </is>
       </c>
-      <c r="AI142" t="inlineStr">
+      <c r="AQ142" t="inlineStr">
         <is>
           <t>63</t>
         </is>
       </c>
-      <c r="AJ142" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="AK142" t="inlineStr">
+      <c r="AR142" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="AS142" t="inlineStr">
         <is>
           <t>57</t>
         </is>
       </c>
-      <c r="AL142" t="inlineStr">
-        <is>
-          <t>9.0</t>
-        </is>
-      </c>
-      <c r="AM142" t="inlineStr">
-        <is>
-          <t>17:30 - 18:00</t>
-        </is>
-      </c>
-      <c r="AN142" t="inlineStr">
-        <is>
-          <t>-3.0</t>
-        </is>
-      </c>
-      <c r="AO142" t="inlineStr">
-        <is>
-          <t>-2.8</t>
-        </is>
-      </c>
-      <c r="AP142" t="inlineStr">
-        <is>
-          <t>-3.2</t>
-        </is>
-      </c>
-      <c r="AQ142" t="inlineStr">
-        <is>
-          <t>63</t>
-        </is>
-      </c>
-      <c r="AR142" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="AS142" t="inlineStr">
-        <is>
-          <t>57</t>
-        </is>
-      </c>
       <c r="AT142" t="inlineStr">
         <is>
-          <t>9.0</t>
+          <t>10.1</t>
         </is>
       </c>
       <c r="AU142" t="inlineStr">
         <is>
-          <t>273</t>
+          <t>280</t>
         </is>
       </c>
       <c r="AV142" t="inlineStr">
         <is>
-          <t>25.6</t>
+          <t>29.9</t>
         </is>
       </c>
       <c r="AW142" t="inlineStr">
@@ -32167,12 +32167,12 @@
       </c>
       <c r="AX142" t="inlineStr">
         <is>
-          <t>273</t>
+          <t>280</t>
         </is>
       </c>
       <c r="AY142" t="inlineStr">
         <is>
-          <t>25.6</t>
+          <t>29.9</t>
         </is>
       </c>
       <c r="AZ142" t="inlineStr">
@@ -32220,7 +32220,7 @@
       </c>
       <c r="H143" t="inlineStr">
         <is>
-          <t>2026-02-04 18:25:49</t>
+          <t>2026-02-04 18:49:59</t>
         </is>
       </c>
       <c r="I143" t="inlineStr">
@@ -32453,7 +32453,7 @@
       </c>
       <c r="H144" t="inlineStr">
         <is>
-          <t>2026-02-04 18:25:49</t>
+          <t>2026-02-04 18:49:59</t>
         </is>
       </c>
       <c r="I144" t="inlineStr">
@@ -32686,7 +32686,7 @@
       </c>
       <c r="H145" t="inlineStr">
         <is>
-          <t>2026-02-04 18:25:49</t>
+          <t>2026-02-04 18:49:59</t>
         </is>
       </c>
       <c r="I145" t="inlineStr">
@@ -32919,7 +32919,7 @@
       </c>
       <c r="H146" t="inlineStr">
         <is>
-          <t>2026-02-04 18:25:49</t>
+          <t>2026-02-04 18:49:59</t>
         </is>
       </c>
       <c r="I146" t="inlineStr">
@@ -33137,7 +33137,7 @@
       </c>
       <c r="E147" t="inlineStr">
         <is>
-          <t>17:30 - 18:00</t>
+          <t>18:00 - 18:30</t>
         </is>
       </c>
       <c r="F147" t="inlineStr">
@@ -33152,17 +33152,17 @@
       </c>
       <c r="H147" t="inlineStr">
         <is>
-          <t>2026-02-04 18:25:52</t>
+          <t>2026-02-04 18:50:01</t>
         </is>
       </c>
       <c r="I147" t="inlineStr">
         <is>
-          <t>17:30</t>
+          <t>18:00</t>
         </is>
       </c>
       <c r="J147" t="inlineStr">
         <is>
-          <t>https://www.meteo.cat/observacions/xema/dades?codi=XH&amp;dia=2026-02-04T17:30Z</t>
+          <t>https://www.meteo.cat/observacions/xema/dades?codi=XH&amp;dia=2026-02-04T18:00Z</t>
         </is>
       </c>
       <c r="K147" t="n">
@@ -33183,12 +33183,12 @@
       </c>
       <c r="Q147" t="inlineStr">
         <is>
-          <t>85</t>
+          <t>86</t>
         </is>
       </c>
       <c r="R147" t="inlineStr">
         <is>
-          <t>993.5</t>
+          <t>994.2</t>
         </is>
       </c>
       <c r="S147" t="inlineStr">
@@ -33198,23 +33198,23 @@
       </c>
       <c r="T147" t="inlineStr">
         <is>
-          <t>17:30 - 18:00</t>
+          <t>18:00 - 18:30</t>
         </is>
       </c>
       <c r="U147" t="inlineStr"/>
       <c r="V147" t="inlineStr">
         <is>
-          <t>6.2</t>
+          <t>5.5</t>
         </is>
       </c>
       <c r="W147" t="inlineStr">
         <is>
-          <t>5.8</t>
+          <t>4.9</t>
         </is>
       </c>
       <c r="X147" t="inlineStr">
         <is>
-          <t>6.5</t>
+          <t>5.9</t>
         </is>
       </c>
       <c r="Y147" t="inlineStr"/>
@@ -33225,27 +33225,27 @@
       <c r="AD147" t="inlineStr"/>
       <c r="AE147" t="inlineStr">
         <is>
-          <t>17:30 - 18:00</t>
+          <t>18:00 - 18:30</t>
         </is>
       </c>
       <c r="AF147" t="inlineStr">
         <is>
-          <t>6.2</t>
+          <t>5.5</t>
         </is>
       </c>
       <c r="AG147" t="inlineStr">
         <is>
-          <t>6.5</t>
+          <t>5.9</t>
         </is>
       </c>
       <c r="AH147" t="inlineStr">
         <is>
-          <t>5.8</t>
+          <t>4.9</t>
         </is>
       </c>
       <c r="AI147" t="inlineStr">
         <is>
-          <t>85</t>
+          <t>86</t>
         </is>
       </c>
       <c r="AJ147" t="inlineStr">
@@ -33260,32 +33260,32 @@
       </c>
       <c r="AL147" t="inlineStr">
         <is>
-          <t>993.5</t>
+          <t>994.2</t>
         </is>
       </c>
       <c r="AM147" t="inlineStr">
         <is>
-          <t>17:30 - 18:00</t>
+          <t>18:00 - 18:30</t>
         </is>
       </c>
       <c r="AN147" t="inlineStr">
         <is>
-          <t>6.2</t>
+          <t>5.5</t>
         </is>
       </c>
       <c r="AO147" t="inlineStr">
         <is>
-          <t>6.5</t>
+          <t>5.9</t>
         </is>
       </c>
       <c r="AP147" t="inlineStr">
         <is>
-          <t>5.8</t>
+          <t>4.9</t>
         </is>
       </c>
       <c r="AQ147" t="inlineStr">
         <is>
-          <t>85</t>
+          <t>86</t>
         </is>
       </c>
       <c r="AR147" t="inlineStr">
@@ -33300,7 +33300,7 @@
       </c>
       <c r="AT147" t="inlineStr">
         <is>
-          <t>993.5</t>
+          <t>994.2</t>
         </is>
       </c>
       <c r="AU147" t="inlineStr"/>
@@ -33349,7 +33349,7 @@
       </c>
       <c r="H148" t="inlineStr">
         <is>
-          <t>2026-02-04 18:25:53</t>
+          <t>2026-02-04 18:50:03</t>
         </is>
       </c>
       <c r="I148" t="inlineStr">
@@ -33546,7 +33546,7 @@
       </c>
       <c r="H149" t="inlineStr">
         <is>
-          <t>2026-02-04 18:25:53</t>
+          <t>2026-02-04 18:50:03</t>
         </is>
       </c>
       <c r="I149" t="inlineStr">
@@ -33743,7 +33743,7 @@
       </c>
       <c r="H150" t="inlineStr">
         <is>
-          <t>2026-02-04 18:25:53</t>
+          <t>2026-02-04 18:50:03</t>
         </is>
       </c>
       <c r="I150" t="inlineStr">
@@ -33940,7 +33940,7 @@
       </c>
       <c r="H151" t="inlineStr">
         <is>
-          <t>2026-02-04 18:25:53</t>
+          <t>2026-02-04 18:50:03</t>
         </is>
       </c>
       <c r="I151" t="inlineStr">
@@ -34122,7 +34122,7 @@
       </c>
       <c r="E152" t="inlineStr">
         <is>
-          <t>17:30 - 18:00</t>
+          <t>18:00 - 18:30</t>
         </is>
       </c>
       <c r="F152" t="inlineStr">
@@ -34137,17 +34137,17 @@
       </c>
       <c r="H152" t="inlineStr">
         <is>
-          <t>2026-02-04 18:25:56</t>
+          <t>2026-02-04 18:50:05</t>
         </is>
       </c>
       <c r="I152" t="inlineStr">
         <is>
-          <t>17:30</t>
+          <t>18:00</t>
         </is>
       </c>
       <c r="J152" t="inlineStr">
         <is>
-          <t>https://www.meteo.cat/observacions/xema/dades?codi=XE&amp;dia=2026-02-04T17:30Z</t>
+          <t>https://www.meteo.cat/observacions/xema/dades?codi=XE&amp;dia=2026-02-04T18:00Z</t>
         </is>
       </c>
       <c r="K152" t="n">
@@ -34160,7 +34160,7 @@
       </c>
       <c r="M152" t="inlineStr">
         <is>
-          <t>218</t>
+          <t>226</t>
         </is>
       </c>
       <c r="N152" t="inlineStr"/>
@@ -34168,12 +34168,12 @@
       <c r="P152" t="inlineStr"/>
       <c r="Q152" t="inlineStr">
         <is>
-          <t>72</t>
+          <t>75</t>
         </is>
       </c>
       <c r="R152" t="inlineStr">
         <is>
-          <t>992.7</t>
+          <t>993.0</t>
         </is>
       </c>
       <c r="S152" t="inlineStr">
@@ -34183,7 +34183,7 @@
       </c>
       <c r="T152" t="inlineStr">
         <is>
-          <t>17:30 - 18:00</t>
+          <t>18:00 - 18:30</t>
         </is>
       </c>
       <c r="U152" t="inlineStr">
@@ -34193,56 +34193,56 @@
       </c>
       <c r="V152" t="inlineStr">
         <is>
-          <t>12.1</t>
+          <t>11.6</t>
         </is>
       </c>
       <c r="W152" t="inlineStr">
         <is>
-          <t>11.9</t>
+          <t>11.2</t>
         </is>
       </c>
       <c r="X152" t="inlineStr">
         <is>
-          <t>12.5</t>
+          <t>12.2</t>
         </is>
       </c>
       <c r="Y152" t="inlineStr">
         <is>
-          <t>4.7</t>
+          <t>3.6</t>
         </is>
       </c>
       <c r="Z152" t="inlineStr"/>
       <c r="AA152" t="inlineStr"/>
       <c r="AB152" t="inlineStr">
         <is>
-          <t>8.6</t>
+          <t>7.2</t>
         </is>
       </c>
       <c r="AC152" t="inlineStr"/>
       <c r="AD152" t="inlineStr"/>
       <c r="AE152" t="inlineStr">
         <is>
-          <t>17:30 - 18:00</t>
+          <t>18:00 - 18:30</t>
         </is>
       </c>
       <c r="AF152" t="inlineStr">
         <is>
-          <t>12.1</t>
+          <t>11.6</t>
         </is>
       </c>
       <c r="AG152" t="inlineStr">
         <is>
-          <t>12.5</t>
+          <t>12.2</t>
         </is>
       </c>
       <c r="AH152" t="inlineStr">
         <is>
-          <t>11.9</t>
+          <t>11.2</t>
         </is>
       </c>
       <c r="AI152" t="inlineStr">
         <is>
-          <t>72</t>
+          <t>75</t>
         </is>
       </c>
       <c r="AJ152" t="inlineStr">
@@ -34252,37 +34252,37 @@
       </c>
       <c r="AK152" t="inlineStr">
         <is>
-          <t>4.7</t>
+          <t>3.6</t>
         </is>
       </c>
       <c r="AL152" t="inlineStr">
         <is>
-          <t>218</t>
+          <t>226</t>
         </is>
       </c>
       <c r="AM152" t="inlineStr">
         <is>
-          <t>17:30 - 18:00</t>
+          <t>18:00 - 18:30</t>
         </is>
       </c>
       <c r="AN152" t="inlineStr">
         <is>
-          <t>12.1</t>
+          <t>11.6</t>
         </is>
       </c>
       <c r="AO152" t="inlineStr">
         <is>
-          <t>12.5</t>
+          <t>12.2</t>
         </is>
       </c>
       <c r="AP152" t="inlineStr">
         <is>
-          <t>11.9</t>
+          <t>11.2</t>
         </is>
       </c>
       <c r="AQ152" t="inlineStr">
         <is>
-          <t>72</t>
+          <t>75</t>
         </is>
       </c>
       <c r="AR152" t="inlineStr">
@@ -34292,22 +34292,22 @@
       </c>
       <c r="AS152" t="inlineStr">
         <is>
-          <t>4.7</t>
+          <t>3.6</t>
         </is>
       </c>
       <c r="AT152" t="inlineStr">
         <is>
-          <t>218</t>
+          <t>226</t>
         </is>
       </c>
       <c r="AU152" t="inlineStr">
         <is>
-          <t>8.6</t>
+          <t>7.2</t>
         </is>
       </c>
       <c r="AV152" t="inlineStr">
         <is>
-          <t>992.7</t>
+          <t>993.0</t>
         </is>
       </c>
       <c r="AW152" t="inlineStr">
@@ -34317,12 +34317,12 @@
       </c>
       <c r="AX152" t="inlineStr">
         <is>
-          <t>8.6</t>
+          <t>7.2</t>
         </is>
       </c>
       <c r="AY152" t="inlineStr">
         <is>
-          <t>992.7</t>
+          <t>993.0</t>
         </is>
       </c>
       <c r="AZ152" t="inlineStr">
@@ -34370,7 +34370,7 @@
       </c>
       <c r="H153" t="inlineStr">
         <is>
-          <t>2026-02-04 18:25:57</t>
+          <t>2026-02-04 18:50:07</t>
         </is>
       </c>
       <c r="I153" t="inlineStr">
@@ -34603,7 +34603,7 @@
       </c>
       <c r="H154" t="inlineStr">
         <is>
-          <t>2026-02-04 18:25:57</t>
+          <t>2026-02-04 18:50:07</t>
         </is>
       </c>
       <c r="I154" t="inlineStr">
@@ -34836,7 +34836,7 @@
       </c>
       <c r="H155" t="inlineStr">
         <is>
-          <t>2026-02-04 18:25:57</t>
+          <t>2026-02-04 18:50:07</t>
         </is>
       </c>
       <c r="I155" t="inlineStr">
@@ -35069,7 +35069,7 @@
       </c>
       <c r="H156" t="inlineStr">
         <is>
-          <t>2026-02-04 18:25:57</t>
+          <t>2026-02-04 18:50:07</t>
         </is>
       </c>
       <c r="I156" t="inlineStr">
@@ -35287,7 +35287,7 @@
       </c>
       <c r="E157" t="inlineStr">
         <is>
-          <t>17:30 - 18:00</t>
+          <t>18:00 - 18:30</t>
         </is>
       </c>
       <c r="F157" t="inlineStr">
@@ -35302,17 +35302,17 @@
       </c>
       <c r="H157" t="inlineStr">
         <is>
-          <t>2026-02-04 18:26:00</t>
+          <t>2026-02-04 18:50:09</t>
         </is>
       </c>
       <c r="I157" t="inlineStr">
         <is>
-          <t>17:30</t>
+          <t>18:00</t>
         </is>
       </c>
       <c r="J157" t="inlineStr">
         <is>
-          <t>https://www.meteo.cat/observacions/xema/dades?codi=UE&amp;dia=2026-02-04T17:30Z</t>
+          <t>https://www.meteo.cat/observacions/xema/dades?codi=UE&amp;dia=2026-02-04T18:00Z</t>
         </is>
       </c>
       <c r="K157" t="n">
@@ -35329,7 +35329,7 @@
       <c r="P157" t="inlineStr"/>
       <c r="Q157" t="inlineStr">
         <is>
-          <t>87</t>
+          <t>92</t>
         </is>
       </c>
       <c r="R157" t="inlineStr"/>
@@ -35340,23 +35340,23 @@
       </c>
       <c r="T157" t="inlineStr">
         <is>
-          <t>17:30 - 18:00</t>
+          <t>18:00 - 18:30</t>
         </is>
       </c>
       <c r="U157" t="inlineStr"/>
       <c r="V157" t="inlineStr">
         <is>
-          <t>9.7</t>
+          <t>8.8</t>
         </is>
       </c>
       <c r="W157" t="inlineStr">
         <is>
-          <t>9.2</t>
+          <t>8.5</t>
         </is>
       </c>
       <c r="X157" t="inlineStr">
         <is>
-          <t>10.4</t>
+          <t>9.5</t>
         </is>
       </c>
       <c r="Y157" t="inlineStr"/>
@@ -35367,27 +35367,27 @@
       <c r="AD157" t="inlineStr"/>
       <c r="AE157" t="inlineStr">
         <is>
-          <t>17:30 - 18:00</t>
+          <t>18:00 - 18:30</t>
         </is>
       </c>
       <c r="AF157" t="inlineStr">
         <is>
-          <t>9.7</t>
+          <t>8.8</t>
         </is>
       </c>
       <c r="AG157" t="inlineStr">
         <is>
-          <t>10.4</t>
+          <t>9.5</t>
         </is>
       </c>
       <c r="AH157" t="inlineStr">
         <is>
-          <t>9.2</t>
+          <t>8.5</t>
         </is>
       </c>
       <c r="AI157" t="inlineStr">
         <is>
-          <t>87</t>
+          <t>92</t>
         </is>
       </c>
       <c r="AJ157" t="inlineStr">
@@ -35399,27 +35399,27 @@
       <c r="AL157" t="inlineStr"/>
       <c r="AM157" t="inlineStr">
         <is>
-          <t>17:30 - 18:00</t>
+          <t>18:00 - 18:30</t>
         </is>
       </c>
       <c r="AN157" t="inlineStr">
         <is>
-          <t>9.7</t>
+          <t>8.8</t>
         </is>
       </c>
       <c r="AO157" t="inlineStr">
         <is>
-          <t>10.4</t>
+          <t>9.5</t>
         </is>
       </c>
       <c r="AP157" t="inlineStr">
         <is>
-          <t>9.2</t>
+          <t>8.5</t>
         </is>
       </c>
       <c r="AQ157" t="inlineStr">
         <is>
-          <t>87</t>
+          <t>92</t>
         </is>
       </c>
       <c r="AR157" t="inlineStr">
@@ -35475,7 +35475,7 @@
       </c>
       <c r="H158" t="inlineStr">
         <is>
-          <t>2026-02-04 18:26:01</t>
+          <t>2026-02-04 18:50:11</t>
         </is>
       </c>
       <c r="I158" t="inlineStr">
@@ -35648,7 +35648,7 @@
       </c>
       <c r="H159" t="inlineStr">
         <is>
-          <t>2026-02-04 18:26:01</t>
+          <t>2026-02-04 18:50:11</t>
         </is>
       </c>
       <c r="I159" t="inlineStr">
@@ -35821,7 +35821,7 @@
       </c>
       <c r="H160" t="inlineStr">
         <is>
-          <t>2026-02-04 18:26:01</t>
+          <t>2026-02-04 18:50:11</t>
         </is>
       </c>
       <c r="I160" t="inlineStr">
@@ -35994,7 +35994,7 @@
       </c>
       <c r="H161" t="inlineStr">
         <is>
-          <t>2026-02-04 18:26:01</t>
+          <t>2026-02-04 18:50:11</t>
         </is>
       </c>
       <c r="I161" t="inlineStr">
@@ -36152,7 +36152,7 @@
       </c>
       <c r="E162" t="inlineStr">
         <is>
-          <t>17:30 - 18:00</t>
+          <t>18:00 - 18:30</t>
         </is>
       </c>
       <c r="F162" t="inlineStr">
@@ -36167,17 +36167,17 @@
       </c>
       <c r="H162" t="inlineStr">
         <is>
-          <t>2026-02-04 18:26:04</t>
+          <t>2026-02-04 18:50:14</t>
         </is>
       </c>
       <c r="I162" t="inlineStr">
         <is>
-          <t>17:30</t>
+          <t>18:00</t>
         </is>
       </c>
       <c r="J162" t="inlineStr">
         <is>
-          <t>https://www.meteo.cat/observacions/xema/dades?codi=XO&amp;dia=2026-02-04T17:30Z</t>
+          <t>https://www.meteo.cat/observacions/xema/dades?codi=XO&amp;dia=2026-02-04T18:00Z</t>
         </is>
       </c>
       <c r="K162" t="n">
@@ -36190,7 +36190,7 @@
       </c>
       <c r="M162" t="inlineStr">
         <is>
-          <t>196</t>
+          <t>230</t>
         </is>
       </c>
       <c r="N162" t="inlineStr"/>
@@ -36198,7 +36198,7 @@
       <c r="P162" t="inlineStr"/>
       <c r="Q162" t="inlineStr">
         <is>
-          <t>77</t>
+          <t>79</t>
         </is>
       </c>
       <c r="R162" t="inlineStr"/>
@@ -36209,7 +36209,7 @@
       </c>
       <c r="T162" t="inlineStr">
         <is>
-          <t>17:30 - 18:00</t>
+          <t>18:00 - 18:30</t>
         </is>
       </c>
       <c r="U162" t="inlineStr">
@@ -36219,22 +36219,22 @@
       </c>
       <c r="V162" t="inlineStr">
         <is>
-          <t>6.7</t>
+          <t>6.2</t>
         </is>
       </c>
       <c r="W162" t="inlineStr">
         <is>
-          <t>6.3</t>
+          <t>5.9</t>
         </is>
       </c>
       <c r="X162" t="inlineStr">
         <is>
-          <t>7.1</t>
+          <t>6.4</t>
         </is>
       </c>
       <c r="Y162" t="inlineStr">
         <is>
-          <t>2.5</t>
+          <t>3.2</t>
         </is>
       </c>
       <c r="Z162" t="inlineStr"/>
@@ -36248,27 +36248,27 @@
       <c r="AD162" t="inlineStr"/>
       <c r="AE162" t="inlineStr">
         <is>
-          <t>17:30 - 18:00</t>
+          <t>18:00 - 18:30</t>
         </is>
       </c>
       <c r="AF162" t="inlineStr">
         <is>
-          <t>6.7</t>
+          <t>6.2</t>
         </is>
       </c>
       <c r="AG162" t="inlineStr">
         <is>
-          <t>7.1</t>
+          <t>6.4</t>
         </is>
       </c>
       <c r="AH162" t="inlineStr">
         <is>
-          <t>6.3</t>
+          <t>5.9</t>
         </is>
       </c>
       <c r="AI162" t="inlineStr">
         <is>
-          <t>77</t>
+          <t>79</t>
         </is>
       </c>
       <c r="AJ162" t="inlineStr">
@@ -36278,37 +36278,37 @@
       </c>
       <c r="AK162" t="inlineStr">
         <is>
-          <t>2.5</t>
+          <t>3.2</t>
         </is>
       </c>
       <c r="AL162" t="inlineStr">
         <is>
-          <t>196</t>
+          <t>230</t>
         </is>
       </c>
       <c r="AM162" t="inlineStr">
         <is>
-          <t>17:30 - 18:00</t>
+          <t>18:00 - 18:30</t>
         </is>
       </c>
       <c r="AN162" t="inlineStr">
         <is>
-          <t>6.7</t>
+          <t>6.2</t>
         </is>
       </c>
       <c r="AO162" t="inlineStr">
         <is>
-          <t>7.1</t>
+          <t>6.4</t>
         </is>
       </c>
       <c r="AP162" t="inlineStr">
         <is>
-          <t>6.3</t>
+          <t>5.9</t>
         </is>
       </c>
       <c r="AQ162" t="inlineStr">
         <is>
-          <t>77</t>
+          <t>79</t>
         </is>
       </c>
       <c r="AR162" t="inlineStr">
@@ -36318,12 +36318,12 @@
       </c>
       <c r="AS162" t="inlineStr">
         <is>
-          <t>2.5</t>
+          <t>3.2</t>
         </is>
       </c>
       <c r="AT162" t="inlineStr">
         <is>
-          <t>196</t>
+          <t>230</t>
         </is>
       </c>
       <c r="AU162" t="inlineStr">
@@ -36388,7 +36388,7 @@
       </c>
       <c r="H163" t="inlineStr">
         <is>
-          <t>2026-02-04 18:26:05</t>
+          <t>2026-02-04 18:50:15</t>
         </is>
       </c>
       <c r="I163" t="inlineStr">
@@ -36609,7 +36609,7 @@
       </c>
       <c r="H164" t="inlineStr">
         <is>
-          <t>2026-02-04 18:26:05</t>
+          <t>2026-02-04 18:50:15</t>
         </is>
       </c>
       <c r="I164" t="inlineStr">
@@ -36830,7 +36830,7 @@
       </c>
       <c r="H165" t="inlineStr">
         <is>
-          <t>2026-02-04 18:26:05</t>
+          <t>2026-02-04 18:50:15</t>
         </is>
       </c>
       <c r="I165" t="inlineStr">
@@ -37051,7 +37051,7 @@
       </c>
       <c r="H166" t="inlineStr">
         <is>
-          <t>2026-02-04 18:26:05</t>
+          <t>2026-02-04 18:50:15</t>
         </is>
       </c>
       <c r="I166" t="inlineStr">
@@ -37257,7 +37257,7 @@
       </c>
       <c r="E167" t="inlineStr">
         <is>
-          <t>17:30 - 18:00</t>
+          <t>18:00 - 18:30</t>
         </is>
       </c>
       <c r="F167" t="inlineStr">
@@ -37272,17 +37272,17 @@
       </c>
       <c r="H167" t="inlineStr">
         <is>
-          <t>2026-02-04 18:26:08</t>
+          <t>2026-02-04 18:50:18</t>
         </is>
       </c>
       <c r="I167" t="inlineStr">
         <is>
-          <t>17:30</t>
+          <t>18:00</t>
         </is>
       </c>
       <c r="J167" t="inlineStr">
         <is>
-          <t>https://www.meteo.cat/observacions/xema/dades?codi=VS&amp;dia=2026-02-04T17:30Z</t>
+          <t>https://www.meteo.cat/observacions/xema/dades?codi=VS&amp;dia=2026-02-04T18:00Z</t>
         </is>
       </c>
       <c r="K167" t="n">
@@ -37312,7 +37312,7 @@
       </c>
       <c r="R167" t="inlineStr">
         <is>
-          <t>828.1</t>
+          <t>828.4</t>
         </is>
       </c>
       <c r="S167" t="inlineStr">
@@ -37322,7 +37322,7 @@
       </c>
       <c r="T167" t="inlineStr">
         <is>
-          <t>17:30 - 18:00</t>
+          <t>18:00 - 18:30</t>
         </is>
       </c>
       <c r="U167" t="inlineStr">
@@ -37332,17 +37332,17 @@
       </c>
       <c r="V167" t="inlineStr">
         <is>
-          <t>-4.9</t>
+          <t>-5.2</t>
         </is>
       </c>
       <c r="W167" t="inlineStr">
         <is>
+          <t>-5.4</t>
+        </is>
+      </c>
+      <c r="X167" t="inlineStr">
+        <is>
           <t>-5.1</t>
-        </is>
-      </c>
-      <c r="X167" t="inlineStr">
-        <is>
-          <t>-4.7</t>
         </is>
       </c>
       <c r="Y167" t="inlineStr">
@@ -37361,79 +37361,79 @@
       <c r="AD167" t="inlineStr"/>
       <c r="AE167" t="inlineStr">
         <is>
-          <t>17:30 - 18:00</t>
+          <t>18:00 - 18:30</t>
         </is>
       </c>
       <c r="AF167" t="inlineStr">
         <is>
-          <t>-4.9</t>
+          <t>-5.2</t>
         </is>
       </c>
       <c r="AG167" t="inlineStr">
         <is>
-          <t>-4.7</t>
+          <t>-5.1</t>
         </is>
       </c>
       <c r="AH167" t="inlineStr">
         <is>
+          <t>-5.4</t>
+        </is>
+      </c>
+      <c r="AI167" t="inlineStr">
+        <is>
+          <t>93</t>
+        </is>
+      </c>
+      <c r="AJ167" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="AK167" t="inlineStr">
+        <is>
+          <t>200</t>
+        </is>
+      </c>
+      <c r="AL167" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="AM167" t="inlineStr">
+        <is>
+          <t>18:00 - 18:30</t>
+        </is>
+      </c>
+      <c r="AN167" t="inlineStr">
+        <is>
+          <t>-5.2</t>
+        </is>
+      </c>
+      <c r="AO167" t="inlineStr">
+        <is>
           <t>-5.1</t>
         </is>
       </c>
-      <c r="AI167" t="inlineStr">
+      <c r="AP167" t="inlineStr">
+        <is>
+          <t>-5.4</t>
+        </is>
+      </c>
+      <c r="AQ167" t="inlineStr">
         <is>
           <t>93</t>
         </is>
       </c>
-      <c r="AJ167" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="AK167" t="inlineStr">
+      <c r="AR167" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="AS167" t="inlineStr">
         <is>
           <t>200</t>
         </is>
       </c>
-      <c r="AL167" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="AM167" t="inlineStr">
-        <is>
-          <t>17:30 - 18:00</t>
-        </is>
-      </c>
-      <c r="AN167" t="inlineStr">
-        <is>
-          <t>-4.9</t>
-        </is>
-      </c>
-      <c r="AO167" t="inlineStr">
-        <is>
-          <t>-4.7</t>
-        </is>
-      </c>
-      <c r="AP167" t="inlineStr">
-        <is>
-          <t>-5.1</t>
-        </is>
-      </c>
-      <c r="AQ167" t="inlineStr">
-        <is>
-          <t>93</t>
-        </is>
-      </c>
-      <c r="AR167" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="AS167" t="inlineStr">
-        <is>
-          <t>200</t>
-        </is>
-      </c>
       <c r="AT167" t="inlineStr">
         <is>
           <t>0.0</t>
@@ -37451,7 +37451,7 @@
       </c>
       <c r="AW167" t="inlineStr">
         <is>
-          <t>828.1</t>
+          <t>828.4</t>
         </is>
       </c>
       <c r="AX167" t="inlineStr">
@@ -37466,7 +37466,7 @@
       </c>
       <c r="AZ167" t="inlineStr">
         <is>
-          <t>828.1</t>
+          <t>828.4</t>
         </is>
       </c>
       <c r="BA167" t="inlineStr">
@@ -37513,7 +37513,7 @@
       </c>
       <c r="H168" t="inlineStr">
         <is>
-          <t>2026-02-04 18:26:09</t>
+          <t>2026-02-04 18:50:19</t>
         </is>
       </c>
       <c r="I168" t="inlineStr">
@@ -37722,7 +37722,7 @@
       </c>
       <c r="H169" t="inlineStr">
         <is>
-          <t>2026-02-04 18:26:09</t>
+          <t>2026-02-04 18:50:19</t>
         </is>
       </c>
       <c r="I169" t="inlineStr">
@@ -37931,7 +37931,7 @@
       </c>
       <c r="H170" t="inlineStr">
         <is>
-          <t>2026-02-04 18:26:09</t>
+          <t>2026-02-04 18:50:19</t>
         </is>
       </c>
       <c r="I170" t="inlineStr">
@@ -38140,7 +38140,7 @@
       </c>
       <c r="H171" t="inlineStr">
         <is>
-          <t>2026-02-04 18:26:09</t>
+          <t>2026-02-04 18:50:19</t>
         </is>
       </c>
       <c r="I171" t="inlineStr">
@@ -38334,7 +38334,7 @@
       </c>
       <c r="E172" t="inlineStr">
         <is>
-          <t>17:30 - 18:00</t>
+          <t>18:00 - 18:30</t>
         </is>
       </c>
       <c r="F172" t="inlineStr">
@@ -38349,17 +38349,17 @@
       </c>
       <c r="H172" t="inlineStr">
         <is>
-          <t>2026-02-04 18:26:12</t>
+          <t>2026-02-04 18:50:22</t>
         </is>
       </c>
       <c r="I172" t="inlineStr">
         <is>
-          <t>17:30</t>
+          <t>18:00</t>
         </is>
       </c>
       <c r="J172" t="inlineStr">
         <is>
-          <t>https://www.meteo.cat/observacions/xema/dades?codi=D7&amp;dia=2026-02-04T17:30Z</t>
+          <t>https://www.meteo.cat/observacions/xema/dades?codi=D7&amp;dia=2026-02-04T18:00Z</t>
         </is>
       </c>
       <c r="K172" t="n">
@@ -38372,7 +38372,7 @@
       </c>
       <c r="M172" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>64</t>
         </is>
       </c>
       <c r="N172" t="inlineStr"/>
@@ -38380,12 +38380,12 @@
       <c r="P172" t="inlineStr"/>
       <c r="Q172" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>87</t>
         </is>
       </c>
       <c r="R172" t="inlineStr">
         <is>
-          <t>993.7</t>
+          <t>994.0</t>
         </is>
       </c>
       <c r="S172" t="inlineStr">
@@ -38395,7 +38395,7 @@
       </c>
       <c r="T172" t="inlineStr">
         <is>
-          <t>17:30 - 18:00</t>
+          <t>18:00 - 18:30</t>
         </is>
       </c>
       <c r="U172" t="inlineStr">
@@ -38405,17 +38405,17 @@
       </c>
       <c r="V172" t="inlineStr">
         <is>
-          <t>9.8</t>
+          <t>8.7</t>
         </is>
       </c>
       <c r="W172" t="inlineStr">
         <is>
+          <t>8.2</t>
+        </is>
+      </c>
+      <c r="X172" t="inlineStr">
+        <is>
           <t>9.5</t>
-        </is>
-      </c>
-      <c r="X172" t="inlineStr">
-        <is>
-          <t>10.6</t>
         </is>
       </c>
       <c r="Y172" t="inlineStr">
@@ -38427,99 +38427,99 @@
       <c r="AA172" t="inlineStr"/>
       <c r="AB172" t="inlineStr">
         <is>
-          <t>4.0</t>
+          <t>6.1</t>
         </is>
       </c>
       <c r="AC172" t="inlineStr"/>
       <c r="AD172" t="inlineStr"/>
       <c r="AE172" t="inlineStr">
         <is>
-          <t>17:30 - 18:00</t>
+          <t>18:00 - 18:30</t>
         </is>
       </c>
       <c r="AF172" t="inlineStr">
         <is>
-          <t>9.8</t>
+          <t>8.7</t>
         </is>
       </c>
       <c r="AG172" t="inlineStr">
         <is>
-          <t>10.6</t>
+          <t>9.5</t>
         </is>
       </c>
       <c r="AH172" t="inlineStr">
         <is>
+          <t>8.2</t>
+        </is>
+      </c>
+      <c r="AI172" t="inlineStr">
+        <is>
+          <t>87</t>
+        </is>
+      </c>
+      <c r="AJ172" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="AK172" t="inlineStr">
+        <is>
+          <t>2.2</t>
+        </is>
+      </c>
+      <c r="AL172" t="inlineStr">
+        <is>
+          <t>64</t>
+        </is>
+      </c>
+      <c r="AM172" t="inlineStr">
+        <is>
+          <t>18:00 - 18:30</t>
+        </is>
+      </c>
+      <c r="AN172" t="inlineStr">
+        <is>
+          <t>8.7</t>
+        </is>
+      </c>
+      <c r="AO172" t="inlineStr">
+        <is>
           <t>9.5</t>
         </is>
       </c>
-      <c r="AI172" t="inlineStr">
-        <is>
-          <t>80</t>
-        </is>
-      </c>
-      <c r="AJ172" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="AK172" t="inlineStr">
+      <c r="AP172" t="inlineStr">
+        <is>
+          <t>8.2</t>
+        </is>
+      </c>
+      <c r="AQ172" t="inlineStr">
+        <is>
+          <t>87</t>
+        </is>
+      </c>
+      <c r="AR172" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="AS172" t="inlineStr">
         <is>
           <t>2.2</t>
         </is>
       </c>
-      <c r="AL172" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="AM172" t="inlineStr">
-        <is>
-          <t>17:30 - 18:00</t>
-        </is>
-      </c>
-      <c r="AN172" t="inlineStr">
-        <is>
-          <t>9.8</t>
-        </is>
-      </c>
-      <c r="AO172" t="inlineStr">
-        <is>
-          <t>10.6</t>
-        </is>
-      </c>
-      <c r="AP172" t="inlineStr">
-        <is>
-          <t>9.5</t>
-        </is>
-      </c>
-      <c r="AQ172" t="inlineStr">
-        <is>
-          <t>80</t>
-        </is>
-      </c>
-      <c r="AR172" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="AS172" t="inlineStr">
-        <is>
-          <t>2.2</t>
-        </is>
-      </c>
       <c r="AT172" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>64</t>
         </is>
       </c>
       <c r="AU172" t="inlineStr">
         <is>
-          <t>4.0</t>
+          <t>6.1</t>
         </is>
       </c>
       <c r="AV172" t="inlineStr">
         <is>
-          <t>993.7</t>
+          <t>994.0</t>
         </is>
       </c>
       <c r="AW172" t="inlineStr">
@@ -38529,12 +38529,12 @@
       </c>
       <c r="AX172" t="inlineStr">
         <is>
-          <t>4.0</t>
+          <t>6.1</t>
         </is>
       </c>
       <c r="AY172" t="inlineStr">
         <is>
-          <t>993.7</t>
+          <t>994.0</t>
         </is>
       </c>
       <c r="AZ172" t="inlineStr">
@@ -38582,7 +38582,7 @@
       </c>
       <c r="H173" t="inlineStr">
         <is>
-          <t>2026-02-04 18:26:13</t>
+          <t>2026-02-04 18:50:23</t>
         </is>
       </c>
       <c r="I173" t="inlineStr">
@@ -38815,7 +38815,7 @@
       </c>
       <c r="H174" t="inlineStr">
         <is>
-          <t>2026-02-04 18:26:13</t>
+          <t>2026-02-04 18:50:23</t>
         </is>
       </c>
       <c r="I174" t="inlineStr">
@@ -39048,7 +39048,7 @@
       </c>
       <c r="H175" t="inlineStr">
         <is>
-          <t>2026-02-04 18:26:13</t>
+          <t>2026-02-04 18:50:23</t>
         </is>
       </c>
       <c r="I175" t="inlineStr">
@@ -39281,7 +39281,7 @@
       </c>
       <c r="H176" t="inlineStr">
         <is>
-          <t>2026-02-04 18:26:13</t>
+          <t>2026-02-04 18:50:23</t>
         </is>
       </c>
       <c r="I176" t="inlineStr">
@@ -39553,7 +39553,7 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>https://www.meteo.cat/observacions/xema/dades?codi=YT&amp;dia=2026-02-04T17:30Z</t>
+          <t>https://www.meteo.cat/observacions/xema/dades?codi=YT&amp;dia=2026-02-04T18:00Z</t>
         </is>
       </c>
     </row>
@@ -39583,7 +39583,7 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>https://www.meteo.cat/observacions/xema/dades?codi=Z1&amp;dia=2026-02-04T17:30Z</t>
+          <t>https://www.meteo.cat/observacions/xema/dades?codi=Z1&amp;dia=2026-02-04T18:00Z</t>
         </is>
       </c>
     </row>
@@ -39613,7 +39613,7 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>https://www.meteo.cat/observacions/xema/dades?codi=DN&amp;dia=2026-02-04T17:30Z</t>
+          <t>https://www.meteo.cat/observacions/xema/dades?codi=DN&amp;dia=2026-02-04T18:00Z</t>
         </is>
       </c>
     </row>
@@ -39643,7 +39643,7 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>https://www.meteo.cat/observacions/xema/dades?codi=DJ&amp;dia=2026-02-04T17:30Z</t>
+          <t>https://www.meteo.cat/observacions/xema/dades?codi=DJ&amp;dia=2026-02-04T18:00Z</t>
         </is>
       </c>
     </row>
@@ -39673,7 +39673,7 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>https://www.meteo.cat/observacions/xema/dades?codi=X4&amp;dia=2026-02-04T17:30Z</t>
+          <t>https://www.meteo.cat/observacions/xema/dades?codi=X4&amp;dia=2026-02-04T18:00Z</t>
         </is>
       </c>
     </row>
@@ -39703,7 +39703,7 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>https://www.meteo.cat/observacions/xema/dades?codi=D5&amp;dia=2026-02-04T17:30Z</t>
+          <t>https://www.meteo.cat/observacions/xema/dades?codi=D5&amp;dia=2026-02-04T18:00Z</t>
         </is>
       </c>
     </row>
@@ -39733,7 +39733,7 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>https://www.meteo.cat/observacions/xema/dades?codi=UN&amp;dia=2026-02-04T17:30Z</t>
+          <t>https://www.meteo.cat/observacions/xema/dades?codi=UN&amp;dia=2026-02-04T18:00Z</t>
         </is>
       </c>
     </row>
@@ -39763,7 +39763,7 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>https://www.meteo.cat/observacions/xema/dades?codi=MS&amp;dia=2026-02-04T17:30Z</t>
+          <t>https://www.meteo.cat/observacions/xema/dades?codi=MS&amp;dia=2026-02-04T18:00Z</t>
         </is>
       </c>
     </row>
@@ -39793,7 +39793,7 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>https://www.meteo.cat/observacions/xema/dades?codi=W1&amp;dia=2026-02-04T17:30Z</t>
+          <t>https://www.meteo.cat/observacions/xema/dades?codi=W1&amp;dia=2026-02-04T18:00Z</t>
         </is>
       </c>
     </row>
@@ -39823,7 +39823,7 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>https://www.meteo.cat/observacions/xema/dades?codi=DP&amp;dia=2026-02-04T17:30Z</t>
+          <t>https://www.meteo.cat/observacions/xema/dades?codi=DP&amp;dia=2026-02-04T18:00Z</t>
         </is>
       </c>
     </row>
@@ -39853,7 +39853,7 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>https://www.meteo.cat/observacions/xema/dades?codi=XL&amp;dia=2026-02-04T17:30Z</t>
+          <t>https://www.meteo.cat/observacions/xema/dades?codi=XL&amp;dia=2026-02-04T18:00Z</t>
         </is>
       </c>
     </row>
@@ -39883,7 +39883,7 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>https://www.meteo.cat/observacions/xema/dades?codi=VZ&amp;dia=2026-02-04T17:30Z</t>
+          <t>https://www.meteo.cat/observacions/xema/dades?codi=VZ&amp;dia=2026-02-04T18:00Z</t>
         </is>
       </c>
     </row>
@@ -39913,7 +39913,7 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>https://www.meteo.cat/observacions/xema/dades?codi=Z7&amp;dia=2026-02-04T17:30Z</t>
+          <t>https://www.meteo.cat/observacions/xema/dades?codi=Z7&amp;dia=2026-02-04T18:00Z</t>
         </is>
       </c>
     </row>
@@ -39943,7 +39943,7 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>https://www.meteo.cat/observacions/xema/dades?codi=XJ&amp;dia=2026-02-04T17:30Z</t>
+          <t>https://www.meteo.cat/observacions/xema/dades?codi=XJ&amp;dia=2026-02-04T18:00Z</t>
         </is>
       </c>
     </row>
@@ -39973,7 +39973,7 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>https://www.meteo.cat/observacions/xema/dades?codi=YU&amp;dia=2026-02-04T17:30Z</t>
+          <t>https://www.meteo.cat/observacions/xema/dades?codi=YU&amp;dia=2026-02-04T18:00Z</t>
         </is>
       </c>
     </row>
@@ -40003,7 +40003,7 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>https://www.meteo.cat/observacions/xema/dades?codi=CD&amp;dia=2026-02-04T17:30Z</t>
+          <t>https://www.meteo.cat/observacions/xema/dades?codi=CD&amp;dia=2026-02-04T18:00Z</t>
         </is>
       </c>
     </row>
@@ -40033,7 +40033,7 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>https://www.meteo.cat/observacions/xema/dades?codi=Z2&amp;dia=2026-02-04T17:30Z</t>
+          <t>https://www.meteo.cat/observacions/xema/dades?codi=Z2&amp;dia=2026-02-04T18:00Z</t>
         </is>
       </c>
     </row>
@@ -40063,7 +40063,7 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>https://www.meteo.cat/observacions/xema/dades?codi=VK&amp;dia=2026-02-04T17:30Z</t>
+          <t>https://www.meteo.cat/observacions/xema/dades?codi=VK&amp;dia=2026-02-04T18:00Z</t>
         </is>
       </c>
     </row>
@@ -40093,7 +40093,7 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>https://www.meteo.cat/observacions/xema/dades?codi=Z3&amp;dia=2026-02-04T17:30Z</t>
+          <t>https://www.meteo.cat/observacions/xema/dades?codi=Z3&amp;dia=2026-02-04T18:00Z</t>
         </is>
       </c>
     </row>
@@ -40123,7 +40123,7 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>https://www.meteo.cat/observacions/xema/dades?codi=YB&amp;dia=2026-02-04T17:30Z</t>
+          <t>https://www.meteo.cat/observacions/xema/dades?codi=YB&amp;dia=2026-02-04T18:00Z</t>
         </is>
       </c>
     </row>
@@ -40153,7 +40153,7 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>https://www.meteo.cat/observacions/xema/dades?codi=YP&amp;dia=2026-02-04T17:30Z</t>
+          <t>https://www.meteo.cat/observacions/xema/dades?codi=YP&amp;dia=2026-02-04T18:00Z</t>
         </is>
       </c>
     </row>
@@ -40183,7 +40183,7 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>https://www.meteo.cat/observacions/xema/dades?codi=J5&amp;dia=2026-02-04T17:30Z</t>
+          <t>https://www.meteo.cat/observacions/xema/dades?codi=J5&amp;dia=2026-02-04T18:00Z</t>
         </is>
       </c>
     </row>
@@ -40213,7 +40213,7 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>https://www.meteo.cat/observacions/xema/dades?codi=D6&amp;dia=2026-02-04T17:30Z</t>
+          <t>https://www.meteo.cat/observacions/xema/dades?codi=D6&amp;dia=2026-02-04T18:00Z</t>
         </is>
       </c>
     </row>
@@ -40243,7 +40243,7 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>https://www.meteo.cat/observacions/xema/dades?codi=YA&amp;dia=2026-02-04T17:30Z</t>
+          <t>https://www.meteo.cat/observacions/xema/dades?codi=YA&amp;dia=2026-02-04T18:00Z</t>
         </is>
       </c>
     </row>
@@ -40273,7 +40273,7 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>https://www.meteo.cat/observacions/xema/dades?codi=DG&amp;dia=2026-02-04T17:30Z</t>
+          <t>https://www.meteo.cat/observacions/xema/dades?codi=DG&amp;dia=2026-02-04T18:00Z</t>
         </is>
       </c>
     </row>
@@ -40303,7 +40303,7 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>https://www.meteo.cat/observacions/xema/dades?codi=D4&amp;dia=2026-02-04T17:30Z</t>
+          <t>https://www.meteo.cat/observacions/xema/dades?codi=D4&amp;dia=2026-02-04T18:00Z</t>
         </is>
       </c>
     </row>
@@ -40333,7 +40333,7 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>https://www.meteo.cat/observacions/xema/dades?codi=CI&amp;dia=2026-02-04T17:30Z</t>
+          <t>https://www.meteo.cat/observacions/xema/dades?codi=CI&amp;dia=2026-02-04T18:00Z</t>
         </is>
       </c>
     </row>
@@ -40363,7 +40363,7 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>https://www.meteo.cat/observacions/xema/dades?codi=XS&amp;dia=2026-02-04T17:30Z</t>
+          <t>https://www.meteo.cat/observacions/xema/dades?codi=XS&amp;dia=2026-02-04T18:00Z</t>
         </is>
       </c>
     </row>
@@ -40393,7 +40393,7 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>https://www.meteo.cat/observacions/xema/dades?codi=ZC&amp;dia=2026-02-04T17:30Z</t>
+          <t>https://www.meteo.cat/observacions/xema/dades?codi=ZC&amp;dia=2026-02-04T18:00Z</t>
         </is>
       </c>
     </row>
@@ -40423,7 +40423,7 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>https://www.meteo.cat/observacions/xema/dades?codi=XH&amp;dia=2026-02-04T17:30Z</t>
+          <t>https://www.meteo.cat/observacions/xema/dades?codi=XH&amp;dia=2026-02-04T18:00Z</t>
         </is>
       </c>
     </row>
@@ -40453,7 +40453,7 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>https://www.meteo.cat/observacions/xema/dades?codi=XE&amp;dia=2026-02-04T17:30Z</t>
+          <t>https://www.meteo.cat/observacions/xema/dades?codi=XE&amp;dia=2026-02-04T18:00Z</t>
         </is>
       </c>
     </row>
@@ -40483,7 +40483,7 @@
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>https://www.meteo.cat/observacions/xema/dades?codi=UE&amp;dia=2026-02-04T17:30Z</t>
+          <t>https://www.meteo.cat/observacions/xema/dades?codi=UE&amp;dia=2026-02-04T18:00Z</t>
         </is>
       </c>
     </row>
@@ -40513,7 +40513,7 @@
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>https://www.meteo.cat/observacions/xema/dades?codi=XO&amp;dia=2026-02-04T17:30Z</t>
+          <t>https://www.meteo.cat/observacions/xema/dades?codi=XO&amp;dia=2026-02-04T18:00Z</t>
         </is>
       </c>
     </row>
@@ -40543,7 +40543,7 @@
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>https://www.meteo.cat/observacions/xema/dades?codi=VS&amp;dia=2026-02-04T17:30Z</t>
+          <t>https://www.meteo.cat/observacions/xema/dades?codi=VS&amp;dia=2026-02-04T18:00Z</t>
         </is>
       </c>
     </row>
@@ -40573,7 +40573,7 @@
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>https://www.meteo.cat/observacions/xema/dades?codi=D7&amp;dia=2026-02-04T17:30Z</t>
+          <t>https://www.meteo.cat/observacions/xema/dades?codi=D7&amp;dia=2026-02-04T18:00Z</t>
         </is>
       </c>
     </row>

--- a/src/data/resum_periode_meteocat.xlsx
+++ b/src/data/resum_periode_meteocat.xlsx
@@ -712,7 +712,7 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>18:00 - 18:30</t>
+          <t>18:30 - 19:00</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -727,17 +727,17 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>2026-02-04 18:47:57</t>
+          <t>2026-02-04 19:18:33</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>18:00</t>
+          <t>18:30</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>https://www.meteo.cat/observacions/xema/dades?codi=YT&amp;dia=2026-02-04T18:00Z</t>
+          <t>https://www.meteo.cat/observacions/xema/dades?codi=YT&amp;dia=2026-02-04T18:30Z</t>
         </is>
       </c>
       <c r="K2" t="n">
@@ -753,12 +753,12 @@
       <c r="O2" t="inlineStr"/>
       <c r="P2" t="inlineStr">
         <is>
-          <t>118</t>
+          <t>125</t>
         </is>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>92</t>
+          <t>90</t>
         </is>
       </c>
       <c r="R2" t="inlineStr"/>
@@ -769,7 +769,7 @@
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>18:00 - 18:30</t>
+          <t>18:30 - 19:00</t>
         </is>
       </c>
       <c r="U2" t="inlineStr">
@@ -779,7 +779,7 @@
       </c>
       <c r="V2" t="inlineStr">
         <is>
-          <t>-2.2</t>
+          <t>-2.0</t>
         </is>
       </c>
       <c r="W2" t="inlineStr">
@@ -789,7 +789,7 @@
       </c>
       <c r="X2" t="inlineStr">
         <is>
-          <t>-2.0</t>
+          <t>-1.5</t>
         </is>
       </c>
       <c r="Y2" t="inlineStr"/>
@@ -800,67 +800,67 @@
       <c r="AD2" t="inlineStr"/>
       <c r="AE2" t="inlineStr">
         <is>
-          <t>18:00 - 18:30</t>
+          <t>18:30 - 19:00</t>
         </is>
       </c>
       <c r="AF2" t="inlineStr">
         <is>
-          <t>-2.2</t>
+          <t>-2.0</t>
         </is>
       </c>
       <c r="AG2" t="inlineStr">
         <is>
+          <t>-1.5</t>
+        </is>
+      </c>
+      <c r="AH2" t="inlineStr">
+        <is>
+          <t>-2.3</t>
+        </is>
+      </c>
+      <c r="AI2" t="inlineStr">
+        <is>
+          <t>90</t>
+        </is>
+      </c>
+      <c r="AJ2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="AK2" t="inlineStr">
+        <is>
+          <t>125</t>
+        </is>
+      </c>
+      <c r="AL2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AM2" t="inlineStr">
+        <is>
+          <t>18:30 - 19:00</t>
+        </is>
+      </c>
+      <c r="AN2" t="inlineStr">
+        <is>
           <t>-2.0</t>
         </is>
       </c>
-      <c r="AH2" t="inlineStr">
+      <c r="AO2" t="inlineStr">
+        <is>
+          <t>-1.5</t>
+        </is>
+      </c>
+      <c r="AP2" t="inlineStr">
         <is>
           <t>-2.3</t>
         </is>
       </c>
-      <c r="AI2" t="inlineStr">
-        <is>
-          <t>92</t>
-        </is>
-      </c>
-      <c r="AJ2" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="AK2" t="inlineStr">
-        <is>
-          <t>118</t>
-        </is>
-      </c>
-      <c r="AL2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AM2" t="inlineStr">
-        <is>
-          <t>18:00 - 18:30</t>
-        </is>
-      </c>
-      <c r="AN2" t="inlineStr">
-        <is>
-          <t>-2.2</t>
-        </is>
-      </c>
-      <c r="AO2" t="inlineStr">
-        <is>
-          <t>-2.0</t>
-        </is>
-      </c>
-      <c r="AP2" t="inlineStr">
-        <is>
-          <t>-2.3</t>
-        </is>
-      </c>
       <c r="AQ2" t="inlineStr">
         <is>
-          <t>92</t>
+          <t>90</t>
         </is>
       </c>
       <c r="AR2" t="inlineStr">
@@ -870,7 +870,7 @@
       </c>
       <c r="AS2" t="inlineStr">
         <is>
-          <t>118</t>
+          <t>125</t>
         </is>
       </c>
       <c r="AT2" t="inlineStr">
@@ -924,7 +924,7 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>2026-02-04 18:47:59</t>
+          <t>2026-02-04 19:18:35</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
@@ -1121,7 +1121,7 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>2026-02-04 18:47:59</t>
+          <t>2026-02-04 19:18:35</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
@@ -1318,7 +1318,7 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>2026-02-04 18:47:59</t>
+          <t>2026-02-04 19:18:35</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
@@ -1515,7 +1515,7 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>2026-02-04 18:47:59</t>
+          <t>2026-02-04 19:18:35</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
@@ -1697,7 +1697,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>18:00 - 18:30</t>
+          <t>18:30 - 19:00</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -1712,17 +1712,17 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>2026-02-04 18:48:01</t>
+          <t>2026-02-04 19:18:38</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>18:00</t>
+          <t>18:30</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>https://www.meteo.cat/observacions/xema/dades?codi=Z1&amp;dia=2026-02-04T18:00Z</t>
+          <t>https://www.meteo.cat/observacions/xema/dades?codi=Z1&amp;dia=2026-02-04T18:30Z</t>
         </is>
       </c>
       <c r="K7" t="n">
@@ -1737,17 +1737,17 @@
       <c r="N7" t="inlineStr"/>
       <c r="O7" t="inlineStr">
         <is>
-          <t>201</t>
+          <t>143</t>
         </is>
       </c>
       <c r="P7" t="inlineStr">
         <is>
-          <t>180</t>
+          <t>179</t>
         </is>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>78</t>
+          <t>80</t>
         </is>
       </c>
       <c r="R7" t="inlineStr"/>
@@ -1758,7 +1758,7 @@
       </c>
       <c r="T7" t="inlineStr">
         <is>
-          <t>18:00 - 18:30</t>
+          <t>18:30 - 19:00</t>
         </is>
       </c>
       <c r="U7" t="inlineStr">
@@ -1768,12 +1768,12 @@
       </c>
       <c r="V7" t="inlineStr">
         <is>
-          <t>-2.8</t>
+          <t>-2.9</t>
         </is>
       </c>
       <c r="W7" t="inlineStr">
         <is>
-          <t>-3.3</t>
+          <t>-3.1</t>
         </is>
       </c>
       <c r="X7" t="inlineStr">
@@ -1785,24 +1785,24 @@
       <c r="Z7" t="inlineStr"/>
       <c r="AA7" t="inlineStr">
         <is>
-          <t>2.2</t>
+          <t>0.4</t>
         </is>
       </c>
       <c r="AB7" t="inlineStr"/>
       <c r="AC7" t="inlineStr"/>
       <c r="AD7" t="inlineStr">
         <is>
-          <t>6.8</t>
+          <t>6.5</t>
         </is>
       </c>
       <c r="AE7" t="inlineStr">
         <is>
-          <t>18:00 - 18:30</t>
+          <t>18:30 - 19:00</t>
         </is>
       </c>
       <c r="AF7" t="inlineStr">
         <is>
-          <t>-2.8</t>
+          <t>-2.9</t>
         </is>
       </c>
       <c r="AG7" t="inlineStr">
@@ -1812,12 +1812,12 @@
       </c>
       <c r="AH7" t="inlineStr">
         <is>
-          <t>-3.3</t>
+          <t>-3.1</t>
         </is>
       </c>
       <c r="AI7" t="inlineStr">
         <is>
-          <t>78</t>
+          <t>80</t>
         </is>
       </c>
       <c r="AJ7" t="inlineStr">
@@ -1827,22 +1827,22 @@
       </c>
       <c r="AK7" t="inlineStr">
         <is>
-          <t>180</t>
+          <t>179</t>
         </is>
       </c>
       <c r="AL7" t="inlineStr">
         <is>
-          <t>2.2</t>
+          <t>0.4</t>
         </is>
       </c>
       <c r="AM7" t="inlineStr">
         <is>
-          <t>18:00 - 18:30</t>
+          <t>18:30 - 19:00</t>
         </is>
       </c>
       <c r="AN7" t="inlineStr">
         <is>
-          <t>-2.8</t>
+          <t>-2.9</t>
         </is>
       </c>
       <c r="AO7" t="inlineStr">
@@ -1852,12 +1852,12 @@
       </c>
       <c r="AP7" t="inlineStr">
         <is>
-          <t>-3.3</t>
+          <t>-3.1</t>
         </is>
       </c>
       <c r="AQ7" t="inlineStr">
         <is>
-          <t>78</t>
+          <t>80</t>
         </is>
       </c>
       <c r="AR7" t="inlineStr">
@@ -1867,22 +1867,22 @@
       </c>
       <c r="AS7" t="inlineStr">
         <is>
-          <t>180</t>
+          <t>179</t>
         </is>
       </c>
       <c r="AT7" t="inlineStr">
         <is>
-          <t>2.2</t>
+          <t>0.4</t>
         </is>
       </c>
       <c r="AU7" t="inlineStr">
         <is>
-          <t>201</t>
+          <t>143</t>
         </is>
       </c>
       <c r="AV7" t="inlineStr">
         <is>
-          <t>6.8</t>
+          <t>6.5</t>
         </is>
       </c>
       <c r="AW7" t="inlineStr">
@@ -1892,12 +1892,12 @@
       </c>
       <c r="AX7" t="inlineStr">
         <is>
-          <t>201</t>
+          <t>143</t>
         </is>
       </c>
       <c r="AY7" t="inlineStr">
         <is>
-          <t>6.8</t>
+          <t>6.5</t>
         </is>
       </c>
       <c r="AZ7" t="inlineStr">
@@ -1945,7 +1945,7 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>2026-02-04 18:48:03</t>
+          <t>2026-02-04 19:18:39</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
@@ -2178,7 +2178,7 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>2026-02-04 18:48:03</t>
+          <t>2026-02-04 19:18:39</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
@@ -2411,7 +2411,7 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>2026-02-04 18:48:03</t>
+          <t>2026-02-04 19:18:39</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
@@ -2644,7 +2644,7 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>2026-02-04 18:48:03</t>
+          <t>2026-02-04 19:18:39</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
@@ -2862,7 +2862,7 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>18:00 - 18:30</t>
+          <t>18:30 - 19:00</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
@@ -2877,17 +2877,17 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>2026-02-04 18:48:06</t>
+          <t>2026-02-04 19:18:42</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>18:00</t>
+          <t>18:30</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>https://www.meteo.cat/observacions/xema/dades?codi=DN&amp;dia=2026-02-04T18:00Z</t>
+          <t>https://www.meteo.cat/observacions/xema/dades?codi=DN&amp;dia=2026-02-04T18:30Z</t>
         </is>
       </c>
       <c r="K12" t="n">
@@ -2900,7 +2900,7 @@
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>302</t>
+          <t>309</t>
         </is>
       </c>
       <c r="N12" t="inlineStr"/>
@@ -2908,12 +2908,12 @@
       <c r="P12" t="inlineStr"/>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>60</t>
+          <t>67</t>
         </is>
       </c>
       <c r="R12" t="inlineStr">
         <is>
-          <t>991.5</t>
+          <t>992.2</t>
         </is>
       </c>
       <c r="S12" t="inlineStr">
@@ -2923,7 +2923,7 @@
       </c>
       <c r="T12" t="inlineStr">
         <is>
-          <t>18:00 - 18:30</t>
+          <t>18:30 - 19:00</t>
         </is>
       </c>
       <c r="U12" t="inlineStr">
@@ -2933,56 +2933,56 @@
       </c>
       <c r="V12" t="inlineStr">
         <is>
-          <t>11.0</t>
+          <t>9.1</t>
         </is>
       </c>
       <c r="W12" t="inlineStr">
         <is>
-          <t>10.0</t>
+          <t>7.7</t>
         </is>
       </c>
       <c r="X12" t="inlineStr">
         <is>
-          <t>11.4</t>
+          <t>10.3</t>
         </is>
       </c>
       <c r="Y12" t="inlineStr">
         <is>
-          <t>10.1</t>
+          <t>4.3</t>
         </is>
       </c>
       <c r="Z12" t="inlineStr"/>
       <c r="AA12" t="inlineStr"/>
       <c r="AB12" t="inlineStr">
         <is>
-          <t>22.3</t>
+          <t>9.4</t>
         </is>
       </c>
       <c r="AC12" t="inlineStr"/>
       <c r="AD12" t="inlineStr"/>
       <c r="AE12" t="inlineStr">
         <is>
-          <t>18:00 - 18:30</t>
+          <t>18:30 - 19:00</t>
         </is>
       </c>
       <c r="AF12" t="inlineStr">
         <is>
-          <t>11.0</t>
+          <t>9.1</t>
         </is>
       </c>
       <c r="AG12" t="inlineStr">
         <is>
-          <t>11.4</t>
+          <t>10.3</t>
         </is>
       </c>
       <c r="AH12" t="inlineStr">
         <is>
-          <t>10.0</t>
+          <t>7.7</t>
         </is>
       </c>
       <c r="AI12" t="inlineStr">
         <is>
-          <t>60</t>
+          <t>67</t>
         </is>
       </c>
       <c r="AJ12" t="inlineStr">
@@ -2992,37 +2992,37 @@
       </c>
       <c r="AK12" t="inlineStr">
         <is>
-          <t>10.1</t>
+          <t>4.3</t>
         </is>
       </c>
       <c r="AL12" t="inlineStr">
         <is>
-          <t>302</t>
+          <t>309</t>
         </is>
       </c>
       <c r="AM12" t="inlineStr">
         <is>
-          <t>18:00 - 18:30</t>
+          <t>18:30 - 19:00</t>
         </is>
       </c>
       <c r="AN12" t="inlineStr">
         <is>
-          <t>11.0</t>
+          <t>9.1</t>
         </is>
       </c>
       <c r="AO12" t="inlineStr">
         <is>
-          <t>11.4</t>
+          <t>10.3</t>
         </is>
       </c>
       <c r="AP12" t="inlineStr">
         <is>
-          <t>10.0</t>
+          <t>7.7</t>
         </is>
       </c>
       <c r="AQ12" t="inlineStr">
         <is>
-          <t>60</t>
+          <t>67</t>
         </is>
       </c>
       <c r="AR12" t="inlineStr">
@@ -3032,22 +3032,22 @@
       </c>
       <c r="AS12" t="inlineStr">
         <is>
-          <t>10.1</t>
+          <t>4.3</t>
         </is>
       </c>
       <c r="AT12" t="inlineStr">
         <is>
-          <t>302</t>
+          <t>309</t>
         </is>
       </c>
       <c r="AU12" t="inlineStr">
         <is>
-          <t>22.3</t>
+          <t>9.4</t>
         </is>
       </c>
       <c r="AV12" t="inlineStr">
         <is>
-          <t>991.5</t>
+          <t>992.2</t>
         </is>
       </c>
       <c r="AW12" t="inlineStr">
@@ -3057,12 +3057,12 @@
       </c>
       <c r="AX12" t="inlineStr">
         <is>
-          <t>22.3</t>
+          <t>9.4</t>
         </is>
       </c>
       <c r="AY12" t="inlineStr">
         <is>
-          <t>991.5</t>
+          <t>992.2</t>
         </is>
       </c>
       <c r="AZ12" t="inlineStr">
@@ -3110,7 +3110,7 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>2026-02-04 18:48:07</t>
+          <t>2026-02-04 19:18:44</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
@@ -3343,7 +3343,7 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>2026-02-04 18:48:07</t>
+          <t>2026-02-04 19:18:44</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
@@ -3576,7 +3576,7 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>2026-02-04 18:48:07</t>
+          <t>2026-02-04 19:18:44</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
@@ -3809,7 +3809,7 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>2026-02-04 18:48:07</t>
+          <t>2026-02-04 19:18:44</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
@@ -4027,7 +4027,7 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>18:00 - 18:30</t>
+          <t>18:30 - 19:00</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
@@ -4042,17 +4042,17 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>2026-02-04 18:48:10</t>
+          <t>2026-02-04 19:18:47</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>18:00</t>
+          <t>18:30</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>https://www.meteo.cat/observacions/xema/dades?codi=DJ&amp;dia=2026-02-04T18:00Z</t>
+          <t>https://www.meteo.cat/observacions/xema/dades?codi=DJ&amp;dia=2026-02-04T18:30Z</t>
         </is>
       </c>
       <c r="K17" t="n">
@@ -4065,7 +4065,7 @@
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>353</t>
+          <t>350</t>
         </is>
       </c>
       <c r="N17" t="inlineStr"/>
@@ -4073,12 +4073,12 @@
       <c r="P17" t="inlineStr"/>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>63</t>
+          <t>67</t>
         </is>
       </c>
       <c r="R17" t="inlineStr">
         <is>
-          <t>991.4</t>
+          <t>991.9</t>
         </is>
       </c>
       <c r="S17" t="inlineStr">
@@ -4088,7 +4088,7 @@
       </c>
       <c r="T17" t="inlineStr">
         <is>
-          <t>18:00 - 18:30</t>
+          <t>18:30 - 19:00</t>
         </is>
       </c>
       <c r="U17" t="inlineStr">
@@ -4098,96 +4098,96 @@
       </c>
       <c r="V17" t="inlineStr">
         <is>
-          <t>10.2</t>
+          <t>9.4</t>
         </is>
       </c>
       <c r="W17" t="inlineStr">
         <is>
-          <t>9.4</t>
+          <t>9.0</t>
         </is>
       </c>
       <c r="X17" t="inlineStr">
         <is>
-          <t>10.6</t>
+          <t>9.8</t>
         </is>
       </c>
       <c r="Y17" t="inlineStr">
         <is>
-          <t>4.7</t>
+          <t>3.2</t>
         </is>
       </c>
       <c r="Z17" t="inlineStr"/>
       <c r="AA17" t="inlineStr"/>
       <c r="AB17" t="inlineStr">
         <is>
-          <t>8.6</t>
+          <t>10.1</t>
         </is>
       </c>
       <c r="AC17" t="inlineStr"/>
       <c r="AD17" t="inlineStr"/>
       <c r="AE17" t="inlineStr">
         <is>
-          <t>18:00 - 18:30</t>
+          <t>18:30 - 19:00</t>
         </is>
       </c>
       <c r="AF17" t="inlineStr">
         <is>
-          <t>10.2</t>
+          <t>9.4</t>
         </is>
       </c>
       <c r="AG17" t="inlineStr">
         <is>
-          <t>10.6</t>
+          <t>9.8</t>
         </is>
       </c>
       <c r="AH17" t="inlineStr">
         <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="AI17" t="inlineStr">
+        <is>
+          <t>67</t>
+        </is>
+      </c>
+      <c r="AJ17" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="AK17" t="inlineStr">
+        <is>
+          <t>3.2</t>
+        </is>
+      </c>
+      <c r="AL17" t="inlineStr">
+        <is>
+          <t>350</t>
+        </is>
+      </c>
+      <c r="AM17" t="inlineStr">
+        <is>
+          <t>18:30 - 19:00</t>
+        </is>
+      </c>
+      <c r="AN17" t="inlineStr">
+        <is>
           <t>9.4</t>
         </is>
       </c>
-      <c r="AI17" t="inlineStr">
-        <is>
-          <t>63</t>
-        </is>
-      </c>
-      <c r="AJ17" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="AK17" t="inlineStr">
-        <is>
-          <t>4.7</t>
-        </is>
-      </c>
-      <c r="AL17" t="inlineStr">
-        <is>
-          <t>353</t>
-        </is>
-      </c>
-      <c r="AM17" t="inlineStr">
-        <is>
-          <t>18:00 - 18:30</t>
-        </is>
-      </c>
-      <c r="AN17" t="inlineStr">
-        <is>
-          <t>10.2</t>
-        </is>
-      </c>
       <c r="AO17" t="inlineStr">
         <is>
-          <t>10.6</t>
+          <t>9.8</t>
         </is>
       </c>
       <c r="AP17" t="inlineStr">
         <is>
-          <t>9.4</t>
+          <t>9.0</t>
         </is>
       </c>
       <c r="AQ17" t="inlineStr">
         <is>
-          <t>63</t>
+          <t>67</t>
         </is>
       </c>
       <c r="AR17" t="inlineStr">
@@ -4197,22 +4197,22 @@
       </c>
       <c r="AS17" t="inlineStr">
         <is>
-          <t>4.7</t>
+          <t>3.2</t>
         </is>
       </c>
       <c r="AT17" t="inlineStr">
         <is>
-          <t>353</t>
+          <t>350</t>
         </is>
       </c>
       <c r="AU17" t="inlineStr">
         <is>
-          <t>8.6</t>
+          <t>10.1</t>
         </is>
       </c>
       <c r="AV17" t="inlineStr">
         <is>
-          <t>991.4</t>
+          <t>991.9</t>
         </is>
       </c>
       <c r="AW17" t="inlineStr">
@@ -4222,12 +4222,12 @@
       </c>
       <c r="AX17" t="inlineStr">
         <is>
-          <t>8.6</t>
+          <t>10.1</t>
         </is>
       </c>
       <c r="AY17" t="inlineStr">
         <is>
-          <t>991.4</t>
+          <t>991.9</t>
         </is>
       </c>
       <c r="AZ17" t="inlineStr">
@@ -4275,7 +4275,7 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>2026-02-04 18:48:12</t>
+          <t>2026-02-04 19:18:48</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
@@ -4508,7 +4508,7 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>2026-02-04 18:48:12</t>
+          <t>2026-02-04 19:18:48</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
@@ -4741,7 +4741,7 @@
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>2026-02-04 18:48:12</t>
+          <t>2026-02-04 19:18:48</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
@@ -4974,7 +4974,7 @@
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>2026-02-04 18:48:12</t>
+          <t>2026-02-04 19:18:48</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
@@ -5192,7 +5192,7 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>18:00 - 18:30</t>
+          <t>18:30 - 19:00</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
@@ -5207,17 +5207,17 @@
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>2026-02-04 18:48:14</t>
+          <t>2026-02-04 19:18:51</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>18:00</t>
+          <t>18:30</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>https://www.meteo.cat/observacions/xema/dades?codi=X4&amp;dia=2026-02-04T18:00Z</t>
+          <t>https://www.meteo.cat/observacions/xema/dades?codi=X4&amp;dia=2026-02-04T18:30Z</t>
         </is>
       </c>
       <c r="K22" t="n">
@@ -5230,7 +5230,7 @@
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>257</t>
+          <t>200</t>
         </is>
       </c>
       <c r="N22" t="inlineStr"/>
@@ -5238,7 +5238,7 @@
       <c r="P22" t="inlineStr"/>
       <c r="Q22" t="inlineStr">
         <is>
-          <t>55</t>
+          <t>58</t>
         </is>
       </c>
       <c r="R22" t="inlineStr">
@@ -5253,7 +5253,7 @@
       </c>
       <c r="T22" t="inlineStr">
         <is>
-          <t>18:00 - 18:30</t>
+          <t>18:30 - 19:00</t>
         </is>
       </c>
       <c r="U22" t="inlineStr">
@@ -5263,131 +5263,131 @@
       </c>
       <c r="V22" t="inlineStr">
         <is>
-          <t>12.5</t>
+          <t>12.1</t>
         </is>
       </c>
       <c r="W22" t="inlineStr">
         <is>
+          <t>11.9</t>
+        </is>
+      </c>
+      <c r="X22" t="inlineStr">
+        <is>
           <t>12.4</t>
         </is>
       </c>
-      <c r="X22" t="inlineStr">
-        <is>
-          <t>12.6</t>
-        </is>
-      </c>
       <c r="Y22" t="inlineStr">
         <is>
-          <t>7.6</t>
+          <t>5.4</t>
         </is>
       </c>
       <c r="Z22" t="inlineStr"/>
       <c r="AA22" t="inlineStr"/>
       <c r="AB22" t="inlineStr">
         <is>
-          <t>16.9</t>
+          <t>12.6</t>
         </is>
       </c>
       <c r="AC22" t="inlineStr"/>
       <c r="AD22" t="inlineStr"/>
       <c r="AE22" t="inlineStr">
         <is>
-          <t>18:00 - 18:30</t>
+          <t>18:30 - 19:00</t>
         </is>
       </c>
       <c r="AF22" t="inlineStr">
         <is>
-          <t>12.5</t>
+          <t>12.1</t>
         </is>
       </c>
       <c r="AG22" t="inlineStr">
         <is>
+          <t>12.4</t>
+        </is>
+      </c>
+      <c r="AH22" t="inlineStr">
+        <is>
+          <t>11.9</t>
+        </is>
+      </c>
+      <c r="AI22" t="inlineStr">
+        <is>
+          <t>58</t>
+        </is>
+      </c>
+      <c r="AJ22" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="AK22" t="inlineStr">
+        <is>
+          <t>5.4</t>
+        </is>
+      </c>
+      <c r="AL22" t="inlineStr">
+        <is>
+          <t>200</t>
+        </is>
+      </c>
+      <c r="AM22" t="inlineStr">
+        <is>
+          <t>18:30 - 19:00</t>
+        </is>
+      </c>
+      <c r="AN22" t="inlineStr">
+        <is>
+          <t>12.1</t>
+        </is>
+      </c>
+      <c r="AO22" t="inlineStr">
+        <is>
+          <t>12.4</t>
+        </is>
+      </c>
+      <c r="AP22" t="inlineStr">
+        <is>
+          <t>11.9</t>
+        </is>
+      </c>
+      <c r="AQ22" t="inlineStr">
+        <is>
+          <t>58</t>
+        </is>
+      </c>
+      <c r="AR22" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="AS22" t="inlineStr">
+        <is>
+          <t>5.4</t>
+        </is>
+      </c>
+      <c r="AT22" t="inlineStr">
+        <is>
+          <t>200</t>
+        </is>
+      </c>
+      <c r="AU22" t="inlineStr">
+        <is>
           <t>12.6</t>
         </is>
       </c>
-      <c r="AH22" t="inlineStr">
-        <is>
-          <t>12.4</t>
-        </is>
-      </c>
-      <c r="AI22" t="inlineStr">
-        <is>
-          <t>55</t>
-        </is>
-      </c>
-      <c r="AJ22" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="AK22" t="inlineStr">
-        <is>
-          <t>7.6</t>
-        </is>
-      </c>
-      <c r="AL22" t="inlineStr">
-        <is>
-          <t>257</t>
-        </is>
-      </c>
-      <c r="AM22" t="inlineStr">
-        <is>
-          <t>18:00 - 18:30</t>
-        </is>
-      </c>
-      <c r="AN22" t="inlineStr">
-        <is>
-          <t>12.5</t>
-        </is>
-      </c>
-      <c r="AO22" t="inlineStr">
+      <c r="AV22" t="inlineStr">
+        <is>
+          <t>993.2</t>
+        </is>
+      </c>
+      <c r="AW22" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AX22" t="inlineStr">
         <is>
           <t>12.6</t>
-        </is>
-      </c>
-      <c r="AP22" t="inlineStr">
-        <is>
-          <t>12.4</t>
-        </is>
-      </c>
-      <c r="AQ22" t="inlineStr">
-        <is>
-          <t>55</t>
-        </is>
-      </c>
-      <c r="AR22" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="AS22" t="inlineStr">
-        <is>
-          <t>7.6</t>
-        </is>
-      </c>
-      <c r="AT22" t="inlineStr">
-        <is>
-          <t>257</t>
-        </is>
-      </c>
-      <c r="AU22" t="inlineStr">
-        <is>
-          <t>16.9</t>
-        </is>
-      </c>
-      <c r="AV22" t="inlineStr">
-        <is>
-          <t>993.2</t>
-        </is>
-      </c>
-      <c r="AW22" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AX22" t="inlineStr">
-        <is>
-          <t>16.9</t>
         </is>
       </c>
       <c r="AY22" t="inlineStr">
@@ -5440,7 +5440,7 @@
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>2026-02-04 18:48:16</t>
+          <t>2026-02-04 19:18:53</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
@@ -5673,7 +5673,7 @@
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>2026-02-04 18:48:16</t>
+          <t>2026-02-04 19:18:53</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
@@ -5906,7 +5906,7 @@
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>2026-02-04 18:48:16</t>
+          <t>2026-02-04 19:18:53</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
@@ -6139,7 +6139,7 @@
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>2026-02-04 18:48:16</t>
+          <t>2026-02-04 19:18:53</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
@@ -6357,7 +6357,7 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>18:00 - 18:30</t>
+          <t>18:30 - 19:00</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
@@ -6372,17 +6372,17 @@
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>2026-02-04 18:48:18</t>
+          <t>2026-02-04 19:18:56</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>18:00</t>
+          <t>18:30</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>https://www.meteo.cat/observacions/xema/dades?codi=D5&amp;dia=2026-02-04T18:00Z</t>
+          <t>https://www.meteo.cat/observacions/xema/dades?codi=D5&amp;dia=2026-02-04T18:30Z</t>
         </is>
       </c>
       <c r="K27" t="n">
@@ -6395,7 +6395,7 @@
       </c>
       <c r="M27" t="inlineStr">
         <is>
-          <t>226</t>
+          <t>247</t>
         </is>
       </c>
       <c r="N27" t="inlineStr"/>
@@ -6418,7 +6418,7 @@
       </c>
       <c r="T27" t="inlineStr">
         <is>
-          <t>18:00 - 18:30</t>
+          <t>18:30 - 19:00</t>
         </is>
       </c>
       <c r="U27" t="inlineStr">
@@ -6438,26 +6438,26 @@
       </c>
       <c r="X27" t="inlineStr">
         <is>
-          <t>8.2</t>
+          <t>8.1</t>
         </is>
       </c>
       <c r="Y27" t="inlineStr">
         <is>
-          <t>7.2</t>
+          <t>1.1</t>
         </is>
       </c>
       <c r="Z27" t="inlineStr"/>
       <c r="AA27" t="inlineStr"/>
       <c r="AB27" t="inlineStr">
         <is>
-          <t>35.6</t>
+          <t>20.2</t>
         </is>
       </c>
       <c r="AC27" t="inlineStr"/>
       <c r="AD27" t="inlineStr"/>
       <c r="AE27" t="inlineStr">
         <is>
-          <t>18:00 - 18:30</t>
+          <t>18:30 - 19:00</t>
         </is>
       </c>
       <c r="AF27" t="inlineStr">
@@ -6467,7 +6467,7 @@
       </c>
       <c r="AG27" t="inlineStr">
         <is>
-          <t>8.2</t>
+          <t>8.1</t>
         </is>
       </c>
       <c r="AH27" t="inlineStr">
@@ -6487,17 +6487,17 @@
       </c>
       <c r="AK27" t="inlineStr">
         <is>
-          <t>7.2</t>
+          <t>1.1</t>
         </is>
       </c>
       <c r="AL27" t="inlineStr">
         <is>
-          <t>226</t>
+          <t>247</t>
         </is>
       </c>
       <c r="AM27" t="inlineStr">
         <is>
-          <t>18:00 - 18:30</t>
+          <t>18:30 - 19:00</t>
         </is>
       </c>
       <c r="AN27" t="inlineStr">
@@ -6507,7 +6507,7 @@
       </c>
       <c r="AO27" t="inlineStr">
         <is>
-          <t>8.2</t>
+          <t>8.1</t>
         </is>
       </c>
       <c r="AP27" t="inlineStr">
@@ -6527,17 +6527,17 @@
       </c>
       <c r="AS27" t="inlineStr">
         <is>
-          <t>7.2</t>
+          <t>1.1</t>
         </is>
       </c>
       <c r="AT27" t="inlineStr">
         <is>
-          <t>226</t>
+          <t>247</t>
         </is>
       </c>
       <c r="AU27" t="inlineStr">
         <is>
-          <t>35.6</t>
+          <t>20.2</t>
         </is>
       </c>
       <c r="AV27" t="inlineStr">
@@ -6552,7 +6552,7 @@
       </c>
       <c r="AX27" t="inlineStr">
         <is>
-          <t>35.6</t>
+          <t>20.2</t>
         </is>
       </c>
       <c r="AY27" t="inlineStr">
@@ -6605,7 +6605,7 @@
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>2026-02-04 18:48:20</t>
+          <t>2026-02-04 19:18:57</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
@@ -6838,7 +6838,7 @@
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>2026-02-04 18:48:20</t>
+          <t>2026-02-04 19:18:57</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
@@ -7071,7 +7071,7 @@
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>2026-02-04 18:48:20</t>
+          <t>2026-02-04 19:18:57</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
@@ -7304,7 +7304,7 @@
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>2026-02-04 18:48:20</t>
+          <t>2026-02-04 19:18:57</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
@@ -7522,7 +7522,7 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>18:00 - 18:30</t>
+          <t>18:30 - 19:00</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
@@ -7537,17 +7537,17 @@
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>2026-02-04 18:48:22</t>
+          <t>2026-02-04 19:19:00</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>18:00</t>
+          <t>18:30</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>https://www.meteo.cat/observacions/xema/dades?codi=UN&amp;dia=2026-02-04T18:00Z</t>
+          <t>https://www.meteo.cat/observacions/xema/dades?codi=UN&amp;dia=2026-02-04T18:30Z</t>
         </is>
       </c>
       <c r="K32" t="n">
@@ -7561,14 +7561,14 @@
       <c r="M32" t="inlineStr"/>
       <c r="N32" t="inlineStr">
         <is>
-          <t>75</t>
+          <t>73</t>
         </is>
       </c>
       <c r="O32" t="inlineStr"/>
       <c r="P32" t="inlineStr"/>
       <c r="Q32" t="inlineStr">
         <is>
-          <t>94</t>
+          <t>95</t>
         </is>
       </c>
       <c r="R32" t="inlineStr"/>
@@ -7579,7 +7579,7 @@
       </c>
       <c r="T32" t="inlineStr">
         <is>
-          <t>18:00 - 18:30</t>
+          <t>18:30 - 19:00</t>
         </is>
       </c>
       <c r="U32" t="inlineStr">
@@ -7589,96 +7589,96 @@
       </c>
       <c r="V32" t="inlineStr">
         <is>
-          <t>5.2</t>
+          <t>4.4</t>
         </is>
       </c>
       <c r="W32" t="inlineStr">
         <is>
+          <t>4.1</t>
+        </is>
+      </c>
+      <c r="X32" t="inlineStr">
+        <is>
           <t>4.8</t>
-        </is>
-      </c>
-      <c r="X32" t="inlineStr">
-        <is>
-          <t>5.5</t>
         </is>
       </c>
       <c r="Y32" t="inlineStr"/>
       <c r="Z32" t="inlineStr">
         <is>
-          <t>2.2</t>
+          <t>2.5</t>
         </is>
       </c>
       <c r="AA32" t="inlineStr"/>
       <c r="AB32" t="inlineStr"/>
       <c r="AC32" t="inlineStr">
         <is>
-          <t>4.3</t>
+          <t>5.0</t>
         </is>
       </c>
       <c r="AD32" t="inlineStr"/>
       <c r="AE32" t="inlineStr">
         <is>
-          <t>18:00 - 18:30</t>
+          <t>18:30 - 19:00</t>
         </is>
       </c>
       <c r="AF32" t="inlineStr">
         <is>
-          <t>5.2</t>
+          <t>4.4</t>
         </is>
       </c>
       <c r="AG32" t="inlineStr">
         <is>
-          <t>5.5</t>
+          <t>4.8</t>
         </is>
       </c>
       <c r="AH32" t="inlineStr">
         <is>
+          <t>4.1</t>
+        </is>
+      </c>
+      <c r="AI32" t="inlineStr">
+        <is>
+          <t>95</t>
+        </is>
+      </c>
+      <c r="AJ32" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="AK32" t="inlineStr">
+        <is>
+          <t>2.5</t>
+        </is>
+      </c>
+      <c r="AL32" t="inlineStr">
+        <is>
+          <t>73</t>
+        </is>
+      </c>
+      <c r="AM32" t="inlineStr">
+        <is>
+          <t>18:30 - 19:00</t>
+        </is>
+      </c>
+      <c r="AN32" t="inlineStr">
+        <is>
+          <t>4.4</t>
+        </is>
+      </c>
+      <c r="AO32" t="inlineStr">
+        <is>
           <t>4.8</t>
         </is>
       </c>
-      <c r="AI32" t="inlineStr">
-        <is>
-          <t>94</t>
-        </is>
-      </c>
-      <c r="AJ32" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="AK32" t="inlineStr">
-        <is>
-          <t>2.2</t>
-        </is>
-      </c>
-      <c r="AL32" t="inlineStr">
-        <is>
-          <t>75</t>
-        </is>
-      </c>
-      <c r="AM32" t="inlineStr">
-        <is>
-          <t>18:00 - 18:30</t>
-        </is>
-      </c>
-      <c r="AN32" t="inlineStr">
-        <is>
-          <t>5.2</t>
-        </is>
-      </c>
-      <c r="AO32" t="inlineStr">
-        <is>
-          <t>5.5</t>
-        </is>
-      </c>
       <c r="AP32" t="inlineStr">
         <is>
-          <t>4.8</t>
+          <t>4.1</t>
         </is>
       </c>
       <c r="AQ32" t="inlineStr">
         <is>
-          <t>94</t>
+          <t>95</t>
         </is>
       </c>
       <c r="AR32" t="inlineStr">
@@ -7688,17 +7688,17 @@
       </c>
       <c r="AS32" t="inlineStr">
         <is>
-          <t>2.2</t>
+          <t>2.5</t>
         </is>
       </c>
       <c r="AT32" t="inlineStr">
         <is>
-          <t>75</t>
+          <t>73</t>
         </is>
       </c>
       <c r="AU32" t="inlineStr">
         <is>
-          <t>4.3</t>
+          <t>5.0</t>
         </is>
       </c>
       <c r="AV32" t="inlineStr">
@@ -7709,7 +7709,7 @@
       <c r="AW32" t="inlineStr"/>
       <c r="AX32" t="inlineStr">
         <is>
-          <t>4.3</t>
+          <t>5.0</t>
         </is>
       </c>
       <c r="AY32" t="inlineStr">
@@ -7758,7 +7758,7 @@
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>2026-02-04 18:48:24</t>
+          <t>2026-02-04 19:19:02</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
@@ -7979,7 +7979,7 @@
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>2026-02-04 18:48:24</t>
+          <t>2026-02-04 19:19:02</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
@@ -8200,7 +8200,7 @@
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>2026-02-04 18:48:24</t>
+          <t>2026-02-04 19:19:02</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
@@ -8421,7 +8421,7 @@
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>2026-02-04 18:48:24</t>
+          <t>2026-02-04 19:19:02</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
@@ -8627,7 +8627,7 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>18:00 - 18:30</t>
+          <t>18:30 - 19:00</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
@@ -8642,17 +8642,17 @@
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>2026-02-04 18:48:27</t>
+          <t>2026-02-04 19:19:05</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>18:00</t>
+          <t>18:30</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>https://www.meteo.cat/observacions/xema/dades?codi=MS&amp;dia=2026-02-04T18:00Z</t>
+          <t>https://www.meteo.cat/observacions/xema/dades?codi=MS&amp;dia=2026-02-04T18:30Z</t>
         </is>
       </c>
       <c r="K37" t="n">
@@ -8669,7 +8669,7 @@
       <c r="P37" t="inlineStr"/>
       <c r="Q37" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>99</t>
         </is>
       </c>
       <c r="R37" t="inlineStr"/>
@@ -8680,23 +8680,23 @@
       </c>
       <c r="T37" t="inlineStr">
         <is>
-          <t>18:00 - 18:30</t>
+          <t>18:30 - 19:00</t>
         </is>
       </c>
       <c r="U37" t="inlineStr"/>
       <c r="V37" t="inlineStr">
         <is>
-          <t>2.3</t>
+          <t>1.7</t>
         </is>
       </c>
       <c r="W37" t="inlineStr">
         <is>
-          <t>2.0</t>
+          <t>1.4</t>
         </is>
       </c>
       <c r="X37" t="inlineStr">
         <is>
-          <t>2.5</t>
+          <t>2.1</t>
         </is>
       </c>
       <c r="Y37" t="inlineStr"/>
@@ -8707,27 +8707,27 @@
       <c r="AD37" t="inlineStr"/>
       <c r="AE37" t="inlineStr">
         <is>
-          <t>18:00 - 18:30</t>
+          <t>18:30 - 19:00</t>
         </is>
       </c>
       <c r="AF37" t="inlineStr">
         <is>
-          <t>2.3</t>
+          <t>1.7</t>
         </is>
       </c>
       <c r="AG37" t="inlineStr">
         <is>
-          <t>2.5</t>
+          <t>2.1</t>
         </is>
       </c>
       <c r="AH37" t="inlineStr">
         <is>
-          <t>2.0</t>
+          <t>1.4</t>
         </is>
       </c>
       <c r="AI37" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>99</t>
         </is>
       </c>
       <c r="AJ37" t="inlineStr">
@@ -8739,27 +8739,27 @@
       <c r="AL37" t="inlineStr"/>
       <c r="AM37" t="inlineStr">
         <is>
-          <t>18:00 - 18:30</t>
+          <t>18:30 - 19:00</t>
         </is>
       </c>
       <c r="AN37" t="inlineStr">
         <is>
-          <t>2.3</t>
+          <t>1.7</t>
         </is>
       </c>
       <c r="AO37" t="inlineStr">
         <is>
-          <t>2.5</t>
+          <t>2.1</t>
         </is>
       </c>
       <c r="AP37" t="inlineStr">
         <is>
-          <t>2.0</t>
+          <t>1.4</t>
         </is>
       </c>
       <c r="AQ37" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>99</t>
         </is>
       </c>
       <c r="AR37" t="inlineStr">
@@ -8815,7 +8815,7 @@
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>2026-02-04 18:48:28</t>
+          <t>2026-02-04 19:19:06</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
@@ -8988,7 +8988,7 @@
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>2026-02-04 18:48:28</t>
+          <t>2026-02-04 19:19:06</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
@@ -9161,7 +9161,7 @@
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>2026-02-04 18:48:28</t>
+          <t>2026-02-04 19:19:06</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
@@ -9334,7 +9334,7 @@
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>2026-02-04 18:48:28</t>
+          <t>2026-02-04 19:19:06</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
@@ -9492,7 +9492,7 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>18:00 - 18:30</t>
+          <t>18:30 - 19:00</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
@@ -9507,17 +9507,17 @@
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>2026-02-04 18:48:31</t>
+          <t>2026-02-04 19:19:09</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>18:00</t>
+          <t>18:30</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>https://www.meteo.cat/observacions/xema/dades?codi=W1&amp;dia=2026-02-04T18:00Z</t>
+          <t>https://www.meteo.cat/observacions/xema/dades?codi=W1&amp;dia=2026-02-04T18:30Z</t>
         </is>
       </c>
       <c r="K42" t="n">
@@ -9534,7 +9534,7 @@
       <c r="P42" t="inlineStr"/>
       <c r="Q42" t="inlineStr">
         <is>
-          <t>83</t>
+          <t>94</t>
         </is>
       </c>
       <c r="R42" t="inlineStr"/>
@@ -9545,23 +9545,23 @@
       </c>
       <c r="T42" t="inlineStr">
         <is>
-          <t>18:00 - 18:30</t>
+          <t>18:30 - 19:00</t>
         </is>
       </c>
       <c r="U42" t="inlineStr"/>
       <c r="V42" t="inlineStr">
         <is>
-          <t>9.2</t>
+          <t>8.1</t>
         </is>
       </c>
       <c r="W42" t="inlineStr">
         <is>
-          <t>8.6</t>
+          <t>7.5</t>
         </is>
       </c>
       <c r="X42" t="inlineStr">
         <is>
-          <t>9.6</t>
+          <t>8.7</t>
         </is>
       </c>
       <c r="Y42" t="inlineStr"/>
@@ -9572,27 +9572,27 @@
       <c r="AD42" t="inlineStr"/>
       <c r="AE42" t="inlineStr">
         <is>
-          <t>18:00 - 18:30</t>
+          <t>18:30 - 19:00</t>
         </is>
       </c>
       <c r="AF42" t="inlineStr">
         <is>
-          <t>9.2</t>
+          <t>8.1</t>
         </is>
       </c>
       <c r="AG42" t="inlineStr">
         <is>
-          <t>9.6</t>
+          <t>8.7</t>
         </is>
       </c>
       <c r="AH42" t="inlineStr">
         <is>
-          <t>8.6</t>
+          <t>7.5</t>
         </is>
       </c>
       <c r="AI42" t="inlineStr">
         <is>
-          <t>83</t>
+          <t>94</t>
         </is>
       </c>
       <c r="AJ42" t="inlineStr">
@@ -9604,27 +9604,27 @@
       <c r="AL42" t="inlineStr"/>
       <c r="AM42" t="inlineStr">
         <is>
-          <t>18:00 - 18:30</t>
+          <t>18:30 - 19:00</t>
         </is>
       </c>
       <c r="AN42" t="inlineStr">
         <is>
-          <t>9.2</t>
+          <t>8.1</t>
         </is>
       </c>
       <c r="AO42" t="inlineStr">
         <is>
-          <t>9.6</t>
+          <t>8.7</t>
         </is>
       </c>
       <c r="AP42" t="inlineStr">
         <is>
-          <t>8.6</t>
+          <t>7.5</t>
         </is>
       </c>
       <c r="AQ42" t="inlineStr">
         <is>
-          <t>83</t>
+          <t>94</t>
         </is>
       </c>
       <c r="AR42" t="inlineStr">
@@ -9680,7 +9680,7 @@
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>2026-02-04 18:48:32</t>
+          <t>2026-02-04 19:19:10</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
@@ -9853,7 +9853,7 @@
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>2026-02-04 18:48:32</t>
+          <t>2026-02-04 19:19:10</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
@@ -10026,7 +10026,7 @@
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>2026-02-04 18:48:32</t>
+          <t>2026-02-04 19:19:10</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
@@ -10199,7 +10199,7 @@
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>2026-02-04 18:48:32</t>
+          <t>2026-02-04 19:19:10</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
@@ -10357,7 +10357,7 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>18:00 - 18:30</t>
+          <t>18:30 - 19:00</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
@@ -10372,17 +10372,17 @@
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>2026-02-04 18:48:35</t>
+          <t>2026-02-04 19:19:13</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>18:00</t>
+          <t>18:30</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>https://www.meteo.cat/observacions/xema/dades?codi=DP&amp;dia=2026-02-04T18:00Z</t>
+          <t>https://www.meteo.cat/observacions/xema/dades?codi=DP&amp;dia=2026-02-04T18:30Z</t>
         </is>
       </c>
       <c r="K47" t="n">
@@ -10395,7 +10395,7 @@
       </c>
       <c r="M47" t="inlineStr">
         <is>
-          <t>203</t>
+          <t>234</t>
         </is>
       </c>
       <c r="N47" t="inlineStr"/>
@@ -10407,12 +10407,12 @@
       </c>
       <c r="Q47" t="inlineStr">
         <is>
-          <t>74</t>
+          <t>78</t>
         </is>
       </c>
       <c r="R47" t="inlineStr">
         <is>
-          <t>993.7</t>
+          <t>994.7</t>
         </is>
       </c>
       <c r="S47" t="inlineStr">
@@ -10422,7 +10422,7 @@
       </c>
       <c r="T47" t="inlineStr">
         <is>
-          <t>18:00 - 18:30</t>
+          <t>18:30 - 19:00</t>
         </is>
       </c>
       <c r="U47" t="inlineStr">
@@ -10432,56 +10432,56 @@
       </c>
       <c r="V47" t="inlineStr">
         <is>
-          <t>3.0</t>
+          <t>2.1</t>
         </is>
       </c>
       <c r="W47" t="inlineStr">
         <is>
-          <t>2.6</t>
+          <t>1.5</t>
         </is>
       </c>
       <c r="X47" t="inlineStr">
         <is>
-          <t>3.5</t>
+          <t>2.9</t>
         </is>
       </c>
       <c r="Y47" t="inlineStr">
         <is>
-          <t>12.2</t>
+          <t>9.7</t>
         </is>
       </c>
       <c r="Z47" t="inlineStr"/>
       <c r="AA47" t="inlineStr"/>
       <c r="AB47" t="inlineStr">
         <is>
-          <t>18.0</t>
+          <t>16.2</t>
         </is>
       </c>
       <c r="AC47" t="inlineStr"/>
       <c r="AD47" t="inlineStr"/>
       <c r="AE47" t="inlineStr">
         <is>
-          <t>18:00 - 18:30</t>
+          <t>18:30 - 19:00</t>
         </is>
       </c>
       <c r="AF47" t="inlineStr">
         <is>
-          <t>3.0</t>
+          <t>2.1</t>
         </is>
       </c>
       <c r="AG47" t="inlineStr">
         <is>
-          <t>3.5</t>
+          <t>2.9</t>
         </is>
       </c>
       <c r="AH47" t="inlineStr">
         <is>
-          <t>2.6</t>
+          <t>1.5</t>
         </is>
       </c>
       <c r="AI47" t="inlineStr">
         <is>
-          <t>74</t>
+          <t>78</t>
         </is>
       </c>
       <c r="AJ47" t="inlineStr">
@@ -10496,32 +10496,32 @@
       </c>
       <c r="AL47" t="inlineStr">
         <is>
-          <t>12.2</t>
+          <t>9.7</t>
         </is>
       </c>
       <c r="AM47" t="inlineStr">
         <is>
-          <t>18:00 - 18:30</t>
+          <t>18:30 - 19:00</t>
         </is>
       </c>
       <c r="AN47" t="inlineStr">
         <is>
-          <t>3.0</t>
+          <t>2.1</t>
         </is>
       </c>
       <c r="AO47" t="inlineStr">
         <is>
-          <t>3.5</t>
+          <t>2.9</t>
         </is>
       </c>
       <c r="AP47" t="inlineStr">
         <is>
-          <t>2.6</t>
+          <t>1.5</t>
         </is>
       </c>
       <c r="AQ47" t="inlineStr">
         <is>
-          <t>74</t>
+          <t>78</t>
         </is>
       </c>
       <c r="AR47" t="inlineStr">
@@ -10536,37 +10536,37 @@
       </c>
       <c r="AT47" t="inlineStr">
         <is>
-          <t>12.2</t>
+          <t>9.7</t>
         </is>
       </c>
       <c r="AU47" t="inlineStr">
         <is>
-          <t>203</t>
+          <t>234</t>
         </is>
       </c>
       <c r="AV47" t="inlineStr">
         <is>
-          <t>18.0</t>
+          <t>16.2</t>
         </is>
       </c>
       <c r="AW47" t="inlineStr">
         <is>
-          <t>993.7</t>
+          <t>994.7</t>
         </is>
       </c>
       <c r="AX47" t="inlineStr">
         <is>
-          <t>203</t>
+          <t>234</t>
         </is>
       </c>
       <c r="AY47" t="inlineStr">
         <is>
-          <t>18.0</t>
+          <t>16.2</t>
         </is>
       </c>
       <c r="AZ47" t="inlineStr">
         <is>
-          <t>993.7</t>
+          <t>994.7</t>
         </is>
       </c>
       <c r="BA47" t="inlineStr">
@@ -10613,7 +10613,7 @@
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>2026-02-04 18:48:37</t>
+          <t>2026-02-04 19:19:14</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
@@ -10854,7 +10854,7 @@
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>2026-02-04 18:48:37</t>
+          <t>2026-02-04 19:19:14</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
@@ -11095,7 +11095,7 @@
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>2026-02-04 18:48:37</t>
+          <t>2026-02-04 19:19:14</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
@@ -11336,7 +11336,7 @@
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>2026-02-04 18:48:37</t>
+          <t>2026-02-04 19:19:14</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
@@ -11562,7 +11562,7 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>18:00 - 18:30</t>
+          <t>18:30 - 19:00</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
@@ -11577,17 +11577,17 @@
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>2026-02-04 18:48:39</t>
+          <t>2026-02-04 19:19:17</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>18:00</t>
+          <t>18:30</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
         <is>
-          <t>https://www.meteo.cat/observacions/xema/dades?codi=XL&amp;dia=2026-02-04T18:00Z</t>
+          <t>https://www.meteo.cat/observacions/xema/dades?codi=XL&amp;dia=2026-02-04T18:30Z</t>
         </is>
       </c>
       <c r="K52" t="n">
@@ -11600,7 +11600,7 @@
       </c>
       <c r="M52" t="inlineStr">
         <is>
-          <t>295</t>
+          <t>91</t>
         </is>
       </c>
       <c r="N52" t="inlineStr"/>
@@ -11608,7 +11608,7 @@
       <c r="P52" t="inlineStr"/>
       <c r="Q52" t="inlineStr">
         <is>
-          <t>78</t>
+          <t>88</t>
         </is>
       </c>
       <c r="R52" t="inlineStr"/>
@@ -11619,7 +11619,7 @@
       </c>
       <c r="T52" t="inlineStr">
         <is>
-          <t>18:00 - 18:30</t>
+          <t>18:30 - 19:00</t>
         </is>
       </c>
       <c r="U52" t="inlineStr">
@@ -11629,56 +11629,56 @@
       </c>
       <c r="V52" t="inlineStr">
         <is>
-          <t>8.1</t>
+          <t>6.9</t>
         </is>
       </c>
       <c r="W52" t="inlineStr">
         <is>
-          <t>7.7</t>
+          <t>6.3</t>
         </is>
       </c>
       <c r="X52" t="inlineStr">
         <is>
-          <t>8.5</t>
+          <t>8.0</t>
         </is>
       </c>
       <c r="Y52" t="inlineStr">
         <is>
-          <t>3.6</t>
+          <t>2.2</t>
         </is>
       </c>
       <c r="Z52" t="inlineStr"/>
       <c r="AA52" t="inlineStr"/>
       <c r="AB52" t="inlineStr">
         <is>
-          <t>8.3</t>
+          <t>4.3</t>
         </is>
       </c>
       <c r="AC52" t="inlineStr"/>
       <c r="AD52" t="inlineStr"/>
       <c r="AE52" t="inlineStr">
         <is>
-          <t>18:00 - 18:30</t>
+          <t>18:30 - 19:00</t>
         </is>
       </c>
       <c r="AF52" t="inlineStr">
         <is>
-          <t>8.1</t>
+          <t>6.9</t>
         </is>
       </c>
       <c r="AG52" t="inlineStr">
         <is>
-          <t>8.5</t>
+          <t>8.0</t>
         </is>
       </c>
       <c r="AH52" t="inlineStr">
         <is>
-          <t>7.7</t>
+          <t>6.3</t>
         </is>
       </c>
       <c r="AI52" t="inlineStr">
         <is>
-          <t>78</t>
+          <t>88</t>
         </is>
       </c>
       <c r="AJ52" t="inlineStr">
@@ -11688,37 +11688,37 @@
       </c>
       <c r="AK52" t="inlineStr">
         <is>
-          <t>3.6</t>
+          <t>2.2</t>
         </is>
       </c>
       <c r="AL52" t="inlineStr">
         <is>
-          <t>295</t>
+          <t>91</t>
         </is>
       </c>
       <c r="AM52" t="inlineStr">
         <is>
-          <t>18:00 - 18:30</t>
+          <t>18:30 - 19:00</t>
         </is>
       </c>
       <c r="AN52" t="inlineStr">
         <is>
-          <t>8.1</t>
+          <t>6.9</t>
         </is>
       </c>
       <c r="AO52" t="inlineStr">
         <is>
-          <t>8.5</t>
+          <t>8.0</t>
         </is>
       </c>
       <c r="AP52" t="inlineStr">
         <is>
-          <t>7.7</t>
+          <t>6.3</t>
         </is>
       </c>
       <c r="AQ52" t="inlineStr">
         <is>
-          <t>78</t>
+          <t>88</t>
         </is>
       </c>
       <c r="AR52" t="inlineStr">
@@ -11728,17 +11728,17 @@
       </c>
       <c r="AS52" t="inlineStr">
         <is>
-          <t>3.6</t>
+          <t>2.2</t>
         </is>
       </c>
       <c r="AT52" t="inlineStr">
         <is>
-          <t>295</t>
+          <t>91</t>
         </is>
       </c>
       <c r="AU52" t="inlineStr">
         <is>
-          <t>8.3</t>
+          <t>4.3</t>
         </is>
       </c>
       <c r="AV52" t="inlineStr">
@@ -11749,7 +11749,7 @@
       <c r="AW52" t="inlineStr"/>
       <c r="AX52" t="inlineStr">
         <is>
-          <t>8.3</t>
+          <t>4.3</t>
         </is>
       </c>
       <c r="AY52" t="inlineStr">
@@ -11798,7 +11798,7 @@
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>2026-02-04 18:48:41</t>
+          <t>2026-02-04 19:19:18</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
@@ -12019,7 +12019,7 @@
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>2026-02-04 18:48:41</t>
+          <t>2026-02-04 19:19:18</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
@@ -12240,7 +12240,7 @@
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>2026-02-04 18:48:41</t>
+          <t>2026-02-04 19:19:18</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
@@ -12461,7 +12461,7 @@
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>2026-02-04 18:48:41</t>
+          <t>2026-02-04 19:19:18</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
@@ -12667,7 +12667,7 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>18:00 - 18:30</t>
+          <t>18:30 - 19:00</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
@@ -12682,17 +12682,17 @@
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>2026-02-04 18:48:44</t>
+          <t>2026-02-04 19:19:20</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>18:00</t>
+          <t>18:30</t>
         </is>
       </c>
       <c r="J57" t="inlineStr">
         <is>
-          <t>https://www.meteo.cat/observacions/xema/dades?codi=VZ&amp;dia=2026-02-04T18:00Z</t>
+          <t>https://www.meteo.cat/observacions/xema/dades?codi=VZ&amp;dia=2026-02-04T18:30Z</t>
         </is>
       </c>
       <c r="K57" t="n">
@@ -12709,7 +12709,7 @@
       <c r="P57" t="inlineStr"/>
       <c r="Q57" t="inlineStr">
         <is>
-          <t>82</t>
+          <t>85</t>
         </is>
       </c>
       <c r="R57" t="inlineStr"/>
@@ -12720,23 +12720,23 @@
       </c>
       <c r="T57" t="inlineStr">
         <is>
-          <t>18:00 - 18:30</t>
+          <t>18:30 - 19:00</t>
         </is>
       </c>
       <c r="U57" t="inlineStr"/>
       <c r="V57" t="inlineStr">
         <is>
-          <t>7.8</t>
+          <t>6.9</t>
         </is>
       </c>
       <c r="W57" t="inlineStr">
         <is>
-          <t>7.3</t>
+          <t>6.3</t>
         </is>
       </c>
       <c r="X57" t="inlineStr">
         <is>
-          <t>8.2</t>
+          <t>7.6</t>
         </is>
       </c>
       <c r="Y57" t="inlineStr"/>
@@ -12747,27 +12747,27 @@
       <c r="AD57" t="inlineStr"/>
       <c r="AE57" t="inlineStr">
         <is>
-          <t>18:00 - 18:30</t>
+          <t>18:30 - 19:00</t>
         </is>
       </c>
       <c r="AF57" t="inlineStr">
         <is>
-          <t>7.8</t>
+          <t>6.9</t>
         </is>
       </c>
       <c r="AG57" t="inlineStr">
         <is>
-          <t>8.2</t>
+          <t>7.6</t>
         </is>
       </c>
       <c r="AH57" t="inlineStr">
         <is>
-          <t>7.3</t>
+          <t>6.3</t>
         </is>
       </c>
       <c r="AI57" t="inlineStr">
         <is>
-          <t>82</t>
+          <t>85</t>
         </is>
       </c>
       <c r="AJ57" t="inlineStr">
@@ -12779,27 +12779,27 @@
       <c r="AL57" t="inlineStr"/>
       <c r="AM57" t="inlineStr">
         <is>
-          <t>18:00 - 18:30</t>
+          <t>18:30 - 19:00</t>
         </is>
       </c>
       <c r="AN57" t="inlineStr">
         <is>
-          <t>7.8</t>
+          <t>6.9</t>
         </is>
       </c>
       <c r="AO57" t="inlineStr">
         <is>
-          <t>8.2</t>
+          <t>7.6</t>
         </is>
       </c>
       <c r="AP57" t="inlineStr">
         <is>
-          <t>7.3</t>
+          <t>6.3</t>
         </is>
       </c>
       <c r="AQ57" t="inlineStr">
         <is>
-          <t>82</t>
+          <t>85</t>
         </is>
       </c>
       <c r="AR57" t="inlineStr">
@@ -12855,7 +12855,7 @@
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>2026-02-04 18:48:45</t>
+          <t>2026-02-04 19:19:22</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
@@ -13028,7 +13028,7 @@
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>2026-02-04 18:48:45</t>
+          <t>2026-02-04 19:19:22</t>
         </is>
       </c>
       <c r="I59" t="inlineStr">
@@ -13201,7 +13201,7 @@
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>2026-02-04 18:48:45</t>
+          <t>2026-02-04 19:19:22</t>
         </is>
       </c>
       <c r="I60" t="inlineStr">
@@ -13374,7 +13374,7 @@
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>2026-02-04 18:48:45</t>
+          <t>2026-02-04 19:19:22</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
@@ -13532,7 +13532,7 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>18:00 - 18:30</t>
+          <t>18:30 - 19:00</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
@@ -13547,17 +13547,17 @@
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>2026-02-04 18:48:48</t>
+          <t>2026-02-04 19:19:25</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>18:00</t>
+          <t>18:30</t>
         </is>
       </c>
       <c r="J62" t="inlineStr">
         <is>
-          <t>https://www.meteo.cat/observacions/xema/dades?codi=Z7&amp;dia=2026-02-04T18:00Z</t>
+          <t>https://www.meteo.cat/observacions/xema/dades?codi=Z7&amp;dia=2026-02-04T18:30Z</t>
         </is>
       </c>
       <c r="K62" t="n">
@@ -13570,7 +13570,7 @@
       </c>
       <c r="M62" t="inlineStr">
         <is>
-          <t>227</t>
+          <t>230</t>
         </is>
       </c>
       <c r="N62" t="inlineStr"/>
@@ -13582,7 +13582,7 @@
       </c>
       <c r="Q62" t="inlineStr">
         <is>
-          <t>65</t>
+          <t>70</t>
         </is>
       </c>
       <c r="R62" t="inlineStr"/>
@@ -13593,7 +13593,7 @@
       </c>
       <c r="T62" t="inlineStr">
         <is>
-          <t>18:00 - 18:30</t>
+          <t>18:30 - 19:00</t>
         </is>
       </c>
       <c r="U62" t="inlineStr">
@@ -13603,7 +13603,7 @@
       </c>
       <c r="V62" t="inlineStr">
         <is>
-          <t>-3.0</t>
+          <t>-3.1</t>
         </is>
       </c>
       <c r="W62" t="inlineStr">
@@ -13613,36 +13613,36 @@
       </c>
       <c r="X62" t="inlineStr">
         <is>
-          <t>-2.7</t>
+          <t>-2.8</t>
         </is>
       </c>
       <c r="Y62" t="inlineStr">
         <is>
-          <t>6.8</t>
+          <t>13.0</t>
         </is>
       </c>
       <c r="Z62" t="inlineStr"/>
       <c r="AA62" t="inlineStr"/>
       <c r="AB62" t="inlineStr">
         <is>
-          <t>24.8</t>
+          <t>34.6</t>
         </is>
       </c>
       <c r="AC62" t="inlineStr"/>
       <c r="AD62" t="inlineStr"/>
       <c r="AE62" t="inlineStr">
         <is>
-          <t>18:00 - 18:30</t>
+          <t>18:30 - 19:00</t>
         </is>
       </c>
       <c r="AF62" t="inlineStr">
         <is>
-          <t>-3.0</t>
+          <t>-3.1</t>
         </is>
       </c>
       <c r="AG62" t="inlineStr">
         <is>
-          <t>-2.7</t>
+          <t>-2.8</t>
         </is>
       </c>
       <c r="AH62" t="inlineStr">
@@ -13652,7 +13652,7 @@
       </c>
       <c r="AI62" t="inlineStr">
         <is>
-          <t>65</t>
+          <t>70</t>
         </is>
       </c>
       <c r="AJ62" t="inlineStr">
@@ -13667,22 +13667,22 @@
       </c>
       <c r="AL62" t="inlineStr">
         <is>
-          <t>6.8</t>
+          <t>13.0</t>
         </is>
       </c>
       <c r="AM62" t="inlineStr">
         <is>
-          <t>18:00 - 18:30</t>
+          <t>18:30 - 19:00</t>
         </is>
       </c>
       <c r="AN62" t="inlineStr">
         <is>
-          <t>-3.0</t>
+          <t>-3.1</t>
         </is>
       </c>
       <c r="AO62" t="inlineStr">
         <is>
-          <t>-2.7</t>
+          <t>-2.8</t>
         </is>
       </c>
       <c r="AP62" t="inlineStr">
@@ -13692,7 +13692,7 @@
       </c>
       <c r="AQ62" t="inlineStr">
         <is>
-          <t>65</t>
+          <t>70</t>
         </is>
       </c>
       <c r="AR62" t="inlineStr">
@@ -13707,17 +13707,17 @@
       </c>
       <c r="AT62" t="inlineStr">
         <is>
-          <t>6.8</t>
+          <t>13.0</t>
         </is>
       </c>
       <c r="AU62" t="inlineStr">
         <is>
-          <t>227</t>
+          <t>230</t>
         </is>
       </c>
       <c r="AV62" t="inlineStr">
         <is>
-          <t>24.8</t>
+          <t>34.6</t>
         </is>
       </c>
       <c r="AW62" t="inlineStr">
@@ -13727,12 +13727,12 @@
       </c>
       <c r="AX62" t="inlineStr">
         <is>
-          <t>227</t>
+          <t>230</t>
         </is>
       </c>
       <c r="AY62" t="inlineStr">
         <is>
-          <t>24.8</t>
+          <t>34.6</t>
         </is>
       </c>
       <c r="AZ62" t="inlineStr">
@@ -13780,7 +13780,7 @@
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>2026-02-04 18:48:49</t>
+          <t>2026-02-04 19:19:26</t>
         </is>
       </c>
       <c r="I63" t="inlineStr">
@@ -14013,7 +14013,7 @@
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>2026-02-04 18:48:49</t>
+          <t>2026-02-04 19:19:26</t>
         </is>
       </c>
       <c r="I64" t="inlineStr">
@@ -14246,7 +14246,7 @@
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>2026-02-04 18:48:49</t>
+          <t>2026-02-04 19:19:26</t>
         </is>
       </c>
       <c r="I65" t="inlineStr">
@@ -14479,7 +14479,7 @@
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>2026-02-04 18:48:49</t>
+          <t>2026-02-04 19:19:26</t>
         </is>
       </c>
       <c r="I66" t="inlineStr">
@@ -14697,7 +14697,7 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>18:00 - 18:30</t>
+          <t>18:30 - 19:00</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
@@ -14712,17 +14712,17 @@
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>2026-02-04 18:48:52</t>
+          <t>2026-02-04 19:19:29</t>
         </is>
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>18:00</t>
+          <t>18:30</t>
         </is>
       </c>
       <c r="J67" t="inlineStr">
         <is>
-          <t>https://www.meteo.cat/observacions/xema/dades?codi=XJ&amp;dia=2026-02-04T18:00Z</t>
+          <t>https://www.meteo.cat/observacions/xema/dades?codi=XJ&amp;dia=2026-02-04T18:30Z</t>
         </is>
       </c>
       <c r="K67" t="n">
@@ -14735,7 +14735,7 @@
       </c>
       <c r="M67" t="inlineStr">
         <is>
-          <t>204</t>
+          <t>128</t>
         </is>
       </c>
       <c r="N67" t="inlineStr"/>
@@ -14743,12 +14743,12 @@
       <c r="P67" t="inlineStr"/>
       <c r="Q67" t="inlineStr">
         <is>
-          <t>73</t>
+          <t>86</t>
         </is>
       </c>
       <c r="R67" t="inlineStr">
         <is>
-          <t>991.8</t>
+          <t>992.3</t>
         </is>
       </c>
       <c r="S67" t="inlineStr">
@@ -14758,7 +14758,7 @@
       </c>
       <c r="T67" t="inlineStr">
         <is>
-          <t>18:00 - 18:30</t>
+          <t>18:30 - 19:00</t>
         </is>
       </c>
       <c r="U67" t="inlineStr">
@@ -14768,56 +14768,56 @@
       </c>
       <c r="V67" t="inlineStr">
         <is>
-          <t>8.5</t>
+          <t>6.4</t>
         </is>
       </c>
       <c r="W67" t="inlineStr">
         <is>
-          <t>7.4</t>
+          <t>5.6</t>
         </is>
       </c>
       <c r="X67" t="inlineStr">
         <is>
-          <t>9.4</t>
+          <t>7.2</t>
         </is>
       </c>
       <c r="Y67" t="inlineStr">
         <is>
-          <t>3.2</t>
+          <t>2.2</t>
         </is>
       </c>
       <c r="Z67" t="inlineStr"/>
       <c r="AA67" t="inlineStr"/>
       <c r="AB67" t="inlineStr">
         <is>
-          <t>7.9</t>
+          <t>6.5</t>
         </is>
       </c>
       <c r="AC67" t="inlineStr"/>
       <c r="AD67" t="inlineStr"/>
       <c r="AE67" t="inlineStr">
         <is>
-          <t>18:00 - 18:30</t>
+          <t>18:30 - 19:00</t>
         </is>
       </c>
       <c r="AF67" t="inlineStr">
         <is>
-          <t>8.5</t>
+          <t>6.4</t>
         </is>
       </c>
       <c r="AG67" t="inlineStr">
         <is>
-          <t>9.4</t>
+          <t>7.2</t>
         </is>
       </c>
       <c r="AH67" t="inlineStr">
         <is>
-          <t>7.4</t>
+          <t>5.6</t>
         </is>
       </c>
       <c r="AI67" t="inlineStr">
         <is>
-          <t>73</t>
+          <t>86</t>
         </is>
       </c>
       <c r="AJ67" t="inlineStr">
@@ -14827,37 +14827,37 @@
       </c>
       <c r="AK67" t="inlineStr">
         <is>
-          <t>3.2</t>
+          <t>2.2</t>
         </is>
       </c>
       <c r="AL67" t="inlineStr">
         <is>
-          <t>204</t>
+          <t>128</t>
         </is>
       </c>
       <c r="AM67" t="inlineStr">
         <is>
-          <t>18:00 - 18:30</t>
+          <t>18:30 - 19:00</t>
         </is>
       </c>
       <c r="AN67" t="inlineStr">
         <is>
-          <t>8.5</t>
+          <t>6.4</t>
         </is>
       </c>
       <c r="AO67" t="inlineStr">
         <is>
-          <t>9.4</t>
+          <t>7.2</t>
         </is>
       </c>
       <c r="AP67" t="inlineStr">
         <is>
-          <t>7.4</t>
+          <t>5.6</t>
         </is>
       </c>
       <c r="AQ67" t="inlineStr">
         <is>
-          <t>73</t>
+          <t>86</t>
         </is>
       </c>
       <c r="AR67" t="inlineStr">
@@ -14867,22 +14867,22 @@
       </c>
       <c r="AS67" t="inlineStr">
         <is>
-          <t>3.2</t>
+          <t>2.2</t>
         </is>
       </c>
       <c r="AT67" t="inlineStr">
         <is>
-          <t>204</t>
+          <t>128</t>
         </is>
       </c>
       <c r="AU67" t="inlineStr">
         <is>
-          <t>7.9</t>
+          <t>6.5</t>
         </is>
       </c>
       <c r="AV67" t="inlineStr">
         <is>
-          <t>991.8</t>
+          <t>992.3</t>
         </is>
       </c>
       <c r="AW67" t="inlineStr">
@@ -14892,12 +14892,12 @@
       </c>
       <c r="AX67" t="inlineStr">
         <is>
-          <t>7.9</t>
+          <t>6.5</t>
         </is>
       </c>
       <c r="AY67" t="inlineStr">
         <is>
-          <t>991.8</t>
+          <t>992.3</t>
         </is>
       </c>
       <c r="AZ67" t="inlineStr">
@@ -14945,7 +14945,7 @@
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>2026-02-04 18:48:54</t>
+          <t>2026-02-04 19:19:31</t>
         </is>
       </c>
       <c r="I68" t="inlineStr">
@@ -15178,7 +15178,7 @@
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>2026-02-04 18:48:54</t>
+          <t>2026-02-04 19:19:31</t>
         </is>
       </c>
       <c r="I69" t="inlineStr">
@@ -15411,7 +15411,7 @@
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>2026-02-04 18:48:54</t>
+          <t>2026-02-04 19:19:31</t>
         </is>
       </c>
       <c r="I70" t="inlineStr">
@@ -15644,7 +15644,7 @@
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>2026-02-04 18:48:54</t>
+          <t>2026-02-04 19:19:31</t>
         </is>
       </c>
       <c r="I71" t="inlineStr">
@@ -15862,7 +15862,7 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>18:00 - 18:30</t>
+          <t>18:30 - 19:00</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
@@ -15877,17 +15877,17 @@
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>2026-02-04 18:48:57</t>
+          <t>2026-02-04 19:19:33</t>
         </is>
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>18:00</t>
+          <t>18:30</t>
         </is>
       </c>
       <c r="J72" t="inlineStr">
         <is>
-          <t>https://www.meteo.cat/observacions/xema/dades?codi=YU&amp;dia=2026-02-04T18:00Z</t>
+          <t>https://www.meteo.cat/observacions/xema/dades?codi=YU&amp;dia=2026-02-04T18:30Z</t>
         </is>
       </c>
       <c r="K72" t="n">
@@ -15900,7 +15900,7 @@
       </c>
       <c r="M72" t="inlineStr">
         <is>
-          <t>304</t>
+          <t>241</t>
         </is>
       </c>
       <c r="N72" t="inlineStr"/>
@@ -15919,7 +15919,7 @@
       </c>
       <c r="T72" t="inlineStr">
         <is>
-          <t>18:00 - 18:30</t>
+          <t>18:30 - 19:00</t>
         </is>
       </c>
       <c r="U72" t="inlineStr">
@@ -15934,7 +15934,7 @@
       </c>
       <c r="W72" t="inlineStr">
         <is>
-          <t>2.8</t>
+          <t>3.0</t>
         </is>
       </c>
       <c r="X72" t="inlineStr">
@@ -15944,21 +15944,21 @@
       </c>
       <c r="Y72" t="inlineStr">
         <is>
-          <t>3.2</t>
+          <t>4.3</t>
         </is>
       </c>
       <c r="Z72" t="inlineStr"/>
       <c r="AA72" t="inlineStr"/>
       <c r="AB72" t="inlineStr">
         <is>
-          <t>9.0</t>
+          <t>9.4</t>
         </is>
       </c>
       <c r="AC72" t="inlineStr"/>
       <c r="AD72" t="inlineStr"/>
       <c r="AE72" t="inlineStr">
         <is>
-          <t>18:00 - 18:30</t>
+          <t>18:30 - 19:00</t>
         </is>
       </c>
       <c r="AF72" t="inlineStr">
@@ -15973,7 +15973,7 @@
       </c>
       <c r="AH72" t="inlineStr">
         <is>
-          <t>2.8</t>
+          <t>3.0</t>
         </is>
       </c>
       <c r="AI72" t="inlineStr">
@@ -15988,17 +15988,17 @@
       </c>
       <c r="AK72" t="inlineStr">
         <is>
-          <t>3.2</t>
+          <t>4.3</t>
         </is>
       </c>
       <c r="AL72" t="inlineStr">
         <is>
-          <t>304</t>
+          <t>241</t>
         </is>
       </c>
       <c r="AM72" t="inlineStr">
         <is>
-          <t>18:00 - 18:30</t>
+          <t>18:30 - 19:00</t>
         </is>
       </c>
       <c r="AN72" t="inlineStr">
@@ -16013,7 +16013,7 @@
       </c>
       <c r="AP72" t="inlineStr">
         <is>
-          <t>2.8</t>
+          <t>3.0</t>
         </is>
       </c>
       <c r="AQ72" t="inlineStr">
@@ -16028,17 +16028,17 @@
       </c>
       <c r="AS72" t="inlineStr">
         <is>
-          <t>3.2</t>
+          <t>4.3</t>
         </is>
       </c>
       <c r="AT72" t="inlineStr">
         <is>
-          <t>304</t>
+          <t>241</t>
         </is>
       </c>
       <c r="AU72" t="inlineStr">
         <is>
-          <t>9.0</t>
+          <t>9.4</t>
         </is>
       </c>
       <c r="AV72" t="inlineStr">
@@ -16049,7 +16049,7 @@
       <c r="AW72" t="inlineStr"/>
       <c r="AX72" t="inlineStr">
         <is>
-          <t>9.0</t>
+          <t>9.4</t>
         </is>
       </c>
       <c r="AY72" t="inlineStr">
@@ -16098,7 +16098,7 @@
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>2026-02-04 18:48:58</t>
+          <t>2026-02-04 19:19:35</t>
         </is>
       </c>
       <c r="I73" t="inlineStr">
@@ -16319,7 +16319,7 @@
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>2026-02-04 18:48:58</t>
+          <t>2026-02-04 19:19:35</t>
         </is>
       </c>
       <c r="I74" t="inlineStr">
@@ -16540,7 +16540,7 @@
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>2026-02-04 18:48:58</t>
+          <t>2026-02-04 19:19:35</t>
         </is>
       </c>
       <c r="I75" t="inlineStr">
@@ -16761,7 +16761,7 @@
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>2026-02-04 18:48:58</t>
+          <t>2026-02-04 19:19:35</t>
         </is>
       </c>
       <c r="I76" t="inlineStr">
@@ -16982,17 +16982,17 @@
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>2026-02-04 18:49:01</t>
+          <t>2026-02-04 19:19:38</t>
         </is>
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>18:00</t>
+          <t>18:30</t>
         </is>
       </c>
       <c r="J77" t="inlineStr">
         <is>
-          <t>https://www.meteo.cat/observacions/xema/dades?codi=CD&amp;dia=2026-02-04T18:00Z</t>
+          <t>https://www.meteo.cat/observacions/xema/dades?codi=CD&amp;dia=2026-02-04T18:30Z</t>
         </is>
       </c>
       <c r="K77" t="n">
@@ -17215,7 +17215,7 @@
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>2026-02-04 18:49:03</t>
+          <t>2026-02-04 19:19:39</t>
         </is>
       </c>
       <c r="I78" t="inlineStr">
@@ -17448,7 +17448,7 @@
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>2026-02-04 18:49:03</t>
+          <t>2026-02-04 19:19:39</t>
         </is>
       </c>
       <c r="I79" t="inlineStr">
@@ -17681,7 +17681,7 @@
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>2026-02-04 18:49:03</t>
+          <t>2026-02-04 19:19:39</t>
         </is>
       </c>
       <c r="I80" t="inlineStr">
@@ -17914,7 +17914,7 @@
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>2026-02-04 18:49:03</t>
+          <t>2026-02-04 19:19:39</t>
         </is>
       </c>
       <c r="I81" t="inlineStr">
@@ -18132,7 +18132,7 @@
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>18:00 - 18:30</t>
+          <t>18:30 - 19:00</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
@@ -18147,17 +18147,17 @@
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>2026-02-04 18:49:05</t>
+          <t>2026-02-04 19:19:42</t>
         </is>
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>18:00</t>
+          <t>18:30</t>
         </is>
       </c>
       <c r="J82" t="inlineStr">
         <is>
-          <t>https://www.meteo.cat/observacions/xema/dades?codi=Z2&amp;dia=2026-02-04T18:00Z</t>
+          <t>https://www.meteo.cat/observacions/xema/dades?codi=Z2&amp;dia=2026-02-04T18:30Z</t>
         </is>
       </c>
       <c r="K82" t="n">
@@ -18172,7 +18172,7 @@
       <c r="N82" t="inlineStr"/>
       <c r="O82" t="inlineStr">
         <is>
-          <t>289</t>
+          <t>305</t>
         </is>
       </c>
       <c r="P82" t="inlineStr">
@@ -18193,7 +18193,7 @@
       </c>
       <c r="T82" t="inlineStr">
         <is>
-          <t>18:00 - 18:30</t>
+          <t>18:30 - 19:00</t>
         </is>
       </c>
       <c r="U82" t="inlineStr">
@@ -18203,53 +18203,53 @@
       </c>
       <c r="V82" t="inlineStr">
         <is>
-          <t>-5.1</t>
+          <t>-4.8</t>
         </is>
       </c>
       <c r="W82" t="inlineStr">
         <is>
-          <t>-5.4</t>
+          <t>-4.9</t>
         </is>
       </c>
       <c r="X82" t="inlineStr">
         <is>
-          <t>-4.9</t>
+          <t>-4.8</t>
         </is>
       </c>
       <c r="Y82" t="inlineStr"/>
       <c r="Z82" t="inlineStr"/>
       <c r="AA82" t="inlineStr">
         <is>
-          <t>6.1</t>
+          <t>5.8</t>
         </is>
       </c>
       <c r="AB82" t="inlineStr"/>
       <c r="AC82" t="inlineStr"/>
       <c r="AD82" t="inlineStr">
         <is>
-          <t>8.6</t>
+          <t>7.9</t>
         </is>
       </c>
       <c r="AE82" t="inlineStr">
         <is>
-          <t>18:00 - 18:30</t>
+          <t>18:30 - 19:00</t>
         </is>
       </c>
       <c r="AF82" t="inlineStr">
         <is>
-          <t>-5.1</t>
+          <t>-4.8</t>
         </is>
       </c>
       <c r="AG82" t="inlineStr">
         <is>
+          <t>-4.8</t>
+        </is>
+      </c>
+      <c r="AH82" t="inlineStr">
+        <is>
           <t>-4.9</t>
         </is>
       </c>
-      <c r="AH82" t="inlineStr">
-        <is>
-          <t>-5.4</t>
-        </is>
-      </c>
       <c r="AI82" t="inlineStr">
         <is>
           <t>96</t>
@@ -18267,29 +18267,29 @@
       </c>
       <c r="AL82" t="inlineStr">
         <is>
-          <t>6.1</t>
+          <t>5.8</t>
         </is>
       </c>
       <c r="AM82" t="inlineStr">
         <is>
-          <t>18:00 - 18:30</t>
+          <t>18:30 - 19:00</t>
         </is>
       </c>
       <c r="AN82" t="inlineStr">
         <is>
-          <t>-5.1</t>
+          <t>-4.8</t>
         </is>
       </c>
       <c r="AO82" t="inlineStr">
         <is>
+          <t>-4.8</t>
+        </is>
+      </c>
+      <c r="AP82" t="inlineStr">
+        <is>
           <t>-4.9</t>
         </is>
       </c>
-      <c r="AP82" t="inlineStr">
-        <is>
-          <t>-5.4</t>
-        </is>
-      </c>
       <c r="AQ82" t="inlineStr">
         <is>
           <t>96</t>
@@ -18307,17 +18307,17 @@
       </c>
       <c r="AT82" t="inlineStr">
         <is>
-          <t>6.1</t>
+          <t>5.8</t>
         </is>
       </c>
       <c r="AU82" t="inlineStr">
         <is>
-          <t>289</t>
+          <t>305</t>
         </is>
       </c>
       <c r="AV82" t="inlineStr">
         <is>
-          <t>8.6</t>
+          <t>7.9</t>
         </is>
       </c>
       <c r="AW82" t="inlineStr">
@@ -18327,12 +18327,12 @@
       </c>
       <c r="AX82" t="inlineStr">
         <is>
-          <t>289</t>
+          <t>305</t>
         </is>
       </c>
       <c r="AY82" t="inlineStr">
         <is>
-          <t>8.6</t>
+          <t>7.9</t>
         </is>
       </c>
       <c r="AZ82" t="inlineStr">
@@ -18380,7 +18380,7 @@
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>2026-02-04 18:49:07</t>
+          <t>2026-02-04 19:19:44</t>
         </is>
       </c>
       <c r="I83" t="inlineStr">
@@ -18613,7 +18613,7 @@
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>2026-02-04 18:49:07</t>
+          <t>2026-02-04 19:19:44</t>
         </is>
       </c>
       <c r="I84" t="inlineStr">
@@ -18846,7 +18846,7 @@
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>2026-02-04 18:49:07</t>
+          <t>2026-02-04 19:19:44</t>
         </is>
       </c>
       <c r="I85" t="inlineStr">
@@ -19079,7 +19079,7 @@
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>2026-02-04 18:49:07</t>
+          <t>2026-02-04 19:19:44</t>
         </is>
       </c>
       <c r="I86" t="inlineStr">
@@ -19297,7 +19297,7 @@
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>18:00 - 18:30</t>
+          <t>18:30 - 19:00</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
@@ -19312,17 +19312,17 @@
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>2026-02-04 18:49:10</t>
+          <t>2026-02-04 19:19:47</t>
         </is>
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>18:00</t>
+          <t>18:30</t>
         </is>
       </c>
       <c r="J87" t="inlineStr">
         <is>
-          <t>https://www.meteo.cat/observacions/xema/dades?codi=VK&amp;dia=2026-02-04T18:00Z</t>
+          <t>https://www.meteo.cat/observacions/xema/dades?codi=VK&amp;dia=2026-02-04T18:30Z</t>
         </is>
       </c>
       <c r="K87" t="n">
@@ -19335,7 +19335,7 @@
       </c>
       <c r="M87" t="inlineStr">
         <is>
-          <t>212</t>
+          <t>121</t>
         </is>
       </c>
       <c r="N87" t="inlineStr"/>
@@ -19343,12 +19343,12 @@
       <c r="P87" t="inlineStr"/>
       <c r="Q87" t="inlineStr">
         <is>
-          <t>91</t>
+          <t>97</t>
         </is>
       </c>
       <c r="R87" t="inlineStr">
         <is>
-          <t>994.1</t>
+          <t>994.0</t>
         </is>
       </c>
       <c r="S87" t="inlineStr">
@@ -19358,7 +19358,7 @@
       </c>
       <c r="T87" t="inlineStr">
         <is>
-          <t>18:00 - 18:30</t>
+          <t>18:30 - 19:00</t>
         </is>
       </c>
       <c r="U87" t="inlineStr">
@@ -19368,56 +19368,56 @@
       </c>
       <c r="V87" t="inlineStr">
         <is>
-          <t>6.7</t>
+          <t>6.2</t>
         </is>
       </c>
       <c r="W87" t="inlineStr">
         <is>
-          <t>6.5</t>
+          <t>5.5</t>
         </is>
       </c>
       <c r="X87" t="inlineStr">
         <is>
-          <t>7.0</t>
+          <t>6.9</t>
         </is>
       </c>
       <c r="Y87" t="inlineStr">
         <is>
-          <t>4.3</t>
+          <t>2.9</t>
         </is>
       </c>
       <c r="Z87" t="inlineStr"/>
       <c r="AA87" t="inlineStr"/>
       <c r="AB87" t="inlineStr">
         <is>
-          <t>5.4</t>
+          <t>4.3</t>
         </is>
       </c>
       <c r="AC87" t="inlineStr"/>
       <c r="AD87" t="inlineStr"/>
       <c r="AE87" t="inlineStr">
         <is>
-          <t>18:00 - 18:30</t>
+          <t>18:30 - 19:00</t>
         </is>
       </c>
       <c r="AF87" t="inlineStr">
         <is>
-          <t>6.7</t>
+          <t>6.2</t>
         </is>
       </c>
       <c r="AG87" t="inlineStr">
         <is>
-          <t>7.0</t>
+          <t>6.9</t>
         </is>
       </c>
       <c r="AH87" t="inlineStr">
         <is>
-          <t>6.5</t>
+          <t>5.5</t>
         </is>
       </c>
       <c r="AI87" t="inlineStr">
         <is>
-          <t>91</t>
+          <t>97</t>
         </is>
       </c>
       <c r="AJ87" t="inlineStr">
@@ -19427,77 +19427,77 @@
       </c>
       <c r="AK87" t="inlineStr">
         <is>
+          <t>2.9</t>
+        </is>
+      </c>
+      <c r="AL87" t="inlineStr">
+        <is>
+          <t>121</t>
+        </is>
+      </c>
+      <c r="AM87" t="inlineStr">
+        <is>
+          <t>18:30 - 19:00</t>
+        </is>
+      </c>
+      <c r="AN87" t="inlineStr">
+        <is>
+          <t>6.2</t>
+        </is>
+      </c>
+      <c r="AO87" t="inlineStr">
+        <is>
+          <t>6.9</t>
+        </is>
+      </c>
+      <c r="AP87" t="inlineStr">
+        <is>
+          <t>5.5</t>
+        </is>
+      </c>
+      <c r="AQ87" t="inlineStr">
+        <is>
+          <t>97</t>
+        </is>
+      </c>
+      <c r="AR87" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="AS87" t="inlineStr">
+        <is>
+          <t>2.9</t>
+        </is>
+      </c>
+      <c r="AT87" t="inlineStr">
+        <is>
+          <t>121</t>
+        </is>
+      </c>
+      <c r="AU87" t="inlineStr">
+        <is>
           <t>4.3</t>
         </is>
       </c>
-      <c r="AL87" t="inlineStr">
-        <is>
-          <t>212</t>
-        </is>
-      </c>
-      <c r="AM87" t="inlineStr">
-        <is>
-          <t>18:00 - 18:30</t>
-        </is>
-      </c>
-      <c r="AN87" t="inlineStr">
-        <is>
-          <t>6.7</t>
-        </is>
-      </c>
-      <c r="AO87" t="inlineStr">
-        <is>
-          <t>7.0</t>
-        </is>
-      </c>
-      <c r="AP87" t="inlineStr">
-        <is>
-          <t>6.5</t>
-        </is>
-      </c>
-      <c r="AQ87" t="inlineStr">
-        <is>
-          <t>91</t>
-        </is>
-      </c>
-      <c r="AR87" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="AS87" t="inlineStr">
+      <c r="AV87" t="inlineStr">
+        <is>
+          <t>994.0</t>
+        </is>
+      </c>
+      <c r="AW87" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AX87" t="inlineStr">
         <is>
           <t>4.3</t>
         </is>
       </c>
-      <c r="AT87" t="inlineStr">
-        <is>
-          <t>212</t>
-        </is>
-      </c>
-      <c r="AU87" t="inlineStr">
-        <is>
-          <t>5.4</t>
-        </is>
-      </c>
-      <c r="AV87" t="inlineStr">
-        <is>
-          <t>994.1</t>
-        </is>
-      </c>
-      <c r="AW87" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AX87" t="inlineStr">
-        <is>
-          <t>5.4</t>
-        </is>
-      </c>
       <c r="AY87" t="inlineStr">
         <is>
-          <t>994.1</t>
+          <t>994.0</t>
         </is>
       </c>
       <c r="AZ87" t="inlineStr">
@@ -19545,7 +19545,7 @@
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>2026-02-04 18:49:11</t>
+          <t>2026-02-04 19:19:48</t>
         </is>
       </c>
       <c r="I88" t="inlineStr">
@@ -19778,7 +19778,7 @@
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>2026-02-04 18:49:11</t>
+          <t>2026-02-04 19:19:48</t>
         </is>
       </c>
       <c r="I89" t="inlineStr">
@@ -20011,7 +20011,7 @@
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>2026-02-04 18:49:11</t>
+          <t>2026-02-04 19:19:48</t>
         </is>
       </c>
       <c r="I90" t="inlineStr">
@@ -20244,7 +20244,7 @@
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>2026-02-04 18:49:11</t>
+          <t>2026-02-04 19:19:48</t>
         </is>
       </c>
       <c r="I91" t="inlineStr">
@@ -20462,7 +20462,7 @@
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>18:00 - 18:30</t>
+          <t>18:30 - 19:00</t>
         </is>
       </c>
       <c r="F92" t="inlineStr">
@@ -20477,17 +20477,17 @@
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>2026-02-04 18:49:14</t>
+          <t>2026-02-04 19:19:51</t>
         </is>
       </c>
       <c r="I92" t="inlineStr">
         <is>
-          <t>18:00</t>
+          <t>18:30</t>
         </is>
       </c>
       <c r="J92" t="inlineStr">
         <is>
-          <t>https://www.meteo.cat/observacions/xema/dades?codi=Z3&amp;dia=2026-02-04T18:00Z</t>
+          <t>https://www.meteo.cat/observacions/xema/dades?codi=Z3&amp;dia=2026-02-04T18:30Z</t>
         </is>
       </c>
       <c r="K92" t="n">
@@ -20502,7 +20502,7 @@
       <c r="N92" t="inlineStr"/>
       <c r="O92" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>296</t>
         </is>
       </c>
       <c r="P92" t="inlineStr">
@@ -20512,7 +20512,7 @@
       </c>
       <c r="Q92" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>82</t>
         </is>
       </c>
       <c r="R92" t="inlineStr"/>
@@ -20523,7 +20523,7 @@
       </c>
       <c r="T92" t="inlineStr">
         <is>
-          <t>18:00 - 18:30</t>
+          <t>18:30 - 19:00</t>
         </is>
       </c>
       <c r="U92" t="inlineStr">
@@ -20533,12 +20533,12 @@
       </c>
       <c r="V92" t="inlineStr">
         <is>
-          <t>-3.2</t>
+          <t>-3.4</t>
         </is>
       </c>
       <c r="W92" t="inlineStr">
         <is>
-          <t>-3.4</t>
+          <t>-4.2</t>
         </is>
       </c>
       <c r="X92" t="inlineStr">
@@ -20550,24 +20550,24 @@
       <c r="Z92" t="inlineStr"/>
       <c r="AA92" t="inlineStr">
         <is>
-          <t>2.5</t>
+          <t>2.9</t>
         </is>
       </c>
       <c r="AB92" t="inlineStr"/>
       <c r="AC92" t="inlineStr"/>
       <c r="AD92" t="inlineStr">
         <is>
-          <t>8.6</t>
+          <t>7.9</t>
         </is>
       </c>
       <c r="AE92" t="inlineStr">
         <is>
-          <t>18:00 - 18:30</t>
+          <t>18:30 - 19:00</t>
         </is>
       </c>
       <c r="AF92" t="inlineStr">
         <is>
-          <t>-3.2</t>
+          <t>-3.4</t>
         </is>
       </c>
       <c r="AG92" t="inlineStr">
@@ -20577,77 +20577,77 @@
       </c>
       <c r="AH92" t="inlineStr">
         <is>
+          <t>-4.2</t>
+        </is>
+      </c>
+      <c r="AI92" t="inlineStr">
+        <is>
+          <t>82</t>
+        </is>
+      </c>
+      <c r="AJ92" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="AK92" t="inlineStr">
+        <is>
+          <t>112</t>
+        </is>
+      </c>
+      <c r="AL92" t="inlineStr">
+        <is>
+          <t>2.9</t>
+        </is>
+      </c>
+      <c r="AM92" t="inlineStr">
+        <is>
+          <t>18:30 - 19:00</t>
+        </is>
+      </c>
+      <c r="AN92" t="inlineStr">
+        <is>
           <t>-3.4</t>
         </is>
       </c>
-      <c r="AI92" t="inlineStr">
-        <is>
-          <t>80</t>
-        </is>
-      </c>
-      <c r="AJ92" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="AK92" t="inlineStr">
+      <c r="AO92" t="inlineStr">
+        <is>
+          <t>-2.8</t>
+        </is>
+      </c>
+      <c r="AP92" t="inlineStr">
+        <is>
+          <t>-4.2</t>
+        </is>
+      </c>
+      <c r="AQ92" t="inlineStr">
+        <is>
+          <t>82</t>
+        </is>
+      </c>
+      <c r="AR92" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="AS92" t="inlineStr">
         <is>
           <t>112</t>
         </is>
       </c>
-      <c r="AL92" t="inlineStr">
-        <is>
-          <t>2.5</t>
-        </is>
-      </c>
-      <c r="AM92" t="inlineStr">
-        <is>
-          <t>18:00 - 18:30</t>
-        </is>
-      </c>
-      <c r="AN92" t="inlineStr">
-        <is>
-          <t>-3.2</t>
-        </is>
-      </c>
-      <c r="AO92" t="inlineStr">
-        <is>
-          <t>-2.8</t>
-        </is>
-      </c>
-      <c r="AP92" t="inlineStr">
-        <is>
-          <t>-3.4</t>
-        </is>
-      </c>
-      <c r="AQ92" t="inlineStr">
-        <is>
-          <t>80</t>
-        </is>
-      </c>
-      <c r="AR92" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="AS92" t="inlineStr">
-        <is>
-          <t>112</t>
-        </is>
-      </c>
       <c r="AT92" t="inlineStr">
         <is>
-          <t>2.5</t>
+          <t>2.9</t>
         </is>
       </c>
       <c r="AU92" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>296</t>
         </is>
       </c>
       <c r="AV92" t="inlineStr">
         <is>
-          <t>8.6</t>
+          <t>7.9</t>
         </is>
       </c>
       <c r="AW92" t="inlineStr">
@@ -20657,12 +20657,12 @@
       </c>
       <c r="AX92" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>296</t>
         </is>
       </c>
       <c r="AY92" t="inlineStr">
         <is>
-          <t>8.6</t>
+          <t>7.9</t>
         </is>
       </c>
       <c r="AZ92" t="inlineStr">
@@ -20710,7 +20710,7 @@
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>2026-02-04 18:49:16</t>
+          <t>2026-02-04 19:19:53</t>
         </is>
       </c>
       <c r="I93" t="inlineStr">
@@ -20943,7 +20943,7 @@
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>2026-02-04 18:49:16</t>
+          <t>2026-02-04 19:19:53</t>
         </is>
       </c>
       <c r="I94" t="inlineStr">
@@ -21176,7 +21176,7 @@
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>2026-02-04 18:49:16</t>
+          <t>2026-02-04 19:19:53</t>
         </is>
       </c>
       <c r="I95" t="inlineStr">
@@ -21409,7 +21409,7 @@
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>2026-02-04 18:49:16</t>
+          <t>2026-02-04 19:19:53</t>
         </is>
       </c>
       <c r="I96" t="inlineStr">
@@ -21627,7 +21627,7 @@
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>18:00 - 18:30</t>
+          <t>18:30 - 19:00</t>
         </is>
       </c>
       <c r="F97" t="inlineStr">
@@ -21642,17 +21642,17 @@
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>2026-02-04 18:49:19</t>
+          <t>2026-02-04 19:19:55</t>
         </is>
       </c>
       <c r="I97" t="inlineStr">
         <is>
-          <t>18:00</t>
+          <t>18:30</t>
         </is>
       </c>
       <c r="J97" t="inlineStr">
         <is>
-          <t>https://www.meteo.cat/observacions/xema/dades?codi=YB&amp;dia=2026-02-04T18:00Z</t>
+          <t>https://www.meteo.cat/observacions/xema/dades?codi=YB&amp;dia=2026-02-04T18:30Z</t>
         </is>
       </c>
       <c r="K97" t="n">
@@ -21665,7 +21665,7 @@
       </c>
       <c r="M97" t="inlineStr">
         <is>
-          <t>274</t>
+          <t>257</t>
         </is>
       </c>
       <c r="N97" t="inlineStr"/>
@@ -21673,12 +21673,12 @@
       <c r="P97" t="inlineStr"/>
       <c r="Q97" t="inlineStr">
         <is>
-          <t>82</t>
+          <t>84</t>
         </is>
       </c>
       <c r="R97" t="inlineStr">
         <is>
-          <t>992.6</t>
+          <t>993.0</t>
         </is>
       </c>
       <c r="S97" t="inlineStr">
@@ -21688,7 +21688,7 @@
       </c>
       <c r="T97" t="inlineStr">
         <is>
-          <t>18:00 - 18:30</t>
+          <t>18:30 - 19:00</t>
         </is>
       </c>
       <c r="U97" t="inlineStr">
@@ -21698,56 +21698,56 @@
       </c>
       <c r="V97" t="inlineStr">
         <is>
-          <t>5.3</t>
+          <t>4.8</t>
         </is>
       </c>
       <c r="W97" t="inlineStr">
         <is>
-          <t>4.6</t>
+          <t>4.2</t>
         </is>
       </c>
       <c r="X97" t="inlineStr">
         <is>
-          <t>6.4</t>
+          <t>5.1</t>
         </is>
       </c>
       <c r="Y97" t="inlineStr">
         <is>
-          <t>2.2</t>
+          <t>2.9</t>
         </is>
       </c>
       <c r="Z97" t="inlineStr"/>
       <c r="AA97" t="inlineStr"/>
       <c r="AB97" t="inlineStr">
         <is>
-          <t>5.8</t>
+          <t>9.7</t>
         </is>
       </c>
       <c r="AC97" t="inlineStr"/>
       <c r="AD97" t="inlineStr"/>
       <c r="AE97" t="inlineStr">
         <is>
-          <t>18:00 - 18:30</t>
+          <t>18:30 - 19:00</t>
         </is>
       </c>
       <c r="AF97" t="inlineStr">
         <is>
-          <t>5.3</t>
+          <t>4.8</t>
         </is>
       </c>
       <c r="AG97" t="inlineStr">
         <is>
-          <t>6.4</t>
+          <t>5.1</t>
         </is>
       </c>
       <c r="AH97" t="inlineStr">
         <is>
-          <t>4.6</t>
+          <t>4.2</t>
         </is>
       </c>
       <c r="AI97" t="inlineStr">
         <is>
-          <t>82</t>
+          <t>84</t>
         </is>
       </c>
       <c r="AJ97" t="inlineStr">
@@ -21757,37 +21757,37 @@
       </c>
       <c r="AK97" t="inlineStr">
         <is>
-          <t>2.2</t>
+          <t>2.9</t>
         </is>
       </c>
       <c r="AL97" t="inlineStr">
         <is>
-          <t>274</t>
+          <t>257</t>
         </is>
       </c>
       <c r="AM97" t="inlineStr">
         <is>
-          <t>18:00 - 18:30</t>
+          <t>18:30 - 19:00</t>
         </is>
       </c>
       <c r="AN97" t="inlineStr">
         <is>
-          <t>5.3</t>
+          <t>4.8</t>
         </is>
       </c>
       <c r="AO97" t="inlineStr">
         <is>
-          <t>6.4</t>
+          <t>5.1</t>
         </is>
       </c>
       <c r="AP97" t="inlineStr">
         <is>
-          <t>4.6</t>
+          <t>4.2</t>
         </is>
       </c>
       <c r="AQ97" t="inlineStr">
         <is>
-          <t>82</t>
+          <t>84</t>
         </is>
       </c>
       <c r="AR97" t="inlineStr">
@@ -21797,22 +21797,22 @@
       </c>
       <c r="AS97" t="inlineStr">
         <is>
-          <t>2.2</t>
+          <t>2.9</t>
         </is>
       </c>
       <c r="AT97" t="inlineStr">
         <is>
-          <t>274</t>
+          <t>257</t>
         </is>
       </c>
       <c r="AU97" t="inlineStr">
         <is>
-          <t>5.8</t>
+          <t>9.7</t>
         </is>
       </c>
       <c r="AV97" t="inlineStr">
         <is>
-          <t>992.6</t>
+          <t>993.0</t>
         </is>
       </c>
       <c r="AW97" t="inlineStr">
@@ -21822,12 +21822,12 @@
       </c>
       <c r="AX97" t="inlineStr">
         <is>
-          <t>5.8</t>
+          <t>9.7</t>
         </is>
       </c>
       <c r="AY97" t="inlineStr">
         <is>
-          <t>992.6</t>
+          <t>993.0</t>
         </is>
       </c>
       <c r="AZ97" t="inlineStr">
@@ -21875,7 +21875,7 @@
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>2026-02-04 18:49:20</t>
+          <t>2026-02-04 19:19:57</t>
         </is>
       </c>
       <c r="I98" t="inlineStr">
@@ -22108,7 +22108,7 @@
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>2026-02-04 18:49:20</t>
+          <t>2026-02-04 19:19:57</t>
         </is>
       </c>
       <c r="I99" t="inlineStr">
@@ -22341,7 +22341,7 @@
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>2026-02-04 18:49:20</t>
+          <t>2026-02-04 19:19:57</t>
         </is>
       </c>
       <c r="I100" t="inlineStr">
@@ -22574,7 +22574,7 @@
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>2026-02-04 18:49:20</t>
+          <t>2026-02-04 19:19:57</t>
         </is>
       </c>
       <c r="I101" t="inlineStr">
@@ -22807,17 +22807,17 @@
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>2026-02-04 18:49:23</t>
+          <t>2026-02-04 19:20:00</t>
         </is>
       </c>
       <c r="I102" t="inlineStr">
         <is>
-          <t>18:00</t>
+          <t>18:30</t>
         </is>
       </c>
       <c r="J102" t="inlineStr">
         <is>
-          <t>https://www.meteo.cat/observacions/xema/dades?codi=YP&amp;dia=2026-02-04T18:00Z</t>
+          <t>https://www.meteo.cat/observacions/xema/dades?codi=YP&amp;dia=2026-02-04T18:30Z</t>
         </is>
       </c>
       <c r="K102" t="n">
@@ -23028,7 +23028,7 @@
       </c>
       <c r="H103" t="inlineStr">
         <is>
-          <t>2026-02-04 18:49:24</t>
+          <t>2026-02-04 19:20:02</t>
         </is>
       </c>
       <c r="I103" t="inlineStr">
@@ -23249,7 +23249,7 @@
       </c>
       <c r="H104" t="inlineStr">
         <is>
-          <t>2026-02-04 18:49:24</t>
+          <t>2026-02-04 19:20:02</t>
         </is>
       </c>
       <c r="I104" t="inlineStr">
@@ -23470,7 +23470,7 @@
       </c>
       <c r="H105" t="inlineStr">
         <is>
-          <t>2026-02-04 18:49:24</t>
+          <t>2026-02-04 19:20:02</t>
         </is>
       </c>
       <c r="I105" t="inlineStr">
@@ -23691,7 +23691,7 @@
       </c>
       <c r="H106" t="inlineStr">
         <is>
-          <t>2026-02-04 18:49:24</t>
+          <t>2026-02-04 19:20:02</t>
         </is>
       </c>
       <c r="I106" t="inlineStr">
@@ -23897,7 +23897,7 @@
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>18:00 - 18:30</t>
+          <t>18:30 - 19:00</t>
         </is>
       </c>
       <c r="F107" t="inlineStr">
@@ -23912,17 +23912,17 @@
       </c>
       <c r="H107" t="inlineStr">
         <is>
-          <t>2026-02-04 18:49:26</t>
+          <t>2026-02-04 19:20:04</t>
         </is>
       </c>
       <c r="I107" t="inlineStr">
         <is>
-          <t>18:00</t>
+          <t>18:30</t>
         </is>
       </c>
       <c r="J107" t="inlineStr">
         <is>
-          <t>https://www.meteo.cat/observacions/xema/dades?codi=J5&amp;dia=2026-02-04T18:00Z</t>
+          <t>https://www.meteo.cat/observacions/xema/dades?codi=J5&amp;dia=2026-02-04T18:30Z</t>
         </is>
       </c>
       <c r="K107" t="n">
@@ -23935,7 +23935,7 @@
       </c>
       <c r="M107" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>36</t>
         </is>
       </c>
       <c r="N107" t="inlineStr"/>
@@ -23943,12 +23943,12 @@
       <c r="P107" t="inlineStr"/>
       <c r="Q107" t="inlineStr">
         <is>
-          <t>89</t>
+          <t>91</t>
         </is>
       </c>
       <c r="R107" t="inlineStr">
         <is>
-          <t>991.8</t>
+          <t>992.3</t>
         </is>
       </c>
       <c r="S107" t="inlineStr">
@@ -23958,7 +23958,7 @@
       </c>
       <c r="T107" t="inlineStr">
         <is>
-          <t>18:00 - 18:30</t>
+          <t>18:30 - 19:00</t>
         </is>
       </c>
       <c r="U107" t="inlineStr">
@@ -23968,96 +23968,96 @@
       </c>
       <c r="V107" t="inlineStr">
         <is>
-          <t>7.8</t>
+          <t>7.4</t>
         </is>
       </c>
       <c r="W107" t="inlineStr">
         <is>
-          <t>7.4</t>
+          <t>7.2</t>
         </is>
       </c>
       <c r="X107" t="inlineStr">
         <is>
-          <t>8.2</t>
+          <t>7.6</t>
         </is>
       </c>
       <c r="Y107" t="inlineStr">
         <is>
-          <t>7.6</t>
+          <t>10.1</t>
         </is>
       </c>
       <c r="Z107" t="inlineStr"/>
       <c r="AA107" t="inlineStr"/>
       <c r="AB107" t="inlineStr">
         <is>
-          <t>15.8</t>
+          <t>14.0</t>
         </is>
       </c>
       <c r="AC107" t="inlineStr"/>
       <c r="AD107" t="inlineStr"/>
       <c r="AE107" t="inlineStr">
         <is>
-          <t>18:00 - 18:30</t>
+          <t>18:30 - 19:00</t>
         </is>
       </c>
       <c r="AF107" t="inlineStr">
         <is>
-          <t>7.8</t>
+          <t>7.4</t>
         </is>
       </c>
       <c r="AG107" t="inlineStr">
         <is>
-          <t>8.2</t>
+          <t>7.6</t>
         </is>
       </c>
       <c r="AH107" t="inlineStr">
         <is>
+          <t>7.2</t>
+        </is>
+      </c>
+      <c r="AI107" t="inlineStr">
+        <is>
+          <t>91</t>
+        </is>
+      </c>
+      <c r="AJ107" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="AK107" t="inlineStr">
+        <is>
+          <t>10.1</t>
+        </is>
+      </c>
+      <c r="AL107" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
+      </c>
+      <c r="AM107" t="inlineStr">
+        <is>
+          <t>18:30 - 19:00</t>
+        </is>
+      </c>
+      <c r="AN107" t="inlineStr">
+        <is>
           <t>7.4</t>
         </is>
       </c>
-      <c r="AI107" t="inlineStr">
-        <is>
-          <t>89</t>
-        </is>
-      </c>
-      <c r="AJ107" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="AK107" t="inlineStr">
+      <c r="AO107" t="inlineStr">
         <is>
           <t>7.6</t>
         </is>
       </c>
-      <c r="AL107" t="inlineStr">
-        <is>
-          <t>29</t>
-        </is>
-      </c>
-      <c r="AM107" t="inlineStr">
-        <is>
-          <t>18:00 - 18:30</t>
-        </is>
-      </c>
-      <c r="AN107" t="inlineStr">
-        <is>
-          <t>7.8</t>
-        </is>
-      </c>
-      <c r="AO107" t="inlineStr">
-        <is>
-          <t>8.2</t>
-        </is>
-      </c>
       <c r="AP107" t="inlineStr">
         <is>
-          <t>7.4</t>
+          <t>7.2</t>
         </is>
       </c>
       <c r="AQ107" t="inlineStr">
         <is>
-          <t>89</t>
+          <t>91</t>
         </is>
       </c>
       <c r="AR107" t="inlineStr">
@@ -24067,22 +24067,22 @@
       </c>
       <c r="AS107" t="inlineStr">
         <is>
-          <t>7.6</t>
+          <t>10.1</t>
         </is>
       </c>
       <c r="AT107" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>36</t>
         </is>
       </c>
       <c r="AU107" t="inlineStr">
         <is>
-          <t>15.8</t>
+          <t>14.0</t>
         </is>
       </c>
       <c r="AV107" t="inlineStr">
         <is>
-          <t>991.8</t>
+          <t>992.3</t>
         </is>
       </c>
       <c r="AW107" t="inlineStr">
@@ -24092,12 +24092,12 @@
       </c>
       <c r="AX107" t="inlineStr">
         <is>
-          <t>15.8</t>
+          <t>14.0</t>
         </is>
       </c>
       <c r="AY107" t="inlineStr">
         <is>
-          <t>991.8</t>
+          <t>992.3</t>
         </is>
       </c>
       <c r="AZ107" t="inlineStr">
@@ -24145,7 +24145,7 @@
       </c>
       <c r="H108" t="inlineStr">
         <is>
-          <t>2026-02-04 18:49:28</t>
+          <t>2026-02-04 19:20:06</t>
         </is>
       </c>
       <c r="I108" t="inlineStr">
@@ -24378,7 +24378,7 @@
       </c>
       <c r="H109" t="inlineStr">
         <is>
-          <t>2026-02-04 18:49:28</t>
+          <t>2026-02-04 19:20:06</t>
         </is>
       </c>
       <c r="I109" t="inlineStr">
@@ -24611,7 +24611,7 @@
       </c>
       <c r="H110" t="inlineStr">
         <is>
-          <t>2026-02-04 18:49:28</t>
+          <t>2026-02-04 19:20:06</t>
         </is>
       </c>
       <c r="I110" t="inlineStr">
@@ -24844,7 +24844,7 @@
       </c>
       <c r="H111" t="inlineStr">
         <is>
-          <t>2026-02-04 18:49:28</t>
+          <t>2026-02-04 19:20:06</t>
         </is>
       </c>
       <c r="I111" t="inlineStr">
@@ -25062,7 +25062,7 @@
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>18:00 - 18:30</t>
+          <t>18:30 - 19:00</t>
         </is>
       </c>
       <c r="F112" t="inlineStr">
@@ -25077,17 +25077,17 @@
       </c>
       <c r="H112" t="inlineStr">
         <is>
-          <t>2026-02-04 18:49:31</t>
+          <t>2026-02-04 19:20:08</t>
         </is>
       </c>
       <c r="I112" t="inlineStr">
         <is>
-          <t>18:00</t>
+          <t>18:30</t>
         </is>
       </c>
       <c r="J112" t="inlineStr">
         <is>
-          <t>https://www.meteo.cat/observacions/xema/dades?codi=D6&amp;dia=2026-02-04T18:00Z</t>
+          <t>https://www.meteo.cat/observacions/xema/dades?codi=D6&amp;dia=2026-02-04T18:30Z</t>
         </is>
       </c>
       <c r="K112" t="n">
@@ -25100,7 +25100,7 @@
       </c>
       <c r="M112" t="inlineStr">
         <is>
-          <t>277</t>
+          <t>304</t>
         </is>
       </c>
       <c r="N112" t="inlineStr"/>
@@ -25108,12 +25108,12 @@
       <c r="P112" t="inlineStr"/>
       <c r="Q112" t="inlineStr">
         <is>
-          <t>63</t>
+          <t>61</t>
         </is>
       </c>
       <c r="R112" t="inlineStr">
         <is>
-          <t>990.8</t>
+          <t>991.3</t>
         </is>
       </c>
       <c r="S112" t="inlineStr">
@@ -25123,7 +25123,7 @@
       </c>
       <c r="T112" t="inlineStr">
         <is>
-          <t>18:00 - 18:30</t>
+          <t>18:30 - 19:00</t>
         </is>
       </c>
       <c r="U112" t="inlineStr">
@@ -25133,56 +25133,56 @@
       </c>
       <c r="V112" t="inlineStr">
         <is>
-          <t>11.1</t>
+          <t>11.2</t>
         </is>
       </c>
       <c r="W112" t="inlineStr">
         <is>
-          <t>10.8</t>
+          <t>11.0</t>
         </is>
       </c>
       <c r="X112" t="inlineStr">
         <is>
-          <t>11.4</t>
+          <t>11.5</t>
         </is>
       </c>
       <c r="Y112" t="inlineStr">
         <is>
-          <t>13.0</t>
+          <t>14.0</t>
         </is>
       </c>
       <c r="Z112" t="inlineStr"/>
       <c r="AA112" t="inlineStr"/>
       <c r="AB112" t="inlineStr">
         <is>
-          <t>19.4</t>
+          <t>18.4</t>
         </is>
       </c>
       <c r="AC112" t="inlineStr"/>
       <c r="AD112" t="inlineStr"/>
       <c r="AE112" t="inlineStr">
         <is>
-          <t>18:00 - 18:30</t>
+          <t>18:30 - 19:00</t>
         </is>
       </c>
       <c r="AF112" t="inlineStr">
         <is>
-          <t>11.1</t>
+          <t>11.2</t>
         </is>
       </c>
       <c r="AG112" t="inlineStr">
         <is>
-          <t>11.4</t>
+          <t>11.5</t>
         </is>
       </c>
       <c r="AH112" t="inlineStr">
         <is>
-          <t>10.8</t>
+          <t>11.0</t>
         </is>
       </c>
       <c r="AI112" t="inlineStr">
         <is>
-          <t>63</t>
+          <t>61</t>
         </is>
       </c>
       <c r="AJ112" t="inlineStr">
@@ -25192,37 +25192,37 @@
       </c>
       <c r="AK112" t="inlineStr">
         <is>
-          <t>13.0</t>
+          <t>14.0</t>
         </is>
       </c>
       <c r="AL112" t="inlineStr">
         <is>
-          <t>277</t>
+          <t>304</t>
         </is>
       </c>
       <c r="AM112" t="inlineStr">
         <is>
-          <t>18:00 - 18:30</t>
+          <t>18:30 - 19:00</t>
         </is>
       </c>
       <c r="AN112" t="inlineStr">
         <is>
-          <t>11.1</t>
+          <t>11.2</t>
         </is>
       </c>
       <c r="AO112" t="inlineStr">
         <is>
-          <t>11.4</t>
+          <t>11.5</t>
         </is>
       </c>
       <c r="AP112" t="inlineStr">
         <is>
-          <t>10.8</t>
+          <t>11.0</t>
         </is>
       </c>
       <c r="AQ112" t="inlineStr">
         <is>
-          <t>63</t>
+          <t>61</t>
         </is>
       </c>
       <c r="AR112" t="inlineStr">
@@ -25232,22 +25232,22 @@
       </c>
       <c r="AS112" t="inlineStr">
         <is>
-          <t>13.0</t>
+          <t>14.0</t>
         </is>
       </c>
       <c r="AT112" t="inlineStr">
         <is>
-          <t>277</t>
+          <t>304</t>
         </is>
       </c>
       <c r="AU112" t="inlineStr">
         <is>
-          <t>19.4</t>
+          <t>18.4</t>
         </is>
       </c>
       <c r="AV112" t="inlineStr">
         <is>
-          <t>990.8</t>
+          <t>991.3</t>
         </is>
       </c>
       <c r="AW112" t="inlineStr">
@@ -25257,12 +25257,12 @@
       </c>
       <c r="AX112" t="inlineStr">
         <is>
-          <t>19.4</t>
+          <t>18.4</t>
         </is>
       </c>
       <c r="AY112" t="inlineStr">
         <is>
-          <t>990.8</t>
+          <t>991.3</t>
         </is>
       </c>
       <c r="AZ112" t="inlineStr">
@@ -25310,7 +25310,7 @@
       </c>
       <c r="H113" t="inlineStr">
         <is>
-          <t>2026-02-04 18:49:32</t>
+          <t>2026-02-04 19:20:09</t>
         </is>
       </c>
       <c r="I113" t="inlineStr">
@@ -25543,7 +25543,7 @@
       </c>
       <c r="H114" t="inlineStr">
         <is>
-          <t>2026-02-04 18:49:32</t>
+          <t>2026-02-04 19:20:09</t>
         </is>
       </c>
       <c r="I114" t="inlineStr">
@@ -25776,7 +25776,7 @@
       </c>
       <c r="H115" t="inlineStr">
         <is>
-          <t>2026-02-04 18:49:32</t>
+          <t>2026-02-04 19:20:09</t>
         </is>
       </c>
       <c r="I115" t="inlineStr">
@@ -26009,7 +26009,7 @@
       </c>
       <c r="H116" t="inlineStr">
         <is>
-          <t>2026-02-04 18:49:32</t>
+          <t>2026-02-04 19:20:09</t>
         </is>
       </c>
       <c r="I116" t="inlineStr">
@@ -26227,7 +26227,7 @@
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>18:00 - 18:30</t>
+          <t>18:30 - 19:00</t>
         </is>
       </c>
       <c r="F117" t="inlineStr">
@@ -26242,17 +26242,17 @@
       </c>
       <c r="H117" t="inlineStr">
         <is>
-          <t>2026-02-04 18:49:35</t>
+          <t>2026-02-04 19:20:12</t>
         </is>
       </c>
       <c r="I117" t="inlineStr">
         <is>
-          <t>18:00</t>
+          <t>18:30</t>
         </is>
       </c>
       <c r="J117" t="inlineStr">
         <is>
-          <t>https://www.meteo.cat/observacions/xema/dades?codi=YA&amp;dia=2026-02-04T18:00Z</t>
+          <t>https://www.meteo.cat/observacions/xema/dades?codi=YA&amp;dia=2026-02-04T18:30Z</t>
         </is>
       </c>
       <c r="K117" t="n">
@@ -26265,7 +26265,7 @@
       </c>
       <c r="M117" t="inlineStr">
         <is>
-          <t>49</t>
+          <t>29</t>
         </is>
       </c>
       <c r="N117" t="inlineStr"/>
@@ -26273,12 +26273,12 @@
       <c r="P117" t="inlineStr"/>
       <c r="Q117" t="inlineStr">
         <is>
-          <t>79</t>
+          <t>80</t>
         </is>
       </c>
       <c r="R117" t="inlineStr">
         <is>
-          <t>993.5</t>
+          <t>994.1</t>
         </is>
       </c>
       <c r="S117" t="inlineStr">
@@ -26288,7 +26288,7 @@
       </c>
       <c r="T117" t="inlineStr">
         <is>
-          <t>18:00 - 18:30</t>
+          <t>18:30 - 19:00</t>
         </is>
       </c>
       <c r="U117" t="inlineStr">
@@ -26298,96 +26298,96 @@
       </c>
       <c r="V117" t="inlineStr">
         <is>
-          <t>2.4</t>
+          <t>2.1</t>
         </is>
       </c>
       <c r="W117" t="inlineStr">
         <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="X117" t="inlineStr">
+        <is>
           <t>2.2</t>
         </is>
       </c>
-      <c r="X117" t="inlineStr">
-        <is>
-          <t>2.8</t>
-        </is>
-      </c>
       <c r="Y117" t="inlineStr">
         <is>
-          <t>2.9</t>
+          <t>3.6</t>
         </is>
       </c>
       <c r="Z117" t="inlineStr"/>
       <c r="AA117" t="inlineStr"/>
       <c r="AB117" t="inlineStr">
         <is>
-          <t>5.4</t>
+          <t>7.6</t>
         </is>
       </c>
       <c r="AC117" t="inlineStr"/>
       <c r="AD117" t="inlineStr"/>
       <c r="AE117" t="inlineStr">
         <is>
-          <t>18:00 - 18:30</t>
+          <t>18:30 - 19:00</t>
         </is>
       </c>
       <c r="AF117" t="inlineStr">
         <is>
-          <t>2.4</t>
+          <t>2.1</t>
         </is>
       </c>
       <c r="AG117" t="inlineStr">
         <is>
-          <t>2.8</t>
+          <t>2.2</t>
         </is>
       </c>
       <c r="AH117" t="inlineStr">
         <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="AI117" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="AJ117" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="AK117" t="inlineStr">
+        <is>
+          <t>3.6</t>
+        </is>
+      </c>
+      <c r="AL117" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="AM117" t="inlineStr">
+        <is>
+          <t>18:30 - 19:00</t>
+        </is>
+      </c>
+      <c r="AN117" t="inlineStr">
+        <is>
+          <t>2.1</t>
+        </is>
+      </c>
+      <c r="AO117" t="inlineStr">
+        <is>
           <t>2.2</t>
         </is>
       </c>
-      <c r="AI117" t="inlineStr">
-        <is>
-          <t>79</t>
-        </is>
-      </c>
-      <c r="AJ117" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="AK117" t="inlineStr">
-        <is>
-          <t>2.9</t>
-        </is>
-      </c>
-      <c r="AL117" t="inlineStr">
-        <is>
-          <t>49</t>
-        </is>
-      </c>
-      <c r="AM117" t="inlineStr">
-        <is>
-          <t>18:00 - 18:30</t>
-        </is>
-      </c>
-      <c r="AN117" t="inlineStr">
-        <is>
-          <t>2.4</t>
-        </is>
-      </c>
-      <c r="AO117" t="inlineStr">
-        <is>
-          <t>2.8</t>
-        </is>
-      </c>
       <c r="AP117" t="inlineStr">
         <is>
-          <t>2.2</t>
+          <t>2.0</t>
         </is>
       </c>
       <c r="AQ117" t="inlineStr">
         <is>
-          <t>79</t>
+          <t>80</t>
         </is>
       </c>
       <c r="AR117" t="inlineStr">
@@ -26397,22 +26397,22 @@
       </c>
       <c r="AS117" t="inlineStr">
         <is>
-          <t>2.9</t>
+          <t>3.6</t>
         </is>
       </c>
       <c r="AT117" t="inlineStr">
         <is>
-          <t>49</t>
+          <t>29</t>
         </is>
       </c>
       <c r="AU117" t="inlineStr">
         <is>
-          <t>5.4</t>
+          <t>7.6</t>
         </is>
       </c>
       <c r="AV117" t="inlineStr">
         <is>
-          <t>993.5</t>
+          <t>994.1</t>
         </is>
       </c>
       <c r="AW117" t="inlineStr">
@@ -26422,12 +26422,12 @@
       </c>
       <c r="AX117" t="inlineStr">
         <is>
-          <t>5.4</t>
+          <t>7.6</t>
         </is>
       </c>
       <c r="AY117" t="inlineStr">
         <is>
-          <t>993.5</t>
+          <t>994.1</t>
         </is>
       </c>
       <c r="AZ117" t="inlineStr">
@@ -26475,7 +26475,7 @@
       </c>
       <c r="H118" t="inlineStr">
         <is>
-          <t>2026-02-04 18:49:37</t>
+          <t>2026-02-04 19:20:14</t>
         </is>
       </c>
       <c r="I118" t="inlineStr">
@@ -26708,7 +26708,7 @@
       </c>
       <c r="H119" t="inlineStr">
         <is>
-          <t>2026-02-04 18:49:37</t>
+          <t>2026-02-04 19:20:14</t>
         </is>
       </c>
       <c r="I119" t="inlineStr">
@@ -26941,7 +26941,7 @@
       </c>
       <c r="H120" t="inlineStr">
         <is>
-          <t>2026-02-04 18:49:37</t>
+          <t>2026-02-04 19:20:14</t>
         </is>
       </c>
       <c r="I120" t="inlineStr">
@@ -27174,7 +27174,7 @@
       </c>
       <c r="H121" t="inlineStr">
         <is>
-          <t>2026-02-04 18:49:37</t>
+          <t>2026-02-04 19:20:14</t>
         </is>
       </c>
       <c r="I121" t="inlineStr">
@@ -27392,7 +27392,7 @@
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>18:00 - 18:30</t>
+          <t>18:30 - 19:00</t>
         </is>
       </c>
       <c r="F122" t="inlineStr">
@@ -27407,17 +27407,17 @@
       </c>
       <c r="H122" t="inlineStr">
         <is>
-          <t>2026-02-04 18:49:40</t>
+          <t>2026-02-04 19:20:17</t>
         </is>
       </c>
       <c r="I122" t="inlineStr">
         <is>
-          <t>18:00</t>
+          <t>18:30</t>
         </is>
       </c>
       <c r="J122" t="inlineStr">
         <is>
-          <t>https://www.meteo.cat/observacions/xema/dades?codi=DG&amp;dia=2026-02-04T18:00Z</t>
+          <t>https://www.meteo.cat/observacions/xema/dades?codi=DG&amp;dia=2026-02-04T18:30Z</t>
         </is>
       </c>
       <c r="K122" t="n">
@@ -27430,7 +27430,7 @@
       </c>
       <c r="M122" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>15</t>
         </is>
       </c>
       <c r="N122" t="inlineStr"/>
@@ -27442,12 +27442,12 @@
       </c>
       <c r="Q122" t="inlineStr">
         <is>
-          <t>56</t>
+          <t>59</t>
         </is>
       </c>
       <c r="R122" t="inlineStr">
         <is>
-          <t>826.8</t>
+          <t>827.1</t>
         </is>
       </c>
       <c r="S122" t="inlineStr">
@@ -27457,7 +27457,7 @@
       </c>
       <c r="T122" t="inlineStr">
         <is>
-          <t>18:00 - 18:30</t>
+          <t>18:30 - 19:00</t>
         </is>
       </c>
       <c r="U122" t="inlineStr">
@@ -27467,56 +27467,56 @@
       </c>
       <c r="V122" t="inlineStr">
         <is>
-          <t>0.3</t>
+          <t>-0.3</t>
         </is>
       </c>
       <c r="W122" t="inlineStr">
         <is>
-          <t>-0.1</t>
+          <t>-0.9</t>
         </is>
       </c>
       <c r="X122" t="inlineStr">
         <is>
-          <t>0.8</t>
+          <t>0.2</t>
         </is>
       </c>
       <c r="Y122" t="inlineStr">
         <is>
-          <t>10.1</t>
+          <t>10.4</t>
         </is>
       </c>
       <c r="Z122" t="inlineStr"/>
       <c r="AA122" t="inlineStr"/>
       <c r="AB122" t="inlineStr">
         <is>
-          <t>20.5</t>
+          <t>15.1</t>
         </is>
       </c>
       <c r="AC122" t="inlineStr"/>
       <c r="AD122" t="inlineStr"/>
       <c r="AE122" t="inlineStr">
         <is>
-          <t>18:00 - 18:30</t>
+          <t>18:30 - 19:00</t>
         </is>
       </c>
       <c r="AF122" t="inlineStr">
         <is>
-          <t>0.3</t>
+          <t>-0.3</t>
         </is>
       </c>
       <c r="AG122" t="inlineStr">
         <is>
-          <t>0.8</t>
+          <t>0.2</t>
         </is>
       </c>
       <c r="AH122" t="inlineStr">
         <is>
-          <t>-0.1</t>
+          <t>-0.9</t>
         </is>
       </c>
       <c r="AI122" t="inlineStr">
         <is>
-          <t>56</t>
+          <t>59</t>
         </is>
       </c>
       <c r="AJ122" t="inlineStr">
@@ -27531,32 +27531,32 @@
       </c>
       <c r="AL122" t="inlineStr">
         <is>
-          <t>10.1</t>
+          <t>10.4</t>
         </is>
       </c>
       <c r="AM122" t="inlineStr">
         <is>
-          <t>18:00 - 18:30</t>
+          <t>18:30 - 19:00</t>
         </is>
       </c>
       <c r="AN122" t="inlineStr">
         <is>
-          <t>0.3</t>
+          <t>-0.3</t>
         </is>
       </c>
       <c r="AO122" t="inlineStr">
         <is>
-          <t>0.8</t>
+          <t>0.2</t>
         </is>
       </c>
       <c r="AP122" t="inlineStr">
         <is>
-          <t>-0.1</t>
+          <t>-0.9</t>
         </is>
       </c>
       <c r="AQ122" t="inlineStr">
         <is>
-          <t>56</t>
+          <t>59</t>
         </is>
       </c>
       <c r="AR122" t="inlineStr">
@@ -27571,37 +27571,37 @@
       </c>
       <c r="AT122" t="inlineStr">
         <is>
-          <t>10.1</t>
+          <t>10.4</t>
         </is>
       </c>
       <c r="AU122" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>15</t>
         </is>
       </c>
       <c r="AV122" t="inlineStr">
         <is>
-          <t>20.5</t>
+          <t>15.1</t>
         </is>
       </c>
       <c r="AW122" t="inlineStr">
         <is>
-          <t>826.8</t>
+          <t>827.1</t>
         </is>
       </c>
       <c r="AX122" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>15</t>
         </is>
       </c>
       <c r="AY122" t="inlineStr">
         <is>
-          <t>20.5</t>
+          <t>15.1</t>
         </is>
       </c>
       <c r="AZ122" t="inlineStr">
         <is>
-          <t>826.8</t>
+          <t>827.1</t>
         </is>
       </c>
       <c r="BA122" t="inlineStr">
@@ -27648,7 +27648,7 @@
       </c>
       <c r="H123" t="inlineStr">
         <is>
-          <t>2026-02-04 18:49:41</t>
+          <t>2026-02-04 19:20:18</t>
         </is>
       </c>
       <c r="I123" t="inlineStr">
@@ -27889,7 +27889,7 @@
       </c>
       <c r="H124" t="inlineStr">
         <is>
-          <t>2026-02-04 18:49:41</t>
+          <t>2026-02-04 19:20:18</t>
         </is>
       </c>
       <c r="I124" t="inlineStr">
@@ -28130,7 +28130,7 @@
       </c>
       <c r="H125" t="inlineStr">
         <is>
-          <t>2026-02-04 18:49:41</t>
+          <t>2026-02-04 19:20:18</t>
         </is>
       </c>
       <c r="I125" t="inlineStr">
@@ -28371,7 +28371,7 @@
       </c>
       <c r="H126" t="inlineStr">
         <is>
-          <t>2026-02-04 18:49:41</t>
+          <t>2026-02-04 19:20:18</t>
         </is>
       </c>
       <c r="I126" t="inlineStr">
@@ -28597,7 +28597,7 @@
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>18:00 - 18:30</t>
+          <t>18:30 - 19:00</t>
         </is>
       </c>
       <c r="F127" t="inlineStr">
@@ -28612,17 +28612,17 @@
       </c>
       <c r="H127" t="inlineStr">
         <is>
-          <t>2026-02-04 18:49:44</t>
+          <t>2026-02-04 19:20:21</t>
         </is>
       </c>
       <c r="I127" t="inlineStr">
         <is>
-          <t>18:00</t>
+          <t>18:30</t>
         </is>
       </c>
       <c r="J127" t="inlineStr">
         <is>
-          <t>https://www.meteo.cat/observacions/xema/dades?codi=D4&amp;dia=2026-02-04T18:00Z</t>
+          <t>https://www.meteo.cat/observacions/xema/dades?codi=D4&amp;dia=2026-02-04T18:30Z</t>
         </is>
       </c>
       <c r="K127" t="n">
@@ -28648,7 +28648,7 @@
       </c>
       <c r="R127" t="inlineStr">
         <is>
-          <t>991.4</t>
+          <t>991.8</t>
         </is>
       </c>
       <c r="S127" t="inlineStr">
@@ -28658,7 +28658,7 @@
       </c>
       <c r="T127" t="inlineStr">
         <is>
-          <t>18:00 - 18:30</t>
+          <t>18:30 - 19:00</t>
         </is>
       </c>
       <c r="U127" t="inlineStr">
@@ -28668,136 +28668,136 @@
       </c>
       <c r="V127" t="inlineStr">
         <is>
-          <t>9.5</t>
+          <t>9.2</t>
         </is>
       </c>
       <c r="W127" t="inlineStr">
         <is>
-          <t>9.3</t>
+          <t>9.1</t>
         </is>
       </c>
       <c r="X127" t="inlineStr">
         <is>
-          <t>9.7</t>
+          <t>9.4</t>
         </is>
       </c>
       <c r="Y127" t="inlineStr">
         <is>
-          <t>5.8</t>
+          <t>6.1</t>
         </is>
       </c>
       <c r="Z127" t="inlineStr"/>
       <c r="AA127" t="inlineStr"/>
       <c r="AB127" t="inlineStr">
         <is>
-          <t>9.4</t>
+          <t>9.7</t>
         </is>
       </c>
       <c r="AC127" t="inlineStr"/>
       <c r="AD127" t="inlineStr"/>
       <c r="AE127" t="inlineStr">
         <is>
-          <t>18:00 - 18:30</t>
+          <t>18:30 - 19:00</t>
         </is>
       </c>
       <c r="AF127" t="inlineStr">
         <is>
-          <t>9.5</t>
+          <t>9.2</t>
         </is>
       </c>
       <c r="AG127" t="inlineStr">
         <is>
+          <t>9.4</t>
+        </is>
+      </c>
+      <c r="AH127" t="inlineStr">
+        <is>
+          <t>9.1</t>
+        </is>
+      </c>
+      <c r="AI127" t="inlineStr">
+        <is>
+          <t>79</t>
+        </is>
+      </c>
+      <c r="AJ127" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="AK127" t="inlineStr">
+        <is>
+          <t>6.1</t>
+        </is>
+      </c>
+      <c r="AL127" t="inlineStr">
+        <is>
+          <t>62</t>
+        </is>
+      </c>
+      <c r="AM127" t="inlineStr">
+        <is>
+          <t>18:30 - 19:00</t>
+        </is>
+      </c>
+      <c r="AN127" t="inlineStr">
+        <is>
+          <t>9.2</t>
+        </is>
+      </c>
+      <c r="AO127" t="inlineStr">
+        <is>
+          <t>9.4</t>
+        </is>
+      </c>
+      <c r="AP127" t="inlineStr">
+        <is>
+          <t>9.1</t>
+        </is>
+      </c>
+      <c r="AQ127" t="inlineStr">
+        <is>
+          <t>79</t>
+        </is>
+      </c>
+      <c r="AR127" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="AS127" t="inlineStr">
+        <is>
+          <t>6.1</t>
+        </is>
+      </c>
+      <c r="AT127" t="inlineStr">
+        <is>
+          <t>62</t>
+        </is>
+      </c>
+      <c r="AU127" t="inlineStr">
+        <is>
           <t>9.7</t>
         </is>
       </c>
-      <c r="AH127" t="inlineStr">
-        <is>
-          <t>9.3</t>
-        </is>
-      </c>
-      <c r="AI127" t="inlineStr">
-        <is>
-          <t>79</t>
-        </is>
-      </c>
-      <c r="AJ127" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="AK127" t="inlineStr">
-        <is>
-          <t>5.8</t>
-        </is>
-      </c>
-      <c r="AL127" t="inlineStr">
-        <is>
-          <t>62</t>
-        </is>
-      </c>
-      <c r="AM127" t="inlineStr">
-        <is>
-          <t>18:00 - 18:30</t>
-        </is>
-      </c>
-      <c r="AN127" t="inlineStr">
-        <is>
-          <t>9.5</t>
-        </is>
-      </c>
-      <c r="AO127" t="inlineStr">
+      <c r="AV127" t="inlineStr">
+        <is>
+          <t>991.8</t>
+        </is>
+      </c>
+      <c r="AW127" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AX127" t="inlineStr">
         <is>
           <t>9.7</t>
         </is>
       </c>
-      <c r="AP127" t="inlineStr">
-        <is>
-          <t>9.3</t>
-        </is>
-      </c>
-      <c r="AQ127" t="inlineStr">
-        <is>
-          <t>79</t>
-        </is>
-      </c>
-      <c r="AR127" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="AS127" t="inlineStr">
-        <is>
-          <t>5.8</t>
-        </is>
-      </c>
-      <c r="AT127" t="inlineStr">
-        <is>
-          <t>62</t>
-        </is>
-      </c>
-      <c r="AU127" t="inlineStr">
-        <is>
-          <t>9.4</t>
-        </is>
-      </c>
-      <c r="AV127" t="inlineStr">
-        <is>
-          <t>991.4</t>
-        </is>
-      </c>
-      <c r="AW127" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AX127" t="inlineStr">
-        <is>
-          <t>9.4</t>
-        </is>
-      </c>
       <c r="AY127" t="inlineStr">
         <is>
-          <t>991.4</t>
+          <t>991.8</t>
         </is>
       </c>
       <c r="AZ127" t="inlineStr">
@@ -28845,7 +28845,7 @@
       </c>
       <c r="H128" t="inlineStr">
         <is>
-          <t>2026-02-04 18:49:46</t>
+          <t>2026-02-04 19:20:23</t>
         </is>
       </c>
       <c r="I128" t="inlineStr">
@@ -29078,7 +29078,7 @@
       </c>
       <c r="H129" t="inlineStr">
         <is>
-          <t>2026-02-04 18:49:46</t>
+          <t>2026-02-04 19:20:23</t>
         </is>
       </c>
       <c r="I129" t="inlineStr">
@@ -29311,7 +29311,7 @@
       </c>
       <c r="H130" t="inlineStr">
         <is>
-          <t>2026-02-04 18:49:46</t>
+          <t>2026-02-04 19:20:23</t>
         </is>
       </c>
       <c r="I130" t="inlineStr">
@@ -29544,7 +29544,7 @@
       </c>
       <c r="H131" t="inlineStr">
         <is>
-          <t>2026-02-04 18:49:46</t>
+          <t>2026-02-04 19:20:23</t>
         </is>
       </c>
       <c r="I131" t="inlineStr">
@@ -29762,7 +29762,7 @@
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>18:00 - 18:30</t>
+          <t>18:30 - 19:00</t>
         </is>
       </c>
       <c r="F132" t="inlineStr">
@@ -29777,17 +29777,17 @@
       </c>
       <c r="H132" t="inlineStr">
         <is>
-          <t>2026-02-04 18:49:48</t>
+          <t>2026-02-04 19:20:26</t>
         </is>
       </c>
       <c r="I132" t="inlineStr">
         <is>
-          <t>18:00</t>
+          <t>18:30</t>
         </is>
       </c>
       <c r="J132" t="inlineStr">
         <is>
-          <t>https://www.meteo.cat/observacions/xema/dades?codi=CI&amp;dia=2026-02-04T18:00Z</t>
+          <t>https://www.meteo.cat/observacions/xema/dades?codi=CI&amp;dia=2026-02-04T18:30Z</t>
         </is>
       </c>
       <c r="K132" t="n">
@@ -29800,7 +29800,7 @@
       </c>
       <c r="M132" t="inlineStr">
         <is>
-          <t>248</t>
+          <t>225</t>
         </is>
       </c>
       <c r="N132" t="inlineStr"/>
@@ -29808,12 +29808,12 @@
       <c r="P132" t="inlineStr"/>
       <c r="Q132" t="inlineStr">
         <is>
-          <t>81</t>
+          <t>86</t>
         </is>
       </c>
       <c r="R132" t="inlineStr">
         <is>
-          <t>993.5</t>
+          <t>994.3</t>
         </is>
       </c>
       <c r="S132" t="inlineStr">
@@ -29823,62 +29823,62 @@
       </c>
       <c r="T132" t="inlineStr">
         <is>
-          <t>18:00 - 18:30</t>
+          <t>18:30 - 19:00</t>
         </is>
       </c>
       <c r="U132" t="inlineStr"/>
       <c r="V132" t="inlineStr">
         <is>
-          <t>5.3</t>
+          <t>4.1</t>
         </is>
       </c>
       <c r="W132" t="inlineStr">
         <is>
-          <t>5.2</t>
+          <t>3.1</t>
         </is>
       </c>
       <c r="X132" t="inlineStr">
         <is>
-          <t>5.4</t>
+          <t>5.1</t>
         </is>
       </c>
       <c r="Y132" t="inlineStr">
         <is>
-          <t>9.7</t>
+          <t>4.0</t>
         </is>
       </c>
       <c r="Z132" t="inlineStr"/>
       <c r="AA132" t="inlineStr"/>
       <c r="AB132" t="inlineStr">
         <is>
-          <t>23.4</t>
+          <t>10.1</t>
         </is>
       </c>
       <c r="AC132" t="inlineStr"/>
       <c r="AD132" t="inlineStr"/>
       <c r="AE132" t="inlineStr">
         <is>
-          <t>18:00 - 18:30</t>
+          <t>18:30 - 19:00</t>
         </is>
       </c>
       <c r="AF132" t="inlineStr">
         <is>
-          <t>5.3</t>
+          <t>4.1</t>
         </is>
       </c>
       <c r="AG132" t="inlineStr">
         <is>
-          <t>5.4</t>
+          <t>5.1</t>
         </is>
       </c>
       <c r="AH132" t="inlineStr">
         <is>
-          <t>5.2</t>
+          <t>3.1</t>
         </is>
       </c>
       <c r="AI132" t="inlineStr">
         <is>
-          <t>81</t>
+          <t>86</t>
         </is>
       </c>
       <c r="AJ132" t="inlineStr">
@@ -29888,37 +29888,37 @@
       </c>
       <c r="AK132" t="inlineStr">
         <is>
-          <t>9.7</t>
+          <t>4.0</t>
         </is>
       </c>
       <c r="AL132" t="inlineStr">
         <is>
-          <t>248</t>
+          <t>225</t>
         </is>
       </c>
       <c r="AM132" t="inlineStr">
         <is>
-          <t>18:00 - 18:30</t>
+          <t>18:30 - 19:00</t>
         </is>
       </c>
       <c r="AN132" t="inlineStr">
         <is>
-          <t>5.3</t>
+          <t>4.1</t>
         </is>
       </c>
       <c r="AO132" t="inlineStr">
         <is>
-          <t>5.4</t>
+          <t>5.1</t>
         </is>
       </c>
       <c r="AP132" t="inlineStr">
         <is>
-          <t>5.2</t>
+          <t>3.1</t>
         </is>
       </c>
       <c r="AQ132" t="inlineStr">
         <is>
-          <t>81</t>
+          <t>86</t>
         </is>
       </c>
       <c r="AR132" t="inlineStr">
@@ -29928,33 +29928,33 @@
       </c>
       <c r="AS132" t="inlineStr">
         <is>
-          <t>9.7</t>
+          <t>4.0</t>
         </is>
       </c>
       <c r="AT132" t="inlineStr">
         <is>
-          <t>248</t>
+          <t>225</t>
         </is>
       </c>
       <c r="AU132" t="inlineStr">
         <is>
-          <t>23.4</t>
+          <t>10.1</t>
         </is>
       </c>
       <c r="AV132" t="inlineStr">
         <is>
-          <t>993.5</t>
+          <t>994.3</t>
         </is>
       </c>
       <c r="AW132" t="inlineStr"/>
       <c r="AX132" t="inlineStr">
         <is>
-          <t>23.4</t>
+          <t>10.1</t>
         </is>
       </c>
       <c r="AY132" t="inlineStr">
         <is>
-          <t>993.5</t>
+          <t>994.3</t>
         </is>
       </c>
       <c r="AZ132" t="inlineStr"/>
@@ -29998,7 +29998,7 @@
       </c>
       <c r="H133" t="inlineStr">
         <is>
-          <t>2026-02-04 18:49:50</t>
+          <t>2026-02-04 19:20:28</t>
         </is>
       </c>
       <c r="I133" t="inlineStr">
@@ -30219,7 +30219,7 @@
       </c>
       <c r="H134" t="inlineStr">
         <is>
-          <t>2026-02-04 18:49:50</t>
+          <t>2026-02-04 19:20:28</t>
         </is>
       </c>
       <c r="I134" t="inlineStr">
@@ -30440,7 +30440,7 @@
       </c>
       <c r="H135" t="inlineStr">
         <is>
-          <t>2026-02-04 18:49:50</t>
+          <t>2026-02-04 19:20:28</t>
         </is>
       </c>
       <c r="I135" t="inlineStr">
@@ -30661,7 +30661,7 @@
       </c>
       <c r="H136" t="inlineStr">
         <is>
-          <t>2026-02-04 18:49:50</t>
+          <t>2026-02-04 19:20:28</t>
         </is>
       </c>
       <c r="I136" t="inlineStr">
@@ -30867,7 +30867,7 @@
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>18:00 - 18:30</t>
+          <t>18:30 - 19:00</t>
         </is>
       </c>
       <c r="F137" t="inlineStr">
@@ -30882,17 +30882,17 @@
       </c>
       <c r="H137" t="inlineStr">
         <is>
-          <t>2026-02-04 18:49:53</t>
+          <t>2026-02-04 19:20:31</t>
         </is>
       </c>
       <c r="I137" t="inlineStr">
         <is>
-          <t>18:00</t>
+          <t>18:30</t>
         </is>
       </c>
       <c r="J137" t="inlineStr">
         <is>
-          <t>https://www.meteo.cat/observacions/xema/dades?codi=XS&amp;dia=2026-02-04T18:00Z</t>
+          <t>https://www.meteo.cat/observacions/xema/dades?codi=XS&amp;dia=2026-02-04T18:30Z</t>
         </is>
       </c>
       <c r="K137" t="n">
@@ -30905,7 +30905,7 @@
       </c>
       <c r="M137" t="inlineStr">
         <is>
-          <t>326</t>
+          <t>297</t>
         </is>
       </c>
       <c r="N137" t="inlineStr"/>
@@ -30913,7 +30913,7 @@
       <c r="P137" t="inlineStr"/>
       <c r="Q137" t="inlineStr">
         <is>
-          <t>76</t>
+          <t>77</t>
         </is>
       </c>
       <c r="R137" t="inlineStr"/>
@@ -30924,7 +30924,7 @@
       </c>
       <c r="T137" t="inlineStr">
         <is>
-          <t>18:00 - 18:30</t>
+          <t>18:30 - 19:00</t>
         </is>
       </c>
       <c r="U137" t="inlineStr">
@@ -30934,116 +30934,116 @@
       </c>
       <c r="V137" t="inlineStr">
         <is>
+          <t>7.3</t>
+        </is>
+      </c>
+      <c r="W137" t="inlineStr">
+        <is>
+          <t>7.1</t>
+        </is>
+      </c>
+      <c r="X137" t="inlineStr">
+        <is>
           <t>7.6</t>
         </is>
       </c>
-      <c r="W137" t="inlineStr">
+      <c r="Y137" t="inlineStr">
         <is>
           <t>7.2</t>
-        </is>
-      </c>
-      <c r="X137" t="inlineStr">
-        <is>
-          <t>8.0</t>
-        </is>
-      </c>
-      <c r="Y137" t="inlineStr">
-        <is>
-          <t>2.5</t>
         </is>
       </c>
       <c r="Z137" t="inlineStr"/>
       <c r="AA137" t="inlineStr"/>
       <c r="AB137" t="inlineStr">
         <is>
-          <t>8.3</t>
+          <t>13.7</t>
         </is>
       </c>
       <c r="AC137" t="inlineStr"/>
       <c r="AD137" t="inlineStr"/>
       <c r="AE137" t="inlineStr">
         <is>
-          <t>18:00 - 18:30</t>
+          <t>18:30 - 19:00</t>
         </is>
       </c>
       <c r="AF137" t="inlineStr">
         <is>
+          <t>7.3</t>
+        </is>
+      </c>
+      <c r="AG137" t="inlineStr">
+        <is>
           <t>7.6</t>
         </is>
       </c>
-      <c r="AG137" t="inlineStr">
-        <is>
-          <t>8.0</t>
-        </is>
-      </c>
       <c r="AH137" t="inlineStr">
         <is>
+          <t>7.1</t>
+        </is>
+      </c>
+      <c r="AI137" t="inlineStr">
+        <is>
+          <t>77</t>
+        </is>
+      </c>
+      <c r="AJ137" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="AK137" t="inlineStr">
+        <is>
           <t>7.2</t>
         </is>
       </c>
-      <c r="AI137" t="inlineStr">
-        <is>
-          <t>76</t>
-        </is>
-      </c>
-      <c r="AJ137" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="AK137" t="inlineStr">
-        <is>
-          <t>2.5</t>
-        </is>
-      </c>
       <c r="AL137" t="inlineStr">
         <is>
-          <t>326</t>
+          <t>297</t>
         </is>
       </c>
       <c r="AM137" t="inlineStr">
         <is>
-          <t>18:00 - 18:30</t>
+          <t>18:30 - 19:00</t>
         </is>
       </c>
       <c r="AN137" t="inlineStr">
         <is>
+          <t>7.3</t>
+        </is>
+      </c>
+      <c r="AO137" t="inlineStr">
+        <is>
           <t>7.6</t>
         </is>
       </c>
-      <c r="AO137" t="inlineStr">
-        <is>
-          <t>8.0</t>
-        </is>
-      </c>
       <c r="AP137" t="inlineStr">
         <is>
+          <t>7.1</t>
+        </is>
+      </c>
+      <c r="AQ137" t="inlineStr">
+        <is>
+          <t>77</t>
+        </is>
+      </c>
+      <c r="AR137" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="AS137" t="inlineStr">
+        <is>
           <t>7.2</t>
         </is>
       </c>
-      <c r="AQ137" t="inlineStr">
-        <is>
-          <t>76</t>
-        </is>
-      </c>
-      <c r="AR137" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="AS137" t="inlineStr">
-        <is>
-          <t>2.5</t>
-        </is>
-      </c>
       <c r="AT137" t="inlineStr">
         <is>
-          <t>326</t>
+          <t>297</t>
         </is>
       </c>
       <c r="AU137" t="inlineStr">
         <is>
-          <t>8.3</t>
+          <t>13.7</t>
         </is>
       </c>
       <c r="AV137" t="inlineStr">
@@ -31054,7 +31054,7 @@
       <c r="AW137" t="inlineStr"/>
       <c r="AX137" t="inlineStr">
         <is>
-          <t>8.3</t>
+          <t>13.7</t>
         </is>
       </c>
       <c r="AY137" t="inlineStr">
@@ -31103,7 +31103,7 @@
       </c>
       <c r="H138" t="inlineStr">
         <is>
-          <t>2026-02-04 18:49:54</t>
+          <t>2026-02-04 19:20:32</t>
         </is>
       </c>
       <c r="I138" t="inlineStr">
@@ -31324,7 +31324,7 @@
       </c>
       <c r="H139" t="inlineStr">
         <is>
-          <t>2026-02-04 18:49:54</t>
+          <t>2026-02-04 19:20:32</t>
         </is>
       </c>
       <c r="I139" t="inlineStr">
@@ -31545,7 +31545,7 @@
       </c>
       <c r="H140" t="inlineStr">
         <is>
-          <t>2026-02-04 18:49:54</t>
+          <t>2026-02-04 19:20:32</t>
         </is>
       </c>
       <c r="I140" t="inlineStr">
@@ -31766,7 +31766,7 @@
       </c>
       <c r="H141" t="inlineStr">
         <is>
-          <t>2026-02-04 18:49:54</t>
+          <t>2026-02-04 19:20:32</t>
         </is>
       </c>
       <c r="I141" t="inlineStr">
@@ -31972,7 +31972,7 @@
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>18:00 - 18:30</t>
+          <t>18:30 - 19:00</t>
         </is>
       </c>
       <c r="F142" t="inlineStr">
@@ -31987,17 +31987,17 @@
       </c>
       <c r="H142" t="inlineStr">
         <is>
-          <t>2026-02-04 18:49:57</t>
+          <t>2026-02-04 19:20:35</t>
         </is>
       </c>
       <c r="I142" t="inlineStr">
         <is>
-          <t>18:00</t>
+          <t>18:30</t>
         </is>
       </c>
       <c r="J142" t="inlineStr">
         <is>
-          <t>https://www.meteo.cat/observacions/xema/dades?codi=ZC&amp;dia=2026-02-04T18:00Z</t>
+          <t>https://www.meteo.cat/observacions/xema/dades?codi=ZC&amp;dia=2026-02-04T18:30Z</t>
         </is>
       </c>
       <c r="K142" t="n">
@@ -32010,7 +32010,7 @@
       </c>
       <c r="M142" t="inlineStr">
         <is>
-          <t>280</t>
+          <t>273</t>
         </is>
       </c>
       <c r="N142" t="inlineStr"/>
@@ -32022,7 +32022,7 @@
       </c>
       <c r="Q142" t="inlineStr">
         <is>
-          <t>63</t>
+          <t>65</t>
         </is>
       </c>
       <c r="R142" t="inlineStr"/>
@@ -32033,7 +32033,7 @@
       </c>
       <c r="T142" t="inlineStr">
         <is>
-          <t>18:00 - 18:30</t>
+          <t>18:30 - 19:00</t>
         </is>
       </c>
       <c r="U142" t="inlineStr">
@@ -32043,56 +32043,56 @@
       </c>
       <c r="V142" t="inlineStr">
         <is>
-          <t>-2.8</t>
+          <t>-3.0</t>
         </is>
       </c>
       <c r="W142" t="inlineStr">
         <is>
-          <t>-3.2</t>
+          <t>-3.3</t>
         </is>
       </c>
       <c r="X142" t="inlineStr">
         <is>
-          <t>-2.4</t>
+          <t>-2.7</t>
         </is>
       </c>
       <c r="Y142" t="inlineStr">
         <is>
-          <t>10.1</t>
+          <t>6.5</t>
         </is>
       </c>
       <c r="Z142" t="inlineStr"/>
       <c r="AA142" t="inlineStr"/>
       <c r="AB142" t="inlineStr">
         <is>
-          <t>29.9</t>
+          <t>19.8</t>
         </is>
       </c>
       <c r="AC142" t="inlineStr"/>
       <c r="AD142" t="inlineStr"/>
       <c r="AE142" t="inlineStr">
         <is>
-          <t>18:00 - 18:30</t>
+          <t>18:30 - 19:00</t>
         </is>
       </c>
       <c r="AF142" t="inlineStr">
         <is>
-          <t>-2.8</t>
+          <t>-3.0</t>
         </is>
       </c>
       <c r="AG142" t="inlineStr">
         <is>
-          <t>-2.4</t>
+          <t>-2.7</t>
         </is>
       </c>
       <c r="AH142" t="inlineStr">
         <is>
-          <t>-3.2</t>
+          <t>-3.3</t>
         </is>
       </c>
       <c r="AI142" t="inlineStr">
         <is>
-          <t>63</t>
+          <t>65</t>
         </is>
       </c>
       <c r="AJ142" t="inlineStr">
@@ -32107,32 +32107,32 @@
       </c>
       <c r="AL142" t="inlineStr">
         <is>
-          <t>10.1</t>
+          <t>6.5</t>
         </is>
       </c>
       <c r="AM142" t="inlineStr">
         <is>
-          <t>18:00 - 18:30</t>
+          <t>18:30 - 19:00</t>
         </is>
       </c>
       <c r="AN142" t="inlineStr">
         <is>
-          <t>-2.8</t>
+          <t>-3.0</t>
         </is>
       </c>
       <c r="AO142" t="inlineStr">
         <is>
-          <t>-2.4</t>
+          <t>-2.7</t>
         </is>
       </c>
       <c r="AP142" t="inlineStr">
         <is>
-          <t>-3.2</t>
+          <t>-3.3</t>
         </is>
       </c>
       <c r="AQ142" t="inlineStr">
         <is>
-          <t>63</t>
+          <t>65</t>
         </is>
       </c>
       <c r="AR142" t="inlineStr">
@@ -32147,17 +32147,17 @@
       </c>
       <c r="AT142" t="inlineStr">
         <is>
-          <t>10.1</t>
+          <t>6.5</t>
         </is>
       </c>
       <c r="AU142" t="inlineStr">
         <is>
-          <t>280</t>
+          <t>273</t>
         </is>
       </c>
       <c r="AV142" t="inlineStr">
         <is>
-          <t>29.9</t>
+          <t>19.8</t>
         </is>
       </c>
       <c r="AW142" t="inlineStr">
@@ -32167,12 +32167,12 @@
       </c>
       <c r="AX142" t="inlineStr">
         <is>
-          <t>280</t>
+          <t>273</t>
         </is>
       </c>
       <c r="AY142" t="inlineStr">
         <is>
-          <t>29.9</t>
+          <t>19.8</t>
         </is>
       </c>
       <c r="AZ142" t="inlineStr">
@@ -32220,7 +32220,7 @@
       </c>
       <c r="H143" t="inlineStr">
         <is>
-          <t>2026-02-04 18:49:59</t>
+          <t>2026-02-04 19:20:36</t>
         </is>
       </c>
       <c r="I143" t="inlineStr">
@@ -32453,7 +32453,7 @@
       </c>
       <c r="H144" t="inlineStr">
         <is>
-          <t>2026-02-04 18:49:59</t>
+          <t>2026-02-04 19:20:36</t>
         </is>
       </c>
       <c r="I144" t="inlineStr">
@@ -32686,7 +32686,7 @@
       </c>
       <c r="H145" t="inlineStr">
         <is>
-          <t>2026-02-04 18:49:59</t>
+          <t>2026-02-04 19:20:36</t>
         </is>
       </c>
       <c r="I145" t="inlineStr">
@@ -32919,7 +32919,7 @@
       </c>
       <c r="H146" t="inlineStr">
         <is>
-          <t>2026-02-04 18:49:59</t>
+          <t>2026-02-04 19:20:36</t>
         </is>
       </c>
       <c r="I146" t="inlineStr">
@@ -33137,7 +33137,7 @@
       </c>
       <c r="E147" t="inlineStr">
         <is>
-          <t>18:00 - 18:30</t>
+          <t>18:30 - 19:00</t>
         </is>
       </c>
       <c r="F147" t="inlineStr">
@@ -33152,17 +33152,17 @@
       </c>
       <c r="H147" t="inlineStr">
         <is>
-          <t>2026-02-04 18:50:01</t>
+          <t>2026-02-04 19:20:39</t>
         </is>
       </c>
       <c r="I147" t="inlineStr">
         <is>
-          <t>18:00</t>
+          <t>18:30</t>
         </is>
       </c>
       <c r="J147" t="inlineStr">
         <is>
-          <t>https://www.meteo.cat/observacions/xema/dades?codi=XH&amp;dia=2026-02-04T18:00Z</t>
+          <t>https://www.meteo.cat/observacions/xema/dades?codi=XH&amp;dia=2026-02-04T18:30Z</t>
         </is>
       </c>
       <c r="K147" t="n">
@@ -33183,12 +33183,12 @@
       </c>
       <c r="Q147" t="inlineStr">
         <is>
-          <t>86</t>
+          <t>88</t>
         </is>
       </c>
       <c r="R147" t="inlineStr">
         <is>
-          <t>994.2</t>
+          <t>995.0</t>
         </is>
       </c>
       <c r="S147" t="inlineStr">
@@ -33198,23 +33198,23 @@
       </c>
       <c r="T147" t="inlineStr">
         <is>
-          <t>18:00 - 18:30</t>
+          <t>18:30 - 19:00</t>
         </is>
       </c>
       <c r="U147" t="inlineStr"/>
       <c r="V147" t="inlineStr">
         <is>
-          <t>5.5</t>
+          <t>4.6</t>
         </is>
       </c>
       <c r="W147" t="inlineStr">
         <is>
+          <t>4.5</t>
+        </is>
+      </c>
+      <c r="X147" t="inlineStr">
+        <is>
           <t>4.9</t>
-        </is>
-      </c>
-      <c r="X147" t="inlineStr">
-        <is>
-          <t>5.9</t>
         </is>
       </c>
       <c r="Y147" t="inlineStr"/>
@@ -33225,82 +33225,82 @@
       <c r="AD147" t="inlineStr"/>
       <c r="AE147" t="inlineStr">
         <is>
-          <t>18:00 - 18:30</t>
+          <t>18:30 - 19:00</t>
         </is>
       </c>
       <c r="AF147" t="inlineStr">
         <is>
-          <t>5.5</t>
+          <t>4.6</t>
         </is>
       </c>
       <c r="AG147" t="inlineStr">
         <is>
-          <t>5.9</t>
+          <t>4.9</t>
         </is>
       </c>
       <c r="AH147" t="inlineStr">
         <is>
+          <t>4.5</t>
+        </is>
+      </c>
+      <c r="AI147" t="inlineStr">
+        <is>
+          <t>88</t>
+        </is>
+      </c>
+      <c r="AJ147" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="AK147" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AL147" t="inlineStr">
+        <is>
+          <t>995.0</t>
+        </is>
+      </c>
+      <c r="AM147" t="inlineStr">
+        <is>
+          <t>18:30 - 19:00</t>
+        </is>
+      </c>
+      <c r="AN147" t="inlineStr">
+        <is>
+          <t>4.6</t>
+        </is>
+      </c>
+      <c r="AO147" t="inlineStr">
+        <is>
           <t>4.9</t>
         </is>
       </c>
-      <c r="AI147" t="inlineStr">
-        <is>
-          <t>86</t>
-        </is>
-      </c>
-      <c r="AJ147" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="AK147" t="inlineStr">
+      <c r="AP147" t="inlineStr">
+        <is>
+          <t>4.5</t>
+        </is>
+      </c>
+      <c r="AQ147" t="inlineStr">
+        <is>
+          <t>88</t>
+        </is>
+      </c>
+      <c r="AR147" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="AS147" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="AL147" t="inlineStr">
-        <is>
-          <t>994.2</t>
-        </is>
-      </c>
-      <c r="AM147" t="inlineStr">
-        <is>
-          <t>18:00 - 18:30</t>
-        </is>
-      </c>
-      <c r="AN147" t="inlineStr">
-        <is>
-          <t>5.5</t>
-        </is>
-      </c>
-      <c r="AO147" t="inlineStr">
-        <is>
-          <t>5.9</t>
-        </is>
-      </c>
-      <c r="AP147" t="inlineStr">
-        <is>
-          <t>4.9</t>
-        </is>
-      </c>
-      <c r="AQ147" t="inlineStr">
-        <is>
-          <t>86</t>
-        </is>
-      </c>
-      <c r="AR147" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="AS147" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
       <c r="AT147" t="inlineStr">
         <is>
-          <t>994.2</t>
+          <t>995.0</t>
         </is>
       </c>
       <c r="AU147" t="inlineStr"/>
@@ -33349,7 +33349,7 @@
       </c>
       <c r="H148" t="inlineStr">
         <is>
-          <t>2026-02-04 18:50:03</t>
+          <t>2026-02-04 19:20:41</t>
         </is>
       </c>
       <c r="I148" t="inlineStr">
@@ -33546,7 +33546,7 @@
       </c>
       <c r="H149" t="inlineStr">
         <is>
-          <t>2026-02-04 18:50:03</t>
+          <t>2026-02-04 19:20:41</t>
         </is>
       </c>
       <c r="I149" t="inlineStr">
@@ -33743,7 +33743,7 @@
       </c>
       <c r="H150" t="inlineStr">
         <is>
-          <t>2026-02-04 18:50:03</t>
+          <t>2026-02-04 19:20:41</t>
         </is>
       </c>
       <c r="I150" t="inlineStr">
@@ -33940,7 +33940,7 @@
       </c>
       <c r="H151" t="inlineStr">
         <is>
-          <t>2026-02-04 18:50:03</t>
+          <t>2026-02-04 19:20:41</t>
         </is>
       </c>
       <c r="I151" t="inlineStr">
@@ -34122,7 +34122,7 @@
       </c>
       <c r="E152" t="inlineStr">
         <is>
-          <t>18:00 - 18:30</t>
+          <t>18:30 - 19:00</t>
         </is>
       </c>
       <c r="F152" t="inlineStr">
@@ -34137,17 +34137,17 @@
       </c>
       <c r="H152" t="inlineStr">
         <is>
-          <t>2026-02-04 18:50:05</t>
+          <t>2026-02-04 19:20:44</t>
         </is>
       </c>
       <c r="I152" t="inlineStr">
         <is>
-          <t>18:00</t>
+          <t>18:30</t>
         </is>
       </c>
       <c r="J152" t="inlineStr">
         <is>
-          <t>https://www.meteo.cat/observacions/xema/dades?codi=XE&amp;dia=2026-02-04T18:00Z</t>
+          <t>https://www.meteo.cat/observacions/xema/dades?codi=XE&amp;dia=2026-02-04T18:30Z</t>
         </is>
       </c>
       <c r="K152" t="n">
@@ -34160,7 +34160,7 @@
       </c>
       <c r="M152" t="inlineStr">
         <is>
-          <t>226</t>
+          <t>195</t>
         </is>
       </c>
       <c r="N152" t="inlineStr"/>
@@ -34168,7 +34168,7 @@
       <c r="P152" t="inlineStr"/>
       <c r="Q152" t="inlineStr">
         <is>
-          <t>75</t>
+          <t>74</t>
         </is>
       </c>
       <c r="R152" t="inlineStr">
@@ -34183,7 +34183,7 @@
       </c>
       <c r="T152" t="inlineStr">
         <is>
-          <t>18:00 - 18:30</t>
+          <t>18:30 - 19:00</t>
         </is>
       </c>
       <c r="U152" t="inlineStr">
@@ -34193,56 +34193,56 @@
       </c>
       <c r="V152" t="inlineStr">
         <is>
-          <t>11.6</t>
+          <t>11.4</t>
         </is>
       </c>
       <c r="W152" t="inlineStr">
         <is>
-          <t>11.2</t>
+          <t>10.5</t>
         </is>
       </c>
       <c r="X152" t="inlineStr">
         <is>
-          <t>12.2</t>
+          <t>11.8</t>
         </is>
       </c>
       <c r="Y152" t="inlineStr">
         <is>
-          <t>3.6</t>
+          <t>1.4</t>
         </is>
       </c>
       <c r="Z152" t="inlineStr"/>
       <c r="AA152" t="inlineStr"/>
       <c r="AB152" t="inlineStr">
         <is>
-          <t>7.2</t>
+          <t>5.8</t>
         </is>
       </c>
       <c r="AC152" t="inlineStr"/>
       <c r="AD152" t="inlineStr"/>
       <c r="AE152" t="inlineStr">
         <is>
-          <t>18:00 - 18:30</t>
+          <t>18:30 - 19:00</t>
         </is>
       </c>
       <c r="AF152" t="inlineStr">
         <is>
-          <t>11.6</t>
+          <t>11.4</t>
         </is>
       </c>
       <c r="AG152" t="inlineStr">
         <is>
-          <t>12.2</t>
+          <t>11.8</t>
         </is>
       </c>
       <c r="AH152" t="inlineStr">
         <is>
-          <t>11.2</t>
+          <t>10.5</t>
         </is>
       </c>
       <c r="AI152" t="inlineStr">
         <is>
-          <t>75</t>
+          <t>74</t>
         </is>
       </c>
       <c r="AJ152" t="inlineStr">
@@ -34252,37 +34252,37 @@
       </c>
       <c r="AK152" t="inlineStr">
         <is>
-          <t>3.6</t>
+          <t>1.4</t>
         </is>
       </c>
       <c r="AL152" t="inlineStr">
         <is>
-          <t>226</t>
+          <t>195</t>
         </is>
       </c>
       <c r="AM152" t="inlineStr">
         <is>
-          <t>18:00 - 18:30</t>
+          <t>18:30 - 19:00</t>
         </is>
       </c>
       <c r="AN152" t="inlineStr">
         <is>
-          <t>11.6</t>
+          <t>11.4</t>
         </is>
       </c>
       <c r="AO152" t="inlineStr">
         <is>
-          <t>12.2</t>
+          <t>11.8</t>
         </is>
       </c>
       <c r="AP152" t="inlineStr">
         <is>
-          <t>11.2</t>
+          <t>10.5</t>
         </is>
       </c>
       <c r="AQ152" t="inlineStr">
         <is>
-          <t>75</t>
+          <t>74</t>
         </is>
       </c>
       <c r="AR152" t="inlineStr">
@@ -34292,17 +34292,17 @@
       </c>
       <c r="AS152" t="inlineStr">
         <is>
-          <t>3.6</t>
+          <t>1.4</t>
         </is>
       </c>
       <c r="AT152" t="inlineStr">
         <is>
-          <t>226</t>
+          <t>195</t>
         </is>
       </c>
       <c r="AU152" t="inlineStr">
         <is>
-          <t>7.2</t>
+          <t>5.8</t>
         </is>
       </c>
       <c r="AV152" t="inlineStr">
@@ -34317,7 +34317,7 @@
       </c>
       <c r="AX152" t="inlineStr">
         <is>
-          <t>7.2</t>
+          <t>5.8</t>
         </is>
       </c>
       <c r="AY152" t="inlineStr">
@@ -34370,7 +34370,7 @@
       </c>
       <c r="H153" t="inlineStr">
         <is>
-          <t>2026-02-04 18:50:07</t>
+          <t>2026-02-04 19:20:45</t>
         </is>
       </c>
       <c r="I153" t="inlineStr">
@@ -34603,7 +34603,7 @@
       </c>
       <c r="H154" t="inlineStr">
         <is>
-          <t>2026-02-04 18:50:07</t>
+          <t>2026-02-04 19:20:45</t>
         </is>
       </c>
       <c r="I154" t="inlineStr">
@@ -34836,7 +34836,7 @@
       </c>
       <c r="H155" t="inlineStr">
         <is>
-          <t>2026-02-04 18:50:07</t>
+          <t>2026-02-04 19:20:45</t>
         </is>
       </c>
       <c r="I155" t="inlineStr">
@@ -35069,7 +35069,7 @@
       </c>
       <c r="H156" t="inlineStr">
         <is>
-          <t>2026-02-04 18:50:07</t>
+          <t>2026-02-04 19:20:45</t>
         </is>
       </c>
       <c r="I156" t="inlineStr">
@@ -35287,7 +35287,7 @@
       </c>
       <c r="E157" t="inlineStr">
         <is>
-          <t>18:00 - 18:30</t>
+          <t>18:30 - 19:00</t>
         </is>
       </c>
       <c r="F157" t="inlineStr">
@@ -35302,17 +35302,17 @@
       </c>
       <c r="H157" t="inlineStr">
         <is>
-          <t>2026-02-04 18:50:09</t>
+          <t>2026-02-04 19:20:48</t>
         </is>
       </c>
       <c r="I157" t="inlineStr">
         <is>
-          <t>18:00</t>
+          <t>18:30</t>
         </is>
       </c>
       <c r="J157" t="inlineStr">
         <is>
-          <t>https://www.meteo.cat/observacions/xema/dades?codi=UE&amp;dia=2026-02-04T18:00Z</t>
+          <t>https://www.meteo.cat/observacions/xema/dades?codi=UE&amp;dia=2026-02-04T18:30Z</t>
         </is>
       </c>
       <c r="K157" t="n">
@@ -35329,7 +35329,7 @@
       <c r="P157" t="inlineStr"/>
       <c r="Q157" t="inlineStr">
         <is>
-          <t>92</t>
+          <t>94</t>
         </is>
       </c>
       <c r="R157" t="inlineStr"/>
@@ -35340,23 +35340,23 @@
       </c>
       <c r="T157" t="inlineStr">
         <is>
-          <t>18:00 - 18:30</t>
+          <t>18:30 - 19:00</t>
         </is>
       </c>
       <c r="U157" t="inlineStr"/>
       <c r="V157" t="inlineStr">
         <is>
+          <t>8.1</t>
+        </is>
+      </c>
+      <c r="W157" t="inlineStr">
+        <is>
+          <t>7.7</t>
+        </is>
+      </c>
+      <c r="X157" t="inlineStr">
+        <is>
           <t>8.8</t>
-        </is>
-      </c>
-      <c r="W157" t="inlineStr">
-        <is>
-          <t>8.5</t>
-        </is>
-      </c>
-      <c r="X157" t="inlineStr">
-        <is>
-          <t>9.5</t>
         </is>
       </c>
       <c r="Y157" t="inlineStr"/>
@@ -35367,27 +35367,27 @@
       <c r="AD157" t="inlineStr"/>
       <c r="AE157" t="inlineStr">
         <is>
-          <t>18:00 - 18:30</t>
+          <t>18:30 - 19:00</t>
         </is>
       </c>
       <c r="AF157" t="inlineStr">
         <is>
+          <t>8.1</t>
+        </is>
+      </c>
+      <c r="AG157" t="inlineStr">
+        <is>
           <t>8.8</t>
         </is>
       </c>
-      <c r="AG157" t="inlineStr">
-        <is>
-          <t>9.5</t>
-        </is>
-      </c>
       <c r="AH157" t="inlineStr">
         <is>
-          <t>8.5</t>
+          <t>7.7</t>
         </is>
       </c>
       <c r="AI157" t="inlineStr">
         <is>
-          <t>92</t>
+          <t>94</t>
         </is>
       </c>
       <c r="AJ157" t="inlineStr">
@@ -35399,27 +35399,27 @@
       <c r="AL157" t="inlineStr"/>
       <c r="AM157" t="inlineStr">
         <is>
-          <t>18:00 - 18:30</t>
+          <t>18:30 - 19:00</t>
         </is>
       </c>
       <c r="AN157" t="inlineStr">
         <is>
+          <t>8.1</t>
+        </is>
+      </c>
+      <c r="AO157" t="inlineStr">
+        <is>
           <t>8.8</t>
         </is>
       </c>
-      <c r="AO157" t="inlineStr">
-        <is>
-          <t>9.5</t>
-        </is>
-      </c>
       <c r="AP157" t="inlineStr">
         <is>
-          <t>8.5</t>
+          <t>7.7</t>
         </is>
       </c>
       <c r="AQ157" t="inlineStr">
         <is>
-          <t>92</t>
+          <t>94</t>
         </is>
       </c>
       <c r="AR157" t="inlineStr">
@@ -35475,7 +35475,7 @@
       </c>
       <c r="H158" t="inlineStr">
         <is>
-          <t>2026-02-04 18:50:11</t>
+          <t>2026-02-04 19:20:49</t>
         </is>
       </c>
       <c r="I158" t="inlineStr">
@@ -35648,7 +35648,7 @@
       </c>
       <c r="H159" t="inlineStr">
         <is>
-          <t>2026-02-04 18:50:11</t>
+          <t>2026-02-04 19:20:49</t>
         </is>
       </c>
       <c r="I159" t="inlineStr">
@@ -35821,7 +35821,7 @@
       </c>
       <c r="H160" t="inlineStr">
         <is>
-          <t>2026-02-04 18:50:11</t>
+          <t>2026-02-04 19:20:49</t>
         </is>
       </c>
       <c r="I160" t="inlineStr">
@@ -35994,7 +35994,7 @@
       </c>
       <c r="H161" t="inlineStr">
         <is>
-          <t>2026-02-04 18:50:11</t>
+          <t>2026-02-04 19:20:49</t>
         </is>
       </c>
       <c r="I161" t="inlineStr">
@@ -36152,7 +36152,7 @@
       </c>
       <c r="E162" t="inlineStr">
         <is>
-          <t>18:00 - 18:30</t>
+          <t>18:30 - 19:00</t>
         </is>
       </c>
       <c r="F162" t="inlineStr">
@@ -36167,17 +36167,17 @@
       </c>
       <c r="H162" t="inlineStr">
         <is>
-          <t>2026-02-04 18:50:14</t>
+          <t>2026-02-04 19:20:52</t>
         </is>
       </c>
       <c r="I162" t="inlineStr">
         <is>
-          <t>18:00</t>
+          <t>18:30</t>
         </is>
       </c>
       <c r="J162" t="inlineStr">
         <is>
-          <t>https://www.meteo.cat/observacions/xema/dades?codi=XO&amp;dia=2026-02-04T18:00Z</t>
+          <t>https://www.meteo.cat/observacions/xema/dades?codi=XO&amp;dia=2026-02-04T18:30Z</t>
         </is>
       </c>
       <c r="K162" t="n">
@@ -36190,7 +36190,7 @@
       </c>
       <c r="M162" t="inlineStr">
         <is>
-          <t>230</t>
+          <t>216</t>
         </is>
       </c>
       <c r="N162" t="inlineStr"/>
@@ -36198,7 +36198,7 @@
       <c r="P162" t="inlineStr"/>
       <c r="Q162" t="inlineStr">
         <is>
-          <t>79</t>
+          <t>83</t>
         </is>
       </c>
       <c r="R162" t="inlineStr"/>
@@ -36209,7 +36209,7 @@
       </c>
       <c r="T162" t="inlineStr">
         <is>
-          <t>18:00 - 18:30</t>
+          <t>18:30 - 19:00</t>
         </is>
       </c>
       <c r="U162" t="inlineStr">
@@ -36219,96 +36219,96 @@
       </c>
       <c r="V162" t="inlineStr">
         <is>
-          <t>6.2</t>
+          <t>5.7</t>
         </is>
       </c>
       <c r="W162" t="inlineStr">
         <is>
+          <t>5.5</t>
+        </is>
+      </c>
+      <c r="X162" t="inlineStr">
+        <is>
           <t>5.9</t>
         </is>
       </c>
-      <c r="X162" t="inlineStr">
-        <is>
-          <t>6.4</t>
-        </is>
-      </c>
       <c r="Y162" t="inlineStr">
         <is>
-          <t>3.2</t>
+          <t>2.5</t>
         </is>
       </c>
       <c r="Z162" t="inlineStr"/>
       <c r="AA162" t="inlineStr"/>
       <c r="AB162" t="inlineStr">
         <is>
-          <t>6.8</t>
+          <t>6.5</t>
         </is>
       </c>
       <c r="AC162" t="inlineStr"/>
       <c r="AD162" t="inlineStr"/>
       <c r="AE162" t="inlineStr">
         <is>
-          <t>18:00 - 18:30</t>
+          <t>18:30 - 19:00</t>
         </is>
       </c>
       <c r="AF162" t="inlineStr">
         <is>
-          <t>6.2</t>
+          <t>5.7</t>
         </is>
       </c>
       <c r="AG162" t="inlineStr">
         <is>
-          <t>6.4</t>
+          <t>5.9</t>
         </is>
       </c>
       <c r="AH162" t="inlineStr">
         <is>
+          <t>5.5</t>
+        </is>
+      </c>
+      <c r="AI162" t="inlineStr">
+        <is>
+          <t>83</t>
+        </is>
+      </c>
+      <c r="AJ162" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="AK162" t="inlineStr">
+        <is>
+          <t>2.5</t>
+        </is>
+      </c>
+      <c r="AL162" t="inlineStr">
+        <is>
+          <t>216</t>
+        </is>
+      </c>
+      <c r="AM162" t="inlineStr">
+        <is>
+          <t>18:30 - 19:00</t>
+        </is>
+      </c>
+      <c r="AN162" t="inlineStr">
+        <is>
+          <t>5.7</t>
+        </is>
+      </c>
+      <c r="AO162" t="inlineStr">
+        <is>
           <t>5.9</t>
         </is>
       </c>
-      <c r="AI162" t="inlineStr">
-        <is>
-          <t>79</t>
-        </is>
-      </c>
-      <c r="AJ162" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="AK162" t="inlineStr">
-        <is>
-          <t>3.2</t>
-        </is>
-      </c>
-      <c r="AL162" t="inlineStr">
-        <is>
-          <t>230</t>
-        </is>
-      </c>
-      <c r="AM162" t="inlineStr">
-        <is>
-          <t>18:00 - 18:30</t>
-        </is>
-      </c>
-      <c r="AN162" t="inlineStr">
-        <is>
-          <t>6.2</t>
-        </is>
-      </c>
-      <c r="AO162" t="inlineStr">
-        <is>
-          <t>6.4</t>
-        </is>
-      </c>
       <c r="AP162" t="inlineStr">
         <is>
-          <t>5.9</t>
+          <t>5.5</t>
         </is>
       </c>
       <c r="AQ162" t="inlineStr">
         <is>
-          <t>79</t>
+          <t>83</t>
         </is>
       </c>
       <c r="AR162" t="inlineStr">
@@ -36318,17 +36318,17 @@
       </c>
       <c r="AS162" t="inlineStr">
         <is>
-          <t>3.2</t>
+          <t>2.5</t>
         </is>
       </c>
       <c r="AT162" t="inlineStr">
         <is>
-          <t>230</t>
+          <t>216</t>
         </is>
       </c>
       <c r="AU162" t="inlineStr">
         <is>
-          <t>6.8</t>
+          <t>6.5</t>
         </is>
       </c>
       <c r="AV162" t="inlineStr">
@@ -36339,7 +36339,7 @@
       <c r="AW162" t="inlineStr"/>
       <c r="AX162" t="inlineStr">
         <is>
-          <t>6.8</t>
+          <t>6.5</t>
         </is>
       </c>
       <c r="AY162" t="inlineStr">
@@ -36388,7 +36388,7 @@
       </c>
       <c r="H163" t="inlineStr">
         <is>
-          <t>2026-02-04 18:50:15</t>
+          <t>2026-02-04 19:20:54</t>
         </is>
       </c>
       <c r="I163" t="inlineStr">
@@ -36609,7 +36609,7 @@
       </c>
       <c r="H164" t="inlineStr">
         <is>
-          <t>2026-02-04 18:50:15</t>
+          <t>2026-02-04 19:20:54</t>
         </is>
       </c>
       <c r="I164" t="inlineStr">
@@ -36830,7 +36830,7 @@
       </c>
       <c r="H165" t="inlineStr">
         <is>
-          <t>2026-02-04 18:50:15</t>
+          <t>2026-02-04 19:20:54</t>
         </is>
       </c>
       <c r="I165" t="inlineStr">
@@ -37051,7 +37051,7 @@
       </c>
       <c r="H166" t="inlineStr">
         <is>
-          <t>2026-02-04 18:50:15</t>
+          <t>2026-02-04 19:20:54</t>
         </is>
       </c>
       <c r="I166" t="inlineStr">
@@ -37257,7 +37257,7 @@
       </c>
       <c r="E167" t="inlineStr">
         <is>
-          <t>18:00 - 18:30</t>
+          <t>18:30 - 19:00</t>
         </is>
       </c>
       <c r="F167" t="inlineStr">
@@ -37272,17 +37272,17 @@
       </c>
       <c r="H167" t="inlineStr">
         <is>
-          <t>2026-02-04 18:50:18</t>
+          <t>2026-02-04 19:20:56</t>
         </is>
       </c>
       <c r="I167" t="inlineStr">
         <is>
-          <t>18:00</t>
+          <t>18:30</t>
         </is>
       </c>
       <c r="J167" t="inlineStr">
         <is>
-          <t>https://www.meteo.cat/observacions/xema/dades?codi=VS&amp;dia=2026-02-04T18:00Z</t>
+          <t>https://www.meteo.cat/observacions/xema/dades?codi=VS&amp;dia=2026-02-04T18:30Z</t>
         </is>
       </c>
       <c r="K167" t="n">
@@ -37312,7 +37312,7 @@
       </c>
       <c r="R167" t="inlineStr">
         <is>
-          <t>828.4</t>
+          <t>829.0</t>
         </is>
       </c>
       <c r="S167" t="inlineStr">
@@ -37322,7 +37322,7 @@
       </c>
       <c r="T167" t="inlineStr">
         <is>
-          <t>18:00 - 18:30</t>
+          <t>18:30 - 19:00</t>
         </is>
       </c>
       <c r="U167" t="inlineStr">
@@ -37332,7 +37332,7 @@
       </c>
       <c r="V167" t="inlineStr">
         <is>
-          <t>-5.2</t>
+          <t>-5.3</t>
         </is>
       </c>
       <c r="W167" t="inlineStr">
@@ -37342,7 +37342,7 @@
       </c>
       <c r="X167" t="inlineStr">
         <is>
-          <t>-5.1</t>
+          <t>-5.3</t>
         </is>
       </c>
       <c r="Y167" t="inlineStr">
@@ -37361,17 +37361,17 @@
       <c r="AD167" t="inlineStr"/>
       <c r="AE167" t="inlineStr">
         <is>
-          <t>18:00 - 18:30</t>
+          <t>18:30 - 19:00</t>
         </is>
       </c>
       <c r="AF167" t="inlineStr">
         <is>
-          <t>-5.2</t>
+          <t>-5.3</t>
         </is>
       </c>
       <c r="AG167" t="inlineStr">
         <is>
-          <t>-5.1</t>
+          <t>-5.3</t>
         </is>
       </c>
       <c r="AH167" t="inlineStr">
@@ -37401,17 +37401,17 @@
       </c>
       <c r="AM167" t="inlineStr">
         <is>
-          <t>18:00 - 18:30</t>
+          <t>18:30 - 19:00</t>
         </is>
       </c>
       <c r="AN167" t="inlineStr">
         <is>
-          <t>-5.2</t>
+          <t>-5.3</t>
         </is>
       </c>
       <c r="AO167" t="inlineStr">
         <is>
-          <t>-5.1</t>
+          <t>-5.3</t>
         </is>
       </c>
       <c r="AP167" t="inlineStr">
@@ -37451,7 +37451,7 @@
       </c>
       <c r="AW167" t="inlineStr">
         <is>
-          <t>828.4</t>
+          <t>829.0</t>
         </is>
       </c>
       <c r="AX167" t="inlineStr">
@@ -37466,7 +37466,7 @@
       </c>
       <c r="AZ167" t="inlineStr">
         <is>
-          <t>828.4</t>
+          <t>829.0</t>
         </is>
       </c>
       <c r="BA167" t="inlineStr">
@@ -37513,7 +37513,7 @@
       </c>
       <c r="H168" t="inlineStr">
         <is>
-          <t>2026-02-04 18:50:19</t>
+          <t>2026-02-04 19:20:58</t>
         </is>
       </c>
       <c r="I168" t="inlineStr">
@@ -37722,7 +37722,7 @@
       </c>
       <c r="H169" t="inlineStr">
         <is>
-          <t>2026-02-04 18:50:19</t>
+          <t>2026-02-04 19:20:58</t>
         </is>
       </c>
       <c r="I169" t="inlineStr">
@@ -37931,7 +37931,7 @@
       </c>
       <c r="H170" t="inlineStr">
         <is>
-          <t>2026-02-04 18:50:19</t>
+          <t>2026-02-04 19:20:58</t>
         </is>
       </c>
       <c r="I170" t="inlineStr">
@@ -38140,7 +38140,7 @@
       </c>
       <c r="H171" t="inlineStr">
         <is>
-          <t>2026-02-04 18:50:19</t>
+          <t>2026-02-04 19:20:58</t>
         </is>
       </c>
       <c r="I171" t="inlineStr">
@@ -38349,17 +38349,17 @@
       </c>
       <c r="H172" t="inlineStr">
         <is>
-          <t>2026-02-04 18:50:22</t>
+          <t>2026-02-04 19:21:01</t>
         </is>
       </c>
       <c r="I172" t="inlineStr">
         <is>
-          <t>18:00</t>
+          <t>18:30</t>
         </is>
       </c>
       <c r="J172" t="inlineStr">
         <is>
-          <t>https://www.meteo.cat/observacions/xema/dades?codi=D7&amp;dia=2026-02-04T18:00Z</t>
+          <t>https://www.meteo.cat/observacions/xema/dades?codi=D7&amp;dia=2026-02-04T18:30Z</t>
         </is>
       </c>
       <c r="K172" t="n">
@@ -38582,7 +38582,7 @@
       </c>
       <c r="H173" t="inlineStr">
         <is>
-          <t>2026-02-04 18:50:23</t>
+          <t>2026-02-04 19:21:03</t>
         </is>
       </c>
       <c r="I173" t="inlineStr">
@@ -38815,7 +38815,7 @@
       </c>
       <c r="H174" t="inlineStr">
         <is>
-          <t>2026-02-04 18:50:23</t>
+          <t>2026-02-04 19:21:03</t>
         </is>
       </c>
       <c r="I174" t="inlineStr">
@@ -39048,7 +39048,7 @@
       </c>
       <c r="H175" t="inlineStr">
         <is>
-          <t>2026-02-04 18:50:23</t>
+          <t>2026-02-04 19:21:03</t>
         </is>
       </c>
       <c r="I175" t="inlineStr">
@@ -39281,7 +39281,7 @@
       </c>
       <c r="H176" t="inlineStr">
         <is>
-          <t>2026-02-04 18:50:23</t>
+          <t>2026-02-04 19:21:03</t>
         </is>
       </c>
       <c r="I176" t="inlineStr">
@@ -39553,7 +39553,7 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>https://www.meteo.cat/observacions/xema/dades?codi=YT&amp;dia=2026-02-04T18:00Z</t>
+          <t>https://www.meteo.cat/observacions/xema/dades?codi=YT&amp;dia=2026-02-04T18:30Z</t>
         </is>
       </c>
     </row>
@@ -39583,7 +39583,7 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>https://www.meteo.cat/observacions/xema/dades?codi=Z1&amp;dia=2026-02-04T18:00Z</t>
+          <t>https://www.meteo.cat/observacions/xema/dades?codi=Z1&amp;dia=2026-02-04T18:30Z</t>
         </is>
       </c>
     </row>
@@ -39613,7 +39613,7 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>https://www.meteo.cat/observacions/xema/dades?codi=DN&amp;dia=2026-02-04T18:00Z</t>
+          <t>https://www.meteo.cat/observacions/xema/dades?codi=DN&amp;dia=2026-02-04T18:30Z</t>
         </is>
       </c>
     </row>
@@ -39643,7 +39643,7 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>https://www.meteo.cat/observacions/xema/dades?codi=DJ&amp;dia=2026-02-04T18:00Z</t>
+          <t>https://www.meteo.cat/observacions/xema/dades?codi=DJ&amp;dia=2026-02-04T18:30Z</t>
         </is>
       </c>
     </row>
@@ -39673,7 +39673,7 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>https://www.meteo.cat/observacions/xema/dades?codi=X4&amp;dia=2026-02-04T18:00Z</t>
+          <t>https://www.meteo.cat/observacions/xema/dades?codi=X4&amp;dia=2026-02-04T18:30Z</t>
         </is>
       </c>
     </row>
@@ -39703,7 +39703,7 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>https://www.meteo.cat/observacions/xema/dades?codi=D5&amp;dia=2026-02-04T18:00Z</t>
+          <t>https://www.meteo.cat/observacions/xema/dades?codi=D5&amp;dia=2026-02-04T18:30Z</t>
         </is>
       </c>
     </row>
@@ -39733,7 +39733,7 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>https://www.meteo.cat/observacions/xema/dades?codi=UN&amp;dia=2026-02-04T18:00Z</t>
+          <t>https://www.meteo.cat/observacions/xema/dades?codi=UN&amp;dia=2026-02-04T18:30Z</t>
         </is>
       </c>
     </row>
@@ -39763,7 +39763,7 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>https://www.meteo.cat/observacions/xema/dades?codi=MS&amp;dia=2026-02-04T18:00Z</t>
+          <t>https://www.meteo.cat/observacions/xema/dades?codi=MS&amp;dia=2026-02-04T18:30Z</t>
         </is>
       </c>
     </row>
@@ -39793,7 +39793,7 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>https://www.meteo.cat/observacions/xema/dades?codi=W1&amp;dia=2026-02-04T18:00Z</t>
+          <t>https://www.meteo.cat/observacions/xema/dades?codi=W1&amp;dia=2026-02-04T18:30Z</t>
         </is>
       </c>
     </row>
@@ -39823,7 +39823,7 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>https://www.meteo.cat/observacions/xema/dades?codi=DP&amp;dia=2026-02-04T18:00Z</t>
+          <t>https://www.meteo.cat/observacions/xema/dades?codi=DP&amp;dia=2026-02-04T18:30Z</t>
         </is>
       </c>
     </row>
@@ -39853,7 +39853,7 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>https://www.meteo.cat/observacions/xema/dades?codi=XL&amp;dia=2026-02-04T18:00Z</t>
+          <t>https://www.meteo.cat/observacions/xema/dades?codi=XL&amp;dia=2026-02-04T18:30Z</t>
         </is>
       </c>
     </row>
@@ -39883,7 +39883,7 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>https://www.meteo.cat/observacions/xema/dades?codi=VZ&amp;dia=2026-02-04T18:00Z</t>
+          <t>https://www.meteo.cat/observacions/xema/dades?codi=VZ&amp;dia=2026-02-04T18:30Z</t>
         </is>
       </c>
     </row>
@@ -39913,7 +39913,7 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>https://www.meteo.cat/observacions/xema/dades?codi=Z7&amp;dia=2026-02-04T18:00Z</t>
+          <t>https://www.meteo.cat/observacions/xema/dades?codi=Z7&amp;dia=2026-02-04T18:30Z</t>
         </is>
       </c>
     </row>
@@ -39943,7 +39943,7 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>https://www.meteo.cat/observacions/xema/dades?codi=XJ&amp;dia=2026-02-04T18:00Z</t>
+          <t>https://www.meteo.cat/observacions/xema/dades?codi=XJ&amp;dia=2026-02-04T18:30Z</t>
         </is>
       </c>
     </row>
@@ -39973,7 +39973,7 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>https://www.meteo.cat/observacions/xema/dades?codi=YU&amp;dia=2026-02-04T18:00Z</t>
+          <t>https://www.meteo.cat/observacions/xema/dades?codi=YU&amp;dia=2026-02-04T18:30Z</t>
         </is>
       </c>
     </row>
@@ -40003,7 +40003,7 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>https://www.meteo.cat/observacions/xema/dades?codi=CD&amp;dia=2026-02-04T18:00Z</t>
+          <t>https://www.meteo.cat/observacions/xema/dades?codi=CD&amp;dia=2026-02-04T18:30Z</t>
         </is>
       </c>
     </row>
@@ -40033,7 +40033,7 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>https://www.meteo.cat/observacions/xema/dades?codi=Z2&amp;dia=2026-02-04T18:00Z</t>
+          <t>https://www.meteo.cat/observacions/xema/dades?codi=Z2&amp;dia=2026-02-04T18:30Z</t>
         </is>
       </c>
     </row>
@@ -40063,7 +40063,7 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>https://www.meteo.cat/observacions/xema/dades?codi=VK&amp;dia=2026-02-04T18:00Z</t>
+          <t>https://www.meteo.cat/observacions/xema/dades?codi=VK&amp;dia=2026-02-04T18:30Z</t>
         </is>
       </c>
     </row>
@@ -40093,7 +40093,7 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>https://www.meteo.cat/observacions/xema/dades?codi=Z3&amp;dia=2026-02-04T18:00Z</t>
+          <t>https://www.meteo.cat/observacions/xema/dades?codi=Z3&amp;dia=2026-02-04T18:30Z</t>
         </is>
       </c>
     </row>
@@ -40123,7 +40123,7 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>https://www.meteo.cat/observacions/xema/dades?codi=YB&amp;dia=2026-02-04T18:00Z</t>
+          <t>https://www.meteo.cat/observacions/xema/dades?codi=YB&amp;dia=2026-02-04T18:30Z</t>
         </is>
       </c>
     </row>
@@ -40153,7 +40153,7 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>https://www.meteo.cat/observacions/xema/dades?codi=YP&amp;dia=2026-02-04T18:00Z</t>
+          <t>https://www.meteo.cat/observacions/xema/dades?codi=YP&amp;dia=2026-02-04T18:30Z</t>
         </is>
       </c>
     </row>
@@ -40183,7 +40183,7 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>https://www.meteo.cat/observacions/xema/dades?codi=J5&amp;dia=2026-02-04T18:00Z</t>
+          <t>https://www.meteo.cat/observacions/xema/dades?codi=J5&amp;dia=2026-02-04T18:30Z</t>
         </is>
       </c>
     </row>
@@ -40213,7 +40213,7 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>https://www.meteo.cat/observacions/xema/dades?codi=D6&amp;dia=2026-02-04T18:00Z</t>
+          <t>https://www.meteo.cat/observacions/xema/dades?codi=D6&amp;dia=2026-02-04T18:30Z</t>
         </is>
       </c>
     </row>
@@ -40243,7 +40243,7 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>https://www.meteo.cat/observacions/xema/dades?codi=YA&amp;dia=2026-02-04T18:00Z</t>
+          <t>https://www.meteo.cat/observacions/xema/dades?codi=YA&amp;dia=2026-02-04T18:30Z</t>
         </is>
       </c>
     </row>
@@ -40273,7 +40273,7 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>https://www.meteo.cat/observacions/xema/dades?codi=DG&amp;dia=2026-02-04T18:00Z</t>
+          <t>https://www.meteo.cat/observacions/xema/dades?codi=DG&amp;dia=2026-02-04T18:30Z</t>
         </is>
       </c>
     </row>
@@ -40303,7 +40303,7 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>https://www.meteo.cat/observacions/xema/dades?codi=D4&amp;dia=2026-02-04T18:00Z</t>
+          <t>https://www.meteo.cat/observacions/xema/dades?codi=D4&amp;dia=2026-02-04T18:30Z</t>
         </is>
       </c>
     </row>
@@ -40333,7 +40333,7 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>https://www.meteo.cat/observacions/xema/dades?codi=CI&amp;dia=2026-02-04T18:00Z</t>
+          <t>https://www.meteo.cat/observacions/xema/dades?codi=CI&amp;dia=2026-02-04T18:30Z</t>
         </is>
       </c>
     </row>
@@ -40363,7 +40363,7 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>https://www.meteo.cat/observacions/xema/dades?codi=XS&amp;dia=2026-02-04T18:00Z</t>
+          <t>https://www.meteo.cat/observacions/xema/dades?codi=XS&amp;dia=2026-02-04T18:30Z</t>
         </is>
       </c>
     </row>
@@ -40393,7 +40393,7 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>https://www.meteo.cat/observacions/xema/dades?codi=ZC&amp;dia=2026-02-04T18:00Z</t>
+          <t>https://www.meteo.cat/observacions/xema/dades?codi=ZC&amp;dia=2026-02-04T18:30Z</t>
         </is>
       </c>
     </row>
@@ -40423,7 +40423,7 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>https://www.meteo.cat/observacions/xema/dades?codi=XH&amp;dia=2026-02-04T18:00Z</t>
+          <t>https://www.meteo.cat/observacions/xema/dades?codi=XH&amp;dia=2026-02-04T18:30Z</t>
         </is>
       </c>
     </row>
@@ -40453,7 +40453,7 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>https://www.meteo.cat/observacions/xema/dades?codi=XE&amp;dia=2026-02-04T18:00Z</t>
+          <t>https://www.meteo.cat/observacions/xema/dades?codi=XE&amp;dia=2026-02-04T18:30Z</t>
         </is>
       </c>
     </row>
@@ -40483,7 +40483,7 @@
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>https://www.meteo.cat/observacions/xema/dades?codi=UE&amp;dia=2026-02-04T18:00Z</t>
+          <t>https://www.meteo.cat/observacions/xema/dades?codi=UE&amp;dia=2026-02-04T18:30Z</t>
         </is>
       </c>
     </row>
@@ -40513,7 +40513,7 @@
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>https://www.meteo.cat/observacions/xema/dades?codi=XO&amp;dia=2026-02-04T18:00Z</t>
+          <t>https://www.meteo.cat/observacions/xema/dades?codi=XO&amp;dia=2026-02-04T18:30Z</t>
         </is>
       </c>
     </row>
@@ -40543,7 +40543,7 @@
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>https://www.meteo.cat/observacions/xema/dades?codi=VS&amp;dia=2026-02-04T18:00Z</t>
+          <t>https://www.meteo.cat/observacions/xema/dades?codi=VS&amp;dia=2026-02-04T18:30Z</t>
         </is>
       </c>
     </row>
@@ -40573,7 +40573,7 @@
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>https://www.meteo.cat/observacions/xema/dades?codi=D7&amp;dia=2026-02-04T18:00Z</t>
+          <t>https://www.meteo.cat/observacions/xema/dades?codi=D7&amp;dia=2026-02-04T18:30Z</t>
         </is>
       </c>
     </row>

--- a/src/data/resum_periode_meteocat.xlsx
+++ b/src/data/resum_periode_meteocat.xlsx
@@ -712,7 +712,7 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>18:30 - 19:00</t>
+          <t>19:00 - 19:30</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -727,17 +727,17 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>2026-02-04 19:18:33</t>
+          <t>2026-02-04 19:47:12</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>18:30</t>
+          <t>19:00</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>https://www.meteo.cat/observacions/xema/dades?codi=YT&amp;dia=2026-02-04T18:30Z</t>
+          <t>https://www.meteo.cat/observacions/xema/dades?codi=YT&amp;dia=2026-02-04T19:00Z</t>
         </is>
       </c>
       <c r="K2" t="n">
@@ -753,23 +753,23 @@
       <c r="O2" t="inlineStr"/>
       <c r="P2" t="inlineStr">
         <is>
-          <t>125</t>
+          <t>109</t>
         </is>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>90</t>
+          <t>92</t>
         </is>
       </c>
       <c r="R2" t="inlineStr"/>
       <c r="S2" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>0.1</t>
         </is>
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>18:30 - 19:00</t>
+          <t>19:00 - 19:30</t>
         </is>
       </c>
       <c r="U2" t="inlineStr">
@@ -779,17 +779,17 @@
       </c>
       <c r="V2" t="inlineStr">
         <is>
-          <t>-2.0</t>
+          <t>-1.5</t>
         </is>
       </c>
       <c r="W2" t="inlineStr">
         <is>
-          <t>-2.3</t>
+          <t>-1.6</t>
         </is>
       </c>
       <c r="X2" t="inlineStr">
         <is>
-          <t>-1.5</t>
+          <t>-1.4</t>
         </is>
       </c>
       <c r="Y2" t="inlineStr"/>
@@ -800,77 +800,77 @@
       <c r="AD2" t="inlineStr"/>
       <c r="AE2" t="inlineStr">
         <is>
-          <t>18:30 - 19:00</t>
+          <t>19:00 - 19:30</t>
         </is>
       </c>
       <c r="AF2" t="inlineStr">
         <is>
-          <t>-2.0</t>
+          <t>-1.5</t>
         </is>
       </c>
       <c r="AG2" t="inlineStr">
         <is>
+          <t>-1.4</t>
+        </is>
+      </c>
+      <c r="AH2" t="inlineStr">
+        <is>
+          <t>-1.6</t>
+        </is>
+      </c>
+      <c r="AI2" t="inlineStr">
+        <is>
+          <t>92</t>
+        </is>
+      </c>
+      <c r="AJ2" t="inlineStr">
+        <is>
+          <t>0.1</t>
+        </is>
+      </c>
+      <c r="AK2" t="inlineStr">
+        <is>
+          <t>109</t>
+        </is>
+      </c>
+      <c r="AL2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AM2" t="inlineStr">
+        <is>
+          <t>19:00 - 19:30</t>
+        </is>
+      </c>
+      <c r="AN2" t="inlineStr">
+        <is>
           <t>-1.5</t>
         </is>
       </c>
-      <c r="AH2" t="inlineStr">
-        <is>
-          <t>-2.3</t>
-        </is>
-      </c>
-      <c r="AI2" t="inlineStr">
-        <is>
-          <t>90</t>
-        </is>
-      </c>
-      <c r="AJ2" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="AK2" t="inlineStr">
-        <is>
-          <t>125</t>
-        </is>
-      </c>
-      <c r="AL2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AM2" t="inlineStr">
-        <is>
-          <t>18:30 - 19:00</t>
-        </is>
-      </c>
-      <c r="AN2" t="inlineStr">
-        <is>
-          <t>-2.0</t>
-        </is>
-      </c>
       <c r="AO2" t="inlineStr">
         <is>
-          <t>-1.5</t>
+          <t>-1.4</t>
         </is>
       </c>
       <c r="AP2" t="inlineStr">
         <is>
-          <t>-2.3</t>
+          <t>-1.6</t>
         </is>
       </c>
       <c r="AQ2" t="inlineStr">
         <is>
-          <t>90</t>
+          <t>92</t>
         </is>
       </c>
       <c r="AR2" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>0.1</t>
         </is>
       </c>
       <c r="AS2" t="inlineStr">
         <is>
-          <t>125</t>
+          <t>109</t>
         </is>
       </c>
       <c r="AT2" t="inlineStr">
@@ -924,7 +924,7 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>2026-02-04 19:18:35</t>
+          <t>2026-02-04 19:47:14</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
@@ -1121,7 +1121,7 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>2026-02-04 19:18:35</t>
+          <t>2026-02-04 19:47:14</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
@@ -1318,7 +1318,7 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>2026-02-04 19:18:35</t>
+          <t>2026-02-04 19:47:14</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
@@ -1515,7 +1515,7 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>2026-02-04 19:18:35</t>
+          <t>2026-02-04 19:47:14</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
@@ -1697,7 +1697,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>18:30 - 19:00</t>
+          <t>19:00 - 19:30</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -1712,17 +1712,17 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>2026-02-04 19:18:38</t>
+          <t>2026-02-04 19:47:16</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>18:30</t>
+          <t>19:00</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>https://www.meteo.cat/observacions/xema/dades?codi=Z1&amp;dia=2026-02-04T18:30Z</t>
+          <t>https://www.meteo.cat/observacions/xema/dades?codi=Z1&amp;dia=2026-02-04T19:00Z</t>
         </is>
       </c>
       <c r="K7" t="n">
@@ -1737,17 +1737,17 @@
       <c r="N7" t="inlineStr"/>
       <c r="O7" t="inlineStr">
         <is>
-          <t>143</t>
+          <t>250</t>
         </is>
       </c>
       <c r="P7" t="inlineStr">
         <is>
-          <t>179</t>
+          <t>176</t>
         </is>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>84</t>
         </is>
       </c>
       <c r="R7" t="inlineStr"/>
@@ -1758,7 +1758,7 @@
       </c>
       <c r="T7" t="inlineStr">
         <is>
-          <t>18:30 - 19:00</t>
+          <t>19:00 - 19:30</t>
         </is>
       </c>
       <c r="U7" t="inlineStr">
@@ -1768,56 +1768,56 @@
       </c>
       <c r="V7" t="inlineStr">
         <is>
+          <t>-3.2</t>
+        </is>
+      </c>
+      <c r="W7" t="inlineStr">
+        <is>
+          <t>-4.0</t>
+        </is>
+      </c>
+      <c r="X7" t="inlineStr">
+        <is>
           <t>-2.9</t>
-        </is>
-      </c>
-      <c r="W7" t="inlineStr">
-        <is>
-          <t>-3.1</t>
-        </is>
-      </c>
-      <c r="X7" t="inlineStr">
-        <is>
-          <t>-2.5</t>
         </is>
       </c>
       <c r="Y7" t="inlineStr"/>
       <c r="Z7" t="inlineStr"/>
       <c r="AA7" t="inlineStr">
         <is>
-          <t>0.4</t>
+          <t>5.0</t>
         </is>
       </c>
       <c r="AB7" t="inlineStr"/>
       <c r="AC7" t="inlineStr"/>
       <c r="AD7" t="inlineStr">
         <is>
-          <t>6.5</t>
+          <t>11.5</t>
         </is>
       </c>
       <c r="AE7" t="inlineStr">
         <is>
-          <t>18:30 - 19:00</t>
+          <t>19:00 - 19:30</t>
         </is>
       </c>
       <c r="AF7" t="inlineStr">
         <is>
+          <t>-3.2</t>
+        </is>
+      </c>
+      <c r="AG7" t="inlineStr">
+        <is>
           <t>-2.9</t>
         </is>
       </c>
-      <c r="AG7" t="inlineStr">
-        <is>
-          <t>-2.5</t>
-        </is>
-      </c>
       <c r="AH7" t="inlineStr">
         <is>
-          <t>-3.1</t>
+          <t>-4.0</t>
         </is>
       </c>
       <c r="AI7" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>84</t>
         </is>
       </c>
       <c r="AJ7" t="inlineStr">
@@ -1827,37 +1827,37 @@
       </c>
       <c r="AK7" t="inlineStr">
         <is>
-          <t>179</t>
+          <t>176</t>
         </is>
       </c>
       <c r="AL7" t="inlineStr">
         <is>
-          <t>0.4</t>
+          <t>5.0</t>
         </is>
       </c>
       <c r="AM7" t="inlineStr">
         <is>
-          <t>18:30 - 19:00</t>
+          <t>19:00 - 19:30</t>
         </is>
       </c>
       <c r="AN7" t="inlineStr">
         <is>
+          <t>-3.2</t>
+        </is>
+      </c>
+      <c r="AO7" t="inlineStr">
+        <is>
           <t>-2.9</t>
         </is>
       </c>
-      <c r="AO7" t="inlineStr">
-        <is>
-          <t>-2.5</t>
-        </is>
-      </c>
       <c r="AP7" t="inlineStr">
         <is>
-          <t>-3.1</t>
+          <t>-4.0</t>
         </is>
       </c>
       <c r="AQ7" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>84</t>
         </is>
       </c>
       <c r="AR7" t="inlineStr">
@@ -1867,22 +1867,22 @@
       </c>
       <c r="AS7" t="inlineStr">
         <is>
-          <t>179</t>
+          <t>176</t>
         </is>
       </c>
       <c r="AT7" t="inlineStr">
         <is>
-          <t>0.4</t>
+          <t>5.0</t>
         </is>
       </c>
       <c r="AU7" t="inlineStr">
         <is>
-          <t>143</t>
+          <t>250</t>
         </is>
       </c>
       <c r="AV7" t="inlineStr">
         <is>
-          <t>6.5</t>
+          <t>11.5</t>
         </is>
       </c>
       <c r="AW7" t="inlineStr">
@@ -1892,12 +1892,12 @@
       </c>
       <c r="AX7" t="inlineStr">
         <is>
-          <t>143</t>
+          <t>250</t>
         </is>
       </c>
       <c r="AY7" t="inlineStr">
         <is>
-          <t>6.5</t>
+          <t>11.5</t>
         </is>
       </c>
       <c r="AZ7" t="inlineStr">
@@ -1945,7 +1945,7 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>2026-02-04 19:18:39</t>
+          <t>2026-02-04 19:47:18</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
@@ -2178,7 +2178,7 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>2026-02-04 19:18:39</t>
+          <t>2026-02-04 19:47:18</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
@@ -2411,7 +2411,7 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>2026-02-04 19:18:39</t>
+          <t>2026-02-04 19:47:18</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
@@ -2644,7 +2644,7 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>2026-02-04 19:18:39</t>
+          <t>2026-02-04 19:47:18</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
@@ -2862,7 +2862,7 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>18:30 - 19:00</t>
+          <t>19:00 - 19:30</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
@@ -2877,17 +2877,17 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>2026-02-04 19:18:42</t>
+          <t>2026-02-04 19:47:20</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>18:30</t>
+          <t>19:00</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>https://www.meteo.cat/observacions/xema/dades?codi=DN&amp;dia=2026-02-04T18:30Z</t>
+          <t>https://www.meteo.cat/observacions/xema/dades?codi=DN&amp;dia=2026-02-04T19:00Z</t>
         </is>
       </c>
       <c r="K12" t="n">
@@ -2900,7 +2900,7 @@
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>309</t>
+          <t>293</t>
         </is>
       </c>
       <c r="N12" t="inlineStr"/>
@@ -2908,12 +2908,12 @@
       <c r="P12" t="inlineStr"/>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>67</t>
+          <t>65</t>
         </is>
       </c>
       <c r="R12" t="inlineStr">
         <is>
-          <t>992.2</t>
+          <t>992.5</t>
         </is>
       </c>
       <c r="S12" t="inlineStr">
@@ -2923,7 +2923,7 @@
       </c>
       <c r="T12" t="inlineStr">
         <is>
-          <t>18:30 - 19:00</t>
+          <t>19:00 - 19:30</t>
         </is>
       </c>
       <c r="U12" t="inlineStr">
@@ -2933,56 +2933,56 @@
       </c>
       <c r="V12" t="inlineStr">
         <is>
-          <t>9.1</t>
+          <t>9.7</t>
         </is>
       </c>
       <c r="W12" t="inlineStr">
         <is>
-          <t>7.7</t>
+          <t>8.7</t>
         </is>
       </c>
       <c r="X12" t="inlineStr">
         <is>
-          <t>10.3</t>
+          <t>10.5</t>
         </is>
       </c>
       <c r="Y12" t="inlineStr">
         <is>
-          <t>4.3</t>
+          <t>5.0</t>
         </is>
       </c>
       <c r="Z12" t="inlineStr"/>
       <c r="AA12" t="inlineStr"/>
       <c r="AB12" t="inlineStr">
         <is>
-          <t>9.4</t>
+          <t>19.1</t>
         </is>
       </c>
       <c r="AC12" t="inlineStr"/>
       <c r="AD12" t="inlineStr"/>
       <c r="AE12" t="inlineStr">
         <is>
-          <t>18:30 - 19:00</t>
+          <t>19:00 - 19:30</t>
         </is>
       </c>
       <c r="AF12" t="inlineStr">
         <is>
-          <t>9.1</t>
+          <t>9.7</t>
         </is>
       </c>
       <c r="AG12" t="inlineStr">
         <is>
-          <t>10.3</t>
+          <t>10.5</t>
         </is>
       </c>
       <c r="AH12" t="inlineStr">
         <is>
-          <t>7.7</t>
+          <t>8.7</t>
         </is>
       </c>
       <c r="AI12" t="inlineStr">
         <is>
-          <t>67</t>
+          <t>65</t>
         </is>
       </c>
       <c r="AJ12" t="inlineStr">
@@ -2992,37 +2992,37 @@
       </c>
       <c r="AK12" t="inlineStr">
         <is>
-          <t>4.3</t>
+          <t>5.0</t>
         </is>
       </c>
       <c r="AL12" t="inlineStr">
         <is>
-          <t>309</t>
+          <t>293</t>
         </is>
       </c>
       <c r="AM12" t="inlineStr">
         <is>
-          <t>18:30 - 19:00</t>
+          <t>19:00 - 19:30</t>
         </is>
       </c>
       <c r="AN12" t="inlineStr">
         <is>
-          <t>9.1</t>
+          <t>9.7</t>
         </is>
       </c>
       <c r="AO12" t="inlineStr">
         <is>
-          <t>10.3</t>
+          <t>10.5</t>
         </is>
       </c>
       <c r="AP12" t="inlineStr">
         <is>
-          <t>7.7</t>
+          <t>8.7</t>
         </is>
       </c>
       <c r="AQ12" t="inlineStr">
         <is>
-          <t>67</t>
+          <t>65</t>
         </is>
       </c>
       <c r="AR12" t="inlineStr">
@@ -3032,22 +3032,22 @@
       </c>
       <c r="AS12" t="inlineStr">
         <is>
-          <t>4.3</t>
+          <t>5.0</t>
         </is>
       </c>
       <c r="AT12" t="inlineStr">
         <is>
-          <t>309</t>
+          <t>293</t>
         </is>
       </c>
       <c r="AU12" t="inlineStr">
         <is>
-          <t>9.4</t>
+          <t>19.1</t>
         </is>
       </c>
       <c r="AV12" t="inlineStr">
         <is>
-          <t>992.2</t>
+          <t>992.5</t>
         </is>
       </c>
       <c r="AW12" t="inlineStr">
@@ -3057,12 +3057,12 @@
       </c>
       <c r="AX12" t="inlineStr">
         <is>
-          <t>9.4</t>
+          <t>19.1</t>
         </is>
       </c>
       <c r="AY12" t="inlineStr">
         <is>
-          <t>992.2</t>
+          <t>992.5</t>
         </is>
       </c>
       <c r="AZ12" t="inlineStr">
@@ -3110,7 +3110,7 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>2026-02-04 19:18:44</t>
+          <t>2026-02-04 19:47:22</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
@@ -3343,7 +3343,7 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>2026-02-04 19:18:44</t>
+          <t>2026-02-04 19:47:22</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
@@ -3576,7 +3576,7 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>2026-02-04 19:18:44</t>
+          <t>2026-02-04 19:47:22</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
@@ -3809,7 +3809,7 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>2026-02-04 19:18:44</t>
+          <t>2026-02-04 19:47:22</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
@@ -4027,7 +4027,7 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>18:30 - 19:00</t>
+          <t>19:00 - 19:30</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
@@ -4042,17 +4042,17 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>2026-02-04 19:18:47</t>
+          <t>2026-02-04 19:47:24</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>18:30</t>
+          <t>19:00</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>https://www.meteo.cat/observacions/xema/dades?codi=DJ&amp;dia=2026-02-04T18:30Z</t>
+          <t>https://www.meteo.cat/observacions/xema/dades?codi=DJ&amp;dia=2026-02-04T19:00Z</t>
         </is>
       </c>
       <c r="K17" t="n">
@@ -4065,7 +4065,7 @@
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>350</t>
+          <t>298</t>
         </is>
       </c>
       <c r="N17" t="inlineStr"/>
@@ -4073,12 +4073,12 @@
       <c r="P17" t="inlineStr"/>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>67</t>
+          <t>69</t>
         </is>
       </c>
       <c r="R17" t="inlineStr">
         <is>
-          <t>991.9</t>
+          <t>992.2</t>
         </is>
       </c>
       <c r="S17" t="inlineStr">
@@ -4088,7 +4088,7 @@
       </c>
       <c r="T17" t="inlineStr">
         <is>
-          <t>18:30 - 19:00</t>
+          <t>19:00 - 19:30</t>
         </is>
       </c>
       <c r="U17" t="inlineStr">
@@ -4098,17 +4098,17 @@
       </c>
       <c r="V17" t="inlineStr">
         <is>
-          <t>9.4</t>
+          <t>8.9</t>
         </is>
       </c>
       <c r="W17" t="inlineStr">
         <is>
-          <t>9.0</t>
+          <t>8.4</t>
         </is>
       </c>
       <c r="X17" t="inlineStr">
         <is>
-          <t>9.8</t>
+          <t>9.7</t>
         </is>
       </c>
       <c r="Y17" t="inlineStr">
@@ -4120,34 +4120,34 @@
       <c r="AA17" t="inlineStr"/>
       <c r="AB17" t="inlineStr">
         <is>
-          <t>10.1</t>
+          <t>8.6</t>
         </is>
       </c>
       <c r="AC17" t="inlineStr"/>
       <c r="AD17" t="inlineStr"/>
       <c r="AE17" t="inlineStr">
         <is>
-          <t>18:30 - 19:00</t>
+          <t>19:00 - 19:30</t>
         </is>
       </c>
       <c r="AF17" t="inlineStr">
         <is>
-          <t>9.4</t>
+          <t>8.9</t>
         </is>
       </c>
       <c r="AG17" t="inlineStr">
         <is>
-          <t>9.8</t>
+          <t>9.7</t>
         </is>
       </c>
       <c r="AH17" t="inlineStr">
         <is>
-          <t>9.0</t>
+          <t>8.4</t>
         </is>
       </c>
       <c r="AI17" t="inlineStr">
         <is>
-          <t>67</t>
+          <t>69</t>
         </is>
       </c>
       <c r="AJ17" t="inlineStr">
@@ -4162,32 +4162,32 @@
       </c>
       <c r="AL17" t="inlineStr">
         <is>
-          <t>350</t>
+          <t>298</t>
         </is>
       </c>
       <c r="AM17" t="inlineStr">
         <is>
-          <t>18:30 - 19:00</t>
+          <t>19:00 - 19:30</t>
         </is>
       </c>
       <c r="AN17" t="inlineStr">
         <is>
-          <t>9.4</t>
+          <t>8.9</t>
         </is>
       </c>
       <c r="AO17" t="inlineStr">
         <is>
-          <t>9.8</t>
+          <t>9.7</t>
         </is>
       </c>
       <c r="AP17" t="inlineStr">
         <is>
-          <t>9.0</t>
+          <t>8.4</t>
         </is>
       </c>
       <c r="AQ17" t="inlineStr">
         <is>
-          <t>67</t>
+          <t>69</t>
         </is>
       </c>
       <c r="AR17" t="inlineStr">
@@ -4202,17 +4202,17 @@
       </c>
       <c r="AT17" t="inlineStr">
         <is>
-          <t>350</t>
+          <t>298</t>
         </is>
       </c>
       <c r="AU17" t="inlineStr">
         <is>
-          <t>10.1</t>
+          <t>8.6</t>
         </is>
       </c>
       <c r="AV17" t="inlineStr">
         <is>
-          <t>991.9</t>
+          <t>992.2</t>
         </is>
       </c>
       <c r="AW17" t="inlineStr">
@@ -4222,12 +4222,12 @@
       </c>
       <c r="AX17" t="inlineStr">
         <is>
-          <t>10.1</t>
+          <t>8.6</t>
         </is>
       </c>
       <c r="AY17" t="inlineStr">
         <is>
-          <t>991.9</t>
+          <t>992.2</t>
         </is>
       </c>
       <c r="AZ17" t="inlineStr">
@@ -4275,7 +4275,7 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>2026-02-04 19:18:48</t>
+          <t>2026-02-04 19:47:26</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
@@ -4508,7 +4508,7 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>2026-02-04 19:18:48</t>
+          <t>2026-02-04 19:47:26</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
@@ -4741,7 +4741,7 @@
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>2026-02-04 19:18:48</t>
+          <t>2026-02-04 19:47:26</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
@@ -4974,7 +4974,7 @@
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>2026-02-04 19:18:48</t>
+          <t>2026-02-04 19:47:26</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
@@ -5192,7 +5192,7 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>18:30 - 19:00</t>
+          <t>19:00 - 19:30</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
@@ -5207,17 +5207,17 @@
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>2026-02-04 19:18:51</t>
+          <t>2026-02-04 19:47:28</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>18:30</t>
+          <t>19:00</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>https://www.meteo.cat/observacions/xema/dades?codi=X4&amp;dia=2026-02-04T18:30Z</t>
+          <t>https://www.meteo.cat/observacions/xema/dades?codi=X4&amp;dia=2026-02-04T19:00Z</t>
         </is>
       </c>
       <c r="K22" t="n">
@@ -5230,7 +5230,7 @@
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>200</t>
+          <t>276</t>
         </is>
       </c>
       <c r="N22" t="inlineStr"/>
@@ -5238,7 +5238,7 @@
       <c r="P22" t="inlineStr"/>
       <c r="Q22" t="inlineStr">
         <is>
-          <t>58</t>
+          <t>59</t>
         </is>
       </c>
       <c r="R22" t="inlineStr">
@@ -5253,7 +5253,7 @@
       </c>
       <c r="T22" t="inlineStr">
         <is>
-          <t>18:30 - 19:00</t>
+          <t>19:00 - 19:30</t>
         </is>
       </c>
       <c r="U22" t="inlineStr">
@@ -5263,7 +5263,7 @@
       </c>
       <c r="V22" t="inlineStr">
         <is>
-          <t>12.1</t>
+          <t>12.0</t>
         </is>
       </c>
       <c r="W22" t="inlineStr">
@@ -5273,36 +5273,36 @@
       </c>
       <c r="X22" t="inlineStr">
         <is>
-          <t>12.4</t>
+          <t>12.2</t>
         </is>
       </c>
       <c r="Y22" t="inlineStr">
         <is>
-          <t>5.4</t>
+          <t>4.3</t>
         </is>
       </c>
       <c r="Z22" t="inlineStr"/>
       <c r="AA22" t="inlineStr"/>
       <c r="AB22" t="inlineStr">
         <is>
-          <t>12.6</t>
+          <t>9.0</t>
         </is>
       </c>
       <c r="AC22" t="inlineStr"/>
       <c r="AD22" t="inlineStr"/>
       <c r="AE22" t="inlineStr">
         <is>
-          <t>18:30 - 19:00</t>
+          <t>19:00 - 19:30</t>
         </is>
       </c>
       <c r="AF22" t="inlineStr">
         <is>
-          <t>12.1</t>
+          <t>12.0</t>
         </is>
       </c>
       <c r="AG22" t="inlineStr">
         <is>
-          <t>12.4</t>
+          <t>12.2</t>
         </is>
       </c>
       <c r="AH22" t="inlineStr">
@@ -5312,7 +5312,7 @@
       </c>
       <c r="AI22" t="inlineStr">
         <is>
-          <t>58</t>
+          <t>59</t>
         </is>
       </c>
       <c r="AJ22" t="inlineStr">
@@ -5322,27 +5322,27 @@
       </c>
       <c r="AK22" t="inlineStr">
         <is>
-          <t>5.4</t>
+          <t>4.3</t>
         </is>
       </c>
       <c r="AL22" t="inlineStr">
         <is>
-          <t>200</t>
+          <t>276</t>
         </is>
       </c>
       <c r="AM22" t="inlineStr">
         <is>
-          <t>18:30 - 19:00</t>
+          <t>19:00 - 19:30</t>
         </is>
       </c>
       <c r="AN22" t="inlineStr">
         <is>
-          <t>12.1</t>
+          <t>12.0</t>
         </is>
       </c>
       <c r="AO22" t="inlineStr">
         <is>
-          <t>12.4</t>
+          <t>12.2</t>
         </is>
       </c>
       <c r="AP22" t="inlineStr">
@@ -5352,7 +5352,7 @@
       </c>
       <c r="AQ22" t="inlineStr">
         <is>
-          <t>58</t>
+          <t>59</t>
         </is>
       </c>
       <c r="AR22" t="inlineStr">
@@ -5362,17 +5362,17 @@
       </c>
       <c r="AS22" t="inlineStr">
         <is>
-          <t>5.4</t>
+          <t>4.3</t>
         </is>
       </c>
       <c r="AT22" t="inlineStr">
         <is>
-          <t>200</t>
+          <t>276</t>
         </is>
       </c>
       <c r="AU22" t="inlineStr">
         <is>
-          <t>12.6</t>
+          <t>9.0</t>
         </is>
       </c>
       <c r="AV22" t="inlineStr">
@@ -5387,7 +5387,7 @@
       </c>
       <c r="AX22" t="inlineStr">
         <is>
-          <t>12.6</t>
+          <t>9.0</t>
         </is>
       </c>
       <c r="AY22" t="inlineStr">
@@ -5440,7 +5440,7 @@
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>2026-02-04 19:18:53</t>
+          <t>2026-02-04 19:47:30</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
@@ -5673,7 +5673,7 @@
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>2026-02-04 19:18:53</t>
+          <t>2026-02-04 19:47:30</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
@@ -5906,7 +5906,7 @@
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>2026-02-04 19:18:53</t>
+          <t>2026-02-04 19:47:30</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
@@ -6139,7 +6139,7 @@
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>2026-02-04 19:18:53</t>
+          <t>2026-02-04 19:47:30</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
@@ -6357,7 +6357,7 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>18:30 - 19:00</t>
+          <t>19:00 - 19:30</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
@@ -6372,17 +6372,17 @@
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>2026-02-04 19:18:56</t>
+          <t>2026-02-04 19:47:32</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>18:30</t>
+          <t>19:00</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>https://www.meteo.cat/observacions/xema/dades?codi=D5&amp;dia=2026-02-04T18:30Z</t>
+          <t>https://www.meteo.cat/observacions/xema/dades?codi=D5&amp;dia=2026-02-04T19:00Z</t>
         </is>
       </c>
       <c r="K27" t="n">
@@ -6408,7 +6408,7 @@
       </c>
       <c r="R27" t="inlineStr">
         <is>
-          <t>993.2</t>
+          <t>993.4</t>
         </is>
       </c>
       <c r="S27" t="inlineStr">
@@ -6418,7 +6418,7 @@
       </c>
       <c r="T27" t="inlineStr">
         <is>
-          <t>18:30 - 19:00</t>
+          <t>19:00 - 19:30</t>
         </is>
       </c>
       <c r="U27" t="inlineStr">
@@ -6433,12 +6433,12 @@
       </c>
       <c r="W27" t="inlineStr">
         <is>
-          <t>7.9</t>
+          <t>7.6</t>
         </is>
       </c>
       <c r="X27" t="inlineStr">
         <is>
-          <t>8.1</t>
+          <t>8.3</t>
         </is>
       </c>
       <c r="Y27" t="inlineStr">
@@ -6450,14 +6450,14 @@
       <c r="AA27" t="inlineStr"/>
       <c r="AB27" t="inlineStr">
         <is>
-          <t>20.2</t>
+          <t>21.2</t>
         </is>
       </c>
       <c r="AC27" t="inlineStr"/>
       <c r="AD27" t="inlineStr"/>
       <c r="AE27" t="inlineStr">
         <is>
-          <t>18:30 - 19:00</t>
+          <t>19:00 - 19:30</t>
         </is>
       </c>
       <c r="AF27" t="inlineStr">
@@ -6467,12 +6467,12 @@
       </c>
       <c r="AG27" t="inlineStr">
         <is>
-          <t>8.1</t>
+          <t>8.3</t>
         </is>
       </c>
       <c r="AH27" t="inlineStr">
         <is>
-          <t>7.9</t>
+          <t>7.6</t>
         </is>
       </c>
       <c r="AI27" t="inlineStr">
@@ -6497,7 +6497,7 @@
       </c>
       <c r="AM27" t="inlineStr">
         <is>
-          <t>18:30 - 19:00</t>
+          <t>19:00 - 19:30</t>
         </is>
       </c>
       <c r="AN27" t="inlineStr">
@@ -6507,12 +6507,12 @@
       </c>
       <c r="AO27" t="inlineStr">
         <is>
-          <t>8.1</t>
+          <t>8.3</t>
         </is>
       </c>
       <c r="AP27" t="inlineStr">
         <is>
-          <t>7.9</t>
+          <t>7.6</t>
         </is>
       </c>
       <c r="AQ27" t="inlineStr">
@@ -6537,12 +6537,12 @@
       </c>
       <c r="AU27" t="inlineStr">
         <is>
-          <t>20.2</t>
+          <t>21.2</t>
         </is>
       </c>
       <c r="AV27" t="inlineStr">
         <is>
-          <t>993.2</t>
+          <t>993.4</t>
         </is>
       </c>
       <c r="AW27" t="inlineStr">
@@ -6552,12 +6552,12 @@
       </c>
       <c r="AX27" t="inlineStr">
         <is>
-          <t>20.2</t>
+          <t>21.2</t>
         </is>
       </c>
       <c r="AY27" t="inlineStr">
         <is>
-          <t>993.2</t>
+          <t>993.4</t>
         </is>
       </c>
       <c r="AZ27" t="inlineStr">
@@ -6605,7 +6605,7 @@
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>2026-02-04 19:18:57</t>
+          <t>2026-02-04 19:47:34</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
@@ -6838,7 +6838,7 @@
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>2026-02-04 19:18:57</t>
+          <t>2026-02-04 19:47:34</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
@@ -7071,7 +7071,7 @@
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>2026-02-04 19:18:57</t>
+          <t>2026-02-04 19:47:34</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
@@ -7304,7 +7304,7 @@
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>2026-02-04 19:18:57</t>
+          <t>2026-02-04 19:47:34</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
@@ -7522,7 +7522,7 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>18:30 - 19:00</t>
+          <t>19:00 - 19:30</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
@@ -7537,17 +7537,17 @@
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>2026-02-04 19:19:00</t>
+          <t>2026-02-04 19:47:36</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>18:30</t>
+          <t>19:00</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>https://www.meteo.cat/observacions/xema/dades?codi=UN&amp;dia=2026-02-04T18:30Z</t>
+          <t>https://www.meteo.cat/observacions/xema/dades?codi=UN&amp;dia=2026-02-04T19:00Z</t>
         </is>
       </c>
       <c r="K32" t="n">
@@ -7561,14 +7561,14 @@
       <c r="M32" t="inlineStr"/>
       <c r="N32" t="inlineStr">
         <is>
-          <t>73</t>
+          <t>76</t>
         </is>
       </c>
       <c r="O32" t="inlineStr"/>
       <c r="P32" t="inlineStr"/>
       <c r="Q32" t="inlineStr">
         <is>
-          <t>95</t>
+          <t>96</t>
         </is>
       </c>
       <c r="R32" t="inlineStr"/>
@@ -7579,7 +7579,7 @@
       </c>
       <c r="T32" t="inlineStr">
         <is>
-          <t>18:30 - 19:00</t>
+          <t>19:00 - 19:30</t>
         </is>
       </c>
       <c r="U32" t="inlineStr">
@@ -7589,96 +7589,96 @@
       </c>
       <c r="V32" t="inlineStr">
         <is>
-          <t>4.4</t>
+          <t>4.0</t>
         </is>
       </c>
       <c r="W32" t="inlineStr">
         <is>
+          <t>3.8</t>
+        </is>
+      </c>
+      <c r="X32" t="inlineStr">
+        <is>
           <t>4.1</t>
-        </is>
-      </c>
-      <c r="X32" t="inlineStr">
-        <is>
-          <t>4.8</t>
         </is>
       </c>
       <c r="Y32" t="inlineStr"/>
       <c r="Z32" t="inlineStr">
         <is>
-          <t>2.5</t>
+          <t>2.2</t>
         </is>
       </c>
       <c r="AA32" t="inlineStr"/>
       <c r="AB32" t="inlineStr"/>
       <c r="AC32" t="inlineStr">
         <is>
-          <t>5.0</t>
+          <t>4.7</t>
         </is>
       </c>
       <c r="AD32" t="inlineStr"/>
       <c r="AE32" t="inlineStr">
         <is>
-          <t>18:30 - 19:00</t>
+          <t>19:00 - 19:30</t>
         </is>
       </c>
       <c r="AF32" t="inlineStr">
         <is>
-          <t>4.4</t>
+          <t>4.0</t>
         </is>
       </c>
       <c r="AG32" t="inlineStr">
         <is>
-          <t>4.8</t>
+          <t>4.1</t>
         </is>
       </c>
       <c r="AH32" t="inlineStr">
         <is>
+          <t>3.8</t>
+        </is>
+      </c>
+      <c r="AI32" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="AJ32" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="AK32" t="inlineStr">
+        <is>
+          <t>2.2</t>
+        </is>
+      </c>
+      <c r="AL32" t="inlineStr">
+        <is>
+          <t>76</t>
+        </is>
+      </c>
+      <c r="AM32" t="inlineStr">
+        <is>
+          <t>19:00 - 19:30</t>
+        </is>
+      </c>
+      <c r="AN32" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="AO32" t="inlineStr">
+        <is>
           <t>4.1</t>
         </is>
       </c>
-      <c r="AI32" t="inlineStr">
-        <is>
-          <t>95</t>
-        </is>
-      </c>
-      <c r="AJ32" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="AK32" t="inlineStr">
-        <is>
-          <t>2.5</t>
-        </is>
-      </c>
-      <c r="AL32" t="inlineStr">
-        <is>
-          <t>73</t>
-        </is>
-      </c>
-      <c r="AM32" t="inlineStr">
-        <is>
-          <t>18:30 - 19:00</t>
-        </is>
-      </c>
-      <c r="AN32" t="inlineStr">
-        <is>
-          <t>4.4</t>
-        </is>
-      </c>
-      <c r="AO32" t="inlineStr">
-        <is>
-          <t>4.8</t>
-        </is>
-      </c>
       <c r="AP32" t="inlineStr">
         <is>
-          <t>4.1</t>
+          <t>3.8</t>
         </is>
       </c>
       <c r="AQ32" t="inlineStr">
         <is>
-          <t>95</t>
+          <t>96</t>
         </is>
       </c>
       <c r="AR32" t="inlineStr">
@@ -7688,17 +7688,17 @@
       </c>
       <c r="AS32" t="inlineStr">
         <is>
-          <t>2.5</t>
+          <t>2.2</t>
         </is>
       </c>
       <c r="AT32" t="inlineStr">
         <is>
-          <t>73</t>
+          <t>76</t>
         </is>
       </c>
       <c r="AU32" t="inlineStr">
         <is>
-          <t>5.0</t>
+          <t>4.7</t>
         </is>
       </c>
       <c r="AV32" t="inlineStr">
@@ -7709,7 +7709,7 @@
       <c r="AW32" t="inlineStr"/>
       <c r="AX32" t="inlineStr">
         <is>
-          <t>5.0</t>
+          <t>4.7</t>
         </is>
       </c>
       <c r="AY32" t="inlineStr">
@@ -7758,7 +7758,7 @@
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>2026-02-04 19:19:02</t>
+          <t>2026-02-04 19:47:38</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
@@ -7979,7 +7979,7 @@
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>2026-02-04 19:19:02</t>
+          <t>2026-02-04 19:47:38</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
@@ -8200,7 +8200,7 @@
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>2026-02-04 19:19:02</t>
+          <t>2026-02-04 19:47:38</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
@@ -8421,7 +8421,7 @@
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>2026-02-04 19:19:02</t>
+          <t>2026-02-04 19:47:38</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
@@ -8627,7 +8627,7 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>18:30 - 19:00</t>
+          <t>19:00 - 19:30</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
@@ -8642,17 +8642,17 @@
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>2026-02-04 19:19:05</t>
+          <t>2026-02-04 19:47:40</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>18:30</t>
+          <t>19:00</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>https://www.meteo.cat/observacions/xema/dades?codi=MS&amp;dia=2026-02-04T18:30Z</t>
+          <t>https://www.meteo.cat/observacions/xema/dades?codi=MS&amp;dia=2026-02-04T19:00Z</t>
         </is>
       </c>
       <c r="K37" t="n">
@@ -8669,7 +8669,7 @@
       <c r="P37" t="inlineStr"/>
       <c r="Q37" t="inlineStr">
         <is>
-          <t>99</t>
+          <t>100</t>
         </is>
       </c>
       <c r="R37" t="inlineStr"/>
@@ -8680,23 +8680,23 @@
       </c>
       <c r="T37" t="inlineStr">
         <is>
-          <t>18:30 - 19:00</t>
+          <t>19:00 - 19:30</t>
         </is>
       </c>
       <c r="U37" t="inlineStr"/>
       <c r="V37" t="inlineStr">
         <is>
-          <t>1.7</t>
+          <t>1.2</t>
         </is>
       </c>
       <c r="W37" t="inlineStr">
         <is>
+          <t>0.9</t>
+        </is>
+      </c>
+      <c r="X37" t="inlineStr">
+        <is>
           <t>1.4</t>
-        </is>
-      </c>
-      <c r="X37" t="inlineStr">
-        <is>
-          <t>2.1</t>
         </is>
       </c>
       <c r="Y37" t="inlineStr"/>
@@ -8707,27 +8707,27 @@
       <c r="AD37" t="inlineStr"/>
       <c r="AE37" t="inlineStr">
         <is>
-          <t>18:30 - 19:00</t>
+          <t>19:00 - 19:30</t>
         </is>
       </c>
       <c r="AF37" t="inlineStr">
         <is>
-          <t>1.7</t>
+          <t>1.2</t>
         </is>
       </c>
       <c r="AG37" t="inlineStr">
         <is>
-          <t>2.1</t>
+          <t>1.4</t>
         </is>
       </c>
       <c r="AH37" t="inlineStr">
         <is>
-          <t>1.4</t>
+          <t>0.9</t>
         </is>
       </c>
       <c r="AI37" t="inlineStr">
         <is>
-          <t>99</t>
+          <t>100</t>
         </is>
       </c>
       <c r="AJ37" t="inlineStr">
@@ -8739,27 +8739,27 @@
       <c r="AL37" t="inlineStr"/>
       <c r="AM37" t="inlineStr">
         <is>
-          <t>18:30 - 19:00</t>
+          <t>19:00 - 19:30</t>
         </is>
       </c>
       <c r="AN37" t="inlineStr">
         <is>
-          <t>1.7</t>
+          <t>1.2</t>
         </is>
       </c>
       <c r="AO37" t="inlineStr">
         <is>
-          <t>2.1</t>
+          <t>1.4</t>
         </is>
       </c>
       <c r="AP37" t="inlineStr">
         <is>
-          <t>1.4</t>
+          <t>0.9</t>
         </is>
       </c>
       <c r="AQ37" t="inlineStr">
         <is>
-          <t>99</t>
+          <t>100</t>
         </is>
       </c>
       <c r="AR37" t="inlineStr">
@@ -8815,7 +8815,7 @@
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>2026-02-04 19:19:06</t>
+          <t>2026-02-04 19:47:41</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
@@ -8988,7 +8988,7 @@
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>2026-02-04 19:19:06</t>
+          <t>2026-02-04 19:47:41</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
@@ -9161,7 +9161,7 @@
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>2026-02-04 19:19:06</t>
+          <t>2026-02-04 19:47:41</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
@@ -9334,7 +9334,7 @@
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>2026-02-04 19:19:06</t>
+          <t>2026-02-04 19:47:41</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
@@ -9492,7 +9492,7 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>18:30 - 19:00</t>
+          <t>19:00 - 19:30</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
@@ -9507,17 +9507,17 @@
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>2026-02-04 19:19:09</t>
+          <t>2026-02-04 19:47:44</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>18:30</t>
+          <t>19:00</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>https://www.meteo.cat/observacions/xema/dades?codi=W1&amp;dia=2026-02-04T18:30Z</t>
+          <t>https://www.meteo.cat/observacions/xema/dades?codi=W1&amp;dia=2026-02-04T19:00Z</t>
         </is>
       </c>
       <c r="K42" t="n">
@@ -9534,7 +9534,7 @@
       <c r="P42" t="inlineStr"/>
       <c r="Q42" t="inlineStr">
         <is>
-          <t>94</t>
+          <t>100</t>
         </is>
       </c>
       <c r="R42" t="inlineStr"/>
@@ -9545,7 +9545,7 @@
       </c>
       <c r="T42" t="inlineStr">
         <is>
-          <t>18:30 - 19:00</t>
+          <t>19:00 - 19:30</t>
         </is>
       </c>
       <c r="U42" t="inlineStr"/>
@@ -9556,12 +9556,12 @@
       </c>
       <c r="W42" t="inlineStr">
         <is>
-          <t>7.5</t>
+          <t>7.6</t>
         </is>
       </c>
       <c r="X42" t="inlineStr">
         <is>
-          <t>8.7</t>
+          <t>8.5</t>
         </is>
       </c>
       <c r="Y42" t="inlineStr"/>
@@ -9572,7 +9572,7 @@
       <c r="AD42" t="inlineStr"/>
       <c r="AE42" t="inlineStr">
         <is>
-          <t>18:30 - 19:00</t>
+          <t>19:00 - 19:30</t>
         </is>
       </c>
       <c r="AF42" t="inlineStr">
@@ -9582,17 +9582,17 @@
       </c>
       <c r="AG42" t="inlineStr">
         <is>
-          <t>8.7</t>
+          <t>8.5</t>
         </is>
       </c>
       <c r="AH42" t="inlineStr">
         <is>
-          <t>7.5</t>
+          <t>7.6</t>
         </is>
       </c>
       <c r="AI42" t="inlineStr">
         <is>
-          <t>94</t>
+          <t>100</t>
         </is>
       </c>
       <c r="AJ42" t="inlineStr">
@@ -9604,7 +9604,7 @@
       <c r="AL42" t="inlineStr"/>
       <c r="AM42" t="inlineStr">
         <is>
-          <t>18:30 - 19:00</t>
+          <t>19:00 - 19:30</t>
         </is>
       </c>
       <c r="AN42" t="inlineStr">
@@ -9614,17 +9614,17 @@
       </c>
       <c r="AO42" t="inlineStr">
         <is>
-          <t>8.7</t>
+          <t>8.5</t>
         </is>
       </c>
       <c r="AP42" t="inlineStr">
         <is>
-          <t>7.5</t>
+          <t>7.6</t>
         </is>
       </c>
       <c r="AQ42" t="inlineStr">
         <is>
-          <t>94</t>
+          <t>100</t>
         </is>
       </c>
       <c r="AR42" t="inlineStr">
@@ -9680,7 +9680,7 @@
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>2026-02-04 19:19:10</t>
+          <t>2026-02-04 19:47:45</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
@@ -9853,7 +9853,7 @@
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>2026-02-04 19:19:10</t>
+          <t>2026-02-04 19:47:45</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
@@ -10026,7 +10026,7 @@
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>2026-02-04 19:19:10</t>
+          <t>2026-02-04 19:47:45</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
@@ -10199,7 +10199,7 @@
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>2026-02-04 19:19:10</t>
+          <t>2026-02-04 19:47:45</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
@@ -10357,7 +10357,7 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>18:30 - 19:00</t>
+          <t>19:00 - 19:30</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
@@ -10372,17 +10372,17 @@
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>2026-02-04 19:19:13</t>
+          <t>2026-02-04 19:47:47</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>18:30</t>
+          <t>19:00</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>https://www.meteo.cat/observacions/xema/dades?codi=DP&amp;dia=2026-02-04T18:30Z</t>
+          <t>https://www.meteo.cat/observacions/xema/dades?codi=DP&amp;dia=2026-02-04T19:00Z</t>
         </is>
       </c>
       <c r="K47" t="n">
@@ -10395,7 +10395,7 @@
       </c>
       <c r="M47" t="inlineStr">
         <is>
-          <t>234</t>
+          <t>255</t>
         </is>
       </c>
       <c r="N47" t="inlineStr"/>
@@ -10407,12 +10407,12 @@
       </c>
       <c r="Q47" t="inlineStr">
         <is>
-          <t>78</t>
+          <t>81</t>
         </is>
       </c>
       <c r="R47" t="inlineStr">
         <is>
-          <t>994.7</t>
+          <t>995.3</t>
         </is>
       </c>
       <c r="S47" t="inlineStr">
@@ -10422,7 +10422,7 @@
       </c>
       <c r="T47" t="inlineStr">
         <is>
-          <t>18:30 - 19:00</t>
+          <t>19:00 - 19:30</t>
         </is>
       </c>
       <c r="U47" t="inlineStr">
@@ -10432,56 +10432,56 @@
       </c>
       <c r="V47" t="inlineStr">
         <is>
-          <t>2.1</t>
+          <t>1.8</t>
         </is>
       </c>
       <c r="W47" t="inlineStr">
         <is>
-          <t>1.5</t>
+          <t>1.3</t>
         </is>
       </c>
       <c r="X47" t="inlineStr">
         <is>
-          <t>2.9</t>
+          <t>2.3</t>
         </is>
       </c>
       <c r="Y47" t="inlineStr">
         <is>
-          <t>9.7</t>
+          <t>8.3</t>
         </is>
       </c>
       <c r="Z47" t="inlineStr"/>
       <c r="AA47" t="inlineStr"/>
       <c r="AB47" t="inlineStr">
         <is>
-          <t>16.2</t>
+          <t>13.0</t>
         </is>
       </c>
       <c r="AC47" t="inlineStr"/>
       <c r="AD47" t="inlineStr"/>
       <c r="AE47" t="inlineStr">
         <is>
-          <t>18:30 - 19:00</t>
+          <t>19:00 - 19:30</t>
         </is>
       </c>
       <c r="AF47" t="inlineStr">
         <is>
-          <t>2.1</t>
+          <t>1.8</t>
         </is>
       </c>
       <c r="AG47" t="inlineStr">
         <is>
-          <t>2.9</t>
+          <t>2.3</t>
         </is>
       </c>
       <c r="AH47" t="inlineStr">
         <is>
-          <t>1.5</t>
+          <t>1.3</t>
         </is>
       </c>
       <c r="AI47" t="inlineStr">
         <is>
-          <t>78</t>
+          <t>81</t>
         </is>
       </c>
       <c r="AJ47" t="inlineStr">
@@ -10496,32 +10496,32 @@
       </c>
       <c r="AL47" t="inlineStr">
         <is>
-          <t>9.7</t>
+          <t>8.3</t>
         </is>
       </c>
       <c r="AM47" t="inlineStr">
         <is>
-          <t>18:30 - 19:00</t>
+          <t>19:00 - 19:30</t>
         </is>
       </c>
       <c r="AN47" t="inlineStr">
         <is>
-          <t>2.1</t>
+          <t>1.8</t>
         </is>
       </c>
       <c r="AO47" t="inlineStr">
         <is>
-          <t>2.9</t>
+          <t>2.3</t>
         </is>
       </c>
       <c r="AP47" t="inlineStr">
         <is>
-          <t>1.5</t>
+          <t>1.3</t>
         </is>
       </c>
       <c r="AQ47" t="inlineStr">
         <is>
-          <t>78</t>
+          <t>81</t>
         </is>
       </c>
       <c r="AR47" t="inlineStr">
@@ -10536,37 +10536,37 @@
       </c>
       <c r="AT47" t="inlineStr">
         <is>
-          <t>9.7</t>
+          <t>8.3</t>
         </is>
       </c>
       <c r="AU47" t="inlineStr">
         <is>
-          <t>234</t>
+          <t>255</t>
         </is>
       </c>
       <c r="AV47" t="inlineStr">
         <is>
-          <t>16.2</t>
+          <t>13.0</t>
         </is>
       </c>
       <c r="AW47" t="inlineStr">
         <is>
-          <t>994.7</t>
+          <t>995.3</t>
         </is>
       </c>
       <c r="AX47" t="inlineStr">
         <is>
-          <t>234</t>
+          <t>255</t>
         </is>
       </c>
       <c r="AY47" t="inlineStr">
         <is>
-          <t>16.2</t>
+          <t>13.0</t>
         </is>
       </c>
       <c r="AZ47" t="inlineStr">
         <is>
-          <t>994.7</t>
+          <t>995.3</t>
         </is>
       </c>
       <c r="BA47" t="inlineStr">
@@ -10613,7 +10613,7 @@
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>2026-02-04 19:19:14</t>
+          <t>2026-02-04 19:47:49</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
@@ -10854,7 +10854,7 @@
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>2026-02-04 19:19:14</t>
+          <t>2026-02-04 19:47:49</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
@@ -11095,7 +11095,7 @@
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>2026-02-04 19:19:14</t>
+          <t>2026-02-04 19:47:49</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
@@ -11336,7 +11336,7 @@
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>2026-02-04 19:19:14</t>
+          <t>2026-02-04 19:47:49</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
@@ -11562,7 +11562,7 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>18:30 - 19:00</t>
+          <t>19:00 - 19:30</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
@@ -11577,17 +11577,17 @@
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>2026-02-04 19:19:17</t>
+          <t>2026-02-04 19:47:51</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>18:30</t>
+          <t>19:00</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
         <is>
-          <t>https://www.meteo.cat/observacions/xema/dades?codi=XL&amp;dia=2026-02-04T18:30Z</t>
+          <t>https://www.meteo.cat/observacions/xema/dades?codi=XL&amp;dia=2026-02-04T19:00Z</t>
         </is>
       </c>
       <c r="K52" t="n">
@@ -11600,7 +11600,7 @@
       </c>
       <c r="M52" t="inlineStr">
         <is>
-          <t>91</t>
+          <t>6</t>
         </is>
       </c>
       <c r="N52" t="inlineStr"/>
@@ -11608,7 +11608,7 @@
       <c r="P52" t="inlineStr"/>
       <c r="Q52" t="inlineStr">
         <is>
-          <t>88</t>
+          <t>94</t>
         </is>
       </c>
       <c r="R52" t="inlineStr"/>
@@ -11619,7 +11619,7 @@
       </c>
       <c r="T52" t="inlineStr">
         <is>
-          <t>18:30 - 19:00</t>
+          <t>19:00 - 19:30</t>
         </is>
       </c>
       <c r="U52" t="inlineStr">
@@ -11629,56 +11629,56 @@
       </c>
       <c r="V52" t="inlineStr">
         <is>
+          <t>6.4</t>
+        </is>
+      </c>
+      <c r="W52" t="inlineStr">
+        <is>
+          <t>6.1</t>
+        </is>
+      </c>
+      <c r="X52" t="inlineStr">
+        <is>
           <t>6.9</t>
         </is>
       </c>
-      <c r="W52" t="inlineStr">
-        <is>
-          <t>6.3</t>
-        </is>
-      </c>
-      <c r="X52" t="inlineStr">
-        <is>
-          <t>8.0</t>
-        </is>
-      </c>
       <c r="Y52" t="inlineStr">
         <is>
-          <t>2.2</t>
+          <t>2.5</t>
         </is>
       </c>
       <c r="Z52" t="inlineStr"/>
       <c r="AA52" t="inlineStr"/>
       <c r="AB52" t="inlineStr">
         <is>
-          <t>4.3</t>
+          <t>5.8</t>
         </is>
       </c>
       <c r="AC52" t="inlineStr"/>
       <c r="AD52" t="inlineStr"/>
       <c r="AE52" t="inlineStr">
         <is>
-          <t>18:30 - 19:00</t>
+          <t>19:00 - 19:30</t>
         </is>
       </c>
       <c r="AF52" t="inlineStr">
         <is>
+          <t>6.4</t>
+        </is>
+      </c>
+      <c r="AG52" t="inlineStr">
+        <is>
           <t>6.9</t>
         </is>
       </c>
-      <c r="AG52" t="inlineStr">
-        <is>
-          <t>8.0</t>
-        </is>
-      </c>
       <c r="AH52" t="inlineStr">
         <is>
-          <t>6.3</t>
+          <t>6.1</t>
         </is>
       </c>
       <c r="AI52" t="inlineStr">
         <is>
-          <t>88</t>
+          <t>94</t>
         </is>
       </c>
       <c r="AJ52" t="inlineStr">
@@ -11688,37 +11688,37 @@
       </c>
       <c r="AK52" t="inlineStr">
         <is>
-          <t>2.2</t>
+          <t>2.5</t>
         </is>
       </c>
       <c r="AL52" t="inlineStr">
         <is>
-          <t>91</t>
+          <t>6</t>
         </is>
       </c>
       <c r="AM52" t="inlineStr">
         <is>
-          <t>18:30 - 19:00</t>
+          <t>19:00 - 19:30</t>
         </is>
       </c>
       <c r="AN52" t="inlineStr">
         <is>
+          <t>6.4</t>
+        </is>
+      </c>
+      <c r="AO52" t="inlineStr">
+        <is>
           <t>6.9</t>
         </is>
       </c>
-      <c r="AO52" t="inlineStr">
-        <is>
-          <t>8.0</t>
-        </is>
-      </c>
       <c r="AP52" t="inlineStr">
         <is>
-          <t>6.3</t>
+          <t>6.1</t>
         </is>
       </c>
       <c r="AQ52" t="inlineStr">
         <is>
-          <t>88</t>
+          <t>94</t>
         </is>
       </c>
       <c r="AR52" t="inlineStr">
@@ -11728,17 +11728,17 @@
       </c>
       <c r="AS52" t="inlineStr">
         <is>
-          <t>2.2</t>
+          <t>2.5</t>
         </is>
       </c>
       <c r="AT52" t="inlineStr">
         <is>
-          <t>91</t>
+          <t>6</t>
         </is>
       </c>
       <c r="AU52" t="inlineStr">
         <is>
-          <t>4.3</t>
+          <t>5.8</t>
         </is>
       </c>
       <c r="AV52" t="inlineStr">
@@ -11749,7 +11749,7 @@
       <c r="AW52" t="inlineStr"/>
       <c r="AX52" t="inlineStr">
         <is>
-          <t>4.3</t>
+          <t>5.8</t>
         </is>
       </c>
       <c r="AY52" t="inlineStr">
@@ -11798,7 +11798,7 @@
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>2026-02-04 19:19:18</t>
+          <t>2026-02-04 19:47:53</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
@@ -12019,7 +12019,7 @@
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>2026-02-04 19:19:18</t>
+          <t>2026-02-04 19:47:53</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
@@ -12240,7 +12240,7 @@
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>2026-02-04 19:19:18</t>
+          <t>2026-02-04 19:47:53</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
@@ -12461,7 +12461,7 @@
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>2026-02-04 19:19:18</t>
+          <t>2026-02-04 19:47:53</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
@@ -12667,7 +12667,7 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>18:30 - 19:00</t>
+          <t>19:00 - 19:30</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
@@ -12682,17 +12682,17 @@
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>2026-02-04 19:19:20</t>
+          <t>2026-02-04 19:47:55</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>18:30</t>
+          <t>19:00</t>
         </is>
       </c>
       <c r="J57" t="inlineStr">
         <is>
-          <t>https://www.meteo.cat/observacions/xema/dades?codi=VZ&amp;dia=2026-02-04T18:30Z</t>
+          <t>https://www.meteo.cat/observacions/xema/dades?codi=VZ&amp;dia=2026-02-04T19:00Z</t>
         </is>
       </c>
       <c r="K57" t="n">
@@ -12709,7 +12709,7 @@
       <c r="P57" t="inlineStr"/>
       <c r="Q57" t="inlineStr">
         <is>
-          <t>85</t>
+          <t>88</t>
         </is>
       </c>
       <c r="R57" t="inlineStr"/>
@@ -12720,23 +12720,23 @@
       </c>
       <c r="T57" t="inlineStr">
         <is>
-          <t>18:30 - 19:00</t>
+          <t>19:00 - 19:30</t>
         </is>
       </c>
       <c r="U57" t="inlineStr"/>
       <c r="V57" t="inlineStr">
         <is>
-          <t>6.9</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="W57" t="inlineStr">
         <is>
-          <t>6.3</t>
+          <t>5.7</t>
         </is>
       </c>
       <c r="X57" t="inlineStr">
         <is>
-          <t>7.6</t>
+          <t>6.2</t>
         </is>
       </c>
       <c r="Y57" t="inlineStr"/>
@@ -12747,27 +12747,27 @@
       <c r="AD57" t="inlineStr"/>
       <c r="AE57" t="inlineStr">
         <is>
-          <t>18:30 - 19:00</t>
+          <t>19:00 - 19:30</t>
         </is>
       </c>
       <c r="AF57" t="inlineStr">
         <is>
-          <t>6.9</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="AG57" t="inlineStr">
         <is>
-          <t>7.6</t>
+          <t>6.2</t>
         </is>
       </c>
       <c r="AH57" t="inlineStr">
         <is>
-          <t>6.3</t>
+          <t>5.7</t>
         </is>
       </c>
       <c r="AI57" t="inlineStr">
         <is>
-          <t>85</t>
+          <t>88</t>
         </is>
       </c>
       <c r="AJ57" t="inlineStr">
@@ -12779,27 +12779,27 @@
       <c r="AL57" t="inlineStr"/>
       <c r="AM57" t="inlineStr">
         <is>
-          <t>18:30 - 19:00</t>
+          <t>19:00 - 19:30</t>
         </is>
       </c>
       <c r="AN57" t="inlineStr">
         <is>
-          <t>6.9</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="AO57" t="inlineStr">
         <is>
-          <t>7.6</t>
+          <t>6.2</t>
         </is>
       </c>
       <c r="AP57" t="inlineStr">
         <is>
-          <t>6.3</t>
+          <t>5.7</t>
         </is>
       </c>
       <c r="AQ57" t="inlineStr">
         <is>
-          <t>85</t>
+          <t>88</t>
         </is>
       </c>
       <c r="AR57" t="inlineStr">
@@ -12855,7 +12855,7 @@
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>2026-02-04 19:19:22</t>
+          <t>2026-02-04 19:47:57</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
@@ -13028,7 +13028,7 @@
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>2026-02-04 19:19:22</t>
+          <t>2026-02-04 19:47:57</t>
         </is>
       </c>
       <c r="I59" t="inlineStr">
@@ -13201,7 +13201,7 @@
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>2026-02-04 19:19:22</t>
+          <t>2026-02-04 19:47:57</t>
         </is>
       </c>
       <c r="I60" t="inlineStr">
@@ -13374,7 +13374,7 @@
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>2026-02-04 19:19:22</t>
+          <t>2026-02-04 19:47:57</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
@@ -13532,7 +13532,7 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>18:30 - 19:00</t>
+          <t>19:00 - 19:30</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
@@ -13547,17 +13547,17 @@
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>2026-02-04 19:19:25</t>
+          <t>2026-02-04 19:47:59</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>18:30</t>
+          <t>19:00</t>
         </is>
       </c>
       <c r="J62" t="inlineStr">
         <is>
-          <t>https://www.meteo.cat/observacions/xema/dades?codi=Z7&amp;dia=2026-02-04T18:30Z</t>
+          <t>https://www.meteo.cat/observacions/xema/dades?codi=Z7&amp;dia=2026-02-04T19:00Z</t>
         </is>
       </c>
       <c r="K62" t="n">
@@ -13570,7 +13570,7 @@
       </c>
       <c r="M62" t="inlineStr">
         <is>
-          <t>230</t>
+          <t>241</t>
         </is>
       </c>
       <c r="N62" t="inlineStr"/>
@@ -13582,7 +13582,7 @@
       </c>
       <c r="Q62" t="inlineStr">
         <is>
-          <t>70</t>
+          <t>80</t>
         </is>
       </c>
       <c r="R62" t="inlineStr"/>
@@ -13593,7 +13593,7 @@
       </c>
       <c r="T62" t="inlineStr">
         <is>
-          <t>18:30 - 19:00</t>
+          <t>19:00 - 19:30</t>
         </is>
       </c>
       <c r="U62" t="inlineStr">
@@ -13603,56 +13603,56 @@
       </c>
       <c r="V62" t="inlineStr">
         <is>
+          <t>-3.3</t>
+        </is>
+      </c>
+      <c r="W62" t="inlineStr">
+        <is>
+          <t>-3.5</t>
+        </is>
+      </c>
+      <c r="X62" t="inlineStr">
+        <is>
           <t>-3.1</t>
         </is>
       </c>
-      <c r="W62" t="inlineStr">
-        <is>
-          <t>-3.4</t>
-        </is>
-      </c>
-      <c r="X62" t="inlineStr">
-        <is>
-          <t>-2.8</t>
-        </is>
-      </c>
       <c r="Y62" t="inlineStr">
         <is>
-          <t>13.0</t>
+          <t>15.1</t>
         </is>
       </c>
       <c r="Z62" t="inlineStr"/>
       <c r="AA62" t="inlineStr"/>
       <c r="AB62" t="inlineStr">
         <is>
-          <t>34.6</t>
+          <t>47.9</t>
         </is>
       </c>
       <c r="AC62" t="inlineStr"/>
       <c r="AD62" t="inlineStr"/>
       <c r="AE62" t="inlineStr">
         <is>
-          <t>18:30 - 19:00</t>
+          <t>19:00 - 19:30</t>
         </is>
       </c>
       <c r="AF62" t="inlineStr">
         <is>
+          <t>-3.3</t>
+        </is>
+      </c>
+      <c r="AG62" t="inlineStr">
+        <is>
           <t>-3.1</t>
         </is>
       </c>
-      <c r="AG62" t="inlineStr">
-        <is>
-          <t>-2.8</t>
-        </is>
-      </c>
       <c r="AH62" t="inlineStr">
         <is>
-          <t>-3.4</t>
+          <t>-3.5</t>
         </is>
       </c>
       <c r="AI62" t="inlineStr">
         <is>
-          <t>70</t>
+          <t>80</t>
         </is>
       </c>
       <c r="AJ62" t="inlineStr">
@@ -13667,32 +13667,32 @@
       </c>
       <c r="AL62" t="inlineStr">
         <is>
-          <t>13.0</t>
+          <t>15.1</t>
         </is>
       </c>
       <c r="AM62" t="inlineStr">
         <is>
-          <t>18:30 - 19:00</t>
+          <t>19:00 - 19:30</t>
         </is>
       </c>
       <c r="AN62" t="inlineStr">
         <is>
+          <t>-3.3</t>
+        </is>
+      </c>
+      <c r="AO62" t="inlineStr">
+        <is>
           <t>-3.1</t>
         </is>
       </c>
-      <c r="AO62" t="inlineStr">
-        <is>
-          <t>-2.8</t>
-        </is>
-      </c>
       <c r="AP62" t="inlineStr">
         <is>
-          <t>-3.4</t>
+          <t>-3.5</t>
         </is>
       </c>
       <c r="AQ62" t="inlineStr">
         <is>
-          <t>70</t>
+          <t>80</t>
         </is>
       </c>
       <c r="AR62" t="inlineStr">
@@ -13707,17 +13707,17 @@
       </c>
       <c r="AT62" t="inlineStr">
         <is>
-          <t>13.0</t>
+          <t>15.1</t>
         </is>
       </c>
       <c r="AU62" t="inlineStr">
         <is>
-          <t>230</t>
+          <t>241</t>
         </is>
       </c>
       <c r="AV62" t="inlineStr">
         <is>
-          <t>34.6</t>
+          <t>47.9</t>
         </is>
       </c>
       <c r="AW62" t="inlineStr">
@@ -13727,12 +13727,12 @@
       </c>
       <c r="AX62" t="inlineStr">
         <is>
-          <t>230</t>
+          <t>241</t>
         </is>
       </c>
       <c r="AY62" t="inlineStr">
         <is>
-          <t>34.6</t>
+          <t>47.9</t>
         </is>
       </c>
       <c r="AZ62" t="inlineStr">
@@ -13780,7 +13780,7 @@
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>2026-02-04 19:19:26</t>
+          <t>2026-02-04 19:48:00</t>
         </is>
       </c>
       <c r="I63" t="inlineStr">
@@ -14013,7 +14013,7 @@
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>2026-02-04 19:19:26</t>
+          <t>2026-02-04 19:48:00</t>
         </is>
       </c>
       <c r="I64" t="inlineStr">
@@ -14246,7 +14246,7 @@
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>2026-02-04 19:19:26</t>
+          <t>2026-02-04 19:48:00</t>
         </is>
       </c>
       <c r="I65" t="inlineStr">
@@ -14479,7 +14479,7 @@
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>2026-02-04 19:19:26</t>
+          <t>2026-02-04 19:48:00</t>
         </is>
       </c>
       <c r="I66" t="inlineStr">
@@ -14697,7 +14697,7 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>18:30 - 19:00</t>
+          <t>19:00 - 19:30</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
@@ -14712,17 +14712,17 @@
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>2026-02-04 19:19:29</t>
+          <t>2026-02-04 19:48:03</t>
         </is>
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>18:30</t>
+          <t>19:00</t>
         </is>
       </c>
       <c r="J67" t="inlineStr">
         <is>
-          <t>https://www.meteo.cat/observacions/xema/dades?codi=XJ&amp;dia=2026-02-04T18:30Z</t>
+          <t>https://www.meteo.cat/observacions/xema/dades?codi=XJ&amp;dia=2026-02-04T19:00Z</t>
         </is>
       </c>
       <c r="K67" t="n">
@@ -14735,7 +14735,7 @@
       </c>
       <c r="M67" t="inlineStr">
         <is>
-          <t>128</t>
+          <t>237</t>
         </is>
       </c>
       <c r="N67" t="inlineStr"/>
@@ -14743,12 +14743,12 @@
       <c r="P67" t="inlineStr"/>
       <c r="Q67" t="inlineStr">
         <is>
-          <t>86</t>
+          <t>92</t>
         </is>
       </c>
       <c r="R67" t="inlineStr">
         <is>
-          <t>992.3</t>
+          <t>992.7</t>
         </is>
       </c>
       <c r="S67" t="inlineStr">
@@ -14758,7 +14758,7 @@
       </c>
       <c r="T67" t="inlineStr">
         <is>
-          <t>18:30 - 19:00</t>
+          <t>19:00 - 19:30</t>
         </is>
       </c>
       <c r="U67" t="inlineStr">
@@ -14768,96 +14768,96 @@
       </c>
       <c r="V67" t="inlineStr">
         <is>
-          <t>6.4</t>
+          <t>5.3</t>
         </is>
       </c>
       <c r="W67" t="inlineStr">
         <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="X67" t="inlineStr">
+        <is>
           <t>5.6</t>
         </is>
       </c>
-      <c r="X67" t="inlineStr">
-        <is>
-          <t>7.2</t>
-        </is>
-      </c>
       <c r="Y67" t="inlineStr">
         <is>
-          <t>2.2</t>
+          <t>1.1</t>
         </is>
       </c>
       <c r="Z67" t="inlineStr"/>
       <c r="AA67" t="inlineStr"/>
       <c r="AB67" t="inlineStr">
         <is>
-          <t>6.5</t>
+          <t>5.0</t>
         </is>
       </c>
       <c r="AC67" t="inlineStr"/>
       <c r="AD67" t="inlineStr"/>
       <c r="AE67" t="inlineStr">
         <is>
-          <t>18:30 - 19:00</t>
+          <t>19:00 - 19:30</t>
         </is>
       </c>
       <c r="AF67" t="inlineStr">
         <is>
-          <t>6.4</t>
+          <t>5.3</t>
         </is>
       </c>
       <c r="AG67" t="inlineStr">
         <is>
-          <t>7.2</t>
+          <t>5.6</t>
         </is>
       </c>
       <c r="AH67" t="inlineStr">
         <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="AI67" t="inlineStr">
+        <is>
+          <t>92</t>
+        </is>
+      </c>
+      <c r="AJ67" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="AK67" t="inlineStr">
+        <is>
+          <t>1.1</t>
+        </is>
+      </c>
+      <c r="AL67" t="inlineStr">
+        <is>
+          <t>237</t>
+        </is>
+      </c>
+      <c r="AM67" t="inlineStr">
+        <is>
+          <t>19:00 - 19:30</t>
+        </is>
+      </c>
+      <c r="AN67" t="inlineStr">
+        <is>
+          <t>5.3</t>
+        </is>
+      </c>
+      <c r="AO67" t="inlineStr">
+        <is>
           <t>5.6</t>
         </is>
       </c>
-      <c r="AI67" t="inlineStr">
-        <is>
-          <t>86</t>
-        </is>
-      </c>
-      <c r="AJ67" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="AK67" t="inlineStr">
-        <is>
-          <t>2.2</t>
-        </is>
-      </c>
-      <c r="AL67" t="inlineStr">
-        <is>
-          <t>128</t>
-        </is>
-      </c>
-      <c r="AM67" t="inlineStr">
-        <is>
-          <t>18:30 - 19:00</t>
-        </is>
-      </c>
-      <c r="AN67" t="inlineStr">
-        <is>
-          <t>6.4</t>
-        </is>
-      </c>
-      <c r="AO67" t="inlineStr">
-        <is>
-          <t>7.2</t>
-        </is>
-      </c>
       <c r="AP67" t="inlineStr">
         <is>
-          <t>5.6</t>
+          <t>5.0</t>
         </is>
       </c>
       <c r="AQ67" t="inlineStr">
         <is>
-          <t>86</t>
+          <t>92</t>
         </is>
       </c>
       <c r="AR67" t="inlineStr">
@@ -14867,22 +14867,22 @@
       </c>
       <c r="AS67" t="inlineStr">
         <is>
-          <t>2.2</t>
+          <t>1.1</t>
         </is>
       </c>
       <c r="AT67" t="inlineStr">
         <is>
-          <t>128</t>
+          <t>237</t>
         </is>
       </c>
       <c r="AU67" t="inlineStr">
         <is>
-          <t>6.5</t>
+          <t>5.0</t>
         </is>
       </c>
       <c r="AV67" t="inlineStr">
         <is>
-          <t>992.3</t>
+          <t>992.7</t>
         </is>
       </c>
       <c r="AW67" t="inlineStr">
@@ -14892,12 +14892,12 @@
       </c>
       <c r="AX67" t="inlineStr">
         <is>
-          <t>6.5</t>
+          <t>5.0</t>
         </is>
       </c>
       <c r="AY67" t="inlineStr">
         <is>
-          <t>992.3</t>
+          <t>992.7</t>
         </is>
       </c>
       <c r="AZ67" t="inlineStr">
@@ -14945,7 +14945,7 @@
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>2026-02-04 19:19:31</t>
+          <t>2026-02-04 19:48:04</t>
         </is>
       </c>
       <c r="I68" t="inlineStr">
@@ -15178,7 +15178,7 @@
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>2026-02-04 19:19:31</t>
+          <t>2026-02-04 19:48:04</t>
         </is>
       </c>
       <c r="I69" t="inlineStr">
@@ -15411,7 +15411,7 @@
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>2026-02-04 19:19:31</t>
+          <t>2026-02-04 19:48:04</t>
         </is>
       </c>
       <c r="I70" t="inlineStr">
@@ -15644,7 +15644,7 @@
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>2026-02-04 19:19:31</t>
+          <t>2026-02-04 19:48:04</t>
         </is>
       </c>
       <c r="I71" t="inlineStr">
@@ -15862,7 +15862,7 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>18:30 - 19:00</t>
+          <t>19:00 - 19:30</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
@@ -15877,17 +15877,17 @@
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>2026-02-04 19:19:33</t>
+          <t>2026-02-04 19:48:06</t>
         </is>
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>18:30</t>
+          <t>19:00</t>
         </is>
       </c>
       <c r="J72" t="inlineStr">
         <is>
-          <t>https://www.meteo.cat/observacions/xema/dades?codi=YU&amp;dia=2026-02-04T18:30Z</t>
+          <t>https://www.meteo.cat/observacions/xema/dades?codi=YU&amp;dia=2026-02-04T19:00Z</t>
         </is>
       </c>
       <c r="K72" t="n">
@@ -15900,7 +15900,7 @@
       </c>
       <c r="M72" t="inlineStr">
         <is>
-          <t>241</t>
+          <t>236</t>
         </is>
       </c>
       <c r="N72" t="inlineStr"/>
@@ -15919,7 +15919,7 @@
       </c>
       <c r="T72" t="inlineStr">
         <is>
-          <t>18:30 - 19:00</t>
+          <t>19:00 - 19:30</t>
         </is>
       </c>
       <c r="U72" t="inlineStr">
@@ -15929,17 +15929,17 @@
       </c>
       <c r="V72" t="inlineStr">
         <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="W72" t="inlineStr">
+        <is>
+          <t>2.8</t>
+        </is>
+      </c>
+      <c r="X72" t="inlineStr">
+        <is>
           <t>3.1</t>
-        </is>
-      </c>
-      <c r="W72" t="inlineStr">
-        <is>
-          <t>3.0</t>
-        </is>
-      </c>
-      <c r="X72" t="inlineStr">
-        <is>
-          <t>3.3</t>
         </is>
       </c>
       <c r="Y72" t="inlineStr">
@@ -15951,94 +15951,94 @@
       <c r="AA72" t="inlineStr"/>
       <c r="AB72" t="inlineStr">
         <is>
-          <t>9.4</t>
+          <t>11.2</t>
         </is>
       </c>
       <c r="AC72" t="inlineStr"/>
       <c r="AD72" t="inlineStr"/>
       <c r="AE72" t="inlineStr">
         <is>
-          <t>18:30 - 19:00</t>
+          <t>19:00 - 19:30</t>
         </is>
       </c>
       <c r="AF72" t="inlineStr">
         <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="AG72" t="inlineStr">
+        <is>
           <t>3.1</t>
         </is>
       </c>
-      <c r="AG72" t="inlineStr">
-        <is>
-          <t>3.3</t>
-        </is>
-      </c>
       <c r="AH72" t="inlineStr">
         <is>
+          <t>2.8</t>
+        </is>
+      </c>
+      <c r="AI72" t="inlineStr">
+        <is>
+          <t>92</t>
+        </is>
+      </c>
+      <c r="AJ72" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="AK72" t="inlineStr">
+        <is>
+          <t>4.3</t>
+        </is>
+      </c>
+      <c r="AL72" t="inlineStr">
+        <is>
+          <t>236</t>
+        </is>
+      </c>
+      <c r="AM72" t="inlineStr">
+        <is>
+          <t>19:00 - 19:30</t>
+        </is>
+      </c>
+      <c r="AN72" t="inlineStr">
+        <is>
           <t>3.0</t>
         </is>
       </c>
-      <c r="AI72" t="inlineStr">
+      <c r="AO72" t="inlineStr">
+        <is>
+          <t>3.1</t>
+        </is>
+      </c>
+      <c r="AP72" t="inlineStr">
+        <is>
+          <t>2.8</t>
+        </is>
+      </c>
+      <c r="AQ72" t="inlineStr">
         <is>
           <t>92</t>
         </is>
       </c>
-      <c r="AJ72" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="AK72" t="inlineStr">
+      <c r="AR72" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="AS72" t="inlineStr">
         <is>
           <t>4.3</t>
         </is>
       </c>
-      <c r="AL72" t="inlineStr">
-        <is>
-          <t>241</t>
-        </is>
-      </c>
-      <c r="AM72" t="inlineStr">
-        <is>
-          <t>18:30 - 19:00</t>
-        </is>
-      </c>
-      <c r="AN72" t="inlineStr">
-        <is>
-          <t>3.1</t>
-        </is>
-      </c>
-      <c r="AO72" t="inlineStr">
-        <is>
-          <t>3.3</t>
-        </is>
-      </c>
-      <c r="AP72" t="inlineStr">
-        <is>
-          <t>3.0</t>
-        </is>
-      </c>
-      <c r="AQ72" t="inlineStr">
-        <is>
-          <t>92</t>
-        </is>
-      </c>
-      <c r="AR72" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="AS72" t="inlineStr">
-        <is>
-          <t>4.3</t>
-        </is>
-      </c>
       <c r="AT72" t="inlineStr">
         <is>
-          <t>241</t>
+          <t>236</t>
         </is>
       </c>
       <c r="AU72" t="inlineStr">
         <is>
-          <t>9.4</t>
+          <t>11.2</t>
         </is>
       </c>
       <c r="AV72" t="inlineStr">
@@ -16049,7 +16049,7 @@
       <c r="AW72" t="inlineStr"/>
       <c r="AX72" t="inlineStr">
         <is>
-          <t>9.4</t>
+          <t>11.2</t>
         </is>
       </c>
       <c r="AY72" t="inlineStr">
@@ -16098,7 +16098,7 @@
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>2026-02-04 19:19:35</t>
+          <t>2026-02-04 19:48:08</t>
         </is>
       </c>
       <c r="I73" t="inlineStr">
@@ -16319,7 +16319,7 @@
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>2026-02-04 19:19:35</t>
+          <t>2026-02-04 19:48:08</t>
         </is>
       </c>
       <c r="I74" t="inlineStr">
@@ -16540,7 +16540,7 @@
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>2026-02-04 19:19:35</t>
+          <t>2026-02-04 19:48:08</t>
         </is>
       </c>
       <c r="I75" t="inlineStr">
@@ -16761,7 +16761,7 @@
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>2026-02-04 19:19:35</t>
+          <t>2026-02-04 19:48:08</t>
         </is>
       </c>
       <c r="I76" t="inlineStr">
@@ -16967,7 +16967,7 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>18:00 - 18:30</t>
+          <t>19:00 - 19:30</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
@@ -16982,17 +16982,17 @@
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>2026-02-04 19:19:38</t>
+          <t>2026-02-04 19:48:10</t>
         </is>
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>18:30</t>
+          <t>19:00</t>
         </is>
       </c>
       <c r="J77" t="inlineStr">
         <is>
-          <t>https://www.meteo.cat/observacions/xema/dades?codi=CD&amp;dia=2026-02-04T18:30Z</t>
+          <t>https://www.meteo.cat/observacions/xema/dades?codi=CD&amp;dia=2026-02-04T19:00Z</t>
         </is>
       </c>
       <c r="K77" t="n">
@@ -17005,7 +17005,7 @@
       </c>
       <c r="M77" t="inlineStr">
         <is>
-          <t>63</t>
+          <t>284</t>
         </is>
       </c>
       <c r="N77" t="inlineStr"/>
@@ -17013,12 +17013,12 @@
       <c r="P77" t="inlineStr"/>
       <c r="Q77" t="inlineStr">
         <is>
-          <t>78</t>
+          <t>84</t>
         </is>
       </c>
       <c r="R77" t="inlineStr">
         <is>
-          <t>993.7</t>
+          <t>995.0</t>
         </is>
       </c>
       <c r="S77" t="inlineStr">
@@ -17028,7 +17028,7 @@
       </c>
       <c r="T77" t="inlineStr">
         <is>
-          <t>18:00 - 18:30</t>
+          <t>19:00 - 19:30</t>
         </is>
       </c>
       <c r="U77" t="inlineStr">
@@ -17038,56 +17038,56 @@
       </c>
       <c r="V77" t="inlineStr">
         <is>
-          <t>4.6</t>
+          <t>3.7</t>
         </is>
       </c>
       <c r="W77" t="inlineStr">
         <is>
-          <t>4.1</t>
+          <t>3.6</t>
         </is>
       </c>
       <c r="X77" t="inlineStr">
         <is>
-          <t>5.1</t>
+          <t>3.8</t>
         </is>
       </c>
       <c r="Y77" t="inlineStr">
         <is>
-          <t>2.5</t>
+          <t>3.6</t>
         </is>
       </c>
       <c r="Z77" t="inlineStr"/>
       <c r="AA77" t="inlineStr"/>
       <c r="AB77" t="inlineStr">
         <is>
-          <t>7.9</t>
+          <t>7.6</t>
         </is>
       </c>
       <c r="AC77" t="inlineStr"/>
       <c r="AD77" t="inlineStr"/>
       <c r="AE77" t="inlineStr">
         <is>
-          <t>18:00 - 18:30</t>
+          <t>19:00 - 19:30</t>
         </is>
       </c>
       <c r="AF77" t="inlineStr">
         <is>
-          <t>4.6</t>
+          <t>3.7</t>
         </is>
       </c>
       <c r="AG77" t="inlineStr">
         <is>
-          <t>5.1</t>
+          <t>3.8</t>
         </is>
       </c>
       <c r="AH77" t="inlineStr">
         <is>
-          <t>4.1</t>
+          <t>3.6</t>
         </is>
       </c>
       <c r="AI77" t="inlineStr">
         <is>
-          <t>78</t>
+          <t>84</t>
         </is>
       </c>
       <c r="AJ77" t="inlineStr">
@@ -17097,37 +17097,37 @@
       </c>
       <c r="AK77" t="inlineStr">
         <is>
-          <t>2.5</t>
+          <t>3.6</t>
         </is>
       </c>
       <c r="AL77" t="inlineStr">
         <is>
-          <t>63</t>
+          <t>284</t>
         </is>
       </c>
       <c r="AM77" t="inlineStr">
         <is>
-          <t>18:00 - 18:30</t>
+          <t>19:00 - 19:30</t>
         </is>
       </c>
       <c r="AN77" t="inlineStr">
         <is>
-          <t>4.6</t>
+          <t>3.7</t>
         </is>
       </c>
       <c r="AO77" t="inlineStr">
         <is>
-          <t>5.1</t>
+          <t>3.8</t>
         </is>
       </c>
       <c r="AP77" t="inlineStr">
         <is>
-          <t>4.1</t>
+          <t>3.6</t>
         </is>
       </c>
       <c r="AQ77" t="inlineStr">
         <is>
-          <t>78</t>
+          <t>84</t>
         </is>
       </c>
       <c r="AR77" t="inlineStr">
@@ -17137,22 +17137,22 @@
       </c>
       <c r="AS77" t="inlineStr">
         <is>
-          <t>2.5</t>
+          <t>3.6</t>
         </is>
       </c>
       <c r="AT77" t="inlineStr">
         <is>
-          <t>63</t>
+          <t>284</t>
         </is>
       </c>
       <c r="AU77" t="inlineStr">
         <is>
-          <t>7.9</t>
+          <t>7.6</t>
         </is>
       </c>
       <c r="AV77" t="inlineStr">
         <is>
-          <t>993.7</t>
+          <t>995.0</t>
         </is>
       </c>
       <c r="AW77" t="inlineStr">
@@ -17162,12 +17162,12 @@
       </c>
       <c r="AX77" t="inlineStr">
         <is>
-          <t>7.9</t>
+          <t>7.6</t>
         </is>
       </c>
       <c r="AY77" t="inlineStr">
         <is>
-          <t>993.7</t>
+          <t>995.0</t>
         </is>
       </c>
       <c r="AZ77" t="inlineStr">
@@ -17215,7 +17215,7 @@
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>2026-02-04 19:19:39</t>
+          <t>2026-02-04 19:48:12</t>
         </is>
       </c>
       <c r="I78" t="inlineStr">
@@ -17448,7 +17448,7 @@
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>2026-02-04 19:19:39</t>
+          <t>2026-02-04 19:48:12</t>
         </is>
       </c>
       <c r="I79" t="inlineStr">
@@ -17681,7 +17681,7 @@
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>2026-02-04 19:19:39</t>
+          <t>2026-02-04 19:48:12</t>
         </is>
       </c>
       <c r="I80" t="inlineStr">
@@ -17914,7 +17914,7 @@
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>2026-02-04 19:19:39</t>
+          <t>2026-02-04 19:48:12</t>
         </is>
       </c>
       <c r="I81" t="inlineStr">
@@ -18132,7 +18132,7 @@
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>18:30 - 19:00</t>
+          <t>19:00 - 19:30</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
@@ -18147,17 +18147,17 @@
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>2026-02-04 19:19:42</t>
+          <t>2026-02-04 19:48:15</t>
         </is>
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>18:30</t>
+          <t>19:00</t>
         </is>
       </c>
       <c r="J82" t="inlineStr">
         <is>
-          <t>https://www.meteo.cat/observacions/xema/dades?codi=Z2&amp;dia=2026-02-04T18:30Z</t>
+          <t>https://www.meteo.cat/observacions/xema/dades?codi=Z2&amp;dia=2026-02-04T19:00Z</t>
         </is>
       </c>
       <c r="K82" t="n">
@@ -18172,7 +18172,7 @@
       <c r="N82" t="inlineStr"/>
       <c r="O82" t="inlineStr">
         <is>
-          <t>305</t>
+          <t>314</t>
         </is>
       </c>
       <c r="P82" t="inlineStr">
@@ -18193,7 +18193,7 @@
       </c>
       <c r="T82" t="inlineStr">
         <is>
-          <t>18:30 - 19:00</t>
+          <t>19:00 - 19:30</t>
         </is>
       </c>
       <c r="U82" t="inlineStr">
@@ -18203,136 +18203,136 @@
       </c>
       <c r="V82" t="inlineStr">
         <is>
+          <t>-4.7</t>
+        </is>
+      </c>
+      <c r="W82" t="inlineStr">
+        <is>
           <t>-4.8</t>
         </is>
       </c>
-      <c r="W82" t="inlineStr">
-        <is>
-          <t>-4.9</t>
-        </is>
-      </c>
       <c r="X82" t="inlineStr">
         <is>
-          <t>-4.8</t>
+          <t>-4.7</t>
         </is>
       </c>
       <c r="Y82" t="inlineStr"/>
       <c r="Z82" t="inlineStr"/>
       <c r="AA82" t="inlineStr">
         <is>
-          <t>5.8</t>
+          <t>5.0</t>
         </is>
       </c>
       <c r="AB82" t="inlineStr"/>
       <c r="AC82" t="inlineStr"/>
       <c r="AD82" t="inlineStr">
         <is>
-          <t>7.9</t>
+          <t>5.8</t>
         </is>
       </c>
       <c r="AE82" t="inlineStr">
         <is>
-          <t>18:30 - 19:00</t>
+          <t>19:00 - 19:30</t>
         </is>
       </c>
       <c r="AF82" t="inlineStr">
         <is>
+          <t>-4.7</t>
+        </is>
+      </c>
+      <c r="AG82" t="inlineStr">
+        <is>
+          <t>-4.7</t>
+        </is>
+      </c>
+      <c r="AH82" t="inlineStr">
+        <is>
           <t>-4.8</t>
         </is>
       </c>
-      <c r="AG82" t="inlineStr">
+      <c r="AI82" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="AJ82" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="AK82" t="inlineStr">
+        <is>
+          <t>114</t>
+        </is>
+      </c>
+      <c r="AL82" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="AM82" t="inlineStr">
+        <is>
+          <t>19:00 - 19:30</t>
+        </is>
+      </c>
+      <c r="AN82" t="inlineStr">
+        <is>
+          <t>-4.7</t>
+        </is>
+      </c>
+      <c r="AO82" t="inlineStr">
+        <is>
+          <t>-4.7</t>
+        </is>
+      </c>
+      <c r="AP82" t="inlineStr">
         <is>
           <t>-4.8</t>
         </is>
       </c>
-      <c r="AH82" t="inlineStr">
-        <is>
-          <t>-4.9</t>
-        </is>
-      </c>
-      <c r="AI82" t="inlineStr">
+      <c r="AQ82" t="inlineStr">
         <is>
           <t>96</t>
         </is>
       </c>
-      <c r="AJ82" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="AK82" t="inlineStr">
+      <c r="AR82" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="AS82" t="inlineStr">
         <is>
           <t>114</t>
         </is>
       </c>
-      <c r="AL82" t="inlineStr">
+      <c r="AT82" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="AU82" t="inlineStr">
+        <is>
+          <t>314</t>
+        </is>
+      </c>
+      <c r="AV82" t="inlineStr">
         <is>
           <t>5.8</t>
         </is>
       </c>
-      <c r="AM82" t="inlineStr">
-        <is>
-          <t>18:30 - 19:00</t>
-        </is>
-      </c>
-      <c r="AN82" t="inlineStr">
-        <is>
-          <t>-4.8</t>
-        </is>
-      </c>
-      <c r="AO82" t="inlineStr">
-        <is>
-          <t>-4.8</t>
-        </is>
-      </c>
-      <c r="AP82" t="inlineStr">
-        <is>
-          <t>-4.9</t>
-        </is>
-      </c>
-      <c r="AQ82" t="inlineStr">
-        <is>
-          <t>96</t>
-        </is>
-      </c>
-      <c r="AR82" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="AS82" t="inlineStr">
-        <is>
-          <t>114</t>
-        </is>
-      </c>
-      <c r="AT82" t="inlineStr">
+      <c r="AW82" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AX82" t="inlineStr">
+        <is>
+          <t>314</t>
+        </is>
+      </c>
+      <c r="AY82" t="inlineStr">
         <is>
           <t>5.8</t>
-        </is>
-      </c>
-      <c r="AU82" t="inlineStr">
-        <is>
-          <t>305</t>
-        </is>
-      </c>
-      <c r="AV82" t="inlineStr">
-        <is>
-          <t>7.9</t>
-        </is>
-      </c>
-      <c r="AW82" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AX82" t="inlineStr">
-        <is>
-          <t>305</t>
-        </is>
-      </c>
-      <c r="AY82" t="inlineStr">
-        <is>
-          <t>7.9</t>
         </is>
       </c>
       <c r="AZ82" t="inlineStr">
@@ -18380,7 +18380,7 @@
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>2026-02-04 19:19:44</t>
+          <t>2026-02-04 19:48:16</t>
         </is>
       </c>
       <c r="I83" t="inlineStr">
@@ -18613,7 +18613,7 @@
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>2026-02-04 19:19:44</t>
+          <t>2026-02-04 19:48:16</t>
         </is>
       </c>
       <c r="I84" t="inlineStr">
@@ -18846,7 +18846,7 @@
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>2026-02-04 19:19:44</t>
+          <t>2026-02-04 19:48:16</t>
         </is>
       </c>
       <c r="I85" t="inlineStr">
@@ -19079,7 +19079,7 @@
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>2026-02-04 19:19:44</t>
+          <t>2026-02-04 19:48:16</t>
         </is>
       </c>
       <c r="I86" t="inlineStr">
@@ -19297,7 +19297,7 @@
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>18:30 - 19:00</t>
+          <t>19:00 - 19:30</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
@@ -19312,17 +19312,17 @@
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>2026-02-04 19:19:47</t>
+          <t>2026-02-04 19:48:19</t>
         </is>
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>18:30</t>
+          <t>19:00</t>
         </is>
       </c>
       <c r="J87" t="inlineStr">
         <is>
-          <t>https://www.meteo.cat/observacions/xema/dades?codi=VK&amp;dia=2026-02-04T18:30Z</t>
+          <t>https://www.meteo.cat/observacions/xema/dades?codi=VK&amp;dia=2026-02-04T19:00Z</t>
         </is>
       </c>
       <c r="K87" t="n">
@@ -19335,7 +19335,7 @@
       </c>
       <c r="M87" t="inlineStr">
         <is>
-          <t>121</t>
+          <t>200</t>
         </is>
       </c>
       <c r="N87" t="inlineStr"/>
@@ -19343,12 +19343,12 @@
       <c r="P87" t="inlineStr"/>
       <c r="Q87" t="inlineStr">
         <is>
-          <t>97</t>
+          <t>100</t>
         </is>
       </c>
       <c r="R87" t="inlineStr">
         <is>
-          <t>994.0</t>
+          <t>994.8</t>
         </is>
       </c>
       <c r="S87" t="inlineStr">
@@ -19358,7 +19358,7 @@
       </c>
       <c r="T87" t="inlineStr">
         <is>
-          <t>18:30 - 19:00</t>
+          <t>19:00 - 19:30</t>
         </is>
       </c>
       <c r="U87" t="inlineStr">
@@ -19368,56 +19368,56 @@
       </c>
       <c r="V87" t="inlineStr">
         <is>
-          <t>6.2</t>
+          <t>4.9</t>
         </is>
       </c>
       <c r="W87" t="inlineStr">
         <is>
-          <t>5.5</t>
+          <t>4.7</t>
         </is>
       </c>
       <c r="X87" t="inlineStr">
         <is>
-          <t>6.9</t>
+          <t>5.4</t>
         </is>
       </c>
       <c r="Y87" t="inlineStr">
         <is>
-          <t>2.9</t>
+          <t>2.2</t>
         </is>
       </c>
       <c r="Z87" t="inlineStr"/>
       <c r="AA87" t="inlineStr"/>
       <c r="AB87" t="inlineStr">
         <is>
-          <t>4.3</t>
+          <t>3.2</t>
         </is>
       </c>
       <c r="AC87" t="inlineStr"/>
       <c r="AD87" t="inlineStr"/>
       <c r="AE87" t="inlineStr">
         <is>
-          <t>18:30 - 19:00</t>
+          <t>19:00 - 19:30</t>
         </is>
       </c>
       <c r="AF87" t="inlineStr">
         <is>
-          <t>6.2</t>
+          <t>4.9</t>
         </is>
       </c>
       <c r="AG87" t="inlineStr">
         <is>
-          <t>6.9</t>
+          <t>5.4</t>
         </is>
       </c>
       <c r="AH87" t="inlineStr">
         <is>
-          <t>5.5</t>
+          <t>4.7</t>
         </is>
       </c>
       <c r="AI87" t="inlineStr">
         <is>
-          <t>97</t>
+          <t>100</t>
         </is>
       </c>
       <c r="AJ87" t="inlineStr">
@@ -19427,37 +19427,37 @@
       </c>
       <c r="AK87" t="inlineStr">
         <is>
-          <t>2.9</t>
+          <t>2.2</t>
         </is>
       </c>
       <c r="AL87" t="inlineStr">
         <is>
-          <t>121</t>
+          <t>200</t>
         </is>
       </c>
       <c r="AM87" t="inlineStr">
         <is>
-          <t>18:30 - 19:00</t>
+          <t>19:00 - 19:30</t>
         </is>
       </c>
       <c r="AN87" t="inlineStr">
         <is>
-          <t>6.2</t>
+          <t>4.9</t>
         </is>
       </c>
       <c r="AO87" t="inlineStr">
         <is>
-          <t>6.9</t>
+          <t>5.4</t>
         </is>
       </c>
       <c r="AP87" t="inlineStr">
         <is>
-          <t>5.5</t>
+          <t>4.7</t>
         </is>
       </c>
       <c r="AQ87" t="inlineStr">
         <is>
-          <t>97</t>
+          <t>100</t>
         </is>
       </c>
       <c r="AR87" t="inlineStr">
@@ -19467,22 +19467,22 @@
       </c>
       <c r="AS87" t="inlineStr">
         <is>
-          <t>2.9</t>
+          <t>2.2</t>
         </is>
       </c>
       <c r="AT87" t="inlineStr">
         <is>
-          <t>121</t>
+          <t>200</t>
         </is>
       </c>
       <c r="AU87" t="inlineStr">
         <is>
-          <t>4.3</t>
+          <t>3.2</t>
         </is>
       </c>
       <c r="AV87" t="inlineStr">
         <is>
-          <t>994.0</t>
+          <t>994.8</t>
         </is>
       </c>
       <c r="AW87" t="inlineStr">
@@ -19492,12 +19492,12 @@
       </c>
       <c r="AX87" t="inlineStr">
         <is>
-          <t>4.3</t>
+          <t>3.2</t>
         </is>
       </c>
       <c r="AY87" t="inlineStr">
         <is>
-          <t>994.0</t>
+          <t>994.8</t>
         </is>
       </c>
       <c r="AZ87" t="inlineStr">
@@ -19545,7 +19545,7 @@
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>2026-02-04 19:19:48</t>
+          <t>2026-02-04 19:48:20</t>
         </is>
       </c>
       <c r="I88" t="inlineStr">
@@ -19778,7 +19778,7 @@
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>2026-02-04 19:19:48</t>
+          <t>2026-02-04 19:48:20</t>
         </is>
       </c>
       <c r="I89" t="inlineStr">
@@ -20011,7 +20011,7 @@
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>2026-02-04 19:19:48</t>
+          <t>2026-02-04 19:48:20</t>
         </is>
       </c>
       <c r="I90" t="inlineStr">
@@ -20244,7 +20244,7 @@
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>2026-02-04 19:19:48</t>
+          <t>2026-02-04 19:48:20</t>
         </is>
       </c>
       <c r="I91" t="inlineStr">
@@ -20462,7 +20462,7 @@
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>18:30 - 19:00</t>
+          <t>19:00 - 19:30</t>
         </is>
       </c>
       <c r="F92" t="inlineStr">
@@ -20477,17 +20477,17 @@
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>2026-02-04 19:19:51</t>
+          <t>2026-02-04 19:48:23</t>
         </is>
       </c>
       <c r="I92" t="inlineStr">
         <is>
-          <t>18:30</t>
+          <t>19:00</t>
         </is>
       </c>
       <c r="J92" t="inlineStr">
         <is>
-          <t>https://www.meteo.cat/observacions/xema/dades?codi=Z3&amp;dia=2026-02-04T18:30Z</t>
+          <t>https://www.meteo.cat/observacions/xema/dades?codi=Z3&amp;dia=2026-02-04T19:00Z</t>
         </is>
       </c>
       <c r="K92" t="n">
@@ -20502,7 +20502,7 @@
       <c r="N92" t="inlineStr"/>
       <c r="O92" t="inlineStr">
         <is>
-          <t>296</t>
+          <t>269</t>
         </is>
       </c>
       <c r="P92" t="inlineStr">
@@ -20512,7 +20512,7 @@
       </c>
       <c r="Q92" t="inlineStr">
         <is>
-          <t>82</t>
+          <t>79</t>
         </is>
       </c>
       <c r="R92" t="inlineStr"/>
@@ -20523,7 +20523,7 @@
       </c>
       <c r="T92" t="inlineStr">
         <is>
-          <t>18:30 - 19:00</t>
+          <t>19:00 - 19:30</t>
         </is>
       </c>
       <c r="U92" t="inlineStr">
@@ -20533,56 +20533,56 @@
       </c>
       <c r="V92" t="inlineStr">
         <is>
-          <t>-3.4</t>
+          <t>-3.1</t>
         </is>
       </c>
       <c r="W92" t="inlineStr">
         <is>
-          <t>-4.2</t>
+          <t>-3.7</t>
         </is>
       </c>
       <c r="X92" t="inlineStr">
         <is>
-          <t>-2.8</t>
+          <t>-2.6</t>
         </is>
       </c>
       <c r="Y92" t="inlineStr"/>
       <c r="Z92" t="inlineStr"/>
       <c r="AA92" t="inlineStr">
         <is>
-          <t>2.9</t>
+          <t>2.5</t>
         </is>
       </c>
       <c r="AB92" t="inlineStr"/>
       <c r="AC92" t="inlineStr"/>
       <c r="AD92" t="inlineStr">
         <is>
-          <t>7.9</t>
+          <t>9.7</t>
         </is>
       </c>
       <c r="AE92" t="inlineStr">
         <is>
-          <t>18:30 - 19:00</t>
+          <t>19:00 - 19:30</t>
         </is>
       </c>
       <c r="AF92" t="inlineStr">
         <is>
-          <t>-3.4</t>
+          <t>-3.1</t>
         </is>
       </c>
       <c r="AG92" t="inlineStr">
         <is>
-          <t>-2.8</t>
+          <t>-2.6</t>
         </is>
       </c>
       <c r="AH92" t="inlineStr">
         <is>
-          <t>-4.2</t>
+          <t>-3.7</t>
         </is>
       </c>
       <c r="AI92" t="inlineStr">
         <is>
-          <t>82</t>
+          <t>79</t>
         </is>
       </c>
       <c r="AJ92" t="inlineStr">
@@ -20597,32 +20597,32 @@
       </c>
       <c r="AL92" t="inlineStr">
         <is>
-          <t>2.9</t>
+          <t>2.5</t>
         </is>
       </c>
       <c r="AM92" t="inlineStr">
         <is>
-          <t>18:30 - 19:00</t>
+          <t>19:00 - 19:30</t>
         </is>
       </c>
       <c r="AN92" t="inlineStr">
         <is>
-          <t>-3.4</t>
+          <t>-3.1</t>
         </is>
       </c>
       <c r="AO92" t="inlineStr">
         <is>
-          <t>-2.8</t>
+          <t>-2.6</t>
         </is>
       </c>
       <c r="AP92" t="inlineStr">
         <is>
-          <t>-4.2</t>
+          <t>-3.7</t>
         </is>
       </c>
       <c r="AQ92" t="inlineStr">
         <is>
-          <t>82</t>
+          <t>79</t>
         </is>
       </c>
       <c r="AR92" t="inlineStr">
@@ -20637,17 +20637,17 @@
       </c>
       <c r="AT92" t="inlineStr">
         <is>
-          <t>2.9</t>
+          <t>2.5</t>
         </is>
       </c>
       <c r="AU92" t="inlineStr">
         <is>
-          <t>296</t>
+          <t>269</t>
         </is>
       </c>
       <c r="AV92" t="inlineStr">
         <is>
-          <t>7.9</t>
+          <t>9.7</t>
         </is>
       </c>
       <c r="AW92" t="inlineStr">
@@ -20657,12 +20657,12 @@
       </c>
       <c r="AX92" t="inlineStr">
         <is>
-          <t>296</t>
+          <t>269</t>
         </is>
       </c>
       <c r="AY92" t="inlineStr">
         <is>
-          <t>7.9</t>
+          <t>9.7</t>
         </is>
       </c>
       <c r="AZ92" t="inlineStr">
@@ -20710,7 +20710,7 @@
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>2026-02-04 19:19:53</t>
+          <t>2026-02-04 19:48:24</t>
         </is>
       </c>
       <c r="I93" t="inlineStr">
@@ -20943,7 +20943,7 @@
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>2026-02-04 19:19:53</t>
+          <t>2026-02-04 19:48:24</t>
         </is>
       </c>
       <c r="I94" t="inlineStr">
@@ -21176,7 +21176,7 @@
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>2026-02-04 19:19:53</t>
+          <t>2026-02-04 19:48:24</t>
         </is>
       </c>
       <c r="I95" t="inlineStr">
@@ -21409,7 +21409,7 @@
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>2026-02-04 19:19:53</t>
+          <t>2026-02-04 19:48:24</t>
         </is>
       </c>
       <c r="I96" t="inlineStr">
@@ -21627,7 +21627,7 @@
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>18:30 - 19:00</t>
+          <t>19:00 - 19:30</t>
         </is>
       </c>
       <c r="F97" t="inlineStr">
@@ -21642,17 +21642,17 @@
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>2026-02-04 19:19:55</t>
+          <t>2026-02-04 19:48:27</t>
         </is>
       </c>
       <c r="I97" t="inlineStr">
         <is>
-          <t>18:30</t>
+          <t>19:00</t>
         </is>
       </c>
       <c r="J97" t="inlineStr">
         <is>
-          <t>https://www.meteo.cat/observacions/xema/dades?codi=YB&amp;dia=2026-02-04T18:30Z</t>
+          <t>https://www.meteo.cat/observacions/xema/dades?codi=YB&amp;dia=2026-02-04T19:00Z</t>
         </is>
       </c>
       <c r="K97" t="n">
@@ -21665,7 +21665,7 @@
       </c>
       <c r="M97" t="inlineStr">
         <is>
-          <t>257</t>
+          <t>268</t>
         </is>
       </c>
       <c r="N97" t="inlineStr"/>
@@ -21678,7 +21678,7 @@
       </c>
       <c r="R97" t="inlineStr">
         <is>
-          <t>993.0</t>
+          <t>993.5</t>
         </is>
       </c>
       <c r="S97" t="inlineStr">
@@ -21688,7 +21688,7 @@
       </c>
       <c r="T97" t="inlineStr">
         <is>
-          <t>18:30 - 19:00</t>
+          <t>19:00 - 19:30</t>
         </is>
       </c>
       <c r="U97" t="inlineStr">
@@ -21698,12 +21698,12 @@
       </c>
       <c r="V97" t="inlineStr">
         <is>
-          <t>4.8</t>
+          <t>4.6</t>
         </is>
       </c>
       <c r="W97" t="inlineStr">
         <is>
-          <t>4.2</t>
+          <t>4.1</t>
         </is>
       </c>
       <c r="X97" t="inlineStr">
@@ -21713,26 +21713,26 @@
       </c>
       <c r="Y97" t="inlineStr">
         <is>
-          <t>2.9</t>
+          <t>4.0</t>
         </is>
       </c>
       <c r="Z97" t="inlineStr"/>
       <c r="AA97" t="inlineStr"/>
       <c r="AB97" t="inlineStr">
         <is>
-          <t>9.7</t>
+          <t>9.0</t>
         </is>
       </c>
       <c r="AC97" t="inlineStr"/>
       <c r="AD97" t="inlineStr"/>
       <c r="AE97" t="inlineStr">
         <is>
-          <t>18:30 - 19:00</t>
+          <t>19:00 - 19:30</t>
         </is>
       </c>
       <c r="AF97" t="inlineStr">
         <is>
-          <t>4.8</t>
+          <t>4.6</t>
         </is>
       </c>
       <c r="AG97" t="inlineStr">
@@ -21742,7 +21742,7 @@
       </c>
       <c r="AH97" t="inlineStr">
         <is>
-          <t>4.2</t>
+          <t>4.1</t>
         </is>
       </c>
       <c r="AI97" t="inlineStr">
@@ -21757,22 +21757,22 @@
       </c>
       <c r="AK97" t="inlineStr">
         <is>
-          <t>2.9</t>
+          <t>4.0</t>
         </is>
       </c>
       <c r="AL97" t="inlineStr">
         <is>
-          <t>257</t>
+          <t>268</t>
         </is>
       </c>
       <c r="AM97" t="inlineStr">
         <is>
-          <t>18:30 - 19:00</t>
+          <t>19:00 - 19:30</t>
         </is>
       </c>
       <c r="AN97" t="inlineStr">
         <is>
-          <t>4.8</t>
+          <t>4.6</t>
         </is>
       </c>
       <c r="AO97" t="inlineStr">
@@ -21782,7 +21782,7 @@
       </c>
       <c r="AP97" t="inlineStr">
         <is>
-          <t>4.2</t>
+          <t>4.1</t>
         </is>
       </c>
       <c r="AQ97" t="inlineStr">
@@ -21797,22 +21797,22 @@
       </c>
       <c r="AS97" t="inlineStr">
         <is>
-          <t>2.9</t>
+          <t>4.0</t>
         </is>
       </c>
       <c r="AT97" t="inlineStr">
         <is>
-          <t>257</t>
+          <t>268</t>
         </is>
       </c>
       <c r="AU97" t="inlineStr">
         <is>
-          <t>9.7</t>
+          <t>9.0</t>
         </is>
       </c>
       <c r="AV97" t="inlineStr">
         <is>
-          <t>993.0</t>
+          <t>993.5</t>
         </is>
       </c>
       <c r="AW97" t="inlineStr">
@@ -21822,12 +21822,12 @@
       </c>
       <c r="AX97" t="inlineStr">
         <is>
-          <t>9.7</t>
+          <t>9.0</t>
         </is>
       </c>
       <c r="AY97" t="inlineStr">
         <is>
-          <t>993.0</t>
+          <t>993.5</t>
         </is>
       </c>
       <c r="AZ97" t="inlineStr">
@@ -21875,7 +21875,7 @@
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>2026-02-04 19:19:57</t>
+          <t>2026-02-04 19:48:28</t>
         </is>
       </c>
       <c r="I98" t="inlineStr">
@@ -22108,7 +22108,7 @@
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>2026-02-04 19:19:57</t>
+          <t>2026-02-04 19:48:28</t>
         </is>
       </c>
       <c r="I99" t="inlineStr">
@@ -22341,7 +22341,7 @@
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>2026-02-04 19:19:57</t>
+          <t>2026-02-04 19:48:28</t>
         </is>
       </c>
       <c r="I100" t="inlineStr">
@@ -22574,7 +22574,7 @@
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>2026-02-04 19:19:57</t>
+          <t>2026-02-04 19:48:28</t>
         </is>
       </c>
       <c r="I101" t="inlineStr">
@@ -22792,7 +22792,7 @@
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>18:00 - 18:30</t>
+          <t>19:00 - 19:30</t>
         </is>
       </c>
       <c r="F102" t="inlineStr">
@@ -22807,17 +22807,17 @@
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>2026-02-04 19:20:00</t>
+          <t>2026-02-04 19:48:31</t>
         </is>
       </c>
       <c r="I102" t="inlineStr">
         <is>
-          <t>18:30</t>
+          <t>19:00</t>
         </is>
       </c>
       <c r="J102" t="inlineStr">
         <is>
-          <t>https://www.meteo.cat/observacions/xema/dades?codi=YP&amp;dia=2026-02-04T18:30Z</t>
+          <t>https://www.meteo.cat/observacions/xema/dades?codi=YP&amp;dia=2026-02-04T19:00Z</t>
         </is>
       </c>
       <c r="K102" t="n">
@@ -22830,7 +22830,7 @@
       </c>
       <c r="M102" t="inlineStr">
         <is>
-          <t>105</t>
+          <t>238</t>
         </is>
       </c>
       <c r="N102" t="inlineStr"/>
@@ -22838,7 +22838,7 @@
       <c r="P102" t="inlineStr"/>
       <c r="Q102" t="inlineStr">
         <is>
-          <t>90</t>
+          <t>93</t>
         </is>
       </c>
       <c r="R102" t="inlineStr"/>
@@ -22849,7 +22849,7 @@
       </c>
       <c r="T102" t="inlineStr">
         <is>
-          <t>18:00 - 18:30</t>
+          <t>19:00 - 19:30</t>
         </is>
       </c>
       <c r="U102" t="inlineStr">
@@ -22859,56 +22859,56 @@
       </c>
       <c r="V102" t="inlineStr">
         <is>
-          <t>8.0</t>
+          <t>6.4</t>
         </is>
       </c>
       <c r="W102" t="inlineStr">
         <is>
-          <t>7.6</t>
+          <t>5.9</t>
         </is>
       </c>
       <c r="X102" t="inlineStr">
         <is>
-          <t>8.6</t>
+          <t>7.0</t>
         </is>
       </c>
       <c r="Y102" t="inlineStr">
         <is>
-          <t>3.6</t>
+          <t>0.7</t>
         </is>
       </c>
       <c r="Z102" t="inlineStr"/>
       <c r="AA102" t="inlineStr"/>
       <c r="AB102" t="inlineStr">
         <is>
-          <t>8.3</t>
+          <t>6.1</t>
         </is>
       </c>
       <c r="AC102" t="inlineStr"/>
       <c r="AD102" t="inlineStr"/>
       <c r="AE102" t="inlineStr">
         <is>
-          <t>18:00 - 18:30</t>
+          <t>19:00 - 19:30</t>
         </is>
       </c>
       <c r="AF102" t="inlineStr">
         <is>
-          <t>8.0</t>
+          <t>6.4</t>
         </is>
       </c>
       <c r="AG102" t="inlineStr">
         <is>
-          <t>8.6</t>
+          <t>7.0</t>
         </is>
       </c>
       <c r="AH102" t="inlineStr">
         <is>
-          <t>7.6</t>
+          <t>5.9</t>
         </is>
       </c>
       <c r="AI102" t="inlineStr">
         <is>
-          <t>90</t>
+          <t>93</t>
         </is>
       </c>
       <c r="AJ102" t="inlineStr">
@@ -22918,37 +22918,37 @@
       </c>
       <c r="AK102" t="inlineStr">
         <is>
-          <t>3.6</t>
+          <t>0.7</t>
         </is>
       </c>
       <c r="AL102" t="inlineStr">
         <is>
-          <t>105</t>
+          <t>238</t>
         </is>
       </c>
       <c r="AM102" t="inlineStr">
         <is>
-          <t>18:00 - 18:30</t>
+          <t>19:00 - 19:30</t>
         </is>
       </c>
       <c r="AN102" t="inlineStr">
         <is>
-          <t>8.0</t>
+          <t>6.4</t>
         </is>
       </c>
       <c r="AO102" t="inlineStr">
         <is>
-          <t>8.6</t>
+          <t>7.0</t>
         </is>
       </c>
       <c r="AP102" t="inlineStr">
         <is>
-          <t>7.6</t>
+          <t>5.9</t>
         </is>
       </c>
       <c r="AQ102" t="inlineStr">
         <is>
-          <t>90</t>
+          <t>93</t>
         </is>
       </c>
       <c r="AR102" t="inlineStr">
@@ -22958,17 +22958,17 @@
       </c>
       <c r="AS102" t="inlineStr">
         <is>
-          <t>3.6</t>
+          <t>0.7</t>
         </is>
       </c>
       <c r="AT102" t="inlineStr">
         <is>
-          <t>105</t>
+          <t>238</t>
         </is>
       </c>
       <c r="AU102" t="inlineStr">
         <is>
-          <t>8.3</t>
+          <t>6.1</t>
         </is>
       </c>
       <c r="AV102" t="inlineStr">
@@ -22979,7 +22979,7 @@
       <c r="AW102" t="inlineStr"/>
       <c r="AX102" t="inlineStr">
         <is>
-          <t>8.3</t>
+          <t>6.1</t>
         </is>
       </c>
       <c r="AY102" t="inlineStr">
@@ -23028,7 +23028,7 @@
       </c>
       <c r="H103" t="inlineStr">
         <is>
-          <t>2026-02-04 19:20:02</t>
+          <t>2026-02-04 19:48:32</t>
         </is>
       </c>
       <c r="I103" t="inlineStr">
@@ -23249,7 +23249,7 @@
       </c>
       <c r="H104" t="inlineStr">
         <is>
-          <t>2026-02-04 19:20:02</t>
+          <t>2026-02-04 19:48:32</t>
         </is>
       </c>
       <c r="I104" t="inlineStr">
@@ -23470,7 +23470,7 @@
       </c>
       <c r="H105" t="inlineStr">
         <is>
-          <t>2026-02-04 19:20:02</t>
+          <t>2026-02-04 19:48:32</t>
         </is>
       </c>
       <c r="I105" t="inlineStr">
@@ -23691,7 +23691,7 @@
       </c>
       <c r="H106" t="inlineStr">
         <is>
-          <t>2026-02-04 19:20:02</t>
+          <t>2026-02-04 19:48:32</t>
         </is>
       </c>
       <c r="I106" t="inlineStr">
@@ -23897,7 +23897,7 @@
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>18:30 - 19:00</t>
+          <t>19:00 - 19:30</t>
         </is>
       </c>
       <c r="F107" t="inlineStr">
@@ -23912,17 +23912,17 @@
       </c>
       <c r="H107" t="inlineStr">
         <is>
-          <t>2026-02-04 19:20:04</t>
+          <t>2026-02-04 19:48:35</t>
         </is>
       </c>
       <c r="I107" t="inlineStr">
         <is>
-          <t>18:30</t>
+          <t>19:00</t>
         </is>
       </c>
       <c r="J107" t="inlineStr">
         <is>
-          <t>https://www.meteo.cat/observacions/xema/dades?codi=J5&amp;dia=2026-02-04T18:30Z</t>
+          <t>https://www.meteo.cat/observacions/xema/dades?codi=J5&amp;dia=2026-02-04T19:00Z</t>
         </is>
       </c>
       <c r="K107" t="n">
@@ -23935,7 +23935,7 @@
       </c>
       <c r="M107" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>38</t>
         </is>
       </c>
       <c r="N107" t="inlineStr"/>
@@ -23943,7 +23943,7 @@
       <c r="P107" t="inlineStr"/>
       <c r="Q107" t="inlineStr">
         <is>
-          <t>91</t>
+          <t>90</t>
         </is>
       </c>
       <c r="R107" t="inlineStr">
@@ -23958,7 +23958,7 @@
       </c>
       <c r="T107" t="inlineStr">
         <is>
-          <t>18:30 - 19:00</t>
+          <t>19:00 - 19:30</t>
         </is>
       </c>
       <c r="U107" t="inlineStr">
@@ -23968,56 +23968,56 @@
       </c>
       <c r="V107" t="inlineStr">
         <is>
-          <t>7.4</t>
+          <t>7.0</t>
         </is>
       </c>
       <c r="W107" t="inlineStr">
         <is>
-          <t>7.2</t>
+          <t>6.9</t>
         </is>
       </c>
       <c r="X107" t="inlineStr">
         <is>
-          <t>7.6</t>
+          <t>7.3</t>
         </is>
       </c>
       <c r="Y107" t="inlineStr">
         <is>
-          <t>10.1</t>
+          <t>5.8</t>
         </is>
       </c>
       <c r="Z107" t="inlineStr"/>
       <c r="AA107" t="inlineStr"/>
       <c r="AB107" t="inlineStr">
         <is>
-          <t>14.0</t>
+          <t>10.4</t>
         </is>
       </c>
       <c r="AC107" t="inlineStr"/>
       <c r="AD107" t="inlineStr"/>
       <c r="AE107" t="inlineStr">
         <is>
-          <t>18:30 - 19:00</t>
+          <t>19:00 - 19:30</t>
         </is>
       </c>
       <c r="AF107" t="inlineStr">
         <is>
-          <t>7.4</t>
+          <t>7.0</t>
         </is>
       </c>
       <c r="AG107" t="inlineStr">
         <is>
-          <t>7.6</t>
+          <t>7.3</t>
         </is>
       </c>
       <c r="AH107" t="inlineStr">
         <is>
-          <t>7.2</t>
+          <t>6.9</t>
         </is>
       </c>
       <c r="AI107" t="inlineStr">
         <is>
-          <t>91</t>
+          <t>90</t>
         </is>
       </c>
       <c r="AJ107" t="inlineStr">
@@ -24027,37 +24027,37 @@
       </c>
       <c r="AK107" t="inlineStr">
         <is>
-          <t>10.1</t>
+          <t>5.8</t>
         </is>
       </c>
       <c r="AL107" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>38</t>
         </is>
       </c>
       <c r="AM107" t="inlineStr">
         <is>
-          <t>18:30 - 19:00</t>
+          <t>19:00 - 19:30</t>
         </is>
       </c>
       <c r="AN107" t="inlineStr">
         <is>
-          <t>7.4</t>
+          <t>7.0</t>
         </is>
       </c>
       <c r="AO107" t="inlineStr">
         <is>
-          <t>7.6</t>
+          <t>7.3</t>
         </is>
       </c>
       <c r="AP107" t="inlineStr">
         <is>
-          <t>7.2</t>
+          <t>6.9</t>
         </is>
       </c>
       <c r="AQ107" t="inlineStr">
         <is>
-          <t>91</t>
+          <t>90</t>
         </is>
       </c>
       <c r="AR107" t="inlineStr">
@@ -24067,17 +24067,17 @@
       </c>
       <c r="AS107" t="inlineStr">
         <is>
-          <t>10.1</t>
+          <t>5.8</t>
         </is>
       </c>
       <c r="AT107" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>38</t>
         </is>
       </c>
       <c r="AU107" t="inlineStr">
         <is>
-          <t>14.0</t>
+          <t>10.4</t>
         </is>
       </c>
       <c r="AV107" t="inlineStr">
@@ -24092,7 +24092,7 @@
       </c>
       <c r="AX107" t="inlineStr">
         <is>
-          <t>14.0</t>
+          <t>10.4</t>
         </is>
       </c>
       <c r="AY107" t="inlineStr">
@@ -24145,7 +24145,7 @@
       </c>
       <c r="H108" t="inlineStr">
         <is>
-          <t>2026-02-04 19:20:06</t>
+          <t>2026-02-04 19:48:36</t>
         </is>
       </c>
       <c r="I108" t="inlineStr">
@@ -24378,7 +24378,7 @@
       </c>
       <c r="H109" t="inlineStr">
         <is>
-          <t>2026-02-04 19:20:06</t>
+          <t>2026-02-04 19:48:36</t>
         </is>
       </c>
       <c r="I109" t="inlineStr">
@@ -24611,7 +24611,7 @@
       </c>
       <c r="H110" t="inlineStr">
         <is>
-          <t>2026-02-04 19:20:06</t>
+          <t>2026-02-04 19:48:36</t>
         </is>
       </c>
       <c r="I110" t="inlineStr">
@@ -24844,7 +24844,7 @@
       </c>
       <c r="H111" t="inlineStr">
         <is>
-          <t>2026-02-04 19:20:06</t>
+          <t>2026-02-04 19:48:36</t>
         </is>
       </c>
       <c r="I111" t="inlineStr">
@@ -25062,7 +25062,7 @@
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>18:30 - 19:00</t>
+          <t>19:00 - 19:30</t>
         </is>
       </c>
       <c r="F112" t="inlineStr">
@@ -25077,17 +25077,17 @@
       </c>
       <c r="H112" t="inlineStr">
         <is>
-          <t>2026-02-04 19:20:08</t>
+          <t>2026-02-04 19:48:39</t>
         </is>
       </c>
       <c r="I112" t="inlineStr">
         <is>
-          <t>18:30</t>
+          <t>19:00</t>
         </is>
       </c>
       <c r="J112" t="inlineStr">
         <is>
-          <t>https://www.meteo.cat/observacions/xema/dades?codi=D6&amp;dia=2026-02-04T18:30Z</t>
+          <t>https://www.meteo.cat/observacions/xema/dades?codi=D6&amp;dia=2026-02-04T19:00Z</t>
         </is>
       </c>
       <c r="K112" t="n">
@@ -25100,7 +25100,7 @@
       </c>
       <c r="M112" t="inlineStr">
         <is>
-          <t>304</t>
+          <t>355</t>
         </is>
       </c>
       <c r="N112" t="inlineStr"/>
@@ -25108,12 +25108,12 @@
       <c r="P112" t="inlineStr"/>
       <c r="Q112" t="inlineStr">
         <is>
-          <t>61</t>
+          <t>62</t>
         </is>
       </c>
       <c r="R112" t="inlineStr">
         <is>
-          <t>991.3</t>
+          <t>991.5</t>
         </is>
       </c>
       <c r="S112" t="inlineStr">
@@ -25123,7 +25123,7 @@
       </c>
       <c r="T112" t="inlineStr">
         <is>
-          <t>18:30 - 19:00</t>
+          <t>19:00 - 19:30</t>
         </is>
       </c>
       <c r="U112" t="inlineStr">
@@ -25133,7 +25133,7 @@
       </c>
       <c r="V112" t="inlineStr">
         <is>
-          <t>11.2</t>
+          <t>11.3</t>
         </is>
       </c>
       <c r="W112" t="inlineStr">
@@ -25143,36 +25143,36 @@
       </c>
       <c r="X112" t="inlineStr">
         <is>
-          <t>11.5</t>
+          <t>11.9</t>
         </is>
       </c>
       <c r="Y112" t="inlineStr">
         <is>
-          <t>14.0</t>
+          <t>5.0</t>
         </is>
       </c>
       <c r="Z112" t="inlineStr"/>
       <c r="AA112" t="inlineStr"/>
       <c r="AB112" t="inlineStr">
         <is>
-          <t>18.4</t>
+          <t>15.1</t>
         </is>
       </c>
       <c r="AC112" t="inlineStr"/>
       <c r="AD112" t="inlineStr"/>
       <c r="AE112" t="inlineStr">
         <is>
-          <t>18:30 - 19:00</t>
+          <t>19:00 - 19:30</t>
         </is>
       </c>
       <c r="AF112" t="inlineStr">
         <is>
-          <t>11.2</t>
+          <t>11.3</t>
         </is>
       </c>
       <c r="AG112" t="inlineStr">
         <is>
-          <t>11.5</t>
+          <t>11.9</t>
         </is>
       </c>
       <c r="AH112" t="inlineStr">
@@ -25182,7 +25182,7 @@
       </c>
       <c r="AI112" t="inlineStr">
         <is>
-          <t>61</t>
+          <t>62</t>
         </is>
       </c>
       <c r="AJ112" t="inlineStr">
@@ -25192,27 +25192,27 @@
       </c>
       <c r="AK112" t="inlineStr">
         <is>
-          <t>14.0</t>
+          <t>5.0</t>
         </is>
       </c>
       <c r="AL112" t="inlineStr">
         <is>
-          <t>304</t>
+          <t>355</t>
         </is>
       </c>
       <c r="AM112" t="inlineStr">
         <is>
-          <t>18:30 - 19:00</t>
+          <t>19:00 - 19:30</t>
         </is>
       </c>
       <c r="AN112" t="inlineStr">
         <is>
-          <t>11.2</t>
+          <t>11.3</t>
         </is>
       </c>
       <c r="AO112" t="inlineStr">
         <is>
-          <t>11.5</t>
+          <t>11.9</t>
         </is>
       </c>
       <c r="AP112" t="inlineStr">
@@ -25222,7 +25222,7 @@
       </c>
       <c r="AQ112" t="inlineStr">
         <is>
-          <t>61</t>
+          <t>62</t>
         </is>
       </c>
       <c r="AR112" t="inlineStr">
@@ -25232,22 +25232,22 @@
       </c>
       <c r="AS112" t="inlineStr">
         <is>
-          <t>14.0</t>
+          <t>5.0</t>
         </is>
       </c>
       <c r="AT112" t="inlineStr">
         <is>
-          <t>304</t>
+          <t>355</t>
         </is>
       </c>
       <c r="AU112" t="inlineStr">
         <is>
-          <t>18.4</t>
+          <t>15.1</t>
         </is>
       </c>
       <c r="AV112" t="inlineStr">
         <is>
-          <t>991.3</t>
+          <t>991.5</t>
         </is>
       </c>
       <c r="AW112" t="inlineStr">
@@ -25257,12 +25257,12 @@
       </c>
       <c r="AX112" t="inlineStr">
         <is>
-          <t>18.4</t>
+          <t>15.1</t>
         </is>
       </c>
       <c r="AY112" t="inlineStr">
         <is>
-          <t>991.3</t>
+          <t>991.5</t>
         </is>
       </c>
       <c r="AZ112" t="inlineStr">
@@ -25310,7 +25310,7 @@
       </c>
       <c r="H113" t="inlineStr">
         <is>
-          <t>2026-02-04 19:20:09</t>
+          <t>2026-02-04 19:48:40</t>
         </is>
       </c>
       <c r="I113" t="inlineStr">
@@ -25543,7 +25543,7 @@
       </c>
       <c r="H114" t="inlineStr">
         <is>
-          <t>2026-02-04 19:20:09</t>
+          <t>2026-02-04 19:48:40</t>
         </is>
       </c>
       <c r="I114" t="inlineStr">
@@ -25776,7 +25776,7 @@
       </c>
       <c r="H115" t="inlineStr">
         <is>
-          <t>2026-02-04 19:20:09</t>
+          <t>2026-02-04 19:48:40</t>
         </is>
       </c>
       <c r="I115" t="inlineStr">
@@ -26009,7 +26009,7 @@
       </c>
       <c r="H116" t="inlineStr">
         <is>
-          <t>2026-02-04 19:20:09</t>
+          <t>2026-02-04 19:48:40</t>
         </is>
       </c>
       <c r="I116" t="inlineStr">
@@ -26227,7 +26227,7 @@
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>18:30 - 19:00</t>
+          <t>19:00 - 19:30</t>
         </is>
       </c>
       <c r="F117" t="inlineStr">
@@ -26242,17 +26242,17 @@
       </c>
       <c r="H117" t="inlineStr">
         <is>
-          <t>2026-02-04 19:20:12</t>
+          <t>2026-02-04 19:48:43</t>
         </is>
       </c>
       <c r="I117" t="inlineStr">
         <is>
-          <t>18:30</t>
+          <t>19:00</t>
         </is>
       </c>
       <c r="J117" t="inlineStr">
         <is>
-          <t>https://www.meteo.cat/observacions/xema/dades?codi=YA&amp;dia=2026-02-04T18:30Z</t>
+          <t>https://www.meteo.cat/observacions/xema/dades?codi=YA&amp;dia=2026-02-04T19:00Z</t>
         </is>
       </c>
       <c r="K117" t="n">
@@ -26265,7 +26265,7 @@
       </c>
       <c r="M117" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>238</t>
         </is>
       </c>
       <c r="N117" t="inlineStr"/>
@@ -26278,7 +26278,7 @@
       </c>
       <c r="R117" t="inlineStr">
         <is>
-          <t>994.1</t>
+          <t>994.5</t>
         </is>
       </c>
       <c r="S117" t="inlineStr">
@@ -26288,7 +26288,7 @@
       </c>
       <c r="T117" t="inlineStr">
         <is>
-          <t>18:30 - 19:00</t>
+          <t>19:00 - 19:30</t>
         </is>
       </c>
       <c r="U117" t="inlineStr">
@@ -26298,98 +26298,98 @@
       </c>
       <c r="V117" t="inlineStr">
         <is>
-          <t>2.1</t>
+          <t>2.2</t>
         </is>
       </c>
       <c r="W117" t="inlineStr">
         <is>
-          <t>2.0</t>
+          <t>1.8</t>
         </is>
       </c>
       <c r="X117" t="inlineStr">
         <is>
-          <t>2.2</t>
+          <t>2.8</t>
         </is>
       </c>
       <c r="Y117" t="inlineStr">
         <is>
-          <t>3.6</t>
+          <t>1.8</t>
         </is>
       </c>
       <c r="Z117" t="inlineStr"/>
       <c r="AA117" t="inlineStr"/>
       <c r="AB117" t="inlineStr">
         <is>
-          <t>7.6</t>
+          <t>8.6</t>
         </is>
       </c>
       <c r="AC117" t="inlineStr"/>
       <c r="AD117" t="inlineStr"/>
       <c r="AE117" t="inlineStr">
         <is>
-          <t>18:30 - 19:00</t>
+          <t>19:00 - 19:30</t>
         </is>
       </c>
       <c r="AF117" t="inlineStr">
         <is>
-          <t>2.1</t>
+          <t>2.2</t>
         </is>
       </c>
       <c r="AG117" t="inlineStr">
         <is>
+          <t>2.8</t>
+        </is>
+      </c>
+      <c r="AH117" t="inlineStr">
+        <is>
+          <t>1.8</t>
+        </is>
+      </c>
+      <c r="AI117" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="AJ117" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="AK117" t="inlineStr">
+        <is>
+          <t>1.8</t>
+        </is>
+      </c>
+      <c r="AL117" t="inlineStr">
+        <is>
+          <t>238</t>
+        </is>
+      </c>
+      <c r="AM117" t="inlineStr">
+        <is>
+          <t>19:00 - 19:30</t>
+        </is>
+      </c>
+      <c r="AN117" t="inlineStr">
+        <is>
           <t>2.2</t>
         </is>
       </c>
-      <c r="AH117" t="inlineStr">
-        <is>
-          <t>2.0</t>
-        </is>
-      </c>
-      <c r="AI117" t="inlineStr">
+      <c r="AO117" t="inlineStr">
+        <is>
+          <t>2.8</t>
+        </is>
+      </c>
+      <c r="AP117" t="inlineStr">
+        <is>
+          <t>1.8</t>
+        </is>
+      </c>
+      <c r="AQ117" t="inlineStr">
         <is>
           <t>80</t>
         </is>
       </c>
-      <c r="AJ117" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="AK117" t="inlineStr">
-        <is>
-          <t>3.6</t>
-        </is>
-      </c>
-      <c r="AL117" t="inlineStr">
-        <is>
-          <t>29</t>
-        </is>
-      </c>
-      <c r="AM117" t="inlineStr">
-        <is>
-          <t>18:30 - 19:00</t>
-        </is>
-      </c>
-      <c r="AN117" t="inlineStr">
-        <is>
-          <t>2.1</t>
-        </is>
-      </c>
-      <c r="AO117" t="inlineStr">
-        <is>
-          <t>2.2</t>
-        </is>
-      </c>
-      <c r="AP117" t="inlineStr">
-        <is>
-          <t>2.0</t>
-        </is>
-      </c>
-      <c r="AQ117" t="inlineStr">
-        <is>
-          <t>80</t>
-        </is>
-      </c>
       <c r="AR117" t="inlineStr">
         <is>
           <t>0.0</t>
@@ -26397,22 +26397,22 @@
       </c>
       <c r="AS117" t="inlineStr">
         <is>
-          <t>3.6</t>
+          <t>1.8</t>
         </is>
       </c>
       <c r="AT117" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>238</t>
         </is>
       </c>
       <c r="AU117" t="inlineStr">
         <is>
-          <t>7.6</t>
+          <t>8.6</t>
         </is>
       </c>
       <c r="AV117" t="inlineStr">
         <is>
-          <t>994.1</t>
+          <t>994.5</t>
         </is>
       </c>
       <c r="AW117" t="inlineStr">
@@ -26422,12 +26422,12 @@
       </c>
       <c r="AX117" t="inlineStr">
         <is>
-          <t>7.6</t>
+          <t>8.6</t>
         </is>
       </c>
       <c r="AY117" t="inlineStr">
         <is>
-          <t>994.1</t>
+          <t>994.5</t>
         </is>
       </c>
       <c r="AZ117" t="inlineStr">
@@ -26475,7 +26475,7 @@
       </c>
       <c r="H118" t="inlineStr">
         <is>
-          <t>2026-02-04 19:20:14</t>
+          <t>2026-02-04 19:48:44</t>
         </is>
       </c>
       <c r="I118" t="inlineStr">
@@ -26708,7 +26708,7 @@
       </c>
       <c r="H119" t="inlineStr">
         <is>
-          <t>2026-02-04 19:20:14</t>
+          <t>2026-02-04 19:48:44</t>
         </is>
       </c>
       <c r="I119" t="inlineStr">
@@ -26941,7 +26941,7 @@
       </c>
       <c r="H120" t="inlineStr">
         <is>
-          <t>2026-02-04 19:20:14</t>
+          <t>2026-02-04 19:48:44</t>
         </is>
       </c>
       <c r="I120" t="inlineStr">
@@ -27174,7 +27174,7 @@
       </c>
       <c r="H121" t="inlineStr">
         <is>
-          <t>2026-02-04 19:20:14</t>
+          <t>2026-02-04 19:48:44</t>
         </is>
       </c>
       <c r="I121" t="inlineStr">
@@ -27392,7 +27392,7 @@
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>18:30 - 19:00</t>
+          <t>19:00 - 19:30</t>
         </is>
       </c>
       <c r="F122" t="inlineStr">
@@ -27407,17 +27407,17 @@
       </c>
       <c r="H122" t="inlineStr">
         <is>
-          <t>2026-02-04 19:20:17</t>
+          <t>2026-02-04 19:48:47</t>
         </is>
       </c>
       <c r="I122" t="inlineStr">
         <is>
-          <t>18:30</t>
+          <t>19:00</t>
         </is>
       </c>
       <c r="J122" t="inlineStr">
         <is>
-          <t>https://www.meteo.cat/observacions/xema/dades?codi=DG&amp;dia=2026-02-04T18:30Z</t>
+          <t>https://www.meteo.cat/observacions/xema/dades?codi=DG&amp;dia=2026-02-04T19:00Z</t>
         </is>
       </c>
       <c r="K122" t="n">
@@ -27430,7 +27430,7 @@
       </c>
       <c r="M122" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>5</t>
         </is>
       </c>
       <c r="N122" t="inlineStr"/>
@@ -27447,7 +27447,7 @@
       </c>
       <c r="R122" t="inlineStr">
         <is>
-          <t>827.1</t>
+          <t>827.4</t>
         </is>
       </c>
       <c r="S122" t="inlineStr">
@@ -27457,7 +27457,7 @@
       </c>
       <c r="T122" t="inlineStr">
         <is>
-          <t>18:30 - 19:00</t>
+          <t>19:00 - 19:30</t>
         </is>
       </c>
       <c r="U122" t="inlineStr">
@@ -27467,51 +27467,51 @@
       </c>
       <c r="V122" t="inlineStr">
         <is>
-          <t>-0.3</t>
+          <t>-0.1</t>
         </is>
       </c>
       <c r="W122" t="inlineStr">
         <is>
-          <t>-0.9</t>
+          <t>-1.0</t>
         </is>
       </c>
       <c r="X122" t="inlineStr">
         <is>
-          <t>0.2</t>
+          <t>0.7</t>
         </is>
       </c>
       <c r="Y122" t="inlineStr">
         <is>
-          <t>10.4</t>
+          <t>7.9</t>
         </is>
       </c>
       <c r="Z122" t="inlineStr"/>
       <c r="AA122" t="inlineStr"/>
       <c r="AB122" t="inlineStr">
         <is>
-          <t>15.1</t>
+          <t>15.8</t>
         </is>
       </c>
       <c r="AC122" t="inlineStr"/>
       <c r="AD122" t="inlineStr"/>
       <c r="AE122" t="inlineStr">
         <is>
-          <t>18:30 - 19:00</t>
+          <t>19:00 - 19:30</t>
         </is>
       </c>
       <c r="AF122" t="inlineStr">
         <is>
-          <t>-0.3</t>
+          <t>-0.1</t>
         </is>
       </c>
       <c r="AG122" t="inlineStr">
         <is>
-          <t>0.2</t>
+          <t>0.7</t>
         </is>
       </c>
       <c r="AH122" t="inlineStr">
         <is>
-          <t>-0.9</t>
+          <t>-1.0</t>
         </is>
       </c>
       <c r="AI122" t="inlineStr">
@@ -27531,27 +27531,27 @@
       </c>
       <c r="AL122" t="inlineStr">
         <is>
-          <t>10.4</t>
+          <t>7.9</t>
         </is>
       </c>
       <c r="AM122" t="inlineStr">
         <is>
-          <t>18:30 - 19:00</t>
+          <t>19:00 - 19:30</t>
         </is>
       </c>
       <c r="AN122" t="inlineStr">
         <is>
-          <t>-0.3</t>
+          <t>-0.1</t>
         </is>
       </c>
       <c r="AO122" t="inlineStr">
         <is>
-          <t>0.2</t>
+          <t>0.7</t>
         </is>
       </c>
       <c r="AP122" t="inlineStr">
         <is>
-          <t>-0.9</t>
+          <t>-1.0</t>
         </is>
       </c>
       <c r="AQ122" t="inlineStr">
@@ -27571,37 +27571,37 @@
       </c>
       <c r="AT122" t="inlineStr">
         <is>
-          <t>10.4</t>
+          <t>7.9</t>
         </is>
       </c>
       <c r="AU122" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>5</t>
         </is>
       </c>
       <c r="AV122" t="inlineStr">
         <is>
-          <t>15.1</t>
+          <t>15.8</t>
         </is>
       </c>
       <c r="AW122" t="inlineStr">
         <is>
-          <t>827.1</t>
+          <t>827.4</t>
         </is>
       </c>
       <c r="AX122" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>5</t>
         </is>
       </c>
       <c r="AY122" t="inlineStr">
         <is>
-          <t>15.1</t>
+          <t>15.8</t>
         </is>
       </c>
       <c r="AZ122" t="inlineStr">
         <is>
-          <t>827.1</t>
+          <t>827.4</t>
         </is>
       </c>
       <c r="BA122" t="inlineStr">
@@ -27648,7 +27648,7 @@
       </c>
       <c r="H123" t="inlineStr">
         <is>
-          <t>2026-02-04 19:20:18</t>
+          <t>2026-02-04 19:48:48</t>
         </is>
       </c>
       <c r="I123" t="inlineStr">
@@ -27889,7 +27889,7 @@
       </c>
       <c r="H124" t="inlineStr">
         <is>
-          <t>2026-02-04 19:20:18</t>
+          <t>2026-02-04 19:48:48</t>
         </is>
       </c>
       <c r="I124" t="inlineStr">
@@ -28130,7 +28130,7 @@
       </c>
       <c r="H125" t="inlineStr">
         <is>
-          <t>2026-02-04 19:20:18</t>
+          <t>2026-02-04 19:48:48</t>
         </is>
       </c>
       <c r="I125" t="inlineStr">
@@ -28371,7 +28371,7 @@
       </c>
       <c r="H126" t="inlineStr">
         <is>
-          <t>2026-02-04 19:20:18</t>
+          <t>2026-02-04 19:48:48</t>
         </is>
       </c>
       <c r="I126" t="inlineStr">
@@ -28597,7 +28597,7 @@
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>18:30 - 19:00</t>
+          <t>19:00 - 19:30</t>
         </is>
       </c>
       <c r="F127" t="inlineStr">
@@ -28612,17 +28612,17 @@
       </c>
       <c r="H127" t="inlineStr">
         <is>
-          <t>2026-02-04 19:20:21</t>
+          <t>2026-02-04 19:48:51</t>
         </is>
       </c>
       <c r="I127" t="inlineStr">
         <is>
-          <t>18:30</t>
+          <t>19:00</t>
         </is>
       </c>
       <c r="J127" t="inlineStr">
         <is>
-          <t>https://www.meteo.cat/observacions/xema/dades?codi=D4&amp;dia=2026-02-04T18:30Z</t>
+          <t>https://www.meteo.cat/observacions/xema/dades?codi=D4&amp;dia=2026-02-04T19:00Z</t>
         </is>
       </c>
       <c r="K127" t="n">
@@ -28635,7 +28635,7 @@
       </c>
       <c r="M127" t="inlineStr">
         <is>
-          <t>62</t>
+          <t>67</t>
         </is>
       </c>
       <c r="N127" t="inlineStr"/>
@@ -28643,12 +28643,12 @@
       <c r="P127" t="inlineStr"/>
       <c r="Q127" t="inlineStr">
         <is>
-          <t>79</t>
+          <t>78</t>
         </is>
       </c>
       <c r="R127" t="inlineStr">
         <is>
-          <t>991.8</t>
+          <t>992.1</t>
         </is>
       </c>
       <c r="S127" t="inlineStr">
@@ -28658,7 +28658,7 @@
       </c>
       <c r="T127" t="inlineStr">
         <is>
-          <t>18:30 - 19:00</t>
+          <t>19:00 - 19:30</t>
         </is>
       </c>
       <c r="U127" t="inlineStr">
@@ -28668,96 +28668,96 @@
       </c>
       <c r="V127" t="inlineStr">
         <is>
+          <t>9.4</t>
+        </is>
+      </c>
+      <c r="W127" t="inlineStr">
+        <is>
           <t>9.2</t>
         </is>
       </c>
-      <c r="W127" t="inlineStr">
-        <is>
-          <t>9.1</t>
-        </is>
-      </c>
       <c r="X127" t="inlineStr">
         <is>
-          <t>9.4</t>
+          <t>9.7</t>
         </is>
       </c>
       <c r="Y127" t="inlineStr">
         <is>
-          <t>6.1</t>
+          <t>6.5</t>
         </is>
       </c>
       <c r="Z127" t="inlineStr"/>
       <c r="AA127" t="inlineStr"/>
       <c r="AB127" t="inlineStr">
         <is>
-          <t>9.7</t>
+          <t>12.2</t>
         </is>
       </c>
       <c r="AC127" t="inlineStr"/>
       <c r="AD127" t="inlineStr"/>
       <c r="AE127" t="inlineStr">
         <is>
-          <t>18:30 - 19:00</t>
+          <t>19:00 - 19:30</t>
         </is>
       </c>
       <c r="AF127" t="inlineStr">
         <is>
+          <t>9.4</t>
+        </is>
+      </c>
+      <c r="AG127" t="inlineStr">
+        <is>
+          <t>9.7</t>
+        </is>
+      </c>
+      <c r="AH127" t="inlineStr">
+        <is>
           <t>9.2</t>
         </is>
       </c>
-      <c r="AG127" t="inlineStr">
+      <c r="AI127" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="AJ127" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="AK127" t="inlineStr">
+        <is>
+          <t>6.5</t>
+        </is>
+      </c>
+      <c r="AL127" t="inlineStr">
+        <is>
+          <t>67</t>
+        </is>
+      </c>
+      <c r="AM127" t="inlineStr">
+        <is>
+          <t>19:00 - 19:30</t>
+        </is>
+      </c>
+      <c r="AN127" t="inlineStr">
         <is>
           <t>9.4</t>
         </is>
       </c>
-      <c r="AH127" t="inlineStr">
-        <is>
-          <t>9.1</t>
-        </is>
-      </c>
-      <c r="AI127" t="inlineStr">
-        <is>
-          <t>79</t>
-        </is>
-      </c>
-      <c r="AJ127" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="AK127" t="inlineStr">
-        <is>
-          <t>6.1</t>
-        </is>
-      </c>
-      <c r="AL127" t="inlineStr">
-        <is>
-          <t>62</t>
-        </is>
-      </c>
-      <c r="AM127" t="inlineStr">
-        <is>
-          <t>18:30 - 19:00</t>
-        </is>
-      </c>
-      <c r="AN127" t="inlineStr">
+      <c r="AO127" t="inlineStr">
+        <is>
+          <t>9.7</t>
+        </is>
+      </c>
+      <c r="AP127" t="inlineStr">
         <is>
           <t>9.2</t>
         </is>
       </c>
-      <c r="AO127" t="inlineStr">
-        <is>
-          <t>9.4</t>
-        </is>
-      </c>
-      <c r="AP127" t="inlineStr">
-        <is>
-          <t>9.1</t>
-        </is>
-      </c>
       <c r="AQ127" t="inlineStr">
         <is>
-          <t>79</t>
+          <t>78</t>
         </is>
       </c>
       <c r="AR127" t="inlineStr">
@@ -28767,22 +28767,22 @@
       </c>
       <c r="AS127" t="inlineStr">
         <is>
-          <t>6.1</t>
+          <t>6.5</t>
         </is>
       </c>
       <c r="AT127" t="inlineStr">
         <is>
-          <t>62</t>
+          <t>67</t>
         </is>
       </c>
       <c r="AU127" t="inlineStr">
         <is>
-          <t>9.7</t>
+          <t>12.2</t>
         </is>
       </c>
       <c r="AV127" t="inlineStr">
         <is>
-          <t>991.8</t>
+          <t>992.1</t>
         </is>
       </c>
       <c r="AW127" t="inlineStr">
@@ -28792,12 +28792,12 @@
       </c>
       <c r="AX127" t="inlineStr">
         <is>
-          <t>9.7</t>
+          <t>12.2</t>
         </is>
       </c>
       <c r="AY127" t="inlineStr">
         <is>
-          <t>991.8</t>
+          <t>992.1</t>
         </is>
       </c>
       <c r="AZ127" t="inlineStr">
@@ -28845,7 +28845,7 @@
       </c>
       <c r="H128" t="inlineStr">
         <is>
-          <t>2026-02-04 19:20:23</t>
+          <t>2026-02-04 19:48:52</t>
         </is>
       </c>
       <c r="I128" t="inlineStr">
@@ -29078,7 +29078,7 @@
       </c>
       <c r="H129" t="inlineStr">
         <is>
-          <t>2026-02-04 19:20:23</t>
+          <t>2026-02-04 19:48:52</t>
         </is>
       </c>
       <c r="I129" t="inlineStr">
@@ -29311,7 +29311,7 @@
       </c>
       <c r="H130" t="inlineStr">
         <is>
-          <t>2026-02-04 19:20:23</t>
+          <t>2026-02-04 19:48:52</t>
         </is>
       </c>
       <c r="I130" t="inlineStr">
@@ -29544,7 +29544,7 @@
       </c>
       <c r="H131" t="inlineStr">
         <is>
-          <t>2026-02-04 19:20:23</t>
+          <t>2026-02-04 19:48:52</t>
         </is>
       </c>
       <c r="I131" t="inlineStr">
@@ -29762,7 +29762,7 @@
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>18:30 - 19:00</t>
+          <t>19:00 - 19:30</t>
         </is>
       </c>
       <c r="F132" t="inlineStr">
@@ -29777,17 +29777,17 @@
       </c>
       <c r="H132" t="inlineStr">
         <is>
-          <t>2026-02-04 19:20:26</t>
+          <t>2026-02-04 19:48:55</t>
         </is>
       </c>
       <c r="I132" t="inlineStr">
         <is>
-          <t>18:30</t>
+          <t>19:00</t>
         </is>
       </c>
       <c r="J132" t="inlineStr">
         <is>
-          <t>https://www.meteo.cat/observacions/xema/dades?codi=CI&amp;dia=2026-02-04T18:30Z</t>
+          <t>https://www.meteo.cat/observacions/xema/dades?codi=CI&amp;dia=2026-02-04T19:00Z</t>
         </is>
       </c>
       <c r="K132" t="n">
@@ -29800,7 +29800,7 @@
       </c>
       <c r="M132" t="inlineStr">
         <is>
-          <t>225</t>
+          <t>226</t>
         </is>
       </c>
       <c r="N132" t="inlineStr"/>
@@ -29808,12 +29808,12 @@
       <c r="P132" t="inlineStr"/>
       <c r="Q132" t="inlineStr">
         <is>
-          <t>86</t>
+          <t>91</t>
         </is>
       </c>
       <c r="R132" t="inlineStr">
         <is>
-          <t>994.3</t>
+          <t>995.4</t>
         </is>
       </c>
       <c r="S132" t="inlineStr">
@@ -29823,102 +29823,102 @@
       </c>
       <c r="T132" t="inlineStr">
         <is>
-          <t>18:30 - 19:00</t>
+          <t>19:00 - 19:30</t>
         </is>
       </c>
       <c r="U132" t="inlineStr"/>
       <c r="V132" t="inlineStr">
         <is>
-          <t>4.1</t>
+          <t>2.9</t>
         </is>
       </c>
       <c r="W132" t="inlineStr">
         <is>
+          <t>2.7</t>
+        </is>
+      </c>
+      <c r="X132" t="inlineStr">
+        <is>
           <t>3.1</t>
         </is>
       </c>
-      <c r="X132" t="inlineStr">
-        <is>
-          <t>5.1</t>
-        </is>
-      </c>
       <c r="Y132" t="inlineStr">
         <is>
-          <t>4.0</t>
+          <t>6.5</t>
         </is>
       </c>
       <c r="Z132" t="inlineStr"/>
       <c r="AA132" t="inlineStr"/>
       <c r="AB132" t="inlineStr">
         <is>
-          <t>10.1</t>
+          <t>13.7</t>
         </is>
       </c>
       <c r="AC132" t="inlineStr"/>
       <c r="AD132" t="inlineStr"/>
       <c r="AE132" t="inlineStr">
         <is>
-          <t>18:30 - 19:00</t>
+          <t>19:00 - 19:30</t>
         </is>
       </c>
       <c r="AF132" t="inlineStr">
         <is>
-          <t>4.1</t>
+          <t>2.9</t>
         </is>
       </c>
       <c r="AG132" t="inlineStr">
         <is>
-          <t>5.1</t>
+          <t>3.1</t>
         </is>
       </c>
       <c r="AH132" t="inlineStr">
         <is>
+          <t>2.7</t>
+        </is>
+      </c>
+      <c r="AI132" t="inlineStr">
+        <is>
+          <t>91</t>
+        </is>
+      </c>
+      <c r="AJ132" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="AK132" t="inlineStr">
+        <is>
+          <t>6.5</t>
+        </is>
+      </c>
+      <c r="AL132" t="inlineStr">
+        <is>
+          <t>226</t>
+        </is>
+      </c>
+      <c r="AM132" t="inlineStr">
+        <is>
+          <t>19:00 - 19:30</t>
+        </is>
+      </c>
+      <c r="AN132" t="inlineStr">
+        <is>
+          <t>2.9</t>
+        </is>
+      </c>
+      <c r="AO132" t="inlineStr">
+        <is>
           <t>3.1</t>
         </is>
       </c>
-      <c r="AI132" t="inlineStr">
-        <is>
-          <t>86</t>
-        </is>
-      </c>
-      <c r="AJ132" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="AK132" t="inlineStr">
-        <is>
-          <t>4.0</t>
-        </is>
-      </c>
-      <c r="AL132" t="inlineStr">
-        <is>
-          <t>225</t>
-        </is>
-      </c>
-      <c r="AM132" t="inlineStr">
-        <is>
-          <t>18:30 - 19:00</t>
-        </is>
-      </c>
-      <c r="AN132" t="inlineStr">
-        <is>
-          <t>4.1</t>
-        </is>
-      </c>
-      <c r="AO132" t="inlineStr">
-        <is>
-          <t>5.1</t>
-        </is>
-      </c>
       <c r="AP132" t="inlineStr">
         <is>
-          <t>3.1</t>
+          <t>2.7</t>
         </is>
       </c>
       <c r="AQ132" t="inlineStr">
         <is>
-          <t>86</t>
+          <t>91</t>
         </is>
       </c>
       <c r="AR132" t="inlineStr">
@@ -29928,33 +29928,33 @@
       </c>
       <c r="AS132" t="inlineStr">
         <is>
-          <t>4.0</t>
+          <t>6.5</t>
         </is>
       </c>
       <c r="AT132" t="inlineStr">
         <is>
-          <t>225</t>
+          <t>226</t>
         </is>
       </c>
       <c r="AU132" t="inlineStr">
         <is>
-          <t>10.1</t>
+          <t>13.7</t>
         </is>
       </c>
       <c r="AV132" t="inlineStr">
         <is>
-          <t>994.3</t>
+          <t>995.4</t>
         </is>
       </c>
       <c r="AW132" t="inlineStr"/>
       <c r="AX132" t="inlineStr">
         <is>
-          <t>10.1</t>
+          <t>13.7</t>
         </is>
       </c>
       <c r="AY132" t="inlineStr">
         <is>
-          <t>994.3</t>
+          <t>995.4</t>
         </is>
       </c>
       <c r="AZ132" t="inlineStr"/>
@@ -29998,7 +29998,7 @@
       </c>
       <c r="H133" t="inlineStr">
         <is>
-          <t>2026-02-04 19:20:28</t>
+          <t>2026-02-04 19:48:56</t>
         </is>
       </c>
       <c r="I133" t="inlineStr">
@@ -30219,7 +30219,7 @@
       </c>
       <c r="H134" t="inlineStr">
         <is>
-          <t>2026-02-04 19:20:28</t>
+          <t>2026-02-04 19:48:56</t>
         </is>
       </c>
       <c r="I134" t="inlineStr">
@@ -30440,7 +30440,7 @@
       </c>
       <c r="H135" t="inlineStr">
         <is>
-          <t>2026-02-04 19:20:28</t>
+          <t>2026-02-04 19:48:56</t>
         </is>
       </c>
       <c r="I135" t="inlineStr">
@@ -30661,7 +30661,7 @@
       </c>
       <c r="H136" t="inlineStr">
         <is>
-          <t>2026-02-04 19:20:28</t>
+          <t>2026-02-04 19:48:56</t>
         </is>
       </c>
       <c r="I136" t="inlineStr">
@@ -30867,7 +30867,7 @@
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>18:30 - 19:00</t>
+          <t>19:00 - 19:30</t>
         </is>
       </c>
       <c r="F137" t="inlineStr">
@@ -30882,17 +30882,17 @@
       </c>
       <c r="H137" t="inlineStr">
         <is>
-          <t>2026-02-04 19:20:31</t>
+          <t>2026-02-04 19:48:59</t>
         </is>
       </c>
       <c r="I137" t="inlineStr">
         <is>
-          <t>18:30</t>
+          <t>19:00</t>
         </is>
       </c>
       <c r="J137" t="inlineStr">
         <is>
-          <t>https://www.meteo.cat/observacions/xema/dades?codi=XS&amp;dia=2026-02-04T18:30Z</t>
+          <t>https://www.meteo.cat/observacions/xema/dades?codi=XS&amp;dia=2026-02-04T19:00Z</t>
         </is>
       </c>
       <c r="K137" t="n">
@@ -30905,7 +30905,7 @@
       </c>
       <c r="M137" t="inlineStr">
         <is>
-          <t>297</t>
+          <t>294</t>
         </is>
       </c>
       <c r="N137" t="inlineStr"/>
@@ -30913,7 +30913,7 @@
       <c r="P137" t="inlineStr"/>
       <c r="Q137" t="inlineStr">
         <is>
-          <t>77</t>
+          <t>75</t>
         </is>
       </c>
       <c r="R137" t="inlineStr"/>
@@ -30924,7 +30924,7 @@
       </c>
       <c r="T137" t="inlineStr">
         <is>
-          <t>18:30 - 19:00</t>
+          <t>19:00 - 19:30</t>
         </is>
       </c>
       <c r="U137" t="inlineStr">
@@ -30934,12 +30934,12 @@
       </c>
       <c r="V137" t="inlineStr">
         <is>
-          <t>7.3</t>
+          <t>7.5</t>
         </is>
       </c>
       <c r="W137" t="inlineStr">
         <is>
-          <t>7.1</t>
+          <t>7.2</t>
         </is>
       </c>
       <c r="X137" t="inlineStr">
@@ -30949,26 +30949,26 @@
       </c>
       <c r="Y137" t="inlineStr">
         <is>
-          <t>7.2</t>
+          <t>6.5</t>
         </is>
       </c>
       <c r="Z137" t="inlineStr"/>
       <c r="AA137" t="inlineStr"/>
       <c r="AB137" t="inlineStr">
         <is>
-          <t>13.7</t>
+          <t>10.8</t>
         </is>
       </c>
       <c r="AC137" t="inlineStr"/>
       <c r="AD137" t="inlineStr"/>
       <c r="AE137" t="inlineStr">
         <is>
-          <t>18:30 - 19:00</t>
+          <t>19:00 - 19:30</t>
         </is>
       </c>
       <c r="AF137" t="inlineStr">
         <is>
-          <t>7.3</t>
+          <t>7.5</t>
         </is>
       </c>
       <c r="AG137" t="inlineStr">
@@ -30978,12 +30978,12 @@
       </c>
       <c r="AH137" t="inlineStr">
         <is>
-          <t>7.1</t>
+          <t>7.2</t>
         </is>
       </c>
       <c r="AI137" t="inlineStr">
         <is>
-          <t>77</t>
+          <t>75</t>
         </is>
       </c>
       <c r="AJ137" t="inlineStr">
@@ -30993,37 +30993,37 @@
       </c>
       <c r="AK137" t="inlineStr">
         <is>
+          <t>6.5</t>
+        </is>
+      </c>
+      <c r="AL137" t="inlineStr">
+        <is>
+          <t>294</t>
+        </is>
+      </c>
+      <c r="AM137" t="inlineStr">
+        <is>
+          <t>19:00 - 19:30</t>
+        </is>
+      </c>
+      <c r="AN137" t="inlineStr">
+        <is>
+          <t>7.5</t>
+        </is>
+      </c>
+      <c r="AO137" t="inlineStr">
+        <is>
+          <t>7.6</t>
+        </is>
+      </c>
+      <c r="AP137" t="inlineStr">
+        <is>
           <t>7.2</t>
         </is>
       </c>
-      <c r="AL137" t="inlineStr">
-        <is>
-          <t>297</t>
-        </is>
-      </c>
-      <c r="AM137" t="inlineStr">
-        <is>
-          <t>18:30 - 19:00</t>
-        </is>
-      </c>
-      <c r="AN137" t="inlineStr">
-        <is>
-          <t>7.3</t>
-        </is>
-      </c>
-      <c r="AO137" t="inlineStr">
-        <is>
-          <t>7.6</t>
-        </is>
-      </c>
-      <c r="AP137" t="inlineStr">
-        <is>
-          <t>7.1</t>
-        </is>
-      </c>
       <c r="AQ137" t="inlineStr">
         <is>
-          <t>77</t>
+          <t>75</t>
         </is>
       </c>
       <c r="AR137" t="inlineStr">
@@ -31033,17 +31033,17 @@
       </c>
       <c r="AS137" t="inlineStr">
         <is>
-          <t>7.2</t>
+          <t>6.5</t>
         </is>
       </c>
       <c r="AT137" t="inlineStr">
         <is>
-          <t>297</t>
+          <t>294</t>
         </is>
       </c>
       <c r="AU137" t="inlineStr">
         <is>
-          <t>13.7</t>
+          <t>10.8</t>
         </is>
       </c>
       <c r="AV137" t="inlineStr">
@@ -31054,7 +31054,7 @@
       <c r="AW137" t="inlineStr"/>
       <c r="AX137" t="inlineStr">
         <is>
-          <t>13.7</t>
+          <t>10.8</t>
         </is>
       </c>
       <c r="AY137" t="inlineStr">
@@ -31103,7 +31103,7 @@
       </c>
       <c r="H138" t="inlineStr">
         <is>
-          <t>2026-02-04 19:20:32</t>
+          <t>2026-02-04 19:49:00</t>
         </is>
       </c>
       <c r="I138" t="inlineStr">
@@ -31324,7 +31324,7 @@
       </c>
       <c r="H139" t="inlineStr">
         <is>
-          <t>2026-02-04 19:20:32</t>
+          <t>2026-02-04 19:49:00</t>
         </is>
       </c>
       <c r="I139" t="inlineStr">
@@ -31545,7 +31545,7 @@
       </c>
       <c r="H140" t="inlineStr">
         <is>
-          <t>2026-02-04 19:20:32</t>
+          <t>2026-02-04 19:49:00</t>
         </is>
       </c>
       <c r="I140" t="inlineStr">
@@ -31766,7 +31766,7 @@
       </c>
       <c r="H141" t="inlineStr">
         <is>
-          <t>2026-02-04 19:20:32</t>
+          <t>2026-02-04 19:49:00</t>
         </is>
       </c>
       <c r="I141" t="inlineStr">
@@ -31972,7 +31972,7 @@
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>18:30 - 19:00</t>
+          <t>19:00 - 19:30</t>
         </is>
       </c>
       <c r="F142" t="inlineStr">
@@ -31987,17 +31987,17 @@
       </c>
       <c r="H142" t="inlineStr">
         <is>
-          <t>2026-02-04 19:20:35</t>
+          <t>2026-02-04 19:49:03</t>
         </is>
       </c>
       <c r="I142" t="inlineStr">
         <is>
-          <t>18:30</t>
+          <t>19:00</t>
         </is>
       </c>
       <c r="J142" t="inlineStr">
         <is>
-          <t>https://www.meteo.cat/observacions/xema/dades?codi=ZC&amp;dia=2026-02-04T18:30Z</t>
+          <t>https://www.meteo.cat/observacions/xema/dades?codi=ZC&amp;dia=2026-02-04T19:00Z</t>
         </is>
       </c>
       <c r="K142" t="n">
@@ -32010,7 +32010,7 @@
       </c>
       <c r="M142" t="inlineStr">
         <is>
-          <t>273</t>
+          <t>284</t>
         </is>
       </c>
       <c r="N142" t="inlineStr"/>
@@ -32022,7 +32022,7 @@
       </c>
       <c r="Q142" t="inlineStr">
         <is>
-          <t>65</t>
+          <t>63</t>
         </is>
       </c>
       <c r="R142" t="inlineStr"/>
@@ -32033,7 +32033,7 @@
       </c>
       <c r="T142" t="inlineStr">
         <is>
-          <t>18:30 - 19:00</t>
+          <t>19:00 - 19:30</t>
         </is>
       </c>
       <c r="U142" t="inlineStr">
@@ -32043,56 +32043,56 @@
       </c>
       <c r="V142" t="inlineStr">
         <is>
-          <t>-3.0</t>
+          <t>-2.5</t>
         </is>
       </c>
       <c r="W142" t="inlineStr">
         <is>
-          <t>-3.3</t>
+          <t>-3.1</t>
         </is>
       </c>
       <c r="X142" t="inlineStr">
         <is>
-          <t>-2.7</t>
+          <t>-2.3</t>
         </is>
       </c>
       <c r="Y142" t="inlineStr">
         <is>
-          <t>6.5</t>
+          <t>7.6</t>
         </is>
       </c>
       <c r="Z142" t="inlineStr"/>
       <c r="AA142" t="inlineStr"/>
       <c r="AB142" t="inlineStr">
         <is>
-          <t>19.8</t>
+          <t>19.1</t>
         </is>
       </c>
       <c r="AC142" t="inlineStr"/>
       <c r="AD142" t="inlineStr"/>
       <c r="AE142" t="inlineStr">
         <is>
-          <t>18:30 - 19:00</t>
+          <t>19:00 - 19:30</t>
         </is>
       </c>
       <c r="AF142" t="inlineStr">
         <is>
-          <t>-3.0</t>
+          <t>-2.5</t>
         </is>
       </c>
       <c r="AG142" t="inlineStr">
         <is>
-          <t>-2.7</t>
+          <t>-2.3</t>
         </is>
       </c>
       <c r="AH142" t="inlineStr">
         <is>
-          <t>-3.3</t>
+          <t>-3.1</t>
         </is>
       </c>
       <c r="AI142" t="inlineStr">
         <is>
-          <t>65</t>
+          <t>63</t>
         </is>
       </c>
       <c r="AJ142" t="inlineStr">
@@ -32107,32 +32107,32 @@
       </c>
       <c r="AL142" t="inlineStr">
         <is>
-          <t>6.5</t>
+          <t>7.6</t>
         </is>
       </c>
       <c r="AM142" t="inlineStr">
         <is>
-          <t>18:30 - 19:00</t>
+          <t>19:00 - 19:30</t>
         </is>
       </c>
       <c r="AN142" t="inlineStr">
         <is>
-          <t>-3.0</t>
+          <t>-2.5</t>
         </is>
       </c>
       <c r="AO142" t="inlineStr">
         <is>
-          <t>-2.7</t>
+          <t>-2.3</t>
         </is>
       </c>
       <c r="AP142" t="inlineStr">
         <is>
-          <t>-3.3</t>
+          <t>-3.1</t>
         </is>
       </c>
       <c r="AQ142" t="inlineStr">
         <is>
-          <t>65</t>
+          <t>63</t>
         </is>
       </c>
       <c r="AR142" t="inlineStr">
@@ -32147,17 +32147,17 @@
       </c>
       <c r="AT142" t="inlineStr">
         <is>
-          <t>6.5</t>
+          <t>7.6</t>
         </is>
       </c>
       <c r="AU142" t="inlineStr">
         <is>
-          <t>273</t>
+          <t>284</t>
         </is>
       </c>
       <c r="AV142" t="inlineStr">
         <is>
-          <t>19.8</t>
+          <t>19.1</t>
         </is>
       </c>
       <c r="AW142" t="inlineStr">
@@ -32167,12 +32167,12 @@
       </c>
       <c r="AX142" t="inlineStr">
         <is>
-          <t>273</t>
+          <t>284</t>
         </is>
       </c>
       <c r="AY142" t="inlineStr">
         <is>
-          <t>19.8</t>
+          <t>19.1</t>
         </is>
       </c>
       <c r="AZ142" t="inlineStr">
@@ -32220,7 +32220,7 @@
       </c>
       <c r="H143" t="inlineStr">
         <is>
-          <t>2026-02-04 19:20:36</t>
+          <t>2026-02-04 19:49:04</t>
         </is>
       </c>
       <c r="I143" t="inlineStr">
@@ -32453,7 +32453,7 @@
       </c>
       <c r="H144" t="inlineStr">
         <is>
-          <t>2026-02-04 19:20:36</t>
+          <t>2026-02-04 19:49:04</t>
         </is>
       </c>
       <c r="I144" t="inlineStr">
@@ -32686,7 +32686,7 @@
       </c>
       <c r="H145" t="inlineStr">
         <is>
-          <t>2026-02-04 19:20:36</t>
+          <t>2026-02-04 19:49:04</t>
         </is>
       </c>
       <c r="I145" t="inlineStr">
@@ -32919,7 +32919,7 @@
       </c>
       <c r="H146" t="inlineStr">
         <is>
-          <t>2026-02-04 19:20:36</t>
+          <t>2026-02-04 19:49:04</t>
         </is>
       </c>
       <c r="I146" t="inlineStr">
@@ -33137,7 +33137,7 @@
       </c>
       <c r="E147" t="inlineStr">
         <is>
-          <t>18:30 - 19:00</t>
+          <t>19:00 - 19:30</t>
         </is>
       </c>
       <c r="F147" t="inlineStr">
@@ -33152,17 +33152,17 @@
       </c>
       <c r="H147" t="inlineStr">
         <is>
-          <t>2026-02-04 19:20:39</t>
+          <t>2026-02-04 19:49:06</t>
         </is>
       </c>
       <c r="I147" t="inlineStr">
         <is>
-          <t>18:30</t>
+          <t>19:00</t>
         </is>
       </c>
       <c r="J147" t="inlineStr">
         <is>
-          <t>https://www.meteo.cat/observacions/xema/dades?codi=XH&amp;dia=2026-02-04T18:30Z</t>
+          <t>https://www.meteo.cat/observacions/xema/dades?codi=XH&amp;dia=2026-02-04T19:00Z</t>
         </is>
       </c>
       <c r="K147" t="n">
@@ -33183,12 +33183,12 @@
       </c>
       <c r="Q147" t="inlineStr">
         <is>
-          <t>88</t>
+          <t>90</t>
         </is>
       </c>
       <c r="R147" t="inlineStr">
         <is>
-          <t>995.0</t>
+          <t>995.5</t>
         </is>
       </c>
       <c r="S147" t="inlineStr">
@@ -33198,23 +33198,23 @@
       </c>
       <c r="T147" t="inlineStr">
         <is>
-          <t>18:30 - 19:00</t>
+          <t>19:00 - 19:30</t>
         </is>
       </c>
       <c r="U147" t="inlineStr"/>
       <c r="V147" t="inlineStr">
         <is>
-          <t>4.6</t>
+          <t>4.7</t>
         </is>
       </c>
       <c r="W147" t="inlineStr">
         <is>
-          <t>4.5</t>
+          <t>4.7</t>
         </is>
       </c>
       <c r="X147" t="inlineStr">
         <is>
-          <t>4.9</t>
+          <t>4.8</t>
         </is>
       </c>
       <c r="Y147" t="inlineStr"/>
@@ -33225,27 +33225,27 @@
       <c r="AD147" t="inlineStr"/>
       <c r="AE147" t="inlineStr">
         <is>
-          <t>18:30 - 19:00</t>
+          <t>19:00 - 19:30</t>
         </is>
       </c>
       <c r="AF147" t="inlineStr">
         <is>
-          <t>4.6</t>
+          <t>4.7</t>
         </is>
       </c>
       <c r="AG147" t="inlineStr">
         <is>
-          <t>4.9</t>
+          <t>4.8</t>
         </is>
       </c>
       <c r="AH147" t="inlineStr">
         <is>
-          <t>4.5</t>
+          <t>4.7</t>
         </is>
       </c>
       <c r="AI147" t="inlineStr">
         <is>
-          <t>88</t>
+          <t>90</t>
         </is>
       </c>
       <c r="AJ147" t="inlineStr">
@@ -33260,32 +33260,32 @@
       </c>
       <c r="AL147" t="inlineStr">
         <is>
-          <t>995.0</t>
+          <t>995.5</t>
         </is>
       </c>
       <c r="AM147" t="inlineStr">
         <is>
-          <t>18:30 - 19:00</t>
+          <t>19:00 - 19:30</t>
         </is>
       </c>
       <c r="AN147" t="inlineStr">
         <is>
-          <t>4.6</t>
+          <t>4.7</t>
         </is>
       </c>
       <c r="AO147" t="inlineStr">
         <is>
-          <t>4.9</t>
+          <t>4.8</t>
         </is>
       </c>
       <c r="AP147" t="inlineStr">
         <is>
-          <t>4.5</t>
+          <t>4.7</t>
         </is>
       </c>
       <c r="AQ147" t="inlineStr">
         <is>
-          <t>88</t>
+          <t>90</t>
         </is>
       </c>
       <c r="AR147" t="inlineStr">
@@ -33300,7 +33300,7 @@
       </c>
       <c r="AT147" t="inlineStr">
         <is>
-          <t>995.0</t>
+          <t>995.5</t>
         </is>
       </c>
       <c r="AU147" t="inlineStr"/>
@@ -33349,7 +33349,7 @@
       </c>
       <c r="H148" t="inlineStr">
         <is>
-          <t>2026-02-04 19:20:41</t>
+          <t>2026-02-04 19:49:08</t>
         </is>
       </c>
       <c r="I148" t="inlineStr">
@@ -33546,7 +33546,7 @@
       </c>
       <c r="H149" t="inlineStr">
         <is>
-          <t>2026-02-04 19:20:41</t>
+          <t>2026-02-04 19:49:08</t>
         </is>
       </c>
       <c r="I149" t="inlineStr">
@@ -33743,7 +33743,7 @@
       </c>
       <c r="H150" t="inlineStr">
         <is>
-          <t>2026-02-04 19:20:41</t>
+          <t>2026-02-04 19:49:08</t>
         </is>
       </c>
       <c r="I150" t="inlineStr">
@@ -33940,7 +33940,7 @@
       </c>
       <c r="H151" t="inlineStr">
         <is>
-          <t>2026-02-04 19:20:41</t>
+          <t>2026-02-04 19:49:08</t>
         </is>
       </c>
       <c r="I151" t="inlineStr">
@@ -34122,7 +34122,7 @@
       </c>
       <c r="E152" t="inlineStr">
         <is>
-          <t>18:30 - 19:00</t>
+          <t>19:00 - 19:30</t>
         </is>
       </c>
       <c r="F152" t="inlineStr">
@@ -34137,17 +34137,17 @@
       </c>
       <c r="H152" t="inlineStr">
         <is>
-          <t>2026-02-04 19:20:44</t>
+          <t>2026-02-04 19:49:10</t>
         </is>
       </c>
       <c r="I152" t="inlineStr">
         <is>
-          <t>18:30</t>
+          <t>19:00</t>
         </is>
       </c>
       <c r="J152" t="inlineStr">
         <is>
-          <t>https://www.meteo.cat/observacions/xema/dades?codi=XE&amp;dia=2026-02-04T18:30Z</t>
+          <t>https://www.meteo.cat/observacions/xema/dades?codi=XE&amp;dia=2026-02-04T19:00Z</t>
         </is>
       </c>
       <c r="K152" t="n">
@@ -34160,7 +34160,7 @@
       </c>
       <c r="M152" t="inlineStr">
         <is>
-          <t>195</t>
+          <t>52</t>
         </is>
       </c>
       <c r="N152" t="inlineStr"/>
@@ -34168,12 +34168,12 @@
       <c r="P152" t="inlineStr"/>
       <c r="Q152" t="inlineStr">
         <is>
-          <t>74</t>
+          <t>82</t>
         </is>
       </c>
       <c r="R152" t="inlineStr">
         <is>
-          <t>993.0</t>
+          <t>993.4</t>
         </is>
       </c>
       <c r="S152" t="inlineStr">
@@ -34183,7 +34183,7 @@
       </c>
       <c r="T152" t="inlineStr">
         <is>
-          <t>18:30 - 19:00</t>
+          <t>19:00 - 19:30</t>
         </is>
       </c>
       <c r="U152" t="inlineStr">
@@ -34193,96 +34193,96 @@
       </c>
       <c r="V152" t="inlineStr">
         <is>
-          <t>11.4</t>
+          <t>10.0</t>
         </is>
       </c>
       <c r="W152" t="inlineStr">
         <is>
+          <t>9.5</t>
+        </is>
+      </c>
+      <c r="X152" t="inlineStr">
+        <is>
           <t>10.5</t>
         </is>
       </c>
-      <c r="X152" t="inlineStr">
-        <is>
-          <t>11.8</t>
-        </is>
-      </c>
       <c r="Y152" t="inlineStr">
         <is>
-          <t>1.4</t>
+          <t>2.5</t>
         </is>
       </c>
       <c r="Z152" t="inlineStr"/>
       <c r="AA152" t="inlineStr"/>
       <c r="AB152" t="inlineStr">
         <is>
-          <t>5.8</t>
+          <t>7.2</t>
         </is>
       </c>
       <c r="AC152" t="inlineStr"/>
       <c r="AD152" t="inlineStr"/>
       <c r="AE152" t="inlineStr">
         <is>
-          <t>18:30 - 19:00</t>
+          <t>19:00 - 19:30</t>
         </is>
       </c>
       <c r="AF152" t="inlineStr">
         <is>
-          <t>11.4</t>
+          <t>10.0</t>
         </is>
       </c>
       <c r="AG152" t="inlineStr">
         <is>
-          <t>11.8</t>
+          <t>10.5</t>
         </is>
       </c>
       <c r="AH152" t="inlineStr">
         <is>
+          <t>9.5</t>
+        </is>
+      </c>
+      <c r="AI152" t="inlineStr">
+        <is>
+          <t>82</t>
+        </is>
+      </c>
+      <c r="AJ152" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="AK152" t="inlineStr">
+        <is>
+          <t>2.5</t>
+        </is>
+      </c>
+      <c r="AL152" t="inlineStr">
+        <is>
+          <t>52</t>
+        </is>
+      </c>
+      <c r="AM152" t="inlineStr">
+        <is>
+          <t>19:00 - 19:30</t>
+        </is>
+      </c>
+      <c r="AN152" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+      <c r="AO152" t="inlineStr">
+        <is>
           <t>10.5</t>
         </is>
       </c>
-      <c r="AI152" t="inlineStr">
-        <is>
-          <t>74</t>
-        </is>
-      </c>
-      <c r="AJ152" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="AK152" t="inlineStr">
-        <is>
-          <t>1.4</t>
-        </is>
-      </c>
-      <c r="AL152" t="inlineStr">
-        <is>
-          <t>195</t>
-        </is>
-      </c>
-      <c r="AM152" t="inlineStr">
-        <is>
-          <t>18:30 - 19:00</t>
-        </is>
-      </c>
-      <c r="AN152" t="inlineStr">
-        <is>
-          <t>11.4</t>
-        </is>
-      </c>
-      <c r="AO152" t="inlineStr">
-        <is>
-          <t>11.8</t>
-        </is>
-      </c>
       <c r="AP152" t="inlineStr">
         <is>
-          <t>10.5</t>
+          <t>9.5</t>
         </is>
       </c>
       <c r="AQ152" t="inlineStr">
         <is>
-          <t>74</t>
+          <t>82</t>
         </is>
       </c>
       <c r="AR152" t="inlineStr">
@@ -34292,22 +34292,22 @@
       </c>
       <c r="AS152" t="inlineStr">
         <is>
-          <t>1.4</t>
+          <t>2.5</t>
         </is>
       </c>
       <c r="AT152" t="inlineStr">
         <is>
-          <t>195</t>
+          <t>52</t>
         </is>
       </c>
       <c r="AU152" t="inlineStr">
         <is>
-          <t>5.8</t>
+          <t>7.2</t>
         </is>
       </c>
       <c r="AV152" t="inlineStr">
         <is>
-          <t>993.0</t>
+          <t>993.4</t>
         </is>
       </c>
       <c r="AW152" t="inlineStr">
@@ -34317,12 +34317,12 @@
       </c>
       <c r="AX152" t="inlineStr">
         <is>
-          <t>5.8</t>
+          <t>7.2</t>
         </is>
       </c>
       <c r="AY152" t="inlineStr">
         <is>
-          <t>993.0</t>
+          <t>993.4</t>
         </is>
       </c>
       <c r="AZ152" t="inlineStr">
@@ -34370,7 +34370,7 @@
       </c>
       <c r="H153" t="inlineStr">
         <is>
-          <t>2026-02-04 19:20:45</t>
+          <t>2026-02-04 19:49:12</t>
         </is>
       </c>
       <c r="I153" t="inlineStr">
@@ -34603,7 +34603,7 @@
       </c>
       <c r="H154" t="inlineStr">
         <is>
-          <t>2026-02-04 19:20:45</t>
+          <t>2026-02-04 19:49:12</t>
         </is>
       </c>
       <c r="I154" t="inlineStr">
@@ -34836,7 +34836,7 @@
       </c>
       <c r="H155" t="inlineStr">
         <is>
-          <t>2026-02-04 19:20:45</t>
+          <t>2026-02-04 19:49:12</t>
         </is>
       </c>
       <c r="I155" t="inlineStr">
@@ -35069,7 +35069,7 @@
       </c>
       <c r="H156" t="inlineStr">
         <is>
-          <t>2026-02-04 19:20:45</t>
+          <t>2026-02-04 19:49:12</t>
         </is>
       </c>
       <c r="I156" t="inlineStr">
@@ -35287,7 +35287,7 @@
       </c>
       <c r="E157" t="inlineStr">
         <is>
-          <t>18:30 - 19:00</t>
+          <t>19:00 - 19:30</t>
         </is>
       </c>
       <c r="F157" t="inlineStr">
@@ -35302,17 +35302,17 @@
       </c>
       <c r="H157" t="inlineStr">
         <is>
-          <t>2026-02-04 19:20:48</t>
+          <t>2026-02-04 19:49:14</t>
         </is>
       </c>
       <c r="I157" t="inlineStr">
         <is>
-          <t>18:30</t>
+          <t>19:00</t>
         </is>
       </c>
       <c r="J157" t="inlineStr">
         <is>
-          <t>https://www.meteo.cat/observacions/xema/dades?codi=UE&amp;dia=2026-02-04T18:30Z</t>
+          <t>https://www.meteo.cat/observacions/xema/dades?codi=UE&amp;dia=2026-02-04T19:00Z</t>
         </is>
       </c>
       <c r="K157" t="n">
@@ -35329,7 +35329,7 @@
       <c r="P157" t="inlineStr"/>
       <c r="Q157" t="inlineStr">
         <is>
-          <t>94</t>
+          <t>92</t>
         </is>
       </c>
       <c r="R157" t="inlineStr"/>
@@ -35340,18 +35340,18 @@
       </c>
       <c r="T157" t="inlineStr">
         <is>
-          <t>18:30 - 19:00</t>
+          <t>19:00 - 19:30</t>
         </is>
       </c>
       <c r="U157" t="inlineStr"/>
       <c r="V157" t="inlineStr">
         <is>
-          <t>8.1</t>
+          <t>7.8</t>
         </is>
       </c>
       <c r="W157" t="inlineStr">
         <is>
-          <t>7.7</t>
+          <t>7.1</t>
         </is>
       </c>
       <c r="X157" t="inlineStr">
@@ -35367,12 +35367,12 @@
       <c r="AD157" t="inlineStr"/>
       <c r="AE157" t="inlineStr">
         <is>
-          <t>18:30 - 19:00</t>
+          <t>19:00 - 19:30</t>
         </is>
       </c>
       <c r="AF157" t="inlineStr">
         <is>
-          <t>8.1</t>
+          <t>7.8</t>
         </is>
       </c>
       <c r="AG157" t="inlineStr">
@@ -35382,12 +35382,12 @@
       </c>
       <c r="AH157" t="inlineStr">
         <is>
-          <t>7.7</t>
+          <t>7.1</t>
         </is>
       </c>
       <c r="AI157" t="inlineStr">
         <is>
-          <t>94</t>
+          <t>92</t>
         </is>
       </c>
       <c r="AJ157" t="inlineStr">
@@ -35399,12 +35399,12 @@
       <c r="AL157" t="inlineStr"/>
       <c r="AM157" t="inlineStr">
         <is>
-          <t>18:30 - 19:00</t>
+          <t>19:00 - 19:30</t>
         </is>
       </c>
       <c r="AN157" t="inlineStr">
         <is>
-          <t>8.1</t>
+          <t>7.8</t>
         </is>
       </c>
       <c r="AO157" t="inlineStr">
@@ -35414,12 +35414,12 @@
       </c>
       <c r="AP157" t="inlineStr">
         <is>
-          <t>7.7</t>
+          <t>7.1</t>
         </is>
       </c>
       <c r="AQ157" t="inlineStr">
         <is>
-          <t>94</t>
+          <t>92</t>
         </is>
       </c>
       <c r="AR157" t="inlineStr">
@@ -35475,7 +35475,7 @@
       </c>
       <c r="H158" t="inlineStr">
         <is>
-          <t>2026-02-04 19:20:49</t>
+          <t>2026-02-04 19:49:16</t>
         </is>
       </c>
       <c r="I158" t="inlineStr">
@@ -35648,7 +35648,7 @@
       </c>
       <c r="H159" t="inlineStr">
         <is>
-          <t>2026-02-04 19:20:49</t>
+          <t>2026-02-04 19:49:16</t>
         </is>
       </c>
       <c r="I159" t="inlineStr">
@@ -35821,7 +35821,7 @@
       </c>
       <c r="H160" t="inlineStr">
         <is>
-          <t>2026-02-04 19:20:49</t>
+          <t>2026-02-04 19:49:16</t>
         </is>
       </c>
       <c r="I160" t="inlineStr">
@@ -35994,7 +35994,7 @@
       </c>
       <c r="H161" t="inlineStr">
         <is>
-          <t>2026-02-04 19:20:49</t>
+          <t>2026-02-04 19:49:16</t>
         </is>
       </c>
       <c r="I161" t="inlineStr">
@@ -36152,7 +36152,7 @@
       </c>
       <c r="E162" t="inlineStr">
         <is>
-          <t>18:30 - 19:00</t>
+          <t>19:00 - 19:30</t>
         </is>
       </c>
       <c r="F162" t="inlineStr">
@@ -36167,17 +36167,17 @@
       </c>
       <c r="H162" t="inlineStr">
         <is>
-          <t>2026-02-04 19:20:52</t>
+          <t>2026-02-04 19:49:18</t>
         </is>
       </c>
       <c r="I162" t="inlineStr">
         <is>
-          <t>18:30</t>
+          <t>19:00</t>
         </is>
       </c>
       <c r="J162" t="inlineStr">
         <is>
-          <t>https://www.meteo.cat/observacions/xema/dades?codi=XO&amp;dia=2026-02-04T18:30Z</t>
+          <t>https://www.meteo.cat/observacions/xema/dades?codi=XO&amp;dia=2026-02-04T19:00Z</t>
         </is>
       </c>
       <c r="K162" t="n">
@@ -36190,7 +36190,7 @@
       </c>
       <c r="M162" t="inlineStr">
         <is>
-          <t>216</t>
+          <t>240</t>
         </is>
       </c>
       <c r="N162" t="inlineStr"/>
@@ -36198,7 +36198,7 @@
       <c r="P162" t="inlineStr"/>
       <c r="Q162" t="inlineStr">
         <is>
-          <t>83</t>
+          <t>86</t>
         </is>
       </c>
       <c r="R162" t="inlineStr"/>
@@ -36209,7 +36209,7 @@
       </c>
       <c r="T162" t="inlineStr">
         <is>
-          <t>18:30 - 19:00</t>
+          <t>19:00 - 19:30</t>
         </is>
       </c>
       <c r="U162" t="inlineStr">
@@ -36219,96 +36219,96 @@
       </c>
       <c r="V162" t="inlineStr">
         <is>
-          <t>5.7</t>
+          <t>4.8</t>
         </is>
       </c>
       <c r="W162" t="inlineStr">
         <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="X162" t="inlineStr">
+        <is>
           <t>5.5</t>
         </is>
       </c>
-      <c r="X162" t="inlineStr">
-        <is>
-          <t>5.9</t>
-        </is>
-      </c>
       <c r="Y162" t="inlineStr">
         <is>
-          <t>2.5</t>
+          <t>1.8</t>
         </is>
       </c>
       <c r="Z162" t="inlineStr"/>
       <c r="AA162" t="inlineStr"/>
       <c r="AB162" t="inlineStr">
         <is>
-          <t>6.5</t>
+          <t>5.8</t>
         </is>
       </c>
       <c r="AC162" t="inlineStr"/>
       <c r="AD162" t="inlineStr"/>
       <c r="AE162" t="inlineStr">
         <is>
-          <t>18:30 - 19:00</t>
+          <t>19:00 - 19:30</t>
         </is>
       </c>
       <c r="AF162" t="inlineStr">
         <is>
-          <t>5.7</t>
+          <t>4.8</t>
         </is>
       </c>
       <c r="AG162" t="inlineStr">
         <is>
-          <t>5.9</t>
+          <t>5.5</t>
         </is>
       </c>
       <c r="AH162" t="inlineStr">
         <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="AI162" t="inlineStr">
+        <is>
+          <t>86</t>
+        </is>
+      </c>
+      <c r="AJ162" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="AK162" t="inlineStr">
+        <is>
+          <t>1.8</t>
+        </is>
+      </c>
+      <c r="AL162" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="AM162" t="inlineStr">
+        <is>
+          <t>19:00 - 19:30</t>
+        </is>
+      </c>
+      <c r="AN162" t="inlineStr">
+        <is>
+          <t>4.8</t>
+        </is>
+      </c>
+      <c r="AO162" t="inlineStr">
+        <is>
           <t>5.5</t>
         </is>
       </c>
-      <c r="AI162" t="inlineStr">
-        <is>
-          <t>83</t>
-        </is>
-      </c>
-      <c r="AJ162" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="AK162" t="inlineStr">
-        <is>
-          <t>2.5</t>
-        </is>
-      </c>
-      <c r="AL162" t="inlineStr">
-        <is>
-          <t>216</t>
-        </is>
-      </c>
-      <c r="AM162" t="inlineStr">
-        <is>
-          <t>18:30 - 19:00</t>
-        </is>
-      </c>
-      <c r="AN162" t="inlineStr">
-        <is>
-          <t>5.7</t>
-        </is>
-      </c>
-      <c r="AO162" t="inlineStr">
-        <is>
-          <t>5.9</t>
-        </is>
-      </c>
       <c r="AP162" t="inlineStr">
         <is>
-          <t>5.5</t>
+          <t>4.0</t>
         </is>
       </c>
       <c r="AQ162" t="inlineStr">
         <is>
-          <t>83</t>
+          <t>86</t>
         </is>
       </c>
       <c r="AR162" t="inlineStr">
@@ -36318,17 +36318,17 @@
       </c>
       <c r="AS162" t="inlineStr">
         <is>
-          <t>2.5</t>
+          <t>1.8</t>
         </is>
       </c>
       <c r="AT162" t="inlineStr">
         <is>
-          <t>216</t>
+          <t>240</t>
         </is>
       </c>
       <c r="AU162" t="inlineStr">
         <is>
-          <t>6.5</t>
+          <t>5.8</t>
         </is>
       </c>
       <c r="AV162" t="inlineStr">
@@ -36339,7 +36339,7 @@
       <c r="AW162" t="inlineStr"/>
       <c r="AX162" t="inlineStr">
         <is>
-          <t>6.5</t>
+          <t>5.8</t>
         </is>
       </c>
       <c r="AY162" t="inlineStr">
@@ -36388,7 +36388,7 @@
       </c>
       <c r="H163" t="inlineStr">
         <is>
-          <t>2026-02-04 19:20:54</t>
+          <t>2026-02-04 19:49:20</t>
         </is>
       </c>
       <c r="I163" t="inlineStr">
@@ -36609,7 +36609,7 @@
       </c>
       <c r="H164" t="inlineStr">
         <is>
-          <t>2026-02-04 19:20:54</t>
+          <t>2026-02-04 19:49:20</t>
         </is>
       </c>
       <c r="I164" t="inlineStr">
@@ -36830,7 +36830,7 @@
       </c>
       <c r="H165" t="inlineStr">
         <is>
-          <t>2026-02-04 19:20:54</t>
+          <t>2026-02-04 19:49:20</t>
         </is>
       </c>
       <c r="I165" t="inlineStr">
@@ -37051,7 +37051,7 @@
       </c>
       <c r="H166" t="inlineStr">
         <is>
-          <t>2026-02-04 19:20:54</t>
+          <t>2026-02-04 19:49:20</t>
         </is>
       </c>
       <c r="I166" t="inlineStr">
@@ -37257,7 +37257,7 @@
       </c>
       <c r="E167" t="inlineStr">
         <is>
-          <t>18:30 - 19:00</t>
+          <t>19:00 - 19:30</t>
         </is>
       </c>
       <c r="F167" t="inlineStr">
@@ -37272,17 +37272,17 @@
       </c>
       <c r="H167" t="inlineStr">
         <is>
-          <t>2026-02-04 19:20:56</t>
+          <t>2026-02-04 19:49:22</t>
         </is>
       </c>
       <c r="I167" t="inlineStr">
         <is>
-          <t>18:30</t>
+          <t>19:00</t>
         </is>
       </c>
       <c r="J167" t="inlineStr">
         <is>
-          <t>https://www.meteo.cat/observacions/xema/dades?codi=VS&amp;dia=2026-02-04T18:30Z</t>
+          <t>https://www.meteo.cat/observacions/xema/dades?codi=VS&amp;dia=2026-02-04T19:00Z</t>
         </is>
       </c>
       <c r="K167" t="n">
@@ -37307,22 +37307,22 @@
       </c>
       <c r="Q167" t="inlineStr">
         <is>
-          <t>93</t>
+          <t>94</t>
         </is>
       </c>
       <c r="R167" t="inlineStr">
         <is>
-          <t>829.0</t>
+          <t>829.6</t>
         </is>
       </c>
       <c r="S167" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>0.1</t>
         </is>
       </c>
       <c r="T167" t="inlineStr">
         <is>
-          <t>18:30 - 19:00</t>
+          <t>19:00 - 19:30</t>
         </is>
       </c>
       <c r="U167" t="inlineStr">
@@ -37332,17 +37332,17 @@
       </c>
       <c r="V167" t="inlineStr">
         <is>
-          <t>-5.3</t>
+          <t>-4.9</t>
         </is>
       </c>
       <c r="W167" t="inlineStr">
         <is>
-          <t>-5.4</t>
+          <t>-5.2</t>
         </is>
       </c>
       <c r="X167" t="inlineStr">
         <is>
-          <t>-5.3</t>
+          <t>-4.6</t>
         </is>
       </c>
       <c r="Y167" t="inlineStr">
@@ -37361,32 +37361,32 @@
       <c r="AD167" t="inlineStr"/>
       <c r="AE167" t="inlineStr">
         <is>
-          <t>18:30 - 19:00</t>
+          <t>19:00 - 19:30</t>
         </is>
       </c>
       <c r="AF167" t="inlineStr">
         <is>
-          <t>-5.3</t>
+          <t>-4.9</t>
         </is>
       </c>
       <c r="AG167" t="inlineStr">
         <is>
-          <t>-5.3</t>
+          <t>-4.6</t>
         </is>
       </c>
       <c r="AH167" t="inlineStr">
         <is>
-          <t>-5.4</t>
+          <t>-5.2</t>
         </is>
       </c>
       <c r="AI167" t="inlineStr">
         <is>
-          <t>93</t>
+          <t>94</t>
         </is>
       </c>
       <c r="AJ167" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>0.1</t>
         </is>
       </c>
       <c r="AK167" t="inlineStr">
@@ -37401,32 +37401,32 @@
       </c>
       <c r="AM167" t="inlineStr">
         <is>
-          <t>18:30 - 19:00</t>
+          <t>19:00 - 19:30</t>
         </is>
       </c>
       <c r="AN167" t="inlineStr">
         <is>
-          <t>-5.3</t>
+          <t>-4.9</t>
         </is>
       </c>
       <c r="AO167" t="inlineStr">
         <is>
-          <t>-5.3</t>
+          <t>-4.6</t>
         </is>
       </c>
       <c r="AP167" t="inlineStr">
         <is>
-          <t>-5.4</t>
+          <t>-5.2</t>
         </is>
       </c>
       <c r="AQ167" t="inlineStr">
         <is>
-          <t>93</t>
+          <t>94</t>
         </is>
       </c>
       <c r="AR167" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>0.1</t>
         </is>
       </c>
       <c r="AS167" t="inlineStr">
@@ -37451,7 +37451,7 @@
       </c>
       <c r="AW167" t="inlineStr">
         <is>
-          <t>829.0</t>
+          <t>829.6</t>
         </is>
       </c>
       <c r="AX167" t="inlineStr">
@@ -37466,7 +37466,7 @@
       </c>
       <c r="AZ167" t="inlineStr">
         <is>
-          <t>829.0</t>
+          <t>829.6</t>
         </is>
       </c>
       <c r="BA167" t="inlineStr">
@@ -37513,7 +37513,7 @@
       </c>
       <c r="H168" t="inlineStr">
         <is>
-          <t>2026-02-04 19:20:58</t>
+          <t>2026-02-04 19:49:24</t>
         </is>
       </c>
       <c r="I168" t="inlineStr">
@@ -37722,7 +37722,7 @@
       </c>
       <c r="H169" t="inlineStr">
         <is>
-          <t>2026-02-04 19:20:58</t>
+          <t>2026-02-04 19:49:24</t>
         </is>
       </c>
       <c r="I169" t="inlineStr">
@@ -37931,7 +37931,7 @@
       </c>
       <c r="H170" t="inlineStr">
         <is>
-          <t>2026-02-04 19:20:58</t>
+          <t>2026-02-04 19:49:24</t>
         </is>
       </c>
       <c r="I170" t="inlineStr">
@@ -38140,7 +38140,7 @@
       </c>
       <c r="H171" t="inlineStr">
         <is>
-          <t>2026-02-04 19:20:58</t>
+          <t>2026-02-04 19:49:24</t>
         </is>
       </c>
       <c r="I171" t="inlineStr">
@@ -38334,7 +38334,7 @@
       </c>
       <c r="E172" t="inlineStr">
         <is>
-          <t>18:00 - 18:30</t>
+          <t>19:00 - 19:30</t>
         </is>
       </c>
       <c r="F172" t="inlineStr">
@@ -38349,17 +38349,17 @@
       </c>
       <c r="H172" t="inlineStr">
         <is>
-          <t>2026-02-04 19:21:01</t>
+          <t>2026-02-04 19:49:26</t>
         </is>
       </c>
       <c r="I172" t="inlineStr">
         <is>
-          <t>18:30</t>
+          <t>19:00</t>
         </is>
       </c>
       <c r="J172" t="inlineStr">
         <is>
-          <t>https://www.meteo.cat/observacions/xema/dades?codi=D7&amp;dia=2026-02-04T18:30Z</t>
+          <t>https://www.meteo.cat/observacions/xema/dades?codi=D7&amp;dia=2026-02-04T19:00Z</t>
         </is>
       </c>
       <c r="K172" t="n">
@@ -38372,7 +38372,7 @@
       </c>
       <c r="M172" t="inlineStr">
         <is>
-          <t>64</t>
+          <t>32</t>
         </is>
       </c>
       <c r="N172" t="inlineStr"/>
@@ -38380,12 +38380,12 @@
       <c r="P172" t="inlineStr"/>
       <c r="Q172" t="inlineStr">
         <is>
-          <t>87</t>
+          <t>89</t>
         </is>
       </c>
       <c r="R172" t="inlineStr">
         <is>
-          <t>994.0</t>
+          <t>994.7</t>
         </is>
       </c>
       <c r="S172" t="inlineStr">
@@ -38395,7 +38395,7 @@
       </c>
       <c r="T172" t="inlineStr">
         <is>
-          <t>18:00 - 18:30</t>
+          <t>19:00 - 19:30</t>
         </is>
       </c>
       <c r="U172" t="inlineStr">
@@ -38405,96 +38405,96 @@
       </c>
       <c r="V172" t="inlineStr">
         <is>
-          <t>8.7</t>
+          <t>8.0</t>
         </is>
       </c>
       <c r="W172" t="inlineStr">
         <is>
+          <t>7.7</t>
+        </is>
+      </c>
+      <c r="X172" t="inlineStr">
+        <is>
           <t>8.2</t>
         </is>
       </c>
-      <c r="X172" t="inlineStr">
-        <is>
-          <t>9.5</t>
-        </is>
-      </c>
       <c r="Y172" t="inlineStr">
         <is>
-          <t>2.2</t>
+          <t>1.8</t>
         </is>
       </c>
       <c r="Z172" t="inlineStr"/>
       <c r="AA172" t="inlineStr"/>
       <c r="AB172" t="inlineStr">
         <is>
-          <t>6.1</t>
+          <t>7.9</t>
         </is>
       </c>
       <c r="AC172" t="inlineStr"/>
       <c r="AD172" t="inlineStr"/>
       <c r="AE172" t="inlineStr">
         <is>
-          <t>18:00 - 18:30</t>
+          <t>19:00 - 19:30</t>
         </is>
       </c>
       <c r="AF172" t="inlineStr">
         <is>
-          <t>8.7</t>
+          <t>8.0</t>
         </is>
       </c>
       <c r="AG172" t="inlineStr">
         <is>
-          <t>9.5</t>
+          <t>8.2</t>
         </is>
       </c>
       <c r="AH172" t="inlineStr">
         <is>
+          <t>7.7</t>
+        </is>
+      </c>
+      <c r="AI172" t="inlineStr">
+        <is>
+          <t>89</t>
+        </is>
+      </c>
+      <c r="AJ172" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="AK172" t="inlineStr">
+        <is>
+          <t>1.8</t>
+        </is>
+      </c>
+      <c r="AL172" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="AM172" t="inlineStr">
+        <is>
+          <t>19:00 - 19:30</t>
+        </is>
+      </c>
+      <c r="AN172" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="AO172" t="inlineStr">
+        <is>
           <t>8.2</t>
         </is>
       </c>
-      <c r="AI172" t="inlineStr">
-        <is>
-          <t>87</t>
-        </is>
-      </c>
-      <c r="AJ172" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="AK172" t="inlineStr">
-        <is>
-          <t>2.2</t>
-        </is>
-      </c>
-      <c r="AL172" t="inlineStr">
-        <is>
-          <t>64</t>
-        </is>
-      </c>
-      <c r="AM172" t="inlineStr">
-        <is>
-          <t>18:00 - 18:30</t>
-        </is>
-      </c>
-      <c r="AN172" t="inlineStr">
-        <is>
-          <t>8.7</t>
-        </is>
-      </c>
-      <c r="AO172" t="inlineStr">
-        <is>
-          <t>9.5</t>
-        </is>
-      </c>
       <c r="AP172" t="inlineStr">
         <is>
-          <t>8.2</t>
+          <t>7.7</t>
         </is>
       </c>
       <c r="AQ172" t="inlineStr">
         <is>
-          <t>87</t>
+          <t>89</t>
         </is>
       </c>
       <c r="AR172" t="inlineStr">
@@ -38504,22 +38504,22 @@
       </c>
       <c r="AS172" t="inlineStr">
         <is>
-          <t>2.2</t>
+          <t>1.8</t>
         </is>
       </c>
       <c r="AT172" t="inlineStr">
         <is>
-          <t>64</t>
+          <t>32</t>
         </is>
       </c>
       <c r="AU172" t="inlineStr">
         <is>
-          <t>6.1</t>
+          <t>7.9</t>
         </is>
       </c>
       <c r="AV172" t="inlineStr">
         <is>
-          <t>994.0</t>
+          <t>994.7</t>
         </is>
       </c>
       <c r="AW172" t="inlineStr">
@@ -38529,12 +38529,12 @@
       </c>
       <c r="AX172" t="inlineStr">
         <is>
-          <t>6.1</t>
+          <t>7.9</t>
         </is>
       </c>
       <c r="AY172" t="inlineStr">
         <is>
-          <t>994.0</t>
+          <t>994.7</t>
         </is>
       </c>
       <c r="AZ172" t="inlineStr">
@@ -38582,7 +38582,7 @@
       </c>
       <c r="H173" t="inlineStr">
         <is>
-          <t>2026-02-04 19:21:03</t>
+          <t>2026-02-04 19:49:27</t>
         </is>
       </c>
       <c r="I173" t="inlineStr">
@@ -38815,7 +38815,7 @@
       </c>
       <c r="H174" t="inlineStr">
         <is>
-          <t>2026-02-04 19:21:03</t>
+          <t>2026-02-04 19:49:27</t>
         </is>
       </c>
       <c r="I174" t="inlineStr">
@@ -39048,7 +39048,7 @@
       </c>
       <c r="H175" t="inlineStr">
         <is>
-          <t>2026-02-04 19:21:03</t>
+          <t>2026-02-04 19:49:27</t>
         </is>
       </c>
       <c r="I175" t="inlineStr">
@@ -39281,7 +39281,7 @@
       </c>
       <c r="H176" t="inlineStr">
         <is>
-          <t>2026-02-04 19:21:03</t>
+          <t>2026-02-04 19:49:27</t>
         </is>
       </c>
       <c r="I176" t="inlineStr">
@@ -39553,7 +39553,7 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>https://www.meteo.cat/observacions/xema/dades?codi=YT&amp;dia=2026-02-04T18:30Z</t>
+          <t>https://www.meteo.cat/observacions/xema/dades?codi=YT&amp;dia=2026-02-04T19:00Z</t>
         </is>
       </c>
     </row>
@@ -39583,7 +39583,7 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>https://www.meteo.cat/observacions/xema/dades?codi=Z1&amp;dia=2026-02-04T18:30Z</t>
+          <t>https://www.meteo.cat/observacions/xema/dades?codi=Z1&amp;dia=2026-02-04T19:00Z</t>
         </is>
       </c>
     </row>
@@ -39613,7 +39613,7 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>https://www.meteo.cat/observacions/xema/dades?codi=DN&amp;dia=2026-02-04T18:30Z</t>
+          <t>https://www.meteo.cat/observacions/xema/dades?codi=DN&amp;dia=2026-02-04T19:00Z</t>
         </is>
       </c>
     </row>
@@ -39643,7 +39643,7 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>https://www.meteo.cat/observacions/xema/dades?codi=DJ&amp;dia=2026-02-04T18:30Z</t>
+          <t>https://www.meteo.cat/observacions/xema/dades?codi=DJ&amp;dia=2026-02-04T19:00Z</t>
         </is>
       </c>
     </row>
@@ -39673,7 +39673,7 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>https://www.meteo.cat/observacions/xema/dades?codi=X4&amp;dia=2026-02-04T18:30Z</t>
+          <t>https://www.meteo.cat/observacions/xema/dades?codi=X4&amp;dia=2026-02-04T19:00Z</t>
         </is>
       </c>
     </row>
@@ -39703,7 +39703,7 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>https://www.meteo.cat/observacions/xema/dades?codi=D5&amp;dia=2026-02-04T18:30Z</t>
+          <t>https://www.meteo.cat/observacions/xema/dades?codi=D5&amp;dia=2026-02-04T19:00Z</t>
         </is>
       </c>
     </row>
@@ -39733,7 +39733,7 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>https://www.meteo.cat/observacions/xema/dades?codi=UN&amp;dia=2026-02-04T18:30Z</t>
+          <t>https://www.meteo.cat/observacions/xema/dades?codi=UN&amp;dia=2026-02-04T19:00Z</t>
         </is>
       </c>
     </row>
@@ -39763,7 +39763,7 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>https://www.meteo.cat/observacions/xema/dades?codi=MS&amp;dia=2026-02-04T18:30Z</t>
+          <t>https://www.meteo.cat/observacions/xema/dades?codi=MS&amp;dia=2026-02-04T19:00Z</t>
         </is>
       </c>
     </row>
@@ -39793,7 +39793,7 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>https://www.meteo.cat/observacions/xema/dades?codi=W1&amp;dia=2026-02-04T18:30Z</t>
+          <t>https://www.meteo.cat/observacions/xema/dades?codi=W1&amp;dia=2026-02-04T19:00Z</t>
         </is>
       </c>
     </row>
@@ -39823,7 +39823,7 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>https://www.meteo.cat/observacions/xema/dades?codi=DP&amp;dia=2026-02-04T18:30Z</t>
+          <t>https://www.meteo.cat/observacions/xema/dades?codi=DP&amp;dia=2026-02-04T19:00Z</t>
         </is>
       </c>
     </row>
@@ -39853,7 +39853,7 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>https://www.meteo.cat/observacions/xema/dades?codi=XL&amp;dia=2026-02-04T18:30Z</t>
+          <t>https://www.meteo.cat/observacions/xema/dades?codi=XL&amp;dia=2026-02-04T19:00Z</t>
         </is>
       </c>
     </row>
@@ -39883,7 +39883,7 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>https://www.meteo.cat/observacions/xema/dades?codi=VZ&amp;dia=2026-02-04T18:30Z</t>
+          <t>https://www.meteo.cat/observacions/xema/dades?codi=VZ&amp;dia=2026-02-04T19:00Z</t>
         </is>
       </c>
     </row>
@@ -39913,7 +39913,7 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>https://www.meteo.cat/observacions/xema/dades?codi=Z7&amp;dia=2026-02-04T18:30Z</t>
+          <t>https://www.meteo.cat/observacions/xema/dades?codi=Z7&amp;dia=2026-02-04T19:00Z</t>
         </is>
       </c>
     </row>
@@ -39943,7 +39943,7 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>https://www.meteo.cat/observacions/xema/dades?codi=XJ&amp;dia=2026-02-04T18:30Z</t>
+          <t>https://www.meteo.cat/observacions/xema/dades?codi=XJ&amp;dia=2026-02-04T19:00Z</t>
         </is>
       </c>
     </row>
@@ -39973,7 +39973,7 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>https://www.meteo.cat/observacions/xema/dades?codi=YU&amp;dia=2026-02-04T18:30Z</t>
+          <t>https://www.meteo.cat/observacions/xema/dades?codi=YU&amp;dia=2026-02-04T19:00Z</t>
         </is>
       </c>
     </row>
@@ -40003,7 +40003,7 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>https://www.meteo.cat/observacions/xema/dades?codi=CD&amp;dia=2026-02-04T18:30Z</t>
+          <t>https://www.meteo.cat/observacions/xema/dades?codi=CD&amp;dia=2026-02-04T19:00Z</t>
         </is>
       </c>
     </row>
@@ -40033,7 +40033,7 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>https://www.meteo.cat/observacions/xema/dades?codi=Z2&amp;dia=2026-02-04T18:30Z</t>
+          <t>https://www.meteo.cat/observacions/xema/dades?codi=Z2&amp;dia=2026-02-04T19:00Z</t>
         </is>
       </c>
     </row>
@@ -40063,7 +40063,7 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>https://www.meteo.cat/observacions/xema/dades?codi=VK&amp;dia=2026-02-04T18:30Z</t>
+          <t>https://www.meteo.cat/observacions/xema/dades?codi=VK&amp;dia=2026-02-04T19:00Z</t>
         </is>
       </c>
     </row>
@@ -40093,7 +40093,7 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>https://www.meteo.cat/observacions/xema/dades?codi=Z3&amp;dia=2026-02-04T18:30Z</t>
+          <t>https://www.meteo.cat/observacions/xema/dades?codi=Z3&amp;dia=2026-02-04T19:00Z</t>
         </is>
       </c>
     </row>
@@ -40123,7 +40123,7 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>https://www.meteo.cat/observacions/xema/dades?codi=YB&amp;dia=2026-02-04T18:30Z</t>
+          <t>https://www.meteo.cat/observacions/xema/dades?codi=YB&amp;dia=2026-02-04T19:00Z</t>
         </is>
       </c>
     </row>
@@ -40153,7 +40153,7 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>https://www.meteo.cat/observacions/xema/dades?codi=YP&amp;dia=2026-02-04T18:30Z</t>
+          <t>https://www.meteo.cat/observacions/xema/dades?codi=YP&amp;dia=2026-02-04T19:00Z</t>
         </is>
       </c>
     </row>
@@ -40183,7 +40183,7 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>https://www.meteo.cat/observacions/xema/dades?codi=J5&amp;dia=2026-02-04T18:30Z</t>
+          <t>https://www.meteo.cat/observacions/xema/dades?codi=J5&amp;dia=2026-02-04T19:00Z</t>
         </is>
       </c>
     </row>
@@ -40213,7 +40213,7 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>https://www.meteo.cat/observacions/xema/dades?codi=D6&amp;dia=2026-02-04T18:30Z</t>
+          <t>https://www.meteo.cat/observacions/xema/dades?codi=D6&amp;dia=2026-02-04T19:00Z</t>
         </is>
       </c>
     </row>
@@ -40243,7 +40243,7 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>https://www.meteo.cat/observacions/xema/dades?codi=YA&amp;dia=2026-02-04T18:30Z</t>
+          <t>https://www.meteo.cat/observacions/xema/dades?codi=YA&amp;dia=2026-02-04T19:00Z</t>
         </is>
       </c>
     </row>
@@ -40273,7 +40273,7 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>https://www.meteo.cat/observacions/xema/dades?codi=DG&amp;dia=2026-02-04T18:30Z</t>
+          <t>https://www.meteo.cat/observacions/xema/dades?codi=DG&amp;dia=2026-02-04T19:00Z</t>
         </is>
       </c>
     </row>
@@ -40303,7 +40303,7 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>https://www.meteo.cat/observacions/xema/dades?codi=D4&amp;dia=2026-02-04T18:30Z</t>
+          <t>https://www.meteo.cat/observacions/xema/dades?codi=D4&amp;dia=2026-02-04T19:00Z</t>
         </is>
       </c>
     </row>
@@ -40333,7 +40333,7 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>https://www.meteo.cat/observacions/xema/dades?codi=CI&amp;dia=2026-02-04T18:30Z</t>
+          <t>https://www.meteo.cat/observacions/xema/dades?codi=CI&amp;dia=2026-02-04T19:00Z</t>
         </is>
       </c>
     </row>
@@ -40363,7 +40363,7 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>https://www.meteo.cat/observacions/xema/dades?codi=XS&amp;dia=2026-02-04T18:30Z</t>
+          <t>https://www.meteo.cat/observacions/xema/dades?codi=XS&amp;dia=2026-02-04T19:00Z</t>
         </is>
       </c>
     </row>
@@ -40393,7 +40393,7 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>https://www.meteo.cat/observacions/xema/dades?codi=ZC&amp;dia=2026-02-04T18:30Z</t>
+          <t>https://www.meteo.cat/observacions/xema/dades?codi=ZC&amp;dia=2026-02-04T19:00Z</t>
         </is>
       </c>
     </row>
@@ -40423,7 +40423,7 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>https://www.meteo.cat/observacions/xema/dades?codi=XH&amp;dia=2026-02-04T18:30Z</t>
+          <t>https://www.meteo.cat/observacions/xema/dades?codi=XH&amp;dia=2026-02-04T19:00Z</t>
         </is>
       </c>
     </row>
@@ -40453,7 +40453,7 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>https://www.meteo.cat/observacions/xema/dades?codi=XE&amp;dia=2026-02-04T18:30Z</t>
+          <t>https://www.meteo.cat/observacions/xema/dades?codi=XE&amp;dia=2026-02-04T19:00Z</t>
         </is>
       </c>
     </row>
@@ -40483,7 +40483,7 @@
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>https://www.meteo.cat/observacions/xema/dades?codi=UE&amp;dia=2026-02-04T18:30Z</t>
+          <t>https://www.meteo.cat/observacions/xema/dades?codi=UE&amp;dia=2026-02-04T19:00Z</t>
         </is>
       </c>
     </row>
@@ -40513,7 +40513,7 @@
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>https://www.meteo.cat/observacions/xema/dades?codi=XO&amp;dia=2026-02-04T18:30Z</t>
+          <t>https://www.meteo.cat/observacions/xema/dades?codi=XO&amp;dia=2026-02-04T19:00Z</t>
         </is>
       </c>
     </row>
@@ -40543,7 +40543,7 @@
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>https://www.meteo.cat/observacions/xema/dades?codi=VS&amp;dia=2026-02-04T18:30Z</t>
+          <t>https://www.meteo.cat/observacions/xema/dades?codi=VS&amp;dia=2026-02-04T19:00Z</t>
         </is>
       </c>
     </row>
@@ -40573,7 +40573,7 @@
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>https://www.meteo.cat/observacions/xema/dades?codi=D7&amp;dia=2026-02-04T18:30Z</t>
+          <t>https://www.meteo.cat/observacions/xema/dades?codi=D7&amp;dia=2026-02-04T19:00Z</t>
         </is>
       </c>
     </row>

--- a/src/data/resum_periode_meteocat.xlsx
+++ b/src/data/resum_periode_meteocat.xlsx
@@ -727,17 +727,17 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>2026-02-05 07:22:12</t>
+          <t>2026-02-05 07:34:44</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>06:30</t>
+          <t>07:00</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>https://www.meteo.cat/observacions/xema/dades?codi=YT&amp;dia=2026-02-05T06:30Z</t>
+          <t>https://www.meteo.cat/observacions/xema/dades?codi=YT&amp;dia=2026-02-05T07:00Z</t>
         </is>
       </c>
       <c r="K2" t="n">
@@ -924,7 +924,7 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>2026-02-05 07:22:14</t>
+          <t>2026-02-05 07:34:45</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
@@ -1121,7 +1121,7 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>2026-02-05 07:22:14</t>
+          <t>2026-02-05 07:34:45</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
@@ -1318,7 +1318,7 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>2026-02-05 07:22:14</t>
+          <t>2026-02-05 07:34:45</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
@@ -1515,7 +1515,7 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>2026-02-05 07:22:14</t>
+          <t>2026-02-05 07:34:45</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
@@ -1712,7 +1712,7 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>2026-02-05 07:22:28</t>
+          <t>2026-02-05 07:34:58</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
@@ -1945,7 +1945,7 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>2026-02-05 07:22:28</t>
+          <t>2026-02-05 07:34:58</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
@@ -2178,7 +2178,7 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>2026-02-05 07:22:28</t>
+          <t>2026-02-05 07:34:58</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
@@ -2411,7 +2411,7 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>2026-02-05 07:22:28</t>
+          <t>2026-02-05 07:34:58</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
@@ -2644,17 +2644,17 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>2026-02-05 07:22:31</t>
+          <t>2026-02-05 07:35:01</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>06:30</t>
+          <t>07:00</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>https://www.meteo.cat/observacions/xema/dades?codi=DN&amp;dia=2026-02-05T06:30Z</t>
+          <t>https://www.meteo.cat/observacions/xema/dades?codi=DN&amp;dia=2026-02-05T07:00Z</t>
         </is>
       </c>
       <c r="K11" t="n">
@@ -2877,7 +2877,7 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>2026-02-05 07:22:33</t>
+          <t>2026-02-05 07:35:02</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
@@ -3110,7 +3110,7 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>2026-02-05 07:22:33</t>
+          <t>2026-02-05 07:35:02</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
@@ -3343,7 +3343,7 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>2026-02-05 07:22:33</t>
+          <t>2026-02-05 07:35:02</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
@@ -3576,7 +3576,7 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>2026-02-05 07:22:33</t>
+          <t>2026-02-05 07:35:02</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
@@ -3809,17 +3809,17 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>2026-02-05 07:22:36</t>
+          <t>2026-02-05 07:35:05</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>06:30</t>
+          <t>07:00</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>https://www.meteo.cat/observacions/xema/dades?codi=DJ&amp;dia=2026-02-05T06:30Z</t>
+          <t>https://www.meteo.cat/observacions/xema/dades?codi=DJ&amp;dia=2026-02-05T07:00Z</t>
         </is>
       </c>
       <c r="K16" t="n">
@@ -4042,7 +4042,7 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>2026-02-05 07:22:37</t>
+          <t>2026-02-05 07:35:06</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
@@ -4275,7 +4275,7 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>2026-02-05 07:22:37</t>
+          <t>2026-02-05 07:35:06</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
@@ -4508,7 +4508,7 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>2026-02-05 07:22:37</t>
+          <t>2026-02-05 07:35:06</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
@@ -4741,7 +4741,7 @@
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>2026-02-05 07:22:37</t>
+          <t>2026-02-05 07:35:06</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
@@ -4974,17 +4974,17 @@
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>2026-02-05 07:22:40</t>
+          <t>2026-02-05 07:35:09</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>06:30</t>
+          <t>07:00</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>https://www.meteo.cat/observacions/xema/dades?codi=X4&amp;dia=2026-02-05T06:30Z</t>
+          <t>https://www.meteo.cat/observacions/xema/dades?codi=X4&amp;dia=2026-02-05T07:00Z</t>
         </is>
       </c>
       <c r="K21" t="n">
@@ -5207,7 +5207,7 @@
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>2026-02-05 07:22:41</t>
+          <t>2026-02-05 07:35:10</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
@@ -5440,7 +5440,7 @@
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>2026-02-05 07:22:41</t>
+          <t>2026-02-05 07:35:10</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
@@ -5673,7 +5673,7 @@
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>2026-02-05 07:22:41</t>
+          <t>2026-02-05 07:35:10</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
@@ -5906,7 +5906,7 @@
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>2026-02-05 07:22:41</t>
+          <t>2026-02-05 07:35:10</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
@@ -6139,7 +6139,7 @@
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>2026-02-05 07:22:55</t>
+          <t>2026-02-05 07:35:23</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
@@ -6372,7 +6372,7 @@
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>2026-02-05 07:22:55</t>
+          <t>2026-02-05 07:35:23</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
@@ -6605,7 +6605,7 @@
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>2026-02-05 07:22:55</t>
+          <t>2026-02-05 07:35:23</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
@@ -6838,7 +6838,7 @@
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>2026-02-05 07:22:55</t>
+          <t>2026-02-05 07:35:23</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
@@ -7071,17 +7071,17 @@
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>2026-02-05 07:22:58</t>
+          <t>2026-02-05 07:35:26</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>06:30</t>
+          <t>07:00</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>https://www.meteo.cat/observacions/xema/dades?codi=UN&amp;dia=2026-02-05T06:30Z</t>
+          <t>https://www.meteo.cat/observacions/xema/dades?codi=UN&amp;dia=2026-02-05T07:00Z</t>
         </is>
       </c>
       <c r="K30" t="n">
@@ -7292,7 +7292,7 @@
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>2026-02-05 07:23:00</t>
+          <t>2026-02-05 07:35:27</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
@@ -7513,7 +7513,7 @@
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>2026-02-05 07:23:00</t>
+          <t>2026-02-05 07:35:27</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
@@ -7734,7 +7734,7 @@
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>2026-02-05 07:23:00</t>
+          <t>2026-02-05 07:35:27</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
@@ -7955,7 +7955,7 @@
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>2026-02-05 07:23:00</t>
+          <t>2026-02-05 07:35:27</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
@@ -8176,17 +8176,17 @@
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>2026-02-05 07:23:02</t>
+          <t>2026-02-05 07:35:29</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>06:30</t>
+          <t>07:00</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>https://www.meteo.cat/observacions/xema/dades?codi=MS&amp;dia=2026-02-05T06:30Z</t>
+          <t>https://www.meteo.cat/observacions/xema/dades?codi=MS&amp;dia=2026-02-05T07:00Z</t>
         </is>
       </c>
       <c r="K35" t="n">
@@ -8349,7 +8349,7 @@
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>2026-02-05 07:23:03</t>
+          <t>2026-02-05 07:35:31</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
@@ -8522,7 +8522,7 @@
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>2026-02-05 07:23:03</t>
+          <t>2026-02-05 07:35:31</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
@@ -8695,7 +8695,7 @@
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>2026-02-05 07:23:03</t>
+          <t>2026-02-05 07:35:31</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
@@ -8868,7 +8868,7 @@
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>2026-02-05 07:23:03</t>
+          <t>2026-02-05 07:35:31</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
@@ -9041,17 +9041,17 @@
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>2026-02-05 07:23:06</t>
+          <t>2026-02-05 07:35:33</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>06:30</t>
+          <t>07:00</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>https://www.meteo.cat/observacions/xema/dades?codi=W1&amp;dia=2026-02-05T06:30Z</t>
+          <t>https://www.meteo.cat/observacions/xema/dades?codi=W1&amp;dia=2026-02-05T07:00Z</t>
         </is>
       </c>
       <c r="K40" t="n">
@@ -9214,7 +9214,7 @@
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>2026-02-05 07:23:08</t>
+          <t>2026-02-05 07:35:34</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
@@ -9387,7 +9387,7 @@
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>2026-02-05 07:23:08</t>
+          <t>2026-02-05 07:35:34</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
@@ -9560,7 +9560,7 @@
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>2026-02-05 07:23:08</t>
+          <t>2026-02-05 07:35:34</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
@@ -9733,7 +9733,7 @@
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>2026-02-05 07:23:08</t>
+          <t>2026-02-05 07:35:34</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
@@ -9906,17 +9906,17 @@
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>2026-02-05 07:23:10</t>
+          <t>2026-02-05 07:35:37</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>06:30</t>
+          <t>07:00</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>https://www.meteo.cat/observacions/xema/dades?codi=DP&amp;dia=2026-02-05T06:30Z</t>
+          <t>https://www.meteo.cat/observacions/xema/dades?codi=DP&amp;dia=2026-02-05T07:00Z</t>
         </is>
       </c>
       <c r="K45" t="n">
@@ -10147,7 +10147,7 @@
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>2026-02-05 07:23:12</t>
+          <t>2026-02-05 07:35:39</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
@@ -10388,7 +10388,7 @@
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>2026-02-05 07:23:12</t>
+          <t>2026-02-05 07:35:39</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
@@ -10629,7 +10629,7 @@
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>2026-02-05 07:23:12</t>
+          <t>2026-02-05 07:35:39</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
@@ -10870,7 +10870,7 @@
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>2026-02-05 07:23:12</t>
+          <t>2026-02-05 07:35:39</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
@@ -11111,17 +11111,17 @@
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>2026-02-05 07:23:15</t>
+          <t>2026-02-05 07:35:41</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>06:30</t>
+          <t>07:00</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
         <is>
-          <t>https://www.meteo.cat/observacions/xema/dades?codi=XL&amp;dia=2026-02-05T06:30Z</t>
+          <t>https://www.meteo.cat/observacions/xema/dades?codi=XL&amp;dia=2026-02-05T07:00Z</t>
         </is>
       </c>
       <c r="K50" t="n">
@@ -11332,7 +11332,7 @@
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>2026-02-05 07:23:16</t>
+          <t>2026-02-05 07:35:43</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
@@ -11553,7 +11553,7 @@
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>2026-02-05 07:23:16</t>
+          <t>2026-02-05 07:35:43</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
@@ -11774,7 +11774,7 @@
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>2026-02-05 07:23:16</t>
+          <t>2026-02-05 07:35:43</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
@@ -11995,7 +11995,7 @@
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>2026-02-05 07:23:16</t>
+          <t>2026-02-05 07:35:43</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
@@ -12216,17 +12216,17 @@
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>2026-02-05 07:23:19</t>
+          <t>2026-02-05 07:35:45</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>06:30</t>
+          <t>07:00</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
         <is>
-          <t>https://www.meteo.cat/observacions/xema/dades?codi=VZ&amp;dia=2026-02-05T06:30Z</t>
+          <t>https://www.meteo.cat/observacions/xema/dades?codi=VZ&amp;dia=2026-02-05T07:00Z</t>
         </is>
       </c>
       <c r="K55" t="n">
@@ -12389,7 +12389,7 @@
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>2026-02-05 07:23:21</t>
+          <t>2026-02-05 07:35:47</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
@@ -12562,7 +12562,7 @@
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>2026-02-05 07:23:21</t>
+          <t>2026-02-05 07:35:47</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
@@ -12735,7 +12735,7 @@
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>2026-02-05 07:23:21</t>
+          <t>2026-02-05 07:35:47</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
@@ -12908,7 +12908,7 @@
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>2026-02-05 07:23:21</t>
+          <t>2026-02-05 07:35:47</t>
         </is>
       </c>
       <c r="I59" t="inlineStr">
@@ -13081,7 +13081,7 @@
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>2026-02-05 07:23:35</t>
+          <t>2026-02-05 07:36:00</t>
         </is>
       </c>
       <c r="I60" t="inlineStr">
@@ -13314,7 +13314,7 @@
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>2026-02-05 07:23:35</t>
+          <t>2026-02-05 07:36:00</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
@@ -13547,7 +13547,7 @@
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>2026-02-05 07:23:35</t>
+          <t>2026-02-05 07:36:00</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
@@ -13780,7 +13780,7 @@
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>2026-02-05 07:23:35</t>
+          <t>2026-02-05 07:36:00</t>
         </is>
       </c>
       <c r="I63" t="inlineStr">
@@ -14013,17 +14013,17 @@
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>2026-02-05 07:23:38</t>
+          <t>2026-02-05 07:36:03</t>
         </is>
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>06:30</t>
+          <t>07:00</t>
         </is>
       </c>
       <c r="J64" t="inlineStr">
         <is>
-          <t>https://www.meteo.cat/observacions/xema/dades?codi=XJ&amp;dia=2026-02-05T06:30Z</t>
+          <t>https://www.meteo.cat/observacions/xema/dades?codi=XJ&amp;dia=2026-02-05T07:00Z</t>
         </is>
       </c>
       <c r="K64" t="n">
@@ -14246,7 +14246,7 @@
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>2026-02-05 07:23:40</t>
+          <t>2026-02-05 07:36:04</t>
         </is>
       </c>
       <c r="I65" t="inlineStr">
@@ -14479,7 +14479,7 @@
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>2026-02-05 07:23:40</t>
+          <t>2026-02-05 07:36:04</t>
         </is>
       </c>
       <c r="I66" t="inlineStr">
@@ -14712,7 +14712,7 @@
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>2026-02-05 07:23:40</t>
+          <t>2026-02-05 07:36:04</t>
         </is>
       </c>
       <c r="I67" t="inlineStr">
@@ -14945,7 +14945,7 @@
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>2026-02-05 07:23:40</t>
+          <t>2026-02-05 07:36:04</t>
         </is>
       </c>
       <c r="I68" t="inlineStr">
@@ -15178,17 +15178,17 @@
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>2026-02-05 07:23:42</t>
+          <t>2026-02-05 07:36:06</t>
         </is>
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>06:30</t>
+          <t>07:00</t>
         </is>
       </c>
       <c r="J69" t="inlineStr">
         <is>
-          <t>https://www.meteo.cat/observacions/xema/dades?codi=YU&amp;dia=2026-02-05T06:30Z</t>
+          <t>https://www.meteo.cat/observacions/xema/dades?codi=YU&amp;dia=2026-02-05T07:00Z</t>
         </is>
       </c>
       <c r="K69" t="n">
@@ -15399,7 +15399,7 @@
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>2026-02-05 07:23:44</t>
+          <t>2026-02-05 07:36:08</t>
         </is>
       </c>
       <c r="I70" t="inlineStr">
@@ -15620,7 +15620,7 @@
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>2026-02-05 07:23:44</t>
+          <t>2026-02-05 07:36:08</t>
         </is>
       </c>
       <c r="I71" t="inlineStr">
@@ -15841,7 +15841,7 @@
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>2026-02-05 07:23:44</t>
+          <t>2026-02-05 07:36:08</t>
         </is>
       </c>
       <c r="I72" t="inlineStr">
@@ -16062,7 +16062,7 @@
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>2026-02-05 07:23:44</t>
+          <t>2026-02-05 07:36:08</t>
         </is>
       </c>
       <c r="I73" t="inlineStr">
@@ -16283,17 +16283,17 @@
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>2026-02-05 07:23:47</t>
+          <t>2026-02-05 07:36:10</t>
         </is>
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>06:30</t>
+          <t>07:00</t>
         </is>
       </c>
       <c r="J74" t="inlineStr">
         <is>
-          <t>https://www.meteo.cat/observacions/xema/dades?codi=CD&amp;dia=2026-02-05T06:30Z</t>
+          <t>https://www.meteo.cat/observacions/xema/dades?codi=CD&amp;dia=2026-02-05T07:00Z</t>
         </is>
       </c>
       <c r="K74" t="n">
@@ -16516,7 +16516,7 @@
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>2026-02-05 07:23:49</t>
+          <t>2026-02-05 07:36:12</t>
         </is>
       </c>
       <c r="I75" t="inlineStr">
@@ -16749,7 +16749,7 @@
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>2026-02-05 07:23:49</t>
+          <t>2026-02-05 07:36:12</t>
         </is>
       </c>
       <c r="I76" t="inlineStr">
@@ -16982,7 +16982,7 @@
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>2026-02-05 07:23:49</t>
+          <t>2026-02-05 07:36:12</t>
         </is>
       </c>
       <c r="I77" t="inlineStr">
@@ -17215,7 +17215,7 @@
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>2026-02-05 07:23:49</t>
+          <t>2026-02-05 07:36:12</t>
         </is>
       </c>
       <c r="I78" t="inlineStr">
@@ -17448,7 +17448,7 @@
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>2026-02-05 07:24:03</t>
+          <t>2026-02-05 07:36:25</t>
         </is>
       </c>
       <c r="I79" t="inlineStr">
@@ -17681,7 +17681,7 @@
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>2026-02-05 07:24:03</t>
+          <t>2026-02-05 07:36:25</t>
         </is>
       </c>
       <c r="I80" t="inlineStr">
@@ -17914,7 +17914,7 @@
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>2026-02-05 07:24:03</t>
+          <t>2026-02-05 07:36:25</t>
         </is>
       </c>
       <c r="I81" t="inlineStr">
@@ -18147,7 +18147,7 @@
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>2026-02-05 07:24:03</t>
+          <t>2026-02-05 07:36:25</t>
         </is>
       </c>
       <c r="I82" t="inlineStr">
@@ -18380,17 +18380,17 @@
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>2026-02-05 07:24:06</t>
+          <t>2026-02-05 07:36:28</t>
         </is>
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>06:30</t>
+          <t>07:00</t>
         </is>
       </c>
       <c r="J83" t="inlineStr">
         <is>
-          <t>https://www.meteo.cat/observacions/xema/dades?codi=VK&amp;dia=2026-02-05T06:30Z</t>
+          <t>https://www.meteo.cat/observacions/xema/dades?codi=VK&amp;dia=2026-02-05T07:00Z</t>
         </is>
       </c>
       <c r="K83" t="n">
@@ -18613,7 +18613,7 @@
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>2026-02-05 07:24:08</t>
+          <t>2026-02-05 07:36:29</t>
         </is>
       </c>
       <c r="I84" t="inlineStr">
@@ -18846,7 +18846,7 @@
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>2026-02-05 07:24:08</t>
+          <t>2026-02-05 07:36:29</t>
         </is>
       </c>
       <c r="I85" t="inlineStr">
@@ -19079,7 +19079,7 @@
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>2026-02-05 07:24:08</t>
+          <t>2026-02-05 07:36:29</t>
         </is>
       </c>
       <c r="I86" t="inlineStr">
@@ -19312,7 +19312,7 @@
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>2026-02-05 07:24:08</t>
+          <t>2026-02-05 07:36:29</t>
         </is>
       </c>
       <c r="I87" t="inlineStr">
@@ -19545,7 +19545,7 @@
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>2026-02-05 07:24:22</t>
+          <t>2026-02-05 07:36:42</t>
         </is>
       </c>
       <c r="I88" t="inlineStr">
@@ -19778,7 +19778,7 @@
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>2026-02-05 07:24:22</t>
+          <t>2026-02-05 07:36:42</t>
         </is>
       </c>
       <c r="I89" t="inlineStr">
@@ -20011,7 +20011,7 @@
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>2026-02-05 07:24:22</t>
+          <t>2026-02-05 07:36:42</t>
         </is>
       </c>
       <c r="I90" t="inlineStr">
@@ -20244,7 +20244,7 @@
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>2026-02-05 07:24:22</t>
+          <t>2026-02-05 07:36:42</t>
         </is>
       </c>
       <c r="I91" t="inlineStr">
@@ -20477,17 +20477,17 @@
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>2026-02-05 07:24:24</t>
+          <t>2026-02-05 07:36:44</t>
         </is>
       </c>
       <c r="I92" t="inlineStr">
         <is>
-          <t>06:30</t>
+          <t>07:00</t>
         </is>
       </c>
       <c r="J92" t="inlineStr">
         <is>
-          <t>https://www.meteo.cat/observacions/xema/dades?codi=YB&amp;dia=2026-02-05T06:30Z</t>
+          <t>https://www.meteo.cat/observacions/xema/dades?codi=YB&amp;dia=2026-02-05T07:00Z</t>
         </is>
       </c>
       <c r="K92" t="n">
@@ -20710,7 +20710,7 @@
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>2026-02-05 07:24:26</t>
+          <t>2026-02-05 07:36:45</t>
         </is>
       </c>
       <c r="I93" t="inlineStr">
@@ -20943,7 +20943,7 @@
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>2026-02-05 07:24:26</t>
+          <t>2026-02-05 07:36:45</t>
         </is>
       </c>
       <c r="I94" t="inlineStr">
@@ -21176,7 +21176,7 @@
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>2026-02-05 07:24:26</t>
+          <t>2026-02-05 07:36:45</t>
         </is>
       </c>
       <c r="I95" t="inlineStr">
@@ -21409,7 +21409,7 @@
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>2026-02-05 07:24:26</t>
+          <t>2026-02-05 07:36:45</t>
         </is>
       </c>
       <c r="I96" t="inlineStr">
@@ -21642,17 +21642,17 @@
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>2026-02-05 07:24:28</t>
+          <t>2026-02-05 07:36:48</t>
         </is>
       </c>
       <c r="I97" t="inlineStr">
         <is>
-          <t>06:30</t>
+          <t>07:00</t>
         </is>
       </c>
       <c r="J97" t="inlineStr">
         <is>
-          <t>https://www.meteo.cat/observacions/xema/dades?codi=YP&amp;dia=2026-02-05T06:30Z</t>
+          <t>https://www.meteo.cat/observacions/xema/dades?codi=YP&amp;dia=2026-02-05T07:00Z</t>
         </is>
       </c>
       <c r="K97" t="n">
@@ -21863,7 +21863,7 @@
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>2026-02-05 07:24:30</t>
+          <t>2026-02-05 07:36:49</t>
         </is>
       </c>
       <c r="I98" t="inlineStr">
@@ -22084,7 +22084,7 @@
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>2026-02-05 07:24:30</t>
+          <t>2026-02-05 07:36:49</t>
         </is>
       </c>
       <c r="I99" t="inlineStr">
@@ -22305,7 +22305,7 @@
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>2026-02-05 07:24:30</t>
+          <t>2026-02-05 07:36:49</t>
         </is>
       </c>
       <c r="I100" t="inlineStr">
@@ -22526,7 +22526,7 @@
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>2026-02-05 07:24:30</t>
+          <t>2026-02-05 07:36:49</t>
         </is>
       </c>
       <c r="I101" t="inlineStr">
@@ -22747,17 +22747,17 @@
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>2026-02-05 07:24:33</t>
+          <t>2026-02-05 07:36:52</t>
         </is>
       </c>
       <c r="I102" t="inlineStr">
         <is>
-          <t>06:30</t>
+          <t>07:00</t>
         </is>
       </c>
       <c r="J102" t="inlineStr">
         <is>
-          <t>https://www.meteo.cat/observacions/xema/dades?codi=J5&amp;dia=2026-02-05T06:30Z</t>
+          <t>https://www.meteo.cat/observacions/xema/dades?codi=J5&amp;dia=2026-02-05T07:00Z</t>
         </is>
       </c>
       <c r="K102" t="n">
@@ -22980,7 +22980,7 @@
       </c>
       <c r="H103" t="inlineStr">
         <is>
-          <t>2026-02-05 07:24:34</t>
+          <t>2026-02-05 07:36:53</t>
         </is>
       </c>
       <c r="I103" t="inlineStr">
@@ -23213,7 +23213,7 @@
       </c>
       <c r="H104" t="inlineStr">
         <is>
-          <t>2026-02-05 07:24:34</t>
+          <t>2026-02-05 07:36:53</t>
         </is>
       </c>
       <c r="I104" t="inlineStr">
@@ -23446,7 +23446,7 @@
       </c>
       <c r="H105" t="inlineStr">
         <is>
-          <t>2026-02-05 07:24:34</t>
+          <t>2026-02-05 07:36:53</t>
         </is>
       </c>
       <c r="I105" t="inlineStr">
@@ -23679,7 +23679,7 @@
       </c>
       <c r="H106" t="inlineStr">
         <is>
-          <t>2026-02-05 07:24:34</t>
+          <t>2026-02-05 07:36:53</t>
         </is>
       </c>
       <c r="I106" t="inlineStr">
@@ -23912,17 +23912,17 @@
       </c>
       <c r="H107" t="inlineStr">
         <is>
-          <t>2026-02-05 07:24:37</t>
+          <t>2026-02-05 07:36:56</t>
         </is>
       </c>
       <c r="I107" t="inlineStr">
         <is>
-          <t>06:30</t>
+          <t>07:00</t>
         </is>
       </c>
       <c r="J107" t="inlineStr">
         <is>
-          <t>https://www.meteo.cat/observacions/xema/dades?codi=D6&amp;dia=2026-02-05T06:30Z</t>
+          <t>https://www.meteo.cat/observacions/xema/dades?codi=D6&amp;dia=2026-02-05T07:00Z</t>
         </is>
       </c>
       <c r="K107" t="n">
@@ -24145,7 +24145,7 @@
       </c>
       <c r="H108" t="inlineStr">
         <is>
-          <t>2026-02-05 07:24:39</t>
+          <t>2026-02-05 07:36:57</t>
         </is>
       </c>
       <c r="I108" t="inlineStr">
@@ -24378,7 +24378,7 @@
       </c>
       <c r="H109" t="inlineStr">
         <is>
-          <t>2026-02-05 07:24:39</t>
+          <t>2026-02-05 07:36:57</t>
         </is>
       </c>
       <c r="I109" t="inlineStr">
@@ -24611,7 +24611,7 @@
       </c>
       <c r="H110" t="inlineStr">
         <is>
-          <t>2026-02-05 07:24:39</t>
+          <t>2026-02-05 07:36:57</t>
         </is>
       </c>
       <c r="I110" t="inlineStr">
@@ -24844,7 +24844,7 @@
       </c>
       <c r="H111" t="inlineStr">
         <is>
-          <t>2026-02-05 07:24:39</t>
+          <t>2026-02-05 07:36:57</t>
         </is>
       </c>
       <c r="I111" t="inlineStr">
@@ -25077,17 +25077,17 @@
       </c>
       <c r="H112" t="inlineStr">
         <is>
-          <t>2026-02-05 07:24:42</t>
+          <t>2026-02-05 07:37:00</t>
         </is>
       </c>
       <c r="I112" t="inlineStr">
         <is>
-          <t>06:30</t>
+          <t>07:00</t>
         </is>
       </c>
       <c r="J112" t="inlineStr">
         <is>
-          <t>https://www.meteo.cat/observacions/xema/dades?codi=YA&amp;dia=2026-02-05T06:30Z</t>
+          <t>https://www.meteo.cat/observacions/xema/dades?codi=YA&amp;dia=2026-02-05T07:00Z</t>
         </is>
       </c>
       <c r="K112" t="n">
@@ -25310,7 +25310,7 @@
       </c>
       <c r="H113" t="inlineStr">
         <is>
-          <t>2026-02-05 07:24:43</t>
+          <t>2026-02-05 07:37:01</t>
         </is>
       </c>
       <c r="I113" t="inlineStr">
@@ -25543,7 +25543,7 @@
       </c>
       <c r="H114" t="inlineStr">
         <is>
-          <t>2026-02-05 07:24:43</t>
+          <t>2026-02-05 07:37:01</t>
         </is>
       </c>
       <c r="I114" t="inlineStr">
@@ -25776,7 +25776,7 @@
       </c>
       <c r="H115" t="inlineStr">
         <is>
-          <t>2026-02-05 07:24:43</t>
+          <t>2026-02-05 07:37:01</t>
         </is>
       </c>
       <c r="I115" t="inlineStr">
@@ -26009,7 +26009,7 @@
       </c>
       <c r="H116" t="inlineStr">
         <is>
-          <t>2026-02-05 07:24:43</t>
+          <t>2026-02-05 07:37:01</t>
         </is>
       </c>
       <c r="I116" t="inlineStr">
@@ -26242,17 +26242,17 @@
       </c>
       <c r="H117" t="inlineStr">
         <is>
-          <t>2026-02-05 07:24:46</t>
+          <t>2026-02-05 07:37:04</t>
         </is>
       </c>
       <c r="I117" t="inlineStr">
         <is>
-          <t>06:30</t>
+          <t>07:00</t>
         </is>
       </c>
       <c r="J117" t="inlineStr">
         <is>
-          <t>https://www.meteo.cat/observacions/xema/dades?codi=DG&amp;dia=2026-02-05T06:30Z</t>
+          <t>https://www.meteo.cat/observacions/xema/dades?codi=DG&amp;dia=2026-02-05T07:00Z</t>
         </is>
       </c>
       <c r="K117" t="n">
@@ -26483,7 +26483,7 @@
       </c>
       <c r="H118" t="inlineStr">
         <is>
-          <t>2026-02-05 07:24:48</t>
+          <t>2026-02-05 07:37:05</t>
         </is>
       </c>
       <c r="I118" t="inlineStr">
@@ -26724,7 +26724,7 @@
       </c>
       <c r="H119" t="inlineStr">
         <is>
-          <t>2026-02-05 07:24:48</t>
+          <t>2026-02-05 07:37:05</t>
         </is>
       </c>
       <c r="I119" t="inlineStr">
@@ -26965,7 +26965,7 @@
       </c>
       <c r="H120" t="inlineStr">
         <is>
-          <t>2026-02-05 07:24:48</t>
+          <t>2026-02-05 07:37:05</t>
         </is>
       </c>
       <c r="I120" t="inlineStr">
@@ -27206,7 +27206,7 @@
       </c>
       <c r="H121" t="inlineStr">
         <is>
-          <t>2026-02-05 07:24:48</t>
+          <t>2026-02-05 07:37:05</t>
         </is>
       </c>
       <c r="I121" t="inlineStr">
@@ -27447,17 +27447,17 @@
       </c>
       <c r="H122" t="inlineStr">
         <is>
-          <t>2026-02-05 07:24:51</t>
+          <t>2026-02-05 07:37:08</t>
         </is>
       </c>
       <c r="I122" t="inlineStr">
         <is>
-          <t>06:30</t>
+          <t>07:00</t>
         </is>
       </c>
       <c r="J122" t="inlineStr">
         <is>
-          <t>https://www.meteo.cat/observacions/xema/dades?codi=D4&amp;dia=2026-02-05T06:30Z</t>
+          <t>https://www.meteo.cat/observacions/xema/dades?codi=D4&amp;dia=2026-02-05T07:00Z</t>
         </is>
       </c>
       <c r="K122" t="n">
@@ -27680,7 +27680,7 @@
       </c>
       <c r="H123" t="inlineStr">
         <is>
-          <t>2026-02-05 07:24:52</t>
+          <t>2026-02-05 07:37:09</t>
         </is>
       </c>
       <c r="I123" t="inlineStr">
@@ -27913,7 +27913,7 @@
       </c>
       <c r="H124" t="inlineStr">
         <is>
-          <t>2026-02-05 07:24:52</t>
+          <t>2026-02-05 07:37:09</t>
         </is>
       </c>
       <c r="I124" t="inlineStr">
@@ -28146,7 +28146,7 @@
       </c>
       <c r="H125" t="inlineStr">
         <is>
-          <t>2026-02-05 07:24:52</t>
+          <t>2026-02-05 07:37:09</t>
         </is>
       </c>
       <c r="I125" t="inlineStr">
@@ -28379,7 +28379,7 @@
       </c>
       <c r="H126" t="inlineStr">
         <is>
-          <t>2026-02-05 07:24:52</t>
+          <t>2026-02-05 07:37:09</t>
         </is>
       </c>
       <c r="I126" t="inlineStr">
@@ -28612,17 +28612,17 @@
       </c>
       <c r="H127" t="inlineStr">
         <is>
-          <t>2026-02-05 07:24:54</t>
+          <t>2026-02-05 07:37:12</t>
         </is>
       </c>
       <c r="I127" t="inlineStr">
         <is>
-          <t>06:30</t>
+          <t>07:00</t>
         </is>
       </c>
       <c r="J127" t="inlineStr">
         <is>
-          <t>https://www.meteo.cat/observacions/xema/dades?codi=CI&amp;dia=2026-02-05T06:30Z</t>
+          <t>https://www.meteo.cat/observacions/xema/dades?codi=CI&amp;dia=2026-02-05T07:00Z</t>
         </is>
       </c>
       <c r="K127" t="n">
@@ -28833,7 +28833,7 @@
       </c>
       <c r="H128" t="inlineStr">
         <is>
-          <t>2026-02-05 07:24:56</t>
+          <t>2026-02-05 07:37:13</t>
         </is>
       </c>
       <c r="I128" t="inlineStr">
@@ -29054,7 +29054,7 @@
       </c>
       <c r="H129" t="inlineStr">
         <is>
-          <t>2026-02-05 07:24:56</t>
+          <t>2026-02-05 07:37:13</t>
         </is>
       </c>
       <c r="I129" t="inlineStr">
@@ -29275,7 +29275,7 @@
       </c>
       <c r="H130" t="inlineStr">
         <is>
-          <t>2026-02-05 07:24:56</t>
+          <t>2026-02-05 07:37:13</t>
         </is>
       </c>
       <c r="I130" t="inlineStr">
@@ -29496,7 +29496,7 @@
       </c>
       <c r="H131" t="inlineStr">
         <is>
-          <t>2026-02-05 07:24:56</t>
+          <t>2026-02-05 07:37:13</t>
         </is>
       </c>
       <c r="I131" t="inlineStr">
@@ -29717,17 +29717,17 @@
       </c>
       <c r="H132" t="inlineStr">
         <is>
-          <t>2026-02-05 07:24:58</t>
+          <t>2026-02-05 07:37:16</t>
         </is>
       </c>
       <c r="I132" t="inlineStr">
         <is>
-          <t>06:30</t>
+          <t>07:00</t>
         </is>
       </c>
       <c r="J132" t="inlineStr">
         <is>
-          <t>https://www.meteo.cat/observacions/xema/dades?codi=XS&amp;dia=2026-02-05T06:30Z</t>
+          <t>https://www.meteo.cat/observacions/xema/dades?codi=XS&amp;dia=2026-02-05T07:00Z</t>
         </is>
       </c>
       <c r="K132" t="n">
@@ -29938,7 +29938,7 @@
       </c>
       <c r="H133" t="inlineStr">
         <is>
-          <t>2026-02-05 07:25:00</t>
+          <t>2026-02-05 07:37:17</t>
         </is>
       </c>
       <c r="I133" t="inlineStr">
@@ -30159,7 +30159,7 @@
       </c>
       <c r="H134" t="inlineStr">
         <is>
-          <t>2026-02-05 07:25:00</t>
+          <t>2026-02-05 07:37:17</t>
         </is>
       </c>
       <c r="I134" t="inlineStr">
@@ -30380,7 +30380,7 @@
       </c>
       <c r="H135" t="inlineStr">
         <is>
-          <t>2026-02-05 07:25:00</t>
+          <t>2026-02-05 07:37:17</t>
         </is>
       </c>
       <c r="I135" t="inlineStr">
@@ -30601,7 +30601,7 @@
       </c>
       <c r="H136" t="inlineStr">
         <is>
-          <t>2026-02-05 07:25:00</t>
+          <t>2026-02-05 07:37:17</t>
         </is>
       </c>
       <c r="I136" t="inlineStr">
@@ -30822,7 +30822,7 @@
       </c>
       <c r="H137" t="inlineStr">
         <is>
-          <t>2026-02-05 07:25:15</t>
+          <t>2026-02-05 07:37:30</t>
         </is>
       </c>
       <c r="I137" t="inlineStr">
@@ -31055,7 +31055,7 @@
       </c>
       <c r="H138" t="inlineStr">
         <is>
-          <t>2026-02-05 07:25:15</t>
+          <t>2026-02-05 07:37:30</t>
         </is>
       </c>
       <c r="I138" t="inlineStr">
@@ -31288,7 +31288,7 @@
       </c>
       <c r="H139" t="inlineStr">
         <is>
-          <t>2026-02-05 07:25:15</t>
+          <t>2026-02-05 07:37:30</t>
         </is>
       </c>
       <c r="I139" t="inlineStr">
@@ -31521,7 +31521,7 @@
       </c>
       <c r="H140" t="inlineStr">
         <is>
-          <t>2026-02-05 07:25:15</t>
+          <t>2026-02-05 07:37:30</t>
         </is>
       </c>
       <c r="I140" t="inlineStr">
@@ -31754,7 +31754,7 @@
       </c>
       <c r="H141" t="inlineStr">
         <is>
-          <t>2026-02-05 07:25:29</t>
+          <t>2026-02-05 07:37:42</t>
         </is>
       </c>
       <c r="I141" t="inlineStr">
@@ -31951,7 +31951,7 @@
       </c>
       <c r="H142" t="inlineStr">
         <is>
-          <t>2026-02-05 07:25:29</t>
+          <t>2026-02-05 07:37:42</t>
         </is>
       </c>
       <c r="I142" t="inlineStr">
@@ -32148,7 +32148,7 @@
       </c>
       <c r="H143" t="inlineStr">
         <is>
-          <t>2026-02-05 07:25:29</t>
+          <t>2026-02-05 07:37:42</t>
         </is>
       </c>
       <c r="I143" t="inlineStr">
@@ -32345,7 +32345,7 @@
       </c>
       <c r="H144" t="inlineStr">
         <is>
-          <t>2026-02-05 07:25:29</t>
+          <t>2026-02-05 07:37:42</t>
         </is>
       </c>
       <c r="I144" t="inlineStr">
@@ -32542,17 +32542,17 @@
       </c>
       <c r="H145" t="inlineStr">
         <is>
-          <t>2026-02-05 07:25:32</t>
+          <t>2026-02-05 07:37:45</t>
         </is>
       </c>
       <c r="I145" t="inlineStr">
         <is>
-          <t>06:30</t>
+          <t>07:00</t>
         </is>
       </c>
       <c r="J145" t="inlineStr">
         <is>
-          <t>https://www.meteo.cat/observacions/xema/dades?codi=XE&amp;dia=2026-02-05T06:30Z</t>
+          <t>https://www.meteo.cat/observacions/xema/dades?codi=XE&amp;dia=2026-02-05T07:00Z</t>
         </is>
       </c>
       <c r="K145" t="n">
@@ -32775,7 +32775,7 @@
       </c>
       <c r="H146" t="inlineStr">
         <is>
-          <t>2026-02-05 07:25:33</t>
+          <t>2026-02-05 07:37:46</t>
         </is>
       </c>
       <c r="I146" t="inlineStr">
@@ -33008,7 +33008,7 @@
       </c>
       <c r="H147" t="inlineStr">
         <is>
-          <t>2026-02-05 07:25:33</t>
+          <t>2026-02-05 07:37:46</t>
         </is>
       </c>
       <c r="I147" t="inlineStr">
@@ -33241,7 +33241,7 @@
       </c>
       <c r="H148" t="inlineStr">
         <is>
-          <t>2026-02-05 07:25:33</t>
+          <t>2026-02-05 07:37:46</t>
         </is>
       </c>
       <c r="I148" t="inlineStr">
@@ -33474,7 +33474,7 @@
       </c>
       <c r="H149" t="inlineStr">
         <is>
-          <t>2026-02-05 07:25:33</t>
+          <t>2026-02-05 07:37:46</t>
         </is>
       </c>
       <c r="I149" t="inlineStr">
@@ -33707,17 +33707,17 @@
       </c>
       <c r="H150" t="inlineStr">
         <is>
-          <t>2026-02-05 07:25:36</t>
+          <t>2026-02-05 07:37:49</t>
         </is>
       </c>
       <c r="I150" t="inlineStr">
         <is>
-          <t>06:30</t>
+          <t>07:00</t>
         </is>
       </c>
       <c r="J150" t="inlineStr">
         <is>
-          <t>https://www.meteo.cat/observacions/xema/dades?codi=UE&amp;dia=2026-02-05T06:30Z</t>
+          <t>https://www.meteo.cat/observacions/xema/dades?codi=UE&amp;dia=2026-02-05T07:00Z</t>
         </is>
       </c>
       <c r="K150" t="n">
@@ -33880,7 +33880,7 @@
       </c>
       <c r="H151" t="inlineStr">
         <is>
-          <t>2026-02-05 07:25:38</t>
+          <t>2026-02-05 07:37:50</t>
         </is>
       </c>
       <c r="I151" t="inlineStr">
@@ -34053,7 +34053,7 @@
       </c>
       <c r="H152" t="inlineStr">
         <is>
-          <t>2026-02-05 07:25:38</t>
+          <t>2026-02-05 07:37:50</t>
         </is>
       </c>
       <c r="I152" t="inlineStr">
@@ -34226,7 +34226,7 @@
       </c>
       <c r="H153" t="inlineStr">
         <is>
-          <t>2026-02-05 07:25:38</t>
+          <t>2026-02-05 07:37:50</t>
         </is>
       </c>
       <c r="I153" t="inlineStr">
@@ -34399,7 +34399,7 @@
       </c>
       <c r="H154" t="inlineStr">
         <is>
-          <t>2026-02-05 07:25:38</t>
+          <t>2026-02-05 07:37:50</t>
         </is>
       </c>
       <c r="I154" t="inlineStr">
@@ -34572,17 +34572,17 @@
       </c>
       <c r="H155" t="inlineStr">
         <is>
-          <t>2026-02-05 07:25:40</t>
+          <t>2026-02-05 07:37:53</t>
         </is>
       </c>
       <c r="I155" t="inlineStr">
         <is>
-          <t>06:30</t>
+          <t>07:00</t>
         </is>
       </c>
       <c r="J155" t="inlineStr">
         <is>
-          <t>https://www.meteo.cat/observacions/xema/dades?codi=XO&amp;dia=2026-02-05T06:30Z</t>
+          <t>https://www.meteo.cat/observacions/xema/dades?codi=XO&amp;dia=2026-02-05T07:00Z</t>
         </is>
       </c>
       <c r="K155" t="n">
@@ -34793,7 +34793,7 @@
       </c>
       <c r="H156" t="inlineStr">
         <is>
-          <t>2026-02-05 07:25:42</t>
+          <t>2026-02-05 07:37:54</t>
         </is>
       </c>
       <c r="I156" t="inlineStr">
@@ -35014,7 +35014,7 @@
       </c>
       <c r="H157" t="inlineStr">
         <is>
-          <t>2026-02-05 07:25:42</t>
+          <t>2026-02-05 07:37:54</t>
         </is>
       </c>
       <c r="I157" t="inlineStr">
@@ -35235,7 +35235,7 @@
       </c>
       <c r="H158" t="inlineStr">
         <is>
-          <t>2026-02-05 07:25:42</t>
+          <t>2026-02-05 07:37:54</t>
         </is>
       </c>
       <c r="I158" t="inlineStr">
@@ -35456,7 +35456,7 @@
       </c>
       <c r="H159" t="inlineStr">
         <is>
-          <t>2026-02-05 07:25:42</t>
+          <t>2026-02-05 07:37:54</t>
         </is>
       </c>
       <c r="I159" t="inlineStr">
@@ -35677,7 +35677,7 @@
       </c>
       <c r="H160" t="inlineStr">
         <is>
-          <t>2026-02-05 07:25:57</t>
+          <t>2026-02-05 07:38:07</t>
         </is>
       </c>
       <c r="I160" t="inlineStr">
@@ -35918,7 +35918,7 @@
       </c>
       <c r="H161" t="inlineStr">
         <is>
-          <t>2026-02-05 07:25:57</t>
+          <t>2026-02-05 07:38:07</t>
         </is>
       </c>
       <c r="I161" t="inlineStr">
@@ -36159,7 +36159,7 @@
       </c>
       <c r="H162" t="inlineStr">
         <is>
-          <t>2026-02-05 07:25:57</t>
+          <t>2026-02-05 07:38:07</t>
         </is>
       </c>
       <c r="I162" t="inlineStr">
@@ -36400,7 +36400,7 @@
       </c>
       <c r="H163" t="inlineStr">
         <is>
-          <t>2026-02-05 07:25:57</t>
+          <t>2026-02-05 07:38:07</t>
         </is>
       </c>
       <c r="I163" t="inlineStr">
@@ -36641,17 +36641,17 @@
       </c>
       <c r="H164" t="inlineStr">
         <is>
-          <t>2026-02-05 07:25:59</t>
+          <t>2026-02-05 07:38:10</t>
         </is>
       </c>
       <c r="I164" t="inlineStr">
         <is>
-          <t>06:30</t>
+          <t>07:00</t>
         </is>
       </c>
       <c r="J164" t="inlineStr">
         <is>
-          <t>https://www.meteo.cat/observacions/xema/dades?codi=D7&amp;dia=2026-02-05T06:30Z</t>
+          <t>https://www.meteo.cat/observacions/xema/dades?codi=D7&amp;dia=2026-02-05T07:00Z</t>
         </is>
       </c>
       <c r="K164" t="n">
@@ -36874,7 +36874,7 @@
       </c>
       <c r="H165" t="inlineStr">
         <is>
-          <t>2026-02-05 07:26:01</t>
+          <t>2026-02-05 07:38:11</t>
         </is>
       </c>
       <c r="I165" t="inlineStr">
@@ -37107,7 +37107,7 @@
       </c>
       <c r="H166" t="inlineStr">
         <is>
-          <t>2026-02-05 07:26:01</t>
+          <t>2026-02-05 07:38:11</t>
         </is>
       </c>
       <c r="I166" t="inlineStr">
@@ -37340,7 +37340,7 @@
       </c>
       <c r="H167" t="inlineStr">
         <is>
-          <t>2026-02-05 07:26:01</t>
+          <t>2026-02-05 07:38:11</t>
         </is>
       </c>
       <c r="I167" t="inlineStr">
@@ -37573,7 +37573,7 @@
       </c>
       <c r="H168" t="inlineStr">
         <is>
-          <t>2026-02-05 07:26:01</t>
+          <t>2026-02-05 07:38:11</t>
         </is>
       </c>
       <c r="I168" t="inlineStr">
@@ -37845,7 +37845,7 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>https://www.meteo.cat/observacions/xema/dades?codi=YT&amp;dia=2026-02-05T06:30Z</t>
+          <t>https://www.meteo.cat/observacions/xema/dades?codi=YT&amp;dia=2026-02-05T07:00Z</t>
         </is>
       </c>
     </row>
@@ -37905,7 +37905,7 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>https://www.meteo.cat/observacions/xema/dades?codi=DN&amp;dia=2026-02-05T06:30Z</t>
+          <t>https://www.meteo.cat/observacions/xema/dades?codi=DN&amp;dia=2026-02-05T07:00Z</t>
         </is>
       </c>
     </row>
@@ -37935,7 +37935,7 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>https://www.meteo.cat/observacions/xema/dades?codi=DJ&amp;dia=2026-02-05T06:30Z</t>
+          <t>https://www.meteo.cat/observacions/xema/dades?codi=DJ&amp;dia=2026-02-05T07:00Z</t>
         </is>
       </c>
     </row>
@@ -37965,7 +37965,7 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>https://www.meteo.cat/observacions/xema/dades?codi=X4&amp;dia=2026-02-05T06:30Z</t>
+          <t>https://www.meteo.cat/observacions/xema/dades?codi=X4&amp;dia=2026-02-05T07:00Z</t>
         </is>
       </c>
     </row>
@@ -38025,7 +38025,7 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>https://www.meteo.cat/observacions/xema/dades?codi=UN&amp;dia=2026-02-05T06:30Z</t>
+          <t>https://www.meteo.cat/observacions/xema/dades?codi=UN&amp;dia=2026-02-05T07:00Z</t>
         </is>
       </c>
     </row>
@@ -38055,7 +38055,7 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>https://www.meteo.cat/observacions/xema/dades?codi=MS&amp;dia=2026-02-05T06:30Z</t>
+          <t>https://www.meteo.cat/observacions/xema/dades?codi=MS&amp;dia=2026-02-05T07:00Z</t>
         </is>
       </c>
     </row>
@@ -38085,7 +38085,7 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>https://www.meteo.cat/observacions/xema/dades?codi=W1&amp;dia=2026-02-05T06:30Z</t>
+          <t>https://www.meteo.cat/observacions/xema/dades?codi=W1&amp;dia=2026-02-05T07:00Z</t>
         </is>
       </c>
     </row>
@@ -38115,7 +38115,7 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>https://www.meteo.cat/observacions/xema/dades?codi=DP&amp;dia=2026-02-05T06:30Z</t>
+          <t>https://www.meteo.cat/observacions/xema/dades?codi=DP&amp;dia=2026-02-05T07:00Z</t>
         </is>
       </c>
     </row>
@@ -38145,7 +38145,7 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>https://www.meteo.cat/observacions/xema/dades?codi=XL&amp;dia=2026-02-05T06:30Z</t>
+          <t>https://www.meteo.cat/observacions/xema/dades?codi=XL&amp;dia=2026-02-05T07:00Z</t>
         </is>
       </c>
     </row>
@@ -38175,7 +38175,7 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>https://www.meteo.cat/observacions/xema/dades?codi=VZ&amp;dia=2026-02-05T06:30Z</t>
+          <t>https://www.meteo.cat/observacions/xema/dades?codi=VZ&amp;dia=2026-02-05T07:00Z</t>
         </is>
       </c>
     </row>
@@ -38235,7 +38235,7 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>https://www.meteo.cat/observacions/xema/dades?codi=XJ&amp;dia=2026-02-05T06:30Z</t>
+          <t>https://www.meteo.cat/observacions/xema/dades?codi=XJ&amp;dia=2026-02-05T07:00Z</t>
         </is>
       </c>
     </row>
@@ -38265,7 +38265,7 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>https://www.meteo.cat/observacions/xema/dades?codi=YU&amp;dia=2026-02-05T06:30Z</t>
+          <t>https://www.meteo.cat/observacions/xema/dades?codi=YU&amp;dia=2026-02-05T07:00Z</t>
         </is>
       </c>
     </row>
@@ -38295,7 +38295,7 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>https://www.meteo.cat/observacions/xema/dades?codi=CD&amp;dia=2026-02-05T06:30Z</t>
+          <t>https://www.meteo.cat/observacions/xema/dades?codi=CD&amp;dia=2026-02-05T07:00Z</t>
         </is>
       </c>
     </row>
@@ -38355,7 +38355,7 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>https://www.meteo.cat/observacions/xema/dades?codi=VK&amp;dia=2026-02-05T06:30Z</t>
+          <t>https://www.meteo.cat/observacions/xema/dades?codi=VK&amp;dia=2026-02-05T07:00Z</t>
         </is>
       </c>
     </row>
@@ -38415,7 +38415,7 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>https://www.meteo.cat/observacions/xema/dades?codi=YB&amp;dia=2026-02-05T06:30Z</t>
+          <t>https://www.meteo.cat/observacions/xema/dades?codi=YB&amp;dia=2026-02-05T07:00Z</t>
         </is>
       </c>
     </row>
@@ -38445,7 +38445,7 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>https://www.meteo.cat/observacions/xema/dades?codi=YP&amp;dia=2026-02-05T06:30Z</t>
+          <t>https://www.meteo.cat/observacions/xema/dades?codi=YP&amp;dia=2026-02-05T07:00Z</t>
         </is>
       </c>
     </row>
@@ -38475,7 +38475,7 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>https://www.meteo.cat/observacions/xema/dades?codi=J5&amp;dia=2026-02-05T06:30Z</t>
+          <t>https://www.meteo.cat/observacions/xema/dades?codi=J5&amp;dia=2026-02-05T07:00Z</t>
         </is>
       </c>
     </row>
@@ -38505,7 +38505,7 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>https://www.meteo.cat/observacions/xema/dades?codi=D6&amp;dia=2026-02-05T06:30Z</t>
+          <t>https://www.meteo.cat/observacions/xema/dades?codi=D6&amp;dia=2026-02-05T07:00Z</t>
         </is>
       </c>
     </row>
@@ -38535,7 +38535,7 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>https://www.meteo.cat/observacions/xema/dades?codi=YA&amp;dia=2026-02-05T06:30Z</t>
+          <t>https://www.meteo.cat/observacions/xema/dades?codi=YA&amp;dia=2026-02-05T07:00Z</t>
         </is>
       </c>
     </row>
@@ -38565,7 +38565,7 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>https://www.meteo.cat/observacions/xema/dades?codi=DG&amp;dia=2026-02-05T06:30Z</t>
+          <t>https://www.meteo.cat/observacions/xema/dades?codi=DG&amp;dia=2026-02-05T07:00Z</t>
         </is>
       </c>
     </row>
@@ -38595,7 +38595,7 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>https://www.meteo.cat/observacions/xema/dades?codi=D4&amp;dia=2026-02-05T06:30Z</t>
+          <t>https://www.meteo.cat/observacions/xema/dades?codi=D4&amp;dia=2026-02-05T07:00Z</t>
         </is>
       </c>
     </row>
@@ -38625,7 +38625,7 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>https://www.meteo.cat/observacions/xema/dades?codi=CI&amp;dia=2026-02-05T06:30Z</t>
+          <t>https://www.meteo.cat/observacions/xema/dades?codi=CI&amp;dia=2026-02-05T07:00Z</t>
         </is>
       </c>
     </row>
@@ -38655,7 +38655,7 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>https://www.meteo.cat/observacions/xema/dades?codi=XS&amp;dia=2026-02-05T06:30Z</t>
+          <t>https://www.meteo.cat/observacions/xema/dades?codi=XS&amp;dia=2026-02-05T07:00Z</t>
         </is>
       </c>
     </row>
@@ -38745,7 +38745,7 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>https://www.meteo.cat/observacions/xema/dades?codi=XE&amp;dia=2026-02-05T06:30Z</t>
+          <t>https://www.meteo.cat/observacions/xema/dades?codi=XE&amp;dia=2026-02-05T07:00Z</t>
         </is>
       </c>
     </row>
@@ -38775,7 +38775,7 @@
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>https://www.meteo.cat/observacions/xema/dades?codi=UE&amp;dia=2026-02-05T06:30Z</t>
+          <t>https://www.meteo.cat/observacions/xema/dades?codi=UE&amp;dia=2026-02-05T07:00Z</t>
         </is>
       </c>
     </row>
@@ -38805,7 +38805,7 @@
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>https://www.meteo.cat/observacions/xema/dades?codi=XO&amp;dia=2026-02-05T06:30Z</t>
+          <t>https://www.meteo.cat/observacions/xema/dades?codi=XO&amp;dia=2026-02-05T07:00Z</t>
         </is>
       </c>
     </row>
@@ -38865,7 +38865,7 @@
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>https://www.meteo.cat/observacions/xema/dades?codi=D7&amp;dia=2026-02-05T06:30Z</t>
+          <t>https://www.meteo.cat/observacions/xema/dades?codi=D7&amp;dia=2026-02-05T07:00Z</t>
         </is>
       </c>
     </row>

--- a/src/data/resum_periode_meteocat.xlsx
+++ b/src/data/resum_periode_meteocat.xlsx
@@ -712,7 +712,7 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>06:30 - 07:00</t>
+          <t>08:00 - 08:30</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -727,17 +727,17 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>2026-02-05 08:37:05</t>
+          <t>2026-02-05 09:13:20</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>08:00</t>
+          <t>08:30</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>https://www.meteo.cat/observacions/xema/dades?codi=YT&amp;dia=2026-02-05T08:00Z</t>
+          <t>https://www.meteo.cat/observacions/xema/dades?codi=YT&amp;dia=2026-02-05T08:30Z</t>
         </is>
       </c>
       <c r="K2" t="n">
@@ -769,27 +769,27 @@
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>06:30 - 07:00</t>
+          <t>08:00 - 08:30</t>
         </is>
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>30</t>
         </is>
       </c>
       <c r="V2" t="inlineStr">
         <is>
-          <t>-2.8</t>
+          <t>-2.4</t>
         </is>
       </c>
       <c r="W2" t="inlineStr">
         <is>
-          <t>-2.8</t>
+          <t>-2.5</t>
         </is>
       </c>
       <c r="X2" t="inlineStr">
         <is>
-          <t>-2.8</t>
+          <t>-2.2</t>
         </is>
       </c>
       <c r="Y2" t="inlineStr"/>
@@ -800,22 +800,22 @@
       <c r="AD2" t="inlineStr"/>
       <c r="AE2" t="inlineStr">
         <is>
-          <t>06:30 - 07:00</t>
+          <t>08:00 - 08:30</t>
         </is>
       </c>
       <c r="AF2" t="inlineStr">
         <is>
-          <t>-2.8</t>
+          <t>-2.4</t>
         </is>
       </c>
       <c r="AG2" t="inlineStr">
         <is>
-          <t>-2.8</t>
+          <t>-2.2</t>
         </is>
       </c>
       <c r="AH2" t="inlineStr">
         <is>
-          <t>-2.8</t>
+          <t>-2.5</t>
         </is>
       </c>
       <c r="AI2" t="inlineStr">
@@ -835,27 +835,27 @@
       </c>
       <c r="AL2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>30</t>
         </is>
       </c>
       <c r="AM2" t="inlineStr">
         <is>
-          <t>06:30 - 07:00</t>
+          <t>08:00 - 08:30</t>
         </is>
       </c>
       <c r="AN2" t="inlineStr">
         <is>
-          <t>-2.8</t>
+          <t>-2.4</t>
         </is>
       </c>
       <c r="AO2" t="inlineStr">
         <is>
-          <t>-2.8</t>
+          <t>-2.2</t>
         </is>
       </c>
       <c r="AP2" t="inlineStr">
         <is>
-          <t>-2.8</t>
+          <t>-2.5</t>
         </is>
       </c>
       <c r="AQ2" t="inlineStr">
@@ -875,7 +875,7 @@
       </c>
       <c r="AT2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>30</t>
         </is>
       </c>
       <c r="AU2" t="inlineStr"/>
@@ -924,7 +924,7 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>2026-02-05 08:37:07</t>
+          <t>2026-02-05 09:13:21</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
@@ -1121,7 +1121,7 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>2026-02-05 08:37:07</t>
+          <t>2026-02-05 09:13:21</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
@@ -1318,7 +1318,7 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>2026-02-05 08:37:07</t>
+          <t>2026-02-05 09:13:21</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
@@ -1515,7 +1515,7 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>2026-02-05 08:37:07</t>
+          <t>2026-02-05 09:13:21</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
@@ -1697,7 +1697,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>06:30 - 07:00</t>
+          <t>07:00 - 07:30</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -1712,17 +1712,17 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>2026-02-05 08:37:10</t>
+          <t>2026-02-05 09:13:24</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>08:00</t>
+          <t>08:30</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>https://www.meteo.cat/observacions/xema/dades?codi=Z1&amp;dia=2026-02-05T08:00Z</t>
+          <t>https://www.meteo.cat/observacions/xema/dades?codi=Z1&amp;dia=2026-02-05T08:30Z</t>
         </is>
       </c>
       <c r="K7" t="n">
@@ -1737,7 +1737,7 @@
       <c r="N7" t="inlineStr"/>
       <c r="O7" t="inlineStr">
         <is>
-          <t>217</t>
+          <t>116</t>
         </is>
       </c>
       <c r="P7" t="inlineStr">
@@ -1747,7 +1747,7 @@
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>71</t>
         </is>
       </c>
       <c r="R7" t="inlineStr"/>
@@ -1758,151 +1758,151 @@
       </c>
       <c r="T7" t="inlineStr">
         <is>
-          <t>06:30 - 07:00</t>
+          <t>07:00 - 07:30</t>
         </is>
       </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>13</t>
         </is>
       </c>
       <c r="V7" t="inlineStr">
         <is>
-          <t>0.7</t>
+          <t>-2.4</t>
         </is>
       </c>
       <c r="W7" t="inlineStr">
         <is>
+          <t>-4.9</t>
+        </is>
+      </c>
+      <c r="X7" t="inlineStr">
+        <is>
           <t>0.4</t>
-        </is>
-      </c>
-      <c r="X7" t="inlineStr">
-        <is>
-          <t>1.0</t>
         </is>
       </c>
       <c r="Y7" t="inlineStr"/>
       <c r="Z7" t="inlineStr"/>
       <c r="AA7" t="inlineStr">
         <is>
-          <t>10.4</t>
+          <t>17.3</t>
         </is>
       </c>
       <c r="AB7" t="inlineStr"/>
       <c r="AC7" t="inlineStr"/>
       <c r="AD7" t="inlineStr">
         <is>
-          <t>32.4</t>
+          <t>32.0</t>
         </is>
       </c>
       <c r="AE7" t="inlineStr">
         <is>
-          <t>06:30 - 07:00</t>
+          <t>07:00 - 07:30</t>
         </is>
       </c>
       <c r="AF7" t="inlineStr">
         <is>
-          <t>0.7</t>
+          <t>-2.4</t>
         </is>
       </c>
       <c r="AG7" t="inlineStr">
         <is>
-          <t>1.0</t>
+          <t>0.4</t>
         </is>
       </c>
       <c r="AH7" t="inlineStr">
         <is>
+          <t>-4.9</t>
+        </is>
+      </c>
+      <c r="AI7" t="inlineStr">
+        <is>
+          <t>71</t>
+        </is>
+      </c>
+      <c r="AJ7" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="AK7" t="inlineStr">
+        <is>
+          <t>178</t>
+        </is>
+      </c>
+      <c r="AL7" t="inlineStr">
+        <is>
+          <t>17.3</t>
+        </is>
+      </c>
+      <c r="AM7" t="inlineStr">
+        <is>
+          <t>07:00 - 07:30</t>
+        </is>
+      </c>
+      <c r="AN7" t="inlineStr">
+        <is>
+          <t>-2.4</t>
+        </is>
+      </c>
+      <c r="AO7" t="inlineStr">
+        <is>
           <t>0.4</t>
         </is>
       </c>
-      <c r="AI7" t="inlineStr">
-        <is>
-          <t>39</t>
-        </is>
-      </c>
-      <c r="AJ7" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="AK7" t="inlineStr">
+      <c r="AP7" t="inlineStr">
+        <is>
+          <t>-4.9</t>
+        </is>
+      </c>
+      <c r="AQ7" t="inlineStr">
+        <is>
+          <t>71</t>
+        </is>
+      </c>
+      <c r="AR7" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="AS7" t="inlineStr">
         <is>
           <t>178</t>
         </is>
       </c>
-      <c r="AL7" t="inlineStr">
-        <is>
-          <t>10.4</t>
-        </is>
-      </c>
-      <c r="AM7" t="inlineStr">
-        <is>
-          <t>06:30 - 07:00</t>
-        </is>
-      </c>
-      <c r="AN7" t="inlineStr">
-        <is>
-          <t>0.7</t>
-        </is>
-      </c>
-      <c r="AO7" t="inlineStr">
-        <is>
-          <t>1.0</t>
-        </is>
-      </c>
-      <c r="AP7" t="inlineStr">
-        <is>
-          <t>0.4</t>
-        </is>
-      </c>
-      <c r="AQ7" t="inlineStr">
-        <is>
-          <t>39</t>
-        </is>
-      </c>
-      <c r="AR7" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="AS7" t="inlineStr">
-        <is>
-          <t>178</t>
-        </is>
-      </c>
       <c r="AT7" t="inlineStr">
         <is>
-          <t>10.4</t>
+          <t>17.3</t>
         </is>
       </c>
       <c r="AU7" t="inlineStr">
         <is>
-          <t>217</t>
+          <t>116</t>
         </is>
       </c>
       <c r="AV7" t="inlineStr">
         <is>
-          <t>32.4</t>
+          <t>32.0</t>
         </is>
       </c>
       <c r="AW7" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>13</t>
         </is>
       </c>
       <c r="AX7" t="inlineStr">
         <is>
-          <t>217</t>
+          <t>116</t>
         </is>
       </c>
       <c r="AY7" t="inlineStr">
         <is>
-          <t>32.4</t>
+          <t>32.0</t>
         </is>
       </c>
       <c r="AZ7" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>13</t>
         </is>
       </c>
       <c r="BA7" t="inlineStr"/>
@@ -1945,7 +1945,7 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>2026-02-05 08:37:12</t>
+          <t>2026-02-05 09:13:26</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
@@ -2178,7 +2178,7 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>2026-02-05 08:37:12</t>
+          <t>2026-02-05 09:13:26</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
@@ -2411,7 +2411,7 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>2026-02-05 08:37:12</t>
+          <t>2026-02-05 09:13:26</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
@@ -2644,7 +2644,7 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>2026-02-05 08:37:12</t>
+          <t>2026-02-05 09:13:26</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
@@ -2862,7 +2862,7 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>05:30 - 06:00</t>
+          <t>08:00 - 08:30</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
@@ -2877,17 +2877,17 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>2026-02-05 08:37:14</t>
+          <t>2026-02-05 09:13:28</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>08:00</t>
+          <t>08:30</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>https://www.meteo.cat/observacions/xema/dades?codi=DN&amp;dia=2026-02-05T08:00Z</t>
+          <t>https://www.meteo.cat/observacions/xema/dades?codi=DN&amp;dia=2026-02-05T08:30Z</t>
         </is>
       </c>
       <c r="K12" t="n">
@@ -2900,7 +2900,7 @@
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>93</t>
+          <t>130</t>
         </is>
       </c>
       <c r="N12" t="inlineStr"/>
@@ -2908,12 +2908,12 @@
       <c r="P12" t="inlineStr"/>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>79</t>
+          <t>70</t>
         </is>
       </c>
       <c r="R12" t="inlineStr">
         <is>
-          <t>993.3</t>
+          <t>992.4</t>
         </is>
       </c>
       <c r="S12" t="inlineStr">
@@ -2923,66 +2923,66 @@
       </c>
       <c r="T12" t="inlineStr">
         <is>
-          <t>05:30 - 06:00</t>
+          <t>08:00 - 08:30</t>
         </is>
       </c>
       <c r="U12" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>53</t>
         </is>
       </c>
       <c r="V12" t="inlineStr">
         <is>
-          <t>7.3</t>
+          <t>10.0</t>
         </is>
       </c>
       <c r="W12" t="inlineStr">
         <is>
-          <t>6.6</t>
+          <t>9.7</t>
         </is>
       </c>
       <c r="X12" t="inlineStr">
         <is>
-          <t>8.1</t>
+          <t>10.3</t>
         </is>
       </c>
       <c r="Y12" t="inlineStr">
         <is>
-          <t>4.7</t>
+          <t>4.0</t>
         </is>
       </c>
       <c r="Z12" t="inlineStr"/>
       <c r="AA12" t="inlineStr"/>
       <c r="AB12" t="inlineStr">
         <is>
-          <t>11.5</t>
+          <t>11.9</t>
         </is>
       </c>
       <c r="AC12" t="inlineStr"/>
       <c r="AD12" t="inlineStr"/>
       <c r="AE12" t="inlineStr">
         <is>
-          <t>05:30 - 06:00</t>
+          <t>08:00 - 08:30</t>
         </is>
       </c>
       <c r="AF12" t="inlineStr">
         <is>
-          <t>7.3</t>
+          <t>10.0</t>
         </is>
       </c>
       <c r="AG12" t="inlineStr">
         <is>
-          <t>8.1</t>
+          <t>10.3</t>
         </is>
       </c>
       <c r="AH12" t="inlineStr">
         <is>
-          <t>6.6</t>
+          <t>9.7</t>
         </is>
       </c>
       <c r="AI12" t="inlineStr">
         <is>
-          <t>79</t>
+          <t>70</t>
         </is>
       </c>
       <c r="AJ12" t="inlineStr">
@@ -2992,37 +2992,37 @@
       </c>
       <c r="AK12" t="inlineStr">
         <is>
-          <t>4.7</t>
+          <t>4.0</t>
         </is>
       </c>
       <c r="AL12" t="inlineStr">
         <is>
-          <t>93</t>
+          <t>130</t>
         </is>
       </c>
       <c r="AM12" t="inlineStr">
         <is>
-          <t>05:30 - 06:00</t>
+          <t>08:00 - 08:30</t>
         </is>
       </c>
       <c r="AN12" t="inlineStr">
         <is>
-          <t>7.3</t>
+          <t>10.0</t>
         </is>
       </c>
       <c r="AO12" t="inlineStr">
         <is>
-          <t>8.1</t>
+          <t>10.3</t>
         </is>
       </c>
       <c r="AP12" t="inlineStr">
         <is>
-          <t>6.6</t>
+          <t>9.7</t>
         </is>
       </c>
       <c r="AQ12" t="inlineStr">
         <is>
-          <t>79</t>
+          <t>70</t>
         </is>
       </c>
       <c r="AR12" t="inlineStr">
@@ -3032,42 +3032,42 @@
       </c>
       <c r="AS12" t="inlineStr">
         <is>
-          <t>4.7</t>
+          <t>4.0</t>
         </is>
       </c>
       <c r="AT12" t="inlineStr">
         <is>
-          <t>93</t>
+          <t>130</t>
         </is>
       </c>
       <c r="AU12" t="inlineStr">
         <is>
-          <t>11.5</t>
+          <t>11.9</t>
         </is>
       </c>
       <c r="AV12" t="inlineStr">
         <is>
-          <t>993.3</t>
+          <t>992.4</t>
         </is>
       </c>
       <c r="AW12" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>53</t>
         </is>
       </c>
       <c r="AX12" t="inlineStr">
         <is>
-          <t>11.5</t>
+          <t>11.9</t>
         </is>
       </c>
       <c r="AY12" t="inlineStr">
         <is>
-          <t>993.3</t>
+          <t>992.4</t>
         </is>
       </c>
       <c r="AZ12" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>53</t>
         </is>
       </c>
       <c r="BA12" t="inlineStr"/>
@@ -3110,7 +3110,7 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>2026-02-05 08:37:16</t>
+          <t>2026-02-05 09:13:30</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
@@ -3343,7 +3343,7 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>2026-02-05 08:37:16</t>
+          <t>2026-02-05 09:13:30</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
@@ -3576,7 +3576,7 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>2026-02-05 08:37:16</t>
+          <t>2026-02-05 09:13:30</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
@@ -3809,7 +3809,7 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>2026-02-05 08:37:16</t>
+          <t>2026-02-05 09:13:30</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
@@ -4027,7 +4027,7 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>05:30 - 06:00</t>
+          <t>08:00 - 08:30</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
@@ -4042,17 +4042,17 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>2026-02-05 08:37:19</t>
+          <t>2026-02-05 09:13:32</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>08:00</t>
+          <t>08:30</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>https://www.meteo.cat/observacions/xema/dades?codi=DJ&amp;dia=2026-02-05T08:00Z</t>
+          <t>https://www.meteo.cat/observacions/xema/dades?codi=DJ&amp;dia=2026-02-05T08:30Z</t>
         </is>
       </c>
       <c r="K17" t="n">
@@ -4065,7 +4065,7 @@
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>323</t>
+          <t>264</t>
         </is>
       </c>
       <c r="N17" t="inlineStr"/>
@@ -4073,12 +4073,12 @@
       <c r="P17" t="inlineStr"/>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>85</t>
+          <t>80</t>
         </is>
       </c>
       <c r="R17" t="inlineStr">
         <is>
-          <t>993.6</t>
+          <t>992.3</t>
         </is>
       </c>
       <c r="S17" t="inlineStr">
@@ -4088,27 +4088,27 @@
       </c>
       <c r="T17" t="inlineStr">
         <is>
-          <t>05:30 - 06:00</t>
+          <t>08:00 - 08:30</t>
         </is>
       </c>
       <c r="U17" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>83</t>
         </is>
       </c>
       <c r="V17" t="inlineStr">
         <is>
-          <t>4.5</t>
+          <t>6.5</t>
         </is>
       </c>
       <c r="W17" t="inlineStr">
         <is>
-          <t>4.1</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="X17" t="inlineStr">
         <is>
-          <t>5.4</t>
+          <t>6.9</t>
         </is>
       </c>
       <c r="Y17" t="inlineStr">
@@ -4120,34 +4120,34 @@
       <c r="AA17" t="inlineStr"/>
       <c r="AB17" t="inlineStr">
         <is>
-          <t>7.9</t>
+          <t>9.4</t>
         </is>
       </c>
       <c r="AC17" t="inlineStr"/>
       <c r="AD17" t="inlineStr"/>
       <c r="AE17" t="inlineStr">
         <is>
-          <t>05:30 - 06:00</t>
+          <t>08:00 - 08:30</t>
         </is>
       </c>
       <c r="AF17" t="inlineStr">
         <is>
-          <t>4.5</t>
+          <t>6.5</t>
         </is>
       </c>
       <c r="AG17" t="inlineStr">
         <is>
-          <t>5.4</t>
+          <t>6.9</t>
         </is>
       </c>
       <c r="AH17" t="inlineStr">
         <is>
-          <t>4.1</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="AI17" t="inlineStr">
         <is>
-          <t>85</t>
+          <t>80</t>
         </is>
       </c>
       <c r="AJ17" t="inlineStr">
@@ -4162,32 +4162,32 @@
       </c>
       <c r="AL17" t="inlineStr">
         <is>
-          <t>323</t>
+          <t>264</t>
         </is>
       </c>
       <c r="AM17" t="inlineStr">
         <is>
-          <t>05:30 - 06:00</t>
+          <t>08:00 - 08:30</t>
         </is>
       </c>
       <c r="AN17" t="inlineStr">
         <is>
-          <t>4.5</t>
+          <t>6.5</t>
         </is>
       </c>
       <c r="AO17" t="inlineStr">
         <is>
-          <t>5.4</t>
+          <t>6.9</t>
         </is>
       </c>
       <c r="AP17" t="inlineStr">
         <is>
-          <t>4.1</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="AQ17" t="inlineStr">
         <is>
-          <t>85</t>
+          <t>80</t>
         </is>
       </c>
       <c r="AR17" t="inlineStr">
@@ -4202,37 +4202,37 @@
       </c>
       <c r="AT17" t="inlineStr">
         <is>
-          <t>323</t>
+          <t>264</t>
         </is>
       </c>
       <c r="AU17" t="inlineStr">
         <is>
-          <t>7.9</t>
+          <t>9.4</t>
         </is>
       </c>
       <c r="AV17" t="inlineStr">
         <is>
-          <t>993.6</t>
+          <t>992.3</t>
         </is>
       </c>
       <c r="AW17" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>83</t>
         </is>
       </c>
       <c r="AX17" t="inlineStr">
         <is>
-          <t>7.9</t>
+          <t>9.4</t>
         </is>
       </c>
       <c r="AY17" t="inlineStr">
         <is>
-          <t>993.6</t>
+          <t>992.3</t>
         </is>
       </c>
       <c r="AZ17" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>83</t>
         </is>
       </c>
       <c r="BA17" t="inlineStr"/>
@@ -4275,7 +4275,7 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>2026-02-05 08:37:21</t>
+          <t>2026-02-05 09:13:34</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
@@ -4508,7 +4508,7 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>2026-02-05 08:37:21</t>
+          <t>2026-02-05 09:13:34</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
@@ -4741,7 +4741,7 @@
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>2026-02-05 08:37:21</t>
+          <t>2026-02-05 09:13:34</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
@@ -4974,7 +4974,7 @@
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>2026-02-05 08:37:21</t>
+          <t>2026-02-05 09:13:34</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
@@ -5192,7 +5192,7 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>05:30 - 06:00</t>
+          <t>07:30 - 08:00</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
@@ -5207,17 +5207,17 @@
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>2026-02-05 08:37:23</t>
+          <t>2026-02-05 09:13:36</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>08:00</t>
+          <t>08:30</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>https://www.meteo.cat/observacions/xema/dades?codi=X4&amp;dia=2026-02-05T08:00Z</t>
+          <t>https://www.meteo.cat/observacions/xema/dades?codi=X4&amp;dia=2026-02-05T08:30Z</t>
         </is>
       </c>
       <c r="K22" t="n">
@@ -5230,7 +5230,7 @@
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>318</t>
+          <t>271</t>
         </is>
       </c>
       <c r="N22" t="inlineStr"/>
@@ -5238,12 +5238,12 @@
       <c r="P22" t="inlineStr"/>
       <c r="Q22" t="inlineStr">
         <is>
-          <t>69</t>
+          <t>65</t>
         </is>
       </c>
       <c r="R22" t="inlineStr">
         <is>
-          <t>994.2</t>
+          <t>994.1</t>
         </is>
       </c>
       <c r="S22" t="inlineStr">
@@ -5253,66 +5253,66 @@
       </c>
       <c r="T22" t="inlineStr">
         <is>
-          <t>05:30 - 06:00</t>
+          <t>07:30 - 08:00</t>
         </is>
       </c>
       <c r="U22" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>22</t>
         </is>
       </c>
       <c r="V22" t="inlineStr">
         <is>
+          <t>11.8</t>
+        </is>
+      </c>
+      <c r="W22" t="inlineStr">
+        <is>
           <t>11.2</t>
         </is>
       </c>
-      <c r="W22" t="inlineStr">
-        <is>
-          <t>11.0</t>
-        </is>
-      </c>
       <c r="X22" t="inlineStr">
         <is>
-          <t>11.5</t>
+          <t>12.3</t>
         </is>
       </c>
       <c r="Y22" t="inlineStr">
         <is>
-          <t>4.7</t>
+          <t>7.9</t>
         </is>
       </c>
       <c r="Z22" t="inlineStr"/>
       <c r="AA22" t="inlineStr"/>
       <c r="AB22" t="inlineStr">
         <is>
-          <t>7.6</t>
+          <t>14.4</t>
         </is>
       </c>
       <c r="AC22" t="inlineStr"/>
       <c r="AD22" t="inlineStr"/>
       <c r="AE22" t="inlineStr">
         <is>
-          <t>05:30 - 06:00</t>
+          <t>07:30 - 08:00</t>
         </is>
       </c>
       <c r="AF22" t="inlineStr">
         <is>
+          <t>11.8</t>
+        </is>
+      </c>
+      <c r="AG22" t="inlineStr">
+        <is>
+          <t>12.3</t>
+        </is>
+      </c>
+      <c r="AH22" t="inlineStr">
+        <is>
           <t>11.2</t>
         </is>
       </c>
-      <c r="AG22" t="inlineStr">
-        <is>
-          <t>11.5</t>
-        </is>
-      </c>
-      <c r="AH22" t="inlineStr">
-        <is>
-          <t>11.0</t>
-        </is>
-      </c>
       <c r="AI22" t="inlineStr">
         <is>
-          <t>69</t>
+          <t>65</t>
         </is>
       </c>
       <c r="AJ22" t="inlineStr">
@@ -5322,37 +5322,37 @@
       </c>
       <c r="AK22" t="inlineStr">
         <is>
-          <t>4.7</t>
+          <t>7.9</t>
         </is>
       </c>
       <c r="AL22" t="inlineStr">
         <is>
-          <t>318</t>
+          <t>271</t>
         </is>
       </c>
       <c r="AM22" t="inlineStr">
         <is>
-          <t>05:30 - 06:00</t>
+          <t>07:30 - 08:00</t>
         </is>
       </c>
       <c r="AN22" t="inlineStr">
         <is>
+          <t>11.8</t>
+        </is>
+      </c>
+      <c r="AO22" t="inlineStr">
+        <is>
+          <t>12.3</t>
+        </is>
+      </c>
+      <c r="AP22" t="inlineStr">
+        <is>
           <t>11.2</t>
         </is>
       </c>
-      <c r="AO22" t="inlineStr">
-        <is>
-          <t>11.5</t>
-        </is>
-      </c>
-      <c r="AP22" t="inlineStr">
-        <is>
-          <t>11.0</t>
-        </is>
-      </c>
       <c r="AQ22" t="inlineStr">
         <is>
-          <t>69</t>
+          <t>65</t>
         </is>
       </c>
       <c r="AR22" t="inlineStr">
@@ -5362,42 +5362,42 @@
       </c>
       <c r="AS22" t="inlineStr">
         <is>
-          <t>4.7</t>
+          <t>7.9</t>
         </is>
       </c>
       <c r="AT22" t="inlineStr">
         <is>
-          <t>318</t>
+          <t>271</t>
         </is>
       </c>
       <c r="AU22" t="inlineStr">
         <is>
-          <t>7.6</t>
+          <t>14.4</t>
         </is>
       </c>
       <c r="AV22" t="inlineStr">
         <is>
-          <t>994.2</t>
+          <t>994.1</t>
         </is>
       </c>
       <c r="AW22" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>22</t>
         </is>
       </c>
       <c r="AX22" t="inlineStr">
         <is>
-          <t>7.6</t>
+          <t>14.4</t>
         </is>
       </c>
       <c r="AY22" t="inlineStr">
         <is>
-          <t>994.2</t>
+          <t>994.1</t>
         </is>
       </c>
       <c r="AZ22" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>22</t>
         </is>
       </c>
       <c r="BA22" t="inlineStr"/>
@@ -5440,7 +5440,7 @@
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>2026-02-05 08:37:25</t>
+          <t>2026-02-05 09:13:38</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
@@ -5673,7 +5673,7 @@
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>2026-02-05 08:37:25</t>
+          <t>2026-02-05 09:13:38</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
@@ -5906,7 +5906,7 @@
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>2026-02-05 08:37:25</t>
+          <t>2026-02-05 09:13:38</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
@@ -6139,7 +6139,7 @@
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>2026-02-05 08:37:25</t>
+          <t>2026-02-05 09:13:38</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
@@ -6357,7 +6357,7 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>06:30 - 07:00</t>
+          <t>07:00 - 07:30</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
@@ -6372,17 +6372,17 @@
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>2026-02-05 08:37:28</t>
+          <t>2026-02-05 09:13:40</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>08:00</t>
+          <t>08:30</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>https://www.meteo.cat/observacions/xema/dades?codi=D5&amp;dia=2026-02-05T08:00Z</t>
+          <t>https://www.meteo.cat/observacions/xema/dades?codi=D5&amp;dia=2026-02-05T08:30Z</t>
         </is>
       </c>
       <c r="K27" t="n">
@@ -6395,7 +6395,7 @@
       </c>
       <c r="M27" t="inlineStr">
         <is>
-          <t>325</t>
+          <t>318</t>
         </is>
       </c>
       <c r="N27" t="inlineStr"/>
@@ -6408,7 +6408,7 @@
       </c>
       <c r="R27" t="inlineStr">
         <is>
-          <t>993.3</t>
+          <t>993.7</t>
         </is>
       </c>
       <c r="S27" t="inlineStr">
@@ -6418,63 +6418,63 @@
       </c>
       <c r="T27" t="inlineStr">
         <is>
-          <t>06:30 - 07:00</t>
+          <t>07:00 - 07:30</t>
         </is>
       </c>
       <c r="U27" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4</t>
         </is>
       </c>
       <c r="V27" t="inlineStr">
         <is>
+          <t>10.3</t>
+        </is>
+      </c>
+      <c r="W27" t="inlineStr">
+        <is>
           <t>10.1</t>
         </is>
       </c>
-      <c r="W27" t="inlineStr">
-        <is>
-          <t>9.5</t>
-        </is>
-      </c>
       <c r="X27" t="inlineStr">
         <is>
-          <t>10.5</t>
+          <t>10.6</t>
         </is>
       </c>
       <c r="Y27" t="inlineStr">
         <is>
-          <t>23.0</t>
+          <t>11.9</t>
         </is>
       </c>
       <c r="Z27" t="inlineStr"/>
       <c r="AA27" t="inlineStr"/>
       <c r="AB27" t="inlineStr">
         <is>
-          <t>43.6</t>
+          <t>34.2</t>
         </is>
       </c>
       <c r="AC27" t="inlineStr"/>
       <c r="AD27" t="inlineStr"/>
       <c r="AE27" t="inlineStr">
         <is>
-          <t>06:30 - 07:00</t>
+          <t>07:00 - 07:30</t>
         </is>
       </c>
       <c r="AF27" t="inlineStr">
         <is>
+          <t>10.3</t>
+        </is>
+      </c>
+      <c r="AG27" t="inlineStr">
+        <is>
+          <t>10.6</t>
+        </is>
+      </c>
+      <c r="AH27" t="inlineStr">
+        <is>
           <t>10.1</t>
         </is>
       </c>
-      <c r="AG27" t="inlineStr">
-        <is>
-          <t>10.5</t>
-        </is>
-      </c>
-      <c r="AH27" t="inlineStr">
-        <is>
-          <t>9.5</t>
-        </is>
-      </c>
       <c r="AI27" t="inlineStr">
         <is>
           <t>69</t>
@@ -6487,34 +6487,34 @@
       </c>
       <c r="AK27" t="inlineStr">
         <is>
-          <t>23.0</t>
+          <t>11.9</t>
         </is>
       </c>
       <c r="AL27" t="inlineStr">
         <is>
-          <t>325</t>
+          <t>318</t>
         </is>
       </c>
       <c r="AM27" t="inlineStr">
         <is>
-          <t>06:30 - 07:00</t>
+          <t>07:00 - 07:30</t>
         </is>
       </c>
       <c r="AN27" t="inlineStr">
         <is>
+          <t>10.3</t>
+        </is>
+      </c>
+      <c r="AO27" t="inlineStr">
+        <is>
+          <t>10.6</t>
+        </is>
+      </c>
+      <c r="AP27" t="inlineStr">
+        <is>
           <t>10.1</t>
         </is>
       </c>
-      <c r="AO27" t="inlineStr">
-        <is>
-          <t>10.5</t>
-        </is>
-      </c>
-      <c r="AP27" t="inlineStr">
-        <is>
-          <t>9.5</t>
-        </is>
-      </c>
       <c r="AQ27" t="inlineStr">
         <is>
           <t>69</t>
@@ -6527,42 +6527,42 @@
       </c>
       <c r="AS27" t="inlineStr">
         <is>
-          <t>23.0</t>
+          <t>11.9</t>
         </is>
       </c>
       <c r="AT27" t="inlineStr">
         <is>
-          <t>325</t>
+          <t>318</t>
         </is>
       </c>
       <c r="AU27" t="inlineStr">
         <is>
-          <t>43.6</t>
+          <t>34.2</t>
         </is>
       </c>
       <c r="AV27" t="inlineStr">
         <is>
-          <t>993.3</t>
+          <t>993.7</t>
         </is>
       </c>
       <c r="AW27" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4</t>
         </is>
       </c>
       <c r="AX27" t="inlineStr">
         <is>
-          <t>43.6</t>
+          <t>34.2</t>
         </is>
       </c>
       <c r="AY27" t="inlineStr">
         <is>
-          <t>993.3</t>
+          <t>993.7</t>
         </is>
       </c>
       <c r="AZ27" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4</t>
         </is>
       </c>
       <c r="BA27" t="inlineStr"/>
@@ -6605,7 +6605,7 @@
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>2026-02-05 08:37:30</t>
+          <t>2026-02-05 09:13:42</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
@@ -6838,7 +6838,7 @@
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>2026-02-05 08:37:30</t>
+          <t>2026-02-05 09:13:42</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
@@ -7071,7 +7071,7 @@
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>2026-02-05 08:37:30</t>
+          <t>2026-02-05 09:13:42</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
@@ -7304,7 +7304,7 @@
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>2026-02-05 08:37:30</t>
+          <t>2026-02-05 09:13:42</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
@@ -7522,7 +7522,7 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>05:30 - 06:00</t>
+          <t>07:30 - 08:00</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
@@ -7537,17 +7537,17 @@
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>2026-02-05 08:37:33</t>
+          <t>2026-02-05 09:13:44</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>08:00</t>
+          <t>08:30</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>https://www.meteo.cat/observacions/xema/dades?codi=UN&amp;dia=2026-02-05T08:00Z</t>
+          <t>https://www.meteo.cat/observacions/xema/dades?codi=UN&amp;dia=2026-02-05T08:30Z</t>
         </is>
       </c>
       <c r="K32" t="n">
@@ -7561,14 +7561,14 @@
       <c r="M32" t="inlineStr"/>
       <c r="N32" t="inlineStr">
         <is>
-          <t>77</t>
+          <t>71</t>
         </is>
       </c>
       <c r="O32" t="inlineStr"/>
       <c r="P32" t="inlineStr"/>
       <c r="Q32" t="inlineStr">
         <is>
-          <t>97</t>
+          <t>98</t>
         </is>
       </c>
       <c r="R32" t="inlineStr"/>
@@ -7579,66 +7579,66 @@
       </c>
       <c r="T32" t="inlineStr">
         <is>
-          <t>05:30 - 06:00</t>
+          <t>07:30 - 08:00</t>
         </is>
       </c>
       <c r="U32" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>40</t>
         </is>
       </c>
       <c r="V32" t="inlineStr">
         <is>
-          <t>3.6</t>
+          <t>4.7</t>
         </is>
       </c>
       <c r="W32" t="inlineStr">
         <is>
-          <t>3.1</t>
+          <t>4.5</t>
         </is>
       </c>
       <c r="X32" t="inlineStr">
         <is>
-          <t>4.0</t>
+          <t>5.0</t>
         </is>
       </c>
       <c r="Y32" t="inlineStr"/>
       <c r="Z32" t="inlineStr">
         <is>
-          <t>3.2</t>
+          <t>2.5</t>
         </is>
       </c>
       <c r="AA32" t="inlineStr"/>
       <c r="AB32" t="inlineStr"/>
       <c r="AC32" t="inlineStr">
         <is>
-          <t>7.6</t>
+          <t>5.8</t>
         </is>
       </c>
       <c r="AD32" t="inlineStr"/>
       <c r="AE32" t="inlineStr">
         <is>
-          <t>05:30 - 06:00</t>
+          <t>07:30 - 08:00</t>
         </is>
       </c>
       <c r="AF32" t="inlineStr">
         <is>
-          <t>3.6</t>
+          <t>4.7</t>
         </is>
       </c>
       <c r="AG32" t="inlineStr">
         <is>
-          <t>4.0</t>
+          <t>5.0</t>
         </is>
       </c>
       <c r="AH32" t="inlineStr">
         <is>
-          <t>3.1</t>
+          <t>4.5</t>
         </is>
       </c>
       <c r="AI32" t="inlineStr">
         <is>
-          <t>97</t>
+          <t>98</t>
         </is>
       </c>
       <c r="AJ32" t="inlineStr">
@@ -7648,37 +7648,37 @@
       </c>
       <c r="AK32" t="inlineStr">
         <is>
-          <t>3.2</t>
+          <t>2.5</t>
         </is>
       </c>
       <c r="AL32" t="inlineStr">
         <is>
-          <t>77</t>
+          <t>71</t>
         </is>
       </c>
       <c r="AM32" t="inlineStr">
         <is>
-          <t>05:30 - 06:00</t>
+          <t>07:30 - 08:00</t>
         </is>
       </c>
       <c r="AN32" t="inlineStr">
         <is>
-          <t>3.6</t>
+          <t>4.7</t>
         </is>
       </c>
       <c r="AO32" t="inlineStr">
         <is>
-          <t>4.0</t>
+          <t>5.0</t>
         </is>
       </c>
       <c r="AP32" t="inlineStr">
         <is>
-          <t>3.1</t>
+          <t>4.5</t>
         </is>
       </c>
       <c r="AQ32" t="inlineStr">
         <is>
-          <t>97</t>
+          <t>98</t>
         </is>
       </c>
       <c r="AR32" t="inlineStr">
@@ -7688,33 +7688,33 @@
       </c>
       <c r="AS32" t="inlineStr">
         <is>
-          <t>3.2</t>
+          <t>2.5</t>
         </is>
       </c>
       <c r="AT32" t="inlineStr">
         <is>
-          <t>77</t>
+          <t>71</t>
         </is>
       </c>
       <c r="AU32" t="inlineStr">
         <is>
-          <t>7.6</t>
+          <t>5.8</t>
         </is>
       </c>
       <c r="AV32" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>40</t>
         </is>
       </c>
       <c r="AW32" t="inlineStr"/>
       <c r="AX32" t="inlineStr">
         <is>
-          <t>7.6</t>
+          <t>5.8</t>
         </is>
       </c>
       <c r="AY32" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>40</t>
         </is>
       </c>
       <c r="AZ32" t="inlineStr"/>
@@ -7758,7 +7758,7 @@
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>2026-02-05 08:37:34</t>
+          <t>2026-02-05 09:13:46</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
@@ -7979,7 +7979,7 @@
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>2026-02-05 08:37:34</t>
+          <t>2026-02-05 09:13:46</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
@@ -8200,7 +8200,7 @@
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>2026-02-05 08:37:34</t>
+          <t>2026-02-05 09:13:46</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
@@ -8421,7 +8421,7 @@
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>2026-02-05 08:37:34</t>
+          <t>2026-02-05 09:13:46</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
@@ -8627,7 +8627,7 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>06:00 - 06:30</t>
+          <t>08:00 - 08:30</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
@@ -8642,17 +8642,17 @@
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>2026-02-05 08:37:37</t>
+          <t>2026-02-05 09:13:48</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>08:00</t>
+          <t>08:30</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>https://www.meteo.cat/observacions/xema/dades?codi=MS&amp;dia=2026-02-05T08:00Z</t>
+          <t>https://www.meteo.cat/observacions/xema/dades?codi=MS&amp;dia=2026-02-05T08:30Z</t>
         </is>
       </c>
       <c r="K37" t="n">
@@ -8680,23 +8680,23 @@
       </c>
       <c r="T37" t="inlineStr">
         <is>
-          <t>06:00 - 06:30</t>
+          <t>08:00 - 08:30</t>
         </is>
       </c>
       <c r="U37" t="inlineStr"/>
       <c r="V37" t="inlineStr">
         <is>
-          <t>-0.1</t>
+          <t>0.9</t>
         </is>
       </c>
       <c r="W37" t="inlineStr">
         <is>
-          <t>-0.2</t>
+          <t>0.8</t>
         </is>
       </c>
       <c r="X37" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>1.3</t>
         </is>
       </c>
       <c r="Y37" t="inlineStr"/>
@@ -8707,22 +8707,22 @@
       <c r="AD37" t="inlineStr"/>
       <c r="AE37" t="inlineStr">
         <is>
-          <t>06:00 - 06:30</t>
+          <t>08:00 - 08:30</t>
         </is>
       </c>
       <c r="AF37" t="inlineStr">
         <is>
-          <t>-0.1</t>
+          <t>0.9</t>
         </is>
       </c>
       <c r="AG37" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>1.3</t>
         </is>
       </c>
       <c r="AH37" t="inlineStr">
         <is>
-          <t>-0.2</t>
+          <t>0.8</t>
         </is>
       </c>
       <c r="AI37" t="inlineStr">
@@ -8739,22 +8739,22 @@
       <c r="AL37" t="inlineStr"/>
       <c r="AM37" t="inlineStr">
         <is>
-          <t>06:00 - 06:30</t>
+          <t>08:00 - 08:30</t>
         </is>
       </c>
       <c r="AN37" t="inlineStr">
         <is>
-          <t>-0.1</t>
+          <t>0.9</t>
         </is>
       </c>
       <c r="AO37" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>1.3</t>
         </is>
       </c>
       <c r="AP37" t="inlineStr">
         <is>
-          <t>-0.2</t>
+          <t>0.8</t>
         </is>
       </c>
       <c r="AQ37" t="inlineStr">
@@ -8815,7 +8815,7 @@
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>2026-02-05 08:37:39</t>
+          <t>2026-02-05 09:13:49</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
@@ -8988,7 +8988,7 @@
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>2026-02-05 08:37:39</t>
+          <t>2026-02-05 09:13:49</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
@@ -9161,7 +9161,7 @@
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>2026-02-05 08:37:39</t>
+          <t>2026-02-05 09:13:49</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
@@ -9334,7 +9334,7 @@
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>2026-02-05 08:37:39</t>
+          <t>2026-02-05 09:13:49</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
@@ -9492,7 +9492,7 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>05:00 - 05:30</t>
+          <t>07:30 - 08:00</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
@@ -9507,17 +9507,17 @@
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>2026-02-05 08:37:41</t>
+          <t>2026-02-05 09:13:52</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>08:00</t>
+          <t>08:30</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>https://www.meteo.cat/observacions/xema/dades?codi=W1&amp;dia=2026-02-05T08:00Z</t>
+          <t>https://www.meteo.cat/observacions/xema/dades?codi=W1&amp;dia=2026-02-05T08:30Z</t>
         </is>
       </c>
       <c r="K42" t="n">
@@ -9545,23 +9545,23 @@
       </c>
       <c r="T42" t="inlineStr">
         <is>
-          <t>05:00 - 05:30</t>
+          <t>07:30 - 08:00</t>
         </is>
       </c>
       <c r="U42" t="inlineStr"/>
       <c r="V42" t="inlineStr">
         <is>
-          <t>1.9</t>
+          <t>2.6</t>
         </is>
       </c>
       <c r="W42" t="inlineStr">
         <is>
-          <t>1.6</t>
+          <t>2.2</t>
         </is>
       </c>
       <c r="X42" t="inlineStr">
         <is>
-          <t>2.3</t>
+          <t>3.1</t>
         </is>
       </c>
       <c r="Y42" t="inlineStr"/>
@@ -9572,22 +9572,22 @@
       <c r="AD42" t="inlineStr"/>
       <c r="AE42" t="inlineStr">
         <is>
-          <t>05:00 - 05:30</t>
+          <t>07:30 - 08:00</t>
         </is>
       </c>
       <c r="AF42" t="inlineStr">
         <is>
-          <t>1.9</t>
+          <t>2.6</t>
         </is>
       </c>
       <c r="AG42" t="inlineStr">
         <is>
-          <t>2.3</t>
+          <t>3.1</t>
         </is>
       </c>
       <c r="AH42" t="inlineStr">
         <is>
-          <t>1.6</t>
+          <t>2.2</t>
         </is>
       </c>
       <c r="AI42" t="inlineStr">
@@ -9604,22 +9604,22 @@
       <c r="AL42" t="inlineStr"/>
       <c r="AM42" t="inlineStr">
         <is>
-          <t>05:00 - 05:30</t>
+          <t>07:30 - 08:00</t>
         </is>
       </c>
       <c r="AN42" t="inlineStr">
         <is>
-          <t>1.9</t>
+          <t>2.6</t>
         </is>
       </c>
       <c r="AO42" t="inlineStr">
         <is>
-          <t>2.3</t>
+          <t>3.1</t>
         </is>
       </c>
       <c r="AP42" t="inlineStr">
         <is>
-          <t>1.6</t>
+          <t>2.2</t>
         </is>
       </c>
       <c r="AQ42" t="inlineStr">
@@ -9680,7 +9680,7 @@
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>2026-02-05 08:37:43</t>
+          <t>2026-02-05 09:13:53</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
@@ -9853,7 +9853,7 @@
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>2026-02-05 08:37:43</t>
+          <t>2026-02-05 09:13:53</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
@@ -10026,7 +10026,7 @@
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>2026-02-05 08:37:43</t>
+          <t>2026-02-05 09:13:53</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
@@ -10199,7 +10199,7 @@
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>2026-02-05 08:37:43</t>
+          <t>2026-02-05 09:13:53</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
@@ -10357,7 +10357,7 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>05:30 - 06:00</t>
+          <t>08:00 - 08:30</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
@@ -10372,17 +10372,17 @@
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>2026-02-05 08:37:46</t>
+          <t>2026-02-05 09:13:56</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>08:00</t>
+          <t>08:30</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>https://www.meteo.cat/observacions/xema/dades?codi=DP&amp;dia=2026-02-05T08:00Z</t>
+          <t>https://www.meteo.cat/observacions/xema/dades?codi=DP&amp;dia=2026-02-05T08:30Z</t>
         </is>
       </c>
       <c r="K47" t="n">
@@ -10395,7 +10395,7 @@
       </c>
       <c r="M47" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>160</t>
         </is>
       </c>
       <c r="N47" t="inlineStr"/>
@@ -10407,12 +10407,12 @@
       </c>
       <c r="Q47" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>95</t>
         </is>
       </c>
       <c r="R47" t="inlineStr">
         <is>
-          <t>998.9</t>
+          <t>997.2</t>
         </is>
       </c>
       <c r="S47" t="inlineStr">
@@ -10422,27 +10422,27 @@
       </c>
       <c r="T47" t="inlineStr">
         <is>
-          <t>05:30 - 06:00</t>
+          <t>08:00 - 08:30</t>
         </is>
       </c>
       <c r="U47" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>79</t>
         </is>
       </c>
       <c r="V47" t="inlineStr">
         <is>
-          <t>-2.0</t>
+          <t>-0.6</t>
         </is>
       </c>
       <c r="W47" t="inlineStr">
         <is>
-          <t>-2.1</t>
+          <t>-0.9</t>
         </is>
       </c>
       <c r="X47" t="inlineStr">
         <is>
-          <t>-1.5</t>
+          <t>-0.2</t>
         </is>
       </c>
       <c r="Y47" t="inlineStr">
@@ -10454,34 +10454,34 @@
       <c r="AA47" t="inlineStr"/>
       <c r="AB47" t="inlineStr">
         <is>
-          <t>6.5</t>
+          <t>8.3</t>
         </is>
       </c>
       <c r="AC47" t="inlineStr"/>
       <c r="AD47" t="inlineStr"/>
       <c r="AE47" t="inlineStr">
         <is>
-          <t>05:30 - 06:00</t>
+          <t>08:00 - 08:30</t>
         </is>
       </c>
       <c r="AF47" t="inlineStr">
         <is>
-          <t>-2.0</t>
+          <t>-0.6</t>
         </is>
       </c>
       <c r="AG47" t="inlineStr">
         <is>
-          <t>-1.5</t>
+          <t>-0.2</t>
         </is>
       </c>
       <c r="AH47" t="inlineStr">
         <is>
-          <t>-2.1</t>
+          <t>-0.9</t>
         </is>
       </c>
       <c r="AI47" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>95</t>
         </is>
       </c>
       <c r="AJ47" t="inlineStr">
@@ -10501,27 +10501,27 @@
       </c>
       <c r="AM47" t="inlineStr">
         <is>
-          <t>05:30 - 06:00</t>
+          <t>08:00 - 08:30</t>
         </is>
       </c>
       <c r="AN47" t="inlineStr">
         <is>
-          <t>-2.0</t>
+          <t>-0.6</t>
         </is>
       </c>
       <c r="AO47" t="inlineStr">
         <is>
-          <t>-1.5</t>
+          <t>-0.2</t>
         </is>
       </c>
       <c r="AP47" t="inlineStr">
         <is>
-          <t>-2.1</t>
+          <t>-0.9</t>
         </is>
       </c>
       <c r="AQ47" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>95</t>
         </is>
       </c>
       <c r="AR47" t="inlineStr">
@@ -10541,37 +10541,37 @@
       </c>
       <c r="AU47" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>160</t>
         </is>
       </c>
       <c r="AV47" t="inlineStr">
         <is>
-          <t>6.5</t>
+          <t>8.3</t>
         </is>
       </c>
       <c r="AW47" t="inlineStr">
         <is>
-          <t>998.9</t>
+          <t>997.2</t>
         </is>
       </c>
       <c r="AX47" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>160</t>
         </is>
       </c>
       <c r="AY47" t="inlineStr">
         <is>
-          <t>6.5</t>
+          <t>8.3</t>
         </is>
       </c>
       <c r="AZ47" t="inlineStr">
         <is>
-          <t>998.9</t>
+          <t>997.2</t>
         </is>
       </c>
       <c r="BA47" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>79</t>
         </is>
       </c>
     </row>
@@ -10613,7 +10613,7 @@
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>2026-02-05 08:37:47</t>
+          <t>2026-02-05 09:13:57</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
@@ -10854,7 +10854,7 @@
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>2026-02-05 08:37:47</t>
+          <t>2026-02-05 09:13:57</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
@@ -11095,7 +11095,7 @@
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>2026-02-05 08:37:47</t>
+          <t>2026-02-05 09:13:57</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
@@ -11336,7 +11336,7 @@
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>2026-02-05 08:37:47</t>
+          <t>2026-02-05 09:13:57</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
@@ -11562,7 +11562,7 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>05:00 - 05:30</t>
+          <t>07:30 - 08:00</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
@@ -11577,17 +11577,17 @@
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>2026-02-05 08:37:50</t>
+          <t>2026-02-05 09:14:00</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>08:00</t>
+          <t>08:30</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
         <is>
-          <t>https://www.meteo.cat/observacions/xema/dades?codi=XL&amp;dia=2026-02-05T08:00Z</t>
+          <t>https://www.meteo.cat/observacions/xema/dades?codi=XL&amp;dia=2026-02-05T08:30Z</t>
         </is>
       </c>
       <c r="K52" t="n">
@@ -11600,7 +11600,7 @@
       </c>
       <c r="M52" t="inlineStr">
         <is>
-          <t>294</t>
+          <t>306</t>
         </is>
       </c>
       <c r="N52" t="inlineStr"/>
@@ -11608,7 +11608,7 @@
       <c r="P52" t="inlineStr"/>
       <c r="Q52" t="inlineStr">
         <is>
-          <t>95</t>
+          <t>86</t>
         </is>
       </c>
       <c r="R52" t="inlineStr"/>
@@ -11619,66 +11619,66 @@
       </c>
       <c r="T52" t="inlineStr">
         <is>
-          <t>05:00 - 05:30</t>
+          <t>07:30 - 08:00</t>
         </is>
       </c>
       <c r="U52" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>21</t>
         </is>
       </c>
       <c r="V52" t="inlineStr">
         <is>
-          <t>6.5</t>
+          <t>8.1</t>
         </is>
       </c>
       <c r="W52" t="inlineStr">
         <is>
-          <t>6.4</t>
+          <t>8.0</t>
         </is>
       </c>
       <c r="X52" t="inlineStr">
         <is>
-          <t>6.7</t>
+          <t>8.2</t>
         </is>
       </c>
       <c r="Y52" t="inlineStr">
         <is>
-          <t>4.7</t>
+          <t>8.3</t>
         </is>
       </c>
       <c r="Z52" t="inlineStr"/>
       <c r="AA52" t="inlineStr"/>
       <c r="AB52" t="inlineStr">
         <is>
-          <t>9.0</t>
+          <t>15.1</t>
         </is>
       </c>
       <c r="AC52" t="inlineStr"/>
       <c r="AD52" t="inlineStr"/>
       <c r="AE52" t="inlineStr">
         <is>
-          <t>05:00 - 05:30</t>
+          <t>07:30 - 08:00</t>
         </is>
       </c>
       <c r="AF52" t="inlineStr">
         <is>
-          <t>6.5</t>
+          <t>8.1</t>
         </is>
       </c>
       <c r="AG52" t="inlineStr">
         <is>
-          <t>6.7</t>
+          <t>8.2</t>
         </is>
       </c>
       <c r="AH52" t="inlineStr">
         <is>
-          <t>6.4</t>
+          <t>8.0</t>
         </is>
       </c>
       <c r="AI52" t="inlineStr">
         <is>
-          <t>95</t>
+          <t>86</t>
         </is>
       </c>
       <c r="AJ52" t="inlineStr">
@@ -11688,37 +11688,37 @@
       </c>
       <c r="AK52" t="inlineStr">
         <is>
-          <t>4.7</t>
+          <t>8.3</t>
         </is>
       </c>
       <c r="AL52" t="inlineStr">
         <is>
-          <t>294</t>
+          <t>306</t>
         </is>
       </c>
       <c r="AM52" t="inlineStr">
         <is>
-          <t>05:00 - 05:30</t>
+          <t>07:30 - 08:00</t>
         </is>
       </c>
       <c r="AN52" t="inlineStr">
         <is>
-          <t>6.5</t>
+          <t>8.1</t>
         </is>
       </c>
       <c r="AO52" t="inlineStr">
         <is>
-          <t>6.7</t>
+          <t>8.2</t>
         </is>
       </c>
       <c r="AP52" t="inlineStr">
         <is>
-          <t>6.4</t>
+          <t>8.0</t>
         </is>
       </c>
       <c r="AQ52" t="inlineStr">
         <is>
-          <t>95</t>
+          <t>86</t>
         </is>
       </c>
       <c r="AR52" t="inlineStr">
@@ -11728,33 +11728,33 @@
       </c>
       <c r="AS52" t="inlineStr">
         <is>
-          <t>4.7</t>
+          <t>8.3</t>
         </is>
       </c>
       <c r="AT52" t="inlineStr">
         <is>
-          <t>294</t>
+          <t>306</t>
         </is>
       </c>
       <c r="AU52" t="inlineStr">
         <is>
-          <t>9.0</t>
+          <t>15.1</t>
         </is>
       </c>
       <c r="AV52" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>21</t>
         </is>
       </c>
       <c r="AW52" t="inlineStr"/>
       <c r="AX52" t="inlineStr">
         <is>
-          <t>9.0</t>
+          <t>15.1</t>
         </is>
       </c>
       <c r="AY52" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>21</t>
         </is>
       </c>
       <c r="AZ52" t="inlineStr"/>
@@ -11798,7 +11798,7 @@
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>2026-02-05 08:37:52</t>
+          <t>2026-02-05 09:14:01</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
@@ -12019,7 +12019,7 @@
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>2026-02-05 08:37:52</t>
+          <t>2026-02-05 09:14:01</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
@@ -12240,7 +12240,7 @@
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>2026-02-05 08:37:52</t>
+          <t>2026-02-05 09:14:01</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
@@ -12461,7 +12461,7 @@
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>2026-02-05 08:37:52</t>
+          <t>2026-02-05 09:14:01</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
@@ -12667,7 +12667,7 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>05:00 - 05:30</t>
+          <t>07:30 - 08:00</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
@@ -12682,17 +12682,17 @@
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>2026-02-05 08:37:54</t>
+          <t>2026-02-05 09:14:03</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>08:00</t>
+          <t>08:30</t>
         </is>
       </c>
       <c r="J57" t="inlineStr">
         <is>
-          <t>https://www.meteo.cat/observacions/xema/dades?codi=VZ&amp;dia=2026-02-05T08:00Z</t>
+          <t>https://www.meteo.cat/observacions/xema/dades?codi=VZ&amp;dia=2026-02-05T08:30Z</t>
         </is>
       </c>
       <c r="K57" t="n">
@@ -12709,7 +12709,7 @@
       <c r="P57" t="inlineStr"/>
       <c r="Q57" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>95</t>
         </is>
       </c>
       <c r="R57" t="inlineStr"/>
@@ -12720,23 +12720,23 @@
       </c>
       <c r="T57" t="inlineStr">
         <is>
-          <t>05:00 - 05:30</t>
+          <t>07:30 - 08:00</t>
         </is>
       </c>
       <c r="U57" t="inlineStr"/>
       <c r="V57" t="inlineStr">
         <is>
-          <t>2.3</t>
+          <t>4.0</t>
         </is>
       </c>
       <c r="W57" t="inlineStr">
         <is>
-          <t>2.1</t>
+          <t>3.7</t>
         </is>
       </c>
       <c r="X57" t="inlineStr">
         <is>
-          <t>3.0</t>
+          <t>4.6</t>
         </is>
       </c>
       <c r="Y57" t="inlineStr"/>
@@ -12747,27 +12747,27 @@
       <c r="AD57" t="inlineStr"/>
       <c r="AE57" t="inlineStr">
         <is>
-          <t>05:00 - 05:30</t>
+          <t>07:30 - 08:00</t>
         </is>
       </c>
       <c r="AF57" t="inlineStr">
         <is>
-          <t>2.3</t>
+          <t>4.0</t>
         </is>
       </c>
       <c r="AG57" t="inlineStr">
         <is>
-          <t>3.0</t>
+          <t>4.6</t>
         </is>
       </c>
       <c r="AH57" t="inlineStr">
         <is>
-          <t>2.1</t>
+          <t>3.7</t>
         </is>
       </c>
       <c r="AI57" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>95</t>
         </is>
       </c>
       <c r="AJ57" t="inlineStr">
@@ -12779,27 +12779,27 @@
       <c r="AL57" t="inlineStr"/>
       <c r="AM57" t="inlineStr">
         <is>
-          <t>05:00 - 05:30</t>
+          <t>07:30 - 08:00</t>
         </is>
       </c>
       <c r="AN57" t="inlineStr">
         <is>
-          <t>2.3</t>
+          <t>4.0</t>
         </is>
       </c>
       <c r="AO57" t="inlineStr">
         <is>
-          <t>3.0</t>
+          <t>4.6</t>
         </is>
       </c>
       <c r="AP57" t="inlineStr">
         <is>
-          <t>2.1</t>
+          <t>3.7</t>
         </is>
       </c>
       <c r="AQ57" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>95</t>
         </is>
       </c>
       <c r="AR57" t="inlineStr">
@@ -12855,7 +12855,7 @@
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>2026-02-05 08:37:56</t>
+          <t>2026-02-05 09:14:05</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
@@ -13028,7 +13028,7 @@
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>2026-02-05 08:37:56</t>
+          <t>2026-02-05 09:14:05</t>
         </is>
       </c>
       <c r="I59" t="inlineStr">
@@ -13201,7 +13201,7 @@
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>2026-02-05 08:37:56</t>
+          <t>2026-02-05 09:14:05</t>
         </is>
       </c>
       <c r="I60" t="inlineStr">
@@ -13374,7 +13374,7 @@
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>2026-02-05 08:37:56</t>
+          <t>2026-02-05 09:14:05</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
@@ -13547,17 +13547,17 @@
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>2026-02-05 08:37:59</t>
+          <t>2026-02-05 09:14:07</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>08:00</t>
+          <t>08:30</t>
         </is>
       </c>
       <c r="J62" t="inlineStr">
         <is>
-          <t>https://www.meteo.cat/observacions/xema/dades?codi=Z7&amp;dia=2026-02-05T08:00Z</t>
+          <t>https://www.meteo.cat/observacions/xema/dades?codi=Z7&amp;dia=2026-02-05T08:30Z</t>
         </is>
       </c>
       <c r="K62" t="n">
@@ -13780,7 +13780,7 @@
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>2026-02-05 08:38:00</t>
+          <t>2026-02-05 09:14:09</t>
         </is>
       </c>
       <c r="I63" t="inlineStr">
@@ -14013,7 +14013,7 @@
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>2026-02-05 08:38:00</t>
+          <t>2026-02-05 09:14:09</t>
         </is>
       </c>
       <c r="I64" t="inlineStr">
@@ -14246,7 +14246,7 @@
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>2026-02-05 08:38:00</t>
+          <t>2026-02-05 09:14:09</t>
         </is>
       </c>
       <c r="I65" t="inlineStr">
@@ -14479,7 +14479,7 @@
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>2026-02-05 08:38:00</t>
+          <t>2026-02-05 09:14:09</t>
         </is>
       </c>
       <c r="I66" t="inlineStr">
@@ -14697,7 +14697,7 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>06:00 - 06:30</t>
+          <t>08:00 - 08:30</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
@@ -14712,17 +14712,17 @@
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>2026-02-05 08:38:03</t>
+          <t>2026-02-05 09:14:11</t>
         </is>
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>08:00</t>
+          <t>08:30</t>
         </is>
       </c>
       <c r="J67" t="inlineStr">
         <is>
-          <t>https://www.meteo.cat/observacions/xema/dades?codi=XJ&amp;dia=2026-02-05T08:00Z</t>
+          <t>https://www.meteo.cat/observacions/xema/dades?codi=XJ&amp;dia=2026-02-05T08:30Z</t>
         </is>
       </c>
       <c r="K67" t="n">
@@ -14735,7 +14735,7 @@
       </c>
       <c r="M67" t="inlineStr">
         <is>
-          <t>299</t>
+          <t>123</t>
         </is>
       </c>
       <c r="N67" t="inlineStr"/>
@@ -14743,12 +14743,12 @@
       <c r="P67" t="inlineStr"/>
       <c r="Q67" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>95</t>
         </is>
       </c>
       <c r="R67" t="inlineStr">
         <is>
-          <t>993.9</t>
+          <t>992.8</t>
         </is>
       </c>
       <c r="S67" t="inlineStr">
@@ -14758,66 +14758,66 @@
       </c>
       <c r="T67" t="inlineStr">
         <is>
-          <t>06:00 - 06:30</t>
+          <t>08:00 - 08:30</t>
         </is>
       </c>
       <c r="U67" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>62</t>
         </is>
       </c>
       <c r="V67" t="inlineStr">
         <is>
-          <t>1.6</t>
+          <t>5.7</t>
         </is>
       </c>
       <c r="W67" t="inlineStr">
         <is>
-          <t>1.4</t>
+          <t>4.4</t>
         </is>
       </c>
       <c r="X67" t="inlineStr">
         <is>
-          <t>1.7</t>
+          <t>6.6</t>
         </is>
       </c>
       <c r="Y67" t="inlineStr">
         <is>
-          <t>2.2</t>
+          <t>4.3</t>
         </is>
       </c>
       <c r="Z67" t="inlineStr"/>
       <c r="AA67" t="inlineStr"/>
       <c r="AB67" t="inlineStr">
         <is>
-          <t>5.4</t>
+          <t>9.7</t>
         </is>
       </c>
       <c r="AC67" t="inlineStr"/>
       <c r="AD67" t="inlineStr"/>
       <c r="AE67" t="inlineStr">
         <is>
-          <t>06:00 - 06:30</t>
+          <t>08:00 - 08:30</t>
         </is>
       </c>
       <c r="AF67" t="inlineStr">
         <is>
-          <t>1.6</t>
+          <t>5.7</t>
         </is>
       </c>
       <c r="AG67" t="inlineStr">
         <is>
-          <t>1.7</t>
+          <t>6.6</t>
         </is>
       </c>
       <c r="AH67" t="inlineStr">
         <is>
-          <t>1.4</t>
+          <t>4.4</t>
         </is>
       </c>
       <c r="AI67" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>95</t>
         </is>
       </c>
       <c r="AJ67" t="inlineStr">
@@ -14827,37 +14827,37 @@
       </c>
       <c r="AK67" t="inlineStr">
         <is>
-          <t>2.2</t>
+          <t>4.3</t>
         </is>
       </c>
       <c r="AL67" t="inlineStr">
         <is>
-          <t>299</t>
+          <t>123</t>
         </is>
       </c>
       <c r="AM67" t="inlineStr">
         <is>
-          <t>06:00 - 06:30</t>
+          <t>08:00 - 08:30</t>
         </is>
       </c>
       <c r="AN67" t="inlineStr">
         <is>
-          <t>1.6</t>
+          <t>5.7</t>
         </is>
       </c>
       <c r="AO67" t="inlineStr">
         <is>
-          <t>1.7</t>
+          <t>6.6</t>
         </is>
       </c>
       <c r="AP67" t="inlineStr">
         <is>
-          <t>1.4</t>
+          <t>4.4</t>
         </is>
       </c>
       <c r="AQ67" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>95</t>
         </is>
       </c>
       <c r="AR67" t="inlineStr">
@@ -14867,42 +14867,42 @@
       </c>
       <c r="AS67" t="inlineStr">
         <is>
-          <t>2.2</t>
+          <t>4.3</t>
         </is>
       </c>
       <c r="AT67" t="inlineStr">
         <is>
-          <t>299</t>
+          <t>123</t>
         </is>
       </c>
       <c r="AU67" t="inlineStr">
         <is>
-          <t>5.4</t>
+          <t>9.7</t>
         </is>
       </c>
       <c r="AV67" t="inlineStr">
         <is>
-          <t>993.9</t>
+          <t>992.8</t>
         </is>
       </c>
       <c r="AW67" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>62</t>
         </is>
       </c>
       <c r="AX67" t="inlineStr">
         <is>
-          <t>5.4</t>
+          <t>9.7</t>
         </is>
       </c>
       <c r="AY67" t="inlineStr">
         <is>
-          <t>993.9</t>
+          <t>992.8</t>
         </is>
       </c>
       <c r="AZ67" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>62</t>
         </is>
       </c>
       <c r="BA67" t="inlineStr"/>
@@ -14945,7 +14945,7 @@
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>2026-02-05 08:38:05</t>
+          <t>2026-02-05 09:14:13</t>
         </is>
       </c>
       <c r="I68" t="inlineStr">
@@ -15178,7 +15178,7 @@
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>2026-02-05 08:38:05</t>
+          <t>2026-02-05 09:14:13</t>
         </is>
       </c>
       <c r="I69" t="inlineStr">
@@ -15411,7 +15411,7 @@
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>2026-02-05 08:38:05</t>
+          <t>2026-02-05 09:14:13</t>
         </is>
       </c>
       <c r="I70" t="inlineStr">
@@ -15644,7 +15644,7 @@
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>2026-02-05 08:38:05</t>
+          <t>2026-02-05 09:14:13</t>
         </is>
       </c>
       <c r="I71" t="inlineStr">
@@ -15862,7 +15862,7 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>06:30 - 07:00</t>
+          <t>08:00 - 08:30</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
@@ -15877,17 +15877,17 @@
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>2026-02-05 08:38:08</t>
+          <t>2026-02-05 09:14:15</t>
         </is>
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>08:00</t>
+          <t>08:30</t>
         </is>
       </c>
       <c r="J72" t="inlineStr">
         <is>
-          <t>https://www.meteo.cat/observacions/xema/dades?codi=YU&amp;dia=2026-02-05T08:00Z</t>
+          <t>https://www.meteo.cat/observacions/xema/dades?codi=YU&amp;dia=2026-02-05T08:30Z</t>
         </is>
       </c>
       <c r="K72" t="n">
@@ -15900,7 +15900,7 @@
       </c>
       <c r="M72" t="inlineStr">
         <is>
-          <t>294</t>
+          <t>254</t>
         </is>
       </c>
       <c r="N72" t="inlineStr"/>
@@ -15908,7 +15908,7 @@
       <c r="P72" t="inlineStr"/>
       <c r="Q72" t="inlineStr">
         <is>
-          <t>98</t>
+          <t>100</t>
         </is>
       </c>
       <c r="R72" t="inlineStr"/>
@@ -15919,66 +15919,66 @@
       </c>
       <c r="T72" t="inlineStr">
         <is>
-          <t>06:30 - 07:00</t>
+          <t>08:00 - 08:30</t>
         </is>
       </c>
       <c r="U72" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>33</t>
         </is>
       </c>
       <c r="V72" t="inlineStr">
         <is>
-          <t>2.7</t>
+          <t>3.0</t>
         </is>
       </c>
       <c r="W72" t="inlineStr">
         <is>
-          <t>2.6</t>
+          <t>2.9</t>
         </is>
       </c>
       <c r="X72" t="inlineStr">
         <is>
-          <t>2.8</t>
+          <t>3.1</t>
         </is>
       </c>
       <c r="Y72" t="inlineStr">
         <is>
-          <t>5.4</t>
+          <t>9.7</t>
         </is>
       </c>
       <c r="Z72" t="inlineStr"/>
       <c r="AA72" t="inlineStr"/>
       <c r="AB72" t="inlineStr">
         <is>
-          <t>11.9</t>
+          <t>16.9</t>
         </is>
       </c>
       <c r="AC72" t="inlineStr"/>
       <c r="AD72" t="inlineStr"/>
       <c r="AE72" t="inlineStr">
         <is>
-          <t>06:30 - 07:00</t>
+          <t>08:00 - 08:30</t>
         </is>
       </c>
       <c r="AF72" t="inlineStr">
         <is>
-          <t>2.7</t>
+          <t>3.0</t>
         </is>
       </c>
       <c r="AG72" t="inlineStr">
         <is>
-          <t>2.8</t>
+          <t>3.1</t>
         </is>
       </c>
       <c r="AH72" t="inlineStr">
         <is>
-          <t>2.6</t>
+          <t>2.9</t>
         </is>
       </c>
       <c r="AI72" t="inlineStr">
         <is>
-          <t>98</t>
+          <t>100</t>
         </is>
       </c>
       <c r="AJ72" t="inlineStr">
@@ -15988,37 +15988,37 @@
       </c>
       <c r="AK72" t="inlineStr">
         <is>
-          <t>5.4</t>
+          <t>9.7</t>
         </is>
       </c>
       <c r="AL72" t="inlineStr">
         <is>
-          <t>294</t>
+          <t>254</t>
         </is>
       </c>
       <c r="AM72" t="inlineStr">
         <is>
-          <t>06:30 - 07:00</t>
+          <t>08:00 - 08:30</t>
         </is>
       </c>
       <c r="AN72" t="inlineStr">
         <is>
-          <t>2.7</t>
+          <t>3.0</t>
         </is>
       </c>
       <c r="AO72" t="inlineStr">
         <is>
-          <t>2.8</t>
+          <t>3.1</t>
         </is>
       </c>
       <c r="AP72" t="inlineStr">
         <is>
-          <t>2.6</t>
+          <t>2.9</t>
         </is>
       </c>
       <c r="AQ72" t="inlineStr">
         <is>
-          <t>98</t>
+          <t>100</t>
         </is>
       </c>
       <c r="AR72" t="inlineStr">
@@ -16028,33 +16028,33 @@
       </c>
       <c r="AS72" t="inlineStr">
         <is>
-          <t>5.4</t>
+          <t>9.7</t>
         </is>
       </c>
       <c r="AT72" t="inlineStr">
         <is>
-          <t>294</t>
+          <t>254</t>
         </is>
       </c>
       <c r="AU72" t="inlineStr">
         <is>
-          <t>11.9</t>
+          <t>16.9</t>
         </is>
       </c>
       <c r="AV72" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>33</t>
         </is>
       </c>
       <c r="AW72" t="inlineStr"/>
       <c r="AX72" t="inlineStr">
         <is>
-          <t>11.9</t>
+          <t>16.9</t>
         </is>
       </c>
       <c r="AY72" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>33</t>
         </is>
       </c>
       <c r="AZ72" t="inlineStr"/>
@@ -16098,7 +16098,7 @@
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>2026-02-05 08:38:09</t>
+          <t>2026-02-05 09:14:17</t>
         </is>
       </c>
       <c r="I73" t="inlineStr">
@@ -16319,7 +16319,7 @@
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>2026-02-05 08:38:09</t>
+          <t>2026-02-05 09:14:17</t>
         </is>
       </c>
       <c r="I74" t="inlineStr">
@@ -16540,7 +16540,7 @@
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>2026-02-05 08:38:09</t>
+          <t>2026-02-05 09:14:17</t>
         </is>
       </c>
       <c r="I75" t="inlineStr">
@@ -16761,7 +16761,7 @@
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>2026-02-05 08:38:09</t>
+          <t>2026-02-05 09:14:17</t>
         </is>
       </c>
       <c r="I76" t="inlineStr">
@@ -16967,7 +16967,7 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>05:30 - 06:00</t>
+          <t>07:30 - 08:00</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
@@ -16982,17 +16982,17 @@
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>2026-02-05 08:38:12</t>
+          <t>2026-02-05 09:14:19</t>
         </is>
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>08:00</t>
+          <t>08:30</t>
         </is>
       </c>
       <c r="J77" t="inlineStr">
         <is>
-          <t>https://www.meteo.cat/observacions/xema/dades?codi=CD&amp;dia=2026-02-05T08:00Z</t>
+          <t>https://www.meteo.cat/observacions/xema/dades?codi=CD&amp;dia=2026-02-05T08:30Z</t>
         </is>
       </c>
       <c r="K77" t="n">
@@ -17005,7 +17005,7 @@
       </c>
       <c r="M77" t="inlineStr">
         <is>
-          <t>74</t>
+          <t>337</t>
         </is>
       </c>
       <c r="N77" t="inlineStr"/>
@@ -17018,7 +17018,7 @@
       </c>
       <c r="R77" t="inlineStr">
         <is>
-          <t>998.2</t>
+          <t>997.2</t>
         </is>
       </c>
       <c r="S77" t="inlineStr">
@@ -17028,61 +17028,61 @@
       </c>
       <c r="T77" t="inlineStr">
         <is>
-          <t>05:30 - 06:00</t>
+          <t>07:30 - 08:00</t>
         </is>
       </c>
       <c r="U77" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>25</t>
         </is>
       </c>
       <c r="V77" t="inlineStr">
         <is>
-          <t>-0.3</t>
+          <t>0.4</t>
         </is>
       </c>
       <c r="W77" t="inlineStr">
         <is>
-          <t>-0.5</t>
+          <t>0.2</t>
         </is>
       </c>
       <c r="X77" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="Y77" t="inlineStr">
         <is>
-          <t>2.2</t>
+          <t>3.6</t>
         </is>
       </c>
       <c r="Z77" t="inlineStr"/>
       <c r="AA77" t="inlineStr"/>
       <c r="AB77" t="inlineStr">
         <is>
-          <t>5.4</t>
+          <t>11.2</t>
         </is>
       </c>
       <c r="AC77" t="inlineStr"/>
       <c r="AD77" t="inlineStr"/>
       <c r="AE77" t="inlineStr">
         <is>
-          <t>05:30 - 06:00</t>
+          <t>07:30 - 08:00</t>
         </is>
       </c>
       <c r="AF77" t="inlineStr">
         <is>
-          <t>-0.3</t>
+          <t>0.4</t>
         </is>
       </c>
       <c r="AG77" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="AH77" t="inlineStr">
         <is>
-          <t>-0.5</t>
+          <t>0.2</t>
         </is>
       </c>
       <c r="AI77" t="inlineStr">
@@ -17097,32 +17097,32 @@
       </c>
       <c r="AK77" t="inlineStr">
         <is>
-          <t>2.2</t>
+          <t>3.6</t>
         </is>
       </c>
       <c r="AL77" t="inlineStr">
         <is>
-          <t>74</t>
+          <t>337</t>
         </is>
       </c>
       <c r="AM77" t="inlineStr">
         <is>
-          <t>05:30 - 06:00</t>
+          <t>07:30 - 08:00</t>
         </is>
       </c>
       <c r="AN77" t="inlineStr">
         <is>
-          <t>-0.3</t>
+          <t>0.4</t>
         </is>
       </c>
       <c r="AO77" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="AP77" t="inlineStr">
         <is>
-          <t>-0.5</t>
+          <t>0.2</t>
         </is>
       </c>
       <c r="AQ77" t="inlineStr">
@@ -17137,42 +17137,42 @@
       </c>
       <c r="AS77" t="inlineStr">
         <is>
-          <t>2.2</t>
+          <t>3.6</t>
         </is>
       </c>
       <c r="AT77" t="inlineStr">
         <is>
-          <t>74</t>
+          <t>337</t>
         </is>
       </c>
       <c r="AU77" t="inlineStr">
         <is>
-          <t>5.4</t>
+          <t>11.2</t>
         </is>
       </c>
       <c r="AV77" t="inlineStr">
         <is>
-          <t>998.2</t>
+          <t>997.2</t>
         </is>
       </c>
       <c r="AW77" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>25</t>
         </is>
       </c>
       <c r="AX77" t="inlineStr">
         <is>
-          <t>5.4</t>
+          <t>11.2</t>
         </is>
       </c>
       <c r="AY77" t="inlineStr">
         <is>
-          <t>998.2</t>
+          <t>997.2</t>
         </is>
       </c>
       <c r="AZ77" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>25</t>
         </is>
       </c>
       <c r="BA77" t="inlineStr"/>
@@ -17215,7 +17215,7 @@
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>2026-02-05 08:38:14</t>
+          <t>2026-02-05 09:14:21</t>
         </is>
       </c>
       <c r="I78" t="inlineStr">
@@ -17448,7 +17448,7 @@
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>2026-02-05 08:38:14</t>
+          <t>2026-02-05 09:14:21</t>
         </is>
       </c>
       <c r="I79" t="inlineStr">
@@ -17681,7 +17681,7 @@
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>2026-02-05 08:38:14</t>
+          <t>2026-02-05 09:14:21</t>
         </is>
       </c>
       <c r="I80" t="inlineStr">
@@ -17914,7 +17914,7 @@
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>2026-02-05 08:38:14</t>
+          <t>2026-02-05 09:14:21</t>
         </is>
       </c>
       <c r="I81" t="inlineStr">
@@ -18147,17 +18147,17 @@
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>2026-02-05 08:38:17</t>
+          <t>2026-02-05 09:14:23</t>
         </is>
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>08:00</t>
+          <t>08:30</t>
         </is>
       </c>
       <c r="J82" t="inlineStr">
         <is>
-          <t>https://www.meteo.cat/observacions/xema/dades?codi=Z2&amp;dia=2026-02-05T08:00Z</t>
+          <t>https://www.meteo.cat/observacions/xema/dades?codi=Z2&amp;dia=2026-02-05T08:30Z</t>
         </is>
       </c>
       <c r="K82" t="n">
@@ -18380,7 +18380,7 @@
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>2026-02-05 08:38:18</t>
+          <t>2026-02-05 09:14:25</t>
         </is>
       </c>
       <c r="I83" t="inlineStr">
@@ -18613,7 +18613,7 @@
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>2026-02-05 08:38:18</t>
+          <t>2026-02-05 09:14:25</t>
         </is>
       </c>
       <c r="I84" t="inlineStr">
@@ -18846,7 +18846,7 @@
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>2026-02-05 08:38:18</t>
+          <t>2026-02-05 09:14:25</t>
         </is>
       </c>
       <c r="I85" t="inlineStr">
@@ -19079,7 +19079,7 @@
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>2026-02-05 08:38:18</t>
+          <t>2026-02-05 09:14:25</t>
         </is>
       </c>
       <c r="I86" t="inlineStr">
@@ -19297,7 +19297,7 @@
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>05:00 - 05:30</t>
+          <t>07:30 - 08:00</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
@@ -19312,17 +19312,17 @@
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>2026-02-05 08:38:21</t>
+          <t>2026-02-05 09:14:27</t>
         </is>
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>08:00</t>
+          <t>08:30</t>
         </is>
       </c>
       <c r="J87" t="inlineStr">
         <is>
-          <t>https://www.meteo.cat/observacions/xema/dades?codi=VK&amp;dia=2026-02-05T08:00Z</t>
+          <t>https://www.meteo.cat/observacions/xema/dades?codi=VK&amp;dia=2026-02-05T08:30Z</t>
         </is>
       </c>
       <c r="K87" t="n">
@@ -19335,7 +19335,7 @@
       </c>
       <c r="M87" t="inlineStr">
         <is>
-          <t>83</t>
+          <t>140</t>
         </is>
       </c>
       <c r="N87" t="inlineStr"/>
@@ -19348,71 +19348,71 @@
       </c>
       <c r="R87" t="inlineStr">
         <is>
-          <t>995.3</t>
+          <t>994.5</t>
         </is>
       </c>
       <c r="S87" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>0.2</t>
         </is>
       </c>
       <c r="T87" t="inlineStr">
         <is>
-          <t>05:00 - 05:30</t>
+          <t>07:30 - 08:00</t>
         </is>
       </c>
       <c r="U87" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>9</t>
         </is>
       </c>
       <c r="V87" t="inlineStr">
         <is>
-          <t>4.9</t>
+          <t>6.2</t>
         </is>
       </c>
       <c r="W87" t="inlineStr">
         <is>
-          <t>4.7</t>
+          <t>6.1</t>
         </is>
       </c>
       <c r="X87" t="inlineStr">
         <is>
-          <t>5.2</t>
+          <t>6.2</t>
         </is>
       </c>
       <c r="Y87" t="inlineStr">
         <is>
-          <t>5.8</t>
+          <t>7.2</t>
         </is>
       </c>
       <c r="Z87" t="inlineStr"/>
       <c r="AA87" t="inlineStr"/>
       <c r="AB87" t="inlineStr">
         <is>
-          <t>9.0</t>
+          <t>11.2</t>
         </is>
       </c>
       <c r="AC87" t="inlineStr"/>
       <c r="AD87" t="inlineStr"/>
       <c r="AE87" t="inlineStr">
         <is>
-          <t>05:00 - 05:30</t>
+          <t>07:30 - 08:00</t>
         </is>
       </c>
       <c r="AF87" t="inlineStr">
         <is>
-          <t>4.9</t>
+          <t>6.2</t>
         </is>
       </c>
       <c r="AG87" t="inlineStr">
         <is>
-          <t>5.2</t>
+          <t>6.2</t>
         </is>
       </c>
       <c r="AH87" t="inlineStr">
         <is>
-          <t>4.7</t>
+          <t>6.1</t>
         </is>
       </c>
       <c r="AI87" t="inlineStr">
@@ -19422,37 +19422,37 @@
       </c>
       <c r="AJ87" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>0.2</t>
         </is>
       </c>
       <c r="AK87" t="inlineStr">
         <is>
-          <t>5.8</t>
+          <t>7.2</t>
         </is>
       </c>
       <c r="AL87" t="inlineStr">
         <is>
-          <t>83</t>
+          <t>140</t>
         </is>
       </c>
       <c r="AM87" t="inlineStr">
         <is>
-          <t>05:00 - 05:30</t>
+          <t>07:30 - 08:00</t>
         </is>
       </c>
       <c r="AN87" t="inlineStr">
         <is>
-          <t>4.9</t>
+          <t>6.2</t>
         </is>
       </c>
       <c r="AO87" t="inlineStr">
         <is>
-          <t>5.2</t>
+          <t>6.2</t>
         </is>
       </c>
       <c r="AP87" t="inlineStr">
         <is>
-          <t>4.7</t>
+          <t>6.1</t>
         </is>
       </c>
       <c r="AQ87" t="inlineStr">
@@ -19462,47 +19462,47 @@
       </c>
       <c r="AR87" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>0.2</t>
         </is>
       </c>
       <c r="AS87" t="inlineStr">
         <is>
-          <t>5.8</t>
+          <t>7.2</t>
         </is>
       </c>
       <c r="AT87" t="inlineStr">
         <is>
-          <t>83</t>
+          <t>140</t>
         </is>
       </c>
       <c r="AU87" t="inlineStr">
         <is>
-          <t>9.0</t>
+          <t>11.2</t>
         </is>
       </c>
       <c r="AV87" t="inlineStr">
         <is>
-          <t>995.3</t>
+          <t>994.5</t>
         </is>
       </c>
       <c r="AW87" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>9</t>
         </is>
       </c>
       <c r="AX87" t="inlineStr">
         <is>
-          <t>9.0</t>
+          <t>11.2</t>
         </is>
       </c>
       <c r="AY87" t="inlineStr">
         <is>
-          <t>995.3</t>
+          <t>994.5</t>
         </is>
       </c>
       <c r="AZ87" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>9</t>
         </is>
       </c>
       <c r="BA87" t="inlineStr"/>
@@ -19545,7 +19545,7 @@
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>2026-02-05 08:38:23</t>
+          <t>2026-02-05 09:14:29</t>
         </is>
       </c>
       <c r="I88" t="inlineStr">
@@ -19778,7 +19778,7 @@
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>2026-02-05 08:38:23</t>
+          <t>2026-02-05 09:14:29</t>
         </is>
       </c>
       <c r="I89" t="inlineStr">
@@ -20011,7 +20011,7 @@
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>2026-02-05 08:38:23</t>
+          <t>2026-02-05 09:14:29</t>
         </is>
       </c>
       <c r="I90" t="inlineStr">
@@ -20244,7 +20244,7 @@
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>2026-02-05 08:38:23</t>
+          <t>2026-02-05 09:14:29</t>
         </is>
       </c>
       <c r="I91" t="inlineStr">
@@ -20477,17 +20477,17 @@
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>2026-02-05 08:38:26</t>
+          <t>2026-02-05 09:14:31</t>
         </is>
       </c>
       <c r="I92" t="inlineStr">
         <is>
-          <t>08:00</t>
+          <t>08:30</t>
         </is>
       </c>
       <c r="J92" t="inlineStr">
         <is>
-          <t>https://www.meteo.cat/observacions/xema/dades?codi=Z3&amp;dia=2026-02-05T08:00Z</t>
+          <t>https://www.meteo.cat/observacions/xema/dades?codi=Z3&amp;dia=2026-02-05T08:30Z</t>
         </is>
       </c>
       <c r="K92" t="n">
@@ -20710,7 +20710,7 @@
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>2026-02-05 08:38:27</t>
+          <t>2026-02-05 09:14:33</t>
         </is>
       </c>
       <c r="I93" t="inlineStr">
@@ -20943,7 +20943,7 @@
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>2026-02-05 08:38:27</t>
+          <t>2026-02-05 09:14:33</t>
         </is>
       </c>
       <c r="I94" t="inlineStr">
@@ -21176,7 +21176,7 @@
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>2026-02-05 08:38:27</t>
+          <t>2026-02-05 09:14:33</t>
         </is>
       </c>
       <c r="I95" t="inlineStr">
@@ -21409,7 +21409,7 @@
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>2026-02-05 08:38:27</t>
+          <t>2026-02-05 09:14:33</t>
         </is>
       </c>
       <c r="I96" t="inlineStr">
@@ -21627,7 +21627,7 @@
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>06:00 - 06:30</t>
+          <t>08:00 - 08:30</t>
         </is>
       </c>
       <c r="F97" t="inlineStr">
@@ -21642,17 +21642,17 @@
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>2026-02-05 08:38:30</t>
+          <t>2026-02-05 09:14:35</t>
         </is>
       </c>
       <c r="I97" t="inlineStr">
         <is>
-          <t>08:00</t>
+          <t>08:30</t>
         </is>
       </c>
       <c r="J97" t="inlineStr">
         <is>
-          <t>https://www.meteo.cat/observacions/xema/dades?codi=YB&amp;dia=2026-02-05T08:00Z</t>
+          <t>https://www.meteo.cat/observacions/xema/dades?codi=YB&amp;dia=2026-02-05T08:30Z</t>
         </is>
       </c>
       <c r="K97" t="n">
@@ -21665,7 +21665,7 @@
       </c>
       <c r="M97" t="inlineStr">
         <is>
-          <t>249</t>
+          <t>225</t>
         </is>
       </c>
       <c r="N97" t="inlineStr"/>
@@ -21673,12 +21673,12 @@
       <c r="P97" t="inlineStr"/>
       <c r="Q97" t="inlineStr">
         <is>
-          <t>95</t>
+          <t>89</t>
         </is>
       </c>
       <c r="R97" t="inlineStr">
         <is>
-          <t>995.1</t>
+          <t>993.1</t>
         </is>
       </c>
       <c r="S97" t="inlineStr">
@@ -21688,27 +21688,27 @@
       </c>
       <c r="T97" t="inlineStr">
         <is>
-          <t>06:00 - 06:30</t>
+          <t>08:00 - 08:30</t>
         </is>
       </c>
       <c r="U97" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>87</t>
         </is>
       </c>
       <c r="V97" t="inlineStr">
         <is>
-          <t>0.7</t>
+          <t>3.8</t>
         </is>
       </c>
       <c r="W97" t="inlineStr">
         <is>
-          <t>0.5</t>
+          <t>2.7</t>
         </is>
       </c>
       <c r="X97" t="inlineStr">
         <is>
-          <t>0.9</t>
+          <t>4.7</t>
         </is>
       </c>
       <c r="Y97" t="inlineStr">
@@ -21720,34 +21720,34 @@
       <c r="AA97" t="inlineStr"/>
       <c r="AB97" t="inlineStr">
         <is>
-          <t>5.8</t>
+          <t>8.6</t>
         </is>
       </c>
       <c r="AC97" t="inlineStr"/>
       <c r="AD97" t="inlineStr"/>
       <c r="AE97" t="inlineStr">
         <is>
-          <t>06:00 - 06:30</t>
+          <t>08:00 - 08:30</t>
         </is>
       </c>
       <c r="AF97" t="inlineStr">
         <is>
-          <t>0.7</t>
+          <t>3.8</t>
         </is>
       </c>
       <c r="AG97" t="inlineStr">
         <is>
-          <t>0.9</t>
+          <t>4.7</t>
         </is>
       </c>
       <c r="AH97" t="inlineStr">
         <is>
-          <t>0.5</t>
+          <t>2.7</t>
         </is>
       </c>
       <c r="AI97" t="inlineStr">
         <is>
-          <t>95</t>
+          <t>89</t>
         </is>
       </c>
       <c r="AJ97" t="inlineStr">
@@ -21762,32 +21762,32 @@
       </c>
       <c r="AL97" t="inlineStr">
         <is>
-          <t>249</t>
+          <t>225</t>
         </is>
       </c>
       <c r="AM97" t="inlineStr">
         <is>
-          <t>06:00 - 06:30</t>
+          <t>08:00 - 08:30</t>
         </is>
       </c>
       <c r="AN97" t="inlineStr">
         <is>
-          <t>0.7</t>
+          <t>3.8</t>
         </is>
       </c>
       <c r="AO97" t="inlineStr">
         <is>
-          <t>0.9</t>
+          <t>4.7</t>
         </is>
       </c>
       <c r="AP97" t="inlineStr">
         <is>
-          <t>0.5</t>
+          <t>2.7</t>
         </is>
       </c>
       <c r="AQ97" t="inlineStr">
         <is>
-          <t>95</t>
+          <t>89</t>
         </is>
       </c>
       <c r="AR97" t="inlineStr">
@@ -21802,37 +21802,37 @@
       </c>
       <c r="AT97" t="inlineStr">
         <is>
-          <t>249</t>
+          <t>225</t>
         </is>
       </c>
       <c r="AU97" t="inlineStr">
         <is>
-          <t>5.8</t>
+          <t>8.6</t>
         </is>
       </c>
       <c r="AV97" t="inlineStr">
         <is>
-          <t>995.1</t>
+          <t>993.1</t>
         </is>
       </c>
       <c r="AW97" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>87</t>
         </is>
       </c>
       <c r="AX97" t="inlineStr">
         <is>
-          <t>5.8</t>
+          <t>8.6</t>
         </is>
       </c>
       <c r="AY97" t="inlineStr">
         <is>
-          <t>995.1</t>
+          <t>993.1</t>
         </is>
       </c>
       <c r="AZ97" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>87</t>
         </is>
       </c>
       <c r="BA97" t="inlineStr"/>
@@ -21875,7 +21875,7 @@
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>2026-02-05 08:38:32</t>
+          <t>2026-02-05 09:14:37</t>
         </is>
       </c>
       <c r="I98" t="inlineStr">
@@ -22108,7 +22108,7 @@
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>2026-02-05 08:38:32</t>
+          <t>2026-02-05 09:14:37</t>
         </is>
       </c>
       <c r="I99" t="inlineStr">
@@ -22341,7 +22341,7 @@
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>2026-02-05 08:38:32</t>
+          <t>2026-02-05 09:14:37</t>
         </is>
       </c>
       <c r="I100" t="inlineStr">
@@ -22574,7 +22574,7 @@
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>2026-02-05 08:38:32</t>
+          <t>2026-02-05 09:14:37</t>
         </is>
       </c>
       <c r="I101" t="inlineStr">
@@ -22792,7 +22792,7 @@
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>06:00 - 06:30</t>
+          <t>08:00 - 08:30</t>
         </is>
       </c>
       <c r="F102" t="inlineStr">
@@ -22807,17 +22807,17 @@
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>2026-02-05 08:38:35</t>
+          <t>2026-02-05 09:14:39</t>
         </is>
       </c>
       <c r="I102" t="inlineStr">
         <is>
-          <t>08:00</t>
+          <t>08:30</t>
         </is>
       </c>
       <c r="J102" t="inlineStr">
         <is>
-          <t>https://www.meteo.cat/observacions/xema/dades?codi=YP&amp;dia=2026-02-05T08:00Z</t>
+          <t>https://www.meteo.cat/observacions/xema/dades?codi=YP&amp;dia=2026-02-05T08:30Z</t>
         </is>
       </c>
       <c r="K102" t="n">
@@ -22830,7 +22830,7 @@
       </c>
       <c r="M102" t="inlineStr">
         <is>
-          <t>268</t>
+          <t>203</t>
         </is>
       </c>
       <c r="N102" t="inlineStr"/>
@@ -22838,7 +22838,7 @@
       <c r="P102" t="inlineStr"/>
       <c r="Q102" t="inlineStr">
         <is>
-          <t>98</t>
+          <t>97</t>
         </is>
       </c>
       <c r="R102" t="inlineStr"/>
@@ -22849,27 +22849,27 @@
       </c>
       <c r="T102" t="inlineStr">
         <is>
-          <t>06:00 - 06:30</t>
+          <t>08:00 - 08:30</t>
         </is>
       </c>
       <c r="U102" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>87</t>
         </is>
       </c>
       <c r="V102" t="inlineStr">
         <is>
-          <t>3.0</t>
+          <t>4.8</t>
         </is>
       </c>
       <c r="W102" t="inlineStr">
         <is>
-          <t>2.9</t>
+          <t>4.3</t>
         </is>
       </c>
       <c r="X102" t="inlineStr">
         <is>
-          <t>3.3</t>
+          <t>5.4</t>
         </is>
       </c>
       <c r="Y102" t="inlineStr">
@@ -22881,34 +22881,34 @@
       <c r="AA102" t="inlineStr"/>
       <c r="AB102" t="inlineStr">
         <is>
-          <t>5.4</t>
+          <t>5.0</t>
         </is>
       </c>
       <c r="AC102" t="inlineStr"/>
       <c r="AD102" t="inlineStr"/>
       <c r="AE102" t="inlineStr">
         <is>
-          <t>06:00 - 06:30</t>
+          <t>08:00 - 08:30</t>
         </is>
       </c>
       <c r="AF102" t="inlineStr">
         <is>
-          <t>3.0</t>
+          <t>4.8</t>
         </is>
       </c>
       <c r="AG102" t="inlineStr">
         <is>
-          <t>3.3</t>
+          <t>5.4</t>
         </is>
       </c>
       <c r="AH102" t="inlineStr">
         <is>
-          <t>2.9</t>
+          <t>4.3</t>
         </is>
       </c>
       <c r="AI102" t="inlineStr">
         <is>
-          <t>98</t>
+          <t>97</t>
         </is>
       </c>
       <c r="AJ102" t="inlineStr">
@@ -22923,32 +22923,32 @@
       </c>
       <c r="AL102" t="inlineStr">
         <is>
-          <t>268</t>
+          <t>203</t>
         </is>
       </c>
       <c r="AM102" t="inlineStr">
         <is>
-          <t>06:00 - 06:30</t>
+          <t>08:00 - 08:30</t>
         </is>
       </c>
       <c r="AN102" t="inlineStr">
         <is>
-          <t>3.0</t>
+          <t>4.8</t>
         </is>
       </c>
       <c r="AO102" t="inlineStr">
         <is>
-          <t>3.3</t>
+          <t>5.4</t>
         </is>
       </c>
       <c r="AP102" t="inlineStr">
         <is>
-          <t>2.9</t>
+          <t>4.3</t>
         </is>
       </c>
       <c r="AQ102" t="inlineStr">
         <is>
-          <t>98</t>
+          <t>97</t>
         </is>
       </c>
       <c r="AR102" t="inlineStr">
@@ -22963,28 +22963,28 @@
       </c>
       <c r="AT102" t="inlineStr">
         <is>
-          <t>268</t>
+          <t>203</t>
         </is>
       </c>
       <c r="AU102" t="inlineStr">
         <is>
-          <t>5.4</t>
+          <t>5.0</t>
         </is>
       </c>
       <c r="AV102" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>87</t>
         </is>
       </c>
       <c r="AW102" t="inlineStr"/>
       <c r="AX102" t="inlineStr">
         <is>
-          <t>5.4</t>
+          <t>5.0</t>
         </is>
       </c>
       <c r="AY102" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>87</t>
         </is>
       </c>
       <c r="AZ102" t="inlineStr"/>
@@ -23028,7 +23028,7 @@
       </c>
       <c r="H103" t="inlineStr">
         <is>
-          <t>2026-02-05 08:38:36</t>
+          <t>2026-02-05 09:14:40</t>
         </is>
       </c>
       <c r="I103" t="inlineStr">
@@ -23249,7 +23249,7 @@
       </c>
       <c r="H104" t="inlineStr">
         <is>
-          <t>2026-02-05 08:38:36</t>
+          <t>2026-02-05 09:14:40</t>
         </is>
       </c>
       <c r="I104" t="inlineStr">
@@ -23470,7 +23470,7 @@
       </c>
       <c r="H105" t="inlineStr">
         <is>
-          <t>2026-02-05 08:38:36</t>
+          <t>2026-02-05 09:14:40</t>
         </is>
       </c>
       <c r="I105" t="inlineStr">
@@ -23691,7 +23691,7 @@
       </c>
       <c r="H106" t="inlineStr">
         <is>
-          <t>2026-02-05 08:38:36</t>
+          <t>2026-02-05 09:14:40</t>
         </is>
       </c>
       <c r="I106" t="inlineStr">
@@ -23897,7 +23897,7 @@
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>06:00 - 06:30</t>
+          <t>08:00 - 08:30</t>
         </is>
       </c>
       <c r="F107" t="inlineStr">
@@ -23912,17 +23912,17 @@
       </c>
       <c r="H107" t="inlineStr">
         <is>
-          <t>2026-02-05 08:38:39</t>
+          <t>2026-02-05 09:14:43</t>
         </is>
       </c>
       <c r="I107" t="inlineStr">
         <is>
-          <t>08:00</t>
+          <t>08:30</t>
         </is>
       </c>
       <c r="J107" t="inlineStr">
         <is>
-          <t>https://www.meteo.cat/observacions/xema/dades?codi=J5&amp;dia=2026-02-05T08:00Z</t>
+          <t>https://www.meteo.cat/observacions/xema/dades?codi=J5&amp;dia=2026-02-05T08:30Z</t>
         </is>
       </c>
       <c r="K107" t="n">
@@ -23935,7 +23935,7 @@
       </c>
       <c r="M107" t="inlineStr">
         <is>
-          <t>37</t>
+          <t>30</t>
         </is>
       </c>
       <c r="N107" t="inlineStr"/>
@@ -23943,12 +23943,12 @@
       <c r="P107" t="inlineStr"/>
       <c r="Q107" t="inlineStr">
         <is>
-          <t>97</t>
+          <t>95</t>
         </is>
       </c>
       <c r="R107" t="inlineStr">
         <is>
-          <t>993.6</t>
+          <t>992.6</t>
         </is>
       </c>
       <c r="S107" t="inlineStr">
@@ -23958,151 +23958,151 @@
       </c>
       <c r="T107" t="inlineStr">
         <is>
-          <t>06:00 - 06:30</t>
+          <t>08:00 - 08:30</t>
         </is>
       </c>
       <c r="U107" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>77</t>
         </is>
       </c>
       <c r="V107" t="inlineStr">
         <is>
+          <t>5.3</t>
+        </is>
+      </c>
+      <c r="W107" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="X107" t="inlineStr">
+        <is>
+          <t>5.7</t>
+        </is>
+      </c>
+      <c r="Y107" t="inlineStr">
+        <is>
           <t>4.7</t>
-        </is>
-      </c>
-      <c r="W107" t="inlineStr">
-        <is>
-          <t>4.5</t>
-        </is>
-      </c>
-      <c r="X107" t="inlineStr">
-        <is>
-          <t>5.0</t>
-        </is>
-      </c>
-      <c r="Y107" t="inlineStr">
-        <is>
-          <t>9.7</t>
         </is>
       </c>
       <c r="Z107" t="inlineStr"/>
       <c r="AA107" t="inlineStr"/>
       <c r="AB107" t="inlineStr">
         <is>
-          <t>14.0</t>
+          <t>6.8</t>
         </is>
       </c>
       <c r="AC107" t="inlineStr"/>
       <c r="AD107" t="inlineStr"/>
       <c r="AE107" t="inlineStr">
         <is>
-          <t>06:00 - 06:30</t>
+          <t>08:00 - 08:30</t>
         </is>
       </c>
       <c r="AF107" t="inlineStr">
         <is>
+          <t>5.3</t>
+        </is>
+      </c>
+      <c r="AG107" t="inlineStr">
+        <is>
+          <t>5.7</t>
+        </is>
+      </c>
+      <c r="AH107" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="AI107" t="inlineStr">
+        <is>
+          <t>95</t>
+        </is>
+      </c>
+      <c r="AJ107" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="AK107" t="inlineStr">
+        <is>
           <t>4.7</t>
         </is>
       </c>
-      <c r="AG107" t="inlineStr">
+      <c r="AL107" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="AM107" t="inlineStr">
+        <is>
+          <t>08:00 - 08:30</t>
+        </is>
+      </c>
+      <c r="AN107" t="inlineStr">
+        <is>
+          <t>5.3</t>
+        </is>
+      </c>
+      <c r="AO107" t="inlineStr">
+        <is>
+          <t>5.7</t>
+        </is>
+      </c>
+      <c r="AP107" t="inlineStr">
         <is>
           <t>5.0</t>
         </is>
       </c>
-      <c r="AH107" t="inlineStr">
-        <is>
-          <t>4.5</t>
-        </is>
-      </c>
-      <c r="AI107" t="inlineStr">
-        <is>
-          <t>97</t>
-        </is>
-      </c>
-      <c r="AJ107" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="AK107" t="inlineStr">
-        <is>
-          <t>9.7</t>
-        </is>
-      </c>
-      <c r="AL107" t="inlineStr">
-        <is>
-          <t>37</t>
-        </is>
-      </c>
-      <c r="AM107" t="inlineStr">
-        <is>
-          <t>06:00 - 06:30</t>
-        </is>
-      </c>
-      <c r="AN107" t="inlineStr">
+      <c r="AQ107" t="inlineStr">
+        <is>
+          <t>95</t>
+        </is>
+      </c>
+      <c r="AR107" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="AS107" t="inlineStr">
         <is>
           <t>4.7</t>
         </is>
       </c>
-      <c r="AO107" t="inlineStr">
-        <is>
-          <t>5.0</t>
-        </is>
-      </c>
-      <c r="AP107" t="inlineStr">
-        <is>
-          <t>4.5</t>
-        </is>
-      </c>
-      <c r="AQ107" t="inlineStr">
-        <is>
-          <t>97</t>
-        </is>
-      </c>
-      <c r="AR107" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="AS107" t="inlineStr">
-        <is>
-          <t>9.7</t>
-        </is>
-      </c>
       <c r="AT107" t="inlineStr">
         <is>
-          <t>37</t>
+          <t>30</t>
         </is>
       </c>
       <c r="AU107" t="inlineStr">
         <is>
-          <t>14.0</t>
+          <t>6.8</t>
         </is>
       </c>
       <c r="AV107" t="inlineStr">
         <is>
-          <t>993.6</t>
+          <t>992.6</t>
         </is>
       </c>
       <c r="AW107" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>77</t>
         </is>
       </c>
       <c r="AX107" t="inlineStr">
         <is>
-          <t>14.0</t>
+          <t>6.8</t>
         </is>
       </c>
       <c r="AY107" t="inlineStr">
         <is>
-          <t>993.6</t>
+          <t>992.6</t>
         </is>
       </c>
       <c r="AZ107" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>77</t>
         </is>
       </c>
       <c r="BA107" t="inlineStr"/>
@@ -24145,7 +24145,7 @@
       </c>
       <c r="H108" t="inlineStr">
         <is>
-          <t>2026-02-05 08:38:41</t>
+          <t>2026-02-05 09:14:44</t>
         </is>
       </c>
       <c r="I108" t="inlineStr">
@@ -24378,7 +24378,7 @@
       </c>
       <c r="H109" t="inlineStr">
         <is>
-          <t>2026-02-05 08:38:41</t>
+          <t>2026-02-05 09:14:44</t>
         </is>
       </c>
       <c r="I109" t="inlineStr">
@@ -24611,7 +24611,7 @@
       </c>
       <c r="H110" t="inlineStr">
         <is>
-          <t>2026-02-05 08:38:41</t>
+          <t>2026-02-05 09:14:44</t>
         </is>
       </c>
       <c r="I110" t="inlineStr">
@@ -24844,7 +24844,7 @@
       </c>
       <c r="H111" t="inlineStr">
         <is>
-          <t>2026-02-05 08:38:41</t>
+          <t>2026-02-05 09:14:44</t>
         </is>
       </c>
       <c r="I111" t="inlineStr">
@@ -25062,7 +25062,7 @@
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>05:00 - 05:30</t>
+          <t>07:30 - 08:00</t>
         </is>
       </c>
       <c r="F112" t="inlineStr">
@@ -25077,17 +25077,17 @@
       </c>
       <c r="H112" t="inlineStr">
         <is>
-          <t>2026-02-05 08:38:43</t>
+          <t>2026-02-05 09:14:47</t>
         </is>
       </c>
       <c r="I112" t="inlineStr">
         <is>
-          <t>08:00</t>
+          <t>08:30</t>
         </is>
       </c>
       <c r="J112" t="inlineStr">
         <is>
-          <t>https://www.meteo.cat/observacions/xema/dades?codi=D6&amp;dia=2026-02-05T08:00Z</t>
+          <t>https://www.meteo.cat/observacions/xema/dades?codi=D6&amp;dia=2026-02-05T08:30Z</t>
         </is>
       </c>
       <c r="K112" t="n">
@@ -25100,7 +25100,7 @@
       </c>
       <c r="M112" t="inlineStr">
         <is>
-          <t>359</t>
+          <t>194</t>
         </is>
       </c>
       <c r="N112" t="inlineStr"/>
@@ -25108,12 +25108,12 @@
       <c r="P112" t="inlineStr"/>
       <c r="Q112" t="inlineStr">
         <is>
-          <t>88</t>
+          <t>87</t>
         </is>
       </c>
       <c r="R112" t="inlineStr">
         <is>
-          <t>993.2</t>
+          <t>992.3</t>
         </is>
       </c>
       <c r="S112" t="inlineStr">
@@ -25123,66 +25123,66 @@
       </c>
       <c r="T112" t="inlineStr">
         <is>
-          <t>05:00 - 05:30</t>
+          <t>07:30 - 08:00</t>
         </is>
       </c>
       <c r="U112" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>73</t>
         </is>
       </c>
       <c r="V112" t="inlineStr">
         <is>
-          <t>7.9</t>
+          <t>8.2</t>
         </is>
       </c>
       <c r="W112" t="inlineStr">
         <is>
-          <t>7.7</t>
+          <t>8.0</t>
         </is>
       </c>
       <c r="X112" t="inlineStr">
         <is>
-          <t>8.1</t>
+          <t>8.7</t>
         </is>
       </c>
       <c r="Y112" t="inlineStr">
         <is>
-          <t>5.4</t>
+          <t>14.0</t>
         </is>
       </c>
       <c r="Z112" t="inlineStr"/>
       <c r="AA112" t="inlineStr"/>
       <c r="AB112" t="inlineStr">
         <is>
-          <t>10.4</t>
+          <t>22.0</t>
         </is>
       </c>
       <c r="AC112" t="inlineStr"/>
       <c r="AD112" t="inlineStr"/>
       <c r="AE112" t="inlineStr">
         <is>
-          <t>05:00 - 05:30</t>
+          <t>07:30 - 08:00</t>
         </is>
       </c>
       <c r="AF112" t="inlineStr">
         <is>
-          <t>7.9</t>
+          <t>8.2</t>
         </is>
       </c>
       <c r="AG112" t="inlineStr">
         <is>
-          <t>8.1</t>
+          <t>8.7</t>
         </is>
       </c>
       <c r="AH112" t="inlineStr">
         <is>
-          <t>7.7</t>
+          <t>8.0</t>
         </is>
       </c>
       <c r="AI112" t="inlineStr">
         <is>
-          <t>88</t>
+          <t>87</t>
         </is>
       </c>
       <c r="AJ112" t="inlineStr">
@@ -25192,37 +25192,37 @@
       </c>
       <c r="AK112" t="inlineStr">
         <is>
-          <t>5.4</t>
+          <t>14.0</t>
         </is>
       </c>
       <c r="AL112" t="inlineStr">
         <is>
-          <t>359</t>
+          <t>194</t>
         </is>
       </c>
       <c r="AM112" t="inlineStr">
         <is>
-          <t>05:00 - 05:30</t>
+          <t>07:30 - 08:00</t>
         </is>
       </c>
       <c r="AN112" t="inlineStr">
         <is>
-          <t>7.9</t>
+          <t>8.2</t>
         </is>
       </c>
       <c r="AO112" t="inlineStr">
         <is>
-          <t>8.1</t>
+          <t>8.7</t>
         </is>
       </c>
       <c r="AP112" t="inlineStr">
         <is>
-          <t>7.7</t>
+          <t>8.0</t>
         </is>
       </c>
       <c r="AQ112" t="inlineStr">
         <is>
-          <t>88</t>
+          <t>87</t>
         </is>
       </c>
       <c r="AR112" t="inlineStr">
@@ -25232,42 +25232,42 @@
       </c>
       <c r="AS112" t="inlineStr">
         <is>
-          <t>5.4</t>
+          <t>14.0</t>
         </is>
       </c>
       <c r="AT112" t="inlineStr">
         <is>
-          <t>359</t>
+          <t>194</t>
         </is>
       </c>
       <c r="AU112" t="inlineStr">
         <is>
-          <t>10.4</t>
+          <t>22.0</t>
         </is>
       </c>
       <c r="AV112" t="inlineStr">
         <is>
-          <t>993.2</t>
+          <t>992.3</t>
         </is>
       </c>
       <c r="AW112" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>73</t>
         </is>
       </c>
       <c r="AX112" t="inlineStr">
         <is>
-          <t>10.4</t>
+          <t>22.0</t>
         </is>
       </c>
       <c r="AY112" t="inlineStr">
         <is>
-          <t>993.2</t>
+          <t>992.3</t>
         </is>
       </c>
       <c r="AZ112" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>73</t>
         </is>
       </c>
       <c r="BA112" t="inlineStr"/>
@@ -25310,7 +25310,7 @@
       </c>
       <c r="H113" t="inlineStr">
         <is>
-          <t>2026-02-05 08:38:45</t>
+          <t>2026-02-05 09:14:48</t>
         </is>
       </c>
       <c r="I113" t="inlineStr">
@@ -25543,7 +25543,7 @@
       </c>
       <c r="H114" t="inlineStr">
         <is>
-          <t>2026-02-05 08:38:45</t>
+          <t>2026-02-05 09:14:48</t>
         </is>
       </c>
       <c r="I114" t="inlineStr">
@@ -25776,7 +25776,7 @@
       </c>
       <c r="H115" t="inlineStr">
         <is>
-          <t>2026-02-05 08:38:45</t>
+          <t>2026-02-05 09:14:48</t>
         </is>
       </c>
       <c r="I115" t="inlineStr">
@@ -26009,7 +26009,7 @@
       </c>
       <c r="H116" t="inlineStr">
         <is>
-          <t>2026-02-05 08:38:45</t>
+          <t>2026-02-05 09:14:48</t>
         </is>
       </c>
       <c r="I116" t="inlineStr">
@@ -26227,7 +26227,7 @@
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>06:00 - 06:30</t>
+          <t>08:00 - 08:30</t>
         </is>
       </c>
       <c r="F117" t="inlineStr">
@@ -26242,17 +26242,17 @@
       </c>
       <c r="H117" t="inlineStr">
         <is>
-          <t>2026-02-05 08:38:48</t>
+          <t>2026-02-05 09:14:51</t>
         </is>
       </c>
       <c r="I117" t="inlineStr">
         <is>
-          <t>08:00</t>
+          <t>08:30</t>
         </is>
       </c>
       <c r="J117" t="inlineStr">
         <is>
-          <t>https://www.meteo.cat/observacions/xema/dades?codi=YA&amp;dia=2026-02-05T08:00Z</t>
+          <t>https://www.meteo.cat/observacions/xema/dades?codi=YA&amp;dia=2026-02-05T08:30Z</t>
         </is>
       </c>
       <c r="K117" t="n">
@@ -26265,7 +26265,7 @@
       </c>
       <c r="M117" t="inlineStr">
         <is>
-          <t>194</t>
+          <t>43</t>
         </is>
       </c>
       <c r="N117" t="inlineStr"/>
@@ -26273,12 +26273,12 @@
       <c r="P117" t="inlineStr"/>
       <c r="Q117" t="inlineStr">
         <is>
-          <t>91</t>
+          <t>89</t>
         </is>
       </c>
       <c r="R117" t="inlineStr">
         <is>
-          <t>997.7</t>
+          <t>996.1</t>
         </is>
       </c>
       <c r="S117" t="inlineStr">
@@ -26288,66 +26288,66 @@
       </c>
       <c r="T117" t="inlineStr">
         <is>
-          <t>06:00 - 06:30</t>
+          <t>08:00 - 08:30</t>
         </is>
       </c>
       <c r="U117" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>96</t>
         </is>
       </c>
       <c r="V117" t="inlineStr">
         <is>
-          <t>-0.8</t>
+          <t>0.1</t>
         </is>
       </c>
       <c r="W117" t="inlineStr">
         <is>
-          <t>-0.9</t>
+          <t>-0.1</t>
         </is>
       </c>
       <c r="X117" t="inlineStr">
         <is>
-          <t>-0.7</t>
+          <t>0.7</t>
         </is>
       </c>
       <c r="Y117" t="inlineStr">
         <is>
-          <t>2.2</t>
+          <t>1.8</t>
         </is>
       </c>
       <c r="Z117" t="inlineStr"/>
       <c r="AA117" t="inlineStr"/>
       <c r="AB117" t="inlineStr">
         <is>
-          <t>4.7</t>
+          <t>6.8</t>
         </is>
       </c>
       <c r="AC117" t="inlineStr"/>
       <c r="AD117" t="inlineStr"/>
       <c r="AE117" t="inlineStr">
         <is>
-          <t>06:00 - 06:30</t>
+          <t>08:00 - 08:30</t>
         </is>
       </c>
       <c r="AF117" t="inlineStr">
         <is>
-          <t>-0.8</t>
+          <t>0.1</t>
         </is>
       </c>
       <c r="AG117" t="inlineStr">
         <is>
-          <t>-0.7</t>
+          <t>0.7</t>
         </is>
       </c>
       <c r="AH117" t="inlineStr">
         <is>
-          <t>-0.9</t>
+          <t>-0.1</t>
         </is>
       </c>
       <c r="AI117" t="inlineStr">
         <is>
-          <t>91</t>
+          <t>89</t>
         </is>
       </c>
       <c r="AJ117" t="inlineStr">
@@ -26357,37 +26357,37 @@
       </c>
       <c r="AK117" t="inlineStr">
         <is>
-          <t>2.2</t>
+          <t>1.8</t>
         </is>
       </c>
       <c r="AL117" t="inlineStr">
         <is>
-          <t>194</t>
+          <t>43</t>
         </is>
       </c>
       <c r="AM117" t="inlineStr">
         <is>
-          <t>06:00 - 06:30</t>
+          <t>08:00 - 08:30</t>
         </is>
       </c>
       <c r="AN117" t="inlineStr">
         <is>
-          <t>-0.8</t>
+          <t>0.1</t>
         </is>
       </c>
       <c r="AO117" t="inlineStr">
         <is>
-          <t>-0.7</t>
+          <t>0.7</t>
         </is>
       </c>
       <c r="AP117" t="inlineStr">
         <is>
-          <t>-0.9</t>
+          <t>-0.1</t>
         </is>
       </c>
       <c r="AQ117" t="inlineStr">
         <is>
-          <t>91</t>
+          <t>89</t>
         </is>
       </c>
       <c r="AR117" t="inlineStr">
@@ -26397,42 +26397,42 @@
       </c>
       <c r="AS117" t="inlineStr">
         <is>
-          <t>2.2</t>
+          <t>1.8</t>
         </is>
       </c>
       <c r="AT117" t="inlineStr">
         <is>
-          <t>194</t>
+          <t>43</t>
         </is>
       </c>
       <c r="AU117" t="inlineStr">
         <is>
-          <t>4.7</t>
+          <t>6.8</t>
         </is>
       </c>
       <c r="AV117" t="inlineStr">
         <is>
-          <t>997.7</t>
+          <t>996.1</t>
         </is>
       </c>
       <c r="AW117" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>96</t>
         </is>
       </c>
       <c r="AX117" t="inlineStr">
         <is>
-          <t>4.7</t>
+          <t>6.8</t>
         </is>
       </c>
       <c r="AY117" t="inlineStr">
         <is>
-          <t>997.7</t>
+          <t>996.1</t>
         </is>
       </c>
       <c r="AZ117" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>96</t>
         </is>
       </c>
       <c r="BA117" t="inlineStr"/>
@@ -26475,7 +26475,7 @@
       </c>
       <c r="H118" t="inlineStr">
         <is>
-          <t>2026-02-05 08:38:49</t>
+          <t>2026-02-05 09:14:52</t>
         </is>
       </c>
       <c r="I118" t="inlineStr">
@@ -26708,7 +26708,7 @@
       </c>
       <c r="H119" t="inlineStr">
         <is>
-          <t>2026-02-05 08:38:49</t>
+          <t>2026-02-05 09:14:52</t>
         </is>
       </c>
       <c r="I119" t="inlineStr">
@@ -26941,7 +26941,7 @@
       </c>
       <c r="H120" t="inlineStr">
         <is>
-          <t>2026-02-05 08:38:49</t>
+          <t>2026-02-05 09:14:52</t>
         </is>
       </c>
       <c r="I120" t="inlineStr">
@@ -27174,7 +27174,7 @@
       </c>
       <c r="H121" t="inlineStr">
         <is>
-          <t>2026-02-05 08:38:49</t>
+          <t>2026-02-05 09:14:52</t>
         </is>
       </c>
       <c r="I121" t="inlineStr">
@@ -27392,7 +27392,7 @@
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>05:30 - 06:00</t>
+          <t>07:30 - 08:00</t>
         </is>
       </c>
       <c r="F122" t="inlineStr">
@@ -27407,17 +27407,17 @@
       </c>
       <c r="H122" t="inlineStr">
         <is>
-          <t>2026-02-05 08:38:52</t>
+          <t>2026-02-05 09:14:55</t>
         </is>
       </c>
       <c r="I122" t="inlineStr">
         <is>
-          <t>08:00</t>
+          <t>08:30</t>
         </is>
       </c>
       <c r="J122" t="inlineStr">
         <is>
-          <t>https://www.meteo.cat/observacions/xema/dades?codi=DG&amp;dia=2026-02-05T08:00Z</t>
+          <t>https://www.meteo.cat/observacions/xema/dades?codi=DG&amp;dia=2026-02-05T08:30Z</t>
         </is>
       </c>
       <c r="K122" t="n">
@@ -27430,7 +27430,7 @@
       </c>
       <c r="M122" t="inlineStr">
         <is>
-          <t>65</t>
+          <t>91</t>
         </is>
       </c>
       <c r="N122" t="inlineStr"/>
@@ -27442,12 +27442,12 @@
       </c>
       <c r="Q122" t="inlineStr">
         <is>
-          <t>71</t>
+          <t>68</t>
         </is>
       </c>
       <c r="R122" t="inlineStr">
         <is>
-          <t>829.3</t>
+          <t>828.5</t>
         </is>
       </c>
       <c r="S122" t="inlineStr">
@@ -27457,66 +27457,66 @@
       </c>
       <c r="T122" t="inlineStr">
         <is>
-          <t>05:30 - 06:00</t>
+          <t>07:30 - 08:00</t>
         </is>
       </c>
       <c r="U122" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>52</t>
         </is>
       </c>
       <c r="V122" t="inlineStr">
         <is>
-          <t>-4.1</t>
+          <t>-2.5</t>
         </is>
       </c>
       <c r="W122" t="inlineStr">
         <is>
-          <t>-4.9</t>
+          <t>-3.0</t>
         </is>
       </c>
       <c r="X122" t="inlineStr">
         <is>
-          <t>-3.2</t>
+          <t>-2.0</t>
         </is>
       </c>
       <c r="Y122" t="inlineStr">
         <is>
-          <t>1.8</t>
+          <t>3.2</t>
         </is>
       </c>
       <c r="Z122" t="inlineStr"/>
       <c r="AA122" t="inlineStr"/>
       <c r="AB122" t="inlineStr">
         <is>
-          <t>7.9</t>
+          <t>11.5</t>
         </is>
       </c>
       <c r="AC122" t="inlineStr"/>
       <c r="AD122" t="inlineStr"/>
       <c r="AE122" t="inlineStr">
         <is>
-          <t>05:30 - 06:00</t>
+          <t>07:30 - 08:00</t>
         </is>
       </c>
       <c r="AF122" t="inlineStr">
         <is>
-          <t>-4.1</t>
+          <t>-2.5</t>
         </is>
       </c>
       <c r="AG122" t="inlineStr">
         <is>
-          <t>-3.2</t>
+          <t>-2.0</t>
         </is>
       </c>
       <c r="AH122" t="inlineStr">
         <is>
-          <t>-4.9</t>
+          <t>-3.0</t>
         </is>
       </c>
       <c r="AI122" t="inlineStr">
         <is>
-          <t>71</t>
+          <t>68</t>
         </is>
       </c>
       <c r="AJ122" t="inlineStr">
@@ -27531,32 +27531,32 @@
       </c>
       <c r="AL122" t="inlineStr">
         <is>
-          <t>1.8</t>
+          <t>3.2</t>
         </is>
       </c>
       <c r="AM122" t="inlineStr">
         <is>
-          <t>05:30 - 06:00</t>
+          <t>07:30 - 08:00</t>
         </is>
       </c>
       <c r="AN122" t="inlineStr">
         <is>
-          <t>-4.1</t>
+          <t>-2.5</t>
         </is>
       </c>
       <c r="AO122" t="inlineStr">
         <is>
-          <t>-3.2</t>
+          <t>-2.0</t>
         </is>
       </c>
       <c r="AP122" t="inlineStr">
         <is>
-          <t>-4.9</t>
+          <t>-3.0</t>
         </is>
       </c>
       <c r="AQ122" t="inlineStr">
         <is>
-          <t>71</t>
+          <t>68</t>
         </is>
       </c>
       <c r="AR122" t="inlineStr">
@@ -27571,42 +27571,42 @@
       </c>
       <c r="AT122" t="inlineStr">
         <is>
-          <t>1.8</t>
+          <t>3.2</t>
         </is>
       </c>
       <c r="AU122" t="inlineStr">
         <is>
-          <t>65</t>
+          <t>91</t>
         </is>
       </c>
       <c r="AV122" t="inlineStr">
         <is>
-          <t>7.9</t>
+          <t>11.5</t>
         </is>
       </c>
       <c r="AW122" t="inlineStr">
         <is>
-          <t>829.3</t>
+          <t>828.5</t>
         </is>
       </c>
       <c r="AX122" t="inlineStr">
         <is>
-          <t>65</t>
+          <t>91</t>
         </is>
       </c>
       <c r="AY122" t="inlineStr">
         <is>
-          <t>7.9</t>
+          <t>11.5</t>
         </is>
       </c>
       <c r="AZ122" t="inlineStr">
         <is>
-          <t>829.3</t>
+          <t>828.5</t>
         </is>
       </c>
       <c r="BA122" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>52</t>
         </is>
       </c>
     </row>
@@ -27648,7 +27648,7 @@
       </c>
       <c r="H123" t="inlineStr">
         <is>
-          <t>2026-02-05 08:38:54</t>
+          <t>2026-02-05 09:14:57</t>
         </is>
       </c>
       <c r="I123" t="inlineStr">
@@ -27889,7 +27889,7 @@
       </c>
       <c r="H124" t="inlineStr">
         <is>
-          <t>2026-02-05 08:38:54</t>
+          <t>2026-02-05 09:14:57</t>
         </is>
       </c>
       <c r="I124" t="inlineStr">
@@ -28130,7 +28130,7 @@
       </c>
       <c r="H125" t="inlineStr">
         <is>
-          <t>2026-02-05 08:38:54</t>
+          <t>2026-02-05 09:14:57</t>
         </is>
       </c>
       <c r="I125" t="inlineStr">
@@ -28371,7 +28371,7 @@
       </c>
       <c r="H126" t="inlineStr">
         <is>
-          <t>2026-02-05 08:38:54</t>
+          <t>2026-02-05 09:14:57</t>
         </is>
       </c>
       <c r="I126" t="inlineStr">
@@ -28597,7 +28597,7 @@
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>05:00 - 05:30</t>
+          <t>07:30 - 08:00</t>
         </is>
       </c>
       <c r="F127" t="inlineStr">
@@ -28612,17 +28612,17 @@
       </c>
       <c r="H127" t="inlineStr">
         <is>
-          <t>2026-02-05 08:38:56</t>
+          <t>2026-02-05 09:14:59</t>
         </is>
       </c>
       <c r="I127" t="inlineStr">
         <is>
-          <t>08:00</t>
+          <t>08:30</t>
         </is>
       </c>
       <c r="J127" t="inlineStr">
         <is>
-          <t>https://www.meteo.cat/observacions/xema/dades?codi=D4&amp;dia=2026-02-05T08:00Z</t>
+          <t>https://www.meteo.cat/observacions/xema/dades?codi=D4&amp;dia=2026-02-05T08:30Z</t>
         </is>
       </c>
       <c r="K127" t="n">
@@ -28635,7 +28635,7 @@
       </c>
       <c r="M127" t="inlineStr">
         <is>
-          <t>57</t>
+          <t>297</t>
         </is>
       </c>
       <c r="N127" t="inlineStr"/>
@@ -28648,71 +28648,71 @@
       </c>
       <c r="R127" t="inlineStr">
         <is>
-          <t>993.8</t>
+          <t>993.3</t>
         </is>
       </c>
       <c r="S127" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>0.1</t>
         </is>
       </c>
       <c r="T127" t="inlineStr">
         <is>
-          <t>05:00 - 05:30</t>
+          <t>07:30 - 08:00</t>
         </is>
       </c>
       <c r="U127" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>56</t>
         </is>
       </c>
       <c r="V127" t="inlineStr">
         <is>
-          <t>3.7</t>
+          <t>4.3</t>
         </is>
       </c>
       <c r="W127" t="inlineStr">
         <is>
-          <t>3.5</t>
+          <t>4.1</t>
         </is>
       </c>
       <c r="X127" t="inlineStr">
         <is>
-          <t>4.0</t>
+          <t>4.5</t>
         </is>
       </c>
       <c r="Y127" t="inlineStr">
         <is>
-          <t>2.2</t>
+          <t>3.2</t>
         </is>
       </c>
       <c r="Z127" t="inlineStr"/>
       <c r="AA127" t="inlineStr"/>
       <c r="AB127" t="inlineStr">
         <is>
-          <t>5.0</t>
+          <t>6.5</t>
         </is>
       </c>
       <c r="AC127" t="inlineStr"/>
       <c r="AD127" t="inlineStr"/>
       <c r="AE127" t="inlineStr">
         <is>
-          <t>05:00 - 05:30</t>
+          <t>07:30 - 08:00</t>
         </is>
       </c>
       <c r="AF127" t="inlineStr">
         <is>
-          <t>3.7</t>
+          <t>4.3</t>
         </is>
       </c>
       <c r="AG127" t="inlineStr">
         <is>
-          <t>4.0</t>
+          <t>4.5</t>
         </is>
       </c>
       <c r="AH127" t="inlineStr">
         <is>
-          <t>3.5</t>
+          <t>4.1</t>
         </is>
       </c>
       <c r="AI127" t="inlineStr">
@@ -28722,37 +28722,37 @@
       </c>
       <c r="AJ127" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>0.1</t>
         </is>
       </c>
       <c r="AK127" t="inlineStr">
         <is>
-          <t>2.2</t>
+          <t>3.2</t>
         </is>
       </c>
       <c r="AL127" t="inlineStr">
         <is>
-          <t>57</t>
+          <t>297</t>
         </is>
       </c>
       <c r="AM127" t="inlineStr">
         <is>
-          <t>05:00 - 05:30</t>
+          <t>07:30 - 08:00</t>
         </is>
       </c>
       <c r="AN127" t="inlineStr">
         <is>
-          <t>3.7</t>
+          <t>4.3</t>
         </is>
       </c>
       <c r="AO127" t="inlineStr">
         <is>
-          <t>4.0</t>
+          <t>4.5</t>
         </is>
       </c>
       <c r="AP127" t="inlineStr">
         <is>
-          <t>3.5</t>
+          <t>4.1</t>
         </is>
       </c>
       <c r="AQ127" t="inlineStr">
@@ -28762,47 +28762,47 @@
       </c>
       <c r="AR127" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>0.1</t>
         </is>
       </c>
       <c r="AS127" t="inlineStr">
         <is>
-          <t>2.2</t>
+          <t>3.2</t>
         </is>
       </c>
       <c r="AT127" t="inlineStr">
         <is>
-          <t>57</t>
+          <t>297</t>
         </is>
       </c>
       <c r="AU127" t="inlineStr">
         <is>
-          <t>5.0</t>
+          <t>6.5</t>
         </is>
       </c>
       <c r="AV127" t="inlineStr">
         <is>
-          <t>993.8</t>
+          <t>993.3</t>
         </is>
       </c>
       <c r="AW127" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>56</t>
         </is>
       </c>
       <c r="AX127" t="inlineStr">
         <is>
-          <t>5.0</t>
+          <t>6.5</t>
         </is>
       </c>
       <c r="AY127" t="inlineStr">
         <is>
-          <t>993.8</t>
+          <t>993.3</t>
         </is>
       </c>
       <c r="AZ127" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>56</t>
         </is>
       </c>
       <c r="BA127" t="inlineStr"/>
@@ -28845,7 +28845,7 @@
       </c>
       <c r="H128" t="inlineStr">
         <is>
-          <t>2026-02-05 08:38:58</t>
+          <t>2026-02-05 09:15:01</t>
         </is>
       </c>
       <c r="I128" t="inlineStr">
@@ -29078,7 +29078,7 @@
       </c>
       <c r="H129" t="inlineStr">
         <is>
-          <t>2026-02-05 08:38:58</t>
+          <t>2026-02-05 09:15:01</t>
         </is>
       </c>
       <c r="I129" t="inlineStr">
@@ -29311,7 +29311,7 @@
       </c>
       <c r="H130" t="inlineStr">
         <is>
-          <t>2026-02-05 08:38:58</t>
+          <t>2026-02-05 09:15:01</t>
         </is>
       </c>
       <c r="I130" t="inlineStr">
@@ -29544,7 +29544,7 @@
       </c>
       <c r="H131" t="inlineStr">
         <is>
-          <t>2026-02-05 08:38:58</t>
+          <t>2026-02-05 09:15:01</t>
         </is>
       </c>
       <c r="I131" t="inlineStr">
@@ -29762,7 +29762,7 @@
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>05:30 - 06:00</t>
+          <t>08:00 - 08:30</t>
         </is>
       </c>
       <c r="F132" t="inlineStr">
@@ -29777,17 +29777,17 @@
       </c>
       <c r="H132" t="inlineStr">
         <is>
-          <t>2026-02-05 08:39:01</t>
+          <t>2026-02-05 09:15:03</t>
         </is>
       </c>
       <c r="I132" t="inlineStr">
         <is>
-          <t>08:00</t>
+          <t>08:30</t>
         </is>
       </c>
       <c r="J132" t="inlineStr">
         <is>
-          <t>https://www.meteo.cat/observacions/xema/dades?codi=CI&amp;dia=2026-02-05T08:00Z</t>
+          <t>https://www.meteo.cat/observacions/xema/dades?codi=CI&amp;dia=2026-02-05T08:30Z</t>
         </is>
       </c>
       <c r="K132" t="n">
@@ -29800,7 +29800,7 @@
       </c>
       <c r="M132" t="inlineStr">
         <is>
-          <t>208</t>
+          <t>242</t>
         </is>
       </c>
       <c r="N132" t="inlineStr"/>
@@ -29813,7 +29813,7 @@
       </c>
       <c r="R132" t="inlineStr">
         <is>
-          <t>997.8</t>
+          <t>995.7</t>
         </is>
       </c>
       <c r="S132" t="inlineStr">
@@ -29823,57 +29823,57 @@
       </c>
       <c r="T132" t="inlineStr">
         <is>
-          <t>05:30 - 06:00</t>
+          <t>08:00 - 08:30</t>
         </is>
       </c>
       <c r="U132" t="inlineStr"/>
       <c r="V132" t="inlineStr">
         <is>
-          <t>-1.2</t>
+          <t>0.2</t>
         </is>
       </c>
       <c r="W132" t="inlineStr">
         <is>
-          <t>-1.5</t>
+          <t>-0.2</t>
         </is>
       </c>
       <c r="X132" t="inlineStr">
         <is>
-          <t>-0.8</t>
+          <t>0.6</t>
         </is>
       </c>
       <c r="Y132" t="inlineStr">
         <is>
-          <t>6.8</t>
+          <t>9.7</t>
         </is>
       </c>
       <c r="Z132" t="inlineStr"/>
       <c r="AA132" t="inlineStr"/>
       <c r="AB132" t="inlineStr">
         <is>
-          <t>16.9</t>
+          <t>20.9</t>
         </is>
       </c>
       <c r="AC132" t="inlineStr"/>
       <c r="AD132" t="inlineStr"/>
       <c r="AE132" t="inlineStr">
         <is>
-          <t>05:30 - 06:00</t>
+          <t>08:00 - 08:30</t>
         </is>
       </c>
       <c r="AF132" t="inlineStr">
         <is>
-          <t>-1.2</t>
+          <t>0.2</t>
         </is>
       </c>
       <c r="AG132" t="inlineStr">
         <is>
-          <t>-0.8</t>
+          <t>0.6</t>
         </is>
       </c>
       <c r="AH132" t="inlineStr">
         <is>
-          <t>-1.5</t>
+          <t>-0.2</t>
         </is>
       </c>
       <c r="AI132" t="inlineStr">
@@ -29888,32 +29888,32 @@
       </c>
       <c r="AK132" t="inlineStr">
         <is>
-          <t>6.8</t>
+          <t>9.7</t>
         </is>
       </c>
       <c r="AL132" t="inlineStr">
         <is>
-          <t>208</t>
+          <t>242</t>
         </is>
       </c>
       <c r="AM132" t="inlineStr">
         <is>
-          <t>05:30 - 06:00</t>
+          <t>08:00 - 08:30</t>
         </is>
       </c>
       <c r="AN132" t="inlineStr">
         <is>
-          <t>-1.2</t>
+          <t>0.2</t>
         </is>
       </c>
       <c r="AO132" t="inlineStr">
         <is>
-          <t>-0.8</t>
+          <t>0.6</t>
         </is>
       </c>
       <c r="AP132" t="inlineStr">
         <is>
-          <t>-1.5</t>
+          <t>-0.2</t>
         </is>
       </c>
       <c r="AQ132" t="inlineStr">
@@ -29928,33 +29928,33 @@
       </c>
       <c r="AS132" t="inlineStr">
         <is>
-          <t>6.8</t>
+          <t>9.7</t>
         </is>
       </c>
       <c r="AT132" t="inlineStr">
         <is>
-          <t>208</t>
+          <t>242</t>
         </is>
       </c>
       <c r="AU132" t="inlineStr">
         <is>
-          <t>16.9</t>
+          <t>20.9</t>
         </is>
       </c>
       <c r="AV132" t="inlineStr">
         <is>
-          <t>997.8</t>
+          <t>995.7</t>
         </is>
       </c>
       <c r="AW132" t="inlineStr"/>
       <c r="AX132" t="inlineStr">
         <is>
-          <t>16.9</t>
+          <t>20.9</t>
         </is>
       </c>
       <c r="AY132" t="inlineStr">
         <is>
-          <t>997.8</t>
+          <t>995.7</t>
         </is>
       </c>
       <c r="AZ132" t="inlineStr"/>
@@ -29998,7 +29998,7 @@
       </c>
       <c r="H133" t="inlineStr">
         <is>
-          <t>2026-02-05 08:39:03</t>
+          <t>2026-02-05 09:15:04</t>
         </is>
       </c>
       <c r="I133" t="inlineStr">
@@ -30219,7 +30219,7 @@
       </c>
       <c r="H134" t="inlineStr">
         <is>
-          <t>2026-02-05 08:39:03</t>
+          <t>2026-02-05 09:15:04</t>
         </is>
       </c>
       <c r="I134" t="inlineStr">
@@ -30440,7 +30440,7 @@
       </c>
       <c r="H135" t="inlineStr">
         <is>
-          <t>2026-02-05 08:39:03</t>
+          <t>2026-02-05 09:15:04</t>
         </is>
       </c>
       <c r="I135" t="inlineStr">
@@ -30661,7 +30661,7 @@
       </c>
       <c r="H136" t="inlineStr">
         <is>
-          <t>2026-02-05 08:39:03</t>
+          <t>2026-02-05 09:15:04</t>
         </is>
       </c>
       <c r="I136" t="inlineStr">
@@ -30882,17 +30882,17 @@
       </c>
       <c r="H137" t="inlineStr">
         <is>
-          <t>2026-02-05 08:39:05</t>
+          <t>2026-02-05 09:15:07</t>
         </is>
       </c>
       <c r="I137" t="inlineStr">
         <is>
-          <t>08:00</t>
+          <t>08:30</t>
         </is>
       </c>
       <c r="J137" t="inlineStr">
         <is>
-          <t>https://www.meteo.cat/observacions/xema/dades?codi=XS&amp;dia=2026-02-05T08:00Z</t>
+          <t>https://www.meteo.cat/observacions/xema/dades?codi=XS&amp;dia=2026-02-05T08:30Z</t>
         </is>
       </c>
       <c r="K137" t="n">
@@ -31103,7 +31103,7 @@
       </c>
       <c r="H138" t="inlineStr">
         <is>
-          <t>2026-02-05 08:39:07</t>
+          <t>2026-02-05 09:15:09</t>
         </is>
       </c>
       <c r="I138" t="inlineStr">
@@ -31324,7 +31324,7 @@
       </c>
       <c r="H139" t="inlineStr">
         <is>
-          <t>2026-02-05 08:39:07</t>
+          <t>2026-02-05 09:15:09</t>
         </is>
       </c>
       <c r="I139" t="inlineStr">
@@ -31545,7 +31545,7 @@
       </c>
       <c r="H140" t="inlineStr">
         <is>
-          <t>2026-02-05 08:39:07</t>
+          <t>2026-02-05 09:15:09</t>
         </is>
       </c>
       <c r="I140" t="inlineStr">
@@ -31766,7 +31766,7 @@
       </c>
       <c r="H141" t="inlineStr">
         <is>
-          <t>2026-02-05 08:39:07</t>
+          <t>2026-02-05 09:15:09</t>
         </is>
       </c>
       <c r="I141" t="inlineStr">
@@ -31987,17 +31987,17 @@
       </c>
       <c r="H142" t="inlineStr">
         <is>
-          <t>2026-02-05 08:39:10</t>
+          <t>2026-02-05 09:15:11</t>
         </is>
       </c>
       <c r="I142" t="inlineStr">
         <is>
-          <t>08:00</t>
+          <t>08:30</t>
         </is>
       </c>
       <c r="J142" t="inlineStr">
         <is>
-          <t>https://www.meteo.cat/observacions/xema/dades?codi=ZC&amp;dia=2026-02-05T08:00Z</t>
+          <t>https://www.meteo.cat/observacions/xema/dades?codi=ZC&amp;dia=2026-02-05T08:30Z</t>
         </is>
       </c>
       <c r="K142" t="n">
@@ -32220,7 +32220,7 @@
       </c>
       <c r="H143" t="inlineStr">
         <is>
-          <t>2026-02-05 08:39:12</t>
+          <t>2026-02-05 09:15:13</t>
         </is>
       </c>
       <c r="I143" t="inlineStr">
@@ -32453,7 +32453,7 @@
       </c>
       <c r="H144" t="inlineStr">
         <is>
-          <t>2026-02-05 08:39:12</t>
+          <t>2026-02-05 09:15:13</t>
         </is>
       </c>
       <c r="I144" t="inlineStr">
@@ -32686,7 +32686,7 @@
       </c>
       <c r="H145" t="inlineStr">
         <is>
-          <t>2026-02-05 08:39:12</t>
+          <t>2026-02-05 09:15:13</t>
         </is>
       </c>
       <c r="I145" t="inlineStr">
@@ -32919,7 +32919,7 @@
       </c>
       <c r="H146" t="inlineStr">
         <is>
-          <t>2026-02-05 08:39:12</t>
+          <t>2026-02-05 09:15:13</t>
         </is>
       </c>
       <c r="I146" t="inlineStr">
@@ -33152,17 +33152,17 @@
       </c>
       <c r="H147" t="inlineStr">
         <is>
-          <t>2026-02-05 08:39:14</t>
+          <t>2026-02-05 09:15:15</t>
         </is>
       </c>
       <c r="I147" t="inlineStr">
         <is>
-          <t>08:00</t>
+          <t>08:30</t>
         </is>
       </c>
       <c r="J147" t="inlineStr">
         <is>
-          <t>https://www.meteo.cat/observacions/xema/dades?codi=XH&amp;dia=2026-02-05T08:00Z</t>
+          <t>https://www.meteo.cat/observacions/xema/dades?codi=XH&amp;dia=2026-02-05T08:30Z</t>
         </is>
       </c>
       <c r="K147" t="n">
@@ -33349,7 +33349,7 @@
       </c>
       <c r="H148" t="inlineStr">
         <is>
-          <t>2026-02-05 08:39:15</t>
+          <t>2026-02-05 09:15:16</t>
         </is>
       </c>
       <c r="I148" t="inlineStr">
@@ -33546,7 +33546,7 @@
       </c>
       <c r="H149" t="inlineStr">
         <is>
-          <t>2026-02-05 08:39:15</t>
+          <t>2026-02-05 09:15:16</t>
         </is>
       </c>
       <c r="I149" t="inlineStr">
@@ -33743,7 +33743,7 @@
       </c>
       <c r="H150" t="inlineStr">
         <is>
-          <t>2026-02-05 08:39:15</t>
+          <t>2026-02-05 09:15:16</t>
         </is>
       </c>
       <c r="I150" t="inlineStr">
@@ -33940,7 +33940,7 @@
       </c>
       <c r="H151" t="inlineStr">
         <is>
-          <t>2026-02-05 08:39:15</t>
+          <t>2026-02-05 09:15:16</t>
         </is>
       </c>
       <c r="I151" t="inlineStr">
@@ -34137,17 +34137,17 @@
       </c>
       <c r="H152" t="inlineStr">
         <is>
-          <t>2026-02-05 08:39:18</t>
+          <t>2026-02-05 09:15:19</t>
         </is>
       </c>
       <c r="I152" t="inlineStr">
         <is>
-          <t>08:00</t>
+          <t>08:30</t>
         </is>
       </c>
       <c r="J152" t="inlineStr">
         <is>
-          <t>https://www.meteo.cat/observacions/xema/dades?codi=XE&amp;dia=2026-02-05T08:00Z</t>
+          <t>https://www.meteo.cat/observacions/xema/dades?codi=XE&amp;dia=2026-02-05T08:30Z</t>
         </is>
       </c>
       <c r="K152" t="n">
@@ -34370,7 +34370,7 @@
       </c>
       <c r="H153" t="inlineStr">
         <is>
-          <t>2026-02-05 08:39:20</t>
+          <t>2026-02-05 09:15:20</t>
         </is>
       </c>
       <c r="I153" t="inlineStr">
@@ -34603,7 +34603,7 @@
       </c>
       <c r="H154" t="inlineStr">
         <is>
-          <t>2026-02-05 08:39:20</t>
+          <t>2026-02-05 09:15:20</t>
         </is>
       </c>
       <c r="I154" t="inlineStr">
@@ -34836,7 +34836,7 @@
       </c>
       <c r="H155" t="inlineStr">
         <is>
-          <t>2026-02-05 08:39:20</t>
+          <t>2026-02-05 09:15:20</t>
         </is>
       </c>
       <c r="I155" t="inlineStr">
@@ -35069,7 +35069,7 @@
       </c>
       <c r="H156" t="inlineStr">
         <is>
-          <t>2026-02-05 08:39:20</t>
+          <t>2026-02-05 09:15:20</t>
         </is>
       </c>
       <c r="I156" t="inlineStr">
@@ -35302,17 +35302,17 @@
       </c>
       <c r="H157" t="inlineStr">
         <is>
-          <t>2026-02-05 08:39:22</t>
+          <t>2026-02-05 09:15:23</t>
         </is>
       </c>
       <c r="I157" t="inlineStr">
         <is>
-          <t>08:00</t>
+          <t>08:30</t>
         </is>
       </c>
       <c r="J157" t="inlineStr">
         <is>
-          <t>https://www.meteo.cat/observacions/xema/dades?codi=UE&amp;dia=2026-02-05T08:00Z</t>
+          <t>https://www.meteo.cat/observacions/xema/dades?codi=UE&amp;dia=2026-02-05T08:30Z</t>
         </is>
       </c>
       <c r="K157" t="n">
@@ -35475,7 +35475,7 @@
       </c>
       <c r="H158" t="inlineStr">
         <is>
-          <t>2026-02-05 08:39:24</t>
+          <t>2026-02-05 09:15:24</t>
         </is>
       </c>
       <c r="I158" t="inlineStr">
@@ -35648,7 +35648,7 @@
       </c>
       <c r="H159" t="inlineStr">
         <is>
-          <t>2026-02-05 08:39:24</t>
+          <t>2026-02-05 09:15:24</t>
         </is>
       </c>
       <c r="I159" t="inlineStr">
@@ -35821,7 +35821,7 @@
       </c>
       <c r="H160" t="inlineStr">
         <is>
-          <t>2026-02-05 08:39:24</t>
+          <t>2026-02-05 09:15:24</t>
         </is>
       </c>
       <c r="I160" t="inlineStr">
@@ -35994,7 +35994,7 @@
       </c>
       <c r="H161" t="inlineStr">
         <is>
-          <t>2026-02-05 08:39:24</t>
+          <t>2026-02-05 09:15:24</t>
         </is>
       </c>
       <c r="I161" t="inlineStr">
@@ -36152,7 +36152,7 @@
       </c>
       <c r="E162" t="inlineStr">
         <is>
-          <t>06:00 - 06:30</t>
+          <t>08:00 - 08:30</t>
         </is>
       </c>
       <c r="F162" t="inlineStr">
@@ -36167,17 +36167,17 @@
       </c>
       <c r="H162" t="inlineStr">
         <is>
-          <t>2026-02-05 08:39:27</t>
+          <t>2026-02-05 09:15:27</t>
         </is>
       </c>
       <c r="I162" t="inlineStr">
         <is>
-          <t>08:00</t>
+          <t>08:30</t>
         </is>
       </c>
       <c r="J162" t="inlineStr">
         <is>
-          <t>https://www.meteo.cat/observacions/xema/dades?codi=XO&amp;dia=2026-02-05T08:00Z</t>
+          <t>https://www.meteo.cat/observacions/xema/dades?codi=XO&amp;dia=2026-02-05T08:30Z</t>
         </is>
       </c>
       <c r="K162" t="n">
@@ -36190,7 +36190,7 @@
       </c>
       <c r="M162" t="inlineStr">
         <is>
-          <t>62</t>
+          <t>207</t>
         </is>
       </c>
       <c r="N162" t="inlineStr"/>
@@ -36209,61 +36209,61 @@
       </c>
       <c r="T162" t="inlineStr">
         <is>
-          <t>06:00 - 06:30</t>
+          <t>08:00 - 08:30</t>
         </is>
       </c>
       <c r="U162" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>60</t>
         </is>
       </c>
       <c r="V162" t="inlineStr">
         <is>
-          <t>0.4</t>
+          <t>1.3</t>
         </is>
       </c>
       <c r="W162" t="inlineStr">
         <is>
-          <t>0.1</t>
+          <t>1.1</t>
         </is>
       </c>
       <c r="X162" t="inlineStr">
         <is>
-          <t>0.6</t>
+          <t>1.4</t>
         </is>
       </c>
       <c r="Y162" t="inlineStr">
         <is>
-          <t>0.7</t>
+          <t>2.2</t>
         </is>
       </c>
       <c r="Z162" t="inlineStr"/>
       <c r="AA162" t="inlineStr"/>
       <c r="AB162" t="inlineStr">
         <is>
-          <t>3.6</t>
+          <t>6.5</t>
         </is>
       </c>
       <c r="AC162" t="inlineStr"/>
       <c r="AD162" t="inlineStr"/>
       <c r="AE162" t="inlineStr">
         <is>
-          <t>06:00 - 06:30</t>
+          <t>08:00 - 08:30</t>
         </is>
       </c>
       <c r="AF162" t="inlineStr">
         <is>
-          <t>0.4</t>
+          <t>1.3</t>
         </is>
       </c>
       <c r="AG162" t="inlineStr">
         <is>
-          <t>0.6</t>
+          <t>1.4</t>
         </is>
       </c>
       <c r="AH162" t="inlineStr">
         <is>
-          <t>0.1</t>
+          <t>1.1</t>
         </is>
       </c>
       <c r="AI162" t="inlineStr">
@@ -36278,32 +36278,32 @@
       </c>
       <c r="AK162" t="inlineStr">
         <is>
-          <t>0.7</t>
+          <t>2.2</t>
         </is>
       </c>
       <c r="AL162" t="inlineStr">
         <is>
-          <t>62</t>
+          <t>207</t>
         </is>
       </c>
       <c r="AM162" t="inlineStr">
         <is>
-          <t>06:00 - 06:30</t>
+          <t>08:00 - 08:30</t>
         </is>
       </c>
       <c r="AN162" t="inlineStr">
         <is>
-          <t>0.4</t>
+          <t>1.3</t>
         </is>
       </c>
       <c r="AO162" t="inlineStr">
         <is>
-          <t>0.6</t>
+          <t>1.4</t>
         </is>
       </c>
       <c r="AP162" t="inlineStr">
         <is>
-          <t>0.1</t>
+          <t>1.1</t>
         </is>
       </c>
       <c r="AQ162" t="inlineStr">
@@ -36318,33 +36318,33 @@
       </c>
       <c r="AS162" t="inlineStr">
         <is>
-          <t>0.7</t>
+          <t>2.2</t>
         </is>
       </c>
       <c r="AT162" t="inlineStr">
         <is>
-          <t>62</t>
+          <t>207</t>
         </is>
       </c>
       <c r="AU162" t="inlineStr">
         <is>
-          <t>3.6</t>
+          <t>6.5</t>
         </is>
       </c>
       <c r="AV162" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>60</t>
         </is>
       </c>
       <c r="AW162" t="inlineStr"/>
       <c r="AX162" t="inlineStr">
         <is>
-          <t>3.6</t>
+          <t>6.5</t>
         </is>
       </c>
       <c r="AY162" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>60</t>
         </is>
       </c>
       <c r="AZ162" t="inlineStr"/>
@@ -36388,7 +36388,7 @@
       </c>
       <c r="H163" t="inlineStr">
         <is>
-          <t>2026-02-05 08:39:28</t>
+          <t>2026-02-05 09:15:28</t>
         </is>
       </c>
       <c r="I163" t="inlineStr">
@@ -36609,7 +36609,7 @@
       </c>
       <c r="H164" t="inlineStr">
         <is>
-          <t>2026-02-05 08:39:28</t>
+          <t>2026-02-05 09:15:28</t>
         </is>
       </c>
       <c r="I164" t="inlineStr">
@@ -36830,7 +36830,7 @@
       </c>
       <c r="H165" t="inlineStr">
         <is>
-          <t>2026-02-05 08:39:28</t>
+          <t>2026-02-05 09:15:28</t>
         </is>
       </c>
       <c r="I165" t="inlineStr">
@@ -37051,7 +37051,7 @@
       </c>
       <c r="H166" t="inlineStr">
         <is>
-          <t>2026-02-05 08:39:28</t>
+          <t>2026-02-05 09:15:28</t>
         </is>
       </c>
       <c r="I166" t="inlineStr">
@@ -37257,7 +37257,7 @@
       </c>
       <c r="E167" t="inlineStr">
         <is>
-          <t>06:30 - 07:00</t>
+          <t>07:00 - 07:30</t>
         </is>
       </c>
       <c r="F167" t="inlineStr">
@@ -37272,17 +37272,17 @@
       </c>
       <c r="H167" t="inlineStr">
         <is>
-          <t>2026-02-05 08:39:31</t>
+          <t>2026-02-05 09:15:31</t>
         </is>
       </c>
       <c r="I167" t="inlineStr">
         <is>
-          <t>08:00</t>
+          <t>08:30</t>
         </is>
       </c>
       <c r="J167" t="inlineStr">
         <is>
-          <t>https://www.meteo.cat/observacions/xema/dades?codi=VS&amp;dia=2026-02-05T08:00Z</t>
+          <t>https://www.meteo.cat/observacions/xema/dades?codi=VS&amp;dia=2026-02-05T08:30Z</t>
         </is>
       </c>
       <c r="K167" t="n">
@@ -37312,7 +37312,7 @@
       </c>
       <c r="R167" t="inlineStr">
         <is>
-          <t>827.9</t>
+          <t>827.7</t>
         </is>
       </c>
       <c r="S167" t="inlineStr">
@@ -37322,12 +37322,12 @@
       </c>
       <c r="T167" t="inlineStr">
         <is>
-          <t>06:30 - 07:00</t>
+          <t>07:00 - 07:30</t>
         </is>
       </c>
       <c r="U167" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>6</t>
         </is>
       </c>
       <c r="V167" t="inlineStr">
@@ -37361,7 +37361,7 @@
       <c r="AD167" t="inlineStr"/>
       <c r="AE167" t="inlineStr">
         <is>
-          <t>06:30 - 07:00</t>
+          <t>07:00 - 07:30</t>
         </is>
       </c>
       <c r="AF167" t="inlineStr">
@@ -37401,7 +37401,7 @@
       </c>
       <c r="AM167" t="inlineStr">
         <is>
-          <t>06:30 - 07:00</t>
+          <t>07:00 - 07:30</t>
         </is>
       </c>
       <c r="AN167" t="inlineStr">
@@ -37451,7 +37451,7 @@
       </c>
       <c r="AW167" t="inlineStr">
         <is>
-          <t>827.9</t>
+          <t>827.7</t>
         </is>
       </c>
       <c r="AX167" t="inlineStr">
@@ -37466,12 +37466,12 @@
       </c>
       <c r="AZ167" t="inlineStr">
         <is>
-          <t>827.9</t>
+          <t>827.7</t>
         </is>
       </c>
       <c r="BA167" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>6</t>
         </is>
       </c>
     </row>
@@ -37513,7 +37513,7 @@
       </c>
       <c r="H168" t="inlineStr">
         <is>
-          <t>2026-02-05 08:39:33</t>
+          <t>2026-02-05 09:15:32</t>
         </is>
       </c>
       <c r="I168" t="inlineStr">
@@ -37754,7 +37754,7 @@
       </c>
       <c r="H169" t="inlineStr">
         <is>
-          <t>2026-02-05 08:39:33</t>
+          <t>2026-02-05 09:15:32</t>
         </is>
       </c>
       <c r="I169" t="inlineStr">
@@ -37995,7 +37995,7 @@
       </c>
       <c r="H170" t="inlineStr">
         <is>
-          <t>2026-02-05 08:39:33</t>
+          <t>2026-02-05 09:15:32</t>
         </is>
       </c>
       <c r="I170" t="inlineStr">
@@ -38236,7 +38236,7 @@
       </c>
       <c r="H171" t="inlineStr">
         <is>
-          <t>2026-02-05 08:39:33</t>
+          <t>2026-02-05 09:15:32</t>
         </is>
       </c>
       <c r="I171" t="inlineStr">
@@ -38477,17 +38477,17 @@
       </c>
       <c r="H172" t="inlineStr">
         <is>
-          <t>2026-02-05 08:39:36</t>
+          <t>2026-02-05 09:15:35</t>
         </is>
       </c>
       <c r="I172" t="inlineStr">
         <is>
-          <t>08:00</t>
+          <t>08:30</t>
         </is>
       </c>
       <c r="J172" t="inlineStr">
         <is>
-          <t>https://www.meteo.cat/observacions/xema/dades?codi=D7&amp;dia=2026-02-05T08:00Z</t>
+          <t>https://www.meteo.cat/observacions/xema/dades?codi=D7&amp;dia=2026-02-05T08:30Z</t>
         </is>
       </c>
       <c r="K172" t="n">
@@ -38710,7 +38710,7 @@
       </c>
       <c r="H173" t="inlineStr">
         <is>
-          <t>2026-02-05 08:39:37</t>
+          <t>2026-02-05 09:15:36</t>
         </is>
       </c>
       <c r="I173" t="inlineStr">
@@ -38943,7 +38943,7 @@
       </c>
       <c r="H174" t="inlineStr">
         <is>
-          <t>2026-02-05 08:39:37</t>
+          <t>2026-02-05 09:15:36</t>
         </is>
       </c>
       <c r="I174" t="inlineStr">
@@ -39176,7 +39176,7 @@
       </c>
       <c r="H175" t="inlineStr">
         <is>
-          <t>2026-02-05 08:39:37</t>
+          <t>2026-02-05 09:15:36</t>
         </is>
       </c>
       <c r="I175" t="inlineStr">
@@ -39409,7 +39409,7 @@
       </c>
       <c r="H176" t="inlineStr">
         <is>
-          <t>2026-02-05 08:39:37</t>
+          <t>2026-02-05 09:15:36</t>
         </is>
       </c>
       <c r="I176" t="inlineStr">
@@ -39681,7 +39681,7 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>https://www.meteo.cat/observacions/xema/dades?codi=YT&amp;dia=2026-02-05T08:00Z</t>
+          <t>https://www.meteo.cat/observacions/xema/dades?codi=YT&amp;dia=2026-02-05T08:30Z</t>
         </is>
       </c>
     </row>
@@ -39711,7 +39711,7 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>https://www.meteo.cat/observacions/xema/dades?codi=Z1&amp;dia=2026-02-05T08:00Z</t>
+          <t>https://www.meteo.cat/observacions/xema/dades?codi=Z1&amp;dia=2026-02-05T08:30Z</t>
         </is>
       </c>
     </row>
@@ -39741,7 +39741,7 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>https://www.meteo.cat/observacions/xema/dades?codi=DN&amp;dia=2026-02-05T08:00Z</t>
+          <t>https://www.meteo.cat/observacions/xema/dades?codi=DN&amp;dia=2026-02-05T08:30Z</t>
         </is>
       </c>
     </row>
@@ -39771,7 +39771,7 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>https://www.meteo.cat/observacions/xema/dades?codi=DJ&amp;dia=2026-02-05T08:00Z</t>
+          <t>https://www.meteo.cat/observacions/xema/dades?codi=DJ&amp;dia=2026-02-05T08:30Z</t>
         </is>
       </c>
     </row>
@@ -39801,7 +39801,7 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>https://www.meteo.cat/observacions/xema/dades?codi=X4&amp;dia=2026-02-05T08:00Z</t>
+          <t>https://www.meteo.cat/observacions/xema/dades?codi=X4&amp;dia=2026-02-05T08:30Z</t>
         </is>
       </c>
     </row>
@@ -39831,7 +39831,7 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>https://www.meteo.cat/observacions/xema/dades?codi=D5&amp;dia=2026-02-05T08:00Z</t>
+          <t>https://www.meteo.cat/observacions/xema/dades?codi=D5&amp;dia=2026-02-05T08:30Z</t>
         </is>
       </c>
     </row>
@@ -39861,7 +39861,7 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>https://www.meteo.cat/observacions/xema/dades?codi=UN&amp;dia=2026-02-05T08:00Z</t>
+          <t>https://www.meteo.cat/observacions/xema/dades?codi=UN&amp;dia=2026-02-05T08:30Z</t>
         </is>
       </c>
     </row>
@@ -39891,7 +39891,7 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>https://www.meteo.cat/observacions/xema/dades?codi=MS&amp;dia=2026-02-05T08:00Z</t>
+          <t>https://www.meteo.cat/observacions/xema/dades?codi=MS&amp;dia=2026-02-05T08:30Z</t>
         </is>
       </c>
     </row>
@@ -39921,7 +39921,7 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>https://www.meteo.cat/observacions/xema/dades?codi=W1&amp;dia=2026-02-05T08:00Z</t>
+          <t>https://www.meteo.cat/observacions/xema/dades?codi=W1&amp;dia=2026-02-05T08:30Z</t>
         </is>
       </c>
     </row>
@@ -39951,7 +39951,7 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>https://www.meteo.cat/observacions/xema/dades?codi=DP&amp;dia=2026-02-05T08:00Z</t>
+          <t>https://www.meteo.cat/observacions/xema/dades?codi=DP&amp;dia=2026-02-05T08:30Z</t>
         </is>
       </c>
     </row>
@@ -39981,7 +39981,7 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>https://www.meteo.cat/observacions/xema/dades?codi=XL&amp;dia=2026-02-05T08:00Z</t>
+          <t>https://www.meteo.cat/observacions/xema/dades?codi=XL&amp;dia=2026-02-05T08:30Z</t>
         </is>
       </c>
     </row>
@@ -40011,7 +40011,7 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>https://www.meteo.cat/observacions/xema/dades?codi=VZ&amp;dia=2026-02-05T08:00Z</t>
+          <t>https://www.meteo.cat/observacions/xema/dades?codi=VZ&amp;dia=2026-02-05T08:30Z</t>
         </is>
       </c>
     </row>
@@ -40041,7 +40041,7 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>https://www.meteo.cat/observacions/xema/dades?codi=Z7&amp;dia=2026-02-05T08:00Z</t>
+          <t>https://www.meteo.cat/observacions/xema/dades?codi=Z7&amp;dia=2026-02-05T08:30Z</t>
         </is>
       </c>
     </row>
@@ -40071,7 +40071,7 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>https://www.meteo.cat/observacions/xema/dades?codi=XJ&amp;dia=2026-02-05T08:00Z</t>
+          <t>https://www.meteo.cat/observacions/xema/dades?codi=XJ&amp;dia=2026-02-05T08:30Z</t>
         </is>
       </c>
     </row>
@@ -40101,7 +40101,7 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>https://www.meteo.cat/observacions/xema/dades?codi=YU&amp;dia=2026-02-05T08:00Z</t>
+          <t>https://www.meteo.cat/observacions/xema/dades?codi=YU&amp;dia=2026-02-05T08:30Z</t>
         </is>
       </c>
     </row>
@@ -40131,7 +40131,7 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>https://www.meteo.cat/observacions/xema/dades?codi=CD&amp;dia=2026-02-05T08:00Z</t>
+          <t>https://www.meteo.cat/observacions/xema/dades?codi=CD&amp;dia=2026-02-05T08:30Z</t>
         </is>
       </c>
     </row>
@@ -40161,7 +40161,7 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>https://www.meteo.cat/observacions/xema/dades?codi=Z2&amp;dia=2026-02-05T08:00Z</t>
+          <t>https://www.meteo.cat/observacions/xema/dades?codi=Z2&amp;dia=2026-02-05T08:30Z</t>
         </is>
       </c>
     </row>
@@ -40191,7 +40191,7 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>https://www.meteo.cat/observacions/xema/dades?codi=VK&amp;dia=2026-02-05T08:00Z</t>
+          <t>https://www.meteo.cat/observacions/xema/dades?codi=VK&amp;dia=2026-02-05T08:30Z</t>
         </is>
       </c>
     </row>
@@ -40221,7 +40221,7 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>https://www.meteo.cat/observacions/xema/dades?codi=Z3&amp;dia=2026-02-05T08:00Z</t>
+          <t>https://www.meteo.cat/observacions/xema/dades?codi=Z3&amp;dia=2026-02-05T08:30Z</t>
         </is>
       </c>
     </row>
@@ -40251,7 +40251,7 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>https://www.meteo.cat/observacions/xema/dades?codi=YB&amp;dia=2026-02-05T08:00Z</t>
+          <t>https://www.meteo.cat/observacions/xema/dades?codi=YB&amp;dia=2026-02-05T08:30Z</t>
         </is>
       </c>
     </row>
@@ -40281,7 +40281,7 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>https://www.meteo.cat/observacions/xema/dades?codi=YP&amp;dia=2026-02-05T08:00Z</t>
+          <t>https://www.meteo.cat/observacions/xema/dades?codi=YP&amp;dia=2026-02-05T08:30Z</t>
         </is>
       </c>
     </row>
@@ -40311,7 +40311,7 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>https://www.meteo.cat/observacions/xema/dades?codi=J5&amp;dia=2026-02-05T08:00Z</t>
+          <t>https://www.meteo.cat/observacions/xema/dades?codi=J5&amp;dia=2026-02-05T08:30Z</t>
         </is>
       </c>
     </row>
@@ -40341,7 +40341,7 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>https://www.meteo.cat/observacions/xema/dades?codi=D6&amp;dia=2026-02-05T08:00Z</t>
+          <t>https://www.meteo.cat/observacions/xema/dades?codi=D6&amp;dia=2026-02-05T08:30Z</t>
         </is>
       </c>
     </row>
@@ -40371,7 +40371,7 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>https://www.meteo.cat/observacions/xema/dades?codi=YA&amp;dia=2026-02-05T08:00Z</t>
+          <t>https://www.meteo.cat/observacions/xema/dades?codi=YA&amp;dia=2026-02-05T08:30Z</t>
         </is>
       </c>
     </row>
@@ -40401,7 +40401,7 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>https://www.meteo.cat/observacions/xema/dades?codi=DG&amp;dia=2026-02-05T08:00Z</t>
+          <t>https://www.meteo.cat/observacions/xema/dades?codi=DG&amp;dia=2026-02-05T08:30Z</t>
         </is>
       </c>
     </row>
@@ -40431,7 +40431,7 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>https://www.meteo.cat/observacions/xema/dades?codi=D4&amp;dia=2026-02-05T08:00Z</t>
+          <t>https://www.meteo.cat/observacions/xema/dades?codi=D4&amp;dia=2026-02-05T08:30Z</t>
         </is>
       </c>
     </row>
@@ -40461,7 +40461,7 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>https://www.meteo.cat/observacions/xema/dades?codi=CI&amp;dia=2026-02-05T08:00Z</t>
+          <t>https://www.meteo.cat/observacions/xema/dades?codi=CI&amp;dia=2026-02-05T08:30Z</t>
         </is>
       </c>
     </row>
@@ -40491,7 +40491,7 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>https://www.meteo.cat/observacions/xema/dades?codi=XS&amp;dia=2026-02-05T08:00Z</t>
+          <t>https://www.meteo.cat/observacions/xema/dades?codi=XS&amp;dia=2026-02-05T08:30Z</t>
         </is>
       </c>
     </row>
@@ -40521,7 +40521,7 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>https://www.meteo.cat/observacions/xema/dades?codi=ZC&amp;dia=2026-02-05T08:00Z</t>
+          <t>https://www.meteo.cat/observacions/xema/dades?codi=ZC&amp;dia=2026-02-05T08:30Z</t>
         </is>
       </c>
     </row>
@@ -40551,7 +40551,7 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>https://www.meteo.cat/observacions/xema/dades?codi=XH&amp;dia=2026-02-05T08:00Z</t>
+          <t>https://www.meteo.cat/observacions/xema/dades?codi=XH&amp;dia=2026-02-05T08:30Z</t>
         </is>
       </c>
     </row>
@@ -40581,7 +40581,7 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>https://www.meteo.cat/observacions/xema/dades?codi=XE&amp;dia=2026-02-05T08:00Z</t>
+          <t>https://www.meteo.cat/observacions/xema/dades?codi=XE&amp;dia=2026-02-05T08:30Z</t>
         </is>
       </c>
     </row>
@@ -40611,7 +40611,7 @@
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>https://www.meteo.cat/observacions/xema/dades?codi=UE&amp;dia=2026-02-05T08:00Z</t>
+          <t>https://www.meteo.cat/observacions/xema/dades?codi=UE&amp;dia=2026-02-05T08:30Z</t>
         </is>
       </c>
     </row>
@@ -40641,7 +40641,7 @@
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>https://www.meteo.cat/observacions/xema/dades?codi=XO&amp;dia=2026-02-05T08:00Z</t>
+          <t>https://www.meteo.cat/observacions/xema/dades?codi=XO&amp;dia=2026-02-05T08:30Z</t>
         </is>
       </c>
     </row>
@@ -40671,7 +40671,7 @@
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>https://www.meteo.cat/observacions/xema/dades?codi=VS&amp;dia=2026-02-05T08:00Z</t>
+          <t>https://www.meteo.cat/observacions/xema/dades?codi=VS&amp;dia=2026-02-05T08:30Z</t>
         </is>
       </c>
     </row>
@@ -40701,7 +40701,7 @@
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>https://www.meteo.cat/observacions/xema/dades?codi=D7&amp;dia=2026-02-05T08:00Z</t>
+          <t>https://www.meteo.cat/observacions/xema/dades?codi=D7&amp;dia=2026-02-05T08:30Z</t>
         </is>
       </c>
     </row>

--- a/src/data/resum_periode_meteocat.xlsx
+++ b/src/data/resum_periode_meteocat.xlsx
@@ -727,17 +727,17 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>2026-02-05 09:13:20</t>
+          <t>2026-02-05 10:04:48</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>08:30</t>
+          <t>09:30</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>https://www.meteo.cat/observacions/xema/dades?codi=YT&amp;dia=2026-02-05T08:30Z</t>
+          <t>https://www.meteo.cat/observacions/xema/dades?codi=YT&amp;dia=2026-02-05T09:30Z</t>
         </is>
       </c>
       <c r="K2" t="n">
@@ -924,7 +924,7 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>2026-02-05 09:13:21</t>
+          <t>2026-02-05 10:04:49</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
@@ -1121,7 +1121,7 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>2026-02-05 09:13:21</t>
+          <t>2026-02-05 10:04:49</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
@@ -1318,7 +1318,7 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>2026-02-05 09:13:21</t>
+          <t>2026-02-05 10:04:49</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
@@ -1515,7 +1515,7 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>2026-02-05 09:13:21</t>
+          <t>2026-02-05 10:04:49</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
@@ -1697,7 +1697,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>07:00 - 07:30</t>
+          <t>08:30 - 09:00</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -1712,17 +1712,17 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>2026-02-05 09:13:24</t>
+          <t>2026-02-05 10:04:52</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>08:30</t>
+          <t>09:30</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>https://www.meteo.cat/observacions/xema/dades?codi=Z1&amp;dia=2026-02-05T08:30Z</t>
+          <t>https://www.meteo.cat/observacions/xema/dades?codi=Z1&amp;dia=2026-02-05T09:30Z</t>
         </is>
       </c>
       <c r="K7" t="n">
@@ -1737,17 +1737,17 @@
       <c r="N7" t="inlineStr"/>
       <c r="O7" t="inlineStr">
         <is>
-          <t>116</t>
+          <t>96</t>
         </is>
       </c>
       <c r="P7" t="inlineStr">
         <is>
-          <t>178</t>
+          <t>176</t>
         </is>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>71</t>
+          <t>97</t>
         </is>
       </c>
       <c r="R7" t="inlineStr"/>
@@ -1758,66 +1758,66 @@
       </c>
       <c r="T7" t="inlineStr">
         <is>
-          <t>07:00 - 07:30</t>
+          <t>08:30 - 09:00</t>
         </is>
       </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>137</t>
         </is>
       </c>
       <c r="V7" t="inlineStr">
         <is>
-          <t>-2.4</t>
+          <t>-4.3</t>
         </is>
       </c>
       <c r="W7" t="inlineStr">
         <is>
-          <t>-4.9</t>
+          <t>-4.6</t>
         </is>
       </c>
       <c r="X7" t="inlineStr">
         <is>
-          <t>0.4</t>
+          <t>-4.1</t>
         </is>
       </c>
       <c r="Y7" t="inlineStr"/>
       <c r="Z7" t="inlineStr"/>
       <c r="AA7" t="inlineStr">
         <is>
-          <t>17.3</t>
+          <t>24.8</t>
         </is>
       </c>
       <c r="AB7" t="inlineStr"/>
       <c r="AC7" t="inlineStr"/>
       <c r="AD7" t="inlineStr">
         <is>
-          <t>32.0</t>
+          <t>35.6</t>
         </is>
       </c>
       <c r="AE7" t="inlineStr">
         <is>
-          <t>07:00 - 07:30</t>
+          <t>08:30 - 09:00</t>
         </is>
       </c>
       <c r="AF7" t="inlineStr">
         <is>
-          <t>-2.4</t>
+          <t>-4.3</t>
         </is>
       </c>
       <c r="AG7" t="inlineStr">
         <is>
-          <t>0.4</t>
+          <t>-4.1</t>
         </is>
       </c>
       <c r="AH7" t="inlineStr">
         <is>
-          <t>-4.9</t>
+          <t>-4.6</t>
         </is>
       </c>
       <c r="AI7" t="inlineStr">
         <is>
-          <t>71</t>
+          <t>97</t>
         </is>
       </c>
       <c r="AJ7" t="inlineStr">
@@ -1827,37 +1827,37 @@
       </c>
       <c r="AK7" t="inlineStr">
         <is>
-          <t>178</t>
+          <t>176</t>
         </is>
       </c>
       <c r="AL7" t="inlineStr">
         <is>
-          <t>17.3</t>
+          <t>24.8</t>
         </is>
       </c>
       <c r="AM7" t="inlineStr">
         <is>
-          <t>07:00 - 07:30</t>
+          <t>08:30 - 09:00</t>
         </is>
       </c>
       <c r="AN7" t="inlineStr">
         <is>
-          <t>-2.4</t>
+          <t>-4.3</t>
         </is>
       </c>
       <c r="AO7" t="inlineStr">
         <is>
-          <t>0.4</t>
+          <t>-4.1</t>
         </is>
       </c>
       <c r="AP7" t="inlineStr">
         <is>
-          <t>-4.9</t>
+          <t>-4.6</t>
         </is>
       </c>
       <c r="AQ7" t="inlineStr">
         <is>
-          <t>71</t>
+          <t>97</t>
         </is>
       </c>
       <c r="AR7" t="inlineStr">
@@ -1867,42 +1867,42 @@
       </c>
       <c r="AS7" t="inlineStr">
         <is>
-          <t>178</t>
+          <t>176</t>
         </is>
       </c>
       <c r="AT7" t="inlineStr">
         <is>
-          <t>17.3</t>
+          <t>24.8</t>
         </is>
       </c>
       <c r="AU7" t="inlineStr">
         <is>
-          <t>116</t>
+          <t>96</t>
         </is>
       </c>
       <c r="AV7" t="inlineStr">
         <is>
-          <t>32.0</t>
+          <t>35.6</t>
         </is>
       </c>
       <c r="AW7" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>137</t>
         </is>
       </c>
       <c r="AX7" t="inlineStr">
         <is>
-          <t>116</t>
+          <t>96</t>
         </is>
       </c>
       <c r="AY7" t="inlineStr">
         <is>
-          <t>32.0</t>
+          <t>35.6</t>
         </is>
       </c>
       <c r="AZ7" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>137</t>
         </is>
       </c>
       <c r="BA7" t="inlineStr"/>
@@ -1945,7 +1945,7 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>2026-02-05 09:13:26</t>
+          <t>2026-02-05 10:04:53</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
@@ -2178,7 +2178,7 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>2026-02-05 09:13:26</t>
+          <t>2026-02-05 10:04:53</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
@@ -2411,7 +2411,7 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>2026-02-05 09:13:26</t>
+          <t>2026-02-05 10:04:53</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
@@ -2644,7 +2644,7 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>2026-02-05 09:13:26</t>
+          <t>2026-02-05 10:04:53</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
@@ -2877,17 +2877,17 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>2026-02-05 09:13:28</t>
+          <t>2026-02-05 10:04:56</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>08:30</t>
+          <t>09:30</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>https://www.meteo.cat/observacions/xema/dades?codi=DN&amp;dia=2026-02-05T08:30Z</t>
+          <t>https://www.meteo.cat/observacions/xema/dades?codi=DN&amp;dia=2026-02-05T09:30Z</t>
         </is>
       </c>
       <c r="K12" t="n">
@@ -3110,7 +3110,7 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>2026-02-05 09:13:30</t>
+          <t>2026-02-05 10:04:58</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
@@ -3343,7 +3343,7 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>2026-02-05 09:13:30</t>
+          <t>2026-02-05 10:04:58</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
@@ -3576,7 +3576,7 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>2026-02-05 09:13:30</t>
+          <t>2026-02-05 10:04:58</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
@@ -3809,7 +3809,7 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>2026-02-05 09:13:30</t>
+          <t>2026-02-05 10:04:58</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
@@ -4042,17 +4042,17 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>2026-02-05 09:13:32</t>
+          <t>2026-02-05 10:05:00</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>08:30</t>
+          <t>09:30</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>https://www.meteo.cat/observacions/xema/dades?codi=DJ&amp;dia=2026-02-05T08:30Z</t>
+          <t>https://www.meteo.cat/observacions/xema/dades?codi=DJ&amp;dia=2026-02-05T09:30Z</t>
         </is>
       </c>
       <c r="K17" t="n">
@@ -4275,7 +4275,7 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>2026-02-05 09:13:34</t>
+          <t>2026-02-05 10:05:02</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
@@ -4508,7 +4508,7 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>2026-02-05 09:13:34</t>
+          <t>2026-02-05 10:05:02</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
@@ -4741,7 +4741,7 @@
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>2026-02-05 09:13:34</t>
+          <t>2026-02-05 10:05:02</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
@@ -4974,7 +4974,7 @@
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>2026-02-05 09:13:34</t>
+          <t>2026-02-05 10:05:02</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
@@ -5207,17 +5207,17 @@
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>2026-02-05 09:13:36</t>
+          <t>2026-02-05 10:05:04</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>08:30</t>
+          <t>09:30</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>https://www.meteo.cat/observacions/xema/dades?codi=X4&amp;dia=2026-02-05T08:30Z</t>
+          <t>https://www.meteo.cat/observacions/xema/dades?codi=X4&amp;dia=2026-02-05T09:30Z</t>
         </is>
       </c>
       <c r="K22" t="n">
@@ -5440,7 +5440,7 @@
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>2026-02-05 09:13:38</t>
+          <t>2026-02-05 10:05:06</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
@@ -5673,7 +5673,7 @@
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>2026-02-05 09:13:38</t>
+          <t>2026-02-05 10:05:06</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
@@ -5906,7 +5906,7 @@
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>2026-02-05 09:13:38</t>
+          <t>2026-02-05 10:05:06</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
@@ -6139,7 +6139,7 @@
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>2026-02-05 09:13:38</t>
+          <t>2026-02-05 10:05:06</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
@@ -6357,7 +6357,7 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>07:00 - 07:30</t>
+          <t>08:30 - 09:00</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
@@ -6372,17 +6372,17 @@
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>2026-02-05 09:13:40</t>
+          <t>2026-02-05 10:05:08</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>08:30</t>
+          <t>09:30</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>https://www.meteo.cat/observacions/xema/dades?codi=D5&amp;dia=2026-02-05T08:30Z</t>
+          <t>https://www.meteo.cat/observacions/xema/dades?codi=D5&amp;dia=2026-02-05T09:30Z</t>
         </is>
       </c>
       <c r="K27" t="n">
@@ -6395,7 +6395,7 @@
       </c>
       <c r="M27" t="inlineStr">
         <is>
-          <t>318</t>
+          <t>259</t>
         </is>
       </c>
       <c r="N27" t="inlineStr"/>
@@ -6403,166 +6403,166 @@
       <c r="P27" t="inlineStr"/>
       <c r="Q27" t="inlineStr">
         <is>
-          <t>69</t>
+          <t>72</t>
         </is>
       </c>
       <c r="R27" t="inlineStr">
         <is>
-          <t>993.7</t>
+          <t>993.3</t>
         </is>
       </c>
       <c r="S27" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>0.2</t>
         </is>
       </c>
       <c r="T27" t="inlineStr">
         <is>
-          <t>07:00 - 07:30</t>
+          <t>08:30 - 09:00</t>
         </is>
       </c>
       <c r="U27" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>51</t>
         </is>
       </c>
       <c r="V27" t="inlineStr">
         <is>
-          <t>10.3</t>
+          <t>10.2</t>
         </is>
       </c>
       <c r="W27" t="inlineStr">
         <is>
-          <t>10.1</t>
+          <t>9.2</t>
         </is>
       </c>
       <c r="X27" t="inlineStr">
         <is>
-          <t>10.6</t>
+          <t>11.0</t>
         </is>
       </c>
       <c r="Y27" t="inlineStr">
         <is>
-          <t>11.9</t>
+          <t>30.6</t>
         </is>
       </c>
       <c r="Z27" t="inlineStr"/>
       <c r="AA27" t="inlineStr"/>
       <c r="AB27" t="inlineStr">
         <is>
-          <t>34.2</t>
+          <t>37.1</t>
         </is>
       </c>
       <c r="AC27" t="inlineStr"/>
       <c r="AD27" t="inlineStr"/>
       <c r="AE27" t="inlineStr">
         <is>
-          <t>07:00 - 07:30</t>
+          <t>08:30 - 09:00</t>
         </is>
       </c>
       <c r="AF27" t="inlineStr">
         <is>
-          <t>10.3</t>
+          <t>10.2</t>
         </is>
       </c>
       <c r="AG27" t="inlineStr">
         <is>
-          <t>10.6</t>
+          <t>11.0</t>
         </is>
       </c>
       <c r="AH27" t="inlineStr">
         <is>
-          <t>10.1</t>
+          <t>9.2</t>
         </is>
       </c>
       <c r="AI27" t="inlineStr">
         <is>
-          <t>69</t>
+          <t>72</t>
         </is>
       </c>
       <c r="AJ27" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>0.2</t>
         </is>
       </c>
       <c r="AK27" t="inlineStr">
         <is>
-          <t>11.9</t>
+          <t>30.6</t>
         </is>
       </c>
       <c r="AL27" t="inlineStr">
         <is>
-          <t>318</t>
+          <t>259</t>
         </is>
       </c>
       <c r="AM27" t="inlineStr">
         <is>
-          <t>07:00 - 07:30</t>
+          <t>08:30 - 09:00</t>
         </is>
       </c>
       <c r="AN27" t="inlineStr">
         <is>
-          <t>10.3</t>
+          <t>10.2</t>
         </is>
       </c>
       <c r="AO27" t="inlineStr">
         <is>
-          <t>10.6</t>
+          <t>11.0</t>
         </is>
       </c>
       <c r="AP27" t="inlineStr">
         <is>
-          <t>10.1</t>
+          <t>9.2</t>
         </is>
       </c>
       <c r="AQ27" t="inlineStr">
         <is>
-          <t>69</t>
+          <t>72</t>
         </is>
       </c>
       <c r="AR27" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>0.2</t>
         </is>
       </c>
       <c r="AS27" t="inlineStr">
         <is>
-          <t>11.9</t>
+          <t>30.6</t>
         </is>
       </c>
       <c r="AT27" t="inlineStr">
         <is>
-          <t>318</t>
+          <t>259</t>
         </is>
       </c>
       <c r="AU27" t="inlineStr">
         <is>
-          <t>34.2</t>
+          <t>37.1</t>
         </is>
       </c>
       <c r="AV27" t="inlineStr">
         <is>
-          <t>993.7</t>
+          <t>993.3</t>
         </is>
       </c>
       <c r="AW27" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>51</t>
         </is>
       </c>
       <c r="AX27" t="inlineStr">
         <is>
-          <t>34.2</t>
+          <t>37.1</t>
         </is>
       </c>
       <c r="AY27" t="inlineStr">
         <is>
-          <t>993.7</t>
+          <t>993.3</t>
         </is>
       </c>
       <c r="AZ27" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>51</t>
         </is>
       </c>
       <c r="BA27" t="inlineStr"/>
@@ -6605,7 +6605,7 @@
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>2026-02-05 09:13:42</t>
+          <t>2026-02-05 10:05:10</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
@@ -6838,7 +6838,7 @@
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>2026-02-05 09:13:42</t>
+          <t>2026-02-05 10:05:10</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
@@ -7071,7 +7071,7 @@
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>2026-02-05 09:13:42</t>
+          <t>2026-02-05 10:05:10</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
@@ -7304,7 +7304,7 @@
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>2026-02-05 09:13:42</t>
+          <t>2026-02-05 10:05:10</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
@@ -7537,17 +7537,17 @@
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>2026-02-05 09:13:44</t>
+          <t>2026-02-05 10:05:12</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>08:30</t>
+          <t>09:30</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>https://www.meteo.cat/observacions/xema/dades?codi=UN&amp;dia=2026-02-05T08:30Z</t>
+          <t>https://www.meteo.cat/observacions/xema/dades?codi=UN&amp;dia=2026-02-05T09:30Z</t>
         </is>
       </c>
       <c r="K32" t="n">
@@ -7758,7 +7758,7 @@
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>2026-02-05 09:13:46</t>
+          <t>2026-02-05 10:05:13</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
@@ -7979,7 +7979,7 @@
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>2026-02-05 09:13:46</t>
+          <t>2026-02-05 10:05:13</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
@@ -8200,7 +8200,7 @@
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>2026-02-05 09:13:46</t>
+          <t>2026-02-05 10:05:13</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
@@ -8421,7 +8421,7 @@
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>2026-02-05 09:13:46</t>
+          <t>2026-02-05 10:05:13</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
@@ -8642,17 +8642,17 @@
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>2026-02-05 09:13:48</t>
+          <t>2026-02-05 10:05:16</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>08:30</t>
+          <t>09:30</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>https://www.meteo.cat/observacions/xema/dades?codi=MS&amp;dia=2026-02-05T08:30Z</t>
+          <t>https://www.meteo.cat/observacions/xema/dades?codi=MS&amp;dia=2026-02-05T09:30Z</t>
         </is>
       </c>
       <c r="K37" t="n">
@@ -8815,7 +8815,7 @@
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>2026-02-05 09:13:49</t>
+          <t>2026-02-05 10:05:17</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
@@ -8988,7 +8988,7 @@
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>2026-02-05 09:13:49</t>
+          <t>2026-02-05 10:05:17</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
@@ -9161,7 +9161,7 @@
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>2026-02-05 09:13:49</t>
+          <t>2026-02-05 10:05:17</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
@@ -9334,7 +9334,7 @@
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>2026-02-05 09:13:49</t>
+          <t>2026-02-05 10:05:17</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
@@ -9507,17 +9507,17 @@
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>2026-02-05 09:13:52</t>
+          <t>2026-02-05 10:05:19</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>08:30</t>
+          <t>09:30</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>https://www.meteo.cat/observacions/xema/dades?codi=W1&amp;dia=2026-02-05T08:30Z</t>
+          <t>https://www.meteo.cat/observacions/xema/dades?codi=W1&amp;dia=2026-02-05T09:30Z</t>
         </is>
       </c>
       <c r="K42" t="n">
@@ -9680,7 +9680,7 @@
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>2026-02-05 09:13:53</t>
+          <t>2026-02-05 10:05:21</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
@@ -9853,7 +9853,7 @@
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>2026-02-05 09:13:53</t>
+          <t>2026-02-05 10:05:21</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
@@ -10026,7 +10026,7 @@
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>2026-02-05 09:13:53</t>
+          <t>2026-02-05 10:05:21</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
@@ -10199,7 +10199,7 @@
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>2026-02-05 09:13:53</t>
+          <t>2026-02-05 10:05:21</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
@@ -10372,17 +10372,17 @@
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>2026-02-05 09:13:56</t>
+          <t>2026-02-05 10:05:23</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>08:30</t>
+          <t>09:30</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>https://www.meteo.cat/observacions/xema/dades?codi=DP&amp;dia=2026-02-05T08:30Z</t>
+          <t>https://www.meteo.cat/observacions/xema/dades?codi=DP&amp;dia=2026-02-05T09:30Z</t>
         </is>
       </c>
       <c r="K47" t="n">
@@ -10613,7 +10613,7 @@
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>2026-02-05 09:13:57</t>
+          <t>2026-02-05 10:05:24</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
@@ -10643,7 +10643,7 @@
       <c r="O48" t="inlineStr"/>
       <c r="P48" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="Q48" t="inlineStr">
@@ -10732,7 +10732,7 @@
       </c>
       <c r="AK48" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AL48" t="inlineStr">
@@ -10772,7 +10772,7 @@
       </c>
       <c r="AS48" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AT48" t="inlineStr">
@@ -10854,7 +10854,7 @@
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>2026-02-05 09:13:57</t>
+          <t>2026-02-05 10:05:24</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
@@ -10884,7 +10884,7 @@
       <c r="O49" t="inlineStr"/>
       <c r="P49" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="Q49" t="inlineStr">
@@ -10973,7 +10973,7 @@
       </c>
       <c r="AK49" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AL49" t="inlineStr">
@@ -11013,7 +11013,7 @@
       </c>
       <c r="AS49" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AT49" t="inlineStr">
@@ -11095,7 +11095,7 @@
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>2026-02-05 09:13:57</t>
+          <t>2026-02-05 10:05:24</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
@@ -11125,7 +11125,7 @@
       <c r="O50" t="inlineStr"/>
       <c r="P50" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="Q50" t="inlineStr">
@@ -11214,7 +11214,7 @@
       </c>
       <c r="AK50" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AL50" t="inlineStr">
@@ -11254,7 +11254,7 @@
       </c>
       <c r="AS50" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AT50" t="inlineStr">
@@ -11336,7 +11336,7 @@
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>2026-02-05 09:13:57</t>
+          <t>2026-02-05 10:05:24</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
@@ -11366,7 +11366,7 @@
       <c r="O51" t="inlineStr"/>
       <c r="P51" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="Q51" t="inlineStr">
@@ -11455,7 +11455,7 @@
       </c>
       <c r="AK51" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AL51" t="inlineStr">
@@ -11495,7 +11495,7 @@
       </c>
       <c r="AS51" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AT51" t="inlineStr">
@@ -11562,7 +11562,7 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>07:30 - 08:00</t>
+          <t>09:00 - 09:30</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
@@ -11577,17 +11577,17 @@
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>2026-02-05 09:14:00</t>
+          <t>2026-02-05 10:05:27</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>08:30</t>
+          <t>09:30</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
         <is>
-          <t>https://www.meteo.cat/observacions/xema/dades?codi=XL&amp;dia=2026-02-05T08:30Z</t>
+          <t>https://www.meteo.cat/observacions/xema/dades?codi=XL&amp;dia=2026-02-05T09:30Z</t>
         </is>
       </c>
       <c r="K52" t="n">
@@ -11600,7 +11600,7 @@
       </c>
       <c r="M52" t="inlineStr">
         <is>
-          <t>306</t>
+          <t>321</t>
         </is>
       </c>
       <c r="N52" t="inlineStr"/>
@@ -11608,153 +11608,153 @@
       <c r="P52" t="inlineStr"/>
       <c r="Q52" t="inlineStr">
         <is>
-          <t>86</t>
+          <t>100</t>
         </is>
       </c>
       <c r="R52" t="inlineStr"/>
       <c r="S52" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>0.2</t>
         </is>
       </c>
       <c r="T52" t="inlineStr">
         <is>
-          <t>07:30 - 08:00</t>
+          <t>09:00 - 09:30</t>
         </is>
       </c>
       <c r="U52" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>50</t>
         </is>
       </c>
       <c r="V52" t="inlineStr">
         <is>
-          <t>8.1</t>
+          <t>8.0</t>
         </is>
       </c>
       <c r="W52" t="inlineStr">
         <is>
-          <t>8.0</t>
+          <t>7.8</t>
         </is>
       </c>
       <c r="X52" t="inlineStr">
         <is>
-          <t>8.2</t>
+          <t>8.5</t>
         </is>
       </c>
       <c r="Y52" t="inlineStr">
         <is>
-          <t>8.3</t>
+          <t>7.6</t>
         </is>
       </c>
       <c r="Z52" t="inlineStr"/>
       <c r="AA52" t="inlineStr"/>
       <c r="AB52" t="inlineStr">
         <is>
-          <t>15.1</t>
+          <t>15.8</t>
         </is>
       </c>
       <c r="AC52" t="inlineStr"/>
       <c r="AD52" t="inlineStr"/>
       <c r="AE52" t="inlineStr">
         <is>
-          <t>07:30 - 08:00</t>
+          <t>09:00 - 09:30</t>
         </is>
       </c>
       <c r="AF52" t="inlineStr">
         <is>
-          <t>8.1</t>
+          <t>8.0</t>
         </is>
       </c>
       <c r="AG52" t="inlineStr">
         <is>
-          <t>8.2</t>
+          <t>8.5</t>
         </is>
       </c>
       <c r="AH52" t="inlineStr">
         <is>
+          <t>7.8</t>
+        </is>
+      </c>
+      <c r="AI52" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="AJ52" t="inlineStr">
+        <is>
+          <t>0.2</t>
+        </is>
+      </c>
+      <c r="AK52" t="inlineStr">
+        <is>
+          <t>7.6</t>
+        </is>
+      </c>
+      <c r="AL52" t="inlineStr">
+        <is>
+          <t>321</t>
+        </is>
+      </c>
+      <c r="AM52" t="inlineStr">
+        <is>
+          <t>09:00 - 09:30</t>
+        </is>
+      </c>
+      <c r="AN52" t="inlineStr">
+        <is>
           <t>8.0</t>
         </is>
       </c>
-      <c r="AI52" t="inlineStr">
-        <is>
-          <t>86</t>
-        </is>
-      </c>
-      <c r="AJ52" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="AK52" t="inlineStr">
-        <is>
-          <t>8.3</t>
-        </is>
-      </c>
-      <c r="AL52" t="inlineStr">
-        <is>
-          <t>306</t>
-        </is>
-      </c>
-      <c r="AM52" t="inlineStr">
-        <is>
-          <t>07:30 - 08:00</t>
-        </is>
-      </c>
-      <c r="AN52" t="inlineStr">
-        <is>
-          <t>8.1</t>
-        </is>
-      </c>
       <c r="AO52" t="inlineStr">
         <is>
-          <t>8.2</t>
+          <t>8.5</t>
         </is>
       </c>
       <c r="AP52" t="inlineStr">
         <is>
-          <t>8.0</t>
+          <t>7.8</t>
         </is>
       </c>
       <c r="AQ52" t="inlineStr">
         <is>
-          <t>86</t>
+          <t>100</t>
         </is>
       </c>
       <c r="AR52" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>0.2</t>
         </is>
       </c>
       <c r="AS52" t="inlineStr">
         <is>
-          <t>8.3</t>
+          <t>7.6</t>
         </is>
       </c>
       <c r="AT52" t="inlineStr">
         <is>
-          <t>306</t>
+          <t>321</t>
         </is>
       </c>
       <c r="AU52" t="inlineStr">
         <is>
-          <t>15.1</t>
+          <t>15.8</t>
         </is>
       </c>
       <c r="AV52" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>50</t>
         </is>
       </c>
       <c r="AW52" t="inlineStr"/>
       <c r="AX52" t="inlineStr">
         <is>
-          <t>15.1</t>
+          <t>15.8</t>
         </is>
       </c>
       <c r="AY52" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>50</t>
         </is>
       </c>
       <c r="AZ52" t="inlineStr"/>
@@ -11798,7 +11798,7 @@
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>2026-02-05 09:14:01</t>
+          <t>2026-02-05 10:05:28</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
@@ -12019,7 +12019,7 @@
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>2026-02-05 09:14:01</t>
+          <t>2026-02-05 10:05:28</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
@@ -12240,7 +12240,7 @@
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>2026-02-05 09:14:01</t>
+          <t>2026-02-05 10:05:28</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
@@ -12461,7 +12461,7 @@
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>2026-02-05 09:14:01</t>
+          <t>2026-02-05 10:05:28</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
@@ -12682,17 +12682,17 @@
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>2026-02-05 09:14:03</t>
+          <t>2026-02-05 10:05:30</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>08:30</t>
+          <t>09:30</t>
         </is>
       </c>
       <c r="J57" t="inlineStr">
         <is>
-          <t>https://www.meteo.cat/observacions/xema/dades?codi=VZ&amp;dia=2026-02-05T08:30Z</t>
+          <t>https://www.meteo.cat/observacions/xema/dades?codi=VZ&amp;dia=2026-02-05T09:30Z</t>
         </is>
       </c>
       <c r="K57" t="n">
@@ -12855,7 +12855,7 @@
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>2026-02-05 09:14:05</t>
+          <t>2026-02-05 10:05:32</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
@@ -13028,7 +13028,7 @@
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>2026-02-05 09:14:05</t>
+          <t>2026-02-05 10:05:32</t>
         </is>
       </c>
       <c r="I59" t="inlineStr">
@@ -13201,7 +13201,7 @@
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>2026-02-05 09:14:05</t>
+          <t>2026-02-05 10:05:32</t>
         </is>
       </c>
       <c r="I60" t="inlineStr">
@@ -13374,7 +13374,7 @@
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>2026-02-05 09:14:05</t>
+          <t>2026-02-05 10:05:32</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
@@ -13532,7 +13532,7 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>00:00 - 00:30</t>
+          <t>02:00 - 02:30</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
@@ -13547,17 +13547,17 @@
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>2026-02-05 09:14:07</t>
+          <t>2026-02-05 10:05:34</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>08:30</t>
+          <t>09:30</t>
         </is>
       </c>
       <c r="J62" t="inlineStr">
         <is>
-          <t>https://www.meteo.cat/observacions/xema/dades?codi=Z7&amp;dia=2026-02-05T08:30Z</t>
+          <t>https://www.meteo.cat/observacions/xema/dades?codi=Z7&amp;dia=2026-02-05T09:30Z</t>
         </is>
       </c>
       <c r="K62" t="n">
@@ -13570,7 +13570,7 @@
       </c>
       <c r="M62" t="inlineStr">
         <is>
-          <t>217</t>
+          <t>207</t>
         </is>
       </c>
       <c r="N62" t="inlineStr"/>
@@ -13582,7 +13582,7 @@
       </c>
       <c r="Q62" t="inlineStr">
         <is>
-          <t>75</t>
+          <t>63</t>
         </is>
       </c>
       <c r="R62" t="inlineStr"/>
@@ -13593,7 +13593,7 @@
       </c>
       <c r="T62" t="inlineStr">
         <is>
-          <t>00:00 - 00:30</t>
+          <t>02:00 - 02:30</t>
         </is>
       </c>
       <c r="U62" t="inlineStr">
@@ -13603,56 +13603,56 @@
       </c>
       <c r="V62" t="inlineStr">
         <is>
-          <t>-3.2</t>
+          <t>-2.5</t>
         </is>
       </c>
       <c r="W62" t="inlineStr">
         <is>
-          <t>-3.3</t>
+          <t>-2.7</t>
         </is>
       </c>
       <c r="X62" t="inlineStr">
         <is>
-          <t>-3.1</t>
+          <t>-2.2</t>
         </is>
       </c>
       <c r="Y62" t="inlineStr">
         <is>
-          <t>23.8</t>
+          <t>10.4</t>
         </is>
       </c>
       <c r="Z62" t="inlineStr"/>
       <c r="AA62" t="inlineStr"/>
       <c r="AB62" t="inlineStr">
         <is>
-          <t>50.0</t>
+          <t>27.4</t>
         </is>
       </c>
       <c r="AC62" t="inlineStr"/>
       <c r="AD62" t="inlineStr"/>
       <c r="AE62" t="inlineStr">
         <is>
-          <t>00:00 - 00:30</t>
+          <t>02:00 - 02:30</t>
         </is>
       </c>
       <c r="AF62" t="inlineStr">
         <is>
-          <t>-3.2</t>
+          <t>-2.5</t>
         </is>
       </c>
       <c r="AG62" t="inlineStr">
         <is>
-          <t>-3.1</t>
+          <t>-2.2</t>
         </is>
       </c>
       <c r="AH62" t="inlineStr">
         <is>
-          <t>-3.3</t>
+          <t>-2.7</t>
         </is>
       </c>
       <c r="AI62" t="inlineStr">
         <is>
-          <t>75</t>
+          <t>63</t>
         </is>
       </c>
       <c r="AJ62" t="inlineStr">
@@ -13667,32 +13667,32 @@
       </c>
       <c r="AL62" t="inlineStr">
         <is>
-          <t>23.8</t>
+          <t>10.4</t>
         </is>
       </c>
       <c r="AM62" t="inlineStr">
         <is>
-          <t>00:00 - 00:30</t>
+          <t>02:00 - 02:30</t>
         </is>
       </c>
       <c r="AN62" t="inlineStr">
         <is>
-          <t>-3.2</t>
+          <t>-2.5</t>
         </is>
       </c>
       <c r="AO62" t="inlineStr">
         <is>
-          <t>-3.1</t>
+          <t>-2.2</t>
         </is>
       </c>
       <c r="AP62" t="inlineStr">
         <is>
-          <t>-3.3</t>
+          <t>-2.7</t>
         </is>
       </c>
       <c r="AQ62" t="inlineStr">
         <is>
-          <t>75</t>
+          <t>63</t>
         </is>
       </c>
       <c r="AR62" t="inlineStr">
@@ -13707,17 +13707,17 @@
       </c>
       <c r="AT62" t="inlineStr">
         <is>
-          <t>23.8</t>
+          <t>10.4</t>
         </is>
       </c>
       <c r="AU62" t="inlineStr">
         <is>
-          <t>217</t>
+          <t>207</t>
         </is>
       </c>
       <c r="AV62" t="inlineStr">
         <is>
-          <t>50.0</t>
+          <t>27.4</t>
         </is>
       </c>
       <c r="AW62" t="inlineStr">
@@ -13727,12 +13727,12 @@
       </c>
       <c r="AX62" t="inlineStr">
         <is>
-          <t>217</t>
+          <t>207</t>
         </is>
       </c>
       <c r="AY62" t="inlineStr">
         <is>
-          <t>50.0</t>
+          <t>27.4</t>
         </is>
       </c>
       <c r="AZ62" t="inlineStr">
@@ -13780,7 +13780,7 @@
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>2026-02-05 09:14:09</t>
+          <t>2026-02-05 10:05:36</t>
         </is>
       </c>
       <c r="I63" t="inlineStr">
@@ -14013,7 +14013,7 @@
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>2026-02-05 09:14:09</t>
+          <t>2026-02-05 10:05:36</t>
         </is>
       </c>
       <c r="I64" t="inlineStr">
@@ -14246,7 +14246,7 @@
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>2026-02-05 09:14:09</t>
+          <t>2026-02-05 10:05:36</t>
         </is>
       </c>
       <c r="I65" t="inlineStr">
@@ -14479,7 +14479,7 @@
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>2026-02-05 09:14:09</t>
+          <t>2026-02-05 10:05:36</t>
         </is>
       </c>
       <c r="I66" t="inlineStr">
@@ -14712,17 +14712,17 @@
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>2026-02-05 09:14:11</t>
+          <t>2026-02-05 10:05:38</t>
         </is>
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>08:30</t>
+          <t>09:30</t>
         </is>
       </c>
       <c r="J67" t="inlineStr">
         <is>
-          <t>https://www.meteo.cat/observacions/xema/dades?codi=XJ&amp;dia=2026-02-05T08:30Z</t>
+          <t>https://www.meteo.cat/observacions/xema/dades?codi=XJ&amp;dia=2026-02-05T09:30Z</t>
         </is>
       </c>
       <c r="K67" t="n">
@@ -14945,7 +14945,7 @@
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>2026-02-05 09:14:13</t>
+          <t>2026-02-05 10:05:40</t>
         </is>
       </c>
       <c r="I68" t="inlineStr">
@@ -15178,7 +15178,7 @@
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>2026-02-05 09:14:13</t>
+          <t>2026-02-05 10:05:40</t>
         </is>
       </c>
       <c r="I69" t="inlineStr">
@@ -15411,7 +15411,7 @@
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>2026-02-05 09:14:13</t>
+          <t>2026-02-05 10:05:40</t>
         </is>
       </c>
       <c r="I70" t="inlineStr">
@@ -15644,7 +15644,7 @@
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>2026-02-05 09:14:13</t>
+          <t>2026-02-05 10:05:40</t>
         </is>
       </c>
       <c r="I71" t="inlineStr">
@@ -15877,17 +15877,17 @@
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>2026-02-05 09:14:15</t>
+          <t>2026-02-05 10:05:42</t>
         </is>
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>08:30</t>
+          <t>09:30</t>
         </is>
       </c>
       <c r="J72" t="inlineStr">
         <is>
-          <t>https://www.meteo.cat/observacions/xema/dades?codi=YU&amp;dia=2026-02-05T08:30Z</t>
+          <t>https://www.meteo.cat/observacions/xema/dades?codi=YU&amp;dia=2026-02-05T09:30Z</t>
         </is>
       </c>
       <c r="K72" t="n">
@@ -16098,7 +16098,7 @@
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>2026-02-05 09:14:17</t>
+          <t>2026-02-05 10:05:44</t>
         </is>
       </c>
       <c r="I73" t="inlineStr">
@@ -16319,7 +16319,7 @@
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>2026-02-05 09:14:17</t>
+          <t>2026-02-05 10:05:44</t>
         </is>
       </c>
       <c r="I74" t="inlineStr">
@@ -16540,7 +16540,7 @@
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>2026-02-05 09:14:17</t>
+          <t>2026-02-05 10:05:44</t>
         </is>
       </c>
       <c r="I75" t="inlineStr">
@@ -16761,7 +16761,7 @@
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>2026-02-05 09:14:17</t>
+          <t>2026-02-05 10:05:44</t>
         </is>
       </c>
       <c r="I76" t="inlineStr">
@@ -16967,7 +16967,7 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>07:30 - 08:00</t>
+          <t>08:30 - 09:00</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
@@ -16982,17 +16982,17 @@
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>2026-02-05 09:14:19</t>
+          <t>2026-02-05 10:05:46</t>
         </is>
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>08:30</t>
+          <t>09:30</t>
         </is>
       </c>
       <c r="J77" t="inlineStr">
         <is>
-          <t>https://www.meteo.cat/observacions/xema/dades?codi=CD&amp;dia=2026-02-05T08:30Z</t>
+          <t>https://www.meteo.cat/observacions/xema/dades?codi=CD&amp;dia=2026-02-05T09:30Z</t>
         </is>
       </c>
       <c r="K77" t="n">
@@ -17005,7 +17005,7 @@
       </c>
       <c r="M77" t="inlineStr">
         <is>
-          <t>337</t>
+          <t>53</t>
         </is>
       </c>
       <c r="N77" t="inlineStr"/>
@@ -17013,12 +17013,12 @@
       <c r="P77" t="inlineStr"/>
       <c r="Q77" t="inlineStr">
         <is>
-          <t>97</t>
+          <t>91</t>
         </is>
       </c>
       <c r="R77" t="inlineStr">
         <is>
-          <t>997.2</t>
+          <t>996.3</t>
         </is>
       </c>
       <c r="S77" t="inlineStr">
@@ -17028,66 +17028,66 @@
       </c>
       <c r="T77" t="inlineStr">
         <is>
-          <t>07:30 - 08:00</t>
+          <t>08:30 - 09:00</t>
         </is>
       </c>
       <c r="U77" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>80</t>
         </is>
       </c>
       <c r="V77" t="inlineStr">
         <is>
-          <t>0.4</t>
+          <t>1.6</t>
         </is>
       </c>
       <c r="W77" t="inlineStr">
         <is>
-          <t>0.2</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="X77" t="inlineStr">
         <is>
-          <t>1.0</t>
+          <t>2.1</t>
         </is>
       </c>
       <c r="Y77" t="inlineStr">
         <is>
-          <t>3.6</t>
+          <t>3.2</t>
         </is>
       </c>
       <c r="Z77" t="inlineStr"/>
       <c r="AA77" t="inlineStr"/>
       <c r="AB77" t="inlineStr">
         <is>
-          <t>11.2</t>
+          <t>8.3</t>
         </is>
       </c>
       <c r="AC77" t="inlineStr"/>
       <c r="AD77" t="inlineStr"/>
       <c r="AE77" t="inlineStr">
         <is>
-          <t>07:30 - 08:00</t>
+          <t>08:30 - 09:00</t>
         </is>
       </c>
       <c r="AF77" t="inlineStr">
         <is>
-          <t>0.4</t>
+          <t>1.6</t>
         </is>
       </c>
       <c r="AG77" t="inlineStr">
         <is>
+          <t>2.1</t>
+        </is>
+      </c>
+      <c r="AH77" t="inlineStr">
+        <is>
           <t>1.0</t>
         </is>
       </c>
-      <c r="AH77" t="inlineStr">
-        <is>
-          <t>0.2</t>
-        </is>
-      </c>
       <c r="AI77" t="inlineStr">
         <is>
-          <t>97</t>
+          <t>91</t>
         </is>
       </c>
       <c r="AJ77" t="inlineStr">
@@ -17097,37 +17097,37 @@
       </c>
       <c r="AK77" t="inlineStr">
         <is>
-          <t>3.6</t>
+          <t>3.2</t>
         </is>
       </c>
       <c r="AL77" t="inlineStr">
         <is>
-          <t>337</t>
+          <t>53</t>
         </is>
       </c>
       <c r="AM77" t="inlineStr">
         <is>
-          <t>07:30 - 08:00</t>
+          <t>08:30 - 09:00</t>
         </is>
       </c>
       <c r="AN77" t="inlineStr">
         <is>
-          <t>0.4</t>
+          <t>1.6</t>
         </is>
       </c>
       <c r="AO77" t="inlineStr">
         <is>
+          <t>2.1</t>
+        </is>
+      </c>
+      <c r="AP77" t="inlineStr">
+        <is>
           <t>1.0</t>
         </is>
       </c>
-      <c r="AP77" t="inlineStr">
-        <is>
-          <t>0.2</t>
-        </is>
-      </c>
       <c r="AQ77" t="inlineStr">
         <is>
-          <t>97</t>
+          <t>91</t>
         </is>
       </c>
       <c r="AR77" t="inlineStr">
@@ -17137,42 +17137,42 @@
       </c>
       <c r="AS77" t="inlineStr">
         <is>
-          <t>3.6</t>
+          <t>3.2</t>
         </is>
       </c>
       <c r="AT77" t="inlineStr">
         <is>
-          <t>337</t>
+          <t>53</t>
         </is>
       </c>
       <c r="AU77" t="inlineStr">
         <is>
-          <t>11.2</t>
+          <t>8.3</t>
         </is>
       </c>
       <c r="AV77" t="inlineStr">
         <is>
-          <t>997.2</t>
+          <t>996.3</t>
         </is>
       </c>
       <c r="AW77" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>80</t>
         </is>
       </c>
       <c r="AX77" t="inlineStr">
         <is>
-          <t>11.2</t>
+          <t>8.3</t>
         </is>
       </c>
       <c r="AY77" t="inlineStr">
         <is>
-          <t>997.2</t>
+          <t>996.3</t>
         </is>
       </c>
       <c r="AZ77" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>80</t>
         </is>
       </c>
       <c r="BA77" t="inlineStr"/>
@@ -17215,7 +17215,7 @@
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>2026-02-05 09:14:21</t>
+          <t>2026-02-05 10:05:48</t>
         </is>
       </c>
       <c r="I78" t="inlineStr">
@@ -17448,7 +17448,7 @@
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>2026-02-05 09:14:21</t>
+          <t>2026-02-05 10:05:48</t>
         </is>
       </c>
       <c r="I79" t="inlineStr">
@@ -17681,7 +17681,7 @@
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>2026-02-05 09:14:21</t>
+          <t>2026-02-05 10:05:48</t>
         </is>
       </c>
       <c r="I80" t="inlineStr">
@@ -17914,7 +17914,7 @@
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>2026-02-05 09:14:21</t>
+          <t>2026-02-05 10:05:48</t>
         </is>
       </c>
       <c r="I81" t="inlineStr">
@@ -18147,17 +18147,17 @@
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>2026-02-05 09:14:23</t>
+          <t>2026-02-05 10:05:51</t>
         </is>
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>08:30</t>
+          <t>09:30</t>
         </is>
       </c>
       <c r="J82" t="inlineStr">
         <is>
-          <t>https://www.meteo.cat/observacions/xema/dades?codi=Z2&amp;dia=2026-02-05T08:30Z</t>
+          <t>https://www.meteo.cat/observacions/xema/dades?codi=Z2&amp;dia=2026-02-05T09:30Z</t>
         </is>
       </c>
       <c r="K82" t="n">
@@ -18380,7 +18380,7 @@
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>2026-02-05 09:14:25</t>
+          <t>2026-02-05 10:05:52</t>
         </is>
       </c>
       <c r="I83" t="inlineStr">
@@ -18613,7 +18613,7 @@
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>2026-02-05 09:14:25</t>
+          <t>2026-02-05 10:05:52</t>
         </is>
       </c>
       <c r="I84" t="inlineStr">
@@ -18846,7 +18846,7 @@
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>2026-02-05 09:14:25</t>
+          <t>2026-02-05 10:05:52</t>
         </is>
       </c>
       <c r="I85" t="inlineStr">
@@ -19079,7 +19079,7 @@
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>2026-02-05 09:14:25</t>
+          <t>2026-02-05 10:05:52</t>
         </is>
       </c>
       <c r="I86" t="inlineStr">
@@ -19312,17 +19312,17 @@
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>2026-02-05 09:14:27</t>
+          <t>2026-02-05 10:05:55</t>
         </is>
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>08:30</t>
+          <t>09:30</t>
         </is>
       </c>
       <c r="J87" t="inlineStr">
         <is>
-          <t>https://www.meteo.cat/observacions/xema/dades?codi=VK&amp;dia=2026-02-05T08:30Z</t>
+          <t>https://www.meteo.cat/observacions/xema/dades?codi=VK&amp;dia=2026-02-05T09:30Z</t>
         </is>
       </c>
       <c r="K87" t="n">
@@ -19545,7 +19545,7 @@
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>2026-02-05 09:14:29</t>
+          <t>2026-02-05 10:05:56</t>
         </is>
       </c>
       <c r="I88" t="inlineStr">
@@ -19778,7 +19778,7 @@
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>2026-02-05 09:14:29</t>
+          <t>2026-02-05 10:05:56</t>
         </is>
       </c>
       <c r="I89" t="inlineStr">
@@ -20011,7 +20011,7 @@
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>2026-02-05 09:14:29</t>
+          <t>2026-02-05 10:05:56</t>
         </is>
       </c>
       <c r="I90" t="inlineStr">
@@ -20244,7 +20244,7 @@
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>2026-02-05 09:14:29</t>
+          <t>2026-02-05 10:05:56</t>
         </is>
       </c>
       <c r="I91" t="inlineStr">
@@ -20477,17 +20477,17 @@
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>2026-02-05 09:14:31</t>
+          <t>2026-02-05 10:05:59</t>
         </is>
       </c>
       <c r="I92" t="inlineStr">
         <is>
-          <t>08:30</t>
+          <t>09:30</t>
         </is>
       </c>
       <c r="J92" t="inlineStr">
         <is>
-          <t>https://www.meteo.cat/observacions/xema/dades?codi=Z3&amp;dia=2026-02-05T08:30Z</t>
+          <t>https://www.meteo.cat/observacions/xema/dades?codi=Z3&amp;dia=2026-02-05T09:30Z</t>
         </is>
       </c>
       <c r="K92" t="n">
@@ -20710,7 +20710,7 @@
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>2026-02-05 09:14:33</t>
+          <t>2026-02-05 10:06:00</t>
         </is>
       </c>
       <c r="I93" t="inlineStr">
@@ -20943,7 +20943,7 @@
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>2026-02-05 09:14:33</t>
+          <t>2026-02-05 10:06:00</t>
         </is>
       </c>
       <c r="I94" t="inlineStr">
@@ -21176,7 +21176,7 @@
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>2026-02-05 09:14:33</t>
+          <t>2026-02-05 10:06:00</t>
         </is>
       </c>
       <c r="I95" t="inlineStr">
@@ -21409,7 +21409,7 @@
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>2026-02-05 09:14:33</t>
+          <t>2026-02-05 10:06:00</t>
         </is>
       </c>
       <c r="I96" t="inlineStr">
@@ -21642,17 +21642,17 @@
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>2026-02-05 09:14:35</t>
+          <t>2026-02-05 10:06:03</t>
         </is>
       </c>
       <c r="I97" t="inlineStr">
         <is>
-          <t>08:30</t>
+          <t>09:30</t>
         </is>
       </c>
       <c r="J97" t="inlineStr">
         <is>
-          <t>https://www.meteo.cat/observacions/xema/dades?codi=YB&amp;dia=2026-02-05T08:30Z</t>
+          <t>https://www.meteo.cat/observacions/xema/dades?codi=YB&amp;dia=2026-02-05T09:30Z</t>
         </is>
       </c>
       <c r="K97" t="n">
@@ -21875,7 +21875,7 @@
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>2026-02-05 09:14:37</t>
+          <t>2026-02-05 10:06:04</t>
         </is>
       </c>
       <c r="I98" t="inlineStr">
@@ -22108,7 +22108,7 @@
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>2026-02-05 09:14:37</t>
+          <t>2026-02-05 10:06:04</t>
         </is>
       </c>
       <c r="I99" t="inlineStr">
@@ -22341,7 +22341,7 @@
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>2026-02-05 09:14:37</t>
+          <t>2026-02-05 10:06:04</t>
         </is>
       </c>
       <c r="I100" t="inlineStr">
@@ -22574,7 +22574,7 @@
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>2026-02-05 09:14:37</t>
+          <t>2026-02-05 10:06:04</t>
         </is>
       </c>
       <c r="I101" t="inlineStr">
@@ -22807,17 +22807,17 @@
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>2026-02-05 09:14:39</t>
+          <t>2026-02-05 10:06:07</t>
         </is>
       </c>
       <c r="I102" t="inlineStr">
         <is>
-          <t>08:30</t>
+          <t>09:30</t>
         </is>
       </c>
       <c r="J102" t="inlineStr">
         <is>
-          <t>https://www.meteo.cat/observacions/xema/dades?codi=YP&amp;dia=2026-02-05T08:30Z</t>
+          <t>https://www.meteo.cat/observacions/xema/dades?codi=YP&amp;dia=2026-02-05T09:30Z</t>
         </is>
       </c>
       <c r="K102" t="n">
@@ -23028,7 +23028,7 @@
       </c>
       <c r="H103" t="inlineStr">
         <is>
-          <t>2026-02-05 09:14:40</t>
+          <t>2026-02-05 10:06:08</t>
         </is>
       </c>
       <c r="I103" t="inlineStr">
@@ -23249,7 +23249,7 @@
       </c>
       <c r="H104" t="inlineStr">
         <is>
-          <t>2026-02-05 09:14:40</t>
+          <t>2026-02-05 10:06:08</t>
         </is>
       </c>
       <c r="I104" t="inlineStr">
@@ -23270,11 +23270,7 @@
           <t>Període TU, TM °C, TX °C, TN °C, HRM %, PPT mm, VVM (10 m) km/h, DVM (10 m) graus, VVX (10 m) km/h, RS W/m 2</t>
         </is>
       </c>
-      <c r="M104" t="inlineStr">
-        <is>
-          <t>199</t>
-        </is>
-      </c>
+      <c r="M104" t="inlineStr"/>
       <c r="N104" t="inlineStr"/>
       <c r="O104" t="inlineStr"/>
       <c r="P104" t="inlineStr"/>
@@ -23314,18 +23310,10 @@
           <t>3.6</t>
         </is>
       </c>
-      <c r="Y104" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
+      <c r="Y104" t="inlineStr"/>
       <c r="Z104" t="inlineStr"/>
       <c r="AA104" t="inlineStr"/>
-      <c r="AB104" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
+      <c r="AB104" t="inlineStr"/>
       <c r="AC104" t="inlineStr"/>
       <c r="AD104" t="inlineStr"/>
       <c r="AE104" t="inlineStr">
@@ -23358,16 +23346,8 @@
           <t>0.0</t>
         </is>
       </c>
-      <c r="AK104" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="AL104" t="inlineStr">
-        <is>
-          <t>199</t>
-        </is>
-      </c>
+      <c r="AK104" t="inlineStr"/>
+      <c r="AL104" t="inlineStr"/>
       <c r="AM104" t="inlineStr">
         <is>
           <t>23:00 - 23:30</t>
@@ -23398,32 +23378,16 @@
           <t>0.0</t>
         </is>
       </c>
-      <c r="AS104" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="AT104" t="inlineStr">
-        <is>
-          <t>199</t>
-        </is>
-      </c>
-      <c r="AU104" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
+      <c r="AS104" t="inlineStr"/>
+      <c r="AT104" t="inlineStr"/>
+      <c r="AU104" t="inlineStr"/>
       <c r="AV104" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
       <c r="AW104" t="inlineStr"/>
-      <c r="AX104" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
+      <c r="AX104" t="inlineStr"/>
       <c r="AY104" t="inlineStr">
         <is>
           <t>0</t>
@@ -23470,7 +23434,7 @@
       </c>
       <c r="H105" t="inlineStr">
         <is>
-          <t>2026-02-05 09:14:40</t>
+          <t>2026-02-05 10:06:08</t>
         </is>
       </c>
       <c r="I105" t="inlineStr">
@@ -23691,7 +23655,7 @@
       </c>
       <c r="H106" t="inlineStr">
         <is>
-          <t>2026-02-05 09:14:40</t>
+          <t>2026-02-05 10:06:08</t>
         </is>
       </c>
       <c r="I106" t="inlineStr">
@@ -23912,17 +23876,17 @@
       </c>
       <c r="H107" t="inlineStr">
         <is>
-          <t>2026-02-05 09:14:43</t>
+          <t>2026-02-05 10:06:11</t>
         </is>
       </c>
       <c r="I107" t="inlineStr">
         <is>
-          <t>08:30</t>
+          <t>09:30</t>
         </is>
       </c>
       <c r="J107" t="inlineStr">
         <is>
-          <t>https://www.meteo.cat/observacions/xema/dades?codi=J5&amp;dia=2026-02-05T08:30Z</t>
+          <t>https://www.meteo.cat/observacions/xema/dades?codi=J5&amp;dia=2026-02-05T09:30Z</t>
         </is>
       </c>
       <c r="K107" t="n">
@@ -24145,7 +24109,7 @@
       </c>
       <c r="H108" t="inlineStr">
         <is>
-          <t>2026-02-05 09:14:44</t>
+          <t>2026-02-05 10:06:12</t>
         </is>
       </c>
       <c r="I108" t="inlineStr">
@@ -24378,7 +24342,7 @@
       </c>
       <c r="H109" t="inlineStr">
         <is>
-          <t>2026-02-05 09:14:44</t>
+          <t>2026-02-05 10:06:12</t>
         </is>
       </c>
       <c r="I109" t="inlineStr">
@@ -24611,7 +24575,7 @@
       </c>
       <c r="H110" t="inlineStr">
         <is>
-          <t>2026-02-05 09:14:44</t>
+          <t>2026-02-05 10:06:12</t>
         </is>
       </c>
       <c r="I110" t="inlineStr">
@@ -24844,7 +24808,7 @@
       </c>
       <c r="H111" t="inlineStr">
         <is>
-          <t>2026-02-05 09:14:44</t>
+          <t>2026-02-05 10:06:12</t>
         </is>
       </c>
       <c r="I111" t="inlineStr">
@@ -25077,17 +25041,17 @@
       </c>
       <c r="H112" t="inlineStr">
         <is>
-          <t>2026-02-05 09:14:47</t>
+          <t>2026-02-05 10:06:15</t>
         </is>
       </c>
       <c r="I112" t="inlineStr">
         <is>
-          <t>08:30</t>
+          <t>09:30</t>
         </is>
       </c>
       <c r="J112" t="inlineStr">
         <is>
-          <t>https://www.meteo.cat/observacions/xema/dades?codi=D6&amp;dia=2026-02-05T08:30Z</t>
+          <t>https://www.meteo.cat/observacions/xema/dades?codi=D6&amp;dia=2026-02-05T09:30Z</t>
         </is>
       </c>
       <c r="K112" t="n">
@@ -25310,7 +25274,7 @@
       </c>
       <c r="H113" t="inlineStr">
         <is>
-          <t>2026-02-05 09:14:48</t>
+          <t>2026-02-05 10:06:17</t>
         </is>
       </c>
       <c r="I113" t="inlineStr">
@@ -25543,7 +25507,7 @@
       </c>
       <c r="H114" t="inlineStr">
         <is>
-          <t>2026-02-05 09:14:48</t>
+          <t>2026-02-05 10:06:17</t>
         </is>
       </c>
       <c r="I114" t="inlineStr">
@@ -25776,7 +25740,7 @@
       </c>
       <c r="H115" t="inlineStr">
         <is>
-          <t>2026-02-05 09:14:48</t>
+          <t>2026-02-05 10:06:17</t>
         </is>
       </c>
       <c r="I115" t="inlineStr">
@@ -26009,7 +25973,7 @@
       </c>
       <c r="H116" t="inlineStr">
         <is>
-          <t>2026-02-05 09:14:48</t>
+          <t>2026-02-05 10:06:17</t>
         </is>
       </c>
       <c r="I116" t="inlineStr">
@@ -26242,17 +26206,17 @@
       </c>
       <c r="H117" t="inlineStr">
         <is>
-          <t>2026-02-05 09:14:51</t>
+          <t>2026-02-05 10:06:19</t>
         </is>
       </c>
       <c r="I117" t="inlineStr">
         <is>
-          <t>08:30</t>
+          <t>09:30</t>
         </is>
       </c>
       <c r="J117" t="inlineStr">
         <is>
-          <t>https://www.meteo.cat/observacions/xema/dades?codi=YA&amp;dia=2026-02-05T08:30Z</t>
+          <t>https://www.meteo.cat/observacions/xema/dades?codi=YA&amp;dia=2026-02-05T09:30Z</t>
         </is>
       </c>
       <c r="K117" t="n">
@@ -26475,7 +26439,7 @@
       </c>
       <c r="H118" t="inlineStr">
         <is>
-          <t>2026-02-05 09:14:52</t>
+          <t>2026-02-05 10:06:21</t>
         </is>
       </c>
       <c r="I118" t="inlineStr">
@@ -26708,7 +26672,7 @@
       </c>
       <c r="H119" t="inlineStr">
         <is>
-          <t>2026-02-05 09:14:52</t>
+          <t>2026-02-05 10:06:21</t>
         </is>
       </c>
       <c r="I119" t="inlineStr">
@@ -26941,7 +26905,7 @@
       </c>
       <c r="H120" t="inlineStr">
         <is>
-          <t>2026-02-05 09:14:52</t>
+          <t>2026-02-05 10:06:21</t>
         </is>
       </c>
       <c r="I120" t="inlineStr">
@@ -27174,7 +27138,7 @@
       </c>
       <c r="H121" t="inlineStr">
         <is>
-          <t>2026-02-05 09:14:52</t>
+          <t>2026-02-05 10:06:21</t>
         </is>
       </c>
       <c r="I121" t="inlineStr">
@@ -27407,17 +27371,17 @@
       </c>
       <c r="H122" t="inlineStr">
         <is>
-          <t>2026-02-05 09:14:55</t>
+          <t>2026-02-05 10:06:23</t>
         </is>
       </c>
       <c r="I122" t="inlineStr">
         <is>
-          <t>08:30</t>
+          <t>09:30</t>
         </is>
       </c>
       <c r="J122" t="inlineStr">
         <is>
-          <t>https://www.meteo.cat/observacions/xema/dades?codi=DG&amp;dia=2026-02-05T08:30Z</t>
+          <t>https://www.meteo.cat/observacions/xema/dades?codi=DG&amp;dia=2026-02-05T09:30Z</t>
         </is>
       </c>
       <c r="K122" t="n">
@@ -27648,7 +27612,7 @@
       </c>
       <c r="H123" t="inlineStr">
         <is>
-          <t>2026-02-05 09:14:57</t>
+          <t>2026-02-05 10:06:25</t>
         </is>
       </c>
       <c r="I123" t="inlineStr">
@@ -27889,7 +27853,7 @@
       </c>
       <c r="H124" t="inlineStr">
         <is>
-          <t>2026-02-05 09:14:57</t>
+          <t>2026-02-05 10:06:25</t>
         </is>
       </c>
       <c r="I124" t="inlineStr">
@@ -28130,7 +28094,7 @@
       </c>
       <c r="H125" t="inlineStr">
         <is>
-          <t>2026-02-05 09:14:57</t>
+          <t>2026-02-05 10:06:25</t>
         </is>
       </c>
       <c r="I125" t="inlineStr">
@@ -28371,7 +28335,7 @@
       </c>
       <c r="H126" t="inlineStr">
         <is>
-          <t>2026-02-05 09:14:57</t>
+          <t>2026-02-05 10:06:25</t>
         </is>
       </c>
       <c r="I126" t="inlineStr">
@@ -28401,7 +28365,7 @@
       <c r="O126" t="inlineStr"/>
       <c r="P126" t="inlineStr">
         <is>
-          <t>111</t>
+          <t>110</t>
         </is>
       </c>
       <c r="Q126" t="inlineStr">
@@ -28490,7 +28454,7 @@
       </c>
       <c r="AK126" t="inlineStr">
         <is>
-          <t>111</t>
+          <t>110</t>
         </is>
       </c>
       <c r="AL126" t="inlineStr">
@@ -28530,7 +28494,7 @@
       </c>
       <c r="AS126" t="inlineStr">
         <is>
-          <t>111</t>
+          <t>110</t>
         </is>
       </c>
       <c r="AT126" t="inlineStr">
@@ -28597,7 +28561,7 @@
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>07:30 - 08:00</t>
+          <t>08:30 - 09:00</t>
         </is>
       </c>
       <c r="F127" t="inlineStr">
@@ -28612,17 +28576,17 @@
       </c>
       <c r="H127" t="inlineStr">
         <is>
-          <t>2026-02-05 09:14:59</t>
+          <t>2026-02-05 10:06:27</t>
         </is>
       </c>
       <c r="I127" t="inlineStr">
         <is>
-          <t>08:30</t>
+          <t>09:30</t>
         </is>
       </c>
       <c r="J127" t="inlineStr">
         <is>
-          <t>https://www.meteo.cat/observacions/xema/dades?codi=D4&amp;dia=2026-02-05T08:30Z</t>
+          <t>https://www.meteo.cat/observacions/xema/dades?codi=D4&amp;dia=2026-02-05T09:30Z</t>
         </is>
       </c>
       <c r="K127" t="n">
@@ -28635,7 +28599,7 @@
       </c>
       <c r="M127" t="inlineStr">
         <is>
-          <t>297</t>
+          <t>325</t>
         </is>
       </c>
       <c r="N127" t="inlineStr"/>
@@ -28648,71 +28612,71 @@
       </c>
       <c r="R127" t="inlineStr">
         <is>
-          <t>993.3</t>
+          <t>992.2</t>
         </is>
       </c>
       <c r="S127" t="inlineStr">
         <is>
-          <t>0.1</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="T127" t="inlineStr">
         <is>
-          <t>07:30 - 08:00</t>
+          <t>08:30 - 09:00</t>
         </is>
       </c>
       <c r="U127" t="inlineStr">
         <is>
-          <t>56</t>
+          <t>106</t>
         </is>
       </c>
       <c r="V127" t="inlineStr">
         <is>
-          <t>4.3</t>
+          <t>5.8</t>
         </is>
       </c>
       <c r="W127" t="inlineStr">
         <is>
-          <t>4.1</t>
+          <t>5.1</t>
         </is>
       </c>
       <c r="X127" t="inlineStr">
         <is>
-          <t>4.5</t>
+          <t>6.5</t>
         </is>
       </c>
       <c r="Y127" t="inlineStr">
         <is>
-          <t>3.2</t>
+          <t>1.4</t>
         </is>
       </c>
       <c r="Z127" t="inlineStr"/>
       <c r="AA127" t="inlineStr"/>
       <c r="AB127" t="inlineStr">
         <is>
-          <t>6.5</t>
+          <t>4.7</t>
         </is>
       </c>
       <c r="AC127" t="inlineStr"/>
       <c r="AD127" t="inlineStr"/>
       <c r="AE127" t="inlineStr">
         <is>
-          <t>07:30 - 08:00</t>
+          <t>08:30 - 09:00</t>
         </is>
       </c>
       <c r="AF127" t="inlineStr">
         <is>
-          <t>4.3</t>
+          <t>5.8</t>
         </is>
       </c>
       <c r="AG127" t="inlineStr">
         <is>
-          <t>4.5</t>
+          <t>6.5</t>
         </is>
       </c>
       <c r="AH127" t="inlineStr">
         <is>
-          <t>4.1</t>
+          <t>5.1</t>
         </is>
       </c>
       <c r="AI127" t="inlineStr">
@@ -28722,37 +28686,37 @@
       </c>
       <c r="AJ127" t="inlineStr">
         <is>
-          <t>0.1</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="AK127" t="inlineStr">
         <is>
-          <t>3.2</t>
+          <t>1.4</t>
         </is>
       </c>
       <c r="AL127" t="inlineStr">
         <is>
-          <t>297</t>
+          <t>325</t>
         </is>
       </c>
       <c r="AM127" t="inlineStr">
         <is>
-          <t>07:30 - 08:00</t>
+          <t>08:30 - 09:00</t>
         </is>
       </c>
       <c r="AN127" t="inlineStr">
         <is>
-          <t>4.3</t>
+          <t>5.8</t>
         </is>
       </c>
       <c r="AO127" t="inlineStr">
         <is>
-          <t>4.5</t>
+          <t>6.5</t>
         </is>
       </c>
       <c r="AP127" t="inlineStr">
         <is>
-          <t>4.1</t>
+          <t>5.1</t>
         </is>
       </c>
       <c r="AQ127" t="inlineStr">
@@ -28762,47 +28726,47 @@
       </c>
       <c r="AR127" t="inlineStr">
         <is>
-          <t>0.1</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="AS127" t="inlineStr">
         <is>
-          <t>3.2</t>
+          <t>1.4</t>
         </is>
       </c>
       <c r="AT127" t="inlineStr">
         <is>
-          <t>297</t>
+          <t>325</t>
         </is>
       </c>
       <c r="AU127" t="inlineStr">
         <is>
-          <t>6.5</t>
+          <t>4.7</t>
         </is>
       </c>
       <c r="AV127" t="inlineStr">
         <is>
-          <t>993.3</t>
+          <t>992.2</t>
         </is>
       </c>
       <c r="AW127" t="inlineStr">
         <is>
-          <t>56</t>
+          <t>106</t>
         </is>
       </c>
       <c r="AX127" t="inlineStr">
         <is>
-          <t>6.5</t>
+          <t>4.7</t>
         </is>
       </c>
       <c r="AY127" t="inlineStr">
         <is>
-          <t>993.3</t>
+          <t>992.2</t>
         </is>
       </c>
       <c r="AZ127" t="inlineStr">
         <is>
-          <t>56</t>
+          <t>106</t>
         </is>
       </c>
       <c r="BA127" t="inlineStr"/>
@@ -28845,7 +28809,7 @@
       </c>
       <c r="H128" t="inlineStr">
         <is>
-          <t>2026-02-05 09:15:01</t>
+          <t>2026-02-05 10:06:29</t>
         </is>
       </c>
       <c r="I128" t="inlineStr">
@@ -29078,7 +29042,7 @@
       </c>
       <c r="H129" t="inlineStr">
         <is>
-          <t>2026-02-05 09:15:01</t>
+          <t>2026-02-05 10:06:29</t>
         </is>
       </c>
       <c r="I129" t="inlineStr">
@@ -29311,7 +29275,7 @@
       </c>
       <c r="H130" t="inlineStr">
         <is>
-          <t>2026-02-05 09:15:01</t>
+          <t>2026-02-05 10:06:29</t>
         </is>
       </c>
       <c r="I130" t="inlineStr">
@@ -29544,7 +29508,7 @@
       </c>
       <c r="H131" t="inlineStr">
         <is>
-          <t>2026-02-05 09:15:01</t>
+          <t>2026-02-05 10:06:29</t>
         </is>
       </c>
       <c r="I131" t="inlineStr">
@@ -29777,17 +29741,17 @@
       </c>
       <c r="H132" t="inlineStr">
         <is>
-          <t>2026-02-05 09:15:03</t>
+          <t>2026-02-05 10:06:31</t>
         </is>
       </c>
       <c r="I132" t="inlineStr">
         <is>
-          <t>08:30</t>
+          <t>09:30</t>
         </is>
       </c>
       <c r="J132" t="inlineStr">
         <is>
-          <t>https://www.meteo.cat/observacions/xema/dades?codi=CI&amp;dia=2026-02-05T08:30Z</t>
+          <t>https://www.meteo.cat/observacions/xema/dades?codi=CI&amp;dia=2026-02-05T09:30Z</t>
         </is>
       </c>
       <c r="K132" t="n">
@@ -29998,7 +29962,7 @@
       </c>
       <c r="H133" t="inlineStr">
         <is>
-          <t>2026-02-05 09:15:04</t>
+          <t>2026-02-05 10:06:33</t>
         </is>
       </c>
       <c r="I133" t="inlineStr">
@@ -30219,7 +30183,7 @@
       </c>
       <c r="H134" t="inlineStr">
         <is>
-          <t>2026-02-05 09:15:04</t>
+          <t>2026-02-05 10:06:33</t>
         </is>
       </c>
       <c r="I134" t="inlineStr">
@@ -30440,7 +30404,7 @@
       </c>
       <c r="H135" t="inlineStr">
         <is>
-          <t>2026-02-05 09:15:04</t>
+          <t>2026-02-05 10:06:33</t>
         </is>
       </c>
       <c r="I135" t="inlineStr">
@@ -30661,7 +30625,7 @@
       </c>
       <c r="H136" t="inlineStr">
         <is>
-          <t>2026-02-05 09:15:04</t>
+          <t>2026-02-05 10:06:33</t>
         </is>
       </c>
       <c r="I136" t="inlineStr">
@@ -30882,17 +30846,17 @@
       </c>
       <c r="H137" t="inlineStr">
         <is>
-          <t>2026-02-05 09:15:07</t>
+          <t>2026-02-05 10:06:35</t>
         </is>
       </c>
       <c r="I137" t="inlineStr">
         <is>
-          <t>08:30</t>
+          <t>09:30</t>
         </is>
       </c>
       <c r="J137" t="inlineStr">
         <is>
-          <t>https://www.meteo.cat/observacions/xema/dades?codi=XS&amp;dia=2026-02-05T08:30Z</t>
+          <t>https://www.meteo.cat/observacions/xema/dades?codi=XS&amp;dia=2026-02-05T09:30Z</t>
         </is>
       </c>
       <c r="K137" t="n">
@@ -31103,7 +31067,7 @@
       </c>
       <c r="H138" t="inlineStr">
         <is>
-          <t>2026-02-05 09:15:09</t>
+          <t>2026-02-05 10:06:37</t>
         </is>
       </c>
       <c r="I138" t="inlineStr">
@@ -31324,7 +31288,7 @@
       </c>
       <c r="H139" t="inlineStr">
         <is>
-          <t>2026-02-05 09:15:09</t>
+          <t>2026-02-05 10:06:37</t>
         </is>
       </c>
       <c r="I139" t="inlineStr">
@@ -31545,7 +31509,7 @@
       </c>
       <c r="H140" t="inlineStr">
         <is>
-          <t>2026-02-05 09:15:09</t>
+          <t>2026-02-05 10:06:37</t>
         </is>
       </c>
       <c r="I140" t="inlineStr">
@@ -31766,7 +31730,7 @@
       </c>
       <c r="H141" t="inlineStr">
         <is>
-          <t>2026-02-05 09:15:09</t>
+          <t>2026-02-05 10:06:37</t>
         </is>
       </c>
       <c r="I141" t="inlineStr">
@@ -31987,17 +31951,17 @@
       </c>
       <c r="H142" t="inlineStr">
         <is>
-          <t>2026-02-05 09:15:11</t>
+          <t>2026-02-05 10:06:39</t>
         </is>
       </c>
       <c r="I142" t="inlineStr">
         <is>
-          <t>08:30</t>
+          <t>09:30</t>
         </is>
       </c>
       <c r="J142" t="inlineStr">
         <is>
-          <t>https://www.meteo.cat/observacions/xema/dades?codi=ZC&amp;dia=2026-02-05T08:30Z</t>
+          <t>https://www.meteo.cat/observacions/xema/dades?codi=ZC&amp;dia=2026-02-05T09:30Z</t>
         </is>
       </c>
       <c r="K142" t="n">
@@ -32220,7 +32184,7 @@
       </c>
       <c r="H143" t="inlineStr">
         <is>
-          <t>2026-02-05 09:15:13</t>
+          <t>2026-02-05 10:06:40</t>
         </is>
       </c>
       <c r="I143" t="inlineStr">
@@ -32453,7 +32417,7 @@
       </c>
       <c r="H144" t="inlineStr">
         <is>
-          <t>2026-02-05 09:15:13</t>
+          <t>2026-02-05 10:06:40</t>
         </is>
       </c>
       <c r="I144" t="inlineStr">
@@ -32686,7 +32650,7 @@
       </c>
       <c r="H145" t="inlineStr">
         <is>
-          <t>2026-02-05 09:15:13</t>
+          <t>2026-02-05 10:06:40</t>
         </is>
       </c>
       <c r="I145" t="inlineStr">
@@ -32919,7 +32883,7 @@
       </c>
       <c r="H146" t="inlineStr">
         <is>
-          <t>2026-02-05 09:15:13</t>
+          <t>2026-02-05 10:06:40</t>
         </is>
       </c>
       <c r="I146" t="inlineStr">
@@ -32949,7 +32913,7 @@
       <c r="O146" t="inlineStr"/>
       <c r="P146" t="inlineStr">
         <is>
-          <t>56</t>
+          <t>57</t>
         </is>
       </c>
       <c r="Q146" t="inlineStr">
@@ -33034,7 +32998,7 @@
       </c>
       <c r="AK146" t="inlineStr">
         <is>
-          <t>56</t>
+          <t>57</t>
         </is>
       </c>
       <c r="AL146" t="inlineStr">
@@ -33074,7 +33038,7 @@
       </c>
       <c r="AS146" t="inlineStr">
         <is>
-          <t>56</t>
+          <t>57</t>
         </is>
       </c>
       <c r="AT146" t="inlineStr">
@@ -33137,7 +33101,7 @@
       </c>
       <c r="E147" t="inlineStr">
         <is>
-          <t>07:00 - 07:30</t>
+          <t>08:30 - 09:00</t>
         </is>
       </c>
       <c r="F147" t="inlineStr">
@@ -33152,17 +33116,17 @@
       </c>
       <c r="H147" t="inlineStr">
         <is>
-          <t>2026-02-05 09:15:15</t>
+          <t>2026-02-05 10:06:43</t>
         </is>
       </c>
       <c r="I147" t="inlineStr">
         <is>
-          <t>08:30</t>
+          <t>09:30</t>
         </is>
       </c>
       <c r="J147" t="inlineStr">
         <is>
-          <t>https://www.meteo.cat/observacions/xema/dades?codi=XH&amp;dia=2026-02-05T08:30Z</t>
+          <t>https://www.meteo.cat/observacions/xema/dades?codi=XH&amp;dia=2026-02-05T09:30Z</t>
         </is>
       </c>
       <c r="K147" t="n">
@@ -33178,17 +33142,17 @@
       <c r="O147" t="inlineStr"/>
       <c r="P147" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="Q147" t="inlineStr">
         <is>
-          <t>93</t>
+          <t>82</t>
         </is>
       </c>
       <c r="R147" t="inlineStr">
         <is>
-          <t>996.1</t>
+          <t>995.1</t>
         </is>
       </c>
       <c r="S147" t="inlineStr">
@@ -33198,23 +33162,23 @@
       </c>
       <c r="T147" t="inlineStr">
         <is>
-          <t>07:00 - 07:30</t>
+          <t>08:30 - 09:00</t>
         </is>
       </c>
       <c r="U147" t="inlineStr"/>
       <c r="V147" t="inlineStr">
         <is>
-          <t>3.3</t>
+          <t>4.8</t>
         </is>
       </c>
       <c r="W147" t="inlineStr">
         <is>
-          <t>3.2</t>
+          <t>4.6</t>
         </is>
       </c>
       <c r="X147" t="inlineStr">
         <is>
-          <t>3.6</t>
+          <t>4.9</t>
         </is>
       </c>
       <c r="Y147" t="inlineStr"/>
@@ -33225,27 +33189,27 @@
       <c r="AD147" t="inlineStr"/>
       <c r="AE147" t="inlineStr">
         <is>
-          <t>07:00 - 07:30</t>
+          <t>08:30 - 09:00</t>
         </is>
       </c>
       <c r="AF147" t="inlineStr">
         <is>
-          <t>3.3</t>
+          <t>4.8</t>
         </is>
       </c>
       <c r="AG147" t="inlineStr">
         <is>
-          <t>3.6</t>
+          <t>4.9</t>
         </is>
       </c>
       <c r="AH147" t="inlineStr">
         <is>
-          <t>3.2</t>
+          <t>4.6</t>
         </is>
       </c>
       <c r="AI147" t="inlineStr">
         <is>
-          <t>93</t>
+          <t>82</t>
         </is>
       </c>
       <c r="AJ147" t="inlineStr">
@@ -33255,37 +33219,37 @@
       </c>
       <c r="AK147" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="AL147" t="inlineStr">
         <is>
-          <t>996.1</t>
+          <t>995.1</t>
         </is>
       </c>
       <c r="AM147" t="inlineStr">
         <is>
-          <t>07:00 - 07:30</t>
+          <t>08:30 - 09:00</t>
         </is>
       </c>
       <c r="AN147" t="inlineStr">
         <is>
-          <t>3.3</t>
+          <t>4.8</t>
         </is>
       </c>
       <c r="AO147" t="inlineStr">
         <is>
-          <t>3.6</t>
+          <t>4.9</t>
         </is>
       </c>
       <c r="AP147" t="inlineStr">
         <is>
-          <t>3.2</t>
+          <t>4.6</t>
         </is>
       </c>
       <c r="AQ147" t="inlineStr">
         <is>
-          <t>93</t>
+          <t>82</t>
         </is>
       </c>
       <c r="AR147" t="inlineStr">
@@ -33295,12 +33259,12 @@
       </c>
       <c r="AS147" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="AT147" t="inlineStr">
         <is>
-          <t>996.1</t>
+          <t>995.1</t>
         </is>
       </c>
       <c r="AU147" t="inlineStr"/>
@@ -33349,7 +33313,7 @@
       </c>
       <c r="H148" t="inlineStr">
         <is>
-          <t>2026-02-05 09:15:16</t>
+          <t>2026-02-05 10:06:44</t>
         </is>
       </c>
       <c r="I148" t="inlineStr">
@@ -33375,7 +33339,7 @@
       <c r="O148" t="inlineStr"/>
       <c r="P148" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="Q148" t="inlineStr">
@@ -33452,7 +33416,7 @@
       </c>
       <c r="AK148" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AL148" t="inlineStr">
@@ -33492,7 +33456,7 @@
       </c>
       <c r="AS148" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AT148" t="inlineStr">
@@ -33546,7 +33510,7 @@
       </c>
       <c r="H149" t="inlineStr">
         <is>
-          <t>2026-02-05 09:15:16</t>
+          <t>2026-02-05 10:06:44</t>
         </is>
       </c>
       <c r="I149" t="inlineStr">
@@ -33572,7 +33536,7 @@
       <c r="O149" t="inlineStr"/>
       <c r="P149" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="Q149" t="inlineStr">
@@ -33649,7 +33613,7 @@
       </c>
       <c r="AK149" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AL149" t="inlineStr">
@@ -33689,7 +33653,7 @@
       </c>
       <c r="AS149" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AT149" t="inlineStr">
@@ -33743,7 +33707,7 @@
       </c>
       <c r="H150" t="inlineStr">
         <is>
-          <t>2026-02-05 09:15:16</t>
+          <t>2026-02-05 10:06:44</t>
         </is>
       </c>
       <c r="I150" t="inlineStr">
@@ -33769,7 +33733,7 @@
       <c r="O150" t="inlineStr"/>
       <c r="P150" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="Q150" t="inlineStr">
@@ -33846,7 +33810,7 @@
       </c>
       <c r="AK150" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AL150" t="inlineStr">
@@ -33886,7 +33850,7 @@
       </c>
       <c r="AS150" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AT150" t="inlineStr">
@@ -33940,7 +33904,7 @@
       </c>
       <c r="H151" t="inlineStr">
         <is>
-          <t>2026-02-05 09:15:16</t>
+          <t>2026-02-05 10:06:44</t>
         </is>
       </c>
       <c r="I151" t="inlineStr">
@@ -33966,7 +33930,7 @@
       <c r="O151" t="inlineStr"/>
       <c r="P151" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="Q151" t="inlineStr">
@@ -34043,7 +34007,7 @@
       </c>
       <c r="AK151" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AL151" t="inlineStr">
@@ -34083,7 +34047,7 @@
       </c>
       <c r="AS151" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AT151" t="inlineStr">
@@ -34137,17 +34101,17 @@
       </c>
       <c r="H152" t="inlineStr">
         <is>
-          <t>2026-02-05 09:15:19</t>
+          <t>2026-02-05 10:06:47</t>
         </is>
       </c>
       <c r="I152" t="inlineStr">
         <is>
-          <t>08:30</t>
+          <t>09:30</t>
         </is>
       </c>
       <c r="J152" t="inlineStr">
         <is>
-          <t>https://www.meteo.cat/observacions/xema/dades?codi=XE&amp;dia=2026-02-05T08:30Z</t>
+          <t>https://www.meteo.cat/observacions/xema/dades?codi=XE&amp;dia=2026-02-05T09:30Z</t>
         </is>
       </c>
       <c r="K152" t="n">
@@ -34370,7 +34334,7 @@
       </c>
       <c r="H153" t="inlineStr">
         <is>
-          <t>2026-02-05 09:15:20</t>
+          <t>2026-02-05 10:06:48</t>
         </is>
       </c>
       <c r="I153" t="inlineStr">
@@ -34603,7 +34567,7 @@
       </c>
       <c r="H154" t="inlineStr">
         <is>
-          <t>2026-02-05 09:15:20</t>
+          <t>2026-02-05 10:06:48</t>
         </is>
       </c>
       <c r="I154" t="inlineStr">
@@ -34836,7 +34800,7 @@
       </c>
       <c r="H155" t="inlineStr">
         <is>
-          <t>2026-02-05 09:15:20</t>
+          <t>2026-02-05 10:06:48</t>
         </is>
       </c>
       <c r="I155" t="inlineStr">
@@ -35069,7 +35033,7 @@
       </c>
       <c r="H156" t="inlineStr">
         <is>
-          <t>2026-02-05 09:15:20</t>
+          <t>2026-02-05 10:06:48</t>
         </is>
       </c>
       <c r="I156" t="inlineStr">
@@ -35302,17 +35266,17 @@
       </c>
       <c r="H157" t="inlineStr">
         <is>
-          <t>2026-02-05 09:15:23</t>
+          <t>2026-02-05 10:06:50</t>
         </is>
       </c>
       <c r="I157" t="inlineStr">
         <is>
-          <t>08:30</t>
+          <t>09:30</t>
         </is>
       </c>
       <c r="J157" t="inlineStr">
         <is>
-          <t>https://www.meteo.cat/observacions/xema/dades?codi=UE&amp;dia=2026-02-05T08:30Z</t>
+          <t>https://www.meteo.cat/observacions/xema/dades?codi=UE&amp;dia=2026-02-05T09:30Z</t>
         </is>
       </c>
       <c r="K157" t="n">
@@ -35475,7 +35439,7 @@
       </c>
       <c r="H158" t="inlineStr">
         <is>
-          <t>2026-02-05 09:15:24</t>
+          <t>2026-02-05 10:06:52</t>
         </is>
       </c>
       <c r="I158" t="inlineStr">
@@ -35648,7 +35612,7 @@
       </c>
       <c r="H159" t="inlineStr">
         <is>
-          <t>2026-02-05 09:15:24</t>
+          <t>2026-02-05 10:06:52</t>
         </is>
       </c>
       <c r="I159" t="inlineStr">
@@ -35821,7 +35785,7 @@
       </c>
       <c r="H160" t="inlineStr">
         <is>
-          <t>2026-02-05 09:15:24</t>
+          <t>2026-02-05 10:06:52</t>
         </is>
       </c>
       <c r="I160" t="inlineStr">
@@ -35994,7 +35958,7 @@
       </c>
       <c r="H161" t="inlineStr">
         <is>
-          <t>2026-02-05 09:15:24</t>
+          <t>2026-02-05 10:06:52</t>
         </is>
       </c>
       <c r="I161" t="inlineStr">
@@ -36167,17 +36131,17 @@
       </c>
       <c r="H162" t="inlineStr">
         <is>
-          <t>2026-02-05 09:15:27</t>
+          <t>2026-02-05 10:06:54</t>
         </is>
       </c>
       <c r="I162" t="inlineStr">
         <is>
-          <t>08:30</t>
+          <t>09:30</t>
         </is>
       </c>
       <c r="J162" t="inlineStr">
         <is>
-          <t>https://www.meteo.cat/observacions/xema/dades?codi=XO&amp;dia=2026-02-05T08:30Z</t>
+          <t>https://www.meteo.cat/observacions/xema/dades?codi=XO&amp;dia=2026-02-05T09:30Z</t>
         </is>
       </c>
       <c r="K162" t="n">
@@ -36388,7 +36352,7 @@
       </c>
       <c r="H163" t="inlineStr">
         <is>
-          <t>2026-02-05 09:15:28</t>
+          <t>2026-02-05 10:06:55</t>
         </is>
       </c>
       <c r="I163" t="inlineStr">
@@ -36609,7 +36573,7 @@
       </c>
       <c r="H164" t="inlineStr">
         <is>
-          <t>2026-02-05 09:15:28</t>
+          <t>2026-02-05 10:06:55</t>
         </is>
       </c>
       <c r="I164" t="inlineStr">
@@ -36830,7 +36794,7 @@
       </c>
       <c r="H165" t="inlineStr">
         <is>
-          <t>2026-02-05 09:15:28</t>
+          <t>2026-02-05 10:06:55</t>
         </is>
       </c>
       <c r="I165" t="inlineStr">
@@ -37051,7 +37015,7 @@
       </c>
       <c r="H166" t="inlineStr">
         <is>
-          <t>2026-02-05 09:15:28</t>
+          <t>2026-02-05 10:06:55</t>
         </is>
       </c>
       <c r="I166" t="inlineStr">
@@ -37257,7 +37221,7 @@
       </c>
       <c r="E167" t="inlineStr">
         <is>
-          <t>07:00 - 07:30</t>
+          <t>08:30 - 09:00</t>
         </is>
       </c>
       <c r="F167" t="inlineStr">
@@ -37272,17 +37236,17 @@
       </c>
       <c r="H167" t="inlineStr">
         <is>
-          <t>2026-02-05 09:15:31</t>
+          <t>2026-02-05 10:06:58</t>
         </is>
       </c>
       <c r="I167" t="inlineStr">
         <is>
-          <t>08:30</t>
+          <t>09:30</t>
         </is>
       </c>
       <c r="J167" t="inlineStr">
         <is>
-          <t>https://www.meteo.cat/observacions/xema/dades?codi=VS&amp;dia=2026-02-05T08:30Z</t>
+          <t>https://www.meteo.cat/observacions/xema/dades?codi=VS&amp;dia=2026-02-05T09:30Z</t>
         </is>
       </c>
       <c r="K167" t="n">
@@ -37312,7 +37276,7 @@
       </c>
       <c r="R167" t="inlineStr">
         <is>
-          <t>827.7</t>
+          <t>824.1</t>
         </is>
       </c>
       <c r="S167" t="inlineStr">
@@ -37322,27 +37286,27 @@
       </c>
       <c r="T167" t="inlineStr">
         <is>
-          <t>07:00 - 07:30</t>
+          <t>08:30 - 09:00</t>
         </is>
       </c>
       <c r="U167" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>69</t>
         </is>
       </c>
       <c r="V167" t="inlineStr">
         <is>
-          <t>-3.4</t>
+          <t>-3.1</t>
         </is>
       </c>
       <c r="W167" t="inlineStr">
         <is>
-          <t>-3.4</t>
+          <t>-3.1</t>
         </is>
       </c>
       <c r="X167" t="inlineStr">
         <is>
-          <t>-3.4</t>
+          <t>-3.0</t>
         </is>
       </c>
       <c r="Y167" t="inlineStr">
@@ -37361,22 +37325,22 @@
       <c r="AD167" t="inlineStr"/>
       <c r="AE167" t="inlineStr">
         <is>
-          <t>07:00 - 07:30</t>
+          <t>08:30 - 09:00</t>
         </is>
       </c>
       <c r="AF167" t="inlineStr">
         <is>
-          <t>-3.4</t>
+          <t>-3.1</t>
         </is>
       </c>
       <c r="AG167" t="inlineStr">
         <is>
-          <t>-3.4</t>
+          <t>-3.0</t>
         </is>
       </c>
       <c r="AH167" t="inlineStr">
         <is>
-          <t>-3.4</t>
+          <t>-3.1</t>
         </is>
       </c>
       <c r="AI167" t="inlineStr">
@@ -37401,22 +37365,22 @@
       </c>
       <c r="AM167" t="inlineStr">
         <is>
-          <t>07:00 - 07:30</t>
+          <t>08:30 - 09:00</t>
         </is>
       </c>
       <c r="AN167" t="inlineStr">
         <is>
-          <t>-3.4</t>
+          <t>-3.1</t>
         </is>
       </c>
       <c r="AO167" t="inlineStr">
         <is>
-          <t>-3.4</t>
+          <t>-3.0</t>
         </is>
       </c>
       <c r="AP167" t="inlineStr">
         <is>
-          <t>-3.4</t>
+          <t>-3.1</t>
         </is>
       </c>
       <c r="AQ167" t="inlineStr">
@@ -37451,7 +37415,7 @@
       </c>
       <c r="AW167" t="inlineStr">
         <is>
-          <t>827.7</t>
+          <t>824.1</t>
         </is>
       </c>
       <c r="AX167" t="inlineStr">
@@ -37466,12 +37430,12 @@
       </c>
       <c r="AZ167" t="inlineStr">
         <is>
-          <t>827.7</t>
+          <t>824.1</t>
         </is>
       </c>
       <c r="BA167" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>69</t>
         </is>
       </c>
     </row>
@@ -37513,7 +37477,7 @@
       </c>
       <c r="H168" t="inlineStr">
         <is>
-          <t>2026-02-05 09:15:32</t>
+          <t>2026-02-05 10:07:00</t>
         </is>
       </c>
       <c r="I168" t="inlineStr">
@@ -37527,18 +37491,14 @@
         </is>
       </c>
       <c r="K168" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="L168" t="inlineStr">
         <is>
-          <t>Període TU, TM °C, TX °C, TN °C, HRM %, PPT mm, GN cm, VVM (10 m) km/h, DVM (10 m) graus, VVX (10 m) km/h, PM hPa, RS W/m 2</t>
-        </is>
-      </c>
-      <c r="M168" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
+          <t>Període TU, TM °C, TX °C, TN °C, HRM %, PPT mm, GN cm, PM hPa, RS W/m 2</t>
+        </is>
+      </c>
+      <c r="M168" t="inlineStr"/>
       <c r="N168" t="inlineStr"/>
       <c r="O168" t="inlineStr"/>
       <c r="P168" t="inlineStr">
@@ -37586,18 +37546,10 @@
           <t>-3.5</t>
         </is>
       </c>
-      <c r="Y168" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
+      <c r="Y168" t="inlineStr"/>
       <c r="Z168" t="inlineStr"/>
       <c r="AA168" t="inlineStr"/>
-      <c r="AB168" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
+      <c r="AB168" t="inlineStr"/>
       <c r="AC168" t="inlineStr"/>
       <c r="AD168" t="inlineStr"/>
       <c r="AE168" t="inlineStr">
@@ -37637,7 +37589,7 @@
       </c>
       <c r="AL168" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>829.5</t>
         </is>
       </c>
       <c r="AM168" t="inlineStr">
@@ -37677,7 +37629,7 @@
       </c>
       <c r="AT168" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>829.5</t>
         </is>
       </c>
       <c r="AU168" t="inlineStr">
@@ -37685,36 +37637,16 @@
           <t>0</t>
         </is>
       </c>
-      <c r="AV168" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="AW168" t="inlineStr">
-        <is>
-          <t>829.5</t>
-        </is>
-      </c>
+      <c r="AV168" t="inlineStr"/>
+      <c r="AW168" t="inlineStr"/>
       <c r="AX168" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="AY168" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="AZ168" t="inlineStr">
-        <is>
-          <t>829.5</t>
-        </is>
-      </c>
-      <c r="BA168" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
+      <c r="AY168" t="inlineStr"/>
+      <c r="AZ168" t="inlineStr"/>
+      <c r="BA168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
@@ -37754,7 +37686,7 @@
       </c>
       <c r="H169" t="inlineStr">
         <is>
-          <t>2026-02-05 09:15:32</t>
+          <t>2026-02-05 10:07:00</t>
         </is>
       </c>
       <c r="I169" t="inlineStr">
@@ -37768,18 +37700,14 @@
         </is>
       </c>
       <c r="K169" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="L169" t="inlineStr">
         <is>
-          <t>Període TU, TM °C, TX °C, TN °C, HRM %, PPT mm, GN cm, VVM (10 m) km/h, DVM (10 m) graus, VVX (10 m) km/h, PM hPa, RS W/m 2</t>
-        </is>
-      </c>
-      <c r="M169" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
+          <t>Període TU, TM °C, TX °C, TN °C, HRM %, PPT mm, GN cm, PM hPa, RS W/m 2</t>
+        </is>
+      </c>
+      <c r="M169" t="inlineStr"/>
       <c r="N169" t="inlineStr"/>
       <c r="O169" t="inlineStr"/>
       <c r="P169" t="inlineStr">
@@ -37827,18 +37755,10 @@
           <t>-3.6</t>
         </is>
       </c>
-      <c r="Y169" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
+      <c r="Y169" t="inlineStr"/>
       <c r="Z169" t="inlineStr"/>
       <c r="AA169" t="inlineStr"/>
-      <c r="AB169" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
+      <c r="AB169" t="inlineStr"/>
       <c r="AC169" t="inlineStr"/>
       <c r="AD169" t="inlineStr"/>
       <c r="AE169" t="inlineStr">
@@ -37878,7 +37798,7 @@
       </c>
       <c r="AL169" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>829.7</t>
         </is>
       </c>
       <c r="AM169" t="inlineStr">
@@ -37918,7 +37838,7 @@
       </c>
       <c r="AT169" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>829.7</t>
         </is>
       </c>
       <c r="AU169" t="inlineStr">
@@ -37926,36 +37846,16 @@
           <t>0</t>
         </is>
       </c>
-      <c r="AV169" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="AW169" t="inlineStr">
-        <is>
-          <t>829.7</t>
-        </is>
-      </c>
+      <c r="AV169" t="inlineStr"/>
+      <c r="AW169" t="inlineStr"/>
       <c r="AX169" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="AY169" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="AZ169" t="inlineStr">
-        <is>
-          <t>829.7</t>
-        </is>
-      </c>
-      <c r="BA169" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
+      <c r="AY169" t="inlineStr"/>
+      <c r="AZ169" t="inlineStr"/>
+      <c r="BA169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
@@ -37995,7 +37895,7 @@
       </c>
       <c r="H170" t="inlineStr">
         <is>
-          <t>2026-02-05 09:15:32</t>
+          <t>2026-02-05 10:07:00</t>
         </is>
       </c>
       <c r="I170" t="inlineStr">
@@ -38009,18 +37909,14 @@
         </is>
       </c>
       <c r="K170" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="L170" t="inlineStr">
         <is>
-          <t>Període TU, TM °C, TX °C, TN °C, HRM %, PPT mm, GN cm, VVM (10 m) km/h, DVM (10 m) graus, VVX (10 m) km/h, PM hPa, RS W/m 2</t>
-        </is>
-      </c>
-      <c r="M170" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
+          <t>Període TU, TM °C, TX °C, TN °C, HRM %, PPT mm, GN cm, PM hPa, RS W/m 2</t>
+        </is>
+      </c>
+      <c r="M170" t="inlineStr"/>
       <c r="N170" t="inlineStr"/>
       <c r="O170" t="inlineStr"/>
       <c r="P170" t="inlineStr">
@@ -38068,18 +37964,10 @@
           <t>-3.8</t>
         </is>
       </c>
-      <c r="Y170" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
+      <c r="Y170" t="inlineStr"/>
       <c r="Z170" t="inlineStr"/>
       <c r="AA170" t="inlineStr"/>
-      <c r="AB170" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
+      <c r="AB170" t="inlineStr"/>
       <c r="AC170" t="inlineStr"/>
       <c r="AD170" t="inlineStr"/>
       <c r="AE170" t="inlineStr">
@@ -38119,7 +38007,7 @@
       </c>
       <c r="AL170" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>829.6</t>
         </is>
       </c>
       <c r="AM170" t="inlineStr">
@@ -38159,7 +38047,7 @@
       </c>
       <c r="AT170" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>829.6</t>
         </is>
       </c>
       <c r="AU170" t="inlineStr">
@@ -38167,36 +38055,16 @@
           <t>0</t>
         </is>
       </c>
-      <c r="AV170" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="AW170" t="inlineStr">
-        <is>
-          <t>829.6</t>
-        </is>
-      </c>
+      <c r="AV170" t="inlineStr"/>
+      <c r="AW170" t="inlineStr"/>
       <c r="AX170" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="AY170" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="AZ170" t="inlineStr">
-        <is>
-          <t>829.6</t>
-        </is>
-      </c>
-      <c r="BA170" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
+      <c r="AY170" t="inlineStr"/>
+      <c r="AZ170" t="inlineStr"/>
+      <c r="BA170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
@@ -38236,7 +38104,7 @@
       </c>
       <c r="H171" t="inlineStr">
         <is>
-          <t>2026-02-05 09:15:32</t>
+          <t>2026-02-05 10:07:00</t>
         </is>
       </c>
       <c r="I171" t="inlineStr">
@@ -38250,18 +38118,14 @@
         </is>
       </c>
       <c r="K171" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="L171" t="inlineStr">
         <is>
-          <t>Període TU, TM °C, TX °C, TN °C, HRM %, PPT mm, GN cm, VVM (10 m) km/h, DVM (10 m) graus, VVX (10 m) km/h, PM hPa, RS W/m 2</t>
-        </is>
-      </c>
-      <c r="M171" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
+          <t>Període TU, TM °C, TX °C, TN °C, HRM %, PPT mm, GN cm, PM hPa, RS W/m 2</t>
+        </is>
+      </c>
+      <c r="M171" t="inlineStr"/>
       <c r="N171" t="inlineStr"/>
       <c r="O171" t="inlineStr"/>
       <c r="P171" t="inlineStr">
@@ -38309,18 +38173,10 @@
           <t>-3.9</t>
         </is>
       </c>
-      <c r="Y171" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
+      <c r="Y171" t="inlineStr"/>
       <c r="Z171" t="inlineStr"/>
       <c r="AA171" t="inlineStr"/>
-      <c r="AB171" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
+      <c r="AB171" t="inlineStr"/>
       <c r="AC171" t="inlineStr"/>
       <c r="AD171" t="inlineStr"/>
       <c r="AE171" t="inlineStr">
@@ -38360,7 +38216,7 @@
       </c>
       <c r="AL171" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>829.7</t>
         </is>
       </c>
       <c r="AM171" t="inlineStr">
@@ -38400,7 +38256,7 @@
       </c>
       <c r="AT171" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>829.7</t>
         </is>
       </c>
       <c r="AU171" t="inlineStr">
@@ -38408,36 +38264,16 @@
           <t>0</t>
         </is>
       </c>
-      <c r="AV171" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="AW171" t="inlineStr">
-        <is>
-          <t>829.7</t>
-        </is>
-      </c>
+      <c r="AV171" t="inlineStr"/>
+      <c r="AW171" t="inlineStr"/>
       <c r="AX171" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="AY171" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="AZ171" t="inlineStr">
-        <is>
-          <t>829.7</t>
-        </is>
-      </c>
-      <c r="BA171" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
+      <c r="AY171" t="inlineStr"/>
+      <c r="AZ171" t="inlineStr"/>
+      <c r="BA171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
@@ -38462,7 +38298,7 @@
       </c>
       <c r="E172" t="inlineStr">
         <is>
-          <t>07:30 - 08:00</t>
+          <t>08:30 - 09:00</t>
         </is>
       </c>
       <c r="F172" t="inlineStr">
@@ -38477,17 +38313,17 @@
       </c>
       <c r="H172" t="inlineStr">
         <is>
-          <t>2026-02-05 09:15:35</t>
+          <t>2026-02-05 10:07:02</t>
         </is>
       </c>
       <c r="I172" t="inlineStr">
         <is>
-          <t>08:30</t>
+          <t>09:30</t>
         </is>
       </c>
       <c r="J172" t="inlineStr">
         <is>
-          <t>https://www.meteo.cat/observacions/xema/dades?codi=D7&amp;dia=2026-02-05T08:30Z</t>
+          <t>https://www.meteo.cat/observacions/xema/dades?codi=D7&amp;dia=2026-02-05T09:30Z</t>
         </is>
       </c>
       <c r="K172" t="n">
@@ -38500,7 +38336,7 @@
       </c>
       <c r="M172" t="inlineStr">
         <is>
-          <t>82</t>
+          <t>341</t>
         </is>
       </c>
       <c r="N172" t="inlineStr"/>
@@ -38513,37 +38349,37 @@
       </c>
       <c r="R172" t="inlineStr">
         <is>
-          <t>995.0</t>
+          <t>993.9</t>
         </is>
       </c>
       <c r="S172" t="inlineStr">
         <is>
-          <t>0.6</t>
+          <t>0.3</t>
         </is>
       </c>
       <c r="T172" t="inlineStr">
         <is>
-          <t>07:30 - 08:00</t>
+          <t>08:30 - 09:00</t>
         </is>
       </c>
       <c r="U172" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>24</t>
         </is>
       </c>
       <c r="V172" t="inlineStr">
         <is>
-          <t>6.3</t>
+          <t>6.6</t>
         </is>
       </c>
       <c r="W172" t="inlineStr">
         <is>
-          <t>6.2</t>
+          <t>6.5</t>
         </is>
       </c>
       <c r="X172" t="inlineStr">
         <is>
-          <t>6.4</t>
+          <t>6.7</t>
         </is>
       </c>
       <c r="Y172" t="inlineStr">
@@ -38555,29 +38391,29 @@
       <c r="AA172" t="inlineStr"/>
       <c r="AB172" t="inlineStr">
         <is>
-          <t>4.3</t>
+          <t>5.8</t>
         </is>
       </c>
       <c r="AC172" t="inlineStr"/>
       <c r="AD172" t="inlineStr"/>
       <c r="AE172" t="inlineStr">
         <is>
-          <t>07:30 - 08:00</t>
+          <t>08:30 - 09:00</t>
         </is>
       </c>
       <c r="AF172" t="inlineStr">
         <is>
-          <t>6.3</t>
+          <t>6.6</t>
         </is>
       </c>
       <c r="AG172" t="inlineStr">
         <is>
-          <t>6.4</t>
+          <t>6.7</t>
         </is>
       </c>
       <c r="AH172" t="inlineStr">
         <is>
-          <t>6.2</t>
+          <t>6.5</t>
         </is>
       </c>
       <c r="AI172" t="inlineStr">
@@ -38587,7 +38423,7 @@
       </c>
       <c r="AJ172" t="inlineStr">
         <is>
-          <t>0.6</t>
+          <t>0.3</t>
         </is>
       </c>
       <c r="AK172" t="inlineStr">
@@ -38597,27 +38433,27 @@
       </c>
       <c r="AL172" t="inlineStr">
         <is>
-          <t>82</t>
+          <t>341</t>
         </is>
       </c>
       <c r="AM172" t="inlineStr">
         <is>
-          <t>07:30 - 08:00</t>
+          <t>08:30 - 09:00</t>
         </is>
       </c>
       <c r="AN172" t="inlineStr">
         <is>
-          <t>6.3</t>
+          <t>6.6</t>
         </is>
       </c>
       <c r="AO172" t="inlineStr">
         <is>
-          <t>6.4</t>
+          <t>6.7</t>
         </is>
       </c>
       <c r="AP172" t="inlineStr">
         <is>
-          <t>6.2</t>
+          <t>6.5</t>
         </is>
       </c>
       <c r="AQ172" t="inlineStr">
@@ -38627,7 +38463,7 @@
       </c>
       <c r="AR172" t="inlineStr">
         <is>
-          <t>0.6</t>
+          <t>0.3</t>
         </is>
       </c>
       <c r="AS172" t="inlineStr">
@@ -38637,37 +38473,37 @@
       </c>
       <c r="AT172" t="inlineStr">
         <is>
-          <t>82</t>
+          <t>341</t>
         </is>
       </c>
       <c r="AU172" t="inlineStr">
         <is>
-          <t>4.3</t>
+          <t>5.8</t>
         </is>
       </c>
       <c r="AV172" t="inlineStr">
         <is>
-          <t>995.0</t>
+          <t>993.9</t>
         </is>
       </c>
       <c r="AW172" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>24</t>
         </is>
       </c>
       <c r="AX172" t="inlineStr">
         <is>
-          <t>4.3</t>
+          <t>5.8</t>
         </is>
       </c>
       <c r="AY172" t="inlineStr">
         <is>
-          <t>995.0</t>
+          <t>993.9</t>
         </is>
       </c>
       <c r="AZ172" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>24</t>
         </is>
       </c>
       <c r="BA172" t="inlineStr"/>
@@ -38710,7 +38546,7 @@
       </c>
       <c r="H173" t="inlineStr">
         <is>
-          <t>2026-02-05 09:15:36</t>
+          <t>2026-02-05 10:07:04</t>
         </is>
       </c>
       <c r="I173" t="inlineStr">
@@ -38943,7 +38779,7 @@
       </c>
       <c r="H174" t="inlineStr">
         <is>
-          <t>2026-02-05 09:15:36</t>
+          <t>2026-02-05 10:07:04</t>
         </is>
       </c>
       <c r="I174" t="inlineStr">
@@ -39176,7 +39012,7 @@
       </c>
       <c r="H175" t="inlineStr">
         <is>
-          <t>2026-02-05 09:15:36</t>
+          <t>2026-02-05 10:07:04</t>
         </is>
       </c>
       <c r="I175" t="inlineStr">
@@ -39409,7 +39245,7 @@
       </c>
       <c r="H176" t="inlineStr">
         <is>
-          <t>2026-02-05 09:15:36</t>
+          <t>2026-02-05 10:07:04</t>
         </is>
       </c>
       <c r="I176" t="inlineStr">
@@ -39681,7 +39517,7 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>https://www.meteo.cat/observacions/xema/dades?codi=YT&amp;dia=2026-02-05T08:30Z</t>
+          <t>https://www.meteo.cat/observacions/xema/dades?codi=YT&amp;dia=2026-02-05T09:30Z</t>
         </is>
       </c>
     </row>
@@ -39711,7 +39547,7 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>https://www.meteo.cat/observacions/xema/dades?codi=Z1&amp;dia=2026-02-05T08:30Z</t>
+          <t>https://www.meteo.cat/observacions/xema/dades?codi=Z1&amp;dia=2026-02-05T09:30Z</t>
         </is>
       </c>
     </row>
@@ -39741,7 +39577,7 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>https://www.meteo.cat/observacions/xema/dades?codi=DN&amp;dia=2026-02-05T08:30Z</t>
+          <t>https://www.meteo.cat/observacions/xema/dades?codi=DN&amp;dia=2026-02-05T09:30Z</t>
         </is>
       </c>
     </row>
@@ -39771,7 +39607,7 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>https://www.meteo.cat/observacions/xema/dades?codi=DJ&amp;dia=2026-02-05T08:30Z</t>
+          <t>https://www.meteo.cat/observacions/xema/dades?codi=DJ&amp;dia=2026-02-05T09:30Z</t>
         </is>
       </c>
     </row>
@@ -39801,7 +39637,7 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>https://www.meteo.cat/observacions/xema/dades?codi=X4&amp;dia=2026-02-05T08:30Z</t>
+          <t>https://www.meteo.cat/observacions/xema/dades?codi=X4&amp;dia=2026-02-05T09:30Z</t>
         </is>
       </c>
     </row>
@@ -39831,7 +39667,7 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>https://www.meteo.cat/observacions/xema/dades?codi=D5&amp;dia=2026-02-05T08:30Z</t>
+          <t>https://www.meteo.cat/observacions/xema/dades?codi=D5&amp;dia=2026-02-05T09:30Z</t>
         </is>
       </c>
     </row>
@@ -39861,7 +39697,7 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>https://www.meteo.cat/observacions/xema/dades?codi=UN&amp;dia=2026-02-05T08:30Z</t>
+          <t>https://www.meteo.cat/observacions/xema/dades?codi=UN&amp;dia=2026-02-05T09:30Z</t>
         </is>
       </c>
     </row>
@@ -39891,7 +39727,7 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>https://www.meteo.cat/observacions/xema/dades?codi=MS&amp;dia=2026-02-05T08:30Z</t>
+          <t>https://www.meteo.cat/observacions/xema/dades?codi=MS&amp;dia=2026-02-05T09:30Z</t>
         </is>
       </c>
     </row>
@@ -39921,7 +39757,7 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>https://www.meteo.cat/observacions/xema/dades?codi=W1&amp;dia=2026-02-05T08:30Z</t>
+          <t>https://www.meteo.cat/observacions/xema/dades?codi=W1&amp;dia=2026-02-05T09:30Z</t>
         </is>
       </c>
     </row>
@@ -39951,7 +39787,7 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>https://www.meteo.cat/observacions/xema/dades?codi=DP&amp;dia=2026-02-05T08:30Z</t>
+          <t>https://www.meteo.cat/observacions/xema/dades?codi=DP&amp;dia=2026-02-05T09:30Z</t>
         </is>
       </c>
     </row>
@@ -39981,7 +39817,7 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>https://www.meteo.cat/observacions/xema/dades?codi=XL&amp;dia=2026-02-05T08:30Z</t>
+          <t>https://www.meteo.cat/observacions/xema/dades?codi=XL&amp;dia=2026-02-05T09:30Z</t>
         </is>
       </c>
     </row>
@@ -40011,7 +39847,7 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>https://www.meteo.cat/observacions/xema/dades?codi=VZ&amp;dia=2026-02-05T08:30Z</t>
+          <t>https://www.meteo.cat/observacions/xema/dades?codi=VZ&amp;dia=2026-02-05T09:30Z</t>
         </is>
       </c>
     </row>
@@ -40041,7 +39877,7 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>https://www.meteo.cat/observacions/xema/dades?codi=Z7&amp;dia=2026-02-05T08:30Z</t>
+          <t>https://www.meteo.cat/observacions/xema/dades?codi=Z7&amp;dia=2026-02-05T09:30Z</t>
         </is>
       </c>
     </row>
@@ -40071,7 +39907,7 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>https://www.meteo.cat/observacions/xema/dades?codi=XJ&amp;dia=2026-02-05T08:30Z</t>
+          <t>https://www.meteo.cat/observacions/xema/dades?codi=XJ&amp;dia=2026-02-05T09:30Z</t>
         </is>
       </c>
     </row>
@@ -40101,7 +39937,7 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>https://www.meteo.cat/observacions/xema/dades?codi=YU&amp;dia=2026-02-05T08:30Z</t>
+          <t>https://www.meteo.cat/observacions/xema/dades?codi=YU&amp;dia=2026-02-05T09:30Z</t>
         </is>
       </c>
     </row>
@@ -40131,7 +39967,7 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>https://www.meteo.cat/observacions/xema/dades?codi=CD&amp;dia=2026-02-05T08:30Z</t>
+          <t>https://www.meteo.cat/observacions/xema/dades?codi=CD&amp;dia=2026-02-05T09:30Z</t>
         </is>
       </c>
     </row>
@@ -40161,7 +39997,7 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>https://www.meteo.cat/observacions/xema/dades?codi=Z2&amp;dia=2026-02-05T08:30Z</t>
+          <t>https://www.meteo.cat/observacions/xema/dades?codi=Z2&amp;dia=2026-02-05T09:30Z</t>
         </is>
       </c>
     </row>
@@ -40191,7 +40027,7 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>https://www.meteo.cat/observacions/xema/dades?codi=VK&amp;dia=2026-02-05T08:30Z</t>
+          <t>https://www.meteo.cat/observacions/xema/dades?codi=VK&amp;dia=2026-02-05T09:30Z</t>
         </is>
       </c>
     </row>
@@ -40221,7 +40057,7 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>https://www.meteo.cat/observacions/xema/dades?codi=Z3&amp;dia=2026-02-05T08:30Z</t>
+          <t>https://www.meteo.cat/observacions/xema/dades?codi=Z3&amp;dia=2026-02-05T09:30Z</t>
         </is>
       </c>
     </row>
@@ -40251,7 +40087,7 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>https://www.meteo.cat/observacions/xema/dades?codi=YB&amp;dia=2026-02-05T08:30Z</t>
+          <t>https://www.meteo.cat/observacions/xema/dades?codi=YB&amp;dia=2026-02-05T09:30Z</t>
         </is>
       </c>
     </row>
@@ -40281,7 +40117,7 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>https://www.meteo.cat/observacions/xema/dades?codi=YP&amp;dia=2026-02-05T08:30Z</t>
+          <t>https://www.meteo.cat/observacions/xema/dades?codi=YP&amp;dia=2026-02-05T09:30Z</t>
         </is>
       </c>
     </row>
@@ -40311,7 +40147,7 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>https://www.meteo.cat/observacions/xema/dades?codi=J5&amp;dia=2026-02-05T08:30Z</t>
+          <t>https://www.meteo.cat/observacions/xema/dades?codi=J5&amp;dia=2026-02-05T09:30Z</t>
         </is>
       </c>
     </row>
@@ -40341,7 +40177,7 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>https://www.meteo.cat/observacions/xema/dades?codi=D6&amp;dia=2026-02-05T08:30Z</t>
+          <t>https://www.meteo.cat/observacions/xema/dades?codi=D6&amp;dia=2026-02-05T09:30Z</t>
         </is>
       </c>
     </row>
@@ -40371,7 +40207,7 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>https://www.meteo.cat/observacions/xema/dades?codi=YA&amp;dia=2026-02-05T08:30Z</t>
+          <t>https://www.meteo.cat/observacions/xema/dades?codi=YA&amp;dia=2026-02-05T09:30Z</t>
         </is>
       </c>
     </row>
@@ -40401,7 +40237,7 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>https://www.meteo.cat/observacions/xema/dades?codi=DG&amp;dia=2026-02-05T08:30Z</t>
+          <t>https://www.meteo.cat/observacions/xema/dades?codi=DG&amp;dia=2026-02-05T09:30Z</t>
         </is>
       </c>
     </row>
@@ -40431,7 +40267,7 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>https://www.meteo.cat/observacions/xema/dades?codi=D4&amp;dia=2026-02-05T08:30Z</t>
+          <t>https://www.meteo.cat/observacions/xema/dades?codi=D4&amp;dia=2026-02-05T09:30Z</t>
         </is>
       </c>
     </row>
@@ -40461,7 +40297,7 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>https://www.meteo.cat/observacions/xema/dades?codi=CI&amp;dia=2026-02-05T08:30Z</t>
+          <t>https://www.meteo.cat/observacions/xema/dades?codi=CI&amp;dia=2026-02-05T09:30Z</t>
         </is>
       </c>
     </row>
@@ -40491,7 +40327,7 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>https://www.meteo.cat/observacions/xema/dades?codi=XS&amp;dia=2026-02-05T08:30Z</t>
+          <t>https://www.meteo.cat/observacions/xema/dades?codi=XS&amp;dia=2026-02-05T09:30Z</t>
         </is>
       </c>
     </row>
@@ -40521,7 +40357,7 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>https://www.meteo.cat/observacions/xema/dades?codi=ZC&amp;dia=2026-02-05T08:30Z</t>
+          <t>https://www.meteo.cat/observacions/xema/dades?codi=ZC&amp;dia=2026-02-05T09:30Z</t>
         </is>
       </c>
     </row>
@@ -40551,7 +40387,7 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>https://www.meteo.cat/observacions/xema/dades?codi=XH&amp;dia=2026-02-05T08:30Z</t>
+          <t>https://www.meteo.cat/observacions/xema/dades?codi=XH&amp;dia=2026-02-05T09:30Z</t>
         </is>
       </c>
     </row>
@@ -40581,7 +40417,7 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>https://www.meteo.cat/observacions/xema/dades?codi=XE&amp;dia=2026-02-05T08:30Z</t>
+          <t>https://www.meteo.cat/observacions/xema/dades?codi=XE&amp;dia=2026-02-05T09:30Z</t>
         </is>
       </c>
     </row>
@@ -40611,7 +40447,7 @@
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>https://www.meteo.cat/observacions/xema/dades?codi=UE&amp;dia=2026-02-05T08:30Z</t>
+          <t>https://www.meteo.cat/observacions/xema/dades?codi=UE&amp;dia=2026-02-05T09:30Z</t>
         </is>
       </c>
     </row>
@@ -40641,7 +40477,7 @@
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>https://www.meteo.cat/observacions/xema/dades?codi=XO&amp;dia=2026-02-05T08:30Z</t>
+          <t>https://www.meteo.cat/observacions/xema/dades?codi=XO&amp;dia=2026-02-05T09:30Z</t>
         </is>
       </c>
     </row>
@@ -40671,7 +40507,7 @@
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>https://www.meteo.cat/observacions/xema/dades?codi=VS&amp;dia=2026-02-05T08:30Z</t>
+          <t>https://www.meteo.cat/observacions/xema/dades?codi=VS&amp;dia=2026-02-05T09:30Z</t>
         </is>
       </c>
     </row>
@@ -40701,7 +40537,7 @@
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>https://www.meteo.cat/observacions/xema/dades?codi=D7&amp;dia=2026-02-05T08:30Z</t>
+          <t>https://www.meteo.cat/observacions/xema/dades?codi=D7&amp;dia=2026-02-05T09:30Z<